--- a/1000_IMDB_Movies_Cleaned.xlsx
+++ b/1000_IMDB_Movies_Cleaned.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Great fun !', 'Great chemistry set rest series', 'Good Start Series', 'Charming Endearing !', 'Part 1', 'Good long strong characters', 'First Harrry Potter entry makes friends battles mysterious evil forces', 'Where began .', 'Off Successful Start', 'A Surprise', 'DVD owners please read .', 'Yes , I believe deserves 8 , 9 , 10 votes gotten .', 'The magic begins', 'Overrated entertaining', 'Pure magic watch kids !', "We 're Off See Wizard", 'REVIEWED IN 2020 ... SINGULARLY ... APART FROM THE BOOK AND THE SEQUELS', 'Surprisingly good', 'Ahh , magic begins .', 'Bloody Brilliant ? Bloody Crap More Like', 'Harry Potter bore !', 'Long , pretty good', 'Lacks emotional warmth `` ET `` ... John Williams letdown ...', 'Nice', 'A Fantasy Film Suitable Entire Family']</t>
+          <t>['Great fun ', 'Great chemistry set rest series', 'Good Start Series', 'Charming Endearing ', 'Part 1', 'Good long strong characters', 'First Harrry Potter entry makes friends battles mysterious evil forces', 'Where began ', 'Off Successful Start', 'A Surprise', 'DVD owners please read ', 'Yes  I believe deserves 8  9  10 votes gotten ', 'The magic begins', 'Overrated entertaining', 'Pure magic watch kids ', 'We re Off See Wizard', 'REVIEWED IN 2020  SINGULARLY  APART FROM THE BOOK AND THE SEQUELS', 'Surprisingly good', 'Ahh  magic begins ', 'Bloody Brilliant  Bloody Crap More Like', 'Harry Potter bore ', 'Long  pretty good', 'Lacks emotional warmth  ET   John Williams letdown ', 'Nice', 'A Fantasy Film Suitable Entire Family']</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Really good ... incredibly bloody awful ending .', 'A dazzling time Hollywood', "That 's", 'Inglourious Hollywood Basterds', 'All Character', 'provocative', 'Once Upon Time ... Hollywood', "It 's like warm film , warm ending .", 'The long', 'Mediocre Overrated Film', 'Slickly made many ways , content unfocused , messy , reliant delivery moment bigger picture', "Enjoyable movie tarnished television actor stuntsman strive achieve fame fortune 60 's Hollywood", 'lot went fifty summers ago', "Tarantino 's homage late '60s Hollywood", 'Tarantino gives us recollection Hollywood 1969 , even though 6 ..', 'Tarantino retells Hollywood , film , TV revives history like one .', 'Why 161 minutes ?', 'Once Upon Time ... Hollywood another worthy Quentin Tarantino film', 'I like QT film best', "TARANTINO 'S TALL TALE ... A LOVE LETTER TO THE PEOPLE AND PLACE WHERE MOVIES ARE BORN", 'Superb : another great piece movie-making Quentin Tarantino', 'Both fascinating frustrating', 'Yayyy', 'I would rate lowest Tarantino films', 'A rich fictional story , real Moment In Time , Tarantino could tell']</t>
+          <t>['Really good  incredibly bloody awful ending ', 'A dazzling time Hollywood', 'That s', 'Inglourious Hollywood Basterds', 'All Character', 'provocative', 'Once Upon Time  Hollywood', 'It s like warm film  warm ending ', 'The long', 'Mediocre Overrated Film', 'Slickly made many ways  content unfocused  messy  reliant delivery moment bigger picture', 'Enjoyable movie tarnished television actor stuntsman strive achieve fame fortune 60 s Hollywood', 'lot went fifty summers ago', 'Tarantino s homage late 60s Hollywood', 'Tarantino gives us recollection Hollywood 1969  even though 6 ', 'Tarantino retells Hollywood  film  TV revives history like one ', 'Why 161 minutes ', 'Once Upon Time  Hollywood another worthy Quentin Tarantino film', 'I like QT film best', 'TARANTINO S TALL TALE  A LOVE LETTER TO THE PEOPLE AND PLACE WHERE MOVIES ARE BORN', 'Superb  another great piece moviemaking Quentin Tarantino', 'Both fascinating frustrating', 'Yayyy', 'I would rate lowest Tarantino films', 'A rich fictional story  real Moment In Time  Tarantino could tell']</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['useful', 'American Psycho', 'Behind Mask', 'Not perfect much better self indulgent book', 'A violent bloody film controversial best-seller Bret Easton Ellis .', "searing indictment '80s yuppies", 'Businessman Bateman makes killing , work home .', 'Dark Commentary 80s Wall Street Culture', 'One Best films year', 'Still crazy ( overrated ) years ...', 'Manic', 'Prim always proper .', 'The Undiagnosed Psychopaths', 'Superb', 'Referential Wrappers Dummies', 'Some Information Missing', 'Good acting , well-made GOOD', 'Hollow Suits ...', 'Not quite blonde , ? More dirty blonde .', 'The fabulous , insane Patrick Bateman .', 'The opposite `` Deathwish ``', 'even really bad 80s music fits', "'Darkness darkness sectional ' - Gertrude Stein", 'Great , except end', "A psychological ambiguous piece 's uncomfortable satirical ."]</t>
+          <t>['useful', 'American Psycho', 'Behind Mask', 'Not perfect much better self indulgent book', 'A violent bloody film controversial bestseller Bret Easton Ellis ', 'searing indictment 80s yuppies', 'Businessman Bateman makes killing  work home ', 'Dark Commentary 80s Wall Street Culture', 'One Best films year', 'Still crazy  overrated  years ', 'Manic', 'Prim always proper ', 'The Undiagnosed Psychopaths', 'Superb', 'Referential Wrappers Dummies', 'Some Information Missing', 'Good acting  wellmade GOOD', 'Hollow Suits ', 'Not quite blonde   More dirty blonde ', 'The fabulous  insane Patrick Bateman ', 'The opposite  Deathwish ', 'even really bad 80s music fits', 'Darkness darkness sectional   Gertrude Stein', 'Great  except end', 'A psychological ambiguous piece s uncomfortable satirical ']</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Fun 80s icon', 'Classic Action Gory Detail', 'Reborn', 'Classic science fiction film full excess , humour satire', "I 'll buy dollar ...", 'You got ta love Dutch comes directing .', "An '80 Action Classic", 'You OCP ? ( Yeah know )', 'Detroit , As We All Know It Really Is', 'Too Profane &amp; Violent For The Audience It Sought', 'Brutal satisfying', 'exceeds expectations B-level sci-fi thriller one smartest science fiction satires 80s', 'Directive 4 : assure everlasting Sci-Fi entertainment', "RoboCop Paul Verhoeven 's classic sci-fi action picture", 'My name Murphy', 'Cutting-Edge Classic Sci-Fi Satire Reagan-Era Corporate Fascism', "They 'll fix . They fix everything .", "80s Classic That Did n't Need Remaking", 'Bring Robo Police Force', 'Loud violent', 'A Cyborg Cop Dystopian Detroit', '`` You Now Have Ten Seconds To Comply ! `` ...', 'Stay Out Trouble', 'As smart violent ; unexpectedly fulfilling genre romp', "Nasty Escapist Action Film Is n't Much Fun"]</t>
+          <t>['Fun 80s icon', 'Classic Action Gory Detail', 'Reborn', 'Classic science fiction film full excess  humour satire', 'I ll buy dollar ', 'You got ta love Dutch comes directing ', 'An 80 Action Classic', 'You OCP   Yeah know ', 'Detroit  As We All Know It Really Is', 'Too Profane  Violent For The Audience It Sought', 'Brutal satisfying', 'exceeds expectations Blevel scifi thriller one smartest science fiction satires 80s', 'Directive 4  assure everlasting SciFi entertainment', 'RoboCop Paul Verhoeven s classic scifi action picture', 'My name Murphy', 'CuttingEdge Classic SciFi Satire ReaganEra Corporate Fascism', 'They ll fix  They fix everything ', '80s Classic That Did nt Need Remaking', 'Bring Robo Police Force', 'Loud violent', 'A Cyborg Cop Dystopian Detroit', ' You Now Have Ten Seconds To Comply   ', 'Stay Out Trouble', 'As smart violent  unexpectedly fulfilling genre romp', 'Nasty Escapist Action Film Is nt Much Fun']</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['A puzzling game worth playing', 'convoluted bloody fun', 'Decent', 'They came , SAW altered ( Horror Movies )', 'Slick thriller mould Se7en covers writing weaknesses consistent tension &amp; urgency', 'Great movie start franchise ...', 'Original terror movie originates successful franchise', "I 'm embarrassed I `` saw `` movie", 'Let The Game Begin ...', 'The First Great Franchise Twenty-First Century', 'Derivative , cheapjack formula nauseates instead intrigues ...', 'James Wan Leigh Whannell Take Us Bathroom', 'Profiteering', 'Better expected', 'A game choice part', 'Very unpleasant IS horror film', 'Carpentry', '`` Let The Game Begin ! `` ...', 'This masterpiece addition horror genre', 'Somewhat disappointing still enjoyable enough', "This fun I 've without lubricant !", 'The biggest surprise 2004 .', 'An experiment , mostly successful one', 'A cut rest .', 'Strong effective part']</t>
+          <t>['A puzzling game worth playing', 'convoluted bloody fun', 'Decent', 'They came  SAW altered  Horror Movies ', 'Slick thriller mould Se7en covers writing weaknesses consistent tension  urgency', 'Great movie start franchise ', 'Original terror movie originates successful franchise', 'I m embarrassed I  saw  movie', 'Let The Game Begin ', 'The First Great Franchise TwentyFirst Century', 'Derivative  cheapjack formula nauseates instead intrigues ', 'James Wan Leigh Whannell Take Us Bathroom', 'Profiteering', 'Better expected', 'A game choice part', 'Very unpleasant IS horror film', 'Carpentry', ' Let The Game Begin   ', 'This masterpiece addition horror genre', 'Somewhat disappointing still enjoyable enough', 'This fun I ve without lubricant ', 'The biggest surprise 2004 ', 'An experiment  mostly successful one', 'A cut rest ', 'Strong effective part']</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Aside Chris Tucker , I loved film !', 'Hugely imaginative enjoyable', 'Luc Besson creates fun sci-fi', 'Funny Entertaining', 'Plot wise weak rather silly , weak points great fun good sense energy wonderful design', "You tell movie torn Bruce Willis 's shirt .", 'Better With Age ?', 'Tucker Ruins An Otherwise-Fun Film', 'Hardware overload ... immature instead audacious', 'perfect element perfect movie', '`` Does anybody else want negotiate ? ``', 'Korben , man .', 'Camp Comic Book Comedy', 'Negative , I meat Popsicle .', 'Tries To Show Off Too Much', "I got I n't get", 'Funny', 'Milla Jovovich : Savior Of The Universe ...', 'Such adorable action comedy', 'THE FIFTH ELEMENT ( Luc Besson , 1997 ) * * 1/2', 'The settings , storyline , characters , costumes special effects unique science fiction gold .', 'Oddly appealing , pulled many annoying elements', 'Science fiction , action comedy Bruce Willis young Milla Jovavich .', 'Entertaining sci-fi well-chosen star', 'plain fun']</t>
+          <t>['Aside Chris Tucker  I loved film ', 'Hugely imaginative enjoyable', 'Luc Besson creates fun scifi', 'Funny Entertaining', 'Plot wise weak rather silly  weak points great fun good sense energy wonderful design', 'You tell movie torn Bruce Willis s shirt ', 'Better With Age ', 'Tucker Ruins An OtherwiseFun Film', 'Hardware overload  immature instead audacious', 'perfect element perfect movie', ' Does anybody else want negotiate  ', 'Korben  man ', 'Camp Comic Book Comedy', 'Negative  I meat Popsicle ', 'Tries To Show Off Too Much', 'I got I nt get', 'Funny', 'Milla Jovovich  Savior Of The Universe ', 'Such adorable action comedy', 'THE FIFTH ELEMENT  Luc Besson  1997    12', 'The settings  storyline  characters  costumes special effects unique science fiction gold ', 'Oddly appealing  pulled many annoying elements', 'Science fiction  action comedy Bruce Willis young Milla Jovavich ', 'Entertaining scifi wellchosen star', 'plain fun']</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['A stylistic triumph , somewhat lacking', 'Hyper-stylised ancient battles gem action cinema', "Zack Snyder 's brilliant vision", 'Nice Action Film', 'About time', 'A Cartoonist Violent Remake', "Visceral , violent visually stunning point lack much else n't really matter", 'This ... Is ... Well know rest ...', 'A major disappointment .', 'Computer-Effects Extravaganza Better Than I Expected', '`` Our arrows blot sun ! `` ... `` Then fight shade . ``', "one elaborate , yet shallow exercises 21st century epic style 'll see year", '300 millions I like odds !', 'Beautiful cinematography', 'Captivating breathtaking !', 'Over Ripe Overrated ... Shallow Shameless', 'Had potential end result contains far style substance', 'One-Eyed Reporter', 'Despite Several Flaws A Very Memorable Movie', '`` 300 `` insulting many levels', 'A striking visual feast stunning audio experience ...', 'Great visuals almost hide lack story connection reality', '300 ( Zack Snyder , 2006 ) * * *', "This movie masterpiece often gets downplayed stylish , artistic well done ... people look holes n't", 'Made Big Screen']</t>
+          <t>['A stylistic triumph  somewhat lacking', 'Hyperstylised ancient battles gem action cinema', 'Zack Snyder s brilliant vision', 'Nice Action Film', 'About time', 'A Cartoonist Violent Remake', 'Visceral  violent visually stunning point lack much else nt really matter', 'This  Is  Well know rest ', 'A major disappointment ', 'ComputerEffects Extravaganza Better Than I Expected', ' Our arrows blot sun     Then fight shade  ', 'one elaborate  yet shallow exercises 21st century epic style ll see year', '300 millions I like odds ', 'Beautiful cinematography', 'Captivating breathtaking ', 'Over Ripe Overrated  Shallow Shameless', 'Had potential end result contains far style substance', 'OneEyed Reporter', 'Despite Several Flaws A Very Memorable Movie', ' 300  insulting many levels', 'A striking visual feast stunning audio experience ', 'Great visuals almost hide lack story connection reality', '300  Zack Snyder  2006    ', 'This movie masterpiece often gets downplayed stylish  artistic well done  people look holes nt', 'Made Big Screen']</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Well worth watching watchmen', 'dark ambitious world', 'Great adaptation', 'Dark Heroes Violent Bleak Alternate World', 'Not great film good physical reproduction book', 'I finally watched Watchmen .', 'A Movie Adaptation Worthy Comic', "super comic-book movie event exists - 's near perfect film", 'Superhero Noir', "Goodish special effects , 's", 'One Man , One Watch', 'The comic book geek blockbuster adults .', 'Needed Explanation', 'An exhausting movie fascinating', 'WATCHMEN { Theatrical Version } ( Zack Snyder , 2009 ) * * *', 'This could better less deviations book still masterpiece must see', "I n't mind smartest man world , I wish n't one .", "Entertaining -- If You 're 13-Year Old Serious Anti-Social Tendencies", "You 're ME !", 'Grand', 'The `` Apocalypse Now `` superhero films', 'As Good As Anyone Could Expect It To Be .', 'Comic book characters complex action , sci-fi , horror , crime violence', "`` I 'm Leaving This Galaxy Something Little Less Complicated ``", 'Good movie , certain parts film seemed keep dark .']</t>
+          <t>['Well worth watching watchmen', 'dark ambitious world', 'Great adaptation', 'Dark Heroes Violent Bleak Alternate World', 'Not great film good physical reproduction book', 'I finally watched Watchmen ', 'A Movie Adaptation Worthy Comic', 'super comicbook movie event exists  s near perfect film', 'Superhero Noir', 'Goodish special effects  s', 'One Man  One Watch', 'The comic book geek blockbuster adults ', 'Needed Explanation', 'An exhausting movie fascinating', 'WATCHMEN  Theatrical Version   Zack Snyder  2009    ', 'This could better less deviations book still masterpiece must see', 'I nt mind smartest man world  I wish nt one ', 'Entertaining  If You re 13Year Old Serious AntiSocial Tendencies', 'You re ME ', 'Grand', 'The  Apocalypse Now  superhero films', 'As Good As Anyone Could Expect It To Be ', 'Comic book characters complex action  scifi  horror  crime violence', ' I m Leaving This Galaxy Something Little Less Complicated ', 'Good movie  certain parts film seemed keep dark ']</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['`` I wan na go home ! ``', 'Paul Hackett annoys', 'Good Film', 'Nightmare Soho', 'Before Dawn', 'Surrealistic Adventure Soho After Hours', 'truth , really get feeling city night', 'A Forgotten Scorsese', 'After The Shock Wears Off ........', "Agonizing brilliant , `` After Hours `` n't leave much middle ground ...", 'When You See Mister Softee Truck - RUN !', 'Scorsese comedy - `` something incredible going happen ! ``', "Different rules apply 's After Hours .", "There 's reason one Scorsese 's least-known movies ...", "Scorsese 's Least Impressive Movie", 'Long Sitcom With No Laugh Track', 'An Uneasy Scorsese Experiment', 'like dream', 'A satisfying urban nightmare', 'Mildly entertaining', '`` I wan na go home ! ``', 'A Dark-Comedy Scorsese ...', 'Paul wants go home ...', 'Dark comedy monotony Scorsese', 'Great slice underrated ( dark ) film-making cinematic genius']</t>
+          <t>[' I wan na go home  ', 'Paul Hackett annoys', 'Good Film', 'Nightmare Soho', 'Before Dawn', 'Surrealistic Adventure Soho After Hours', 'truth  really get feeling city night', 'A Forgotten Scorsese', 'After The Shock Wears Off ', 'Agonizing brilliant   After Hours  nt leave much middle ground ', 'When You See Mister Softee Truck  RUN ', 'Scorsese comedy   something incredible going happen  ', 'Different rules apply s After Hours ', 'There s reason one Scorsese s leastknown movies ', 'Scorsese s Least Impressive Movie', 'Long Sitcom With No Laugh Track', 'An Uneasy Scorsese Experiment', 'like dream', 'A satisfying urban nightmare', 'Mildly entertaining', ' I wan na go home  ', 'A DarkComedy Scorsese ', 'Paul wants go home ', 'Dark comedy monotony Scorsese', 'Great slice underrated  dark  filmmaking cinematic genius']</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Hilarious Jonah Hill nerdy Michael Cera', 'Get drinks', 'Comedy Special', 'Still obvious genre comedy rises point thanks imaginative `` geeky `` touches', "The Spiritual Successor Ca n't Hardly Wait", "truly unabashedly immature teen-sex/party comedy , 's 100 % irresistible 15 year old", 'Superbad uneven teen-sex comedy still entertains', 'Impressive', 'Nothing new', 'Mclovin', 'okay , maybe little bit', 'Totally unexpected', 'A Tame Dirty Comedy', 'One I think people watching', 'Undeniably undoubtedly hilarious .', 'A wild night laid back feel good teen film !', 'One funniest movies decade !', 'A Nutshell Review : Superbad', 'notes', 'Regular ...', "I 'm Assuming 'Bad ' means 'Good '", 'Laugh-Out-Loud !', 'Inspired Lunacy', 'One teenage comedy extra wit soul', 'Superbad roller coaster movie good , bad , geeky']</t>
+          <t>['Hilarious Jonah Hill nerdy Michael Cera', 'Get drinks', 'Comedy Special', 'Still obvious genre comedy rises point thanks imaginative  geeky  touches', 'The Spiritual Successor Ca nt Hardly Wait', 'truly unabashedly immature teensexparty comedy  s 100  irresistible 15 year old', 'Superbad uneven teensex comedy still entertains', 'Impressive', 'Nothing new', 'Mclovin', 'okay  maybe little bit', 'Totally unexpected', 'A Tame Dirty Comedy', 'One I think people watching', 'Undeniably undoubtedly hilarious ', 'A wild night laid back feel good teen film ', 'One funniest movies decade ', 'A Nutshell Review  Superbad', 'notes', 'Regular ', 'I m Assuming Bad  means Good ', 'LaughOutLoud ', 'Inspired Lunacy', 'One teenage comedy extra wit soul', 'Superbad roller coaster movie good  bad  geeky']</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Extremely high quality , nothing hellish', 'Saving Howard homestead', 'old western motif modern times', 'A Current Day Western Three Great Performances', 'No country young men', 'Where go ( ? )', 'An Original Heist Film', 'Despite plotting conveniences , tense , honest , desperate , atmospheric , benefits strong performances', 'The Dude meets Capt . Kirk', 'An impressive modern western', 'A Surprising Joy', 'Cormac McCarthy-ish . Fine , importantly works', 'Good acting , boring movie .', 'The showdown worth watching', 'A worthy modern addition crime cinema .', 'Much atmosphere , little substance', 'An Outsider View Of America', 'better expected .', 'Unmitigated excellence', 'A Whine Rage Poor , Rural America', 'Bonnie Clyde Old Ranger', 'Southern bank robbers', 'Well crafted story', 'When words exciting bullets', "'Maybe one bank robbers gon na want gunfight I dodge retirement blaze glory . '"]</t>
+          <t>['Extremely high quality  nothing hellish', 'Saving Howard homestead', 'old western motif modern times', 'A Current Day Western Three Great Performances', 'No country young men', 'Where go   ', 'An Original Heist Film', 'Despite plotting conveniences  tense  honest  desperate  atmospheric  benefits strong performances', 'The Dude meets Capt  Kirk', 'An impressive modern western', 'A Surprising Joy', 'Cormac McCarthyish  Fine  importantly works', 'Good acting  boring movie ', 'The showdown worth watching', 'A worthy modern addition crime cinema ', 'Much atmosphere  little substance', 'An Outsider View Of America', 'better expected ', 'Unmitigated excellence', 'A Whine Rage Poor  Rural America', 'Bonnie Clyde Old Ranger', 'Southern bank robbers', 'Well crafted story', 'When words exciting bullets', 'Maybe one bank robbers gon na want gunfight I dodge retirement blaze glory  ']</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Far dead pool', 'So many walls ... torn', 'Pretty consistently entertaining despite bumps', 'Every bit enjoyable first movie ...', 'Deadpool back ; hilarious ever', 'Dead cool !', 'Second series , dark comedy irreverent anti-hero .', 'Deadpool 2 good predecessor', 'A brainless laugh', 'Hilariously funny : great follow-up first Deadpool movie', 'A Righteous Sequel', 'Good familiar', "It 's impossible like movies .", 'snarky irreverent redux', 'Second verse , first ... better , occasionally , worse', 'The humor makes Deadpool better superheroes .', 'Deadpool 2 review', "Goes full-on action movie , 's blast", "'Put hands behind knees get head ! '", 'parts long', "Feels kind like kids ' film , despite killing cursing .", 'The slow death R', "It 's irreverant fun like original .", 'Super Duper', 'Borepool']</t>
+          <t>['Far dead pool', 'So many walls  torn', 'Pretty consistently entertaining despite bumps', 'Every bit enjoyable first movie ', 'Deadpool back  hilarious ever', 'Dead cool ', 'Second series  dark comedy irreverent antihero ', 'Deadpool 2 good predecessor', 'A brainless laugh', 'Hilariously funny  great followup first Deadpool movie', 'A Righteous Sequel', 'Good familiar', 'It s impossible like movies ', 'snarky irreverent redux', 'Second verse  first  better  occasionally  worse', 'The humor makes Deadpool better superheroes ', 'Deadpool 2 review', 'Goes fullon action movie  s blast', 'Put hands behind knees get head  ', 'parts long', 'Feels kind like kids  film  despite killing cursing ', 'The slow death R', 'It s irreverant fun like original ', 'Super Duper', 'Borepool']</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>["An excellent comedy ... I n't understand obtaining `` cult status `` .", 'Great comedy gets better viewing', 'So much fun', 'Loose change', 'Different Space', 'Life American Office', 'Amusing really falls short easy target', "um , yeah , people could pay attention movie , 'd great", 'One-Joke Unappealing Movie', 'Take job shove', "Intelligent satire ; one Judge 's best works date", "Yeah , could watch movie , 'd great .", 'If Dilbert movie ...', 'Semi-Flop Initially A Gem Almost Everyone Missed &amp; Now Rediscovered', 'I Worked There !', '`` Um ... Yeah ``', 'The Dream Of Doing Nothing ...', 'Pretty depressing', 'Most excellent comedy .', 'The horrors desk-job working Windows 95', '.... Meanwhile Milton `` Hard `` life Caribbean ! ! !', "`` We n't lot time Earth . We n't meant spend way ! ``", 'A great film !', 'The days cool , easy simple movies .', 'Hits spot']</t>
+          <t>['An excellent comedy  I nt understand obtaining  cult status  ', 'Great comedy gets better viewing', 'So much fun', 'Loose change', 'Different Space', 'Life American Office', 'Amusing really falls short easy target', 'um  yeah  people could pay attention movie  d great', 'OneJoke Unappealing Movie', 'Take job shove', 'Intelligent satire  one Judge s best works date', 'Yeah  could watch movie  d great ', 'If Dilbert movie ', 'SemiFlop Initially A Gem Almost Everyone Missed  Now Rediscovered', 'I Worked There ', ' Um  Yeah ', 'The Dream Of Doing Nothing ', 'Pretty depressing', 'Most excellent comedy ', 'The horrors deskjob working Windows 95', ' Meanwhile Milton  Hard  life Caribbean   ', ' We nt lot time Earth  We nt meant spend way  ', 'A great film ', 'The days cool  easy simple movies ', 'Hits spot']</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Weird , wacky fun !', 'fun unusual mockumentary', 'Love first bite', 'Could real ?', 'Destined cult status .', 'The 2nd vampire mockumentary', 'A refreshing comedy', '`` I think drink virgin blood sounds cool . ``', 'Brilliant , hilarious , original comedy', '`` He Would Have Loved This Scarf ! `` ...', 'Absolutely fun enjoyable vampire effort', 'campy vampires .', 'Amusing vampire comedy', 'Not hilarious likable .', 'childish jokes works fine', 'All Stu .', 'Wanted like , I bored tears', 'Hilarious', 'Such Fun !', 'mildly amusing', 'A fun twist vampire genre', 'I survived night', 'Both horrendously grotesque brilliantly hilarious !', 'Hilarious ! Hilarious ! Hilarious !', 'Clever vampire parody']</t>
+          <t>['Weird  wacky fun ', 'fun unusual mockumentary', 'Love first bite', 'Could real ', 'Destined cult status ', 'The 2nd vampire mockumentary', 'A refreshing comedy', ' I think drink virgin blood sounds cool  ', 'Brilliant  hilarious  original comedy', ' He Would Have Loved This Scarf   ', 'Absolutely fun enjoyable vampire effort', 'campy vampires ', 'Amusing vampire comedy', 'Not hilarious likable ', 'childish jokes works fine', 'All Stu ', 'Wanted like  I bored tears', 'Hilarious', 'Such Fun ', 'mildly amusing', 'A fun twist vampire genre', 'I survived night', 'Both horrendously grotesque brilliantly hilarious ', 'Hilarious  Hilarious  Hilarious ', 'Clever vampire parody']</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Entertaining fun watch , exceptional', 'Lovable Panda', 'lovely', 'Striking', 'Not Pixar , great nevertheless', 'A True Warrior Never Quits', 'Well crafted fun film strong story characters driving humour', 'A bad ending spoils otherwise enjoyable film .', 'Nothing Uproarious But Warm , Colorful &amp; Likable', 'balance predictability plot loving homage/spoof subject matter', 'Kung Fu Panda one best Dreamworks Animation yet', 'I big fat panda', 'Positively entertaining', 'Good fun', 'Turtles Wisdom', 'KUNG FU PANDA ( Mark Osbourne John Stevenson , 2008 ) * * *', 'This great addition animated genre quickly became classic', 'This movie blinded pure awesomeness !', 'Some positive sides', 'Pletty good , Glasshopper', 'Not funny movie titled `` Kung Fu Panda `` .', 'Kung Fu Panda', "I suppose 's wrong compare Pixar 's work , decent little flick", 'A legend awesomeness .', 'It funny , rather bland']</t>
+          <t>['Entertaining fun watch  exceptional', 'Lovable Panda', 'lovely', 'Striking', 'Not Pixar  great nevertheless', 'A True Warrior Never Quits', 'Well crafted fun film strong story characters driving humour', 'A bad ending spoils otherwise enjoyable film ', 'Nothing Uproarious But Warm  Colorful  Likable', 'balance predictability plot loving homagespoof subject matter', 'Kung Fu Panda one best Dreamworks Animation yet', 'I big fat panda', 'Positively entertaining', 'Good fun', 'Turtles Wisdom', 'KUNG FU PANDA  Mark Osbourne John Stevenson  2008    ', 'This great addition animated genre quickly became classic', 'This movie blinded pure awesomeness ', 'Some positive sides', 'Pletty good  Glasshopper', 'Not funny movie titled  Kung Fu Panda  ', 'Kung Fu Panda', 'I suppose s wrong compare Pixar s work  decent little flick', 'A legend awesomeness ', 'It funny  rather bland']</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Delightful fantasy film !', 'Charlie Cox weak lead much time villains', 'lovely', 'The Heart Star', 'Overwhelming adventure full fantasy , love story pirates', 'The best thing film catchy theme song Take That ; tell ?', 'An Adult Fairy Tale Everyone Will Love', 'Not great reworking fairytale world', 'Stardust underrated humorous fairy tale summer movie season', 'Wonderfully fanciful', 'Solid entertainment', 'Entertaining Diverting Classic Not', 'Dusty Song', 'STARDUST ( Matthew Vaughn , 2007 ) * * *', 'An enchanting experience', 'grand adventure ... name love', 'Not `` The Princess Bride , `` But Then Few Fantasy Films Are', 'Shop Boy , fetch Star', 'Quality fun .', 'Tolerable translation', 'Entertaining time-filler', "Good fairy tales n't come along everyday", 'More whiff stardust ! MAGIC !', 'Provides fun summer blockbusters put together', 'Waiting star fall .']</t>
+          <t>['Delightful fantasy film ', 'Charlie Cox weak lead much time villains', 'lovely', 'The Heart Star', 'Overwhelming adventure full fantasy  love story pirates', 'The best thing film catchy theme song Take That  tell ', 'An Adult Fairy Tale Everyone Will Love', 'Not great reworking fairytale world', 'Stardust underrated humorous fairy tale summer movie season', 'Wonderfully fanciful', 'Solid entertainment', 'Entertaining Diverting Classic Not', 'Dusty Song', 'STARDUST  Matthew Vaughn  2007    ', 'An enchanting experience', 'grand adventure  name love', 'Not  The Princess Bride   But Then Few Fantasy Films Are', 'Shop Boy  fetch Star', 'Quality fun ', 'Tolerable translation', 'Entertaining timefiller', 'Good fairy tales nt come along everyday', 'More whiff stardust  MAGIC ', 'Provides fun summer blockbusters put together', 'Waiting star fall ']</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['intriguing premise gets convoluted', 'A Really Sophisticated Film', 'From small flutters big events', 'Run , Butterfly , Run', 'Excellent , Unpredictable Intriguing Screenplay \x96 A Must- See Film', "When Theatrical Version Much Better Director 's Cut", 'Maybe past changed .', 'Ashton Kutcher good film shock !', 'One interesting movies I seen lately .', 'Pushy , ugly disenfranchised youth flick disguised thriller ...', 'Entertaining many plot holes', 'Come Back When You Grow Up', 'Engaging supernatural thriller thought provoking themes', 'Heaps potential wasted', 'Away Flame', "You ca n't change people without destroying .", 'More Enjoyable Than That Other Similar Time Travelling Film', 'A Real Tripped Out Roller Coaster', 'Not bad might think ...', "Not father 's nose bleed", 'Brilliant incredibly compelling', "Generation Y 's `` Twilight Zone `` - submitted approval - NOT !", 'It said mere flutter butterfly impact things halfway around world', "It 's Not Such Wonderful Life", 'A Mind-Blowing Film !']</t>
+          <t>['intriguing premise gets convoluted', 'A Really Sophisticated Film', 'From small flutters big events', 'Run  Butterfly  Run', 'Excellent  Unpredictable Intriguing Screenplay  A Must See Film', 'When Theatrical Version Much Better Director s Cut', 'Maybe past changed ', 'Ashton Kutcher good film shock ', 'One interesting movies I seen lately ', 'Pushy  ugly disenfranchised youth flick disguised thriller ', 'Entertaining many plot holes', 'Come Back When You Grow Up', 'Engaging supernatural thriller thought provoking themes', 'Heaps potential wasted', 'Away Flame', 'You ca nt change people without destroying ', 'More Enjoyable Than That Other Similar Time Travelling Film', 'A Real Tripped Out Roller Coaster', 'Not bad might think ', 'Not father s nose bleed', 'Brilliant incredibly compelling', 'Generation Y s  Twilight Zone   submitted approval  NOT ', 'It said mere flutter butterfly impact things halfway around world', 'It s Not Such Wonderful Life', 'A MindBlowing Film ']</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['The best prequels , disappoint', 'great CGI action tired dialog bad Christensen acting', 'Anakin You Can Do , I Can Do Better', 'maybe , best', 'The End ( ? )', 'The Final Part Saga', "Typical summer blockbuster , . Lacking detail , subtlety , performances strong writing , . Impressed , I n't .", 'Getting closer home ...', "So 's complete .", 'At least Lucas ends prequel trilogy ( relatively ) high note .', 'Computer Graphics Kill This Film', 'The saga ends', 'final installment', 'The Writers took Revenge Us * *', '`` Luke , I father `` .', 'Completely Satisfying Completion Original Six Chapter Saga', 'Predictable', 'The merge complete', 'Good thing last one !', 'Predictable', 'Hot', 'Better last two good', 'A Vast Improvement ...', 'This well-done conclusion trilogy bit underrated', 'Lucas Finally Gets It Right']</t>
+          <t>['The best prequels  disappoint', 'great CGI action tired dialog bad Christensen acting', 'Anakin You Can Do  I Can Do Better', 'maybe  best', 'The End   ', 'The Final Part Saga', 'Typical summer blockbuster   Lacking detail  subtlety  performances strong writing   Impressed  I nt ', 'Getting closer home ', 'So s complete ', 'At least Lucas ends prequel trilogy  relatively  high note ', 'Computer Graphics Kill This Film', 'The saga ends', 'final installment', 'The Writers took Revenge Us  ', ' Luke  I father  ', 'Completely Satisfying Completion Original Six Chapter Saga', 'Predictable', 'The merge complete', 'Good thing last one ', 'Predictable', 'Hot', 'Better last two good', 'A Vast Improvement ', 'This welldone conclusion trilogy bit underrated', 'Lucas Finally Gets It Right']</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Brilliantly written chilling ; wonderfully atmospheric stunning period detail', 'Kidman terrific great moody atmosphere', 'remarkable', 'The Others', 'A masterpiece .', 'One The Best Most Original Ghost Stories Haunted House Ever Made', 'Not surprising clever still enjoyable effectively chilling ghost story', 'Slow-paced genuinely creepy mystery thriller ...', 'Creepy movie builds taut showing virtually eerie images , unsettling score evocative cinematography', 'may assuming wrong thing', 'An atmospheric chiller', 'A Really Good Film , But I Think It Loses Something Along Way', 'Typical Spanish horror movie', 'Effectively spooky gloomy presentation ... story less satisfying', 'rank among 5 best movies made 2001', 'Creepy , sometimes thrilling , good performance wedged', 'Subtle , genuinely creepy ... SUBTLE', 'Good ending twist', 'What old estate England haunted ?', 'Solid Piece With An Antiquated Style', 'Clever supernatural-thriller', 'No one make us leave house .', 'Rather Effective', 'Well-done heavy-handed depressing', 'Gothic atmosphere nice chills ... keep remote handy turn screams ...']</t>
+          <t>['Brilliantly written chilling  wonderfully atmospheric stunning period detail', 'Kidman terrific great moody atmosphere', 'remarkable', 'The Others', 'A masterpiece ', 'One The Best Most Original Ghost Stories Haunted House Ever Made', 'Not surprising clever still enjoyable effectively chilling ghost story', 'Slowpaced genuinely creepy mystery thriller ', 'Creepy movie builds taut showing virtually eerie images  unsettling score evocative cinematography', 'may assuming wrong thing', 'An atmospheric chiller', 'A Really Good Film  But I Think It Loses Something Along Way', 'Typical Spanish horror movie', 'Effectively spooky gloomy presentation  story less satisfying', 'rank among 5 best movies made 2001', 'Creepy  sometimes thrilling  good performance wedged', 'Subtle  genuinely creepy  SUBTLE', 'Good ending twist', 'What old estate England haunted ', 'Solid Piece With An Antiquated Style', 'Clever supernaturalthriller', 'No one make us leave house ', 'Rather Effective', 'Welldone heavyhanded depressing', 'Gothic atmosphere nice chills  keep remote handy turn screams ']</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['A lot folks simply need see earlier versions story .', 'One star really shine', '4th incarnation', 'solid remake', 'I Enjoyed It', 'Another star born', 'Stars - even', 'Another Great Remake', 'I expected : mostly good overwrought stuff', 'One take long-established story , fine one .', 'This version A Star Born justice Lady Gaga Bradley Cooper', 'A really powerful experience', 'An OK rendition tired story ...', 'Disappointing', 'Sing', 'Gaga Gaga ?', 'circle stardom', 'And ... ?', 'Medium acting okay great singing', "'An octave 12 notes repeats '", 'Two stars reborn .', 'Lady Gaga shines', 'Not bad movie , immense marketing made feel ... err ... Shallow', 'A love story mixed pain , addiction , fame , tragedy .', 'Fourth Time Around']</t>
+          <t>['A lot folks simply need see earlier versions story ', 'One star really shine', '4th incarnation', 'solid remake', 'I Enjoyed It', 'Another star born', 'Stars  even', 'Another Great Remake', 'I expected  mostly good overwrought stuff', 'One take longestablished story  fine one ', 'This version A Star Born justice Lady Gaga Bradley Cooper', 'A really powerful experience', 'An OK rendition tired story ', 'Disappointing', 'Sing', 'Gaga Gaga ', 'circle stardom', 'And  ', 'Medium acting okay great singing', 'An octave 12 notes repeats ', 'Two stars reborn ', 'Lady Gaga shines', 'Not bad movie  immense marketing made feel  err  Shallow', 'A love story mixed pain  addiction  fame  tragedy ', 'Fourth Time Around']</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['The first half terrific ... last half , much !', 'A welcome return galactic fun excitement', 'fun overload', "You ca n't beat bit ELO", "The sequel 've looking", 'Magnificent Sequel', "Tries bit much n't work well , core strengths", 'It went much bigger scale ...', 'A fun sci-fi/superhero sequel', 'Far much lame humour .', 'Guardians Galaxy Vol . 2 almost good predecessor', 'Pure fun', 'Fizzy Fun Full Cool Color , Calamity , Camraderie ... Jokes &amp; Jingles Pop Songs', 'More Of The Same', 'Everyone Needs Family', 'If liked first one ...', 'A Family Reunion Sorts', 'Second verse ... first ?', "Too bad Chris Pratt ca n't act", 'Action-packed amusing space fantasy moments depth wonder', 'The Guardians Galaxy back galaxy peril', "It 's pleasure", 'It always keeps keen focus characters ; great follow-up .', 'Therapy Galaxy', 'A thoroughly delightful sequel , cunningly light plot renovation wigged brimful hilarity brainwaves']</t>
+          <t>['The first half terrific  last half  much ', 'A welcome return galactic fun excitement', 'fun overload', 'You ca nt beat bit ELO', 'The sequel ve looking', 'Magnificent Sequel', 'Tries bit much nt work well  core strengths', 'It went much bigger scale ', 'A fun scifisuperhero sequel', 'Far much lame humour ', 'Guardians Galaxy Vol  2 almost good predecessor', 'Pure fun', 'Fizzy Fun Full Cool Color  Calamity  Camraderie  Jokes  Jingles Pop Songs', 'More Of The Same', 'Everyone Needs Family', 'If liked first one ', 'A Family Reunion Sorts', 'Second verse  first ', 'Too bad Chris Pratt ca nt act', 'Actionpacked amusing space fantasy moments depth wonder', 'The Guardians Galaxy back galaxy peril', 'It s pleasure', 'It always keeps keen focus characters  great followup ', 'Therapy Galaxy', 'A thoroughly delightful sequel  cunningly light plot renovation wigged brimful hilarity brainwaves']</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Bravissimo , Monsieur Woody !', "Literary Fantasy taste I wo n't hold movie", 'A Trip Down Memory Lane', 'Love Literary Period', 'Woody like Paris', 'Now &amp; earlier', 'The Magic Paris', 'Can forgive old man whimsy ? If good film , great film , fine piece comedic fluff .', "Owen Wilson plays Woody Allen total repudiation Allen 's 1990s movies", 'Who Knew Owen Wilson Could Act Be Good ?', 'Goodnight Sweetheart Paris', 'Whimsical Allen time-traveling taxi-cab ... lovely moments abound , though without charming characters', 'Woody Paris', 'Parisian charm', 'A fun , heartwarming fantasy tale', 'Highly original one better Woody Allen movies last years', "Here 's Woody Allen movie I wanted like ...", "The Night Life Paris-Back 20 's", 'An absolute gem', 'MIDNIGHT IN Paris ( Woody Allen , 2011 ) * * *', "'s pretty good .", 'A Mediocre Trip City Love', 'Basically fun little movie great time .', 'Magical movie Paris , making `` golden age `` finding right mate', 'Delightful - one watch !']</t>
+          <t>['Bravissimo  Monsieur Woody ', 'Literary Fantasy taste I wo nt hold movie', 'A Trip Down Memory Lane', 'Love Literary Period', 'Woody like Paris', 'Now  earlier', 'The Magic Paris', 'Can forgive old man whimsy  If good film  great film  fine piece comedic fluff ', 'Owen Wilson plays Woody Allen total repudiation Allen s 1990s movies', 'Who Knew Owen Wilson Could Act Be Good ', 'Goodnight Sweetheart Paris', 'Whimsical Allen timetraveling taxicab  lovely moments abound  though without charming characters', 'Woody Paris', 'Parisian charm', 'A fun  heartwarming fantasy tale', 'Highly original one better Woody Allen movies last years', 'Here s Woody Allen movie I wanted like ', 'The Night Life ParisBack 20 s', 'An absolute gem', 'MIDNIGHT IN Paris  Woody Allen  2011    ', 's pretty good ', 'A Mediocre Trip City Love', 'Basically fun little movie great time ', 'Magical movie Paris  making  golden age  finding right mate', 'Delightful  one watch ']</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>["But n't like baseball films ? !", 'Much baseball film', '`` They Get On Base ``', 'Traditional underdog story', 'A Different Kind Sports Movie', 'Realistic View Front Office', 'On money ( ball )', 'Slow-paced engaging story benefits charismatic performances leads', 'An Anomalous Oscar Pick', "A Thinking Man 's Game", "Aaron Sorkin 's home run", 'changing game', 'Interesting true story', 'Way overrated', 'David Goliath', 'Brilliant', 'Sporting Economics .', "Required Viewing Any A 's Fan", 'Pitt', 'A Good Baseball Story', 'See ? Statistics Can Be Fun', 'Sabermetrics Grand Ole Game', "Perhaps movie interesting subject 's well made movie .", "A can't-lose prospect excellent dialogue", 'The Best Baseball Movie Ever !']</t>
+          <t>['But nt like baseball films  ', 'Much baseball film', ' They Get On Base ', 'Traditional underdog story', 'A Different Kind Sports Movie', 'Realistic View Front Office', 'On money  ball ', 'Slowpaced engaging story benefits charismatic performances leads', 'An Anomalous Oscar Pick', 'A Thinking Man s Game', 'Aaron Sorkin s home run', 'changing game', 'Interesting true story', 'Way overrated', 'David Goliath', 'Brilliant', 'Sporting Economics ', 'Required Viewing Any A s Fan', 'Pitt', 'A Good Baseball Story', 'See  Statistics Can Be Fun', 'Sabermetrics Grand Ole Game', 'Perhaps movie interesting subject s well made movie ', 'A cantlose prospect excellent dialogue', 'The Best Baseball Movie Ever ']</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['A comedy Trial Error truly hilarious one !', 'A Lawyer In The Family', 'Marisa Tomei wonderful', 'Classic Comedy Terrific Performances', ': A funny little comedy rather slight plenty fun sequences benefits good delivery', 'No one yell `` Objection ! `` movie .', 'One Better Early 1990s Comedies', 'Captured , Georgia', "Funny , But The 'Youts ' Could Have Had Cleaner Mouths", 'Deserves good comments , Oscar Marisa Tomei .', "one movies watch , least time , 's TV", 'A solid enjoyable comedy vehicle Mr. Pesci .', 'Culture clash', 'Gets better better progresses', 'Fun film never outstays welcome .', 'Obstacles', "I 'd Like Cousin Vinny", 'Very funny bit long', 'Colorful courtroom comedy bit overlong still manages please ...', 'The Importance Physics', 'Marisa hoot', 'Solid Comedy That Holds Up Well', 'Fish-out-of-water personified ; delicious Tomei', 'Funny , characters care', 'La Guardia x Chamberlain Haller ! !']</t>
+          <t>['A comedy Trial Error truly hilarious one ', 'A Lawyer In The Family', 'Marisa Tomei wonderful', 'Classic Comedy Terrific Performances', ' A funny little comedy rather slight plenty fun sequences benefits good delivery', 'No one yell  Objection   movie ', 'One Better Early 1990s Comedies', 'Captured  Georgia', 'Funny  But The Youts  Could Have Had Cleaner Mouths', 'Deserves good comments  Oscar Marisa Tomei ', 'one movies watch  least time  s TV', 'A solid enjoyable comedy vehicle Mr Pesci ', 'Culture clash', 'Gets better better progresses', 'Fun film never outstays welcome ', 'Obstacles', 'I d Like Cousin Vinny', 'Very funny bit long', 'Colorful courtroom comedy bit overlong still manages please ', 'The Importance Physics', 'Marisa hoot', 'Solid Comedy That Holds Up Well', 'Fishoutofwater personified  delicious Tomei', 'Funny  characters care', 'La Guardia x Chamberlain Haller  ']</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Despite rather predictable , I great time watching film .', 'Cute wonderfully inventive', 'The minions make difference', 'Cute Storyline', 'What Delightful Surprise !', 'Not Animated Feature', 'Bad boy Gru', 'Anything despicable !', 'One Sweetest Villains Ever', "Funny cute needless say 's Pixar", 'Fantastic animated movie entire family .', 'One The , If Not The , Best Movies 2010', 'Would worked stand alone film', 'irresistibly cute clever silly cartoon level dark edges , less', 'Despicable Me mildly entertaining 3-D computer animated flick', 'Kind adorable', 'A good animation', 'This perfect animated film', 'Good fun', 'An Adorable Movie', 'A modern classic', 'Uni-Corny', 'Three Orphaned girls ( supposed ) evil genius ; oh , Minions', 'endearing funny healthy dose cynicism sarcasm', "An incredibly passive experience 's serviceable nothing ."]</t>
+          <t>['Despite rather predictable  I great time watching film ', 'Cute wonderfully inventive', 'The minions make difference', 'Cute Storyline', 'What Delightful Surprise ', 'Not Animated Feature', 'Bad boy Gru', 'Anything despicable ', 'One Sweetest Villains Ever', 'Funny cute needless say s Pixar', 'Fantastic animated movie entire family ', 'One The  If Not The  Best Movies 2010', 'Would worked stand alone film', 'irresistibly cute clever silly cartoon level dark edges  less', 'Despicable Me mildly entertaining 3D computer animated flick', 'Kind adorable', 'A good animation', 'This perfect animated film', 'Good fun', 'An Adorable Movie', 'A modern classic', 'UniCorny', 'Three Orphaned girls  supposed  evil genius  oh  Minions', 'endearing funny healthy dose cynicism sarcasm', 'An incredibly passive experience s serviceable nothing ']</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>["Terrence Malick 's masterpiece", 'unique Malick style', 'War Head', 'The Thin Red Line', 'Saving ...', 'Frustrating flawed regards generally beautiful piece poetic flow structure feels walk inside', 'Visually stunning film , focused battle Guadalcanal star-laden cast', 'contrary many reviews , anti- `` Saving Private Ryan ``', 'The Ultimate Ensemble Cast For War Movie', 'Hard Movie To Like At First , But It Gets Better .... Much Better', 'A good `` war `` movie , I give 7 10 ,', 'Tiresome meditation', 'Great Example war picture', 'Divisive Didactic', "Wittgenstein 's Red Line Abstraction", 'Is Terrance Malik In Greenpeace ? ....', 'What Contrast', 'Violence', "War n't ennoble men . It turns dogs ... poisons soul .", "Malick 's Stunning Masterpiece", 'One best anti-war war movies', 'Equal parts spiritual horrifying', 'The Thin Red Line', 'I Fought My Own War', "Better I originally thought , I still n't see masterpiece"]</t>
+          <t>['Terrence Malick s masterpiece', 'unique Malick style', 'War Head', 'The Thin Red Line', 'Saving ', 'Frustrating flawed regards generally beautiful piece poetic flow structure feels walk inside', 'Visually stunning film  focused battle Guadalcanal starladen cast', 'contrary many reviews  anti  Saving Private Ryan ', 'The Ultimate Ensemble Cast For War Movie', 'Hard Movie To Like At First  But It Gets Better  Much Better', 'A good  war  movie  I give 7 10 ', 'Tiresome meditation', 'Great Example war picture', 'Divisive Didactic', 'Wittgenstein s Red Line Abstraction', 'Is Terrance Malik In Greenpeace  ', 'What Contrast', 'Violence', 'War nt ennoble men  It turns dogs  poisons soul ', 'Malick s Stunning Masterpiece', 'One best antiwar war movies', 'Equal parts spiritual horrifying', 'The Thin Red Line', 'I Fought My Own War', 'Better I originally thought  I still nt see masterpiece']</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Interpretations', 'Amazing concept well made master filmmaker', 'Reasonably Good Sci Fi', 'special', 'Minority Report', 'The PreCrime Police', 'Dark , complex interesting', 'mediocre', 'Great sci-fi thriller', 'Full imagination .', 'Great Film Despite Casting', 'Underrated &amp; A Film To Think About', 'Minority Report', 'Excellent futuristic film', 'You still choice ...', 'Maybe much', 'Tomorrow Never Knows', 'I eyes .', 'Excellent futuristic crime drama', 'Spielberg Tech-Noir !', 'Homage Phillip Dick', 'Surprisingly good', 'Cruise world 2054 makes good action hero ...', 'Fascinating Philip K Dick adaption', "On Lam Before There 's Lam Be On"]</t>
+          <t>['Interpretations', 'Amazing concept well made master filmmaker', 'Reasonably Good Sci Fi', 'special', 'Minority Report', 'The PreCrime Police', 'Dark  complex interesting', 'mediocre', 'Great scifi thriller', 'Full imagination ', 'Great Film Despite Casting', 'Underrated  A Film To Think About', 'Minority Report', 'Excellent futuristic film', 'You still choice ', 'Maybe much', 'Tomorrow Never Knows', 'I eyes ', 'Excellent futuristic crime drama', 'Spielberg TechNoir ', 'Homage Phillip Dick', 'Surprisingly good', 'Cruise world 2054 makes good action hero ', 'Fascinating Philip K Dick adaption', 'On Lam Before There s Lam Be On']</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>["A laundry list things parents DO N'T want ...", 'Totally kicks ass !', 'A film screams entertainment', 'Interesting Comic Movie', 'Weird Effective', 'Kick ass action', 'To ( superhero ) ( superhero ) ?', 'Pop Culture Silliness Best', 'Entertainingly violent care-free smart funny wants', 'Nice movie', 'Kick-Ass easily lives title .', 'Super Short Review', '`` Wait till get load `` Ho-Ho', 'A refreshing superhero film twist', 'Surprisingly good', 'Like Nothing I Expected', 'A Welcome Change Superhero Scene', 'Sequences familarity movies leads nothing', 'KICK-ASS ( Matthew Vaughn , 2010 ) * * * 1/2', 'Kick-Ass . It certainly .', '`` Without Power Comes No Responsibility ``', 'Funny different', "It 's funny , 's violent , actually breath fresh air among trite genre movies .", 'Kick-Ass', 'Nice concept , average']</t>
+          <t>['A laundry list things parents DO NT want ', 'Totally kicks ass ', 'A film screams entertainment', 'Interesting Comic Movie', 'Weird Effective', 'Kick ass action', 'To  superhero   superhero  ', 'Pop Culture Silliness Best', 'Entertainingly violent carefree smart funny wants', 'Nice movie', 'KickAss easily lives title ', 'Super Short Review', ' Wait till get load  HoHo', 'A refreshing superhero film twist', 'Surprisingly good', 'Like Nothing I Expected', 'A Welcome Change Superhero Scene', 'Sequences familarity movies leads nothing', 'KICKASS  Matthew Vaughn  2010     12', 'KickAss  It certainly ', ' Without Power Comes No Responsibility ', 'Funny different', 'It s funny  s violent  actually breath fresh air among trite genre movies ', 'KickAss', 'Nice concept  average']</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['A good great Woody Allen film', 'Could intense', 'Classic Allen', 'American Tragedy Redux', 'Film Noir', "I 'd Rather Be Lucky Than Good", 'Only partial success still interesting engaging whole', 'A `` match `` certain kinds movies ?', "Could Woody Allen 's Best Work ?", 'Getting want ... expense true fulfillment', 'A furtive tear', 'serious channeling Dostoyevsky via infidelity drama Woody Allen', 'Match Point Strikes A Right Balance * * * 1/2', 'Gripping film slow start', 'At Age 70 Half Woody Better Than None', "A bit departure Woody Allen , 's great one", 'Not Point , Not Game', 'Lucky man !', 'A good film -- masterpiece', 'MATCH POINT ( Woody Allen , 2005 ) * * *', 'Woody , Meet Mr. Hitchcock', 'Luck Deceit', "No 's masterpiece , 's okay .", "'Fatal Attraction ' new millennium ( sort )", 'A must watch - knew Woody ?']</t>
+          <t>['A good great Woody Allen film', 'Could intense', 'Classic Allen', 'American Tragedy Redux', 'Film Noir', 'I d Rather Be Lucky Than Good', 'Only partial success still interesting engaging whole', 'A  match  certain kinds movies ', 'Could Woody Allen s Best Work ', 'Getting want  expense true fulfillment', 'A furtive tear', 'serious channeling Dostoyevsky via infidelity drama Woody Allen', 'Match Point Strikes A Right Balance    12', 'Gripping film slow start', 'At Age 70 Half Woody Better Than None', 'A bit departure Woody Allen  s great one', 'Not Point  Not Game', 'Lucky man ', 'A good film  masterpiece', 'MATCH POINT  Woody Allen  2005    ', 'Woody  Meet Mr Hitchcock', 'Luck Deceit', 'No s masterpiece  s okay ', 'Fatal Attraction  new millennium  sort ', 'A must watch  knew Woody ']</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Great , makes improvements 1969 film', 'Typical revenge western', 'The Unlikely Trio Ride Again', 'Coen Brothers Style', "A Well-Made Film But I Do n't See Hype", 'True Coen !', 'Gritted vengeance', 'Not strictly remake', 'Unnecessary Remake Great Film', 'Simply really solid piece storytelling good work across board', "Jeff Bridges shines drunken tough U. S. Marshall helps teen girl track dad 's killer .", 'staying gritty', "A Decent Film , But Hardly Coens ' Best", 'A Movie Fun To Look At And Listen To', 'Very enjoyable rendition `` True Grit `` story .', 'This version True Grit Coens starring Jeff Bridges much improved previous version starred The Duke', 'Confusing', 'Time gets away us .', 'Refuses Prettify', 'Brilliant , better original', 'Pumice', 'Well Made But Rather Slow', 'TRUE GRIT ( Joel Ethan Coen , 2010 ) * * *', 'A modern day western masterpiece', 'Something Beautiful This Way Comes']</t>
+          <t>['Great  makes improvements 1969 film', 'Typical revenge western', 'The Unlikely Trio Ride Again', 'Coen Brothers Style', 'A WellMade Film But I Do nt See Hype', 'True Coen ', 'Gritted vengeance', 'Not strictly remake', 'Unnecessary Remake Great Film', 'Simply really solid piece storytelling good work across board', 'Jeff Bridges shines drunken tough U S Marshall helps teen girl track dad s killer ', 'staying gritty', 'A Decent Film  But Hardly Coens  Best', 'A Movie Fun To Look At And Listen To', 'Very enjoyable rendition  True Grit  story ', 'This version True Grit Coens starring Jeff Bridges much improved previous version starred The Duke', 'Confusing', 'Time gets away us ', 'Refuses Prettify', 'Brilliant  better original', 'Pumice', 'Well Made But Rather Slow', 'TRUE GRIT  Joel Ethan Coen  2010    ', 'A modern day western masterpiece', 'Something Beautiful This Way Comes']</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['bleak paranoid thriller horrific weight loss', 'crumbs Dostoievski', 'Working', 'Trapped Nightmare Guilt Insomnia', 'Astounding film tension , blood , shocks violence', 'The feeling many influences .', 'Very entertaining thriller plenty mind chew .', 'The Ultimate Mood Experience Grit', 'Very Sleazy But Fascinating , Involving Story', 'almost spite , despite , shabby been-there-done-that script , near gimmick weight loss , Bale makes watchable', "I ... ca n't ... get .... ... sleep !", 'Lighter Guilt', 'Alarmingly captivating', 'Incredibly original engrossing psychological drama', 'Glad I Watched Second Time', 'Dark Disturbing', 'Wake Up And Go To Sleep ...', "Well , n't look surprised . Even call girl scramble egg .", 'Great script great actor make great movie .', 'A gamble pays', "'Thinner ' meets 'Memento ' way 'Angel Heart ' la Hitchcock", '... darkly involving movie .', 'Guilt', "watch , Bale 's performance", 'excellent Bale']</t>
+          <t>['bleak paranoid thriller horrific weight loss', 'crumbs Dostoievski', 'Working', 'Trapped Nightmare Guilt Insomnia', 'Astounding film tension  blood  shocks violence', 'The feeling many influences ', 'Very entertaining thriller plenty mind chew ', 'The Ultimate Mood Experience Grit', 'Very Sleazy But Fascinating  Involving Story', 'almost spite  despite  shabby beentheredonethat script  near gimmick weight loss  Bale makes watchable', 'I  ca nt  get   sleep ', 'Lighter Guilt', 'Alarmingly captivating', 'Incredibly original engrossing psychological drama', 'Glad I Watched Second Time', 'Dark Disturbing', 'Wake Up And Go To Sleep ', 'Well  nt look surprised  Even call girl scramble egg ', 'Great script great actor make great movie ', 'A gamble pays', 'Thinner  meets Memento  way Angel Heart  la Hitchcock', ' darkly involving movie ', 'Guilt', 'watch  Bale s performance', 'excellent Bale']</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Scientific fears', 'great grotesque transformation', 'A Great Horror Movie Adults', 'Get', 'Great remake \x96 horror typically Cronenbergian twist', 'Be afraid . Be afraid ...', 'A grossest new adaptation classic film , sharply directed David Cronenberg', 'Accomplished music video hacks , foreign movie directors one success belt , Michael Bay—please take note : THIS horror remake !', 'A Little Slice Heaven Dessert', "David Cronenberg 's trademark saved remake", 'Still Fascinating &amp; Very Disturbing', 'Remake , nothing else , technical marvel ...', 'A good remake', 'chilling strangely intimate , amazing make-up effects , depth good play', 'The terrifying `` Brudlefly-project `` !', 'Gruesomely compelling', "`` I 'd like first insect politician . ``", 'Bonding', 'Practical', 'If stay I hurt .', 'A Deceptively Disgusting Love Story ...', "`` Drink deep taste plasma spring ! See I 'm saying ? ``", 'The Fly elite science fiction horror movie absolute must-see', 'A brilliant , must-see exemplar horror', "Spooky Intense -- One Cronenberg 's Best"]</t>
+          <t>['Scientific fears', 'great grotesque transformation', 'A Great Horror Movie Adults', 'Get', 'Great remake  horror typically Cronenbergian twist', 'Be afraid  Be afraid ', 'A grossest new adaptation classic film  sharply directed David Cronenberg', 'Accomplished music video hacks  foreign movie directors one success belt  Michael Bayplease take note  THIS horror remake ', 'A Little Slice Heaven Dessert', 'David Cronenberg s trademark saved remake', 'Still Fascinating  Very Disturbing', 'Remake  nothing else  technical marvel ', 'A good remake', 'chilling strangely intimate  amazing makeup effects  depth good play', 'The terrifying  Brudleflyproject  ', 'Gruesomely compelling', ' I d like first insect politician  ', 'Bonding', 'Practical', 'If stay I hurt ', 'A Deceptively Disgusting Love Story ', ' Drink deep taste plasma spring  See I m saying  ', 'The Fly elite science fiction horror movie absolute mustsee', 'A brilliant  mustsee exemplar horror', 'Spooky Intense  One Cronenberg s Best']</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['good murky crime drama', 'Best Film 2007', 'A Good Movie Good Book !', 'truth essence', "It 's", 'Complex , engaging thriller strong delivery cast crew', 'Nice well played thriller lot surprises , twists turns', "Best Move Ben Affleck 's Career ?", "`` Kids forgive , n't judge ... get ? ``", 'Excellent , great directorial debut Ben Affleck', 'good , sturdy directorial debut Affleck ; brother Casey comes playing tough Shamus', 'Strong engaging story difficult moral choices', 'An impressive directing debut Affleck .', 'Children Peril', 'Meh', 'Baby Arrives', "Do know people neighborhood n't talk police ?", 'Boston Strong', 'Be Affleck crafts one years best films , would except source material breaks apart final stretch end', 'GONE BABY GONE ( Ben Affleck , 2007 ) * * *', 'Outstanding thriller great understory .', 'A Pointless Exercise Human Nastiness', 'Small enough matter', 'Fine Hard To Believe !', 'Gone Baby Gone']</t>
+          <t>['good murky crime drama', 'Best Film 2007', 'A Good Movie Good Book ', 'truth essence', 'It s', 'Complex  engaging thriller strong delivery cast crew', 'Nice well played thriller lot surprises  twists turns', 'Best Move Ben Affleck s Career ', ' Kids forgive  nt judge  get  ', 'Excellent  great directorial debut Ben Affleck', 'good  sturdy directorial debut Affleck  brother Casey comes playing tough Shamus', 'Strong engaging story difficult moral choices', 'An impressive directing debut Affleck ', 'Children Peril', 'Meh', 'Baby Arrives', 'Do know people neighborhood nt talk police ', 'Boston Strong', 'Be Affleck crafts one years best films  would except source material breaks apart final stretch end', 'GONE BABY GONE  Ben Affleck  2007    ', 'Outstanding thriller great understory ', 'A Pointless Exercise Human Nastiness', 'Small enough matter', 'Fine Hard To Believe ', 'Gone Baby Gone']</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Brutal sins', 'Mature involving thriller', 'Brutal Stuff', 'Holds promise ( )', 'From Russia Violence', 'Solid , dark drama slightly disappointing `` straightforward ``', 'Quite memorable mob movie ...', 'David Cronenberg know better use cliché', 'Powerful Film , Most Unique For Cronenberg', "deep rich characterizations , unpretentious style , perfect performances , one year 's best !", 'From Russia , Blood', 'A memorable film regret watching', 'Cronenberg Mortensen make good team .', 'Thieves By The Code .', 'Slightly better `` A History ... ``', 'Brutal , Realistic Sexually Explicit', 'Every Picture Tells A Story ...', 'EASTERN PROMISES ( David Cronenberg , 2007 ) * * *', 'This underrated Cronenberg gem masterpiece', 'He driver , undertaker .', 'Fantastically grim , brilliant crime drama', "Cronenberg 's Latest Feels Less Important Than `` A History Violence ``", 'Just Driver', 'Second halve makes good watch .', 'Sometimes , birth death go together']</t>
+          <t>['Brutal sins', 'Mature involving thriller', 'Brutal Stuff', 'Holds promise  ', 'From Russia Violence', 'Solid  dark drama slightly disappointing  straightforward ', 'Quite memorable mob movie ', 'David Cronenberg know better use clich', 'Powerful Film  Most Unique For Cronenberg', 'deep rich characterizations  unpretentious style  perfect performances  one year s best ', 'From Russia  Blood', 'A memorable film regret watching', 'Cronenberg Mortensen make good team ', 'Thieves By The Code ', 'Slightly better  A History  ', 'Brutal  Realistic Sexually Explicit', 'Every Picture Tells A Story ', 'EASTERN PROMISES  David Cronenberg  2007    ', 'This underrated Cronenberg gem masterpiece', 'He driver  undertaker ', 'Fantastically grim  brilliant crime drama', 'Cronenberg s Latest Feels Less Important Than  A History Violence ', 'Just Driver', 'Second halve makes good watch ', 'Sometimes  birth death go together']</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Inspiring sweet', 'A helping hand', 'Feel Good Inspirational Story', 'Sugar-Coated , Watered-Down Mess', 'Did It Really Happen This Way ?', 'Fairy tale', 'Wonderful Heartwarming True Story', 'A TVM Hollywood cast – solid nothing', 'love blind , spirit', "It 's Okay", "nothing really get worked - even Bullock elevate past 'safe ' quarters", 'The Blind Side compellingly filmed version true story Michael Oher Leigh Anne Touhy', 'Heartwarming', 'An impressive display good qualities human nature', "Who would thought 'd black son democrat ?", 'The demographic geared toward simple minded white people', 'Football', 'If go Tennessee , I games . I support , I wearing gaudy orange .', 'Sassy , Sassy , Sassy', 'Rebel , Rebel', "A good story helping someone , success , family 's blessings", 'Feel good', "Sandra 's Oscar Nomination !", "' I n't changed life , 've changed mine . '", "A feel good real life fairy tale . That 's carried tough love performance Sandra Bullock ( best ever )"]</t>
+          <t>['Inspiring sweet', 'A helping hand', 'Feel Good Inspirational Story', 'SugarCoated  WateredDown Mess', 'Did It Really Happen This Way ', 'Fairy tale', 'Wonderful Heartwarming True Story', 'A TVM Hollywood cast  solid nothing', 'love blind  spirit', 'It s Okay', 'nothing really get worked  even Bullock elevate past safe  quarters', 'The Blind Side compellingly filmed version true story Michael Oher Leigh Anne Touhy', 'Heartwarming', 'An impressive display good qualities human nature', 'Who would thought d black son democrat ', 'The demographic geared toward simple minded white people', 'Football', 'If go Tennessee  I games  I support  I wearing gaudy orange ', 'Sassy  Sassy  Sassy', 'Rebel  Rebel', 'A good story helping someone  success  family s blessings', 'Feel good', 'Sandra s Oscar Nomination ', ' I nt changed life  ve changed mine  ', 'A feel good real life fairy tale  That s carried tough love performance Sandra Bullock  best ever ']</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['An exercise weirdness', 'Wonderful script , wonderful cast , wonderful everything', 'love style family', "I 'll Always Watch Hackman", "` Different ' comedy uses 's quirks well produce wonderful film", 'family life', "'Quirky ' Seems To Be The Most Popular Word To Describe This", 'The price one pays early genius ...', 'Wes Anderson shows us real world wackos', 'break family ...', 'One best comedies year , quirky definitely inventive', 'I loved Rushmore , ...', 'Dysfunctional norm family .', 'The Best Movie Ever Made Featuring Dalmation Mice', 'How Not To Write An Interesting Script', 'The Royal Mess', 'A quirky comedy/drama', 'Warm-Hearted Peek Into Human Imperfections', 'You want interesting ?', 'Not nearly fun I hoped would . Still enjoyable movie watch .', 'Surprisingly good', 'THE ROYAL TREATMENT', 'cast misleading', 'The dysfunctional family ever', 'Funny , tragic , sad , yet watchable !']</t>
+          <t>['An exercise weirdness', 'Wonderful script  wonderful cast  wonderful everything', 'love style family', 'I ll Always Watch Hackman', ' Different  comedy uses s quirks well produce wonderful film', 'family life', 'Quirky  Seems To Be The Most Popular Word To Describe This', 'The price one pays early genius ', 'Wes Anderson shows us real world wackos', 'break family ', 'One best comedies year  quirky definitely inventive', 'I loved Rushmore  ', 'Dysfunctional norm family ', 'The Best Movie Ever Made Featuring Dalmation Mice', 'How Not To Write An Interesting Script', 'The Royal Mess', 'A quirky comedydrama', 'WarmHearted Peek Into Human Imperfections', 'You want interesting ', 'Not nearly fun I hoped would  Still enjoyable movie watch ', 'Surprisingly good', 'THE ROYAL TREATMENT', 'cast misleading', 'The dysfunctional family ever', 'Funny  tragic  sad  yet watchable ']</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['I surprised took long finally see one .', 'Action buddy cop magic', 'Incredibly reckless', 'Great team chemistry', 'Lethal Weapon', "Good actioner \x96 's devalued 's many sequels", 'One all-time favourite 80s action films two word title .', 'Modern Action Classic', 'Best Hollywood eighties', 'One best action films', 'Good action movie', 'Mel Gibson Struts His Stuff', 'Stands test time', "You 're never old THIS * beep * .", 'MEGA-HIT ... EVERY ONE CONTRIBUTES ... 3 SEQUELS ... SHANE BLACK DEBUT ... A WINNER', 'We got edge Cochise .', 'Trend Setter', 'Loud , violent , stupid ugly', 'The car flipped collision bus one best action sequences time', "One Better Action Films 80 's", 'A step usual buddy cop movies', 'This elite addition action genre absolute must see', "I 'm old sh * !", 'Fun , entertaining spectacular .', 'The best action/buddy film']</t>
+          <t>['I surprised took long finally see one ', 'Action buddy cop magic', 'Incredibly reckless', 'Great team chemistry', 'Lethal Weapon', 'Good actioner  s devalued s many sequels', 'One alltime favourite 80s action films two word title ', 'Modern Action Classic', 'Best Hollywood eighties', 'One best action films', 'Good action movie', 'Mel Gibson Struts His Stuff', 'Stands test time', 'You re never old THIS  beep  ', 'MEGAHIT  EVERY ONE CONTRIBUTES  3 SEQUELS  SHANE BLACK DEBUT  A WINNER', 'We got edge Cochise ', 'Trend Setter', 'Loud  violent  stupid ugly', 'The car flipped collision bus one best action sequences time', 'One Better Action Films 80 s', 'A step usual buddy cop movies', 'This elite addition action genre absolute must see', 'I m old sh  ', 'Fun  entertaining spectacular ', 'The best actionbuddy film']</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['These NOT Reed Malloy certainly NOT `` Adam-12 `` !', 'Boring beyond belief', 'standard L.A. street cops good chemistry', 'Fresh Take Cop-Buddy Movie', 'A good watch', 'Police drama Social Media Generation', 'Excellent Film , Awful Camera Work', 'Good aspects need better whole', 'On patrol pair LAPD Officers', 'Perils LAPD ... kinetic , nothing new', 'In ways refreshing entertaining , far perfect', 'A well done film', "One best police dramas 'll ever see", 'Cops real people', 'The film journal convincing enough', 'Til Death Us Do Part', 'Up expected standard', 'Realistic , insightful , funny , moving , unexpected terrifying', 'Some days lives : Inside LAPD', 'Awful', 'A Nutshell Review : End Watch', 'notes', 'Leaves South Central L.A. unexploited affecting', 'Life video game', 'Bad boys , bad boys whatcha gon na , gon na come ?']</t>
+          <t>['These NOT Reed Malloy certainly NOT  Adam12  ', 'Boring beyond belief', 'standard LA street cops good chemistry', 'Fresh Take CopBuddy Movie', 'A good watch', 'Police drama Social Media Generation', 'Excellent Film  Awful Camera Work', 'Good aspects need better whole', 'On patrol pair LAPD Officers', 'Perils LAPD  kinetic  nothing new', 'In ways refreshing entertaining  far perfect', 'A well done film', 'One best police dramas ll ever see', 'Cops real people', 'The film journal convincing enough', 'Til Death Us Do Part', 'Up expected standard', 'Realistic  insightful  funny  moving  unexpected terrifying', 'Some days lives  Inside LAPD', 'Awful', 'A Nutshell Review  End Watch', 'notes', 'Leaves South Central LA unexploited affecting', 'Life video game', 'Bad boys  bad boys whatcha gon na  gon na come ']</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Very entertaining action film , good first film', 'Action comedy masterpiece', 'Feels like different franchise', 'The Three Leads Make Film', 'Great entry great series', 'An innovative third movie `` Die Hard `` franchise ...', 'High-voltage action thriller fine chemical Bruce Wills Samuel L. Jackson', 'Die Hard Lethal Weapon .', 'Very Entertaining But Too Low-Class', 'THE BEST OF THE TRILOGY', 'Hey Zeus', 'Enduring Timeless Entertainment', 'Reasonably good', "McTiernan back 's kaboom time Big Apple .", "If Only They 'd Stopped Right Here", 'Story terrorists NYC timelier ever since 9/11 ...', 'The least amount action Die Hard movies', 'Bruce still got', 'Surprisingly Good', 'Exciting , action-packed , funny', 'Willis Jackson shine !', 'Truly one best action movies ever made .', "New York 's finest : John McClane", 'Big , dumb , fun action flick Bruce Willis Samuel L. Jackson New York City', 'Better two .']</t>
+          <t>['Very entertaining action film  good first film', 'Action comedy masterpiece', 'Feels like different franchise', 'The Three Leads Make Film', 'Great entry great series', 'An innovative third movie  Die Hard  franchise ', 'Highvoltage action thriller fine chemical Bruce Wills Samuel L Jackson', 'Die Hard Lethal Weapon ', 'Very Entertaining But Too LowClass', 'THE BEST OF THE TRILOGY', 'Hey Zeus', 'Enduring Timeless Entertainment', 'Reasonably good', 'McTiernan back s kaboom time Big Apple ', 'If Only They d Stopped Right Here', 'Story terrorists NYC timelier ever since 911 ', 'The least amount action Die Hard movies', 'Bruce still got', 'Surprisingly Good', 'Exciting  actionpacked  funny', 'Willis Jackson shine ', 'Truly one best action movies ever made ', 'New York s finest  John McClane', 'Big  dumb  fun action flick Bruce Willis Samuel L Jackson New York City', 'Better two ']</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['You guaranteed terrified birds seeing movie', 'Our Avian Friends Attack', 'takes long start', 'It Just Could Have Been Better', 'Still terrifying .', 'Mad Birds', 'The Deadly Attack Birds', 'Dated effects chilling great fun subtexts', 'When birds attack ...', 'Awesome Hitchcock movie horror moments hair-raising scenes', 'Hitchcock always knew make use chaos , takes extreme', "If birds n't get , lung cancer .", 'Very Enjoyable Hitchcock Classic', "The Good &amp; Bad Of 'The Birds '", "The plot infuriatingly vague , Hitchcock 's got goods semi-classic ...", 'A short story turned two-hour movie .', 'absurd completely terrifying , film massive intelligence enthrallment', "Birds n't go around attacking people , ?", 'Pecking Order', 'Keep Watching Skies', 'Engrossing Hitchcock thriller', 'Reality Flies Off', 'Birds different feather indeed flock together .', 'Haunting', 'Birds feather ....']</t>
+          <t>['You guaranteed terrified birds seeing movie', 'Our Avian Friends Attack', 'takes long start', 'It Just Could Have Been Better', 'Still terrifying ', 'Mad Birds', 'The Deadly Attack Birds', 'Dated effects chilling great fun subtexts', 'When birds attack ', 'Awesome Hitchcock movie horror moments hairraising scenes', 'Hitchcock always knew make use chaos  takes extreme', 'If birds nt get  lung cancer ', 'Very Enjoyable Hitchcock Classic', 'The Good  Bad Of The Birds ', 'The plot infuriatingly vague  Hitchcock s got goods semiclassic ', 'A short story turned twohour movie ', 'absurd completely terrifying  film massive intelligence enthrallment', 'Birds nt go around attacking people  ', 'Pecking Order', 'Keep Watching Skies', 'Engrossing Hitchcock thriller', 'Reality Flies Off', 'Birds different feather indeed flock together ', 'Haunting', 'Birds feather ']</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['solid enviro drama', 'Very Human Film', 'What powerful movie .', 'Muddled clear', 'Engaging bit earnest stodgy', "Not exactly laugh minute . Unless 're sat front , .", 'Goliath Dupont taken locals persistent lawyer .', "What Corporation 'Person ' , Person villain", 'Straight Down Line', 'Good movie scandal still continuing thanks whole corrupt ( ) justice system .', 'Worthy issues Erin Brokovich', "'We protect us . We . Nobody else '", 'Toss Teflon !', 'Revealing , soul searching truth moral justice hidden corruption !', "In Pharma 's Way", 'A story worthwhile telling sure , way told rather tedious lots ( superfluous ) family stuff distracting righteous underdog story .', 'lice vs.the giant', 'Interesting , engaging real life thriller', 'An important story dull movie ...', 'brave new world ?', 'Not As Furious As It Should Be', 'Very good movie issues', "And What About Companies We Do n't Know About", 'Ruffalo One Best', 'Wow , knew ? This biopic story NEEDED told .']</t>
+          <t>['solid enviro drama', 'Very Human Film', 'What powerful movie ', 'Muddled clear', 'Engaging bit earnest stodgy', 'Not exactly laugh minute  Unless re sat front  ', 'Goliath Dupont taken locals persistent lawyer ', 'What Corporation Person   Person villain', 'Straight Down Line', 'Good movie scandal still continuing thanks whole corrupt   justice system ', 'Worthy issues Erin Brokovich', 'We protect us  We  Nobody else ', 'Toss Teflon ', 'Revealing  soul searching truth moral justice hidden corruption ', 'In Pharma s Way', 'A story worthwhile telling sure  way told rather tedious lots  superfluous  family stuff distracting righteous underdog story ', 'lice vsthe giant', 'Interesting  engaging real life thriller', 'An important story dull movie ', 'brave new world ', 'Not As Furious As It Should Be', 'Very good movie issues', 'And What About Companies We Do nt Know About', 'Ruffalo One Best', 'Wow  knew  This biopic story NEEDED told ']</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Ass-kicking extravaganza', 'Good action , loses realism near end', 'Raiders tower block', 'Raid', 'Violent , Full Action without Story', 'Intensely violent action covers clunky plotting surprising lack tension', 'Without doubt best action movie I ever seen ...', 'Non-stop , pulse-pounding martial arts action .', 'Ruined ridiculous fight sequences', "Good action flick could 've better less fighting", 'Brutal faint heart', 'Simple action movie , simple action movies like .', 'fond memories early Hong Kong movies 70s Jackie Chan , .', 'action packed violent flick', 'Thirty floors hell .', 'Double bill - The Raid The Raid 2', 'A Nutshell Review : The Raid', 'notes', 'A Rousing BloodBath !', 'Never seen bloody ballet violence', "Brutal relentless , 's suspense ?", 'Brutal yet fantastic action thriller', '[ 8.5 ] The skinny power station !', "Thrill minute action spectacular kind Hollywood wo n't make anymore", 'One best action movies 2011']</t>
+          <t>['Asskicking extravaganza', 'Good action  loses realism near end', 'Raiders tower block', 'Raid', 'Violent  Full Action without Story', 'Intensely violent action covers clunky plotting surprising lack tension', 'Without doubt best action movie I ever seen ', 'Nonstop  pulsepounding martial arts action ', 'Ruined ridiculous fight sequences', 'Good action flick could ve better less fighting', 'Brutal faint heart', 'Simple action movie  simple action movies like ', 'fond memories early Hong Kong movies 70s Jackie Chan  ', 'action packed violent flick', 'Thirty floors hell ', 'Double bill  The Raid The Raid 2', 'A Nutshell Review  The Raid', 'notes', 'A Rousing BloodBath ', 'Never seen bloody ballet violence', 'Brutal relentless  s suspense ', 'Brutal yet fantastic action thriller', ' 85  The skinny power station ', 'Thrill minute action spectacular kind Hollywood wo nt make anymore', 'One best action movies 2011']</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['fun', 'Rise machines ...', 'Listen nerds geeks !', 'An impressive animated action comedy', 'A Rhombus Infinite Delights !', 'Fun , lively vibrant', 'I loved movie comes full circle I hope make sequel . Very good job , Netflix .', 'Exhausting', 'whirlwind activity', 'Colorful , chaotic endearing', 'Hyperactive heartfelt .', 'Fun funny heart', 'The adventures wonderful , perfect strips , super fun exciting ...', 'Wildly entertaining', 'fast furiously funny', 'An top KIDS cartoon .', 'Starts mechanical , ramps end', "Here comes Sony 's Version Pixar Classic deliver Best Animated film Spider Verse .", 'sharpsharpsharp writing', 'A Family-Friendly Fare Marred By Its Hyper Execution', "I ai n't buddy , Pal .", 'Special Fun', 'A Rhombus Infinite Subjugation ...', 'Best Animation Of The 2021', 'Streaming Wars Get Out Hand']</t>
+          <t>['fun', 'Rise machines ', 'Listen nerds geeks ', 'An impressive animated action comedy', 'A Rhombus Infinite Delights ', 'Fun  lively vibrant', 'I loved movie comes full circle I hope make sequel  Very good job  Netflix ', 'Exhausting', 'whirlwind activity', 'Colorful  chaotic endearing', 'Hyperactive heartfelt ', 'Fun funny heart', 'The adventures wonderful  perfect strips  super fun exciting ', 'Wildly entertaining', 'fast furiously funny', 'An top KIDS cartoon ', 'Starts mechanical  ramps end', 'Here comes Sony s Version Pixar Classic deliver Best Animated film Spider Verse ', 'sharpsharpsharp writing', 'A FamilyFriendly Fare Marred By Its Hyper Execution', 'I ai nt buddy  Pal ', 'Special Fun', 'A Rhombus Infinite Subjugation ', 'Best Animation Of The 2021', 'Streaming Wars Get Out Hand']</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>["It 's like drugs .... good drugs , .... still drugs ! And drugs whole family enjoy !", 'A magical charming delight', 'Terrific Studio Ghibli movie', 'good best Studio Ghibli', 'Fish water', 'Very much kids still plenty charm good animation', "Miyazaki 's adorable work since Totoro ... 's masterpiece given", "Hayao Miyazaki 's Ponyo another animated masterpieces", 'Let imagination run wild', 'Miyazaki definitely better films terms storyline animation , still good entertaining', 'Disney , go home', 'Remarkably beautiful', 'Fish water .', 'Great animation quirky story . Perfect child movie .', 'Cool storms', 'A Nutshell Review : Ponyo Cliff Sea', 'Trip', 'Beautiful animation , creative characters interesting settings', 'A Tsunami Emotions Master Miyazaki ...', 'Another Delight From The Greatest Animator Of Our Times', 'Great see Miyazaki !', 'Cute odd', 'Being Human', 'Miyazaki uses wild imagination enchant families `` Ponyo ``', "It 's lighter film Miyazaki expressive"]</t>
+          <t>['It s like drugs  good drugs   still drugs  And drugs whole family enjoy ', 'A magical charming delight', 'Terrific Studio Ghibli movie', 'good best Studio Ghibli', 'Fish water', 'Very much kids still plenty charm good animation', 'Miyazaki s adorable work since Totoro  s masterpiece given', 'Hayao Miyazaki s Ponyo another animated masterpieces', 'Let imagination run wild', 'Miyazaki definitely better films terms storyline animation  still good entertaining', 'Disney  go home', 'Remarkably beautiful', 'Fish water ', 'Great animation quirky story  Perfect child movie ', 'Cool storms', 'A Nutshell Review  Ponyo Cliff Sea', 'Trip', 'Beautiful animation  creative characters interesting settings', 'A Tsunami Emotions Master Miyazaki ', 'Another Delight From The Greatest Animator Of Our Times', 'Great see Miyazaki ', 'Cute odd', 'Being Human', 'Miyazaki uses wild imagination enchant families  Ponyo ', 'It s lighter film Miyazaki expressive']</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>["While 's standards many earlier Disney films , quite enjoyable .", "movie 's legend", 'fun collection characters', 'Memorable Softened Version Kipling Classic', 'stick 1994 movie', 'An animated classic great songs', 'A Strong Disney Film', 'A Great Movie For Kids', "`` I 'm gone , man , solid gone ! ! ``", 'likely appeal kids right , adults grew', 'Wonderful , fun movie , suitable ages', 'Nothing bad hardly Disney classic must-see book .', 'Forty years old , animation still holds today', 'This springs mind I think Classic Disney', 'Some song-and-dance scenes stand shoulder-to-shoulder best peers ; rest , much .', 'Extremely Hilarious', 'Cute , cute , baby cute ...', 'Cute little movie', 'The Simple Bear Necessities', 'Fun-filled jungle adventure !', 'watch many inferior knockoff versions', 'Too Juvenile , Innocent &amp; Sugarcoated For My Taste .', 'Timeless .', 'Jungle Fever', 'Fun']</t>
+          <t>['While s standards many earlier Disney films  quite enjoyable ', 'movie s legend', 'fun collection characters', 'Memorable Softened Version Kipling Classic', 'stick 1994 movie', 'An animated classic great songs', 'A Strong Disney Film', 'A Great Movie For Kids', ' I m gone  man  solid gone   ', 'likely appeal kids right  adults grew', 'Wonderful  fun movie  suitable ages', 'Nothing bad hardly Disney classic mustsee book ', 'Forty years old  animation still holds today', 'This springs mind I think Classic Disney', 'Some songanddance scenes stand shouldertoshoulder best peers  rest  much ', 'Extremely Hilarious', 'Cute  cute  baby cute ', 'Cute little movie', 'The Simple Bear Necessities', 'Funfilled jungle adventure ', 'watch many inferior knockoff versions', 'Too Juvenile  Innocent  Sugarcoated For My Taste ', 'Timeless ', 'Jungle Fever', 'Fun']</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>["Like Wes Anderson 's films , really n't make lot sense .", 'quirky characters wacky Wes Anderson style', 'Fun Characters Performances', 'School daze', 'Succeeds much dark emotion dark comedy', 'I guess school sucks people !', 'A fine movie , enjoy slightly off-beat films .', 'This movie OK I expected better', 'Good film , tad over-rated', 'So straight forward yet weird', 'A boy dares dream .', 'Sincerely Smug', 'Did care much subject matter', "What 's secret , Max ?", "You 'll love hate .", "ONE OF THE GREATEST COMEDIES EVER MADE ; MURRAY 'S FINEST WORK", 'Amazing levels', 'Nothing special', 'Dream big', "launch pad Anderson 's distinctively quirky aesthetic pursuit", 'Awesome !', 'I lack proper requirements , er , eccentricities', 'A creative fresh little humorous drama-lite .', 'Great dry comedy', 'Self-regarding']</t>
+          <t>['Like Wes Anderson s films  really nt make lot sense ', 'quirky characters wacky Wes Anderson style', 'Fun Characters Performances', 'School daze', 'Succeeds much dark emotion dark comedy', 'I guess school sucks people ', 'A fine movie  enjoy slightly offbeat films ', 'This movie OK I expected better', 'Good film  tad overrated', 'So straight forward yet weird', 'A boy dares dream ', 'Sincerely Smug', 'Did care much subject matter', 'What s secret  Max ', 'You ll love hate ', 'ONE OF THE GREATEST COMEDIES EVER MADE  MURRAY S FINEST WORK', 'Amazing levels', 'Nothing special', 'Dream big', 'launch pad Anderson s distinctively quirky aesthetic pursuit', 'Awesome ', 'I lack proper requirements  er  eccentricities', 'A creative fresh little humorous dramalite ', 'Great dry comedy', 'Selfregarding']</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>["movie tries hard annoy ca n't stop rooting family", 'Could challenging interesting patronisingly simplistic , sentimental tiresome', 'Do like `` I Am Sam `` ? Yes , I like , Sam I .', 'Worthy sentiment , arty presentation illogical shallow ...', "It 's getting hard someone works .", 'Better watch , Sean Penn get', 'Emotional', 'The walrus looks Lucy sky .', 'Great , incredibly moving movie', 'Highly Manipulative Despite The Very Strong Lead Performance', 'Tears You Apart Pieces You Back Together', 'Sam', "lot going , 's worth .", 'Annoying , stupid , over-dramatized , bittersweet drama .', 'ALL YOU NEED IS LOVE', '. . . worst case sugar overdose since ` The Majestic', "Sean Penn 've Oscar year !", "I ca n't stop crying !", "I would n't let Sam babysit kid much less raise .", 'A great performance Sean Penn good movie', "Sorry real world ai n't Beatles ' song ...", 'Effective Performance By Sean Penn', "Do n't Be Fooled", "Sean Penn 's ploy win oscar", 'All You Need Is Love !']</t>
+          <t>['movie tries hard annoy ca nt stop rooting family', 'Could challenging interesting patronisingly simplistic  sentimental tiresome', 'Do like  I Am Sam   Yes  I like  Sam I ', 'Worthy sentiment  arty presentation illogical shallow ', 'It s getting hard someone works ', 'Better watch  Sean Penn get', 'Emotional', 'The walrus looks Lucy sky ', 'Great  incredibly moving movie', 'Highly Manipulative Despite The Very Strong Lead Performance', 'Tears You Apart Pieces You Back Together', 'Sam', 'lot going  s worth ', 'Annoying  stupid  overdramatized  bittersweet drama ', 'ALL YOU NEED IS LOVE', '   worst case sugar overdose since  The Majestic', 'Sean Penn ve Oscar year ', 'I ca nt stop crying ', 'I would nt let Sam babysit kid much less raise ', 'A great performance Sean Penn good movie', 'Sorry real world ai nt Beatles  song ', 'Effective Performance By Sean Penn', 'Do nt Be Fooled', 'Sean Penn s ploy win oscar', 'All You Need Is Love ']</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['campy fun', 'Rare Sequel That Is Better Than Original', 'The road long', 'Road Warrior', 'The sequel surpasses first movie miles ...', 'This stirring movie comic-strip style packed unbelievable car stunts , thrills , chills noisy action', 'Australian movie requires think much `` XxX `` ...', "Put ass-less leather chaps , pop best studded shoulder pads , comb mohawk—it 's Mad Max time ! !", "truly threatening anarchic villains action n't feel like 'll stop", 'If You Want Run Cool , You Got Run Heavy , Heavy Fuel .', 'Top notch escapism .', 'The last V8 Interceptors battle gasoline !', 'Mad Max Gets Better', 'The dangerous car action rivals first', 'Yayy', 'Actually Better Than Its Predecessor', '`` And , blighted place , learned live ... ``', 'This film stands elite masterpiece within apocalypse genre', 'Best sequel ever ? Could', 'Fighting fuel post-apocalyptic wasteland Outback', 'see one', "We 're Partners ! !", 'Easily best Mad Max trilogy .', 'Excellent Sequel .', 'Mad Max 2']</t>
+          <t>['campy fun', 'Rare Sequel That Is Better Than Original', 'The road long', 'Road Warrior', 'The sequel surpasses first movie miles ', 'This stirring movie comicstrip style packed unbelievable car stunts  thrills  chills noisy action', 'Australian movie requires think much  XxX  ', 'Put assless leather chaps  pop best studded shoulder pads  comb mohawkit s Mad Max time  ', 'truly threatening anarchic villains action nt feel like ll stop', 'If You Want Run Cool  You Got Run Heavy  Heavy Fuel ', 'Top notch escapism ', 'The last V8 Interceptors battle gasoline ', 'Mad Max Gets Better', 'The dangerous car action rivals first', 'Yayy', 'Actually Better Than Its Predecessor', ' And  blighted place  learned live  ', 'This film stands elite masterpiece within apocalypse genre', 'Best sequel ever  Could', 'Fighting fuel postapocalyptic wasteland Outback', 'see one', 'We re Partners  ', 'Easily best Mad Max trilogy ', 'Excellent Sequel ', 'Mad Max 2']</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['cat goes fishing', 'Subject Not Found', 'An excellent film , despite distracting direction .', 'Found', 'Intriguing Overrated', "A father 's frantic search social media find missing daughter .", 'Superb sublime', 'What captivating story', "I 'm sure much multiple viewings value , worth watching", 'Entertaining Pot Boiler', 'Surprisingly better I thought would .', "You search like , wo n't find better 'found footage ' film .", "Every parent 's nightmare", 'A cat mouse game online drama , suspense frantic search .', "Social media parent 's love toxic mix .", 'Excellent less demanding palates thirsty style ...', 'Highly original compelling thriller', 'Grace Be You', 'Really awesome !', 'A unique way telling familiar story', 'A terrific thriller advanced structure smart movie buffs `` Searching `` .', 'good computer screen thriller', 'Well-Made And Engaging', 'Effectively creepy disturbing well !', 'A Perfect Thriller For The Digital Age']</t>
+          <t>['cat goes fishing', 'Subject Not Found', 'An excellent film  despite distracting direction ', 'Found', 'Intriguing Overrated', 'A father s frantic search social media find missing daughter ', 'Superb sublime', 'What captivating story', 'I m sure much multiple viewings value  worth watching', 'Entertaining Pot Boiler', 'Surprisingly better I thought would ', 'You search like  wo nt find better found footage  film ', 'Every parent s nightmare', 'A cat mouse game online drama  suspense frantic search ', 'Social media parent s love toxic mix ', 'Excellent less demanding palates thirsty style ', 'Highly original compelling thriller', 'Grace Be You', 'Really awesome ', 'A unique way telling familiar story', 'A terrific thriller advanced structure smart movie buffs  Searching  ', 'good computer screen thriller', 'WellMade And Engaging', 'Effectively creepy disturbing well ', 'A Perfect Thriller For The Digital Age']</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Joseph Gordon-Levitt really come ....', 'Funny cancer movie', 'Bittersweet symphony', 'What surprise movie ...', 'Seth Rogen different role', 'genuine surprise', 'A touching emotional journey', 'Great , emotional drama', 'Tackles Tough Topic', 'The Big C', '50/50 chance getting ...', "50/50 Is Pretty Good Way Describe My Reaction This Movie -- Half Liked It , Half Did n't", 'Tears , Laughs , Life Lessons', 'A perfectly fine , honest , little movie !', 'Emotional movie funny parts', 'It actually works - comedy illness', "'We die one point . It part life . '", '50/50', "It 's balancing act .", 'A Nutshell Review : 50/50', 'notes', 'A Genuinely Good Film ...', 'Comedic , inspiring , dramatic , tearful , effervescent', 'This film succeeds feels honest', 'This movie might separated 50/50 comes audiences , I liked movie']</t>
+          <t>['Joseph GordonLevitt really come ', 'Funny cancer movie', 'Bittersweet symphony', 'What surprise movie ', 'Seth Rogen different role', 'genuine surprise', 'A touching emotional journey', 'Great  emotional drama', 'Tackles Tough Topic', 'The Big C', '5050 chance getting ', '5050 Is Pretty Good Way Describe My Reaction This Movie  Half Liked It  Half Did nt', 'Tears  Laughs  Life Lessons', 'A perfectly fine  honest  little movie ', 'Emotional movie funny parts', 'It actually works  comedy illness', 'We die one point  It part life  ', '5050', 'It s balancing act ', 'A Nutshell Review  5050', 'notes', 'A Genuinely Good Film ', 'Comedic  inspiring  dramatic  tearful  effervescent', 'This film succeeds feels honest', 'This movie might separated 5050 comes audiences  I liked movie']</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Not easiest watch , hugely rewarding', 'remarkable performances', "Great film whose fragmented ` structure ' much weakness strength", 'good grief', 'This Film Inspiring', 'Ironic , brave , intense ...', 'Absorbing powerful direction &amp; acting ; story structure less great', 'Emotional touching', 'Confusing , tiring , disappointing , anti-climactic', 'Disappointing', 'Three lives', '21 grams fat', 'Film Magic', '2003 : The Year Revenge', 'Jesus gave truck ... 5 nickels', 'Pure movie making best .', "OSCAR CALIBRE TRIFECTA OF ACTING ; ONE OF THE YEAR 'S BEST FILMS", "` 21 Grams ' existential film 2003 .", 'Great Masterpiece Work', 'Confusing &amp; Complicated ...', "There 's point", 'Shockingly realistic deeply emotional .', 'Excellent unpleasantness', 'The nonlinear storytelling unnecessary film whole so-so', 'Structure unity']</t>
+          <t>['Not easiest watch  hugely rewarding', 'remarkable performances', 'Great film whose fragmented  structure  much weakness strength', 'good grief', 'This Film Inspiring', 'Ironic  brave  intense ', 'Absorbing powerful direction  acting  story structure less great', 'Emotional touching', 'Confusing  tiring  disappointing  anticlimactic', 'Disappointing', 'Three lives', '21 grams fat', 'Film Magic', '2003  The Year Revenge', 'Jesus gave truck  5 nickels', 'Pure movie making best ', 'OSCAR CALIBRE TRIFECTA OF ACTING  ONE OF THE YEAR S BEST FILMS', ' 21 Grams  existential film 2003 ', 'Great Masterpiece Work', 'Confusing  Complicated ', 'There s point', 'Shockingly realistic deeply emotional ', 'Excellent unpleasantness', 'The nonlinear storytelling unnecessary film whole soso', 'Structure unity']</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Still powerful film 59 years later', 'Not I hoping', 'A Tale Of Three Misfits', 'James Dean classic', 'Making Dean Legend', '`` A Coat They Borrowed James Dean ``', 'behind controverses', 'Could friends', 'Watchable , ...', 'A misfit young man gets mixed tough guys two sensitive , troubled friends', "`` You 're tearing apart ! ``", "The Film That 's Synonymous With James Dean", 'A Good `` Cause `` To Not Like The Film', 'James Dean , Natalie Wood , Sal Mineo , three high school misfits .', 'Dreamy-tragic teen angst ...', "favorite Nick Ray film far , 's worth viewing `` essential `` 50s", 'Strong start , aimless ending', 'Took My Highschool Storm', 'A `` Square `` Studio Production', 'One truthful movies teenagers', 'Forceful drama teen-age alienation ...', 'G fb unny', 'Still relevant today', 'Everything movie perfect', 'A Deeply Disquieting Film About Juvenile Delinquency']</t>
+          <t>['Still powerful film 59 years later', 'Not I hoping', 'A Tale Of Three Misfits', 'James Dean classic', 'Making Dean Legend', ' A Coat They Borrowed James Dean ', 'behind controverses', 'Could friends', 'Watchable  ', 'A misfit young man gets mixed tough guys two sensitive  troubled friends', ' You re tearing apart  ', 'The Film That s Synonymous With James Dean', 'A Good  Cause  To Not Like The Film', 'James Dean  Natalie Wood  Sal Mineo  three high school misfits ', 'Dreamytragic teen angst ', 'favorite Nick Ray film far  s worth viewing  essential  50s', 'Strong start  aimless ending', 'Took My Highschool Storm', 'A  Square  Studio Production', 'One truthful movies teenagers', 'Forceful drama teenage alienation ', 'G fb unny', 'Still relevant today', 'Everything movie perfect', 'A Deeply Disquieting Film About Juvenile Delinquency']</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['While The Family Was At The Fair', 'simple bittersweet story', 'Wonderful , Emotional Love Story', "An Actor 's Film", 'beautiful', "Clint Eastwood 's best effort since BIRD", 'A Sad Comment On The Times', 'Should please admirers book ... Streep gives added sparkle', 'keeper flame', 'uncertainty certain world , two mega-star icons falling love punches pulled', 'Emotional drama', 'Quiet affecting', 'Honest emotions , touching story , deeply felt performances ...', 'Moving performances Streep Eastwood', 'ITS A TRAP ! ! !', 'Such improvement story', 'Real-life questions love infidelity', 'Nobody Eastwood Streep !', 'A Film For The Elders ...', "When good adultery n't necessarily depend bad marriage ...", "There wo n't dry eye house !", 'To Have Dreamed For A Little While Than To Never Have Dreamed At All', "Clint 's least watchable", 'As Effective As It Is Simple', 'Before Sunrise , middle-age version']</t>
+          <t>['While The Family Was At The Fair', 'simple bittersweet story', 'Wonderful  Emotional Love Story', 'An Actor s Film', 'beautiful', 'Clint Eastwood s best effort since BIRD', 'A Sad Comment On The Times', 'Should please admirers book  Streep gives added sparkle', 'keeper flame', 'uncertainty certain world  two megastar icons falling love punches pulled', 'Emotional drama', 'Quiet affecting', 'Honest emotions  touching story  deeply felt performances ', 'Moving performances Streep Eastwood', 'ITS A TRAP   ', 'Such improvement story', 'Reallife questions love infidelity', 'Nobody Eastwood Streep ', 'A Film For The Elders ', 'When good adultery nt necessarily depend bad marriage ', 'There wo nt dry eye house ', 'To Have Dreamed For A Little While Than To Never Have Dreamed At All', 'Clint s least watchable', 'As Effective As It Is Simple', 'Before Sunrise  middleage version']</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['excellent Forest Whitaker', "Whitaker 's Oscar", 'Whitaker Is Amin', 'impressive', 'Another Manipulation Historic Event Magnificent Performance Forest Whitaker', 'The use Garrigan strength weakness good film thanks mainly terrific turn Whitaker', "Very well played dramatization Idi Amin 's eight-year reign terror Uganda", 'superb thriller', 'Although Fictional , A Nice Telling Amin', "Fictionalized history , Scottish protagonist n't elicit much sympathy", "contains conventions convictions good thrillers , 'tour-de-force ' performance", 'Moving Tale', 'I father Africa .', "It 's Whitaker 's Movie", 'Good unremarkable portrait Amin fails stand pretty much portrait dictator', 'THE LAST KING OF Scotland ( Kevin MacDonald , 2006 ) * * *', 'I would strongly recommend seeing .', 'You must find way get .', 'A Hugely Exciting African-Set Thriller', "You 're My Closest Adviser", 'A good movie nothing really .', 'A tale seduction let poor final third', 'How Dictators Rise ... Fall', 'Fine film', "Geography n't strong suit , ..."]</t>
+          <t>['excellent Forest Whitaker', 'Whitaker s Oscar', 'Whitaker Is Amin', 'impressive', 'Another Manipulation Historic Event Magnificent Performance Forest Whitaker', 'The use Garrigan strength weakness good film thanks mainly terrific turn Whitaker', 'Very well played dramatization Idi Amin s eightyear reign terror Uganda', 'superb thriller', 'Although Fictional  A Nice Telling Amin', 'Fictionalized history  Scottish protagonist nt elicit much sympathy', 'contains conventions convictions good thrillers  tourdeforce  performance', 'Moving Tale', 'I father Africa ', 'It s Whitaker s Movie', 'Good unremarkable portrait Amin fails stand pretty much portrait dictator', 'THE LAST KING OF Scotland  Kevin MacDonald  2006    ', 'I would strongly recommend seeing ', 'You must find way get ', 'A Hugely Exciting AfricanSet Thriller', 'You re My Closest Adviser', 'A good movie nothing really ', 'A tale seduction let poor final third', 'How Dictators Rise  Fall', 'Fine film', 'Geography nt strong suit  ']</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['like hotel studio', 'John Goodman , Forevery !', 'Hell-ywood', 'The strange tale New York playwright gets job Hollywood', 'Lesser-Viewed Coen Brothers Film Really Hits Hard', 'Haunted hearts heads hotels ...', 'Whacked Coen Brothers movie', "Coen 's ambiguous work ; older cousin Lynch 's Mulholland Drive", 'A sharp dark comedy creative process .', 'Rather Random', "Look upon ! I 'll show life mind !", 'A Miss Coen Brothers', 'Dark , claustrophobic , deep surreal ! ! !', "It feels like Coens struggling much writer 's block Barton Fink .", 'A personal hell sorts', 'A Nutshell Reiview : ( DVD ) Barton Fink ( 1991 )', 'That Barton Fink feeling ...', 'The Coen Bros Deliver Another Winner !', '`` A fruity picture suffering `` . One darkest profound Coen Brother stories ever made . Devastating brilliant classic .', 'Overrated', 'Fascinatingly enigmatic ...', 'Difficult understand perfect portrait gap common public minds intellectuals .', 'Another masterpiece Coens', 'John Turturro John Goodman ...', "Writer 's Block Indeed"]</t>
+          <t>['like hotel studio', 'John Goodman  Forevery ', 'Hellywood', 'The strange tale New York playwright gets job Hollywood', 'LesserViewed Coen Brothers Film Really Hits Hard', 'Haunted hearts heads hotels ', 'Whacked Coen Brothers movie', 'Coen s ambiguous work  older cousin Lynch s Mulholland Drive', 'A sharp dark comedy creative process ', 'Rather Random', 'Look upon  I ll show life mind ', 'A Miss Coen Brothers', 'Dark  claustrophobic  deep surreal   ', 'It feels like Coens struggling much writer s block Barton Fink ', 'A personal hell sorts', 'A Nutshell Reiview   DVD  Barton Fink  1991 ', 'That Barton Fink feeling ', 'The Coen Bros Deliver Another Winner ', ' A fruity picture suffering   One darkest profound Coen Brother stories ever made  Devastating brilliant classic ', 'Overrated', 'Fascinatingly enigmatic ', 'Difficult understand perfect portrait gap common public minds intellectuals ', 'Another masterpiece Coens', 'John Turturro John Goodman ', 'Writer s Block Indeed']</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Excellent film watch kids , mother Father Jenkins .', '`` Pelham 1-2-3 motion ``', 'Solid Exciting Thriller', 'Terrific Crime Film Great Dialogue', 'Portrait Of A Moment', 'Original better ( almost everything )', "Classic 70 's thriller edge comedy", 'Over-the-top thriller hijack gang seizes NYC subway train holds passengers big ransom', 'aside hijacking , seems like typical day New York', 'A taut seventies thriller set New York subway', 'Next stop : excitement tension .', 'A pure seventies jewel', 'Off-The-Charts Profanity Ruins Film', 'Thoroughly gripping despite glum production ...', '`` Gesundheit ``', "Exciting 70 's action", '`` Excuse , people still execute state ? ``', 'Single-Minded Suspense', "70 's Era Fan Favorite Crime Movie - Suspense , Cynical Humor &amp; Un-PC Characters", 'Great thriller-drama', 'Classic And Witty Thriller', 'Choking NYC Transit', 'Great thriller', 'The subway sequences among highlights', 'Entertaining , far glib']</t>
+          <t>['Excellent film watch kids  mother Father Jenkins ', ' Pelham 123 motion ', 'Solid Exciting Thriller', 'Terrific Crime Film Great Dialogue', 'Portrait Of A Moment', 'Original better  almost everything ', 'Classic 70 s thriller edge comedy', 'Overthetop thriller hijack gang seizes NYC subway train holds passengers big ransom', 'aside hijacking  seems like typical day New York', 'A taut seventies thriller set New York subway', 'Next stop  excitement tension ', 'A pure seventies jewel', 'OffTheCharts Profanity Ruins Film', 'Thoroughly gripping despite glum production ', ' Gesundheit ', 'Exciting 70 s action', ' Excuse  people still execute state  ', 'SingleMinded Suspense', '70 s Era Fan Favorite Crime Movie  Suspense  Cynical Humor  UnPC Characters', 'Great thrillerdrama', 'Classic And Witty Thriller', 'Choking NYC Transit', 'Great thriller', 'The subway sequences among highlights', 'Entertaining  far glib']</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>["I could n't stop shaking", 'Masterpiece', 'Tragedy', 'When Contemporary World Changed', 'By turns interesting moving well worth seeing', 'bloody Tuesday', 'Does It Age Well ?', 'Shattering worth seeing', "Greengrass 's masterpiece", 'United 93 Testimony Profiles Courage * * * *', 'Intense , realistic utterly compelling', 'Finale weakened use Cinema Verite style ...', 'Its well made , left feeling empty', 'Not story', 'A Tough Watch , But Tremendously Well Done', 'Disturbinly realistic .', 'Paul Greengrass Creates Impossible : Capturing Horror 9/11', 'Dull first hour gives way engaging final third', "A grueling tribute families 911 victims , even though 's emotional terror sadness .", 'Horrifying go , I think important film generations come', 'Sad heroic', 'Horrifically fresh', 'day world changed', "Will film year list , I 'm sure", 'A Fitting Tribute To The Passengers Of United 93']</t>
+          <t>['I could nt stop shaking', 'Masterpiece', 'Tragedy', 'When Contemporary World Changed', 'By turns interesting moving well worth seeing', 'bloody Tuesday', 'Does It Age Well ', 'Shattering worth seeing', 'Greengrass s masterpiece', 'United 93 Testimony Profiles Courage    ', 'Intense  realistic utterly compelling', 'Finale weakened use Cinema Verite style ', 'Its well made  left feeling empty', 'Not story', 'A Tough Watch  But Tremendously Well Done', 'Disturbinly realistic ', 'Paul Greengrass Creates Impossible  Capturing Horror 911', 'Dull first hour gives way engaging final third', 'A grueling tribute families 911 victims  even though s emotional terror sadness ', 'Horrifying go  I think important film generations come', 'Sad heroic', 'Horrifically fresh', 'day world changed', 'Will film year list  I m sure', 'A Fitting Tribute To The Passengers Of United 93']</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>["Studio Ghibli 's last ? Who knows .... I would n't let young kids watch one .", 'Another Studio Ghibli charmer', 'In love', 'one told ...', 'So sweet , lovable', 'Something Universal Relevance', 'Sweet simple , lacking magic', 'Very slow-paced , charming .', "A Love Story , A Coming-of-Age Drama &amp; A Journey Into One 's Own Past", 'Living Life With Smile', 'Sweet', 'One best Studio Ghibli films', 'More striking anime Studio Ghibli .', "Some people 're destined meet secret friend .", 'A touching heartwarming story done using anime .', 'Shows promise', 'A gorgeous film', 'An amazing animated film masterful animation company', 'Wondrous film counts', 'That Story Still Sinking Heart', 'When Marnie Was There beautifully haunting story closes book Studio Ghibli', 'This touching !', 'Hey Look , Marnie Here', 'Creepy good way chilling storyline', 'Mixed feelings , good film']</t>
+          <t>['Studio Ghibli s last  Who knows  I would nt let young kids watch one ', 'Another Studio Ghibli charmer', 'In love', 'one told ', 'So sweet  lovable', 'Something Universal Relevance', 'Sweet simple  lacking magic', 'Very slowpaced  charming ', 'A Love Story  A ComingofAge Drama  A Journey Into One s Own Past', 'Living Life With Smile', 'Sweet', 'One best Studio Ghibli films', 'More striking anime Studio Ghibli ', 'Some people re destined meet secret friend ', 'A touching heartwarming story done using anime ', 'Shows promise', 'A gorgeous film', 'An amazing animated film masterful animation company', 'Wondrous film counts', 'That Story Still Sinking Heart', 'When Marnie Was There beautifully haunting story closes book Studio Ghibli', 'This touching ', 'Hey Look  Marnie Here', 'Creepy good way chilling storyline', 'Mixed feelings  good film']</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>["Audrey Tautou 's best film", 'A wonderful film , moving disturbing needs .', 'beautiful looking', 'Sad Hopeful ; Price Love', 'pure poetry', 'Too Long Overrated Romance Beautiful Cinematography Music Score', 'An enjoyable mix things brutal involving even central romantic thread perhaps weakest part times', "It 's hard world , especially wartime .", 'A fruitful fight one determined woman bring back dead ...', 'Gluttony', 'A Very Long Engagement Is Definitely On The Cards ...', 'No `` Amelie , `` But Not Bad', 'Beautiful film .', 'Gone War , Not Heart', 'Another stylish treat modern French genius Jean-Pierre Jeunet', 'A merciless view war carnage , physical mental .', 'A Nutshell Review : A Very Long Engagement', 'Taste miracle', 'Good , I expected love much', 'Just BRILLIANT !', 'While life , hope ...', 'Audrey , please , quit acting !', 'A must see anyone wants good movie First World War .', 'So dull', 'How one love film ? There almost many ways count']</t>
+          <t>['Audrey Tautou s best film', 'A wonderful film  moving disturbing needs ', 'beautiful looking', 'Sad Hopeful  Price Love', 'pure poetry', 'Too Long Overrated Romance Beautiful Cinematography Music Score', 'An enjoyable mix things brutal involving even central romantic thread perhaps weakest part times', 'It s hard world  especially wartime ', 'A fruitful fight one determined woman bring back dead ', 'Gluttony', 'A Very Long Engagement Is Definitely On The Cards ', 'No  Amelie   But Not Bad', 'Beautiful film ', 'Gone War  Not Heart', 'Another stylish treat modern French genius JeanPierre Jeunet', 'A merciless view war carnage  physical mental ', 'A Nutshell Review  A Very Long Engagement', 'Taste miracle', 'Good  I expected love much', 'Just BRILLIANT ', 'While life  hope ', 'Audrey  please  quit acting ', 'A must see anyone wants good movie First World War ', 'So dull', 'How one love film  There almost many ways count']</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Excellent biopic', 'enigma Ian Curtis', 'Less joy , division', "Good n't really get inside focal point film way needed", "It 's love tore apart", 'Great rock biopic , one best', "Walk silence , n't walk away silence .", 'CONTROL ( Anton Corbijn , 2007 ) * * *', 'So permanence ; love-shattered pride . What innocence , turned side .', "One best films I 've ever seen", 'Joyless revision', 'Portrait artist confused boy', "The short , sad life Ian Curtis ... music 's great", 'subtle , well-acted docudrama', 'Ian Curtis Joy Division ...', 'Sam Riley astonishes , moody late 70s Manchester convincing ...', 'An extremely moving experience', 'Tragic story , gorgeous cinematography , great acting', 'Incredible biopic', 'Torn apart love epilepsy', 'Rise fall rock legend evocative black white', 'Not cup tea', 'Take Control Joy today ! And New Order day !', 'Careers tightly controlled arc , music biopic meets cinematic excellence', 'Haunting ...']</t>
+          <t>['Excellent biopic', 'enigma Ian Curtis', 'Less joy  division', 'Good nt really get inside focal point film way needed', 'It s love tore apart', 'Great rock biopic  one best', 'Walk silence  nt walk away silence ', 'CONTROL  Anton Corbijn  2007    ', 'So permanence  loveshattered pride  What innocence  turned side ', 'One best films I ve ever seen', 'Joyless revision', 'Portrait artist confused boy', 'The short  sad life Ian Curtis  music s great', 'subtle  wellacted docudrama', 'Ian Curtis Joy Division ', 'Sam Riley astonishes  moody late 70s Manchester convincing ', 'An extremely moving experience', 'Tragic story  gorgeous cinematography  great acting', 'Incredible biopic', 'Torn apart love epilepsy', 'Rise fall rock legend evocative black white', 'Not cup tea', 'Take Control Joy today  And New Order day ', 'Careers tightly controlled arc  music biopic meets cinematic excellence', 'Haunting ']</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['One absolute greatest Universal horror films', "Superb adaptation HG Wells ' novel", '`` Make world grovel feet ``', 'breath taking special effects', 'Great Sci-Fi', 'I Just Saw Invisible Man', 'inspired', 'Now see', 'A classic film good effects solid story \x96 impress modern audiences much still worth seeing', 'Old still holds ...', 'Classic fantasy terror movie James Whale appropriate special effects John P. Fulton', 'old woman `` Titanic `` ...', 'See .', 'Unfortunately In The Second Tier Universal Monsters', 'A terrific must see time .', 'Film Still Holds Up , Is Fun Except For Shrieker', 'Crafty James Whale thriller', 'great classic', '`` The power rule , make world grovel feet ! ``', 'Transparency bad , ?', 'The voice Claude Rains first `` appears `` screen ...', "`` Are n't glad found Me ? ``", 'It alters , changes .', 'Fast-moving', 'Entertaining H.G . Wells story still holds today ...']</t>
+          <t>['One absolute greatest Universal horror films', 'Superb adaptation HG Wells  novel', ' Make world grovel feet ', 'breath taking special effects', 'Great SciFi', 'I Just Saw Invisible Man', 'inspired', 'Now see', 'A classic film good effects solid story  impress modern audiences much still worth seeing', 'Old still holds ', 'Classic fantasy terror movie James Whale appropriate special effects John P Fulton', 'old woman  Titanic  ', 'See ', 'Unfortunately In The Second Tier Universal Monsters', 'A terrific must see time ', 'Film Still Holds Up  Is Fun Except For Shrieker', 'Crafty James Whale thriller', 'great classic', ' The power rule  make world grovel feet  ', 'Transparency bad  ', 'The voice Claude Rains first  appears  screen ', ' Are nt glad found Me  ', 'It alters  changes ', 'Fastmoving', 'Entertaining HG  Wells story still holds today ']</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['good performances', "Geoffrey Rush 's Tour de Force", 'Wonderful little story interesting majority heartbreaking times', 'This deserved Best Picture .', 'Magic Fingers', 'Intense , Well-Acted &amp; Photographed Movie', 'Moving moments film one takes heart', 'Powerful film', 'Good', 'Shine On , Mr . Rush', 'One great biopics .', 'A Beautiful Mind', 'Very good film great musical talent', 'Shine ! Shine !', 'Geoffrey Rush - An Acting Legend !', 'Dragged Down By A Weak Second Half', 'Perhaps one striking films work Geoffrey Rush , one toughest sincere portrayals brilliance cinema seen date .', 'Shining Through Darkness', 'Simply amazing Geoffrey Rush ...', 'Who Knew That Playing Piano Could Be So Much Work ?', 'Plausible harmony', 'Powerful Uplifting ,', 'Outstanding Rush', 'A consistently eye-rolling clock-watcher .', "Not kind film 's easy hum along , 's brilliant work"]</t>
+          <t>['good performances', 'Geoffrey Rush s Tour de Force', 'Wonderful little story interesting majority heartbreaking times', 'This deserved Best Picture ', 'Magic Fingers', 'Intense  WellActed  Photographed Movie', 'Moving moments film one takes heart', 'Powerful film', 'Good', 'Shine On  Mr  Rush', 'One great biopics ', 'A Beautiful Mind', 'Very good film great musical talent', 'Shine  Shine ', 'Geoffrey Rush  An Acting Legend ', 'Dragged Down By A Weak Second Half', 'Perhaps one striking films work Geoffrey Rush  one toughest sincere portrayals brilliance cinema seen date ', 'Shining Through Darkness', 'Simply amazing Geoffrey Rush ', 'Who Knew That Playing Piano Could Be So Much Work ', 'Plausible harmony', 'Powerful Uplifting ', 'Outstanding Rush', 'A consistently eyerolling clockwatcher ', 'Not kind film s easy hum along  s brilliant work']</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>["Is anti-Catholic ? Sure ... n't like n't given plenty ammo .", 'Simply beautiful', 'Wonderful Heartfelt Story', 'A Nice Change `` Big `` Movies', 'superb', 'The Lost Boy', "It 's story", 'Moving engaging true story well played touches sentiment forgivable understandable', 'Not As Hard-Hitting As It Thinks It Is', 'A surprise hit', 'lovely film', "Philomena fine true-life drama mother 's finding son made give adoption", 'Heartbreaking', 'A touching film', '`` Well maybe He played harp . ``', 'Charming , sensitive movie', 'Tough watch , great acting', 'About Bland Its Title', 'A Tangled Full Circle Web', '`` The End All Our Exploring Will Be Arrive Where We Started Know Place First Time ``', 'You Never Know Where A Journey Takes You !', 'Nice quiet movie disgusting period', 'Those nuns knew sex !', 'touching whole', 'A Gem Of A Film !']</t>
+          <t>['Is antiCatholic  Sure  nt like nt given plenty ammo ', 'Simply beautiful', 'Wonderful Heartfelt Story', 'A Nice Change  Big  Movies', 'superb', 'The Lost Boy', 'It s story', 'Moving engaging true story well played touches sentiment forgivable understandable', 'Not As HardHitting As It Thinks It Is', 'A surprise hit', 'lovely film', 'Philomena fine truelife drama mother s finding son made give adoption', 'Heartbreaking', 'A touching film', ' Well maybe He played harp  ', 'Charming  sensitive movie', 'Tough watch  great acting', 'About Bland Its Title', 'A Tangled Full Circle Web', ' The End All Our Exploring Will Be Arrive Where We Started Know Place First Time ', 'You Never Know Where A Journey Takes You ', 'Nice quiet movie disgusting period', 'Those nuns knew sex ', 'touching whole', 'A Gem Of A Film ']</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['high tension prison film', 'Imprisoned', 'Spectacular - One Best Films Prison', 'Rough entertaining ...', 'Violent riveting prison movie outstanding performances fine direction', 'Everybody whole cell block dancing jailhouse rock !', "Superb prison action thriller know Hollywood 's going go re-make", 'Powerful , Provocative &amp; Downright Intense !', '`` Straight bone ``', 'Prisoners', 'Nightmare First Day On The Job ...', 'A well made Spanish prison film', 'A prison film twist ... And powerful', 'BADASS', 'Magnificent moving', 'Riveting Prison Riot Drama .', 'You get alive .', 'A film impressed deeply', 'Pulsating prison drama', 'Raw Real', 'Tense', 'Great Spanish Jail Thriller', 'Wow ! Hard-hitting prison drama !', 'Well acted , well made , shame plot holes', 'Sheer Perfection .']</t>
+          <t>['high tension prison film', 'Imprisoned', 'Spectacular  One Best Films Prison', 'Rough entertaining ', 'Violent riveting prison movie outstanding performances fine direction', 'Everybody whole cell block dancing jailhouse rock ', 'Superb prison action thriller know Hollywood s going go remake', 'Powerful  Provocative  Downright Intense ', ' Straight bone ', 'Prisoners', 'Nightmare First Day On The Job ', 'A well made Spanish prison film', 'A prison film twist  And powerful', 'BADASS', 'Magnificent moving', 'Riveting Prison Riot Drama ', 'You get alive ', 'A film impressed deeply', 'Pulsating prison drama', 'Raw Real', 'Tense', 'Great Spanish Jail Thriller', 'Wow  Hardhitting prison drama ', 'Well acted  well made  shame plot holes', 'Sheer Perfection ']</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Worst series , still fun', 'bigger', 'John Wick : Chapter 4', 'Once feeling', 'Brainless Videogame', 'Action , action , even action ...', 'An impressive finale John Wick Quadrilogy', 'Three hour movie killing people . Not much story .', 'Dialog Deficient ... Keystone Kops Chaplain-Keaton Throwback ... OK But Nowhere Grow', 'Disappointing', 'It Kills !', 'God , rush !', 'John Wick : Chapter 4', 'Such life .', 'What pointless film', "It 's wicked fun .", 'The main point film foreign countries . . .', 'A new standard set fight scenes', 'Very boring chapter .', 'Always Pick John Wick', 'A thrilling masterpiece worth long run time even better IMAX ! Important note Rip Lance Reddick amazing career !', 'I feared worst , better I expected , although near good original .', 'Determined action classic , certainly wild thrill ride', 'suspension disbelief required -- YEN steals scenes', 'Death Served Cold']</t>
+          <t>['Worst series  still fun', 'bigger', 'John Wick  Chapter 4', 'Once feeling', 'Brainless Videogame', 'Action  action  even action ', 'An impressive finale John Wick Quadrilogy', 'Three hour movie killing people  Not much story ', 'Dialog Deficient  Keystone Kops ChaplainKeaton Throwback  OK But Nowhere Grow', 'Disappointing', 'It Kills ', 'God  rush ', 'John Wick  Chapter 4', 'Such life ', 'What pointless film', 'It s wicked fun ', 'The main point film foreign countries   ', 'A new standard set fight scenes', 'Very boring chapter ', 'Always Pick John Wick', 'A thrilling masterpiece worth long run time even better IMAX  Important note Rip Lance Reddick amazing career ', 'I feared worst  better I expected  although near good original ', 'Determined action classic  certainly wild thrill ride', 'suspension disbelief required  YEN steals scenes', 'Death Served Cold']</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Wonderful !', 'The near-perfect American family film', 'Back Macaulay Culkin cutest ever', 'Great Fun', 'Just Fun', 'special', 'Forget Kevin', 'Why Daniel Stern preferred one sequel .', 'A Hughes-Columbus Christmas Classic', 'That Face Helped Make This A Big Hit', 'Classic ? Not .', "`` Maybe kid let us . `` .. `` He 's kid . Kids stupid . ``", 'Fun Christmas film', 'average conventional comedy', 'A well done family comedy', '`` You guys give , ya thirsty ? ``', 'Mediocre', 'Timeless Classic', 'WAY violent . THIS got PG ? ? ? ? ? ?', 'Joe Pesci Daniel Stern Grinches Who Almost Steal Christmas ...', 'The real one worth watching', 'Up Christmas Story timeless Christmas classic', 'Cute ... much else', 'A funny Christmas film first one two viewsings', "If n't Pesci , I would given 1 ."]</t>
+          <t>['Wonderful ', 'The nearperfect American family film', 'Back Macaulay Culkin cutest ever', 'Great Fun', 'Just Fun', 'special', 'Forget Kevin', 'Why Daniel Stern preferred one sequel ', 'A HughesColumbus Christmas Classic', 'That Face Helped Make This A Big Hit', 'Classic  Not ', ' Maybe kid let us     He s kid  Kids stupid  ', 'Fun Christmas film', 'average conventional comedy', 'A well done family comedy', ' You guys give  ya thirsty  ', 'Mediocre', 'Timeless Classic', 'WAY violent  THIS got PG      ', 'Joe Pesci Daniel Stern Grinches Who Almost Steal Christmas ', 'The real one worth watching', 'Up Christmas Story timeless Christmas classic', 'Cute  much else', 'A funny Christmas film first one two viewsings', 'If nt Pesci  I would given 1 ']</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Dark engrossing !', 'Great tournament action', 'To Date Best Series', 'Best Potter yet', 'Not Best , But Still Good', 'Enjoyably dark entry series counteracts long running time good ( consistent ) pace exciting set pieces', 'Fourth episode Harry Potter friends fighting dark forces amazing adventure', 'still well', 'Goblet Fire The Last Great Harry Film', 'The magic improves', "best 'Potter ' movies , 's got captivating sights even extraordinary scenes", 'Wizard kids ... They grow fast !', "What 's Life Without Few Dragons ?", 'Unmagical', "Do lightly ! If chosen , 's turning back . As moment , The Triwizard Tournament begun !", 'Richly imaginative , darker scarier Potter films ...', 'The first dark ones', 'There much like film .', 'The Goblet Fire burns bright', 'So Much Plot , So Little Time', "I 'm surprised impressed .", 'The true transitional period series , thematically rich visually splendid .', 'Falters bit , still entertaining', 'Better Potter movie third , kindda cramped', 'A Nutshell Review : Harry Potter Goblet Fire']</t>
+          <t>['Dark engrossing ', 'Great tournament action', 'To Date Best Series', 'Best Potter yet', 'Not Best  But Still Good', 'Enjoyably dark entry series counteracts long running time good  consistent  pace exciting set pieces', 'Fourth episode Harry Potter friends fighting dark forces amazing adventure', 'still well', 'Goblet Fire The Last Great Harry Film', 'The magic improves', 'best Potter  movies  s got captivating sights even extraordinary scenes', 'Wizard kids  They grow fast ', 'What s Life Without Few Dragons ', 'Unmagical', 'Do lightly  If chosen  s turning back  As moment  The Triwizard Tournament begun ', 'Richly imaginative  darker scarier Potter films ', 'The first dark ones', 'There much like film ', 'The Goblet Fire burns bright', 'So Much Plot  So Little Time', 'I m surprised impressed ', 'The true transitional period series  thematically rich visually splendid ', 'Falters bit  still entertaining', 'Better Potter movie third  kindda cramped', 'A Nutshell Review  Harry Potter Goblet Fire']</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Well-meaning , ...', 'two wins one', 'Astonishing Performance Brendan Fraser', 'greatness Brendan Frasier', 'A spellbinding movie .', 'Size matter', 'Unpleasant Depressive', 'Quite good ...', 'Engrossing , beautiful drama', 'People Are Amazing .', 'Great , emotional journey', 'A tremendous character piece absolute must see', 'Not Fat-Shaming Movie I Was Led Believe', 'Trying save us sad story , little', 'Excellent acting okay story .', 'Fraser shines complex career-high turn .', 'The Whale', 'Not whale time .', 'Dark painful film addiction last chance .', "Fraser win Globes Oscar -- 's good .", 'Tragic sad end ...', 'Father !', "Masterful , One best movies I 've seen !", 'Gee Louise ! The ( ONCE ) great director Darren Aronofsky become HAS BEEN ...', 'Not greatest subject matter , emotional watch stunning performances .']</t>
+          <t>['Wellmeaning  ', 'two wins one', 'Astonishing Performance Brendan Fraser', 'greatness Brendan Frasier', 'A spellbinding movie ', 'Size matter', 'Unpleasant Depressive', 'Quite good ', 'Engrossing  beautiful drama', 'People Are Amazing ', 'Great  emotional journey', 'A tremendous character piece absolute must see', 'Not FatShaming Movie I Was Led Believe', 'Trying save us sad story  little', 'Excellent acting okay story ', 'Fraser shines complex careerhigh turn ', 'The Whale', 'Not whale time ', 'Dark painful film addiction last chance ', 'Fraser win Globes Oscar  s good ', 'Tragic sad end ', 'Father ', 'Masterful  One best movies I ve seen ', 'Gee Louise  The  ONCE  great director Darren Aronofsky become HAS BEEN ', 'Not greatest subject matter  emotional watch stunning performances ']</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['More well worth tracking', 'brutal crime drama', 'Wind River', 'Engrossing dramatic .', 'Cold Ice', 'lot happen bleak setting', 'best movie kind since Insomnia : snow-bound tale murder , dread existential horrors', "Places n't want , people n't want know ...", 'A chilling tale', 'Jeremy Renner character standout', 'good stuff !', 'good , bad snow', 'Good mystery thriller', 'Murder mystery wintery Reservation Wyoming', 'Wind River', "Much emotional expected ; 's impressive , captivating affecting work .", 'Well done murder suspense mystery drama sorrow , yet justice arrives end matters taken hands .', 'Terrific locale , fascinating crime .', 'notes', 'Hawkeye Hunts Again', 'Absorbing &amp; Atmospheric !', 'An intense thought-provoking crime drama', 'well done renner', "It 's grim west", 'Sadly undelivering thriller fails make potential']</t>
+          <t>['More well worth tracking', 'brutal crime drama', 'Wind River', 'Engrossing dramatic ', 'Cold Ice', 'lot happen bleak setting', 'best movie kind since Insomnia  snowbound tale murder  dread existential horrors', 'Places nt want  people nt want know ', 'A chilling tale', 'Jeremy Renner character standout', 'good stuff ', 'good  bad snow', 'Good mystery thriller', 'Murder mystery wintery Reservation Wyoming', 'Wind River', 'Much emotional expected  s impressive  captivating affecting work ', 'Well done murder suspense mystery drama sorrow  yet justice arrives end matters taken hands ', 'Terrific locale  fascinating crime ', 'notes', 'Hawkeye Hunts Again', 'Absorbing  Atmospheric ', 'An intense thoughtprovoking crime drama', 'well done renner', 'It s grim west', 'Sadly undelivering thriller fails make potential']</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>["One David Fincher 's better movies", 'immersive detailed', "The World Does n't Work That Way !", 'Mystery Zodiac killer', 'Terrific movie .', 'Riddles murders', 'Too Long Boring', 'Convincing crafted engaging even require patience viewer due nature material', "Top-notch thriller based true story America 's notorious serial killer .", 'How could I never heard Zodiac Killer came ?', 'The J.F.K . serial killer films .', 'The First Real True Crime Epic ... Truly Awesome', 'The All-Consuming Zodiac Killer', "A great crime puzzle ... one Fincher 's best films", "typical serial killer movie ; 's mystery mystery , plot paramount character mood", 'Zodiac excellent drama search real-life serial killer', 'Good acting , good plot , long', 'Zodiac Offers Compelling Guessing Game * * * 1/2', 'Unenlightened Shadows Cast', 'Impressive suspense', 'A * * long extremely engrossing film .', 'Like No Other', 'Excellent', 'Construction Watcher', 'Peerless precision Fincher .']</t>
+          <t>['One David Fincher s better movies', 'immersive detailed', 'The World Does nt Work That Way ', 'Mystery Zodiac killer', 'Terrific movie ', 'Riddles murders', 'Too Long Boring', 'Convincing crafted engaging even require patience viewer due nature material', 'Topnotch thriller based true story America s notorious serial killer ', 'How could I never heard Zodiac Killer came ', 'The JFK  serial killer films ', 'The First Real True Crime Epic  Truly Awesome', 'The AllConsuming Zodiac Killer', 'A great crime puzzle  one Fincher s best films', 'typical serial killer movie  s mystery mystery  plot paramount character mood', 'Zodiac excellent drama search reallife serial killer', 'Good acting  good plot  long', 'Zodiac Offers Compelling Guessing Game    12', 'Unenlightened Shadows Cast', 'Impressive suspense', 'A   long extremely engrossing film ', 'Like No Other', 'Excellent', 'Construction Watcher', 'Peerless precision Fincher ']</t>
         </is>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Crosses tour-De-force border film-making', "one year 's best", 'The drug trade', 'No borders', 'Great Action', 'Brooding thriller murky morals strong enough carry final third quite majority film', 'A nice suspenseful thriller keep hooked edge seat', 'A Different Look War Drugs', 'A terrific movie', 'A confusing thriller', 'This land wolves .', "Keep Telling Yourself It 's Only Movie It 's Only Movie It 's Only Movie", 'Great action-thriller', 'Cold', 'Best movie Mexican cartels thus far enlightening documentary exact subject', '`` Male `` Film Female Point View ..... Sort Of', 'The Land Wolves', 'Excellent movie gripping moments .', 'Blunt Weapon', 'Benicio Del Toro much better role', 'Fascinating', "'Hitman , assassin hire '", 'typical mob flick', 'Fantastic suspense', 'An uneasy tense thriller , rendered shades grey .']</t>
+          <t>['Crosses tourDeforce border filmmaking', 'one year s best', 'The drug trade', 'No borders', 'Great Action', 'Brooding thriller murky morals strong enough carry final third quite majority film', 'A nice suspenseful thriller keep hooked edge seat', 'A Different Look War Drugs', 'A terrific movie', 'A confusing thriller', 'This land wolves ', 'Keep Telling Yourself It s Only Movie It s Only Movie It s Only Movie', 'Great actionthriller', 'Cold', 'Best movie Mexican cartels thus far enlightening documentary exact subject', ' Male  Film Female Point View  Sort Of', 'The Land Wolves', 'Excellent movie gripping moments ', 'Blunt Weapon', 'Benicio Del Toro much better role', 'Fascinating', 'Hitman  assassin hire ', 'typical mob flick', 'Fantastic suspense', 'An uneasy tense thriller  rendered shades grey ']</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Great fun , childhood favourite mine', 'Well-remembered , hardly classic', "One Eyed Willie 's Treasure", 'Childhood joyous adventure', 'Classic Adventure Film One Magical Moment After Another', 'The ultimate feel good , fun adventure .', 'Nostalgic Adventure', 'Silly good fun pre-teens young teenagers', 'A timeless adventure kids adults alike ...', 'This Spielberg production fun movie concerning feisty bunch kids providing funny moments', 'octopus ... octopus ...', 'It must nostalgia thing', "One 1980s ' Best Films", '`` Goonies `` good enough ...', "One Richard Donner 's best", 'An entertaining adventure flaws', 'Good enough .', 'Quite silly times mostly good fun', 'Kiddie Noir', 'Ah , kids adventure films , fondly remember .', 'Childhood Fantasy', 'I grew `` Goonies `` tame , I older', '`` Sloth Love Chunk ``', 'This time great movie American cinematic history', 'Nice adventure movie kids .']</t>
+          <t>['Great fun  childhood favourite mine', 'Wellremembered  hardly classic', 'One Eyed Willie s Treasure', 'Childhood joyous adventure', 'Classic Adventure Film One Magical Moment After Another', 'The ultimate feel good  fun adventure ', 'Nostalgic Adventure', 'Silly good fun preteens young teenagers', 'A timeless adventure kids adults alike ', 'This Spielberg production fun movie concerning feisty bunch kids providing funny moments', 'octopus  octopus ', 'It must nostalgia thing', 'One 1980s  Best Films', ' Goonies  good enough ', 'One Richard Donner s best', 'An entertaining adventure flaws', 'Good enough ', 'Quite silly times mostly good fun', 'Kiddie Noir', 'Ah  kids adventure films  fondly remember ', 'Childhood Fantasy', 'I grew  Goonies  tame  I older', ' Sloth Love Chunk ', 'This time great movie American cinematic history', 'Nice adventure movie kids ']</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['I surprised much I enjoyed one .', 'Fascinating', 'Functional gimmick expertly executed', 'Kafkaiesque', 'Top-notch thriller complex script competently directed David Fincher', "let 's play", "Fincher 's Followup Seven", 'A movie looks good surface , totally contrived ending shameful viewer .', 'Surface-smart ( shallow results )', 'thriller enough paranoia gusto one better films 97', "David Fincher 's The Game gets another fine performance star Michael Douglas", 'You Won ... But You Cheated', 'Intriguing , flawed , thriller', 'The Game No Laughing Matter', "Fincher 's version `` After Hours `` twist", 'Game', 'A Game That Is Guaranteed Change His Life', 'douglas , another dark suspense', 'Great , could better', 'better I expected', 'Some Game', 'An intelligent mind-game thriller .', 'One best films 1997 . Mind thrilling fun entertainment suspense !', 'Conned Really Smartly', 'An Elaborate Prank ?']</t>
+          <t>['I surprised much I enjoyed one ', 'Fascinating', 'Functional gimmick expertly executed', 'Kafkaiesque', 'Topnotch thriller complex script competently directed David Fincher', 'let s play', 'Fincher s Followup Seven', 'A movie looks good surface  totally contrived ending shameful viewer ', 'Surfacesmart  shallow results ', 'thriller enough paranoia gusto one better films 97', 'David Fincher s The Game gets another fine performance star Michael Douglas', 'You Won  But You Cheated', 'Intriguing  flawed  thriller', 'The Game No Laughing Matter', 'Fincher s version  After Hours  twist', 'Game', 'A Game That Is Guaranteed Change His Life', 'douglas  another dark suspense', 'Great  could better', 'better I expected', 'Some Game', 'An intelligent mindgame thriller ', 'One best films 1997  Mind thrilling fun entertainment suspense ', 'Conned Really Smartly', 'An Elaborate Prank ']</t>
         </is>
       </c>
     </row>
@@ -3737,7 +3737,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['needs adult Sophie', 'profound sense , masterpiece', 'Like father , like ... daughter', 'daughter viewing father-daughter', 'I shall watch', 'Aftersun', 'Leaves need namesake .', "Oh , 's depression looks like !", "I rented Amazon 's magnificent !", 'truly ...', 'A subtle , private , profound take father-daughter relationships . A true critic-favourite film year .', 'father daughter', 'A Poignant &amp; Personal Portrait Of Love , Family , Memory &amp; Reality', "It 's Our Memories That Make Us ...", 'Cheap Holiday', 'Good Enough', 'A beautifully human drama', 'Demands second viewing', 'A doorway troubled mind', 'Beautifully raw drama', "I 'm love movie", 'BITTERSWEET .', 'You must proud ...', 'Understated connotative', 'A Lovely Reverie']</t>
+          <t>['needs adult Sophie', 'profound sense  masterpiece', 'Like father  like  daughter', 'daughter viewing fatherdaughter', 'I shall watch', 'Aftersun', 'Leaves need namesake ', 'Oh  s depression looks like ', 'I rented Amazon s magnificent ', 'truly ', 'A subtle  private  profound take fatherdaughter relationships  A true criticfavourite film year ', 'father daughter', 'A Poignant  Personal Portrait Of Love  Family  Memory  Reality', 'It s Our Memories That Make Us ', 'Cheap Holiday', 'Good Enough', 'A beautifully human drama', 'Demands second viewing', 'A doorway troubled mind', 'Beautifully raw drama', 'I m love movie', 'BITTERSWEET ', 'You must proud ', 'Understated connotative', 'A Lovely Reverie']</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['dark humorous', 'You Must Buy Into Premise', 'circles loneliness', 'An original , powerful movie .', 'To live let die', 'nothing lasts forever', 'Friends Ireland difficulty `` friendship . ``', 'much ado nothing .', 'A smart , thoughtful blend ideas moods , well made around', 'McDonagh scores', "I fear 's 's gone wrong .", 'Very well crafted film , amazing acting , village middle nowhere', 'A test willpower strength !', 'Cinema Omnivore - The Banshees Inisherin ( 2022 ) 7.6/10', 'Beautifully acted photographed . One best theyear .', 'An Oscar-y movie I like ? ? ?', 'A Dark Ale Unfriendship', 'I absolutely loved even 2 hours sleep I thoroughly enjoyed', 'The dark side Irish small-town eccentrics', 'An odd drama constant undercurrent comedy', 'The abyssal hopelessness dying friendship , one part simply cuts ties', 'In right universe , swept 2023 Oscars ...', 'A slow igniting take slow poison grows burns friends alive .', 'Subversive , off-beat comedy veers course middle', 'Possibly best thing McDonagh ever done .']</t>
+          <t>['dark humorous', 'You Must Buy Into Premise', 'circles loneliness', 'An original  powerful movie ', 'To live let die', 'nothing lasts forever', 'Friends Ireland difficulty  friendship  ', 'much ado nothing ', 'A smart  thoughtful blend ideas moods  well made around', 'McDonagh scores', 'I fear s s gone wrong ', 'Very well crafted film  amazing acting  village middle nowhere', 'A test willpower strength ', 'Cinema Omnivore  The Banshees Inisherin  2022  7610', 'Beautifully acted photographed  One best theyear ', 'An Oscary movie I like   ', 'A Dark Ale Unfriendship', 'I absolutely loved even 2 hours sleep I thoroughly enjoyed', 'The dark side Irish smalltown eccentrics', 'An odd drama constant undercurrent comedy', 'The abyssal hopelessness dying friendship  one part simply cuts ties', 'In right universe  swept 2023 Oscars ', 'A slow igniting take slow poison grows burns friends alive ', 'Subversive  offbeat comedy veers course middle', 'Possibly best thing McDonagh ever done ']</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['A mission fall', 'action Bond', 'The Hunt Odyssey', '( Oops ) He', 'Great Action Film', 'Consistently slick entertaining despite complete focus surface', 'A breathtaking sequel Ethan Hunt takes organization called Apostles nasty enemies', 'Five megaton fun .', 'In 3D IMAX , quite action movie .', 'blast Hollywood spectacle , McQuarrie coming technical guns blazing', 'Mission : Impossible - Fallout perhaps best one yet series !', 'My palms sweated hour !', 'Best &amp; Longest ( 147min ) ... Everyone Amped ... Sleek Slick Sumptuous Sizzling Spy-Stuff', 'Best one thus far five MI movies', 'Tommy', 'cliffs Kashmir', "The franchise crossover n't know wanted", 'Series shows signs decline ; thrills abound', "'What 's done done say 's done . '", "Every prior entry series raised bar terms action . This might 've launched stratosphere .", 'Pretty standard', 'Mission bore death', 'Impossibly good', "The franchise categorically lives dies Tom Cruise 's star charisma undimmed spirit pushing envelop", 'Best adventure summer one best ever .']</t>
+          <t>['A mission fall', 'action Bond', 'The Hunt Odyssey', ' Oops  He', 'Great Action Film', 'Consistently slick entertaining despite complete focus surface', 'A breathtaking sequel Ethan Hunt takes organization called Apostles nasty enemies', 'Five megaton fun ', 'In 3D IMAX  quite action movie ', 'blast Hollywood spectacle  McQuarrie coming technical guns blazing', 'Mission  Impossible  Fallout perhaps best one yet series ', 'My palms sweated hour ', 'Best  Longest  147min   Everyone Amped  Sleek Slick Sumptuous Sizzling SpyStuff', 'Best one thus far five MI movies', 'Tommy', 'cliffs Kashmir', 'The franchise crossover nt know wanted', 'Series shows signs decline  thrills abound', 'What s done done say s done  ', 'Every prior entry series raised bar terms action  This might ve launched stratosphere ', 'Pretty standard', 'Mission bore death', 'Impossibly good', 'The franchise categorically lives dies Tom Cruise s star charisma undimmed spirit pushing envelop', 'Best adventure summer one best ever ']</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['raw coming age story', 'Two Amazing Performances', 'Warm cold', 'Lesbian Exploitation Disguised Art', 'Romance Ups And Downs', '3 hours searching life love - mostly great , long', 'An emotional roller-coaster', 'Seydoux Exarchopoulos astound terrific modern classic', 'Women Love', 'Blue Oyster Cult', 'long explicit , easy offended', 'The life Adele', 'A complex erotic adventure passion intimate self discovery', 'complete guide experience first love !', 'The kind film makes value already possessed relationships makes hunger future ones', 'Fifty Shades Blue ...', 'Young Love', "The explicit sex scenes n't bother .", 'A Beautiful , Emotionally Absorbing &amp; Heart-Shattering Experience', 'Love Captured Perfectly Film ...', "It 's sex scenes matter .", 'Disappointing', "I n't know , I 'm undecided .", 'Disillusionment', 'Overlong , strained , sincere insights coming age young woman']</t>
+          <t>['raw coming age story', 'Two Amazing Performances', 'Warm cold', 'Lesbian Exploitation Disguised Art', 'Romance Ups And Downs', '3 hours searching life love  mostly great  long', 'An emotional rollercoaster', 'Seydoux Exarchopoulos astound terrific modern classic', 'Women Love', 'Blue Oyster Cult', 'long explicit  easy offended', 'The life Adele', 'A complex erotic adventure passion intimate self discovery', 'complete guide experience first love ', 'The kind film makes value already possessed relationships makes hunger future ones', 'Fifty Shades Blue ', 'Young Love', 'The explicit sex scenes nt bother ', 'A Beautiful  Emotionally Absorbing  HeartShattering Experience', 'Love Captured Perfectly Film ', 'It s sex scenes matter ', 'Disappointing', 'I nt know  I m undecided ', 'Disillusionment', 'Overlong  strained  sincere insights coming age young woman']</t>
         </is>
       </c>
     </row>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>["Top-notch war film one Ridley Scott 's best", 'True Shock Awe', 'Super Six-Four', 'Lavish Jerry Bruckheimer production all-star cast recreating cruel detail Mogadishu battle , 1993', 'Good War Flick , But A Little Too Much To Take', 'Ridley Scott + Jerry Bruckheimer : so-so war movie', "One Scott 's best films , quite top 10 list 2001", 'Goodnight , Irene', 'Depicting senseless brutality war', 'Only The Dead Have Been The End Of War .', 'Final Score : `` Good `` Guys 1,000 `` Bad `` Guys 19 Game Over', 'Chopped Meat , Paper Cut', 'It ` An Account , Not A Statement', 'War hell', 'A good reeactment dangerous situation', 'As look men modern battle good . As depiction actual event fair', 'This easy 10/10 .', 'A Dunderheaded Combat Film Ridley Scott', '`` Saving Private Ryan `` Somalia .', 'A definite must-see anyone hint interest war films', 'ONE OF THE BEST FILMS OF THE YEAR', 'Realistic', "Besides first 20 minutes ` Saving Private Ryan , ' may better film show reality modern combat .", 'A Must See !', 'Excellent , gawd , brutal !']</t>
+          <t>['Topnotch war film one Ridley Scott s best', 'True Shock Awe', 'Super SixFour', 'Lavish Jerry Bruckheimer production allstar cast recreating cruel detail Mogadishu battle  1993', 'Good War Flick  But A Little Too Much To Take', 'Ridley Scott  Jerry Bruckheimer  soso war movie', 'One Scott s best films  quite top 10 list 2001', 'Goodnight  Irene', 'Depicting senseless brutality war', 'Only The Dead Have Been The End Of War ', 'Final Score   Good  Guys 1000  Bad  Guys 19 Game Over', 'Chopped Meat  Paper Cut', 'It  An Account  Not A Statement', 'War hell', 'A good reeactment dangerous situation', 'As look men modern battle good  As depiction actual event fair', 'This easy 1010 ', 'A Dunderheaded Combat Film Ridley Scott', ' Saving Private Ryan  Somalia ', 'A definite mustsee anyone hint interest war films', 'ONE OF THE BEST FILMS OF THE YEAR', 'Realistic', 'Besides first 20 minutes  Saving Private Ryan   may better film show reality modern combat ', 'A Must See ', 'Excellent  gawd  brutal ']</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['I guess I missing something film ....', 'A Baby In The Closet And A Tiger In The Loo', 'Great chemistry', 'Great Cast , Great Fun', 'The Curse Cable', 'Very Bad Things', 'Funny hilarious would believe', 'Genuinely funny ...', 'wackiness loathing Las Vegas', 'Funny Film , Not My Cup Tea , But Pleasant', 'The Hangover perhaps funniest movie year', 'Hilarious !', 'The funniest Vegas film I ever seen', 'Has moments .', 'Funny', 'Roofers', 'Classic', "This comedic genre masterpiece . I would n't change one thing picture", 'Now remember , happens Vegas stays , Vegas ... Except herpes , shite come back .', 'Surprised By How Dull Safe This Movie Was', 'Vegas , Baby , Vegas', 'Good plotting , funny trailer .', "'Where good films gone - long time passing '", "It 's okay , 've bombarded ads 've mostly already seen", 'Slightly hungover ...']</t>
+          <t>['I guess I missing something film ', 'A Baby In The Closet And A Tiger In The Loo', 'Great chemistry', 'Great Cast  Great Fun', 'The Curse Cable', 'Very Bad Things', 'Funny hilarious would believe', 'Genuinely funny ', 'wackiness loathing Las Vegas', 'Funny Film  Not My Cup Tea  But Pleasant', 'The Hangover perhaps funniest movie year', 'Hilarious ', 'The funniest Vegas film I ever seen', 'Has moments ', 'Funny', 'Roofers', 'Classic', 'This comedic genre masterpiece  I would nt change one thing picture', 'Now remember  happens Vegas stays  Vegas  Except herpes  shite come back ', 'Surprised By How Dull Safe This Movie Was', 'Vegas  Baby  Vegas', 'Good plotting  funny trailer ', 'Where good films gone  long time passing ', 'It s okay  ve bombarded ads ve mostly already seen', 'Slightly hungover ']</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['A classic genre , still one funniest movies ever made', 'Riotous comedy', 'The iconic disaster movie satire', "It 's starting fade sunset !", 'Comedy heights', 'A wonderful timeless spoof ...', 'Wacky absurd comedy numberless gags', 'Remember call Shirley !', 'Thirty years old funny ever !', 'Comedy Cult Classic', 'Madness !', 'Silly fun', 'HILARIOUS !', "Do n't call shirley", 'Absolutely hilarious : )', "`` You clearance , Clarence . `` `` Roger , Roger . What 's vector , Victor ? ``", 'One More Silent Guffaw', 'A courageous effort time', "`` n't important . ``", 'Classic comedy', 'Airplane ! Did Right', 'Hilarious parody `` Zero Hour `` `` Airplane `` movie series', 'Just thought safe fly ...', 'Hahahahahahaha', 'A Bit Crude Still One Funniest Movie Ever Made']</t>
+          <t>['A classic genre  still one funniest movies ever made', 'Riotous comedy', 'The iconic disaster movie satire', 'It s starting fade sunset ', 'Comedy heights', 'A wonderful timeless spoof ', 'Wacky absurd comedy numberless gags', 'Remember call Shirley ', 'Thirty years old funny ever ', 'Comedy Cult Classic', 'Madness ', 'Silly fun', 'HILARIOUS ', 'Do nt call shirley', 'Absolutely hilarious  ', ' You clearance  Clarence    Roger  Roger  What s vector  Victor  ', 'One More Silent Guffaw', 'A courageous effort time', ' nt important  ', 'Classic comedy', 'Airplane  Did Right', 'Hilarious parody  Zero Hour   Airplane  movie series', 'Just thought safe fly ', 'Hahahahahahaha', 'A Bit Crude Still One Funniest Movie Ever Made']</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['A good film .... ...', 'Surprisingly brilliant', 'ultra-violent Bond-like movie', 'everybody', 'The gentleman spy', 'Not I expecting', 'So self aware might hurt', 'Funny Entertainment', 'Fast-paced fun ...', 'James Bond meets Harry Palmer meets `` Trading Places `` meets graphic novels', 'Move James Bond .', 'disappointing', 'Fun', 'Slick Send-Up Spy Films World Going Mad', "Good action scenes ... 's", 'Not Kind Tailoring', 'A Mess But A Matthew Vaughn Mess', 'A Semi-Lighter Side Being Spy', 'Has moments gets way cruel vicious', 'Saving World Killing All Its Inhabitants', 'Fun Spies', 'Better James Bond movie ask', 'Eccentric meshing X-Men James Bond', 'The League Gentlmen', 'Uneven , certainly dull']</t>
+          <t>['A good film  ', 'Surprisingly brilliant', 'ultraviolent Bondlike movie', 'everybody', 'The gentleman spy', 'Not I expecting', 'So self aware might hurt', 'Funny Entertainment', 'Fastpaced fun ', 'James Bond meets Harry Palmer meets  Trading Places  meets graphic novels', 'Move James Bond ', 'disappointing', 'Fun', 'Slick SendUp Spy Films World Going Mad', 'Good action scenes  s', 'Not Kind Tailoring', 'A Mess But A Matthew Vaughn Mess', 'A SemiLighter Side Being Spy', 'Has moments gets way cruel vicious', 'Saving World Killing All Its Inhabitants', 'Fun Spies', 'Better James Bond movie ask', 'Eccentric meshing XMen James Bond', 'The League Gentlmen', 'Uneven  certainly dull']</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Amazingly sterile disconnected', 'Sad , funny , magical irresistibly moving', 'wonderful beautiful', 'A Quiet , Personal Film', 'Big Japan', 'Overrated Tale Loneliness', 'Mis-sold hilarious comedy really poignant character piece', 'Tokyo holiday', 'I Was Lost Eyes Scarlett Bill', 'Give It A Second Chance , If Needed', "Filmed Tokyo , Bill Murray Scarlett Johansson , one better movies I 've seen .", 'A little lost', 'A movie aimlessness core ... Murray grounded film intentionally meanders', 'take time relax little little pearl', 'Murray Johansson fine pair good movie- B+', 'The King Karaoke', 'Sarcastic Slowly Paced A Narcissistic New Wave Type Film', 'Beautiful moving', "Let 's never come never much fun .", 'About two empty emotionless people `` `` good time Japan', '... found wanting', "It 's better second time around", "Sofia Coppola 's Dad Taught Her Little Something About Directing", 'A Visual Masterpiece', 'Character comedy .']</t>
+          <t>['Amazingly sterile disconnected', 'Sad  funny  magical irresistibly moving', 'wonderful beautiful', 'A Quiet  Personal Film', 'Big Japan', 'Overrated Tale Loneliness', 'Missold hilarious comedy really poignant character piece', 'Tokyo holiday', 'I Was Lost Eyes Scarlett Bill', 'Give It A Second Chance  If Needed', 'Filmed Tokyo  Bill Murray Scarlett Johansson  one better movies I ve seen ', 'A little lost', 'A movie aimlessness core  Murray grounded film intentionally meanders', 'take time relax little little pearl', 'Murray Johansson fine pair good movie B', 'The King Karaoke', 'Sarcastic Slowly Paced A Narcissistic New Wave Type Film', 'Beautiful moving', 'Let s never come never much fun ', 'About two empty emotionless people   good time Japan', ' found wanting', 'It s better second time around', 'Sofia Coppola s Dad Taught Her Little Something About Directing', 'A Visual Masterpiece', 'Character comedy ']</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Warm pleasant exceptional performances', 'Grape Family Values', 'Beautiful acting', 'Has Gotten Even Better Time', 'mirror', '`` grape `` justified wrath', "Decent Film , But Not One Depp 's Better Roles", 'This Movie Was A Scream !', 'A sweet story without much drive ...', "Leo/Depp 's", 'A film chew', "A Lot 's Eating Gilbert Grape", 'The combination unique storyline , dynamic characters fantastic acting makes movie must see masterpiece', 'A movie characters purest form .', "Excellent 'dysfunctional ' family drama ; Di Caprio excels", 'A simple movie simple plot .', 'A Heartbreaking film !', "We 're going anywhere", 'Heart-Breaking Story', "Watch Leonardo DiCaprio 's Astounding Performance !", 'Glad I finally saw', 'Drama Perfected .', "What 's eating Gilbert Grape ? His mother , course .", 'Heartfelt , Poignant &amp; Amusing In Equal Doses', "A rather conventional average family drama , DiCaprio Depp 's performances turn truly worthy note ."]</t>
+          <t>['Warm pleasant exceptional performances', 'Grape Family Values', 'Beautiful acting', 'Has Gotten Even Better Time', 'mirror', ' grape  justified wrath', 'Decent Film  But Not One Depp s Better Roles', 'This Movie Was A Scream ', 'A sweet story without much drive ', 'LeoDepp s', 'A film chew', 'A Lot s Eating Gilbert Grape', 'The combination unique storyline  dynamic characters fantastic acting makes movie must see masterpiece', 'A movie characters purest form ', 'Excellent dysfunctional  family drama  Di Caprio excels', 'A simple movie simple plot ', 'A Heartbreaking film ', 'We re going anywhere', 'HeartBreaking Story', 'Watch Leonardo DiCaprio s Astounding Performance ', 'Glad I finally saw', 'Drama Perfected ', 'What s eating Gilbert Grape  His mother  course ', 'Heartfelt  Poignant  Amusing In Equal Doses', 'A rather conventional average family drama  DiCaprio Depp s performances turn truly worthy note ']</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Exceptional .', 'Spellbinding', 'Brutal Violent Epic', 'Incredibly Violent Cooper', "An enjoyably old fashioned film despite 's flaws", 'Exciting magnificent movie overwhelming scenes impressive scenarios', "maybe 's another lavish historical epic , well done", 'Clearly I Missed Something', 'One Of The Greatest Adventure Films Ever', 'Engaging', 'Blending Ethereal Imagination &amp; Down Earth Tribal Warfare', 'Death honour thought , today I learned sometimes .', 'Violent', 'An epic spoils war , longevity hate ... power love', 'Excellent adaptation ; top notch Mann', 'Magnificent even 20 years', 'The Last Mohicans', 'Restoration Dignity Native Americans , Long Overdue', 'One best historical adventures nineties', 'Hits target', 'What beautiful sad film ...', 'Superb ! !', 'Top notch production every level !', 'The soundtrack best part movie', 'A spectacular gripping historical drama ... conventional elements one best climactic sequences ever !']</t>
+          <t>['Exceptional ', 'Spellbinding', 'Brutal Violent Epic', 'Incredibly Violent Cooper', 'An enjoyably old fashioned film despite s flaws', 'Exciting magnificent movie overwhelming scenes impressive scenarios', 'maybe s another lavish historical epic  well done', 'Clearly I Missed Something', 'One Of The Greatest Adventure Films Ever', 'Engaging', 'Blending Ethereal Imagination  Down Earth Tribal Warfare', 'Death honour thought  today I learned sometimes ', 'Violent', 'An epic spoils war  longevity hate  power love', 'Excellent adaptation  top notch Mann', 'Magnificent even 20 years', 'The Last Mohicans', 'Restoration Dignity Native Americans  Long Overdue', 'One best historical adventures nineties', 'Hits target', 'What beautiful sad film ', 'Superb  ', 'Top notch production every level ', 'The soundtrack best part movie', 'A spectacular gripping historical drama  conventional elements one best climactic sequences ever ']</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Exceptional , probably younger viewers', 'Wonderfully atmospheric exquisite visuals', 'The dullest animation ever made', 'Imaginative creepy', 'dark . useful', 'Predictable , fun nevertheless', 'Dark Creepy', 'Dark inventive film even perhaps scary particularly young children understand context see images', 'lot Michigan people move Oregon', 'Brilliant animation', 'A stunning 3D fantasy .', 'Very Much Neil Gaiman', 'Another New Standard In Artwork', 'Coraline interesting , truly thrilling , suspenseful stop-motion animated film', 'Amazing animation highly imaginative scenes', 'Button Wholes', 'Well Done Easy Follow', 'A stop motion animation made like', 'If David Lynch Made Animated Films , They Would Be Like This', "Mother n't like .", 'Sweet Coraline', 'Coraline', "There 's place like home .", 'Behind door', 'Good , ...']</t>
+          <t>['Exceptional  probably younger viewers', 'Wonderfully atmospheric exquisite visuals', 'The dullest animation ever made', 'Imaginative creepy', 'dark  useful', 'Predictable  fun nevertheless', 'Dark Creepy', 'Dark inventive film even perhaps scary particularly young children understand context see images', 'lot Michigan people move Oregon', 'Brilliant animation', 'A stunning 3D fantasy ', 'Very Much Neil Gaiman', 'Another New Standard In Artwork', 'Coraline interesting  truly thrilling  suspenseful stopmotion animated film', 'Amazing animation highly imaginative scenes', 'Button Wholes', 'Well Done Easy Follow', 'A stop motion animation made like', 'If David Lynch Made Animated Films  They Would Be Like This', 'Mother nt like ', 'Sweet Coraline', 'Coraline', 'There s place like home ', 'Behind door', 'Good  ']</t>
         </is>
       </c>
     </row>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['The worst yet', 'Harry fugitive', 'Darker ever', 'A Step Up From Previous Film', 'Trade Hallow Horcrux', "Solidly entertaining despite feeling bit like 's holding pattern helped dark tone penultimate film", 'totalitarianism takes wizarding world', 'Coming To Huge Finale ...', 'The magic returns', 'longer kids ; dark adult-fantasy movie couple lulls', "School 's Out ... ever ?", 'An entertaining adventure', 'The seventh installment , appetiser .', 'Fascinating `` darker dark `` prelude finale ...', 'A nice respite', 'This absolute gem must see', 'When Does Snape ( Anyone Other Than Harry Hermione , That Matter ) Come Back Story ?', "It 's one 'worst ' series slow pace .", 'A lengthy introduction something else', 'Deathly dark ...', 'Harry Potter And The Deathly Hallows : Part 1', 'Potheads happy .', 'A Nutshell Review : Harry Potter Deathly Hallows : Part 1', 'Long Drug Out', 'For Potter Buffs , Only !']</t>
+          <t>['The worst yet', 'Harry fugitive', 'Darker ever', 'A Step Up From Previous Film', 'Trade Hallow Horcrux', 'Solidly entertaining despite feeling bit like s holding pattern helped dark tone penultimate film', 'totalitarianism takes wizarding world', 'Coming To Huge Finale ', 'The magic returns', 'longer kids  dark adultfantasy movie couple lulls', 'School s Out  ever ', 'An entertaining adventure', 'The seventh installment  appetiser ', 'Fascinating  darker dark  prelude finale ', 'A nice respite', 'This absolute gem must see', 'When Does Snape  Anyone Other Than Harry Hermione  That Matter  Come Back Story ', 'It s one worst  series slow pace ', 'A lengthy introduction something else', 'Deathly dark ', 'Harry Potter And The Deathly Hallows  Part 1', 'Potheads happy ', 'A Nutshell Review  Harry Potter Deathly Hallows  Part 1', 'Long Drug Out', 'For Potter Buffs  Only ']</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Pure Warrior', 'Such great character', 'Great Fun', 'Introducing Rambo', "Do n't push , cause I 'm close edge", 'Not great film reasonably effective action movie message movie without great either', "He give war wo n't believe ...", 'Violent movie launched Stallone career Rambo episodes', 'rugged individualism', 'The original best .', 'Rambo Kills Cops', 'Crap ! !', 'We met enemy , us .', 'After living specter Rocky years , Stallone finally hit pay-dirt Rambo', 'cool , slick action-movie danger excitement , wee bit preachy', 'Always nice hospitable Vietnam veterans passing village !', 'OG rambo', "`` We ai n't huntin ' , 's huntin ' us ... ``", 'Well Crafted Exciting Social Commentary', 'Entertaining', "It bad time everyone , Rambo . It 's past .", 'Rambo ! The force freedom', 'The first one still best one', 'Intense', 'Enough Is Enough ...']</t>
+          <t>['Pure Warrior', 'Such great character', 'Great Fun', 'Introducing Rambo', 'Do nt push  cause I m close edge', 'Not great film reasonably effective action movie message movie without great either', 'He give war wo nt believe ', 'Violent movie launched Stallone career Rambo episodes', 'rugged individualism', 'The original best ', 'Rambo Kills Cops', 'Crap  ', 'We met enemy  us ', 'After living specter Rocky years  Stallone finally hit paydirt Rambo', 'cool  slick actionmovie danger excitement  wee bit preachy', 'Always nice hospitable Vietnam veterans passing village ', 'OG rambo', ' We ai nt huntin   s huntin  us  ', 'Well Crafted Exciting Social Commentary', 'Entertaining', 'It bad time everyone  Rambo  It s past ', 'Rambo  The force freedom', 'The first one still best one', 'Intense', 'Enough Is Enough ']</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>["It appears 's gone native ...", 'Watch Washington', 'The power Denzel', 'A pretty standard cop thriller livened good ( Oscar-worthy ) performance Washington', 'The post-September 11 world .', 'A Look Inside Los Angeles Police Department ?', 'Rogue cop', "Denzel 's Definitely Different", 'A corrupt man corrupt world', 'Death certain , life .', 'Hard Boiled extremely well acted cop drama', 'One hell first day', "Is hot pot frying pan ? You 're knee deep already .", 'Who needs overtime rob drug dealer ?', 'At times gritty realistic', 'Street Justice', 'This well put together film every way absolute must see', "Hawke Is Pretty Good , But He 's Fighting Losing Battle", 'Over top , way around', 'What delightful surprise !', 'Still relevant nearly two decades later', 'Great urban thriller', 'Unbelievable , top .', 'Training Day', "Washington Hawke 's powerhouse performances fuel fantastic thriller 's masterfully realistic breathlessly entertaining ."]</t>
+          <t>['It appears s gone native ', 'Watch Washington', 'The power Denzel', 'A pretty standard cop thriller livened good  Oscarworthy  performance Washington', 'The postSeptember 11 world ', 'A Look Inside Los Angeles Police Department ', 'Rogue cop', 'Denzel s Definitely Different', 'A corrupt man corrupt world', 'Death certain  life ', 'Hard Boiled extremely well acted cop drama', 'One hell first day', 'Is hot pot frying pan  You re knee deep already ', 'Who needs overtime rob drug dealer ', 'At times gritty realistic', 'Street Justice', 'This well put together film every way absolute must see', 'Hawke Is Pretty Good  But He s Fighting Losing Battle', 'Over top  way around', 'What delightful surprise ', 'Still relevant nearly two decades later', 'Great urban thriller', 'Unbelievable  top ', 'Training Day', 'Washington Hawke s powerhouse performances fuel fantastic thriller s masterfully realistic breathlessly entertaining ']</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['`` Feed French , Kill Germans ``', 'Great cast great chemistry', 'Not War -- Simplistic', 'The Twelve Convicted Heroes', 'Great fun movie great cast', 'Box-office hit misfit team led Lee Marvin carry suicide mission behind enemy lines', 'twelve cool men', 'This What Happens When You let Criminals Fight Nazis', "Bias With One Of The 'Dozen ' Ruins Film", 'one supreme `` * * * flicks `` time', 'Lee Marvin leads future stars mission The Dirty Dozen', "I 'll take dirty dozen", 'The Dirty Dozen Comes Clean * * * 1/2', 'Dirtier Dozen', 'The Highest Grossing Film 1967 ... `` The Summer Love ``', 'One quintessential macho movies time .', 'Excellent Performances', 'The ultimate action movie World War II ...', 'An All-Star Cast', 'Insubordination ...', 'The training mission well presented conclusion fulfilling . This great overall movie definitely worth viewing .', "Killin ' generals could get habit .", "The 1960s ' Version World War II", 'Great World War II flick group outcasts', 'Stupid movie']</t>
+          <t>[' Feed French  Kill Germans ', 'Great cast great chemistry', 'Not War  Simplistic', 'The Twelve Convicted Heroes', 'Great fun movie great cast', 'Boxoffice hit misfit team led Lee Marvin carry suicide mission behind enemy lines', 'twelve cool men', 'This What Happens When You let Criminals Fight Nazis', 'Bias With One Of The Dozen  Ruins Film', 'one supreme     flicks  time', 'Lee Marvin leads future stars mission The Dirty Dozen', 'I ll take dirty dozen', 'The Dirty Dozen Comes Clean    12', 'Dirtier Dozen', 'The Highest Grossing Film 1967   The Summer Love ', 'One quintessential macho movies time ', 'Excellent Performances', 'The ultimate action movie World War II ', 'An AllStar Cast', 'Insubordination ', 'The training mission well presented conclusion fulfilling  This great overall movie definitely worth viewing ', 'Killin  generals could get habit ', 'The 1960s  Version World War II', 'Great World War II flick group outcasts', 'Stupid movie']</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['A true classic genre', 'Golden Age Horror', 'A True Masterpiece', 'The Prototype', 'Light pumpkin', 'Even I get chill spine .', 'My brothers keeper ( )', 'Maybe Most Successful Slasher Cinema History', 'This intriguing enjoyable slasher movie following number inferior sequels', 'Did Mike Myers see first came ?', 'An Undeniable Classic', "A Bit Tame By Today 's Standards , But That 's Good", 'night masks', 'One best horror independent films ever made', 'The slasher film started', 'As matter fact , * * bogeyman .', 'Scary slasher classic .', 'One better slasher-horrors', 'Musical', 'One best slasher franchises', 'Good scary Halloween treat ... still raw power frighten ...', 'A Definite Pioneer Its Class', 'Trick Or Treat , Or else ...', 'A Horror Classic', 'This movie classic horror well executed storyline magnificent soundtrack']</t>
+          <t>['A true classic genre', 'Golden Age Horror', 'A True Masterpiece', 'The Prototype', 'Light pumpkin', 'Even I get chill spine ', 'My brothers keeper  ', 'Maybe Most Successful Slasher Cinema History', 'This intriguing enjoyable slasher movie following number inferior sequels', 'Did Mike Myers see first came ', 'An Undeniable Classic', 'A Bit Tame By Today s Standards  But That s Good', 'night masks', 'One best horror independent films ever made', 'The slasher film started', 'As matter fact    bogeyman ', 'Scary slasher classic ', 'One better slasherhorrors', 'Musical', 'One best slasher franchises', 'Good scary Halloween treat  still raw power frighten ', 'A Definite Pioneer Its Class', 'Trick Or Treat  Or else ', 'A Horror Classic', 'This movie classic horror well executed storyline magnificent soundtrack']</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Tiffany Pat , two volatile people', 'good rom-com mental illness', 'Great Performances Bring Characters Life', "Life Is Lot More Complicated/A Psychiatrist 's Buffet", 'Zonked Right Out On Life', 'De Niro back', 'Lovely Cute Movie', 'Solid performances obvious direction writing rob wit , intelligence depth', 'family world', 'Near-brilliant mixture personal journey , family dynamics , romance ... cinematic gift', 'My cherie amour', 'Silver Linings Playbook deserves accolades gets', 'Great performances', 'This One Bad Bet', 'Good , great', 'Merely Old Kinderhook', 'Jennifer Lawrence outshines Bradley Cooper', 'Good', "I could n't stand", "About 'd expect", 'Entertaining &amp; good story bipolarity .', 'Crazy meets Crazy !', "'The world break heart ten ways Sunday . That 's guaranteed . '", 'The real silver lining ? The Oscar .', 'Humble , emotional , hurtful , touching proves damaged hearts chance love !']</t>
+          <t>['Tiffany Pat  two volatile people', 'good romcom mental illness', 'Great Performances Bring Characters Life', 'Life Is Lot More ComplicatedA Psychiatrist s Buffet', 'Zonked Right Out On Life', 'De Niro back', 'Lovely Cute Movie', 'Solid performances obvious direction writing rob wit  intelligence depth', 'family world', 'Nearbrilliant mixture personal journey  family dynamics  romance  cinematic gift', 'My cherie amour', 'Silver Linings Playbook deserves accolades gets', 'Great performances', 'This One Bad Bet', 'Good  great', 'Merely Old Kinderhook', 'Jennifer Lawrence outshines Bradley Cooper', 'Good', 'I could nt stand', 'About d expect', 'Entertaining  good story bipolarity ', 'Crazy meets Crazy ', 'The world break heart ten ways Sunday  That s guaranteed  ', 'The real silver lining  The Oscar ', 'Humble  emotional  hurtful  touching proves damaged hearts chance love ']</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['A serious contender best ever Bond', "That 's Goldfinger , Not Goldwater", 'The formula set', 'One All-Time Greats', "It 's Still My Favorite Bond Movie !", 'The best Bond movies', 'Awesome breathtaking entry James Bond takes master criminal called Auric Goldfinger', 'Pussy Galore', '14-Karat Bond .', 'A Very Iconic Bond', 'Memories `` Galore `` For This Bond Film', 'Bond 3', 'Enjoyable Bond outing ; perfect non-think entertainment ... work', 'Bond Quintessential Bond !', 'Goldfinger- A Golden James Bond Film * * * 1/2', "Goldfingaaaaaa ! ! ! He 's man , man Midas touch !", '`` This one films makes cinema move forward ! `` Fellini ( 1964 )', 'Bond , Bowler Hats , Galore Man With Midas Touch .', 'The third time charm ... suave Bond never better ...', 'Very entertaining Sean Connery entry Bond romp', 'Gold', 'One Most Popular James Bond Films', 'This picture Bond Hall Fame absolutely must see', 'Certainly better bred owner .', "`` Classic `` n't mean `` good ``"]</t>
+          <t>['A serious contender best ever Bond', 'That s Goldfinger  Not Goldwater', 'The formula set', 'One AllTime Greats', 'It s Still My Favorite Bond Movie ', 'The best Bond movies', 'Awesome breathtaking entry James Bond takes master criminal called Auric Goldfinger', 'Pussy Galore', '14Karat Bond ', 'A Very Iconic Bond', 'Memories  Galore  For This Bond Film', 'Bond 3', 'Enjoyable Bond outing  perfect nonthink entertainment  work', 'Bond Quintessential Bond ', 'Goldfinger A Golden James Bond Film    12', 'Goldfingaaaaaa    He s man  man Midas touch ', ' This one films makes cinema move forward   Fellini  1964 ', 'Bond  Bowler Hats  Galore Man With Midas Touch ', 'The third time charm  suave Bond never better ', 'Very entertaining Sean Connery entry Bond romp', 'Gold', 'One Most Popular James Bond Films', 'This picture Bond Hall Fame absolutely must see', 'Certainly better bred owner ', ' Classic  nt mean  good ']</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['great smaller sci-fi treat', 'A Different Sort Picture', 'All That Money Build Woman When We Already Have Several Billion', 'To human', 'Engaging entertaining .', 'Still Machina', 'A boring sci-fi mystery without thrills ...', 'A thought-provoking brooding film programmer selected participate ground-breaking experiment', "creating life one 's image", 'Neither Ex Cellent Ex Crement .', 'The Underrated Gem 2015', "'s robot", 'A captivating suspenseful story', 'Sex Machine', "Is n't strange , create something hates ?", 'Not As Smart As It Thinks It Is', 'Manipulative A.I .', 'Escaping The Black And White Room ...', 'Extraordinary thought-provoking', 'And God Created Ava', 'Robots take world', 'A wonderful film', 'The robots enslave us . We know . But nice take .', "'The good deeds man done defends . '", 'boring excellent effects']</t>
+          <t>['great smaller scifi treat', 'A Different Sort Picture', 'All That Money Build Woman When We Already Have Several Billion', 'To human', 'Engaging entertaining ', 'Still Machina', 'A boring scifi mystery without thrills ', 'A thoughtprovoking brooding film programmer selected participate groundbreaking experiment', 'creating life one s image', 'Neither Ex Cellent Ex Crement ', 'The Underrated Gem 2015', 's robot', 'A captivating suspenseful story', 'Sex Machine', 'Is nt strange  create something hates ', 'Not As Smart As It Thinks It Is', 'Manipulative AI ', 'Escaping The Black And White Room ', 'Extraordinary thoughtprovoking', 'And God Created Ava', 'Robots take world', 'A wonderful film', 'The robots enslave us  We know  But nice take ', 'The good deeds man done defends  ', 'boring excellent effects']</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Powerful Colour Purple', 'Saccharine sentimentality', 'good work Whoopi', 'Way Too Safe Cute Its Own Good', "It 's hard believe Whoopi Goldberg 's feature debut .", "Was n't For Me", 'Vintage Spielberg In Both The Good &amp; Bad', 'Too careful slick overall , undeniably moving ...', 'Color Excellent-The Color Purple * * * *', 'Interesting , emotional drama', 'Movie Better Book', 'Wow', 'One greatest Oscar snubs history', "I would n't change single thing movie .", 'God Help Us All When Spielberg Feels Guilty About Something', '`` Roots `` showing', 'A Remarkable Film !', 'Perhaps book better', 'Emotionally Dense , Powerfully Moving &amp; Strongly Acted', 'A great film violence racism .', 'Acting . . .', "Steven Spielberg 's Personal Masterpiece !", 'Forgotten Spielberg Masterpiece', 'A good film', 'Very worth watching .']</t>
+          <t>['Powerful Colour Purple', 'Saccharine sentimentality', 'good work Whoopi', 'Way Too Safe Cute Its Own Good', 'It s hard believe Whoopi Goldberg s feature debut ', 'Was nt For Me', 'Vintage Spielberg In Both The Good  Bad', 'Too careful slick overall  undeniably moving ', 'Color ExcellentThe Color Purple    ', 'Interesting  emotional drama', 'Movie Better Book', 'Wow', 'One greatest Oscar snubs history', 'I would nt change single thing movie ', 'God Help Us All When Spielberg Feels Guilty About Something', ' Roots  showing', 'A Remarkable Film ', 'Perhaps book better', 'Emotionally Dense  Powerfully Moving  Strongly Acted', 'A great film violence racism ', 'Acting   ', 'Steven Spielberg s Personal Masterpiece ', 'Forgotten Spielberg Masterpiece', 'A good film', 'Very worth watching ']</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['A good fresh prequel/reboot', 'Superhero prequel fails breathe new life tired franchise', 'good prequel reboot', 'First mission', 'Marks Beginning', 'The Saga Begins', "Solid effects-driven blockbuster , 's", 'The best X-Men movie far ...', 'First class ? Not quite ...', 'X-Men : First Class another worthy entry Marvel Comics film series', 'Spectacular !', 'A Whiz-Bang Wonderful Entertainment Great Work All Around', 'At best OK', 'X-MEN : FIRST CLASS ( Matthew Vaughn , 2011 ) * * *', 'Better Than Original Trilogy', 'Enjoyable within genre .', "I 'd say earns solid B", 'When Xavier Erik friends', 'Mutants Begin', 'Sadly disappointing', 'X : First Class', 'Starting Top', 'Takes series back roots , literally figuratively .', 'Really good ! It worth suffering X-Men films', 'X-Men : First Class']</t>
+          <t>['A good fresh prequelreboot', 'Superhero prequel fails breathe new life tired franchise', 'good prequel reboot', 'First mission', 'Marks Beginning', 'The Saga Begins', 'Solid effectsdriven blockbuster  s', 'The best XMen movie far ', 'First class  Not quite ', 'XMen  First Class another worthy entry Marvel Comics film series', 'Spectacular ', 'A WhizBang Wonderful Entertainment Great Work All Around', 'At best OK', 'XMEN  FIRST CLASS  Matthew Vaughn  2011    ', 'Better Than Original Trilogy', 'Enjoyable within genre ', 'I d say earns solid B', 'When Xavier Erik friends', 'Mutants Begin', 'Sadly disappointing', 'X  First Class', 'Starting Top', 'Takes series back roots  literally figuratively ', 'Really good  It worth suffering XMen films', 'XMen  First Class']</t>
         </is>
       </c>
     </row>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>["Denzel Washington fire , film n't quite", 'Too long', 'Garden Variety Bloodbath !', 'Man Fire', 'Denzel mission', 'A Future Classic', 'Excellent thrilling film merciless revenge', 'WARNING ! This film contains migraine-inducing direction novelty subtitles !', 'This Man Fire ! ! !', '3 Denzels 1 Dakota For Your Money', 'much fire kills', 'Scott goes town - works', "`` Creasy 's Art Death ... He paint Masterpiece ``", 'Brother Tony Dances', 'Righteous retribution John Creasy redemption .', 'Far From Being A Hot Thriller', 'Driving Miss Pita', 'Why Two Half Hours ?', 'This one favorite Washington movies underrated gem resume', 'Denzel Man !', '`` Why , Tony , ? ``', 'Incendiary Washington sizzles screen', 'The Punisher Mexico City , albeit black', "`` Wrecked 'im ? Blew 'im pieces , Miss ``", '`` A Bullet Always Tells Truth ``']</t>
+          <t>['Denzel Washington fire  film nt quite', 'Too long', 'Garden Variety Bloodbath ', 'Man Fire', 'Denzel mission', 'A Future Classic', 'Excellent thrilling film merciless revenge', 'WARNING  This film contains migraineinducing direction novelty subtitles ', 'This Man Fire   ', '3 Denzels 1 Dakota For Your Money', 'much fire kills', 'Scott goes town  works', ' Creasy s Art Death  He paint Masterpiece ', 'Brother Tony Dances', 'Righteous retribution John Creasy redemption ', 'Far From Being A Hot Thriller', 'Driving Miss Pita', 'Why Two Half Hours ', 'This one favorite Washington movies underrated gem resume', 'Denzel Man ', ' Why  Tony   ', 'Incendiary Washington sizzles screen', 'The Punisher Mexico City  albeit black', ' Wrecked im  Blew im pieces  Miss ', ' A Bullet Always Tells Truth ']</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Slick stellar performances', 'Crackerjack caper', 'Giant Stars Play', 'The Cast Makes Worth Watching', 'Great Popcorn Movie', 'Three casino heist', 'What cast', 'Pretty amusing heist romp starred famous group Hollywood stars filled surprises , funny situations , twists turns', "You 'd better believe I 'm !", 'Slick &amp; A Bit Too Technical , But Okay', '11 enough', 'Flipping switch Sin City', 'Just great', "Soderbergh 's good movie", 'A little predictable , entertaining fare anyway , Oscar winner Soderbergh', 'Unique', 'All Bets Are Off', 'Shaobo Qin steals movie', "For thrill . For 'pay ' . For Hell !", 'I got two words , mini-bar .', 'Stardom Vs Narrative', 'Why bother remaking film ?', 'An Awesome Eleven', 'Fluffy lots fun', '? ? ? ? ?']</t>
+          <t>['Slick stellar performances', 'Crackerjack caper', 'Giant Stars Play', 'The Cast Makes Worth Watching', 'Great Popcorn Movie', 'Three casino heist', 'What cast', 'Pretty amusing heist romp starred famous group Hollywood stars filled surprises  funny situations  twists turns', 'You d better believe I m ', 'Slick  A Bit Too Technical  But Okay', '11 enough', 'Flipping switch Sin City', 'Just great', 'Soderbergh s good movie', 'A little predictable  entertaining fare anyway  Oscar winner Soderbergh', 'Unique', 'All Bets Are Off', 'Shaobo Qin steals movie', 'For thrill  For pay   For Hell ', 'I got two words  minibar ', 'Stardom Vs Narrative', 'Why bother remaking film ', 'An Awesome Eleven', 'Fluffy lots fun', '    ']</t>
         </is>
       </c>
     </row>
@@ -4793,7 +4793,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Good parts , film familiar seems quite overrated .', 'Very much divisive film , 2014 highlight', 'An overachiever', 'audacious concept', 'Keaton Delivers One Ages', 'Certainly Ambiguous Challenge', 'fascinating puzzle', 'The play thing', 'Sometimes frustrating , generally great .', 'Former Superstar', 'I See Soccer Game TV Watch This Overrated Awful Flick On Blu-Ray', 'Not quite I expected ...', 'fickle industry leads interesting movie', 'Great Film , But Still Over-hyped Overrated', "Birdman : Or ( The Unexpected Ignorance ) something else , 's sure !", 'The second half momentum', 'Daring Ugly Film Obnoxious Highly Overrated', 'Intelligent , intense , absorbing movie', 'I Can See Why It Was Popular With The Thespians', 'Phenomenal . Just phenomenal .', 'The Theatah , Theatah , What Happened Theatah ?', "It 's Bird , It 's Insane", 'Boring', 'Going let one roll around head', "Note Riggan 's dressing room mirror : A thing thing , said thing ."]</t>
+          <t>['Good parts  film familiar seems quite overrated ', 'Very much divisive film  2014 highlight', 'An overachiever', 'audacious concept', 'Keaton Delivers One Ages', 'Certainly Ambiguous Challenge', 'fascinating puzzle', 'The play thing', 'Sometimes frustrating  generally great ', 'Former Superstar', 'I See Soccer Game TV Watch This Overrated Awful Flick On BluRay', 'Not quite I expected ', 'fickle industry leads interesting movie', 'Great Film  But Still Overhyped Overrated', 'Birdman  Or  The Unexpected Ignorance  something else  s sure ', 'The second half momentum', 'Daring Ugly Film Obnoxious Highly Overrated', 'Intelligent  intense  absorbing movie', 'I Can See Why It Was Popular With The Thespians', 'Phenomenal  Just phenomenal ', 'The Theatah  Theatah  What Happened Theatah ', 'It s Bird  It s Insane', 'Boring', 'Going let one roll around head', 'Note Riggan s dressing room mirror  A thing thing  said thing ']</t>
         </is>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['intriguing', 'Good bad', 'brief period relationships', "Amusing perspective view 's main star Julie", 'Norwegian `` Annie Hall ``', 'usual', 'A bit long dragged .', 'dialogue rather splendid', 'You love life .', 'Cinema Omnivore - The Worst Person World ( 2021 ) 8.0/10', 'Impressive dramedy Cannes-winning actress performance .', "Fall love dont . That 's movie . A difficult question indeed ...", 'story imperfect woman', 'An Achingly Accurate Portrait Of Millennial Angst', 'Diminished Aspirations ...', 'Bored ? ?', 'The life Julie ...', 'Worth Seeing', 'An honest engaging dramedy', 'An excellent film', 'Like hit freight train - best way possible', 'A WOMAN AT A CROSSROADS OF HER OWN DOING ... !', 'What movie see ?', 'Millennial Ingmar Bergman .', 'Worse title world .']</t>
+          <t>['intriguing', 'Good bad', 'brief period relationships', 'Amusing perspective view s main star Julie', 'Norwegian  Annie Hall ', 'usual', 'A bit long dragged ', 'dialogue rather splendid', 'You love life ', 'Cinema Omnivore  The Worst Person World  2021  8010', 'Impressive dramedy Canneswinning actress performance ', 'Fall love dont  That s movie  A difficult question indeed ', 'story imperfect woman', 'An Achingly Accurate Portrait Of Millennial Angst', 'Diminished Aspirations ', 'Bored  ', 'The life Julie ', 'Worth Seeing', 'An honest engaging dramedy', 'An excellent film', 'Like hit freight train  best way possible', 'A WOMAN AT A CROSSROADS OF HER OWN DOING  ', 'What movie see ', 'Millennial Ingmar Bergman ', 'Worse title world ']</t>
         </is>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Fun , offbeat non-rom-com', 'Masterpiece Good/Bad Times Love', 'Different Breed', 'After Summer , It Comes Autumn', 'A Film I Love To Hate And Hate To Love', 'A unique film', 'Exceedingly ordinary boy-meets-girl story ... musically intuitive yet little imagination', '( 500 ) Days Summer nice surprise summer relationship movie', '( 1/16 ) Days boredom', 'Wonderful movie .', 'Some able identify', 'An `` Annie Hall `` New Millennium', 'This Not Love Story', 'A delight', "Deschanel 's presence suggests pleasing movie", 'Coincidences , Opportunities , Consequences', 'Trying hard occasionally works', 'An unconventional romantic-comedy breaks genre maintaining positive outlook .', 'A romance guys', 'Quirky witty fun comedy shows love , romance relationship chance fate .', '( 500 ) Days Summer', 'Watch season ....', "Summer Lovin '", 'Not average romantic comedy', 'The Millennial Graduate ...']</t>
+          <t>['Fun  offbeat nonromcom', 'Masterpiece GoodBad Times Love', 'Different Breed', 'After Summer  It Comes Autumn', 'A Film I Love To Hate And Hate To Love', 'A unique film', 'Exceedingly ordinary boymeetsgirl story  musically intuitive yet little imagination', ' 500  Days Summer nice surprise summer relationship movie', ' 116  Days boredom', 'Wonderful movie ', 'Some able identify', 'An  Annie Hall  New Millennium', 'This Not Love Story', 'A delight', 'Deschanel s presence suggests pleasing movie', 'Coincidences  Opportunities  Consequences', 'Trying hard occasionally works', 'An unconventional romanticcomedy breaks genre maintaining positive outlook ', 'A romance guys', 'Quirky witty fun comedy shows love  romance relationship chance fate ', ' 500  Days Summer', 'Watch season ', 'Summer Lovin ', 'Not average romantic comedy', 'The Millennial Graduate ']</t>
         </is>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>['( one scene diner ) A funny , witty charmimg romantic comedy', 'It took long enough', 'Iconic rom-com', 'Terrific Comedy', 'revelation', 'And ...', 'orthodontist sat table met', 'Fun , But Too Much Like Romantic Comedy', 'Old favorite never gets old .', 'Acerbic insights clever sound-bites', 'Cute romcom', 'Fantastic', 'Orgasmic', 'A pretty good romantic comedy', "One all-time favorite comedies ; romance 's finest", 'Breath fresh air', 'Entertaining , Woody Allen-lite', 'The sex part always gets way', 'What said orgasm fantastic dialogue , originality acting ?', 'One Great Movie !', 'Best rom-com I ever seen !', 'An ultimate classic eternal question :', 'Captures anxieties friendship romance .', 'Sleepless New York', 'Sex city']</t>
+          <t>[' one scene diner  A funny  witty charmimg romantic comedy', 'It took long enough', 'Iconic romcom', 'Terrific Comedy', 'revelation', 'And ', 'orthodontist sat table met', 'Fun  But Too Much Like Romantic Comedy', 'Old favorite never gets old ', 'Acerbic insights clever soundbites', 'Cute romcom', 'Fantastic', 'Orgasmic', 'A pretty good romantic comedy', 'One alltime favorite comedies  romance s finest', 'Breath fresh air', 'Entertaining  Woody Allenlite', 'The sex part always gets way', 'What said orgasm fantastic dialogue  originality acting ', 'One Great Movie ', 'Best romcom I ever seen ', 'An ultimate classic eternal question ', 'Captures anxieties friendship romance ', 'Sleepless New York', 'Sex city']</t>
         </is>
       </c>
     </row>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>["Disney 's best film long time !", 'Nicely Crafted Tale', 'charming', 'Disney tangled Pixar', 'A Delightful Animation Based Fairy Tale By The Grimm Brothers', 'Solidly enjoyable family film good laughs songs', 'Fabulous ...', 'hair', "Disney 's 50th animation", "Disney 's Tangled quite enjoyable computer-animated movie 3-D friend", 'Wow entertaining !', 'A cute animated film Disney', 'Combines classic old-fashioned charm modern twist ... true Disney classic ...', 'Doors', 'About might expect', 'By-the-numbers Disney fluff', 'Finally .', 'Excitement Amusement All', 'Goldilocks And Her Free Hairs', 'Tangled Vs. Brave', 'Patented Disney', 'A Nutshell Review : Tangled', 'Unimpressive', 'Seductive', 'A Must Watch Kids !']</t>
+          <t>['Disney s best film long time ', 'Nicely Crafted Tale', 'charming', 'Disney tangled Pixar', 'A Delightful Animation Based Fairy Tale By The Grimm Brothers', 'Solidly enjoyable family film good laughs songs', 'Fabulous ', 'hair', 'Disney s 50th animation', 'Disney s Tangled quite enjoyable computeranimated movie 3D friend', 'Wow entertaining ', 'A cute animated film Disney', 'Combines classic oldfashioned charm modern twist  true Disney classic ', 'Doors', 'About might expect', 'Bythenumbers Disney fluff', 'Finally ', 'Excitement Amusement All', 'Goldilocks And Her Free Hairs', 'Tangled Vs Brave', 'Patented Disney', 'A Nutshell Review  Tangled', 'Unimpressive', 'Seductive', 'A Must Watch Kids ']</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>["WOW .... Tom Cruise 's role really NOT age well one .... though Nicholson 's simply amazing .", "`` ATTENTION , There 's An Officer On Deck ``", 'Jack Nicholson steals movie', 'Good , Sophisticated , Courtroom Drama Stellar Cast', "If nothing else , see Nicholson 's performance", 'A gripping courtroom drama', 'Best Court Drama Ever ?', 'Semper Fi , Mac', 'following orders', "You ca n't handle truth !", 'One Bad Apple', 'Jack Nicholson Nasty Jack , Tom Cruise , Demi Moore worst lawyer history world ...', '`` I dd nothing wrong , gave Me order I followed ``', 'Polished drama Reiner .', 'Pure Gold', 'Tense , absorbing , well acted courtroom drama ...', 'A pass single memorable moment Tom Cruise Jack Nicholson', 'A Few Good Men outstanding captivating military-themed movie compelling characters intriguing circumstances', "Stand Up , Mr. Cruise .... Jack Nicholson 's Passin '", 'Excellent military court drama', 'Can handle truth ? Cracker ( JACK ) cast &amp; script Reiner top game', "`` You ca n't handle truth ! ``", 'The Truth .', 'A Few Good Men', 'Overlong unimaginative courtroom drama']</t>
+          <t>['WOW  Tom Cruise s role really NOT age well one  though Nicholson s simply amazing ', ' ATTENTION  There s An Officer On Deck ', 'Jack Nicholson steals movie', 'Good  Sophisticated  Courtroom Drama Stellar Cast', 'If nothing else  see Nicholson s performance', 'A gripping courtroom drama', 'Best Court Drama Ever ', 'Semper Fi  Mac', 'following orders', 'You ca nt handle truth ', 'One Bad Apple', 'Jack Nicholson Nasty Jack  Tom Cruise  Demi Moore worst lawyer history world ', ' I dd nothing wrong  gave Me order I followed ', 'Polished drama Reiner ', 'Pure Gold', 'Tense  absorbing  well acted courtroom drama ', 'A pass single memorable moment Tom Cruise Jack Nicholson', 'A Few Good Men outstanding captivating militarythemed movie compelling characters intriguing circumstances', 'Stand Up  Mr Cruise  Jack Nicholson s Passin ', 'Excellent military court drama', 'Can handle truth  Cracker  JACK  cast  script Reiner top game', ' You ca nt handle truth  ', 'The Truth ', 'A Few Good Men', 'Overlong unimaginative courtroom drama']</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>['At times brilliant times incredibly self-indulgent', "Strange utterly mesmerising , quite possibly Lynch 's masterpiece", 'Strange Is Just Start It', 'What Ride ... One I Hope I Never Take', "One Lynch 's accessible optimistic films", 'Disturbing weird David Lynch movie grotesque , cruel outlandish events', 'wore ...', 'Strange , disturbing , brilliant', 'A Lynch I actually like .', "Lynch 's Masterpiece ?", "Lynch 's Most Famous Movie ? I Think So", 'Outré shocks apocalyptic suburban nightmare', 'nothing awesome thriller one overrated American filmmakers ever', 'Bizarre , frightening , oddly beautiful', 'BRIL-LI-ANT ! ! !', "Blue Velvet David Lynch 's masterpiece", 'David Lynch takes Kyle MacLachlan Walk Wild Side', 'Dennis Hopper returns', 'Hitchcock Lynch : A Brief Comparison', "Insert Pejorative Here ... Do n't", "No . I told . I n't want hurt . I want help . I think I know happening .", 'Why Is David Lynch So Popular ? ....', 'Spare Me', 'A masterpiece', "`` It 's A Strange World , Is n't It ? ! `` ..."]</t>
+          <t>['At times brilliant times incredibly selfindulgent', 'Strange utterly mesmerising  quite possibly Lynch s masterpiece', 'Strange Is Just Start It', 'What Ride  One I Hope I Never Take', 'One Lynch s accessible optimistic films', 'Disturbing weird David Lynch movie grotesque  cruel outlandish events', 'wore ', 'Strange  disturbing  brilliant', 'A Lynch I actually like ', 'Lynch s Masterpiece ', 'Lynch s Most Famous Movie  I Think So', 'Outr shocks apocalyptic suburban nightmare', 'nothing awesome thriller one overrated American filmmakers ever', 'Bizarre  frightening  oddly beautiful', 'BRILLIANT   ', 'Blue Velvet David Lynch s masterpiece', 'David Lynch takes Kyle MacLachlan Walk Wild Side', 'Dennis Hopper returns', 'Hitchcock Lynch  A Brief Comparison', 'Insert Pejorative Here  Do nt', 'No  I told  I nt want hurt  I want help  I think I know happening ', 'Why Is David Lynch So Popular  ', 'Spare Me', 'A masterpiece', ' It s A Strange World  Is nt It    ']</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>["Not 'fun ' movie , bit slow , still rather remarkable film .", 'Mesmerising', 'A Working Class Gay Love Story', 'Great acting boys Williams', 'Great Performances', 'So Touching So Very Sad', 'remarkable', 'A bit slow perhaps engaging , beautifully filmed , well acted touching low-key repressed way', 'I stress good movie .', 'One Love Story Rule Them All', 'A profile Ennis Del Mar , born wrong era openly express feelings another man .', 'An emotional powerhouse ...', 'turns touching story without forcing ; good direction , perfectly subdued performances', '`` Brokeback Mountain `` When Marlboro Man Goes Gay * * *', 'Gone Fishing', 'Another beautiful masterpiece Ang Lee', 'Moving , groundbreaking drama', 'Rule Twos : What Wives Know Allow', 'Manipulative And Dire Despite Some Strengths', 'Loving cowboys', 'I bored', 'The bittersweet final scenes enough melt heart ...', 'Sweet', 'Good great tragic love story', 'A beautiful love story']</t>
+          <t>['Not fun  movie  bit slow  still rather remarkable film ', 'Mesmerising', 'A Working Class Gay Love Story', 'Great acting boys Williams', 'Great Performances', 'So Touching So Very Sad', 'remarkable', 'A bit slow perhaps engaging  beautifully filmed  well acted touching lowkey repressed way', 'I stress good movie ', 'One Love Story Rule Them All', 'A profile Ennis Del Mar  born wrong era openly express feelings another man ', 'An emotional powerhouse ', 'turns touching story without forcing  good direction  perfectly subdued performances', ' Brokeback Mountain  When Marlboro Man Goes Gay   ', 'Gone Fishing', 'Another beautiful masterpiece Ang Lee', 'Moving  groundbreaking drama', 'Rule Twos  What Wives Know Allow', 'Manipulative And Dire Despite Some Strengths', 'Loving cowboys', 'I bored', 'The bittersweet final scenes enough melt heart ', 'Sweet', 'Good great tragic love story', 'A beautiful love story']</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>['A wonderful film ... ages .', 'Wow , I mean wow !', 'great marriage cartoon hard-boiled noir', 'Great fun film adults older kids', 'This first movie I ever saw theaters .', "There 's fun classic cartoon buffs , 's great .", 'A Landmark Animation', 'Who Can Watch A Loud 100-Minute Cartoon ?', 'Never gets old .', 'Who Framed Roger Rabbit ?', "Colorfully frantic , every human 'toon vying share laughs ...", "The best family film 80 's", 'Beautiful , Belligerent , Bountiful Nostalgia Run Amock', 'Generational Enjoyment', 'Yeah looks great ...', 'Very Imaginative', 'There many iconic moment masterpiece .', 'Dazzling Special Effects Toon Town', 'A movie missed mark .', 'Often imitated , yet equaled', 'As awe-inspiring fun breathlessly enjoyable .', 'Great promise , falls little short', 'top-notch industrial adventure', 'Wacky Rabbit', 'Very cute cute ...']</t>
+          <t>['A wonderful film  ages ', 'Wow  I mean wow ', 'great marriage cartoon hardboiled noir', 'Great fun film adults older kids', 'This first movie I ever saw theaters ', 'There s fun classic cartoon buffs  s great ', 'A Landmark Animation', 'Who Can Watch A Loud 100Minute Cartoon ', 'Never gets old ', 'Who Framed Roger Rabbit ', 'Colorfully frantic  every human toon vying share laughs ', 'The best family film 80 s', 'Beautiful  Belligerent  Bountiful Nostalgia Run Amock', 'Generational Enjoyment', 'Yeah looks great ', 'Very Imaginative', 'There many iconic moment masterpiece ', 'Dazzling Special Effects Toon Town', 'A movie missed mark ', 'Often imitated  yet equaled', 'As aweinspiring fun breathlessly enjoyable ', 'Great promise  falls little short', 'topnotch industrial adventure', 'Wacky Rabbit', 'Very cute cute ']</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>['Ugly , depressing ... yet interesting worth time .', 'Holmes And Watson At Holy Orders', 'inspired palimpsest', 'A monk novice helper attempt solve series killings fourteenth-century abbey', 'The Name Rose', 'An Interesting Mystery', '`` From beauty past , disappeared , hold names ... ``', 'cursed abbey mountains ...', 'These nasty monks haunted nightmares 25 years ...', 'Bookish Boorish ?', 'Long complex fascinating', 'Sexy', 'Deeply engaging', 'Murder mystery gloomy abbey Dark Ages Sean Connery', 'The Name Rose', 'Fascinating atmosphere great murder mystery', 'Bleak Sombre', 'knowledge something else', 'A Novice Monk Has Sex &amp; Falls `` LOVE `` ! !', 'Elementary , dear Adso !', 'death medieval monastery', 'An excellent period film .', 'Monks Being Murdered', 'Spooky setting cruel era Catholic Church held immense power', 'A Mini-Epic Lost In Mist Time']</t>
+          <t>['Ugly  depressing  yet interesting worth time ', 'Holmes And Watson At Holy Orders', 'inspired palimpsest', 'A monk novice helper attempt solve series killings fourteenthcentury abbey', 'The Name Rose', 'An Interesting Mystery', ' From beauty past  disappeared  hold names  ', 'cursed abbey mountains ', 'These nasty monks haunted nightmares 25 years ', 'Bookish Boorish ', 'Long complex fascinating', 'Sexy', 'Deeply engaging', 'Murder mystery gloomy abbey Dark Ages Sean Connery', 'The Name Rose', 'Fascinating atmosphere great murder mystery', 'Bleak Sombre', 'knowledge something else', 'A Novice Monk Has Sex  Falls  LOVE   ', 'Elementary  dear Adso ', 'death medieval monastery', 'An excellent period film ', 'Monks Being Murdered', 'Spooky setting cruel era Catholic Church held immense power', 'A MiniEpic Lost In Mist Time']</t>
         </is>
       </c>
     </row>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>['Not exactly subtle , great film regardless', 'Even Randolph Scott Must Have Laughed At This One , Not To Mention Hedy Lamarr Marlene Dietrich', 'If Richard Pryor .....', 'Classic Politically Incorrect Comedy', 'What Can You Say', 'Blazing Saddles', 'Taking western genre apart', 'Riotous Westen spoof Mel Brooks raunchy amusing gags', 'A Jewish Indian , rescued handcart , excessive flatulence , gay movie set ? Only Mel Brooks could !', 'A Mel Brooks Classic', 'The Film That Made Brooks A Star', 'Sniggering , poorly-made edited , often deliriously naughty fun ...', '`` Excuse I whip . `` Dead-pan funny', 'Nearly 50 years ago', '`` And , next impression ... Jesse Owens ! ``', 'Laugh riot . Not way west .', 'Still One Kind', "It could n't made today ...", '`` Well real name Jim , people call ... Jim . ``', 'Incredibly funny', 'Political Correctness Is A Terrible Thing', '40 Years Later Still Drawing Laughs', 'Time kind one', 'Not Easily Offended', '`` He Conquered Fear And He Conquered Hate . He Turned Our Night Into Day ... ``']</t>
+          <t>['Not exactly subtle  great film regardless', 'Even Randolph Scott Must Have Laughed At This One  Not To Mention Hedy Lamarr Marlene Dietrich', 'If Richard Pryor ', 'Classic Politically Incorrect Comedy', 'What Can You Say', 'Blazing Saddles', 'Taking western genre apart', 'Riotous Westen spoof Mel Brooks raunchy amusing gags', 'A Jewish Indian  rescued handcart  excessive flatulence  gay movie set  Only Mel Brooks could ', 'A Mel Brooks Classic', 'The Film That Made Brooks A Star', 'Sniggering  poorlymade edited  often deliriously naughty fun ', ' Excuse I whip   Deadpan funny', 'Nearly 50 years ago', ' And  next impression  Jesse Owens  ', 'Laugh riot  Not way west ', 'Still One Kind', 'It could nt made today ', ' Well real name Jim  people call  Jim  ', 'Incredibly funny', 'Political Correctness Is A Terrible Thing', '40 Years Later Still Drawing Laughs', 'Time kind one', 'Not Easily Offended', ' He Conquered Fear And He Conquered Hate  He Turned Our Night Into Day  ']</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>['Absolutely unique spellbinding .', "A visual technical directorial achievement , much 'Gravity ' things", 'Great thrill ride', 'Buy Hype , Buy Ticket Witness Something Truly Remarkable', 'Well Crafted , Really Hard Believe', "Possibly visually incredible film I 've seen .", '( 3D ) Experience', 'Impossible Be Described , Must Be Experienced 3D Movie Theaters', 'The intensity experience covers weaknesses events writing', 'Clear skies chance satellite debris ...', 'Visually splendid epic critically acclaimed film Sandra Bullock terrific brave astronaut', 'space junk alludes Earth junk', 'The effects unbelievable , script .', 'Less Than Perfect , But Visually Stunning', 'art moment', 'Gravity quite treat movie surviving space things go wrong', 'A gripping tale survival', 'I bad feeling mission .', 'Mother Earth', 'Visually amazing', 'In Space No One Can Hear You Gasp Wow !', 'Gravity Provided Grave Situation', 'GRAVITY ( Alfonso Cuaron , 2013 ) * * 1/2', 'Clear skies chance satellite debris', 'Astonishing , Technically Brilliant Very Moving']</t>
+          <t>['Absolutely unique spellbinding ', 'A visual technical directorial achievement  much Gravity  things', 'Great thrill ride', 'Buy Hype  Buy Ticket Witness Something Truly Remarkable', 'Well Crafted  Really Hard Believe', 'Possibly visually incredible film I ve seen ', ' 3D  Experience', 'Impossible Be Described  Must Be Experienced 3D Movie Theaters', 'The intensity experience covers weaknesses events writing', 'Clear skies chance satellite debris ', 'Visually splendid epic critically acclaimed film Sandra Bullock terrific brave astronaut', 'space junk alludes Earth junk', 'The effects unbelievable  script ', 'Less Than Perfect  But Visually Stunning', 'art moment', 'Gravity quite treat movie surviving space things go wrong', 'A gripping tale survival', 'I bad feeling mission ', 'Mother Earth', 'Visually amazing', 'In Space No One Can Hear You Gasp Wow ', 'Gravity Provided Grave Situation', 'GRAVITY  Alfonso Cuaron  2013    12', 'Clear skies chance satellite debris', 'Astonishing  Technically Brilliant Very Moving']</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>['Going well yet another time ... enough already !', 'Pixar road', 'emotional', 'Not Great Certainly Not 1 2', 'Afterlife', 'High entertainment quite pathos previous', 'I want see Toy Story-Shining mashup', "Four films 'Toy Story ' still charming", 'A entertaining continuation Toy Story movies .', 'A fitting conclusion Toy Story series', 'Toy Story 4 great first three series', 'Wonderful addition Toy Story Universe', 'Engaging adventurous', 'THE TOY STORY SAGA IS DEFINITELY NOT `` OUT OF SLINK ``', '24 MORE YEARS', 'A sequel one needed , yet . . .', '`` ... beyond . ``', 'TOY STORY 4 plays fully nostalgia manages squeeze something instructive old gangs similar territory', 'I hope franchise never ends . Brilliant !', 'fun good heart', 'I thought movie would sucked . I proven wrong .', 'Four Times Charm', 'Forky , Ducky , Bunny , Bo peep best things !', 'Another good one', "It n't , I 'm afraid ..."]</t>
+          <t>['Going well yet another time  enough already ', 'Pixar road', 'emotional', 'Not Great Certainly Not 1 2', 'Afterlife', 'High entertainment quite pathos previous', 'I want see Toy StoryShining mashup', 'Four films Toy Story  still charming', 'A entertaining continuation Toy Story movies ', 'A fitting conclusion Toy Story series', 'Toy Story 4 great first three series', 'Wonderful addition Toy Story Universe', 'Engaging adventurous', 'THE TOY STORY SAGA IS DEFINITELY NOT  OUT OF SLINK ', '24 MORE YEARS', 'A sequel one needed  yet   ', '  beyond  ', 'TOY STORY 4 plays fully nostalgia manages squeeze something instructive old gangs similar territory', 'I hope franchise never ends  Brilliant ', 'fun good heart', 'I thought movie would sucked  I proven wrong ', 'Four Times Charm', 'Forky  Ducky  Bunny  Bo peep best things ', 'Another good one', 'It nt  I m afraid ']</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>['The Smartest Guy In Town', 'twisty court procedural one big performance', 'Edward Norton Opus', 'useful', 'Primal Rage', 'The Excellent Debut Edward Norton Great Thriller', 'Full holes still enjoyable inventive', 'Norton Debuts , Acts His Way Overnight Stardom', 'Worthwhile , uncompromising vehicle Gere ...', 'great cast star-making performance', 'excellent thriller', 'I lost time .', "Stop What You 're Doing Watch", 'Despite unforseen twist still add', 'If want justice , go whorehouse . If wan na get f * cked , go court .', 'Edward Norton Terrific Run-of-the-Mill Thriller', 'Excellent film', 'Worth time', 'Aaron Or Roy ?', "Uneven thriller , 's talent", 'Primal Fear', 'admirable', 'Captivating Crime Thriller ! Richard Gere Brilliant !', 'I LOVED I saw first time . When I knew plot I LIKED second time . But , decades later , I find plot rather IMPLAUSIBLE moments ...', 'A dark &amp; intriguing courtroom drama']</t>
+          <t>['The Smartest Guy In Town', 'twisty court procedural one big performance', 'Edward Norton Opus', 'useful', 'Primal Rage', 'The Excellent Debut Edward Norton Great Thriller', 'Full holes still enjoyable inventive', 'Norton Debuts  Acts His Way Overnight Stardom', 'Worthwhile  uncompromising vehicle Gere ', 'great cast starmaking performance', 'excellent thriller', 'I lost time ', 'Stop What You re Doing Watch', 'Despite unforseen twist still add', 'If want justice  go whorehouse  If wan na get f  cked  go court ', 'Edward Norton Terrific RunoftheMill Thriller', 'Excellent film', 'Worth time', 'Aaron Or Roy ', 'Uneven thriller  s talent', 'Primal Fear', 'admirable', 'Captivating Crime Thriller  Richard Gere Brilliant ', 'I LOVED I saw first time  When I knew plot I LIKED second time  But  decades later  I find plot rather IMPLAUSIBLE moments ', 'A dark  intriguing courtroom drama']</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>['Incredibly powerful', 'dancing drunk Mads', 'teachers lives', 'Surprisingly good ...', 'booze first', 'If little helps , imagine much lot help !', 'Did connect', 'Great , original drama', 'Incredibly awkward , yet unexpectedly riveting', 'The Alcohol Version `` Reefer Madness ``', 'little good , better ?', 'Recognizable scenes people like drink .', 'What life .', 'Well made , misses', 'A mix genius cliché', 'Cinema Omnivore - Another Round ( 2020 ) 7.4/10', 'Love without sex . Is possible ? Yes , sweet .', 'Not really funny , although funny idea letting teachers drink lot see educative skills would improve ...', 'Do try home !', 'More `` skul `` better skills school ? An experimental review `` Another Round `` ...', 'breezy ... social experiment , glory influence', 'It could Path-Breaking film Alcohol culture opts play safe general theories .', 'drinking', "This could Vinterberg 's best film date .", 'Mads Mikkelsen At His Absolute Best']</t>
+          <t>['Incredibly powerful', 'dancing drunk Mads', 'teachers lives', 'Surprisingly good ', 'booze first', 'If little helps  imagine much lot help ', 'Did connect', 'Great  original drama', 'Incredibly awkward  yet unexpectedly riveting', 'The Alcohol Version  Reefer Madness ', 'little good  better ', 'Recognizable scenes people like drink ', 'What life ', 'Well made  misses', 'A mix genius clich', 'Cinema Omnivore  Another Round  2020  7410', 'Love without sex  Is possible  Yes  sweet ', 'Not really funny  although funny idea letting teachers drink lot see educative skills would improve ', 'Do try home ', 'More  skul  better skills school  An experimental review  Another Round  ', 'breezy  social experiment  glory influence', 'It could PathBreaking film Alcohol culture opts play safe general theories ', 'drinking', 'This could Vinterberg s best film date ', 'Mads Mikkelsen At His Absolute Best']</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>['Very romantic enjoyable', 'Acceptable Hollywood swashbuckler , hardly sparkling', 'well made old fashion adventure great cast', "It Just Does n't Hold Up Other Versions", 'beautiful', 'A bit slow serious still enjoyable professionally told tale', 'Good colorful adaptation based classical story Alexandre Dumas novel', '`` count ``', 'Revenge Justice ?', 'Different book vastly entertaining', 'This Count Delivers As Original Did-Count Monte Cristo * * * *', 'Fantastic story given quite smashing adaptation .', 'Sprawling Epic . Perhaps Too Sprawling', 'Dumas tale revenge grand scale ...', 'Another entertaining re-version Alexandre Dumas popular book', 'An Unexpected Classic', '`` Abridged `` still entertaining', 'BUCKLE YOUR SWASH FOR A GREAT TIME', 'Quality historical fiction inspired book', 'Revenge', 'The Count Monte Cristo', 'Now I even forgive Kevin Reynolds `` Waterworld ``', 'High count', 'A Nutshell Review : The Count Monte Cristo', 'beautiful']</t>
+          <t>['Very romantic enjoyable', 'Acceptable Hollywood swashbuckler  hardly sparkling', 'well made old fashion adventure great cast', 'It Just Does nt Hold Up Other Versions', 'beautiful', 'A bit slow serious still enjoyable professionally told tale', 'Good colorful adaptation based classical story Alexandre Dumas novel', ' count ', 'Revenge Justice ', 'Different book vastly entertaining', 'This Count Delivers As Original DidCount Monte Cristo    ', 'Fantastic story given quite smashing adaptation ', 'Sprawling Epic  Perhaps Too Sprawling', 'Dumas tale revenge grand scale ', 'Another entertaining reversion Alexandre Dumas popular book', 'An Unexpected Classic', ' Abridged  still entertaining', 'BUCKLE YOUR SWASH FOR A GREAT TIME', 'Quality historical fiction inspired book', 'Revenge', 'The Count Monte Cristo', 'Now I even forgive Kevin Reynolds  Waterworld ', 'High count', 'A Nutshell Review  The Count Monte Cristo', 'beautiful']</t>
         </is>
       </c>
     </row>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>['A near-masterpiece Alfonso Cuaron', 'What trio !', 'And Your Mama , Too', 'mama', 'Road Movie , With More Than A Bit Sexuality', 'Fatalism con sabor Latino .', "Heaven 's Mouth", 'Another prime example film-making Mexico', 'Interesting entertaining', 'Three road ...', 'Half good movie', 'Familiar theme except adult Mexican setting', "Truth cool unattainable ... truth totally amazing , ca n't ever reach .", 'A Different Kind Threesome', 'Muy caliente de sexo comedia', 'Juvenile times , beautiful moving', "wake 's", 'A superficially ordinary flick great depth', 'Sex beach', 'Life Is Like Surf . So Give Away Yourself Like Sea .', 'fascinating filmmaking', "I n't see ...", 'Pretty intriguing', 'Alfonso Cuarón ...', 'Dias De Los Muertos ( Days Dead ) .']</t>
+          <t>['A nearmasterpiece Alfonso Cuaron', 'What trio ', 'And Your Mama  Too', 'mama', 'Road Movie  With More Than A Bit Sexuality', 'Fatalism con sabor Latino ', 'Heaven s Mouth', 'Another prime example filmmaking Mexico', 'Interesting entertaining', 'Three road ', 'Half good movie', 'Familiar theme except adult Mexican setting', 'Truth cool unattainable  truth totally amazing  ca nt ever reach ', 'A Different Kind Threesome', 'Muy caliente de sexo comedia', 'Juvenile times  beautiful moving', 'wake s', 'A superficially ordinary flick great depth', 'Sex beach', 'Life Is Like Surf  So Give Away Yourself Like Sea ', 'fascinating filmmaking', 'I nt see ', 'Pretty intriguing', 'Alfonso Cuarn ', 'Dias De Los Muertos  Days Dead  ']</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>['violent cult movie', 'special', 'Gods bloody path', 'Good structure simple concept deliver genre standards otherwise melodramatic , unimaginative bit daft', 'Cult Classic With Good Reason', 'An insult Irish-Americans , gay FBI agents , Mafiosos everywhere !', 'flamboyant style drops originality brushed', 'Unexpectedly good', 'Down Boondocks Troy Duffy', 'Anti Tarantino', 'Indulgent Cultism', 'A Fun Movie', 'Shallow Stupid', 'I wan na Tarantino', 'Definitely entertaining .', 'Great unusual action film', 'whilst I understand appeal , .', 'over-hyped', "If 've ever wanted see Willem Dafoe French kiss guy dressed drag , movie .", 'A classic film mark end century', 'Wonderful gem !', 'Nothing worse bad surrogate . This simply ANOTHER FAILED Tarantino rip . BORING .', "They 're deadly mission God", 'It good , next day I bought !', 'Still fun watch , good I remembered']</t>
+          <t>['violent cult movie', 'special', 'Gods bloody path', 'Good structure simple concept deliver genre standards otherwise melodramatic  unimaginative bit daft', 'Cult Classic With Good Reason', 'An insult IrishAmericans  gay FBI agents  Mafiosos everywhere ', 'flamboyant style drops originality brushed', 'Unexpectedly good', 'Down Boondocks Troy Duffy', 'Anti Tarantino', 'Indulgent Cultism', 'A Fun Movie', 'Shallow Stupid', 'I wan na Tarantino', 'Definitely entertaining ', 'Great unusual action film', 'whilst I understand appeal  ', 'overhyped', 'If ve ever wanted see Willem Dafoe French kiss guy dressed drag  movie ', 'A classic film mark end century', 'Wonderful gem ', 'Nothing worse bad surrogate  This simply ANOTHER FAILED Tarantino rip  BORING ', 'They re deadly mission God', 'It good  next day I bought ', 'Still fun watch  good I remembered']</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>['Manipulative extreme', 'Bruno And Shmuel', 'flawed fable', 'Brutal', 'Take Idea Run', 'useful', 'Heartbreaking Sight War Holocaust Innocent Eyes', 'Solid family-level film light touch good impact', 'Stirring highly acclaimed riveting drama German boy intense relationship Jew striped pyjamas powered splendid performances', 'One Greatest Movies Ever Made', 'The Boy Striped Pajamis Gripping * * * *', 'Stunningly effective devastating', "We 're supposed friends , . We 're meant enemies . Did know ?", "We 're supposed friends , . We 're meant enemies . Did know ?", "I told , 's game ; numbers", 'The Wisdom Children', 'Emotionally draining , times overly simplistic', 'The power details .', 'A Nutshell Review : The Boy Striped Pyjamas', 'About truth', 'A Fantastic film !', "The Holocaust eight year old 's eyes", 'All things truly wicked start innocence-Ernest Hemingway', 'Excellent performances around', "Considering subject , n't I moved even shocked ?"]</t>
+          <t>['Manipulative extreme', 'Bruno And Shmuel', 'flawed fable', 'Brutal', 'Take Idea Run', 'useful', 'Heartbreaking Sight War Holocaust Innocent Eyes', 'Solid familylevel film light touch good impact', 'Stirring highly acclaimed riveting drama German boy intense relationship Jew striped pyjamas powered splendid performances', 'One Greatest Movies Ever Made', 'The Boy Striped Pajamis Gripping    ', 'Stunningly effective devastating', 'We re supposed friends   We re meant enemies  Did know ', 'We re supposed friends   We re meant enemies  Did know ', 'I told  s game  numbers', 'The Wisdom Children', 'Emotionally draining  times overly simplistic', 'The power details ', 'A Nutshell Review  The Boy Striped Pyjamas', 'About truth', 'A Fantastic film ', 'The Holocaust eight year old s eyes', 'All things truly wicked start innocenceErnest Hemingway', 'Excellent performances around', 'Considering subject  nt I moved even shocked ']</t>
         </is>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>['I really liked Disney flick seemed slip cracks', 'Definitely Disney classic !', 'progression Disney princess', 'A Very Good Character', 'Despite weak songs great cartoon', 'A Disney classic ...', "I 'm China tell something", "Not one Disney 's best , still good fun .", 'Good Disney animation , funny spots , rating seems bit high .', 'Mulan 1998', "She 's Oriental Yentl", 'Mulan , setting goals since 1998', 'I Watched Wrong Order', "One Disney 's best", "`` Let 's go kick Hunny buns ! Yee-ha ! ``", 'Another one I got dragged .', 'It looks great', "Let 's get business ...", 'One better Disney cartoons . Same stupid music .', 'fun serious', 'I love everything movie !', 'Mostly good , sometimes great', 'A beautiful , adventurous fun Disney film !', 'You trusted Ping , Mulan different ? LOVED IT !', 'Mephisto Onyx']</t>
+          <t>['I really liked Disney flick seemed slip cracks', 'Definitely Disney classic ', 'progression Disney princess', 'A Very Good Character', 'Despite weak songs great cartoon', 'A Disney classic ', 'I m China tell something', 'Not one Disney s best  still good fun ', 'Good Disney animation  funny spots  rating seems bit high ', 'Mulan 1998', 'She s Oriental Yentl', 'Mulan  setting goals since 1998', 'I Watched Wrong Order', 'One Disney s best', ' Let s go kick Hunny buns  Yeeha  ', 'Another one I got dragged ', 'It looks great', 'Let s get business ', 'One better Disney cartoons  Same stupid music ', 'fun serious', 'I love everything movie ', 'Mostly good  sometimes great', 'A beautiful  adventurous fun Disney film ', 'You trusted Ping  Mulan different  LOVED IT ', 'Mephisto Onyx']</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>['No problems', 'Old fashion epic', 'Wonderfully Made Drama Full Great Tension', 'Fly moon', 'A rather straight enjoyable drama good cast could done human touch', 'Well ...', 'A realistic adaptation almost-documentary style based true events', '13 every mission since .', 'A Great Space Tragedy / Victory', 'An American classic , gripping beginning end .', "Yet another Ron Howard movie n't dig deep ...", 'Best film 1995', "Such inspiring story humanity 's ability problem solve persist .", 'Exhilarating recreation .', 'The Dangers Of Space Flight Hollywood Style', 'Take Me Moon', "By-the-Numbers Movie Is Still One Ron Howard 's Better Efforts", 'Good drama could less technical .', 'The Right Stuff', 'Cinematic account ill-fated Apollo mission', 'Saw drive .', 'Houston problem , movie long .', '`` With due respect , sir , I believe gon na finest hour . ``', 'Apollo 13', 'Houston , I Love This Film']</t>
+          <t>['No problems', 'Old fashion epic', 'Wonderfully Made Drama Full Great Tension', 'Fly moon', 'A rather straight enjoyable drama good cast could done human touch', 'Well ', 'A realistic adaptation almostdocumentary style based true events', '13 every mission since ', 'A Great Space Tragedy  Victory', 'An American classic  gripping beginning end ', 'Yet another Ron Howard movie nt dig deep ', 'Best film 1995', 'Such inspiring story humanity s ability problem solve persist ', 'Exhilarating recreation ', 'The Dangers Of Space Flight Hollywood Style', 'Take Me Moon', 'BytheNumbers Movie Is Still One Ron Howard s Better Efforts', 'Good drama could less technical ', 'The Right Stuff', 'Cinematic account illfated Apollo mission', 'Saw drive ', 'Houston problem  movie long ', ' With due respect  sir  I believe gon na finest hour  ', 'Apollo 13', 'Houston  I Love This Film']</t>
         </is>
       </c>
     </row>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>['challenge', 'Gilliam universe', 'Head Expanding ... Eye Popping Migrane Inducing', 'Brilliant - highly original , intelligent , thought-provoking , engaging entertaining', 'Another hit Jaco Van Dormael .', "'deja vu ' , coincidence 'pigeon superstition ' arise confuse , inform delight", 'Mr. Nobody', 'Great concept , needed focus', 'Will I live long time ? No , seem', 'poem', 'Big-budget existentialist fantasy', 'Gives us enough chew choke spit', "Enjoyable long n't try make sense .", 'Boyhood Crack ; Mr. Nobody', 'Mind-blowing', 'Very particular', 'The Choices We Make', 'Mr.Nobody', 'More interesting The Tree Life Malick , still ... long', 'Every Life Deserves To Be Lived ... Oh , Really ! ! ? ?', 'SO RANDOM .', 'pretentious .', 'Indescribable ambition', 'A surreal tread nonlinearity', 'Brilliant complex strange movie everyone']</t>
+          <t>['challenge', 'Gilliam universe', 'Head Expanding  Eye Popping Migrane Inducing', 'Brilliant  highly original  intelligent  thoughtprovoking  engaging entertaining', 'Another hit Jaco Van Dormael ', 'deja vu   coincidence pigeon superstition  arise confuse  inform delight', 'Mr Nobody', 'Great concept  needed focus', 'Will I live long time  No  seem', 'poem', 'Bigbudget existentialist fantasy', 'Gives us enough chew choke spit', 'Enjoyable long nt try make sense ', 'Boyhood Crack  Mr Nobody', 'Mindblowing', 'Very particular', 'The Choices We Make', 'MrNobody', 'More interesting The Tree Life Malick  still  long', 'Every Life Deserves To Be Lived  Oh  Really    ', 'SO RANDOM ', 'pretentious ', 'Indescribable ambition', 'A surreal tread nonlinearity', 'Brilliant complex strange movie everyone']</t>
         </is>
       </c>
     </row>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>['Intelligent , heart-warming , poignant , uplifting gratifying ...', 'Story friendship', 'A Superb Story Comes Life', "Going ' south masterpiece ... think I confused title `` Attack Killer Tomatoes `` !", 'Lots Fun , Great Barbecue Recipe', 'Southern-fried tripe', 'Fried Green Tomatoes Forever Tasty * * * *', 'Rotten Green Tomatoes', 'Meh', 'Of course I saw .', 'Love-it-or-hate-it', 'Girl Power Deep South', 'Decent movie propelled strong women', 'An Old Friend Movie', "A story women 's liberation even men find liberating ...", 'Interesting But Not Overpowering', 'Watch With Some Delicious Fried Green Tomatoes', 'Beautiful ...', 'Smart Story-Telling .', 'Sad , poignant .', 'A good look good old days', 'An authentic classic', 'imperfect thoughtful well-made showing', 'Bittersweet Masterpiece In An Authentic Southern Setting .', 'A great story .']</t>
+          <t>['Intelligent  heartwarming  poignant  uplifting gratifying ', 'Story friendship', 'A Superb Story Comes Life', 'Going  south masterpiece  think I confused title  Attack Killer Tomatoes  ', 'Lots Fun  Great Barbecue Recipe', 'Southernfried tripe', 'Fried Green Tomatoes Forever Tasty    ', 'Rotten Green Tomatoes', 'Meh', 'Of course I saw ', 'Loveitorhateit', 'Girl Power Deep South', 'Decent movie propelled strong women', 'An Old Friend Movie', 'A story women s liberation even men find liberating ', 'Interesting But Not Overpowering', 'Watch With Some Delicious Fried Green Tomatoes', 'Beautiful ', 'Smart StoryTelling ', 'Sad  poignant ', 'A good look good old days', 'An authentic classic', 'imperfect thoughtful wellmade showing', 'Bittersweet Masterpiece In An Authentic Southern Setting ', 'A great story ']</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>['Beyond Limits Cruelty', 'The `` Evil `` Here Pedestrian', 'Compelling start finish', 'Turn Blind Eye', 'We often', 'The `` enduring `` hero', 'Great depiction events usually happening closed communities', 'Brutal honest drama', 'Another Portrait More Boy Bullies Yet Another Boarding School', 'Harry Puncher And The Order Of The Meanest', 'Simply brilliant movie .', 'Talented remake', 'O Lord , My God ( In This World And The Next ) , Let Thy Kingdom Come !', 'A History ( Boarding School ) Violence', 'Take stand . Show courage', 'A great foreign film Hafstrom', 'Poor', 'Evil good', 'B Plus', "The realization Jan Guillou 's ego extension", '10', 'dead poets jail', "Ai n't That Pretty At All", 'Gripping Compelling', 'Rebel without cause .']</t>
+          <t>['Beyond Limits Cruelty', 'The  Evil  Here Pedestrian', 'Compelling start finish', 'Turn Blind Eye', 'We often', 'The  enduring  hero', 'Great depiction events usually happening closed communities', 'Brutal honest drama', 'Another Portrait More Boy Bullies Yet Another Boarding School', 'Harry Puncher And The Order Of The Meanest', 'Simply brilliant movie ', 'Talented remake', 'O Lord  My God  In This World And The Next   Let Thy Kingdom Come ', 'A History  Boarding School  Violence', 'Take stand  Show courage', 'A great foreign film Hafstrom', 'Poor', 'Evil good', 'B Plus', 'The realization Jan Guillou s ego extension', '10', 'dead poets jail', 'Ai nt That Pretty At All', 'Gripping Compelling', 'Rebel without cause ']</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>["Oddly , I could n't find anything dislike film !", 'Mature well made', 'Hollywood Hyperbole', 'Great acting , even laughs', 'One Smartest Thrillers Years', "Good Story Telling/Do n't Take Gospel", 'An outrageous , real life plot , good film .', 'Heightened reality', 'The True Mission Impossible Using Movie Was Never Made', 'A rather straight telling , story engaging throughout', '`` Zero Dark Thirty `` better', 'Perhaps Not Best Film 2012 , But A Darn Fine Film', '`` Carter said great American . `` ... `` A great American ? ``', 'excellent film directed Ben Affleck', 'Argo worthy drama events rescue Americans Iranian hostage crisis 1979-80', 'Well told story', 'A well made thriller', 'Overrated Undeserving', 'Good , best movie 2012', 'Fraught Tension', 'Iran', 'Intense', 'For Movie Buff , What Is There Not Like About This Film ?', 'Best Bad Idea', "What 's title mean ? Ar , go watch !"]</t>
+          <t>['Oddly  I could nt find anything dislike film ', 'Mature well made', 'Hollywood Hyperbole', 'Great acting  even laughs', 'One Smartest Thrillers Years', 'Good Story TellingDo nt Take Gospel', 'An outrageous  real life plot  good film ', 'Heightened reality', 'The True Mission Impossible Using Movie Was Never Made', 'A rather straight telling  story engaging throughout', ' Zero Dark Thirty  better', 'Perhaps Not Best Film 2012  But A Darn Fine Film', ' Carter said great American     A great American  ', 'excellent film directed Ben Affleck', 'Argo worthy drama events rescue Americans Iranian hostage crisis 197980', 'Well told story', 'A well made thriller', 'Overrated Undeserving', 'Good  best movie 2012', 'Fraught Tension', 'Iran', 'Intense', 'For Movie Buff  What Is There Not Like About This Film ', 'Best Bad Idea', 'What s title mean  Ar  go watch ']</t>
         </is>
       </c>
     </row>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>['And still shocks disturbs , even day', 'An Unforgettable Rafting Vacation', 'Two iconic scenes', 'Masterpiece Suspense', "Taking Us Where We Should n't Be", 'Nature men', 'Rather memorable movie actually ...', "John Boorman 's disturbing hit movie plenty thrills , chills wonderful outdoors", "It 's jungle !", 'An excellent backwoods horror ecological edge .', 'A Classic', 'DNA survival genre', "'70s Shock And Sleaze", 'Plays best cards soon', 'never turn back Mother Earth', 'One amazing films ever made', 'Nightmarish ! !', 'The late Burt Reynolds one best film performances Deliverance', 'Canoe trip gone wrong', 'An Open Air Nightmare', 'Highly-Rated May Be Over-Rated ... Natural Beauty &amp; Natural Ugliness', 'Brutal , Beautiful Brilliant .', 'Deliverance Does South What Friday 13th Camping', 'Disturbing film stays memory years later ...', 'After watching , suddenly gave chilling effect definitely nightmare scenario']</t>
+          <t>['And still shocks disturbs  even day', 'An Unforgettable Rafting Vacation', 'Two iconic scenes', 'Masterpiece Suspense', 'Taking Us Where We Should nt Be', 'Nature men', 'Rather memorable movie actually ', 'John Boorman s disturbing hit movie plenty thrills  chills wonderful outdoors', 'It s jungle ', 'An excellent backwoods horror ecological edge ', 'A Classic', 'DNA survival genre', '70s Shock And Sleaze', 'Plays best cards soon', 'never turn back Mother Earth', 'One amazing films ever made', 'Nightmarish  ', 'The late Burt Reynolds one best film performances Deliverance', 'Canoe trip gone wrong', 'An Open Air Nightmare', 'HighlyRated May Be OverRated  Natural Beauty  Natural Ugliness', 'Brutal  Beautiful Brilliant ', 'Deliverance Does South What Friday 13th Camping', 'Disturbing film stays memory years later ', 'After watching  suddenly gave chilling effect definitely nightmare scenario']</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>["Well , I certainly say I 've never seen film like !", 'Grumpy Old Man', 'wise script , impeccable performances', "You n't know Jack", 'A superior Hollywood piece sentimentality', 'And pretty good ...', 'Jackie Simpson Bart Simpson !', 'A Modern Classic , Despite Helen Hunt', 'A Classy Soap-Comedy', "'You make want better man ' ( Udall )", "Comedy-of-ills n't aging well", 'By default , one best films year', 'Iconic', 'Excellent !', 'One favorites seemingly forgotten ...', 'As good Jack gets ...', 'Jack', "About Good James L. Brooks Gets , Which Is n't Bad", "... , turns , n't bad", 'Not good gets , good .', 'Not perfect , still damn good', 'As Good Gets', 'As Good As It Gets', 'Jack Nicholson', 'Simply Superb !']</t>
+          <t>['Well  I certainly say I ve never seen film like ', 'Grumpy Old Man', 'wise script  impeccable performances', 'You nt know Jack', 'A superior Hollywood piece sentimentality', 'And pretty good ', 'Jackie Simpson Bart Simpson ', 'A Modern Classic  Despite Helen Hunt', 'A Classy SoapComedy', 'You make want better man   Udall ', 'Comedyofills nt aging well', 'By default  one best films year', 'Iconic', 'Excellent ', 'One favorites seemingly forgotten ', 'As good Jack gets ', 'Jack', 'About Good James L Brooks Gets  Which Is nt Bad', '  turns  nt bad', 'Not good gets  good ', 'Not perfect  still damn good', 'As Good Gets', 'As Good As It Gets', 'Jack Nicholson', 'Simply Superb ']</t>
         </is>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>["These n't nice folks !", 'Unusual gangster story works well', 'The Biggest Mutt In The History Of The Mafia', 'Not intense I hoped still good performances', 'Touching Gangster Story', 'Donnie Brasco', 'Deep/Depp inside', 'A good gangster film strong emotional currents', 'Over-the-top gangster movie perfectly interpreted two superstars masterfully realized', 'one scene really gives us leg everything', 'An impressive mob movie', 'Depp , Madsen Pacino ... How Can This Possibly Go Wrong ?', 'Gangster film directed Mike Newell', 'Another Spoke Wheel', "There 's mole inside mob .", 'You know find rat , right , Lefty ?', 'Has Its Moments But Could Have Been Better', 'Not A Job For Me', 'Wise guy', 'A Passable Movie', 'Gritty upsetting', 'A brilliant addition gangster genre', 'Overlooked Gritty Jewel 1997', "Overlooked '90 's gangster movie .", 'Great gangster/crime drama']</t>
+          <t>['These nt nice folks ', 'Unusual gangster story works well', 'The Biggest Mutt In The History Of The Mafia', 'Not intense I hoped still good performances', 'Touching Gangster Story', 'Donnie Brasco', 'DeepDepp inside', 'A good gangster film strong emotional currents', 'Overthetop gangster movie perfectly interpreted two superstars masterfully realized', 'one scene really gives us leg everything', 'An impressive mob movie', 'Depp  Madsen Pacino  How Can This Possibly Go Wrong ', 'Gangster film directed Mike Newell', 'Another Spoke Wheel', 'There s mole inside mob ', 'You know find rat  right  Lefty ', 'Has Its Moments But Could Have Been Better', 'Not A Job For Me', 'Wise guy', 'A Passable Movie', 'Gritty upsetting', 'A brilliant addition gangster genre', 'Overlooked Gritty Jewel 1997', 'Overlooked 90 s gangster movie ', 'Great gangstercrime drama']</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>["It 's month 200 reviews , I 'll keep one brief .", 'Ties How Train Your Dragon 2 best animated film year ( far )', 'Fun ... good fun', 'The Animation Certainly Highlight', "Certainly Perfect Vehicle Children 's Movie", 'Toys pleasure Lord Business', 'Let go', "Does n't quite heart message needed , still energetic , clever funny", 'The Lego Movie', "`` Make sure 's black , really dark gray `` - Batman", 'The Lego Movie entertaining enough without providing many laughs', 'Everything awesome', 'Purrs Along Light-Speed Until Ending', 'Novel graphics , good fun', 'Lego', "`` Do n't forget Taco Tuesday 's coming next week . ``", 'Could Easily See This Making My Top 10 Year', 'I liked cool .', 'Brilliant', 'Not ... err ... special', 'notes', 'Little cute ...', 'Lego Lego', 'A Joy !', 'Really funny , increasingly amazing']</t>
+          <t>['It s month 200 reviews  I ll keep one brief ', 'Ties How Train Your Dragon 2 best animated film year  far ', 'Fun  good fun', 'The Animation Certainly Highlight', 'Certainly Perfect Vehicle Children s Movie', 'Toys pleasure Lord Business', 'Let go', 'Does nt quite heart message needed  still energetic  clever funny', 'The Lego Movie', ' Make sure s black  really dark gray   Batman', 'The Lego Movie entertaining enough without providing many laughs', 'Everything awesome', 'Purrs Along LightSpeed Until Ending', 'Novel graphics  good fun', 'Lego', ' Do nt forget Taco Tuesday s coming next week  ', 'Could Easily See This Making My Top 10 Year', 'I liked cool ', 'Brilliant', 'Not  err  special', 'notes', 'Little cute ', 'Lego Lego', 'A Joy ', 'Really funny  increasingly amazing']</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>['Typical Coens', 'An Odyssey Through Mississippi', 'Coen masterpiece', 'Master Storytellers', 'Another gem Coens', 'Fun entertaining Coen film three convicts set Odyssey-like journey Depression-era bound home', 'Only Coen brothers could create something magical AND wacky', 'The Coens done good .', 'One Best , No Question', 'Mixed Emotions Message-Wise , But Extremely Entertaining', 'O Brother , Where Art Thou ?', "Handsome production , awkward , detached serio-comedy n't funny ...", 'original movie Coen brothers', 'rollicking good time', '`` You guys dumber bag hammers . ``', 'Hillbilly hi-jinks . Bluegrass music . Laugh loud funny !', 'The Odyssey according Coen brothers', 'Genuinely Funny', 'Three Convicts Search Treasure', "Baptism ! You two 're dumber'n bag hammers .", 'O Brother , Coens Are Their Grotesque Comedy Mode', 'O Plot , Where Art Thou ?', 'Fun nonsense .', 'Not sure make ...', 'Amusing rural Mississippi odyssey 30s']</t>
+          <t>['Typical Coens', 'An Odyssey Through Mississippi', 'Coen masterpiece', 'Master Storytellers', 'Another gem Coens', 'Fun entertaining Coen film three convicts set Odysseylike journey Depressionera bound home', 'Only Coen brothers could create something magical AND wacky', 'The Coens done good ', 'One Best  No Question', 'Mixed Emotions MessageWise  But Extremely Entertaining', 'O Brother  Where Art Thou ', 'Handsome production  awkward  detached seriocomedy nt funny ', 'original movie Coen brothers', 'rollicking good time', ' You guys dumber bag hammers  ', 'Hillbilly hijinks  Bluegrass music  Laugh loud funny ', 'The Odyssey according Coen brothers', 'Genuinely Funny', 'Three Convicts Search Treasure', 'Baptism  You two re dumbern bag hammers ', 'O Brother  Coens Are Their Grotesque Comedy Mode', 'O Plot  Where Art Thou ', 'Fun nonsense ', 'Not sure make ', 'Amusing rural Mississippi odyssey 30s']</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>['Tried hard', 'many characters leave feeling thin', 'Racist Trash', "Best Picture : I Do n't Know", 'Up scratch ... !', 'L.A. , A Caldron Ready Blow', 'A flawed narrative put dent strength characters , themes , acting round writing', 'Like ripples water ...', 'Forget everything ever imagined .', 'Good Film , But Rather Blunt', 'Revenge redemption along collective racial divide ...', 'Excellent look racism , assumptions , prejudice', "well-shot often well-acted , 's subject heavy ...", 'Crash Survives Makes Grade * * * 1/2', 'A crash ideas values', 'Melting Plot', 'Great , emotional examination racism , prejudice general', 'A Deserved Best Picture Oscar Winner', 'STRONG racial drama', 'Crash', 'A movie knows whats good tells repeatedly', 'This American cinematic gold absolute must see .', 'Should mandatory viewing every school', 'An Important Film , Even If Imperfect One', 'Missed touch']</t>
+          <t>['Tried hard', 'many characters leave feeling thin', 'Racist Trash', 'Best Picture  I Do nt Know', 'Up scratch  ', 'LA  A Caldron Ready Blow', 'A flawed narrative put dent strength characters  themes  acting round writing', 'Like ripples water ', 'Forget everything ever imagined ', 'Good Film  But Rather Blunt', 'Revenge redemption along collective racial divide ', 'Excellent look racism  assumptions  prejudice', 'wellshot often wellacted  s subject heavy ', 'Crash Survives Makes Grade    12', 'A crash ideas values', 'Melting Plot', 'Great  emotional examination racism  prejudice general', 'A Deserved Best Picture Oscar Winner', 'STRONG racial drama', 'Crash', 'A movie knows whats good tells repeatedly', 'This American cinematic gold absolute must see ', 'Should mandatory viewing every school', 'An Important Film  Even If Imperfect One', 'Missed touch']</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>['Great book , beautiful film !', 'terrific acting great cast', 'lovely work', 'Reader , She Married Him', 'Period drama', "Why Hulk 's director make boring movie rich English people ?", 'Ang Lee Does Jane Austen', 'Emma Can Break Your Heart', 'Four Masterful Sensibilities', 'A little long VERY good !', "Superior treatment Austen 's novel ... beautiful performances ...", 'The best Austen movie ever', 'Did I Accidentally Change Channel PBS ?', 'Costume drama/romance early 19th century England Emma Thompson Kate Winslet', 'Quality film', 'A true story family , friends , sisterhood , heartbreak , love', 'In Name Love , Marriage Conveniences ...', 'Stereotypically Victorian', 'An Understated Masterpiece', 'Excellent period piece , well adapted witty script fine performances .', "A good production revisits one Jane Austen 's best-known works .", 'Remember Jane Austen ?', 'Folly &amp; Fallibility ...', 'Very good', "One Best Adaptations And One That Instantly Made Me An Admirer Of Jane Austen 's Works"]</t>
+          <t>['Great book  beautiful film ', 'terrific acting great cast', 'lovely work', 'Reader  She Married Him', 'Period drama', 'Why Hulk s director make boring movie rich English people ', 'Ang Lee Does Jane Austen', 'Emma Can Break Your Heart', 'Four Masterful Sensibilities', 'A little long VERY good ', 'Superior treatment Austen s novel  beautiful performances ', 'The best Austen movie ever', 'Did I Accidentally Change Channel PBS ', 'Costume dramaromance early 19th century England Emma Thompson Kate Winslet', 'Quality film', 'A true story family  friends  sisterhood  heartbreak  love', 'In Name Love  Marriage Conveniences ', 'Stereotypically Victorian', 'An Understated Masterpiece', 'Excellent period piece  well adapted witty script fine performances ', 'A good production revisits one Jane Austen s bestknown works ', 'Remember Jane Austen ', 'Folly  Fallibility ', 'Very good', 'One Best Adaptations And One That Instantly Made Me An Admirer Of Jane Austen s Works']</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>["It makes think .... 's rare film !", 'Intelligent , thought-provoking exciting tale genetic engineering', 'Predetermined', 'compelling premise', 'nice', 'Intelligent &amp; moving', 'With gene-related news last years ...', 'One All-Time Science Fiction Greats', 'Vincent reached sky', "holds smart piece science fiction/speculation 's characters style", 'In distant future', 'Reaching Stars', 'A Uniquely Strange Antiseptic Thriller', "What 's Code Kenneth ?", 'We discrimination science .', 'Too Many Ideas For It ` Own Good', "Man 's Shortcomings Playing God", 'Genetic Manipulation Future', 'Fantastic futuristic film', 'Interesting Conceit Falls Bit Short', 'Very good sci-fi drama dash thriller', 'The eugenics-obsessed future 40s/50s noir', 'Perfect People Need Only Apply', '`` You want know I ? This I , Anton : I never saved anything swim back . ``', 'Entertaining highly relevant']</t>
+          <t>['It makes think  s rare film ', 'Intelligent  thoughtprovoking exciting tale genetic engineering', 'Predetermined', 'compelling premise', 'nice', 'Intelligent  moving', 'With generelated news last years ', 'One AllTime Science Fiction Greats', 'Vincent reached sky', 'holds smart piece science fictionspeculation s characters style', 'In distant future', 'Reaching Stars', 'A Uniquely Strange Antiseptic Thriller', 'What s Code Kenneth ', 'We discrimination science ', 'Too Many Ideas For It  Own Good', 'Man s Shortcomings Playing God', 'Genetic Manipulation Future', 'Fantastic futuristic film', 'Interesting Conceit Falls Bit Short', 'Very good scifi drama dash thriller', 'The eugenicsobsessed future 40s50s noir', 'Perfect People Need Only Apply', ' You want know I  This I  Anton  I never saved anything swim back  ', 'Entertaining highly relevant']</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>['Tom Hanks plays gangster ? !', 'A Bloody Road It Is', "Tom Hanks ' good guy persona gets way", 'A Cruel Work', 'seductive', 'Great direction , sluggish plot , good ( great ) performances \x96 classic good film\x99', 'Atmospheric brilliant mobster movie extraordinary performance superb cinematography', 'Strange think graphic novel .', 'A Great Story Curiosity Killing More Than The Cat', 'Hall Leaves On A High Note', 'Lies father told ...', 'Violent , disturbing stunning', 'A well told coming age/father son/gangster picture , best kind since Bronx Tale ...', 'Captivating', 'Passing Sins Fathers', "You father 's son .", 'Damnation Alleyway .', 'Great Performances Paper Over Any Minor Flaws', 'The sins fathers .', 'Best since Godfather', 'Flawless performances , excellent gangster story rich detail ...', 'Bang', 'Excellent story father son road Hell', 'The cast film absolutely phenomenal every single character well portrayed delivered', 'Thanks Once Again Nap , Sam Mendes']</t>
+          <t>['Tom Hanks plays gangster  ', 'A Bloody Road It Is', 'Tom Hanks  good guy persona gets way', 'A Cruel Work', 'seductive', 'Great direction  sluggish plot  good  great  performances  classic good film', 'Atmospheric brilliant mobster movie extraordinary performance superb cinematography', 'Strange think graphic novel ', 'A Great Story Curiosity Killing More Than The Cat', 'Hall Leaves On A High Note', 'Lies father told ', 'Violent  disturbing stunning', 'A well told coming agefather songangster picture  best kind since Bronx Tale ', 'Captivating', 'Passing Sins Fathers', 'You father s son ', 'Damnation Alleyway ', 'Great Performances Paper Over Any Minor Flaws', 'The sins fathers ', 'Best since Godfather', 'Flawless performances  excellent gangster story rich detail ', 'Bang', 'Excellent story father son road Hell', 'The cast film absolutely phenomenal every single character well portrayed delivered', 'Thanks Once Again Nap  Sam Mendes']</t>
         </is>
       </c>
     </row>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>["One Clint Eastwood 's best movies", 'Some Punks Feel Luckier Than Others', 'introduces movie icon Harry Callahan', "One Decade 's Greatest Films", 'Feeling lucky ?', 'Five Six Shots ?', 'One tough police man cleaning streets San Francisco ...', "Harry Callahan 's first entry sent chase vicious series murderer killing kidnapping children", 'Uh-oh .', 'If anyone , Harry Callahan .', 'A City Gripped By Terror ... A Hero Save Them !', 'No Nonsense , No Baloney', 'Undeniably potent , cynical self-damning', '`` Go ahead , make day ``', "If 're going San Francisco , 're gon na meet ungentle coppers", 'Pretty good', "`` Well , I 'm broken man 's rights . ``", "`` I 'll kill Mothers n't start singing ``", 'Highly entertaining', 'More iconography dynamite Siegel/Eastwood teaming .', 'Brilliant Crime Thriller', 'Justice Dirty Harry Style', 'A great introduction inspector', 'Classic', 'A Cop Who Gets Every Dirty Job That Comes Along']</t>
+          <t>['One Clint Eastwood s best movies', 'Some Punks Feel Luckier Than Others', 'introduces movie icon Harry Callahan', 'One Decade s Greatest Films', 'Feeling lucky ', 'Five Six Shots ', 'One tough police man cleaning streets San Francisco ', 'Harry Callahan s first entry sent chase vicious series murderer killing kidnapping children', 'Uhoh ', 'If anyone  Harry Callahan ', 'A City Gripped By Terror  A Hero Save Them ', 'No Nonsense  No Baloney', 'Undeniably potent  cynical selfdamning', ' Go ahead  make day ', 'If re going San Francisco  re gon na meet ungentle coppers', 'Pretty good', ' Well  I m broken man s rights  ', ' I ll kill Mothers nt start singing ', 'Highly entertaining', 'More iconography dynamite SiegelEastwood teaming ', 'Brilliant Crime Thriller', 'Justice Dirty Harry Style', 'A great introduction inspector', 'Classic', 'A Cop Who Gets Every Dirty Job That Comes Along']</t>
         </is>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>['Exceptionally sweet ...', 'Is one ?', 'cute coming-of-age story', 'Cute', 'Saplings', 'Insightful - worth watching .', 'Reiner', 'One rare movies works spite', 'When Life Was `` Simpler ``', 'An Emotional Trainwreck', 'Pleasant youth attraction story post WWII U.S.A .', '`` Flipped `` film avoids clichés stereotypes teen films . A film growing , learning see beyond appearances discovering true meaning love', 'Wow', 'An unexpected gem .', "one charming movies 2010 I ca n't wait see .", '`` Flipped `` comedy , naiveté bewilderment first love', 'Cute Adorable', 'The joys pains growing', "Enjoyable simplistic '50s/'60s based chick-flick romancer master story-teller Rob Reiner", 'Not efficient storytelling mechanism', 'It brings nostalgia first crush .', 'Heartfelt', 'Reiner tried hard', 'considered best romantic film ever made', 'A cute watchable movie .']</t>
+          <t>['Exceptionally sweet ', 'Is one ', 'cute comingofage story', 'Cute', 'Saplings', 'Insightful  worth watching ', 'Reiner', 'One rare movies works spite', 'When Life Was  Simpler ', 'An Emotional Trainwreck', 'Pleasant youth attraction story post WWII USA ', ' Flipped  film avoids clichs stereotypes teen films  A film growing  learning see beyond appearances discovering true meaning love', 'Wow', 'An unexpected gem ', 'one charming movies 2010 I ca nt wait see ', ' Flipped  comedy  naivet bewilderment first love', 'Cute Adorable', 'The joys pains growing', 'Enjoyable simplistic 50s60s based chickflick romancer master storyteller Rob Reiner', 'Not efficient storytelling mechanism', 'It brings nostalgia first crush ', 'Heartfelt', 'Reiner tried hard', 'considered best romantic film ever made', 'A cute watchable movie ']</t>
         </is>
       </c>
     </row>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>['So little time', 'The Star Shailene Woodley', 'Pain demands felt', 'TV drama week', 'Tiresome Too Long Romance', 'The Fault Our Stars touching teen drama young couple cancer', "A bad script , exploiting portions buyers viewers ' sympathy", 'Superficial dull , despite topic', 'Grace', "'Okay ? ' 'Okay . ' Perhaps , 'okay ' 'always . '", 'An Emotionally Engaging Love-Story Mesmerizing Shailene Woodley !', 'Not typical teen romance film', 'Beautiful movie', 'predictable', 'Shailene Woodley amazing', 'Okay ?', 'Well-Meaning Tears !', 'The Fault Author Stroking Own Ego', 'Positive Inspirational', "Woodley 's great lot feels unrealistic", 'The Vidiot Reviews ...', "Will Hold Your Interest Even If You Do n't Get Into The `` Sad Stuff ``", 'Not banal weepie ; far better', "It 's unfair let go , love world .", 'Beautiful heart touching ! !']</t>
+          <t>['So little time', 'The Star Shailene Woodley', 'Pain demands felt', 'TV drama week', 'Tiresome Too Long Romance', 'The Fault Our Stars touching teen drama young couple cancer', 'A bad script  exploiting portions buyers viewers  sympathy', 'Superficial dull  despite topic', 'Grace', 'Okay   Okay   Perhaps  okay  always  ', 'An Emotionally Engaging LoveStory Mesmerizing Shailene Woodley ', 'Not typical teen romance film', 'Beautiful movie', 'predictable', 'Shailene Woodley amazing', 'Okay ', 'WellMeaning Tears ', 'The Fault Author Stroking Own Ego', 'Positive Inspirational', 'Woodley s great lot feels unrealistic', 'The Vidiot Reviews ', 'Will Hold Your Interest Even If You Do nt Get Into The  Sad Stuff ', 'Not banal weepie  far better', 'It s unfair let go  love world ', 'Beautiful heart touching  ']</t>
         </is>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>['Terrific film', 'A mini masterpiece', 'amazing kid specific story', 'Out clash', 'I hope least movies England somewhat like .', 'A Grade-A drama Grade 1 haircut .', 'Has really 11 years ?', 'England', 'Disturbing Provocative', 'Great movie', 'Meadows Shoots Himself In The Foot', 'Punch', 'Beautifully acted film boy trying find place life real film thats often quite affecting', 'Yeah ! This England . And England , England', 'It ... really', 'Realistic slice working class life ...', 'Hanging Out Bad Crowd', 'This poetry', 'Not always easy viewing still absorbing portrayal powerful time place England', 'unforgettable look violent youth', 'England ...', 'A British classic', 'Powerful portrayal innocence manipulated', 'Brilliant , gritty often eerie look decade summed mentality would shy away .', 'Gritty realism punctuated humor']</t>
+          <t>['Terrific film', 'A mini masterpiece', 'amazing kid specific story', 'Out clash', 'I hope least movies England somewhat like ', 'A GradeA drama Grade 1 haircut ', 'Has really 11 years ', 'England', 'Disturbing Provocative', 'Great movie', 'Meadows Shoots Himself In The Foot', 'Punch', 'Beautifully acted film boy trying find place life real film thats often quite affecting', 'Yeah  This England  And England  England', 'It  really', 'Realistic slice working class life ', 'Hanging Out Bad Crowd', 'This poetry', 'Not always easy viewing still absorbing portrayal powerful time place England', 'unforgettable look violent youth', 'England ', 'A British classic', 'Powerful portrayal innocence manipulated', 'Brilliant  gritty often eerie look decade summed mentality would shy away ', 'Gritty realism punctuated humor']</t>
         </is>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>['amazing Riz', 'Quite Real', 'A captivating movie .', 'The sound sound', 'hear', 'Always wear hearing protection !', 'A powerful story transformation tragic circumstance', 'Powerful', 'Original , confronting drama', 'drummer loses hearing', 'made think work stage lot', 'Hits right notes .', 'Powerful', 'Raw gritty look coming terms loss facing acceptance .', 'Cinema Omnivore - Sound Metal ( 2019 ) 7.3/10', 'Excellent addition deafness canon film .', 'Adorable ...', 'So damn good !', 'Affecting take overcoming physical adversity genre', 'Puts things perspective .', 'Sound Metal stressful , yet hopeful cinematic journey', 'From one universal language another ...', 'welcome Deaf ...', "An Auditory Revelation Powered By Riz Ahmed 's Star-Making Showcase", 'Great movie']</t>
+          <t>['amazing Riz', 'Quite Real', 'A captivating movie ', 'The sound sound', 'hear', 'Always wear hearing protection ', 'A powerful story transformation tragic circumstance', 'Powerful', 'Original  confronting drama', 'drummer loses hearing', 'made think work stage lot', 'Hits right notes ', 'Powerful', 'Raw gritty look coming terms loss facing acceptance ', 'Cinema Omnivore  Sound Metal  2019  7310', 'Excellent addition deafness canon film ', 'Adorable ', 'So damn good ', 'Affecting take overcoming physical adversity genre', 'Puts things perspective ', 'Sound Metal stressful  yet hopeful cinematic journey', 'From one universal language another ', 'welcome Deaf ', 'An Auditory Revelation Powered By Riz Ahmed s StarMaking Showcase', 'Great movie']</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>['London raw', 'Interesting', "'s `` black `` comedy , emphasis black point completely dark hopeless - unspeakably well crafted", 'What happens butterfly flaps wings Salford ?', 'Mike Leigh Misfire Is Still Worth Watching David Thewlis', 'Despite everything funny .', 'Visceral', "Do n't Care Community ...", 'Hard watch', 'Mancunian Mahasiddha', 'Rambling Man', "Leigh 's pro-Bazin ; pent-up highly strung urban drama anger , sordid ties madness bare-boned white knuckle ride well worth seeing .", 'Only lonely , one original Leigh great', 'A truly dark film', 'rough , nihilistic , surreal , surprisingly unpretentious', 'The Naked Truth', 'Ugly unpleasant every way', 'Thought provoking brutality bleakness', 'Incendiary Acting &amp; Dialogue .', 'On streets , side-stepping onto ?', 'In face preaching angry man !', 'Mike Leigh directed', 'Cheaper Than Melatonin', 'Razor-sharp social commentary - although harsh many stomachs .', 'Quasi-philosophy movie']</t>
+          <t>['London raw', 'Interesting', 's  black  comedy  emphasis black point completely dark hopeless  unspeakably well crafted', 'What happens butterfly flaps wings Salford ', 'Mike Leigh Misfire Is Still Worth Watching David Thewlis', 'Despite everything funny ', 'Visceral', 'Do nt Care Community ', 'Hard watch', 'Mancunian Mahasiddha', 'Rambling Man', 'Leigh s proBazin  pentup highly strung urban drama anger  sordid ties madness bareboned white knuckle ride well worth seeing ', 'Only lonely  one original Leigh great', 'A truly dark film', 'rough  nihilistic  surreal  surprisingly unpretentious', 'The Naked Truth', 'Ugly unpleasant every way', 'Thought provoking brutality bleakness', 'Incendiary Acting  Dialogue ', 'On streets  sidestepping onto ', 'In face preaching angry man ', 'Mike Leigh directed', 'Cheaper Than Melatonin', 'Razorsharp social commentary  although harsh many stomachs ', 'Quasiphilosophy movie']</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>['A modern day classic western genre', 'How I Miss Frankie Laine', 'murky dusty dark western', 'Captivating -- But Ending Comes Up Short', 'Getting train time', 'So remake ?', "Does n't totally play potential strengths still good modern western solid delivery across board", 'Formidable remake full action , violence fabulous performances', 'mild/wild/gnarly West', 'A solid western remake', 'Solid Remake With Bale-Crowe Combo', 'Awesome remake', 'Begins excitingly losing steam ( coherency ) second-half ...', "solid , violent , sophisticated Western 'll see year", '3:10 To Yuma- You Can Afford Not Be On Time One * * 1/2', "I n't get film", 'Not always logical probable , acting makes must see .', "`` He 's killed People drought . ``", 'Good , great', "When think , I lately , n't paying walk away . They paying could walk away .", 'A great film one years best', "For one-leg rancher ... 's one tough son bitch .", 'This Wild West Belongs Christian Bale Russell Crowe', 'They Were Shooting Bullets', 'Even bad men love mommas .']</t>
+          <t>['A modern day classic western genre', 'How I Miss Frankie Laine', 'murky dusty dark western', 'Captivating  But Ending Comes Up Short', 'Getting train time', 'So remake ', 'Does nt totally play potential strengths still good modern western solid delivery across board', 'Formidable remake full action  violence fabulous performances', 'mildwildgnarly West', 'A solid western remake', 'Solid Remake With BaleCrowe Combo', 'Awesome remake', 'Begins excitingly losing steam  coherency  secondhalf ', 'solid  violent  sophisticated Western ll see year', '310 To Yuma You Can Afford Not Be On Time One   12', 'I nt get film', 'Not always logical probable  acting makes must see ', ' He s killed People drought  ', 'Good  great', 'When think  I lately  nt paying walk away  They paying could walk away ', 'A great film one years best', 'For oneleg rancher  s one tough son bitch ', 'This Wild West Belongs Christian Bale Russell Crowe', 'They Were Shooting Bullets', 'Even bad men love mommas ']</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>["Very much worthy sequel , every bit good 'The Bourne Identity '", 'One all-time favourite thrillers', 'good Paul Greengrass action', 'Good Sequel', 'Carries On', 'Story-wise best', 'An imperfect enjoyable refreshingly old-fashioned thriller CGI bloated summer', 'Outstanding follow-up similar premise original movie', 'Good Thriller Ruined By Bad Camera', 'The DNA new 007 adventures', 'Stillbirth .', 'Lots To Like - A Great Sequel !', 'Top-notch thriller , Jason Bourne run', 'solid action movie , precisely memorable first film', "Rockin ' Europe !", 'Decent sequel', 'Intense engaging', 'SUFFERS FROM SHAKY-CAM FAD ... OTHERWISE FINE THRILLER ... UPDATES SPY-GENRE', "Catch ... 's still run ...", 'Some viewers like shaky cam yt still prevent watching Jason Bourne movies', 'Finger prints', 'An Interesting Continuation', 'Great Action See First One First', 'You told Jason Bourne dead .', "Bourne 's Back Business"]</t>
+          <t>['Very much worthy sequel  every bit good The Bourne Identity ', 'One alltime favourite thrillers', 'good Paul Greengrass action', 'Good Sequel', 'Carries On', 'Storywise best', 'An imperfect enjoyable refreshingly oldfashioned thriller CGI bloated summer', 'Outstanding followup similar premise original movie', 'Good Thriller Ruined By Bad Camera', 'The DNA new 007 adventures', 'Stillbirth ', 'Lots To Like  A Great Sequel ', 'Topnotch thriller  Jason Bourne run', 'solid action movie  precisely memorable first film', 'Rockin  Europe ', 'Decent sequel', 'Intense engaging', 'SUFFERS FROM SHAKYCAM FAD  OTHERWISE FINE THRILLER  UPDATES SPYGENRE', 'Catch  s still run ', 'Some viewers like shaky cam yt still prevent watching Jason Bourne movies', 'Finger prints', 'An Interesting Continuation', 'Great Action See First One First', 'You told Jason Bourne dead ', 'Bourne s Back Business']</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>['Best animated film 2012 ? Absolutely !', 'Good animation , Great story', 'Another level', 'Not wreck', 'The Sweetest Arcade Villain', 'Retro-cool points sure , needed laughs heart', 'Sometimes good bad ...', 'Have got time Wrecktify things ...', 'Best Animated Feature 2012 ?', 'Film Improved As It Went On', 'A decent Disney animated film', 'Wreck-It Ralph another enjoyable Walt Disney computer-animated feature', 'A fun , entertaining adventure', 'Original movie , kids', 'Well Put Together', 'Are arcade machines kids still play machines', 'A unique addition Disney universe I would consider absolute must see', 'Good , could better', 'Tremendous', 'Has lot fun relatively unexplored section pop-culture .', 'Wreck-It Ralph', 'A Nutshell Review : Wreck-It Ralph', 'A sweetly brat ...', "`` I 'm glitch ! ``", "`` My name Ralph I 'm bad guy ``"]</t>
+          <t>['Best animated film 2012  Absolutely ', 'Good animation  Great story', 'Another level', 'Not wreck', 'The Sweetest Arcade Villain', 'Retrocool points sure  needed laughs heart', 'Sometimes good bad ', 'Have got time Wrecktify things ', 'Best Animated Feature 2012 ', 'Film Improved As It Went On', 'A decent Disney animated film', 'WreckIt Ralph another enjoyable Walt Disney computeranimated feature', 'A fun  entertaining adventure', 'Original movie  kids', 'Well Put Together', 'Are arcade machines kids still play machines', 'A unique addition Disney universe I would consider absolute must see', 'Good  could better', 'Tremendous', 'Has lot fun relatively unexplored section popculture ', 'WreckIt Ralph', 'A Nutshell Review  WreckIt Ralph', 'A sweetly brat ', ' I m glitch  ', ' My name Ralph I m bad guy ']</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>["A good western even n't exactly original .", 'As soon first note music blared , I knew I treat !', 'Seven Shanes', 'Great actors memorable roles', 'Good Remake Kurosawa Classic', 'Not Perfect , Certainly Keeps Us Glued', 'Ride , fight', 'A first class Western , incredibly memorable .', 'Not classic fun nonetheless', 'Mexican peasants hire American gunslinger organize defense village brutal bandit Calvera', 'seven diamonds', "Once You 've Met Them ... You 'll Never Forget Them—except Harry almost no-one remembers Harry .", 'Samurai = Cowboy', 'Magnificent one', 'Yul Is Cool !', "Shallow , simple round-up 'cool ' characters ...", ': : Cues Kurosawa Clash : :', 'A Magnificent Classic', "Magnificent Seven-What 's So Great About This ? * *", 'The Seven Samurai Go West', 'I offered lot work , never everything .', 'Could More Magnificent', 'Sturdy western magnificent Bernstein score ...', 'A Fine Westernized Adaptation `` The Seven Samurai ``', 'The iconic theme']</t>
+          <t>['A good western even nt exactly original ', 'As soon first note music blared  I knew I treat ', 'Seven Shanes', 'Great actors memorable roles', 'Good Remake Kurosawa Classic', 'Not Perfect  Certainly Keeps Us Glued', 'Ride  fight', 'A first class Western  incredibly memorable ', 'Not classic fun nonetheless', 'Mexican peasants hire American gunslinger organize defense village brutal bandit Calvera', 'seven diamonds', 'Once You ve Met Them  You ll Never Forget Themexcept Harry almost noone remembers Harry ', 'Samurai  Cowboy', 'Magnificent one', 'Yul Is Cool ', 'Shallow  simple roundup cool  characters ', ' Cues Kurosawa Clash  ', 'A Magnificent Classic', 'Magnificent SevenWhat s So Great About This   ', 'The Seven Samurai Go West', 'I offered lot work  never everything ', 'Could More Magnificent', 'Sturdy western magnificent Bernstein score ', 'A Fine Westernized Adaptation  The Seven Samurai ', 'The iconic theme']</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>["As long know ai n't really `` Star Trek `` n't mind , 're nice ride .", "Nowhere near greatness , hardly 'Star Trek 's ' darkest hour either", 'Khan returned', 'JJ Abrams reworks Star Trek 2', 'A Bit Long Non-Stop Action Fun', 'Too Many Fistfights Enjoyable', 'A raucous adventure .', 'Sci Fi light', 'The Enemy My Enemy Is My Friend', 'Star Trekking across universe ...', 'The 12th feature film Star Trek franchise second J.J. Abrams results exciting thrilling roller-coaster', 'cool story , goes overboard action', 'I like men like I like eggs - Benedict', 'A suspenseful memorable blockbuster', 'Fantastic CGI , nonsensical plot , irritating characters', 'Lens Flare Flair', 'Wrong Doubt Movie', 'Flawed But Still Good', 'The Friends Family Plan', 'Best watched forgiving mood', 'Good story - get quite lot movie', "It n't old Star Trek , 's imagination ?", 'excellent 3D effects story', 'Extremely exciting', 'A lot better I expected']</t>
+          <t>['As long know ai nt really  Star Trek  nt mind  re nice ride ', 'Nowhere near greatness  hardly Star Trek s  darkest hour either', 'Khan returned', 'JJ Abrams reworks Star Trek 2', 'A Bit Long NonStop Action Fun', 'Too Many Fistfights Enjoyable', 'A raucous adventure ', 'Sci Fi light', 'The Enemy My Enemy Is My Friend', 'Star Trekking across universe ', 'The 12th feature film Star Trek franchise second JJ Abrams results exciting thrilling rollercoaster', 'cool story  goes overboard action', 'I like men like I like eggs  Benedict', 'A suspenseful memorable blockbuster', 'Fantastic CGI  nonsensical plot  irritating characters', 'Lens Flare Flair', 'Wrong Doubt Movie', 'Flawed But Still Good', 'The Friends Family Plan', 'Best watched forgiving mood', 'Good story  get quite lot movie', 'It nt old Star Trek  s imagination ', 'excellent 3D effects story', 'Extremely exciting', 'A lot better I expected']</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>["people I n't care things I n't care reasons I n't want know", 'Revenge Is Dish Best Served Cold', 'Superficial slick , engaging fun regardless', 'Not clever stylish thinks .', 'Unlucky Races', 'Stylish Post-Modern Movie Witty , Violent , Fun', 'A pleasant surprise', 'Bad Clumps', 'Excellent story', 'Intended specific demographic', 'The Kansas City Shuffle', 'There `` ... `` I . Me .', 'Where Did This Terrific Little Film Come From ?', 'What waste time', 'Slick enjoyable , little clever good', "Awful marketing aside , 's uneven tone real disservice", 'much hipster dialog', 'A Surprise ... Good Kind !', 'Decent lightweight thriller', 'Fun , tad predictable', 'Last Man Standing meets The Jackal The Usual Suspects', 'A saucy mock thriller', 'A Nutshell Review : Luck Number SLevin', 'notes', 'I forgot enjoyable film']</t>
+          <t>['people I nt care things I nt care reasons I nt want know', 'Revenge Is Dish Best Served Cold', 'Superficial slick  engaging fun regardless', 'Not clever stylish thinks ', 'Unlucky Races', 'Stylish PostModern Movie Witty  Violent  Fun', 'A pleasant surprise', 'Bad Clumps', 'Excellent story', 'Intended specific demographic', 'The Kansas City Shuffle', 'There    I  Me ', 'Where Did This Terrific Little Film Come From ', 'What waste time', 'Slick enjoyable  little clever good', 'Awful marketing aside  s uneven tone real disservice', 'much hipster dialog', 'A Surprise  Good Kind ', 'Decent lightweight thriller', 'Fun  tad predictable', 'Last Man Standing meets The Jackal The Usual Suspects', 'A saucy mock thriller', 'A Nutshell Review  Luck Number SLevin', 'notes', 'I forgot enjoyable film']</t>
         </is>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>['An important film due impact genre', 'Superb cop flick', 'One Kinky Cop', 'Great around iconic car subway chase', 'Copied Numerous Times', 'The French Connection', "An enjoyable cop thriller plenty good touches unmistakably 1970 's feel", 'Classic thriller excellent Gene Hackman giving Oscar winning performance', 'Either way ...', 'Nothing Like Some Classic Gene Hackman ...', 'A pure masterpiece one ignore', 'Exciting , well acted , derivative', 'Hard To Tell The Good Guys From The Bad', "`` All right , Popeye 's ! ``", "Friedkin set , accomplished tremendously ; Hackman 's peak", 'Fast convincing .', 'A Brief Contrast', '`` Do want Red White ? ``', 'Good great', 'Gritty And Hard Hitting At The Time ...', 'Disconnection', "Another view NYC like 1970 's", 'Bonjour', 'What Not Do Poughkeepsie', 'Illicit Cargo ...']</t>
+          <t>['An important film due impact genre', 'Superb cop flick', 'One Kinky Cop', 'Great around iconic car subway chase', 'Copied Numerous Times', 'The French Connection', 'An enjoyable cop thriller plenty good touches unmistakably 1970 s feel', 'Classic thriller excellent Gene Hackman giving Oscar winning performance', 'Either way ', 'Nothing Like Some Classic Gene Hackman ', 'A pure masterpiece one ignore', 'Exciting  well acted  derivative', 'Hard To Tell The Good Guys From The Bad', ' All right  Popeye s  ', 'Friedkin set  accomplished tremendously  Hackman s peak', 'Fast convincing ', 'A Brief Contrast', ' Do want Red White  ', 'Good great', 'Gritty And Hard Hitting At The Time ', 'Disconnection', 'Another view NYC like 1970 s', 'Bonjour', 'What Not Do Poughkeepsie', 'Illicit Cargo ']</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>['Unique good opportunity Nicholas Cage show could act .', 'Truly original', "For , 's uniqueness 's making 's undoing", 'two ( three four ) price one', 'If This Movie Were Any Better , God Himself Would Weep', 'Liberal Elitism Strikes Again !', 'Intriguing concept eventually shallow conceit', "2/3 great movie ; Donald Kaufman 's triumph !", 'Overrated Naval Gazing Painful Kauffman &amp; Jonze Channel Woody Allen', 'For Pretentious Screenwriters Only', 'Orchids', "Cage 's finest hour", 'Writes Itself Into Corner', 'Flowers Flo &amp; Eddie', 'Being Charlie Kaufman .', 'Not rules , * principles *', 'Two Cages price one .', "Identity hardest life-adaptation ; one year 's best !", 'A film needs multiple viewings', 'Adaptation .', 'Marvellously meta .', 'Brilliant', 'See film experience passionate cinema best .', 'notes', 'Flowers Attic']</t>
+          <t>['Unique good opportunity Nicholas Cage show could act ', 'Truly original', 'For  s uniqueness s making s undoing', 'two  three four  price one', 'If This Movie Were Any Better  God Himself Would Weep', 'Liberal Elitism Strikes Again ', 'Intriguing concept eventually shallow conceit', '23 great movie  Donald Kaufman s triumph ', 'Overrated Naval Gazing Painful Kauffman  Jonze Channel Woody Allen', 'For Pretentious Screenwriters Only', 'Orchids', 'Cage s finest hour', 'Writes Itself Into Corner', 'Flowers Flo  Eddie', 'Being Charlie Kaufman ', 'Not rules   principles ', 'Two Cages price one ', 'Identity hardest lifeadaptation  one year s best ', 'A film needs multiple viewings', 'Adaptation ', 'Marvellously meta ', 'Brilliant', 'See film experience passionate cinema best ', 'notes', 'Flowers Attic']</t>
         </is>
       </c>
     </row>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>['One finest true life movies ever', 'Incredibly moving beautifully acted', 'compelling performance compelling character', 'Astonishingly Real', 'great work', 'Pulling', 'Powerful Heartbreaking Drama', '`` All happy families . Every unhappy family unhappy way . `` - Anton Chekhov', 'A Bit Dry', 'Compelling occasionally overwrought ...', 'catharsis viewer', 'Brilliant depcition American family', 'A Death Family', 'Skill Overcomes Challenge', 'An extraordinary film people ordinary', 'Brilliant character-driven drama', 'Purposeless', 'Emotional ... Excellent', "Redford 's Oscar-winning turn first time director ...", 'Groundbreaking family drama', 'A Powerful Dead-On Portrayal Intense Family Dysfunction', 'Potent drama Hutton , Sutherland , Moore Hirsch', 'Not An Ordinary Movie', 'Simply Extraordinary Film', 'Emotional tough love family drama proves past haunt leading change departure .']</t>
+          <t>['One finest true life movies ever', 'Incredibly moving beautifully acted', 'compelling performance compelling character', 'Astonishingly Real', 'great work', 'Pulling', 'Powerful Heartbreaking Drama', ' All happy families  Every unhappy family unhappy way    Anton Chekhov', 'A Bit Dry', 'Compelling occasionally overwrought ', 'catharsis viewer', 'Brilliant depcition American family', 'A Death Family', 'Skill Overcomes Challenge', 'An extraordinary film people ordinary', 'Brilliant characterdriven drama', 'Purposeless', 'Emotional  Excellent', 'Redford s Oscarwinning turn first time director ', 'Groundbreaking family drama', 'A Powerful DeadOn Portrayal Intense Family Dysfunction', 'Potent drama Hutton  Sutherland  Moore Hirsch', 'Not An Ordinary Movie', 'Simply Extraordinary Film', 'Emotional tough love family drama proves past haunt leading change departure ']</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>['The Theory Almost Everything', 'great performances sepia tone biopic', 'Grand Performance Redmayne', 'Genius There Behind Scenes', 'The powerful story much missed Genius .', 'Everything ( always ) awesome', 'great genius come great challenges', 'Surprisingly Enjoyable', 'The love life deteriorating health theoretical physicist Stephen Hawking ... pretty gummy times', 'The Theory Everything one touching true-life love stories', 'An engaging story brilliant mind', 'No Deeper Shallow Weeper', 'Great , engaging story', "Sorry But It 's Not As Good As Many People Claim", 'stephen hawking genius', 'Interesting Default', 'Turning Tide', 'Beautiful story !', 'Refreshingly chronological !', "Want Proof God 's Existence ! Just Look Stephen Hawking !", "' I slight problem celestial dictatorship premise . '", 'Totally cliché , though also totally inoffensive', 'Focuses humour , resilience love expertly portrayed protagonist strongest relationship .', "A compelling educational love story drama 's restrain loving romance .", 'love theory behind everything , time , space , God , love']</t>
+          <t>['The Theory Almost Everything', 'great performances sepia tone biopic', 'Grand Performance Redmayne', 'Genius There Behind Scenes', 'The powerful story much missed Genius ', 'Everything  always  awesome', 'great genius come great challenges', 'Surprisingly Enjoyable', 'The love life deteriorating health theoretical physicist Stephen Hawking  pretty gummy times', 'The Theory Everything one touching truelife love stories', 'An engaging story brilliant mind', 'No Deeper Shallow Weeper', 'Great  engaging story', 'Sorry But It s Not As Good As Many People Claim', 'stephen hawking genius', 'Interesting Default', 'Turning Tide', 'Beautiful story ', 'Refreshingly chronological ', 'Want Proof God s Existence  Just Look Stephen Hawking ', ' I slight problem celestial dictatorship premise  ', 'Totally clich  though also totally inoffensive', 'Focuses humour  resilience love expertly portrayed protagonist strongest relationship ', 'A compelling educational love story drama s restrain loving romance ', 'love theory behind everything  time  space  God  love']</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>['If HAVE watch A Christmas CAROL , version well done .', 'One finest Christmas stories comes life really entertaining Muppets outing !', 'traditional Carol Muppets', 'Caine Muppets', "What Can I Say That Has n't Been Said", 'Festive Muppets', 'A great film thanks building round great performance Caine', 'Worthwhile adaptation timeless quintessential Christmas tale great Michael Caine Scrooge', 'Michael Caine THE Scrooge !', 'Bah Humbug !', 'A Great Combination Dickens Muppets', 'My Favorite Version Of This Famous Story', 'touching Holiday season film , compromised', 'Light lamp , rat !', 'Great adaptation classic tale', 'Sheer Christmas Perfection', 'THE MUPPET Christmas CAROL ( Brian Henson , 1992 ) * * *', 'This Christmas classic absolutely must see', 'Brings warmth joy heart !', 'A nice twist old tale', 'The Muppet Christmas Carol', 'Why many films Scrooge ?', 'Great performance Caine dopey movie', "A delightfully warm adaptation Dickens ' classic tale", 'A sweet reunion friend brother']</t>
+          <t>['If HAVE watch A Christmas CAROL  version well done ', 'One finest Christmas stories comes life really entertaining Muppets outing ', 'traditional Carol Muppets', 'Caine Muppets', 'What Can I Say That Has nt Been Said', 'Festive Muppets', 'A great film thanks building round great performance Caine', 'Worthwhile adaptation timeless quintessential Christmas tale great Michael Caine Scrooge', 'Michael Caine THE Scrooge ', 'Bah Humbug ', 'A Great Combination Dickens Muppets', 'My Favorite Version Of This Famous Story', 'touching Holiday season film  compromised', 'Light lamp  rat ', 'Great adaptation classic tale', 'Sheer Christmas Perfection', 'THE MUPPET Christmas CAROL  Brian Henson  1992    ', 'This Christmas classic absolutely must see', 'Brings warmth joy heart ', 'A nice twist old tale', 'The Muppet Christmas Carol', 'Why many films Scrooge ', 'Great performance Caine dopey movie', 'A delightfully warm adaptation Dickens  classic tale', 'A sweet reunion friend brother']</t>
         </is>
       </c>
     </row>
@@ -7037,7 +7037,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>['Hanks amazing ... I see got Oscar one .', 'A ground-breaking film splendid one', 'Another Philadelphia Lawyer Fights For His Life And A Life With Dignity', 'Terrific performances', 'A Story Human Endurance', 'kind revolution', 'The voices friends vanished gone', "A little overlong feels shout 's message still polished film impact 1993", 'Hanks gives best performance ever', 'Great Film Right Time', 'Well-Acted , Involving Propaganda Piece', 'Serious sentimentality', 'A powerful film important subject', 'A powerful account fight fundamental rights', 'Hey , Mr. Hanks , family I borrow ?', 'Delivering A Safely Packaged Message', 'Superb', 'What love law , Andrew ?', 'Mayweather/Pacquiao', 'Dated dishonest', 'Brilliant work Hanks Washington ... film flawless ...', 'Law', 'The content , acting dialogue absolutely outstanding .', 'One First Mainstream Attempts Discuss AIDS', 'Very powerful beautiful drama']</t>
+          <t>['Hanks amazing  I see got Oscar one ', 'A groundbreaking film splendid one', 'Another Philadelphia Lawyer Fights For His Life And A Life With Dignity', 'Terrific performances', 'A Story Human Endurance', 'kind revolution', 'The voices friends vanished gone', 'A little overlong feels shout s message still polished film impact 1993', 'Hanks gives best performance ever', 'Great Film Right Time', 'WellActed  Involving Propaganda Piece', 'Serious sentimentality', 'A powerful film important subject', 'A powerful account fight fundamental rights', 'Hey  Mr Hanks  family I borrow ', 'Delivering A Safely Packaged Message', 'Superb', 'What love law  Andrew ', 'MayweatherPacquiao', 'Dated dishonest', 'Brilliant work Hanks Washington  film flawless ', 'Law', 'The content  acting dialogue absolutely outstanding ', 'One First Mainstream Attempts Discuss AIDS', 'Very powerful beautiful drama']</t>
         </is>
       </c>
     </row>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>['A visual masterpiece , moving thought-provoking Christian Bale extraordinary', 'A great adventure child', 'well made Spielberg', 'experience', 'good look issues setting', 'Irritating Kid Ruins Film', 'episodic story laced David Lean influence , impressive sights , though enough', 'Good , great', 'A Movie Of Great Moments Without Being A Great Movie', 'Empire Emperor', "Awesome ... Bale 's performance brought tears ...", 'Zoom', 'Over-the-top drama good looking well acted I never really enjoyed watching .', 'Even great people dud occasion', "`` Do n't look back , Johnnie ! ``", "'Learned new word today . Atom bomb . It like God taking photograph . '", 'A Letdown !', "I 'm appalled n't win 6 Oscars nominated", 'Focuses cinema rather story', 'Malkovich great , sure rest', 'effective moving', 'Excellent And Believable', 'Dull , Monotonous &amp; Overlong , Empire Of The Sun Is Unsure Of What It Wants To Be .', 'Every person war ...', "One best movie posters I 've ever seen"]</t>
+          <t>['A visual masterpiece  moving thoughtprovoking Christian Bale extraordinary', 'A great adventure child', 'well made Spielberg', 'experience', 'good look issues setting', 'Irritating Kid Ruins Film', 'episodic story laced David Lean influence  impressive sights  though enough', 'Good  great', 'A Movie Of Great Moments Without Being A Great Movie', 'Empire Emperor', 'Awesome  Bale s performance brought tears ', 'Zoom', 'Overthetop drama good looking well acted I never really enjoyed watching ', 'Even great people dud occasion', ' Do nt look back  Johnnie  ', 'Learned new word today  Atom bomb  It like God taking photograph  ', 'A Letdown ', 'I m appalled nt win 6 Oscars nominated', 'Focuses cinema rather story', 'Malkovich great  sure rest', 'effective moving', 'Excellent And Believable', 'Dull  Monotonous  Overlong  Empire Of The Sun Is Unsure Of What It Wants To Be ', 'Every person war ', 'One best movie posters I ve ever seen']</t>
         </is>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>['Look Human Side', 'Night In Five Taxis', 'Five Short Stories World', 'Jim Jarmusch : The Ultimate Independent', 'fantastic', 'Jarmusch humanist ; one best films 1991', 'Original , interesting wonderfully warm engaging', "We 're different ,", 'The World According Jim Jarmusch : Life taxi cab ride', "Pumpkins , Sheep , G , a.y.s sister law .... 's much Priest ! ! !", 'Four obscure tales Jim Jarmusch', 'Pointless', 'Great concept', 'Cinema Omnivore - Night Earth ( 1991 ) 8.0/10', 'Better Than Average Comedy - Night Earth', 'Contrivance Hire ...', 'Interesting ...', 'Beautiful taxi ride', 'Multi national taxis', 'Made want become cabbie', "Gena Rowlands good lookin ' dame", 'A mixture dialogue couleur locale', 'I wish Marry Blind Lady , Facinating work Jim Jarmusch , This Movie All Time Favorite ( French A+ Movie ) My Ratings 10/10', "This notable Jarmusch film could inspired Jafar Panahi 's `` Teheran Taxi ``"]</t>
+          <t>['Look Human Side', 'Night In Five Taxis', 'Five Short Stories World', 'Jim Jarmusch  The Ultimate Independent', 'fantastic', 'Jarmusch humanist  one best films 1991', 'Original  interesting wonderfully warm engaging', 'We re different ', 'The World According Jim Jarmusch  Life taxi cab ride', 'Pumpkins  Sheep  G  ays sister law  s much Priest   ', 'Four obscure tales Jim Jarmusch', 'Pointless', 'Great concept', 'Cinema Omnivore  Night Earth  1991  8010', 'Better Than Average Comedy  Night Earth', 'Contrivance Hire ', 'Interesting ', 'Beautiful taxi ride', 'Multi national taxis', 'Made want become cabbie', 'Gena Rowlands good lookin  dame', 'A mixture dialogue couleur locale', 'I wish Marry Blind Lady  Facinating work Jim Jarmusch  This Movie All Time Favorite  French A Movie  My Ratings 1010', 'This notable Jarmusch film could inspired Jafar Panahi s  Teheran Taxi ']</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>['Beautiful , honest , touching , poignant- truly remarkable film', 'Julie Walters Gary Lewis', 'Is It Hanging Shirttails Musical', 'Over-hyped low-key effective story true ones self', 'This enjoyable charming movie all-around appeal fine acting .', 'Not My Cup Tea', "The Good &amp; Bad Of 'Billy Elliott '", "He loves dance -- 's 'poof ' !", 'The Tale Tiny Dancer', 'Charming funny', 'Battle Dancer', 'Masterful coming age drama without sugar soap .', 'Typical British Fare', 'A good little movie', 'So You Think You Can Dance', 'Way predictable over-sentimental times make good movie .', 'Overrated', 'Billy Elliot', 'Moving Human Story', 'Brit flick goes Hollywood wins kudos .', 'I think understand British humor drama ( I ) get movie', 'Not really I expected', 'Surprisingly Good', 'Somewhat sensational nothing really spectacular', 'wonderful feel-good film']</t>
+          <t>['Beautiful  honest  touching  poignant truly remarkable film', 'Julie Walters Gary Lewis', 'Is It Hanging Shirttails Musical', 'Overhyped lowkey effective story true ones self', 'This enjoyable charming movie allaround appeal fine acting ', 'Not My Cup Tea', 'The Good  Bad Of Billy Elliott ', 'He loves dance  s poof  ', 'The Tale Tiny Dancer', 'Charming funny', 'Battle Dancer', 'Masterful coming age drama without sugar soap ', 'Typical British Fare', 'A good little movie', 'So You Think You Can Dance', 'Way predictable oversentimental times make good movie ', 'Overrated', 'Billy Elliot', 'Moving Human Story', 'Brit flick goes Hollywood wins kudos ', 'I think understand British humor drama  I  get movie', 'Not really I expected', 'Surprisingly Good', 'Somewhat sensational nothing really spectacular', 'wonderful feelgood film']</t>
         </is>
       </c>
     </row>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>['compelling characters', 'What Mockery', 'The Trial Chicago 7', 'There politcal trials', 'Evoking emotions', 'Interesting entertaining courtroom drama', 'Great doco', 'I loved movie beginning end', 'Aaron Sorkin Fights Aaron Sorkin', 'objection , overruled', 'Objection !', 'Takes liberties , gets gist right', 'While I sympathize message movies , I find hard emotionally attach one sided partizan work', 'Tense movie real life court drama helped fight truth , justice , fairness .', 'I Predict A Riot', 'Film Review - The Trial Chicago 7 ( 2020 ) 7.8/10', 'Dramatization history rarely gets better .', 'Excellent ...', "`` What wearing ? It 's homage ! `` Love quote", 'entertaining bit history', 'Well made , interesting relevant current climate , feels Hollywood', "The clash pragmatism idealism ... America 's soul stakes !", 'mis-justice', 'Highly engrossing historical courtroom drama', 'One best films year .']</t>
+          <t>['compelling characters', 'What Mockery', 'The Trial Chicago 7', 'There politcal trials', 'Evoking emotions', 'Interesting entertaining courtroom drama', 'Great doco', 'I loved movie beginning end', 'Aaron Sorkin Fights Aaron Sorkin', 'objection  overruled', 'Objection ', 'Takes liberties  gets gist right', 'While I sympathize message movies  I find hard emotionally attach one sided partizan work', 'Tense movie real life court drama helped fight truth  justice  fairness ', 'I Predict A Riot', 'Film Review  The Trial Chicago 7  2020  7810', 'Dramatization history rarely gets better ', 'Excellent ', ' What wearing  It s homage   Love quote', 'entertaining bit history', 'Well made  interesting relevant current climate  feels Hollywood', 'The clash pragmatism idealism  America s soul stakes ', 'misjustice', 'Highly engrossing historical courtroom drama', 'One best films year ']</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>['About good 1938 film', 'An enchanting musical , joy eyes well ears .', 'Amiable enough', 'Enchantment Pours From This Wonderful Score', 'Great fun adorable Hepburn', 'What Can I Say ?', 'Abominate', "A Too Long Fancy Musical Version Bernard Shaw 's Pygmalion", "Jest yew wait , 'Enry 'Iggins , ' yell see mewvie 's akshly wuth seein ' , .", 'Not Sure I Appreciated It', "The Good &amp; Bad Of 'My Fair Lady '", 'Polished , bit inert aloof', 'One beautiful musicals time', "`` Why ca n't woman like man ? ``", 'Audrey !', 'Audrey Hepburn Walks street Julie Andrews Lived', 'Funny thing musicals era ...', 'Wonderful movie', 'The difference lady flower girl behaves , treated .', 'I could danced night !', 'Great musical could even greater except tired Rex miscast Audrey ...', 'One movies I grew', 'The casting production lousy', 'This magnificent movie absolutely must see', 'Many Flaws , But Enjoyable Anyway']</t>
+          <t>['About good 1938 film', 'An enchanting musical  joy eyes well ears ', 'Amiable enough', 'Enchantment Pours From This Wonderful Score', 'Great fun adorable Hepburn', 'What Can I Say ', 'Abominate', 'A Too Long Fancy Musical Version Bernard Shaw s Pygmalion', 'Jest yew wait  Enry Iggins   yell see mewvie s akshly wuth seein   ', 'Not Sure I Appreciated It', 'The Good  Bad Of My Fair Lady ', 'Polished  bit inert aloof', 'One beautiful musicals time', ' Why ca nt woman like man  ', 'Audrey ', 'Audrey Hepburn Walks street Julie Andrews Lived', 'Funny thing musicals era ', 'Wonderful movie', 'The difference lady flower girl behaves  treated ', 'I could danced night ', 'Great musical could even greater except tired Rex miscast Audrey ', 'One movies I grew', 'The casting production lousy', 'This magnificent movie absolutely must see', 'Many Flaws  But Enjoyable Anyway']</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>['strange compelling', 'What Heck ?', 'Just plain weird \x96 clever funny enough last beyond novelty value', 'They ... really !', 'You Were Great That Jewel Thief Movie', 'Two Profane Women , One Dirty Old Man Add Up To Lousy Movie', 'Totally neat fun movie , even stranger I remembered .', 'Endlessly imaginative ...', 'strange fascinating', 'The Best Film I Have Seen Decade .', 'Weird', 'Meta', 'To Malkovich , Malkovich . That question .', 'You crawl head someone else .', 'Three deserved one another', 'Catch Now', 'Ha ha', 'Clever Conceit Runs Away Film', 'Malkovich ? MALKOVICH ! Malkovich .', 'Bizarre ... truly bizarre', 'Absolutely sublime modern classic', 'The screenplay little screwy ...', 'Fun creative', 'notes', 'Brilliant !']</t>
+          <t>['strange compelling', 'What Heck ', 'Just plain weird  clever funny enough last beyond novelty value', 'They  really ', 'You Were Great That Jewel Thief Movie', 'Two Profane Women  One Dirty Old Man Add Up To Lousy Movie', 'Totally neat fun movie  even stranger I remembered ', 'Endlessly imaginative ', 'strange fascinating', 'The Best Film I Have Seen Decade ', 'Weird', 'Meta', 'To Malkovich  Malkovich  That question ', 'You crawl head someone else ', 'Three deserved one another', 'Catch Now', 'Ha ha', 'Clever Conceit Runs Away Film', 'Malkovich  MALKOVICH  Malkovich ', 'Bizarre  truly bizarre', 'Absolutely sublime modern classic', 'The screenplay little screwy ', 'Fun creative', 'notes', 'Brilliant ']</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>['bit disappointment seeing Shaolin Soccer', 'Fun broad comedy', 'Another World', 'Do hustle ... Kung Fu Hustle ...', 'Comedy , martial art action lots fun splendid Stephen Chow', 'absolutely awesome', 'What , Stephen Chow ?', "fun sounds , though know 're getting 're `` serious `` martial arts movie fan", 'Comedic Self-reference', 'Quite experience , great way well ! .', 'Kung Fu Hustle adds new flavor traditional kung fu movie', 'Awesome truest sense word .', 'A Kung Fu Blast', 'A movie good action , comedy heart .', 'Sergio Leone Meets Keystone Cops Canton', "That 's folks !", 'Lots fun', 'Great Fun , worth watching', 'A Nutshell Review : Kungfu Hustle', 'No Shaolin Soccer , good', 'Bizarre , highly entertaining', 'Odd little nonsensical , somehow quite entertaining .', 'Daft fun', 'splendid entertainment', 'Unsuccessful comedic spin re-generated Kung Fu trend']</t>
+          <t>['bit disappointment seeing Shaolin Soccer', 'Fun broad comedy', 'Another World', 'Do hustle  Kung Fu Hustle ', 'Comedy  martial art action lots fun splendid Stephen Chow', 'absolutely awesome', 'What  Stephen Chow ', 'fun sounds  though know re getting re  serious  martial arts movie fan', 'Comedic Selfreference', 'Quite experience  great way well  ', 'Kung Fu Hustle adds new flavor traditional kung fu movie', 'Awesome truest sense word ', 'A Kung Fu Blast', 'A movie good action  comedy heart ', 'Sergio Leone Meets Keystone Cops Canton', 'That s folks ', 'Lots fun', 'Great Fun  worth watching', 'A Nutshell Review  Kungfu Hustle', 'No Shaolin Soccer  good', 'Bizarre  highly entertaining', 'Odd little nonsensical  somehow quite entertaining ', 'Daft fun', 'splendid entertainment', 'Unsuccessful comedic spin regenerated Kung Fu trend']</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>["Well made , I n't quite get reputation film ....", "One best movies '60s", '`` We Rob Banks ``', 'Wild fun violent ride', 'Masterpiece', "You Do n't Need Like People", 'Bank robbers Great Depression well played Warren Beatty Faye Dunaway', 'Fight power !', 'An exciting tale two depression era criminals', "Jump running board join ride , wo n't want miss Bonnie Clyde .", 'An Important Cultural Achievement', "Arthur Penn 's authentic version mythic couple", 'Great For Its Day', 'Bloodshed American Dustbowl ...', 'When legend beautiful History ....', "one best films I 've ever seen ? sure , surely invites another viewing", 'That ending', 'Crime Might Even Pay', 'Glamour Amidst Ruin', 'Gangster Fantasy', 'Good afternoon , Barrow gang .', 'Landmark film -- like', 'Famous criminal pair make crimes seem like joyride ...', 'Laughing All The Way To The Bank Robbery ...', "This 's Miss Bonnie Parker . I 'm Clyde Barrow . We rob banks ."]</t>
+          <t>['Well made  I nt quite get reputation film ', 'One best movies 60s', ' We Rob Banks ', 'Wild fun violent ride', 'Masterpiece', 'You Do nt Need Like People', 'Bank robbers Great Depression well played Warren Beatty Faye Dunaway', 'Fight power ', 'An exciting tale two depression era criminals', 'Jump running board join ride  wo nt want miss Bonnie Clyde ', 'An Important Cultural Achievement', 'Arthur Penn s authentic version mythic couple', 'Great For Its Day', 'Bloodshed American Dustbowl ', 'When legend beautiful History ', 'one best films I ve ever seen  sure  surely invites another viewing', 'That ending', 'Crime Might Even Pay', 'Glamour Amidst Ruin', 'Gangster Fantasy', 'Good afternoon  Barrow gang ', 'Landmark film  like', 'Famous criminal pair make crimes seem like joyride ', 'Laughing All The Way To The Bank Robbery ', 'This s Miss Bonnie Parker  I m Clyde Barrow  We rob banks ']</t>
         </is>
       </c>
     </row>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>["Trippy adult ... like many Satoshi Kon 's films .", 'One visually beautiful unique animes', 'wild imaginative dreamworld', "It 's mind f * * k ( sorry expression )", 'Anime Science Fiction Combine For Good Fun', 'His Own Mirror', 'Paprika visceral delight', "Do n't think dreams Internet similar ? They areas repressed conscious mind vents .", 'Brief review', "You 're waiting train ...", 'Interesting premise weird animation , ultimately boring', "An Acid Trip You Do n't Wan na Refuse !", 'top-notch anime film', 'A Visual Intellectual Feast', 'Absolutely insane', 'Might one best animated films time', 'Check .', 'Paprika sprinkles spicy originality across sprawling vibrant fever dream .', 'Paprika', 'Cheerful , weird fun', 'Breathtaking Dream Sequences Compensate Tangled Plot', 'Breathtaking Dream Sequences Compensate Tangled Plot', 'Susumu Hirasawa composed score good enough reason watch movie .', '`` Paprika `` spices imagination many surreal , unimaginable ways', 'Fantstic Movie MADHOUSE director Kon']</t>
+          <t>['Trippy adult  like many Satoshi Kon s films ', 'One visually beautiful unique animes', 'wild imaginative dreamworld', 'It s mind f   k  sorry expression ', 'Anime Science Fiction Combine For Good Fun', 'His Own Mirror', 'Paprika visceral delight', 'Do nt think dreams Internet similar  They areas repressed conscious mind vents ', 'Brief review', 'You re waiting train ', 'Interesting premise weird animation  ultimately boring', 'An Acid Trip You Do nt Wan na Refuse ', 'topnotch anime film', 'A Visual Intellectual Feast', 'Absolutely insane', 'Might one best animated films time', 'Check ', 'Paprika sprinkles spicy originality across sprawling vibrant fever dream ', 'Paprika', 'Cheerful  weird fun', 'Breathtaking Dream Sequences Compensate Tangled Plot', 'Breathtaking Dream Sequences Compensate Tangled Plot', 'Susumu Hirasawa composed score good enough reason watch movie ', ' Paprika  spices imagination many surreal  unimaginable ways', 'Fantstic Movie MADHOUSE director Kon']</t>
         </is>
       </c>
     </row>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>['I wonder much things changed .', 'Masterful', 'Diogenes , Have You Looked In The NYPD ?', 'Al Pacino great', 'Brilliant Performances', 'Deep rooted corruption New York police department', 'Acting 101', 'Idealism Vs. Police Corruption', '`` cop `` attitude', 'One honest cop', 'Best Dirty Cop Movie Ever ?', 'Serpico : A Name That Became Famous', '`` That gun takes 14 shot clip ... expecting army ? ``', 'The first real power-house performance Pacino , thirty years line still one finest', 'An honest cop . Who would believe ?', 'Serpico Was Brave Man', 'An Honest Cop Surrounded Crime Corruption', 'Lots grit', 'Pacino shines early career', 'A Disappointment Two Cinema Greats', 'Realistic movie gripping gritty story .', 'Another good film could great', 'Vintage Pacino', 'Movie ages poorly', 'The Story Of The Wise King .']</t>
+          <t>['I wonder much things changed ', 'Masterful', 'Diogenes  Have You Looked In The NYPD ', 'Al Pacino great', 'Brilliant Performances', 'Deep rooted corruption New York police department', 'Acting 101', 'Idealism Vs Police Corruption', ' cop  attitude', 'One honest cop', 'Best Dirty Cop Movie Ever ', 'Serpico  A Name That Became Famous', ' That gun takes 14 shot clip  expecting army  ', 'The first real powerhouse performance Pacino  thirty years line still one finest', 'An honest cop  Who would believe ', 'Serpico Was Brave Man', 'An Honest Cop Surrounded Crime Corruption', 'Lots grit', 'Pacino shines early career', 'A Disappointment Two Cinema Greats', 'Realistic movie gripping gritty story ', 'Another good film could great', 'Vintage Pacino', 'Movie ages poorly', 'The Story Of The Wise King ']</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>['Made cheap , like first one .', 'Firm favourite', 'fun B-movie splatter horror', 'Good Film', 'Do read book', 'Within cabin', 'The element comedy spiced ...', 'Creepy scary horror feast plenty gore , guts loads blood', 'Oh hand !', 'A silly splat-stick horror classic-but film I wish .', 'Possibly Best Genre', 'Horror Movie Played For Laughs ; Extremely Entertaining', 'Back cabin woods ...', 'entertaining first ; great party flick', "`` I 'll swallow soul ! `` `` Swallow ! ``", 'From somebody knows nothing first film ..', 'Arguably Invented The Genre Still The One To Beat', "So bad 's almost good . Almost .", 'The Flaming Groovy !', 'Same Sillier', 'Violent , gruesome , top , GREAT movie !', 'Very similar original , still great entertainment .', '`` Hey ! Whatta Ya Say We Have Champagne , Hey Baby ? ! ``', 'This belongs horror movie hall fame', "Just demented crazy 's predecessor"]</t>
+          <t>['Made cheap  like first one ', 'Firm favourite', 'fun Bmovie splatter horror', 'Good Film', 'Do read book', 'Within cabin', 'The element comedy spiced ', 'Creepy scary horror feast plenty gore  guts loads blood', 'Oh hand ', 'A silly splatstick horror classicbut film I wish ', 'Possibly Best Genre', 'Horror Movie Played For Laughs  Extremely Entertaining', 'Back cabin woods ', 'entertaining first  great party flick', ' I ll swallow soul    Swallow  ', 'From somebody knows nothing first film ', 'Arguably Invented The Genre Still The One To Beat', 'So bad s almost good  Almost ', 'The Flaming Groovy ', 'Same Sillier', 'Violent  gruesome  top  GREAT movie ', 'Very similar original  still great entertainment ', ' Hey  Whatta Ya Say We Have Champagne  Hey Baby   ', 'This belongs horror movie hall fame', 'Just demented crazy s predecessor']</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>['Tough watch ... mesmerizing .', 'Brilliant performances screenplay make film worth watching', 'The Machine Runs Down', 'Mamet script sings Lemmon desperation', 'ABC', 'A terrifically acted movie all-star-cast based foul-mouthed play David Mamet', "learn ABCs ( 's `` always closing `` )", 'Real Estate ... What Racket', 'Blistering , bludgeoning , true-to-life though entertaining ...', 'One best films 1992 , dynamite script performances', 'Very riveting filmed play ...', 'Anti-Capitalist Film ... Loved &amp; Admired Capitalists', 'Great character- dialogue-driven drama , excellent performances', "I feel sorry salesmen ... still hate 'em though", 'Salesmen find painful', 'Enter World David Mamet', 'A movie filled verbal action brilliant acting .', 'Blistering .', 'A Tough Business To Be In .', 'Too Much Swearing Me !', 'For closers .', 'Fantastic', 'Hard-hitting sell', 'Extremely well-acted tragedy men edge', 'An Amazing Film ... Must See ! !']</t>
+          <t>['Tough watch  mesmerizing ', 'Brilliant performances screenplay make film worth watching', 'The Machine Runs Down', 'Mamet script sings Lemmon desperation', 'ABC', 'A terrifically acted movie allstarcast based foulmouthed play David Mamet', 'learn ABCs  s  always closing  ', 'Real Estate  What Racket', 'Blistering  bludgeoning  truetolife though entertaining ', 'One best films 1992  dynamite script performances', 'Very riveting filmed play ', 'AntiCapitalist Film  Loved  Admired Capitalists', 'Great character dialoguedriven drama  excellent performances', 'I feel sorry salesmen  still hate em though', 'Salesmen find painful', 'Enter World David Mamet', 'A movie filled verbal action brilliant acting ', 'Blistering ', 'A Tough Business To Be In ', 'Too Much Swearing Me ', 'For closers ', 'Fantastic', 'Hardhitting sell', 'Extremely wellacted tragedy men edge', 'An Amazing Film  Must See  ']</t>
         </is>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>['A fine film', 'Long , good', 'grand reinterpretation', 'Prince Denmark', 'Minor flaws put perspective scale wonderful production', 'Branagh Doing What He Does', 'Lavish Production , But Strange Casting &amp; Who Wants To Hear King James English ?', "best 'epic-length ' English-language adaptation Bard", 'Two Palettes : Film Mind', 'Wildly uneven worth seeing', 'Kenneth Branagh shines', 'A Classic Film !', 'Perhaps greatest ever film Shakespeare tragedy', 'Cinema Omnivore - Hamlet ( 1996 ) 8.1/10', 'Enduring greatness', 'Visually beautiful , unbearably long , tiring dialogues monologues .', 'My longest movie ever !', 'The Prince ...', 'My brief review film', "Branagh 's Hamlet", 'four hours Shakespeare', 'Despite moments brilliance , remains performance', 'Hamlet', 'Hamlet', 'On four-hour version ...']</t>
+          <t>['A fine film', 'Long  good', 'grand reinterpretation', 'Prince Denmark', 'Minor flaws put perspective scale wonderful production', 'Branagh Doing What He Does', 'Lavish Production  But Strange Casting  Who Wants To Hear King James English ', 'best epiclength  Englishlanguage adaptation Bard', 'Two Palettes  Film Mind', 'Wildly uneven worth seeing', 'Kenneth Branagh shines', 'A Classic Film ', 'Perhaps greatest ever film Shakespeare tragedy', 'Cinema Omnivore  Hamlet  1996  8110', 'Enduring greatness', 'Visually beautiful  unbearably long  tiring dialogues monologues ', 'My longest movie ever ', 'The Prince ', 'My brief review film', 'Branagh s Hamlet', 'four hours Shakespeare', 'Despite moments brilliance  remains performance', 'Hamlet', 'Hamlet', 'On fourhour version ']</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>['tough edgy school drama', 'Different approach', 'Depressive View Sick Dysfunctional Society', 'Unoriginal , predictable , melodramatic yet dull', 'I felt detached watching .', 'Touching interesting approach', 'Angst : A Brilliant , Compelling Mirror Us All', 'When cold connect cold', 'Altered realities teenagers', 'A sad heartfelt film ; Brody ensemble cast terrific', 'The realistic movie I seen teacher trying help troubled students . Excellent must see . I say A+ .', 'Painfully realistic ... a-must-see certain viewer groups', 'Classy movie !', 'Powerful thought provoking film', 'A sensationalistic film goes every extreme', 'Dangerous Minds / Substitute', 'An Excellent , eyes opening movie', 'What I watched', 'Depressing', 'Dark', 'Unrelenting Despair', 'Good little pretentious', 'Detachment — Strange Simple Drama', 'No comfort numbers', 'easy watching brilliant']</t>
+          <t>['tough edgy school drama', 'Different approach', 'Depressive View Sick Dysfunctional Society', 'Unoriginal  predictable  melodramatic yet dull', 'I felt detached watching ', 'Touching interesting approach', 'Angst  A Brilliant  Compelling Mirror Us All', 'When cold connect cold', 'Altered realities teenagers', 'A sad heartfelt film  Brody ensemble cast terrific', 'The realistic movie I seen teacher trying help troubled students  Excellent must see  I say A ', 'Painfully realistic  amustsee certain viewer groups', 'Classy movie ', 'Powerful thought provoking film', 'A sensationalistic film goes every extreme', 'Dangerous Minds  Substitute', 'An Excellent  eyes opening movie', 'What I watched', 'Depressing', 'Dark', 'Unrelenting Despair', 'Good little pretentious', 'Detachment  Strange Simple Drama', 'No comfort numbers', 'easy watching brilliant']</t>
         </is>
       </c>
     </row>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>["Malick 's debut , impressive one", 'Minimalist thriller', 'American fairy tale', 'Very Good', 'Out kill', 'A slow rewarding film impressive debut', 'Terrence Malick shoots one impressive filming debuts history', 'marimba music meets amorality', 'A Good Spree Killing Movie', 'Brief glimpse bad young people .', 'Not dramatization real events , romanticized portrait crime ...', 'Badlands , got ta live everyday ...', 'Simplicity turned sheer poetry &amp; beauty', 'Sure Beats Slinging Garbage Cans', 'Little I realise began alleys back ways quiet town would end Badlands Montana .', 'A Not Unimpressive Amoral Film', 'A swell crime drama quite unlike', "Malick 's First Film Sets High Standard", 'I always felt criteria perfect film .', 'Visually stunning , rings false', 'A Grim Fairy Tale', "They n't make like anymore .", '`` I wan na find one place , I wan na spit face ... ``', "Badlands less impenetrable piece among Malick 's forbidding body work", 'seed']</t>
+          <t>['Malick s debut  impressive one', 'Minimalist thriller', 'American fairy tale', 'Very Good', 'Out kill', 'A slow rewarding film impressive debut', 'Terrence Malick shoots one impressive filming debuts history', 'marimba music meets amorality', 'A Good Spree Killing Movie', 'Brief glimpse bad young people ', 'Not dramatization real events  romanticized portrait crime ', 'Badlands  got ta live everyday ', 'Simplicity turned sheer poetry  beauty', 'Sure Beats Slinging Garbage Cans', 'Little I realise began alleys back ways quiet town would end Badlands Montana ', 'A Not Unimpressive Amoral Film', 'A swell crime drama quite unlike', 'Malick s First Film Sets High Standard', 'I always felt criteria perfect film ', 'Visually stunning  rings false', 'A Grim Fairy Tale', 'They nt make like anymore ', ' I wan na find one place  I wan na spit face  ', 'Badlands less impenetrable piece among Malick s forbidding body work', 'seed']</t>
         </is>
       </c>
     </row>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>['It inspired ...', 'fascinating figure great actor', 'admirable work', 'special', "Sadly one Lee 's flattest film still story worth hearing features good performance Washington", "Spike Lee 's best movie ever", 'The Spike Lee Masterpiece ?', 'Slick But Spiked With Too Much Bias', "superior craftsmanship , Washington 's performance , sobering mixture history drama", 'X-traordinary', "This American cinema masterpiece . I 'd score easy 10/10 .", 'Does good job handling subject .', "Malcolm X disappoints ... Denzel n't ! ! !", 'An unbelievable life story', 'Malcolm X', 'Must see cinema', 'X Misses The Spot', 'History metamorphosis', 'Denzel Washington Fantastic Malcom X !', 'We started fire', 'A depth big swallow movie', "Spike Lee 's finest film .", 'Denzel Washington Becomes Malcolm X', 'Great biopic', 'An amazing movie amazing person ...']</t>
+          <t>['It inspired ', 'fascinating figure great actor', 'admirable work', 'special', 'Sadly one Lee s flattest film still story worth hearing features good performance Washington', 'Spike Lee s best movie ever', 'The Spike Lee Masterpiece ', 'Slick But Spiked With Too Much Bias', 'superior craftsmanship  Washington s performance  sobering mixture history drama', 'Xtraordinary', 'This American cinema masterpiece  I d score easy 1010 ', 'Does good job handling subject ', 'Malcolm X disappoints  Denzel nt   ', 'An unbelievable life story', 'Malcolm X', 'Must see cinema', 'X Misses The Spot', 'History metamorphosis', 'Denzel Washington Fantastic Malcom X ', 'We started fire', 'A depth big swallow movie', 'Spike Lee s finest film ', 'Denzel Washington Becomes Malcolm X', 'Great biopic', 'An amazing movie amazing person ']</t>
         </is>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>['An extraordinarily beautiful adult story Miyazaki .', 'A beautiful `` swan song `` Hayao Miyazaki', "Not Ghibli 's finest hour ...", 'beauty sadness', 'Good Animation', "Miyazaki 's swan song n't disappoint", 'Too plain', 'Deeply beautiful', 'A poignant goodbye Miyazaki', 'A beautiful animation , like planes .', 'The lovely swan song genius', 'A beautiful movie long , drawn-out story', 'Half engineer , half poet , eternally dreamer', "Mixed feelings ; like Miyazaki 's movies .", "Hayao Miyazaki 's Swan Song Is Also His Most Emotional Film To Date .", 'I known based true story', 'Beautifully moving', 'Excellent life story', 'A farewell masterpiece Mr. Miyazaki .', 'How awesome animation .', "The Wind Rises Miyazaki 's last animation retirement .", 'Miyazaki yet , possibly last time', "Miyazaki 's last film", 'The perfect swan song great director', 'A Step Off Beaten Path Fantastically-Minded Studio Ghibli']</t>
+          <t>['An extraordinarily beautiful adult story Miyazaki ', 'A beautiful  swan song  Hayao Miyazaki', 'Not Ghibli s finest hour ', 'beauty sadness', 'Good Animation', 'Miyazaki s swan song nt disappoint', 'Too plain', 'Deeply beautiful', 'A poignant goodbye Miyazaki', 'A beautiful animation  like planes ', 'The lovely swan song genius', 'A beautiful movie long  drawnout story', 'Half engineer  half poet  eternally dreamer', 'Mixed feelings  like Miyazaki s movies ', 'Hayao Miyazaki s Swan Song Is Also His Most Emotional Film To Date ', 'I known based true story', 'Beautifully moving', 'Excellent life story', 'A farewell masterpiece Mr Miyazaki ', 'How awesome animation ', 'The Wind Rises Miyazaki s last animation retirement ', 'Miyazaki yet  possibly last time', 'Miyazaki s last film', 'The perfect swan song great director', 'A Step Off Beaten Path FantasticallyMinded Studio Ghibli']</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>['Dark , affecting , entertaining vengeance', 'Entertaining Trek outing ageing crew', 'From Out Of The Past', 'Khannnn ! ! ! ! !', 'Highly Entertaining Sequel', 'Really Has Spark', 'A good sequel ...', 'Are You Out Your Vulcan Mind ?', 'hands , favorite Star Trek movie', 'instant classic Trekkies ; casual fans get ready one best yet', 'Marooned ( light maroon )', 'A no-win situation possibility every commander may face .', 'Celestial Cat Mouse', 'Possibly Best Star Trek Film Ever Produced', 'Good genre movie time honestly nothing get excited .', 'Better', 'Twice good original', 'A definite step first Star Trek movie .', 'Star Trek II : The Wrath Khan', 'excellent Star Trek flick delivers', 'Plenty enjoy', 'A major improvement .', 'Brilliant', 'Signs life ...', 'One Memorable Film']</t>
+          <t>['Dark  affecting  entertaining vengeance', 'Entertaining Trek outing ageing crew', 'From Out Of The Past', 'Khannnn     ', 'Highly Entertaining Sequel', 'Really Has Spark', 'A good sequel ', 'Are You Out Your Vulcan Mind ', 'hands  favorite Star Trek movie', 'instant classic Trekkies  casual fans get ready one best yet', 'Marooned  light maroon ', 'A nowin situation possibility every commander may face ', 'Celestial Cat Mouse', 'Possibly Best Star Trek Film Ever Produced', 'Good genre movie time honestly nothing get excited ', 'Better', 'Twice good original', 'A definite step first Star Trek movie ', 'Star Trek II  The Wrath Khan', 'excellent Star Trek flick delivers', 'Plenty enjoy', 'A major improvement ', 'Brilliant', 'Signs life ', 'One Memorable Film']</t>
         </is>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>['Mass unhappy disturbed people', 'Well drawn depressing \x96 difficult watch worthwhile one', 'Disgusting , Perverted Completely Brilliant', "Sex : 's everyone 's mind !", 'Brutal captivating', "How movie overlooked Academy ? - One brilliant movies '90 's .", 'Everyone plusses minuses', "A film shows life intimate happiness different even 's dark strange !", "Let 's toast Happiness .", 'Darkly sardonic comedy everyone', 'Splendidly horrible', 'A Masterpiece', "The clue n't title", 'Be happy ...', "Matter fact horrors , dark spare comedy n't always funny .", 'Happiness', 'Completely totally revolting disgusting', 'Distasteful', 'Happiness brilliant', 'oh , irony ! brilliance !', 'A comedy everybody', 'Oddly fascinating', 'A particularly dark comic tale three sisters', 'Very boring .', 'Smashingly Powerful , Awfully Disturbing , Unbelievably Hilarious !']</t>
+          <t>['Mass unhappy disturbed people', 'Well drawn depressing  difficult watch worthwhile one', 'Disgusting  Perverted Completely Brilliant', 'Sex  s everyone s mind ', 'Brutal captivating', 'How movie overlooked Academy   One brilliant movies 90 s ', 'Everyone plusses minuses', 'A film shows life intimate happiness different even s dark strange ', 'Let s toast Happiness ', 'Darkly sardonic comedy everyone', 'Splendidly horrible', 'A Masterpiece', 'The clue nt title', 'Be happy ', 'Matter fact horrors  dark spare comedy nt always funny ', 'Happiness', 'Completely totally revolting disgusting', 'Distasteful', 'Happiness brilliant', 'oh  irony  brilliance ', 'A comedy everybody', 'Oddly fascinating', 'A particularly dark comic tale three sisters', 'Very boring ', 'Smashingly Powerful  Awfully Disturbing  Unbelievably Hilarious ']</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>['old , tired , pretentious characters', 'The Film Is Beautiful', 'return', 'Written When I Was 66', 'Getting', 'The Deceptive , Pretentious , Pointless , Dull Boring Movie That Seems That Never Ends', 'Beautiful', 'Decent , uneven , Italian drama', 'THE GREAT BEAUTY ( Paolo Sorrentino , 2013 ) * * 1/2', 'The Meaning Life', 'The Good Life ?', 'I enjoy watching', 'Not enough depth', 'A Giraffe Rome', "I 'm still short ...", 'Life performance art', 'beautiful ...', 'A Masterpiece .', "The best 2013 's Oscar nominees 'Best Foreign Language Film ' !", "We 're All On The Brink Of Despair .", 'Great movie', 'Barely interesting', 'A beautiful movie ...', 'I want party like', 'A balcony storks']</t>
+          <t>['old  tired  pretentious characters', 'The Film Is Beautiful', 'return', 'Written When I Was 66', 'Getting', 'The Deceptive  Pretentious  Pointless  Dull Boring Movie That Seems That Never Ends', 'Beautiful', 'Decent  uneven  Italian drama', 'THE GREAT BEAUTY  Paolo Sorrentino  2013    12', 'The Meaning Life', 'The Good Life ', 'I enjoy watching', 'Not enough depth', 'A Giraffe Rome', 'I m still short ', 'Life performance art', 'beautiful ', 'A Masterpiece ', 'The best 2013 s Oscar nominees Best Foreign Language Film  ', 'We re All On The Brink Of Despair ', 'Great movie', 'Barely interesting', 'A beautiful movie ', 'I want party like', 'A balcony storks']</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>['Stunning slice life', 'Touching , Beautiful Film Real Edge', 'Form Over Function', "This year 's critical darling", 'Bewildered , impressed visuals .', 'Family', 'The Daily Life Maid 70´s Mexico', 'Astounding details background', "It 's journey , destination", 'Already Want See It Again', "Cuaron 's personal gem", 'When Roma ...', 'Beautiful', 'Well done good reflection life , connection , attachment , love , loss , sorrow , change .', 'One best 2018 .', 'Simply Gorgeous', '`` I like dead ... ``', 'distanced pretty', 'Yawn ! ! Yet another BORING multi-award winning movie !', 'A beautiful student film made professional filmmaker', 'A slice Life ... major `` L `` ...', "better 'Green Book '", 'Not A Film That Everyone Will Embrace', 'Great craftsmanship bit hard get', 'Roma - Best Film 21st Century']</t>
+          <t>['Stunning slice life', 'Touching  Beautiful Film Real Edge', 'Form Over Function', 'This year s critical darling', 'Bewildered  impressed visuals ', 'Family', 'The Daily Life Maid 70s Mexico', 'Astounding details background', 'It s journey  destination', 'Already Want See It Again', 'Cuaron s personal gem', 'When Roma ', 'Beautiful', 'Well done good reflection life  connection  attachment  love  loss  sorrow  change ', 'One best 2018 ', 'Simply Gorgeous', ' I like dead  ', 'distanced pretty', 'Yawn   Yet another BORING multiaward winning movie ', 'A beautiful student film made professional filmmaker', 'A slice Life  major  L  ', 'better Green Book ', 'Not A Film That Everyone Will Embrace', 'Great craftsmanship bit hard get', 'Roma  Best Film 21st Century']</t>
         </is>
       </c>
     </row>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>['Iconic indie', 'Still Holds Up', 'Kevin So silent ( Bob ) lot say', 'One Day Convenience Store', 'Very basic , funny rude', 'Kevin Smith begins , folks .', "Kevin Smith 's impressive classic slacker debut .", 'The Film That Started It All', 'Low-Budget , No Class Vulgar Trash', 'One Best Independent Pictures Ever !', "Kevin 's Inferno", "`` I 'm even supposed today ! ``", "Not bad place work ; n't damn customers .", 'Is 36 37 ?', "Kevin Smith 's first movie ... best", 'I failed see humor', 'Grimy , gritty funny', 'Shoe polish', 'Slacker Film Festival', 'One funniest filmmaking debuts', '`` What hell kind convenience store run ? ``', "What n't expect good true ?", 'Funny dialogue driven low budget , need mood', "It good things I n't find particularly funny", 'My favorite film deserves informative detailed review']</t>
+          <t>['Iconic indie', 'Still Holds Up', 'Kevin So silent  Bob  lot say', 'One Day Convenience Store', 'Very basic  funny rude', 'Kevin Smith begins  folks ', 'Kevin Smith s impressive classic slacker debut ', 'The Film That Started It All', 'LowBudget  No Class Vulgar Trash', 'One Best Independent Pictures Ever ', 'Kevin s Inferno', ' I m even supposed today  ', 'Not bad place work  nt damn customers ', 'Is 36 37 ', 'Kevin Smith s first movie  best', 'I failed see humor', 'Grimy  gritty funny', 'Shoe polish', 'Slacker Film Festival', 'One funniest filmmaking debuts', ' What hell kind convenience store run  ', 'What nt expect good true ', 'Funny dialogue driven low budget  need mood', 'It good things I nt find particularly funny', 'My favorite film deserves informative detailed review']</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>['great', 'Quite Down Earth', 'Up ( )', 'evolve relations', 'Ove seems angry world `` idiots `` encounters daily .', 'Would Have Preferred Less Overtly Sentimental Approach', 'A moving adaptation great novel .', 'Sweet , funny sad ... destined put smile face .', "Can definitely see 's received acclaim 's gotten .", "It 's Wonderful Strife ...", 'Touching', '`` Gran Torino `` -reminding Swedish movie', "It 's okay", 'A heartwarming slice life strong performance Rolf Lassgard titular role .', 'Wow', 'The life loved one departed .', 'Unhappy Swede', 'Heart warming Heart wrenching', 'So emotional funny .', 'Predictable thoroughly heartwarming .', 'Funny heartfelt', 'Funny touching even sometimes predictable', 'Feelggod movie much truth , bit much sugar', 'Funny Sensitive en', 'The process melted much , first third unreachable part life touches .']</t>
+          <t>['great', 'Quite Down Earth', 'Up  ', 'evolve relations', 'Ove seems angry world  idiots  encounters daily ', 'Would Have Preferred Less Overtly Sentimental Approach', 'A moving adaptation great novel ', 'Sweet  funny sad  destined put smile face ', 'Can definitely see s received acclaim s gotten ', 'It s Wonderful Strife ', 'Touching', ' Gran Torino  reminding Swedish movie', 'It s okay', 'A heartwarming slice life strong performance Rolf Lassgard titular role ', 'Wow', 'The life loved one departed ', 'Unhappy Swede', 'Heart warming Heart wrenching', 'So emotional funny ', 'Predictable thoroughly heartwarming ', 'Funny heartfelt', 'Funny touching even sometimes predictable', 'Feelggod movie much truth  bit much sugar', 'Funny Sensitive en', 'The process melted much  first third unreachable part life touches ']</t>
         </is>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>['Very slow , dry yet rewarding .', 'Very much winner complete opposite loser', 'Terrific family movie', 'Beautiful , Authenic Film', "This Year 's Lincoln ( NE )", 'Style lack ...', 'Father Son Journey', 'Midwest looks miserable', 'A Nice Showcase For Bruce Dern', "' I 'm trusting mail million dollars . '", 'Flashes talent throughout ... yet scenario emotionally stunted', 'Beautiful , hilarious , poignant film', "Alexander Payne 's mid west bittersweet suite", "Wow ! Nebraska one best movies I 've seen year , far !", 'Charming simplicity', 'Not Natural Disaster This `` Dust Bowl `` Man-Made', 'Sweet , charming , quirkily funny movie', 'The Ties That Bind American Heartland', 'Prize Winner', 'sometimes tends towards cliché', 'A Slice Americana Captured Celluloid !', 'Brilliant', 'A movie reflection memory proving life age pass still look back thru trip !', "Payne 's excellent ode human warmth !", 'A country old man .']</t>
+          <t>['Very slow  dry yet rewarding ', 'Very much winner complete opposite loser', 'Terrific family movie', 'Beautiful  Authenic Film', 'This Year s Lincoln  NE ', 'Style lack ', 'Father Son Journey', 'Midwest looks miserable', 'A Nice Showcase For Bruce Dern', ' I m trusting mail million dollars  ', 'Flashes talent throughout  yet scenario emotionally stunted', 'Beautiful  hilarious  poignant film', 'Alexander Payne s mid west bittersweet suite', 'Wow  Nebraska one best movies I ve seen year  far ', 'Charming simplicity', 'Not Natural Disaster This  Dust Bowl  ManMade', 'Sweet  charming  quirkily funny movie', 'The Ties That Bind American Heartland', 'Prize Winner', 'sometimes tends towards clich', 'A Slice Americana Captured Celluloid ', 'Brilliant', 'A movie reflection memory proving life age pass still look back thru trip ', 'Payne s excellent ode human warmth ', 'A country old man ']</t>
         </is>
       </c>
     </row>
@@ -8137,7 +8137,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>['Visually impressive , still reminds THE MUPPET MOVIE shortcomings !', 'Superlative war epic', '`` Gentlemen , We Start War Right Here . ``', 'Grand traditional Hollywood war movie', 'A Noble Topic/Maybe Too Ambitious One Film', 'The D-Day Normandy', 'Spectacular recounting D-Day landings Normandy June 6 , 1944 , based Cornelius Ryan novel', 'The Other Big WWII Movie', 'Just one little thing .', 'The Cast &amp; The Actual Event : Overwhelming Numbers', "`` You 'll one friend ... God . ``", 'Longest Day-Oy Vey ! * * 1/2', 'Could unwieldy , instead comprehensive', "Where 's Sam Fuller When You Need Him ?", 'An epic among epics', 'For Allies well Germans , longest day .', 'A Flawed Film But A Great Tribute To Courage', 'World War II never looked authentic ...', 'The Longest day potential longer', 'Incredible war epic masterfully directed', '`` I tell , pretty peculiar blokes beach . ``', 'Bonjour , mademoiselle . Je suis américain .', "One Most Impressive Physical Productions I 've Ever Seen", 'The Allies invade France Hitler sleeps', 'Better Saving Private Ryan !']</t>
+          <t>['Visually impressive  still reminds THE MUPPET MOVIE shortcomings ', 'Superlative war epic', ' Gentlemen  We Start War Right Here  ', 'Grand traditional Hollywood war movie', 'A Noble TopicMaybe Too Ambitious One Film', 'The DDay Normandy', 'Spectacular recounting DDay landings Normandy June 6  1944  based Cornelius Ryan novel', 'The Other Big WWII Movie', 'Just one little thing ', 'The Cast  The Actual Event  Overwhelming Numbers', ' You ll one friend  God  ', 'Longest DayOy Vey    12', 'Could unwieldy  instead comprehensive', 'Where s Sam Fuller When You Need Him ', 'An epic among epics', 'For Allies well Germans  longest day ', 'A Flawed Film But A Great Tribute To Courage', 'World War II never looked authentic ', 'The Longest day potential longer', 'Incredible war epic masterfully directed', ' I tell  pretty peculiar blokes beach  ', 'Bonjour  mademoiselle  Je suis amricain ', 'One Most Impressive Physical Productions I ve Ever Seen', 'The Allies invade France Hitler sleeps', 'Better Saving Private Ryan ']</t>
         </is>
       </c>
     </row>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>['Classic Catherine Deneuve', 'Great Bunuel', 'Bunuel', 'There one', "Buñuel 's masterpiece filled sadomasochism , surrealism colorful well absurd images", 'budding generation gap', 'The Surrealism Luis Bunuel', "'Belle ' Is Beautiful But Boring", 'Ironic , often incredible film sex -- repression freedom', "One Bunuel 's well-known works ; interesting morality story Deneuve", 'A Masterful Performance', 'Well made enjoyable , wholly grabbing could', 'When Appearances Are Deceptive', 'Fantasy sake Reality', 'Well made interesting .', 'Plenty enjoy , plenty consider , especially disentangling reality fantasy', 'Between reality surreal near masterpiece Bunuel ! ! !', 'quite underwhelming', 'She comes afternoon .', 'Ugh', 'A classic film fantasy , lust , hidden desire daydreams becomes erotic life !', "Bunuel 's mark", 'Disappointed Bunuel', 'Catherine Deneuve shining story fantasy ambiguity', 'The Double-Jinx Of Deneuve Bunuel Meant Certain Death For `` Belle de Jour ``']</t>
+          <t>['Classic Catherine Deneuve', 'Great Bunuel', 'Bunuel', 'There one', 'Buuel s masterpiece filled sadomasochism  surrealism colorful well absurd images', 'budding generation gap', 'The Surrealism Luis Bunuel', 'Belle  Is Beautiful But Boring', 'Ironic  often incredible film sex  repression freedom', 'One Bunuel s wellknown works  interesting morality story Deneuve', 'A Masterful Performance', 'Well made enjoyable  wholly grabbing could', 'When Appearances Are Deceptive', 'Fantasy sake Reality', 'Well made interesting ', 'Plenty enjoy  plenty consider  especially disentangling reality fantasy', 'Between reality surreal near masterpiece Bunuel   ', 'quite underwhelming', 'She comes afternoon ', 'Ugh', 'A classic film fantasy  lust  hidden desire daydreams becomes erotic life ', 'Bunuel s mark', 'Disappointed Bunuel', 'Catherine Deneuve shining story fantasy ambiguity', 'The DoubleJinx Of Deneuve Bunuel Meant Certain Death For  Belle de Jour ']</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>['Not thatcompelling except music perhaps art ... many kids become restless watch .', 'close ... 10 minutes shorter would 10 !', "There 's great 30 minutes 2 hours", 'Visually One Most Impressive Animated Films Ever', 'It Stayed With Me Lifetime !', 'Beautiful Combination Classical Music Animation', 'led many things', 'Classical music brought life animators Disney', 'Classical music , Uncle Walt style .', 'The Only Way Watch Classical Music ?', "The Beginning Is Superb , But That 's It", 'works better time goes , little classical music appreciation', 'A feast eyes ears', 'Almost masterpiece', "Disney 's ode concert music good bad moments ...", 'Work Art', 'Before Little Mermaid , There Was This', 'Unique original good 1999 version .', 'Truly timeless', 'Groundbreaking Disney', 'Noble intentions , flawed results', 'I going commit blasphemy ...', 'double bill FANTASIA FANTASIA/2000', 'Wonderful Classic !', 'Good , film visual ...']</t>
+          <t>['Not thatcompelling except music perhaps art  many kids become restless watch ', 'close  10 minutes shorter would 10 ', 'There s great 30 minutes 2 hours', 'Visually One Most Impressive Animated Films Ever', 'It Stayed With Me Lifetime ', 'Beautiful Combination Classical Music Animation', 'led many things', 'Classical music brought life animators Disney', 'Classical music  Uncle Walt style ', 'The Only Way Watch Classical Music ', 'The Beginning Is Superb  But That s It', 'works better time goes  little classical music appreciation', 'A feast eyes ears', 'Almost masterpiece', 'Disney s ode concert music good bad moments ', 'Work Art', 'Before Little Mermaid  There Was This', 'Unique original good 1999 version ', 'Truly timeless', 'Groundbreaking Disney', 'Noble intentions  flawed results', 'I going commit blasphemy ', 'double bill FANTASIA FANTASIA2000', 'Wonderful Classic ', 'Good  film visual ']</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>['Magical affecting', 'Wonderful Johnny Depp', 'A Movie About How We Love', 'A leap Neverland', 'Very Beautiful Movie', 'An enjoyable film , sense wonder undermines status real emotionally involving story', 'James M. Barry mini-biography dealing relationship agreeable family', "Would say J.M . Barrie rebelling England 's stuffy culture ?", 'A Bit Dull , But Picks Up As It Goes', 'A Deceptively-Good Movie , Better Than What First Meets The Eye', 'Depp gives magical performance', 'It manages magical moments ...', "You 've Got Use Your Immigration", 'Wonderful , emotional movie', 'He irrepressible spirit youth .', 'Just believe !', 'A touch magic ... inspired performances ... soars like kite ...', 'It anything', 'Just dog ? * Just * ? What horrible candle-snuffing word .', 'Johnny Depp Plays Normal Human Being , For Once', 'Each page imagination', 'Pure movie magic .', 'Depp study subtle gentle genius', '10 Stars ! If see movie year , see one ! ,', 'Silly message , bad film']</t>
+          <t>['Magical affecting', 'Wonderful Johnny Depp', 'A Movie About How We Love', 'A leap Neverland', 'Very Beautiful Movie', 'An enjoyable film  sense wonder undermines status real emotionally involving story', 'James M Barry minibiography dealing relationship agreeable family', 'Would say JM  Barrie rebelling England s stuffy culture ', 'A Bit Dull  But Picks Up As It Goes', 'A DeceptivelyGood Movie  Better Than What First Meets The Eye', 'Depp gives magical performance', 'It manages magical moments ', 'You ve Got Use Your Immigration', 'Wonderful  emotional movie', 'He irrepressible spirit youth ', 'Just believe ', 'A touch magic  inspired performances  soars like kite ', 'It anything', 'Just dog   Just   What horrible candlesnuffing word ', 'Johnny Depp Plays Normal Human Being  For Once', 'Each page imagination', 'Pure movie magic ', 'Depp study subtle gentle genius', '10 Stars  If see movie year  see one  ', 'Silly message  bad film']</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>['Verhoeven delivers one best war-time thrillers ever filmed', 'Cause Or Vendetta', 'Erotic Violent Pulpy WWII Thriller', 'Traitors Truth', 'Black Book', 'Army Of Shadows Netherlands', 'WW II film', 'lots Nazi resistance-fighting intrigue , ideal cast , good bulky thriller', "Paul Verhoeven 's Zwartboek , Black Book , excellent", 'Zwartboek Black Book Delivers * * * 1/2', 'Wonderful masterpiece war psychological thriller', 'Just like Hollywood war movie -- nudity violence', 'An exciting tale espionage', 'Garbo Got End', 'Paul Verhoeven back roots .', 'Gripping', 'Another good movie Paul Verhoeven .', 'Carice van Houten plays spy working Dutch Resistance WW2', 'great form', 'A Stunning , Compelling Film Every Level', 'Exceptional flick . One best 2007 releases .', 'Mark film black red book must-see 2007 .', 'A Nutshell Review : Black Book', 'Simply stunning !', 'imperfect justice']</t>
+          <t>['Verhoeven delivers one best wartime thrillers ever filmed', 'Cause Or Vendetta', 'Erotic Violent Pulpy WWII Thriller', 'Traitors Truth', 'Black Book', 'Army Of Shadows Netherlands', 'WW II film', 'lots Nazi resistancefighting intrigue  ideal cast  good bulky thriller', 'Paul Verhoeven s Zwartboek  Black Book  excellent', 'Zwartboek Black Book Delivers    12', 'Wonderful masterpiece war psychological thriller', 'Just like Hollywood war movie  nudity violence', 'An exciting tale espionage', 'Garbo Got End', 'Paul Verhoeven back roots ', 'Gripping', 'Another good movie Paul Verhoeven ', 'Carice van Houten plays spy working Dutch Resistance WW2', 'great form', 'A Stunning  Compelling Film Every Level', 'Exceptional flick  One best 2007 releases ', 'Mark film black red book mustsee 2007 ', 'A Nutshell Review  Black Book', 'Simply stunning ', 'imperfect justice']</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>['Mostly accurate brutal -- also bit white-wash', "Jamie Foxx 's performance outstanding ....", 'A lover fighter', 'Jamie Foxx great', 'It Was Like He Was There', 'admirable work', 'Ray hope', 'Ray Man', 'Highlights Biography Great American Artist', 'inhibits role', 'The Piano Legend', 'Is great performance great impersonation ?', 'The warts bio music great', 'Sometimes less ...', 'One Best Movie Bios', 'Great biopic music legend', 'Jamie Foxx brings Ray life', 'Blah Blah Blah -- - Boring Biopic -- - Blah Blah Blah', 'A RAY Sunshine Foxx', 'Good character movie .', 'Astounding piece', 'Jamie Foxx gives indelible turn music icon gleams Oscar gold .', 'Excellent biopic great American musician', 'Uneven Overlong , Nevertheless Rewarding', 'Charles first']</t>
+          <t>['Mostly accurate brutal  also bit whitewash', 'Jamie Foxx s performance outstanding ', 'A lover fighter', 'Jamie Foxx great', 'It Was Like He Was There', 'admirable work', 'Ray hope', 'Ray Man', 'Highlights Biography Great American Artist', 'inhibits role', 'The Piano Legend', 'Is great performance great impersonation ', 'The warts bio music great', 'Sometimes less ', 'One Best Movie Bios', 'Great biopic music legend', 'Jamie Foxx brings Ray life', 'Blah Blah Blah   Boring Biopic   Blah Blah Blah', 'A RAY Sunshine Foxx', 'Good character movie ', 'Astounding piece', 'Jamie Foxx gives indelible turn music icon gleams Oscar gold ', 'Excellent biopic great American musician', 'Uneven Overlong  Nevertheless Rewarding', 'Charles first']</t>
         </is>
       </c>
     </row>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>['excellent 90s version old gangster flick', 'Coen brothers gangster masterpiece', 'Crossing ( ) line', 'Very good gangster movie , magnificently played , masterfully paced visually exhilarating', 'Fair-to-middling mobster movie .', 'A Coen Classic', 'I Like Crime Films , But This Is Too Nasty', 'Dark comedy , rating appears bit high .', 'favorite Coen brothers crime thriller , though certainly worst', 'Clever plot', "`` And today I ai n't selling ... take flunky dangle . ``", 'Hats Off To This Coen Brothers Masterpiece', "Brilliant - first sign Coen Brothers ' genius film-making", 'The answer friend hat blowing wind .', 'Lower Echelon', 'One best gangster films ever', '`` Always put one brain . ``', 'Look heart ! Look heart !', 'The Coen Brothers Flirt Gangsters', "Revisionist '30s gangster flick la Coen Bros .", 'This reminded much The Godfather Bugsy Malone .', 'Grabs lapels', "Miller 's Crossing", 'A fine neo-noir', 'Great gangster movie']</t>
+          <t>['excellent 90s version old gangster flick', 'Coen brothers gangster masterpiece', 'Crossing   line', 'Very good gangster movie  magnificently played  masterfully paced visually exhilarating', 'Fairtomiddling mobster movie ', 'A Coen Classic', 'I Like Crime Films  But This Is Too Nasty', 'Dark comedy  rating appears bit high ', 'favorite Coen brothers crime thriller  though certainly worst', 'Clever plot', ' And today I ai nt selling  take flunky dangle  ', 'Hats Off To This Coen Brothers Masterpiece', 'Brilliant  first sign Coen Brothers  genius filmmaking', 'The answer friend hat blowing wind ', 'Lower Echelon', 'One best gangster films ever', ' Always put one brain  ', 'Look heart  Look heart ', 'The Coen Brothers Flirt Gangsters', 'Revisionist 30s gangster flick la Coen Bros ', 'This reminded much The Godfather Bugsy Malone ', 'Grabs lapels', 'Miller s Crossing', 'A fine neonoir', 'Great gangster movie']</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>['Visually opulent arresting', "Heaven 's Mandate", 'old fashion epic', 'Film-making Its Best ; Great Historical Recreation', 'film', 'old China modern China', 'A Great Transition China', 'Just A Big Bore , Sad To Say', 'isolation simple man times change', 'The Italian perspective', 'Interesting , edifying drama', "China 's Transition", 'Inl', 'Good But Rather Mainstream', 'The Last Emperor', "'The Americans believe everyone born good . You must judged . '", 'Beautiful , flawed', 'Life Puppet', 'impressive fresco', 'An educational movie', 'An ornamental theory tell story ambitious emperor deserve .', "The Life Of China 's Last Emperor", 'Production values overall craftsmanship makes slow burning story', 'The Last Emperor - A Good Study Modern China', 'A good biographical film .']</t>
+          <t>['Visually opulent arresting', 'Heaven s Mandate', 'old fashion epic', 'Filmmaking Its Best  Great Historical Recreation', 'film', 'old China modern China', 'A Great Transition China', 'Just A Big Bore  Sad To Say', 'isolation simple man times change', 'The Italian perspective', 'Interesting  edifying drama', 'China s Transition', 'Inl', 'Good But Rather Mainstream', 'The Last Emperor', 'The Americans believe everyone born good  You must judged  ', 'Beautiful  flawed', 'Life Puppet', 'impressive fresco', 'An educational movie', 'An ornamental theory tell story ambitious emperor deserve ', 'The Life Of China s Last Emperor', 'Production values overall craftsmanship makes slow burning story', 'The Last Emperor  A Good Study Modern China', 'A good biographical film ']</t>
         </is>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>['Yes , get ready minds warped', 'A lot poop jokes hilarious', "So Outrageous , It 's Hilarious", 'More salty balls', 'Must see fans \x96 funny clever enough wider audience', 'Blame Canada !', 'Groundbreaking', 'gross , extravagant , enjoyable', "The Best Animated Comedy I 've Ever Seen", 'This movie warped fragile little mind .', 'Get High On Potty Humor', 'Nothing short brilliant !', 'Quick , in-your-face fun', 'A baked potato .', 'notes', 'Its Fun', 'Embrace satire fearing prove correct', 'A bit overrated , still fun film -- open mind .', 'Will somebody please think children ? ...', 'Even less like Waltons ...', "A ' ' history South Park", "One Of Mankind 's Greatest Achievements", 'Uncut Gem', 'fun fastpaced comic adventure', 'Meet friends mine']</t>
+          <t>['Yes  get ready minds warped', 'A lot poop jokes hilarious', 'So Outrageous  It s Hilarious', 'More salty balls', 'Must see fans  funny clever enough wider audience', 'Blame Canada ', 'Groundbreaking', 'gross  extravagant  enjoyable', 'The Best Animated Comedy I ve Ever Seen', 'This movie warped fragile little mind ', 'Get High On Potty Humor', 'Nothing short brilliant ', 'Quick  inyourface fun', 'A baked potato ', 'notes', 'Its Fun', 'Embrace satire fearing prove correct', 'A bit overrated  still fun film  open mind ', 'Will somebody please think children  ', 'Even less like Waltons ', 'A   history South Park', 'One Of Mankind s Greatest Achievements', 'Uncut Gem', 'fun fastpaced comic adventure', 'Meet friends mine']</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>['Tense Suspenseful', 'slow confused start gets much better', 'The wages fear', 'Great set-pieces , rest seems superficial yet presented something', 'Pretty good thrilling reboot four unfortunate truckers undertaking extremely dangerous assignment', 'Strange Title', 'Original Is Good , This Is Better', 'Good cast macho adventure ...', 'The Evil Wizard Fate', 'Friedkin follows two undeniable classics something equally noteworthy .', 'Another Great William Friedkin Film Different Disturbing', '4 desperate men two trucks called Sorcerer Lazaro carrying cargo tempestuous explosives .', 'SORCERER ( William Friedkin , 1977 ) * * 1/2', 'Prefer slightly original .', 'Hidden gem', 'Ruinously Expensive Remake That Disappeared Puff Smoke', 'Tangerine Dream music sustains us', 'Fate takes wheel', 'Entertaining', 'Skip first 40 minutes ...', "A harrowing documentary-like thriller one 70 's lost masterpieces ...", 'A Nerve-Wracking Exercise In Tension &amp; Suspense', "Can I couple minutes ? For 'll hold plane !", 'Remake Wages Fear Just Good - Sorcerer', "Do n't mention tension"]</t>
+          <t>['Tense Suspenseful', 'slow confused start gets much better', 'The wages fear', 'Great setpieces  rest seems superficial yet presented something', 'Pretty good thrilling reboot four unfortunate truckers undertaking extremely dangerous assignment', 'Strange Title', 'Original Is Good  This Is Better', 'Good cast macho adventure ', 'The Evil Wizard Fate', 'Friedkin follows two undeniable classics something equally noteworthy ', 'Another Great William Friedkin Film Different Disturbing', '4 desperate men two trucks called Sorcerer Lazaro carrying cargo tempestuous explosives ', 'SORCERER  William Friedkin  1977    12', 'Prefer slightly original ', 'Hidden gem', 'Ruinously Expensive Remake That Disappeared Puff Smoke', 'Tangerine Dream music sustains us', 'Fate takes wheel', 'Entertaining', 'Skip first 40 minutes ', 'A harrowing documentarylike thriller one 70 s lost masterpieces ', 'A NerveWracking Exercise In Tension  Suspense', 'Can I couple minutes  For ll hold plane ', 'Remake Wages Fear Just Good  Sorcerer', 'Do nt mention tension']</t>
         </is>
       </c>
     </row>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>['I truly wish movie never made', '`` become immortal die ``', 'Breathless', "Sometimes Simplicity Is n't Every Taste", 'It may well better known influence value film great piece iconic cool great dialogue delivered two strong performances leads', 'Do criminals run free , everyone type criminal ?', 'Such Fun Little Movie !', 'As purely visceral experience , worthwhile', 'How French cinema lost innocence ...', 'thoughts another viewing Breathless - improves repeat viewings', 'Jean-Luc Godard Jump Cuts', 'If You Like French New Wave Cinema ...', 'A Man Run Little Time Lose', 'Important historically , I find film aged badly become quite silly', 'Pseuds Corner', "I 'm tired . I 'm going die .", 'adventure france .', 'That uncommon cinematic curiosity really one kind', "A Godard Film I Do n't Dislike", 'Seek New Waves films instead one', 'More fun discuss watch', 'Acquired taste , maybe .', '`` Breathless `` ... pointless , clueless , senseless ...', 'peak wave', 'Homme Fatal ...']</t>
+          <t>['I truly wish movie never made', ' become immortal die ', 'Breathless', 'Sometimes Simplicity Is nt Every Taste', 'It may well better known influence value film great piece iconic cool great dialogue delivered two strong performances leads', 'Do criminals run free  everyone type criminal ', 'Such Fun Little Movie ', 'As purely visceral experience  worthwhile', 'How French cinema lost innocence ', 'thoughts another viewing Breathless  improves repeat viewings', 'JeanLuc Godard Jump Cuts', 'If You Like French New Wave Cinema ', 'A Man Run Little Time Lose', 'Important historically  I find film aged badly become quite silly', 'Pseuds Corner', 'I m tired  I m going die ', 'adventure france ', 'That uncommon cinematic curiosity really one kind', 'A Godard Film I Do nt Dislike', 'Seek New Waves films instead one', 'More fun discuss watch', 'Acquired taste  maybe ', ' Breathless   pointless  clueless  senseless ', 'peak wave', 'Homme Fatal ']</t>
         </is>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>['oddly intriguing', 'interesting energetic premise', 'A Great Enjoyable Movie', 'Total style substance \x96 surprising thing many people taken', 'Dazzling stunning thriller unstoppable action start finish', 'running full', 'A Great German Film', 'Fast-Paced Film , Love It', 'Innovative Film That `` Always Fun To Watch', 'Quite movie', 'run , run , run ( Velvet Underground ) ...', 'Best Foreign Film 1999', 'Exuberant Thin', 'See Lola run', 'Rooting Lola', 'Dizzying', "Inventive gimmick effective 's time", 'Zoom ! ...', 'A revolutionary movie .', "I 'd throw water . Shock therapy", "I hated movie . Do n't buy hype", "More like 'Fun Lola Fun ' .", 'Clever , fast-paced witty , lacking heart', 'circle run', 'Fast original German thriller']</t>
+          <t>['oddly intriguing', 'interesting energetic premise', 'A Great Enjoyable Movie', 'Total style substance  surprising thing many people taken', 'Dazzling stunning thriller unstoppable action start finish', 'running full', 'A Great German Film', 'FastPaced Film  Love It', 'Innovative Film That  Always Fun To Watch', 'Quite movie', 'run  run  run  Velvet Underground  ', 'Best Foreign Film 1999', 'Exuberant Thin', 'See Lola run', 'Rooting Lola', 'Dizzying', 'Inventive gimmick effective s time', 'Zoom  ', 'A revolutionary movie ', 'I d throw water  Shock therapy', 'I hated movie  Do nt buy hype', 'More like Fun Lola Fun  ', 'Clever  fastpaced witty  lacking heart', 'circle run', 'Fast original German thriller']</t>
         </is>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>['Just lovely .', "Laika 's best yet near-masterpiece", 'wonderful', '`` While My Guitar Gently Weeps `` turned 50 last month', 'Beautiful Technique Hampered By An Awful Story', 'An adventure children', 'A Rousing Animated Adventure Story', 'The craft display staggering', 'Kubo Two Strings', "If must blink , 'll miss frame .", 'A stylish blend Western Eastern culture', 'top-drawer white elephant', 'Absolutely wonderful', 'A beautiful creative story', 'killer combo ; studio LAIKA + Charlize Theron', 'A Creative Masterpiece', "Kind disappointment , 's sure .", 'Passionate Filmmaking &amp; Dextrous Craftsmanship At Its Best', 'Beautifully crafted good animated movie', 'Magical', 'Thrilling , moving , beautifully crafted', "Possibly Laika 's best film", 'Good story gorgeous visuals forgettable characters', 'The Vidiot Reviews ...', 'A boy , monkey giant beetle team quest .']</t>
+          <t>['Just lovely ', 'Laika s best yet nearmasterpiece', 'wonderful', ' While My Guitar Gently Weeps  turned 50 last month', 'Beautiful Technique Hampered By An Awful Story', 'An adventure children', 'A Rousing Animated Adventure Story', 'The craft display staggering', 'Kubo Two Strings', 'If must blink  ll miss frame ', 'A stylish blend Western Eastern culture', 'topdrawer white elephant', 'Absolutely wonderful', 'A beautiful creative story', 'killer combo  studio LAIKA  Charlize Theron', 'A Creative Masterpiece', 'Kind disappointment  s sure ', 'Passionate Filmmaking  Dextrous Craftsmanship At Its Best', 'Beautifully crafted good animated movie', 'Magical', 'Thrilling  moving  beautifully crafted', 'Possibly Laika s best film', 'Good story gorgeous visuals forgettable characters', 'The Vidiot Reviews ', 'A boy  monkey giant beetle team quest ']</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>['good film ends abruptly', 'Beautiful imaginative- charming film Studio Ghibli .', 'older protagonist', 'I believe I fly', 'An engaging entertaining animation', 'Fascinating haunting adventure set Italy 20s great Hayao Miyazaki', 'Hayao Miyazaki looks Italy', 'quite absolute favorites Miyazai , still rousing ride', 'Space , Water', 'PORCO ROSSO ( Hayao Miyazaki , 1992 ) * * *', 'This fun well done addition genre definitely underrated', 'A visual feast', 'Porco Rosso', 'Beautiful masterpiece', 'Great animation , weird story , kinda boring', 'Circles runway little long', "When Pigs Fly , There 's Coolness Air ...", 'Fantastic', 'Another Gem From Hayao Miyazaki &amp; Studio Ghibli .', 'When pigs fly', 'Heartwarming unremarkable', 'My brief review film', 'Sometimes pig needs lipstick .', "Reality fairytale meet pig 's red airplane", "Miyazaki 's love letter early era aviation"]</t>
+          <t>['good film ends abruptly', 'Beautiful imaginative charming film Studio Ghibli ', 'older protagonist', 'I believe I fly', 'An engaging entertaining animation', 'Fascinating haunting adventure set Italy 20s great Hayao Miyazaki', 'Hayao Miyazaki looks Italy', 'quite absolute favorites Miyazai  still rousing ride', 'Space  Water', 'PORCO ROSSO  Hayao Miyazaki  1992    ', 'This fun well done addition genre definitely underrated', 'A visual feast', 'Porco Rosso', 'Beautiful masterpiece', 'Great animation  weird story  kinda boring', 'Circles runway little long', 'When Pigs Fly  There s Coolness Air ', 'Fantastic', 'Another Gem From Hayao Miyazaki  Studio Ghibli ', 'When pigs fly', 'Heartwarming unremarkable', 'My brief review film', 'Sometimes pig needs lipstick ', 'Reality fairytale meet pig s red airplane', 'Miyazaki s love letter early era aviation']</t>
         </is>
       </c>
     </row>
@@ -8753,7 +8753,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>['One engrossing last chance big case', 'One best courtroom dramas', 'terrific performance Newman', "One Greatest Performances You 'll Ever See", 'One Best Courtroom Dramas Cinema History', 'Top-drawer courtroom drama excellent performances thought-provoking screenplay', 'This first movie I saw September 11 .', 'A Flawless Courtroom Drama', 'Overwrought , theatrical ... special apart Newman', 'old story , important question , great performance great actor', "maybe one best I 've seen Lumet , Newman ...", 'The Verdict in-Newman Does It Again ! * * * 1/2', 'Excellent film , even fond court room dramas .', 'Good movie underdogs', 'A great Newman film', 'Very Good , But Not Good I Expected It Be', "Newman 's Best Performance ( one 've gotten OSCAR ! )", 'Excellent well done legal courtroom drama reveals faith , truth , courage , awakening .', "Newman 's best performance lengthy glorious career !", 'The Power Paul Newman !', 'The Verdict : I sigh awe ...', "Paul Newman 's performance really brings order courtroom drama", 'Engaging Courtroom Drama , Inspiring Character Study ...', '[ 7.3 ] Duped', 'Not bad courtroom drama .']</t>
+          <t>['One engrossing last chance big case', 'One best courtroom dramas', 'terrific performance Newman', 'One Greatest Performances You ll Ever See', 'One Best Courtroom Dramas Cinema History', 'Topdrawer courtroom drama excellent performances thoughtprovoking screenplay', 'This first movie I saw September 11 ', 'A Flawless Courtroom Drama', 'Overwrought  theatrical  special apart Newman', 'old story  important question  great performance great actor', 'maybe one best I ve seen Lumet  Newman ', 'The Verdict inNewman Does It Again     12', 'Excellent film  even fond court room dramas ', 'Good movie underdogs', 'A great Newman film', 'Very Good  But Not Good I Expected It Be', 'Newman s Best Performance  one ve gotten OSCAR  ', 'Excellent well done legal courtroom drama reveals faith  truth  courage  awakening ', 'Newman s best performance lengthy glorious career ', 'The Power Paul Newman ', 'The Verdict  I sigh awe ', 'Paul Newman s performance really brings order courtroom drama', 'Engaging Courtroom Drama  Inspiring Character Study ', ' 73  Duped', 'Not bad courtroom drama ']</t>
         </is>
       </c>
     </row>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>['deliberate quirkiness', 'A Gem Movie About Why Life Is So Precious', 'All Greg', 'Spoiler title ?', 'A decent film good message', 'Why much love film ?', 'Humor cancer possible', 'Not idealized , fresh , funny', 'Sentimental film shows memory hope death certain .', 'One best coming-of-age stories film history .', 'B-e-A-u-T-i-F-u-L', "A film remind us humans , particularly adolescents , n't easily defined think", 'A comically dark story cast mostly unknown actors', 'Oh Wow ( Ferris Bueller eat heart )', "Who would n't love title ? !", 'A Little Friendship Never Killed Anyone !', 'Very solid indie', 'Perfect Balance Comedy Drama', 'Heartfelt distinct', 'Fun , Emotional , Very Pure Performances ,', 'A movie teens watch . If liked Fault Stars love movie .', 'A likable unique tale friendship , growing movies', 'The Vidiot Reviews ....', 'A wonderful film', 'Living Dying']</t>
+          <t>['deliberate quirkiness', 'A Gem Movie About Why Life Is So Precious', 'All Greg', 'Spoiler title ', 'A decent film good message', 'Why much love film ', 'Humor cancer possible', 'Not idealized  fresh  funny', 'Sentimental film shows memory hope death certain ', 'One best comingofage stories film history ', 'BeAuTiFuL', 'A film remind us humans  particularly adolescents  nt easily defined think', 'A comically dark story cast mostly unknown actors', 'Oh Wow  Ferris Bueller eat heart ', 'Who would nt love title  ', 'A Little Friendship Never Killed Anyone ', 'Very solid indie', 'Perfect Balance Comedy Drama', 'Heartfelt distinct', 'Fun  Emotional  Very Pure Performances ', 'A movie teens watch  If liked Fault Stars love movie ', 'A likable unique tale friendship  growing movies', 'The Vidiot Reviews ', 'A wonderful film', 'Living Dying']</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>['I imagine film entertaining ....', "John Wayne 's best non-western movie", 'A Stick To Beat Lovely Lady', 'Terrific Cast Nails This Entertaining Charmer', 'A Delightful Romantic Comedy John Ford', "Vintage memorable film one Ford Wayne 's best", 'John Wayne ... Irish ?', 'Rain-soaked kisses brawling good cheer ...', '`` silly Irish story `` , well-told story', 'How Handle Woman ?', 'A great masterpiece film .', 'Mostly-dull soap opera great scenery', 'Not Richly Irish', 'She wore yellow straw bonnet', 'A Good , Clean Movie Plenty Action Comedy', 'Cute , best classic ever', "`` He 'll regret till dying day , ever lives long . ``", 'Pretty Look At , But Awfully Inconsequential', "I 'm still bit thorn think movie .", 'A timeless film many long-time well-known actors', 'Homeric John Ford endeavor clash Yank ancient Irish cultural heritage ! !', "shout 's praises high heavens", 'The Quiet man', "Not one John Ford 's best", 'Quiet Storm']</t>
+          <t>['I imagine film entertaining ', 'John Wayne s best nonwestern movie', 'A Stick To Beat Lovely Lady', 'Terrific Cast Nails This Entertaining Charmer', 'A Delightful Romantic Comedy John Ford', 'Vintage memorable film one Ford Wayne s best', 'John Wayne  Irish ', 'Rainsoaked kisses brawling good cheer ', ' silly Irish story   welltold story', 'How Handle Woman ', 'A great masterpiece film ', 'Mostlydull soap opera great scenery', 'Not Richly Irish', 'She wore yellow straw bonnet', 'A Good  Clean Movie Plenty Action Comedy', 'Cute  best classic ever', ' He ll regret till dying day  ever lives long  ', 'Pretty Look At  But Awfully Inconsequential', 'I m still bit thorn think movie ', 'A timeless film many longtime wellknown actors', 'Homeric John Ford endeavor clash Yank ancient Irish cultural heritage  ', 'shout s praises high heavens', 'The Quiet man', 'Not one John Ford s best', 'Quiet Storm']</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>['Blistering entertainment', 'Not nowhere', 'Stunning South-Korean Action Thriller Heart', 'This movie combines best action , crime thriller genres ...', 'The Complete Package', 'They messed wrong neighbor .', 'Involving well made', 'A Quiet Pawn Place', 'gritty action flick', 'A delightful action-thriller treat !', 'Brilliant .. Hollywood version lock ... one see', 'A better version `` Man Fire ``', 'The Man From Nowhere Has Much More To It Than It Seems .', "It n't get much better .", 'Violence ...', 'A great action thriller movie ! !', 'Good action film', 'Before The Equalizer A Man Nowhere .', 'Man Nowhere', 'Another masterpiece contemporary cinema South Korea', 'Korean Films Rise', 'Great action thriller ... ! !', "If `` Man Fire `` n't mediocre enough .", 'Simple yet fascinating ( South korean A + Movie ) My Ratings 10/10', 'Let hug .']</t>
+          <t>['Blistering entertainment', 'Not nowhere', 'Stunning SouthKorean Action Thriller Heart', 'This movie combines best action  crime thriller genres ', 'The Complete Package', 'They messed wrong neighbor ', 'Involving well made', 'A Quiet Pawn Place', 'gritty action flick', 'A delightful actionthriller treat ', 'Brilliant  Hollywood version lock  one see', 'A better version  Man Fire ', 'The Man From Nowhere Has Much More To It Than It Seems ', 'It nt get much better ', 'Violence ', 'A great action thriller movie  ', 'Good action film', 'Before The Equalizer A Man Nowhere ', 'Man Nowhere', 'Another masterpiece contemporary cinema South Korea', 'Korean Films Rise', 'Great action thriller   ', 'If  Man Fire  nt mediocre enough ', 'Simple yet fascinating  South korean A  Movie  My Ratings 1010', 'Let hug ']</t>
         </is>
       </c>
     </row>
@@ -8929,7 +8929,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>['Well made disturbing viewers .... including !', 'cold-hearted killer', 'He Had Know', 'gone without trace', 'Not disturbing many claim .', 'Great Film About Abduction , Quite Tense', 'More Of A Character ( ) Study', 'A serial killer like ones ...', 'three thoughts', 'Another Lady Vanishes', "It 's Dark Fate Rules", 'Traceless .', 'Some Things Are Worse Than Death ...', 'You see , Mr Hoffman . For , dying worse thing .', 'Riveting little thriller', 'movie want watch !', 'Genuinely eerie mesmerizing Dutch thriller .', 'A somewhat over-touted good European psychodrama', 'A Quiet , Unnerving &amp; Gradually Escalating Nightmare', 'Superb frightening', "The truth 's price", 'A Great Thriller ...', 'Missing Ingredients', 'tight tense abduction mystery', 'Great ending confusing plot']</t>
+          <t>['Well made disturbing viewers  including ', 'coldhearted killer', 'He Had Know', 'gone without trace', 'Not disturbing many claim ', 'Great Film About Abduction  Quite Tense', 'More Of A Character   Study', 'A serial killer like ones ', 'three thoughts', 'Another Lady Vanishes', 'It s Dark Fate Rules', 'Traceless ', 'Some Things Are Worse Than Death ', 'You see  Mr Hoffman  For  dying worse thing ', 'Riveting little thriller', 'movie want watch ', 'Genuinely eerie mesmerizing Dutch thriller ', 'A somewhat overtouted good European psychodrama', 'A Quiet  Unnerving  Gradually Escalating Nightmare', 'Superb frightening', 'The truth s price', 'A Great Thriller ', 'Missing Ingredients', 'tight tense abduction mystery', 'Great ending confusing plot']</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>['Masterful portrayal quiet desperation', 'Seeking Truth', 'A good enough murder mystery crime ...', 'enduring love', 'fantastic film South Korea', "well , boy 's best friend mother .... , kind mother , close", 'Bong Joon Ho must-watch list', 'This movie unique storyline , great writing fantastic characters', 'How could leave lying around ?', 'Uncomfortable - impactful - phenomenal', 'I really like director', 'Mesmerising unpredictable murder mystery', 'Mother', 'The things kids .', 'Slow-burner', 'Cinema Omnivore - Mother ( 2009 ) 8.3/10', 'A Nutshell Review : Mother', 'picture profound form love', 'Quit comparing Hitchcock !', 'A bit slow , well worth !', 'Bong Joon-ho presents Curse Crazy Motherhood like never .', 'Feels like something missing , still pretty good', 'What amazing mother !', 'How Far A Mother Is Willing To Go To Save Her Son ?', 'Astonishing tale maternal love']</t>
+          <t>['Masterful portrayal quiet desperation', 'Seeking Truth', 'A good enough murder mystery crime ', 'enduring love', 'fantastic film South Korea', 'well  boy s best friend mother   kind mother  close', 'Bong Joon Ho mustwatch list', 'This movie unique storyline  great writing fantastic characters', 'How could leave lying around ', 'Uncomfortable  impactful  phenomenal', 'I really like director', 'Mesmerising unpredictable murder mystery', 'Mother', 'The things kids ', 'Slowburner', 'Cinema Omnivore  Mother  2009  8310', 'A Nutshell Review  Mother', 'picture profound form love', 'Quit comparing Hitchcock ', 'A bit slow  well worth ', 'Bong Joonho presents Curse Crazy Motherhood like never ', 'Feels like something missing  still pretty good', 'What amazing mother ', 'How Far A Mother Is Willing To Go To Save Her Son ', 'Astonishing tale maternal love']</t>
         </is>
       </c>
     </row>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>['great actors interconnected vignettes', 'Well acted emotionally lacking', 'Robert Altman lot jerks helpless characters .', "Among Altman 's Best", 'What , fish , call police , find body river ?', "Purports like 'real life ' ... whose reality ?", "one takes cake possibly Altman 's real 'definitive ' film ; ensemble perfection", 'Brilliant', 'Life imitates art .', 'Altman Meets Raymond Carver', 'Long worth effort top notch cast', 'I hate L.A. snort coke talk', 'Eh , desperate attempt recapture greatness Nashville', 'Altman superlative orchestrator balancing act conjuring kaleidoscopic cross section contemporary malaise scourges earth', 'A huge cast familiar names , one job well ... without commitment , emotion script much intricate .', 'Broad ; expansive really quite affecting snapshot palette people around contemporary Los Angeles , devilishly linked death ; loss companionship .', "Altman 's 94 classic , short cut real entertainment", 'Unfortunately Outshined By Magnolia , Its Unauthorized Doppelganger', "Altman 's truly great film", 'Good - quite great - Altman', 'Another great Altman movie', "Altman 's LA", 'I must missing something', 'despicable', 'Not amused']</t>
+          <t>['great actors interconnected vignettes', 'Well acted emotionally lacking', 'Robert Altman lot jerks helpless characters ', 'Among Altman s Best', 'What  fish  call police  find body river ', 'Purports like real life   whose reality ', 'one takes cake possibly Altman s real definitive  film  ensemble perfection', 'Brilliant', 'Life imitates art ', 'Altman Meets Raymond Carver', 'Long worth effort top notch cast', 'I hate LA snort coke talk', 'Eh  desperate attempt recapture greatness Nashville', 'Altman superlative orchestrator balancing act conjuring kaleidoscopic cross section contemporary malaise scourges earth', 'A huge cast familiar names  one job well  without commitment  emotion script much intricate ', 'Broad  expansive really quite affecting snapshot palette people around contemporary Los Angeles  devilishly linked death  loss companionship ', 'Altman s 94 classic  short cut real entertainment', 'Unfortunately Outshined By Magnolia  Its Unauthorized Doppelganger', 'Altman s truly great film', 'Good  quite great  Altman', 'Another great Altman movie', 'Altman s LA', 'I must missing something', 'despicable', 'Not amused']</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>['Taut suspenseful ... fine acting .', 'Guaranteed one quivering fear', 'As Nasty A Creature As Had Ever Been Shown', 'dark crime drama', "It 's All About Threat", 'A quality thriller .', 'Good drama made great excellent Mitchum', 'Gripping extraordinary thriller unforgettable Mitchum nasty psycho .', 'Still holds years .', 'The Pure Evil Robert Mitchum', 'Shocking Degeneracy', 'Stick With This One : The Original', 'Dark waters', "A man terrorizes lawyer 's family", 'The Nightmarish Mitchum One-Man Show !', "I got film ai n't never gon na forget .", 'Delivers Goods', 'Sound &amp; Fury Signifying Film-Noir Morphing Into Neo-Noir ... Extra-Ordinary Thriller', 'Great action-thriller', "Max Cady n't man makes idle threats .", 'The River', 'Excellent thriller', 'Menace 2 Society ...', 'The perfect amount spookiness', 'This classic tremendous cast , storyline dramatic circumstances']</t>
+          <t>['Taut suspenseful  fine acting ', 'Guaranteed one quivering fear', 'As Nasty A Creature As Had Ever Been Shown', 'dark crime drama', 'It s All About Threat', 'A quality thriller ', 'Good drama made great excellent Mitchum', 'Gripping extraordinary thriller unforgettable Mitchum nasty psycho ', 'Still holds years ', 'The Pure Evil Robert Mitchum', 'Shocking Degeneracy', 'Stick With This One  The Original', 'Dark waters', 'A man terrorizes lawyer s family', 'The Nightmarish Mitchum OneMan Show ', 'I got film ai nt never gon na forget ', 'Delivers Goods', 'Sound  Fury Signifying FilmNoir Morphing Into NeoNoir  ExtraOrdinary Thriller', 'Great actionthriller', 'Max Cady nt man makes idle threats ', 'The River', 'Excellent thriller', 'Menace 2 Society ', 'The perfect amount spookiness', 'This classic tremendous cast  storyline dramatic circumstances']</t>
         </is>
       </c>
     </row>
@@ -9105,7 +9105,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>['A lot like lot hate .', 'Very unique !', 'compelling new world', 'fascinating', 'Heavy , Man', 'A Much Different Cartoon', "one trippiest things 'll ever see , bar none , 's extraordinary simplicity", 'Bizarre Beautiful Wonder &amp; Singular Style ... Mezmerizing , Captivating &amp; Touching', 'Frustrating Planet', 'Not Fantastic', 'This movie fascinating unique', 'Outstanding , extraordinary , fabulous - essential , must-see classic !', 'Beautiful - masterpiece', 'Creative animation', 'Surrealist animated landmark', 'Stunningly imaginative', 'Aged Well', 'Not Sure About Fantastic But It Sure Is Trippy', 'Highly imaginative , obscure .', 'Blue Warmest Colour ...', 'Neat little sci-fi scenario', 'Trippy trip another world', 'Strange Beautiful Planet', 'Visually Stunning Interesting Commentary Explored', 'The movie Space Odyssey . A must see lovers bizarre animation .']</t>
+          <t>['A lot like lot hate ', 'Very unique ', 'compelling new world', 'fascinating', 'Heavy  Man', 'A Much Different Cartoon', 'one trippiest things ll ever see  bar none  s extraordinary simplicity', 'Bizarre Beautiful Wonder  Singular Style  Mezmerizing  Captivating  Touching', 'Frustrating Planet', 'Not Fantastic', 'This movie fascinating unique', 'Outstanding  extraordinary  fabulous  essential  mustsee classic ', 'Beautiful  masterpiece', 'Creative animation', 'Surrealist animated landmark', 'Stunningly imaginative', 'Aged Well', 'Not Sure About Fantastic But It Sure Is Trippy', 'Highly imaginative  obscure ', 'Blue Warmest Colour ', 'Neat little scifi scenario', 'Trippy trip another world', 'Strange Beautiful Planet', 'Visually Stunning Interesting Commentary Explored', 'The movie Space Odyssey  A must see lovers bizarre animation ']</t>
         </is>
       </c>
     </row>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>['compelling dream', 'Intriguing Fascinating Journey Paranoia', 'Stunning , complex sci-fi', 'Thrilling surprising story full suspense , plot twists , intrigue excitement', 'Having seen original , I desire see remake .', 'Open Your Eyes', "I Do n't Know Much About Spanish Film , But I Love This Example", 'The new brains fantasy film .', 'No Beatle , No Redhead', "I Wo n't Mention That Other Movie ...", "That smile 's going kill .", 'An eye opener .', 'So superior Vanilla Sky see believe', 'Excellent surreal nightmare', "There 's nothing vanilla .", 'Good .', 'Very Entertaining Film', 'Just plain cool', 'Powerful hokum', 'Classy , takes wrong turn', 'Mind-bending .', 'An excellent film dream , reality , illusion fantasy mix .', "Open Your Eyes For This One ... It 's Totally Worth It", 'A Slow , Somewhat Uneven But Above Average Mystery-Thriller', 'Open eyes']</t>
+          <t>['compelling dream', 'Intriguing Fascinating Journey Paranoia', 'Stunning  complex scifi', 'Thrilling surprising story full suspense  plot twists  intrigue excitement', 'Having seen original  I desire see remake ', 'Open Your Eyes', 'I Do nt Know Much About Spanish Film  But I Love This Example', 'The new brains fantasy film ', 'No Beatle  No Redhead', 'I Wo nt Mention That Other Movie ', 'That smile s going kill ', 'An eye opener ', 'So superior Vanilla Sky see believe', 'Excellent surreal nightmare', 'There s nothing vanilla ', 'Good ', 'Very Entertaining Film', 'Just plain cool', 'Powerful hokum', 'Classy  takes wrong turn', 'Mindbending ', 'An excellent film dream  reality  illusion fantasy mix ', 'Open Your Eyes For This One  It s Totally Worth It', 'A Slow  Somewhat Uneven But Above Average MysteryThriller', 'Open eyes']</t>
         </is>
       </c>
     </row>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>['About unpleasant film .', 'methodically brutal', 'Outrage', 'Gruesome', 'Superb drama - powerful , profound poignant', 'I Feel Almost Obligated Watch Films Like This', 'Not like baby , like old man', 'Child soldiers mad world', 'Film Review - Beasts No Nation ( 2015 ) 7.9/10', 'Well-Acted , Unevenly Written !', 'A hard film sit , well worth !', 'Powerful . Provocative . Compelling .', 'Very solid cinema', 'A confronting masterclass directing acting', 'Intermittently excellent hampered exhaustive running time', 'An excellent war movie !', "So 're saying n't support child-soldiers ?", 'Beastly part !', 'Abraham Attah delivers one best child performances years', "It 's unsettling beautiful film .", 'Brutily stunning', 'African Violence', '`` I want happy life . ``', 'To remembered one better war films decade .', 'Very powerful moving Netflix original']</t>
+          <t>['About unpleasant film ', 'methodically brutal', 'Outrage', 'Gruesome', 'Superb drama  powerful  profound poignant', 'I Feel Almost Obligated Watch Films Like This', 'Not like baby  like old man', 'Child soldiers mad world', 'Film Review  Beasts No Nation  2015  7910', 'WellActed  Unevenly Written ', 'A hard film sit  well worth ', 'Powerful  Provocative  Compelling ', 'Very solid cinema', 'A confronting masterclass directing acting', 'Intermittently excellent hampered exhaustive running time', 'An excellent war movie ', 'So re saying nt support childsoldiers ', 'Beastly part ', 'Abraham Attah delivers one best child performances years', 'It s unsettling beautiful film ', 'Brutily stunning', 'African Violence', ' I want happy life  ', 'To remembered one better war films decade ', 'Very powerful moving Netflix original']</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>['lot bang buck !', 'One all-time great sci-fi classics', 'Excellent adaptation', 'classic sci-fi', "One Genre 's Masterpieces", 'Suspense Frightening Best', 'Ignore prologue/epilogue enjoy classic allegorical sci-fi', 'Stunning frightening adaptation emerged cinema classic compellingly directed Donald Siegel', 'Kevin McCarthy spoofed role later movies .', 'One Greatest Sci-Fi Films 1950s', "You 're Not Yourself Today", 'Influential creep-out ...', 'shoestring budget , great results .', 'Science Fiction impact !', 'Well done classic', 'Gold Unlikely Place', 'Art Imitating Life A Masterpiece Mind Manipulation', 'Pods , Plots Plodders', 'I Thought The Remake Was Better', 'A Movie Sticks You', 'The simplicity horror `` makes `` film brilliant ...', 'A different type alien invasion movie', "`` Once You Understand , You 'll Be Grateful ! `` ...", 'Old horror classic', "`` I n't know real meaning fear I kissed Becky . ``"]</t>
+          <t>['lot bang buck ', 'One alltime great scifi classics', 'Excellent adaptation', 'classic scifi', 'One Genre s Masterpieces', 'Suspense Frightening Best', 'Ignore prologueepilogue enjoy classic allegorical scifi', 'Stunning frightening adaptation emerged cinema classic compellingly directed Donald Siegel', 'Kevin McCarthy spoofed role later movies ', 'One Greatest SciFi Films 1950s', 'You re Not Yourself Today', 'Influential creepout ', 'shoestring budget  great results ', 'Science Fiction impact ', 'Well done classic', 'Gold Unlikely Place', 'Art Imitating Life A Masterpiece Mind Manipulation', 'Pods  Plots Plodders', 'I Thought The Remake Was Better', 'A Movie Sticks You', 'The simplicity horror  makes  film brilliant ', 'A different type alien invasion movie', ' Once You Understand  You ll Be Grateful   ', 'Old horror classic', ' I nt know real meaning fear I kissed Becky  ']</t>
         </is>
       </c>
     </row>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>["Do n't accept things strangers", 'Feels manufactured like play', 'Non Stop Terror Dark', 'Classic Thriller', 'I problems aspects scenario delivered really well', 'Wonderful Audrey Hepburn blind woman movie intense sequences terror suspense', 'There one scene really make jump !', 'The Very Pinnacle Successful Suspense', "Does world 's champion blind lady ?", 'scary , unforgettable moments', 'Excellent', 'nature mounting fear', 'Blinded charisma Audrey Hepburn', 'Wait Until Dark fine suspense thriller Audrey Hepburn recently departed Alan Arkin', 'Gripping Audrey Hepburn Dark', 'A Real Nail-Biter', 'Very well constructed chiller thriller .', 'Too Slow For My Liking', 'Scary bit slow getting full gear ...', 'The musical score Henry Manci one chilling', 'Inner Light Vs. Darkness ...', 'It Shelley Winters', 'This brilliant movie definitely must see', 'A Thriller That Would Be Nothing Without Hepburn Arkin', 'rotten costumes given']</t>
+          <t>['Do nt accept things strangers', 'Feels manufactured like play', 'Non Stop Terror Dark', 'Classic Thriller', 'I problems aspects scenario delivered really well', 'Wonderful Audrey Hepburn blind woman movie intense sequences terror suspense', 'There one scene really make jump ', 'The Very Pinnacle Successful Suspense', 'Does world s champion blind lady ', 'scary  unforgettable moments', 'Excellent', 'nature mounting fear', 'Blinded charisma Audrey Hepburn', 'Wait Until Dark fine suspense thriller Audrey Hepburn recently departed Alan Arkin', 'Gripping Audrey Hepburn Dark', 'A Real NailBiter', 'Very well constructed chiller thriller ', 'Too Slow For My Liking', 'Scary bit slow getting full gear ', 'The musical score Henry Manci one chilling', 'Inner Light Vs Darkness ', 'It Shelley Winters', 'This brilliant movie definitely must see', 'A Thriller That Would Be Nothing Without Hepburn Arkin', 'rotten costumes given']</t>
         </is>
       </c>
     </row>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>["Interesting , well-acted good direction even total product n't engage much done", 'Happy Together', 'Hints Treasures Come', '( 500 ) Days Falls', "Among director 's best", 'happy together', 'A Highly Stylized Emotional Roller Coaster', 'WONDERFUL .', 'Masterful Camera-work Drives Elliptical Portrayal Co-Dependent Couple Stuck Buenos Aires', 'In Bong Wong stan', 'trendy thing', 'Turns lonely people .', 'Challenging Highly Rewarding', 'Messy boring', "Sculpting time ; Wong 's hypnotic rumination love dislocation", 'Khan Review', 'Very Good', 'Aesthetically Amazing , Lacking Character Development', 'work art -- next want gay James Bond', 'Now could happy together', 'Happy forever ( ? )', 'A study traumatic relationship', 'Strong Touching', 'Imagine ...', 'Beautifully Done']</t>
+          <t>['Interesting  wellacted good direction even total product nt engage much done', 'Happy Together', 'Hints Treasures Come', ' 500  Days Falls', 'Among director s best', 'happy together', 'A Highly Stylized Emotional Roller Coaster', 'WONDERFUL ', 'Masterful Camerawork Drives Elliptical Portrayal CoDependent Couple Stuck Buenos Aires', 'In Bong Wong stan', 'trendy thing', 'Turns lonely people ', 'Challenging Highly Rewarding', 'Messy boring', 'Sculpting time  Wong s hypnotic rumination love dislocation', 'Khan Review', 'Very Good', 'Aesthetically Amazing  Lacking Character Development', 'work art  next want gay James Bond', 'Now could happy together', 'Happy forever   ', 'A study traumatic relationship', 'Strong Touching', 'Imagine ', 'Beautifully Done']</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>['heck ? ! ? !', 'Stunning', 'The Roof Of World', 'technical superior', 'Good Film Despite Few Flaws', 'Mysticism , eroticsm faith', 'Forgive sisters - sinned', 'Original Bold Theme', 'A fascinating film desire', 'Gorgeous film superb cinematography makes splendid movie visual delight', 'San Tanco without Bertrille', 'Great Use Color', 'Hypnotic , somewhat hallucinatory epic survival starvation intimacy ...', 'melodrama crackles vitality decades', 'A Personal Rumination', 'Categorization ? ? ? ... Psychological-Horror-Erotica ... Visually Vibrant ... Lush Explosive Seductive Colors ... Stunning Costumes &amp; Sets ... Outstanding Cinematography', 'Empty melodrama', "Do think 's good thing let feel important ?", 'The palace mountain', 'A one kind', 'Brooding atmosphere ... gorgeous color photography ...', 'The Himalayas like', "The story n't thought", 'Do see crate ? Sausages ! They eat sausages . Europeans eat sausages wherever go .', 'A Hypnotic Dazzling Film']</t>
+          <t>['heck    ', 'Stunning', 'The Roof Of World', 'technical superior', 'Good Film Despite Few Flaws', 'Mysticism  eroticsm faith', 'Forgive sisters  sinned', 'Original Bold Theme', 'A fascinating film desire', 'Gorgeous film superb cinematography makes splendid movie visual delight', 'San Tanco without Bertrille', 'Great Use Color', 'Hypnotic  somewhat hallucinatory epic survival starvation intimacy ', 'melodrama crackles vitality decades', 'A Personal Rumination', 'Categorization     PsychologicalHorrorErotica  Visually Vibrant  Lush Explosive Seductive Colors  Stunning Costumes  Sets  Outstanding Cinematography', 'Empty melodrama', 'Do think s good thing let feel important ', 'The palace mountain', 'A one kind', 'Brooding atmosphere  gorgeous color photography ', 'The Himalayas like', 'The story nt thought', 'Do see crate  Sausages  They eat sausages  Europeans eat sausages wherever go ', 'A Hypnotic Dazzling Film']</t>
         </is>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>['Not quite comedy , quite drama .... well worth seeing .', 'viewer East', 'The End Dream Old Generation', 'Humorous ? Touching ? Both ?', 'lovely film', 'guten Tag Meisterwerk !', 'Lies I told mother !', 'My Fifth German Film', 'Odd scenario starts okay bogs nothing', 'Goodbye , Lenin , Hello , Oscar', 'Should Oscar .', 'Knock walls', 'The Berlin Wall went 1989 ... Christiane Kerner .', 'East meets West goes East !', 'A beautiful portrayal family politics', 'portrait', 'mildly diverting drama', 'Auf Wiedersehen , comrade . Hello Mamma !', 'Perceptive ambiguous', 'One best film fall communism', 'clever amusing comedy', 'A beautiful work cinema deserves continue seen appreciated today .', 'Walls Come Tumbling Up ...', 'Solid', 'Is tragic comedy , comic tragedy ?']</t>
+          <t>['Not quite comedy  quite drama  well worth seeing ', 'viewer East', 'The End Dream Old Generation', 'Humorous  Touching  Both ', 'lovely film', 'guten Tag Meisterwerk ', 'Lies I told mother ', 'My Fifth German Film', 'Odd scenario starts okay bogs nothing', 'Goodbye  Lenin  Hello  Oscar', 'Should Oscar ', 'Knock walls', 'The Berlin Wall went 1989  Christiane Kerner ', 'East meets West goes East ', 'A beautiful portrayal family politics', 'portrait', 'mildly diverting drama', 'Auf Wiedersehen  comrade  Hello Mamma ', 'Perceptive ambiguous', 'One best film fall communism', 'clever amusing comedy', 'A beautiful work cinema deserves continue seen appreciated today ', 'Walls Come Tumbling Up ', 'Solid', 'Is tragic comedy  comic tragedy ']</t>
         </is>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>['Roller coaster emotions', 'Touching nerves', 'Gripping , full emotions , Belgian gem', 'A powerful film also heartbreaker !', 'Bluegrass , That Is Country Music In Its Purest Form .', 'Brutally Heartbreaking', 'Effective', 'A moving drama great music boot', 'That Circle Is Universal . ♦ 73 %', 'Old contents , new awesome look', 'Memories Dwelt On', 'Good Music Sad Story', 'A sure bet receive Oscar nomination Best Foreign Film', 'Brilliant filmmaking hysterical tone', 'A mixed bag quite good overall', 'To hold ...', 'A powerhouse film', 'Masterpiece', "Voyaging Love 's Danger Zones", 'Tragic story told superbly musical beauty', 'My rating : 8', 'bluegrass heartbreak across sea', 'True worthy Oscar nomination', 'Spiritualism important face adversity', 'Warning !']</t>
+          <t>['Roller coaster emotions', 'Touching nerves', 'Gripping  full emotions  Belgian gem', 'A powerful film also heartbreaker ', 'Bluegrass  That Is Country Music In Its Purest Form ', 'Brutally Heartbreaking', 'Effective', 'A moving drama great music boot', 'That Circle Is Universal   73 ', 'Old contents  new awesome look', 'Memories Dwelt On', 'Good Music Sad Story', 'A sure bet receive Oscar nomination Best Foreign Film', 'Brilliant filmmaking hysterical tone', 'A mixed bag quite good overall', 'To hold ', 'A powerhouse film', 'Masterpiece', 'Voyaging Love s Danger Zones', 'Tragic story told superbly musical beauty', 'My rating  8', 'bluegrass heartbreak across sea', 'True worthy Oscar nomination', 'Spiritualism important face adversity', 'Warning ']</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>['One best action movies Hong Kong anywhere else', 'John Woo bombastic masterpiece', 'Great Action movie', 'Classic Hong Kong action film', 'One best over-the-top action movies Hong Kong ...', "'HARD-BOILED ' provides fast furious set pieces unstopped action", 'John Woo turns eleven .', 'Guns , grenades , blood bullets !', 'Hong Kong Action', 'action , guns , bullets , flying , tracking shots , guns , toothpicks , Chow Yun Fat , I mention guns ?', "`` Give guy gun , thinks 's Superman . Give two thinks 's God . ``", 'One-dimensional', 'The last best Woo film ever done Hollywood wrecked', 'There room failure . The innocent must die !', 'pure action', 'Gun fu !', 'Godly Action Sequences , So-So Script', "Reloads ? Where 're going , n't need ... reloads .", 'A stylish action film', 'Cinema Omnivore - Hard Boiled ( 1992 ) 7.2/10', 'Truly mind-blowing action flick .', 'Well made bullet-based Hong Kong action', 'Surprisingly dull', 'Plot flaws galore .', 'A tad overrated , action film works quite well']</t>
+          <t>['One best action movies Hong Kong anywhere else', 'John Woo bombastic masterpiece', 'Great Action movie', 'Classic Hong Kong action film', 'One best overthetop action movies Hong Kong ', 'HARDBOILED  provides fast furious set pieces unstopped action', 'John Woo turns eleven ', 'Guns  grenades  blood bullets ', 'Hong Kong Action', 'action  guns  bullets  flying  tracking shots  guns  toothpicks  Chow Yun Fat  I mention guns ', ' Give guy gun  thinks s Superman  Give two thinks s God  ', 'Onedimensional', 'The last best Woo film ever done Hollywood wrecked', 'There room failure  The innocent must die ', 'pure action', 'Gun fu ', 'Godly Action Sequences  SoSo Script', 'Reloads  Where re going  nt need  reloads ', 'A stylish action film', 'Cinema Omnivore  Hard Boiled  1992  7210', 'Truly mindblowing action flick ', 'Well made bulletbased Hong Kong action', 'Surprisingly dull', 'Plot flaws galore ', 'A tad overrated  action film works quite well']</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>['Brilliant ahead time', '`` Do It First , Do It Yourself , And Keep On Doing It ``', "Violent 30 's gangster movie", 'Evil Nth Degree', 'The World Yours', 'Powerhouse performance', 'The Original Gangster Film', 'A masterpiece gangster genre movie .', 'Unusual HH', 'Ahead Of Its Time , Action-Wise', 'world !', 'Preferred far remake ; Hawks , Hecht , Muni first-rate', 'The World Is Yours', '`` Do first , , keep . ``', 'The rise fall power hungry mobster .', 'Over The Top', 'One first talking gangster films cinematic landmark', "`` Kinda Gaudy n't ? Ai n't though , glad like . ``", 'Say Hello To A Masterpiece', 'An `` Indictment Gang Rule America ``', 'When gangster film born ... still stunning ...', 'Classic gangster film', "`` Get way , Johnny . I 'm gon na spit ! ``", 'Paul Muni Boris Karloff', 'Accent Man Paul Muni Goes Italian']</t>
+          <t>['Brilliant ahead time', ' Do It First  Do It Yourself  And Keep On Doing It ', 'Violent 30 s gangster movie', 'Evil Nth Degree', 'The World Yours', 'Powerhouse performance', 'The Original Gangster Film', 'A masterpiece gangster genre movie ', 'Unusual HH', 'Ahead Of Its Time  ActionWise', 'world ', 'Preferred far remake  Hawks  Hecht  Muni firstrate', 'The World Is Yours', ' Do first   keep  ', 'The rise fall power hungry mobster ', 'Over The Top', 'One first talking gangster films cinematic landmark', ' Kinda Gaudy nt  Ai nt though  glad like  ', 'Say Hello To A Masterpiece', 'An  Indictment Gang Rule America ', 'When gangster film born  still stunning ', 'Classic gangster film', ' Get way  Johnny  I m gon na spit  ', 'Paul Muni Boris Karloff', 'Accent Man Paul Muni Goes Italian']</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>['While tad slow occasions , Zulu otherwise superb', 'With Alamo Like Odds', 'old fashion war movie', 'impressive', 'Once warriors', 'Stand ground', "It depicts electrifying battle Roarke'Drift little hundred soldiers made valiant stand thousands Zulu warriors .", "Rorke 's Drift ... I know .", 'How Pick Sides ?', 'One best adventure movies times', 'Dynamic movie based British history .', 'Superb war drama', 'Men Harlech onto glory .', 'Awesome tribute human courage sacrifice great odds ...', 'Army', 'Michael Caine looks dreamy', 'good tale actual battle', 'Fantastic spectacular movie !', 'After defeat .... British Army gets victory ! !', '1000+ Zulus Vs. 140 British .', 'Excellent film book', 'Great show .', 'Glory Technicolor', 'Zulu - One Finest War Films Ever Made', 'A Statue Film ...']</t>
+          <t>['While tad slow occasions  Zulu otherwise superb', 'With Alamo Like Odds', 'old fashion war movie', 'impressive', 'Once warriors', 'Stand ground', 'It depicts electrifying battle RoarkeDrift little hundred soldiers made valiant stand thousands Zulu warriors ', 'Rorke s Drift  I know ', 'How Pick Sides ', 'One best adventure movies times', 'Dynamic movie based British history ', 'Superb war drama', 'Men Harlech onto glory ', 'Awesome tribute human courage sacrifice great odds ', 'Army', 'Michael Caine looks dreamy', 'good tale actual battle', 'Fantastic spectacular movie ', 'After defeat  British Army gets victory  ', '1000 Zulus Vs 140 British ', 'Excellent film book', 'Great show ', 'Glory Technicolor', 'Zulu  One Finest War Films Ever Made', 'A Statue Film ']</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>['Secrets - small big', 'revealing reliever', 'friendship games', 'Everything change ...', 'Our phones keep secrets', 'Is cell phone safe make transparency ?', 'LOVE THIS .', 'Entertaining smart little movie', 'Interesting concept poor execution .', 'A Bit Over-the-Top Times Still Triump', 'Indoor theatre', 'Creative setting expression , interesting motif .. overall uninteresting movie', 'Underrated', 'Great Topic , Great Acting Great Movie', 'An entertaining voyeuristic peek black-box secrets , iPhone .', '9/10', 'Old-school Italian humor', 'The Undergrowths Married Life', 'Perfetti Sconosciuti showed dare I never dare participate.A brilliant thought could lot better .', 'Do REALLY know ?', 'Stands head shoulders Hollywood counterparts', 'Deep thinking', 'Funny games', 'Interesting wrong happy ending', '8/10']</t>
+          <t>['Secrets  small big', 'revealing reliever', 'friendship games', 'Everything change ', 'Our phones keep secrets', 'Is cell phone safe make transparency ', 'LOVE THIS ', 'Entertaining smart little movie', 'Interesting concept poor execution ', 'A Bit OvertheTop Times Still Triump', 'Indoor theatre', 'Creative setting expression  interesting motif  overall uninteresting movie', 'Underrated', 'Great Topic  Great Acting Great Movie', 'An entertaining voyeuristic peek blackbox secrets  iPhone ', '910', 'Oldschool Italian humor', 'The Undergrowths Married Life', 'Perfetti Sconosciuti showed dare I never dare participateA brilliant thought could lot better ', 'Do REALLY know ', 'Stands head shoulders Hollywood counterparts', 'Deep thinking', 'Funny games', 'Interesting wrong happy ending', '810']</t>
         </is>
       </c>
     </row>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>['dream-like experiment', 'Original , But Overrated , Pretentious Extremely Boring', 'Visually content-wise interesting totally successful smart insightful wanted', 'happened Texas ...', 'I guess mood ...', "'s fractured little 'all-over-the-place ' , 's alive gets sparks head going ways movies", 'Pretentious swill', 'Waycool headtrip dude !', 'May ( ) day considered cinematic milestone', 'Beautiful art , real point', 'smart , pretty , oh boring', 'Arrgh ! This CARTOON ! ! !', 'Pretentious twaddle', 'Pretty interesting', 'Pretentious failed experiment', "It either complete waste time enlightening spiritual journey - n't tell like visuals .", 'A pretentious bore', 'Top notch around', 'Better awake one !', 'Talking Heads Made Visually Interesting', 'Linklater hits', 'dreams within dreams within dreams ...', 'Endlessly innovative engrossing treatise dreams reality', "Slacker II , Kant 's Dialectics Rotoscope", 'PRETENTIOUS ? MOI']</t>
+          <t>['dreamlike experiment', 'Original  But Overrated  Pretentious Extremely Boring', 'Visually contentwise interesting totally successful smart insightful wanted', 'happened Texas ', 'I guess mood ', 's fractured little allovertheplace   s alive gets sparks head going ways movies', 'Pretentious swill', 'Waycool headtrip dude ', 'May   day considered cinematic milestone', 'Beautiful art  real point', 'smart  pretty  oh boring', 'Arrgh  This CARTOON   ', 'Pretentious twaddle', 'Pretty interesting', 'Pretentious failed experiment', 'It either complete waste time enlightening spiritual journey  nt tell like visuals ', 'A pretentious bore', 'Top notch around', 'Better awake one ', 'Talking Heads Made Visually Interesting', 'Linklater hits', 'dreams within dreams within dreams ', 'Endlessly innovative engrossing treatise dreams reality', 'Slacker II  Kant s Dialectics Rotoscope', 'PRETENTIOUS  MOI']</t>
         </is>
       </c>
     </row>
@@ -9721,7 +9721,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>["I n't even like Cherries", 'An acquired taste , well executed', 'Great simplicity .', 'Magnificent', 'Film Review - Taste Cherry ( 1997 ) 8.1/10', 'A Nutshell Review : Taste Cherry', 'As long pick passengers , road lead dead end ...', "Could n't connect !", 'In ways bad , ways really good', 'Abbas Kiarostami Eric Rohmer : humanist perspective great director .', 'So underwhelming .', 'Transcending', 'Too minimalist qualify full-length film .', '`` Cherry `` Blossoms', 'Sublime !', 'Where contemplate suicide totally different perspective', 'A Clever Euthanasia Perspective', 'Taste Boredom', "I 'm minority ...", 'A movie mother love', '`` Slow good start gradually became boring . ``', 'The metaphysicality fruits', "This work Iranian Second Wave enjoyable enough , great Palme d'Or might lead expect", 'You understand pain , feel pain', 'My 400th movie , first Abbas Kiarostami movie , new perspective film']</t>
+          <t>['I nt even like Cherries', 'An acquired taste  well executed', 'Great simplicity ', 'Magnificent', 'Film Review  Taste Cherry  1997  8110', 'A Nutshell Review  Taste Cherry', 'As long pick passengers  road lead dead end ', 'Could nt connect ', 'In ways bad  ways really good', 'Abbas Kiarostami Eric Rohmer  humanist perspective great director ', 'So underwhelming ', 'Transcending', 'Too minimalist qualify fulllength film ', ' Cherry  Blossoms', 'Sublime ', 'Where contemplate suicide totally different perspective', 'A Clever Euthanasia Perspective', 'Taste Boredom', 'I m minority ', 'A movie mother love', ' Slow good start gradually became boring  ', 'The metaphysicality fruits', 'This work Iranian Second Wave enjoyable enough  great Palme dOr might lead expect', 'You understand pain  feel pain', 'My 400th movie  first Abbas Kiarostami movie  new perspective film']</t>
         </is>
       </c>
     </row>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>['essential', 'strange', "A children 's story profound philosophy", 'Good adaptation classic story', 'Single mother syndrome .', 'Interesting approach classic story', 'Brilliant !', 'Compelling magical transformative hypnotic magical best animation ever', 'Not bad interpretation classic', 'Good , perfect', 'Wonderful', 'Good', 'Interesting way adapt book', 'Growing problem . Forgetting .', 'Full heart , story', 'Looking towards really matters', "With hints humor adventure , whole essence The Little Prince 's original story messages impossible cry end", 'LIGHT-HEARTED .', 'Gorgeous adaptation', 'Make sure know movie - - go see', 'A solid kids film bit imagination', 'Very good way', "A children 's movie 's hits home kids parents alike", 'Little Boy Lost', 'Enjoyable']</t>
+          <t>['essential', 'strange', 'A children s story profound philosophy', 'Good adaptation classic story', 'Single mother syndrome ', 'Interesting approach classic story', 'Brilliant ', 'Compelling magical transformative hypnotic magical best animation ever', 'Not bad interpretation classic', 'Good  perfect', 'Wonderful', 'Good', 'Interesting way adapt book', 'Growing problem  Forgetting ', 'Full heart  story', 'Looking towards really matters', 'With hints humor adventure  whole essence The Little Prince s original story messages impossible cry end', 'LIGHTHEARTED ', 'Gorgeous adaptation', 'Make sure know movie   go see', 'A solid kids film bit imagination', 'Very good way', 'A children s movie s hits home kids parents alike', 'Little Boy Lost', 'Enjoyable']</t>
         </is>
       </c>
     </row>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>["One Hitchcock 's best", 'Sublime early Hitchcock film , could well best British-period films', 'A great film ... wheels start turning', 'Finding Friends Allies Train', 'Early Hitchcock classic funny thrilling', 'Classic Hitch', 'Quite Quirky Marvelous', 'like onion', 'Another Old Friend', 'Find lady', 'Strangers train', 'A briskly enjoyable Hitchcock', 'Magnificent Hitchcock film sure visual flair thrilling set pieces', 'Hitch shows things would later films', 'Dangers train .', "One Hitchcock 's Overlooked Gems", 'A merry-go-round Hitchcock mystery , bordering brilliantly yarn', 'The Master Demonstrates .', 'Blood Tracks', "`` I mean , , people n't go tying nuns . ``", 'A Suggested Subtext', "Hitchcock 's myster/thriller lark ...", 'British Capital `` B `` Slightly Overrated Hitchcock', 'Good Hitchcock thriller', 'Chugging Along']</t>
+          <t>['One Hitchcock s best', 'Sublime early Hitchcock film  could well best Britishperiod films', 'A great film  wheels start turning', 'Finding Friends Allies Train', 'Early Hitchcock classic funny thrilling', 'Classic Hitch', 'Quite Quirky Marvelous', 'like onion', 'Another Old Friend', 'Find lady', 'Strangers train', 'A briskly enjoyable Hitchcock', 'Magnificent Hitchcock film sure visual flair thrilling set pieces', 'Hitch shows things would later films', 'Dangers train ', 'One Hitchcock s Overlooked Gems', 'A merrygoround Hitchcock mystery  bordering brilliantly yarn', 'The Master Demonstrates ', 'Blood Tracks', ' I mean   people nt go tying nuns  ', 'A Suggested Subtext', 'Hitchcock s mysterthriller lark ', 'British Capital  B  Slightly Overrated Hitchcock', 'Good Hitchcock thriller', 'Chugging Along']</t>
         </is>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>['okay movie', 'The mesmerising lives Weronika Veronique', 'fine art-house film sadness', 'bitter poetry', 'Brooding film two physically identical girls mysteriously linked numerous aspects', 'The Double Life Veronique', 'Clever Concept', 'times confounding experience , one I hope revisit , Irene Jacob direction', 'Interesting engaging', 'Split Alice', 'What else want know ?', 'I suppose title alerted doppelgänger aspect somehow I suspecting something substantial .', 'Beautiful visuals', 'porcelain', 'great puppeteer', 'A pessimistic film , somewhat negative sad , ( maybe ) two versions person .', 'Weronika Véronique', 'Slow sometimes self-conscious , still remarkable gorgeous &amp; moving', 'Ethereal Irene Jacob', 'Elusive impenetrable poetry', 'veroniqueX2', 'Not one beginners .', 'double life verinique', 'Finding New Life , New Love , After Loss', 'Symbolizing identity crisis Kieslowksi ?']</t>
+          <t>['okay movie', 'The mesmerising lives Weronika Veronique', 'fine arthouse film sadness', 'bitter poetry', 'Brooding film two physically identical girls mysteriously linked numerous aspects', 'The Double Life Veronique', 'Clever Concept', 'times confounding experience  one I hope revisit  Irene Jacob direction', 'Interesting engaging', 'Split Alice', 'What else want know ', 'I suppose title alerted doppelgnger aspect somehow I suspecting something substantial ', 'Beautiful visuals', 'porcelain', 'great puppeteer', 'A pessimistic film  somewhat negative sad   maybe  two versions person ', 'Weronika Vronique', 'Slow sometimes selfconscious  still remarkable gorgeous  moving', 'Ethereal Irene Jacob', 'Elusive impenetrable poetry', 'veroniqueX2', 'Not one beginners ', 'double life verinique', 'Finding New Life  New Love  After Loss', 'Symbolizing identity crisis Kieslowksi ']</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>['A terrific film', 'Brilliant first-world war adventure', "Love Is n't Just For Young", 'Incredible production', 'Great', 'When Stars Come Out', 'great', 'The African Queen', 'Not classic often called still solidly entertaining', 'A dissolute , hard-drinking seamer captain stiff , prim spinster join forces sink German gunboat', 'queen movie', 'A Bit Hokey , But Not Bad Film', 'Two-Person Adventure Story That Entertains', 'Slow-starting , scrappy adventure made worthy two superb performances ...', 'par best Bogart &amp; /or Huston ; Hepburn gets wildly overpraised', "Humphrey Bogart Katharine Hepburn great John Huston 's The African Queen", 'Going On Location Africa Unnecessary', 'Not classic made', 'Leeches', 'Giants silver screen delivering one giant movie .', 'Unpopular Opinion', 'Bogie Hepburn ride rapids ...', 'Boat', 'A Riverboat Captain Missionary War Germans', 'One best romances ever !']</t>
+          <t>['A terrific film', 'Brilliant firstworld war adventure', 'Love Is nt Just For Young', 'Incredible production', 'Great', 'When Stars Come Out', 'great', 'The African Queen', 'Not classic often called still solidly entertaining', 'A dissolute  harddrinking seamer captain stiff  prim spinster join forces sink German gunboat', 'queen movie', 'A Bit Hokey  But Not Bad Film', 'TwoPerson Adventure Story That Entertains', 'Slowstarting  scrappy adventure made worthy two superb performances ', 'par best Bogart  or Huston  Hepburn gets wildly overpraised', 'Humphrey Bogart Katharine Hepburn great John Huston s The African Queen', 'Going On Location Africa Unnecessary', 'Not classic made', 'Leeches', 'Giants silver screen delivering one giant movie ', 'Unpopular Opinion', 'Bogie Hepburn ride rapids ', 'Boat', 'A Riverboat Captain Missionary War Germans', 'One best romances ever ']</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>['odd little film indeed !', 'Disappointing , bad film', 'Looks great', 'intriguing visual concepts', 'Dreams Warnings', 'Too personal really enjoyable', "One Finest Kurosawa 's Films", "one best 'sensai 's ' films , many moments really magnificent", 'Riveting entertainment , although tastes .', 'Expect film plot images', "Entirely Underrated . The Best Kurosawa Film I 've Ever Seen", 'Touching beautiful , also preachy slow', 'Anatomy dreams', 'Slow beautiful vanity project great director', 'Visually stunning heavy handed', 'Personal statement', 'Kurosawa deep inside', "A Solace For One 's Sensory Sanity", 'Beautifully made sometimes little preachy', 'minor effort aging master', 'Magical meaningful dream sequences ...', 'One best spins evolution man since 2001 : A Space Odyssey', "If 're dreams , must watch .", 'Come dreams', 'My Number 2000 Film .']</t>
+          <t>['odd little film indeed ', 'Disappointing  bad film', 'Looks great', 'intriguing visual concepts', 'Dreams Warnings', 'Too personal really enjoyable', 'One Finest Kurosawa s Films', 'one best sensai s  films  many moments really magnificent', 'Riveting entertainment  although tastes ', 'Expect film plot images', 'Entirely Underrated  The Best Kurosawa Film I ve Ever Seen', 'Touching beautiful  also preachy slow', 'Anatomy dreams', 'Slow beautiful vanity project great director', 'Visually stunning heavy handed', 'Personal statement', 'Kurosawa deep inside', 'A Solace For One s Sensory Sanity', 'Beautifully made sometimes little preachy', 'minor effort aging master', 'Magical meaningful dream sequences ', 'One best spins evolution man since 2001  A Space Odyssey', 'If re dreams  must watch ', 'Come dreams', 'My Number 2000 Film ']</t>
         </is>
       </c>
     </row>
@@ -9985,7 +9985,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>['Not 100 % historically accurate marvelous achievement nevertheless', 'Splendid film , brilliant Scofield', 'great acting solid production', 'masterpiece', 'A man conscience', 'Stand believe', 'Lush costumer well set , magnificently performed convincing directed', "John Hurt 's character looks like Ringo Starr", 'Historical Drama', 'The phenomenal Paul Scofield', 'strong performances course lead way script ... Crumpety', 'A noble sentiment , lavishly produced ponderously told', 'The agony moral high ground .', 'Brilliant cast , director , script ... memorable Paul Scofield ...', 'Cast different lead actor please !', 'Perhaps Best Costume Drama Ever Made', 'A Story For All Times .', "More 's pity", 'impressive', 'Classic Film 1966', 'More educational entertaining', 'An Inspirational Lesson Courage Integrity ...', "A Good Study Of A Man 's Convctions", 'Excellent Drama', 'Henry VIII v. man Utopia']</t>
+          <t>['Not 100  historically accurate marvelous achievement nevertheless', 'Splendid film  brilliant Scofield', 'great acting solid production', 'masterpiece', 'A man conscience', 'Stand believe', 'Lush costumer well set  magnificently performed convincing directed', 'John Hurt s character looks like Ringo Starr', 'Historical Drama', 'The phenomenal Paul Scofield', 'strong performances course lead way script  Crumpety', 'A noble sentiment  lavishly produced ponderously told', 'The agony moral high ground ', 'Brilliant cast  director  script  memorable Paul Scofield ', 'Cast different lead actor please ', 'Perhaps Best Costume Drama Ever Made', 'A Story For All Times ', 'More s pity', 'impressive', 'Classic Film 1966', 'More educational entertaining', 'An Inspirational Lesson Courage Integrity ', 'A Good Study Of A Man s Convctions', 'Excellent Drama', 'Henry VIII v man Utopia']</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>['fascinating character', 'Unconventional , Weird , Bizarre Funny – A Great Homage Glitter Rock', 'What ?', 'Two sets arms ... two sets legs', 'Very strange GREAT !', 'Luther silent moment , stares little bishop turtleneck .', 'The Fabulous , Mesmerizing Hedwig', 'I could never hope praise enough : 10/10', 'The curtain call bit vague message , otherwise , sterling music pic unique diva', 'brilliant', 'Broken lives dreams', "A uniquely told rock musical n't hold back n't forgive", 'Awful songs drag mediocre musical .', 'Love You Stephen Trask', 'Movie You Have To Watch In A Trans State !', 'Brilliant toe-tapping stuff', 'Takes Time Finding Real Person Under Wigs', 'Love', 'Glam Slammed', 'greatest modern musicals', 'A rock musical transsexual', 'The Origin Love', 'Needs story structure taste', 'You Just Want Tell Her Chill', 'Interesting entertaining , bummer ending']</t>
+          <t>['fascinating character', 'Unconventional  Weird  Bizarre Funny  A Great Homage Glitter Rock', 'What ', 'Two sets arms  two sets legs', 'Very strange GREAT ', 'Luther silent moment  stares little bishop turtleneck ', 'The Fabulous  Mesmerizing Hedwig', 'I could never hope praise enough  1010', 'The curtain call bit vague message  otherwise  sterling music pic unique diva', 'brilliant', 'Broken lives dreams', 'A uniquely told rock musical nt hold back nt forgive', 'Awful songs drag mediocre musical ', 'Love You Stephen Trask', 'Movie You Have To Watch In A Trans State ', 'Brilliant toetapping stuff', 'Takes Time Finding Real Person Under Wigs', 'Love', 'Glam Slammed', 'greatest modern musicals', 'A rock musical transsexual', 'The Origin Love', 'Needs story structure taste', 'You Just Want Tell Her Chill', 'Interesting entertaining  bummer ending']</t>
         </is>
       </c>
     </row>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>['What classic', 'One favourite films John Huston', 'Good dark threatening mood', 'Great', 'I Really Like This Movie', 'great', 'The desperate hours', 'Absorbing worthy Film Noir over-the-top acting , evocative settings , unsettling score atmospheric photography', 'clever plot `` key ``', 'An Improvement Over `` To Have Have Not ``', 'If You Like Plays , This Is The Bogey-Bacall Film For You', 'Bogie &amp; Bacall vs. tropical storm ...', 'Bogart Edward G . face Florida hotel', "kind `` old-school `` thriller could thrill today 's moviegoers much back", 'Powerful like tropical hurricane !', 'Catch Key Largo * * * *', 'On Outskirts America', "`` One Rocco less n't worth dying . ``", 'Tension Tight Place', 'Three years war , movies still fighting fascists ...', 'Blown Away', 'Intense classic showcasing many wonderful artists .', 'The genius John Huston display !', 'Good drama', 'A stagey setting florid melodrama John Huston ...']</t>
+          <t>['What classic', 'One favourite films John Huston', 'Good dark threatening mood', 'Great', 'I Really Like This Movie', 'great', 'The desperate hours', 'Absorbing worthy Film Noir overthetop acting  evocative settings  unsettling score atmospheric photography', 'clever plot  key ', 'An Improvement Over  To Have Have Not ', 'If You Like Plays  This Is The BogeyBacall Film For You', 'Bogie  Bacall vs tropical storm ', 'Bogart Edward G  face Florida hotel', 'kind  oldschool  thriller could thrill today s moviegoers much back', 'Powerful like tropical hurricane ', 'Catch Key Largo    ', 'On Outskirts America', ' One Rocco less nt worth dying  ', 'Tension Tight Place', 'Three years war  movies still fighting fascists ', 'Blown Away', 'Intense classic showcasing many wonderful artists ', 'The genius John Huston display ', 'Good drama', 'A stagey setting florid melodrama John Huston ']</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>["Wow ... 's kick head !", 'naturalistic look twisty drama', 'Intense Engaging Family Drama', 'marriage unpleasant convenience', 'Gripping emotional roller-coaster', 'Do I live side world get help ?', 'Decent But Sudsy', 'Finding Self', 'honest', 'Soap art', 'Great Story With Great Acting', 'remarkable achievement', 'Denmark India worlds apart', 'A sensitive film shows need compassion', 'A great film', 'Painful , strong - ugly', 'Surprising Revelations Drive Powerfully Acted Contemporary Danish Melodrama', 'A try hard drama .', 'Oh , humanity !', 'Beautiful family drama layers like onion', 'Enormously affecting ; deeply human', 'Silly plot , superb performances', 'An absolute gut punch film', 'Predictable Slop', 'Very disappointing']</t>
+          <t>['Wow  s kick head ', 'naturalistic look twisty drama', 'Intense Engaging Family Drama', 'marriage unpleasant convenience', 'Gripping emotional rollercoaster', 'Do I live side world get help ', 'Decent But Sudsy', 'Finding Self', 'honest', 'Soap art', 'Great Story With Great Acting', 'remarkable achievement', 'Denmark India worlds apart', 'A sensitive film shows need compassion', 'A great film', 'Painful  strong  ugly', 'Surprising Revelations Drive Powerfully Acted Contemporary Danish Melodrama', 'A try hard drama ', 'Oh  humanity ', 'Beautiful family drama layers like onion', 'Enormously affecting  deeply human', 'Silly plot  superb performances', 'An absolute gut punch film', 'Predictable Slop', 'Very disappointing']</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>['magnificent film real people', 'And What Are You Doing Tonight ?', 'wonderful', 'One All-Time Great Love Stories', 'Portrait Loving Man', 'Simple , Beautiful Touching Love Story With Magnificent Performance Cast Sensitive Direction', "transports back Italian-American world '50s", 'The Greatest Love Story About Two Dogs', 'A Puzzling Film', 'Marty', 'Borgnine Blair make worthwhile', 'What tonight Marty ?', "A Dog 's Life", "Worth Closer Look 50 's Context", 'Every Dog Has His/Her Day', 'Sweet , feel-good movie', "But 's Italian ! .", 'THIS four Oscars ? ? ? ?', 'Low-budget movie huge success time ...', 'An Enjoyable Movie', 'Grow Old Marty', 'One cutest love stories .', "'real ' people", 'Clara Too .', 'Quiet sweet']</t>
+          <t>['magnificent film real people', 'And What Are You Doing Tonight ', 'wonderful', 'One AllTime Great Love Stories', 'Portrait Loving Man', 'Simple  Beautiful Touching Love Story With Magnificent Performance Cast Sensitive Direction', 'transports back ItalianAmerican world 50s', 'The Greatest Love Story About Two Dogs', 'A Puzzling Film', 'Marty', 'Borgnine Blair make worthwhile', 'What tonight Marty ', 'A Dog s Life', 'Worth Closer Look 50 s Context', 'Every Dog Has HisHer Day', 'Sweet  feelgood movie', 'But s Italian  ', 'THIS four Oscars    ', 'Lowbudget movie huge success time ', 'An Enjoyable Movie', 'Grow Old Marty', 'One cutest love stories ', 'real  people', 'Clara Too ', 'Quiet sweet']</t>
         </is>
       </c>
     </row>
@@ -10205,7 +10205,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>['little bit funny mostly meandering repetitiveness', 'A Movie That Deserved Many Nominations Oscar', 'Beautifully filmed , consistently funny involving little simplistic politically', 'Hasta la victoria siempre ...', 'A powerful journey', 'In Ditch', 'Easy riders , two road .', 'A Great `` Buddy `` film', 'Hero Worship , But Well Done', 'REVALATORY A REVOLUCIONARY', 'Entertaining South American travelogue shows Che became radical revolutionary', 'Classic Spanish Cinema !', 'Humanism , Awareness , Coming Age : The Soul Revolution', 'Not brilliant , nice film nonetheless', 'Become spiritual companion ride lifetime .', 'really surprise', 'On road ...', 'Beautifully told buddy/road-trip/coming-of-age biopic', 'A subtle portrait birth idealist', 'film Che Guevara ?', 'uneven often fascinating film', 'Motorcycle Diaries - Humanizing , Not Demonizing', 'A tour best Latin America , surprisingly little politicized film .', 'Vive la revolutione !', 'Che brought life']</t>
+          <t>['little bit funny mostly meandering repetitiveness', 'A Movie That Deserved Many Nominations Oscar', 'Beautifully filmed  consistently funny involving little simplistic politically', 'Hasta la victoria siempre ', 'A powerful journey', 'In Ditch', 'Easy riders  two road ', 'A Great  Buddy  film', 'Hero Worship  But Well Done', 'REVALATORY A REVOLUCIONARY', 'Entertaining South American travelogue shows Che became radical revolutionary', 'Classic Spanish Cinema ', 'Humanism  Awareness  Coming Age  The Soul Revolution', 'Not brilliant  nice film nonetheless', 'Become spiritual companion ride lifetime ', 'really surprise', 'On road ', 'Beautifully told buddyroadtripcomingofage biopic', 'A subtle portrait birth idealist', 'film Che Guevara ', 'uneven often fascinating film', 'Motorcycle Diaries  Humanizing  Not Demonizing', 'A tour best Latin America  surprisingly little politicized film ', 'Vive la revolutione ', 'Che brought life']</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>['powerful indictment', 'A Sadistic Manipulative Story', 'The wardens dressed nuns , inmates children .', 'One better films year ; Bergman goes Ireland , could say ...', 'Dark habits', 'Agonizing portrait terrorism Irish convent `` prison `` ...', 'Depicting important time Irish history', 'Fact-based HORROR !', "Intolerable Cruelty - One year 's best films", 'clammy , unadorned survival drama gripping nay-sayer God-awful religious abuse', "I rank writer/director Peter Mullan 's ` Magdalene Sisters ' violent film 2003 .", "Where ' Pope need .", 'gripping docudrama', "Under The Sisters ' Guidance", "You 're man God", '........ to-be-Sharia-Law , to-be-Sharia-Law .', 'The , kind terrorism .', 'The evil hypocrisy Catholic Church', '`` How religious people espouse mercy , little ? ``', 'Rot Hell Now - Find Sins Later', 'A Sordid Irish Past Vividly Recreated', "I 'd commit sin , mortal otherwise , get hell .", 'Makes want punch nun ...', 'Brutal look shameful part Irish history', 'Stunning portrayal shameful period Irish history']</t>
+          <t>['powerful indictment', 'A Sadistic Manipulative Story', 'The wardens dressed nuns  inmates children ', 'One better films year  Bergman goes Ireland  could say ', 'Dark habits', 'Agonizing portrait terrorism Irish convent  prison  ', 'Depicting important time Irish history', 'Factbased HORROR ', 'Intolerable Cruelty  One year s best films', 'clammy  unadorned survival drama gripping naysayer Godawful religious abuse', 'I rank writerdirector Peter Mullan s  Magdalene Sisters  violent film 2003 ', 'Where  Pope need ', 'gripping docudrama', 'Under The Sisters  Guidance', 'You re man God', ' tobeShariaLaw  tobeShariaLaw ', 'The  kind terrorism ', 'The evil hypocrisy Catholic Church', ' How religious people espouse mercy  little  ', 'Rot Hell Now  Find Sins Later', 'A Sordid Irish Past Vividly Recreated', 'I d commit sin  mortal otherwise  get hell ', 'Makes want punch nun ', 'Brutal look shameful part Irish history', 'Stunning portrayal shameful period Irish history']</t>
         </is>
       </c>
     </row>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>['What mean ? And , mean anything ? !', "It 's apples", "A Nutshell Review : Adam 's Apples", 'really good', 'apple Paradise', 'A good one', 'What odd creation ...', 'Superficially clever , polished', 'Wonderful story tough ex-prisoner ...', 'Embarrassing .', "You want dark comedy ? You 've found !", 'Refreshingly original often funny', 'Another winner Anders Thomas Jensen', 'Intelligent dark comedy theodicy', 'Adams æbler : wonderfully surprising .', "One Of The Meanest - And Funniest - Satires I 've Ever Seen", 'Black comedy , delightfully grotesque', 'Expected lot !', 'Good Drama , Great Comedy', 'A great film', 'A Job well done', 'A poor neo-Nazi tormented deranged priest', 'World class acting plot', 'Lugubrious comedy ?', 'An absolute hidden gem movie !']</t>
+          <t>['What mean  And  mean anything  ', 'It s apples', 'A Nutshell Review  Adam s Apples', 'really good', 'apple Paradise', 'A good one', 'What odd creation ', 'Superficially clever  polished', 'Wonderful story tough exprisoner ', 'Embarrassing ', 'You want dark comedy  You ve found ', 'Refreshingly original often funny', 'Another winner Anders Thomas Jensen', 'Intelligent dark comedy theodicy', 'Adams bler  wonderfully surprising ', 'One Of The Meanest  And Funniest  Satires I ve Ever Seen', 'Black comedy  delightfully grotesque', 'Expected lot ', 'Good Drama  Great Comedy', 'A great film', 'A Job well done', 'A poor neoNazi tormented deranged priest', 'World class acting plot', 'Lugubrious comedy ', 'An absolute hidden gem movie ']</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>["Exceptional -- especially Langella 's dynamite performance .", '`` I Gave Them A Sword ``', 'Amazing Performances', 'Brilliant Performance Langella', 'Respectfully Submitted', 'slice history', 'Ready Rumble', 'As enjoyable informative', 'Tricky Dick gets day', 'excellent performances , excellent screenplay', 'see craftsmanship , sure , title fight real kicker- towering performance', 'Frost/Nixon entertaining depicting interviews two', "Now , Angels Will Want Wear Nixon 's Italian Shoes", 'Never feels boring despite sedentary nature film', 'A riveting story .', 'Brilliant', 'Rehabilitation Dead', "That 's tragedy , I Mr . Frost . No matter high get , still look us .", "A Consummate Ron Howard Film , Which Means It 's Not Remotely Artistic", 'No Holds Barred', 'Marvelous', 'Who knows accurate , entertaining', "It Should Be Frank 's Oscar !", 'The Rise Fall Showmen', 'Excellent around']</t>
+          <t>['Exceptional  especially Langella s dynamite performance ', ' I Gave Them A Sword ', 'Amazing Performances', 'Brilliant Performance Langella', 'Respectfully Submitted', 'slice history', 'Ready Rumble', 'As enjoyable informative', 'Tricky Dick gets day', 'excellent performances  excellent screenplay', 'see craftsmanship  sure  title fight real kicker towering performance', 'FrostNixon entertaining depicting interviews two', 'Now  Angels Will Want Wear Nixon s Italian Shoes', 'Never feels boring despite sedentary nature film', 'A riveting story ', 'Brilliant', 'Rehabilitation Dead', 'That s tragedy  I Mr  Frost  No matter high get  still look us ', 'A Consummate Ron Howard Film  Which Means It s Not Remotely Artistic', 'No Holds Barred', 'Marvelous', 'Who knows accurate  entertaining', 'It Should Be Frank s Oscar ', 'The Rise Fall Showmen', 'Excellent around']</t>
         </is>
       </c>
     </row>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>['Cult-Indie Fans , Boring Film Others', "Jim Jarmusch may acquired taste , 's interesting acquired taste .", 'A Pure Joy', 'The road taken , `` Bob `` Frost', 'sophisticated , masterfully laid-back take prison picture', 'Excellent - quirkily funny engaging', 'Ceaseless Boredom', "One best indie movies 've never seen", 'Excellent early Jarmusch', 'Wonderful cinematography', "Jim Jarmush ' ultimate classic . Slowburning , meditative , witty incredibly gorgeous !", 'A true embodient cinematic poetry', "It 's film looking suspense action , 's perfect want solid film well-developed characters .", 'Really contemplative', 'In pair Dead Man', 'Waits meets Jarmusch', "Jarmusch 's character experiment around lawlessness , fortune companionship", 'Very existential .', 'self-consciously cool', 'Down law : An ideal film want discover Jim Jarmusch .', 'Truly eccentric', 'stylish prison escape comedy', 'Jailbreak Joy', 'Quiet brilliance !', 'A Black n White Beauty']</t>
+          <t>['CultIndie Fans  Boring Film Others', 'Jim Jarmusch may acquired taste  s interesting acquired taste ', 'A Pure Joy', 'The road taken   Bob  Frost', 'sophisticated  masterfully laidback take prison picture', 'Excellent  quirkily funny engaging', 'Ceaseless Boredom', 'One best indie movies ve never seen', 'Excellent early Jarmusch', 'Wonderful cinematography', 'Jim Jarmush  ultimate classic  Slowburning  meditative  witty incredibly gorgeous ', 'A true embodient cinematic poetry', 'It s film looking suspense action  s perfect want solid film welldeveloped characters ', 'Really contemplative', 'In pair Dead Man', 'Waits meets Jarmusch', 'Jarmusch s character experiment around lawlessness  fortune companionship', 'Very existential ', 'selfconsciously cool', 'Down law  An ideal film want discover Jim Jarmusch ', 'Truly eccentric', 'stylish prison escape comedy', 'Jailbreak Joy', 'Quiet brilliance ', 'A Black n White Beauty']</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>['Very unusual clever also particularly pleasant viewing', 'Unique delightful- French jewel animation', 'Beautifully ugly', 'Original , Impressive Very Bizarre', 'Interesting different great hype makes', 'A Very Different Kind Of Animated Film', "best neo-surrealistic animation I 've seen since The Wall- unique movie-going experience", 'Dream Stories', 'Tour de France', 'THE TRIPLETS OF BELLEVILLE ( Sylvain Chomet , 2003 ) * * *', 'Splendidly imaginative enjoyable', 'A Quirky Delight', 'Frog-Ka-Bob', 'Refreshingly original !', 'Viva La France !', "oui , c'est Frog-lickin ' bon", 'Imaginative , original fun little movie', 'Wonderfully weird : grandma indomitable', 'This film imaginative lampoon 2 societies least decade .', 'Inventive , beautiful hilarious', 'Tedious depressing', 'Impenetrable whimsy', 'France 1 Mickey Mouse 0', 'A great animated movie France .', 'Would Have Sufficed As A Short Film']</t>
+          <t>['Very unusual clever also particularly pleasant viewing', 'Unique delightful French jewel animation', 'Beautifully ugly', 'Original  Impressive Very Bizarre', 'Interesting different great hype makes', 'A Very Different Kind Of Animated Film', 'best neosurrealistic animation I ve seen since The Wall unique moviegoing experience', 'Dream Stories', 'Tour de France', 'THE TRIPLETS OF BELLEVILLE  Sylvain Chomet  2003    ', 'Splendidly imaginative enjoyable', 'A Quirky Delight', 'FrogKaBob', 'Refreshingly original ', 'Viva La France ', 'oui  cest Froglickin  bon', 'Imaginative  original fun little movie', 'Wonderfully weird  grandma indomitable', 'This film imaginative lampoon 2 societies least decade ', 'Inventive  beautiful hilarious', 'Tedious depressing', 'Impenetrable whimsy', 'France 1 Mickey Mouse 0', 'A great animated movie France ', 'Would Have Sufficed As A Short Film']</t>
         </is>
       </c>
     </row>
@@ -10469,7 +10469,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>['A fantastic film , one Woody Allen greats ...', 'great concept Woody Allen', 'Terrific Fantasy Perfect Ending', 'Mia World', 'modern fairy tale', 'Charming romantic fable mixed surreal humour', 'Delightful comedy 1930s waiter performs endearingly silly fantasy', 'rose rose', "Of Woody 's Forty Movies , This Is Clearly In The Top Ten", 'Nice Mix Makes This Inventive Film Appealing', 'Depression-era fantasy , heavily-padded lovely moments ...', 'A movie character leaves screen', "one warmest contemporary films I 've ever seen power escapism", "Woody Allen 's wonderfully quirky , reverent creative homage silver screen", 'Too depressing work comedy', 'Enchanting bittersweet fantasy ... surreal original ...', 'Moving', 'Fantastic sweet plot', "I Always Miss Woody Allen When He 's Not His Own Movies", 'For love film', 'Partially Shot Hometown !', 'A sometimes inspired , sometimes insipid comedy Woody Allen', 'Great concept great ending', 'Coming roses', 'Great sleight hand Woody Allen']</t>
+          <t>['A fantastic film  one Woody Allen greats ', 'great concept Woody Allen', 'Terrific Fantasy Perfect Ending', 'Mia World', 'modern fairy tale', 'Charming romantic fable mixed surreal humour', 'Delightful comedy 1930s waiter performs endearingly silly fantasy', 'rose rose', 'Of Woody s Forty Movies  This Is Clearly In The Top Ten', 'Nice Mix Makes This Inventive Film Appealing', 'Depressionera fantasy  heavilypadded lovely moments ', 'A movie character leaves screen', 'one warmest contemporary films I ve ever seen power escapism', 'Woody Allen s wonderfully quirky  reverent creative homage silver screen', 'Too depressing work comedy', 'Enchanting bittersweet fantasy  surreal original ', 'Moving', 'Fantastic sweet plot', 'I Always Miss Woody Allen When He s Not His Own Movies', 'For love film', 'Partially Shot Hometown ', 'A sometimes inspired  sometimes insipid comedy Woody Allen', 'Great concept great ending', 'Coming roses', 'Great sleight hand Woody Allen']</t>
         </is>
       </c>
     </row>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>['art life imitate , Farhadi later said needed get said', 'crime film , morality story , thrilling , tragic , full real human beings screen', 'Forgiveness compassion', 'Another Slow Burn', 'another Farhadi masterpiece', 'Could worse', 'rather complicated great film', "Farhadi 's dramaturgy still rocks , fly ointment hand-picked moral tale needs tweaking", 'Hitchcock + Ibsen= realism low-key best .', "The man could n't hero turn monster ...", 'Honour revenge', "Asghar Farhadi 's Latest Is His Fifth Consecutive Masterpiece . Tense &amp; Devastating .", 'Simple yet powerful story', 'Riveting incredibly paced', 'A fascinating dramatic effort', '4.5 stars ... Justice , Iran-style : human psychological action movie mind', 'A WELL DESERVING WIN ... !', 'When realistic right emotional wrong collides .', 'Brilliant film , grim', 'Depressing Iranian Drama', 'A heavy piece tragic brilliance .', 'Powerful brilliantly executed', 'FAMILIAR EMOTIONS .', 'An absolute snoozefest', 'Farhadi rules']</t>
+          <t>['art life imitate  Farhadi later said needed get said', 'crime film  morality story  thrilling  tragic  full real human beings screen', 'Forgiveness compassion', 'Another Slow Burn', 'another Farhadi masterpiece', 'Could worse', 'rather complicated great film', 'Farhadi s dramaturgy still rocks  fly ointment handpicked moral tale needs tweaking', 'Hitchcock  Ibsen realism lowkey best ', 'The man could nt hero turn monster ', 'Honour revenge', 'Asghar Farhadi s Latest Is His Fifth Consecutive Masterpiece  Tense  Devastating ', 'Simple yet powerful story', 'Riveting incredibly paced', 'A fascinating dramatic effort', '45 stars  Justice  Iranstyle  human psychological action movie mind', 'A WELL DESERVING WIN  ', 'When realistic right emotional wrong collides ', 'Brilliant film  grim', 'Depressing Iranian Drama', 'A heavy piece tragic brilliance ', 'Powerful brilliantly executed', 'FAMILIAR EMOTIONS ', 'An absolute snoozefest', 'Farhadi rules']</t>
         </is>
       </c>
     </row>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>['Old world order', 'One Best Most Powerful Movies Year', 'Interesting , involving exciting \x96 made interesting revelations involving US troops Iraqi prisons', 'Psychological experiment arises physical abuse cruel violence ,', 'A fascinating story', 'Superb examination worst aspects human nature', 'Berus V 77 , Experiment , Das ( 2001 ) , amazing experience !', 'Fascinating unpleasant', 'Us And Them ...', 'Poignant , Exciting Vivid', 'A mediocre psychodrama naive', 'Gripping flawed', 'You Are Invited To Participate !', 'Brilliant Psychological Film', 'Compelling thriller disturbs much entertains .', 'Excellent film', 'Pretty good film', 'Sometimes indulgent , often times good', 'Definitely head trip', 'Good watch', '10 10 stars ! ! actually , 9 .', 'An enjoyable yet implausible character study', 'Interesting experiment', 'Fine actors original prison movie', 'A true experience']</t>
+          <t>['Old world order', 'One Best Most Powerful Movies Year', 'Interesting  involving exciting  made interesting revelations involving US troops Iraqi prisons', 'Psychological experiment arises physical abuse cruel violence ', 'A fascinating story', 'Superb examination worst aspects human nature', 'Berus V 77  Experiment  Das  2001   amazing experience ', 'Fascinating unpleasant', 'Us And Them ', 'Poignant  Exciting Vivid', 'A mediocre psychodrama naive', 'Gripping flawed', 'You Are Invited To Participate ', 'Brilliant Psychological Film', 'Compelling thriller disturbs much entertains ', 'Excellent film', 'Pretty good film', 'Sometimes indulgent  often times good', 'Definitely head trip', 'Good watch', '10 10 stars   actually  9 ', 'An enjoyable yet implausible character study', 'Interesting experiment', 'Fine actors original prison movie', 'A true experience']</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>['Unreasonably slow drawn-out odyssey revenge', 'Twisted ugly', "Japanese translation 'single parent '", 'Brutal , though stylish', 'Confessions', 'A Nutshell Review : Confessions', 'The importance life', 'A Solid Psychological Thriller . A Shocking Revenge-Drama . A Stunning Mystery .', 'A unique revenge drama', 'Dark , Psychological Thriller Interesting Social Commentary', 'Confessions conveys meticulous murder mystery excessive slow-motion elaborate plot .', 'REVENGE IS SWEET BABY ! !', 'Dark , Disturbing , Demoralizing , Depraved', 'Far dark depressing .', 'Confessions ( 2010 )', 'Decent But Not As Impressive As Expected', "As good anything I 've seen year .", 'Stormer film .. light hearted direction dark heart ...', 'A class', 'Can really run away past actions ?', 'Very different ... Excellent stuff ! ...', "excellent uneven storytelling 've ever noticed ...", 'Another fantastic film awaits poor American remake', 'Good opening , got confused', 'One best movies I ever seen']</t>
+          <t>['Unreasonably slow drawnout odyssey revenge', 'Twisted ugly', 'Japanese translation single parent ', 'Brutal  though stylish', 'Confessions', 'A Nutshell Review  Confessions', 'The importance life', 'A Solid Psychological Thriller  A Shocking RevengeDrama  A Stunning Mystery ', 'A unique revenge drama', 'Dark  Psychological Thriller Interesting Social Commentary', 'Confessions conveys meticulous murder mystery excessive slowmotion elaborate plot ', 'REVENGE IS SWEET BABY  ', 'Dark  Disturbing  Demoralizing  Depraved', 'Far dark depressing ', 'Confessions  2010 ', 'Decent But Not As Impressive As Expected', 'As good anything I ve seen year ', 'Stormer film  light hearted direction dark heart ', 'A class', 'Can really run away past actions ', 'Very different  Excellent stuff  ', 'excellent uneven storytelling ve ever noticed ', 'Another fantastic film awaits poor American remake', 'Good opening  got confused', 'One best movies I ever seen']</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>['Brutal yet beautiful alienation', 'I Had Overcome My Prejudices', 'Meaningless Lives Dull Romance', 'Striking', 'Not mystery first appears', 'Everyday , live adventure . ( M .. A . )', "Not director 's absolute best picture ( goes Blowup )", 'Intriguing start meandering development lacklustre ending', 'Demands film discussion', 'Is ?', 'Is impeccable visual presentation enough make film worth watching ?', 'Cinematic Ennui', 'Typical great Michelangelo Antonioni stuff , though always consistent .', 'Deep meaningful ... probably', 'The perspective dazzling', 'A search nothing plausible ! ! !', '10/10', 'Some adventure .', 'Masterpiece', "A Nutshell Review : L'Avventura", "Michelangelo Antonioni 's compassionate love story breaks traditional narrative methods unusual pacing characters , makes theoretical sense .", 'Trouble In Paradise', 'Appearances , transparent reality', 'Stunning study moral decay', "l'avventura"]</t>
+          <t>['Brutal yet beautiful alienation', 'I Had Overcome My Prejudices', 'Meaningless Lives Dull Romance', 'Striking', 'Not mystery first appears', 'Everyday  live adventure  M  A  ', 'Not director s absolute best picture  goes Blowup ', 'Intriguing start meandering development lacklustre ending', 'Demands film discussion', 'Is ', 'Is impeccable visual presentation enough make film worth watching ', 'Cinematic Ennui', 'Typical great Michelangelo Antonioni stuff  though always consistent ', 'Deep meaningful  probably', 'The perspective dazzling', 'A search nothing plausible   ', '1010', 'Some adventure ', 'Masterpiece', 'A Nutshell Review  LAvventura', 'Michelangelo Antonioni s compassionate love story breaks traditional narrative methods unusual pacing characters  makes theoretical sense ', 'Trouble In Paradise', 'Appearances  transparent reality', 'Stunning study moral decay', 'lavventura']</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>['Beautiful film', 'A Family Film In Every Sense Of The Word .', 'old fashion drama', 'From Past', 'What Magnificent Movie !', 'Classic enjoyable John Ford film great cast giving terrific performance', 'grapes Wales', 'The Film That Beat Citizen Kane', 'Corny , heartbreaking .', 'Yes , You Can Almost Feel The Grime', 'beautifully made film master', 'Lost paradise ?', "Ford 's best film", 'Poignant Valley A Masterpiece * * * *', 'Interesting look life Welsh coal-mining town', 'A Welch valley', "Ford 's sentimental tribute coal miner families ...", 'Coal mining dying industry', 'Classic epic', 'THIS Won Best Picture ?', "As powerful effective could expect '40 's family-drama .", 'Wales Mining Drama', 'Not coal truth', 'picture forever cursed critics one undeservedly trumped CITIZEN KANE BEST PICTURE Oscar game', '1941 Classic Masterpiece']</t>
+          <t>['Beautiful film', 'A Family Film In Every Sense Of The Word ', 'old fashion drama', 'From Past', 'What Magnificent Movie ', 'Classic enjoyable John Ford film great cast giving terrific performance', 'grapes Wales', 'The Film That Beat Citizen Kane', 'Corny  heartbreaking ', 'Yes  You Can Almost Feel The Grime', 'beautifully made film master', 'Lost paradise ', 'Ford s best film', 'Poignant Valley A Masterpiece    ', 'Interesting look life Welsh coalmining town', 'A Welch valley', 'Ford s sentimental tribute coal miner families ', 'Coal mining dying industry', 'Classic epic', 'THIS Won Best Picture ', 'As powerful effective could expect 40 s familydrama ', 'Wales Mining Drama', 'Not coal truth', 'picture forever cursed critics one undeservedly trumped CITIZEN KANE BEST PICTURE Oscar game', '1941 Classic Masterpiece']</t>
         </is>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>['Peace Is Preserved Hiding Truth \x96 A Touching Antiwar Movie', 'The peace preserved hiding truth .', 'Well intentioned', 'A film surprising emotional impact', 'A bittersweet life .', 'When enemies become friends ...', 'A movie latitude', 'Park Chan-wook draws line war , antiwar , friendship animosity timeless cultural phenomenon .', 'human enemy', "Park Chan-Wook 's Underrated Masterpiece .", 'Brothers Disarmed ...', 'A GOOD ANTI-WAR STATEMENT ... !', 'Trust Park Chanwook', 'A relevant message', 'Great one', 'Not Bad , Still , Not That Gripping', 'A whip-smart whodunnit political message - sometimes politics dumb .', 'Bad script mediocre comedic acting', 'Film futility enmity , gift true friendship', 'Beautiful , funny , sad', 'Excellent Korean drama Old Boy director', 'Joint Security Area', 'Korean World Film Classic .', 'Good , Early Park Chan-Wook', 'Hooks']</t>
+          <t>['Peace Is Preserved Hiding Truth  A Touching Antiwar Movie', 'The peace preserved hiding truth ', 'Well intentioned', 'A film surprising emotional impact', 'A bittersweet life ', 'When enemies become friends ', 'A movie latitude', 'Park Chanwook draws line war  antiwar  friendship animosity timeless cultural phenomenon ', 'human enemy', 'Park ChanWook s Underrated Masterpiece ', 'Brothers Disarmed ', 'A GOOD ANTIWAR STATEMENT  ', 'Trust Park Chanwook', 'A relevant message', 'Great one', 'Not Bad  Still  Not That Gripping', 'A whipsmart whodunnit political message  sometimes politics dumb ', 'Bad script mediocre comedic acting', 'Film futility enmity  gift true friendship', 'Beautiful  funny  sad', 'Excellent Korean drama Old Boy director', 'Joint Security Area', 'Korean World Film Classic ', 'Good  Early Park ChanWook', 'Hooks']</t>
         </is>
       </c>
     </row>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>["Mamoro Hosoda 's best film", 'looks good', "Enjoyable animation twist n't affect core values film", 'Beautiful film , great', 'A Nutshell Review : The Girl Who Leapt Through Time', 'Beautiful ...', 'Excellent , although somewhat puzzling', "A Fascinating Examination Of The Ripple Effect Our Actions Can Have On Others ' Lives", 'Good time travel story good twist', 'Pleasant romantic time-travel teen-fantasy', 'Filled charming human moments', 'The Girl Who Leapt Through Time jumps forward inventive narrative gears producing multi-layered clock .', 'Great different time travel story', 'Modern Remake Classic !', 'Anime movies always good', 'girl leapt time', 'Lost Yesterday', 'Beautiful artwork fragment story', "Could 've lot better .", 'Not good expected ; inconsistent', 'A gem anime feature .', 'Playing time', "Charming 's way", 'WOW', 'Vastly overrated beautiful nonetheless']</t>
+          <t>['Mamoro Hosoda s best film', 'looks good', 'Enjoyable animation twist nt affect core values film', 'Beautiful film  great', 'A Nutshell Review  The Girl Who Leapt Through Time', 'Beautiful ', 'Excellent  although somewhat puzzling', 'A Fascinating Examination Of The Ripple Effect Our Actions Can Have On Others  Lives', 'Good time travel story good twist', 'Pleasant romantic timetravel teenfantasy', 'Filled charming human moments', 'The Girl Who Leapt Through Time jumps forward inventive narrative gears producing multilayered clock ', 'Great different time travel story', 'Modern Remake Classic ', 'Anime movies always good', 'girl leapt time', 'Lost Yesterday', 'Beautiful artwork fragment story', 'Could ve lot better ', 'Not good expected  inconsistent', 'A gem anime feature ', 'Playing time', 'Charming s way', 'WOW', 'Vastly overrated beautiful nonetheless']</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>['good', 'A lot strengths come sentimental melodrama heart film', '... first get Irish , ...', 'Alright', 'Just A Nice Story About Irish Immigrants', 'Based true story , bit smaltzy times worth viewing .', "Everyone 's brother New York City !", 'Frankie Goes Heaven', 'Sweet emotional though incomplete-feeling movie', 'It like another planet .', 'Well Acted But Not Much Else', 'Angels Manhattan', 'Director Jim Sheridan done better .', "Really Could n't Stand This Movie", '3 Wishes', "Magical- one year 's best", "An Irish family adjusts life Hell 's Kitchen", "` In America ' may best immigrant movie ever made English language .", 'Shows true hardship love family never end', 'Odd man', 'Good immigrant melodrama', 'many fine elements never quite comes together', 'Loss , Love , Redemption ...', 'Three Wishes American Dream', 'A Fascinating Intimate Look At American Life']</t>
+          <t>['good', 'A lot strengths come sentimental melodrama heart film', ' first get Irish  ', 'Alright', 'Just A Nice Story About Irish Immigrants', 'Based true story  bit smaltzy times worth viewing ', 'Everyone s brother New York City ', 'Frankie Goes Heaven', 'Sweet emotional though incompletefeeling movie', 'It like another planet ', 'Well Acted But Not Much Else', 'Angels Manhattan', 'Director Jim Sheridan done better ', 'Really Could nt Stand This Movie', '3 Wishes', 'Magical one year s best', 'An Irish family adjusts life Hell s Kitchen', ' In America  may best immigrant movie ever made English language ', 'Shows true hardship love family never end', 'Odd man', 'Good immigrant melodrama', 'many fine elements never quite comes together', 'Loss  Love  Redemption ', 'Three Wishes American Dream', 'A Fascinating Intimate Look At American Life']</t>
         </is>
       </c>
     </row>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>['A winner every sense', 'compelling story', "Afghanistan child 's eyes", 'The Breadwinner', "Is n't always fun certainly powerful .", 'A stunningly depressing view lives Afghan women Taliban', 'An Honest Yet Imperfect Film !', "There 's Pixar . There 's Laika . There 's Studio Ghibli . And Now There 's Cartoon Saloon .", 'The Female Islam', 'Well done', 'Claustrophobic', 'COLORFUL &amp; TIMELY ... !', 'Its Good , But Nowhere Near Secret Kells Song Sea', 'Adds extra weight story alongside plenty heart', 'If anyone said `` winner `` let another .', 'Simple , pure , emotional well-told story', 'A well considered movie .', 'Fascinating movie pointing contrasts', 'Bold filmmaking', 'Pretty great .', 'Very good , indeed', 'Criminally underseen gem', 'A Depressing albeit Uplifting Tale Survival', 'neh', 'A powerful story living war-torn country .']</t>
+          <t>['A winner every sense', 'compelling story', 'Afghanistan child s eyes', 'The Breadwinner', 'Is nt always fun certainly powerful ', 'A stunningly depressing view lives Afghan women Taliban', 'An Honest Yet Imperfect Film ', 'There s Pixar  There s Laika  There s Studio Ghibli  And Now There s Cartoon Saloon ', 'The Female Islam', 'Well done', 'Claustrophobic', 'COLORFUL  TIMELY  ', 'Its Good  But Nowhere Near Secret Kells Song Sea', 'Adds extra weight story alongside plenty heart', 'If anyone said  winner  let another ', 'Simple  pure  emotional welltold story', 'A well considered movie ', 'Fascinating movie pointing contrasts', 'Bold filmmaking', 'Pretty great ', 'Very good  indeed', 'Criminally underseen gem', 'A Depressing albeit Uplifting Tale Survival', 'neh', 'A powerful story living wartorn country ']</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>['funny , ....', "The best Woody Allen 's pre-Annie Hall films , one best also", 'Tolstoy Takes A Beating', 'Keaton gets', 'Underrated Allen Comedy', "The Master 's Eye", "Allen 's hilarious send-up Russian literature cinema", 'Fun satire ¨War peace¨ novels , compellingly written , played directed Woody Allen', "Eto ochen ' smeshnoy film ! ( This funny movie ! )", "Could Be Allen 's Best Work", 'A silly fairly entertaining early Woody Allen film .', 'Trenchant film satire coupled wonderfully silly slapstick ...', 'God underachiever', "funnier I 've gotten deeper Russian literature , European history , Bergman", 'Words Pictures', "One Allen 's best", 'Russia Beware -- Here Comes Woody Allen', 'Brilliant', 'Serfs laffs', "wallows Woody Allen 's idealistic vim vigour", '19th century Russia , Woody Allen style', 'MR.Cinema Best !', 'Good mourning , Mr. Allen ! ...', 'Thank GOD , Napoleon DEAD , else would died laughing seeing `` Woody Allen Masterclass `` .', 'Love , Death And Wheat']</t>
+          <t>['funny  ', 'The best Woody Allen s preAnnie Hall films  one best also', 'Tolstoy Takes A Beating', 'Keaton gets', 'Underrated Allen Comedy', 'The Master s Eye', 'Allen s hilarious sendup Russian literature cinema', 'Fun satire War peace novels  compellingly written  played directed Woody Allen', 'Eto ochen  smeshnoy film   This funny movie  ', 'Could Be Allen s Best Work', 'A silly fairly entertaining early Woody Allen film ', 'Trenchant film satire coupled wonderfully silly slapstick ', 'God underachiever', 'funnier I ve gotten deeper Russian literature  European history  Bergman', 'Words Pictures', 'One Allen s best', 'Russia Beware  Here Comes Woody Allen', 'Brilliant', 'Serfs laffs', 'wallows Woody Allen s idealistic vim vigour', '19th century Russia  Woody Allen style', 'MRCinema Best ', 'Good mourning  Mr Allen  ', 'Thank GOD  Napoleon DEAD  else would died laughing seeing  Woody Allen Masterclass  ', 'Love  Death And Wheat']</t>
         </is>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>['Family drama packs punch', 'admirable', 'Past present', 'Good drama good previous effort', 'Civilized realistic', "'When two people see 4 years still fight , shows something unsolved . '", 'A good story , kind gets lost near end', 'gratifying follow-up A SEPARATION', 'Delicate superbly acted', 'A Staggering Masterpiece Intricate Human Drama .', 'Pretty solid', 'Drama ...', 'Some stunning script work acting make film worth tracking', 'Modern Day Horror . ♦ 84 %', "One Asghar Farhadi 's great work .", 'Relationships surrounding mystery', 'Awesome deep', "Family Drama That Underlines Director Asghar Farhadi 's Genius Director", 'In film `` Le passé `` perfect tense .', 'Suspenseful Family Drama', 'Responsibility Heartbreak', ".. one 's keeper", 'Farhadi cements reputation skilled storyteller', 'Even better A Separation .', 'Another gem Farhadi . Underrated .']</t>
+          <t>['Family drama packs punch', 'admirable', 'Past present', 'Good drama good previous effort', 'Civilized realistic', 'When two people see 4 years still fight  shows something unsolved  ', 'A good story  kind gets lost near end', 'gratifying followup A SEPARATION', 'Delicate superbly acted', 'A Staggering Masterpiece Intricate Human Drama ', 'Pretty solid', 'Drama ', 'Some stunning script work acting make film worth tracking', 'Modern Day Horror   84 ', 'One Asghar Farhadi s great work ', 'Relationships surrounding mystery', 'Awesome deep', 'Family Drama That Underlines Director Asghar Farhadi s Genius Director', 'In film  Le pass  perfect tense ', 'Suspenseful Family Drama', 'Responsibility Heartbreak', ' one s keeper', 'Farhadi cements reputation skilled storyteller', 'Even better A Separation ', 'Another gem Farhadi  Underrated ']</t>
         </is>
       </c>
     </row>
@@ -10997,7 +10997,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>['Other Lands , Other Rules', 'useful', 'Everything become alright joining EU .', 'Bremen-Istanbul bilateral drama', 'puzzle', 'Only God right solitude', '- A Tale Two Coffins ...', 'Moving , Timely , Intelligent Look Turkish-German Meld', 'Engrossing Drama', 'Where edge heaven ?', 'Epic story', 'Akin formulated smart challenging contemporary thriller raw , delicate beginnings one better foreign language films last years .', 'An emotional power reminiscent Kieslowski', 'Influence India Turkey two German women', 'We connected', 'Where daughter-less mother , motherless daughter son finally meet heaven - perhaps .', 'Best German movie I seen long time', 'Brilliant artistic vision', "Interesting compare Alan Parker 's Midnight Express", 'The Edge Heaven', 'Once every years , film touching comes along', 'A movie powerful message', 'Continuities life death', 'Soars Like Golden Eagle Above Most Films', 'Tidy slices Turkey']</t>
+          <t>['Other Lands  Other Rules', 'useful', 'Everything become alright joining EU ', 'BremenIstanbul bilateral drama', 'puzzle', 'Only God right solitude', ' A Tale Two Coffins ', 'Moving  Timely  Intelligent Look TurkishGerman Meld', 'Engrossing Drama', 'Where edge heaven ', 'Epic story', 'Akin formulated smart challenging contemporary thriller raw  delicate beginnings one better foreign language films last years ', 'An emotional power reminiscent Kieslowski', 'Influence India Turkey two German women', 'We connected', 'Where daughterless mother  motherless daughter son finally meet heaven  perhaps ', 'Best German movie I seen long time', 'Brilliant artistic vision', 'Interesting compare Alan Parker s Midnight Express', 'The Edge Heaven', 'Once every years  film touching comes along', 'A movie powerful message', 'Continuities life death', 'Soars Like Golden Eagle Above Most Films', 'Tidy slices Turkey']</t>
         </is>
       </c>
     </row>
@@ -11041,7 +11041,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>['The story man absolutely nothing lose .', 'Compartmentalization', 'Violent criminal', 'Too slow `` deep `` times mostly emotionally engaging impacting', 'Bad Fuse', 'Drop Dead .', "Beat Takeshi 's stoic expression classic", 'unassuming oriental gentleman', 'Even brighter moon .', 'Great concept , lacking authenticity', 'Japanese style Falling Down', 'A Nutshell Review : Hana Bi', 'A compelling drama appetite Japanese art .', "Did n't completely love , I see sticking", "There 's greatness , sure ,", 'Poetry motion , Kitano style .', 'A masterpiece !', 'Light darkness', 'The poetry blood', 'Great Kitano !', 'Japanese Style Existential , funny , violent , sentimental , confusing . ( B+ Movie ) My Ratings 9/10', 'An apparently cold movie', 'KITANO DOES IT AGAIN', 'Tonal cacophony']</t>
+          <t>['The story man absolutely nothing lose ', 'Compartmentalization', 'Violent criminal', 'Too slow  deep  times mostly emotionally engaging impacting', 'Bad Fuse', 'Drop Dead ', 'Beat Takeshi s stoic expression classic', 'unassuming oriental gentleman', 'Even brighter moon ', 'Great concept  lacking authenticity', 'Japanese style Falling Down', 'A Nutshell Review  Hana Bi', 'A compelling drama appetite Japanese art ', 'Did nt completely love  I see sticking', 'There s greatness  sure ', 'Poetry motion  Kitano style ', 'A masterpiece ', 'Light darkness', 'The poetry blood', 'Great Kitano ', 'Japanese Style Existential  funny  violent  sentimental  confusing   B Movie  My Ratings 910', 'An apparently cold movie', 'KITANO DOES IT AGAIN', 'Tonal cacophony']</t>
         </is>
       </c>
     </row>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>['I must missing something', 'Jules Jim Catherine', 'For Whatever Reason', 'Unconventional Love Story', 'Pronounce D front', 'Nice Style', 'Flashy New Wave romance ... somewhat overrated', 'menage à Trois', 'One beautiful foreign films ever', 'Not sure regarded classic ...', 'Unconventional love story two friends love free spirit ...', 'life takes truffaut journey', 'A fantastic romantic drama , gracefully swinging moods', 'Tedious If Groundbreaking', 'Great filmmaking Truffaut', "Influential New Wave movie , although I n't relate much", 'Tedious movie unlikable people', 'forever young', 'Beautifully made deeply depressing', 'The Power Love ...', 'Rambling Drivel', 'jules jim', 'Innovative disappointing', 'jules jim', 'A Good Movie For People To Watch About The Weirder Things People Are Capable Of']</t>
+          <t>['I must missing something', 'Jules Jim Catherine', 'For Whatever Reason', 'Unconventional Love Story', 'Pronounce D front', 'Nice Style', 'Flashy New Wave romance  somewhat overrated', 'menage  Trois', 'One beautiful foreign films ever', 'Not sure regarded classic ', 'Unconventional love story two friends love free spirit ', 'life takes truffaut journey', 'A fantastic romantic drama  gracefully swinging moods', 'Tedious If Groundbreaking', 'Great filmmaking Truffaut', 'Influential New Wave movie  although I nt relate much', 'Tedious movie unlikable people', 'forever young', 'Beautifully made deeply depressing', 'The Power Love ', 'Rambling Drivel', 'jules jim', 'Innovative disappointing', 'jules jim', 'A Good Movie For People To Watch About The Weirder Things People Are Capable Of']</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>["Woody Allen 's underrated film ? Most likely", 'funny', 'Memoirs Chameleon', 'Zelig , The human chameleon', 'Witty , amusing technically impressive mockumentary', 'rock , mock , doc', "Great , Though Not Allen 's Best", 'Moments mad-genius inspiration', 'Funny technically remarkable', "Woody Allen 's `` Epic `` film man finding place society", '`` It seemed like thing . ``', 'Highly original funny', 'Very good overpraised', 'A little quirky', "Woody Allen 's Mockumentary", 'I definitely enjoyed watching little movie .', 'You Wanted More When It !', "Allen 's brilliant mockumentary funny chamaleonic figure 20th century", 'Cinema Omnivore - Zelig ( 1983 ) 7.4/10', 'Inventive Allen mockumentary', "When 'like ' key 'liked ' ...", 'Only Woody Allen could made believe weird , absurd , non-existent , nondescripted , enigmatic character mockumentary actual people .', 'Amazing concept , diminishing laughs', 'Joke Stretched Thin', 'My brief review film']</t>
+          <t>['Woody Allen s underrated film  Most likely', 'funny', 'Memoirs Chameleon', 'Zelig  The human chameleon', 'Witty  amusing technically impressive mockumentary', 'rock  mock  doc', 'Great  Though Not Allen s Best', 'Moments madgenius inspiration', 'Funny technically remarkable', 'Woody Allen s  Epic  film man finding place society', ' It seemed like thing  ', 'Highly original funny', 'Very good overpraised', 'A little quirky', 'Woody Allen s Mockumentary', 'I definitely enjoyed watching little movie ', 'You Wanted More When It ', 'Allen s brilliant mockumentary funny chamaleonic figure 20th century', 'Cinema Omnivore  Zelig  1983  7410', 'Inventive Allen mockumentary', 'When like  key liked  ', 'Only Woody Allen could made believe weird  absurd  nonexistent  nondescripted  enigmatic character mockumentary actual people ', 'Amazing concept  diminishing laughs', 'Joke Stretched Thin', 'My brief review film']</t>
         </is>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>['Mission Accomplished', 'Mission : Impossible - Dead Reckoning Part One', 'AI taking', 'At least 80 % action sequences already shown previews , basically paying ticket price see drama', 'number 7 even bigger', 'That written', "Cruise Control finest - make sure see IMAX ; one year 's best films !", "It 's getting point I go Tom Cruise movies fix", 'Mission Impossible : Dead Reckoning ( Part One )', 'This mission going cost dearly .', 'Fantastic action direction . Incredibly dumb plot .', 'One best actioners ever . Even beating .', 'Major props putting `` Part One `` title', "IMF 's Key Success", 'One satisfying action IMAX experiences', 'Your high expectations get beating ...', "Tom Cruise 's Signature Spy Action Thriller Sets Path For A Better Follow-Up", "Lacks The Perfection Of 'Fallout ' But Still A Strong Entry", 'What Reckon ?', 'The Mission You Have Seen Many Times Already', 'Does More Than Blow The Doors Off ...', 'Run Tom Cruise Run', 'Back bigger better ever , Dead Reckoning Part One puts blockbusters shame', 'The gold standard Hollywood action movies', 'Mission Impossible - Dead Reckoning Part 1']</t>
+          <t>['Mission Accomplished', 'Mission  Impossible  Dead Reckoning Part One', 'AI taking', 'At least 80  action sequences already shown previews  basically paying ticket price see drama', 'number 7 even bigger', 'That written', 'Cruise Control finest  make sure see IMAX  one year s best films ', 'It s getting point I go Tom Cruise movies fix', 'Mission Impossible  Dead Reckoning  Part One ', 'This mission going cost dearly ', 'Fantastic action direction  Incredibly dumb plot ', 'One best actioners ever  Even beating ', 'Major props putting  Part One  title', 'IMF s Key Success', 'One satisfying action IMAX experiences', 'Your high expectations get beating ', 'Tom Cruise s Signature Spy Action Thriller Sets Path For A Better FollowUp', 'Lacks The Perfection Of Fallout  But Still A Strong Entry', 'What Reckon ', 'The Mission You Have Seen Many Times Already', 'Does More Than Blow The Doors Off ', 'Run Tom Cruise Run', 'Back bigger better ever  Dead Reckoning Part One puts blockbusters shame', 'The gold standard Hollywood action movies', 'Mission Impossible  Dead Reckoning Part 1']</t>
         </is>
       </c>
     </row>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>["What 's fuss ?", 'Brooding Batman', 'Engaging/Should Have Half Hour Taken Off', 'Heavy going , rewarding , ending .', 'Overhyped , Too Long , Melodramatic Boring', 'Quite good ...', 'The Riddler takes The Batman .', 'Batman : Year 3 ... The Roots ... Detective Noir ... Batman Begins Life-Long Heroic-Jiustice', 'A rare superhero movie substance', 'This magnificent addition super hero genre absolute must see Batman fans', 'Quite worthwhile , first : talk , please ?', 'new dark knight', 'Perhaps definitive version , definitely worthwhile take', 'Another Batman another good one .', "Reeves ' even Darker Knight scores right places .", 'Nice see Batman detective .', "Distinctive , 's sure", 'luckily batman batgirl', 'Riddle ...', 'Decent popcorn film', "Dark modern style reboot bat 's tied suspense , action , romance .", 'Long Dark Knight Of The Soul', 'Neo-noir Batman best .', 'A good Batman movie', 'B Vengeance']</t>
+          <t>['What s fuss ', 'Brooding Batman', 'EngagingShould Have Half Hour Taken Off', 'Heavy going  rewarding  ending ', 'Overhyped  Too Long  Melodramatic Boring', 'Quite good ', 'The Riddler takes The Batman ', 'Batman  Year 3  The Roots  Detective Noir  Batman Begins LifeLong HeroicJiustice', 'A rare superhero movie substance', 'This magnificent addition super hero genre absolute must see Batman fans', 'Quite worthwhile  first  talk  please ', 'new dark knight', 'Perhaps definitive version  definitely worthwhile take', 'Another Batman another good one ', 'Reeves  even Darker Knight scores right places ', 'Nice see Batman detective ', 'Distinctive  s sure', 'luckily batman batgirl', 'Riddle ', 'Decent popcorn film', 'Dark modern style reboot bat s tied suspense  action  romance ', 'Long Dark Knight Of The Soul', 'Neonoir Batman best ', 'A good Batman movie', 'B Vengeance']</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>['Perhaps teen ... still live 1980s .', 'Cool , fresh relevant- another classic John Hughes film', 'The pinnacle 1980s high school comedy ?', 'Enforced socialization', 'iconic 80s John Hughes movie', 'Classic Mix Laughs Drama', 'Just Little Over Top', 'Time life', 'Lacks subtly , real laughs real emotion still OK genre film', 'So remember school positively negatively ?', 'The Quintessential Film 1980s', 'High school fantasy ...', 'wonderful John Hughes film', 'Sweet ! One best film time', 'The Brat Pack', 'You pay play .', 'They met , changed lives forever .', 'Not good second time around', 'Quite simply one best teen films 80s', 'Weirdo', 'This time great American movie . Absolute cinematic gold one John Hughes best films .', 'Great character movie .', 'Any teenager watch point', 'The Best After School Special', 'Forced , artificial dialogs eye-rolling character arcs']</t>
+          <t>['Perhaps teen  still live 1980s ', 'Cool  fresh relevant another classic John Hughes film', 'The pinnacle 1980s high school comedy ', 'Enforced socialization', 'iconic 80s John Hughes movie', 'Classic Mix Laughs Drama', 'Just Little Over Top', 'Time life', 'Lacks subtly  real laughs real emotion still OK genre film', 'So remember school positively negatively ', 'The Quintessential Film 1980s', 'High school fantasy ', 'wonderful John Hughes film', 'Sweet  One best film time', 'The Brat Pack', 'You pay play ', 'They met  changed lives forever ', 'Not good second time around', 'Quite simply one best teen films 80s', 'Weirdo', 'This time great American movie  Absolute cinematic gold one John Hughes best films ', 'Great character movie ', 'Any teenager watch point', 'The Best After School Special', 'Forced  artificial dialogs eyerolling character arcs']</t>
         </is>
       </c>
     </row>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>['Practically impossible describe ... need see .', 'Lamentable', 'imaginative original', 'It Seemed Endless', 'old', 'Everything Everywhere All Once', "I n't see hype .", 'Weight Multiverse Talent', 'Overhyped Overrated Bad Trip', 'Rather impressive movie ...', 'Now I like !', 'We go circle , laundry , income taxes , laundry ... ?', 'Everything Everywhere All Once deserved praise got !', 'Disappointing : style substance', 'This early pick best picture 2022', 'Absolutely exemplary , truly brilliant , difficult even put words', 'Felt Like I Was Seeing Inside My Own Mind Screen', 'Bonkers !', 'There always something love', "That 's something different normally get 's positive .", 'best film 2022', 'Open third ( googly ) eye ...', 'Fantastic', "It starts little slow , 's worth", 'Cinema Omnivore - Everything Everywhere All Once ( 2022 ) 8.2/10']</t>
+          <t>['Practically impossible describe  need see ', 'Lamentable', 'imaginative original', 'It Seemed Endless', 'old', 'Everything Everywhere All Once', 'I nt see hype ', 'Weight Multiverse Talent', 'Overhyped Overrated Bad Trip', 'Rather impressive movie ', 'Now I like ', 'We go circle  laundry  income taxes  laundry  ', 'Everything Everywhere All Once deserved praise got ', 'Disappointing  style substance', 'This early pick best picture 2022', 'Absolutely exemplary  truly brilliant  difficult even put words', 'Felt Like I Was Seeing Inside My Own Mind Screen', 'Bonkers ', 'There always something love', 'That s something different normally get s positive ', 'best film 2022', 'Open third  googly  eye ', 'Fantastic', 'It starts little slow  s worth', 'Cinema Omnivore  Everything Everywhere All Once  2022  8210']</t>
         </is>
       </c>
     </row>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>["Considering I 'old ' history teacher , movie n't exactly geared towards ...", 'A modern classic', 'A big surprise', 'Fincher-Sorkin-Eisenberg-Garfield-Zuckerberg', 'Fincher Doing Facebook ? He Makes It Work', 'Zuckerberg Great ?', 'Facebook lot answer .', 'Sorkins web/back', 'Geniality Arrogance Associated Absolute Lack Ethics Respect', 'Smart , snappy engaging thanks good writing , performance structure', 'linked', "By Far David Fincher 's Best Work", 'Sorkin king', "A masterful film ... `` I 'm CEO , Bitch ``", "Good ideas universe '", 'The Social Network one compelling movies last year', 'Intelligent fun', 'Talented Ensemble All Contribute Create `` Real Life `` Story New Age', 'Great movie', 'Well Made Film On A Totally Unimportant Subject', 'Eisenberg Born Role', 'THE SOCIAL NETWORK ( David Fincher , 2010 ) * * * 1/2', 'Seems Like Most People Are More Interested Using Facebook Than Seeing Movies About It', 'Will friend ?', 'Interesting']</t>
+          <t>['Considering I old  history teacher  movie nt exactly geared towards ', 'A modern classic', 'A big surprise', 'FincherSorkinEisenbergGarfieldZuckerberg', 'Fincher Doing Facebook  He Makes It Work', 'Zuckerberg Great ', 'Facebook lot answer ', 'Sorkins webback', 'Geniality Arrogance Associated Absolute Lack Ethics Respect', 'Smart  snappy engaging thanks good writing  performance structure', 'linked', 'By Far David Fincher s Best Work', 'Sorkin king', 'A masterful film   I m CEO  Bitch ', 'Good ideas universe ', 'The Social Network one compelling movies last year', 'Intelligent fun', 'Talented Ensemble All Contribute Create  Real Life  Story New Age', 'Great movie', 'Well Made Film On A Totally Unimportant Subject', 'Eisenberg Born Role', 'THE SOCIAL NETWORK  David Fincher  2010     12', 'Seems Like Most People Are More Interested Using Facebook Than Seeing Movies About It', 'Will friend ', 'Interesting']</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>['I odd reviewer NOT love film .', 'A story well worth owning', 'best one yet', 'We Already Know Story', 'beautiful', "You Ca n't Always Get What You Want", 'Remaking - good way', 'Lady Bird meets Hermione Granger meets Ellie Grant meets Paul Atreides meets Miranda Priestley meets Saul Goodman', 'Filmed entirely Massachusetts , version filled movie stars .', 'A joy', 'Good acting costumes', 'Okay , league 1949 1994 versions', 'Glorious', 'instant classic', 'Saoirse carries show story fragmented', 'Perhaps good could .', 'A reflection life coming age story also .', "Gerwig 's version LITTLE WOMEN fully unleashed , poignantly relatable girl-power manifesto vengeance", 'One best pics year .', 'Very well written love story', 'Finally , Little Women I enjoyed', 'My first encounter story', 'A Joyful Celebration Of Sisterhood', 'Great movie', "What 's Not Like ?"]</t>
+          <t>['I odd reviewer NOT love film ', 'A story well worth owning', 'best one yet', 'We Already Know Story', 'beautiful', 'You Ca nt Always Get What You Want', 'Remaking  good way', 'Lady Bird meets Hermione Granger meets Ellie Grant meets Paul Atreides meets Miranda Priestley meets Saul Goodman', 'Filmed entirely Massachusetts  version filled movie stars ', 'A joy', 'Good acting costumes', 'Okay  league 1949 1994 versions', 'Glorious', 'instant classic', 'Saoirse carries show story fragmented', 'Perhaps good could ', 'A reflection life coming age story also ', 'Gerwig s version LITTLE WOMEN fully unleashed  poignantly relatable girlpower manifesto vengeance', 'One best pics year ', 'Very well written love story', 'Finally  Little Women I enjoyed', 'My first encounter story', 'A Joyful Celebration Of Sisterhood', 'Great movie', 'What s Not Like ']</t>
         </is>
       </c>
     </row>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>['The cast alone makes worthwhile ...', '`` They Drag Me Back In Again ``', 'Val Kilmer steals show', 'Simply phenomenal ...', 'Exciting revisionist Western plenty tension , thrills , gunplay high body-count .', "Hey , Let 's Play Cowboys ...", 'A Confederacy Mustaches', 'Good western film , Kurt Russell Val Kilmer carry .', "Hell 's coming !", 'Excellent epic . Wyatt Earp icon old west .', 'Heckuva Lotta Fun', 'Rollicking , entertaining western', 'Indeed , sir . The last charge Wyatt Earp immortals .', 'Slow meandering', 'Not Historically Accurate Enjoyable All Same', '`` Skin smokewagon see happens . ``', "There 's nothing I 'd change film", 'Perhaps awesome western ever made .', 'Great', 'Entertaining Western ; memorable Kilmer', '`` Tombstone `` `` Wyatt Earp `` ? How BOTH', "Best Wester I 've seen ! ! !", "`` Never saw rich man n't guilty conscience ``", 'The O.K . Corral', 'Tombstone']</t>
+          <t>['The cast alone makes worthwhile ', ' They Drag Me Back In Again ', 'Val Kilmer steals show', 'Simply phenomenal ', 'Exciting revisionist Western plenty tension  thrills  gunplay high bodycount ', 'Hey  Let s Play Cowboys ', 'A Confederacy Mustaches', 'Good western film  Kurt Russell Val Kilmer carry ', 'Hell s coming ', 'Excellent epic  Wyatt Earp icon old west ', 'Heckuva Lotta Fun', 'Rollicking  entertaining western', 'Indeed  sir  The last charge Wyatt Earp immortals ', 'Slow meandering', 'Not Historically Accurate Enjoyable All Same', ' Skin smokewagon see happens  ', 'There s nothing I d change film', 'Perhaps awesome western ever made ', 'Great', 'Entertaining Western  memorable Kilmer', ' Tombstone   Wyatt Earp   How BOTH', 'Best Wester I ve seen   ', ' Never saw rich man nt guilty conscience ', 'The OK  Corral', 'Tombstone']</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>['A contender favourite year far ?', 'Simply wonderful', 'Good Artsy Neo-Noir', "Unlike Anything You 've Ever Seen Before", 'Tense Violent Forgettable', 'masterpiece', 'Fantastic Voyage', 'A Driver without Name', 'An effective , engaging stylish neo-noir uses stillness sudden violence really well', 'Interesting attractive film big star cast giving stunning performance', 'life dangerous road', 'A stylish ride .', 'The Dangerous Ryan Gosling !', 'Laconic , brooding ... glamorously narcissistic , bursts bloody violence', 'Seriously , bored death', 'Not bad , overly self-indulgent .', '`` One Critic called European . ``', 'Good , great', 'Fate ? Unknown ...', 'Easily one best films 2011', "It entertaining 1978 `` The Driver `` 's unqiueness", 'DRIVE ( Nicolas Winding Refn , 2011 ) * * *', 'This underrated gem one favorite movies', 'If Nothing Else , Coolest Movie Year', 'A 5 Minute Window']</t>
+          <t>['A contender favourite year far ', 'Simply wonderful', 'Good Artsy NeoNoir', 'Unlike Anything You ve Ever Seen Before', 'Tense Violent Forgettable', 'masterpiece', 'Fantastic Voyage', 'A Driver without Name', 'An effective  engaging stylish neonoir uses stillness sudden violence really well', 'Interesting attractive film big star cast giving stunning performance', 'life dangerous road', 'A stylish ride ', 'The Dangerous Ryan Gosling ', 'Laconic  brooding  glamorously narcissistic  bursts bloody violence', 'Seriously  bored death', 'Not bad  overly selfindulgent ', ' One Critic called European  ', 'Good  great', 'Fate  Unknown ', 'Easily one best films 2011', 'It entertaining 1978  The Driver  s unqiueness', 'DRIVE  Nicolas Winding Refn  2011    ', 'This underrated gem one favorite movies', 'If Nothing Else  Coolest Movie Year', 'A 5 Minute Window']</t>
         </is>
       </c>
     </row>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>['A second adaptation book almost good first', 'A good thriller , one caveat', 'David Fincher Recreates', 'Excellent Performances Strong Direction', 'Will They Continue Series ?', 'Connections', 'Solidly told story builds well real visual impact thanks direction cinematography', 'Nice remake David Fincher Larsson novel fine performances Daniel Craig Rooney Mara', 'Well-crafted mystery , Rooney Mara Lisbeth Salander best reason see', 'A strong film', 'Much Too Soon Remake', 'About good original', 'Book', 'Fincher Style Spare , But Terrible Material', 'Comes forth Thaw', "A pretty standard movie part 's necessarily bad thing course .", 'Mesmerizing', 'The Girl Dragon Tattoo', 'Brilliant Cinema From All Concerned', 'This phenomenal piece film-making stands scrutiny remake status ; riveting , unconventional work .', "Complex depth mystery 's spiced raw erotic feel good sex appeal .", 'The Girl Dragon Tattoo : 7/10', 'A memorable girl', 'A Nutshell Review : The Girl Dragon Tattoo', 'notes']</t>
+          <t>['A second adaptation book almost good first', 'A good thriller  one caveat', 'David Fincher Recreates', 'Excellent Performances Strong Direction', 'Will They Continue Series ', 'Connections', 'Solidly told story builds well real visual impact thanks direction cinematography', 'Nice remake David Fincher Larsson novel fine performances Daniel Craig Rooney Mara', 'Wellcrafted mystery  Rooney Mara Lisbeth Salander best reason see', 'A strong film', 'Much Too Soon Remake', 'About good original', 'Book', 'Fincher Style Spare  But Terrible Material', 'Comes forth Thaw', 'A pretty standard movie part s necessarily bad thing course ', 'Mesmerizing', 'The Girl Dragon Tattoo', 'Brilliant Cinema From All Concerned', 'This phenomenal piece filmmaking stands scrutiny remake status  riveting  unconventional work ', 'Complex depth mystery s spiced raw erotic feel good sex appeal ', 'The Girl Dragon Tattoo  710', 'A memorable girl', 'A Nutshell Review  The Girl Dragon Tattoo', 'notes']</t>
         </is>
       </c>
     </row>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>['Not bad return investment !', 'A welcome yet uneasy visit', 'Extremely Well-Written Tale Racial Horrors', 'Do The Rock Steady', 'Simply put film outstanding', 'Or stay ... watch', 'Wrong time , wrong place', 'Above Average Horror Film', 'Enjoyably creepy tense', 'Quite different story makes interesting movie ...', 'Tense , intriguing , mysterious well performed terror thriller black humor', "biting satire makes clear racism n't died", 'Horror racial twist', 'Wonderfully absurd effectively creepy .', "Guess Who 's Comig Dinner", "What 's happening ? This n't feel right !", 'A bit overrated entertaining .', 'Unnerving unexpected', 'Behold . The Coagula .', "DEFINITELY DERIVATIVE STORY ... BUT TWISTED INTO TODAY 'S RELEVANCE", 'Excellent , genre-combining directorial debut Jordan Peele', "Good But Do n't Believe All The Hype", 'Jordan Peele Now Major Player Directing Game', "I liked n't love .", "`` We 're Huggers ! `` ..."]</t>
+          <t>['Not bad return investment ', 'A welcome yet uneasy visit', 'Extremely WellWritten Tale Racial Horrors', 'Do The Rock Steady', 'Simply put film outstanding', 'Or stay  watch', 'Wrong time  wrong place', 'Above Average Horror Film', 'Enjoyably creepy tense', 'Quite different story makes interesting movie ', 'Tense  intriguing  mysterious well performed terror thriller black humor', 'biting satire makes clear racism nt died', 'Horror racial twist', 'Wonderfully absurd effectively creepy ', 'Guess Who s Comig Dinner', 'What s happening  This nt feel right ', 'A bit overrated entertaining ', 'Unnerving unexpected', 'Behold  The Coagula ', 'DEFINITELY DERIVATIVE STORY  BUT TWISTED INTO TODAY S RELEVANCE', 'Excellent  genrecombining directorial debut Jordan Peele', 'Good But Do nt Believe All The Hype', 'Jordan Peele Now Major Player Directing Game', 'I liked nt love ', ' We re Huggers   ']</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>["There 's lot like film one distinct disadvantage .", 'Handsomely filmed adaptation beautiful book !', 'Good', 'She speaks mind', 'A great cast creates good romance', 'see ?', 'Mr. Sutherland spoils us ..', 'One Most Delightful Beautiful Romances I Have Ever Seen', 'Pride Prejudice-Pardon My Bias * *', 'Juxtapositions', 'The Bennets', 'All I saw greasy hair', 'This well done picture fantastic storyline worthwhile characters .', 'another ( long ) Austen tale .', 'Leave Your Expectations Door Just Have Fun', 'Bewitched , Body Soul', 'Very good film version Austen novel', 'Best version fresh lively', 'Distilled Austen Makes Fine Brew', 'The New Definitive Elizabeth Bennet', 'A Nutshell Review : Pride Prejudice', 'Another brilliant Jane Austin adaptation', 'The shortest way two hearts never straight line ...', "Well directed , well acted poetic ... I like types films n't really", 'More Jane Austen crap .']</t>
+          <t>['There s lot like film one distinct disadvantage ', 'Handsomely filmed adaptation beautiful book ', 'Good', 'She speaks mind', 'A great cast creates good romance', 'see ', 'Mr Sutherland spoils us ', 'One Most Delightful Beautiful Romances I Have Ever Seen', 'Pride PrejudicePardon My Bias  ', 'Juxtapositions', 'The Bennets', 'All I saw greasy hair', 'This well done picture fantastic storyline worthwhile characters ', 'another  long  Austen tale ', 'Leave Your Expectations Door Just Have Fun', 'Bewitched  Body Soul', 'Very good film version Austen novel', 'Best version fresh lively', 'Distilled Austen Makes Fine Brew', 'The New Definitive Elizabeth Bennet', 'A Nutshell Review  Pride Prejudice', 'Another brilliant Jane Austin adaptation', 'The shortest way two hearts never straight line ', 'Well directed  well acted poetic  I like types films nt really', 'More Jane Austen crap ']</t>
         </is>
       </c>
     </row>
@@ -11657,7 +11657,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>['Sort like `` Forrest Gump `` run reverse without laughs .', 'Unusual , touching exquisitely filmed', 'The Curious Case Oddly Unappealing Film', 'He `` Youthens ``', 'Fascinating compelling', 'Magical', 'Intriguing Premise , But ...', 'splendid simplicity', 'Backwards', 'Intriguing Unique', 'Technically impressive weaknesses material makes `` good `` film \x96 great one everyone suggesting', 'Interesting story ...', 'A touching memorable movie intimate emotion , sensitivity enjoyable dramatic scenes', 'I curious elderly', 'A Classic Tale Adapted For Modern World', 'Wizard David Fincher', 'As Time Goes By', 'much say', 'The Curious Case Benjamin Button provided unique performance Brad Pitt', 'Cate Blanchett astounding !', 'Like Forrest Gump without wit charm', '`` We end diapers . ``', 'Good movie', 'Long , long movie short F. Scott Fitzgerald story ...', 'Whoops']</t>
+          <t>['Sort like  Forrest Gump  run reverse without laughs ', 'Unusual  touching exquisitely filmed', 'The Curious Case Oddly Unappealing Film', 'He  Youthens ', 'Fascinating compelling', 'Magical', 'Intriguing Premise  But ', 'splendid simplicity', 'Backwards', 'Intriguing Unique', 'Technically impressive weaknesses material makes  good  film  great one everyone suggesting', 'Interesting story ', 'A touching memorable movie intimate emotion  sensitivity enjoyable dramatic scenes', 'I curious elderly', 'A Classic Tale Adapted For Modern World', 'Wizard David Fincher', 'As Time Goes By', 'much say', 'The Curious Case Benjamin Button provided unique performance Brad Pitt', 'Cate Blanchett astounding ', 'Like Forrest Gump without wit charm', ' We end diapers  ', 'Good movie', 'Long  long movie short F Scott Fitzgerald story ', 'Whoops']</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>['A lovely little film', 'Charming , hugely enjoyable !', 'The Candy Man', 'Pure movie magic', 'Decent Fun', 'Roald Is Never Dull !', 'The stuff dreams .', 'Fun weak musical numbers', 'Brilliant emotive family tale colorful characters , fantasy imagination', "That stuff 'll rot teeth !", 'A Good Message In Which Goodness Prevails', 'A whole film imagination', '`` What -- freak-out ? ! ``', 'Sweet chocolate !', "Willy Wonka Chocolate Factory filmed version Roald Dahl 's book I happen prefer two versions", "I 've got golden ticket !", 'Wonderful , surreal movie', 'So shines good deed weary world .', 'Willy Wonka And The Communist Factory', 'Imaginative whimsical cautionary tale pleasant score ...', 'Delightful Willa Wonka adventure', 'Scary', 'This movie time cinematic gem', "I Ca n't Forgive It Not Being Book", 'Still one ultimate kids movies .']</t>
+          <t>['A lovely little film', 'Charming  hugely enjoyable ', 'The Candy Man', 'Pure movie magic', 'Decent Fun', 'Roald Is Never Dull ', 'The stuff dreams ', 'Fun weak musical numbers', 'Brilliant emotive family tale colorful characters  fantasy imagination', 'That stuff ll rot teeth ', 'A Good Message In Which Goodness Prevails', 'A whole film imagination', ' What  freakout   ', 'Sweet chocolate ', 'Willy Wonka Chocolate Factory filmed version Roald Dahl s book I happen prefer two versions', 'I ve got golden ticket ', 'Wonderful  surreal movie', 'So shines good deed weary world ', 'Willy Wonka And The Communist Factory', 'Imaginative whimsical cautionary tale pleasant score ', 'Delightful Willa Wonka adventure', 'Scary', 'This movie time cinematic gem', 'I Ca nt Forgive It Not Being Book', 'Still one ultimate kids movies ']</t>
         </is>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>["That 's Hugh Grant ? ! It seems unlike films !", 'chock full Ritchie style', 'Ritchie Back In Form', 'The Gentlemen', 'Guy Ritchie', 'Another disorganized well-populated crime caper great director Guy Ritchie', "Must hold record frequent use ' C ' word .", "It 's enough act like king , BE king .", 'Complex', 'A star studded gem', 'GUY RITCHIE FUN-FEST ... SLICKLY-PACED ... DIALOG &amp; FASHION SHOW ... AN UN-PC ROMP', 'Superb', 'Coach', 'need see one ...', 'back Ritchie roots', 'Ritchie back best . Probably best movie yet .', 'A return form league dishonorable bastards', "'There 's one rule jungle : lion 's hungry , eats ! '", 'Play game , Guy .', 'Ritchie safely reverts blokeish , laddish idiom claim fame', 'fan types movies', 'Enthralling experience', "Any bad ? Yes . It 's smart . It simply NOT want stop smart , ending boring half hour SMART talk smart talk ....", 'A return form Guy Ritchie', 'Guy Ritchie hits right']</t>
+          <t>['That s Hugh Grant   It seems unlike films ', 'chock full Ritchie style', 'Ritchie Back In Form', 'The Gentlemen', 'Guy Ritchie', 'Another disorganized wellpopulated crime caper great director Guy Ritchie', 'Must hold record frequent use  C  word ', 'It s enough act like king  BE king ', 'Complex', 'A star studded gem', 'GUY RITCHIE FUNFEST  SLICKLYPACED  DIALOG  FASHION SHOW  AN UNPC ROMP', 'Superb', 'Coach', 'need see one ', 'back Ritchie roots', 'Ritchie back best  Probably best movie yet ', 'A return form league dishonorable bastards', 'There s one rule jungle  lion s hungry  eats  ', 'Play game  Guy ', 'Ritchie safely reverts blokeish  laddish idiom claim fame', 'fan types movies', 'Enthralling experience', 'Any bad  Yes  It s smart  It simply NOT want stop smart  ending boring half hour SMART talk smart talk ', 'A return form Guy Ritchie', 'Guy Ritchie hits right']</t>
         </is>
       </c>
     </row>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>['harrowing story', 'beautiful . strange manner', 'Non-Stop Brutal Action', 'Great , simply great ...', 'The Naked Prey', 'Disclaimer : No Jaguars harmed making movie . But maybe monkeys feed crew .', "Gibson 's ( gory ) total eclipse heart ...", 'Run Away', 'Savagery abound oddly entertaining ACTION film .', 'Savage', 'A grand action adventure highest order', '`` This forest . And I afraid . ``', 'This brilliant picture must see', "Ca n't wait Hi Def TV", 'This Forest', 'An impressive intense viewing experience .', 'Jungle action', 'whats Mayan', 'National Geographic Visual Splendor without Historical Depth Needed', 'Realistic brutal - fascinating piece cinema !', 'Gibson loves gore .', 'A Nutshell Review : Apocalypto', 'impressive', "I n't know say incredible movie", 'Very well made film , low rating due difficult film watch left feeling sick .']</t>
+          <t>['harrowing story', 'beautiful  strange manner', 'NonStop Brutal Action', 'Great  simply great ', 'The Naked Prey', 'Disclaimer  No Jaguars harmed making movie  But maybe monkeys feed crew ', 'Gibson s  gory  total eclipse heart ', 'Run Away', 'Savagery abound oddly entertaining ACTION film ', 'Savage', 'A grand action adventure highest order', ' This forest  And I afraid  ', 'This brilliant picture must see', 'Ca nt wait Hi Def TV', 'This Forest', 'An impressive intense viewing experience ', 'Jungle action', 'whats Mayan', 'National Geographic Visual Splendor without Historical Depth Needed', 'Realistic brutal  fascinating piece cinema ', 'Gibson loves gore ', 'A Nutshell Review  Apocalypto', 'impressive', 'I nt know say incredible movie', 'Very well made film  low rating due difficult film watch left feeling sick ']</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>['Imaginative , funny , entertaining- I loved !', 'Gags &amp; special effects star names', 'Childhood favourite all-time classic', 'Who You Gon na Call ?', 'Still funny years', 'Classic Comedy That Gets Better With Time', 'So Much Fun/Such Great People', 'Ghostbusters', 'Collect call', 'Iffy effects , good comedy , great Murray \x96 probably remembered better', 'Always entertaining ...', 'Fun sympathetic classic 80s plenty fantasy , humor awesome special effects', "The first time I ever watched movie , scared ( n't worry ; I later found funny ) .", "There 's something weird , n't look good .", 'The Most Successful Mixture Horror Comedy , Hands Down', 'Still Very Funny &amp; Entertaining', 'A decent comedy', 'One Funnest movies ever', 'Badly dated , dated enough watch remake', "I ai n't 'fraid ghost", '28 years later , flowers STILL standing !', 'The Natural Artificial', 'They came , saw , briefly conquered 80s .', 'Who You Gon na Call', 'Bill Murray comedy silly cult classic screamingly funny ...']</t>
+          <t>['Imaginative  funny  entertaining I loved ', 'Gags  special effects star names', 'Childhood favourite alltime classic', 'Who You Gon na Call ', 'Still funny years', 'Classic Comedy That Gets Better With Time', 'So Much FunSuch Great People', 'Ghostbusters', 'Collect call', 'Iffy effects  good comedy  great Murray  probably remembered better', 'Always entertaining ', 'Fun sympathetic classic 80s plenty fantasy  humor awesome special effects', 'The first time I ever watched movie  scared  nt worry  I later found funny  ', 'There s something weird  nt look good ', 'The Most Successful Mixture Horror Comedy  Hands Down', 'Still Very Funny  Entertaining', 'A decent comedy', 'One Funnest movies ever', 'Badly dated  dated enough watch remake', 'I ai nt fraid ghost', '28 years later  flowers STILL standing ', 'The Natural Artificial', 'They came  saw  briefly conquered 80s ', 'Who You Gon na Call', 'Bill Murray comedy silly cult classic screamingly funny ']</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>['A CGI film grown-ups kids .', 'existential crisis animated character', 'I Like The Jokes In The Earlier Entries', 'Wishful ( thinking )', 'Quite enjoyable ...', 'Down last life , Puss Boots must get creative .', 'Puss Boots : The Last Wish', 'The storyline picture smart depth may anticipate', 'Perfection . One greatest cinematic spectacles recent memory , bar none .', 'Puss Boots : The Last Wish', 'Pray mercy Puss ... boots .', 'Nice fun little animated film long live Puss !', "`` I 'll get , p-r-e-t-t-i-e-s , . . . ``", 'A animated family masterpiece !', 'Fairy Tales unite !', 'Far better right', 'decent ...', 'A Visually Stunning Sequel With A Cheerful Life Lesson', 'No Courage Without Fear ...', 'Amazing writing .', 'Cat Antonio Banderas', 'Good Enough', 'Puss back stylish animated fun action packed film', 'One darn good entertainer !', 'Darker , Better Brings childhood back']</t>
+          <t>['A CGI film grownups kids ', 'existential crisis animated character', 'I Like The Jokes In The Earlier Entries', 'Wishful  thinking ', 'Quite enjoyable ', 'Down last life  Puss Boots must get creative ', 'Puss Boots  The Last Wish', 'The storyline picture smart depth may anticipate', 'Perfection  One greatest cinematic spectacles recent memory  bar none ', 'Puss Boots  The Last Wish', 'Pray mercy Puss  boots ', 'Nice fun little animated film long live Puss ', ' I ll get  pretties     ', 'A animated family masterpiece ', 'Fairy Tales unite ', 'Far better right', 'decent ', 'A Visually Stunning Sequel With A Cheerful Life Lesson', 'No Courage Without Fear ', 'Amazing writing ', 'Cat Antonio Banderas', 'Good Enough', 'Puss back stylish animated fun action packed film', 'One darn good entertainer ', 'Darker  Better Brings childhood back']</t>
         </is>
       </c>
     </row>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>['A modern take', 'worthy remake', 'feeling war', 'An incredibly powerful movie .', 'Brutal compelling ...', 'Splendid war epic', 'Great adaptation remake', 'Harrowing Movie About Horrors War', 'The absurdity war .', 'All Quiet Western Front', 'Apparently difference WWI Battlefield I', 'Absolutely Nothing !', "Truly incredible , I n't bashed 's one best war movies ever !", 'Realistic , brutal incredibly disturbing .', "It 's well-made . I prefer original .", 'liked ...', 'Relive horrors World War I Western Front 9 decades CLASSIC motion picture .', 'storm silence', 'Stirring , full blooded war picture', 'Technically superb suffer overkill .', "It 's Okay", 'A Timely Reminder Of What War Leaves Behind In Its Wake', 'Superb War Movie', 'One Best War Films All Time - All Quiet Western Front', 'Tanks For The Show']</t>
+          <t>['A modern take', 'worthy remake', 'feeling war', 'An incredibly powerful movie ', 'Brutal compelling ', 'Splendid war epic', 'Great adaptation remake', 'Harrowing Movie About Horrors War', 'The absurdity war ', 'All Quiet Western Front', 'Apparently difference WWI Battlefield I', 'Absolutely Nothing ', 'Truly incredible  I nt bashed s one best war movies ever ', 'Realistic  brutal incredibly disturbing ', 'It s wellmade  I prefer original ', 'liked ', 'Relive horrors World War I Western Front 9 decades CLASSIC motion picture ', 'storm silence', 'Stirring  full blooded war picture', 'Technically superb suffer overkill ', 'It s Okay', 'A Timely Reminder Of What War Leaves Behind In Its Wake', 'Superb War Movie', 'One Best War Films All Time  All Quiet Western Front', 'Tanks For The Show']</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>['Expertly crafted ... sort film I love .', 'old man Scorsese', 'Sustained Pain', 'The Irishman', 'Not theme park ride', 'Great Film', 'Consistently engaging , filled talent , satisfying reflective sunset feel whole thing', 'Marty', 'Shodoten Show Be Doe ...', 'brilliant film gimmick ready prime time', "Martin Scorsese 's The Irishman fine epic tale starring Robert De Niro , Al Pacino , Joe Pesci", 'Not thing', 'Somewhat like Goodfellas - Reprise', 'Incredible story , well executed', 'I loved beginning end strongly recommend .', '`` Goodfellas `` Redux', 'holiday gift cinephiles', 'Another great Mafia movie .', 'I Heard You Paint Houses', "Lots history via hitman 's POV", "'You always charge guy gun ! With knife , run away ! '", 'It left numb ends', 'Confessions home decorator .', 'Nostalgic value lots flaws', "Long depth crime drama 's old style looking tense mob life thru years ."]</t>
+          <t>['Expertly crafted  sort film I love ', 'old man Scorsese', 'Sustained Pain', 'The Irishman', 'Not theme park ride', 'Great Film', 'Consistently engaging  filled talent  satisfying reflective sunset feel whole thing', 'Marty', 'Shodoten Show Be Doe ', 'brilliant film gimmick ready prime time', 'Martin Scorsese s The Irishman fine epic tale starring Robert De Niro  Al Pacino  Joe Pesci', 'Not thing', 'Somewhat like Goodfellas  Reprise', 'Incredible story  well executed', 'I loved beginning end strongly recommend ', ' Goodfellas  Redux', 'holiday gift cinephiles', 'Another great Mafia movie ', 'I Heard You Paint Houses', 'Lots history via hitman s POV', 'You always charge guy gun  With knife  run away  ', 'It left numb ends', 'Confessions home decorator ', 'Nostalgic value lots flaws', 'Long depth crime drama s old style looking tense mob life thru years ']</t>
         </is>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>['I yet see film decade touched much The Notebook', 'Noah And Allie Bridging The Years', 'well made traditional romance', 'Great', 'Then', 'Romance never dies', 'Beautiful Sensitive Romance', 'One Those Love Stories That Will Go Down History', "The Memory Play 's Tricks", 'A beautiful , evocative textured picture .', 'Like mother , like daughter . Southern Belles .', 'Heart-breaking great', 'Touching , sentimental story star-crossed lovers ...', 'Funny', 'What lousy love story', 'sweet ! well done .', 'Very professional well made movie . Cast &amp; crew overcome movie clichés .', 'Bittersweet old-time Hollywood melodrama fine acting all-around', 'My Favorite Scene One Geese , Gosling', 'Passionate sweeping', 'The Notebook', 'The cinematic romance tests reality fantasy', "You 're joking , right ?", 'When love transcends reality become lasting one ... remain even longer ...', 'Dire']</t>
+          <t>['I yet see film decade touched much The Notebook', 'Noah And Allie Bridging The Years', 'well made traditional romance', 'Great', 'Then', 'Romance never dies', 'Beautiful Sensitive Romance', 'One Those Love Stories That Will Go Down History', 'The Memory Play s Tricks', 'A beautiful  evocative textured picture ', 'Like mother  like daughter  Southern Belles ', 'Heartbreaking great', 'Touching  sentimental story starcrossed lovers ', 'Funny', 'What lousy love story', 'sweet  well done ', 'Very professional well made movie  Cast  crew overcome movie clichs ', 'Bittersweet oldtime Hollywood melodrama fine acting allaround', 'My Favorite Scene One Geese  Gosling', 'Passionate sweeping', 'The Notebook', 'The cinematic romance tests reality fantasy', 'You re joking  right ', 'When love transcends reality become lasting one  remain even longer ', 'Dire']</t>
         </is>
       </c>
     </row>
@@ -12053,7 +12053,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>['An 80s classic', 'simple 80s action fun', 'Fun Mix Action Sci-Fi', 'An alien jungle', 'I see', 'A Timeless Sci-Fi Action Movie', 'A B-movie creature feature given A treatment great action director', 'Welcome jungle ...', 'Nail-bitIng science fiction/thriller picture packs action-packed start finish', "Let 's consider movie predates ( pun intended )", 'Pure action bliss .', 'Ridiculously Over-rated', 'If bleed , die .....', 'Combat , mano pseudopod .', 'Pure Escapism', 'A quality Schwarzenegger flick', '`` If bleeds , kill . ``', 'Powerful Picture', 'Ball busting Vietnam allegory McTiernan style delivers wholesale .', "They Do n't Make Them Like This Anymore", 'The tone similar `` Alien `` movies Predator pursuing victms', 'Brutal', 'The Hunters Become Hunted', 'Let Us Prey ...', 'Easily time classic']</t>
+          <t>['An 80s classic', 'simple 80s action fun', 'Fun Mix Action SciFi', 'An alien jungle', 'I see', 'A Timeless SciFi Action Movie', 'A Bmovie creature feature given A treatment great action director', 'Welcome jungle ', 'NailbitIng science fictionthriller picture packs actionpacked start finish', 'Let s consider movie predates  pun intended ', 'Pure action bliss ', 'Ridiculously Overrated', 'If bleed  die ', 'Combat  mano pseudopod ', 'Pure Escapism', 'A quality Schwarzenegger flick', ' If bleeds  kill  ', 'Powerful Picture', 'Ball busting Vietnam allegory McTiernan style delivers wholesale ', 'They Do nt Make Them Like This Anymore', 'The tone similar  Alien  movies Predator pursuing victms', 'Brutal', 'The Hunters Become Hunted', 'Let Us Prey ', 'Easily time classic']</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>['Betting corruption', 'People Always Pay Their Mortgages', "n't really like expositions", 'A Creative Work Art', 'So Much Greed/So Little Compassion', 'realistic , provocative', 'Too big fail', 'Getting short end', 'A Joke Serious Crisis', 'Interesting approach wholly successful still engaging enjoyable film', 'The Big Short Falls Bit Short', 'Interesting , fun , depressing', 'knew Adam McKay wanted ... Oliver Stone ( ! ) fiery polemic', 'The Big Short', 'How Succeed Business Without Really Creating Anything', 'Superb - intriguing , funny , edifying , scary moving', 'Irritating Movie That Thinks Its Audience Is Dumb', 'Close home', "Even though I n't get 90 % financial gibberish still good movie", 'fictionalised documentary trivialises', 'Some parts okay lot confusing boring', "'People going always economy tanks - blame immigrants poor people . '", 'Some beyond understanding , I still really liked', 'Occasionally panders makes subject matter interesting even , extent , engaging .', "You n't want hear ,"]</t>
+          <t>['Betting corruption', 'People Always Pay Their Mortgages', 'nt really like expositions', 'A Creative Work Art', 'So Much GreedSo Little Compassion', 'realistic  provocative', 'Too big fail', 'Getting short end', 'A Joke Serious Crisis', 'Interesting approach wholly successful still engaging enjoyable film', 'The Big Short Falls Bit Short', 'Interesting  fun  depressing', 'knew Adam McKay wanted  Oliver Stone    fiery polemic', 'The Big Short', 'How Succeed Business Without Really Creating Anything', 'Superb  intriguing  funny  edifying  scary moving', 'Irritating Movie That Thinks Its Audience Is Dumb', 'Close home', 'Even though I nt get 90  financial gibberish still good movie', 'fictionalised documentary trivialises', 'Some parts okay lot confusing boring', 'People going always economy tanks  blame immigrants poor people  ', 'Some beyond understanding  I still really liked', 'Occasionally panders makes subject matter interesting even  extent  engaging ', 'You nt want hear ']</t>
         </is>
       </c>
     </row>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>['The best time traveling rom-com', 'I love !', 'Simple yet effective', 'Butterfly Effect Love', 'Not funny smart enough justify sheer amount sentiment pours', 'An excellent film', 'one loveliest films I ever seen', 'A romantic film', 'The biggest tearjerker ever', 'Enjoyable despite flaws', 'director four weddings funeral', "Lesson # 1 : All time traveling world ca n't make someone love . '", "The time traveller 's wife ... wait .", "The title says , 's happiness love ,", 'Wow would nice powers go back time change circumstance , life love . Anyway nice eye candy Rachel McAdams !', 'Good ... Lovely ...', 'A Gem !', "This n't love story , 's life story .", 'Not another bad chick-flick !', 'About time romantic comedy arrived 2013 , far', 'A Sweet , Emotional Ride', 'A enjoyable tale life love', 'Romantic', 'Better second time around', 'What could go back fix past ?']</t>
+          <t>['The best time traveling romcom', 'I love ', 'Simple yet effective', 'Butterfly Effect Love', 'Not funny smart enough justify sheer amount sentiment pours', 'An excellent film', 'one loveliest films I ever seen', 'A romantic film', 'The biggest tearjerker ever', 'Enjoyable despite flaws', 'director four weddings funeral', 'Lesson  1  All time traveling world ca nt make someone love  ', 'The time traveller s wife  wait ', 'The title says  s happiness love ', 'Wow would nice powers go back time change circumstance  life love  Anyway nice eye candy Rachel McAdams ', 'Good  Lovely ', 'A Gem ', 'This nt love story  s life story ', 'Not another bad chickflick ', 'About time romantic comedy arrived 2013  far', 'A Sweet  Emotional Ride', 'A enjoyable tale life love', 'Romantic', 'Better second time around', 'What could go back fix past ']</t>
         </is>
       </c>
     </row>
@@ -12185,7 +12185,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>["If love lots stunts action , 'll like one .", 'Welcome return form', 'Terrific Performances Action', 'These Films Could Use Some Tightening Up !', 'Billion dollar Bond', 'Finally ... Bond come back ... cinema screens', 'Overwhelming breathtaking entry Bond/Daniel Craig contends heinous revenger enemy , Javier Bardem', 'Double 0-verrated .', 'Daniel Craig Is Not Bad', 'Probably best offbeat .', 'One Of The More Entertaining Bonds', 'mindless fun', 'unambigously pleasurable movie-going experience', 'Daniel Craig scores James Bond Skyfall Judi Dench dramatic M', 'A great James Bond film', 'Bond Back Track', 'One best Bond movies', 'How safe feel ?', "Technical Aspects Means It 's An Oscar Contender", "It 's OK", 'Good', 'Is perfect Bond film ?', "And This Time 's Personal", 'Can go home ?', 'After lengthy absence Bond back vengeance !']</t>
+          <t>['If love lots stunts action  ll like one ', 'Welcome return form', 'Terrific Performances Action', 'These Films Could Use Some Tightening Up ', 'Billion dollar Bond', 'Finally  Bond come back  cinema screens', 'Overwhelming breathtaking entry BondDaniel Craig contends heinous revenger enemy  Javier Bardem', 'Double 0verrated ', 'Daniel Craig Is Not Bad', 'Probably best offbeat ', 'One Of The More Entertaining Bonds', 'mindless fun', 'unambigously pleasurable moviegoing experience', 'Daniel Craig scores James Bond Skyfall Judi Dench dramatic M', 'A great James Bond film', 'Bond Back Track', 'One best Bond movies', 'How safe feel ', 'Technical Aspects Means It s An Oscar Contender', 'It s OK', 'Good', 'Is perfect Bond film ', 'And This Time s Personal', 'Can go home ', 'After lengthy absence Bond back vengeance ']</t>
         </is>
       </c>
     </row>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>['Immensely likable fun comedy', "I n't like , one reason alone", 'Flouting rules', 'fun teen angst', 'Charming Fun Great Cast', 'Matthew Broderick Hits Homer', 'lovely', "Ferris Bueller 's Day Off", "If 're mood forgive knowing style 's great , silly fun", 'The Best Hughes Film ?', "A fun 80 's comedy", "one John Hughes 's films I watch get tired", 'Run amok', 'An 80s icon', 'Hilarious ! Mr . Cool friends cut class day !', 'Ferris Man', 'So-so', 'School', "Ferris Bueller 's Day Off stands all-time great coming-of-age comedy", "Playing Hookie Art Form=Save Ferris ! indeed ; one all-time fave comedies &amp; Broderick 's cinematic iconic masterpiece insouciance Gen X", "`` IIII'MMMmmmm Ferris Bueller ! ! ! ``", 'Better Than Usual Hughes Comedy .', 'Life moves pretty fast . . .', 'Bueller ? Bueller ?', 'Good comedy']</t>
+          <t>['Immensely likable fun comedy', 'I nt like  one reason alone', 'Flouting rules', 'fun teen angst', 'Charming Fun Great Cast', 'Matthew Broderick Hits Homer', 'lovely', 'Ferris Bueller s Day Off', 'If re mood forgive knowing style s great  silly fun', 'The Best Hughes Film ', 'A fun 80 s comedy', 'one John Hughes s films I watch get tired', 'Run amok', 'An 80s icon', 'Hilarious  Mr  Cool friends cut class day ', 'Ferris Man', 'Soso', 'School', 'Ferris Bueller s Day Off stands alltime great comingofage comedy', 'Playing Hookie Art FormSave Ferris  indeed  one alltime fave comedies  Broderick s cinematic iconic masterpiece insouciance Gen X', ' IIIIMMMmmmm Ferris Bueller    ', 'Better Than Usual Hughes Comedy ', 'Life moves pretty fast   ', 'Bueller  Bueller ', 'Good comedy']</t>
         </is>
       </c>
     </row>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>['The joy pain love desire', 'Elio Oliver', 'Chalamet charms Hammer', 'Love Story', 'special', 'Summer love', 'A moving love story .', 'My summer vacation', 'deepest movie , worth seeing', 'A beautiful film', 'Better expected', 'Too long dull', 'artistic lustful romance', 'Hate strong word enough describe feelings time waster .', "'Nature cunning ways finding weakest spot . '", 'Call disappointed .', "A lot idylic romance , 's", "A movie coming terms life , love discovery one 's self identity .", "It deserves Oscar nomination , 's beautiful .", 'A Strong Film About Love &amp; Being Who You Are !', 'Tedious slice-of-life', 'I pleasantly surprised !', 'Azzurro warmest color ... ?', 'Perhaps daring attempt mismatched homosexual romance', 'Love privelege']</t>
+          <t>['The joy pain love desire', 'Elio Oliver', 'Chalamet charms Hammer', 'Love Story', 'special', 'Summer love', 'A moving love story ', 'My summer vacation', 'deepest movie  worth seeing', 'A beautiful film', 'Better expected', 'Too long dull', 'artistic lustful romance', 'Hate strong word enough describe feelings time waster ', 'Nature cunning ways finding weakest spot  ', 'Call disappointed ', 'A lot idylic romance  s', 'A movie coming terms life  love discovery one s self identity ', 'It deserves Oscar nomination  s beautiful ', 'A Strong Film About Love  Being Who You Are ', 'Tedious sliceoflife', 'I pleasantly surprised ', 'Azzurro warmest color  ', 'Perhaps daring attempt mismatched homosexual romance', 'Love privelege']</t>
         </is>
       </c>
     </row>
@@ -12317,7 +12317,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>['Growing Up In The Bronx', 'really love first half', 'Excellent Drama About Morals', 'fascinating', 'De Niro steps', 'A charming attractive story sympathetic boy , devoted father crime boss', 'fear vs. respect', "The master 's touch", "Interesting Portrait With A Killer 'Hero '", 'Nicely-played , overly-familiar ...', 'Good great', 'Good Drama', 'Excellent Debuts', "A counteroffensive DeNiro 's gangster movies", 'Very good , least directorial debut', 'To loved respected', 'wimpy pc garbage', 'The Bronx', 'A Well-Told Story ...', 'A parable values appreciation life', 'A dramatic coming-of-age mafia movie', 'Yous got problem wid dis ?', 'De Niro direct -- well made movie .', "A Powerful 'Anti-Gangster ' Movie ...", 'A nice Godfather-type tale .']</t>
+          <t>['Growing Up In The Bronx', 'really love first half', 'Excellent Drama About Morals', 'fascinating', 'De Niro steps', 'A charming attractive story sympathetic boy  devoted father crime boss', 'fear vs respect', 'The master s touch', 'Interesting Portrait With A Killer Hero ', 'Nicelyplayed  overlyfamiliar ', 'Good great', 'Good Drama', 'Excellent Debuts', 'A counteroffensive DeNiro s gangster movies', 'Very good  least directorial debut', 'To loved respected', 'wimpy pc garbage', 'The Bronx', 'A WellTold Story ', 'A parable values appreciation life', 'A dramatic comingofage mafia movie', 'Yous got problem wid dis ', 'De Niro direct  well made movie ', 'A Powerful AntiGangster  Movie ', 'A nice Godfathertype tale ']</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>['A tough , tough film watch ... amazing film well .', 'One disastrous events British wartime history depicted less triumphant hardly disastrous film', 'The Citizens Mobilize', 'undeniable skills', 'Visually Sound Wise ... Wonderful', 'Just Never Grabbed Me', 'impressive manifesto', 'Lacks emotional core', 'An exquisite film .', 'Bravery making', 'Forgettable , Dull Absolutely Overrated', "Tense engaging , paper-thin n't really scale reality justice", 'Impressive spectacular film ¨The Dunkirk evacuation¨ , also known Miracle Dunkirk , code-named Operation Dynamo .', 'evacuation battle', 'Forget message , enjoy show', 'A triumph', 'Dunkirk managed keep runtime enough completely understand', 'Beautiful haunting', 'An effective cinematic experience', 'Engrossing , immersive war drama', 'Made Me Proud To Be British', 'Visually exciting emotionally distant .', 'Escaping Flee Another Day', 'retelling ww ii evacuation', 'A Technically Brilliant Film No Emotional Center']</t>
+          <t>['A tough  tough film watch  amazing film well ', 'One disastrous events British wartime history depicted less triumphant hardly disastrous film', 'The Citizens Mobilize', 'undeniable skills', 'Visually Sound Wise  Wonderful', 'Just Never Grabbed Me', 'impressive manifesto', 'Lacks emotional core', 'An exquisite film ', 'Bravery making', 'Forgettable  Dull Absolutely Overrated', 'Tense engaging  paperthin nt really scale reality justice', 'Impressive spectacular film The Dunkirk evacuation  also known Miracle Dunkirk  codenamed Operation Dynamo ', 'evacuation battle', 'Forget message  enjoy show', 'A triumph', 'Dunkirk managed keep runtime enough completely understand', 'Beautiful haunting', 'An effective cinematic experience', 'Engrossing  immersive war drama', 'Made Me Proud To Be British', 'Visually exciting emotionally distant ', 'Escaping Flee Another Day', 'retelling ww ii evacuation', 'A Technically Brilliant Film No Emotional Center']</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>["Minnie 's Haberdashery , elite meet", 'parlor mystery room', 'The Disappointing Eight', 'Excessive Not With Great Results .... Still', 'What lies beneath', 'The scope things', 'Totally Overrated', "Seems setup tightness tension combines slow pace sweeping scale , n't wholly work together", "places ca n't leave without fight", "Aggressively antagonistic , repugnant foul ... Tarantino 's fans come expect welcome", "`` Oh , Haberdashery , 's joke . ``", "There wo n't many coming home", 'The Hateful Eight another entertaining Quentin Tarantino movie', 'A long clearly delivered mystery', "`` There Wo n't Be Many Coming Home ``", 'Good , gritty , unpredictable drama', "Marmite Minnie 's Haberdashery .", 'Another Self Indulgent Disappointment From Tarantino', 'Minus prolific use N word , good movie .', 'Nice hats', 'A let-down still worth look', "'s tarantino ..... lookout !", "One Most Uneven Movies I 've Ever Seen", 'Dead Alive', 'A loving piece']</t>
+          <t>['Minnie s Haberdashery  elite meet', 'parlor mystery room', 'The Disappointing Eight', 'Excessive Not With Great Results  Still', 'What lies beneath', 'The scope things', 'Totally Overrated', 'Seems setup tightness tension combines slow pace sweeping scale  nt wholly work together', 'places ca nt leave without fight', 'Aggressively antagonistic  repugnant foul  Tarantino s fans come expect welcome', ' Oh  Haberdashery  s joke  ', 'There wo nt many coming home', 'The Hateful Eight another entertaining Quentin Tarantino movie', 'A long clearly delivered mystery', ' There Wo nt Be Many Coming Home ', 'Good  gritty  unpredictable drama', 'Marmite Minnie s Haberdashery ', 'Another Self Indulgent Disappointment From Tarantino', 'Minus prolific use N word  good movie ', 'Nice hats', 'A letdown still worth look', 's tarantino  lookout ', 'One Most Uneven Movies I ve Ever Seen', 'Dead Alive', 'A loving piece']</t>
         </is>
       </c>
     </row>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>['The cinematic equivalent watching dog dragging butt along carpet', 'long', 'I Thought It Was Lot Fun/Could Hobbit Forming', 'bad', 'The Ring : Beginning', 'Magic Journey', "A visual feast yet I n't gripped story characters much I", 'Visually great , somewhat flawed characters ...', 'The Hobbit : An Expected Disappointment .', 'overlong , stuffed gills , occasionally truly , unabashedly great', 'Very impressive visual effects', "Visually stunning , 's", 'Hobbits Have Best Adventures', 'Producers took way long get made , result Peter Jackson lost mojo', 'Filler Material', 'Delightful origin story', 'This underrated gem gets overshadowed greatness Lord Rings', 'Transporting', 'Boring dragged like bad Wagner opera', 'The Hobbit : An Unexpected Journey', 'I believe worst behind us .', 'A lot better rumoured', 'Inappropriately Grandiose', 'The Hobbit : An Unexpected Journey', "It 's fun , bet Bilbo 's long ."]</t>
+          <t>['The cinematic equivalent watching dog dragging butt along carpet', 'long', 'I Thought It Was Lot FunCould Hobbit Forming', 'bad', 'The Ring  Beginning', 'Magic Journey', 'A visual feast yet I nt gripped story characters much I', 'Visually great  somewhat flawed characters ', 'The Hobbit  An Expected Disappointment ', 'overlong  stuffed gills  occasionally truly  unabashedly great', 'Very impressive visual effects', 'Visually stunning  s', 'Hobbits Have Best Adventures', 'Producers took way long get made  result Peter Jackson lost mojo', 'Filler Material', 'Delightful origin story', 'This underrated gem gets overshadowed greatness Lord Rings', 'Transporting', 'Boring dragged like bad Wagner opera', 'The Hobbit  An Unexpected Journey', 'I believe worst behind us ', 'A lot better rumoured', 'Inappropriately Grandiose', 'The Hobbit  An Unexpected Journey', 'It s fun  bet Bilbo s long ']</t>
         </is>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>['The premises TV series', 'Harrison Ford Tommy Lee Jones perfectly matched', 'Great Performances , Action Suspense', "Tommy Lee Harrison Ford 's Javert", 'A solidly enjoyable thriller solid plot plenty thrills fun acting scene-stealing Jones', 'Spectacular pursuits emotion magnificent duo : Ford Lee Jones', "A perfect display men 's talents .", "It Was n't Me ! It Was The One-Armed Man !", 'The Doctor Out .', 'Fabulous Thriller That Endures', 'Great thriller', 'run ...', 'The intense picture decade', "`` I n't kill wife ! `` `` I n't care . ``", 'Above Average Crowd Pleaser ... Excellent Cast Very Good Not Great', 'Great thriller', "The fugitive 's name Doctor Richard Kimble .", 'Chase Movie That Often Jumps The Shark', 'Tommy Lee Jones Arrives', 'Fast-paced action thriller even superior TV series ...', 'A entertaining thriller , memorable dialogue exchanges Harrison Ford Tommy Lee Jones', 'Tommy Gold', 'Tommy Lee Jones Class Act', "A Thinking Man 's Action Thriller", 'Well made movie .']</t>
+          <t>['The premises TV series', 'Harrison Ford Tommy Lee Jones perfectly matched', 'Great Performances  Action Suspense', 'Tommy Lee Harrison Ford s Javert', 'A solidly enjoyable thriller solid plot plenty thrills fun acting scenestealing Jones', 'Spectacular pursuits emotion magnificent duo  Ford Lee Jones', 'A perfect display men s talents ', 'It Was nt Me  It Was The OneArmed Man ', 'The Doctor Out ', 'Fabulous Thriller That Endures', 'Great thriller', 'run ', 'The intense picture decade', ' I nt kill wife    I nt care  ', 'Above Average Crowd Pleaser  Excellent Cast Very Good Not Great', 'Great thriller', 'The fugitive s name Doctor Richard Kimble ', 'Chase Movie That Often Jumps The Shark', 'Tommy Lee Jones Arrives', 'Fastpaced action thriller even superior TV series ', 'A entertaining thriller  memorable dialogue exchanges Harrison Ford Tommy Lee Jones', 'Tommy Gold', 'Tommy Lee Jones Class Act', 'A Thinking Man s Action Thriller', 'Well made movie ']</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>['A rebellion well worth saving', 'How They Brought The News From Aix To Ghent Better Call Saw', 'Leading Jedi', 'Star Wars 3,5', 'A Prequel 1977 Star Wars', 'Emotion , thrills , noisy action , super-spectacle impressive aerial combat effects', 'Episode 3 1/2 : non-Jedi story', 'The Star Wars Universe back track .', 'The Force . I one The Force .', "Goes back Star Wars ' roots", '`` Rebellions Built Hope `` ...... Sacrifice', 'Formulaic plot reasonably entertaining', 'Perhaps A Little Too Much Spectacle', 'An Excellent Treat', 'What', 'Best movie franchise ( I said I said 😂 )', 'A New Hope Alliance', 'Defiant', 'From five I watched thus far one weaker one , still good though .', 'From five I watched thus far one weaker one , still good though .', "A story characters wo n't hold small screen", "A serious tone 'gritty ' battes set apart others series lifeless surprise-free plot drag experience .", 'A complete disappointment', 'A good way make Vader mad ! An okay prequel sets `` A New Hope `` fine !', 'ROGUE ONE solid attempt ginger jaded still massively lucrative mega-universe STAR WARS']</t>
+          <t>['A rebellion well worth saving', 'How They Brought The News From Aix To Ghent Better Call Saw', 'Leading Jedi', 'Star Wars 35', 'A Prequel 1977 Star Wars', 'Emotion  thrills  noisy action  superspectacle impressive aerial combat effects', 'Episode 3 12  nonJedi story', 'The Star Wars Universe back track ', 'The Force  I one The Force ', 'Goes back Star Wars  roots', ' Rebellions Built Hope   Sacrifice', 'Formulaic plot reasonably entertaining', 'Perhaps A Little Too Much Spectacle', 'An Excellent Treat', 'What', 'Best movie franchise  I said I said  ', 'A New Hope Alliance', 'Defiant', 'From five I watched thus far one weaker one  still good though ', 'From five I watched thus far one weaker one  still good though ', 'A story characters wo nt hold small screen', 'A serious tone gritty  battes set apart others series lifeless surprisefree plot drag experience ', 'A complete disappointment', 'A good way make Vader mad  An okay prequel sets  A New Hope  fine ', 'ROGUE ONE solid attempt ginger jaded still massively lucrative megauniverse STAR WARS']</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>['Nearly good best Scorsese', 'well-acted gritty characters', 'Classic Acting', 'Gripping Characters/Frightening Events', '... Scarface', 'Blue Magic Heroin Frank Lucas', 'A strange effective mix `` movie gangster epic `` The Wire produces strengths weaknesses ( produce )', 'corruption life', 'A Lesser-Known Gangster Story', 'Two Great Actors Elevate This Scarface-Like Story', 'excellent film Ridley Scott', 'big , intense American crime movie , led stars director top form', 'Long winded', 'A Fine Film Fails Enter `` Gangster Movie Royalty ``', 'Excellent crime-drama', 'Malcolm X Done Right', "Far Scott 's best work , still however riveting crime picture .", "It 's Been Done To Death And Much Better Too By Italians", 'One Best Gangster Movies Out There', 'An iconic addition gangster genre absolute must see', "Frank Lucas n't run nobody .", 'Ridley Scott Knocks One Out Park', 'My Man', "Either 're somebody , 're nobody", 'Good , brilliant would us believe ...']</t>
+          <t>['Nearly good best Scorsese', 'wellacted gritty characters', 'Classic Acting', 'Gripping CharactersFrightening Events', ' Scarface', 'Blue Magic Heroin Frank Lucas', 'A strange effective mix  movie gangster epic  The Wire produces strengths weaknesses  produce ', 'corruption life', 'A LesserKnown Gangster Story', 'Two Great Actors Elevate This ScarfaceLike Story', 'excellent film Ridley Scott', 'big  intense American crime movie  led stars director top form', 'Long winded', 'A Fine Film Fails Enter  Gangster Movie Royalty ', 'Excellent crimedrama', 'Malcolm X Done Right', 'Far Scott s best work  still however riveting crime picture ', 'It s Been Done To Death And Much Better Too By Italians', 'One Best Gangster Movies Out There', 'An iconic addition gangster genre absolute must see', 'Frank Lucas nt run nobody ', 'Ridley Scott Knocks One Out Park', 'My Man', 'Either re somebody  re nobody', 'Good  brilliant would us believe ']</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>['One best Stephen King adaptations', 'She Just Craves His Company', 'great performances Kathy Bates James Caan', 'One Better King Adaptations', 'So Suspenseful You Can Watch It', 'A great tense tale well told strong performances lead two', 'Talk unhealthy obsession ...', 'dangers fame', 'The terrific adaptation Stephen King', 'Crime Pun', 'Intense , technically marvelous ... plot queasy unfair', 'deal control-freak psychotic fans ( , case may ) , Stephen King', 'Kathy Bates superb', 'Thriller mind Stephen King .', 'Kathy Bates makes film', "Best Book Adaptation I 've Seen", 'One best adaptations Stephen King novel ...', 'Ankles Away ...', 'This absolute masterpiece must see', 'Kathy Bates Gives Cock Doody Performance', 'Solid thriller , could even better !', 'King Sized adaptation Goldman ; superb Bates &amp; Caan', 'I guessing celebrities see us `` regular `` folk .', 'Not A Fan You Would Want !', 'A good thriller hard find ; drink .']</t>
+          <t>['One best Stephen King adaptations', 'She Just Craves His Company', 'great performances Kathy Bates James Caan', 'One Better King Adaptations', 'So Suspenseful You Can Watch It', 'A great tense tale well told strong performances lead two', 'Talk unhealthy obsession ', 'dangers fame', 'The terrific adaptation Stephen King', 'Crime Pun', 'Intense  technically marvelous  plot queasy unfair', 'deal controlfreak psychotic fans   case may   Stephen King', 'Kathy Bates superb', 'Thriller mind Stephen King ', 'Kathy Bates makes film', 'Best Book Adaptation I ve Seen', 'One best adaptations Stephen King novel ', 'Ankles Away ', 'This absolute masterpiece must see', 'Kathy Bates Gives Cock Doody Performance', 'Solid thriller  could even better ', 'King Sized adaptation Goldman  superb Bates  Caan', 'I guessing celebrities see us  regular  folk ', 'Not A Fan You Would Want ', 'A good thriller hard find  drink ']</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>['Appropriately inspiring .', 'Not film remain hidden', 'great story', 'Excellent Performances Highlight Nice Drama', 'Engaging Story Endurance', 'The right stuff', 'Power Will', 'Three Afro-American Genius NASA', 'A fairly good movie ...', "'s effort involved", 'Recalling hidden story technical women helped USA get moon .', 'Black women space program film gilds lily', "Hidden Figures fine story African-American women valuable NASA space program early '60s", 'What disgraceful society back !', 'It made old-fashioned movie going experience ...', 'A Pleaseant Vision Delivering Semi-Hidden Truth Schmaltz &amp; Charm', 'Interesting , moving story', 'Early Runner Movie Year', 'A fantastic character piece excellent job depicting mood United States era', 'Ladies , Welcome NASA', 'Another story needs told', 'Of coffee , buses , firsts', 'The story incredible women awful era', 'Enlightening enjoyable', "'Despite may think , I nothing y'all . ' ' I know , I know probably believe . '"]</t>
+          <t>['Appropriately inspiring ', 'Not film remain hidden', 'great story', 'Excellent Performances Highlight Nice Drama', 'Engaging Story Endurance', 'The right stuff', 'Power Will', 'Three AfroAmerican Genius NASA', 'A fairly good movie ', 's effort involved', 'Recalling hidden story technical women helped USA get moon ', 'Black women space program film gilds lily', 'Hidden Figures fine story AfricanAmerican women valuable NASA space program early 60s', 'What disgraceful society back ', 'It made oldfashioned movie going experience ', 'A Pleaseant Vision Delivering SemiHidden Truth Schmaltz  Charm', 'Interesting  moving story', 'Early Runner Movie Year', 'A fantastic character piece excellent job depicting mood United States era', 'Ladies  Welcome NASA', 'Another story needs told', 'Of coffee  buses  firsts', 'The story incredible women awful era', 'Enlightening enjoyable', 'Despite may think  I nothing yall    I know  I know probably believe  ']</t>
         </is>
       </c>
     </row>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>['Great Fun', 'Three outrageous hours .', 'Stunning - every aspect', 'An epic tale friendship , rebellion , love , bravery synchronised song dance .', 'probably brutally violent PG-13 , plus dance battle !', "B-grade film A-grade film 's running time", 'Have Never Seen Anything Quite Like This', "It Critics Choice Award -- It 's worth every second 3 hours Netflix .", 'This movie bananas !', 'This visual spectacle teaches us value bullet .', 'Deliciously cheesy times , kind corny others', "A weak writing sparkled Rajamouli 's extraordinary mass elements Ram Charan &amp; Jr. NTR 's larger-than-life characters", 'Ravishing . Resounding . Rapturous .', 'John Wick meets Rambo Braveheart India', 'Indian Fantasy Masterfully Done - RRR', 'Rousing , Rampaging , Revolutionary ...', 'A fever dream epic', 'The best superhero movie years', "I wish I could 've seen theater", 'One helluva crazy action packed entertainer . Watch tigers , stags , wolves , etc going berserk .', 'S.S. Rajamouli league', 'Two Indian heroes , sometimes enemies , sometimes friends , ruthless British Empire', 'Rambo Meshed Crouching Tiger + Musical .... Say Whaaaat ?', 'Epic insanity', 'HILARIOUSLY RIDICULOUS AND STUPID .']</t>
+          <t>['Great Fun', 'Three outrageous hours ', 'Stunning  every aspect', 'An epic tale friendship  rebellion  love  bravery synchronised song dance ', 'probably brutally violent PG13  plus dance battle ', 'Bgrade film Agrade film s running time', 'Have Never Seen Anything Quite Like This', 'It Critics Choice Award  It s worth every second 3 hours Netflix ', 'This movie bananas ', 'This visual spectacle teaches us value bullet ', 'Deliciously cheesy times  kind corny others', 'A weak writing sparkled Rajamouli s extraordinary mass elements Ram Charan  Jr NTR s largerthanlife characters', 'Ravishing  Resounding  Rapturous ', 'John Wick meets Rambo Braveheart India', 'Indian Fantasy Masterfully Done  RRR', 'Rousing  Rampaging  Revolutionary ', 'A fever dream epic', 'The best superhero movie years', 'I wish I could ve seen theater', 'One helluva crazy action packed entertainer  Watch tigers  stags  wolves  etc going berserk ', 'SS Rajamouli league', 'Two Indian heroes  sometimes enemies  sometimes friends  ruthless British Empire', 'Rambo Meshed Crouching Tiger  Musical  Say Whaaaat ', 'Epic insanity', 'HILARIOUSLY RIDICULOUS AND STUPID ']</t>
         </is>
       </c>
     </row>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>["He conscience ... 's natural !", 'Crazy eyes', 'Hard Watch ; Hard Look Away', 'On news', 'Extending minutes fame', 'Weird Original Movie', 'Provoking interesting pic photographer takes sinister pictures', 'amorality curse', 'One Best Films 2014', 'Picture snatcher', "Fueled unethical ambition , Gyllenhaal 's Louis Bloom wholly original creation", "neo-noir surface - underneath , 's ... America , Capitalism", 'Well made', 'A captivating story', '`` Think newscast screaming woman running street throat cut . ``', 'Sleeper Year A Nasty Neo-Noir Ghoulish Gyllenhall', 'Brilliant drama', "That 's job , 's I , I 'd like think 're seeing 're worst day life .", 'Driving A Taxi In The City Of Angels', 'Jake Plays Creepy Crawler', 'Draws Moral Line Sand-and Crosses It', 'A Nocturnal Horror Story', 'A Real Opportunity', "You find simply ca n't stop watching", 'Ambition limits']</t>
+          <t>['He conscience  s natural ', 'Crazy eyes', 'Hard Watch  Hard Look Away', 'On news', 'Extending minutes fame', 'Weird Original Movie', 'Provoking interesting pic photographer takes sinister pictures', 'amorality curse', 'One Best Films 2014', 'Picture snatcher', 'Fueled unethical ambition  Gyllenhaal s Louis Bloom wholly original creation', 'neonoir surface  underneath  s  America  Capitalism', 'Well made', 'A captivating story', ' Think newscast screaming woman running street throat cut  ', 'Sleeper Year A Nasty NeoNoir Ghoulish Gyllenhall', 'Brilliant drama', 'That s job  s I  I d like think re seeing re worst day life ', 'Driving A Taxi In The City Of Angels', 'Jake Plays Creepy Crawler', 'Draws Moral Line Sandand Crosses It', 'A Nocturnal Horror Story', 'A Real Opportunity', 'You find simply ca nt stop watching', 'Ambition limits']</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>['Neeson turns action hero', 'Who knew ?', 'Fun Action , Great Neeson', 'Even Action Films Need Some Sense Reality', 'No compromises', 'The Best Action Movie Year', 'If ignore `` message `` accept derivative Bourne actually solid thriller', 'Thrilling violent movie phenomenal Liam Neeson avenger father', 'Liam Neeson Harrison Ford-style role', 'It personal .', 'Turn Off Your Brain Embrace This Awesome Film', 'Shaky In Spots , But No-Nonsense Neeson Is Neat', 'Go Liam !', 'turn brain good `` good-God-do-they-expect-me-to-believe-that `` Besson production', 'As adrenalin-rushing gets', 'After first watching Taken 3 , I finally got see original Taken Mom', 'Taken A Positive Vehicle Here * * *', 'Exceptionally engaging', "The lesson today n't mess Liam Neeson .", 'Long Live Fictional Vigalante', 'Okay', 'Your arrogance offends .', '96 hours', "It 's `` Man Fire `` 's good", 'Liam Nesson owns role']</t>
+          <t>['Neeson turns action hero', 'Who knew ', 'Fun Action  Great Neeson', 'Even Action Films Need Some Sense Reality', 'No compromises', 'The Best Action Movie Year', 'If ignore  message  accept derivative Bourne actually solid thriller', 'Thrilling violent movie phenomenal Liam Neeson avenger father', 'Liam Neeson Harrison Fordstyle role', 'It personal ', 'Turn Off Your Brain Embrace This Awesome Film', 'Shaky In Spots  But NoNonsense Neeson Is Neat', 'Go Liam ', 'turn brain good  goodGoddotheyexpectmetobelievethat  Besson production', 'As adrenalinrushing gets', 'After first watching Taken 3  I finally got see original Taken Mom', 'Taken A Positive Vehicle Here   ', 'Exceptionally engaging', 'The lesson today nt mess Liam Neeson ', 'Long Live Fictional Vigalante', 'Okay', 'Your arrogance offends ', '96 hours', 'It s  Man Fire  s good', 'Liam Nesson owns role']</t>
         </is>
       </c>
     </row>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>['fun watch fatally flawed', 'Riveting take old TV show', "`` If Capone Puts One Of Your 's In The Hospital , You Put One Of His In The Morgue ``", 'Near perfection', 'Grew On Me', 'Old School Chicago', 'The Bat Train', 'A classic crime thriller', "Brilliantly stylishly recreated story Elliot Ness Al'Scarface'Capone", 'A fine gangster movie', 'Complete Fiction , But Fun Movie', 'Terrific except major midcast', "Good Movie , But I Still Prefer Stack Over Costner As 'Elliot Ness '", 'untouchables revised given new treatment Brian De Palma', 'still top De Palma list ; stellar cast tight ball script', 'Occasionally Entertaining Clunky', 'Better-than-average cop-drama , vastly overrated', 'Never stop fighting till fight done , endeth lesson .', "I Was n't Impressed", 'Taut crime drama inspired classic TV series ...', 'Top notch cast', 'Booze', 'Really boring', "It 's rare cast legendary historical characters playing", 'Pound , Pound , Pound , Mr. De Palma']</t>
+          <t>['fun watch fatally flawed', 'Riveting take old TV show', ' If Capone Puts One Of Your s In The Hospital  You Put One Of His In The Morgue ', 'Near perfection', 'Grew On Me', 'Old School Chicago', 'The Bat Train', 'A classic crime thriller', 'Brilliantly stylishly recreated story Elliot Ness AlScarfaceCapone', 'A fine gangster movie', 'Complete Fiction  But Fun Movie', 'Terrific except major midcast', 'Good Movie  But I Still Prefer Stack Over Costner As Elliot Ness ', 'untouchables revised given new treatment Brian De Palma', 'still top De Palma list  stellar cast tight ball script', 'Occasionally Entertaining Clunky', 'Betterthanaverage copdrama  vastly overrated', 'Never stop fighting till fight done  endeth lesson ', 'I Was nt Impressed', 'Taut crime drama inspired classic TV series ', 'Top notch cast', 'Booze', 'Really boring', 'It s rare cast legendary historical characters playing', 'Pound  Pound  Pound  Mr De Palma']</t>
         </is>
       </c>
     </row>
@@ -12889,7 +12889,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>['A bit `` Hollywoodized `` cares ? !', 'Remember Titans indeed- promised great film', 'fairly superficial conventional', 'Not Slam Dunk', 'Quite enjoyable even corny rather derivative', 'Sports film sentimental story agreeable character studio', 'mightier Gods ...', 'Football As Metaphor .', 'Entertaining , story peoples see , I rate `` 8 `` 10 .', 'Denzel pulls', 'Predictable', 'In Greek mythology , Titans greater even gods .', 'More Than Football Movie', 'Entertaining Certain Degree Historically Inaccurate', 'An Easter Story', 'Racial Tension , Hut , Hut', "Decent best genre offer ? I really n't think !", 'Crowd pleaser', 'best sports movie ?', 'Lest forget', "Ca n't believe I n't see sooner", "`` You play win game . You n't play play ``", "A movie sorts prejudice n't heavy handed", 'Predictable solid `` feel good `` football entertainment .', 'The Team Titanic Legacy ...']</t>
+          <t>['A bit  Hollywoodized  cares  ', 'Remember Titans indeed promised great film', 'fairly superficial conventional', 'Not Slam Dunk', 'Quite enjoyable even corny rather derivative', 'Sports film sentimental story agreeable character studio', 'mightier Gods ', 'Football As Metaphor ', 'Entertaining  story peoples see  I rate  8  10 ', 'Denzel pulls', 'Predictable', 'In Greek mythology  Titans greater even gods ', 'More Than Football Movie', 'Entertaining Certain Degree Historically Inaccurate', 'An Easter Story', 'Racial Tension  Hut  Hut', 'Decent best genre offer  I really nt think ', 'Crowd pleaser', 'best sports movie ', 'Lest forget', 'Ca nt believe I nt see sooner', ' You play win game  You nt play play ', 'A movie sorts prejudice nt heavy handed', 'Predictable solid  feel good  football entertainment ', 'The Team Titanic Legacy ']</t>
         </is>
       </c>
     </row>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>['A slightly adult Star Wars shows Lucas right let go series .', 'The force awakened !', 'Where begin ? !', 'The Return Star Wars', 'Brilliant Special Effects Nice Mix Old New', 'An Impressive Blockbuster Film ... That Said', 'pretty good', 'A new hype', 'The Seventh Awakens', 'Overcomes inherent challenges producing fast paced , dramatic , fun , enjoyable film hits marks', 'The Star Wars franchise back , vengeance ...', 'pretty much I expected', 'Episode VIII better fantastic .', 'It starts', 'looks like lot people really hated', 'The next generation Star Wars Fan-Tastic !', 'Star Wars : The Force Awakens good continuation series left 30 years ago', 'This viewer neither `` love `` `` loathe `` camp .', 'Familiar , New , Wonderful', 'Entertaining', 'Slumber Earthquake .', 'The Feeling Back', 'Very good great', 'Yay', 'A Long Time Ago ... Again ...']</t>
+          <t>['A slightly adult Star Wars shows Lucas right let go series ', 'The force awakened ', 'Where begin  ', 'The Return Star Wars', 'Brilliant Special Effects Nice Mix Old New', 'An Impressive Blockbuster Film  That Said', 'pretty good', 'A new hype', 'The Seventh Awakens', 'Overcomes inherent challenges producing fast paced  dramatic  fun  enjoyable film hits marks', 'The Star Wars franchise back  vengeance ', 'pretty much I expected', 'Episode VIII better fantastic ', 'It starts', 'looks like lot people really hated', 'The next generation Star Wars FanTastic ', 'Star Wars  The Force Awakens good continuation series left 30 years ago', 'This viewer neither  love   loathe  camp ', 'Familiar  New  Wonderful', 'Entertaining', 'Slumber Earthquake ', 'The Feeling Back', 'Very good great', 'Yay', 'A Long Time Ago  Again ']</t>
         </is>
       </c>
     </row>
@@ -12977,7 +12977,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>['Well made .... unpleasant .', 'Beautiful watch , well done adaptation .', 'A poignant moving tale', 'Telling A Vicious Tale', 'The Indiscretions Child', 'An English Tale Love Redemption', "child 's anger jealousy ruins lives", 'half time great drama crisis ego , half ...', 'A Masterpiece ? No More Like Masterpiece Theatre', 'Magnificent love story given Ivory-Merchant kind treatment ...', 'ATONEMENT ( Joe Wright , 2007 ) * * *', "I love . I 'll wait . Come back . Come back .", 'My Baby , He Wrote Me Letter', 'Cinematic Splendor : ATONEMENT reaches standard novel', 'Deserves empty cinema', "Technical prowess proficient performances n't mean thing movie dull .", 'Well done drama', 'An epic tale lust , love , war , guilt remorse .', 'What difference day makes ...', 'A Nutshell Review : Atonement', 'notes', 'Beautiful imaginative', 'Only Decent Oscar Nominee', 'A decent rendition far straightforward story', 'A lifetime regret']</t>
+          <t>['Well made  unpleasant ', 'Beautiful watch  well done adaptation ', 'A poignant moving tale', 'Telling A Vicious Tale', 'The Indiscretions Child', 'An English Tale Love Redemption', 'child s anger jealousy ruins lives', 'half time great drama crisis ego  half ', 'A Masterpiece  No More Like Masterpiece Theatre', 'Magnificent love story given IvoryMerchant kind treatment ', 'ATONEMENT  Joe Wright  2007    ', 'I love  I ll wait  Come back  Come back ', 'My Baby  He Wrote Me Letter', 'Cinematic Splendor  ATONEMENT reaches standard novel', 'Deserves empty cinema', 'Technical prowess proficient performances nt mean thing movie dull ', 'Well done drama', 'An epic tale lust  love  war  guilt remorse ', 'What difference day makes ', 'A Nutshell Review  Atonement', 'notes', 'Beautiful imaginative', 'Only Decent Oscar Nominee', 'A decent rendition far straightforward story', 'A lifetime regret']</t>
         </is>
       </c>
     </row>
@@ -13021,7 +13021,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>['Excellent sequel outdoes first film', 'Good variation comic book movie', 'Manages Be Better Than First', 'Very Good , Considering I Jumped Wrong Time', 'correct', 'Who watches protectors ?', 'Return First Avenger', 'Highly Entertaining', "Plenty entertainment action , topical involving narrative even n't smart suggests , struggles character clutter", 'A sequel well worth watching ...', 'Slam bang superhero fun .', 'Espionage Superhero', 'Captain America : The Winter Soldier great awesome time movies !', 'A great blockbuster', 'Much better I expected', 'Much better I expected , especially first film', 'Till end road .', 'Cap Better Team Solo', 'A High-Octane Sequel', "`` I 'm 95 . I 'm dead . ``", 'Shall We Play Game ?', 'The exciting franchise years', 'My favorite post Avengers films far', 'Captain America : winter soldier', 'Surprisingly good']</t>
+          <t>['Excellent sequel outdoes first film', 'Good variation comic book movie', 'Manages Be Better Than First', 'Very Good  Considering I Jumped Wrong Time', 'correct', 'Who watches protectors ', 'Return First Avenger', 'Highly Entertaining', 'Plenty entertainment action  topical involving narrative even nt smart suggests  struggles character clutter', 'A sequel well worth watching ', 'Slam bang superhero fun ', 'Espionage Superhero', 'Captain America  The Winter Soldier great awesome time movies ', 'A great blockbuster', 'Much better I expected', 'Much better I expected  especially first film', 'Till end road ', 'Cap Better Team Solo', 'A HighOctane Sequel', ' I m 95  I m dead  ', 'Shall We Play Game ', 'The exciting franchise years', 'My favorite post Avengers films far', 'Captain America  winter soldier', 'Surprisingly good']</t>
         </is>
       </c>
     </row>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>['Very solid fun quite spectacular extravaganza expected', 'formula works', 'Great Characters Action', 'Who Are All These Guys ?', 'Without limits', 'Civil War : What good', "Good narrative base , produces good action n't heft suggests wants", 'Good morning , Soldier ...', 'Team Cap vs Team Ironman .', 'Too Much CG Spioils An Otherwise Good Film', '`` Have seen old movie , The Empire Strikes Back ? ``', 'Stay end credits !', 'A master class screenwriting', 'Meh - usual CGI-based action nothing', 'Best Crossover Movie Date', 'Superb Avengers film', 'Battle Avengers', 'Whoever loses ... audience wins', 'Captain America Falcon The Avengers', 'Finish already !', 'Cap deserves movie , Avengers 3', "'Our strength incites challenge . Challenge incites conflict . And conflict ... breeds catastrophe . '", 'excellent', 'I could watch day .', 'Marvel fails lacks experience : behaving adults']</t>
+          <t>['Very solid fun quite spectacular extravaganza expected', 'formula works', 'Great Characters Action', 'Who Are All These Guys ', 'Without limits', 'Civil War  What good', 'Good narrative base  produces good action nt heft suggests wants', 'Good morning  Soldier ', 'Team Cap vs Team Ironman ', 'Too Much CG Spioils An Otherwise Good Film', ' Have seen old movie  The Empire Strikes Back  ', 'Stay end credits ', 'A master class screenwriting', 'Meh  usual CGIbased action nothing', 'Best Crossover Movie Date', 'Superb Avengers film', 'Battle Avengers', 'Whoever loses  audience wins', 'Captain America Falcon The Avengers', 'Finish already ', 'Cap deserves movie  Avengers 3', 'Our strength incites challenge  Challenge incites conflict  And conflict  breeds catastrophe  ', 'excellent', 'I could watch day ', 'Marvel fails lacks experience  behaving adults']</t>
         </is>
       </c>
     </row>
@@ -13109,7 +13109,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>['Sort like painful reworking `` Vacation `` almost entire family awful ....', 'Love characters', 'Good', 'On road sun', "Ai n't sunshine ...", "Winners Do n't Give Up", 'U touch !', 'A Pleasant , Humorous Addition Top 250', 'Love pain whole damn thing ...', 'Chasing American dream van bad clutch', "definitely worth seeing , 's dark , quirky , well acted equal measure", "Little Miss Sunshine much better last year 's Best Picture winner", 'Excellent acting script', 'Freaks', 'I liked enough seen', 'LITTLE MISS SUNSHINE ( Jonathan Dayton Valerie Faris , 2006 ) * * *', 'This American masterpiece make laugh , cry cheer I would strongly recommend', 'Putting FUN DysFUNctional', 'A Movie That Will Make You Proud Be Ordinary', 'Super Freak', 'Very rich characters .', "'Being Winner state mind '", 'What ... Terrible !', 'Inspirational touching . Mixed emotions dark bright .', 'A Nutshell Review : Little Miss Sunshine']</t>
+          <t>['Sort like painful reworking  Vacation  almost entire family awful ', 'Love characters', 'Good', 'On road sun', 'Ai nt sunshine ', 'Winners Do nt Give Up', 'U touch ', 'A Pleasant  Humorous Addition Top 250', 'Love pain whole damn thing ', 'Chasing American dream van bad clutch', 'definitely worth seeing  s dark  quirky  well acted equal measure', 'Little Miss Sunshine much better last year s Best Picture winner', 'Excellent acting script', 'Freaks', 'I liked enough seen', 'LITTLE MISS SUNSHINE  Jonathan Dayton Valerie Faris  2006    ', 'This American masterpiece make laugh  cry cheer I would strongly recommend', 'Putting FUN DysFUNctional', 'A Movie That Will Make You Proud Be Ordinary', 'Super Freak', 'Very rich characters ', 'Being Winner state mind ', 'What  Terrible ', 'Inspirational touching  Mixed emotions dark bright ', 'A Nutshell Review  Little Miss Sunshine']</t>
         </is>
       </c>
     </row>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>['Not bad , many better Clint Eastwood Westerns', "One Eastwood 's best", "Eastwood 's outstanding revenge western", '`` Hell Has Come To Breakfast ``', "Clint Eastwood 's complete western", 'Pale rider', 'Solid western nice touches', 'Top notch Eastwood Western ...', 'Overlong splendid Western well played directed Clint Eastwood farmer turns outlaw Union soldiers kill family', 'mercy', 'Classic Clint .', 'Quintessential Post-Civil War Western', 'One Of My Favorite Westerns', "One better Eastwood westerns I 've seen , aside ones", 'Keep riding Josey', 'I reckon good movie', "Just dark Eastwood 's Western movie `` High Plains Drifter ``", 'An Extremely Entertaining Western', 'Avenging / Guardian Angel ...', 'Historical ?', 'Superlative Eastwood Western/drama', 'One Great Westerns', 'This movie drags', '`` Do really think shoot men shoot ? ``', 'Memorable Eastwood Western .']</t>
+          <t>['Not bad  many better Clint Eastwood Westerns', 'One Eastwood s best', 'Eastwood s outstanding revenge western', ' Hell Has Come To Breakfast ', 'Clint Eastwood s complete western', 'Pale rider', 'Solid western nice touches', 'Top notch Eastwood Western ', 'Overlong splendid Western well played directed Clint Eastwood farmer turns outlaw Union soldiers kill family', 'mercy', 'Classic Clint ', 'Quintessential PostCivil War Western', 'One Of My Favorite Westerns', 'One better Eastwood westerns I ve seen  aside ones', 'Keep riding Josey', 'I reckon good movie', 'Just dark Eastwood s Western movie  High Plains Drifter ', 'An Extremely Entertaining Western', 'Avenging  Guardian Angel ', 'Historical ', 'Superlative Eastwood Westerndrama', 'One Great Westerns', 'This movie drags', ' Do really think shoot men shoot  ', 'Memorable Eastwood Western ']</t>
         </is>
       </c>
     </row>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>['solid biodrama', 'Giving N.W.A . Respect They Deserve', 'Straight Outta Memes', 'powerful entertaining , less great', 'Somewhat Whitewashed Welcomed Flashback', "Great movie , even 're hip-hop rap", 'Extremely Captivating Nostalgic Folks Gangsta Rap Era', "I n't like , I LOVED !", 'You witness strength street knowledge .', "Fantastic movie , whether 're fan music", "Informative entertaining biopic one music 's greatest moments .", 'entertaining powerful', 'Very well acted exciting music biopic', "Go walkin ' , leave stompin '", 'In depth , lengthy , lacking solid narrative structure hold together', "What 's beautiful watching talented rebel artists change world ? !", 'Damn , That Sh * Was Dope !', 'Records Left Table', 'hip hop crowd', 'Effective sprawling , overlong .', 'But metalhead , I liked movie .', 'Engaging Story Performances make Winner ,', 'A music bio-pic par Walk Line Ray . One best movies year .', 'An energetic music biopic great acting turns', 'The Vidiot Reviews ....']</t>
+          <t>['solid biodrama', 'Giving NWA  Respect They Deserve', 'Straight Outta Memes', 'powerful entertaining  less great', 'Somewhat Whitewashed Welcomed Flashback', 'Great movie  even re hiphop rap', 'Extremely Captivating Nostalgic Folks Gangsta Rap Era', 'I nt like  I LOVED ', 'You witness strength street knowledge ', 'Fantastic movie  whether re fan music', 'Informative entertaining biopic one music s greatest moments ', 'entertaining powerful', 'Very well acted exciting music biopic', 'Go walkin   leave stompin ', 'In depth  lengthy  lacking solid narrative structure hold together', 'What s beautiful watching talented rebel artists change world  ', 'Damn  That Sh  Was Dope ', 'Records Left Table', 'hip hop crowd', 'Effective sprawling  overlong ', 'But metalhead  I liked movie ', 'Engaging Story Performances make Winner ', 'A music biopic par Walk Line Ray  One best movies year ', 'An energetic music biopic great acting turns', 'The Vidiot Reviews ']</t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>["I n't see many others saw film .", "Did n't love appreciated", 'Chandler Family Values', 'one epic scene', "Some Best Performances That You 're Going See", 'special', "It 's engaging , character driven story , 's good .", 'Life ... sea ( ? )', 'family troubles New England coast', 'The Rise Second Affleck ?', 'masterpiece little moments big ones', 'A heavy story two wounded souls', 'Wonderful , emotional journey', 'So Frustrating It Should Be Called Madchester', 'Too slowly paced overly familiar', 'Complicated family drama scenario', 'An Elegiac , Deeply Moving Film About Broken People', 'A gem grief sorrow', "I n't see Oscar winning material", 'Loss broken people', "I ca n't beat . I ca n't beat . I 'm sorry .", "'Uncle Lee , fundamentally unsound ?", "A film shows parts life , shows memories 's decision making .", 'contemplative continuation aftermath latter-day Greek tragedy', 'A sure Oscar contender Affleck film .']</t>
+          <t>['I nt see many others saw film ', 'Did nt love appreciated', 'Chandler Family Values', 'one epic scene', 'Some Best Performances That You re Going See', 'special', 'It s engaging  character driven story  s good ', 'Life  sea   ', 'family troubles New England coast', 'The Rise Second Affleck ', 'masterpiece little moments big ones', 'A heavy story two wounded souls', 'Wonderful  emotional journey', 'So Frustrating It Should Be Called Madchester', 'Too slowly paced overly familiar', 'Complicated family drama scenario', 'An Elegiac  Deeply Moving Film About Broken People', 'A gem grief sorrow', 'I nt see Oscar winning material', 'Loss broken people', 'I ca nt beat  I ca nt beat  I m sorry ', 'Uncle Lee  fundamentally unsound ', 'A film shows parts life  shows memories s decision making ', 'contemplative continuation aftermath latterday Greek tragedy', 'A sure Oscar contender Affleck film ']</t>
         </is>
       </c>
     </row>
@@ -13285,7 +13285,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>["Good , though 's sort thing I 'd want watch often .", 'Surprisingly good entertaining', 'All Action', 'Nice Thriller', 'Underplayed Good', 'An ending spoiled fun', 'An Excellent Non-Stop Action Movie', 'First installment ¨Bourne¨ saga , well starred Matt Damon followed various thrilling sequels', 'What spy thriller', 'Refreshingly delicious action flick', "The Good &amp; Bad Of `` The Bourne Identity '", 'Delivers goods without least bit surprising suspenseful ...', 'Jason Bourne ... dead', 'great action thriller', 'A rousing mix action intrigue .', 'An American assassin awakens amnesia .', 'So Where Are The Good Guys', 'Super-Spy Genre Reborn', 'I want Bourne body bag sundown !', "We 'll always Paris", "Do n't Forget Charlie Baltimore", 'Espionage thriller murky , far-fetched plot ...', 'Said faithful Robert Ludlum novel', 'French', 'Recommended Viewers Enjoy Good Action Suspense']</t>
+          <t>['Good  though s sort thing I d want watch often ', 'Surprisingly good entertaining', 'All Action', 'Nice Thriller', 'Underplayed Good', 'An ending spoiled fun', 'An Excellent NonStop Action Movie', 'First installment Bourne saga  well starred Matt Damon followed various thrilling sequels', 'What spy thriller', 'Refreshingly delicious action flick', 'The Good  Bad Of  The Bourne Identity ', 'Delivers goods without least bit surprising suspenseful ', 'Jason Bourne  dead', 'great action thriller', 'A rousing mix action intrigue ', 'An American assassin awakens amnesia ', 'So Where Are The Good Guys', 'SuperSpy Genre Reborn', 'I want Bourne body bag sundown ', 'We ll always Paris', 'Do nt Forget Charlie Baltimore', 'Espionage thriller murky  farfetched plot ', 'Said faithful Robert Ludlum novel', 'French', 'Recommended Viewers Enjoy Good Action Suspense']</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>['A daring enjoyable comedy starring Simon Pegg', 'A Town Like Stepford , oops Sandford', 'funny', 'Peerless Burlesque Of Supercop Movies', 'The Sandford Wives .', 'Shaun Bad Boys', 'Wonderfully witty film Bad Boys meets Vicar Dibley', "police small town 's back", 'Silly , dumb , stupid , daft\x97and quite lot fun .', 'A Decent British Comedy , But Nothing Timeless', 'uproarious British spoof ; send-up delivers high-octane action , tons puns tasteless gags', "Brilliant ! It 's got everything ...", 'A comedic masterpiece !', 'Ultra-Kinetic Overstuffed Movie Buffs Have Fun', 'Homage parody , Hot Fuzz best modern British comedy .', 'Possibly Better Than The Previous Pegg Effort', '`` Make Sandford Great Again ``', 'Nothing like bit girl girl !', "One Best Action Movie Spoofs I 've Ever Seen", 'The Greater Good', 'Yes , good fun would expect .', 'Actually outdoes Shaun Dead', "even n't like Shaun , love", 'Even better Shaun Dead , movie delivers laughs surprisingly action .', "`` Have You Ever Fired Your Gun Up In The Air And Gone , 'Aaargh ! ' ? ``"]</t>
+          <t>['A daring enjoyable comedy starring Simon Pegg', 'A Town Like Stepford  oops Sandford', 'funny', 'Peerless Burlesque Of Supercop Movies', 'The Sandford Wives ', 'Shaun Bad Boys', 'Wonderfully witty film Bad Boys meets Vicar Dibley', 'police small town s back', 'Silly  dumb  stupid  daftand quite lot fun ', 'A Decent British Comedy  But Nothing Timeless', 'uproarious British spoof  sendup delivers highoctane action  tons puns tasteless gags', 'Brilliant  It s got everything ', 'A comedic masterpiece ', 'UltraKinetic Overstuffed Movie Buffs Have Fun', 'Homage parody  Hot Fuzz best modern British comedy ', 'Possibly Better Than The Previous Pegg Effort', ' Make Sandford Great Again ', 'Nothing like bit girl girl ', 'One Best Action Movie Spoofs I ve Ever Seen', 'The Greater Good', 'Yes  good fun would expect ', 'Actually outdoes Shaun Dead', 'even nt like Shaun  love', 'Even better Shaun Dead  movie delivers laughs surprisingly action ', ' Have You Ever Fired Your Gun Up In The Air And Gone  Aaargh    ']</t>
         </is>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>["Sylistically , 's hard imagine Copolla making film `` Godfather `` `` Godfather II `` .", 'Excellent', 'great 70s paranoia', 'Technology root evil', 'Listen', 'Intelligent ingenious thriller magnificent acting Gene Hackman perfect direction Coppola', 'major combination', 'Deftly Manuevered Muscled For Rank', 'Between Alan Pakula Sid Lumet', 'Through semi-permeable membrane , darkly .', 'You Have To See This More Than Once', "Coppola 's best film", "Coppola 's 'other ' nineteen-seventies classic ; one Hackman 's complex performances", "I always feel like ... somebody 's eavesdropping ! And I got privacy ...", 'Well written well acted masterpiece 1970s .', 'One Theme Little Depth', 'Timely , Suspenseful Slow-Burn Coppola Hackman', 'A lesser-known Francis Ford Coppola gem', 'Simple', 'An Ironic Title', 'Why praise/', 'Good plot , bad script , dull characters ...', 'Just relevent back', 'An outstanding classic , intensely captivating digs claws', 'Does Sound Recordings What `` Blowup `` Did Photographs']</t>
+          <t>['Sylistically  s hard imagine Copolla making film  Godfather   Godfather II  ', 'Excellent', 'great 70s paranoia', 'Technology root evil', 'Listen', 'Intelligent ingenious thriller magnificent acting Gene Hackman perfect direction Coppola', 'major combination', 'Deftly Manuevered Muscled For Rank', 'Between Alan Pakula Sid Lumet', 'Through semipermeable membrane  darkly ', 'You Have To See This More Than Once', 'Coppola s best film', 'Coppola s other  nineteenseventies classic  one Hackman s complex performances', 'I always feel like  somebody s eavesdropping  And I got privacy ', 'Well written well acted masterpiece 1970s ', 'One Theme Little Depth', 'Timely  Suspenseful SlowBurn Coppola Hackman', 'A lesserknown Francis Ford Coppola gem', 'Simple', 'An Ironic Title', 'Why praise', 'Good plot  bad script  dull characters ', 'Just relevent back', 'An outstanding classic  intensely captivating digs claws', 'Does Sound Recordings What  Blowup  Did Photographs']</t>
         </is>
       </c>
     </row>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>['wonderful family film also entertain parents', "Not kids movie . It 's great movie .", 'Beautifully Constructed Movie About Childhood', 'even someone interested sports', 'Kid Movie For Adults Who Are Young At Heart', 'One greatest childhood films ever', 'The Neverending Game', '`` A real pickle ! ``', 'Cute Nostalgic', 'Captures feeling Summer', '`` You play ball like girl ! ``', 'Nice growing-up movie .', 'The Best Baseball Film Ever Made', 'Sandlot Dreams', 'Best Baseball Movie Ever', 'Simple Song Effective , Familiar Chorus', 'good movie', 'Likable family film plenty amusing moments young cast appealing .', "Great baseball movie great kid 's movie : decide", 'Fun kids , entertaining adults , excellent baseball enthusiasts .', '8/10 -- GREAT !', 'One favorite sports movies', 'Steeped Nostalgia', 'Babe Who ?', 'Baseball eyes children .']</t>
+          <t>['wonderful family film also entertain parents', 'Not kids movie  It s great movie ', 'Beautifully Constructed Movie About Childhood', 'even someone interested sports', 'Kid Movie For Adults Who Are Young At Heart', 'One greatest childhood films ever', 'The Neverending Game', ' A real pickle  ', 'Cute Nostalgic', 'Captures feeling Summer', ' You play ball like girl  ', 'Nice growingup movie ', 'The Best Baseball Film Ever Made', 'Sandlot Dreams', 'Best Baseball Movie Ever', 'Simple Song Effective  Familiar Chorus', 'good movie', 'Likable family film plenty amusing moments young cast appealing ', 'Great baseball movie great kid s movie  decide', 'Fun kids  entertaining adults  excellent baseball enthusiasts ', '810  GREAT ', 'One favorite sports movies', 'Steeped Nostalgia', 'Babe Who ', 'Baseball eyes children ']</t>
         </is>
       </c>
     </row>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>['A delight ...', 'A timeless classic !', 'Only One Word For This - Supercalifragilisticexpialadocious', 'Great innocent family movie', "Some Best Dancing You 'll Ever See", 'magical', 'Not saving Mr Banks', 'Classic musical comedy joyous dance set pieces plethora hit songs', "Princess Fiona 's mother meets Man Who Tripped Ottoman", 'Loads energy , much else .', 'A Classic , No Doubt', 'Lots To Like But A Tad Too Long', 'Weighty Disney whimsy combines magic sermonizing ...', "Walt Disney 's Mary Poppins still something worth marveling years later", 'One best musicals ever made', 'One finest family films ever made .', 'A Classic Family Movie', 'Not Quite Supercali ...', 'Julie perfect answer dysfunctional household ...', 'Super', "Far better 'My Fair Lady ' day", 'A classic , essential , must-see masterpiece - brilliant , absolute delight', 'The story , music actors propel Poppins stars', 'Mary , Mary', 'Nanny From The Sky']</t>
+          <t>['A delight ', 'A timeless classic ', 'Only One Word For This  Supercalifragilisticexpialadocious', 'Great innocent family movie', 'Some Best Dancing You ll Ever See', 'magical', 'Not saving Mr Banks', 'Classic musical comedy joyous dance set pieces plethora hit songs', 'Princess Fiona s mother meets Man Who Tripped Ottoman', 'Loads energy  much else ', 'A Classic  No Doubt', 'Lots To Like But A Tad Too Long', 'Weighty Disney whimsy combines magic sermonizing ', 'Walt Disney s Mary Poppins still something worth marveling years later', 'One best musicals ever made', 'One finest family films ever made ', 'A Classic Family Movie', 'Not Quite Supercali ', 'Julie perfect answer dysfunctional household ', 'Super', 'Far better My Fair Lady  day', 'A classic  essential  mustsee masterpiece  brilliant  absolute delight', 'The story  music actors propel Poppins stars', 'Mary  Mary', 'Nanny From The Sky']</t>
         </is>
       </c>
     </row>
@@ -13505,7 +13505,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>['What earth Peter Jackson playing ?', 'A good improvement first', 'A Mile Minute', 'mistake', 'The bigger/higher ...', 'Another Great Adventure', 'Improves upon first one enough cover weaknesses shares', 'Spiders ? Run ! Orcs ? Run ! Dragon ? Run ! Sure lot running ...', '5+ hours far , come .', "Smaug rules , rest movie ... okay ( thought I 'd say 'drools ' n't ya )", "ca n't wait next film !", 'Deterred dullness first one', 'Very Low Expectations Helped Greatly', "I 'll See Through 'Til End", 'The second one best one Hobbit movies', 'Enjoyable Enough Time Spent', 'This fantasy genre masterpiece absolute must see .', 'That fixed good', 'Great fun , forget book', 'The Hobbit : The Desolation Smaug', 'What done ?', 'Dragons , wraiths , magic , whole shebang', 'Loosely based upon characters created J. R. R. Tolkien', 'Better first chapter', 'Exciting Film']</t>
+          <t>['What earth Peter Jackson playing ', 'A good improvement first', 'A Mile Minute', 'mistake', 'The biggerhigher ', 'Another Great Adventure', 'Improves upon first one enough cover weaknesses shares', 'Spiders  Run  Orcs  Run  Dragon  Run  Sure lot running ', '5 hours far  come ', 'Smaug rules  rest movie  okay  thought I d say drools  nt ya ', 'ca nt wait next film ', 'Deterred dullness first one', 'Very Low Expectations Helped Greatly', 'I ll See Through Til End', 'The second one best one Hobbit movies', 'Enjoyable Enough Time Spent', 'This fantasy genre masterpiece absolute must see ', 'That fixed good', 'Great fun  forget book', 'The Hobbit  The Desolation Smaug', 'What done ', 'Dragons  wraiths  magic  whole shebang', 'Loosely based upon characters created J R R Tolkien', 'Better first chapter', 'Exciting Film']</t>
         </is>
       </c>
     </row>
@@ -13549,7 +13549,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>['Spellbinding', 'The Saga Saigo Takamori', 'Acceptable great', 'inspired', 'A Reasonable Adventure With Wonderful Photography Arithmetic Problem', "Tom Cruise 's nice acting captain becomes respected Samurai warrior Japanese world", 'Excellent Period Piece', 'Excellent Samurai movie never seems long .', 'adventures Tom Cruise Japan', 'Routine heroic stuff ... Same old stuff , different setting', 'Captivating', 'Oh , What Lovely Warrior ! ( ... Praise Ammunition , Pass Saki )', 'Ambitious Fault ... Stans Test Time As Salute Culture Nobility &amp; Way Life', "'Born Fourth ' tries Kurosawa , gets 'Dances Wolves '", 'It made believer', 'A Very Entertaining Action Film', 'Neither perfect bloom great conversation', 'The true meaning honor .', 'Far East Away', 'Likable , Lacks Originality', 'Started strong , became sappy .', 'A last stand ages', 'The Last Samurai', 'Historically Dubious , Morally Flawed', "` The Last Samurai ' formulaic epic ."]</t>
+          <t>['Spellbinding', 'The Saga Saigo Takamori', 'Acceptable great', 'inspired', 'A Reasonable Adventure With Wonderful Photography Arithmetic Problem', 'Tom Cruise s nice acting captain becomes respected Samurai warrior Japanese world', 'Excellent Period Piece', 'Excellent Samurai movie never seems long ', 'adventures Tom Cruise Japan', 'Routine heroic stuff  Same old stuff  different setting', 'Captivating', 'Oh  What Lovely Warrior    Praise Ammunition  Pass Saki ', 'Ambitious Fault  Stans Test Time As Salute Culture Nobility  Way Life', 'Born Fourth  tries Kurosawa  gets Dances Wolves ', 'It made believer', 'A Very Entertaining Action Film', 'Neither perfect bloom great conversation', 'The true meaning honor ', 'Far East Away', 'Likable  Lacks Originality', 'Started strong  became sappy ', 'A last stand ages', 'The Last Samurai', 'Historically Dubious  Morally Flawed', ' The Last Samurai  formulaic epic ']</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>['Very good sequel , good first , definitely worth look', 'Time loop revisit original movie creates incredible sequel', 'amazing', 'Back Back future , present past .', 'Back', 'A fun film fun trilogy majority viewers easily enjoy', 'A worty sequel ...', 'back forth ... back forth', "Everything could ask sequel one best films '80s .", 'Weakest Three ?', "Too Much 'Biff ' Makes It The Weakest Of The 3 BTTFs", 'Three Back Future movies , great trilogy , 1985 , 1989 , 1990 .', 'Busy , beleaguered sequel', 'In middle', 'Past , alternate present future In reverse order !', 'Back Future Part II almost enjoyable predecessor', 'An incredible sequel', 'Time Pair Docs', 'You got ta go forward save past back alter future .', 'Still entertaining better first .', 'More Special Effects Make More Entertaining Sequel', 'Well-constructed', 'Timeless', 'Clever sequel action-packed , goofier complicated plot', 'Have watch films together !']</t>
+          <t>['Very good sequel  good first  definitely worth look', 'Time loop revisit original movie creates incredible sequel', 'amazing', 'Back Back future  present past ', 'Back', 'A fun film fun trilogy majority viewers easily enjoy', 'A worty sequel ', 'back forth  back forth', 'Everything could ask sequel one best films 80s ', 'Weakest Three ', 'Too Much Biff  Makes It The Weakest Of The 3 BTTFs', 'Three Back Future movies  great trilogy  1985  1989  1990 ', 'Busy  beleaguered sequel', 'In middle', 'Past  alternate present future In reverse order ', 'Back Future Part II almost enjoyable predecessor', 'An incredible sequel', 'Time Pair Docs', 'You got ta go forward save past back alter future ', 'Still entertaining better first ', 'More Special Effects Make More Entertaining Sequel', 'Wellconstructed', 'Timeless', 'Clever sequel actionpacked  goofier complicated plot', 'Have watch films together ']</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>['Terrific .', 'Disney continues impress Big Hero 6', 'good origin story problematic villain true identity', 'Watch Stan', 'Disney back track', 'Excellent Disney Production Based Marvel Character', "Big , bright cheerful , even n't manage heart well , ultimately turns another Marvel film second half", 'Best Animated Film 2014 ?', 'solid Disney-Marvel-Anime hybrid , less masterful', 'Big Hero 6 awesome Disney animated experience !', 'Very fun enjoyable', 'Lazy , Yawn Inducing Retread Awful Title Macro-Mediocrity', 'Great fun whole family', 'Another Disney Hero', 'A good movie Disney .', 'Some decent superhero junk food', 'Fun kind cliché', 'How train robot', 'notes', 'sequel ?', 'Enjoyable kids movie', 'Predictably strong animation ; unpredictably stronger themes', 'Touching , funny , action-packed !', 'Really nothing original comic books', 'How Train Your Robot']</t>
+          <t>['Terrific ', 'Disney continues impress Big Hero 6', 'good origin story problematic villain true identity', 'Watch Stan', 'Disney back track', 'Excellent Disney Production Based Marvel Character', 'Big  bright cheerful  even nt manage heart well  ultimately turns another Marvel film second half', 'Best Animated Film 2014 ', 'solid DisneyMarvelAnime hybrid  less masterful', 'Big Hero 6 awesome Disney animated experience ', 'Very fun enjoyable', 'Lazy  Yawn Inducing Retread Awful Title MacroMediocrity', 'Great fun whole family', 'Another Disney Hero', 'A good movie Disney ', 'Some decent superhero junk food', 'Fun kind clich', 'How train robot', 'notes', 'sequel ', 'Enjoyable kids movie', 'Predictably strong animation  unpredictably stronger themes', 'Touching  funny  actionpacked ', 'Really nothing original comic books', 'How Train Your Robot']</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>['Perfectly Entertaining Mix Laughs Drama', 'Growing', 'Awesome Film', 'Get balance right keeps viewer caring love', 'power off-the-grid lifestyle', 'Beautifully made', 'A captivating story unconventional way parenting', '`` There actual food Menu . `` ... Excellent Provocative Powerhouse', 'The idea cutting away city fascinating', 'clash philosophies', 'Inspiring movie', 'Refreshingly honest heartfelt ; touching , beautiful wonderfully eccentric film .', 'Thought provoking social commentary , falls little flat end', 'A rebel way look different guy , different lifestyle different way live family .', 'savvy indie help mulling afterwards getting inspirations afterthought', 'Captain Fantastic Reminds Us Who Viggo Mortensen Truly Is !', "I n't know movie attempting tell", 'The difficult issue relate suicide family', '`` Captain Fantastic `` touches greatness , time stays away', 'Not confused Steve Rogers', 'This Movie Debates The Right To Live Your Life How You Choose', 'Power People , Stick Man', 'Fine', 'One best movies year one needs seen , experienced felt order fully understand', 'One best movies year far']</t>
+          <t>['Perfectly Entertaining Mix Laughs Drama', 'Growing', 'Awesome Film', 'Get balance right keeps viewer caring love', 'power offthegrid lifestyle', 'Beautifully made', 'A captivating story unconventional way parenting', ' There actual food Menu    Excellent Provocative Powerhouse', 'The idea cutting away city fascinating', 'clash philosophies', 'Inspiring movie', 'Refreshingly honest heartfelt  touching  beautiful wonderfully eccentric film ', 'Thought provoking social commentary  falls little flat end', 'A rebel way look different guy  different lifestyle different way live family ', 'savvy indie help mulling afterwards getting inspirations afterthought', 'Captain Fantastic Reminds Us Who Viggo Mortensen Truly Is ', 'I nt know movie attempting tell', 'The difficult issue relate suicide family', ' Captain Fantastic  touches greatness  time stays away', 'Not confused Steve Rogers', 'This Movie Debates The Right To Live Your Life How You Choose', 'Power People  Stick Man', 'Fine', 'One best movies year one needs seen  experienced felt order fully understand', 'One best movies year far']</t>
         </is>
       </c>
     </row>
@@ -13725,7 +13725,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>['Not film cast away ...', 'Loved', 'Great one-man performance', 'Counteracting Loneliness', 'Robinson Tom Hanks ( )', "Slow engaging drama driven Hanks ' brave performance", 'Gilligan forgot tell us', 'Okay , But Nowhere Near The Hype', "A quality film n't grab", 'A quiet tour-de-force Hanks', 'one ...', 'Amazing performance shines', 'Great human drama !', "Hanks ca n't go wrong", 'Holiday', 'Hanks Pulls Off What Not Just Any Actor Could', 'Absolutely , positively ho-hum', 'Man VS. nature', 'One-of-a-kind type film', "A modern version `` Enoch Arden `` focused man 's lonely survival", 'begins almost fun', 'Marooned', 'Cast Away', 'Engaging powerful', "I 'm raising vote 10/10"]</t>
+          <t>['Not film cast away ', 'Loved', 'Great oneman performance', 'Counteracting Loneliness', 'Robinson Tom Hanks  ', 'Slow engaging drama driven Hanks  brave performance', 'Gilligan forgot tell us', 'Okay  But Nowhere Near The Hype', 'A quality film nt grab', 'A quiet tourdeforce Hanks', 'one ', 'Amazing performance shines', 'Great human drama ', 'Hanks ca nt go wrong', 'Holiday', 'Hanks Pulls Off What Not Just Any Actor Could', 'Absolutely  positively hohum', 'Man VS nature', 'Oneofakind type film', 'A modern version  Enoch Arden  focused man s lonely survival', 'begins almost fun', 'Marooned', 'Cast Away', 'Engaging powerful', 'I m raising vote 1010']</t>
         </is>
       </c>
     </row>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>['Anthony Hopkins , Emma Thompson unrequited love equals truly wondrous film', 'impeccable', 'To Manor Born', 'admirable work', 'love story', 'To service', 'The greatest movie win Oscar ?', "Touching , tragic tale one man 's duty", "speaking Rebecca West , I 'm currently reading famous book", 'The War !', 'Not much carefully nuanced carefully contrived ...', 'Novel vs film', 'Wonderfully engaging , interesting moving movie', 'Superb British drama', 'Testing Boundaries Propriety Merchant/Ivory', 'Superb every way', 'Almost Perfect !', 'The Remains Day', 'Powerful , powerful movie', 'Ein Treuer Diener Seines Herrn', 'A moving yarn radical occupational hazard', 'Ivory mark', 'Stiff Shirt Butler !', 'Brilliant Performances ! !', 'What said interesting said']</t>
+          <t>['Anthony Hopkins  Emma Thompson unrequited love equals truly wondrous film', 'impeccable', 'To Manor Born', 'admirable work', 'love story', 'To service', 'The greatest movie win Oscar ', 'Touching  tragic tale one man s duty', 'speaking Rebecca West  I m currently reading famous book', 'The War ', 'Not much carefully nuanced carefully contrived ', 'Novel vs film', 'Wonderfully engaging  interesting moving movie', 'Superb British drama', 'Testing Boundaries Propriety MerchantIvory', 'Superb every way', 'Almost Perfect ', 'The Remains Day', 'Powerful  powerful movie', 'Ein Treuer Diener Seines Herrn', 'A moving yarn radical occupational hazard', 'Ivory mark', 'Stiff Shirt Butler ', 'Brilliant Performances  ', 'What said interesting said']</t>
         </is>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>['Very well made packed real world problems ... rather hard watch .', 'Intense urban drama', 'More life .', 'A Powerful Drama That Has Aged', 'A classic film SET cliches others repeat', 'hood ornaments , ornament', 'A Film I Should Have Watched Back 1993', '`` Any fool make son , real man raise children . ``', 'powerful , dated wrong places , Fishburne Cube Gooding', 'A movie aged really well', "Rick , 's Nineties . Ca n't afford afraid people anymore , man .", 'Gritty , Raw , Real', 'Tough unflinching', 'Gangs', 'A Riviting Story About American Life Ghetto', 'This time American classic recognized', 'Years later , still packs punch', 'Great debut film', 'Tense intense , wonderful ... Exciting ...', "Boyz n hood n't always hard", "Gripping , never let 's go audience", 'The Performances Were Good , But To Me This Lacked Intensity', 'Arguably Best African-American Film Ever Made', 'Brilliant use sound , engaging script wonderful character development makes film better think .', 'Deadly hood']</t>
+          <t>['Very well made packed real world problems  rather hard watch ', 'Intense urban drama', 'More life ', 'A Powerful Drama That Has Aged', 'A classic film SET cliches others repeat', 'hood ornaments  ornament', 'A Film I Should Have Watched Back 1993', ' Any fool make son  real man raise children  ', 'powerful  dated wrong places  Fishburne Cube Gooding', 'A movie aged really well', 'Rick  s Nineties  Ca nt afford afraid people anymore  man ', 'Gritty  Raw  Real', 'Tough unflinching', 'Gangs', 'A Riviting Story About American Life Ghetto', 'This time American classic recognized', 'Years later  still packs punch', 'Great debut film', 'Tense intense  wonderful  Exciting ', 'Boyz n hood nt always hard', 'Gripping  never let s go audience', 'The Performances Were Good  But To Me This Lacked Intensity', 'Arguably Best AfricanAmerican Film Ever Made', 'Brilliant use sound  engaging script wonderful character development makes film better think ', 'Deadly hood']</t>
         </is>
       </c>
     </row>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>['There much admire film !', 'A hugely impressive first feature Duncan Jones', 'Cerebral exercise twist', 'Mind games', 'Till Now , Most Original Sci-Fi Twentieth-First Century', 'Slow , dull plain', 'Sci-fi humour heart .', 'Great sci fi drama', "Gerty , 're programmed . We 're people , understand ?", 'Space : The Place Tragedy', 'Somewhat captivating yet strange', 'Company Man ...', 'MOON ( Duncan Jones , 2009 ) * * *', 'Me , I .', "Just n't get !", 'Smart sci-fi small scale story , budget , big ideas impressive execution .', 'Lean , solid sci-fi', 'A character piece', 'Moon-age daydream', 'Interesting evening minimalist drama/sci-fi .', 'A Nutshell Review : Moon', 'notes', "`` I 'm walking sunshine whoa ``", 'Well-thought-out , well-written well-made', 'Proper science fiction']</t>
+          <t>['There much admire film ', 'A hugely impressive first feature Duncan Jones', 'Cerebral exercise twist', 'Mind games', 'Till Now  Most Original SciFi TwentiethFirst Century', 'Slow  dull plain', 'Scifi humour heart ', 'Great sci fi drama', 'Gerty  re programmed  We re people  understand ', 'Space  The Place Tragedy', 'Somewhat captivating yet strange', 'Company Man ', 'MOON  Duncan Jones  2009    ', 'Me  I ', 'Just nt get ', 'Smart scifi small scale story  budget  big ideas impressive execution ', 'Lean  solid scifi', 'A character piece', 'Moonage daydream', 'Interesting evening minimalist dramascifi ', 'A Nutshell Review  Moon', 'notes', ' I m walking sunshine whoa ', 'Wellthoughtout  wellwritten wellmade', 'Proper science fiction']</t>
         </is>
       </c>
     </row>
@@ -13901,7 +13901,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>['Far apart', 'Touching Film About Evolving Friendship', 'boyhood', 'Close', 'everything close aware tear flowing', 'Close great , drops ball second half .', 'Cinema Omnivore - Close ( 2022 ) 7.7/10', 'Not Just Another Coming Age Film ...', 'A moving memorable examination innocence lost', 'An important message !', 'Istanbul Film Festival', 'A coming-of-age film ages', 'Thoughtful touching', 'A Tragic Memory', 'Beautiful heartbreaking ...', "You 'll probably always remember", 'Guilt ridden adolescence .', 'Thoughtprovoking', 'We need movies like', "Great n't", 'Too `` Close `` discomfort .', 'Overwrought Overhyped', 'Beautiful heart-wrenching', 'Radiance', "I cried hard movie , 's simply put human experience"]</t>
+          <t>['Far apart', 'Touching Film About Evolving Friendship', 'boyhood', 'Close', 'everything close aware tear flowing', 'Close great  drops ball second half ', 'Cinema Omnivore  Close  2022  7710', 'Not Just Another Coming Age Film ', 'A moving memorable examination innocence lost', 'An important message ', 'Istanbul Film Festival', 'A comingofage film ages', 'Thoughtful touching', 'A Tragic Memory', 'Beautiful heartbreaking ', 'You ll probably always remember', 'Guilt ridden adolescence ', 'Thoughtprovoking', 'We need movies like', 'Great nt', 'Too  Close  discomfort ', 'Overwrought Overhyped', 'Beautiful heartwrenching', 'Radiance', 'I cried hard movie  s simply put human experience']</t>
         </is>
       </c>
     </row>
@@ -13945,7 +13945,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>['Jujutsu prequel', 'Good great', 'Everything expect good origin story .', 'Fun time', 'Cursed soul tears !', 'An introduction bigger picture', 'Thank PVR bringing India', 'Absolutely fantastic', 'Lots love', 'Fantastic Beast : The Secrets Gojo', 'Amazing adaptation', 'Gojo , I loved .', 'Good rushed', 'Felt like manga brought life', 'Uninspiering ...', 'I happy grateful 8/10', 'Treat JJK fans', 'ALL ABOUT THAT ACTION ! !', 'JESUS ! ! ! ! WHAT A DRAG ! ! ! !', 'A perfect introduction Jujutsu Kaisen', 'A Gripping Heartfelt Origin Story', "`` Once I go Jujutsu High School , I break Rika 's curse ! `` ~Yuta Okkotsu", 'What flashback , pleasant surprise', 'Very fun movie']</t>
+          <t>['Jujutsu prequel', 'Good great', 'Everything expect good origin story ', 'Fun time', 'Cursed soul tears ', 'An introduction bigger picture', 'Thank PVR bringing India', 'Absolutely fantastic', 'Lots love', 'Fantastic Beast  The Secrets Gojo', 'Amazing adaptation', 'Gojo  I loved ', 'Good rushed', 'Felt like manga brought life', 'Uninspiering ', 'I happy grateful 810', 'Treat JJK fans', 'ALL ABOUT THAT ACTION  ', 'JESUS     WHAT A DRAG    ', 'A perfect introduction Jujutsu Kaisen', 'A Gripping Heartfelt Origin Story', ' Once I go Jujutsu High School  I break Rika s curse   Yuta Okkotsu', 'What flashback  pleasant surprise', 'Very fun movie']</t>
         </is>
       </c>
     </row>
@@ -13989,7 +13989,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>['wonderful exotic visuals', 'magic', 'Thinking outside Cell', 'Fantasy Reality Entwined', 'If material rich images would awesome , otherwise good', 'A sumptuous tale mythology magic gorgeous outdoors breathtaking special effects', "Amazing Visuals &amp; Intaru 's Acting Make This Memorable", 'Ran , Tempestuous', "We 're strange pair , n't ?", 'You May Find Yourself Falling `` The Fall ``', 'I Fell Hard one', 'Stunning interesting', 'Seeds Scheherazade', 'Great', 'Gorgeous scenery', 'A travel', 'A visual treat like !', 'Simply stunning !', 'Different subversive , sadly tastes', "Visually gorgeous case n't enough .", 'A epic fairy tale indeed', 'Spectacular Visuals , Story Not', 'magical fantasy film', 'Promising Director - Tarsem Singh - The Fall', 'Rising From The Fall']</t>
+          <t>['wonderful exotic visuals', 'magic', 'Thinking outside Cell', 'Fantasy Reality Entwined', 'If material rich images would awesome  otherwise good', 'A sumptuous tale mythology magic gorgeous outdoors breathtaking special effects', 'Amazing Visuals  Intaru s Acting Make This Memorable', 'Ran  Tempestuous', 'We re strange pair  nt ', 'You May Find Yourself Falling  The Fall ', 'I Fell Hard one', 'Stunning interesting', 'Seeds Scheherazade', 'Great', 'Gorgeous scenery', 'A travel', 'A visual treat like ', 'Simply stunning ', 'Different subversive  sadly tastes', 'Visually gorgeous case nt enough ', 'A epic fairy tale indeed', 'Spectacular Visuals  Story Not', 'magical fantasy film', 'Promising Director  Tarsem Singh  The Fall', 'Rising From The Fall']</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>['One grimmest films ever made', 'Evil inside', 'And devil looked back ...', 'Once upon time , Hollywood crap influence ...', 'The greatest trick Devil ever pulled linking name stupendous horror/thriller !', '`` Becoming Monster Fight Monster ``', 'Not faint heart', 'The Devil You Know ...', "There 's nothing I 'd change film , 's absolute masterpiece .", 'Equally sickening stunning , incredible viewing experience', 'Just make things little bit harder comfortably digest .', 'masterpiece', 'And devil saw .', 'I saw devil ...', 'A Nutshell Review : I Saw The Devil', 'notes', 'Ugly visceral serial killer movie .', 'A Bloodbath !', 'Extremely violent moral tale grieving revenge .', 'Haunting disturbing !', '[ 7.8 ] Two devils parallel', 'A monstrous psycho-killer thriller equally diabolical matured revenge .', 'Some great acting lot violence shock , sort dull plot', "One movies really questioning 'what heck 're watching ' !", 'I Saw TWO Devils']</t>
+          <t>['One grimmest films ever made', 'Evil inside', 'And devil looked back ', 'Once upon time  Hollywood crap influence ', 'The greatest trick Devil ever pulled linking name stupendous horrorthriller ', ' Becoming Monster Fight Monster ', 'Not faint heart', 'The Devil You Know ', 'There s nothing I d change film  s absolute masterpiece ', 'Equally sickening stunning  incredible viewing experience', 'Just make things little bit harder comfortably digest ', 'masterpiece', 'And devil saw ', 'I saw devil ', 'A Nutshell Review  I Saw The Devil', 'notes', 'Ugly visceral serial killer movie ', 'A Bloodbath ', 'Extremely violent moral tale grieving revenge ', 'Haunting disturbing ', ' 78  Two devils parallel', 'A monstrous psychokiller thriller equally diabolical matured revenge ', 'Some great acting lot violence shock  sort dull plot', 'One movies really questioning what heck re watching  ', 'I Saw TWO Devils']</t>
         </is>
       </c>
     </row>
@@ -14077,7 +14077,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>["Aside minor quibbles , amazingly original film 's worth time .", 'Started strong fades little , still great', 'Great Cast Bring Innocent Tale Life', 'Whimsical Sharp !', "Scout 's honour", 'Growing Wes Anderson style', "I 've liked every Wes Anderson movie I 've seen , includes `` Moonrise Kingdom ``", 'A Return Genius From Wes Anderson ?', "Wes Anderson 's Moonrise Kingdom continues off-kilter sense drama", 'Beautiful visuals', 'Deadpan Delight', 'Sweet entertaining', 'Somewhat compelling', 'Oh Be 11 Years Old Again ( Would You Really Want To ? )', 'Island Girl', "Wes Anderson 's best ? No , I n't think , 's enjoyable", "A tedious tiresome affair feels like parody acclaimed director 's signature style , rather earnest attempt .", 'Moonrise Kingdom', "Wes Anderson 's Finest Film !", 'Probably favorite Wes Anderson film least top 3', 'As stylish pointless', 'A rare Wes Anderson extravaganza', "May quirky people 's tastes", 'So Wes Anderson', 'Wes Anderson brings us another odd quirky comedy masterpiece .']</t>
+          <t>['Aside minor quibbles  amazingly original film s worth time ', 'Started strong fades little  still great', 'Great Cast Bring Innocent Tale Life', 'Whimsical Sharp ', 'Scout s honour', 'Growing Wes Anderson style', 'I ve liked every Wes Anderson movie I ve seen  includes  Moonrise Kingdom ', 'A Return Genius From Wes Anderson ', 'Wes Anderson s Moonrise Kingdom continues offkilter sense drama', 'Beautiful visuals', 'Deadpan Delight', 'Sweet entertaining', 'Somewhat compelling', 'Oh Be 11 Years Old Again  Would You Really Want To  ', 'Island Girl', 'Wes Anderson s best  No  I nt think  s enjoyable', 'A tedious tiresome affair feels like parody acclaimed director s signature style  rather earnest attempt ', 'Moonrise Kingdom', 'Wes Anderson s Finest Film ', 'Probably favorite Wes Anderson film least top 3', 'As stylish pointless', 'A rare Wes Anderson extravaganza', 'May quirky people s tastes', 'So Wes Anderson', 'Wes Anderson brings us another odd quirky comedy masterpiece ']</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>['A Spiritual Journey Into Absurd', "Are experienced ? Jodorowsky 's ambitious Rorschach motion picture tests human 's connection spirituality , cinema", 'To know , dare , want , keep silent ...', 'John Welsey Harding', 'You change gold .', 'A wild , enchanting journey film', 'Jodorowsky never lets', 'One wild ride', 'Trippy Fine', 'An Unforgettable Pilgrimage ...', 'Visually stunning art movie', "Like nothing 've seen", 'Very unusual !', 'The Holy Mountain', 'Unprecedented Visual Stream Consciousness', "A true `` head ' film .", "Fascinating , boring , beautiful , ugly , irritating , pretentious , witty profoundly original . 'The Holy Mountain ' blow mind !", 'The ridiculous , weird , clueless WTF ? ! film ever made', "Jodorowsky 's Most Bizarre , Profound And Ingenious Masterpiece - Unlike Anything You Have Ever Seen !", "70 's art house flick takes seriously", 'A movie experience forget time soon', 'Good Lord', 'Almost Impossible Capture Review ...', "Art - Do n't Blame Messenger ! ! ! !"]</t>
+          <t>['A Spiritual Journey Into Absurd', 'Are experienced  Jodorowsky s ambitious Rorschach motion picture tests human s connection spirituality  cinema', 'To know  dare  want  keep silent ', 'John Welsey Harding', 'You change gold ', 'A wild  enchanting journey film', 'Jodorowsky never lets', 'One wild ride', 'Trippy Fine', 'An Unforgettable Pilgrimage ', 'Visually stunning art movie', 'Like nothing ve seen', 'Very unusual ', 'The Holy Mountain', 'Unprecedented Visual Stream Consciousness', 'A true  head  film ', 'Fascinating  boring  beautiful  ugly  irritating  pretentious  witty profoundly original  The Holy Mountain  blow mind ', 'The ridiculous  weird  clueless WTF   film ever made', 'Jodorowsky s Most Bizarre  Profound And Ingenious Masterpiece  Unlike Anything You Have Ever Seen ', '70 s art house flick takes seriously', 'A movie experience forget time soon', 'Good Lord', 'Almost Impossible Capture Review ', 'Art  Do nt Blame Messenger    ']</t>
         </is>
       </c>
     </row>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>["Swedish thrillers n't get much better", 'Enthralling , mature reasoned drama', 'Noomi Rapace great discovery , terrific dreadfulness', 'Exciting Complex', 'Dark Thriller', 'One Best Films Year', 'Nordic suspense', 'Well-crafted mystery , Noomi Rapace Lisbeth Salander best reason see .', 'Rough stuff', '( review American cut ) : mystery movie nowadays- absorb us get us set anything', 'Good , great', 'Tattooed Mist', 'Solidified Noomi Rapace Michael Nyqvist social status', 'Butt plug', 'Why female names always bring porn sites ?', 'An Untrainable Dragon', 'Like punch stomach , good way', 'Better worse English version different ways', 'Suspenseful , Intriguing ! What movies !', 'Gruesome Grueling Intrigue , Swedish Style', 'Good thriller movie', 'The Girl With The Dragon Tattoo : 7/10', 'A Nutshell Review : The Girl Dragon Tattoo', 'notes', 'Taut suspenseful Swedish mystery thriller .']</t>
+          <t>['Swedish thrillers nt get much better', 'Enthralling  mature reasoned drama', 'Noomi Rapace great discovery  terrific dreadfulness', 'Exciting Complex', 'Dark Thriller', 'One Best Films Year', 'Nordic suspense', 'Wellcrafted mystery  Noomi Rapace Lisbeth Salander best reason see ', 'Rough stuff', ' review American cut   mystery movie nowadays absorb us get us set anything', 'Good  great', 'Tattooed Mist', 'Solidified Noomi Rapace Michael Nyqvist social status', 'Butt plug', 'Why female names always bring porn sites ', 'An Untrainable Dragon', 'Like punch stomach  good way', 'Better worse English version different ways', 'Suspenseful  Intriguing  What movies ', 'Gruesome Grueling Intrigue  Swedish Style', 'Good thriller movie', 'The Girl With The Dragon Tattoo  710', 'A Nutshell Review  The Girl Dragon Tattoo', 'notes', 'Taut suspenseful Swedish mystery thriller ']</t>
         </is>
       </c>
     </row>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>['A knockout film', 'Pretty good little biopic', 'His Strength And Weakness', 'A couple incredible performances', "One 2010 's Most Powerful Films", "It 's good Fight !", 'special', 'Round X ... Fight !', 'When Losers Become Winners', 'Just great piece story telling', 'I recently saw `` Belle Epoque ``', 'A Solid Film , Better Than I Expected', 'The Fighter may one best movies 2010', 'Disfunction', 'Way overrated', 'Authentic Recreation Real Life Struggles Inside Outside Ring', 'Great movie', 'Sometimes boxing corners confined ring .', 'Bale Makes Bearable', "Acting vehicle 's stars", 'True story', 'THE FIGHTER ( David O. Russell , 2010 ) * * *', 'Best Cast Year ?', "Opponents n't always confined ring ...", "Christian Bale &amp; Melissa Leo 's Performances Shine Here !"]</t>
+          <t>['A knockout film', 'Pretty good little biopic', 'His Strength And Weakness', 'A couple incredible performances', 'One 2010 s Most Powerful Films', 'It s good Fight ', 'special', 'Round X  Fight ', 'When Losers Become Winners', 'Just great piece story telling', 'I recently saw  Belle Epoque ', 'A Solid Film  Better Than I Expected', 'The Fighter may one best movies 2010', 'Disfunction', 'Way overrated', 'Authentic Recreation Real Life Struggles Inside Outside Ring', 'Great movie', 'Sometimes boxing corners confined ring ', 'Bale Makes Bearable', 'Acting vehicle s stars', 'True story', 'THE FIGHTER  David O Russell  2010    ', 'Best Cast Year ', 'Opponents nt always confined ring ', 'Christian Bale  Melissa Leo s Performances Shine Here ']</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>['What ... mountains', 'call wild', "Taika Waitit 's Best Work Yet", 'Very quirky entertaining story man boy run New Zealand .', 'unique ( correct sense word ) comic discovery !', 'Slow start good gets going', 'Feels Like Wes Anderson Knock Off', 'Uncle Hec Ricky win', 'could Disney flick', 'Quirky , funny slightly absurdist surprisingly emotionally resonant , .', 'A massive crowd-pleaser international festival circuit Kiwi country', 'A total joy character setting . Netflix Crackle', 'notes', 'Sam Neill &amp; Julian Dennison SOAR In This Delightful Adventure Comedy-Drama !', 'generally interesting tonally inconsistent', 'Taika Waititi obviously talent !', 'A Downright Hilarious , Endlessly Entertaining &amp; Delightfully Heartwarming Kiwi Surprise', 'Engaging', 'Forgettable', 'Charming adventure-comedy New Zealand enjoyed people young old', 'Has heart genuinely funny', "He finally found place , 's jeopardy !", 'What We Do Bush', 'A near-perfect blend comedy drama', 'On The Road']</t>
+          <t>['What  mountains', 'call wild', 'Taika Waitit s Best Work Yet', 'Very quirky entertaining story man boy run New Zealand ', 'unique  correct sense word  comic discovery ', 'Slow start good gets going', 'Feels Like Wes Anderson Knock Off', 'Uncle Hec Ricky win', 'could Disney flick', 'Quirky  funny slightly absurdist surprisingly emotionally resonant  ', 'A massive crowdpleaser international festival circuit Kiwi country', 'A total joy character setting  Netflix Crackle', 'notes', 'Sam Neill  Julian Dennison SOAR In This Delightful Adventure ComedyDrama ', 'generally interesting tonally inconsistent', 'Taika Waititi obviously talent ', 'A Downright Hilarious  Endlessly Entertaining  Delightfully Heartwarming Kiwi Surprise', 'Engaging', 'Forgettable', 'Charming adventurecomedy New Zealand enjoyed people young old', 'Has heart genuinely funny', 'He finally found place  s jeopardy ', 'What We Do Bush', 'A nearperfect blend comedy drama', 'On The Road']</t>
         </is>
       </c>
     </row>
@@ -14297,7 +14297,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>["Better first film .... mostly 's much cuter .", "One year 's biggest delights", 'sweeter marmalade', 'Not As Good As Original But Still Fun', "Intelligent Children 's Movie", 'lovely', 'Paddington 2', 'Marmalade sandwiches hit movie .', 'The definition delight', 'Delightful , fun entertaining', 'Wonderfully funny , charming entertaining', "I would n't believed I saw : one best family movies ever made .", 'kindest bear', 'Exit Bear , Pursued Actor ...', "It 's charming original less segmented boot , characters n't developed much feel tad long .", 'Charming', 'Paddington Does Porridge', 'Grin bear', 'PADDINGTON 2 amps aesthetic flair cleaving unashamedly family-friendly tenet like antecedent , rare case sequel outdoes predecessor', 'cliche train chase scene obvious bridge .', 'More adventure , less substance .', 'Such pleasant &amp; positive sequel', 'smash ! ! !', "It 's hard say anything negative really , 's good critics say .", 'Packs Even More Charm , Warmth &amp; Cinematic Goodness Than Last Time Around']</t>
+          <t>['Better first film  mostly s much cuter ', 'One year s biggest delights', 'sweeter marmalade', 'Not As Good As Original But Still Fun', 'Intelligent Children s Movie', 'lovely', 'Paddington 2', 'Marmalade sandwiches hit movie ', 'The definition delight', 'Delightful  fun entertaining', 'Wonderfully funny  charming entertaining', 'I would nt believed I saw  one best family movies ever made ', 'kindest bear', 'Exit Bear  Pursued Actor ', 'It s charming original less segmented boot  characters nt developed much feel tad long ', 'Charming', 'Paddington Does Porridge', 'Grin bear', 'PADDINGTON 2 amps aesthetic flair cleaving unashamedly familyfriendly tenet like antecedent  rare case sequel outdoes predecessor', 'cliche train chase scene obvious bridge ', 'More adventure  less substance ', 'Such pleasant  positive sequel', 'smash   ', 'It s hard say anything negative really  s good critics say ', 'Packs Even More Charm  Warmth  Cinematic Goodness Than Last Time Around']</t>
         </is>
       </c>
     </row>
@@ -14341,7 +14341,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>['Dark , quite poignant captivating', '`` Only The Echoes Of My Mind ``', "Hey , I 'm Walking Here ! !", 'A Masterpiece That Keeps Getting Better Age', 'Everybody Was Talking', 'The boy man', 'Depressing Tale Friendship Shattered Dreams', 'An OK film well developed iconic moment least three messy ones', 'Stunning movie exceptional starring couple', "I 'm watchin ' ! I 'm watchin ' !", "Dustin Hoffman His Finest ... Jon Voight 's Okay , Too", 'The Name `` Ratso Rizzo `` About Sums Up The Sordidness Of This Story', 'Depressing squalor laced sentiment', 'macadam cowboy', "Everybody 's Talkin ' , I ca n't hear word 're saying", 'Cowboy Weakling Remarkable Sync * * * 1/2', 'The Odd Couple', 'Superb - engaging , emotional drama', "Everyone 's Talking About It Being Great Movie", 'Uncomfortable Watch', 'Struggle survival big city ... brilliant performances ...', 'Hoffman Voight stand ground breaking film', 'Taxi', 'Engrossing , less impressive reputation', "Ride 'Em , Cowboy"]</t>
+          <t>['Dark  quite poignant captivating', ' Only The Echoes Of My Mind ', 'Hey  I m Walking Here  ', 'A Masterpiece That Keeps Getting Better Age', 'Everybody Was Talking', 'The boy man', 'Depressing Tale Friendship Shattered Dreams', 'An OK film well developed iconic moment least three messy ones', 'Stunning movie exceptional starring couple', 'I m watchin   I m watchin  ', 'Dustin Hoffman His Finest  Jon Voight s Okay  Too', 'The Name  Ratso Rizzo  About Sums Up The Sordidness Of This Story', 'Depressing squalor laced sentiment', 'macadam cowboy', 'Everybody s Talkin   I ca nt hear word re saying', 'Cowboy Weakling Remarkable Sync    12', 'The Odd Couple', 'Superb  engaging  emotional drama', 'Everyone s Talking About It Being Great Movie', 'Uncomfortable Watch', 'Struggle survival big city  brilliant performances ', 'Hoffman Voight stand ground breaking film', 'Taxi', 'Engrossing  less impressive reputation', 'Ride Em  Cowboy']</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>['fresh vampire movie', 'Let Right One In', 'Quite Shocking', "Just n't expect much horror", 'Stylish One Best Vampire Movies Ever', 'Swedish film dealing emotive frightening story outcast , lonely boy strange girl', "Sweden 's vampires", 'Although Only Two Years Old , Already Recognized As Classic', "You twelve , forever going thirteen , baby 's time drink blood", 'If horror movie , failed miserably', 'David v. Goliath/Friendship Story', 'Painfully Slow', 'LET THE RIGHT ONE IN ( Tomas Alfredson , 2008 ) * * * 1/2', 'This horror masterpiece absolute must see', 'Overrated film without lot going', 'To flee life , linger death .', 'An Eerily Beautiful Film About Little Boy His Vampire Girlfriend', 'Horror generations , treats audience , old , seriously .', 'See smart vampire story ?', 'In Bleak Midwinter', 'Wonderful , beautiful bloody', 'Subtly plays tropes genre deliver subversive story outsider romance .', "Once get rhythm , 're hooked . Glad I saw !", 'A Nutshell Review : Let The Right One In', 'Beautifully sad melancholic vampire tale loneliness longing love .']</t>
+          <t>['fresh vampire movie', 'Let Right One In', 'Quite Shocking', 'Just nt expect much horror', 'Stylish One Best Vampire Movies Ever', 'Swedish film dealing emotive frightening story outcast  lonely boy strange girl', 'Sweden s vampires', 'Although Only Two Years Old  Already Recognized As Classic', 'You twelve  forever going thirteen  baby s time drink blood', 'If horror movie  failed miserably', 'David v GoliathFriendship Story', 'Painfully Slow', 'LET THE RIGHT ONE IN  Tomas Alfredson  2008     12', 'This horror masterpiece absolute must see', 'Overrated film without lot going', 'To flee life  linger death ', 'An Eerily Beautiful Film About Little Boy His Vampire Girlfriend', 'Horror generations  treats audience  old  seriously ', 'See smart vampire story ', 'In Bleak Midwinter', 'Wonderful  beautiful bloody', 'Subtly plays tropes genre deliver subversive story outsider romance ', 'Once get rhythm  re hooked  Glad I saw ', 'A Nutshell Review  Let The Right One In', 'Beautifully sad melancholic vampire tale loneliness longing love ']</t>
         </is>
       </c>
     </row>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>['This movie definitely one miss ...', 'A Glorious Story Committed Camera', 'Overrated Dull Religious Rap', 'My Question Never Asked Answered', 'Fascinating refreshing , imperfect', 'Smart', 'notes', 'A Good Story , But It Does Become Very Heavy As It Goes On', 'Interesting', 'Thank You Jerome : The Man From Earth', "I 'm sure I 've told tall tale tens times teens I drunk .", 'One Room , Great Story', 'The Man From Earth', 'The Man Who Was There', 'A hoax ...... like `` Cardiff Giant `` ........ gullible believe ...', 'Underrated', 'High Concept , Low Production Standards', 'Best psychological sci-fi ever .', 'Very unusual , effective', 'Cult Classic Waste Time ?', 'Earthly sci-fi', 'people eat tongues', "'s quite good story 've got , OK , flaws", 'There much fantasy', 'Fun , Story Driven Film Flawed Cliché Characters Average Acting']</t>
+          <t>['This movie definitely one miss ', 'A Glorious Story Committed Camera', 'Overrated Dull Religious Rap', 'My Question Never Asked Answered', 'Fascinating refreshing  imperfect', 'Smart', 'notes', 'A Good Story  But It Does Become Very Heavy As It Goes On', 'Interesting', 'Thank You Jerome  The Man From Earth', 'I m sure I ve told tall tale tens times teens I drunk ', 'One Room  Great Story', 'The Man From Earth', 'The Man Who Was There', 'A hoax  like  Cardiff Giant   gullible believe ', 'Underrated', 'High Concept  Low Production Standards', 'Best psychological scifi ever ', 'Very unusual  effective', 'Cult Classic Waste Time ', 'Earthly scifi', 'people eat tongues', 's quite good story ve got  OK  flaws', 'There much fantasy', 'Fun  Story Driven Film Flawed Clich Characters Average Acting']</t>
         </is>
       </c>
     </row>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>["Folks , 's remake ....", 'Superbly menacing melodrama', 'Ingrid Bergman shines', 'Excellently Plotted Psychological Thriller', 'must see . .', 'Dastardly deeds', 'Outstanding .', 'Psychological Torture', 'A suspenseful , Victorian era mystery nice acting plot twists', 'still happens', 'A Very Different Kind Mystery', 'Not Fun To Watch', 'Uneven ( Oscar-winning ! ) Ingrid Bergman performance', 'A man tries gaslight wife', 'turns great film psychological damage', 'Looking Beautiful London', 'One Scene , Depth', 'Glossy Gloomy Heavy Handed Frustrating', 'Lacks mystery intrigue - quite predictable', 'I knew first moment I saw dangerous .', "Foggy nights London 's Thornton Square", 'Predictable still works', 'Victorian London setting makes chilly atmosphere ...', "Not consistent 1940 version still entertaining Bergman 's performance", 'Non Compos Mentis ? ...']</t>
+          <t>['Folks  s remake ', 'Superbly menacing melodrama', 'Ingrid Bergman shines', 'Excellently Plotted Psychological Thriller', 'must see  ', 'Dastardly deeds', 'Outstanding ', 'Psychological Torture', 'A suspenseful  Victorian era mystery nice acting plot twists', 'still happens', 'A Very Different Kind Mystery', 'Not Fun To Watch', 'Uneven  Oscarwinning   Ingrid Bergman performance', 'A man tries gaslight wife', 'turns great film psychological damage', 'Looking Beautiful London', 'One Scene  Depth', 'Glossy Gloomy Heavy Handed Frustrating', 'Lacks mystery intrigue  quite predictable', 'I knew first moment I saw dangerous ', 'Foggy nights London s Thornton Square', 'Predictable still works', 'Victorian London setting makes chilly atmosphere ', 'Not consistent 1940 version still entertaining Bergman s performance', 'Non Compos Mentis  ']</t>
         </is>
       </c>
     </row>
@@ -14517,7 +14517,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>['A tense fight survival', 'Greengrass strikes', 'This indeed Africa', 'More exciting expected', 'Exceptional Hanks Tense Thriller', 'All aboard pirates allowed', 'Keeping real ( ? )', 'Great Duel `` Captains ``', "Tense engaging even little longer needed perhaps `` Bayed `` ending way n't need", 'A superb fascinating thriller top-drawer acting Tom Hanks', 'Thanks nothing , Siad Barre !', 'Not Flawless , But Perhaps Oscar-Worthy', 'Slow start . Epic end', "Captain Phillips good depiction recent real-life event n't take sides", 'A great film !', 'Extremely well-crafted .', 'Too Much', 'Interesting , gripping drama', 'Might Have Worked Better With An Unknown Lead', 'Ship', 'CAPTAIN PHILLIPS ( Paul Greengrass , 2013 ) * * 1/2', 'Tom Hanks Danger High Seas', 'Fighting Irish', 'Gripping real - exceeds expectations', "I 'm The Captain Now !"]</t>
+          <t>['A tense fight survival', 'Greengrass strikes', 'This indeed Africa', 'More exciting expected', 'Exceptional Hanks Tense Thriller', 'All aboard pirates allowed', 'Keeping real   ', 'Great Duel  Captains ', 'Tense engaging even little longer needed perhaps  Bayed  ending way nt need', 'A superb fascinating thriller topdrawer acting Tom Hanks', 'Thanks nothing  Siad Barre ', 'Not Flawless  But Perhaps OscarWorthy', 'Slow start  Epic end', 'Captain Phillips good depiction recent reallife event nt take sides', 'A great film ', 'Extremely wellcrafted ', 'Too Much', 'Interesting  gripping drama', 'Might Have Worked Better With An Unknown Lead', 'Ship', 'CAPTAIN PHILLIPS  Paul Greengrass  2013    12', 'Tom Hanks Danger High Seas', 'Fighting Irish', 'Gripping real  exceeds expectations', 'I m The Captain Now ']</t>
         </is>
       </c>
     </row>
@@ -14561,7 +14561,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>['Superb', 'Great biopic love story', 'Great Bio', 'Walk Line', 'Just great', 'What Story !', 'Really engaging enjoyable biopic', 'shows great movies always come end year', 'About Good Cash Biopic We Can Hope For', 'Walking The Line With Johnny ( And Ray )', 'Joaquin Phoenix Reese Witherspoon superb Johnny June .', 'Heartfelt film impassioned without energetic ...', "Portrait artist 's journey great love", "performances music , fairly credible story , 's need ...", 'Walking A Great Line * * * *', 'An engaging vibrant biopic', 'Wonderfully engaging entertaining biopic', 'Performances', 'Johnny Cash June Carter wonderful combination !', 'Exceptional performances raise level excellent bio ...', 'Saw', 'WALK THE LINE ( James Mangold , 2005 ) * * *', 'Another drugged-out country singer', 'Same Old , Same Old', 'Steady like Train , Sharp like Razor']</t>
+          <t>['Superb', 'Great biopic love story', 'Great Bio', 'Walk Line', 'Just great', 'What Story ', 'Really engaging enjoyable biopic', 'shows great movies always come end year', 'About Good Cash Biopic We Can Hope For', 'Walking The Line With Johnny  And Ray ', 'Joaquin Phoenix Reese Witherspoon superb Johnny June ', 'Heartfelt film impassioned without energetic ', 'Portrait artist s journey great love', 'performances music  fairly credible story  s need ', 'Walking A Great Line    ', 'An engaging vibrant biopic', 'Wonderfully engaging entertaining biopic', 'Performances', 'Johnny Cash June Carter wonderful combination ', 'Exceptional performances raise level excellent bio ', 'Saw', 'WALK THE LINE  James Mangold  2005    ', 'Another druggedout country singer', 'Same Old  Same Old', 'Steady like Train  Sharp like Razor']</t>
         </is>
       </c>
     </row>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>['Fantastic', 'Better Firefly fans , still good everybody else', 'Evolution', 'Building Better Utopist World without Sin', 'An entertaining sci-fi provided sci-fi thrills summer 2005 Lucas failed deliver', 'This quite good ...', 'Sequel TV serial great lot action breathtaking special effects', "even better watch Firefly , 's mandatory enjoyment", 'I aim misbehave .', "Great movie , helps lot 've seen Firefly", 'Attacks Itself', 'This captain . We little problem entry sequence , may experience slight turbulence - explode .', "She startin ' damage calm .", 'A Sleeper Hit', "Stick television ca n't movies .", 'Lots fun ... much', 'Entertaining', 'Worthy film Firefly', 'A Nutshell Review : ( DVD ) Serenity ( 2005 )', 'notes', 'Between good regular ...', 'series entertaining I would kept watching', 'Forgettable ...', 'An absolutely shiny capstone Firefly', '[ 8.2 ] The star movie Summer Glau']</t>
+          <t>['Fantastic', 'Better Firefly fans  still good everybody else', 'Evolution', 'Building Better Utopist World without Sin', 'An entertaining scifi provided scifi thrills summer 2005 Lucas failed deliver', 'This quite good ', 'Sequel TV serial great lot action breathtaking special effects', 'even better watch Firefly  s mandatory enjoyment', 'I aim misbehave ', 'Great movie  helps lot ve seen Firefly', 'Attacks Itself', 'This captain  We little problem entry sequence  may experience slight turbulence  explode ', 'She startin  damage calm ', 'A Sleeper Hit', 'Stick television ca nt movies ', 'Lots fun  much', 'Entertaining', 'Worthy film Firefly', 'A Nutshell Review   DVD  Serenity  2005 ', 'notes', 'Between good regular ', 'series entertaining I would kept watching', 'Forgettable ', 'An absolutely shiny capstone Firefly', ' 82  The star movie Summer Glau']</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>['`` Better king night schmuck lifetime ``', 'Looking For That One Big BREAK', 'disturbed creepy annoying character little bit funny', 'Great Gem', 'Robert De Niro gives terrific , hard-hitting acting unhinged , obnoxious would-be comedian making nutty decision', "Who 's laughing ?", "A Good Film , But Not Scorsese 's Best", "Pupkin : A Name I Ca n't Forget !", 'Intentionally abrasive , yet Scorsese offers us nothing else ...', 'Funny Crutch', 'The scribbled name , bigger fame .', 'Unstable fans stalk TV talk show host .', 'Inspired Scorsese Dark Comedy De Niro Jerry Lewis Superb', 'A Flawed Study Of The Human Condition', "What We Would n't Do For Fame", 'The Big Break ...', 'The display obsession lead false reality perfectly depicted .', "One Scorsese 's Best", 'Average movie genius moments .', 'Lunatic Fringe', 'fantasist fanatical fans', 'The King Comedy', "Scorsese 's hidden ace spades .", 'Leaves cold', 'The King Comedy']</t>
+          <t>[' Better king night schmuck lifetime ', 'Looking For That One Big BREAK', 'disturbed creepy annoying character little bit funny', 'Great Gem', 'Robert De Niro gives terrific  hardhitting acting unhinged  obnoxious wouldbe comedian making nutty decision', 'Who s laughing ', 'A Good Film  But Not Scorsese s Best', 'Pupkin  A Name I Ca nt Forget ', 'Intentionally abrasive  yet Scorsese offers us nothing else ', 'Funny Crutch', 'The scribbled name  bigger fame ', 'Unstable fans stalk TV talk show host ', 'Inspired Scorsese Dark Comedy De Niro Jerry Lewis Superb', 'A Flawed Study Of The Human Condition', 'What We Would nt Do For Fame', 'The Big Break ', 'The display obsession lead false reality perfectly depicted ', 'One Scorsese s Best', 'Average movie genius moments ', 'Lunatic Fringe', 'fantasist fanatical fans', 'The King Comedy', 'Scorsese s hidden ace spades ', 'Leaves cold', 'The King Comedy']</t>
         </is>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>['One best war movies ever .', 'For Freedom', 'Great glorious movie', 'Beyond Glory', 'A strong , emotional historical drama ...', 'Impressive moving Civil War movie long-standing emotive score James Horner', 'watching movie , I could tell criticism might', 'My Apathy Towards Civil War Did Not Hinder My Viewing', 'Heavy-Handed , Emotional War Story', 'Discovering Universal Truth ... All Men Equally Men', 'Superb , stirring ... necessary', "And would n't nothing rebs dyin 'd let fifty-fourth .", 'A 19th Century Story Told In A 20th Century Manner', 'Astounding Movie', 'Powerful emotional Civil War story great ensemble cast ...', 'The greatest Civil War movie time', 'Freedom !', "Does n't Age Well", 'True Story .', 'Outstanding Film', 'Strictly Okay !', 'Very sad', 'Terrific Civil War film `` different `` standpoint ...', "The 'real ' Birth Nation ...", 'Somber , powerful , gut-wrenching .']</t>
+          <t>['One best war movies ever ', 'For Freedom', 'Great glorious movie', 'Beyond Glory', 'A strong  emotional historical drama ', 'Impressive moving Civil War movie longstanding emotive score James Horner', 'watching movie  I could tell criticism might', 'My Apathy Towards Civil War Did Not Hinder My Viewing', 'HeavyHanded  Emotional War Story', 'Discovering Universal Truth  All Men Equally Men', 'Superb  stirring  necessary', 'And would nt nothing rebs dyin d let fiftyfourth ', 'A 19th Century Story Told In A 20th Century Manner', 'Astounding Movie', 'Powerful emotional Civil War story great ensemble cast ', 'The greatest Civil War movie time', 'Freedom ', 'Does nt Age Well', 'True Story ', 'Outstanding Film', 'Strictly Okay ', 'Very sad', 'Terrific Civil War film  different  standpoint ', 'The real  Birth Nation ', 'Somber  powerful  gutwrenching ']</t>
         </is>
       </c>
     </row>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>['Profoundly moving , intelligent brilliantly performed', "Robin Williams ' complete performance", 'Terrific Performances DeNiro Williams', 'Awakenings', 'Looking inside ...', 'Worthy overly sentimental', 'wake , everyone', 'Oliver Sacks ... Fictionalized', 'What An Incredible Story ! !', "Sentimental actors ' piece ... well-made ( one eye box-office ) nothing", "`` I know 's 1926 , I need `` ...", "You 'd think certain point atypical somethings would amount typical something .", 'Sensational', "Robin Willaims Robert DeNiro 's presence makes film worth watching", 'Cue Tears', 'Beautiful', 'An emotional movie .', 'Portraits Courage', "A 'hospital film ' Robin Williams Robert De Niro , based true story", 'Enjoyable old-fashioned movie ...', 'A Legend !', 'Good good thinks', "Learning What 's Important In Life", 'Great film', 'A touching moving film .']</t>
+          <t>['Profoundly moving  intelligent brilliantly performed', 'Robin Williams  complete performance', 'Terrific Performances DeNiro Williams', 'Awakenings', 'Looking inside ', 'Worthy overly sentimental', 'wake  everyone', 'Oliver Sacks  Fictionalized', 'What An Incredible Story  ', 'Sentimental actors  piece  wellmade  one eye boxoffice  nothing', ' I know s 1926  I need  ', 'You d think certain point atypical somethings would amount typical something ', 'Sensational', 'Robin Willaims Robert DeNiro s presence makes film worth watching', 'Cue Tears', 'Beautiful', 'An emotional movie ', 'Portraits Courage', 'A hospital film  Robin Williams Robert De Niro  based true story', 'Enjoyable oldfashioned movie ', 'A Legend ', 'Good good thinks', 'Learning What s Important In Life', 'Great film', 'A touching moving film ']</t>
         </is>
       </c>
     </row>
@@ -14781,7 +14781,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>['Simply magical', 'A delightful little gem', 'cute light feather', 'Lacks depth characters narrative perhaps still light , enjoyable quite fun', 'For teenage girls fans bloomers .', "Beautiful Artwork Highlights This Young Girl 's Story", 'Cute animated movie good young witch getting street cred .', "light-hearted adorable , one Miyazaki 's 'major ' works", "One Hayao Miyazaki 's finest films", "This far Hayao Miyazaki 's best film still worthwhile coming age tale", 'A real fun adventurous movies watch .', 'Delivers', 'Delivers goods', "One greatest children 's films ever made", 'Prime air .', 'Nice happy feel good anime , finishing abruptly', 'Fun little movie', 'The simplicity story part charm', 'Beautiful Disneyfied', 'A sweet movie .', "I Was Feeling Blue But I 'm Better Now .", 'A Charming Story Of Innocence , Kindness And Stamina', "Not Hayao Miyazaki 's Finest , But Still Very Enjoyable ,", 'Nice , pointless', 'Lighthearted']</t>
+          <t>['Simply magical', 'A delightful little gem', 'cute light feather', 'Lacks depth characters narrative perhaps still light  enjoyable quite fun', 'For teenage girls fans bloomers ', 'Beautiful Artwork Highlights This Young Girl s Story', 'Cute animated movie good young witch getting street cred ', 'lighthearted adorable  one Miyazaki s major  works', 'One Hayao Miyazaki s finest films', 'This far Hayao Miyazaki s best film still worthwhile coming age tale', 'A real fun adventurous movies watch ', 'Delivers', 'Delivers goods', 'One greatest children s films ever made', 'Prime air ', 'Nice happy feel good anime  finishing abruptly', 'Fun little movie', 'The simplicity story part charm', 'Beautiful Disneyfied', 'A sweet movie ', 'I Was Feeling Blue But I m Better Now ', 'A Charming Story Of Innocence  Kindness And Stamina', 'Not Hayao Miyazaki s Finest  But Still Very Enjoyable ', 'Nice  pointless', 'Lighthearted']</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>['Excellent movie , disturbing times .', "Harrowing account America 's racial history", 'It helps wise ways mores Dixie', 'Great performances great movie', 'Great Drama', 'Still going process', 'Maybe bit much film still enjoyable', 'Thrilling exciting drama based facts concerns three activists Civil Rights disappear', "n't really happen like", 'Hatred Deep South', 'Great Acting , But Overdone Stereotypes &amp; Bias', "`` What four eyes still ca n't see ? ``", "Something 's burning Mississippi I think 's hatred !", "Mississippi Burning-We 're On Forever Fire With One * * * *", 'A Few Remarks', 'Easy Target', 'What wrong people ?', 'Good hard watch', 'Powerful moving', 'Ouch', 'Murder Mississippi', 'This great period piece sad event time American history', "Exposing America 's Ugly Underbelly", 'Not powerful movie I expected remains well made movie .', 'Chilling']</t>
+          <t>['Excellent movie  disturbing times ', 'Harrowing account America s racial history', 'It helps wise ways mores Dixie', 'Great performances great movie', 'Great Drama', 'Still going process', 'Maybe bit much film still enjoyable', 'Thrilling exciting drama based facts concerns three activists Civil Rights disappear', 'nt really happen like', 'Hatred Deep South', 'Great Acting  But Overdone Stereotypes  Bias', ' What four eyes still ca nt see  ', 'Something s burning Mississippi I think s hatred ', 'Mississippi BurningWe re On Forever Fire With One    ', 'A Few Remarks', 'Easy Target', 'What wrong people ', 'Good hard watch', 'Powerful moving', 'Ouch', 'Murder Mississippi', 'This great period piece sad event time American history', 'Exposing America s Ugly Underbelly', 'Not powerful movie I expected remains well made movie ', 'Chilling']</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>["What 's groundbreaking back might seem dated today -- -but 's still fine , fine film .", 'Smart , intelligent touching', "`` That 's story ....... That 's Glory Love ``", "important I n't like couple", "Tracy 's Masterful Goodbye", 'We Must Look When It Was Made', 'Mixed blessings', "Interracial Marriage USA 60 's", 'Controversial movie time magical performance Spencer Tracy Katharine Hepburn', 'Lives Up To The Hype', "Not quite 'today ' picture hoped ... though certainly glossy , sentimental , heart-rending", 'William Rose Oscar ? It makes Paul Haggis look radical comparison', "Guess Who 's Coming Dinner one three movies 1967 put Sidney Poitier superstar status", "Guess Who 's Not A Racist ? * * * 1/2", 'Ahead time', 'All Hell done broke loose !', 'This one 18 `` problematic `` films Turner Classic Movies showing month ...', "Has n't aged well", 'Important coming across tame drama .', 'Pushing Social Envelope', 'Dated good', 'Relevent much back .', 'Iconic film 60s', 'This smart well done movie definitely worth time', "A Noble Effort , That 's `` Noble `` Capital `` N ``"]</t>
+          <t>['What s groundbreaking back might seem dated today  but s still fine  fine film ', 'Smart  intelligent touching', ' That s story  That s Glory Love ', 'important I nt like couple', 'Tracy s Masterful Goodbye', 'We Must Look When It Was Made', 'Mixed blessings', 'Interracial Marriage USA 60 s', 'Controversial movie time magical performance Spencer Tracy Katharine Hepburn', 'Lives Up To The Hype', 'Not quite today  picture hoped  though certainly glossy  sentimental  heartrending', 'William Rose Oscar  It makes Paul Haggis look radical comparison', 'Guess Who s Coming Dinner one three movies 1967 put Sidney Poitier superstar status', 'Guess Who s Not A Racist     12', 'Ahead time', 'All Hell done broke loose ', 'This one 18  problematic  films Turner Classic Movies showing month ', 'Has nt aged well', 'Important coming across tame drama ', 'Pushing Social Envelope', 'Dated good', 'Relevent much back ', 'Iconic film 60s', 'This smart well done movie definitely worth time', 'A Noble Effort  That s  Noble  Capital  N ']</t>
         </is>
       </c>
     </row>
@@ -14913,7 +14913,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>['This received Oscar nomination Best Animated Feature ? !', 'Canine Japanese love letter', 'unique vision', 'Another Movie I Saw With My Cousin', 'More shaggy dog tale', 'Funny light , still bit dark', 'Very Wes Anderson animation setting add something base', 'Very entertaining Wes Anderson movie .', 'Every Wes Anderson dog day', 'A good film dog lover', 'Another sweet , quirky , charming original creation Wes Anderson', 'Unique resonating', 'Exquisitely crafted utter delight', 'Outgrowing Wes Anderson', 'say quickly', 'Visually interesting ultimately style substance .', 'Beautiful , great message', 'Another genial work genius .', 'The Magnificent Vision Wes Anderson Remains Strong With This Winner !', 'A phenomenal journey well crafted', 'Another Wes Anderson masterpiece !', 'dogs disappoint ?', 'Being vegan , I hope message translate treat animals well .', 'Leaves A Lot To Be Desired', 'Atoll Protected .']</t>
+          <t>['This received Oscar nomination Best Animated Feature  ', 'Canine Japanese love letter', 'unique vision', 'Another Movie I Saw With My Cousin', 'More shaggy dog tale', 'Funny light  still bit dark', 'Very Wes Anderson animation setting add something base', 'Very entertaining Wes Anderson movie ', 'Every Wes Anderson dog day', 'A good film dog lover', 'Another sweet  quirky  charming original creation Wes Anderson', 'Unique resonating', 'Exquisitely crafted utter delight', 'Outgrowing Wes Anderson', 'say quickly', 'Visually interesting ultimately style substance ', 'Beautiful  great message', 'Another genial work genius ', 'The Magnificent Vision Wes Anderson Remains Strong With This Winner ', 'A phenomenal journey well crafted', 'Another Wes Anderson masterpiece ', 'dogs disappoint ', 'Being vegan  I hope message translate treat animals well ', 'Leaves A Lot To Be Desired', 'Atoll Protected ']</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>['One All-Time Greats', 'Act : book room hell', 'An Insuperable Classic', 'Dated quite badly still enjoyable movie gore fans', 'After night comes dawn ...', "Graphic shocking entry George A Romero 's Walking Dead saga", "George Romero keeps 'em coming !", "Romero 's brilliant sequel Night Living Dead .", 'Zombies Consumerism ... Match Made Hell', 'Horror film genre Gone With Wind', 'Still favorite horror film ...', "Here 's ONE zombie movie buries others !", 'Shop-Til-You-Drop-Dead ..... At Dawn It All Ends ... Wonderful Wacky Wild', 'Entertaining', 'Compelling Despite Its Short Comings', 'Drags little still worth seeing', 'Blood Guts', 'Attention Shoppers ! ...', 'These Zombies Should Know When Quit', 'Horror fun shopping mall .', 'The best', "Romero 's imaginative thrilling zombie sequel", 'great still great', 'Chaos , anarchy zombies ! Welcome Dawn Dead !', 'Mall dead .']</t>
+          <t>['One AllTime Greats', 'Act  book room hell', 'An Insuperable Classic', 'Dated quite badly still enjoyable movie gore fans', 'After night comes dawn ', 'Graphic shocking entry George A Romero s Walking Dead saga', 'George Romero keeps em coming ', 'Romero s brilliant sequel Night Living Dead ', 'Zombies Consumerism  Match Made Hell', 'Horror film genre Gone With Wind', 'Still favorite horror film ', 'Here s ONE zombie movie buries others ', 'ShopTilYouDropDead  At Dawn It All Ends  Wonderful Wacky Wild', 'Entertaining', 'Compelling Despite Its Short Comings', 'Drags little still worth seeing', 'Blood Guts', 'Attention Shoppers  ', 'These Zombies Should Know When Quit', 'Horror fun shopping mall ', 'The best', 'Romero s imaginative thrilling zombie sequel', 'great still great', 'Chaos  anarchy zombies  Welcome Dawn Dead ', 'Mall dead ']</t>
         </is>
       </c>
     </row>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>['Thirteen Lives', 'No one left behind', 'July 2018 , Thailand , 12 boys soccer coach stranded cave .', 'What amazing story !', 'Excellent docudrama director Ron Howard best . On Amazon Prime .', 'Heroes', 'Slow start movie , suspenseful final .', 'except ...', 'Thorough sadly underwhelming true life drama', 'THE RESCUE ( 2021 ) DID EVERYTHING BETTER', 'A Gripping Dramatisation Of An Incredible True Story', 'Very good movie real events', 'I found thrill , Blueberry Hill . Too bad day late dollar short .', 'Suspenseful film survival .', 'Watch The Rescue instead', 'Thirteen Lives', 'A GRIPPING TRUE STORY ... !', 'Thirteen Lives emotional story everyone needs see', 'A fantastic , no-nonsense re-telling real rescue incident ! [ +78 % ]', 'Howard Knows How Maintain Balance This Harrowing Reenactment', 'Based On The True Story - Action-Packed And Extremely Suspenseful', 'Great based TRUE incident .. !', 'Honorable docu-drama Ron Howard', 'Authentic Compelling Recreation', "Ron Howard made Thirteen Lives accurate thus making us feel emotionally invested , 's full suspension tension - My Ultimate Review"]</t>
+          <t>['Thirteen Lives', 'No one left behind', 'July 2018  Thailand  12 boys soccer coach stranded cave ', 'What amazing story ', 'Excellent docudrama director Ron Howard best  On Amazon Prime ', 'Heroes', 'Slow start movie  suspenseful final ', 'except ', 'Thorough sadly underwhelming true life drama', 'THE RESCUE  2021  DID EVERYTHING BETTER', 'A Gripping Dramatisation Of An Incredible True Story', 'Very good movie real events', 'I found thrill  Blueberry Hill  Too bad day late dollar short ', 'Suspenseful film survival ', 'Watch The Rescue instead', 'Thirteen Lives', 'A GRIPPING TRUE STORY  ', 'Thirteen Lives emotional story everyone needs see', 'A fantastic  nononsense retelling real rescue incident   78  ', 'Howard Knows How Maintain Balance This Harrowing Reenactment', 'Based On The True Story  ActionPacked And Extremely Suspenseful', 'Great based TRUE incident  ', 'Honorable docudrama Ron Howard', 'Authentic Compelling Recreation', 'Ron Howard made Thirteen Lives accurate thus making us feel emotionally invested  s full suspension tension  My Ultimate Review']</t>
         </is>
       </c>
     </row>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>['Considering budget little $ 39.50 , amazing film', 'Classic cinema', 'One All Time Great Horror Movies', 'The whole thing black eerie', 'The rise dead', "They 're coming get ...", 'My Favorite Horror Movie', 'Classic bit low budget horror', 'The night started ...', "This powerful classic horror film Romero 's directorial debut low budget", 'corny , important', 'Perhaps important influential horror film time .', 'The Start Modern Horror Film', 'Reputation Far Exceeds Reality', 'The Grandaddy modern independent and/or horror movies .', "From Venus Pittsburg , They 're Coming Get You !", "`` Yeah , 're dead . They 're messed . ``", 'Ghoulish extreme . Unforgettable .', 'Reinvents Zombie Flick', 'A great old indy horror film', 'Just A Little Too Real For Comfort', 'The movie started zombie genre', 'Flawed But Still Entertaining', 'The First Zombie Apocalypse', 'Classic horror movie']</t>
+          <t>['Considering budget little  3950  amazing film', 'Classic cinema', 'One All Time Great Horror Movies', 'The whole thing black eerie', 'The rise dead', 'They re coming get ', 'My Favorite Horror Movie', 'Classic bit low budget horror', 'The night started ', 'This powerful classic horror film Romero s directorial debut low budget', 'corny  important', 'Perhaps important influential horror film time ', 'The Start Modern Horror Film', 'Reputation Far Exceeds Reality', 'The Grandaddy modern independent andor horror movies ', 'From Venus Pittsburg  They re Coming Get You ', ' Yeah  re dead  They re messed  ', 'Ghoulish extreme  Unforgettable ', 'Reinvents Zombie Flick', 'A great old indy horror film', 'Just A Little Too Real For Comfort', 'The movie started zombie genre', 'Flawed But Still Entertaining', 'The First Zombie Apocalypse', 'Classic horror movie']</t>
         </is>
       </c>
     </row>
@@ -15089,7 +15089,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>['Well made surprise ? !', 'Crowe revelation', 'Tense Beginning End !', 'Engaging impressive across board despite niggles', "Smoke 'em", 'An Example Future Films', 'Warning : Movie May Cause Boredom', 'Just Great Film-making ...... Period', "A well-done movie expose ' dirty , cheating , lying tobacco industry .", 'Ambitious , brilliantly-cast recreation true events ...', 'Riveting', 'Just Say No Smoking', 'Two Men , Two Fights', 'Needs editing -- A LOT ! ! !', 'The Big Lie', 'Insanely Entertaining', 'The price honest .', 'Riveting !', 'Truth Stranger Than Fiction !', 'An depth provocative compelling legal emotional drama fights answers wanting search justice .', 'A Nutshell Review : ( DVD ) The Insider ( 1999 )', 'Fantastic !', '`` We nicotine delivery business `` Based true story secret injections highly addictive chemical ingredients cigarettes tobacco industry .', 'The toughest battles always internal ...', 'The corporate law']</t>
+          <t>['Well made surprise  ', 'Crowe revelation', 'Tense Beginning End ', 'Engaging impressive across board despite niggles', 'Smoke em', 'An Example Future Films', 'Warning  Movie May Cause Boredom', 'Just Great Filmmaking  Period', 'A welldone movie expose  dirty  cheating  lying tobacco industry ', 'Ambitious  brilliantlycast recreation true events ', 'Riveting', 'Just Say No Smoking', 'Two Men  Two Fights', 'Needs editing  A LOT   ', 'The Big Lie', 'Insanely Entertaining', 'The price honest ', 'Riveting ', 'Truth Stranger Than Fiction ', 'An depth provocative compelling legal emotional drama fights answers wanting search justice ', 'A Nutshell Review   DVD  The Insider  1999 ', 'Fantastic ', ' We nicotine delivery business  Based true story secret injections highly addictive chemical ingredients cigarettes tobacco industry ', 'The toughest battles always internal ', 'The corporate law']</t>
         </is>
       </c>
     </row>
@@ -15133,7 +15133,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>['A great sequel great first film', 'Another story', 'Struggles little early film also smaller character detail emotion , develops thrilling , exciting story good danger scares', 'Almost As Grand As The First', 'I liked How Train Your Dragon 2 almost much predecessor', 'Cute sequel', 'Fun film', 'A different perspective toward dragons', 'A worthy sequel ; good stuff', 'An improvement , essentially , every area , except narrative .', 'The added oomph tears film apart', 'Even better original .', 'This movie takes seriously', 'Lacks awe wonder made original movie special .', 'Lacks Fiery Energy Original . Still , A Worthy Sequel More Ways Than One .', 'Good great first part', 'Pretty good', 'Good', 'A Great Sequel !', 'Great Movie Improves Characters Further Develops Characters ,', 'Raises stakes', 'Beautiful animation visually exciting side heartfelt story .', 'A hugely impressive animated adventure', 'The Vidiot Reviews ...', "They 're Learning !"]</t>
+          <t>['A great sequel great first film', 'Another story', 'Struggles little early film also smaller character detail emotion  develops thrilling  exciting story good danger scares', 'Almost As Grand As The First', 'I liked How Train Your Dragon 2 almost much predecessor', 'Cute sequel', 'Fun film', 'A different perspective toward dragons', 'A worthy sequel  good stuff', 'An improvement  essentially  every area  except narrative ', 'The added oomph tears film apart', 'Even better original ', 'This movie takes seriously', 'Lacks awe wonder made original movie special ', 'Lacks Fiery Energy Original  Still  A Worthy Sequel More Ways Than One ', 'Good great first part', 'Pretty good', 'Good', 'A Great Sequel ', 'Great Movie Improves Characters Further Develops Characters ', 'Raises stakes', 'Beautiful animation visually exciting side heartfelt story ', 'A hugely impressive animated adventure', 'The Vidiot Reviews ', 'They re Learning ']</t>
         </is>
       </c>
     </row>
@@ -15177,7 +15177,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>['A crowning achievement Herzog , Kinski German cinema', "Herzog 's jungle descent hell", "Werner Herzog 's 'Apocalypse Now '", 'Brilliant', 'Aguirre , Scourge God', 'battle', 'The Wrath Of Herzog', 'Spectacular Adventure Madman His Quest El Dorado', 'A fascinating engaging descent madness', 'An expedition formed Spanish soldiers Amazon river searching fabled city gold', 'jungle madness', 'A German View South America', 'Deep dive delusion , madness', "likely Herzog 's masterpiece ( one least )", 'A remarkable film .', 'Words Can Never Do It Justice', 'Brilliant', 'Superb', 'Zero Hollywood sets', 'Meat floating .', 'A stunning , momentous classic', 'A Highly Unusual Disquieting Film', 'Conquistador expedition travels Amazon death madness', 'Iconic impressive shots location , disorganized bleak', "magnum opus among Herzog 's eclectic canon"]</t>
+          <t>['A crowning achievement Herzog  Kinski German cinema', 'Herzog s jungle descent hell', 'Werner Herzog s Apocalypse Now ', 'Brilliant', 'Aguirre  Scourge God', 'battle', 'The Wrath Of Herzog', 'Spectacular Adventure Madman His Quest El Dorado', 'A fascinating engaging descent madness', 'An expedition formed Spanish soldiers Amazon river searching fabled city gold', 'jungle madness', 'A German View South America', 'Deep dive delusion  madness', 'likely Herzog s masterpiece  one least ', 'A remarkable film ', 'Words Can Never Do It Justice', 'Brilliant', 'Superb', 'Zero Hollywood sets', 'Meat floating ', 'A stunning  momentous classic', 'A Highly Unusual Disquieting Film', 'Conquistador expedition travels Amazon death madness', 'Iconic impressive shots location  disorganized bleak', 'magnum opus among Herzog s eclectic canon']</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>["Difficult rate even describe since 's incredibly different .", 'old creepy Virgil', 'admirable work', 'Exciting well sensitive film master auctioneer becomes obsessed extremely reclusive heiress', 'Fantastic', 'Like Good Storyteller', 'Welcome auction world', "'Emotions like works art . They forged , seem like original forgery . '", 'seductive', 'Without experience prone fall victim deception', 'Masterpiece Sting : The Best Offer ( La Migliore Offerta )', 'Extraordinary', 'The Loss Autonomy ...', 'Good', 'Rush terrific , drama moves inward outward end', 'If think movie old man looking art boring , watch . It change mind . Geoffrey Rush great .', 'Everything faked', "Will sock straight gut - 'll love", 'Are ready change think found match !', 'ENDING ....', "It 's Cinema Paradiso , still solid thriller", 'A Story Of Forged Love .', 'Intriguing offering', 'Conned Again', 'Only final discussion love mechanical man quickly entered , rest plot attractive']</t>
+          <t>['Difficult rate even describe since s incredibly different ', 'old creepy Virgil', 'admirable work', 'Exciting well sensitive film master auctioneer becomes obsessed extremely reclusive heiress', 'Fantastic', 'Like Good Storyteller', 'Welcome auction world', 'Emotions like works art  They forged  seem like original forgery  ', 'seductive', 'Without experience prone fall victim deception', 'Masterpiece Sting  The Best Offer  La Migliore Offerta ', 'Extraordinary', 'The Loss Autonomy ', 'Good', 'Rush terrific  drama moves inward outward end', 'If think movie old man looking art boring  watch  It change mind  Geoffrey Rush great ', 'Everything faked', 'Will sock straight gut  ll love', 'Are ready change think found match ', 'ENDING ', 'It s Cinema Paradiso  still solid thriller', 'A Story Of Forged Love ', 'Intriguing offering', 'Conned Again', 'Only final discussion love mechanical man quickly entered  rest plot attractive']</t>
         </is>
       </c>
     </row>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>['Rich , complex massive , yet somewhat misunderstood', 'One All-Time Greats', "It 's John Ford , Man", 'Found', 'A marvellously mean story great direction strong anti-hero Wayne core', 'Watchable , plot wears thin two hours ...', 'Awesome marvelous Western great John Ford deemed many masterpiece', 'John Ford John Wayne , Together', 'An Involving Western Tale', 'Vast , expansive western without enough feeling intricate details', "One best Westerns ever filmed also favorite Ford 's Wayne 's careers", 'Dark Reflections Golden West', 'Saddle ride . The search .', 'A Critical Second Look', "Overrated Maybe John Ford 's Best", 'A classic western', 'Classic western', 'Kidnapped Day , Vision', 'What makes man wander ?', 'I Kinda Figured This Film Ain ` That Good', 'Interesting western , ... heartfelt performances Wayne Hunter ...', 'Mature theme man evolves', 'Top notch', 'Good , fantastic', "That 'll day ."]</t>
+          <t>['Rich  complex massive  yet somewhat misunderstood', 'One AllTime Greats', 'It s John Ford  Man', 'Found', 'A marvellously mean story great direction strong antihero Wayne core', 'Watchable  plot wears thin two hours ', 'Awesome marvelous Western great John Ford deemed many masterpiece', 'John Ford John Wayne  Together', 'An Involving Western Tale', 'Vast  expansive western without enough feeling intricate details', 'One best Westerns ever filmed also favorite Ford s Wayne s careers', 'Dark Reflections Golden West', 'Saddle ride  The search ', 'A Critical Second Look', 'Overrated Maybe John Ford s Best', 'A classic western', 'Classic western', 'Kidnapped Day  Vision', 'What makes man wander ', 'I Kinda Figured This Film Ain  That Good', 'Interesting western   heartfelt performances Wayne Hunter ', 'Mature theme man evolves', 'Top notch', 'Good  fantastic', 'That ll day ']</t>
         </is>
       </c>
     </row>
@@ -15309,7 +15309,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>['A must-see Ed Wood fans although others might get', 'A perfect example film completely gripped right beginning ! -Utterly brilliant !', 'Biopic heart', 'His Talent Did Not Match His Ideas', 'endearing celebration Ed Wood', 'Masterpiece', 'Eternal Optimism', "If n't laugh 'd cry - Burton wisely takes route weirdly dark comedy", 'Attractive optimist biography worst filmmaker time supported magnificent portrayals motley crew', 'This first R-rated movie I ever saw theater .', "A fun tender biopic 'Hollywood 's Worst Director '", 'Angora Sweaters Rule', 'Burton &amp; Depp : Perfect For This Story', 'Compassionate ... bloody good fun', "Tim Burton 's best film ?", 'one best films 1994', 'A masterpiece failure', 'Interesting film Worst Director', 'A treat watch .', 'How Ironic !', "Every artist 's professional nightmare", 'Superb biopic', 'Sock Puppet', 'Ed Who ?', 'Ghoulishly funny ... Depp Landau superb ...']</t>
+          <t>['A mustsee Ed Wood fans although others might get', 'A perfect example film completely gripped right beginning  Utterly brilliant ', 'Biopic heart', 'His Talent Did Not Match His Ideas', 'endearing celebration Ed Wood', 'Masterpiece', 'Eternal Optimism', 'If nt laugh d cry  Burton wisely takes route weirdly dark comedy', 'Attractive optimist biography worst filmmaker time supported magnificent portrayals motley crew', 'This first Rrated movie I ever saw theater ', 'A fun tender biopic Hollywood s Worst Director ', 'Angora Sweaters Rule', 'Burton  Depp  Perfect For This Story', 'Compassionate  bloody good fun', 'Tim Burton s best film ', 'one best films 1994', 'A masterpiece failure', 'Interesting film Worst Director', 'A treat watch ', 'How Ironic ', 'Every artist s professional nightmare', 'Superb biopic', 'Sock Puppet', 'Ed Who ', 'Ghoulishly funny  Depp Landau superb ']</t>
         </is>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>['Extremely hard watch -- think twice see emotionally draining film .', 'Harrowing , poignant , gripping unforgettable film- Jolie mesmerising !', 'Solid adult alternative latest superhero flick', 'Another Winner Eastwood', 'The Bad Guys Are So Bad !', 'Power Performance', 'Never Start Fighting , Always Finish It', 'An engaging professional drama despite misgivings', 'Majorly Impressed', 'Wow , Talk About A Film That Hooks You In !', 'Handsomely produced , prestigious , yet excessively didactic drama ... Conspiracy 101', 'The horror Wineville Chicken Coop', 'Another profoundly moving film Clint Eastwood', 'Superb Treatment Difficult Material', 'Eastwood Surpasses Spielberg Most Manipulative Moviemaker', 'Brilliant , powerful , moving movie', "Mrs. Collins , boy 's son I 'll eat yard stick .", 'Fight Power', "This underrated gem 's absolute must see", "I used tell Walter , `` Never start fight ... always finish . `` I n't start fight ... God , I 'm going finish .", "If You Want Ensure Your Film Wo n't Be Masterpiece , Cast Either Half Brangelina", 'One best kind', 'Unbelievably true story hideous crime police corruption', 'Very good', 'A harrowing emotional drama shows corruption , yet us seeing hope end .']</t>
+          <t>['Extremely hard watch  think twice see emotionally draining film ', 'Harrowing  poignant  gripping unforgettable film Jolie mesmerising ', 'Solid adult alternative latest superhero flick', 'Another Winner Eastwood', 'The Bad Guys Are So Bad ', 'Power Performance', 'Never Start Fighting  Always Finish It', 'An engaging professional drama despite misgivings', 'Majorly Impressed', 'Wow  Talk About A Film That Hooks You In ', 'Handsomely produced  prestigious  yet excessively didactic drama  Conspiracy 101', 'The horror Wineville Chicken Coop', 'Another profoundly moving film Clint Eastwood', 'Superb Treatment Difficult Material', 'Eastwood Surpasses Spielberg Most Manipulative Moviemaker', 'Brilliant  powerful  moving movie', 'Mrs Collins  boy s son I ll eat yard stick ', 'Fight Power', 'This underrated gem s absolute must see', 'I used tell Walter   Never start fight  always finish   I nt start fight  God  I m going finish ', 'If You Want Ensure Your Film Wo nt Be Masterpiece  Cast Either Half Brangelina', 'One best kind', 'Unbelievably true story hideous crime police corruption', 'Very good', 'A harrowing emotional drama shows corruption  yet us seeing hope end ']</t>
         </is>
       </c>
     </row>
@@ -15397,7 +15397,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>["8 Oscars ? Hmmm ... well , I n't get .", 'Magnificent Minnelli Grey great film', '`` Come Hear The Music Play ``', 'Liza Minnelli Joel Grey terrific', 'What Good Is Sitting Alone Your Room', 'unique', 'Life cabaret', 'Shallow Story , Nice Musical Show', 'Well done musical numbers story so-so comments Nazism clumsy', 'Hugely successful tale set Nazi Germany classic musical sequences unforgettable songs', 'Here , life beautiful !', 'Music , Dancing Nazi Germany', 'An eerie , glowing tinderbox full grinning souls desperate laughter ...', "triumph musical direction - reality , far melodrama go , n't meddled", 'Wünderbar ! Magnifique ! Fantastique !', "I 'm entirely sure I 'm supposed feel Sally", "Bob Fosse 's Masterpiece Unforgettable Display Social Political", 'Entertaining', 'Pretty good long depressing', 'Groundbreaking film techniques', "A Perfect Film About One History 's Darkest Hours", "Berlin 30 '", 'One Greatest All Time Musical Films !', 'Cabaret', "'Life cabaret old chum '"]</t>
+          <t>['8 Oscars  Hmmm  well  I nt get ', 'Magnificent Minnelli Grey great film', ' Come Hear The Music Play ', 'Liza Minnelli Joel Grey terrific', 'What Good Is Sitting Alone Your Room', 'unique', 'Life cabaret', 'Shallow Story  Nice Musical Show', 'Well done musical numbers story soso comments Nazism clumsy', 'Hugely successful tale set Nazi Germany classic musical sequences unforgettable songs', 'Here  life beautiful ', 'Music  Dancing Nazi Germany', 'An eerie  glowing tinderbox full grinning souls desperate laughter ', 'triumph musical direction  reality  far melodrama go  nt meddled', 'Wnderbar  Magnifique  Fantastique ', 'I m entirely sure I m supposed feel Sally', 'Bob Fosse s Masterpiece Unforgettable Display Social Political', 'Entertaining', 'Pretty good long depressing', 'Groundbreaking film techniques', 'A Perfect Film About One History s Darkest Hours', 'Berlin 30 ', 'One Greatest All Time Musical Films ', 'Cabaret', 'Life cabaret old chum ']</t>
         </is>
       </c>
     </row>
@@ -15441,7 +15441,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>['The scariest film I ever seen', 'The strangest show earth', 'More oddity', 'Masterpiece Is Both Touching Haunting', 'A Benchmark Film', 'eccentric . first sigh', 'Deftly sides viewer `` freaks `` exposes real monsters', 'Bizarre strange film terror maestro Tod Browning', 'Believe , mention movie class Greek literature .', 'Gooble Gobble .', 'Must Be Seen To Be Believed', 'One shocking masterpieces ever', 'OK , But Disappointing Considering The Hype', "definitely really I expected ; 's actually touching , ahead-of-its-time fable", '* Gasp * movie brilliant ! !', 'Still Freaky After All These Years', 'We accept , one us ...', 'Unusually Humane', 'The studio got wrong ...', 'Exceptional Ensemble Eccentric Entertainment', 'Elephant Men', 'This misfits freaks runts .', "Meet It On Its Own Terms . It 's A Classic Horror", 'Unique subject matter makes `` Freaks `` fascinating film ...', 'Who Are The True Freaks ? ...']</t>
+          <t>['The scariest film I ever seen', 'The strangest show earth', 'More oddity', 'Masterpiece Is Both Touching Haunting', 'A Benchmark Film', 'eccentric  first sigh', 'Deftly sides viewer  freaks  exposes real monsters', 'Bizarre strange film terror maestro Tod Browning', 'Believe  mention movie class Greek literature ', 'Gooble Gobble ', 'Must Be Seen To Be Believed', 'One shocking masterpieces ever', 'OK  But Disappointing Considering The Hype', 'definitely really I expected  s actually touching  aheadofitstime fable', ' Gasp  movie brilliant  ', 'Still Freaky After All These Years', 'We accept  one us ', 'Unusually Humane', 'The studio got wrong ', 'Exceptional Ensemble Eccentric Entertainment', 'Elephant Men', 'This misfits freaks runts ', 'Meet It On Its Own Terms  It s A Classic Horror', 'Unique subject matter makes  Freaks  fascinating film ', 'Who Are The True Freaks  ']</t>
         </is>
       </c>
     </row>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>['Great actors Great characters', 'A good humoured , patriotic telling men behind space programme', 'Nice film beginnings US space program long star cast spectacular images', "I saw Yuri Gagarin 's grave Red Square .", 'An Epic Adventure', 'Real Heroes , And An Era That Went By All Too Fast', 'long lean , heroic knowing , visually gorgeous well-acted', 'Tremendous telling beginnings space program .', "Let 's Go Space", 'The real American heroes', 'Macho Men Space', 'This 3 hour+ movie like !', 'They Sure Did .', 'Great subject matter , flaws execution', 'rational ensemble piece astonishingly constructed settings imitate authentic facts', 'A Nutshell Review : ( DVD ) The RIght Stuff ( 1983 )', 'A Movie That Does It All Right', 'The Right Stuff - A Dream Unrealized Millions', "Overall , 's good movie start space race .", 'The Right Cast For The Right Stuff', 'Buck Rogers , Historical Saga', '`` The Right Stuff `` : That Is Exactly What This Film Has', 'Possibly perfect', 'One finest movies come era', 'Looking ...']</t>
+          <t>['Great actors Great characters', 'A good humoured  patriotic telling men behind space programme', 'Nice film beginnings US space program long star cast spectacular images', 'I saw Yuri Gagarin s grave Red Square ', 'An Epic Adventure', 'Real Heroes  And An Era That Went By All Too Fast', 'long lean  heroic knowing  visually gorgeous wellacted', 'Tremendous telling beginnings space program ', 'Let s Go Space', 'The real American heroes', 'Macho Men Space', 'This 3 hour movie like ', 'They Sure Did ', 'Great subject matter  flaws execution', 'rational ensemble piece astonishingly constructed settings imitate authentic facts', 'A Nutshell Review   DVD  The RIght Stuff  1983 ', 'A Movie That Does It All Right', 'The Right Stuff  A Dream Unrealized Millions', 'Overall  s good movie start space race ', 'The Right Cast For The Right Stuff', 'Buck Rogers  Historical Saga', ' The Right Stuff   That Is Exactly What This Film Has', 'Possibly perfect', 'One finest movies come era', 'Looking ']</t>
         </is>
       </c>
     </row>
@@ -15529,7 +15529,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>["For little film , 's quite engaging", 'good underdog character', 'The Story Of Burt Munro , An Amazing Man', 'Tastes like Titanium', 'A Beautiful , Touching , Entertaining Tale Dreams Aging', 'Hopkins worth every million makes', "Excellent Bucket List Movie - The World 's Fastest Indian", 'Follow dream ...', 'An Entertaining Drama About Real Life Hero', 'Good portrayal obscure topic', 'Chasing dream halfway across world .', 'Comfort &amp; speed', 'Great film', "Hopkins Peak Form New Zealand 's Legendary Speed Demon", 'Hopkins Charming Thin Story An Obsessive Quest', 'An underrated film surprise', 'A beautiful story funny quirks', 'Spectacles , Testicles , Watch , Wallet', 'BRITISH KIWI INDIAN', 'Move Evil Knievel , Burt Munro town !', "The world 's banal clichéd `` inspirational `` film", 'A decent tribute', 'Inspirational warm drama', 'Roger Dolaldson @ $ 1.5 mil . ( A ) vs. Peter Jackson @ $ 150 mil ( F )', "Follow 1960 's American Adventures speed-lover mechanical-artist Kiwi adventurer"]</t>
+          <t>['For little film  s quite engaging', 'good underdog character', 'The Story Of Burt Munro  An Amazing Man', 'Tastes like Titanium', 'A Beautiful  Touching  Entertaining Tale Dreams Aging', 'Hopkins worth every million makes', 'Excellent Bucket List Movie  The World s Fastest Indian', 'Follow dream ', 'An Entertaining Drama About Real Life Hero', 'Good portrayal obscure topic', 'Chasing dream halfway across world ', 'Comfort  speed', 'Great film', 'Hopkins Peak Form New Zealand s Legendary Speed Demon', 'Hopkins Charming Thin Story An Obsessive Quest', 'An underrated film surprise', 'A beautiful story funny quirks', 'Spectacles  Testicles  Watch  Wallet', 'BRITISH KIWI INDIAN', 'Move Evil Knievel  Burt Munro town ', 'The world s banal clichd  inspirational  film', 'A decent tribute', 'Inspirational warm drama', 'Roger Dolaldson   15 mil   A  vs Peter Jackson   150 mil  F ', 'Follow 1960 s American Adventures speedlover mechanicalartist Kiwi adventurer']</t>
         </is>
       </c>
     </row>
@@ -15573,7 +15573,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>['Heartbreaking Realist', 'A bleakly engaging film could better told second half becomes suffering person', 'Angels', 'Some serious flaws hold back great , good', 'Pretentious Predictable', 'Powerful story human trafficking', 'Angst Squared', 'Predictable Pretentious', "Well ... 's experience .", 'desperation ?', "Does n't really go far enough still good film", "There 's No Hope Hopeless World Girl", 'An exploitation movie Christian nationalists', "Its story completely devastating , I would n't want miss second", 'Rough , one take', 'humble sad', 'A hunting heartbreaking movie', 'Ok feel-bad movie', 'Lilja 4-ever', 'Un-4-gettable', 'Sad Disturbing .......', 'A punch face', 'A heavy , emotional , dark , beautiful , raw extremely well made film !', 'LILJA 4-EVER ( DIDIER BECU )', 'Very Depressing , But Angels Are There .']</t>
+          <t>['Heartbreaking Realist', 'A bleakly engaging film could better told second half becomes suffering person', 'Angels', 'Some serious flaws hold back great  good', 'Pretentious Predictable', 'Powerful story human trafficking', 'Angst Squared', 'Predictable Pretentious', 'Well  s experience ', 'desperation ', 'Does nt really go far enough still good film', 'There s No Hope Hopeless World Girl', 'An exploitation movie Christian nationalists', 'Its story completely devastating  I would nt want miss second', 'Rough  one take', 'humble sad', 'A hunting heartbreaking movie', 'Ok feelbad movie', 'Lilja 4ever', 'Un4gettable', 'Sad Disturbing ', 'A punch face', 'A heavy  emotional  dark  beautiful  raw extremely well made film ', 'LILJA 4EVER  DIDIER BECU ', 'Very Depressing  But Angels Are There ']</t>
         </is>
       </c>
     </row>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>["Wonderful , one Bob Fosse 's best films", "'s life", "may think 's gon na die , 'll feel like 'll live forever", 'Musical Perfection', 'Dark Side Moon Musicals .', "He 's Not Your 'Average Joe , ' Thankfully !", 'A dance Death ...', 'cheerfully ironic devilishly self-indulgent plunge spirit Bob Fosse', 'Great drama', 'Our Death', 'Depressing brilliant', 'All women ! !', 'Self-congratulatory , , without doubt , brilliant', 'ROY SCHEIDER GAVE A GREAT PERFORMANCE !', "Scheider Is Masterful Fosse 's Troubled Semi-Autobiographical Fantasy !", "Bob Fosse 's confession", 'Did I see dream ?', 'Bring Me Soul Bob Fosse ...', 'Step , Slide , Shake , Shuffle , Strut , Wink .', 'Hello emptiness', "Has calling cards brilliance deep 's flash dance ... might enough", 'A masterpiece triumphantly end 1970s- perhaps best decade film history', 'A fitting end seemingly incredible life', 'choreographed chaos', 'What show']</t>
+          <t>['Wonderful  one Bob Fosse s best films', 's life', 'may think s gon na die  ll feel like ll live forever', 'Musical Perfection', 'Dark Side Moon Musicals ', 'He s Not Your Average Joe   Thankfully ', 'A dance Death ', 'cheerfully ironic devilishly selfindulgent plunge spirit Bob Fosse', 'Great drama', 'Our Death', 'Depressing brilliant', 'All women  ', 'Selfcongratulatory   without doubt  brilliant', 'ROY SCHEIDER GAVE A GREAT PERFORMANCE ', 'Scheider Is Masterful Fosse s Troubled SemiAutobiographical Fantasy ', 'Bob Fosse s confession', 'Did I see dream ', 'Bring Me Soul Bob Fosse ', 'Step  Slide  Shake  Shuffle  Strut  Wink ', 'Hello emptiness', 'Has calling cards brilliance deep s flash dance  might enough', 'A masterpiece triumphantly end 1970s perhaps best decade film history', 'A fitting end seemingly incredible life', 'choreographed chaos', 'What show']</t>
         </is>
       </c>
     </row>
@@ -15661,7 +15661,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>["Second Crimes Misdemeanours among best Woody Allen 's 80s work , also one best", 'The Pessimistic Characters', "one Woody 's best", 'Just Outstanding', 'Mature , interesting funny despite bit serious inward looking', "Uh-oh : 's Soon-Yi !", 'A serious comedy -- , best worst Woody Allen', 'Three sisters intertwining lives', "Woody 's best 80 's movie", 'Hannah Her Sisters Works Even Better Woody Were Out * * *', 'Pretty Good Blend', 'Why I like movie much ?', 'Wonderfully engaging relationship-drama', 'Good Woody Allen awfully familar', 'Vignettes search plot ... typical Allen fluff ...', "You 'll walking air", "One Woody Allen 's Five Best", "One Woody 's funniest", 'Family dysfunctions galore urban comedy-drama', 'I would appreciated little humour .', 'Great film', 'Je Suis Marxiste , Tendance Groucho', 'Families , Friends , Lovers - Crying , Smiling , Loving , Living !', 'Top drawer Allen', 'An Interesting Watch ...']</t>
+          <t>['Second Crimes Misdemeanours among best Woody Allen s 80s work  also one best', 'The Pessimistic Characters', 'one Woody s best', 'Just Outstanding', 'Mature  interesting funny despite bit serious inward looking', 'Uhoh  s SoonYi ', 'A serious comedy   best worst Woody Allen', 'Three sisters intertwining lives', 'Woody s best 80 s movie', 'Hannah Her Sisters Works Even Better Woody Were Out   ', 'Pretty Good Blend', 'Why I like movie much ', 'Wonderfully engaging relationshipdrama', 'Good Woody Allen awfully familar', 'Vignettes search plot  typical Allen fluff ', 'You ll walking air', 'One Woody Allen s Five Best', 'One Woody s funniest', 'Family dysfunctions galore urban comedydrama', 'I would appreciated little humour ', 'Great film', 'Je Suis Marxiste  Tendance Groucho', 'Families  Friends  Lovers  Crying  Smiling  Loving  Living ', 'Top drawer Allen', 'An Interesting Watch ']</t>
         </is>
       </c>
     </row>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>["long n't looking Frankenstein story Mary Shelley , happy", 'Shocking enthralling interpretation classic tale', 'Universal classic - lacks score', 'Slaughter Innocents', 'Boris Karloff terrific', 'Masterpiece Horror', 'A Staple Filmdom', 'masterpiece', 'Can I Say Anthing New About This Movie ?', "He 's alive ... living ?", 'A classic film meet terms', 'Definitely timeless classic ...', 'Terror classic unforgettable Boris Karloff , based one famous horror story', "'s alive always", "One Universal 's finest horror classics .", 'Legendary , Plain Simple', 'The true authentic Frankenstein film', 'Frankie Was Good In His Day , But .....', 'Not AS great may heard , still classic vibe', 'Monster movie Numero Uno', 'Classic play , classic movie', 'Of Gods Monsters', 'It may thrill . It may shock . It may even horrify .', 'Most memorable horror film time .', 'Creating master race Weimar Germany ...']</t>
+          <t>['long nt looking Frankenstein story Mary Shelley  happy', 'Shocking enthralling interpretation classic tale', 'Universal classic  lacks score', 'Slaughter Innocents', 'Boris Karloff terrific', 'Masterpiece Horror', 'A Staple Filmdom', 'masterpiece', 'Can I Say Anthing New About This Movie ', 'He s alive  living ', 'A classic film meet terms', 'Definitely timeless classic ', 'Terror classic unforgettable Boris Karloff  based one famous horror story', 's alive always', 'One Universal s finest horror classics ', 'Legendary  Plain Simple', 'The true authentic Frankenstein film', 'Frankie Was Good In His Day  But ', 'Not AS great may heard  still classic vibe', 'Monster movie Numero Uno', 'Classic play  classic movie', 'Of Gods Monsters', 'It may thrill  It may shock  It may even horrify ', 'Most memorable horror film time ', 'Creating master race Weimar Germany ']</t>
         </is>
       </c>
     </row>
@@ -15749,7 +15749,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>['Some terrific performances ....', 'timely movie', 'Raw Look Relationships', 'The Rawness Divorce', 'impressive', 'Family movie advertising executive drama takes place wife decides leave', 'Oh really ?', 'A Film About Divorce That Was All-Too-Prescient', 'Very calculated pressed , manufactured heart indeed moving ...', 'Great , emotional movie', 'Split Decision', 'Custody Tug-o-War', 'Wildly overrated', "It 's like Ted Kramer Vs laws NYC", 'Undies', 'Still stands test time', 'Kramer vs. Kramer exemplary character-driven piece provides poignant depiction challenges accompany divorce', 'An Intelligent Solid Film About Divorce', 'Hoffman vs. Streep .', 'Not , bad !', 'Great movie enough best movie year ! !', 'Moving Divorce &amp; Custody Drama .', 'High marks sensitive handling horrible situation', 'Joanna unhappy woman took lot courage walk door .', 'Not enough Kramer .']</t>
+          <t>['Some terrific performances ', 'timely movie', 'Raw Look Relationships', 'The Rawness Divorce', 'impressive', 'Family movie advertising executive drama takes place wife decides leave', 'Oh really ', 'A Film About Divorce That Was AllTooPrescient', 'Very calculated pressed  manufactured heart indeed moving ', 'Great  emotional movie', 'Split Decision', 'Custody TugoWar', 'Wildly overrated', 'It s like Ted Kramer Vs laws NYC', 'Undies', 'Still stands test time', 'Kramer vs Kramer exemplary characterdriven piece provides poignant depiction challenges accompany divorce', 'An Intelligent Solid Film About Divorce', 'Hoffman vs Streep ', 'Not  bad ', 'Great movie enough best movie year  ', 'Moving Divorce  Custody Drama ', 'High marks sensitive handling horrible situation', 'Joanna unhappy woman took lot courage walk door ', 'Not enough Kramer ']</t>
         </is>
       </c>
     </row>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>['A previously untalked mostly unknown story post WWII Europe German soldier .', 'lesser done war movie', 'special', 'power harsh', 'Land mine land mine', 'Great drama', 'The suspense killer .', 'The horrible plight German prisoners war war - Denmark', '[ 8.8 ] Simple bright , ...', 'This makes `` The Hurt Locker `` seem like walk park', 'Great ( Post ) War Piece', "I 'd almost give perfect rating !", "Disturbing , Disquieting &amp; Devastating , 'Land Of Mine ' Is Essential Cinema", 'Disarming ...', 'A war film difference', 'Tough-as-nails post-WW II soldier drama Denmark', 'Teen POWs post WWII Denmark .', 'Great Post WWII Film', 'Grimm drama casualties war', 'A follow-up war film difference', 'Both remarkable brave war movie', 'HEARTBREAKING .', 'Blown away !', 'The inhumanity hypocrisy war ........', 'Depressing , disturbing , horrors war . True masterpiece']</t>
+          <t>['A previously untalked mostly unknown story post WWII Europe German soldier ', 'lesser done war movie', 'special', 'power harsh', 'Land mine land mine', 'Great drama', 'The suspense killer ', 'The horrible plight German prisoners war war  Denmark', ' 88  Simple bright  ', 'This makes  The Hurt Locker  seem like walk park', 'Great  Post  War Piece', 'I d almost give perfect rating ', 'Disturbing  Disquieting  Devastating  Land Of Mine  Is Essential Cinema', 'Disarming ', 'A war film difference', 'Toughasnails postWW II soldier drama Denmark', 'Teen POWs post WWII Denmark ', 'Great Post WWII Film', 'Grimm drama casualties war', 'A followup war film difference', 'Both remarkable brave war movie', 'HEARTBREAKING ', 'Blown away ', 'The inhumanity hypocrisy war ', 'Depressing  disturbing  horrors war  True masterpiece']</t>
         </is>
       </c>
     </row>
@@ -15837,7 +15837,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>['Chilling stuff', 'masterpiece important history', 'special', 'Thrilling story loyalty , friendship political intrigue horrible war Cambodia', 'My mother friend interviewed Dith Pran .', 'Maybe I Need A Second Viewing ?', 'Powerful Drama But Hard To Watch', 'intense moving , full brutal violence also good people', 'friendship , hidden motives , hazards slavish dogma', "Interesting true story friendship survival , set backdrop one history 's oppressive regimes", 'An Incredible Movie', 'A beautiful modern classic', 'A Rousing Film About Bloody Subject', 'Tough watch , gripping impeccable', 'Friendship Amidst Carnage', 'The Killing Fields', 'The second half successful first .', 'A harrowing tale courage', 'admirable work', 'A Milestone !', 'True life depiction insane cruelty', 'Well made drama .', 'In Name Truth , Humanity deep , deep Friendship ...', 'A Tasteful View Genocide', 'A remarkable film deserves viewed recalls barbaric moment history country .']</t>
+          <t>['Chilling stuff', 'masterpiece important history', 'special', 'Thrilling story loyalty  friendship political intrigue horrible war Cambodia', 'My mother friend interviewed Dith Pran ', 'Maybe I Need A Second Viewing ', 'Powerful Drama But Hard To Watch', 'intense moving  full brutal violence also good people', 'friendship  hidden motives  hazards slavish dogma', 'Interesting true story friendship survival  set backdrop one history s oppressive regimes', 'An Incredible Movie', 'A beautiful modern classic', 'A Rousing Film About Bloody Subject', 'Tough watch  gripping impeccable', 'Friendship Amidst Carnage', 'The Killing Fields', 'The second half successful first ', 'A harrowing tale courage', 'admirable work', 'A Milestone ', 'True life depiction insane cruelty', 'Well made drama ', 'In Name Truth  Humanity deep  deep Friendship ', 'A Tasteful View Genocide', 'A remarkable film deserves viewed recalls barbaric moment history country ']</t>
         </is>
       </c>
     </row>
@@ -15881,7 +15881,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>['A genre benchmark', 'Superlative stuff', '`` In Me see honor France ``', "n't get love", "This Time It 's Impersonal", 'Exciting thriller top-notch actors excellent direction', 'Best Frederick Forsythe adaptation', "Oh , 's perfect ( Jackal- ) Day !", 'Single-Minded Thriller', 'Crisp , Clean , Cool', 'Superb thriller', 'Chacal .', 'Oh Dear ...', 'Bravo ! Bravo ! Bravissimo !', 'Very well-done', 'Stylish espionage thriller ... neat location photography ...', 'Biography professional assassin', 'The way thriller made', 'Fantastic thriller !', 'Another one good films could great', 'My Masterpiece number 26 ! !', 'Gentleman Assassin .', 'The Day Jackal', 'Brilliant classic thriller !', "Coldly efficient like 's central character"]</t>
+          <t>['A genre benchmark', 'Superlative stuff', ' In Me see honor France ', 'nt get love', 'This Time It s Impersonal', 'Exciting thriller topnotch actors excellent direction', 'Best Frederick Forsythe adaptation', 'Oh  s perfect  Jackal  Day ', 'SingleMinded Thriller', 'Crisp  Clean  Cool', 'Superb thriller', 'Chacal ', 'Oh Dear ', 'Bravo  Bravo  Bravissimo ', 'Very welldone', 'Stylish espionage thriller  neat location photography ', 'Biography professional assassin', 'The way thriller made', 'Fantastic thriller ', 'Another one good films could great', 'My Masterpiece number 26  ', 'Gentleman Assassin ', 'The Day Jackal', 'Brilliant classic thriller ', 'Coldly efficient like s central character']</t>
         </is>
       </c>
     </row>
@@ -15925,7 +15925,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>['Absolutely wonderful', 'beautiful wonder emotionally cold', 'Striking Beauty From First Shot Last', 'Breathtaking Visually', 'A Prairie story', 'Dear Terrence Malick : ended', 'A Malick Film Through Through', 'In A Class By Itself', 'Somber , well-cast , epic-scaled human drama', 'Magnificent', 'Remembrance Things Past', 'Beyond Visuals', 'A visual feast', "Cinematography Is This Movie 's True Star", 'Days Heaven', 'Masterful', "Unique , Beautiful , Memorable . It 's like heaven earth", 'One Most Beautiful Films Ever Made .', 'Visually-amazing', 'One Most Beautiful Films Ever Made !', 'Stunning piece film-making , many , including , consider one top films time', 'Dominant Terrence Malick .', 'Hallmark card come life ...', "`` Nobody 's perfect . There never perfect person around . You half-angel half-devil . ``", 'A visual tour-de-force']</t>
+          <t>['Absolutely wonderful', 'beautiful wonder emotionally cold', 'Striking Beauty From First Shot Last', 'Breathtaking Visually', 'A Prairie story', 'Dear Terrence Malick  ended', 'A Malick Film Through Through', 'In A Class By Itself', 'Somber  wellcast  epicscaled human drama', 'Magnificent', 'Remembrance Things Past', 'Beyond Visuals', 'A visual feast', 'Cinematography Is This Movie s True Star', 'Days Heaven', 'Masterful', 'Unique  Beautiful  Memorable  It s like heaven earth', 'One Most Beautiful Films Ever Made ', 'Visuallyamazing', 'One Most Beautiful Films Ever Made ', 'Stunning piece filmmaking  many  including  consider one top films time', 'Dominant Terrence Malick ', 'Hallmark card come life ', ' Nobody s perfect  There never perfect person around  You halfangel halfdevil  ', 'A visual tourdeforce']</t>
         </is>
       </c>
     </row>
@@ -15969,7 +15969,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>['Great John Woo action fans', 'The Killer', 'Woo Woo', 'Killer', 'Delivers action emotional depth', 'A true John Woo classic ...', 'If perfect action film ; .', 'To John Woo , Thanks For Everything', 'Gun Fu fighting', 'Another Compassionate Killer', "John Wick 's much older brother Asian mother !", 'High Compression Compassion', 'Entertaining', 'Best John Woo film ever !', 'First action movie receive X rating', 'I always leave one bullet , either enemy .', 'Amazingly fantastic action movie filled substance .', "The trail well-beaten , 's denying blazed", 'Incredible action thriller', "John Woo another action director . Better Americans , 's still action director", 'Not average assassin .', 'Cinema Omnivore - The Killer ( 1989 ) 7.4/10', 'A High-Octane , Over-The-Top &amp; Deliriously Old-School Action Extravaganza', 'Action , lots action , slow elegant film .', "Woo 's action flick give kick !"]</t>
+          <t>['Great John Woo action fans', 'The Killer', 'Woo Woo', 'Killer', 'Delivers action emotional depth', 'A true John Woo classic ', 'If perfect action film  ', 'To John Woo  Thanks For Everything', 'Gun Fu fighting', 'Another Compassionate Killer', 'John Wick s much older brother Asian mother ', 'High Compression Compassion', 'Entertaining', 'Best John Woo film ever ', 'First action movie receive X rating', 'I always leave one bullet  either enemy ', 'Amazingly fantastic action movie filled substance ', 'The trail wellbeaten  s denying blazed', 'Incredible action thriller', 'John Woo another action director  Better Americans  s still action director', 'Not average assassin ', 'Cinema Omnivore  The Killer  1989  7410', 'A HighOctane  OverTheTop  Deliriously OldSchool Action Extravaganza', 'Action  lots action  slow elegant film ', 'Woo s action flick give kick ']</t>
         </is>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>['Good , usual many changes real story .', 'fine inspirational movie', 'Back Fifties', "read `` Rocket Boys `` watching movie , 're still really good", 'Not A Bad Biopic', "Takes One Back To A Childhood In The '50s", 'A Sky All Seasons- Touching American Piece * * * *', 'A touching story', 'Interesting , entertaining heart-warming', 'A well made family story Disney movie', 'Early Jake Gyllenhaal Joyous Film', 'A contrived Disneyesque feel-good flick .', 'The feel-good factor bit over-whelming', 'Dreams And Reality', 'Great acting', 'To stars ...', 'Powerful Coming Of Age Film !', 'Good message dull story', 'America beginning Apollo program', "Coalminer 's son", 'I loved', 'Rocket Kid', 'Powerful', 'Solid dreams-come-true drama', 'Sputnik 1 fell Earth January 4th , 1958 . See inspired .']</t>
+          <t>['Good  usual many changes real story ', 'fine inspirational movie', 'Back Fifties', 'read  Rocket Boys  watching movie  re still really good', 'Not A Bad Biopic', 'Takes One Back To A Childhood In The 50s', 'A Sky All Seasons Touching American Piece    ', 'A touching story', 'Interesting  entertaining heartwarming', 'A well made family story Disney movie', 'Early Jake Gyllenhaal Joyous Film', 'A contrived Disneyesque feelgood flick ', 'The feelgood factor bit overwhelming', 'Dreams And Reality', 'Great acting', 'To stars ', 'Powerful Coming Of Age Film ', 'Good message dull story', 'America beginning Apollo program', 'Coalminer s son', 'I loved', 'Rocket Kid', 'Powerful', 'Solid dreamscometrue drama', 'Sputnik 1 fell Earth January 4th  1958  See inspired ']</t>
         </is>
       </c>
     </row>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>['shaky wild swinging camera really worn', 'Deeply Disturbing', 'Love Is Mighty Power', 'A Devoted , Weird Romance', 'faith , sacrifice , sad harrowing things Lars von Trier masterpiece', 'Some interesting themes , slow-moving entirely engaging', 'Breaking Waves', 'Depressing', 'sound bell', "View however like , 's still masterpiece 's hard stomach", 'Strange awesome', 'Powerful , raw , unforgettable', 'Motion Sickness', 'My brief review film', 'A love rides dangerous waves', 'A Brutal , Emotionally Formidable Chronicle True Self-Sacrifice', 'A powerful , original vision . One greatest movies last ten years .', 'This movie , good', "This film torture watch , mean 's bad film .", 'Great .', 'Too strange good', 'Heartbreaking tale demonstration ultimate sacrifice .', 'Very difficult watch', 'Electric Boogaloo', 'We need bells church worship God .']</t>
+          <t>['shaky wild swinging camera really worn', 'Deeply Disturbing', 'Love Is Mighty Power', 'A Devoted  Weird Romance', 'faith  sacrifice  sad harrowing things Lars von Trier masterpiece', 'Some interesting themes  slowmoving entirely engaging', 'Breaking Waves', 'Depressing', 'sound bell', 'View however like  s still masterpiece s hard stomach', 'Strange awesome', 'Powerful  raw  unforgettable', 'Motion Sickness', 'My brief review film', 'A love rides dangerous waves', 'A Brutal  Emotionally Formidable Chronicle True SelfSacrifice', 'A powerful  original vision  One greatest movies last ten years ', 'This movie  good', 'This film torture watch  mean s bad film ', 'Great ', 'Too strange good', 'Heartbreaking tale demonstration ultimate sacrifice ', 'Very difficult watch', 'Electric Boogaloo', 'We need bells church worship God ']</t>
         </is>
       </c>
     </row>
@@ -16101,7 +16101,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>['Among best war films ever .', 'well made war movie', 'Masterpiece', 'Another Perspective Same Battle', 'Impressive mature war film', 'Courage horror war Japanese point sight', 'war', 'A War Film Unlike Any Other', 'Best Watched After `` Flags Our Fathers ``', 'Possibly Best Movie About World War II Ever Made', 'Good look battle Iwo Jima', 'Ranks Das Boot greatest War film ever made .', "Admired It , But Was n't Overwhelmed By It", 'The Kitchen Floor', "Interesting look 'other ' side .", 'The problem military dictatorships Americans came KICK AXX', 'A good film , quite classic ...', 'The Other Side War !', 'Memorial Day', "I 'm surprised Flags Our Fathers got mixed reviews Letters Iwo Jima got raves", 'First-rate drama unique point view', 'A Nutshell Review : Letters Iwo Jima', "Do right 's right .", 'Much better counterpart ...', 'A bit slow , still rewarding experience']</t>
+          <t>['Among best war films ever ', 'well made war movie', 'Masterpiece', 'Another Perspective Same Battle', 'Impressive mature war film', 'Courage horror war Japanese point sight', 'war', 'A War Film Unlike Any Other', 'Best Watched After  Flags Our Fathers ', 'Possibly Best Movie About World War II Ever Made', 'Good look battle Iwo Jima', 'Ranks Das Boot greatest War film ever made ', 'Admired It  But Was nt Overwhelmed By It', 'The Kitchen Floor', 'Interesting look other  side ', 'The problem military dictatorships Americans came KICK AXX', 'A good film  quite classic ', 'The Other Side War ', 'Memorial Day', 'I m surprised Flags Our Fathers got mixed reviews Letters Iwo Jima got raves', 'Firstrate drama unique point view', 'A Nutshell Review  Letters Iwo Jima', 'Do right s right ', 'Much better counterpart ', 'A bit slow  still rewarding experience']</t>
         </is>
       </c>
     </row>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>['great fun', 'Another Frank Capra classic', 'A Familyof Free Spirits', 'mild humor', 'Stage Play Delightful Success', 'beautiful', 'Everybody Is Afraid Live', 'Fun charming study lively , eccentric family tangles upper-class authorities', 'A Rat With Hair On It', 'So Dated , It Can Be Painful To Watch', 'Giving stuffed shirts upper-crust good dressing ...', "Kaufman &amp; Hart 's classic play screen incarnation", "Frank Capra George S. Kaufman Moss Hart 's You Ca n't Take It You mostly justice", 'You Sure Can Take It You * * * *', 'Mr. Capra Goes Wall Street', 'Noble , liberating ideas , entirely negated trite plot , one-dimensional characters silly antics', 'Capra apparently took', "Do n't worry , happy !", "One Capra 's best", 'Bohemians love ... others beware ...', 'Dated still charming .', "`` Sometimes 're beautiful gags . ``", 'Capra Lite', "No You Ca n't !", 'It flaws , generally works wonderfully']</t>
+          <t>['great fun', 'Another Frank Capra classic', 'A Familyof Free Spirits', 'mild humor', 'Stage Play Delightful Success', 'beautiful', 'Everybody Is Afraid Live', 'Fun charming study lively  eccentric family tangles upperclass authorities', 'A Rat With Hair On It', 'So Dated  It Can Be Painful To Watch', 'Giving stuffed shirts uppercrust good dressing ', 'Kaufman  Hart s classic play screen incarnation', 'Frank Capra George S Kaufman Moss Hart s You Ca nt Take It You mostly justice', 'You Sure Can Take It You    ', 'Mr Capra Goes Wall Street', 'Noble  liberating ideas  entirely negated trite plot  onedimensional characters silly antics', 'Capra apparently took', 'Do nt worry  happy ', 'One Capra s best', 'Bohemians love  others beware ', 'Dated still charming ', ' Sometimes re beautiful gags  ', 'Capra Lite', 'No You Ca nt ', 'It flaws  generally works wonderfully']</t>
         </is>
       </c>
     </row>
@@ -16189,7 +16189,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>['Heartfelt , no-budget musical', 'charming beyond belief', 'Subtle , Delicate , Real', 'Hear song', 'One', 'Not brilliant lavish praise would suggest still natural , charming refreshingly free sentiment', 'Sweet', 'Sweet light substance', 'What struggling music scene like Ireland', 'sweet', 'Following dream', "I Do n't Think I 've Ever Seen Mellower Movie", "When Your Mind 's Made Up", '`` Once `` pure .', 'Ad lib', 'If see date , might expect get married near future', 'Just right true romance .', 'Forgettable songs , story speak', 'almost experimental cinema', 'A Film I Love To Recommend', 'A warm , music-filled love story , overrated critics .', 'Never I felt emotion film', "Once watch vibrant , melodious film , 'll probably want see twice even times", 'Utterly sweet , low budget , honest also limited .', 'Feels real']</t>
+          <t>['Heartfelt  nobudget musical', 'charming beyond belief', 'Subtle  Delicate  Real', 'Hear song', 'One', 'Not brilliant lavish praise would suggest still natural  charming refreshingly free sentiment', 'Sweet', 'Sweet light substance', 'What struggling music scene like Ireland', 'sweet', 'Following dream', 'I Do nt Think I ve Ever Seen Mellower Movie', 'When Your Mind s Made Up', ' Once  pure ', 'Ad lib', 'If see date  might expect get married near future', 'Just right true romance ', 'Forgettable songs  story speak', 'almost experimental cinema', 'A Film I Love To Recommend', 'A warm  musicfilled love story  overrated critics ', 'Never I felt emotion film', 'Once watch vibrant  melodious film  ll probably want see twice even times', 'Utterly sweet  low budget  honest also limited ', 'Feels real']</t>
         </is>
       </c>
     </row>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>["Not one Woody Allen 's best films , tie Annie Hall masterpiece", 'Absolutely beautiful', "Allen 's Love Letter Bergman NYC", 'New York Night', 'The Masterpiece Woody Allen', "Deserves 's reputation little arty funny I like", 'A Win For Woody', "Could n't Get With It", '`` My therapist warned . So I found different therapist . ``', "A fresh , funny , askew ( flawed ) valentine love 's aftertastes ...", "Possibly Woody 's best , one best 70 's", 'The Prophet Pathetically Maladjusted', 'Okay overly engaging , interesting profound', 'Movement', "Next `` Annie Hall `` Woody Allen 's best film", "Does n't stand test time", 'Neurotic NYC', 'A lot favorite number', "Woody Allen 's Manhattan !", 'Fantastic', "Woody Allen 's Most Penetrating Analysis Human Relationships", 'Nice city , shame movie ...', 'Manhattan', 'Woody Allen Masterpiece', 'A love letter city']</t>
+          <t>['Not one Woody Allen s best films  tie Annie Hall masterpiece', 'Absolutely beautiful', 'Allen s Love Letter Bergman NYC', 'New York Night', 'The Masterpiece Woody Allen', 'Deserves s reputation little arty funny I like', 'A Win For Woody', 'Could nt Get With It', ' My therapist warned  So I found different therapist  ', 'A fresh  funny  askew  flawed  valentine love s aftertastes ', 'Possibly Woody s best  one best 70 s', 'The Prophet Pathetically Maladjusted', 'Okay overly engaging  interesting profound', 'Movement', 'Next  Annie Hall  Woody Allen s best film', 'Does nt stand test time', 'Neurotic NYC', 'A lot favorite number', 'Woody Allen s Manhattan ', 'Fantastic', 'Woody Allen s Most Penetrating Analysis Human Relationships', 'Nice city  shame movie ', 'Manhattan', 'Woody Allen Masterpiece', 'A love letter city']</t>
         </is>
       </c>
     </row>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>['Fascinating well made , probably NOT capture hearts everyone !', "I n't know say ...", 'less fanciful Studio Ghibli', 'Follow cat', "minor gem Ghibli cannon - means 's amazing , small ways count", "This n't Studio Ghibili 's best movie definitely must see", 'Could retold centuries lose value', 'Ghibli stopped !', 'Very nice childhood passing anime', 'Film Review - Whisper Heart ( 1995 ) 8.2/10', 'innocuous pleasant forgetable', 'A simple story stretched thin', 'An Unadulterated Illustration Of Teenage Love , Dreams &amp; Aspirations', 'Listen Whisper', 'This nostalgia', "Despite flaws , 're jaded mood quite revitalizing .", 'Whisper Heart quietly grounds fantastical romance shrouded lyrical dedication .', 'Must see film aspiring creators', "Charming But Slow , This Is n't Essential Ghibli", 'Worst Country Roads cover ever', "It 's good !", '`` If You Listen Closely ``', 'Cute', 'Pleasant Surprise', 'Subdued Yet Inspiring Theme']</t>
+          <t>['Fascinating well made  probably NOT capture hearts everyone ', 'I nt know say ', 'less fanciful Studio Ghibli', 'Follow cat', 'minor gem Ghibli cannon  means s amazing  small ways count', 'This nt Studio Ghibili s best movie definitely must see', 'Could retold centuries lose value', 'Ghibli stopped ', 'Very nice childhood passing anime', 'Film Review  Whisper Heart  1995  8210', 'innocuous pleasant forgetable', 'A simple story stretched thin', 'An Unadulterated Illustration Of Teenage Love  Dreams  Aspirations', 'Listen Whisper', 'This nostalgia', 'Despite flaws  re jaded mood quite revitalizing ', 'Whisper Heart quietly grounds fantastical romance shrouded lyrical dedication ', 'Must see film aspiring creators', 'Charming But Slow  This Is nt Essential Ghibli', 'Worst Country Roads cover ever', 'It s good ', ' If You Listen Closely ', 'Cute', 'Pleasant Surprise', 'Subdued Yet Inspiring Theme']</t>
         </is>
       </c>
     </row>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>['Terrific Daniel Day-Lewis performance', 'Astonishing Performance !', 'Daniel Day - Lewis', "You ca n't deny Daniel Day-Lewis world 's devoted actor .", 'Danny Rocks', 'Amazing story', 'Truly inspirational phenomenal', 'Powerful , moving true story', 'Nothing Short Amazing', 'Daniel Day-Lewis deserved acting awards ...', 'Movie defined incredible performance Daniel Day Lewis', "Daniel Day-Lewis Is Why This Movie 's Remembered", 'Nothing special', 'A Great Performance Day-Lewis', 'A Chinese opinion', 'One Big Toe Up !', 'Daniel Day-Lewis GOD ! ! !', 'A true inspiration , true artist , anything , true Irishman ....', 'One inspiring true story fictional changes less cinematic True Events .', 'A remarkable film performances Day-Lewis Fricker', 'A Profoundly Rich &amp; Moving Experience', 'Daniel Day-Lewis Is The Greatest Actor Ever !', 'Not Epic Movie I Thought Would Be , Daniel Day-Lewis Incredible Actor ,', 'My Left Foot', 'Uplifting story human struggle stays humble']</t>
+          <t>['Terrific Daniel DayLewis performance', 'Astonishing Performance ', 'Daniel Day  Lewis', 'You ca nt deny Daniel DayLewis world s devoted actor ', 'Danny Rocks', 'Amazing story', 'Truly inspirational phenomenal', 'Powerful  moving true story', 'Nothing Short Amazing', 'Daniel DayLewis deserved acting awards ', 'Movie defined incredible performance Daniel Day Lewis', 'Daniel DayLewis Is Why This Movie s Remembered', 'Nothing special', 'A Great Performance DayLewis', 'A Chinese opinion', 'One Big Toe Up ', 'Daniel DayLewis GOD   ', 'A true inspiration  true artist  anything  true Irishman ', 'One inspiring true story fictional changes less cinematic True Events ', 'A remarkable film performances DayLewis Fricker', 'A Profoundly Rich  Moving Experience', 'Daniel DayLewis Is The Greatest Actor Ever ', 'Not Epic Movie I Thought Would Be  Daniel DayLewis Incredible Actor ', 'My Left Foot', 'Uplifting story human struggle stays humble']</t>
         </is>
       </c>
     </row>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>['Really liking quite loving Vincent', 'animation style', 'One Kind', 'masterpiece', "van Gogh 's style comes cinema", "Visually fascinating , postman 's son tries deliver letter .", 'A piece art', 'Beautiful , exquisite , truly one kind', 'Awkward Mix Mystery Biography', 'weathered faces lined pain', "It 's visually stunning , love Vincent , 's boring .", 'head-turner art lovers cineastes', 'Visually stunning', 'Like sitting beautiful , boring art gallery', "The mystery Vincent van Gogh 's death explained unfathomable tragedy", 'immersing visual experience', 'A nice comforting film fall asleep .', "Literally Brings Vincent Van Gogh 's Oil Paintings Alive On Film .", 'Huh ?', 'Impressive achievement', 'An orignal movie , wonderful investigation life Van Gogh', 'A unique effort', 'A unique effort', 'Loving Vincent', 'Ear go !']</t>
+          <t>['Really liking quite loving Vincent', 'animation style', 'One Kind', 'masterpiece', 'van Gogh s style comes cinema', 'Visually fascinating  postman s son tries deliver letter ', 'A piece art', 'Beautiful  exquisite  truly one kind', 'Awkward Mix Mystery Biography', 'weathered faces lined pain', 'It s visually stunning  love Vincent  s boring ', 'headturner art lovers cineastes', 'Visually stunning', 'Like sitting beautiful  boring art gallery', 'The mystery Vincent van Gogh s death explained unfathomable tragedy', 'immersing visual experience', 'A nice comforting film fall asleep ', 'Literally Brings Vincent Van Gogh s Oil Paintings Alive On Film ', 'Huh ', 'Impressive achievement', 'An orignal movie  wonderful investigation life Van Gogh', 'A unique effort', 'A unique effort', 'Loving Vincent', 'Ear go ']</t>
         </is>
       </c>
     </row>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>['A grim yet gripping thriller', 'Listen Mister Buggz', 'Korean movies got ta intense', 'Excellent Korean film noir', 'The Chase better Catch', "I 'm Loving Korean Movies", 'I care', 'Not faint heart', 'A Nutshell Review : The Chaser', 'notes', 'Another winner South Korea', 'Disturbingly good .', 'A decent serial-killer thriller Korean realism feels better true story factors .', 'Artsy nasty', 'Like says `` I urge see ``', 'A Genre Masterpiece . Not For The Easily Distressed . Strongly Recommended .', 'Pretty good', 'SERIAL KILLER VS. PIMP ... !', 'Superior piece South Korean race-against-time entertainment , ample attention character ; narrative genre demands combining wonderfully .', 'Expected !', 'Chaser', 'An Accomplished , Clever Fusion Cop Thriller , Frantic Shock Black Humor', 'Too many plot holes , great twist near end', 'Stunning serial killer movie .. ! !', 'The pimp come love']</t>
+          <t>['A grim yet gripping thriller', 'Listen Mister Buggz', 'Korean movies got ta intense', 'Excellent Korean film noir', 'The Chase better Catch', 'I m Loving Korean Movies', 'I care', 'Not faint heart', 'A Nutshell Review  The Chaser', 'notes', 'Another winner South Korea', 'Disturbingly good ', 'A decent serialkiller thriller Korean realism feels better true story factors ', 'Artsy nasty', 'Like says  I urge see ', 'A Genre Masterpiece  Not For The Easily Distressed  Strongly Recommended ', 'Pretty good', 'SERIAL KILLER VS PIMP  ', 'Superior piece South Korean raceagainsttime entertainment  ample attention character  narrative genre demands combining wonderfully ', 'Expected ', 'Chaser', 'An Accomplished  Clever Fusion Cop Thriller  Frantic Shock Black Humor', 'Too many plot holes  great twist near end', 'Stunning serial killer movie   ', 'The pimp come love']</t>
         </is>
       </c>
     </row>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>['Timeless influential', 'A couple visitors planet', 'sci-fi icon', 'Masterpiece', 'The Gentleness Message', 'Klaatu Barada Nicto', 'A sci fi classic .', 'Different Alien Movie', 'A Peaceful Message One Brightest Science-Fiction Movies', 'Classic surprising ( time ) pacifist message', "So `` The Andy Griffith Show `` 's Aunt Bee playing Mrs . Barley ?", 'Michael Rennie', 'The Starry Messenger .', 'Although rather naïve today , one finest sci-fi dramas decade ...', 'All hail Klaatu !', 'Mr. Klaatu Goes Washington', 'Listen Wise Alien !', 'Timely , frightening awesome', "Robert Wise 's The Day Earth Stood Still still relevant today 's times", 'Calling Occupants Interplanetary Craft', 'Classic sci-fi survives test time .', 'Closer Look Serious Subtext', 'A Short Response NYT ( Bosley Crowther ) Original 1951 Review', 'A Blackboard Unfinished', "I 'm impatient stupidity . My people learned live without ."]</t>
+          <t>['Timeless influential', 'A couple visitors planet', 'scifi icon', 'Masterpiece', 'The Gentleness Message', 'Klaatu Barada Nicto', 'A sci fi classic ', 'Different Alien Movie', 'A Peaceful Message One Brightest ScienceFiction Movies', 'Classic surprising  time  pacifist message', 'So  The Andy Griffith Show  s Aunt Bee playing Mrs  Barley ', 'Michael Rennie', 'The Starry Messenger ', 'Although rather nave today  one finest scifi dramas decade ', 'All hail Klaatu ', 'Mr Klaatu Goes Washington', 'Listen Wise Alien ', 'Timely  frightening awesome', 'Robert Wise s The Day Earth Stood Still still relevant today s times', 'Calling Occupants Interplanetary Craft', 'Classic scifi survives test time ', 'Closer Look Serious Subtext', 'A Short Response NYT  Bosley Crowther  Original 1951 Review', 'A Blackboard Unfinished', 'I m impatient stupidity  My people learned live without ']</t>
         </is>
       </c>
     </row>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>['Daring yet daring time .', 'powerful funny', 'surprising', 'The pit factor', 'Some stereotypes course', 'stand united', 'Completely blown away', 'A Little Bit Annoying , But Its Heart Is Right Place', 'If could understand accents ..', "An inspiring story , even sometimes n't feel right film", 'The best feel-good gay movie since `` Beautiful Thing ``', 'Pride', 'Definitely crowd-pleaser !', 'Overrated uninvolving', 'They Should Be Proud', 'Fantastic', "The movie emotional ca n't help feeling angry way group treated trying help someone .", 'Engaging likeable', 'Pride without Prejudice', 'Even inspiring really happened .', "Often intriguing , although curiously lacking , drama leftist-unity 80 's Britain .", 'Touching true story ! 6/10', 'Pride joyfully prides feel good , occasionally flat , comedic drama .', 'Vivid Dramatization Turning Point Contemporary British History', 'Fabulous-brilliant-touching-inspirational']</t>
+          <t>['Daring yet daring time ', 'powerful funny', 'surprising', 'The pit factor', 'Some stereotypes course', 'stand united', 'Completely blown away', 'A Little Bit Annoying  But Its Heart Is Right Place', 'If could understand accents ', 'An inspiring story  even sometimes nt feel right film', 'The best feelgood gay movie since  Beautiful Thing ', 'Pride', 'Definitely crowdpleaser ', 'Overrated uninvolving', 'They Should Be Proud', 'Fantastic', 'The movie emotional ca nt help feeling angry way group treated trying help someone ', 'Engaging likeable', 'Pride without Prejudice', 'Even inspiring really happened ', 'Often intriguing  although curiously lacking  drama leftistunity 80 s Britain ', 'Touching true story  610', 'Pride joyfully prides feel good  occasionally flat  comedic drama ', 'Vivid Dramatization Turning Point Contemporary British History', 'Fabulousbrillianttouchinginspirational']</t>
         </is>
       </c>
     </row>
@@ -16541,7 +16541,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>['Entirely captivating', 'A timeless Anime classic ...', 'probably top 10 favorites anime', 'Entertaining', 'Cool ninja anime , rather weak ending .', 'The leash come .', 'I Fell In Love With This Movie In About 5 Minutes', 'Amazing action', 'Confusingly plotted sickeningly violent , fantastic action scenes', 'Not bad animation', 'One Best Ninja Stories Ever Told', 'Not single scroll anime care ?', 'A staggering , surreal incredibly violent animated historical fantasy', 'An anime classic !', 'Perhaps best pure action anime film', 'Good-but serious issues w/ women', 'Very impressive', 'Waste time .', 'Best ninja anime ever ?', 'Best Anime', 'Royally screwed', 'Awesome classic every anime fan see .', 'The Good Kind Crap', 'Pretty good .']</t>
+          <t>['Entirely captivating', 'A timeless Anime classic ', 'probably top 10 favorites anime', 'Entertaining', 'Cool ninja anime  rather weak ending ', 'The leash come ', 'I Fell In Love With This Movie In About 5 Minutes', 'Amazing action', 'Confusingly plotted sickeningly violent  fantastic action scenes', 'Not bad animation', 'One Best Ninja Stories Ever Told', 'Not single scroll anime care ', 'A staggering  surreal incredibly violent animated historical fantasy', 'An anime classic ', 'Perhaps best pure action anime film', 'Goodbut serious issues w women', 'Very impressive', 'Waste time ', 'Best ninja anime ever ', 'Best Anime', 'Royally screwed', 'Awesome classic every anime fan see ', 'The Good Kind Crap', 'Pretty good ']</t>
         </is>
       </c>
     </row>
@@ -16585,7 +16585,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>['Fearlessly hard hitting', 'humanity Ken Loach', 'Claim shame', 'A heart wrenching story', 'Disappointing Prequel To Blakes 7', "Dan 's Labyrinth", 'Moving , urgent necessary ; impassioned , heart-wrenching stuff .', 'A double bill I , Daniel Blake ( 2016 ) Sorry We Missed You ( 2019 )', 'High-class drama Brit lower class .', 'The day film lose relevance , world happier place ...', 'Sadly important', 'Not subtle , still makes valid moving point', 'The best film I seen year .', "A Stimulating Piece Of Smart Storytelling That 's As Endearing As It Is Heartbreaking", 'Great movie', "I n't get hype", 'A touching slice realism', 'Packs thunderous emotional social wallop', 'A reminder society made kinds people need gentle assistance .', 'Demanding Dignity', 'Excellent film man strangled bureaucratic red tape', "One Loach 's best films", 'British Working Class', "Not one Loach 's best efforts", 'The last last']</t>
+          <t>['Fearlessly hard hitting', 'humanity Ken Loach', 'Claim shame', 'A heart wrenching story', 'Disappointing Prequel To Blakes 7', 'Dan s Labyrinth', 'Moving  urgent necessary  impassioned  heartwrenching stuff ', 'A double bill I  Daniel Blake  2016  Sorry We Missed You  2019 ', 'Highclass drama Brit lower class ', 'The day film lose relevance  world happier place ', 'Sadly important', 'Not subtle  still makes valid moving point', 'The best film I seen year ', 'A Stimulating Piece Of Smart Storytelling That s As Endearing As It Is Heartbreaking', 'Great movie', 'I nt get hype', 'A touching slice realism', 'Packs thunderous emotional social wallop', 'A reminder society made kinds people need gentle assistance ', 'Demanding Dignity', 'Excellent film man strangled bureaucratic red tape', 'One Loach s best films', 'British Working Class', 'Not one Loach s best efforts', 'The last last']</t>
         </is>
       </c>
     </row>
@@ -16629,7 +16629,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>['Not exactly typical Bible story ... well worth watching .', 'Giving Your Love Capriciously', 'Massive performance James Dean', 'Masterpiece', 'Steinbeck Is Too Romantic', 'Troubled ( Rebel )', 'Neediness Love Respect', 'rebel causality', 'Good Role For Dean , Not Best Translation', 'The first James Dean movie , novel title .', "Although based portion Steinbeck 's novel , film plot knows ...", 'stands apart book', 'Marvelous Julie !', 'overflowing tragedy sorrow family means', 'East Eden-Direction Really Unknown * * *', 'James Dean Raises Cain', "50 's Powerhouse", 'Firmly Fastened Fifties Good Overrated Dated', 'Decent , great', 'An Outstanding Movie', 'Emotional , explosive , memorable', 'This American cinematic gold absolute must see time classic', 'Good vs . Evil American West', "Top performances film Steinbeck 's favorite book", 'terrible family melodrama']</t>
+          <t>['Not exactly typical Bible story  well worth watching ', 'Giving Your Love Capriciously', 'Massive performance James Dean', 'Masterpiece', 'Steinbeck Is Too Romantic', 'Troubled  Rebel ', 'Neediness Love Respect', 'rebel causality', 'Good Role For Dean  Not Best Translation', 'The first James Dean movie  novel title ', 'Although based portion Steinbeck s novel  film plot knows ', 'stands apart book', 'Marvelous Julie ', 'overflowing tragedy sorrow family means', 'East EdenDirection Really Unknown   ', 'James Dean Raises Cain', '50 s Powerhouse', 'Firmly Fastened Fifties Good Overrated Dated', 'Decent  great', 'An Outstanding Movie', 'Emotional  explosive  memorable', 'This American cinematic gold absolute must see time classic', 'Good vs  Evil American West', 'Top performances film Steinbeck s favorite book', 'terrible family melodrama']</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>['One greatest achievements history horrordom', 'A Prisoner Of His Own Creation', 'second half nothing less horror icon', 'All Time Great', "The Monster More True Shelley 's Vision", 'admirable', 'Love air', 'An engaging piece classic horror great Gothic atmosphere design delivering great story pathos , horror comic moments', 'First rate awesome sequel good original Frankestein', 'sequel ... good ... pompous remakes ... bad', 'Tall , well built M , rugged looks , GSOH , enjoys wine , cigars music seeks attractive , wild-haired F friendship romance .', 'A Great Universal Horror Sequel That Tops Original', 'Excellent sequel', 'Here She Comes , There She Goes', 'Portions surprisingly stilted ...', 'funny , dramatic , endearing , frightening , atmospheric , romantic , even existential !', 'A bride name', 'Love First Fright', 'The monster lives ! And wants companion .', 'Stylish Horror', 'Horror parody mesh effortlessly James Whale gem', '`` We belong dead ! ``', 'Artificial Science', 'A classic -- scary', 'Quality sequel visually even stunning `` Frankenstein `` ...']</t>
+          <t>['One greatest achievements history horrordom', 'A Prisoner Of His Own Creation', 'second half nothing less horror icon', 'All Time Great', 'The Monster More True Shelley s Vision', 'admirable', 'Love air', 'An engaging piece classic horror great Gothic atmosphere design delivering great story pathos  horror comic moments', 'First rate awesome sequel good original Frankestein', 'sequel  good  pompous remakes  bad', 'Tall  well built M  rugged looks  GSOH  enjoys wine  cigars music seeks attractive  wildhaired F friendship romance ', 'A Great Universal Horror Sequel That Tops Original', 'Excellent sequel', 'Here She Comes  There She Goes', 'Portions surprisingly stilted ', 'funny  dramatic  endearing  frightening  atmospheric  romantic  even existential ', 'A bride name', 'Love First Fright', 'The monster lives  And wants companion ', 'Stylish Horror', 'Horror parody mesh effortlessly James Whale gem', ' We belong dead  ', 'Artificial Science', 'A classic  scary', 'Quality sequel visually even stunning  Frankenstein  ']</t>
         </is>
       </c>
     </row>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>['Excellent dialog hindered similarity CASABLANCA', 'A must whistle', 'Whistling On Martinique', 'Cool Bacall Casablanca Redux', 'Together Again First Time', "Here 's looking , kid", 'Lovely Romance \x96 When Fiction Reality Gets Mixed', 'A mini-classic plenty going', "linking many Bogey 's movies", "Not Peak Bogart 's Career", 'Close , Very Close To Casablanca Greatness', 'The first ( worst ) Bogie-Bacall screen teamings ...', 'Casablanca-ish film scores', 'superb riff already acclaimed book well classic film', "`` You know whistle , n't ? Just put lips together blow . ``", 'A winner way around . A classic . Just pucker blow !', 'It somehow left wanting ...', 'Stiff Studio Bound Another Fake Looking Howard Hawks Movie', 'A Bogart-Bacall classic', 'What sore ?', 'When Harry met Slim', 'Bogey Bacall make worthwhile ...', "Most memorable Bogart Becall 's screen chemistry", 'A Good Film Its Time', "It 's even better help"]</t>
+          <t>['Excellent dialog hindered similarity CASABLANCA', 'A must whistle', 'Whistling On Martinique', 'Cool Bacall Casablanca Redux', 'Together Again First Time', 'Here s looking  kid', 'Lovely Romance  When Fiction Reality Gets Mixed', 'A miniclassic plenty going', 'linking many Bogey s movies', 'Not Peak Bogart s Career', 'Close  Very Close To Casablanca Greatness', 'The first  worst  BogieBacall screen teamings ', 'Casablancaish film scores', 'superb riff already acclaimed book well classic film', ' You know whistle  nt  Just put lips together blow  ', 'A winner way around  A classic  Just pucker blow ', 'It somehow left wanting ', 'Stiff Studio Bound Another Fake Looking Howard Hawks Movie', 'A BogartBacall classic', 'What sore ', 'When Harry met Slim', 'Bogey Bacall make worthwhile ', 'Most memorable Bogart Becall s screen chemistry', 'A Good Film Its Time', 'It s even better help']</t>
         </is>
       </c>
     </row>
@@ -16761,7 +16761,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>['An amazingly timeless Western', 'One finest westerns ever made', "Over rise , 's Duke , Winchester hand", 'classic western introducing Monument Valley', 'Terrific Cast , Action', 'Composite Western Movie', 'speciaal , special masterpiece', 'A true classic Western', 'A great western thanks characters', 'First adult Western interesting character studio perfectly played excellent plethora actors', '`` We need businessman president ! `` Well , saw went .', 'Comraderie Old West', "'Stagecoach ' Is A Dated Snoozer", 'Classic Ford , classic Wayne', 'A Western timeless appeal ; one essential Ford/Wayne collaborations', 'Ford puts John Wayne Stagecoach Stars', 'Wayne Goes Up The Ladder', "Not Ford 's first great Western ...", 'Famous John Ford/John Wayne Western ... Popular ... Slightly Overrated &amp; Dated', 'A masterpiece , seminal movie history cinema', "We 're victims foul disease called social prejudice , child .", 'Much overrated Ford film ... time kind ...', "The first movie solidified The Duke 's social movie status .", 'A Stagecoach Road Trouble', "There things man ca n't run away"]</t>
+          <t>['An amazingly timeless Western', 'One finest westerns ever made', 'Over rise  s Duke  Winchester hand', 'classic western introducing Monument Valley', 'Terrific Cast  Action', 'Composite Western Movie', 'speciaal  special masterpiece', 'A true classic Western', 'A great western thanks characters', 'First adult Western interesting character studio perfectly played excellent plethora actors', ' We need businessman president   Well  saw went ', 'Comraderie Old West', 'Stagecoach  Is A Dated Snoozer', 'Classic Ford  classic Wayne', 'A Western timeless appeal  one essential FordWayne collaborations', 'Ford puts John Wayne Stagecoach Stars', 'Wayne Goes Up The Ladder', 'Not Ford s first great Western ', 'Famous John FordJohn Wayne Western  Popular  Slightly Overrated  Dated', 'A masterpiece  seminal movie history cinema', 'We re victims foul disease called social prejudice  child ', 'Much overrated Ford film  time kind ', 'The first movie solidified The Duke s social movie status ', 'A Stagecoach Road Trouble', 'There things man ca nt run away']</t>
         </is>
       </c>
     </row>
@@ -16805,7 +16805,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>["Considered Master Suspense 's personal favourite films , Shadow Doubt suspenseful , tense well made classic thriller", 'Strong Hitchcock suspense flick', 'great creepy Hitchcock movie', 'Nice Thriller', 'Playing Contrasts', 'My Favorite Hitchcock', 'Never doubt', "Not obviously good Hitchcock 's films still enjoyable piece despite difficulties plotting", "This one Hitch 's best images full suspense , drama tension", "'s doubt masterpiece", 'My least favourite Hitchcock movie far .', 'Joseph Cotten One His Finest Performances', 'Solid mainstream Hitchcock', 'Self-consciously bemused droll Alfred Hitchcock ...', "Hitchcock 's favorite film", 'The side mirror .', 'The Master Suspense sadist !', 'No Doubt', 'Sometimes people seem .', 'The `` Charlies `` Shine', 'X-Raying Norman Rockwell Early Film-Noir Hitchcock', "Not among Hitchcock 's best still reasonably intriguing", 'The Widow Dies', 'Merry Widow Murderer - Hitchcock style !', 'Persuasive But Maybe Not A Classic']</t>
+          <t>['Considered Master Suspense s personal favourite films  Shadow Doubt suspenseful  tense well made classic thriller', 'Strong Hitchcock suspense flick', 'great creepy Hitchcock movie', 'Nice Thriller', 'Playing Contrasts', 'My Favorite Hitchcock', 'Never doubt', 'Not obviously good Hitchcock s films still enjoyable piece despite difficulties plotting', 'This one Hitch s best images full suspense  drama tension', 's doubt masterpiece', 'My least favourite Hitchcock movie far ', 'Joseph Cotten One His Finest Performances', 'Solid mainstream Hitchcock', 'Selfconsciously bemused droll Alfred Hitchcock ', 'Hitchcock s favorite film', 'The side mirror ', 'The Master Suspense sadist ', 'No Doubt', 'Sometimes people seem ', 'The  Charlies  Shine', 'XRaying Norman Rockwell Early FilmNoir Hitchcock', 'Not among Hitchcock s best still reasonably intriguing', 'The Widow Dies', 'Merry Widow Murderer  Hitchcock style ', 'Persuasive But Maybe Not A Classic']</t>
         </is>
       </c>
     </row>
@@ -16849,7 +16849,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>['A super-realistic gritty crime drama -- must fans Noir', 'Could well best heist film ever', 'A Very Human Hooligan', 'good heist film', 'Really Good Noir', 'Fantastic Film-Noir', 'Could tighter still tough professional heist movie', 'Crime drama robbery , perfectly narrated compellingly performed', 'streets make feel gritty', 'The Definitive Film Noir ?', 'The best film noir times', 'One Of The All-Time Best Noirs', '`` Crime left-handed form human endeavor . ``', 'The best laid plans', 'It started', 'One best heist films ever', 'John Huston Pounds Pavement', 'The definitive heist film .', 'Flawless crime classic .', "There 's quite bit honor among thieves ...", 'Primal Pursuit In The Undergrowth ... Seminal ... Influential ... Kick-Starting `` Heist `` Genre', 'Great film noir heist-drama', "Experience taught never trust policeman . Just think one 's right , turns legit .", 'The Problem With Heist Movies', 'John Huston defines caper .']</t>
+          <t>['A superrealistic gritty crime drama  must fans Noir', 'Could well best heist film ever', 'A Very Human Hooligan', 'good heist film', 'Really Good Noir', 'Fantastic FilmNoir', 'Could tighter still tough professional heist movie', 'Crime drama robbery  perfectly narrated compellingly performed', 'streets make feel gritty', 'The Definitive Film Noir ', 'The best film noir times', 'One Of The AllTime Best Noirs', ' Crime lefthanded form human endeavor  ', 'The best laid plans', 'It started', 'One best heist films ever', 'John Huston Pounds Pavement', 'The definitive heist film ', 'Flawless crime classic ', 'There s quite bit honor among thieves ', 'Primal Pursuit In The Undergrowth  Seminal  Influential  KickStarting  Heist  Genre', 'Great film noir heistdrama', 'Experience taught never trust policeman  Just think one s right  turns legit ', 'The Problem With Heist Movies', 'John Huston defines caper ']</t>
         </is>
       </c>
     </row>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>['A rousing adventure tale', "One John Huston 's best", 'Glory days British Empire', 'Those Minstrel Boys', 'old fashion high adventure', 'It Has It All : Danger , Adventure , Religion , Insanity', 'almost perfect', 'The eye gold', 'Great story , great acting great fun', 'Wonderful adventure film breathtaking outdoors , unforgettable dialogs sensational performances', 'An Interesting Tale', 'Huston Gets It Right , Again', 'amazing screen presence , sure-fire direction , tragic-comic action script - classic involved', 'Grand , epic-scale entertainment .', "God 's Own Trousers", 'From upper echelon boys adventures comes - The Man Who Would Be King !', 'At Last A Film That Deserves Connery And Caine', 'Huston Kipling ... Connery Caine shine `` buddy flick `` ...', 'Not Gods , Englishmen - next best thing', 'Disappointing Adventure Film', 'Rudyard Kipling Story .', 'An epic masterpiece', 'Worth Wait', 'Exceedingly good Kipling adaptation', 'The Man Who Would Be King']</t>
+          <t>['A rousing adventure tale', 'One John Huston s best', 'Glory days British Empire', 'Those Minstrel Boys', 'old fashion high adventure', 'It Has It All  Danger  Adventure  Religion  Insanity', 'almost perfect', 'The eye gold', 'Great story  great acting great fun', 'Wonderful adventure film breathtaking outdoors  unforgettable dialogs sensational performances', 'An Interesting Tale', 'Huston Gets It Right  Again', 'amazing screen presence  surefire direction  tragiccomic action script  classic involved', 'Grand  epicscale entertainment ', 'God s Own Trousers', 'From upper echelon boys adventures comes  The Man Who Would Be King ', 'At Last A Film That Deserves Connery And Caine', 'Huston Kipling  Connery Caine shine  buddy flick  ', 'Not Gods  Englishmen  next best thing', 'Disappointing Adventure Film', 'Rudyard Kipling Story ', 'An epic masterpiece', 'Worth Wait', 'Exceedingly good Kipling adaptation', 'The Man Who Would Be King']</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>['French prison epic', 'perfect', 'Inside ( Drama )', 'Surviving Graduating Crime', 'Stylish engaging crime story', 'Superb prison drama decent interpretations competently directed Jacques Audiard .', 'prophet gain', 'staying alive ( dying ) unique prison-crime film', 'The French/Arab Racial Conflict Microcosm', 'Eyes Ears', 'One better prison movies', 'The Metamorphosis Criminal Mind', 'poetry violence', 'A secret prophet', "It 's 'THE GODFATHER ' good gangster / prison film !", 'An Arresting , Explosive &amp; Potent Film About Prison &amp; Power .', 'A Magnificent film', 'Fine , original', 'A unique startling crime tale', 'A Prophet', 'Long , undeniably powerful , Engrossing', 'Dreary Depressing', 'Two Great Actors', "Immersive quite mesmeric crime film ; fierce character study top confrontational piece young man 's inception criminal lifestyle .", 'Audiard goes gutter']</t>
+          <t>['French prison epic', 'perfect', 'Inside  Drama ', 'Surviving Graduating Crime', 'Stylish engaging crime story', 'Superb prison drama decent interpretations competently directed Jacques Audiard ', 'prophet gain', 'staying alive  dying  unique prisoncrime film', 'The FrenchArab Racial Conflict Microcosm', 'Eyes Ears', 'One better prison movies', 'The Metamorphosis Criminal Mind', 'poetry violence', 'A secret prophet', 'It s THE GODFATHER  good gangster  prison film ', 'An Arresting  Explosive  Potent Film About Prison  Power ', 'A Magnificent film', 'Fine  original', 'A unique startling crime tale', 'A Prophet', 'Long  undeniably powerful  Engrossing', 'Dreary Depressing', 'Two Great Actors', 'Immersive quite mesmeric crime film  fierce character study top confrontational piece young man s inception criminal lifestyle ', 'Audiard goes gutter']</t>
         </is>
       </c>
     </row>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>['Well made directed , ending ?', "`` Let 's Take 'Em Missouri . ``", 'machismo sensitive', 'Excellent Performances', 'Beautifully shot western', 'An enjoyable western', 'Epic Western first massive cattle drive Texas Abilene along Chisholm Trail', "One John Wayne 's Best Performances", "Howard Hawks John Ford 's shoes", 'Deep Cast , Compelling Story Albeit A Bit Long', '`` Through Panhandle , past Pecos , nearing Rio Grande ... ``', "An 'old fashioned ' western , Hawks , Wayne , supporting cast making worthwhile", 'Really A Black White River But Red River Rates * * * 1/2', 'Blazing Guns Chisholm Trail', "Round 'em move 'em north pardner !", 'Several Notable Sidelights', 'Ending Not All That Is Troublesome', 'Classic western', 'Bury quitters !', 'Sprawling cattle drive saga makes excellent western drama ...', 'Hard exterior look father adopted son .', "`` He n't know fight . ``", 'There two things beautiful gun : Swiss watch woman anywhere .', 'Tremendously Exciting Western `` Gotcha ! `` Ending', 'Not bad hardly classic really .']</t>
+          <t>['Well made directed  ending ', ' Let s Take Em Missouri  ', 'machismo sensitive', 'Excellent Performances', 'Beautifully shot western', 'An enjoyable western', 'Epic Western first massive cattle drive Texas Abilene along Chisholm Trail', 'One John Wayne s Best Performances', 'Howard Hawks John Ford s shoes', 'Deep Cast  Compelling Story Albeit A Bit Long', ' Through Panhandle  past Pecos  nearing Rio Grande  ', 'An old fashioned  western  Hawks  Wayne  supporting cast making worthwhile', 'Really A Black White River But Red River Rates    12', 'Blazing Guns Chisholm Trail', 'Round em move em north pardner ', 'Several Notable Sidelights', 'Ending Not All That Is Troublesome', 'Classic western', 'Bury quitters ', 'Sprawling cattle drive saga makes excellent western drama ', 'Hard exterior look father adopted son ', ' He nt know fight  ', 'There two things beautiful gun  Swiss watch woman anywhere ', 'Tremendously Exciting Western  Gotcha   Ending', 'Not bad hardly classic really ']</t>
         </is>
       </c>
     </row>
@@ -17025,7 +17025,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>['brilliant style compelling scenes', 'masterpiece . many senses .', 'A Cry For Help', 'It Eve', 'Almodovar successful melodrama ordinary rare characters , twisted situations eccentric events', "I quite surprised host mother Spain told n't fond movie .", 'Wonderful Almodovar film', 'Kinda sad , well worth emotional downs occasional obscure ups', 'Well-intended lacks focus , especially middle section', 'Simply superb !', 'A moderate Pedro Almodóvar shocking others', 'Women anything avoid alone .', "In drama genre 's good movie .", 'No taboo unturned .', 'All ?', 'Does emperor clothes ?', 'Lyrical , vivid , moving ... women ( men women ) finding meaning ...', 'mother', 'Very Rich', 'Incredibly moving drama', 'My favorite Almodovar film', 'Well-done chronicle mother ...', 'An Exploration Human Interaction Beyond Gender', 'Heartbreaking', 'Mainstream Almodóvar']</t>
+          <t>['brilliant style compelling scenes', 'masterpiece  many senses ', 'A Cry For Help', 'It Eve', 'Almodovar successful melodrama ordinary rare characters  twisted situations eccentric events', 'I quite surprised host mother Spain told nt fond movie ', 'Wonderful Almodovar film', 'Kinda sad  well worth emotional downs occasional obscure ups', 'Wellintended lacks focus  especially middle section', 'Simply superb ', 'A moderate Pedro Almodvar shocking others', 'Women anything avoid alone ', 'In drama genre s good movie ', 'No taboo unturned ', 'All ', 'Does emperor clothes ', 'Lyrical  vivid  moving  women  men women  finding meaning ', 'mother', 'Very Rich', 'Incredibly moving drama', 'My favorite Almodovar film', 'Welldone chronicle mother ', 'An Exploration Human Interaction Beyond Gender', 'Heartbreaking', 'Mainstream Almodvar']</t>
         </is>
       </c>
     </row>
@@ -17069,7 +17069,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>['hard cold mood', 'Bleak Disturbing', 'useful parable', 'Black White ( Ribbon )', 'Prolix , Overrated Disappointing', 'I gave God chance kill .', 'The Best Horror Film 2009', 'No Simple Who-Dunnit', 'Black &amp; white dead , long live black &amp; white !', '144 minutes bared nerve endings', 'Ignorance poses Innocence : The White Ribbon', 'Eine Deutsche Kindergeschichte', 'The White Ribbon : 8/10', "Artful analysis evil 's origins", 'Lead pieces', 'Critique Impure Reasons ...', 'Out time', 'punishment guilt sources evil', 'The Origin Of Cruelty In Every Society .', 'definition `` art film ``', 'An engaging meaningful film', 'Pure evil ...', 'A Frustratingly Great Film !', 'The narrator', 'A beautiful , long , troubling , dry experience , Germany generation Nazis']</t>
+          <t>['hard cold mood', 'Bleak Disturbing', 'useful parable', 'Black White  Ribbon ', 'Prolix  Overrated Disappointing', 'I gave God chance kill ', 'The Best Horror Film 2009', 'No Simple WhoDunnit', 'Black  white dead  long live black  white ', '144 minutes bared nerve endings', 'Ignorance poses Innocence  The White Ribbon', 'Eine Deutsche Kindergeschichte', 'The White Ribbon  810', 'Artful analysis evil s origins', 'Lead pieces', 'Critique Impure Reasons ', 'Out time', 'punishment guilt sources evil', 'The Origin Of Cruelty In Every Society ', 'definition  art film ', 'An engaging meaningful film', 'Pure evil ', 'A Frustratingly Great Film ', 'The narrator', 'A beautiful  long  troubling  dry experience  Germany generation Nazis']</t>
         </is>
       </c>
     </row>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>['excellent family film', 'reflection mirror', 'Gerard Jugnot extraordinary failed musician arrives boarding school transforms rebel children', 'Well worth watching', 'An improvement `` la cage aux rossignols `` ?', 'I wonderfully surprised Les choristes', 'Positively moving', 'Music heart', 'A Real Choir MASTER', "'Music soothes savage beast ... '", 'So Miramax', 'Pleasant enjoyable', 'A great family movie musical elegant soul .', 'Troubled youths find inspiration music -- familiar turf beautifully rendered', 'Magical', "Formulaic , least 's French !", 'Wonderful watchable film teacher attempting bring ideas methods worn establishment .', 'By numbers', 'Caged birds sing', 'No substance , quite delightful', 'The French Musical Version Dead Poets Society', 'Sentimental Treacle Eye Ear', 'The charming -- least believable -- delinquent kid movies', "So charming , 's new ?", 'La Petite Bon-Bon']</t>
+          <t>['excellent family film', 'reflection mirror', 'Gerard Jugnot extraordinary failed musician arrives boarding school transforms rebel children', 'Well worth watching', 'An improvement  la cage aux rossignols  ', 'I wonderfully surprised Les choristes', 'Positively moving', 'Music heart', 'A Real Choir MASTER', 'Music soothes savage beast  ', 'So Miramax', 'Pleasant enjoyable', 'A great family movie musical elegant soul ', 'Troubled youths find inspiration music  familiar turf beautifully rendered', 'Magical', 'Formulaic  least s French ', 'Wonderful watchable film teacher attempting bring ideas methods worn establishment ', 'By numbers', 'Caged birds sing', 'No substance  quite delightful', 'The French Musical Version Dead Poets Society', 'Sentimental Treacle Eye Ear', 'The charming  least believable  delinquent kid movies', 'So charming  s new ', 'La Petite BonBon']</t>
         </is>
       </c>
     </row>
@@ -17157,7 +17157,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>['important message tarnished goofy film techniques', 'Cold Cellar', 'flesh air', 'Beautiful Low-Paced Love Story', 'Love War', 'The Pull Connection', 'Strong value would strong arthouse convolutions', 'A Poem', 'history repeat', 'Existential romance', "Resnais ' majestic sleight-of-hand", 'ashes', 'one greatest works cinematic art', 'The beginnings inland empire', 'Cryptic French New Wave romance', "Politics borderline documentary film-making top tragic romantic tale one French New Wave 's earliest films .", 'A beautiful haunting film', 'Feels edgy , intelligent emotion-filled anything made today', 'Hard grasp first view', 'An extraordinary film horrors war', 'Haunting , Sometimes Exasperating Rumination Love Affair Infused Tragic Memories', '`` An entire city lifted earth fall back ashes . ``', 'Internal light plot ,', 'So , tender tragic beautiful healing haunting .', 'Persistence Memory']</t>
+          <t>['important message tarnished goofy film techniques', 'Cold Cellar', 'flesh air', 'Beautiful LowPaced Love Story', 'Love War', 'The Pull Connection', 'Strong value would strong arthouse convolutions', 'A Poem', 'history repeat', 'Existential romance', 'Resnais  majestic sleightofhand', 'ashes', 'one greatest works cinematic art', 'The beginnings inland empire', 'Cryptic French New Wave romance', 'Politics borderline documentary filmmaking top tragic romantic tale one French New Wave s earliest films ', 'A beautiful haunting film', 'Feels edgy  intelligent emotionfilled anything made today', 'Hard grasp first view', 'An extraordinary film horrors war', 'Haunting  Sometimes Exasperating Rumination Love Affair Infused Tragic Memories', ' An entire city lifted earth fall back ashes  ', 'Internal light plot ', 'So  tender tragic beautiful healing haunting ', 'Persistence Memory']</t>
         </is>
       </c>
     </row>
@@ -17201,7 +17201,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>['Creepy atmospheric .', 'Terrifying unforgettable', 'A Lot Explaining To Do', 'Slow psychological ghost story', 'Consummate Ghost Story Antiquity', 'The Innocents', 'Ambiguous Beautifully Crafted', 'house damned', 'Guilty waste time .', 'A Classic Horror With Atmosphere', "Child 's play", "Handsome , literate , well-acted ... 's missing scary hook", 'Kind pre-Exorcist , much', 'The influence `` innocents `` .....', "It 's 'The Sound Music ' hell ! !", 'The Screw Turns Film', 'One Particular Scene', 'Horror Real Imagined Remains Horrifying', 'Oh willow I die , oh willow I die ...', 'Atmospheric quite chilling effect stage ...', '`` Big Rooms Get Bigger At Night ! `` ...', '`` Gone lord grave prison . ``', 'Really good , slightly slow-building film', 'It wind , dear .', 'Unexpectedly chilling classic']</t>
+          <t>['Creepy atmospheric ', 'Terrifying unforgettable', 'A Lot Explaining To Do', 'Slow psychological ghost story', 'Consummate Ghost Story Antiquity', 'The Innocents', 'Ambiguous Beautifully Crafted', 'house damned', 'Guilty waste time ', 'A Classic Horror With Atmosphere', 'Child s play', 'Handsome  literate  wellacted  s missing scary hook', 'Kind preExorcist  much', 'The influence  innocents  ', 'It s The Sound Music  hell  ', 'The Screw Turns Film', 'One Particular Scene', 'Horror Real Imagined Remains Horrifying', 'Oh willow I die  oh willow I die ', 'Atmospheric quite chilling effect stage ', ' Big Rooms Get Bigger At Night   ', ' Gone lord grave prison  ', 'Really good  slightly slowbuilding film', 'It wind  dear ', 'Unexpectedly chilling classic']</t>
         </is>
       </c>
     </row>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>['perfect film find', 'Brilliant', 'That Unseen Power That Protects The Morning Post', 'Rosalind Russell great', 'lovely', 'Hold front page', 'Amusing pleasing second rendition based famous play Ben Hecht Charles MacArthur', 'Cary Grant Rosalind Russell great form journalistic comedy', 'Screwball Comedy ... Like Marx Brothers Without Silliness', 'A triumph Rosalind Russell ...', 'Another version `` The Front Page `` starring Grant Russell', "breathless magnificent comedy ; one Hawks 's best", 'The Front Page Turns Rosalind Russell', "Walter , 're wonderful , loathsome sort way .", 'Verbal Machineguns Action', 'Has moments mostly dull , even irritating', 'Overlapping', 'Extra Extra', 'Fast-Talking Funny', 'Just simply one best comedies ever made', 'As fast , furious screwball come ...', "`` You 've got old-fashioned idea divorce something lasts forever . ``", "There 's lamp burning window ya , honey ... .", 'Roz Russell Is Case', 'Loud , fast annoying .']</t>
+          <t>['perfect film find', 'Brilliant', 'That Unseen Power That Protects The Morning Post', 'Rosalind Russell great', 'lovely', 'Hold front page', 'Amusing pleasing second rendition based famous play Ben Hecht Charles MacArthur', 'Cary Grant Rosalind Russell great form journalistic comedy', 'Screwball Comedy  Like Marx Brothers Without Silliness', 'A triumph Rosalind Russell ', 'Another version  The Front Page  starring Grant Russell', 'breathless magnificent comedy  one Hawks s best', 'The Front Page Turns Rosalind Russell', 'Walter  re wonderful  loathsome sort way ', 'Verbal Machineguns Action', 'Has moments mostly dull  even irritating', 'Overlapping', 'Extra Extra', 'FastTalking Funny', 'Just simply one best comedies ever made', 'As fast  furious screwball come ', ' You ve got oldfashioned idea divorce something lasts forever  ', 'There s lamp burning window ya  honey  ', 'Roz Russell Is Case', 'Loud  fast annoying ']</t>
         </is>
       </c>
     </row>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>['A beautiful film accessible one Satoshi Kon', 'Japanese anime 3 dimensional characters', 'wish I could like', 'Tokyo Godfathers', 'Coincidence Christmas .', 'This great ! !', 'A Nutshell Review : ( DVD ) Tokyo Godfathers ( 2003 )', 'charming urban fairytale', 'My favorite anime .', 'A Funny , Poignant &amp; Melancholic Tale Of Family , Abandonment &amp; Homelessness', 'vivid backgrounds , bland story', 'Wow , new format', 'A Christmas carol homeless bums', 'Surprisingly affective drama', 'Serendipity Movie', 'Offbeat , Optimistic Modern Adventures Tokyo Slums', 'A perfect movie watch around Christmas time', 'Best Christmas Movie Recent Memory', 'A different approach average anime movie .', 'Sensitive beautiful', 'Truly Unique Christmas Movie', 'What Christmas movie SHOULD ! !', 'Unusual application anime', 'Human factor', 'The story homeless Tokyo .']</t>
+          <t>['A beautiful film accessible one Satoshi Kon', 'Japanese anime 3 dimensional characters', 'wish I could like', 'Tokyo Godfathers', 'Coincidence Christmas ', 'This great  ', 'A Nutshell Review   DVD  Tokyo Godfathers  2003 ', 'charming urban fairytale', 'My favorite anime ', 'A Funny  Poignant  Melancholic Tale Of Family  Abandonment  Homelessness', 'vivid backgrounds  bland story', 'Wow  new format', 'A Christmas carol homeless bums', 'Surprisingly affective drama', 'Serendipity Movie', 'Offbeat  Optimistic Modern Adventures Tokyo Slums', 'A perfect movie watch around Christmas time', 'Best Christmas Movie Recent Memory', 'A different approach average anime movie ', 'Sensitive beautiful', 'Truly Unique Christmas Movie', 'What Christmas movie SHOULD  ', 'Unusual application anime', 'Human factor', 'The story homeless Tokyo ']</t>
         </is>
       </c>
     </row>
@@ -17333,7 +17333,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>['exceptionally stupid film', 'My personal favourite Marx Brothers comedy', 'Enough To Make Anyone A Marxist', 'Classic Marx Brothers', 'Classic', 'Simply Best', 'A consistent delight', 'Fun hilariously amusing comedy Marx Brothers fight fictitious country Freedonia', 'Madcap mayhem Marx Brothers', 'Dialogue-Driven Marx Brothers Film', 'Dialog Highlights This Marx Bros. Gem', '`` What significance ? We four Jews trying get laugh ``', 'The Four Marx Brothers peak Duck Soup', 'The Marx Brothers Quack Up War', 'You know would go great film ?', "Words Ca n't Manage", 'The Marx Brothers Best Duck Soup Everyone', 'Hit miss', 'Mirrors', 'Firefly Freedonia', 'Next `` A Night Opera `` Marx Bros. best movie', 'Probably watchable Marx Bros. films ...', 'Laugh loud funny', "`` You 've got ta take tax take carpet . ``", 'An outstanding , lively farce']</t>
+          <t>['exceptionally stupid film', 'My personal favourite Marx Brothers comedy', 'Enough To Make Anyone A Marxist', 'Classic Marx Brothers', 'Classic', 'Simply Best', 'A consistent delight', 'Fun hilariously amusing comedy Marx Brothers fight fictitious country Freedonia', 'Madcap mayhem Marx Brothers', 'DialogueDriven Marx Brothers Film', 'Dialog Highlights This Marx Bros Gem', ' What significance  We four Jews trying get laugh ', 'The Four Marx Brothers peak Duck Soup', 'The Marx Brothers Quack Up War', 'You know would go great film ', 'Words Ca nt Manage', 'The Marx Brothers Best Duck Soup Everyone', 'Hit miss', 'Mirrors', 'Firefly Freedonia', 'Next  A Night Opera  Marx Bros best movie', 'Probably watchable Marx Bros films ', 'Laugh loud funny', ' You ve got ta take tax take carpet  ', 'An outstanding  lively farce']</t>
         </is>
       </c>
     </row>
@@ -17377,7 +17377,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>['Amazing Batman movie', 'like brilliant four-part episode series ; lots personal wounds revealed , Joker boot !', '`` There certain advantages sturdy cranium , Master Bruce . ``', 'This must see Batman fans', 'A superior comic book movie , fantastic even among cinema large', "Sits among best Bat 's big-screen adventures .", 'What hell I expecting ?', 'An OK animated `` Bat `` film yet nothing special .', 'Awesomeness !', 'An captivating movie Caped Crusader', 'Much better last three `` live action `` Batman flicks put together !', 'Better Than Most Of Its Live-Action Counterparts', 'Good', 'Still classic', 'Masked Phantasm Story Characters', 'The Good , The Bad The Indifferent .', 'Brilliant Batman', 'Great Batman movie', "Batman Mask Phantasm : Do n't see appeal", 'Batman done right', "Along Tim Burton 's Batman Returns best Batman movie date .", 'DC Animation strikes .', 'diverting', 'Very well-made movie', 'A solid first entry DCAU ( thing )']</t>
+          <t>['Amazing Batman movie', 'like brilliant fourpart episode series  lots personal wounds revealed  Joker boot ', ' There certain advantages sturdy cranium  Master Bruce  ', 'This must see Batman fans', 'A superior comic book movie  fantastic even among cinema large', 'Sits among best Bat s bigscreen adventures ', 'What hell I expecting ', 'An OK animated  Bat  film yet nothing special ', 'Awesomeness ', 'An captivating movie Caped Crusader', 'Much better last three  live action  Batman flicks put together ', 'Better Than Most Of Its LiveAction Counterparts', 'Good', 'Still classic', 'Masked Phantasm Story Characters', 'The Good  The Bad The Indifferent ', 'Brilliant Batman', 'Great Batman movie', 'Batman Mask Phantasm  Do nt see appeal', 'Batman done right', 'Along Tim Burton s Batman Returns best Batman movie date ', 'DC Animation strikes ', 'diverting', 'Very wellmade movie', 'A solid first entry DCAU  thing ']</t>
         </is>
       </c>
     </row>
@@ -17421,7 +17421,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>['Quite touching sad ....', 'The Lunchbox', 'Salt Life', 'Rarely Indian film without trademark dancing-and-singing routines', 'Wonderful !', 'Sweet touching times nothing memorable .', 'Romance done right', '`` sometimes wrong train get right station . ``', 'Not I expected', 'Sweet Little Chunk Of Life , There ! ♦ 79 %', 'Lunchbox Around Corner', 'Wonderful movie', 'Mixes food romance appealing combination', 'Meticulously Handled !', 'Gentle Analysis Love Loneliness Contemporary Mumbai', 'Irrfan Khan', 'BITTERSWEET TALE .', 'Sweet , simple , sad , funny human `` indie `` India', 'Thoughtful touching .', 'Slow drama nice ...', 'A delicious delight movie', 'Indian Take Away That May Leave Hungry For More', 'An expressive , well performed film , smartly made borrowed theme .', 'A delicious , classic urban romance food , humanity , relationships', 'A winning , unique story']</t>
+          <t>['Quite touching sad ', 'The Lunchbox', 'Salt Life', 'Rarely Indian film without trademark dancingandsinging routines', 'Wonderful ', 'Sweet touching times nothing memorable ', 'Romance done right', ' sometimes wrong train get right station  ', 'Not I expected', 'Sweet Little Chunk Of Life  There   79 ', 'Lunchbox Around Corner', 'Wonderful movie', 'Mixes food romance appealing combination', 'Meticulously Handled ', 'Gentle Analysis Love Loneliness Contemporary Mumbai', 'Irrfan Khan', 'BITTERSWEET TALE ', 'Sweet  simple  sad  funny human  indie  India', 'Thoughtful touching ', 'Slow drama nice ', 'A delicious delight movie', 'Indian Take Away That May Leave Hungry For More', 'An expressive  well performed film  smartly made borrowed theme ', 'A delicious  classic urban romance food  humanity  relationships', 'A winning  unique story']</t>
         </is>
       </c>
     </row>
@@ -17465,7 +17465,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>['One favourites', 'cup tea', 'Haunting Love Story', 'cinema', 'Great style ending , mostly singing detracted narrative characters', 'A bittersweet sad film operetta without spoken dialog well made Jacques Demy', 'Michel Legrand , RIP', "Demy 's Breakthrough", 'Nicely-decorated never involving', 'Some kind Lola 2 .', 'perfect , wonderful inspire joy depressed', 'Pretty', 'Just simply beautiful romantic film ever made', 'A common romantic story , beautifully told', 'Candy Colored Delight', 'A bright movie visually standard happy story .', 'Good , Marvelous', 'Touching', 'Let It Rain', 'Like eating bowl rainbow sherbet', 'A unique masterpiece music outgrowing dwarfing film', 'The Film Inspired La La Land', 'Stirs echo bottom music', 'The Vidiot Reviews ...', 'Beautiful , colourful musical']</t>
+          <t>['One favourites', 'cup tea', 'Haunting Love Story', 'cinema', 'Great style ending  mostly singing detracted narrative characters', 'A bittersweet sad film operetta without spoken dialog well made Jacques Demy', 'Michel Legrand  RIP', 'Demy s Breakthrough', 'Nicelydecorated never involving', 'Some kind Lola 2 ', 'perfect  wonderful inspire joy depressed', 'Pretty', 'Just simply beautiful romantic film ever made', 'A common romantic story  beautifully told', 'Candy Colored Delight', 'A bright movie visually standard happy story ', 'Good  Marvelous', 'Touching', 'Let It Rain', 'Like eating bowl rainbow sherbet', 'A unique masterpiece music outgrowing dwarfing film', 'The Film Inspired La La Land', 'Stirs echo bottom music', 'The Vidiot Reviews ', 'Beautiful  colourful musical']</t>
         </is>
       </c>
     </row>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>['Maybe , I love', 'Baby , Oh Where Can You Be ?', 'Silly quick talking rom-com', 'How Can You Go Wrong With This Cast ?', 'Classic screwball comedy', 'A delightful classic Screwball comedy lost none vintage punch .', 'Why movie box office flop ? !', "Most Disappointing Screwball Comedy I 've Ever Seen", "Another Overrated 'Screwball Comedy ' Dud", 'Breathless mayhem', "I ca n't give anything love - harmony , course", 'lot fun , maybe great newfound reputation', 'Howard Hawks shows Katharine Hepburn Have Baby Cary Grant', "`` When find YOU , 'll pad cell . ``", 'Far irritating funny', 'Strange Pelt', 'The paleontologist socialite', 'Hysterical', 'Classic screwball comedy cup tea ...', 'Screwball classic', "`` Constable , 's making motion pictures 's seen ! ``", 'Grant Hepburn magnificent play brilliant .', 'Pure Craziness Start Finish', 'Silly fun course .', 'Baby Is The Star .']</t>
+          <t>['Maybe  I love', 'Baby  Oh Where Can You Be ', 'Silly quick talking romcom', 'How Can You Go Wrong With This Cast ', 'Classic screwball comedy', 'A delightful classic Screwball comedy lost none vintage punch ', 'Why movie box office flop  ', 'Most Disappointing Screwball Comedy I ve Ever Seen', 'Another Overrated Screwball Comedy  Dud', 'Breathless mayhem', 'I ca nt give anything love  harmony  course', 'lot fun  maybe great newfound reputation', 'Howard Hawks shows Katharine Hepburn Have Baby Cary Grant', ' When find YOU  ll pad cell  ', 'Far irritating funny', 'Strange Pelt', 'The paleontologist socialite', 'Hysterical', 'Classic screwball comedy cup tea ', 'Screwball classic', ' Constable  s making motion pictures s seen  ', 'Grant Hepburn magnificent play brilliant ', 'Pure Craziness Start Finish', 'Silly fun course ', 'Baby Is The Star ']</t>
         </is>
       </c>
     </row>
@@ -17553,7 +17553,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>['surreal yes , interesting funny', 'Good Bunuel', "I 'm Hungry !", 'The Empty , Hypocrite Pointless Existence Bourgeoisie Class', 'Dinner served successful film Spanish master surrealism , great Buñuel .', 'un chien discreet charm', 'An Odd Film , But Maybe Not Odd Enough', 'Water soup -- restless dreams -- cultivated classes ...', "Bunuel 's towering achievement .", 'Surprising , rather cool surrealistic satire Bunuel', 'You scream loud . You know .', 'A Salvador Dali Painting Come Life', 'The Discreet Charm Bourgeoisie', 'Artistic satire', 'Six Characters In Search A Dinner', 'Cinema Omnivore - The Discreet Charm Bourgeoisie ( 1972 ) 8.3/10', 'ironic portrait', 'Strange mild piece surrealism .', 'Mesmerizing torture', 'Bunuel Strikes Again', 'discreet charm boogees', "One Bunuel 's accessible movies , bit slight taste .", 'Too much like Monty Phyton production', 'The Discreet Charm Bourgeoisie', 'master satirist , showing mercy']</t>
+          <t>['surreal yes  interesting funny', 'Good Bunuel', 'I m Hungry ', 'The Empty  Hypocrite Pointless Existence Bourgeoisie Class', 'Dinner served successful film Spanish master surrealism  great Buuel ', 'un chien discreet charm', 'An Odd Film  But Maybe Not Odd Enough', 'Water soup  restless dreams  cultivated classes ', 'Bunuel s towering achievement ', 'Surprising  rather cool surrealistic satire Bunuel', 'You scream loud  You know ', 'A Salvador Dali Painting Come Life', 'The Discreet Charm Bourgeoisie', 'Artistic satire', 'Six Characters In Search A Dinner', 'Cinema Omnivore  The Discreet Charm Bourgeoisie  1972  8310', 'ironic portrait', 'Strange mild piece surrealism ', 'Mesmerizing torture', 'Bunuel Strikes Again', 'discreet charm boogees', 'One Bunuel s accessible movies  bit slight taste ', 'Too much like Monty Phyton production', 'The Discreet Charm Bourgeoisie', 'master satirist  showing mercy']</t>
         </is>
       </c>
     </row>
@@ -17597,7 +17597,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>['France : How Existentialism Feminism', 'From ignorance enlightenment .', 'A natural reaction self reflection oneself upon wating results doctor', 'Antoine Et Cleopatre', 'Thoughtful enjoyable', 'Spending Time Cleo', 'The bright side life .', 'As enjoyable influential', 'Cleo de 5 à 7 fine piece work poetic existentialism ! ! !', 'Beautiful profound', 'Left Bank The French New Wave', 'All engaging original , adorable ...', 'Going around Paris beauty cloud death', "Nouvelle Vague Vague à l'Ame ...", 'A Polarising Spectacle ...', 'Foreseen Cards , Reflected Glass', 'Appearances ; desire', 'A CLASSIC AT ANY TIME ... !', 'The breakthrough versatile old age productive Agnes Varda', "Girl 's night movie", 'French New Wave feminist perspective', 'Bland 90 Minutes With A Blank Young Woman', 'Interesting .', 'Character study', 'A thousand stars']</t>
+          <t>['France  How Existentialism Feminism', 'From ignorance enlightenment ', 'A natural reaction self reflection oneself upon wating results doctor', 'Antoine Et Cleopatre', 'Thoughtful enjoyable', 'Spending Time Cleo', 'The bright side life ', 'As enjoyable influential', 'Cleo de 5  7 fine piece work poetic existentialism   ', 'Beautiful profound', 'Left Bank The French New Wave', 'All engaging original  adorable ', 'Going around Paris beauty cloud death', 'Nouvelle Vague Vague  lAme ', 'A Polarising Spectacle ', 'Foreseen Cards  Reflected Glass', 'Appearances  desire', 'A CLASSIC AT ANY TIME  ', 'The breakthrough versatile old age productive Agnes Varda', 'Girl s night movie', 'French New Wave feminist perspective', 'Bland 90 Minutes With A Blank Young Woman', 'Interesting ', 'Character study', 'A thousand stars']</t>
         </is>
       </c>
     </row>
@@ -17641,7 +17641,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>['Well-crafted', 'Brilliant !', 'Unknown Benefactor', 'Nicely Done Missing Some Key Moments', 'unique', 'Magnificent translation classic Dickens book splendid direction David Lean', 'Obi-Wan meets Varinia', 'An Early Triumph For David Lean', 'Another Famous Dickens Book Comes To Life', 'Scattered , lovely scenes ...', 'A great adaptation', 'Good adaptation classic Dickens novel', 'Beautifully done', 'Great version Dickens novel ... beautiful B &amp; W photography ...', 'Expect good movie', 'The best version Great Expectations', 'Dickens Sense Humor', 'A Charles Dickens novel brought life David Lean .', 'Great movie great book great author', '`` What wind blows , Pip ? ``', 'Great Expectations', 'A Film Special Place Affections', 'Top Of The Pips', 'Great movie whose first 40 minutes eclipses rest', "Had Great Expectations David Lean unfortunately 's Great Disappointment ."]</t>
+          <t>['Wellcrafted', 'Brilliant ', 'Unknown Benefactor', 'Nicely Done Missing Some Key Moments', 'unique', 'Magnificent translation classic Dickens book splendid direction David Lean', 'ObiWan meets Varinia', 'An Early Triumph For David Lean', 'Another Famous Dickens Book Comes To Life', 'Scattered  lovely scenes ', 'A great adaptation', 'Good adaptation classic Dickens novel', 'Beautifully done', 'Great version Dickens novel  beautiful B  W photography ', 'Expect good movie', 'The best version Great Expectations', 'Dickens Sense Humor', 'A Charles Dickens novel brought life David Lean ', 'Great movie great book great author', ' What wind blows  Pip  ', 'Great Expectations', 'A Film Special Place Affections', 'Top Of The Pips', 'Great movie whose first 40 minutes eclipses rest', 'Had Great Expectations David Lean unfortunately s Great Disappointment ']</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>['Compliments show brilliantly', 'fans', 'relative newcomer , hit spot well', 'Loved', 'Good see everybody', 'The Vidiot Reviews ...', "Let 's jam", 'Great anime film', 'I expected .', 'One My Favorite Animes Big Screen', 'Great Movie .', 'Very Good Anime Sci-Fi Film', 'Japanese western', 'More fanfic lore , still good', 'Really worth watching .', 'Impressive sci-fi thriller', 'Essentially 27th episode ....', 'Interesting , long', 'The Gangs back together', 'A fun romp old friends .', 'Pretty good , though memorable bulletproof 1st ( ) season .', 'Other annoying English voice actress plays Edward , movie pure gold', 'A Great Reconnection !', 'Proof practically ANY episode cowboy bebop could turned feature length film', 'A complex dramatic film humanizes anime genre delivers thrills .']</t>
+          <t>['Compliments show brilliantly', 'fans', 'relative newcomer  hit spot well', 'Loved', 'Good see everybody', 'The Vidiot Reviews ', 'Let s jam', 'Great anime film', 'I expected ', 'One My Favorite Animes Big Screen', 'Great Movie ', 'Very Good Anime SciFi Film', 'Japanese western', 'More fanfic lore  still good', 'Really worth watching ', 'Impressive scifi thriller', 'Essentially 27th episode ', 'Interesting  long', 'The Gangs back together', 'A fun romp old friends ', 'Pretty good  though memorable bulletproof 1st   season ', 'Other annoying English voice actress plays Edward  movie pure gold', 'A Great Reconnection ', 'Proof practically ANY episode cowboy bebop could turned feature length film', 'A complex dramatic film humanizes anime genre delivers thrills ']</t>
         </is>
       </c>
     </row>
@@ -17729,7 +17729,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>["One Woody Allen 's ambitious films , also one classics", 'Mixed bag Woodman', 'Martin Laudau amazing', 'Incredibly Unpredictable Script/Great Filmmaking', 'A flawed film one interesting ambitious delivers look meaning morals ethics', "'s ...", 'Woody Allen Is .', 'Slyly written , handsomely made serio-comic Woody Allen ...', "Allen 's best", 'film brilliant scope moral implications everyday life , large small scale', 'Missed Demeanor', 'Strange mixture comedy drama works beautifully ...', 'Great dramatic Woody Allen movie', "The Guilty Are n't Always Punished", "Woody 's best &amp; ways - comedy &amp; tragedy", "Brilliant ! One Woody 's Best Work Date !", 'Masterpiece', 'A look worst kind blindness : one refuses look', "Woody Allen 's above-par film", "The darkest Woody 's comedy-dramas", "What 's Misdemeanor ?", "'Crimes Misdemeanors ' Woody Allen best !", "`` If bends 's funny , breaks isnt `` .", 'A hard slice life superbly fit film grand proportions', 'The reason reasons heart ignores ...']</t>
+          <t>['One Woody Allen s ambitious films  also one classics', 'Mixed bag Woodman', 'Martin Laudau amazing', 'Incredibly Unpredictable ScriptGreat Filmmaking', 'A flawed film one interesting ambitious delivers look meaning morals ethics', 's ', 'Woody Allen Is ', 'Slyly written  handsomely made seriocomic Woody Allen ', 'Allen s best', 'film brilliant scope moral implications everyday life  large small scale', 'Missed Demeanor', 'Strange mixture comedy drama works beautifully ', 'Great dramatic Woody Allen movie', 'The Guilty Are nt Always Punished', 'Woody s best  ways  comedy  tragedy', 'Brilliant  One Woody s Best Work Date ', 'Masterpiece', 'A look worst kind blindness  one refuses look', 'Woody Allen s abovepar film', 'The darkest Woody s comedydramas', 'What s Misdemeanor ', 'Crimes Misdemeanors  Woody Allen best ', ' If bends s funny  breaks isnt  ', 'A hard slice life superbly fit film grand proportions', 'The reason reasons heart ignores ']</t>
         </is>
       </c>
     </row>
@@ -17773,7 +17773,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>['Wow ... Shah Rukh Khan AND Amitab Bachchan movie ! And Anupam Kher appears ! ! Wow ...', 'Veer - Zaara true love legend !', 'Just Another Love Story', 'A unique romantic saga king romantic film `` Yash Chopra ``', 'A flawed classic', 'A visual artistic treat humanity , respect power love time circumstances', 'Long watchable epic romance , excellent songs', 'A beautiful epic love story Yash Chopra !', 'Makes length lacking breadth .', 'True Love Triumphs All , Even Time !', 'Best Movie Ever Made .', "That 's Folks , Our Era Past : SRK , Preity Zinta Dubious Romantic Flicks", 'Must Watch', 'Well-Written Well-Acted Romantic Drama', 'Legendary , mystical , pure romance wish true story', "A monumental work Yash Chopra , Bollywood 's monumental director", 'Another Sweeping Tale Romance From India', 'Fantastic Storyline', 'Cross-border love', 'Veer deserves get Zaara ..... cos made ! ! ! !', 'Love air around world .', 'love unleashed ..', "Epic Love 's peak .", 'A beautiful love epic', "SHAH RUKH KHAN 'S BEST MOVIE TILL DATE"]</t>
+          <t>['Wow  Shah Rukh Khan AND Amitab Bachchan movie  And Anupam Kher appears   Wow ', 'Veer  Zaara true love legend ', 'Just Another Love Story', 'A unique romantic saga king romantic film  Yash Chopra ', 'A flawed classic', 'A visual artistic treat humanity  respect power love time circumstances', 'Long watchable epic romance  excellent songs', 'A beautiful epic love story Yash Chopra ', 'Makes length lacking breadth ', 'True Love Triumphs All  Even Time ', 'Best Movie Ever Made ', 'That s Folks  Our Era Past  SRK  Preity Zinta Dubious Romantic Flicks', 'Must Watch', 'WellWritten WellActed Romantic Drama', 'Legendary  mystical  pure romance wish true story', 'A monumental work Yash Chopra  Bollywood s monumental director', 'Another Sweeping Tale Romance From India', 'Fantastic Storyline', 'Crossborder love', 'Veer deserves get Zaara  cos made    ', 'Love air around world ', 'love unleashed ', 'Epic Love s peak ', 'A beautiful love epic', 'SHAH RUKH KHAN S BEST MOVIE TILL DATE']</t>
         </is>
       </c>
     </row>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>['Little aimless long drive dark', "My second Ceylan 's film Three Monkeys", 'Melancholy melodrama', 'world slow motion', 'One Of The Best Films Of The Decade', 'requires patience definitely worth effort', 'On-the-nose subtlety', 'Once Upon Time Anatolia', 'An Effective Police Procedural !', 'Turkish csi', 'Brilliant Film Anatolia , Significance , Fate Death', 'PATIENT .', 'Beautiful way long', 'Once Upon Time slow movie .', 'Once Upon A Time In Flatland', 'Extremely tedious , wildly gripping ( Turkish A+ Movie ) My Ratings 10/10', "You ca n't make sense .", 'Gorgeous poetic film suspense around every corner warmth network characters .', 'Unique Interesting', 'boring , amateur', 'A Well-made Beautiful Movie .', 'Movie N° 3000 .', 'Death somewhere outside paradise', 'Excellent ! ...', 'The Aesthetics Boredom']</t>
+          <t>['Little aimless long drive dark', 'My second Ceylan s film Three Monkeys', 'Melancholy melodrama', 'world slow motion', 'One Of The Best Films Of The Decade', 'requires patience definitely worth effort', 'Onthenose subtlety', 'Once Upon Time Anatolia', 'An Effective Police Procedural ', 'Turkish csi', 'Brilliant Film Anatolia  Significance  Fate Death', 'PATIENT ', 'Beautiful way long', 'Once Upon Time slow movie ', 'Once Upon A Time In Flatland', 'Extremely tedious  wildly gripping  Turkish A Movie  My Ratings 1010', 'You ca nt make sense ', 'Gorgeous poetic film suspense around every corner warmth network characters ', 'Unique Interesting', 'boring  amateur', 'A Wellmade Beautiful Movie ', 'Movie N 3000 ', 'Death somewhere outside paradise', 'Excellent  ', 'The Aesthetics Boredom']</t>
         </is>
       </c>
     </row>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>['This film great example I often love French , Japanese Danish films ...', 'Love kids', 'slow-burn heart-warmer transmutes dramatic ethical selling point illuminating lesson better oneself father', 'Poignant humane', "Well worth , 's emotionally charged conclusion !", 'Great Movie', 'What makes good father ?', 'Entertaining , thought-provoking , beautifully realized', 'A career man learns thing two father', 'Speaks All Fathers', 'Family Ties', 'Impressive original script aided round credible performances', 'Deeply human .', 'importance achieving real connections', 'masterpiece cinema Koreeda', 'Amazing', 'Hirokazu Koreeda', 'Review - Soshite chichi ni naru', 'Film Review : Like Father , Like Son/ www.nightfilmreviews.com', 'Emotionally Well Done', 'Why lot good japanese movies underrated .', 'A great solid movie delicate subject . One 2013 best', "The kind cinema I ca n't get enough !", 'Oh God !', 'I love movie cause kids']</t>
+          <t>['This film great example I often love French  Japanese Danish films ', 'Love kids', 'slowburn heartwarmer transmutes dramatic ethical selling point illuminating lesson better oneself father', 'Poignant humane', 'Well worth  s emotionally charged conclusion ', 'Great Movie', 'What makes good father ', 'Entertaining  thoughtprovoking  beautifully realized', 'A career man learns thing two father', 'Speaks All Fathers', 'Family Ties', 'Impressive original script aided round credible performances', 'Deeply human ', 'importance achieving real connections', 'masterpiece cinema Koreeda', 'Amazing', 'Hirokazu Koreeda', 'Review  Soshite chichi ni naru', 'Film Review  Like Father  Like Son wwwnightfilmreviewscom', 'Emotionally Well Done', 'Why lot good japanese movies underrated ', 'A great solid movie delicate subject  One 2013 best', 'The kind cinema I ca nt get enough ', 'Oh God ', 'I love movie cause kids']</t>
         </is>
       </c>
     </row>
@@ -17905,7 +17905,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>['grows', 'Two Priceless Characters', 'Massimo Troisi', 'Charming attractive film full feeling sensitivity', 'Burning Patience', 'An unlikely friendship Italian island', 'A Bromance', 'Mesmerizing film friendship , poetry , love .', 'Charming little film learning something us', 'Wonderfully warm charming', 'Metaphors', 'A movie poetry works', 'First Class Males', 'Lovely Little Film About Power Words', 'Art Love', 'United Friendship', 'Massimo Troisi', 'Poetica Paradisio ...', 'A beautiful Italian production .', 'The Gift Of Metaphors', 'A Very Special Delivery .', 'Il Postino', "True love ( Pablo Neruda 's poetry ) conquers", 'Engrossing character study two men connections two separate women , well poetry forms core friendship .', 'Beautiful masterpiece']</t>
+          <t>['grows', 'Two Priceless Characters', 'Massimo Troisi', 'Charming attractive film full feeling sensitivity', 'Burning Patience', 'An unlikely friendship Italian island', 'A Bromance', 'Mesmerizing film friendship  poetry  love ', 'Charming little film learning something us', 'Wonderfully warm charming', 'Metaphors', 'A movie poetry works', 'First Class Males', 'Lovely Little Film About Power Words', 'Art Love', 'United Friendship', 'Massimo Troisi', 'Poetica Paradisio ', 'A beautiful Italian production ', 'The Gift Of Metaphors', 'A Very Special Delivery ', 'Il Postino', 'True love  Pablo Neruda s poetry  conquers', 'Engrossing character study two men connections two separate women  well poetry forms core friendship ', 'Beautiful masterpiece']</t>
         </is>
       </c>
     </row>
@@ -17949,7 +17949,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>['Another overrated art-house film', 'My Life Live', 'Totally Engrossed', 'Jean-Luc Godard , RIP', "It 's My Life", 'Godard great piece Parisian character-fiction', 'Vivre Sa Vie : Film En Douze Tableaux ( Jean-Luc Godard , 1962 ) * * *', 'A terrific , well-made classic , especial highlights', 'True CINEMA !', 'Interesting new wave film , bit bleak', 'The cold lens Godard', 'Godard - father inventions', 'Live Your Life ( Easier Said Done ) ...', 'vivre sa vie', 'Film School Students Will Salivate', 'More drivel New Wave Frenchies', 'Jean Luc Love', 'Godard classic', 'My favorite Godard far', 'Quintessential Godard , means ruminations life truth sometimes lengthy', 'A joyous celebration cinema', '6/10 . Watchable recommended', 'Man film empathetic', "`` Should n't love truth ? ``", 'Her life , new-wave aesthetics']</t>
+          <t>['Another overrated arthouse film', 'My Life Live', 'Totally Engrossed', 'JeanLuc Godard  RIP', 'It s My Life', 'Godard great piece Parisian characterfiction', 'Vivre Sa Vie  Film En Douze Tableaux  JeanLuc Godard  1962    ', 'A terrific  wellmade classic  especial highlights', 'True CINEMA ', 'Interesting new wave film  bit bleak', 'The cold lens Godard', 'Godard  father inventions', 'Live Your Life  Easier Said Done  ', 'vivre sa vie', 'Film School Students Will Salivate', 'More drivel New Wave Frenchies', 'Jean Luc Love', 'Godard classic', 'My favorite Godard far', 'Quintessential Godard  means ruminations life truth sometimes lengthy', 'A joyous celebration cinema', '610  Watchable recommended', 'Man film empathetic', ' Should nt love truth  ', 'Her life  newwave aesthetics']</t>
         </is>
       </c>
     </row>
@@ -17993,7 +17993,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>['visually appealing rather empty', "Satoshi Kon 's second best film", 'great animation uninvolving story telling', "Satoshi Kon 's tragic-comic surrealist love letter Japanese cinema", 'Outland Empire', 'Excellent blending reality illusion', "Interesting concept , I n't think worked", 'Movies memories intertwined .', 'A love fueled chase memory lane', 'Cinema Omnivore - Millennium Actress ( 2001 ) 7.9/10', 'A Nutshell Review : Millennium Actress ( DVD )', 'Brilliantly structured', 'animated story love cinema', 'Another Trippy Ride From Satoshi Kon , This Time Blurring The Lines Between Reality &amp; Cinema', 'Fantastic journey time space', 'Another good film Satoshi Kon', 'A Life Pictures', 'A complex beautiful film', 'Beautiful story life tales dreams', "Thematically Similar Kon 's Best , But Lesser Most Ways", 'Masterful storytelling', 'An actress dream .', 'Vivid And Compelling', 'interesting confusing', 'Less dangling threads captivate audiences fewer cornerstone visual showpieces linger memories']</t>
+          <t>['visually appealing rather empty', 'Satoshi Kon s second best film', 'great animation uninvolving story telling', 'Satoshi Kon s tragiccomic surrealist love letter Japanese cinema', 'Outland Empire', 'Excellent blending reality illusion', 'Interesting concept  I nt think worked', 'Movies memories intertwined ', 'A love fueled chase memory lane', 'Cinema Omnivore  Millennium Actress  2001  7910', 'A Nutshell Review  Millennium Actress  DVD ', 'Brilliantly structured', 'animated story love cinema', 'Another Trippy Ride From Satoshi Kon  This Time Blurring The Lines Between Reality  Cinema', 'Fantastic journey time space', 'Another good film Satoshi Kon', 'A Life Pictures', 'A complex beautiful film', 'Beautiful story life tales dreams', 'Thematically Similar Kon s Best  But Lesser Most Ways', 'Masterful storytelling', 'An actress dream ', 'Vivid And Compelling', 'interesting confusing', 'Less dangling threads captivate audiences fewer cornerstone visual showpieces linger memories']</t>
         </is>
       </c>
     </row>
@@ -18037,7 +18037,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>["Knockin ' On Heaven 's Door - 7/10", 'Knockout !', 'Oh , die , music ! A days life terminally ill', 'Oh , die , music ! A days life terminally ill', 'It trap ! Overrated Amateur Film !', 'One best German films nineties', 'Amazing one , miss', 'number 120 movie', 'So cool', 'Excellent , excellent movie', 'German iconic drama', 'We overestimate ...', 'Isch weiß , diese Film gut Mann ! !', 'simple-minded annoyingly adolescent', "GREAT FILM , 've got either learn German , wait dubbed version .", 'GREAT MOVIE', 'Not released USA ? What pity !', 'knock knock', 'It wonderful movie life context time', 'Both entertaining thoughtful', 'Love literally', "chef-d'\x9cuvre life", 'Low-level chick-flick', 'Wholesome movie', 'Hm ..... What film Tarantino ... ?']</t>
+          <t>['Knockin  On Heaven s Door  710', 'Knockout ', 'Oh  die  music  A days life terminally ill', 'Oh  die  music  A days life terminally ill', 'It trap  Overrated Amateur Film ', 'One best German films nineties', 'Amazing one  miss', 'number 120 movie', 'So cool', 'Excellent  excellent movie', 'German iconic drama', 'We overestimate ', 'Isch wei  diese Film gut Mann  ', 'simpleminded annoyingly adolescent', 'GREAT FILM  ve got either learn German  wait dubbed version ', 'GREAT MOVIE', 'Not released USA  What pity ', 'knock knock', 'It wonderful movie life context time', 'Both entertaining thoughtful', 'Love literally', 'chefduvre life', 'Lowlevel chickflick', 'Wholesome movie', 'Hm  What film Tarantino  ']</t>
         </is>
       </c>
     </row>
@@ -18081,7 +18081,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>["`` There 's one left love us .... ``", 'Bold , colourful , charming heartfelt', 'touching characters', '`` Even ... ``', 'An emotionally mature charming little story beautifully told stop-motion form .', 'A story caring sentiment without sentimental .', 'Adorable !', 'As Visually Arresting As It Is Emotionally Resonant', 'Incredibly heartfelt', 'Excellent heartbreaking story', 'Delightful Swiss stop-motion animated movie almost ruined dubbed English', 'Seeking second chance normal life .', 'Honest , To Uncomfortable Degree', 'My Life As A Courgette delicate mature drama disguised child-friendly animation .', "Feels like seeing world child 's eyes", 'Monstruous design', 'Very good !', "Animation Does n't Hide Behind Label `` Kid 's Movie ``", 'Very good', 'One word lovely', 'Wacky Claymation', 'Tender , funny affecting insight world fostering children', 'A touching movie orphan .', 'Sweet , empty', 'Beautiful Animated Story']</t>
+          <t>[' There s one left love us  ', 'Bold  colourful  charming heartfelt', 'touching characters', ' Even  ', 'An emotionally mature charming little story beautifully told stopmotion form ', 'A story caring sentiment without sentimental ', 'Adorable ', 'As Visually Arresting As It Is Emotionally Resonant', 'Incredibly heartfelt', 'Excellent heartbreaking story', 'Delightful Swiss stopmotion animated movie almost ruined dubbed English', 'Seeking second chance normal life ', 'Honest  To Uncomfortable Degree', 'My Life As A Courgette delicate mature drama disguised childfriendly animation ', 'Feels like seeing world child s eyes', 'Monstruous design', 'Very good ', 'Animation Does nt Hide Behind Label  Kid s Movie ', 'Very good', 'One word lovely', 'Wacky Claymation', 'Tender  funny affecting insight world fostering children', 'A touching movie orphan ', 'Sweet  empty', 'Beautiful Animated Story']</t>
         </is>
       </c>
     </row>
@@ -18125,7 +18125,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>['awfully good much singing', 'Hilarious !', 'View first timer', '`` Let Joy Be Unconfined ``', 'Comedy classic , Leave hope behind', 'Marx Brothers Music : A Good Combination', 'Great comedy typically thin plot', 'Relentlessly hilarious outrageous musical comedy still works well', 'unfortunately', "Of What I 've Seen , My Favorite 1930s Comedy", 'I Appreciate This One Now !', 'Chaos ...', 'The best Marx Brothers film , best comedy , best everything', 'one timeless crowd-pleasing comedies ; Marx brothers hit many levels', "The Marx Brothers ' A Night Opera triumphant first M-G-M feature", 'Wonderful Night At Opera * * * 1/2', "The Most Fun You 'll Ever Have Opera", '... And two hard-boiled eggs .', 'Verdi Will Never Be The Same', 'The Marx Brothers Sign MGM But Remove Sanity Clause', "Brilliant , n't aged bit", 'The Party First Part Ends', 'Along `` Duck Soup `` Marx Brothers best movie', 'Fun Marx Bros. film lots music ...', "There Ai n't No Sanity Claus"]</t>
+          <t>['awfully good much singing', 'Hilarious ', 'View first timer', ' Let Joy Be Unconfined ', 'Comedy classic  Leave hope behind', 'Marx Brothers Music  A Good Combination', 'Great comedy typically thin plot', 'Relentlessly hilarious outrageous musical comedy still works well', 'unfortunately', 'Of What I ve Seen  My Favorite 1930s Comedy', 'I Appreciate This One Now ', 'Chaos ', 'The best Marx Brothers film  best comedy  best everything', 'one timeless crowdpleasing comedies  Marx brothers hit many levels', 'The Marx Brothers  A Night Opera triumphant first MGM feature', 'Wonderful Night At Opera    12', 'The Most Fun You ll Ever Have Opera', ' And two hardboiled eggs ', 'Verdi Will Never Be The Same', 'The Marx Brothers Sign MGM But Remove Sanity Clause', 'Brilliant  nt aged bit', 'The Party First Part Ends', 'Along  Duck Soup  Marx Brothers best movie', 'Fun Marx Bros film lots music ', 'There Ai nt No Sanity Claus']</t>
         </is>
       </c>
     </row>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>['A charming comedy', 'A Nutshell Review : English Vinglish', 'Adventures English language', 'Lighthearted movie serious message', "A worth watching flick housewife 's self-pride neither offends people fond using English forgets feel proud Indian language .", 'Wonderful', 'Shows mom earns respect always !', 'A Simple , Funny , Engaging Touching Experience', 'A delightful film must appreciated simplicity delivering important message .', 'English Vinglish - Hindi ( U ) -- -- Rating : 5/5 MEGA HIT ..', 'Very nice story', 'MADE ME HAPPY I LOVE SRIDEVI', 'Little overdone delicious nevertheless', 'Excellent Feel Good Movie - One best !', 'Best portray sensitive subject .', 'Possitive messages .', "It 'll listed best-bollywood-inspirational movies mentioned .", 'Family entertainer', 'Rest peace , Siridevi .', 'Worderful emotional art work', 'Close Perfect', 'English Vinglish - Sridevi Sweeps', 'Sreedevi ideal Indian wife', 'A masterclass Sridevi Gauri shinde', 'Sridevi ultimate hero ! ! !']</t>
+          <t>['A charming comedy', 'A Nutshell Review  English Vinglish', 'Adventures English language', 'Lighthearted movie serious message', 'A worth watching flick housewife s selfpride neither offends people fond using English forgets feel proud Indian language ', 'Wonderful', 'Shows mom earns respect always ', 'A Simple  Funny  Engaging Touching Experience', 'A delightful film must appreciated simplicity delivering important message ', 'English Vinglish  Hindi  U    Rating  55 MEGA HIT ', 'Very nice story', 'MADE ME HAPPY I LOVE SRIDEVI', 'Little overdone delicious nevertheless', 'Excellent Feel Good Movie  One best ', 'Best portray sensitive subject ', 'Possitive messages ', 'It ll listed bestbollywoodinspirational movies mentioned ', 'Family entertainer', 'Rest peace  Siridevi ', 'Worderful emotional art work', 'Close Perfect', 'English Vinglish  Sridevi Sweeps', 'Sreedevi ideal Indian wife', 'A masterclass Sridevi Gauri shinde', 'Sridevi ultimate hero   ']</t>
         </is>
       </c>
     </row>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>['A Well-Made , Well-Acted Film !', 'The Social Messages Hit Hard !', 'Predictable', "It 's really like China .", 'Hindi Medium', 'A charming film despite shortcomings', '`` Hindi Medium `` electrifying boast enough humor laugh keep entertained', "Did n't reach full potential", 'Above Average !', 'A Film watched every Parent', "Irrfan 's Saba 's Magic You Will Never Forget ! ! !", 'Not missed', 'Irrfan Khan way !', 'Awesome', 'Superb film', 'Beyond Super .. superb Oscar worthy ! ! !', 'Great movie Education System .', 'Average movie', 'The unstoppable Irrfan Khan', 'A Poignant Tale', 'Great performances', 'Food Thought', 'A brilliantly written story everyone understands one realises . Shown perfect way throws correct impact', 'One kind', 'Not bad']</t>
+          <t>['A WellMade  WellActed Film ', 'The Social Messages Hit Hard ', 'Predictable', 'It s really like China ', 'Hindi Medium', 'A charming film despite shortcomings', ' Hindi Medium  electrifying boast enough humor laugh keep entertained', 'Did nt reach full potential', 'Above Average ', 'A Film watched every Parent', 'Irrfan s Saba s Magic You Will Never Forget   ', 'Not missed', 'Irrfan Khan way ', 'Awesome', 'Superb film', 'Beyond Super  superb Oscar worthy   ', 'Great movie Education System ', 'Average movie', 'The unstoppable Irrfan Khan', 'A Poignant Tale', 'Great performances', 'Food Thought', 'A brilliantly written story everyone understands one realises  Shown perfect way throws correct impact', 'One kind', 'Not bad']</t>
         </is>
       </c>
     </row>
@@ -18257,7 +18257,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>['A unconventional thoroughly enjoyable Indian film .', 'A Light-Hearted Film Superb Performances !', 'Vicky Donor : Better I expected', 'Its fine comedy one best romantic movies Bollywood loving message .', 'Revival old glory days', "If blood donors save life , ca n't sperm donors give new lease life ! ! !", 'An easily entertaining film demand much us leaves us something think .', 'refreshing romantic comedy social problem .... bit glib', 'Vicky Donor ( U/A ) -- -- -- -- -- -- -- -- -- -- Rating : 5/5', "Did n't know I 'd impressed", "It 's 'fertile ' comedy !", 'MY REVIEW : Come box ! !', 'One best movie last 50 years', 'Perfect Entertainer .... Light Comedy Heavy Topic', 'Exceptional', 'Good Music , Good Acting , Not Hollywood Inspiration yet Indian Movie ? Kudos', 'This Donor generous laughs heart ...', 'Vicky Donor : Clinging Reality', 'A socially conscious film', 'Unique ! ! ! Unique ! ! ! ! Unique ! ! ! ! !', 'A highly appreciated donation ...', 'STAND BACK ROMANCE AND COMEDIES . We combined sperm donor flick .', 'Why 8 9 10 ? ? ? ? ! ! ! ! !', 'Different usual , interesting', 'A rip present Original']</t>
+          <t>['A unconventional thoroughly enjoyable Indian film ', 'A LightHearted Film Superb Performances ', 'Vicky Donor  Better I expected', 'Its fine comedy one best romantic movies Bollywood loving message ', 'Revival old glory days', 'If blood donors save life  ca nt sperm donors give new lease life   ', 'An easily entertaining film demand much us leaves us something think ', 'refreshing romantic comedy social problem  bit glib', 'Vicky Donor  UA            Rating  55', 'Did nt know I d impressed', 'It s fertile  comedy ', 'MY REVIEW  Come box  ', 'One best movie last 50 years', 'Perfect Entertainer  Light Comedy Heavy Topic', 'Exceptional', 'Good Music  Good Acting  Not Hollywood Inspiration yet Indian Movie  Kudos', 'This Donor generous laughs heart ', 'Vicky Donor  Clinging Reality', 'A socially conscious film', 'Unique    Unique     Unique     ', 'A highly appreciated donation ', 'STAND BACK ROMANCE AND COMEDIES  We combined sperm donor flick ', 'Why 8 9 10         ', 'Different usual  interesting', 'A rip present Original']</t>
         </is>
       </c>
     </row>
@@ -18301,7 +18301,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>['gang little sad', 'Guardians Galaxy Vol 3', '( K ) ( G ) roots', 'The Story Rocket', 'Quite ride ...', 'More . A LOT !', 'Very entertaining inter-galaxy adventure .', "This n't best Marvel movie entertaining one", 'Harsh', 'Guardians Galaxy Vol . 3', "My beloved raccoon . The story along . You n't know .", 'Occasional brilliancy , overall weak', 'Many agnostics questioned existence . . .', 'A great trilogy solidified', 'Too long .', 'The World Dr. Moreau', 'One satisfying IMAX experiences ever !', 'Weakest trilogy still quite entertaining', 'Oh , please ... ! !', "A heavy exciting ride 's par two movies", "Solid conclusion Gunn 's trilogy", 'Surprising third entry Guardians trilogy , showing end sight', 'Another Wild Ride', 'A Fitting Finale To Guardians Of The Galaxy Saga', 'Since You Been Gone']</t>
+          <t>['gang little sad', 'Guardians Galaxy Vol 3', ' K   G  roots', 'The Story Rocket', 'Quite ride ', 'More  A LOT ', 'Very entertaining intergalaxy adventure ', 'This nt best Marvel movie entertaining one', 'Harsh', 'Guardians Galaxy Vol  3', 'My beloved raccoon  The story along  You nt know ', 'Occasional brilliancy  overall weak', 'Many agnostics questioned existence   ', 'A great trilogy solidified', 'Too long ', 'The World Dr Moreau', 'One satisfying IMAX experiences ever ', 'Weakest trilogy still quite entertaining', 'Oh  please   ', 'A heavy exciting ride s par two movies', 'Solid conclusion Gunn s trilogy', 'Surprising third entry Guardians trilogy  showing end sight', 'Another Wild Ride', 'A Fitting Finale To Guardians Of The Galaxy Saga', 'Since You Been Gone']</t>
         </is>
       </c>
     </row>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>["My review film 's 2400th .... I say ? !", 'Very ambitious , beautifully filmed acted .', 'Overblown', 'Maytime On The High Seas', 'Come CGI love story , Stay sinking', 'Still Holds Up After 15 Years', "It 's About People", 'beautiful . maybe', 'Lacks convincing dialogue , performances narrative leaving CGI , impressive dating already', 'A classic ...', 'In Spanish class , I wrote story portraying famous movies 1997 aboard Titanic sinking .', 'To fair , Jack tried get door , tipped .', 'An Odd Film James Cameron Canon', 'Lies &amp; Annoying Romance Ruined Story', 'Even better second , third , fourth times around .', 'A technical marvel , also manages emotionally charged involving', 'Breathtaking recreation tragic voyage', 'heart go ...', 'Well Done , yet rated', "James Cameron 's Titanic still entertaining 3-D adding little experience", 'An epic , doubt', 'This Titanic Survives All Time * * * *', 'Ignores fact women 1912 - rich poor - pretty much property', 'Utter Failure Film', 'Your usual James Cameron movie - style , substance']</t>
+          <t>['My review film s 2400th  I say  ', 'Very ambitious  beautifully filmed acted ', 'Overblown', 'Maytime On The High Seas', 'Come CGI love story  Stay sinking', 'Still Holds Up After 15 Years', 'It s About People', 'beautiful  maybe', 'Lacks convincing dialogue  performances narrative leaving CGI  impressive dating already', 'A classic ', 'In Spanish class  I wrote story portraying famous movies 1997 aboard Titanic sinking ', 'To fair  Jack tried get door  tipped ', 'An Odd Film James Cameron Canon', 'Lies  Annoying Romance Ruined Story', 'Even better second  third  fourth times around ', 'A technical marvel  also manages emotionally charged involving', 'Breathtaking recreation tragic voyage', 'heart go ', 'Well Done  yet rated', 'James Cameron s Titanic still entertaining 3D adding little experience', 'An epic  doubt', 'This Titanic Survives All Time    ', 'Ignores fact women 1912  rich poor  pretty much property', 'Utter Failure Film', 'Your usual James Cameron movie  style  substance']</t>
         </is>
       </c>
     </row>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>['Beautiful weird', 'An animated classic ? I think !', 'fun original imaginative', 'Great For Halloween Christmas', 'Finally Decided Watch It', 'best', 'Wonderfully imaginative animation , fun &amp; intelligent songs make great family film youngest children', 'Entertaining , fun lots spirit ...', 'Sympathetic , fun though macabre movie relying wonderful painstaking stop-motion technique', 'It would better musical .', 'Great Film , But Probably Still Overrated', 'Exquisitely-detailed ghoul-fest', 'One best films 1993 , highly re-watchable', "Tim Burton 's The Nightmare Before Christmas humorous spooky good time !", 'Epic', 'Solid entertainment older children adults .', 'Artfully combines two different holidays', 'Reasonably entertaining', "Christmas Tim Burton Addam 's Family style", 'Very inventive', 'The Pumpkin King stole Christmas ...', 'Nearly Perfect', 'The Pumpkin King', 'A great achievement could way entertaining .', 'From imagination Tim Burton']</t>
+          <t>['Beautiful weird', 'An animated classic  I think ', 'fun original imaginative', 'Great For Halloween Christmas', 'Finally Decided Watch It', 'best', 'Wonderfully imaginative animation  fun  intelligent songs make great family film youngest children', 'Entertaining  fun lots spirit ', 'Sympathetic  fun though macabre movie relying wonderful painstaking stopmotion technique', 'It would better musical ', 'Great Film  But Probably Still Overrated', 'Exquisitelydetailed ghoulfest', 'One best films 1993  highly rewatchable', 'Tim Burton s The Nightmare Before Christmas humorous spooky good time ', 'Epic', 'Solid entertainment older children adults ', 'Artfully combines two different holidays', 'Reasonably entertaining', 'Christmas Tim Burton Addam s Family style', 'Very inventive', 'The Pumpkin King stole Christmas ', 'Nearly Perfect', 'The Pumpkin King', 'A great achievement could way entertaining ', 'From imagination Tim Burton']</t>
         </is>
       </c>
     </row>
@@ -18433,7 +18433,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>["One David Lynch 's best one best decade- tastes though", 'maddening surreal tale', 'Another Bad Dream David Lynch ( In Good Way )', "What ? You 're supposed ask .", 'Mulholland Drivel .', 'Twin Peaks Continued ... Sort Of', 'Another Strange-But-Fascinating Film From That Strange Director', "Eerie , provocative take Bergman 's `` Persona `` ...", 'A bizarre journey subconscious', 'Life But A Dream ( reviewing )', 'A Fractured Female', 'Nightmare la-la land', 'Thank You Slide Bar', "One Lynch 's best", 'This film always disappointed', "Films Just Do n't Get Much Better", 'Warning : watching movie could activate confusion .', 'Excellent , everyone', 'dressed TV soap opera', 'Mulholland Drive', 'Mind-blowing', 'Drive You Mad', 'Take Lynch puzzle lightly ; enjoy dream .', '`` This ... illusion ! ``', "Lynch 's masterpiece"]</t>
+          <t>['One David Lynch s best one best decade tastes though', 'maddening surreal tale', 'Another Bad Dream David Lynch  In Good Way ', 'What  You re supposed ask ', 'Mulholland Drivel ', 'Twin Peaks Continued  Sort Of', 'Another StrangeButFascinating Film From That Strange Director', 'Eerie  provocative take Bergman s  Persona  ', 'A bizarre journey subconscious', 'Life But A Dream  reviewing ', 'A Fractured Female', 'Nightmare lala land', 'Thank You Slide Bar', 'One Lynch s best', 'This film always disappointed', 'Films Just Do nt Get Much Better', 'Warning  watching movie could activate confusion ', 'Excellent  everyone', 'dressed TV soap opera', 'Mulholland Drive', 'Mindblowing', 'Drive You Mad', 'Take Lynch puzzle lightly  enjoy dream ', ' This  illusion  ', 'Lynch s masterpiece']</t>
         </is>
       </c>
     </row>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>['A valiant effort bringing truly complex book screen !', 'Darkest best one yet', 'A Dark Impressive Film', 'Gary Oldman', 'Although Being Good Adventure , It Is Weakest Story Trilogy', 'Darker thus better first two still far baggy slow', 'Following Harry Potter films exciting amusing former subsequent entries', "thank God changing directors n't diminish movie 's quality", 'Black Could Be Anywhere', 'My Favorite Of The Harry Potter Films', 'The magic darkens', 'Cuaron company rise level near pop-art ; Harry Potter moving style substance', 'Puberty hits Hogwarts', 'Something Wicked This Way Comes', 'A wonderfully put together film , style substance .', 'Y Alfonso Cuaron tambien !', 'A darker Potter ... could used humor ...', 'One Best Fantasies Film', 'Directing screenwriter stand perfection', 'This may best Harry Potter film definitely best first three', 'Happy Birthday Julie', 'The First Potter Film Feel Like Film', 'Different necessarily better .', "third time 's charm", 'Harry Potter Prisoner Azkaban']</t>
+          <t>['A valiant effort bringing truly complex book screen ', 'Darkest best one yet', 'A Dark Impressive Film', 'Gary Oldman', 'Although Being Good Adventure  It Is Weakest Story Trilogy', 'Darker thus better first two still far baggy slow', 'Following Harry Potter films exciting amusing former subsequent entries', 'thank God changing directors nt diminish movie s quality', 'Black Could Be Anywhere', 'My Favorite Of The Harry Potter Films', 'The magic darkens', 'Cuaron company rise level near popart  Harry Potter moving style substance', 'Puberty hits Hogwarts', 'Something Wicked This Way Comes', 'A wonderfully put together film  style substance ', 'Y Alfonso Cuaron tambien ', 'A darker Potter  could used humor ', 'One Best Fantasies Film', 'Directing screenwriter stand perfection', 'This may best Harry Potter film definitely best first three', 'Happy Birthday Julie', 'The First Potter Film Feel Like Film', 'Different necessarily better ', 'third time s charm', 'Harry Potter Prisoner Azkaban']</t>
         </is>
       </c>
     </row>
@@ -18521,7 +18521,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>['This one bears repeated', 'Timeless Christmas treasure', "`` You 'll Shoot Your Eye Out ``", 'Memorable Iconic Scenes', 'One Best Out There', 'A Christmas Gift That Keeps Giving', 'Ralphie aims target', "You 'll shoot eye laughing .", 'So Memorable , It Hurts', 'Easy To Understand Its Popularity', 'A Christmas Story', 'Still funny endearing ever .', 'An absolute wonderful holiday movie .', 'An oddity become Christmas classic', 'Sweet , realistic Christmas movie', 'Just wonderful', 'A nostalgic look childhood Christmas season ...', 'This one greatest Christmas movies ever made', "`` YOU 'LL SHOOT YOUR EYE OUT ! `` - A CHRISTMAS CLASSIC !", 'A boyhood tale Christmases past', "Just average family Xmas 1940 's 1950 's .", "What 's ? ! A Christmas film I n't hate ? !", 'Leg lamps roasting open fire .', 'The best Christmas movie all-time , timeless classic . A must see every Christmas !', "Worst Christmas movie I 've ever seen !"]</t>
+          <t>['This one bears repeated', 'Timeless Christmas treasure', ' You ll Shoot Your Eye Out ', 'Memorable Iconic Scenes', 'One Best Out There', 'A Christmas Gift That Keeps Giving', 'Ralphie aims target', 'You ll shoot eye laughing ', 'So Memorable  It Hurts', 'Easy To Understand Its Popularity', 'A Christmas Story', 'Still funny endearing ever ', 'An absolute wonderful holiday movie ', 'An oddity become Christmas classic', 'Sweet  realistic Christmas movie', 'Just wonderful', 'A nostalgic look childhood Christmas season ', 'This one greatest Christmas movies ever made', ' YOU LL SHOOT YOUR EYE OUT    A CHRISTMAS CLASSIC ', 'A boyhood tale Christmases past', 'Just average family Xmas 1940 s 1950 s ', 'What s   A Christmas film I nt hate  ', 'Leg lamps roasting open fire ', 'The best Christmas movie alltime  timeless classic  A must see every Christmas ', 'Worst Christmas movie I ve ever seen ']</t>
         </is>
       </c>
     </row>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>["How film currently 6.8 rating 's one best pictures year ? !", 'Well worth tucking', 'Lots Nice Little Twists', 'generosity winner', 'A Fine B Movie', 'Knives Out', 'Loved .', 'Expectations ... well', 'Entertaining', 'Enjoyable satisfying mystery comedy , commentary , bit ham , point detracting core strengths', '`` Gosford Park `` plays new way', 'A fun murder mystery', "All forgiven , 's good start .", 'Mostly entertaining `` whodunnit `` vein Agatha Christie .', 'Knives Out', 'fun Agatha Christie-type whodunit', 'Pimp My Agatha Christie !', 'Knives Out fine modern murder mystery', 'Great twist', 'Very suspenseful ! A joy watch', 'Excellent murder-drama', 'Good comedic murder mystery', 'There aspects storyline seemed unbelievable , overall fun movie', 'fun who-done-didit', 'Believe hype : truly phenomenal , brilliant , &amp; funny']</t>
+          <t>['How film currently 68 rating s one best pictures year  ', 'Well worth tucking', 'Lots Nice Little Twists', 'generosity winner', 'A Fine B Movie', 'Knives Out', 'Loved ', 'Expectations  well', 'Entertaining', 'Enjoyable satisfying mystery comedy  commentary  bit ham  point detracting core strengths', ' Gosford Park  plays new way', 'A fun murder mystery', 'All forgiven  s good start ', 'Mostly entertaining  whodunnit  vein Agatha Christie ', 'Knives Out', 'fun Agatha Christietype whodunit', 'Pimp My Agatha Christie ', 'Knives Out fine modern murder mystery', 'Great twist', 'Very suspenseful  A joy watch', 'Excellent murderdrama', 'Good comedic murder mystery', 'There aspects storyline seemed unbelievable  overall fun movie', 'fun whodonedidit', 'Believe hype  truly phenomenal  brilliant   funny']</t>
         </is>
       </c>
     </row>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>['Considering I much fan superhero movies , one success', 'A Marvel superhero film done class', 'Iron Man Eats His Spinach', 'RDJ Iron Man', 'Very Good', 'No Iron ! How Ironic !', 'interesting', 'Definitely hero type .', 'Great performances', 'Far brilliant film still bright , breezy enjoyable summer blockbuster', 'First entry Iron Man series sympathetic acting Robert Downey Jr. Gwyneth Paltrow', "believe , I 'd never heard Iron Man movie came", "You 'll believe Iron Man fly !", "Far Exceeds The Character 's Usual Presentation", "supreme comic-book entertainment ; 's also jaded , funnier , genre", 'Disappointing script , sparse action scenes', "Marvelous One Best Stark 's Snark , Wonderful Action , Winner", 'Good , much better expected', 'Too Contained', 'Tony Starks : Bruce Wayne Joker attitude', 'Above Average', 'Origin stories interesting', 'IRON MAN ( Jon Favreau , 2008 ) * * *', "`` Give scotch . I 'm starving . ``", 'Iron Man rocks ! ! ! ! !']</t>
+          <t>['Considering I much fan superhero movies  one success', 'A Marvel superhero film done class', 'Iron Man Eats His Spinach', 'RDJ Iron Man', 'Very Good', 'No Iron  How Ironic ', 'interesting', 'Definitely hero type ', 'Great performances', 'Far brilliant film still bright  breezy enjoyable summer blockbuster', 'First entry Iron Man series sympathetic acting Robert Downey Jr Gwyneth Paltrow', 'believe  I d never heard Iron Man movie came', 'You ll believe Iron Man fly ', 'Far Exceeds The Character s Usual Presentation', 'supreme comicbook entertainment  s also jaded  funnier  genre', 'Disappointing script  sparse action scenes', 'Marvelous One Best Stark s Snark  Wonderful Action  Winner', 'Good  much better expected', 'Too Contained', 'Tony Starks  Bruce Wayne Joker attitude', 'Above Average', 'Origin stories interesting', 'IRON MAN  Jon Favreau  2008    ', ' Give scotch  I m starving  ', 'Iron Man rocks     ']</t>
         </is>
       </c>
     </row>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>['Well made ... either enough make funny enough make serious drama .', "Through child 's eyes", "one year 's best", 'Sad Commentary', 'provocative', 'Weird . Definitely Weird', "It 's good film .", 'Mein Film', 'Hilarious ...', 'Taika Waititi done people achieved', 'Hmmm .', 'An entertaining parody Nazi existence 1940s Germany .', 'Quite different rest', 'This actually funny even sweet', 'Superb : wonderfully funny , emotional profound', 'Love movie', "Succumbed This Film 's Charms", 'Agile fast', "Let 's mock Nazis , always works .", "`` It 's time burn books ! ``", 'Not funny - often painful', "'Nothing makes sense anymore '", 'Four balls five .', 'Heart right place , falls flat', 'Full irony humor , bit predictable']</t>
+          <t>['Well made  either enough make funny enough make serious drama ', 'Through child s eyes', 'one year s best', 'Sad Commentary', 'provocative', 'Weird  Definitely Weird', 'It s good film ', 'Mein Film', 'Hilarious ', 'Taika Waititi done people achieved', 'Hmmm ', 'An entertaining parody Nazi existence 1940s Germany ', 'Quite different rest', 'This actually funny even sweet', 'Superb  wonderfully funny  emotional profound', 'Love movie', 'Succumbed This Film s Charms', 'Agile fast', 'Let s mock Nazis  always works ', ' It s time burn books  ', 'Not funny  often painful', 'Nothing makes sense anymore ', 'Four balls five ', 'Heart right place  falls flat', 'Full irony humor  bit predictable']</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>['Good ... also slow NOT sort film pleases masses .', 'A different sci-fi film , good , divisive , one', 'A Science Fiction Film Your Mind', 'A Lot Potential But Never Got Me Involved', 'Coming country near', 'Excellent , intelligent , terrific film .', 'Slow burning Science Fiction', 'Overrated , Boring , Awful', 'Slow paced essentially rather pointless ...', 'translation makes great movie', 'Intelligent science fiction', 'short review good movie see', 'Mysterious suspenseful', 'Scores high marks good intentions .', '`` Mommy Daddy Talk Animals `` ... Cerebral Cryptographic Cinema', 'Clever thought-provoking bit underwhelming derivative', 'When Aliens Bad Communicating', 'Sci-Fi Film Had Me Bawling Like Baby', 'language cinema', "At one point 's getting bit boring , 's good", 'Kangaroo', 'At last something unusual Aliens Earth ! ! !', 'This really leaves lasting impression', "'If could see whole life start finish , would change things ? '", 'mysterious Sci-Fi flick']</t>
+          <t>['Good  also slow NOT sort film pleases masses ', 'A different scifi film  good  divisive  one', 'A Science Fiction Film Your Mind', 'A Lot Potential But Never Got Me Involved', 'Coming country near', 'Excellent  intelligent  terrific film ', 'Slow burning Science Fiction', 'Overrated  Boring  Awful', 'Slow paced essentially rather pointless ', 'translation makes great movie', 'Intelligent science fiction', 'short review good movie see', 'Mysterious suspenseful', 'Scores high marks good intentions ', ' Mommy Daddy Talk Animals   Cerebral Cryptographic Cinema', 'Clever thoughtprovoking bit underwhelming derivative', 'When Aliens Bad Communicating', 'SciFi Film Had Me Bawling Like Baby', 'language cinema', 'At one point s getting bit boring  s good', 'Kangaroo', 'At last something unusual Aliens Earth   ', 'This really leaves lasting impression', 'If could see whole life start finish  would change things  ', 'mysterious SciFi flick']</t>
         </is>
       </c>
     </row>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>['How make film pornography , disco drugs great', 'Good fun , ageing well', "`` I 'm A Star , I 'm A Bright Shining Star ``", 'Great cast great director', 'An engaging energetic film', 'like', 'An eye-wateringly huge success .', 'Cynical , cathartic , exhausting ...', 'Odd , Funny Touching', 'Dirk Diggler', 'Great second movie PT Anderson', 'A Great Film On A Difficult Subject', 'Loosely Based Life John C. Holmes', 'This underrated masterpiece must see', 'Boogie Till You Drop', 'The rise fall porn star.- A surprisingly epic movie .', 'film works , like dream', "A daring movie porn industry 70 ' 80 '", 'This baby draws', 'Boogie Nights', 'Re-Visiting BOOGIE NIGHTS', 'Saturday night fever .', 'Boogie Nights', 'Splendid !', 'So damn good !']</t>
+          <t>['How make film pornography  disco drugs great', 'Good fun  ageing well', ' I m A Star  I m A Bright Shining Star ', 'Great cast great director', 'An engaging energetic film', 'like', 'An eyewateringly huge success ', 'Cynical  cathartic  exhausting ', 'Odd  Funny Touching', 'Dirk Diggler', 'Great second movie PT Anderson', 'A Great Film On A Difficult Subject', 'Loosely Based Life John C Holmes', 'This underrated masterpiece must see', 'Boogie Till You Drop', 'The rise fall porn star A surprisingly epic movie ', 'film works  like dream', 'A daring movie porn industry 70  80 ', 'This baby draws', 'Boogie Nights', 'ReVisiting BOOGIE NIGHTS', 'Saturday night fever ', 'Boogie Nights', 'Splendid ', 'So damn good ']</t>
         </is>
       </c>
     </row>
@@ -18785,7 +18785,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>['Thor Marvel Cinematic Universe top game', 'flawless fun', 'I Thought It Was Pretty Good', 'Creatures Of Light And Darkness', 'Hippy Hippy Thor', "Third time 's charm", 'The Prophecy', 'A little polished , entertaining fun', 'Fun entertaining ...', "Asgard n't place , people . Thor must save sister Hela .", 'director totally sync cast - one funniest movies YEAR , nevermind MCU', 'Thor : Ragnarok another awesome ride Marvel Cinematic Universe !', 'An enjoyable superhero film', 'Better average comic book movie', 'Good MCU good', 'Ample Amounts Comedy Action', "At Least It 's Funny", 'Zeppelin , Cate , Goldblum', 'One better Marvels', "`` Asgard place , 's people ``", 'This Thor strange , random completely ... course I loved !', 'Well-intentioned', "' A creepy old man cut hair ! '", "While entertaining , somewhat messy piece never creates genuine emotional connection characters ; still , 's best three solo 'Thor ' films .", 'Better worse I expected']</t>
+          <t>['Thor Marvel Cinematic Universe top game', 'flawless fun', 'I Thought It Was Pretty Good', 'Creatures Of Light And Darkness', 'Hippy Hippy Thor', 'Third time s charm', 'The Prophecy', 'A little polished  entertaining fun', 'Fun entertaining ', 'Asgard nt place  people  Thor must save sister Hela ', 'director totally sync cast  one funniest movies YEAR  nevermind MCU', 'Thor  Ragnarok another awesome ride Marvel Cinematic Universe ', 'An enjoyable superhero film', 'Better average comic book movie', 'Good MCU good', 'Ample Amounts Comedy Action', 'At Least It s Funny', 'Zeppelin  Cate  Goldblum', 'One better Marvels', ' Asgard place  s people ', 'This Thor strange  random completely  course I loved ', 'Wellintentioned', ' A creepy old man cut hair  ', 'While entertaining  somewhat messy piece never creates genuine emotional connection characters  still  s best three solo Thor  films ', 'Better worse I expected']</t>
         </is>
       </c>
     </row>
@@ -18829,7 +18829,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>['Gorgeous 100 % otherworldly -- story bit simplistic ways .', 'Visually mind-blowing , lacking story', 'A solid piece entertainment', 'Big step forward', 'A Breakthrough Cinema', 'OK You Got Me !', 'new mythology', 'A cinematic triumph .', 'Aliens', 'How Can `` Avatar `` Have Wined Oscar Best Film ?', 'Technically impressive important beyond huge amount talk', 'Spectacular behold , nothing ...', 'Spectacular even though flawed', 'Your jaw meet floor .', "The Worst Film James Cameron 's Career", 'Typical Cameron : Dumb Story But Fantastic Visuals', 'Mr so-called `` King World `` returns visually dazzling spectacle so-so story', 'James Cameron Avatar !', 'An exceptionally engaging visually stunning film', 'Mediocre every aspect technical ones', '`` Pave Paradise Put Up Parking Lot ``', '3D graphics , 1D story', "It 's cinema Jim , know .", 'Colourful Visuals . Black And White Storytelling', 'Simplistic boring']</t>
+          <t>['Gorgeous 100  otherworldly  story bit simplistic ways ', 'Visually mindblowing  lacking story', 'A solid piece entertainment', 'Big step forward', 'A Breakthrough Cinema', 'OK You Got Me ', 'new mythology', 'A cinematic triumph ', 'Aliens', 'How Can  Avatar  Have Wined Oscar Best Film ', 'Technically impressive important beyond huge amount talk', 'Spectacular behold  nothing ', 'Spectacular even though flawed', 'Your jaw meet floor ', 'The Worst Film James Cameron s Career', 'Typical Cameron  Dumb Story But Fantastic Visuals', 'Mr socalled  King World  returns visually dazzling spectacle soso story', 'James Cameron Avatar ', 'An exceptionally engaging visually stunning film', 'Mediocre every aspect technical ones', ' Pave Paradise Put Up Parking Lot ', '3D graphics  1D story', 'It s cinema Jim  know ', 'Colourful Visuals  Black And White Storytelling', 'Simplistic boring']</t>
         </is>
       </c>
     </row>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>['Groundhog Day meets Starship Troopers', 'great sci-fi', 'Right On Military Sci Fi', 'Impressive blockbuster', 'Watch Will Smith', "Do n't Think Enjoy Action", 'Fast-paced , engaging exciting high-concept sci-fi actioner superior summer blockbuster', 'largely refreshing clever science fiction thriller , verging comedy parts', 'My friend liked Edge Tomorrow perhaps despite weirdness', 'Captivating', "The Best Said Movie Does n't Suck", 'Groundhog Day meets Starship Troopers', 'Resetting day .', 'The Matrix Meets Groundhog Day', "It 's Groundhog day alien invasion style .", 'A video game come life', 'Terrific', 'title sounds like soap opera', 'Smart , funny , thrilling , entertaining - exceptional sci-fi action flick', 'Carpe Diem , Carpe Diem , Carpe Diem ...', 'A not-too-bad future', 'The Firy Crucible', 'MUCH better I expected', 'Make summer blockbuster choice', 'An exciting , unique character-focused science-fiction flick .']</t>
+          <t>['Groundhog Day meets Starship Troopers', 'great scifi', 'Right On Military Sci Fi', 'Impressive blockbuster', 'Watch Will Smith', 'Do nt Think Enjoy Action', 'Fastpaced  engaging exciting highconcept scifi actioner superior summer blockbuster', 'largely refreshing clever science fiction thriller  verging comedy parts', 'My friend liked Edge Tomorrow perhaps despite weirdness', 'Captivating', 'The Best Said Movie Does nt Suck', 'Groundhog Day meets Starship Troopers', 'Resetting day ', 'The Matrix Meets Groundhog Day', 'It s Groundhog day alien invasion style ', 'A video game come life', 'Terrific', 'title sounds like soap opera', 'Smart  funny  thrilling  entertaining  exceptional scifi action flick', 'Carpe Diem  Carpe Diem  Carpe Diem ', 'A nottoobad future', 'The Firy Crucible', 'MUCH better I expected', 'Make summer blockbuster choice', 'An exciting  unique characterfocused sciencefiction flick ']</t>
         </is>
       </c>
     </row>
@@ -18917,7 +18917,7 @@
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>['Rock Roll Here Stay', 'The best 2001', 'Perhaps Best Film Decade', 'Not almost , totally', 'Enjoyable story characters exist within convincing portrayal time , place people', 'It actually little fluffy full credibility .', 'Cameron Crowe Tells Good Story', 'A warm fuzzy', 'paint nostalgic picture', 'Surprisingly sweet dramedy hits mark', "Life 101 : Welcome sex , drugs rock 'n ' roll ! ! !", 'Wonderfully warm , engaging nostalgic coming-of-age drama', 'Its Honest About Its Own Dishonesty', 'Hopes , Dreams &amp; Nightmares .', 'Entertaining In A Subtle Way , But ...', 'Something autobiography Cameron Crowe', "Cameron Crowe Needs Learn How Write Female Characters Like They 're Actual People", "So You Wan na Be A Rock 'n Roll Star", 'Probably best drama I ever seen', "I guess rock 'n roll boring .", "Crowe 's masterpiece valentine rock'n'roll ; Best Film 2000", 'Misadventures touring America up-and-coming band early 70s', 'great part Philip Seymour Hoffman', 'Fine ensemble cast , entertaining film', 'A road journey film feel good fun discovery making connection .']</t>
+          <t>['Rock Roll Here Stay', 'The best 2001', 'Perhaps Best Film Decade', 'Not almost  totally', 'Enjoyable story characters exist within convincing portrayal time  place people', 'It actually little fluffy full credibility ', 'Cameron Crowe Tells Good Story', 'A warm fuzzy', 'paint nostalgic picture', 'Surprisingly sweet dramedy hits mark', 'Life 101  Welcome sex  drugs rock n  roll   ', 'Wonderfully warm  engaging nostalgic comingofage drama', 'Its Honest About Its Own Dishonesty', 'Hopes  Dreams  Nightmares ', 'Entertaining In A Subtle Way  But ', 'Something autobiography Cameron Crowe', 'Cameron Crowe Needs Learn How Write Female Characters Like They re Actual People', 'So You Wan na Be A Rock n Roll Star', 'Probably best drama I ever seen', 'I guess rock n roll boring ', 'Crowe s masterpiece valentine rocknroll  Best Film 2000', 'Misadventures touring America upandcoming band early 70s', 'great part Philip Seymour Hoffman', 'Fine ensemble cast  entertaining film', 'A road journey film feel good fun discovery making connection ']</t>
         </is>
       </c>
     </row>
@@ -18961,7 +18961,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>['Endearing hugely enjoyable', 'Quirky stop motion adventure', 'Claymation Wes Anderson style', 'Great Fun', 'It Was Fantastic !', 'Animated animals', 'Lots Quirky Fun', 'Great Dialog , Visual Make This A Winner For Adults', "marvelous clubhouse movie 're invited laugh feel happy", 'Entertaining nothing exceptional', 'Refreshing Return Stop-Motion Diverting Treatment', 'Something everyone', "Best Stop-Motion Film I 've Ever Seen", 'This well done family film bit underrated', 'If I think happening happening - better .', 'Fantastic , Mr. Anderson', 'Cluster Cuss Wild Animals', 'Fantastic Mr Fox review', 'Fantastic Mr. Fox', "A lot weaknesses , 's pleasant kind beautiful times", 'An enjoyable adaptation good plot , quirky humour excellent casting .', 'Entertaining', "Wes Anderson 's animation competently deserves adjective title", 'Sartre Satire', 'A Nutshell Review : Fantastic Mr. Fox']</t>
+          <t>['Endearing hugely enjoyable', 'Quirky stop motion adventure', 'Claymation Wes Anderson style', 'Great Fun', 'It Was Fantastic ', 'Animated animals', 'Lots Quirky Fun', 'Great Dialog  Visual Make This A Winner For Adults', 'marvelous clubhouse movie re invited laugh feel happy', 'Entertaining nothing exceptional', 'Refreshing Return StopMotion Diverting Treatment', 'Something everyone', 'Best StopMotion Film I ve Ever Seen', 'This well done family film bit underrated', 'If I think happening happening  better ', 'Fantastic  Mr Anderson', 'Cluster Cuss Wild Animals', 'Fantastic Mr Fox review', 'Fantastic Mr Fox', 'A lot weaknesses  s pleasant kind beautiful times', 'An enjoyable adaptation good plot  quirky humour excellent casting ', 'Entertaining', 'Wes Anderson s animation competently deserves adjective title', 'Sartre Satire', 'A Nutshell Review  Fantastic Mr Fox']</t>
         </is>
       </c>
     </row>
@@ -19005,7 +19005,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>['terrific apparently every taste', 'Breaking From A Self Contained Universe', 'Interesting quirky funny', 'He Liked Watch', 'admirable work', 'I like watch', 'Shoebox - light feather', 'Far Before `` Forrest Gump `` .. , Chauncey Gardner', 'everywhere', 'Funny', 'Peter Sellers IS Chance', 'Terrific acting , infuriating plot', 'biting black comedy detached character particular state mind', 'Peter Sellers gave perhaps performance career Being There', '`` Life ...... state mind . ``', 'Elegant Charming Satire Soft Spell', 'TeeVee Politics', 'Political simpletons always best .', 'An Incredibly Imaginative Comedy', 'Blank Slate ...', 'A overrated film', 'Being Bored', "Has Cult Following That Does n't Include Me", 'Means much many ...', 'More admirable enjoyable']</t>
+          <t>['terrific apparently every taste', 'Breaking From A Self Contained Universe', 'Interesting quirky funny', 'He Liked Watch', 'admirable work', 'I like watch', 'Shoebox  light feather', 'Far Before  Forrest Gump    Chauncey Gardner', 'everywhere', 'Funny', 'Peter Sellers IS Chance', 'Terrific acting  infuriating plot', 'biting black comedy detached character particular state mind', 'Peter Sellers gave perhaps performance career Being There', ' Life  state mind  ', 'Elegant Charming Satire Soft Spell', 'TeeVee Politics', 'Political simpletons always best ', 'An Incredibly Imaginative Comedy', 'Blank Slate ', 'A overrated film', 'Being Bored', 'Has Cult Following That Does nt Include Me', 'Means much many ', 'More admirable enjoyable']</t>
         </is>
       </c>
     </row>
@@ -19049,7 +19049,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>['The Tarantino Dialogue', 'High Energy , Non-Stop Violence', "You 're cool", 'Tries bit hard still enjoyable', 'Max Julien , RIP', "Tarantino 's Breakthrough", 'Be Warned : This Is Rough , Sordid Movie', 'Wild , woolly action flick , cheeky hollow ...', "Tarantino 's `` personal `` writing ; Scott gives commendable direction all-stars", '10 reasons state one greatest movies ever !', 'Love true ; reckless , wicked deadly .', 'Grit With Sugar On It', 'The King , Chiba , White Boy Day Love Bloody Love .', 'Cool', 'This movie absolute masterpiece underrated gem', "I 'm call Florida White Trash !", 'Here ! The underrated movie time .', 'Very pulpy ... perhaps pulpy tastes', 'Tasty slice pulp fiction ; superb once-in-a-lifetime cast', 'A stepping stone `` Pulp Fiction ``', "This remembered one Tarantino 's best ...", 'The movie kind place , somehow works !', 'Solid writing , harsh style', "Suffers usual Tarantino problems well Scott 's , still entertaining brutally tense adventure .", 'notes']</t>
+          <t>['The Tarantino Dialogue', 'High Energy  NonStop Violence', 'You re cool', 'Tries bit hard still enjoyable', 'Max Julien  RIP', 'Tarantino s Breakthrough', 'Be Warned  This Is Rough  Sordid Movie', 'Wild  woolly action flick  cheeky hollow ', 'Tarantino s  personal  writing  Scott gives commendable direction allstars', '10 reasons state one greatest movies ever ', 'Love true  reckless  wicked deadly ', 'Grit With Sugar On It', 'The King  Chiba  White Boy Day Love Bloody Love ', 'Cool', 'This movie absolute masterpiece underrated gem', 'I m call Florida White Trash ', 'Here  The underrated movie time ', 'Very pulpy  perhaps pulpy tastes', 'Tasty slice pulp fiction  superb onceinalifetime cast', 'A stepping stone  Pulp Fiction ', 'This remembered one Tarantino s best ', 'The movie kind place  somehow works ', 'Solid writing  harsh style', 'Suffers usual Tarantino problems well Scott s  still entertaining brutally tense adventure ', 'notes']</t>
         </is>
       </c>
     </row>
@@ -19093,7 +19093,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>["Quite possibly John Landis 's best film", 'In word ... fun', 'memorable comedic characters', 'Some Flaws Overall Entertaining', "Plot ... What Plot ... I Just Do n't Care", 'Cataclysmic car crash musical comedy two great stars , James Belushi Dan Aykroyd', "It 's blues .", 'A Classic', 'A Wild &amp; Crazy Ride', '`` 1060 West Addison - Wrigley Field . ``', 'A true classic , comedy way - FUNNY', 'Great fun', 'A classic', 'Over Produced Overrated', 'Hated It', 'Overlong fun entertaining movie', 'Putting band together nothing backdrop many memorable nuances appearances', 'Right', 'A Masterpiece Music And Madness ...', "`` They 're gon na catch us . We 're mission God . ``", 'This movie amazing every way .', 'Not Joke This One', "Someone found fountain youth doused baby , 'cause sure ai n't getting old", 'Soul-singing siblings ! Non-stop auto chases ! Illinois Nazis ! What need ? ? ? ! !', "`` We 're mission God ``"]</t>
+          <t>['Quite possibly John Landis s best film', 'In word  fun', 'memorable comedic characters', 'Some Flaws Overall Entertaining', 'Plot  What Plot  I Just Do nt Care', 'Cataclysmic car crash musical comedy two great stars  James Belushi Dan Aykroyd', 'It s blues ', 'A Classic', 'A Wild  Crazy Ride', ' 1060 West Addison  Wrigley Field  ', 'A true classic  comedy way  FUNNY', 'Great fun', 'A classic', 'Over Produced Overrated', 'Hated It', 'Overlong fun entertaining movie', 'Putting band together nothing backdrop many memorable nuances appearances', 'Right', 'A Masterpiece Music And Madness ', ' They re gon na catch us  We re mission God  ', 'This movie amazing every way ', 'Not Joke This One', 'Someone found fountain youth doused baby  cause sure ai nt getting old', 'Soulsinging siblings  Nonstop auto chases  Illinois Nazis  What need     ', ' We re mission God ']</t>
         </is>
       </c>
     </row>
@@ -19137,7 +19137,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>["Zack Snyder 's Justice League", 'Justice ... served ?', 'Lots Superheros one 4-hour movie .', 'Even worse average comic book movie goes forever', 'This good beginning end nice pace storyline action scenes .', 'The Assembly Cut', "Imperfect , yet still renders 'Whedon cut ' absolutely obsolete .", 'A huge improvement 2017 cut', 'So much satisfying previous Justice League !', 'Boring start . Why ? Because CGI effects numb brain . Even superhero movies always CHARACTERS NOT special effects !', 'interesting , overlong , unnecessary', "I 'm glad found way resurrect superhero film", 'universe believe ? ? ?', "Long awaited Snyder Cut longer definitely better Justice League 's theatrical cut .", 'film equivalent bohemian rhapsody', "Zack Snyder 's Magnum Opus", 'Good movie , yet fair compare original', 'Vast Improvement', '8', 'Luckily I happen IMAX screen laying around house , said one . Ever .', 'Just watch ...', 'Much Better', "What 's Box", 'Take time', 'Epic , awesome , Zack Snyders vision delivers dc universe .']</t>
+          <t>['Zack Snyder s Justice League', 'Justice  served ', 'Lots Superheros one 4hour movie ', 'Even worse average comic book movie goes forever', 'This good beginning end nice pace storyline action scenes ', 'The Assembly Cut', 'Imperfect  yet still renders Whedon cut  absolutely obsolete ', 'A huge improvement 2017 cut', 'So much satisfying previous Justice League ', 'Boring start  Why  Because CGI effects numb brain  Even superhero movies always CHARACTERS NOT special effects ', 'interesting  overlong  unnecessary', 'I m glad found way resurrect superhero film', 'universe believe   ', 'Long awaited Snyder Cut longer definitely better Justice League s theatrical cut ', 'film equivalent bohemian rhapsody', 'Zack Snyder s Magnum Opus', 'Good movie  yet fair compare original', 'Vast Improvement', '8', 'Luckily I happen IMAX screen laying around house  said one  Ever ', 'Just watch ', 'Much Better', 'What s Box', 'Take time', 'Epic  awesome  Zack Snyders vision delivers dc universe ']</t>
         </is>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>['Words describe much I love movie !', "Mawkish may , 's classic reason", 'Still one greats', 'Brilliant', "It 's Masterpiece", 'magic', 'Kids Flick', 'A wonderful family movie', 'Super-schmaltzy Spielberg sci-fi .', 'A Defining Film', '25 Years Later , My Message Is `` E.T . - STAY home ! ``', "Does n't wear well , nearly good I remembered .", 'The happiness heartbreak childhood', 'SS took naïveté new limits .', "Yeah , 's masterpiece , ... yeah , .", 'Over-rated still worth look', 'E.T . Extra-Terrestrial classic time !', 'Cute 80s sci-fi', 'When Bicycles Aliens Rode Imagination', 'Superb', 'The Most Overrated Movie History Overrated Movies', 'Drew Draws', 'Dream work indeed .', "It 's Not That Good", 'Charming fantasy great John Williams score ...']</t>
+          <t>['Words describe much I love movie ', 'Mawkish may  s classic reason', 'Still one greats', 'Brilliant', 'It s Masterpiece', 'magic', 'Kids Flick', 'A wonderful family movie', 'Superschmaltzy Spielberg scifi ', 'A Defining Film', '25 Years Later  My Message Is  ET   STAY home  ', 'Does nt wear well  nearly good I remembered ', 'The happiness heartbreak childhood', 'SS took navet new limits ', 'Yeah  s masterpiece   yeah  ', 'Overrated still worth look', 'ET  ExtraTerrestrial classic time ', 'Cute 80s scifi', 'When Bicycles Aliens Rode Imagination', 'Superb', 'The Most Overrated Movie History Overrated Movies', 'Drew Draws', 'Dream work indeed ', 'It s Not That Good', 'Charming fantasy great John Williams score ']</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>['Something rarely seen Oscar winner ... film public actually LIKES ENJOYS !', 'Rhapsody music Queen', 'He ...... He ....... Rock', 'needs darker scenes', 'Excellent Performance , Giving Us Picture Great Talent', 'provocative', 'virtues', 'These days lives', 'Perfection . I glued .', 'What performance', 'Freddie Mercury Queen', "I 'm fan Queen , damned music n't going live forever", 'Totally worthwhile biopic Freddie Mercury . Best Actor Malek .', 'Worth hype', 'The CliffsNotes version making superstar ...', 'Rami Malek fabulous Freddie Mercury', 'Bohemian Rhapsody quite enjoyable take life career Freddie Mercury', 'Amazing', 'Very good entirely accurate biopic', 'Superb : engaging , entertaining moving', 'Great little long', 'Queen', 'That VOICE !', 'There doubt movie win Oscars .', 'Bohemian Rhapsody review']</t>
+          <t>['Something rarely seen Oscar winner  film public actually LIKES ENJOYS ', 'Rhapsody music Queen', 'He  He  Rock', 'needs darker scenes', 'Excellent Performance  Giving Us Picture Great Talent', 'provocative', 'virtues', 'These days lives', 'Perfection  I glued ', 'What performance', 'Freddie Mercury Queen', 'I m fan Queen  damned music nt going live forever', 'Totally worthwhile biopic Freddie Mercury  Best Actor Malek ', 'Worth hype', 'The CliffsNotes version making superstar ', 'Rami Malek fabulous Freddie Mercury', 'Bohemian Rhapsody quite enjoyable take life career Freddie Mercury', 'Amazing', 'Very good entirely accurate biopic', 'Superb  engaging  entertaining moving', 'Great little long', 'Queen', 'That VOICE ', 'There doubt movie win Oscars ', 'Bohemian Rhapsody review']</t>
         </is>
       </c>
     </row>
@@ -19269,7 +19269,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>['Groundbreaking .', 'Original funny : delightful kids adults alike !', 'Super fun family movie', "It 's In Background", 'Shrek-tastic', 'Plenty kids adults alike', 'somewhere ogre rainbow ...', 'Shrek', 'A Solid Entry DreamWorks Canon', 'These Animation Movies Of The 21st Century Keep Getting Better', "`` A talking donkey ? That 's easy part , getting shut 's hard . `` ( Shrek )", 'The one started', 'Smarmy medieval animated comedy built around modern references ...', 'Fascinating amusing summer fare', 'One kind', 'One kind . Great experience .', 'hand drawn animations dead', 'Breaks Mold', 'Finally ! A good 2001 movie !', 'A lovable ogre donkey friend steal show ...', 'Love', 'An instant classic', "The Fact That It 's Been Copied Ad Nauseum Does n't Diminish Its Freshness", 'Good quality entertainment .', 'Truly greatest fairy tale never told ...']</t>
+          <t>['Groundbreaking ', 'Original funny  delightful kids adults alike ', 'Super fun family movie', 'It s In Background', 'Shrektastic', 'Plenty kids adults alike', 'somewhere ogre rainbow ', 'Shrek', 'A Solid Entry DreamWorks Canon', 'These Animation Movies Of The 21st Century Keep Getting Better', ' A talking donkey  That s easy part  getting shut s hard    Shrek ', 'The one started', 'Smarmy medieval animated comedy built around modern references ', 'Fascinating amusing summer fare', 'One kind', 'One kind  Great experience ', 'hand drawn animations dead', 'Breaks Mold', 'Finally  A good 2001 movie ', 'A lovable ogre donkey friend steal show ', 'Love', 'An instant classic', 'The Fact That It s Been Copied Ad Nauseum Does nt Diminish Its Freshness', 'Good quality entertainment ', 'Truly greatest fairy tale never told ']</t>
         </is>
       </c>
     </row>
@@ -19313,7 +19313,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>["A simple , dark poignant film , definitely Burton 's best !", "A highlight Burton 's early career", 'The Gentle Frankenstein', 'Unique vision Tim Burton', 'Classic Fairy Tale', "We Hate What We Ca n't Understand", 'charming', 'Edward Scissorhands', 'Visually wonderful emotionally little hollow', 'Captivating attractive fairytale charming character well played Johnny Depp', "His story touch , even though ca n't .", 'Where All Best Tim Burton Has Pooled Into One', 'Typical Burton/Depp Film , Which Means Good &amp; Bad', 'An icy pall hangs whole thing', 'Beautiful film', 'sweet film portrays good bad suburban life originality', 'A truly deserving film', "`` Hold . `` `` I ca n't . ``", 'Simply Special', 'Sharp', 'Everything movie perfect', "Tim Burton 's Best", 'Beauty', 'The magical touch Scissorhands ! !', "Worth look see Vincent Price 's last role ."]</t>
+          <t>['A simple  dark poignant film  definitely Burton s best ', 'A highlight Burton s early career', 'The Gentle Frankenstein', 'Unique vision Tim Burton', 'Classic Fairy Tale', 'We Hate What We Ca nt Understand', 'charming', 'Edward Scissorhands', 'Visually wonderful emotionally little hollow', 'Captivating attractive fairytale charming character well played Johnny Depp', 'His story touch  even though ca nt ', 'Where All Best Tim Burton Has Pooled Into One', 'Typical BurtonDepp Film  Which Means Good  Bad', 'An icy pall hangs whole thing', 'Beautiful film', 'sweet film portrays good bad suburban life originality', 'A truly deserving film', ' Hold    I ca nt  ', 'Simply Special', 'Sharp', 'Everything movie perfect', 'Tim Burton s Best', 'Beauty', 'The magical touch Scissorhands  ', 'Worth look see Vincent Price s last role ']</t>
         </is>
       </c>
     </row>
@@ -19357,7 +19357,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>["'Star Trek ' : The Prequel", 'Overrated needless reboot', 'Kirk And Spock In Their Salad Days', 'Flare-o-rama Popcorn Fun', 'Nice Production', 'It Was Time Retooling ( Retelling )', 'To boldly go', "That 's I call `` Re-Imagining ``", 'Narrative-wise many faults , terms summer blockbusters , accessible , fun , noisy exciting plenty easy entertainment spectacle', 'It actually quite cool ...', 'Sensational return classic saga young cast overwhelming special effects', 'Ben Cross , RIP', "Set phasers 'Disappoint ' .", 'The New/Alternate Generation', 'Live long prosper', 'A mix thrill humour', 'Okay', 'Uncanny Valley', 'A franchise re-energised-big time !', "Interesting Reboot Even If The Main Story Is n't Great", "I n't even like sci-fi I loved !", 'Entertaining level Roddenbury', 'Style Over Substance', 'Dammit Jim !', 'A perfect fresh start .']</t>
+          <t>['Star Trek   The Prequel', 'Overrated needless reboot', 'Kirk And Spock In Their Salad Days', 'Flareorama Popcorn Fun', 'Nice Production', 'It Was Time Retooling  Retelling ', 'To boldly go', 'That s I call  ReImagining ', 'Narrativewise many faults  terms summer blockbusters  accessible  fun  noisy exciting plenty easy entertainment spectacle', 'It actually quite cool ', 'Sensational return classic saga young cast overwhelming special effects', 'Ben Cross  RIP', 'Set phasers Disappoint  ', 'The NewAlternate Generation', 'Live long prosper', 'A mix thrill humour', 'Okay', 'Uncanny Valley', 'A franchise reenergisedbig time ', 'Interesting Reboot Even If The Main Story Is nt Great', 'I nt even like scifi I loved ', 'Entertaining level Roddenbury', 'Style Over Substance', 'Dammit Jim ', 'A perfect fresh start ']</t>
         </is>
       </c>
     </row>
@@ -19401,7 +19401,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>['Well done , though sure helps remember Watergate .', 'The Story Of A Lifetime', 'Hoffman Redford energizes investigation', 'A Sojourn Investigative Reporting', "All President 's Men", 'An engaging political drama delivers slow , wordy film', 'Remarkable film two intrepid reporters , Bob Woodward Carl Berstein , investigate Watergate conspiracy', "I 'd like see happen Bush .", 'The story two journalists brought president', 'Politics In A Digestible , Enjoyable Format', 'DNA political thriller genre', 'Superlative', 'Hollywood comes D.C .', 'seen many times , never reviewed', "Alan J. Pakula 's peak", 'tight ball mystery movie , gets better viewings', 'An altogether remarkable achievement .', "`` THE PEN IS MIGHTIER THAN THE SWORD `` ... SEARING CINEMA-VERITE ... INVESTIGATIVE JOURNALISM 'S RAW METHODS &amp; MACHINERY", 'The Fourth Estate Heavy Work', 'Best step step example journalism ever portrayed film', 'An Abuse Power', 'Accurate portrayal Watergate reporting', 'A Thrilling Movie About How Fun It Is Be Journalist', "How domino 's fell .", 'The Real Dynamic Duo']</t>
+          <t>['Well done  though sure helps remember Watergate ', 'The Story Of A Lifetime', 'Hoffman Redford energizes investigation', 'A Sojourn Investigative Reporting', 'All President s Men', 'An engaging political drama delivers slow  wordy film', 'Remarkable film two intrepid reporters  Bob Woodward Carl Berstein  investigate Watergate conspiracy', 'I d like see happen Bush ', 'The story two journalists brought president', 'Politics In A Digestible  Enjoyable Format', 'DNA political thriller genre', 'Superlative', 'Hollywood comes DC ', 'seen many times  never reviewed', 'Alan J Pakula s peak', 'tight ball mystery movie  gets better viewings', 'An altogether remarkable achievement ', ' THE PEN IS MIGHTIER THAN THE SWORD   SEARING CINEMAVERITE  INVESTIGATIVE JOURNALISM S RAW METHODS  MACHINERY', 'The Fourth Estate Heavy Work', 'Best step step example journalism ever portrayed film', 'An Abuse Power', 'Accurate portrayal Watergate reporting', 'A Thrilling Movie About How Fun It Is Be Journalist', 'How domino s fell ', 'The Real Dynamic Duo']</t>
         </is>
       </c>
     </row>
@@ -19445,7 +19445,7 @@
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>["Well made ... 's doubt . But might want think twice watching .", 'Among top 10 decade', 'Exemplary direction lifts offbeat futuristic thriller', 'Daring vision Cuarón', 'Bleak Frightening', 'special', 'Growing old', 'Intolerance , Chaos , Infertility , Hope', 'Engaging exciting sci-fi interesting technically impressive delivery', 'Fine slick realization Alfonso Cuaron gives futuristic detail creepy Dystopian World', "world 's headed", 'A Great Dystopian Vision Future', 'recommended anyone interested ( rewardingly ) bleak futuristic thriller', 'Sweet Child Time . Will You See Light ?', 'Disturbing reminder current world', 'A World Total Chaos , Decline , &amp; Decay Glimmer Hope', 'Embedded', 'Bleak powerful', 'Not one best films', 'Rebirth ? ...', 'Alfonso Cuarón', 'Left Me Speechless', 'Strawberries , Bazooka King Crimson', 'What incredible realistic looking movie .', 'Beautiful']</t>
+          <t>['Well made  s doubt  But might want think twice watching ', 'Among top 10 decade', 'Exemplary direction lifts offbeat futuristic thriller', 'Daring vision Cuarn', 'Bleak Frightening', 'special', 'Growing old', 'Intolerance  Chaos  Infertility  Hope', 'Engaging exciting scifi interesting technically impressive delivery', 'Fine slick realization Alfonso Cuaron gives futuristic detail creepy Dystopian World', 'world s headed', 'A Great Dystopian Vision Future', 'recommended anyone interested  rewardingly  bleak futuristic thriller', 'Sweet Child Time  Will You See Light ', 'Disturbing reminder current world', 'A World Total Chaos  Decline   Decay Glimmer Hope', 'Embedded', 'Bleak powerful', 'Not one best films', 'Rebirth  ', 'Alfonso Cuarn', 'Left Me Speechless', 'Strawberries  Bazooka King Crimson', 'What incredible realistic looking movie ', 'Beautiful']</t>
         </is>
       </c>
     </row>
@@ -19489,7 +19489,7 @@
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>['Good bit scary old fashioned father .', 'A beautifully blossomed wallflower', 'Young Cast Heart', 'Charming Gem Picture', 'Harry ?', 'school unpleasant time', 'Decent Coming-of-Age Tale', 'A gritty teen film', 'The Perks Being Wallflower perhaps realistic touching teen relationships depicted film', 'Overrated', 'Incredible movie', 'Add It List Films That Make Me Glad I Never Have Relive High School', 'We infinite', 'Touching drama - worth watching', "'We accept love think deserve . '", 'Cliché', 'Good coming age film reminds high school days trying fit .', "The heart-touching story boy 's first high school year", 'Cool , sentimental , melodramatic', 'A Nutshell Review : The Perks Being Wallflower', 'Overrated , beautiful , symbolic , necessary , intense real , sensational plot twist ...', 'Were bonds really infinite ? Am I wallflower ?', 'Welcome Island Misfit Toys', 'Good Teen Film', 'My expectations minimal I say I loved !']</t>
+          <t>['Good bit scary old fashioned father ', 'A beautifully blossomed wallflower', 'Young Cast Heart', 'Charming Gem Picture', 'Harry ', 'school unpleasant time', 'Decent ComingofAge Tale', 'A gritty teen film', 'The Perks Being Wallflower perhaps realistic touching teen relationships depicted film', 'Overrated', 'Incredible movie', 'Add It List Films That Make Me Glad I Never Have Relive High School', 'We infinite', 'Touching drama  worth watching', 'We accept love think deserve  ', 'Clich', 'Good coming age film reminds high school days trying fit ', 'The hearttouching story boy s first high school year', 'Cool  sentimental  melodramatic', 'A Nutshell Review  The Perks Being Wallflower', 'Overrated  beautiful  symbolic  necessary  intense real  sensational plot twist ', 'Were bonds really infinite  Am I wallflower ', 'Welcome Island Misfit Toys', 'Good Teen Film', 'My expectations minimal I say I loved ']</t>
         </is>
       </c>
     </row>
@@ -19533,7 +19533,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>["Top 250 .... nah . But 's still good .", 'Funny really entertaining , even one-joke concept one works', 'Hilarious new take zombies', 'Fun Whole Family', 'The original zom rom com .', 'Pulling punches ( LPs matter )', 'The Gore Z-Day', 'What exactly `` Spaced `` ?', 'Not perfect , still hugely enjoyable .', 'The British Add Something New Zombie Genre', 'Snatch-Like Brit Zombies', 'A little bit dead parrot', 'slightly genre-confused , still good comedy/horror show', 'Partly successful attempt blend styles hard blend .', 'Great story characters', "`` You 've got red shirt . ``", 'Do believe everything hear TV ?', 'Well Edited But Not Much Else', 'Suitable Lazy Afternoon', 'Very good great', 'It funny viewers said would', 'Dogs', 'Deadening Routine ...', 'Zombie Slacker film ?', "They 're Coming Get You , Barbara"]</t>
+          <t>['Top 250  nah  But s still good ', 'Funny really entertaining  even onejoke concept one works', 'Hilarious new take zombies', 'Fun Whole Family', 'The original zom rom com ', 'Pulling punches  LPs matter ', 'The Gore ZDay', 'What exactly  Spaced  ', 'Not perfect  still hugely enjoyable ', 'The British Add Something New Zombie Genre', 'SnatchLike Brit Zombies', 'A little bit dead parrot', 'slightly genreconfused  still good comedyhorror show', 'Partly successful attempt blend styles hard blend ', 'Great story characters', ' You ve got red shirt  ', 'Do believe everything hear TV ', 'Well Edited But Not Much Else', 'Suitable Lazy Afternoon', 'Very good great', 'It funny viewers said would', 'Dogs', 'Deadening Routine ', 'Zombie Slacker film ', 'They re Coming Get You  Barbara']</t>
         </is>
       </c>
     </row>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>['Not best X-Men films since X2 , manages even better', 'constructed well connect old cast new', 'Superb , Even Those Us Who Are Little Dark', 'Tempus Fugit', 'Smart , also `` cheating ``', 'The Butterfly Effect', 'Enjoyable satisfying blockbuster thanks engaging narrative well delivered', 'This movie raises bar future X-Men movies ...', 'The best superhero movie yet ? I still catch , looks like serious contender .', 'Decent For Comic Fans', 'X-Men : Days Future Past another awesome entry series', 'A great blockbuster', 'Entertaining , though flawed', 'Marvel-ous', 'Next `` The Avengers `` ( 2012 ) best superhero film ever !', "Just X-Men series stumbled lost path n't mean ca n't saved", 'Groovy Sequel', 'The best series , time', 'Loved', 'Focuses best characters interesting story', 'Was sure expect , I ended enjoying latest X-men film', 'Nicely done', 'X-Men : Days Future Past', 'Serves apt goodbye old cast fitting initiation new one ; entertaining engaging .', 'One better X-Men , moving lot towards hard core fans']</t>
+          <t>['Not best XMen films since X2  manages even better', 'constructed well connect old cast new', 'Superb  Even Those Us Who Are Little Dark', 'Tempus Fugit', 'Smart  also  cheating ', 'The Butterfly Effect', 'Enjoyable satisfying blockbuster thanks engaging narrative well delivered', 'This movie raises bar future XMen movies ', 'The best superhero movie yet  I still catch  looks like serious contender ', 'Decent For Comic Fans', 'XMen  Days Future Past another awesome entry series', 'A great blockbuster', 'Entertaining  though flawed', 'Marvelous', 'Next  The Avengers   2012  best superhero film ever ', 'Just XMen series stumbled lost path nt mean ca nt saved', 'Groovy Sequel', 'The best series  time', 'Loved', 'Focuses best characters interesting story', 'Was sure expect  I ended enjoying latest Xmen film', 'Nicely done', 'XMen  Days Future Past', 'Serves apt goodbye old cast fitting initiation new one  entertaining engaging ', 'One better XMen  moving lot towards hard core fans']</t>
         </is>
       </c>
     </row>
@@ -19621,7 +19621,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>['Exceptional Noir', 'Dark gripping , Bogart one complex roles', 'Incredibly dark', 'What An Ego', 'Very Good', 'That Poor Woman !', 'Everybody lonely', 'A Magnificent Movie About Trusting In Suspicion', 'Good falls short great delivery material', 'Bogart Grahame awesome noir cinema protagonists', 'What right thing morally vacuous setting ?', 'Classic Bogart', 'Sad', 'Still Worth A Look', 'Pulpy , hard-bitten character study jaded air ...', 'Absorbing noir', 'Suspicion', "star two sides , sad tinge , one Ray 's great films", 'Down Out Beverly Hills', 'Worth Closer Look', 'Odd &amp; Offbeat Bogart Film-Noir ... Downer An Ending ... Sharp &amp; Brutal Character Study', 'Interesting Humphrey Bogart crime-drama', 'Clinically excellent noir drama .', 'Well-done classic', 'Bogart disturbed writer suspected murder ... study distrust relationship ...']</t>
+          <t>['Exceptional Noir', 'Dark gripping  Bogart one complex roles', 'Incredibly dark', 'What An Ego', 'Very Good', 'That Poor Woman ', 'Everybody lonely', 'A Magnificent Movie About Trusting In Suspicion', 'Good falls short great delivery material', 'Bogart Grahame awesome noir cinema protagonists', 'What right thing morally vacuous setting ', 'Classic Bogart', 'Sad', 'Still Worth A Look', 'Pulpy  hardbitten character study jaded air ', 'Absorbing noir', 'Suspicion', 'star two sides  sad tinge  one Ray s great films', 'Down Out Beverly Hills', 'Worth Closer Look', 'Odd  Offbeat Bogart FilmNoir  Downer An Ending  Sharp  Brutal Character Study', 'Interesting Humphrey Bogart crimedrama', 'Clinically excellent noir drama ', 'Welldone classic', 'Bogart disturbed writer suspected murder  study distrust relationship ']</t>
         </is>
       </c>
     </row>
@@ -19665,7 +19665,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>['Very nearly wonder', 'try hard tear-jerker', 'No Cheap Sentimentality', 'Mask', 'Heartwarming Story', 'Yeah , really good movie . Boy born Treacher Collins Syndrome .', 'Wonder', 'Got sobbing', 'Wonderful journey', 'sweet message movie', 'Generally generic enjoyably wholesome .', 'Wonderful family greatness', 'Heartwarming awesome .', "Suga , Suga , mo ' Suga", "Extremely relatable , ways film I 've ever seen !", 'Good family movie', 'The Real Problem', 'As Heartwarming Heartbreaking', 'A wonderful family film', 'Good', 'Beautiful ...', 'A beautiful message sweet sad story play emotions .', 'A kind-hearted lovable family drama', 'Wonder', 'The Vidiot Reviews ....']</t>
+          <t>['Very nearly wonder', 'try hard tearjerker', 'No Cheap Sentimentality', 'Mask', 'Heartwarming Story', 'Yeah  really good movie  Boy born Treacher Collins Syndrome ', 'Wonder', 'Got sobbing', 'Wonderful journey', 'sweet message movie', 'Generally generic enjoyably wholesome ', 'Wonderful family greatness', 'Heartwarming awesome ', 'Suga  Suga  mo  Suga', 'Extremely relatable  ways film I ve ever seen ', 'Good family movie', 'The Real Problem', 'As Heartwarming Heartbreaking', 'A wonderful family film', 'Good', 'Beautiful ', 'A beautiful message sweet sad story play emotions ', 'A kindhearted lovable family drama', 'Wonder', 'The Vidiot Reviews ']</t>
         </is>
       </c>
     </row>
@@ -19709,7 +19709,7 @@
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>["Eastwood 's intricately-plotted family drama", 'big time actors compelling murky mystery', 'great', 'A Tragic Story Loss Youth Contemporary Classic', 'end innocence optimism', 'Powerfully Compelling Film', 'Insensitive , irresponsible `` awards `` movie ...', 'Three men suffer effects childhood trauma one', 'rank among 5 best movies made 2003', 'Not crime thriller', 'When Bad Things Happen Bad People', 'Makes think justice', 'Innocence non-recoverable .', 'Three boyhood friends', 'Too Depressing', 'Way overpraised', 'Sad', 'This absolute masterpiece perfectly put together', "That 's One Gloomy River", 'Good see , Theo', '`` Good see Theo ``', 'A real character drama .', 'Excellent crime/mystery drama', "Clint Eastwood 's masterpiece ; one year 's best - truly exceptional acting instant classic making", 'Evils past problems vigilante justice']</t>
+          <t>['Eastwood s intricatelyplotted family drama', 'big time actors compelling murky mystery', 'great', 'A Tragic Story Loss Youth Contemporary Classic', 'end innocence optimism', 'Powerfully Compelling Film', 'Insensitive  irresponsible  awards  movie ', 'Three men suffer effects childhood trauma one', 'rank among 5 best movies made 2003', 'Not crime thriller', 'When Bad Things Happen Bad People', 'Makes think justice', 'Innocence nonrecoverable ', 'Three boyhood friends', 'Too Depressing', 'Way overpraised', 'Sad', 'This absolute masterpiece perfectly put together', 'That s One Gloomy River', 'Good see  Theo', ' Good see Theo ', 'A real character drama ', 'Excellent crimemystery drama', 'Clint Eastwood s masterpiece  one year s best  truly exceptional acting instant classic making', 'Evils past problems vigilante justice']</t>
         </is>
       </c>
     </row>
@@ -19753,7 +19753,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>['Shooting sight-seeing Bruges', 'Quirky hit-man outing', 'funny black comedy', 'British Dark Humor Best', "Does n't quite work still darkly comic entertaining", 'ringing Belgium', "English Mafia Films .. Here 's Another Good One", 'A new place purgatory', 'melancholy drama-comedy career criminals moral jeopardy', 'The Continuing Story Bungalow Ray', 'Thrilling funny time', 'Funny , poignant , genuinely interesting .', 'Drop Curtain Move On', 'The Setup', 'In fairytale city couple foul mouthed hit men .', 'Crass Vulgar', 'Ray , worst tourist whole world .', 'A Movie That Defies Description ( In Good Way )', 'Plenty Alcoves Bruges', 'Entertaining dark comedy ; Farrell &amp; Gleeson top games ; great work McDonagh - sleeper year !', 'gays , Americans , dwarfs , fatties much much', 'Forget DVD cover give one shot .', 'The Psychic Isolation Two Hit Men Bruges', 'Exceptional !', 'Rough around edges generally entertaining .']</t>
+          <t>['Shooting sightseeing Bruges', 'Quirky hitman outing', 'funny black comedy', 'British Dark Humor Best', 'Does nt quite work still darkly comic entertaining', 'ringing Belgium', 'English Mafia Films  Here s Another Good One', 'A new place purgatory', 'melancholy dramacomedy career criminals moral jeopardy', 'The Continuing Story Bungalow Ray', 'Thrilling funny time', 'Funny  poignant  genuinely interesting ', 'Drop Curtain Move On', 'The Setup', 'In fairytale city couple foul mouthed hit men ', 'Crass Vulgar', 'Ray  worst tourist whole world ', 'A Movie That Defies Description  In Good Way ', 'Plenty Alcoves Bruges', 'Entertaining dark comedy  Farrell  Gleeson top games  great work McDonagh  sleeper year ', 'gays  Americans  dwarfs  fatties much much', 'Forget DVD cover give one shot ', 'The Psychic Isolation Two Hit Men Bruges', 'Exceptional ', 'Rough around edges generally entertaining ']</t>
         </is>
       </c>
     </row>
@@ -19797,7 +19797,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>['This mind-blowing !', "Visually startling interesting , I n't entirely involved", 'Great original sci-fi', 'A Different Type Sci-Fi', 'A Sociological Sci Fi Thriller', 'great film', 'Alien Nation', 'Very well documented praise ...', 'Not insightful intelligent claim makes entertaining summer blockbuster', "You 'll never look prawns way ...", 'An extraterrestrial population confined forced live concentration camp', 'Hard-core prawn action .', 'A Nice Analogy About Racism Oppression', 'ruthless satire ( mostly ) kick-ass blockbuster', "I 'm Alien . I 'm legal Alien ... I 'm Prawn Jo'Burg !", 'Phenomenally astonishing', "Highly original watchable , even 're sci fi", 'Bean Encounters', 'The theme `` District 9 `` perhaps metaphor apartheid ! !', 'A Bit Disappointing', 'An Astonishing Feature Film Debut ...', 'DISTRICT 9 ( Neill Blomkamp , 2009 ) * * *', "I ca n't believe I get paid . I love watching prawns die .", 'Well Executed , But Demoralizing Depressing', 'One greatest films I ever watched , best recent years light years']</t>
+          <t>['This mindblowing ', 'Visually startling interesting  I nt entirely involved', 'Great original scifi', 'A Different Type SciFi', 'A Sociological Sci Fi Thriller', 'great film', 'Alien Nation', 'Very well documented praise ', 'Not insightful intelligent claim makes entertaining summer blockbuster', 'You ll never look prawns way ', 'An extraterrestrial population confined forced live concentration camp', 'Hardcore prawn action ', 'A Nice Analogy About Racism Oppression', 'ruthless satire  mostly  kickass blockbuster', 'I m Alien  I m legal Alien  I m Prawn JoBurg ', 'Phenomenally astonishing', 'Highly original watchable  even re sci fi', 'Bean Encounters', 'The theme  District 9  perhaps metaphor apartheid  ', 'A Bit Disappointing', 'An Astonishing Feature Film Debut ', 'DISTRICT 9  Neill Blomkamp  2009    ', 'I ca nt believe I get paid  I love watching prawns die ', 'Well Executed  But Demoralizing Depressing', 'One greatest films I ever watched  best recent years light years']</t>
         </is>
       </c>
     </row>
@@ -19841,7 +19841,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>['Incredibly depressing ... AMAZING performances great script .', 'Irreconcilable Differences', "Should 've Been Called `` Divorce Story ``", 'Marriage Story', 'Well acted , slow .', 'Live together , apart Kramer vs Kramer reboot', 'Beautiful Heartbreaking', 'Black Widow meets Kylo Ren', 'Sadly realistic depiction family going divorce .', 'Gives heavy heart', 'Good takes fair bit patience', 'As someone went divorce I tell brought back many emotions bad memories .', 'true life ... much arguing .', 'Career Best', 'masterful story telling acting', 'Not , long , simple , boring .', 'Divorce good bad ugly', "' I never really came alive ; I feeding aliveness '", 'Full love despite divorce .', 'A film make one feel sad gloom , still performances story direct honest .', 'Film Review - Marriage Story ( 2019 ) 7.8/10', 'Mgtow movie', 'Astonishing way', "Watch `` Kramer Vs Kramer `` instead , 's much better acted , touching spark , wit punch .", 'interesting']</t>
+          <t>['Incredibly depressing  AMAZING performances great script ', 'Irreconcilable Differences', 'Should ve Been Called  Divorce Story ', 'Marriage Story', 'Well acted  slow ', 'Live together  apart Kramer vs Kramer reboot', 'Beautiful Heartbreaking', 'Black Widow meets Kylo Ren', 'Sadly realistic depiction family going divorce ', 'Gives heavy heart', 'Good takes fair bit patience', 'As someone went divorce I tell brought back many emotions bad memories ', 'true life  much arguing ', 'Career Best', 'masterful story telling acting', 'Not  long  simple  boring ', 'Divorce good bad ugly', ' I never really came alive  I feeding aliveness ', 'Full love despite divorce ', 'A film make one feel sad gloom  still performances story direct honest ', 'Film Review  Marriage Story  2019  7810', 'Mgtow movie', 'Astonishing way', 'Watch  Kramer Vs Kramer  instead  s much better acted  touching spark  wit punch ', 'interesting']</t>
         </is>
       </c>
     </row>
@@ -19885,7 +19885,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>["This NOT good idea 're looking family film , 's sure !", "`` Remember 's business ``", 'Great performances weight loss', 'Wonderful Performances Real Human Story', "Could n't Take My Eyes Off It", 'film', 'All drugs need', 'Real', 'Consistent engaging story told strong lead performance refreshing lack sentimentality', 'changing consciousness', 'Best Film 2013', 'Purging human spirit prejudice', "AIDS '80s", 'Dallas Buyers Club fine performances Matthew McConaughey , Jared Leto , Jennifer Garner', 'Well made', 'A good drama', 'Low-Budget Triumph Medical-Socio-Political Humanistic Scandal', 'Great movie', 'A Club You Hope You Never Have Join', 'The performances Mathew McConaughey Jared Leno define movie', "DALLAS BUYERS CLUB ( Jean-Marc Vallee ' , 2013 ) * * *", 'How Survive Epidemic', 'I like Your Style', 'Wonderful movie outstanding performances .', 'Shocking weight loss actors aside , interesting lesson FDA']</t>
+          <t>['This NOT good idea re looking family film  s sure ', ' Remember s business ', 'Great performances weight loss', 'Wonderful Performances Real Human Story', 'Could nt Take My Eyes Off It', 'film', 'All drugs need', 'Real', 'Consistent engaging story told strong lead performance refreshing lack sentimentality', 'changing consciousness', 'Best Film 2013', 'Purging human spirit prejudice', 'AIDS 80s', 'Dallas Buyers Club fine performances Matthew McConaughey  Jared Leto  Jennifer Garner', 'Well made', 'A good drama', 'LowBudget Triumph MedicalSocioPolitical Humanistic Scandal', 'Great movie', 'A Club You Hope You Never Have Join', 'The performances Mathew McConaughey Jared Leno define movie', 'DALLAS BUYERS CLUB  JeanMarc Vallee   2013    ', 'How Survive Epidemic', 'I like Your Style', 'Wonderful movie outstanding performances ', 'Shocking weight loss actors aside  interesting lesson FDA']</t>
         </is>
       </c>
     </row>
@@ -19929,7 +19929,7 @@
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>['whole lotta dumb hoods one !', "One Brian De Palma 's best films", 'A second gangster classic De Palma', 'They pull Al Pacino back film well', 'Good solid gangster movie', 'Tough Gangster Picture Great Performances', 'alive story', 'Say Hello Lawyers friend', 'Even Al Pacino gets typecast crime-related roles , movies like justify', "Sean Penn 's Best Role", 'De Palma - Pacino', 'another great Pacino performance', "`` If ca n't see angles , 're trouble `` - One best 1993 , sublimely self-conscious crime picture", "That 's Way ( I Like It ) Penelope , Penn , Pacino , &amp; De Palma", '`` I Born Again , like Watergaters ! ``', 'Great movie', 'Why I Liked This Film', 'Not Godfather Scarface good , good', 'The awesome action sequence regarding escalator one best', 'Classic Pacino flick', 'This movie absolutely incredible worthwhile storyline , characters set circumstances .', "The dream n't come closer . We got ta run .", 'Just thought pull back !', "I always rated one consider one de Palma 's best", 'Brilliantly done crime flick']</t>
+          <t>['whole lotta dumb hoods one ', 'One Brian De Palma s best films', 'A second gangster classic De Palma', 'They pull Al Pacino back film well', 'Good solid gangster movie', 'Tough Gangster Picture Great Performances', 'alive story', 'Say Hello Lawyers friend', 'Even Al Pacino gets typecast crimerelated roles  movies like justify', 'Sean Penn s Best Role', 'De Palma  Pacino', 'another great Pacino performance', ' If ca nt see angles  re trouble   One best 1993  sublimely selfconscious crime picture', 'That s Way  I Like It  Penelope  Penn  Pacino   De Palma', ' I Born Again  like Watergaters  ', 'Great movie', 'Why I Liked This Film', 'Not Godfather Scarface good  good', 'The awesome action sequence regarding escalator one best', 'Classic Pacino flick', 'This movie absolutely incredible worthwhile storyline  characters set circumstances ', 'The dream nt come closer  We got ta run ', 'Just thought pull back ', 'I always rated one consider one de Palma s best', 'Brilliantly done crime flick']</t>
         </is>
       </c>
     </row>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>['The best Pixar film ( far ) good bit better original', 'Finally , sequel surpasses predecessor !', 'Better sequel', 'Love rescue party', 'Good Sequel', 'The Boys Are Back Town', 'Great plot , great characters laughs ages \x96 really bad word say', 'Excellent Pixar Entry', "Even Better Than The First 'Toy Story '", '`` Life worth living love boy `` , says Buzz Lightyear Woody .', 'The sequel equal', "Begins great fanfare , ca n't sustain level excitement", 'I liked ...', "Toy Story 2 nearly consistently entertaining 's predecessor", 'Great fun fans first film .', 'Rollicking , entertaining adventure', 'Battling Films', 'No sequelitis Pixar mob .', 'Fun kids adults', 'Solid proof sequels always inferior ...', 'More toys', "You 'd think video game experience , I 'd prepared", 'A welcome followup expands best ways', 'Toy Story 2', "I 'm impressed"]</t>
+          <t>['The best Pixar film  far  good bit better original', 'Finally  sequel surpasses predecessor ', 'Better sequel', 'Love rescue party', 'Good Sequel', 'The Boys Are Back Town', 'Great plot  great characters laughs ages  really bad word say', 'Excellent Pixar Entry', 'Even Better Than The First Toy Story ', ' Life worth living love boy   says Buzz Lightyear Woody ', 'The sequel equal', 'Begins great fanfare  ca nt sustain level excitement', 'I liked ', 'Toy Story 2 nearly consistently entertaining s predecessor', 'Great fun fans first film ', 'Rollicking  entertaining adventure', 'Battling Films', 'No sequelitis Pixar mob ', 'Fun kids adults', 'Solid proof sequels always inferior ', 'More toys', 'You d think video game experience  I d prepared', 'A welcome followup expands best ways', 'Toy Story 2', 'I m impressed']</t>
         </is>
       </c>
     </row>
@@ -20017,7 +20017,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>['One finest anime films time', 'looks cool', 'Does expect well lacks heart humanity debate', 'A top-quality animation film cyborg trail super hacker nicknamed Puppet Master', 'Great science fiction happens animated', "visually striking futuristic/sci-fi anime get ; possibly Oshii 's finest achievement", 'A complex story set futuristic times', 'ALONG WITH `` AKIRA `` ( 1988 ) ... PUT ANIME ON THE INTERNATIONAL MAP', 'Intriguing , action-filled animated sci fi drama', 'Cerebral Action Packed', 'This anime masterpiece absolute must see', 'A complex , heady thriller , far beyond assumptions expectations', 'Leaves mark', 'Look picture .', 'An action film depth', 'Cinema Omnivore - Ghost Shell ( 1995 ) 7.9/10', 'decent overrated', 'A Thought-Provoking Commentary On What It Means To Be Human', "Yeah , version 's better", 'Cyber Punk', 'Ghost story', 'Creative , Not Spectacular Anymore', 'High-tech world lot thought', 'Nice', 'Still one best examples genre']</t>
+          <t>['One finest anime films time', 'looks cool', 'Does expect well lacks heart humanity debate', 'A topquality animation film cyborg trail super hacker nicknamed Puppet Master', 'Great science fiction happens animated', 'visually striking futuristicscifi anime get  possibly Oshii s finest achievement', 'A complex story set futuristic times', 'ALONG WITH  AKIRA   1988   PUT ANIME ON THE INTERNATIONAL MAP', 'Intriguing  actionfilled animated sci fi drama', 'Cerebral Action Packed', 'This anime masterpiece absolute must see', 'A complex  heady thriller  far beyond assumptions expectations', 'Leaves mark', 'Look picture ', 'An action film depth', 'Cinema Omnivore  Ghost Shell  1995  7910', 'decent overrated', 'A ThoughtProvoking Commentary On What It Means To Be Human', 'Yeah  version s better', 'Cyber Punk', 'Ghost story', 'Creative  Not Spectacular Anymore', 'Hightech world lot thought', 'Nice', 'Still one best examples genre']</t>
         </is>
       </c>
     </row>
@@ -20061,7 +20061,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>['This great film ushered opposed actual content ...', 'One word : Classic !', "Legends Rock n ' Roll", 'Mockumentary Improvisation', 'I Wish I Could Give Eleven', 'A hilarious little spoof - wit rather clumsy stuff', '`` spinal `` chords', 'Metal NOT fad .', 'Great Satire 1970s.1980s Metal Scene', 'Must Have Been Hard To Keep A Straight Face', 'Playful mockumentary whiff smugness', 'Hello Cleaveland ! Still one funniest films ever even better DVD', 'Incredibly funny : true comedy classic .', 'A comedic masterpiece', 'Smug unfunny', 'Great', 'Probably Takes Some Getting Used To', 'What fresh cliché', "Laughs '11 ' ; one greatest comedies ever filmed !", 'Ok', 'quite funny enough', "I 've waited 20 years see I know Jamie fell love Guest !", 'Deserves fame', 'Excess areas', "Comedy n't get better"]</t>
+          <t>['This great film ushered opposed actual content ', 'One word  Classic ', 'Legends Rock n  Roll', 'Mockumentary Improvisation', 'I Wish I Could Give Eleven', 'A hilarious little spoof  wit rather clumsy stuff', ' spinal  chords', 'Metal NOT fad ', 'Great Satire 1970s1980s Metal Scene', 'Must Have Been Hard To Keep A Straight Face', 'Playful mockumentary whiff smugness', 'Hello Cleaveland  Still one funniest films ever even better DVD', 'Incredibly funny  true comedy classic ', 'A comedic masterpiece', 'Smug unfunny', 'Great', 'Probably Takes Some Getting Used To', 'What fresh clich', 'Laughs 11   one greatest comedies ever filmed ', 'Ok', 'quite funny enough', 'I ve waited 20 years see I know Jamie fell love Guest ', 'Deserves fame', 'Excess areas', 'Comedy nt get better']</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>['Magnificent', '`` Moses , Take What Spoils You Will From Egypt And Go ``', 'Old Hollywood extravaganza', 'DeMille Saves Best Last', 'Thou Shalt Not Bore', 'A long way go', 'NRA president meets king Siam meets Little Caesar meets Lily Munster meets Dr. Phibes', 'The Great Biblical Epic', '11th Commandment : Thou Needeth A Remake !', 'Certainly classic kind ...', 'Oh Moses , Moses , stubborn , splendid , adorable fool !', 'memories red seas crazy Golden parties', 'I Command You See Great Film ! * * * *', 'Spiritual Sensationalsim', 'His God `` `` God !', 'Looks magnificent Hi-Def widescreen cable TV ...', 'Niiice', 'Fun Despite Over Inflation', 'Confession , I watch Yul Brynner', 'Even opening logo epic .', 'Epic', 'Spectacular reverent Biblical epic', 'The 31 Year Old Anne Baxter', 'Epic Biblical Drama About Moses .', 'A Fine Achievement']</t>
+          <t>['Magnificent', ' Moses  Take What Spoils You Will From Egypt And Go ', 'Old Hollywood extravaganza', 'DeMille Saves Best Last', 'Thou Shalt Not Bore', 'A long way go', 'NRA president meets king Siam meets Little Caesar meets Lily Munster meets Dr Phibes', 'The Great Biblical Epic', '11th Commandment  Thou Needeth A Remake ', 'Certainly classic kind ', 'Oh Moses  Moses  stubborn  splendid  adorable fool ', 'memories red seas crazy Golden parties', 'I Command You See Great Film     ', 'Spiritual Sensationalsim', 'His God   God ', 'Looks magnificent HiDef widescreen cable TV ', 'Niiice', 'Fun Despite Over Inflation', 'Confession  I watch Yul Brynner', 'Even opening logo epic ', 'Epic', 'Spectacular reverent Biblical epic', 'The 31 Year Old Anne Baxter', 'Epic Biblical Drama About Moses ', 'A Fine Achievement']</t>
         </is>
       </c>
     </row>
@@ -20149,7 +20149,7 @@
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>['A great film Sergio Leone', 'The sleepy town San Miguel', 'Spaghetti Western Classic', 'Fun , Violent Remake Yojimbo', '`` Yojimbo `` Revisited - The Beginning Spaghetti Westerns', 'Classic spaghetti feast', 'Good Western movie ...', 'The first original installment ¨Dollars trilogy¨ Clint Eastwood ¨Man name¨ .', 'My parents drove town Spain filmed .', 'Classic Clint , stubble squint .', "Good , But Not Leone 's Best", "Exciting Western remake n't lose 's energy forty years", 'Sergio Leone puts Clint Eastwood Map', "`` Well , 's cozy , I n't find men appealing . ``", "Clint Eastwood 's big break", 'Two Families Stranger', "Clint makes mark Sergio Leone 's spaghetti western ...", 'Breakthrough film Sergio Leone Clint Eastwood', 'Smoke', 'Both Ends Against Middle', 'This must see .', 'My mistake . Four coffins ...', 'Nasty , violent , gripping - beautiful , rich , brilliant', 'Weakest Trilogy', 'The birth new genre .']</t>
+          <t>['A great film Sergio Leone', 'The sleepy town San Miguel', 'Spaghetti Western Classic', 'Fun  Violent Remake Yojimbo', ' Yojimbo  Revisited  The Beginning Spaghetti Westerns', 'Classic spaghetti feast', 'Good Western movie ', 'The first original installment Dollars trilogy Clint Eastwood Man name ', 'My parents drove town Spain filmed ', 'Classic Clint  stubble squint ', 'Good  But Not Leone s Best', 'Exciting Western remake nt lose s energy forty years', 'Sergio Leone puts Clint Eastwood Map', ' Well  s cozy  I nt find men appealing  ', 'Clint Eastwood s big break', 'Two Families Stranger', 'Clint makes mark Sergio Leone s spaghetti western ', 'Breakthrough film Sergio Leone Clint Eastwood', 'Smoke', 'Both Ends Against Middle', 'This must see ', 'My mistake  Four coffins ', 'Nasty  violent  gripping  beautiful  rich  brilliant', 'Weakest Trilogy', 'The birth new genre ']</t>
         </is>
       </c>
     </row>
@@ -20193,7 +20193,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>["What 's one review ? !", 'Breathtaking cinema', 'An Amazing Adventure', 'Ang Lee films unfilmable', "One Most Beautiful Films You 're Going See", 'Master Storytelling !', 'seduction pure form', 'A glorious film .', 'Living life', 'Overrated Adventure Based `` Max e os Felinos ``', 'Runs longer needs spectacle hurts substance , even looks good', 'math symbol moving next stage life', "Ang Lee 's Life Pi another masterpieces", 'outstanding film much food thought', 'Not Well Grounded', 'Incredible , heart-warming movie', 'A Small Redemption Ang Lee', "It 'd perhaps looked better 3D 2D", 'Ship', "The tiger n't friendly", 'This magical picture absolute must see', 'Made Me Wish I Could Believe God', 'Big Tiger , Small Boat', 'Deserves Oscars .', 'Cast Adrift Bengal Tiger']</t>
+          <t>['What s one review  ', 'Breathtaking cinema', 'An Amazing Adventure', 'Ang Lee films unfilmable', 'One Most Beautiful Films You re Going See', 'Master Storytelling ', 'seduction pure form', 'A glorious film ', 'Living life', 'Overrated Adventure Based  Max e os Felinos ', 'Runs longer needs spectacle hurts substance  even looks good', 'math symbol moving next stage life', 'Ang Lee s Life Pi another masterpieces', 'outstanding film much food thought', 'Not Well Grounded', 'Incredible  heartwarming movie', 'A Small Redemption Ang Lee', 'It d perhaps looked better 3D 2D', 'Ship', 'The tiger nt friendly', 'This magical picture absolute must see', 'Made Me Wish I Could Believe God', 'Big Tiger  Small Boat', 'Deserves Oscars ', 'Cast Adrift Bengal Tiger']</t>
         </is>
       </c>
     </row>
@@ -20237,7 +20237,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>['Faboulously original .', 'Very intriguing', "culmination Linklater 's sensibilities", 'More Than Just Gimmick', 'Is It Just Gimmicky ?', 'I love', 'A child time', 'Life ( moving )', 'matter happens , must keep going', 'A Brilliant Concept , But Execution Is Spotty', 'An almost good idea', 'Scrapbook episodes : touchstone audiences , alienating others', 'Richard Linklater really worthy 12-year project Boyhood', 'A unique offering', 'Wonderful , innovative movie', 'Easier To Respect Than To Genuinely Enjoy', 'Unassuming Masterpiece', 'Instead `` Before `` , During', 'Twelve year project well executed', 'It Happened Here', "'Like watching paint dry '", 'Very good ( even I wished I liked much everyone else )', 'A special film', "An excellent wonderful film life , discovery , 's growing time .", "film unique , groundbreaking , winsome crowd-pleasing , 's one expect ?"]</t>
+          <t>['Faboulously original ', 'Very intriguing', 'culmination Linklater s sensibilities', 'More Than Just Gimmick', 'Is It Just Gimmicky ', 'I love', 'A child time', 'Life  moving ', 'matter happens  must keep going', 'A Brilliant Concept  But Execution Is Spotty', 'An almost good idea', 'Scrapbook episodes  touchstone audiences  alienating others', 'Richard Linklater really worthy 12year project Boyhood', 'A unique offering', 'Wonderful  innovative movie', 'Easier To Respect Than To Genuinely Enjoy', 'Unassuming Masterpiece', 'Instead  Before   During', 'Twelve year project well executed', 'It Happened Here', 'Like watching paint dry ', 'Very good  even I wished I liked much everyone else ', 'A special film', 'An excellent wonderful film life  discovery  s growing time ', 'film unique  groundbreaking  winsome crowdpleasing  s one expect ']</t>
         </is>
       </c>
     </row>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>['A masterpiece expressionism terror', 'Horror icon', 'Masterpiece Vampire Saga', 'Perhaps Ugliest Vampire All Time', 'pure masterpiece', 'Creepy Count', 'One hundred years old , still plenty bite !', 'A Masterpiece German Expressionism', 'Silent classic unforgettable rodent face Max Schrenk horrifying screen vampires', 'inter-war German cinema', 'Iconic ? Yes . Influential ? Undoubtedly . Entertaining ? Hmmmm .', 'The First Dracula , One Greatest', 'Nothing Much , Just Another Pretty Face', "truly original Vampire film- tale Gothic legend Murnau 's masterpiece", '`` Is wife ? What lovely throat ! ``', 'F.W . Murnau Creates Monster', 'Dracula masterpiece silent screen .', 'One Top 10 `` Silents `` ... Pristine Prints Now Available ... Essential Viewing', 'An absolute classic', 'One best vampire films ever made', 'A chilly experience ... Max Schreck makes great vampire ...', 'Somewhat groundbreaking', '`` And When He Had Crossed The Bridge , The Phantoms Came To Meet Him ! `` ...', '`` Here begins land phantoms ... ``', 'This maybe first classic masterpiece horror film']</t>
+          <t>['A masterpiece expressionism terror', 'Horror icon', 'Masterpiece Vampire Saga', 'Perhaps Ugliest Vampire All Time', 'pure masterpiece', 'Creepy Count', 'One hundred years old  still plenty bite ', 'A Masterpiece German Expressionism', 'Silent classic unforgettable rodent face Max Schrenk horrifying screen vampires', 'interwar German cinema', 'Iconic  Yes  Influential  Undoubtedly  Entertaining  Hmmmm ', 'The First Dracula  One Greatest', 'Nothing Much  Just Another Pretty Face', 'truly original Vampire film tale Gothic legend Murnau s masterpiece', ' Is wife  What lovely throat  ', 'FW  Murnau Creates Monster', 'Dracula masterpiece silent screen ', 'One Top 10  Silents   Pristine Prints Now Available  Essential Viewing', 'An absolute classic', 'One best vampire films ever made', 'A chilly experience  Max Schreck makes great vampire ', 'Somewhat groundbreaking', ' And When He Had Crossed The Bridge  The Phantoms Came To Meet Him   ', ' Here begins land phantoms  ', 'This maybe first classic masterpiece horror film']</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>["So 's historically inaccurate ?", 'Benchmark historical epic', 'The Eternal Cry For Freedom', 'Iconic masterpiece', "One Greatest Casts You 're Ever Going See", 'special', 'Spartacus', 'Power .. People', "tell n't Kubrick 's idea", "I n't like Braveheart much either .", "Of His Work , The Least Influence Kubrick 's Film", "Expansive really expressive ; Kubrick 's spectacular entertaining awfully dour ...", 'Not Perfect , better Ben-Hur', 'Spartacus ! O Those Roman Rebellions * * *', "I 'm Spartacus ! He 's Spartacus ! We 're All Spartacus !", '`` Live Free Die ``', 'The sword sandal epic everything .', 'A Great Movie Due To Its Romantic Ideals', 'GREAT historical epic', 'Very famous classic', 'A good body dull brain cheap life .', 'Good Hollywood Film ; Ehh Kubrick Film', "Kubrick 's epic .", "Gladiators n't make friends", 'Hit Myth']</t>
+          <t>['So s historically inaccurate ', 'Benchmark historical epic', 'The Eternal Cry For Freedom', 'Iconic masterpiece', 'One Greatest Casts You re Ever Going See', 'special', 'Spartacus', 'Power  People', 'tell nt Kubrick s idea', 'I nt like Braveheart much either ', 'Of His Work  The Least Influence Kubrick s Film', 'Expansive really expressive  Kubrick s spectacular entertaining awfully dour ', 'Not Perfect  better BenHur', 'Spartacus  O Those Roman Rebellions   ', 'I m Spartacus  He s Spartacus  We re All Spartacus ', ' Live Free Die ', 'The sword sandal epic everything ', 'A Great Movie Due To Its Romantic Ideals', 'GREAT historical epic', 'Very famous classic', 'A good body dull brain cheap life ', 'Good Hollywood Film  Ehh Kubrick Film', 'Kubrick s epic ', 'Gladiators nt make friends', 'Hit Myth']</t>
         </is>
       </c>
     </row>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>["I agree , Terry Gilliam 's masterpiece", 'Original vision', 'Forget About Sustained Plot', 'magnificent', 'Great movie !', 'Visually fantastic plot needed work', 'An employee state lover mercilessly pursued Pythonesque version 1984', 'Could come true ?', 'Gilliam His Bizarre Retro-Future', "one Terry Gilliam 's , 80 's , audacious , take leave works auteur cinema", 'This film takes incredible journey .', 'OVERWHELMING OVERLOAD ... CLUTTERED BLACK-COMEDY ... AN AVALANCHE OF AUDACITY', 'Where Whys Whats ?', 'ya got ta watch !', "It 's Monty Python Meets George Orwell Aldous Huxley", 'Unique strange imaginative movie .', "Ca n't make move without form", 'I find hard get enjoy', 'A tough nut crack', "Gilliam 's dystopian vision", 'Nuts Brazil', 'Is ?', 'Flip side The Trial truly butchered television', '`` 1984 `` Redux - Gilliam masterpiece , clever cynical .', "When director 's style steals story 's thunder ..."]</t>
+          <t>['I agree  Terry Gilliam s masterpiece', 'Original vision', 'Forget About Sustained Plot', 'magnificent', 'Great movie ', 'Visually fantastic plot needed work', 'An employee state lover mercilessly pursued Pythonesque version 1984', 'Could come true ', 'Gilliam His Bizarre RetroFuture', 'one Terry Gilliam s  80 s  audacious  take leave works auteur cinema', 'This film takes incredible journey ', 'OVERWHELMING OVERLOAD  CLUTTERED BLACKCOMEDY  AN AVALANCHE OF AUDACITY', 'Where Whys Whats ', 'ya got ta watch ', 'It s Monty Python Meets George Orwell Aldous Huxley', 'Unique strange imaginative movie ', 'Ca nt make move without form', 'I find hard get enjoy', 'A tough nut crack', 'Gilliam s dystopian vision', 'Nuts Brazil', 'Is ', 'Flip side The Trial truly butchered television', ' 1984  Redux  Gilliam masterpiece  clever cynical ', 'When director s style steals story s thunder ']</t>
         </is>
       </c>
     </row>
@@ -20413,7 +20413,7 @@
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>["It ai n't Christmas without seeing movie !", 'Magical imaginative- true delight Christmas season', 'Christmas classic', "`` You 'd Better Watch Out , You 'd Better Not Cry .................. ``", 'Heartwarming family movie', 'One Top Five Holidays', 'perfect', 'An Interesting Combination Christmas Law', 'A deserved Christmas classic', 'Edmund Gwenn Santa : deserving Oscar winner', 'The original Miracle 34th Street still among best holiday fare !', 'Great Film Fun Highlights Good Values Film * * * *', "`` Christmas n't day . It 's frame mind . ``", 'Wonderful Christmas movie', 'Delightful best use umbrella ever !', 'Suitable Entire Family', 'Perfectly embodies Christmas spirit', 'Those Lovely Intangibles', "This Christmas classic n't greats time still must see", "It would n't Christmas without movie", 'Three Oscars definitely deserved', 'Natalie Wood Is Adorable', 'Many miracles happened Christmas', 'Miracle On Any Street .', 'Miracle 34th Street']</t>
+          <t>['It ai nt Christmas without seeing movie ', 'Magical imaginative true delight Christmas season', 'Christmas classic', ' You d Better Watch Out  You d Better Not Cry  ', 'Heartwarming family movie', 'One Top Five Holidays', 'perfect', 'An Interesting Combination Christmas Law', 'A deserved Christmas classic', 'Edmund Gwenn Santa  deserving Oscar winner', 'The original Miracle 34th Street still among best holiday fare ', 'Great Film Fun Highlights Good Values Film    ', ' Christmas nt day  It s frame mind  ', 'Wonderful Christmas movie', 'Delightful best use umbrella ever ', 'Suitable Entire Family', 'Perfectly embodies Christmas spirit', 'Those Lovely Intangibles', 'This Christmas classic nt greats time still must see', 'It would nt Christmas without movie', 'Three Oscars definitely deserved', 'Natalie Wood Is Adorable', 'Many miracles happened Christmas', 'Miracle On Any Street ', 'Miracle 34th Street']</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>['One best western genre', "Sam 's Best Violence Ballet", 'A new era violence', 'Worthy label `` classic ``', "Pekinpah 's best movie magnificent scenes stimulating images", 'movie shows wild west wild', "Peckinpah 's highly influential western .", 'Makes Rambo Look Like Sissy', 'The absolute masterpiece .', "Groundbreaking ? Yes , But That Does n't Make It Good", 'dusky highly overrated western', 'A red-blooded western enough cinematic fireballs four', 'Sam Peckinpah Shoots Westerns Dead', 'Worth Closer Look', 'As Influential As Any Film', 'Raw classic', "The Woman 's String", 'Brutal elegiac masterpiece .', 'A `` classic `` aged badly', 'Groundbreaking use slow motion', 'Last Chance ...', 'This worthwhile addition western genre must see fans genre', "Sam Peckinpah 's Bloody Wild West", 'Wild indeed .', "Peckinpah 's bloody masterpiece ; ultimate male bonding pic"]</t>
+          <t>['One best western genre', 'Sam s Best Violence Ballet', 'A new era violence', 'Worthy label  classic ', 'Pekinpah s best movie magnificent scenes stimulating images', 'movie shows wild west wild', 'Peckinpah s highly influential western ', 'Makes Rambo Look Like Sissy', 'The absolute masterpiece ', 'Groundbreaking  Yes  But That Does nt Make It Good', 'dusky highly overrated western', 'A redblooded western enough cinematic fireballs four', 'Sam Peckinpah Shoots Westerns Dead', 'Worth Closer Look', 'As Influential As Any Film', 'Raw classic', 'The Woman s String', 'Brutal elegiac masterpiece ', 'A  classic  aged badly', 'Groundbreaking use slow motion', 'Last Chance ', 'This worthwhile addition western genre must see fans genre', 'Sam Peckinpah s Bloody Wild West', 'Wild indeed ', 'Peckinpah s bloody masterpiece  ultimate male bonding pic']</t>
         </is>
       </c>
     </row>
@@ -20501,7 +20501,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>["like watching episode `` Mama 's Family ``", 'Superb film one best films 1968', 'Christmas With Henry And Eleanor Plantagenet', 'Big time acting big time actors', "A Tour de Force O'Toole Hepburn", 'gem', 'Machiavellian Dysfunctional Family Snakes', "Extraordinary battle wits verbal warfare O'Toole Hepburn", 'lion king jungle , England', "Peter O'Toole King", 'Well-acted one-note', "Kind Medieval `` Who 's Afraid Virginia Woolf ``", 'Chinon , native town !', 'Game Thrones 68', 'Gall Family', 'Interesting slow , overwrought overshouted', 'I marvel years . Still like democratic drawbridge : going everybody .', 'Dysfunctional family comes home holidays ...', 'Incredible acting', 'A historical drama brilliant biting', 'A Glorious Royal Feud', "Please Knight Peter O'Toole !", 'The Lion Winter', 'Eleanor Baaaston', "Excellent Film inspiring performances 'll ever see long time"]</t>
+          <t>['like watching episode  Mama s Family ', 'Superb film one best films 1968', 'Christmas With Henry And Eleanor Plantagenet', 'Big time acting big time actors', 'A Tour de Force OToole Hepburn', 'gem', 'Machiavellian Dysfunctional Family Snakes', 'Extraordinary battle wits verbal warfare OToole Hepburn', 'lion king jungle  England', 'Peter OToole King', 'Wellacted onenote', 'Kind Medieval  Who s Afraid Virginia Woolf ', 'Chinon  native town ', 'Game Thrones 68', 'Gall Family', 'Interesting slow  overwrought overshouted', 'I marvel years  Still like democratic drawbridge  going everybody ', 'Dysfunctional family comes home holidays ', 'Incredible acting', 'A historical drama brilliant biting', 'A Glorious Royal Feud', 'Please Knight Peter OToole ', 'The Lion Winter', 'Eleanor Baaaston', 'Excellent Film inspiring performances ll ever see long time']</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>["I n't understand excitement", 'Simply breathtaking !', "Ang Lee 's kung fu masterpiece", "Just please n't laugh", "A beautiful story good v 's evil unrequited love", 'A rich , enjoyable romantic take Chinese Martial Arts genre inventive choreography', "I ca n't even begin describe .", 'A great introduction Chinese cinema', 'Dance Disguised Martial Arts', 'Beautiful , Fascinating ..... And Yet Uninvolving', 'Perhaps bit overrated come , still nice movie .', 'Excellent Martial Art Sequences true power', 'Great action', 'A Sword Play', 'Transcends level action film looks beautiful artistic', 'Boring', 'Not As Good As Is Made Out Down To One Reason', 'Stylized Artistic', 'Beautiful cinematography , great fights -- little else', "Have n't I seen ?", 'This well executed movie definition art', 'A faithful heart makes wishes come true .', "Lee 's Movie Takes Flight ( And So Do Its Actors )", 'Fantasy art story', 'Good looking movie good fight everything else ...']</t>
+          <t>['I nt understand excitement', 'Simply breathtaking ', 'Ang Lee s kung fu masterpiece', 'Just please nt laugh', 'A beautiful story good v s evil unrequited love', 'A rich  enjoyable romantic take Chinese Martial Arts genre inventive choreography', 'I ca nt even begin describe ', 'A great introduction Chinese cinema', 'Dance Disguised Martial Arts', 'Beautiful  Fascinating  And Yet Uninvolving', 'Perhaps bit overrated come  still nice movie ', 'Excellent Martial Art Sequences true power', 'Great action', 'A Sword Play', 'Transcends level action film looks beautiful artistic', 'Boring', 'Not As Good As Is Made Out Down To One Reason', 'Stylized Artistic', 'Beautiful cinematography  great fights  little else', 'Have nt I seen ', 'This well executed movie definition art', 'A faithful heart makes wishes come true ', 'Lee s Movie Takes Flight  And So Do Its Actors ', 'Fantasy art story', 'Good looking movie good fight everything else ']</t>
         </is>
       </c>
     </row>
@@ -20589,7 +20589,7 @@
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>['experimental musical', 'Bjork', 'Shine light', 'Very Sad Reality In Touching Story', 'Passable good moments emotional , meaningful inspired director thinks', 'Dance , someone said , one said life beautiful .', 'Weird , But It Has Bjork', 'A stark , dark , serious film , wonderful performance Bjork .', 'An extraordinarily tender offbeat film ... though tendency toward self-pity', 'Well-intentioned irritatingly executed', 'Two Left Feet', 'Pure torture watch , I gave 8', "They say 's last song . They n't know us , see . It 's last song let .", 'Despite Myself , Have Admit That `` Dancer Dark `` Works Fairly Well', 'Was absolutely loving , till things turned weird .', 'Tough watch ; impossible', 'It may easier buy way theater film .', "Gene Kelly sang rain , Gene 's mother danced dark ...", 'Lars von Trying', 'Different , Powerful', 'Effective sometimes comes forced', 'Good potential , ...', 'Major disappointment von Trier .', 'Lars von Trier making film far removed Dogme rules possible', 'See ! ! ! ! ! ! ! ! ! ! It ! ! ! ! ! ! ! ! !']</t>
+          <t>['experimental musical', 'Bjork', 'Shine light', 'Very Sad Reality In Touching Story', 'Passable good moments emotional  meaningful inspired director thinks', 'Dance  someone said  one said life beautiful ', 'Weird  But It Has Bjork', 'A stark  dark  serious film  wonderful performance Bjork ', 'An extraordinarily tender offbeat film  though tendency toward selfpity', 'Wellintentioned irritatingly executed', 'Two Left Feet', 'Pure torture watch  I gave 8', 'They say s last song  They nt know us  see  It s last song let ', 'Despite Myself  Have Admit That  Dancer Dark  Works Fairly Well', 'Was absolutely loving  till things turned weird ', 'Tough watch  impossible', 'It may easier buy way theater film ', 'Gene Kelly sang rain  Gene s mother danced dark ', 'Lars von Trying', 'Different  Powerful', 'Effective sometimes comes forced', 'Good potential  ', 'Major disappointment von Trier ', 'Lars von Trier making film far removed Dogme rules possible', 'See           It         ']</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>['Very interesting Hitchcock film , great score , brilliant Stewart', 'Hitchcock proves master single-location thriller', 'Fascinating exercise storytelling', 'Underrated', 'A Little Touch Dostoevsky', 'remarkable', 'Murder easy', 'The ultimate game cat mouse .', 'End rope', 'Not wholly successful reasonable start', 'Colorful intriguing Hithcock film , totally developed apartment', 'Hitchcock could pulled', 'Give enough rope ...', 'A Fine Interpretation Leopold Loeb Story', 'A Good Hitchcock Film From The 1940s', '`` Now fun begins ... ``', 'Shocking , Stunning , Superb', 'Much `` experimental `` Hitchcock classic', "Hitchcock Pulls His Rope 's End", 'A Hitchcock tale murder , hide seek .', 'Hitch On A Limb', "`` AN EXPERIMENT THAT DID N'T WORK OUT `` ... ALFRED HITCHCOCK", 'Closeted Ties', 'Strange Drama Inspired By A True Life Case', 'Experimental long takes make film even stage-bound ...']</t>
+          <t>['Very interesting Hitchcock film  great score  brilliant Stewart', 'Hitchcock proves master singlelocation thriller', 'Fascinating exercise storytelling', 'Underrated', 'A Little Touch Dostoevsky', 'remarkable', 'Murder easy', 'The ultimate game cat mouse ', 'End rope', 'Not wholly successful reasonable start', 'Colorful intriguing Hithcock film  totally developed apartment', 'Hitchcock could pulled', 'Give enough rope ', 'A Fine Interpretation Leopold Loeb Story', 'A Good Hitchcock Film From The 1940s', ' Now fun begins  ', 'Shocking  Stunning  Superb', 'Much  experimental  Hitchcock classic', 'Hitchcock Pulls His Rope s End', 'A Hitchcock tale murder  hide seek ', 'Hitch On A Limb', ' AN EXPERIMENT THAT DID NT WORK OUT   ALFRED HITCHCOCK', 'Closeted Ties', 'Strange Drama Inspired By A True Life Case', 'Experimental long takes make film even stagebound ']</t>
         </is>
       </c>
     </row>
@@ -20677,7 +20677,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>["A really good film .... 's awful shaky cam ? !", 'Compelling little indie great performances', 'Two lives Grace', 'Playing', 'Mostly avoids sentiment virtue delicate , convincing , intimate engaging', 'It speaks heart', 'Great - original , engaging emotional film', 'Troubled Kids Troubled Adults', 'Here We Go', 'Cretton done remarkable job emerged one new talents worthy attention', 'Forget blockbusters -- super cinema without price tag .', 'Like great drama manages find light darkness !', 'Heartwarming &amp; Heartbreaking Same Time .', 'Incredibly moving .', 'Where Love , Academy ?', 'Superb Performances , Underwhelming Character Development ,', 'Realistic feeling emotionally moving', 'A star making film Cretton actress Brie Larson', 'What An Emotional Punch', 'A turning point many career', 'Powerful movie group home', 'May best film year', 'Short Term 12 cares viewers making feel every emotion possible .', 'Something Missed Opportunity', 'Hard-hitting yet hopeful drama']</t>
+          <t>['A really good film  s awful shaky cam  ', 'Compelling little indie great performances', 'Two lives Grace', 'Playing', 'Mostly avoids sentiment virtue delicate  convincing  intimate engaging', 'It speaks heart', 'Great  original  engaging emotional film', 'Troubled Kids Troubled Adults', 'Here We Go', 'Cretton done remarkable job emerged one new talents worthy attention', 'Forget blockbusters  super cinema without price tag ', 'Like great drama manages find light darkness ', 'Heartwarming  Heartbreaking Same Time ', 'Incredibly moving ', 'Where Love  Academy ', 'Superb Performances  Underwhelming Character Development ', 'Realistic feeling emotionally moving', 'A star making film Cretton actress Brie Larson', 'What An Emotional Punch', 'A turning point many career', 'Powerful movie group home', 'May best film year', 'Short Term 12 cares viewers making feel every emotion possible ', 'Something Missed Opportunity', 'Hardhitting yet hopeful drama']</t>
         </is>
       </c>
     </row>
@@ -20721,7 +20721,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>['Barrio Epic', 'Best movie ever ( imho )', 'Surprisingly deep', 'An Amazing Film', 'A tinseltown take Chicano gang/prison life', 'Bound Blood', 'A three hour cult classic . A great film wrong reasons .', 'It´s world', 'Super top ESE movie', 'A story telling movie roller coaster ride', 'Overblown hokum . A cliché-fest silly dangerous sociological pretension , conceit , `` b.s . ``', 'I absolutely love movie', 'Too long bad lead actor', "Weird movie n't quite punch ...", 'Surprisingly GOOD ! ! ! could better Popular Actors .', 'Garbage Garbage Out', 'Absolutely irresistible crime saga - `` Godfather `` Chicano gang crime genre , indeed !', 'dont watch', 'Just plain bad .', 'great story , great irony , great epic', 'Much Too Highly Rated', 'International brotherhood vato locos ?', 'Very underrated .', 'Absolutely Brilliant !', 'Epic Masterpiece']</t>
+          <t>['Barrio Epic', 'Best movie ever  imho ', 'Surprisingly deep', 'An Amazing Film', 'A tinseltown take Chicano gangprison life', 'Bound Blood', 'A three hour cult classic  A great film wrong reasons ', 'Its world', 'Super top ESE movie', 'A story telling movie roller coaster ride', 'Overblown hokum  A clichfest silly dangerous sociological pretension  conceit   bs  ', 'I absolutely love movie', 'Too long bad lead actor', 'Weird movie nt quite punch ', 'Surprisingly GOOD    could better Popular Actors ', 'Garbage Garbage Out', 'Absolutely irresistible crime saga   Godfather  Chicano gang crime genre  indeed ', 'dont watch', 'Just plain bad ', 'great story  great irony  great epic', 'Much Too Highly Rated', 'International brotherhood vato locos ', 'Very underrated ', 'Absolutely Brilliant ', 'Epic Masterpiece']</t>
         </is>
       </c>
     </row>
@@ -20765,7 +20765,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>["Darren Aronofsky 's best film", 'Moving portrayal deeply flawed man', 'Another Grab Glory', 'perfect combo actor character', 'Masterpiece', "Rourke 's Masterpiece", 'admirable work', 'Beyond mat', 'The Person', 'The Last Wrestling Maneuver', 'Not perfect film said , great character study subverts sports genre suitably drab real ( compliment )', "Mickey Rourke 's best role ever", "Rourke 's Finest Role", 'Diary loser', 'A Haunting Portrait Of Loneliness', 'Appropriately squalid , yet thin predictable character study provide Rourke flashy acting showcase ...', 'Touching , disturbing brilliantly acted', 'Amazing movie', 'Lap Dance', 'Feel Like Being Depressed ?', 'Performances enlivens movie', 'THE WRESTLER ( Darren Aronofsky , 2008 ) * * * 1/2', "And , I 'm old broken piece meat ... I 'm alone .", 'Great Film Only Slightly Marred Hokey Ending', 'Round Round']</t>
+          <t>['Darren Aronofsky s best film', 'Moving portrayal deeply flawed man', 'Another Grab Glory', 'perfect combo actor character', 'Masterpiece', 'Rourke s Masterpiece', 'admirable work', 'Beyond mat', 'The Person', 'The Last Wrestling Maneuver', 'Not perfect film said  great character study subverts sports genre suitably drab real  compliment ', 'Mickey Rourke s best role ever', 'Rourke s Finest Role', 'Diary loser', 'A Haunting Portrait Of Loneliness', 'Appropriately squalid  yet thin predictable character study provide Rourke flashy acting showcase ', 'Touching  disturbing brilliantly acted', 'Amazing movie', 'Lap Dance', 'Feel Like Being Depressed ', 'Performances enlivens movie', 'THE WRESTLER  Darren Aronofsky  2008     12', 'And  I m old broken piece meat  I m alone ', 'Great Film Only Slightly Marred Hokey Ending', 'Round Round']</t>
         </is>
       </c>
     </row>
@@ -20809,7 +20809,7 @@
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>['Disney way', "It 's bad", 'Tear jerker', 'Togo go .', 'Good go Togo', 'Good ...', 'Good involving movie', 'The Heart Survivor', 'An incredible true story , told perfectly .', 'What story ...', "True appreciation dog 's heroism", "A fantastic surprise . One best Disney film 's years !", 'Great Doggy Tale', 'What film', 'EMOTIONAL !', 'My dawg !', 'Not dog story', 'Robodogs Heart', 'American ( A+ Movie ) My Ratings 10/10', 'Great', 'A Heartwarming Story', "Would enjoyed even I n't seen rave reviews .", 'A story Togo brave presented timeless Willem Dafoe .', 'An inspiring tale relationship humans canines challenging hardships', 'Pleasantly surprised']</t>
+          <t>['Disney way', 'It s bad', 'Tear jerker', 'Togo go ', 'Good go Togo', 'Good ', 'Good involving movie', 'The Heart Survivor', 'An incredible true story  told perfectly ', 'What story ', 'True appreciation dog s heroism', 'A fantastic surprise  One best Disney film s years ', 'Great Doggy Tale', 'What film', 'EMOTIONAL ', 'My dawg ', 'Not dog story', 'Robodogs Heart', 'American  A Movie  My Ratings 1010', 'Great', 'A Heartwarming Story', 'Would enjoyed even I nt seen rave reviews ', 'A story Togo brave presented timeless Willem Dafoe ', 'An inspiring tale relationship humans canines challenging hardships', 'Pleasantly surprised']</t>
         </is>
       </c>
     </row>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>['The series keeps great', 'The Director Stars Still Have It', 'Is end ?', 'Marriage Crisis Bipolar Disorder ?', 'The Long-Term Romance Part Three', 'film year - many others I hope', 'Not charming anymore', 'Mixed feelings', 'The third final `` Before .... `` movies', 'So Far Best `` Before ... `` Series', 'Masterpiece', 'The magic continues', 'Nice ending ( ? ) one best romantic sagas cinema', 'third time still charm !', 'Oxygen serious film-goer', "Do n't think , watch", 'Not strong Before Sunrise .', "I 'm Cutting This A Bit Of Slack", "Hard sit times 's still well done believable .", 'A Magnificent Conclusion To A Remarkable Trilogy .', 'One-third romantic magnum opus', "Great picture - `` maybe 's perfect , 's real ``", "It 's official- The best trilogy time", 'The best third ...', 'The three films together stunning ! But least']</t>
+          <t>['The series keeps great', 'The Director Stars Still Have It', 'Is end ', 'Marriage Crisis Bipolar Disorder ', 'The LongTerm Romance Part Three', 'film year  many others I hope', 'Not charming anymore', 'Mixed feelings', 'The third final  Before   movies', 'So Far Best  Before   Series', 'Masterpiece', 'The magic continues', 'Nice ending    one best romantic sagas cinema', 'third time still charm ', 'Oxygen serious filmgoer', 'Do nt think  watch', 'Not strong Before Sunrise ', 'I m Cutting This A Bit Of Slack', 'Hard sit times s still well done believable ', 'A Magnificent Conclusion To A Remarkable Trilogy ', 'Onethird romantic magnum opus', 'Great picture   maybe s perfect  s real ', 'It s official The best trilogy time', 'The best third ', 'The three films together stunning  But least']</t>
         </is>
       </c>
     </row>
@@ -20897,7 +20897,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>['Very good .', 'Long sprawling rewarding', 'Romance And Revolution', "Grand sweeping romantic epic 's good", "Baby , It 's Cold Outside !", 'The scale epic reach', 'Sensitive spectacular classic movie set Russian revolution shot marvelous Spanish outdoors', "There things ca n't get .", 'Hurrah Russian Romance', 'The Good &amp; Bad Of Dr. Zhivago', 'Maddeningly literal-minded ...', 'good , great', 'David Lean goes To Russia Love', 'Epic drama', 'Shoot Commander', 'Flawed But Still A Very Good Movie', 'The trouble epic story ...', 'The great looking landscapes stand movie', 'A Truly Exceptional Film', 'What take ?', 'Suffers Comparison Other Lean Epics', "Beautiful ! ... Warning , 's long though .", 'Lean Lean', 'Russian political upheaval early 20th century eyes passive doctor/poet', 'Epic film banned Soviet Union Nobel Prize declined']</t>
+          <t>['Very good ', 'Long sprawling rewarding', 'Romance And Revolution', 'Grand sweeping romantic epic s good', 'Baby  It s Cold Outside ', 'The scale epic reach', 'Sensitive spectacular classic movie set Russian revolution shot marvelous Spanish outdoors', 'There things ca nt get ', 'Hurrah Russian Romance', 'The Good  Bad Of Dr Zhivago', 'Maddeningly literalminded ', 'good  great', 'David Lean goes To Russia Love', 'Epic drama', 'Shoot Commander', 'Flawed But Still A Very Good Movie', 'The trouble epic story ', 'The great looking landscapes stand movie', 'A Truly Exceptional Film', 'What take ', 'Suffers Comparison Other Lean Epics', 'Beautiful   Warning  s long though ', 'Lean Lean', 'Russian political upheaval early 20th century eyes passive doctorpoet', 'Epic film banned Soviet Union Nobel Prize declined']</t>
         </is>
       </c>
     </row>
@@ -20941,7 +20941,7 @@
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>['exactly cup tea', 'One best kind', 'beautiful story second half problematic', 'Beautiful Boring Completely Overrated', "A good film bit worthy lacking pure entertaining value grasp exceeds 's reach , certainly good hype would believe", 'Chinese epic breathtaking battles , baroque scenes groundbreaking fights using wire work CGI', 'Beyond imagination ...', 'Beautiful Fantastic Film', 'Excellent Chinese material', 'Spectacular , Stunning Visuals ; So-So Story', "If suspend disbelief 'll like , maybe even love , despite confusion film 's structure", 'Decent story , great cinematography , ridiculous fight scenes', 'Space', 'Better Crouching Tiger', 'More art house action', 'An Action Film Several Twists Turns', 'Masterpiece Cinema', 'The cinematography breathtaking creates vastness every scene', 'Beautiful Opera', 'Visual Poetry', 'One better modern genre flicks .', 'Delicately put together', "'Rashomon ' meets 'Crouching Tiger , Hidden Dragon '", 'Beautiful movie ... visually story wise .', 'One best films far decade']</t>
+          <t>['exactly cup tea', 'One best kind', 'beautiful story second half problematic', 'Beautiful Boring Completely Overrated', 'A good film bit worthy lacking pure entertaining value grasp exceeds s reach  certainly good hype would believe', 'Chinese epic breathtaking battles  baroque scenes groundbreaking fights using wire work CGI', 'Beyond imagination ', 'Beautiful Fantastic Film', 'Excellent Chinese material', 'Spectacular  Stunning Visuals  SoSo Story', 'If suspend disbelief ll like  maybe even love  despite confusion film s structure', 'Decent story  great cinematography  ridiculous fight scenes', 'Space', 'Better Crouching Tiger', 'More art house action', 'An Action Film Several Twists Turns', 'Masterpiece Cinema', 'The cinematography breathtaking creates vastness every scene', 'Beautiful Opera', 'Visual Poetry', 'One better modern genre flicks ', 'Delicately put together', 'Rashomon  meets Crouching Tiger  Hidden Dragon ', 'Beautiful movie  visually story wise ', 'One best films far decade']</t>
         </is>
       </c>
     </row>
@@ -20985,7 +20985,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>['exceptional film Film Noir qualities', 'A classic film noir-well directed stylishly filmed gorgeous Gene Tierney', 'Laura And Her Curious Friends', 'Brilliant', 'Perfect Film Noir', 'beautiful', 'Scissor Sisters', 'Great Film-Noir', 'Intriguing mysterious Noir Film masterfully made Otto Preminger', 'Cara Williams , RIP', 'Great 1940s Murder Mystery', "Too Talky For 'Noir , ' But I Want To Like This", 'Goose quills venom', 'prime film noir `` fabulous aspects ``', 'hm , dames ...', "There 's something `` Laura ``", 'Laura-An artistic Accomplishment * * * *', 'Overrated', 'Waldo Laura', 'Great old-fashioned whodunnit', 'Yeah , dames always pulling switch .', 'Mistaken identity', 'Has considered classic example film noir ...', 'Unusaually strange', 'One famous noirs time']</t>
+          <t>['exceptional film Film Noir qualities', 'A classic film noirwell directed stylishly filmed gorgeous Gene Tierney', 'Laura And Her Curious Friends', 'Brilliant', 'Perfect Film Noir', 'beautiful', 'Scissor Sisters', 'Great FilmNoir', 'Intriguing mysterious Noir Film masterfully made Otto Preminger', 'Cara Williams  RIP', 'Great 1940s Murder Mystery', 'Too Talky For Noir   But I Want To Like This', 'Goose quills venom', 'prime film noir  fabulous aspects ', 'hm  dames ', 'There s something  Laura ', 'LauraAn artistic Accomplishment    ', 'Overrated', 'Waldo Laura', 'Great oldfashioned whodunnit', 'Yeah  dames always pulling switch ', 'Mistaken identity', 'Has considered classic example film noir ', 'Unusaually strange', 'One famous noirs time']</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>['Where begin praising movie ?', "`` I 've Always Depended On The Kindness Of Strangers . ``", 'Master class acting', 'Hard To Find Any Better Acting', 'Superb writing matched superb acting incredibly atmospheric charged direction', 'Powerful intense drama based Tennessee Williams play brilliant ensemble acting', 'Warsaw dance New Orleans', 'A Very Tense , Emotional Film , Especially For Its Time', 'Missing electricity unpredictability live performance ...', 'Now Almost Perfect', "You 're On Ride Your Life-Streetcar Named Desire * * *", 'The Belle Balls', "Brando 's Breakout", 'Good , bit frustrating', "The definitive version 'Streetcar ' still power ...", 'A play movie', 'The casting wrong', 'A Streetcar Named Desire ( 1951 )', 'Brando best Leigh delivers breathtaking performance', 'A Masterful Adaptation American Classic', 'Nothing intriguing human mind .', 'Ladies Gentlemen ... Mr. Marlon Brando', 'One two films win three four acting Oscars', 'spine tinglingly brilliant', 'Just About Perfect !']</t>
+          <t>['Where begin praising movie ', ' I ve Always Depended On The Kindness Of Strangers  ', 'Master class acting', 'Hard To Find Any Better Acting', 'Superb writing matched superb acting incredibly atmospheric charged direction', 'Powerful intense drama based Tennessee Williams play brilliant ensemble acting', 'Warsaw dance New Orleans', 'A Very Tense  Emotional Film  Especially For Its Time', 'Missing electricity unpredictability live performance ', 'Now Almost Perfect', 'You re On Ride Your LifeStreetcar Named Desire   ', 'The Belle Balls', 'Brando s Breakout', 'Good  bit frustrating', 'The definitive version Streetcar  still power ', 'A play movie', 'The casting wrong', 'A Streetcar Named Desire  1951 ', 'Brando best Leigh delivers breathtaking performance', 'A Masterful Adaptation American Classic', 'Nothing intriguing human mind ', 'Ladies Gentlemen  Mr Marlon Brando', 'One two films win three four acting Oscars', 'spine tinglingly brilliant', 'Just About Perfect ']</t>
         </is>
       </c>
     </row>
@@ -21073,7 +21073,7 @@
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>['Classy entertaining comedy thriller deserves lot respect', 'The best film Hitchcock never made ?', 'Uneasy Mix Suspense Comedy', 'Twists Turns galore', 'admirable work', 'Keep act', "It n't Hitchcock , would n't know , excellent movie .", 'A Movie That Presents Action , Romance , Comedy Mystery Right Doses , With Very Charming Central Pair Stars', 'Stylish fast moving picture widow drawn criminal intrigue', 'Not expect unexpected ... YOU SHOULD', 'Strangely Forgotten Spy Film', 'Still Going Strong Past 50 !', "Audrey fingers Cary 's dimpled chin asks , `` How shave ? ``", 'fluffy , adorable movie men dying vying money', 'Cary Grant Audrey Hepburn , along Walter Matthau , George Kennedy , James Coburn provide plenty pleasures mashup genres called Charade', "Charade-It 's All Name Game * * * 1/2", 'Blending Stars With Story', 'Highly Entertaining Fluff , It Has 1963 Stamped All Over It', 'Disappointing', 'Quality seeping every genre pore .', 'Parisian adventure', 'Great unknown movie', "It n't get better ... elegant Grant Hepburn ...", 'Very cute', 'A phenomenal , truly exceptional classic , expertly blending genres']</t>
+          <t>['Classy entertaining comedy thriller deserves lot respect', 'The best film Hitchcock never made ', 'Uneasy Mix Suspense Comedy', 'Twists Turns galore', 'admirable work', 'Keep act', 'It nt Hitchcock  would nt know  excellent movie ', 'A Movie That Presents Action  Romance  Comedy Mystery Right Doses  With Very Charming Central Pair Stars', 'Stylish fast moving picture widow drawn criminal intrigue', 'Not expect unexpected  YOU SHOULD', 'Strangely Forgotten Spy Film', 'Still Going Strong Past 50 ', 'Audrey fingers Cary s dimpled chin asks   How shave  ', 'fluffy  adorable movie men dying vying money', 'Cary Grant Audrey Hepburn  along Walter Matthau  George Kennedy  James Coburn provide plenty pleasures mashup genres called Charade', 'CharadeIt s All Name Game    12', 'Blending Stars With Story', 'Highly Entertaining Fluff  It Has 1963 Stamped All Over It', 'Disappointing', 'Quality seeping every genre pore ', 'Parisian adventure', 'Great unknown movie', 'It nt get better  elegant Grant Hepburn ', 'Very cute', 'A phenomenal  truly exceptional classic  expertly blending genres']</t>
         </is>
       </c>
     </row>
@@ -21117,7 +21117,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>['A classic every person considers movie buff must see .', 'A monster movie , lot heart', 'A masterpiece', 'Ring That Native Gong For The Mighty King Kong', 'simply classic', 'Classic Monster Movie Still Thrills', 'King Kong Revisited', 'classic', 'King Kong', 'The Eighth Wonder Word Seventh Art', 'Problems scripting acting covered great effects superb central character Kong', 'Updating beauty beast myth impressive giant ape', 'When `` king `` ...', 'A classic still thrilling eighty five years', 'The undisputed king monster movies .', 'The Original Monster Movie', 'The First King Kong Still Going Strong', 'still contains boiled-down ingredients common , hell-raising blockbuster', 'Hail King , baby ! ... The one !', 'RKO Goes Ape', 'An Outer Monster vs. An Inner One', 'The Stuff Dreams Are Made Of', 'The original best', 'A Classic', 'The King New York']</t>
+          <t>['A classic every person considers movie buff must see ', 'A monster movie  lot heart', 'A masterpiece', 'Ring That Native Gong For The Mighty King Kong', 'simply classic', 'Classic Monster Movie Still Thrills', 'King Kong Revisited', 'classic', 'King Kong', 'The Eighth Wonder Word Seventh Art', 'Problems scripting acting covered great effects superb central character Kong', 'Updating beauty beast myth impressive giant ape', 'When  king  ', 'A classic still thrilling eighty five years', 'The undisputed king monster movies ', 'The Original Monster Movie', 'The First King Kong Still Going Strong', 'still contains boileddown ingredients common  hellraising blockbuster', 'Hail King  baby   The one ', 'RKO Goes Ape', 'An Outer Monster vs An Inner One', 'The Stuff Dreams Are Made Of', 'The original best', 'A Classic', 'The King New York']</t>
         </is>
       </c>
     </row>
@@ -21161,7 +21161,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>['A confusing mess plot ... cares ! ?', 'Timeless', '`` Over Here , Canino ``', 'Classic noir greatest lines', 'Great', 'Setting Bar', 'Splendid Film-Noir', 'Complex plot , well written well scripted tough dialogue great characters', 'Classic Noir Film gritty interpretation , atmospheric settings powerhouse filmmaking', 'ACME bookstore ? !', 'The Essential Detective Story ?', "'Sausage 2 Fried Eggs , 35 cents . ' ( sign near public pay phone )", "Delicious mystery ; Bogie &amp; Bacall 's best together ...", 'Complicated , oh , movie', 'well done Hollywoodization classic crime novel', "Bogart 's Tics Make Bacall Itch", "Classic Film-Noir . Murder mayhem ; private dick n't quit .", 'Flawed , Bogie Bogie', 'If concentrate plot miss big picture', 'A Great Film-Noir Despite Hawks Bacall', 'Chaos Clouds', 'Everybody keeps giving guns !', 'Bogart Bacall', 'Just great', 'Classic Bogart-Bacall melodrama Raymond Chandler novel ...']</t>
+          <t>['A confusing mess plot  cares  ', 'Timeless', ' Over Here  Canino ', 'Classic noir greatest lines', 'Great', 'Setting Bar', 'Splendid FilmNoir', 'Complex plot  well written well scripted tough dialogue great characters', 'Classic Noir Film gritty interpretation  atmospheric settings powerhouse filmmaking', 'ACME bookstore  ', 'The Essential Detective Story ', 'Sausage 2 Fried Eggs  35 cents    sign near public pay phone ', 'Delicious mystery  Bogie  Bacall s best together ', 'Complicated  oh  movie', 'well done Hollywoodization classic crime novel', 'Bogart s Tics Make Bacall Itch', 'Classic FilmNoir  Murder mayhem  private dick nt quit ', 'Flawed  Bogie Bogie', 'If concentrate plot miss big picture', 'A Great FilmNoir Despite Hawks Bacall', 'Chaos Clouds', 'Everybody keeps giving guns ', 'Bogart Bacall', 'Just great', 'Classic BogartBacall melodrama Raymond Chandler novel ']</t>
         </is>
       </c>
     </row>
@@ -21205,7 +21205,7 @@
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>['sweet coming-of-age', 'Teenage kicks', 'Brilliant', 'real sweet heart movie , actual edge , importantly , good rock songs !', 'Enjoyable , great music !', 'Basic plot quite entertaining', "A John Hughes Movie Generation People Who Do n't Know Who John Hughes Was", 'London Calling', 'So sweet', 'Boys Girls Film', 'beacon prowess filmmaking', 'Delightful Musical laughs heart .', 'Lovely , engaging musical', 'I love soundtrack !', 'A real tonic movie', "John Carney 's best film yet !", 'The Feel-Good Irish Movie Of The Year', 'For Brothers Everywhere', 'A lot fun', 'A Heartwarming Film Ridiculous Fun ,', '`` Futurist Band Forming ``', 'WHEN DREAMS MEET REALITY ... !', 'Back 80s rock roll romance .', 'Riddle The Singer', 'Starts promisingly , ends cliché']</t>
+          <t>['sweet comingofage', 'Teenage kicks', 'Brilliant', 'real sweet heart movie  actual edge  importantly  good rock songs ', 'Enjoyable  great music ', 'Basic plot quite entertaining', 'A John Hughes Movie Generation People Who Do nt Know Who John Hughes Was', 'London Calling', 'So sweet', 'Boys Girls Film', 'beacon prowess filmmaking', 'Delightful Musical laughs heart ', 'Lovely  engaging musical', 'I love soundtrack ', 'A real tonic movie', 'John Carney s best film yet ', 'The FeelGood Irish Movie Of The Year', 'For Brothers Everywhere', 'A lot fun', 'A Heartwarming Film Ridiculous Fun ', ' Futurist Band Forming ', 'WHEN DREAMS MEET REALITY  ', 'Back 80s rock roll romance ', 'Riddle The Singer', 'Starts promisingly  ends clich']</t>
         </is>
       </c>
     </row>
@@ -21249,7 +21249,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>['starts slowly picks speed second half', 'German meditation', 'First Experience Wim Wenders', 'Wings Desire', 'Wim Wenders shows us lives beyond', 'A True Work Art', 'Full magical elements ...', "poetic feast senses - tell 'll like .", 'When child child ...', 'Disappointing', 'Thinks highly', "Do n't cry . I 'm already dead .", 'Storyteller thrust edge', 'Many people love', 'Wings Desire', 'Magnificent', 'WINGS OF DESIRE holds dear heart elemental sensation alive , knockout ,', 'Makes making great movies look easy ...', 'A Classic German Fantasy human Life desires human .', 'What makes us human', 'Kinda great movie , rough abound edges', 'Essay Sleepiness .', 'Floating eye', "By time gets little full , mesmerized awestruck n't matter", 'Outstanding angelic fantasy']</t>
+          <t>['starts slowly picks speed second half', 'German meditation', 'First Experience Wim Wenders', 'Wings Desire', 'Wim Wenders shows us lives beyond', 'A True Work Art', 'Full magical elements ', 'poetic feast senses  tell ll like ', 'When child child ', 'Disappointing', 'Thinks highly', 'Do nt cry  I m already dead ', 'Storyteller thrust edge', 'Many people love', 'Wings Desire', 'Magnificent', 'WINGS OF DESIRE holds dear heart elemental sensation alive  knockout ', 'Makes making great movies look easy ', 'A Classic German Fantasy human Life desires human ', 'What makes us human', 'Kinda great movie  rough abound edges', 'Essay Sleepiness ', 'Floating eye', 'By time gets little full  mesmerized awestruck nt matter', 'Outstanding angelic fantasy']</t>
         </is>
       </c>
     </row>
@@ -21293,7 +21293,7 @@
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>['Left uplifted moved , magical piece film-making truly endearing homage silent era', 'Not good thinks', 'More homage something new', 'Great Homage Silent Cinema', 'Ingenious Lightweight', 'homage', 'The Art ...', 'Charming warming story told style wit rises gimmick', "art truth 's sake", 'Safely Earned Best Picture Award , Great Many Levels', 'Silence golden', '`` With pleasure ... ``', 'Silence Is Golden', 'Brings back forgotten cinematic experience', 'I may like much I interested transition sound film ...', 'Great movie', 'Dustcovers', 'Cynically Charming Or Charmingly Cynical ?', 'Delightful romp succeeds largely Jean Dujardin Berenice Bejo ...', 'The Sounds Silents', 'With Pleasure', 'An homage , disguised great movie !', 'Silent black white , maybe lived early part previous century', 'Unique best movie', 'Uggie Still Rules The Film !']</t>
+          <t>['Left uplifted moved  magical piece filmmaking truly endearing homage silent era', 'Not good thinks', 'More homage something new', 'Great Homage Silent Cinema', 'Ingenious Lightweight', 'homage', 'The Art ', 'Charming warming story told style wit rises gimmick', 'art truth s sake', 'Safely Earned Best Picture Award  Great Many Levels', 'Silence golden', ' With pleasure  ', 'Silence Is Golden', 'Brings back forgotten cinematic experience', 'I may like much I interested transition sound film ', 'Great movie', 'Dustcovers', 'Cynically Charming Or Charmingly Cynical ', 'Delightful romp succeeds largely Jean Dujardin Berenice Bejo ', 'The Sounds Silents', 'With Pleasure', 'An homage  disguised great movie ', 'Silent black white  maybe lived early part previous century', 'Unique best movie', 'Uggie Still Rules The Film ']</t>
         </is>
       </c>
     </row>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>['Not exactly enjoyable ... thought-provoking .', 'Japanese festival film', 'Extended family', 'family', 'Powerful', 'Many Ways Make Family', 'multi-generational poverty', 'Family Life', 'Gosh , I almost got without mentioning many scenes slurping noodles - hot cold !', 'Stole heart .', 'Beautiful', 'Unexpectedly good acting thoughtful story , albeit bit dramatic', "Getting best even 's illegal still love family important .", 'Watch Roma -- Shoplifters lookikng Oscar .', 'Superb production ... Excellent ...', "It 's choosing family , way 're offered choice ...", 'hard stuff', 'Life margins', 'A masterpiece .', 'What Makes A Family Family ?', 'A good cinema', 'Its power undeniable', 'Good Enough', 'What makes family ? makes mother ?', 'One-Line Review : Shoplifters / Heart-Warming , Layered Drama / 6 Stars']</t>
+          <t>['Not exactly enjoyable  thoughtprovoking ', 'Japanese festival film', 'Extended family', 'family', 'Powerful', 'Many Ways Make Family', 'multigenerational poverty', 'Family Life', 'Gosh  I almost got without mentioning many scenes slurping noodles  hot cold ', 'Stole heart ', 'Beautiful', 'Unexpectedly good acting thoughtful story  albeit bit dramatic', 'Getting best even s illegal still love family important ', 'Watch Roma  Shoplifters lookikng Oscar ', 'Superb production  Excellent ', 'It s choosing family  way re offered choice ', 'hard stuff', 'Life margins', 'A masterpiece ', 'What Makes A Family Family ', 'A good cinema', 'Its power undeniable', 'Good Enough', 'What makes family  makes mother ', 'OneLine Review  Shoplifters  HeartWarming  Layered Drama  6 Stars']</t>
         </is>
       </c>
     </row>
@@ -21381,7 +21381,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>['Not good race film , good film many levels .', 'One greatest films 60s', 'The Growing Pains New South', 'Rod Steiger terrific', 'Terrific Drama Excellent Performances', 'Groundbreaker', '... call Mr Tibbs !', 'Inspector Tibbs joins forces redneck sheriff grudgingly accepts helps resolve bizarre killing', "They call Mr. Tibbs - n't call movie anything great .", 'A Timeless Tale Race , Murder Equality', 'The Race Card', 'Tense surly drama', "aka Guess Who 's Coming Investigate", 'Sidney Poitier Rod Steiger excellent In Heat Night', 'Culturally incredibly significant , simply great movie', 'It ` Not All That Hot', 'Look Penance', 'Dated still excellent', 'Sidney Poitier robbed another Oscar racist Oscars', 'Cool', "It 's classic , ?", "This one amazing pictures 's absolutely must see .", 'They call MISTER Tibbs !', 'A Refreshingly Unsentimental Examination Prejudice', 'More average crime/mystery movie .']</t>
+          <t>['Not good race film  good film many levels ', 'One greatest films 60s', 'The Growing Pains New South', 'Rod Steiger terrific', 'Terrific Drama Excellent Performances', 'Groundbreaker', ' call Mr Tibbs ', 'Inspector Tibbs joins forces redneck sheriff grudgingly accepts helps resolve bizarre killing', 'They call Mr Tibbs  nt call movie anything great ', 'A Timeless Tale Race  Murder Equality', 'The Race Card', 'Tense surly drama', 'aka Guess Who s Coming Investigate', 'Sidney Poitier Rod Steiger excellent In Heat Night', 'Culturally incredibly significant  simply great movie', 'It  Not All That Hot', 'Look Penance', 'Dated still excellent', 'Sidney Poitier robbed another Oscar racist Oscars', 'Cool', 'It s classic  ', 'This one amazing pictures s absolutely must see ', 'They call MISTER Tibbs ', 'A Refreshingly Unsentimental Examination Prejudice', 'More average crimemystery movie ']</t>
         </is>
       </c>
     </row>
@@ -21425,7 +21425,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>["Ignore goofs concentrate Scott 's brilliant portrayal .", "Drags bit , Scott 's performance makes film good", 'The Heart And Soul Of General Patton', 'George C. Scott performance impressive', 'Separate Your Impressions Man', 'fascinating', 'Guts glory', 'Role Player', 'Tunisia comes full circle', 'Decent War Film , Immortalization Patton', 'Epic hagiography', 'Scott Delivers Memorable Performance', 'Great Scott !', 'magnificent anachronism ...', 'Frightening', 'Superb film extraordinary , larger-than-life man', 'I love . God help I love . I love life .', 'What big deal ?', "This n't favorite military movie 's entertaining one .", 'Solidly Crafted Smart WWII Drama', 'What character !', '`` Old Blood Guts `` valued courage resolve', 'excellent', 'George C. Scott Is Magnificent .', "Does n't feel like three-hour movie"]</t>
+          <t>['Ignore goofs concentrate Scott s brilliant portrayal ', 'Drags bit  Scott s performance makes film good', 'The Heart And Soul Of General Patton', 'George C Scott performance impressive', 'Separate Your Impressions Man', 'fascinating', 'Guts glory', 'Role Player', 'Tunisia comes full circle', 'Decent War Film  Immortalization Patton', 'Epic hagiography', 'Scott Delivers Memorable Performance', 'Great Scott ', 'magnificent anachronism ', 'Frightening', 'Superb film extraordinary  largerthanlife man', 'I love  God help I love  I love life ', 'What big deal ', 'This nt favorite military movie s entertaining one ', 'Solidly Crafted Smart WWII Drama', 'What character ', ' Old Blood Guts  valued courage resolve', 'excellent', 'George C Scott Is Magnificent ', 'Does nt feel like threehour movie']</t>
         </is>
       </c>
     </row>
@@ -21469,7 +21469,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>['Still funny moving years', 'Ruth Gordon magnificent', 'It Was Event', 'life', 'That old feeling', 'Death , Love Life', 'weird , neat', 'That Almost Perfect Film ...', "Indicative Of Sick '70s", 'At first glance , counterculture love story ; second glance , flaky sentimentality ...', 'romantic black comedy light-hearted/sinister psychological ideals', 'Not usual comedy', 'A Counter-Culture Manifesto', 'Very time still wonderful', 'Eccentric comedy still fresh appeal ...', '`` The Earth Is In My Body , My Head Is In The Stars ! `` ...', 'A Movie That Actually Influenced Way I Think', 'Delusional , escapist , plot film', 'eventually even get together', 'The Other side human nature ! !', 'Harold Maude', 'This movie The Graduate', 'Brilliant', 'Age No Object', 'quirky comedy']</t>
+          <t>['Still funny moving years', 'Ruth Gordon magnificent', 'It Was Event', 'life', 'That old feeling', 'Death  Love Life', 'weird  neat', 'That Almost Perfect Film ', 'Indicative Of Sick 70s', 'At first glance  counterculture love story  second glance  flaky sentimentality ', 'romantic black comedy lightheartedsinister psychological ideals', 'Not usual comedy', 'A CounterCulture Manifesto', 'Very time still wonderful', 'Eccentric comedy still fresh appeal ', ' The Earth Is In My Body  My Head Is In The Stars   ', 'A Movie That Actually Influenced Way I Think', 'Delusional  escapist  plot film', 'eventually even get together', 'The Other side human nature  ', 'Harold Maude', 'This movie The Graduate', 'Brilliant', 'Age No Object', 'quirky comedy']</t>
         </is>
       </c>
     </row>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>["Instant classic one best films I 've ever seen", 'even better first', 'Infernal affairs', 'Back forth', 'Funny Entertaining Martial Arts Action Movie', 'Long filled varied , brutal brilliantly filmed action sequences', 'The violence upped notch ...', 'Wow ! Just wow !', '`` best ever ? `` I dunno . But amazing .', 'Decent plot undermined incredibly silly action sequences', 'Just good first one .', "The 'Terminator 2 ' series .", 'Disappointing', 'Double bill - The Raid The Raid 2', 'Bigger yet smaller original', "Although exceptionally well made , I ca n't rate high due unnecessary , graphic violence ...", '[ 9.1 ] The man glimmer fists octopus feet', "On much grander scale original , 's head", 'Bad-ass kick-ass !', "Like martial arts take 'THE GODFATHER ' !", 'One Greatest Action Movies Ever Made !', 'A good movie streamlining would help', 'In one word - Brilliant', "Bring 'Raid 3 '", 'That Kitchen Scene Though ....']</t>
+          <t>['Instant classic one best films I ve ever seen', 'even better first', 'Infernal affairs', 'Back forth', 'Funny Entertaining Martial Arts Action Movie', 'Long filled varied  brutal brilliantly filmed action sequences', 'The violence upped notch ', 'Wow  Just wow ', ' best ever   I dunno  But amazing ', 'Decent plot undermined incredibly silly action sequences', 'Just good first one ', 'The Terminator 2  series ', 'Disappointing', 'Double bill  The Raid The Raid 2', 'Bigger yet smaller original', 'Although exceptionally well made  I ca nt rate high due unnecessary  graphic violence ', ' 91  The man glimmer fists octopus feet', 'On much grander scale original  s head', 'Badass kickass ', 'Like martial arts take THE GODFATHER  ', 'One Greatest Action Movies Ever Made ', 'A good movie streamlining would help', 'In one word  Brilliant', 'Bring Raid 3 ', 'That Kitchen Scene Though ']</t>
         </is>
       </c>
     </row>
@@ -21557,7 +21557,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>['A perfect suspense film', 'Extraordinary , extraordinary', 'cut Harvey Sinatra', 'Intense Cold War Drama', 'The Manchurian Candidate', 'It may relevant remake well rounded , delivering tension , satire , characters generally great film', 'This exciting political paranoia thriller appeal Frank Sinatra fans .', 'Could really happen ?', "Earliest best Frankenheimer 's tour de force", 'Politics Aside , A Riveting Film', 'Tough , talky thriller shows audience little mercy ...', 'Fantastic film stunning performance Angela Lansbury', 'Puppeteer', 'A barinwashing intruiging film-noir', '`` Manchurian Candidate `` Mama Was Never Like This', 'This Is What Is Known Forced Deck', 'The Queen Diamonds made .', 'Bravura Masterpiece With Sharp Insight Prognostication', 'Life Imitates Art', 'Classic political film', "Why n't pass time game solitaire ?", 'I Never Get Tired Watching This Superb Thriller', 'Still special movie .', 'Inspired', 'B+']</t>
+          <t>['A perfect suspense film', 'Extraordinary  extraordinary', 'cut Harvey Sinatra', 'Intense Cold War Drama', 'The Manchurian Candidate', 'It may relevant remake well rounded  delivering tension  satire  characters generally great film', 'This exciting political paranoia thriller appeal Frank Sinatra fans ', 'Could really happen ', 'Earliest best Frankenheimer s tour de force', 'Politics Aside  A Riveting Film', 'Tough  talky thriller shows audience little mercy ', 'Fantastic film stunning performance Angela Lansbury', 'Puppeteer', 'A barinwashing intruiging filmnoir', ' Manchurian Candidate  Mama Was Never Like This', 'This Is What Is Known Forced Deck', 'The Queen Diamonds made ', 'Bravura Masterpiece With Sharp Insight Prognostication', 'Life Imitates Art', 'Classic political film', 'Why nt pass time game solitaire ', 'I Never Get Tired Watching This Superb Thriller', 'Still special movie ', 'Inspired', 'B']</t>
         </is>
       </c>
     </row>
@@ -21601,7 +21601,7 @@
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>['Great use black white', 'Well Made', 'Impeccable Docu-Drama', 'Scott Wilson , RIP', 'Murder Most Foul', 'Cinematography , Acting Make Up ForThe Preaching', 'Extremely well-made , difficult film ...', 'Brooks makes faithful adaptation Capote - In Cold Blood film gut-wrenching , terrifying view humanity', 'Nightmare Prairie : A Little More Personal View', "I n't think effect audience Capote wanted ...", 'Grim tale cold-blooded murder spellbinding ... mercy ...', "`` I Despise People Who Ca n't Control Themselves ! `` ...", 'I find repulsive', "I 'm afraid I 'll mess .", 'Worthy Adaptation Blistering Book', 'exceptional work', 'Stark True Crime Drama .', 'Good True Crime Neo-Noir', 'Truman Capote Novel', 'Older Rascals', 'A Cold Bold Take Banal Horror ...', 'Dull And Manipulative', 'Will Chill Your Blood !', 'Chills You Your Very Soul .', 'Stark']</t>
+          <t>['Great use black white', 'Well Made', 'Impeccable DocuDrama', 'Scott Wilson  RIP', 'Murder Most Foul', 'Cinematography  Acting Make Up ForThe Preaching', 'Extremely wellmade  difficult film ', 'Brooks makes faithful adaptation Capote  In Cold Blood film gutwrenching  terrifying view humanity', 'Nightmare Prairie  A Little More Personal View', 'I nt think effect audience Capote wanted ', 'Grim tale coldblooded murder spellbinding  mercy ', ' I Despise People Who Ca nt Control Themselves   ', 'I find repulsive', 'I m afraid I ll mess ', 'Worthy Adaptation Blistering Book', 'exceptional work', 'Stark True Crime Drama ', 'Good True Crime NeoNoir', 'Truman Capote Novel', 'Older Rascals', 'A Cold Bold Take Banal Horror ', 'Dull And Manipulative', 'Will Chill Your Blood ', 'Chills You Your Very Soul ', 'Stark']</t>
         </is>
       </c>
     </row>
@@ -21645,7 +21645,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>["One Kubrick 's best", "Stanley Kubrick 's first `` good `` film", 'Out Jungle Racetrack', 'great heist movie', 'Totally Engaging Beginning End Also Involves Some Incredible Stupidity', 'A Great Noir Movie With Non-Linear Narrative', 'Classic noir cinema terrific performance magnificent plethora supporting actors', "And 're ...", "One Kubrick 's Early Attempts , Overlooked Too Often", 'Ten stars enough .', 'Great Characters In Here !', 'Somewhat over-hyped early Kubrick ...', 'Early Kubrick probably viewed Tarantino', 'One five favorite Kubrick films - gets better every time', "They Do n't Make Killings Like Anymore-The Killing * * * 1/2", 'Stanley Kubrick Said Look At This Never Looked Back', "Kubrick 's first masterpiece", 'This bad joke without punch line .', "One Kubrick 's best", 'Tightly paced Kubrick film first rate film noir ...', '`` Just bad joke without punch line . ``', "This really well done movie I 'd strongly recommend", "You 've got great big dollar sign women heart .", 'Sharp , brilliant heist noir', 'Early Kubrick Robs Bank']</t>
+          <t>['One Kubrick s best', 'Stanley Kubrick s first  good  film', 'Out Jungle Racetrack', 'great heist movie', 'Totally Engaging Beginning End Also Involves Some Incredible Stupidity', 'A Great Noir Movie With NonLinear Narrative', 'Classic noir cinema terrific performance magnificent plethora supporting actors', 'And re ', 'One Kubrick s Early Attempts  Overlooked Too Often', 'Ten stars enough ', 'Great Characters In Here ', 'Somewhat overhyped early Kubrick ', 'Early Kubrick probably viewed Tarantino', 'One five favorite Kubrick films  gets better every time', 'They Do nt Make Killings Like AnymoreThe Killing    12', 'Stanley Kubrick Said Look At This Never Looked Back', 'Kubrick s first masterpiece', 'This bad joke without punch line ', 'One Kubrick s best', 'Tightly paced Kubrick film first rate film noir ', ' Just bad joke without punch line  ', 'This really well done movie I d strongly recommend', 'You ve got great big dollar sign women heart ', 'Sharp  brilliant heist noir', 'Early Kubrick Robs Bank']</t>
         </is>
       </c>
     </row>
@@ -21689,7 +21689,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>['One favourite Hitchcock films', 'Making Up Papa', 'Ingrid Bergman shines', 'Another Classic', 'Masterpiece Master Suspense', 'complete work', 'South American Nazis', 'Spy without consent', 'Nostalgic Movie', 'Romantic spies drama great tension pretty well played', 'Devlin ... devil ?', 'Yes—yes—notorious .', 'Early Hitchcock ... With Nazis !', 'Attractive Leads , Unattractive Story', 'Dry like double martini ... tasty', "n't demand repeat viewings , want see genuinely", "Notorious Where 's Beef ? * * *", 'Tense Suspense', 'Top entertainment .', 'If need know ... ask woman .', 'Smooth Suspenseful', 'Kiss Kiss ... Talk Talk', 'Intriguing enthralling Hitchcock espionage-thriller', 'Cream crop Bergman-Grant-Hitchcock ...', "Hitchcock 's response `` Casablanca ``"]</t>
+          <t>['One favourite Hitchcock films', 'Making Up Papa', 'Ingrid Bergman shines', 'Another Classic', 'Masterpiece Master Suspense', 'complete work', 'South American Nazis', 'Spy without consent', 'Nostalgic Movie', 'Romantic spies drama great tension pretty well played', 'Devlin  devil ', 'Yesyesnotorious ', 'Early Hitchcock  With Nazis ', 'Attractive Leads  Unattractive Story', 'Dry like double martini  tasty', 'nt demand repeat viewings  want see genuinely', 'Notorious Where s Beef    ', 'Tense Suspense', 'Top entertainment ', 'If need know  ask woman ', 'Smooth Suspenseful', 'Kiss Kiss  Talk Talk', 'Intriguing enthralling Hitchcock espionagethriller', 'Cream crop BergmanGrantHitchcock ', 'Hitchcock s response  Casablanca ']</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>['Splendid nail-biting thriller Alfred Hitchcock', 'Inventive , well-paced Hitchcock story', 'Robert Walker creepy Hitchcock classic', 'Masterpiece', "It 's All Pictures", 'admirable work', 'Another great mystery The Master Suspense .', 'You ...', "One Best Alfred Hitchcock 's Movies Ever Made", 'A memorable concept well executed involved', 'camera angle', "It 's 'all change ' final act .", "One Hitchcock 's Very Best Murders", "One Master 's masterpiece", 'Strangers meet - one sorry', 'beautifully morbid film', 'Treat Two Impostors Just Same', 'First rate Hitchcock .', 'A murder murder scheme goes bad . Great Hitchcock .', 'Two Taboo Aspects', 'Illustrious Magnetism', 'Great Hitchcock thriller', "Great Hitchcock film ... Robert Walker 's finest performance ...", 'Exciting moments', 'A Story Psychosis Murder']</t>
+          <t>['Splendid nailbiting thriller Alfred Hitchcock', 'Inventive  wellpaced Hitchcock story', 'Robert Walker creepy Hitchcock classic', 'Masterpiece', 'It s All Pictures', 'admirable work', 'Another great mystery The Master Suspense ', 'You ', 'One Best Alfred Hitchcock s Movies Ever Made', 'A memorable concept well executed involved', 'camera angle', 'It s all change  final act ', 'One Hitchcock s Very Best Murders', 'One Master s masterpiece', 'Strangers meet  one sorry', 'beautifully morbid film', 'Treat Two Impostors Just Same', 'First rate Hitchcock ', 'A murder murder scheme goes bad  Great Hitchcock ', 'Two Taboo Aspects', 'Illustrious Magnetism', 'Great Hitchcock thriller', 'Great Hitchcock film  Robert Walker s finest performance ', 'Exciting moments', 'A Story Psychosis Murder']</t>
         </is>
       </c>
     </row>
@@ -21777,7 +21777,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>['Life , love , passion death', 'Bitter , Sad , Heavy , Unpleasant \x96 But Also Original Realistic Non-Hollywoodian Love Story', 'Very Raw Film Emotions Necessity', 'Outstanding love story', 'An original , realistic , depressing , modern love-story .', 'Harsh , Gritty , Tough ... Very Moving Film !', 'Excellent , touching drama', 'fine every level', 'Splashy chronicle generation revolt tradition ( worth watching )', 'A simply great film', 'A Thrilling Roller Coaster Ride Love Loss', 'Immigrant drama looks like Turkish remake Sid Nancy', 'Everybody needs somebody ...', 'star-crossed lovers', 'Not bad , ...', 'Raw emotions', 'moving love story general audience', 'Misfit Melodrama', 'Another solid film Faith Akin', "The Hamlet ' doubt Sibel : bride unmarried", 'Very unique , profound , touching', 'Sex City ( Turkish-German Version )', 'Dreck', 'good', 'One greatest Love Stories century']</t>
+          <t>['Life  love  passion death', 'Bitter  Sad  Heavy  Unpleasant  But Also Original Realistic NonHollywoodian Love Story', 'Very Raw Film Emotions Necessity', 'Outstanding love story', 'An original  realistic  depressing  modern lovestory ', 'Harsh  Gritty  Tough  Very Moving Film ', 'Excellent  touching drama', 'fine every level', 'Splashy chronicle generation revolt tradition  worth watching ', 'A simply great film', 'A Thrilling Roller Coaster Ride Love Loss', 'Immigrant drama looks like Turkish remake Sid Nancy', 'Everybody needs somebody ', 'starcrossed lovers', 'Not bad  ', 'Raw emotions', 'moving love story general audience', 'Misfit Melodrama', 'Another solid film Faith Akin', 'The Hamlet  doubt Sibel  bride unmarried', 'Very unique  profound  touching', 'Sex City  TurkishGerman Version ', 'Dreck', 'good', 'One greatest Love Stories century']</t>
         </is>
       </c>
     </row>
@@ -21821,7 +21821,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>['Sometimes numbing , unforgettable moments', 'In Times War', 'Greatest Political Symbol ?', 'One best films 1970', 'One best 1970', 'Conformal Arrays', 'Just simply masterpiece', 'THE CONFORMIST { Extended Version } ( Bernardo Bertolucci , 1970 ) * * * 1/2', 'Bleak , evocative drama - excellent , though pleasant', "One Most Visually Hypnotic Films I 've Ever Seen", 'The first thing say familiar film seems', 'Self-Consciously Trying Make Masterpiece', 'Masterpiece ! !', 'As film , beautiful , adaptation fiasco ...', 'Fascism , architecture moral vacancy', 'Much ado', 'Visually amazing , great sets sites blocking , great light , good story , !', 'Enjoyable lot levels .', "I 've Always Liked Bertolucci", 'Fatal Uncertainty Behind Fascist Veil', 'An amazing film Bertolucci', 'An Impression Of Normalcy', 'Beautiful look .', 'The book , film , deserves adulation', 'Truly brilliant']</t>
+          <t>['Sometimes numbing  unforgettable moments', 'In Times War', 'Greatest Political Symbol ', 'One best films 1970', 'One best 1970', 'Conformal Arrays', 'Just simply masterpiece', 'THE CONFORMIST  Extended Version   Bernardo Bertolucci  1970     12', 'Bleak  evocative drama  excellent  though pleasant', 'One Most Visually Hypnotic Films I ve Ever Seen', 'The first thing say familiar film seems', 'SelfConsciously Trying Make Masterpiece', 'Masterpiece  ', 'As film  beautiful  adaptation fiasco ', 'Fascism  architecture moral vacancy', 'Much ado', 'Visually amazing  great sets sites blocking  great light  good story  ', 'Enjoyable lot levels ', 'I ve Always Liked Bertolucci', 'Fatal Uncertainty Behind Fascist Veil', 'An amazing film Bertolucci', 'An Impression Of Normalcy', 'Beautiful look ', 'The book  film  deserves adulation', 'Truly brilliant']</t>
         </is>
       </c>
     </row>
@@ -21865,7 +21865,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>['Hilarious wonderful', "`` I 'm Son Sea Cook ! ``", 'Some funny moments', 'old flavors', 'Two sweet old ladies', 'Hilarious Screwball Comedy Frank Capra', 'Funny comedy one really deserves reputation `` classic `` label', 'Exceptional dark comedy phenomenal Gary Grant perfect direction Frank Capra', 'Oh Cary Grant !', 'What load old arsenic .', 'Cary Grant Very Best', 'Silly Enjoyable Comedy', 'One great comedy classics', 'exactly subtle , kind morbid comic masterpiece', 'Brilliant comedy like could make old days', 'Arsenic Old Lace hilarious ever !', 'Good Poison Packs A Deadly Wallop * * * *', 'Madcap Max', 'Hit miss', 'Playing Plays', 'Frenetic roller-coaster ride - Capra style !', 'The Brooklyn Brewsters', 'Hysterical', 'Madness gallops one ... frantic pace !', 'Two Crazy Aunts , Psychotic Brother Teddy Roosevelt']</t>
+          <t>['Hilarious wonderful', ' I m Son Sea Cook  ', 'Some funny moments', 'old flavors', 'Two sweet old ladies', 'Hilarious Screwball Comedy Frank Capra', 'Funny comedy one really deserves reputation  classic  label', 'Exceptional dark comedy phenomenal Gary Grant perfect direction Frank Capra', 'Oh Cary Grant ', 'What load old arsenic ', 'Cary Grant Very Best', 'Silly Enjoyable Comedy', 'One great comedy classics', 'exactly subtle  kind morbid comic masterpiece', 'Brilliant comedy like could make old days', 'Arsenic Old Lace hilarious ever ', 'Good Poison Packs A Deadly Wallop    ', 'Madcap Max', 'Hit miss', 'Playing Plays', 'Frenetic rollercoaster ride  Capra style ', 'The Brooklyn Brewsters', 'Hysterical', 'Madness gallops one  frantic pace ', 'Two Crazy Aunts  Psychotic Brother Teddy Roosevelt']</t>
         </is>
       </c>
     </row>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>['Certainly NOT typical Bollywood picture !', "'There two kinds people : good bad - difference . '", 'A Nutshell Review : My Name Khan', 'A Fine Film ....', "Khan name 's terrorist", 'There good people bad people .', 'Made best intentions , film varied uncontrolled cosmopolitan unbalanced ; resulting less interesting effort .', 'A movie heart .', 'A message understanding tolerance', 'HEARTWARMING .', 'Something different , something special', 'WOW !', 'Appreciable effort bring change society would find hard convince people well familiar works Dustin Hoffman , Sean Penn &amp; Tom Hanks', 'My Name Khan Review : We know name , everyone knows ...', 'Mr. Mrs. Khan', 'Great', 'My Name Avinash', 'My Name NOT Forest Gump', 'Both roles model amazing', 'By means worth watch', 'A waste time', 'Great film exemplary', 'A truly entertaining Indian movie !', 'Not epic certainly length', 'My Name Is Khan I terrorist ....... Bore , yes may .']</t>
+          <t>['Certainly NOT typical Bollywood picture ', 'There two kinds people  good bad  difference  ', 'A Nutshell Review  My Name Khan', 'A Fine Film ', 'Khan name s terrorist', 'There good people bad people ', 'Made best intentions  film varied uncontrolled cosmopolitan unbalanced  resulting less interesting effort ', 'A movie heart ', 'A message understanding tolerance', 'HEARTWARMING ', 'Something different  something special', 'WOW ', 'Appreciable effort bring change society would find hard convince people well familiar works Dustin Hoffman  Sean Penn  Tom Hanks', 'My Name Khan Review  We know name  everyone knows ', 'Mr Mrs Khan', 'Great', 'My Name Avinash', 'My Name NOT Forest Gump', 'Both roles model amazing', 'By means worth watch', 'A waste time', 'Great film exemplary', 'A truly entertaining Indian movie ', 'Not epic certainly length', 'My Name Is Khan I terrorist  Bore  yes may ']</t>
         </is>
       </c>
     </row>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>['`` Three Colours Trilogy `` : Part 1', 'interesting art-house film', 'What Is It Like Be Submerged Grief ?', 'liberty', 'The Greatest Of These', 'A grieved woman retakes life surviving car crash killed family', 'freedom 450-495 nanometers', 'Three Colours : Blue', 'A Truly Visual Film', 'Very engaging drama', 'Fabulously absorbing unquestionably brilliant', 'What binds human beings together', 'Three Colours : Blue', 'Excellent craft', 'Emotional Liberty', 'A puzzle', 'All Binoche', "`` It 's 've lost everything 're ( almost ) free anything . ``", 'A masterpiece .', "Worth Viewing For Juliette Binoche 's Masterful Performance Alone", 'Pain , tragedy , mourning , mental psychological anguish , cathartic journey towards freedom , film audiences .', 'Decision Leave ...', 'Good', 'A real drama ...', 'Blue']</t>
+          <t>[' Three Colours Trilogy   Part 1', 'interesting arthouse film', 'What Is It Like Be Submerged Grief ', 'liberty', 'The Greatest Of These', 'A grieved woman retakes life surviving car crash killed family', 'freedom 450495 nanometers', 'Three Colours  Blue', 'A Truly Visual Film', 'Very engaging drama', 'Fabulously absorbing unquestionably brilliant', 'What binds human beings together', 'Three Colours  Blue', 'Excellent craft', 'Emotional Liberty', 'A puzzle', 'All Binoche', ' It s ve lost everything re  almost  free anything  ', 'A masterpiece ', 'Worth Viewing For Juliette Binoche s Masterful Performance Alone', 'Pain  tragedy  mourning  mental psychological anguish  cathartic journey towards freedom  film audiences ', 'Decision Leave ', 'Good', 'A real drama ', 'Blue']</t>
         </is>
       </c>
     </row>
@@ -21997,7 +21997,7 @@
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>['Risorgimento', 'The Leopard', 'experience', 'Paintings Movement', "Glamorous well spectacular historical drama uprising 1860 's Sicily unification Italy", 'life declining institution', 'The End Sicily ?', "Visconti 's film dying aristocracy Sicily", "'s one Visconti 's ambitious gorgeous films", 'Long fascinating', "Luchino Visconti 's finest achievement", 'A Fantastic Period Film Luchino Visconti', 'Burt Lancaster goes Italian aristocratic .', 'prancing dancing monied splendour goes whole final 40 minutes', 'Sumptuous , difficult follow', 'On inevitability change', 'No Longer Biggest Cat Jungle', 'The Leopard', 'Sunset world', 'An apotheosis nobility', 'Keeping His Paws Gilded Cage', 'classic definition', 'The Leopard', 'leopard', 'Overlong dull']</t>
+          <t>['Risorgimento', 'The Leopard', 'experience', 'Paintings Movement', 'Glamorous well spectacular historical drama uprising 1860 s Sicily unification Italy', 'life declining institution', 'The End Sicily ', 'Visconti s film dying aristocracy Sicily', 's one Visconti s ambitious gorgeous films', 'Long fascinating', 'Luchino Visconti s finest achievement', 'A Fantastic Period Film Luchino Visconti', 'Burt Lancaster goes Italian aristocratic ', 'prancing dancing monied splendour goes whole final 40 minutes', 'Sumptuous  difficult follow', 'On inevitability change', 'No Longer Biggest Cat Jungle', 'The Leopard', 'Sunset world', 'An apotheosis nobility', 'Keeping His Paws Gilded Cage', 'classic definition', 'The Leopard', 'leopard', 'Overlong dull']</t>
         </is>
       </c>
     </row>
@@ -22041,7 +22041,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>["With The Sacrifice , Tarkovsky 's film career ends high", 'Tarkovsky', "soul artist/poet profound 'swan song ' , elegy life death soul", 'Existential fear', "Tarkovsky 's last film eve death speculating doomsday", 'The Final Lament From Andrei Tarkovsky', 'For patients viewers .', 'Slow pace allows time immerse philosophical thought', 'Following Promise', 'Tarkovsky paying tribute Bergman', 'Weak .', 'A Masterpiece .... Or ?', 'Do watch entertainment pushed reflect inward', 'A Typical Tarkovsky Affair .', 'A tour everything Tarkovsky .', 'My Mother ( Maria ) , The Bomb', 'Genius pummelling submission .', 'Stamina needed', 'Mesmerizing , Spellbinding Masterpiece', 'Hard describe .', "`` Ca n't express clearly , man ? ``", "'s Deep !", 'Ah , Sweden !', 'Disappointing end astonishing career .', 'Another excellent film Tarkovsky']</t>
+          <t>['With The Sacrifice  Tarkovsky s film career ends high', 'Tarkovsky', 'soul artistpoet profound swan song   elegy life death soul', 'Existential fear', 'Tarkovsky s last film eve death speculating doomsday', 'The Final Lament From Andrei Tarkovsky', 'For patients viewers ', 'Slow pace allows time immerse philosophical thought', 'Following Promise', 'Tarkovsky paying tribute Bergman', 'Weak ', 'A Masterpiece  Or ', 'Do watch entertainment pushed reflect inward', 'A Typical Tarkovsky Affair ', 'A tour everything Tarkovsky ', 'My Mother  Maria   The Bomb', 'Genius pummelling submission ', 'Stamina needed', 'Mesmerizing  Spellbinding Masterpiece', 'Hard describe ', ' Ca nt express clearly  man  ', 's Deep ', 'Ah  Sweden ', 'Disappointing end astonishing career ', 'Another excellent film Tarkovsky']</t>
         </is>
       </c>
     </row>
@@ -22085,7 +22085,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>['Very good polished ... Oscar Best Actor Stewart ? !', 'Witty romantic great cast , great writing great direction', 'Dictating comeback', 'What threesome', 'Sparkling , Say Least', 'Delightful Classic Romantic Comedy', 'Great dialogue , great performances real fun , urgent pace material make delightfully fun film', 'Classic comedy three towering big stars , Katharine Hepburn , Gary Grant James Stewart giving wonderful performances', '`` The Philadelphia Story `` vs `` High Society ``', 'Just Not My Cup Tea', 'Vastly Overrated Movie With Unlikeable Characters', 'Glossy , arch society comedy', 'Great ensemble cast makes one POP', 'Can hardly go wrong three lookers', 'After many years , I finally got watch The Philadelphia Story mom !', 'Philadelphia Freedom Katharine Hepburn George Cukor', 'The game love high society .', 'Overrated , Despite Big Names', 'Good , feels bit dated', 'Main Line society wedding', 'Great film VERY talky', 'Spoiled , arrogant Tracy Lord fits Hepburn like glove ...', 'Overrated screwball comedy', 'The time make mind people never', 'A fun film great characters magnificent cast']</t>
+          <t>['Very good polished  Oscar Best Actor Stewart  ', 'Witty romantic great cast  great writing great direction', 'Dictating comeback', 'What threesome', 'Sparkling  Say Least', 'Delightful Classic Romantic Comedy', 'Great dialogue  great performances real fun  urgent pace material make delightfully fun film', 'Classic comedy three towering big stars  Katharine Hepburn  Gary Grant James Stewart giving wonderful performances', ' The Philadelphia Story  vs  High Society ', 'Just Not My Cup Tea', 'Vastly Overrated Movie With Unlikeable Characters', 'Glossy  arch society comedy', 'Great ensemble cast makes one POP', 'Can hardly go wrong three lookers', 'After many years  I finally got watch The Philadelphia Story mom ', 'Philadelphia Freedom Katharine Hepburn George Cukor', 'The game love high society ', 'Overrated  Despite Big Names', 'Good  feels bit dated', 'Main Line society wedding', 'Great film VERY talky', 'Spoiled  arrogant Tracy Lord fits Hepburn like glove ', 'Overrated screwball comedy', 'The time make mind people never', 'A fun film great characters magnificent cast']</t>
         </is>
       </c>
     </row>
@@ -22129,7 +22129,7 @@
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>['problems intriguing movie', 'Offbeat sensitive melodrama two men care women coma masterfully acted directed', 'alternate relationships', 'Talk Her', 'Another World', 'One best films 2002', 'Interesting emotional drama', "Big boys n't cry ..", 'Very good ...', 'Love saddest thing goes away', "One Almodovar 's More Satisfying Movies", 'Two Comas Bullfight', 'Good movie brilliant like say', "When man loves woman ( n't know ) ...", 'Talk Her', "Look n't touch .", "It 's provocative Almodovar best .", 'Strangely fascinating', 'Intriguing object-oriented', 'Intelligent Sensible', 'unique vision love', 'Was Killing Six Bulls Really Necessary ?', 'Two Men , Two Women , Two Comas -- -See Pattern ?', 'Illusory flowers , bloom unreal', 'Disappointment']</t>
+          <t>['problems intriguing movie', 'Offbeat sensitive melodrama two men care women coma masterfully acted directed', 'alternate relationships', 'Talk Her', 'Another World', 'One best films 2002', 'Interesting emotional drama', 'Big boys nt cry ', 'Very good ', 'Love saddest thing goes away', 'One Almodovar s More Satisfying Movies', 'Two Comas Bullfight', 'Good movie brilliant like say', 'When man loves woman  nt know  ', 'Talk Her', 'Look nt touch ', 'It s provocative Almodovar best ', 'Strangely fascinating', 'Intriguing objectoriented', 'Intelligent Sensible', 'unique vision love', 'Was Killing Six Bulls Really Necessary ', 'Two Men  Two Women  Two Comas  See Pattern ', 'Illusory flowers  bloom unreal', 'Disappointment']</t>
         </is>
       </c>
     </row>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>['Great fun -- probably best genre', 'A classic I think held well', 'William Powell Myrna Loy fun couple', "I 'll Drink That ! !", "Some Old Friends Can Tell The Same Jokes Again And It 's Fine", 'Delightful mystery', 'Witty , Delightful Charming', 'Enjoyable mystery made better playing Powell Loy', 'Can say all-around classic ?', 'First Series ...', 'An Era Where Liquor Was Always The Answer', 'Former detective working case ... scotch !', 'The first series , one best', "look 'Charming-as-all-heck Detective Movie `` dictionary", 'Say hello interesting couple .', 'The first great series mystery films', 'The Adorable Alcoholic', 'Superb combination comedy crime-drama : funny highly intriguing', 'Waiter , serve nuts ? ... I mean , serve guests nuts ?', 'First rate', 'Formula Thin Man stuff still witty sophisticated ...', 'Classic oldie', '`` The murderer right room . Sitting table . You may serve fish . ``', 'Waiter , serve nuts ? I mean , serve guests nuts ?', 'follow along married couple solves mystery']</t>
+          <t>['Great fun  probably best genre', 'A classic I think held well', 'William Powell Myrna Loy fun couple', 'I ll Drink That  ', 'Some Old Friends Can Tell The Same Jokes Again And It s Fine', 'Delightful mystery', 'Witty  Delightful Charming', 'Enjoyable mystery made better playing Powell Loy', 'Can say allaround classic ', 'First Series ', 'An Era Where Liquor Was Always The Answer', 'Former detective working case  scotch ', 'The first series  one best', 'look Charmingasallheck Detective Movie  dictionary', 'Say hello interesting couple ', 'The first great series mystery films', 'The Adorable Alcoholic', 'Superb combination comedy crimedrama  funny highly intriguing', 'Waiter  serve nuts   I mean  serve guests nuts ', 'First rate', 'Formula Thin Man stuff still witty sophisticated ', 'Classic oldie', ' The murderer right room  Sitting table  You may serve fish  ', 'Waiter  serve nuts  I mean  serve guests nuts ', 'follow along married couple solves mystery']</t>
         </is>
       </c>
     </row>
@@ -22217,7 +22217,7 @@
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>['Slow movie truthful', 'Two Great Performances', 'love', 'Late Amour', 'Depressing End Journey', "Amour worthy year 's Oscar Best Foreign Language Film", 'A powerful portrayal ultimate love', 'Beautiful , heartbreaking , phenomenal : must-see', 'Certainly Accomplished , But It Left Me Cold', 'Dedicated one I love', "'Things go , one day . '", 'Straightforward , unflinching look indignities old age death', 'Painful , tough proves though love last lifetime !', 'Love', 'Uncompromising true love , unHollywood style .', 'A Nutshell Review : Amour', 'event', 'Beautiful ...', 'A Worthy Film !', "If n't reason seek foreign film reading , certainly", 'Death affirming', 'Extremely slow moving sad .', 'An Intimate &amp; Heartwrenching Experience .', 'Love purest form', 'Definitely Haneke film']</t>
+          <t>['Slow movie truthful', 'Two Great Performances', 'love', 'Late Amour', 'Depressing End Journey', 'Amour worthy year s Oscar Best Foreign Language Film', 'A powerful portrayal ultimate love', 'Beautiful  heartbreaking  phenomenal  mustsee', 'Certainly Accomplished  But It Left Me Cold', 'Dedicated one I love', 'Things go  one day  ', 'Straightforward  unflinching look indignities old age death', 'Painful  tough proves though love last lifetime ', 'Love', 'Uncompromising true love  unHollywood style ', 'A Nutshell Review  Amour', 'event', 'Beautiful ', 'A Worthy Film ', 'If nt reason seek foreign film reading  certainly', 'Death affirming', 'Extremely slow moving sad ', 'An Intimate  Heartwrenching Experience ', 'Love purest form', 'Definitely Haneke film']</t>
         </is>
       </c>
     </row>
@@ -22261,7 +22261,7 @@
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>["Tarkovsky 's first non-Soviet film disappoint", "almost obtuse poetry , 's work master nonetheless", 'Has moments , glacially paced', 'A Masterpiece Of Cinematic Boredom', 'Miracles Empty Pool', 'Go open mind time might pleasantly surprised .', 'Uneasy , hermetic', 'Homesickness three layers', 'difficult yes , worth effort', 'Beautiful interpretable multiple meanings .', "Every Tarkovsky film masterpiece . He n't make bad movie .", 'Typical Tarkovsky', 'Tarkovsky , drowning nostalgia .', 'Visually astonishing', 'Masterpiece', 'Can get cult ?', '`` Nostalghia `` masterpiece work art', "Nostalghia Tarkovsky 's devotion faith spirituality made art .", 'In search faith', 'Annotating , Amplifying , Extending', 'similar `` Sacrifice ``', 'Beautiful , Strange , Powerful , Haunting Masterpiece', '`` Poetry untranslatable , like whole art . ``', '1+1=1 : even thousand raindrops makes ONE big pool , even inside house', 'Nice contrast light photography']</t>
+          <t>['Tarkovsky s first nonSoviet film disappoint', 'almost obtuse poetry  s work master nonetheless', 'Has moments  glacially paced', 'A Masterpiece Of Cinematic Boredom', 'Miracles Empty Pool', 'Go open mind time might pleasantly surprised ', 'Uneasy  hermetic', 'Homesickness three layers', 'difficult yes  worth effort', 'Beautiful interpretable multiple meanings ', 'Every Tarkovsky film masterpiece  He nt make bad movie ', 'Typical Tarkovsky', 'Tarkovsky  drowning nostalgia ', 'Visually astonishing', 'Masterpiece', 'Can get cult ', ' Nostalghia  masterpiece work art', 'Nostalghia Tarkovsky s devotion faith spirituality made art ', 'In search faith', 'Annotating  Amplifying  Extending', 'similar  Sacrifice ', 'Beautiful  Strange  Powerful  Haunting Masterpiece', ' Poetry untranslatable  like whole art  ', '111  even thousand raindrops makes ONE big pool  even inside house', 'Nice contrast light photography']</t>
         </is>
       </c>
     </row>
@@ -22305,7 +22305,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>['difficult watch fantastic movie', 'powerful memorable', "'s gritty life indigenous people", 'The New Zealand Outsiders', 'Once Lee Tamahori', 'Harrowing must see', 'Scary', 'Amazing', 'A Nutshell Review : Once Were Warriors', 'A great film', 'The power importance cultural roots .', "If You Gave This Movie Less Than 9/10 Then You Did n't Watch Or Did n't Get It ! ! !", 'Brutal powerful', 'A searing New Zealand classic', 'Great acting direction , hard film watch .', 'The tragic life one Maori family', 'One word : WOW', 'An Extremely Powerful And Emotional Film ...', 'Completely engrossing', 'A powerful experience indeed !', 'A Brilliant Film', 'Excellent , hard like', 'Jake Snake', 'Fantastic Acting', 'Excellent']</t>
+          <t>['difficult watch fantastic movie', 'powerful memorable', 's gritty life indigenous people', 'The New Zealand Outsiders', 'Once Lee Tamahori', 'Harrowing must see', 'Scary', 'Amazing', 'A Nutshell Review  Once Were Warriors', 'A great film', 'The power importance cultural roots ', 'If You Gave This Movie Less Than 910 Then You Did nt Watch Or Did nt Get It   ', 'Brutal powerful', 'A searing New Zealand classic', 'Great acting direction  hard film watch ', 'The tragic life one Maori family', 'One word  WOW', 'An Extremely Powerful And Emotional Film ', 'Completely engrossing', 'A powerful experience indeed ', 'A Brilliant Film', 'Excellent  hard like', 'Jake Snake', 'Fantastic Acting', 'Excellent']</t>
         </is>
       </c>
     </row>
@@ -22349,7 +22349,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>['Utterly charming sweet little comedy', 'Beautiful , funny , touching magical , everything fantasy film', '`` I recommend pleasant , may quote ``', 'Such charming movie', 'Great Fun', 'Jimmy His Best', 'perfect', 'An enjoyably light amusing film', "Fun agreeable classic comedy based hit play James Stewart 's top-notch acting", 'contrast rabbit one `` Donnie Darko ``', 'James Stewart Giant Rabbit ... Joy !', "The Good &amp; Bad Of 'Harvey '", 'Monotonously cheerful ...', 'The gentler side humanity', 'weird-light comedy pleasant-crazy man', "The Wide Wonderful World Loony Bin- `` Harvey `` * * * '/12", 'If You Go Chasing Rabbits', 'A Stab Who Harvey Is', 'Pleasant Magical Spoof ... Wonderfully Witty Charming Fun', 'That damn 6ft 3 `` rabbit charming ever .', "There 's awful lot whimsical nonsense going ...", 'Miracles Under Lampposts ...', 'Extremely charming', "`` I 've never heard Harvey say word Akron . ``", 'A warm , lovely , heartfelt , earnestly funny comedy']</t>
+          <t>['Utterly charming sweet little comedy', 'Beautiful  funny  touching magical  everything fantasy film', ' I recommend pleasant  may quote ', 'Such charming movie', 'Great Fun', 'Jimmy His Best', 'perfect', 'An enjoyably light amusing film', 'Fun agreeable classic comedy based hit play James Stewart s topnotch acting', 'contrast rabbit one  Donnie Darko ', 'James Stewart Giant Rabbit  Joy ', 'The Good  Bad Of Harvey ', 'Monotonously cheerful ', 'The gentler side humanity', 'weirdlight comedy pleasantcrazy man', 'The Wide Wonderful World Loony Bin  Harvey     12', 'If You Go Chasing Rabbits', 'A Stab Who Harvey Is', 'Pleasant Magical Spoof  Wonderfully Witty Charming Fun', 'That damn 6ft 3  rabbit charming ever ', 'There s awful lot whimsical nonsense going ', 'Miracles Under Lampposts ', 'Extremely charming', ' I ve never heard Harvey say word Akron  ', 'A warm  lovely  heartfelt  earnestly funny comedy']</t>
         </is>
       </c>
     </row>
@@ -22393,7 +22393,7 @@
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>['The Ethical Dictates Taxi-Driving', 'A good film', 'A time depiction', 'Extremely entertaining', 'Remember Gwangju', "Led Song Kang-Ho 's Outstanding Performance , ' A Taxi Driver ' Is An Unexpected Delight", 'South Korean History ...', 'Just watch ...', 'An inspiring anecdote !', 'MEANINGFUL .', 'A general problem Korean movie TV drama series', 'A powerful story', 'A Taxi Driver Review : South Korean Cinema best &amp; finest form .', 'Great Korean Thriller Hidden Beneath Over-dramatic Mush .', 'A simmering shocking chapter modern South Korean history led fantastic Song Kang-ho', 'Great film', 'WHAT . A . MOVIE ! !', 'Movie people', 'Beautiful- worth watching', 'great film', 'Very good', 'POV common citizens political military disturbances', 'A masterpiece', 'Colourful , beautiful sweet little film', 'A collective sense democracy best political film decade']</t>
+          <t>['The Ethical Dictates TaxiDriving', 'A good film', 'A time depiction', 'Extremely entertaining', 'Remember Gwangju', 'Led Song KangHo s Outstanding Performance   A Taxi Driver  Is An Unexpected Delight', 'South Korean History ', 'Just watch ', 'An inspiring anecdote ', 'MEANINGFUL ', 'A general problem Korean movie TV drama series', 'A powerful story', 'A Taxi Driver Review  South Korean Cinema best  finest form ', 'Great Korean Thriller Hidden Beneath Overdramatic Mush ', 'A simmering shocking chapter modern South Korean history led fantastic Song Kangho', 'Great film', 'WHAT  A  MOVIE  ', 'Movie people', 'Beautiful worth watching', 'great film', 'Very good', 'POV common citizens political military disturbances', 'A masterpiece', 'Colourful  beautiful sweet little film', 'A collective sense democracy best political film decade']</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>["What 's love film ? !", 'Classic treatment timeless legend , film versions THE definitive one', 'Exciting , colourful , old-fashioned best sense', '`` You Speak Treason `` ................................ `` Fluently ``', 'Oh The Colors', 'For Its Time Breakthrough Fun Movie', 'Nostalgic Delightful Adventure', 'Hardly high art tremendous fun even better part century', 'Swashbuckling , action , romance dueling definitive adventure movie', "Just great ; 'll keep wanting ! And Alan Hale 's obesity comments forecast son would experience The Skipper .", 'The Classic Robin Hood Tale', 'The best Robin Hood movie ever', "Flynn 's Foes &amp; Friends Fall Flat , But The Film Is Fine", "Considered many 'the ' definitive Robin Hood movie .", 'great film , ... great MOVIE every sense word though', 'Adventures Robin Hood A Marvelous One * * * 1/2', 'In Living Color', 'Rousing Beginning End', 'Still definitive , best , Robin Hood movie', 'Textures', 'The best `` Robin Hood `` ever !', '`` Welcome Sherwood , lady ! ``', 'This film kind weak comparison Capatin Blood Sea Hawks', 'A Splendid Movie', 'Delightful Errol Flynn']</t>
+          <t>['What s love film  ', 'Classic treatment timeless legend  film versions THE definitive one', 'Exciting  colourful  oldfashioned best sense', ' You Speak Treason    Fluently ', 'Oh The Colors', 'For Its Time Breakthrough Fun Movie', 'Nostalgic Delightful Adventure', 'Hardly high art tremendous fun even better part century', 'Swashbuckling  action  romance dueling definitive adventure movie', 'Just great  ll keep wanting  And Alan Hale s obesity comments forecast son would experience The Skipper ', 'The Classic Robin Hood Tale', 'The best Robin Hood movie ever', 'Flynn s Foes  Friends Fall Flat  But The Film Is Fine', 'Considered many the  definitive Robin Hood movie ', 'great film   great MOVIE every sense word though', 'Adventures Robin Hood A Marvelous One    12', 'In Living Color', 'Rousing Beginning End', 'Still definitive  best  Robin Hood movie', 'Textures', 'The best  Robin Hood  ever ', ' Welcome Sherwood  lady  ', 'This film kind weak comparison Capatin Blood Sea Hawks', 'A Splendid Movie', 'Delightful Errol Flynn']</t>
         </is>
       </c>
     </row>
@@ -22481,7 +22481,7 @@
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>['Very enjoyable melodramatic', 'Superb completely deserving classic status', "Mama , You 're Frump", 'pulpy soapy melodrama done well', 'Crawford Picks Up Gold', 'Tightly Drawn Noir Drama', "Soapy enjoyable story , even dramatic bookends n't work well", 'Classic melodrama intrigue magnificent performances', 'ambition , matter well-intentioned , lead terrible things', 'Class : Born Into It ?', 'Great acting .... beware !', 'Glossy trash !', 'Mildred , smell Crisco', 'Imitation life', "cold cut film-noir 's unbreakable bond mother daughter", 'Mildred Great', 'Joan Crawford Gets Her Man Gold', 'It easy keep determined woman .', 'A Closer Look Two Social Themes', 'TOP-NOTCH FILM-NOIR/SOAP ... MIDDLE CLASS STRUGGLES AND IN-HOUSE EVIL', 'Superb , classic drama', 'Veda , new house mean much would trade ?', "One Crawford 's best", 'Another great film noir James M. Cain novel ...', 'Ann Blyth outshines Joan Crawford']</t>
+          <t>['Very enjoyable melodramatic', 'Superb completely deserving classic status', 'Mama  You re Frump', 'pulpy soapy melodrama done well', 'Crawford Picks Up Gold', 'Tightly Drawn Noir Drama', 'Soapy enjoyable story  even dramatic bookends nt work well', 'Classic melodrama intrigue magnificent performances', 'ambition  matter wellintentioned  lead terrible things', 'Class  Born Into It ', 'Great acting  beware ', 'Glossy trash ', 'Mildred  smell Crisco', 'Imitation life', 'cold cut filmnoir s unbreakable bond mother daughter', 'Mildred Great', 'Joan Crawford Gets Her Man Gold', 'It easy keep determined woman ', 'A Closer Look Two Social Themes', 'TOPNOTCH FILMNOIRSOAP  MIDDLE CLASS STRUGGLES AND INHOUSE EVIL', 'Superb  classic drama', 'Veda  new house mean much would trade ', 'One Crawford s best', 'Another great film noir James M Cain novel ', 'Ann Blyth outshines Joan Crawford']</t>
         </is>
       </c>
     </row>
@@ -22525,7 +22525,7 @@
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>['Perhaps favorite Fellini film', 'Another wonderful Fellini movie', 'needs compelling charismatic lead', 'Good Fellini Film', 'Lush With Memories', 'Carnivalesque', 'Fellini always something offer', 'Nailed', 'Fellini Remembers', "One best Italian , Fellini 's , films", 'Has moments silly funny', 'Fellini Nostalgia', 'Is best film ever made ?', 'More intelligible informed comment', "Fellini 's loving memories", 'testimony . old -new picture', 'We clowns big top Life ...', 'Sentimental journey', 'cheeky satire', "Fellini 's Incompetence", 'Interesting ...', 'Fellini Flatulence', 'A masterpiece', 'A beautiful ode nostalgia', 'amarcord']</t>
+          <t>['Perhaps favorite Fellini film', 'Another wonderful Fellini movie', 'needs compelling charismatic lead', 'Good Fellini Film', 'Lush With Memories', 'Carnivalesque', 'Fellini always something offer', 'Nailed', 'Fellini Remembers', 'One best Italian  Fellini s  films', 'Has moments silly funny', 'Fellini Nostalgia', 'Is best film ever made ', 'More intelligible informed comment', 'Fellini s loving memories', 'testimony  old new picture', 'We clowns big top Life ', 'Sentimental journey', 'cheeky satire', 'Fellini s Incompetence', 'Interesting ', 'Fellini Flatulence', 'A masterpiece', 'A beautiful ode nostalgia', 'amarcord']</t>
         </is>
       </c>
     </row>
@@ -22569,7 +22569,7 @@
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>['A Good Film !', 'Now , long !', 'Iss Kal ko Bhool Jao', 'Pretty Woman', 'Good , though could better', 'Uneven film , good comedy Shahrukh irritating melodrama', 'Entertaining', 'This Is The Best Film', 'Terrific , emotional film', 'Excellent , Fantastic Superb', 'There could tomorow .', 'Perfect .', 'Wonderfully Moving Romantic Drama', 'Kal Ho Naa Ho heartwarming engaging film', 'Emotional roller coaster dips rises ...', 'All gloss fizz real content', 'Warm , subtle deeply moving .', 'famous romantic movies', 'Dismal failure .', 'A heart touching film.This film love passion .', 'First Bollywood Film', 'Spirited emotional Bollywood romantic comedy', 'A great watch ! ! Must watch .', 'Character embrassed', 'A movie hits right place']</t>
+          <t>['A Good Film ', 'Now  long ', 'Iss Kal ko Bhool Jao', 'Pretty Woman', 'Good  though could better', 'Uneven film  good comedy Shahrukh irritating melodrama', 'Entertaining', 'This Is The Best Film', 'Terrific  emotional film', 'Excellent  Fantastic Superb', 'There could tomorow ', 'Perfect ', 'Wonderfully Moving Romantic Drama', 'Kal Ho Naa Ho heartwarming engaging film', 'Emotional roller coaster dips rises ', 'All gloss fizz real content', 'Warm  subtle deeply moving ', 'famous romantic movies', 'Dismal failure ', 'A heart touching filmThis film love passion ', 'First Bollywood Film', 'Spirited emotional Bollywood romantic comedy', 'A great watch   Must watch ', 'Character embrassed', 'A movie hits right place']</t>
         </is>
       </c>
     </row>
@@ -22613,7 +22613,7 @@
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>['admirable work', 'Silence ... jewel', 'Great Heist Movie', 'Masterful', "The master 's trade mark .", 'Looking big payday', 'One new favorite heist pictures : smooth success Melville cast', 'AFter great first hour sort peters', 'As Good As It Gets', "All men guilty . They 're born innocent , n't last .", 'A direly underappreciated , exquisite classic', 'Suffers Some Slow Pacing But Otherwise Very Good Urban Crime Drama', 'well I aware running time deciding re-watch', 'Le Cercle Rouge', 'Cold calculated French heist film', 'Unexpectedly unsatisfying', 'episode dialog American French cinema', 'Excellent French Noir', 'Le Cercle Rouge', 'Lots Padding', 'Well shot n well acted heist film .', 'Melville Masterpiece !', 'Simplicity Style', 'le cercle rouge', "There cool , relentless precision Melville 's flawless crime classic ."]</t>
+          <t>['admirable work', 'Silence  jewel', 'Great Heist Movie', 'Masterful', 'The master s trade mark ', 'Looking big payday', 'One new favorite heist pictures  smooth success Melville cast', 'AFter great first hour sort peters', 'As Good As It Gets', 'All men guilty  They re born innocent  nt last ', 'A direly underappreciated  exquisite classic', 'Suffers Some Slow Pacing But Otherwise Very Good Urban Crime Drama', 'well I aware running time deciding rewatch', 'Le Cercle Rouge', 'Cold calculated French heist film', 'Unexpectedly unsatisfying', 'episode dialog American French cinema', 'Excellent French Noir', 'Le Cercle Rouge', 'Lots Padding', 'Well shot n well acted heist film ', 'Melville Masterpiece ', 'Simplicity Style', 'le cercle rouge', 'There cool  relentless precision Melville s flawless crime classic ']</t>
         </is>
       </c>
     </row>
@@ -22657,7 +22657,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>['incredibly BIG beautiful also sterile', 'Another great film Akira Kurasawa', 'epic static scenes', 'Another Brilliant Epic', 'Go , Bid The Soldiers Shoot', 'The Ultimate Epic Samurai Tales', 'The master masterpiece', 'I prefer `` Ran `` Shadow Warrior', 'A Magnificent Film', 'My God , Look Those Colors !', 'Great message , flawed', 'Very pleasantly surprised', 'Great pretentious epic well worth seeing end', 'The Pawn impersonated Mountain ...', 'Stunning', 'Gorgeous To Look At But Also A Slog At Times', 'Excellent tale conflict , deception ambition Sengoku Japan', 'Acting visuals great , writing/pacing drag little', 'Living shadows', 'Kagemusha : The Shadow Warrior proves important leadership conflict .', 'More final rehearsal `` Ran ``', "How n't IMDB top 250 ?", "Not one Kurosawa 's best .", '`` The shadow man ``', 'cinematography gorgeous ( D+ Movie ) My Ratings 7/10']</t>
+          <t>['incredibly BIG beautiful also sterile', 'Another great film Akira Kurasawa', 'epic static scenes', 'Another Brilliant Epic', 'Go  Bid The Soldiers Shoot', 'The Ultimate Epic Samurai Tales', 'The master masterpiece', 'I prefer  Ran  Shadow Warrior', 'A Magnificent Film', 'My God  Look Those Colors ', 'Great message  flawed', 'Very pleasantly surprised', 'Great pretentious epic well worth seeing end', 'The Pawn impersonated Mountain ', 'Stunning', 'Gorgeous To Look At But Also A Slog At Times', 'Excellent tale conflict  deception ambition Sengoku Japan', 'Acting visuals great  writingpacing drag little', 'Living shadows', 'Kagemusha  The Shadow Warrior proves important leadership conflict ', 'More final rehearsal  Ran ', 'How nt IMDB top 250 ', 'Not one Kurosawa s best ', ' The shadow man ', 'cinematography gorgeous  D Movie  My Ratings 710']</t>
         </is>
       </c>
     </row>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>['While toned play , sizzles fantastically screen', '`` Maggie Cat Alive ``', 'Great performances despite changes', 'Remarkable Performances', 'As Intense It Gets', 'A powerful film intense drama Newman Miss Taylor give strong interpretations', 'Elizabeth Taylor , RIP', 'Silly Hollywood White-Washing', '`` What victory cat hot tin roof ? I wish I knew ... ``', "great cast film version one Tennessee Williams ' great plays", 'Truth known !', 'Great film !', 'Skeletons Closet', 'Lumpy , Loud , Overrated', 'Great drama', 'Toned play still powerful', "A play defined 's actor 's performances", 'An Unusual Family Dynamic', 'A classic , best', 'This masterpiece American cinematic hall fame', 'Elizabeth Taylor shines brightly', 'Among true stars Taylor &amp; Newman shine Burl Ives , could got two Academy Awards year ? ? ?', 'Packs punch !', "A catharsis-inspiring chamber drama worthy Williams ' name , regardless compromises inflicted odious force majeure", 'like Swiss clock']</t>
+          <t>['While toned play  sizzles fantastically screen', ' Maggie Cat Alive ', 'Great performances despite changes', 'Remarkable Performances', 'As Intense It Gets', 'A powerful film intense drama Newman Miss Taylor give strong interpretations', 'Elizabeth Taylor  RIP', 'Silly Hollywood WhiteWashing', ' What victory cat hot tin roof  I wish I knew  ', 'great cast film version one Tennessee Williams  great plays', 'Truth known ', 'Great film ', 'Skeletons Closet', 'Lumpy  Loud  Overrated', 'Great drama', 'Toned play still powerful', 'A play defined s actor s performances', 'An Unusual Family Dynamic', 'A classic  best', 'This masterpiece American cinematic hall fame', 'Elizabeth Taylor shines brightly', 'Among true stars Taylor  Newman shine Burl Ives  could got two Academy Awards year   ', 'Packs punch ', 'A catharsisinspiring chamber drama worthy Williams  name  regardless compromises inflicted odious force majeure', 'like Swiss clock']</t>
         </is>
       </c>
     </row>
@@ -22745,7 +22745,7 @@
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>['Glenn Ford great job', 'Smoldering corruption', 'Top-notch crime thriller', 'Very modern police crime drama', 'Good Lang', 'Nice Formulaic Film Noir', 'Gritty , brutal , intense powerful \x96 fantastic pot-boiler stands almost half century later', 'Fascinating noir film terrific performance Glenn Ford well directed master Fritz Lang', 'An incredible piece cinema history', "Not My Favorite Lang 's Films , But Solid", "`` You 're romantic pair handcuffs ! ``", 'tough , uncompromising late noir', 'hard boiled egg classic , side coffee ...', 'Not Too Hot Handle Fritz Lang Glenn Ford', 'A fearless detective takes bad guys cops .', 'A-List Film-Noir ... Brightly Lit Revenge ... Cop Ford Simmering Hate', 'Classic film-noir crime-thriller', 'Fritz Lang deals nicely obsession corruption .', 'Forerunner L.A . CONFIDENTIAL THE BLACK DAHLIA ...', "I thought action quite dissapointed n't", 'Investigating Apparent Suicide', 'One Best', 'Prisons bulging dummies wonder got .', 'fun noir', "Do n't Let Gloria Grahame Make Coffee"]</t>
+          <t>['Glenn Ford great job', 'Smoldering corruption', 'Topnotch crime thriller', 'Very modern police crime drama', 'Good Lang', 'Nice Formulaic Film Noir', 'Gritty  brutal  intense powerful  fantastic potboiler stands almost half century later', 'Fascinating noir film terrific performance Glenn Ford well directed master Fritz Lang', 'An incredible piece cinema history', 'Not My Favorite Lang s Films  But Solid', ' You re romantic pair handcuffs  ', 'tough  uncompromising late noir', 'hard boiled egg classic  side coffee ', 'Not Too Hot Handle Fritz Lang Glenn Ford', 'A fearless detective takes bad guys cops ', 'AList FilmNoir  Brightly Lit Revenge  Cop Ford Simmering Hate', 'Classic filmnoir crimethriller', 'Fritz Lang deals nicely obsession corruption ', 'Forerunner LA  CONFIDENTIAL THE BLACK DAHLIA ', 'I thought action quite dissapointed nt', 'Investigating Apparent Suicide', 'One Best', 'Prisons bulging dummies wonder got ', 'fun noir', 'Do nt Let Gloria Grahame Make Coffee']</t>
         </is>
       </c>
     </row>
@@ -22789,7 +22789,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>['sermon', 'Strong performances interesting direction development make weaknesses inherent minimalistic film', 'really hits', 'A memorable film', "An absent father thing children concerned Russian gov't", 'A well made beautiful looking drama .', 'Riveting domestic drama like', 'About love', 'Over touted esoteric minimalism', 'Sparse foreboding', "One cinema 's great debuts .", 'one best movies decade', 'Are We There Yet ?', 'Powerful , haunting movie', 'The Return braves blustery Russian rain seek familial reconnection .', 'Get tongue around name : Zvyagintsev', 'R.I.P Vladimir Garin', 'Little action , much tension , wel done director Andrey Zviagintsev', '`` The Return `` heralded resurgence Russian cinema .', 'Classy Russian psychodrama', 'Something Boys Men Wild', 'The ambiguous turbulent teen emotions ring true', 'Brilliant -- yet work par Tarkovsky Kozintsev', 'The Return Prodigal Odysseus', '... man .']</t>
+          <t>['sermon', 'Strong performances interesting direction development make weaknesses inherent minimalistic film', 'really hits', 'A memorable film', 'An absent father thing children concerned Russian govt', 'A well made beautiful looking drama ', 'Riveting domestic drama like', 'About love', 'Over touted esoteric minimalism', 'Sparse foreboding', 'One cinema s great debuts ', 'one best movies decade', 'Are We There Yet ', 'Powerful  haunting movie', 'The Return braves blustery Russian rain seek familial reconnection ', 'Get tongue around name  Zvyagintsev', 'RIP Vladimir Garin', 'Little action  much tension  wel done director Andrey Zviagintsev', ' The Return  heralded resurgence Russian cinema ', 'Classy Russian psychodrama', 'Something Boys Men Wild', 'The ambiguous turbulent teen emotions ring true', 'Brilliant  yet work par Tarkovsky Kozintsev', 'The Return Prodigal Odysseus', ' man ']</t>
         </is>
       </c>
     </row>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>['THE TIME COMES ... ALONG WITH CUSHDY FILM', 'Little India Directory Review : Gully Boy ( 6 Stars )', 'A must watch every passionate person !', 'Good Bollywood Slow-burner ; Rags-to-riches story meets Rap/Hip-Hop .', 'A gem', 'The Hate U Give Youth ...', '`` Change reality match dreams ``', 'I WRONG compare Gully Boy 8 Miles', 'Apna time aayega', 'Ranveer/Alia show', 'The Zoya Factor !', 'Inspiring ! !', 'Best Acting , Direction Script writing', 'Falsely advertised movie', 'An Applause wonderful Lyrics', 'fantastic performances', 'To streets !', 'A gritty tale Mumbai rappers .....', 'Apna Time Aayegaa', 'Entertainment ekdum hard hai bhai .. ! !', 'Best one zoya !', "It 's marvellous .", 'A Coming Age Story Reflects Dreams Downtrodden Country', 'Wow , Ranveer nailed !', "Zoya Akhtar 's Best Work"]</t>
+          <t>['THE TIME COMES  ALONG WITH CUSHDY FILM', 'Little India Directory Review  Gully Boy  6 Stars ', 'A must watch every passionate person ', 'Good Bollywood Slowburner  Ragstoriches story meets RapHipHop ', 'A gem', 'The Hate U Give Youth ', ' Change reality match dreams ', 'I WRONG compare Gully Boy 8 Miles', 'Apna time aayega', 'RanveerAlia show', 'The Zoya Factor ', 'Inspiring  ', 'Best Acting  Direction Script writing', 'Falsely advertised movie', 'An Applause wonderful Lyrics', 'fantastic performances', 'To streets ', 'A gritty tale Mumbai rappers ', 'Apna Time Aayegaa', 'Entertainment ekdum hard hai bhai   ', 'Best one zoya ', 'It s marvellous ', 'A Coming Age Story Reflects Dreams Downtrodden Country', 'Wow  Ranveer nailed ', 'Zoya Akhtar s Best Work']</t>
         </is>
       </c>
     </row>
@@ -22877,7 +22877,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>['Magnificent acting ....', 'Social commentary masquerading mystery thriller', 'What Has Happened Elly ?', 'A getaway goes wrong', 'An Iranian cinematic gem Asghar Farhadi even lacking theoretical sense .', 'The Sound Sea', 'An Ordinary Story Told In An ExtraOrdinary Manner .', 'Sophisticated Iranians vacation Caspian Sea', 'A « bad trip » , dramatic eastern ( web )', 'Excellent Film About Secrets Lies', 'Academy Award encourages viewing', 'That pace ...', 'Another gem Iran', 'DROVE ME DILLY !', 'Impressive film Iran', 'Raw multi-layered', 'Brilliant film ... unlikely location .', "The Director 's Film ... ! !", 'Iranian cinema really brilliant', 'Another beautiful plot Asghar Farhadi', '`` She made raise hand ! ``', 'Simple effective', 'bitter ending better endless bitterness', 'mystery happenstance - matchless masterpiece', 'About Lies We Tell The Truths We Hide !']</t>
+          <t>['Magnificent acting ', 'Social commentary masquerading mystery thriller', 'What Has Happened Elly ', 'A getaway goes wrong', 'An Iranian cinematic gem Asghar Farhadi even lacking theoretical sense ', 'The Sound Sea', 'An Ordinary Story Told In An ExtraOrdinary Manner ', 'Sophisticated Iranians vacation Caspian Sea', 'A  bad trip   dramatic eastern  web ', 'Excellent Film About Secrets Lies', 'Academy Award encourages viewing', 'That pace ', 'Another gem Iran', 'DROVE ME DILLY ', 'Impressive film Iran', 'Raw multilayered', 'Brilliant film  unlikely location ', 'The Director s Film   ', 'Iranian cinema really brilliant', 'Another beautiful plot Asghar Farhadi', ' She made raise hand  ', 'Simple effective', 'bitter ending better endless bitterness', 'mystery happenstance  matchless masterpiece', 'About Lies We Tell The Truths We Hide ']</t>
         </is>
       </c>
     </row>
@@ -22921,7 +22921,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>['A bit like Argentinian version `` The Sting ``', 'Watch instead Remake', 'The Argentinean Sting', 'Two con men partner big swindle', 'David Mamet , eat heart !', 'Too slow', 'Great , fun original .', 'Honour Among Thieves', 'I never seen film relentlessly uncompromising allure , power , banality con game .', 'Smart , smart movie , excellent acting performances .', 'Here scam , scam , everywhere scam-scam', 'The longest con', 'Engaging , well-paced thriller .', 'Sticky &amp; Square', 'Nine Queens one ...', 'Nifty sharp little Argentinian crime thriller looking petty street cons large scale heists .', 'Nine Queens : An excellent thriller Argentina shamelessly copied incompetent cinemas .', 'Whalloping Ride Twisty Caper Film', 'first , second , third yes', 'Average con artist movie', "Slippin ' Juan", 'Perfect', 'argentina , post 2000. bielinsky influential movie ever', 'Nice characters/unoriginal story/lazy directing']</t>
+          <t>['A bit like Argentinian version  The Sting ', 'Watch instead Remake', 'The Argentinean Sting', 'Two con men partner big swindle', 'David Mamet  eat heart ', 'Too slow', 'Great  fun original ', 'Honour Among Thieves', 'I never seen film relentlessly uncompromising allure  power  banality con game ', 'Smart  smart movie  excellent acting performances ', 'Here scam  scam  everywhere scamscam', 'The longest con', 'Engaging  wellpaced thriller ', 'Sticky  Square', 'Nine Queens one ', 'Nifty sharp little Argentinian crime thriller looking petty street cons large scale heists ', 'Nine Queens  An excellent thriller Argentina shamelessly copied incompetent cinemas ', 'Whalloping Ride Twisty Caper Film', 'first  second  third yes', 'Average con artist movie', 'Slippin  Juan', 'Perfect', 'argentina  post 2000 bielinsky influential movie ever', 'Nice charactersunoriginal storylazy directing']</t>
         </is>
       </c>
     </row>
@@ -22965,7 +22965,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>['seems aged poorly', 'The Rules Game', "I Ca n't Get Past Events !", 'The Hypocrite Shallow Life Bourgeois French Class Close Forthcoming World War II', 'earlier Gosford Park', 'A Film Its Time', "Not best Renoir work I 've seen far , even I see enjoy really works", 'Not sure fuss', 'Class Rules ! Okay', 'The awful thing life : Everybody reasons .', 'Enjoyable well made - specifically lent power real life circumstances', 'Every Film Student Knows This One', 'Tangled Webs', 'The movie goes really crazy last third .', 'Interesting satire , overrated', 'French farce .', 'irony in-your-face', "The good thing 's 'Mad Comedy ' bad thing 's 'MAD Film ' . No wonder people scorned .", 'Everybody Has Their Reasons', 'Overrated Renoir Film Film Students - La regle du jeu ( The Rules Game )', 'Love Triangles Badness ...', 'Satisfying Story , Stylish Technique , Perceptive Commentary', "Truly one 'greatest films ever made '", "I think key film director 's performance", 'Rules like father like son , masterpiece .']</t>
+          <t>['seems aged poorly', 'The Rules Game', 'I Ca nt Get Past Events ', 'The Hypocrite Shallow Life Bourgeois French Class Close Forthcoming World War II', 'earlier Gosford Park', 'A Film Its Time', 'Not best Renoir work I ve seen far  even I see enjoy really works', 'Not sure fuss', 'Class Rules  Okay', 'The awful thing life  Everybody reasons ', 'Enjoyable well made  specifically lent power real life circumstances', 'Every Film Student Knows This One', 'Tangled Webs', 'The movie goes really crazy last third ', 'Interesting satire  overrated', 'French farce ', 'irony inyourface', 'The good thing s Mad Comedy  bad thing s MAD Film   No wonder people scorned ', 'Everybody Has Their Reasons', 'Overrated Renoir Film Film Students  La regle du jeu  The Rules Game ', 'Love Triangles Badness ', 'Satisfying Story  Stylish Technique  Perceptive Commentary', 'Truly one greatest films ever made ', 'I think key film director s performance', 'Rules like father like son  masterpiece ']</t>
         </is>
       </c>
     </row>
@@ -23009,7 +23009,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>['The UN UN usually ....', "good black comedy standoff n't make sense", 'The Universe Insane War , Showed Trench Bosnia-Herzegovina', 'Intelligent humorous critic Yugoslavian war', 'war snowballs', 'Intelligent anti war movie .', 'A Depiction Of The Ineffective U.N .', 'One Best Pictures Year , shattering brilliant', 'You started war ! ... No , YOU started war ! !', 'Excellent', 'This Won An Oscar ?', 'Not quite Oscar worthy , still good .', 'Now ... tell . Who started war ?', 'Good satire war still also shows horrors war .', 'The struggle former Yugoslavia 1993 never looked clearer devastating little morality play movie .', 'war , different manner', 'Good journeyman war satire slightly over-touted plotholes .', 'Stronger psychologically politically', 'Sometimes World Torn Apart .', 'Besides awkward performances English dialogue , pretty great', 'Grim , powerful war movie', 'Tragic funny', 'Fiction , least lets us make stab understanding Bosnian war', 'Very Funny Very Tense Frank Look Post-Cold War Conflicts', 'Poignant effective']</t>
+          <t>['The UN UN usually ', 'good black comedy standoff nt make sense', 'The Universe Insane War  Showed Trench BosniaHerzegovina', 'Intelligent humorous critic Yugoslavian war', 'war snowballs', 'Intelligent anti war movie ', 'A Depiction Of The Ineffective UN ', 'One Best Pictures Year  shattering brilliant', 'You started war   No  YOU started war  ', 'Excellent', 'This Won An Oscar ', 'Not quite Oscar worthy  still good ', 'Now  tell  Who started war ', 'Good satire war still also shows horrors war ', 'The struggle former Yugoslavia 1993 never looked clearer devastating little morality play movie ', 'war  different manner', 'Good journeyman war satire slightly overtouted plotholes ', 'Stronger psychologically politically', 'Sometimes World Torn Apart ', 'Besides awkward performances English dialogue  pretty great', 'Grim  powerful war movie', 'Tragic funny', 'Fiction  least lets us make stab understanding Bosnian war', 'Very Funny Very Tense Frank Look PostCold War Conflicts', 'Poignant effective']</t>
         </is>
       </c>
     </row>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>["About close perfect light comedy 'll find 30s", 'Excellent', 'Set Firmly In The Depression', 'necessarily right match', 'How Can You Not Love It', 'seductive . ago ago', 'Delightfully Naive Funny', 'Quite Enjoyable', 'Affordable Insanity .', '`` The difference derelict man job . ``', 'A big hit day , rather forced shrill bit screwball ...', 'Brother , spare dime ?', 'William Powell Gets Reacquainted Carole Lombard', "And It 's Lowly Universal Studios", 'The Man', 'I see room full empty headed nitwits !', 'Scavenger hunt', 'Sorry , one vastly overrated ...', 'Screwball comedy staple', '`` Can buttle ? ``', 'Brilliant , funny , smart , essential', 'The Screwiest Screwball Comedies', 'Fun entertainment .', 'My Forgotten Man', 'The Butler Did It .']</t>
+          <t>['About close perfect light comedy ll find 30s', 'Excellent', 'Set Firmly In The Depression', 'necessarily right match', 'How Can You Not Love It', 'seductive  ago ago', 'Delightfully Naive Funny', 'Quite Enjoyable', 'Affordable Insanity ', ' The difference derelict man job  ', 'A big hit day  rather forced shrill bit screwball ', 'Brother  spare dime ', 'William Powell Gets Reacquainted Carole Lombard', 'And It s Lowly Universal Studios', 'The Man', 'I see room full empty headed nitwits ', 'Scavenger hunt', 'Sorry  one vastly overrated ', 'Screwball comedy staple', ' Can buttle  ', 'Brilliant  funny  smart  essential', 'The Screwiest Screwball Comedies', 'Fun entertainment ', 'My Forgotten Man', 'The Butler Did It ']</t>
         </is>
       </c>
     </row>
@@ -23097,7 +23097,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>['A beautiful , refreshing , positive empowering story', 'Adolescent Vision', "This year 's Oscar Foreign Film contender Brazil !", 'Teen sex best !', 'A Sensitive Portrayal ...', 'Simple , effective', 'Some prince charming princess .', 'Outstanding movie Brazil', 'A teen film big difference !', 'A refreshing , breezy , subversive , overwhelming pick-me-up .', 'Sympathetic endearing movie .', 'Heartfelt', 'Exceptional film coming age tale Brazil ,', 'Gem movie', "Heartwarming Delightful ; As Sweet Charming Short 's based .", 'Incredible cinema short OR feature', 'The way looks review', 'Incredibly sweet beautiful love story', 'Lovely Coming Age Story', 'Why film resonates us', 'Quality', 'Nice , comforting cute', 'A cute movie ,', 'Subtle tactile romance', 'Real Deep Touching Movie !']</t>
+          <t>['A beautiful  refreshing  positive empowering story', 'Adolescent Vision', 'This year s Oscar Foreign Film contender Brazil ', 'Teen sex best ', 'A Sensitive Portrayal ', 'Simple  effective', 'Some prince charming princess ', 'Outstanding movie Brazil', 'A teen film big difference ', 'A refreshing  breezy  subversive  overwhelming pickmeup ', 'Sympathetic endearing movie ', 'Heartfelt', 'Exceptional film coming age tale Brazil ', 'Gem movie', 'Heartwarming Delightful  As Sweet Charming Short s based ', 'Incredible cinema short OR feature', 'The way looks review', 'Incredibly sweet beautiful love story', 'Lovely Coming Age Story', 'Why film resonates us', 'Quality', 'Nice  comforting cute', 'A cute movie ', 'Subtle tactile romance', 'Real Deep Touching Movie ']</t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>['Battleship Potemkin', 'great work', 'The Rising', "A gripping story told style passion well 'must see ' piece cinema history", 'still great years', 'Greatest Silent Film Ever ?', 'word , magnificent', "Like Citizen Kane 's almost TOO analyzed cherished landmark , still without good reason", 'Dynamic Masterpiece', 'Soviet propaganda masterpiece Sergei Eisenstein', 'Groundbreaking ... Influential ... Powerful ... Invented &amp; Embellished Cinema Techniques', 'Historic great', "It looked like saw 's future likes Stalin Vladimir Putin", 'Phenomenal editing cinematography !', 'Epic Propaganda', 'red flag', 'Communist Propaganda', "No point gilding lily - 's first-rate cinema .", "I n't give darn 's said million times : Battleship Potemkin simply IS one greatest films ever made , like", 'Worth watching , suffers propaganda film', 'Violent , necessary , communist , revolutionary ...', 'Great Russian Masterpiece', 'A thoughts widely regarded masterpiece', 'Mutiny Russian battleship 1905 consequences tragic heroic', 'A Classic Cinematic Magnum Opus legendary tale Russian Revolution .']</t>
+          <t>['Battleship Potemkin', 'great work', 'The Rising', 'A gripping story told style passion well must see  piece cinema history', 'still great years', 'Greatest Silent Film Ever ', 'word  magnificent', 'Like Citizen Kane s almost TOO analyzed cherished landmark  still without good reason', 'Dynamic Masterpiece', 'Soviet propaganda masterpiece Sergei Eisenstein', 'Groundbreaking  Influential  Powerful  Invented  Embellished Cinema Techniques', 'Historic great', 'It looked like saw s future likes Stalin Vladimir Putin', 'Phenomenal editing cinematography ', 'Epic Propaganda', 'red flag', 'Communist Propaganda', 'No point gilding lily  s firstrate cinema ', 'I nt give darn s said million times  Battleship Potemkin simply IS one greatest films ever made  like', 'Worth watching  suffers propaganda film', 'Violent  necessary  communist  revolutionary ', 'Great Russian Masterpiece', 'A thoughts widely regarded masterpiece', 'Mutiny Russian battleship 1905 consequences tragic heroic', 'A Classic Cinematic Magnum Opus legendary tale Russian Revolution ']</t>
         </is>
       </c>
     </row>
@@ -23185,7 +23185,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>["Cocteau 's greatest masterpiece", 'Stunning , simply stunning !', 'Forget Disney', "French classic fantasy I n't like acting", 'Great', 'What Genius ... See This Film', 'An engaging adult fairytale', 'Beautiful Fantastic Film', 'Magnifique !', 'For time , today , unique , emotionally involving adaptation', 'Good adaptation classic fairy tale', 'Beastly', 'This masterpiece I expected ...', '`` May devil splatter dung . ``', 'A lovely fantasy classic', 'Not best telling story still greatly made one .', 'My masterpiece number 130 ! ! !', 'Magical masterpiece', 'Nice visuals , old-fashioned story', "Granted , Cocteau sprays magic potion onto story 's child-friendly prospect , ending comes expected unexpected", 'No comment flick taken seriously . . .', 'A visual feast eat eyes', 'one kind perfect unforgettable', 'Tale As Old As Time', 'Meow !']</t>
+          <t>['Cocteau s greatest masterpiece', 'Stunning  simply stunning ', 'Forget Disney', 'French classic fantasy I nt like acting', 'Great', 'What Genius  See This Film', 'An engaging adult fairytale', 'Beautiful Fantastic Film', 'Magnifique ', 'For time  today  unique  emotionally involving adaptation', 'Good adaptation classic fairy tale', 'Beastly', 'This masterpiece I expected ', ' May devil splatter dung  ', 'A lovely fantasy classic', 'Not best telling story still greatly made one ', 'My masterpiece number 130   ', 'Magical masterpiece', 'Nice visuals  oldfashioned story', 'Granted  Cocteau sprays magic potion onto story s childfriendly prospect  ending comes expected unexpected', 'No comment flick taken seriously   ', 'A visual feast eat eyes', 'one kind perfect unforgettable', 'Tale As Old As Time', 'Meow ']</t>
         </is>
       </c>
     </row>
@@ -23229,7 +23229,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>['Bleak harsh indie', 'Quite Understated', 'The Romania House Rules', 'best stark , haunting look complex issue without much sentimentality', 'Good good hype', 'Not feint heart', 'Another Chipper Valentine Romania', 'Not Dinner Party Simple Folk', 'Cinema Verité Romania', 'A Nutshell Review : 4 Months , 3 Weeks , 2 Days', 'Stunningly human', 'end transition Romanian cinema', 'A Devastating Portrayal Of Life', 'unforgettable human drama', 'Intensely personal realistic harrowing ... intensely well done', 'Tiresome', 'Depressing', 'Terror danger Communist-era Romania less-than encouraged events actions played .', 'Watch Wednesday .', '4 Months , 3 Weeks 2 Days harrowingly tests far one willing go friend .', "One Greatest Films I Have Ever Seen , Here 's Why :", 'Combining socially relevant subject almost Hitchcock like suspense', 'CONTROVERSIAL .', 'It never resonated', 'Spartan style lends thesping , film still needs tweaking .']</t>
+          <t>['Bleak harsh indie', 'Quite Understated', 'The Romania House Rules', 'best stark  haunting look complex issue without much sentimentality', 'Good good hype', 'Not feint heart', 'Another Chipper Valentine Romania', 'Not Dinner Party Simple Folk', 'Cinema Verit Romania', 'A Nutshell Review  4 Months  3 Weeks  2 Days', 'Stunningly human', 'end transition Romanian cinema', 'A Devastating Portrayal Of Life', 'unforgettable human drama', 'Intensely personal realistic harrowing  intensely well done', 'Tiresome', 'Depressing', 'Terror danger Communistera Romania lessthan encouraged events actions played ', 'Watch Wednesday ', '4 Months  3 Weeks 2 Days harrowingly tests far one willing go friend ', 'One Greatest Films I Have Ever Seen  Here s Why ', 'Combining socially relevant subject almost Hitchcock like suspense', 'CONTROVERSIAL ', 'It never resonated', 'Spartan style lends thesping  film still needs tweaking ']</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>['Silent movie', 'Reality Dream', 'A strange somewhat fascinating movie satisfactary conclusion', 'A deep beautiful story reality illusion', "One unusual original love-stories 'll ever see .", 'Arty yet involving', 'A quiet , artful movie . I liked , : )', 'A Disquietingly Quiet Love Story', 'odd compelling art film', 'Air holds hand', 'Very Different', 'Contemporary Korean gem uses basic techniques gets across complicated meaning .', 'Hollow core', 'A recognizably human , scintillating sweet slice preternatural life !', 'Elegant simple', 'Elegance saves shallow high concept', 'A film becomes symbolic along way', 'A sporting ménage à trois', 'Strange almost other-worldly story ...', 'It finee', 'Originality abundance', 'Strange interesting romance story', 'No really . Far .', 'Beauty', 'Love Sight']</t>
+          <t>['Silent movie', 'Reality Dream', 'A strange somewhat fascinating movie satisfactary conclusion', 'A deep beautiful story reality illusion', 'One unusual original lovestories ll ever see ', 'Arty yet involving', 'A quiet  artful movie  I liked   ', 'A Disquietingly Quiet Love Story', 'odd compelling art film', 'Air holds hand', 'Very Different', 'Contemporary Korean gem uses basic techniques gets across complicated meaning ', 'Hollow core', 'A recognizably human  scintillating sweet slice preternatural life ', 'Elegant simple', 'Elegance saves shallow high concept', 'A film becomes symbolic along way', 'A sporting mnage  trois', 'Strange almost otherworldly story ', 'It finee', 'Originality abundance', 'Strange interesting romance story', 'No really  Far ', 'Beauty', 'Love Sight']</t>
         </is>
       </c>
     </row>
@@ -23317,7 +23317,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>['I felt totally step everyone .... I decided try .', 'Art versus entertainment', 'Laughter , A Precious Commodity In This Cockeyed Caravan', 'little sex', 'Good', 'My First Preston Sturges', 'The Importance Comedy', 'Very good picaresque comedy set Depression era filmmaker posing tramp quest truth', 'O brother , thou art ...', 'The Power Laughter', 'Deserves Its Lofty Reputation', 'A cockeyed caravan slapstick , melodrama , romance touch sentiment ...', 'A director discovers magic laughter', "Sullivan 's Travels- He Got Last Laugh * * *", 'Several Comments', 'Interesting entertaining', 'Please put good word Lubitsch !', 'Uneven satire pastiche various genres manages brilliant comic moments ...', 'One word describe `` outdated ``', 'Preston Sturges Defends Mindless Comedy Film Big Brain Even Bigger Heart', 'A bit mixed bag .', 'O , Brother Where Art Thou ? - Classic American comedy', 'Among poverty , starvation answer .... laugh said Sturges ! !', 'A Masterpiece Of Comedy/Drama .', 'Travels travails']</t>
+          <t>['I felt totally step everyone  I decided try ', 'Art versus entertainment', 'Laughter  A Precious Commodity In This Cockeyed Caravan', 'little sex', 'Good', 'My First Preston Sturges', 'The Importance Comedy', 'Very good picaresque comedy set Depression era filmmaker posing tramp quest truth', 'O brother  thou art ', 'The Power Laughter', 'Deserves Its Lofty Reputation', 'A cockeyed caravan slapstick  melodrama  romance touch sentiment ', 'A director discovers magic laughter', 'Sullivan s Travels He Got Last Laugh   ', 'Several Comments', 'Interesting entertaining', 'Please put good word Lubitsch ', 'Uneven satire pastiche various genres manages brilliant comic moments ', 'One word describe  outdated ', 'Preston Sturges Defends Mindless Comedy Film Big Brain Even Bigger Heart', 'A bit mixed bag ', 'O  Brother Where Art Thou   Classic American comedy', 'Among poverty  starvation answer  laugh said Sturges  ', 'A Masterpiece Of ComedyDrama ', 'Travels travails']</t>
         </is>
       </c>
     </row>
@@ -23361,7 +23361,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>['Alcohol addiction never harrowingly depicted film', 'Once Upon A Time There Was A Bat And A Mouse', 'daring groundbreaking movie-making back day', 'Insidious', 'The Insanities Alcoholic Writer Weekend 1945', 'Heart-breaking tale drunk man gradually drags life alcoholism', 'This definitely right movie Best Picture year .', 'Milland Wilder Great Combination', 'That calls drink .', 'Billy Wilder takes alcoholism', 'simple `` message `` movie , Wilder tries make addiction human crisis possible', 'The Lost Weekend- Weekend Worth Remembering * * * 1/2', 'How daring screen dare ?', "It 's Social Hour", 'For reason I watch film ...', 'Searing , haunting examination alcoholism consequences', 'Delirium disease comes night . ,', 'Days wine Four Roses', 'Powerful landmark film alcoholism lost none status ... Ray Milland deserved Oscar ...', "Well Below Wilder 's Usual Standard", 'A true unique daring movie .', 'Alcoholic Drama .', "Billy Wilder 's lost film", 'A powerful cry addiction forms .', 'Social disease']</t>
+          <t>['Alcohol addiction never harrowingly depicted film', 'Once Upon A Time There Was A Bat And A Mouse', 'daring groundbreaking moviemaking back day', 'Insidious', 'The Insanities Alcoholic Writer Weekend 1945', 'Heartbreaking tale drunk man gradually drags life alcoholism', 'This definitely right movie Best Picture year ', 'Milland Wilder Great Combination', 'That calls drink ', 'Billy Wilder takes alcoholism', 'simple  message  movie  Wilder tries make addiction human crisis possible', 'The Lost Weekend Weekend Worth Remembering    12', 'How daring screen dare ', 'It s Social Hour', 'For reason I watch film ', 'Searing  haunting examination alcoholism consequences', 'Delirium disease comes night ', 'Days wine Four Roses', 'Powerful landmark film alcoholism lost none status  Ray Milland deserved Oscar ', 'Well Below Wilder s Usual Standard', 'A true unique daring movie ', 'Alcoholic Drama ', 'Billy Wilder s lost film', 'A powerful cry addiction forms ', 'Social disease']</t>
         </is>
       </c>
     </row>
@@ -23405,7 +23405,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>['early Louis Malle', 'New Wave , Noir', 'Camera Has Many Photos', 'A bit weak middle section tastes still enjoyably ironic story', 'A Strong Debut From Malle', "Louis Malle 's auspicious debut", 'naturalistic T , cool bone , atmosphere suspense pay-off', 'Hung Up Grappling Hook', 'Overrated', 'My Friend Dinner', 'The black cat ...', "French film noir n't get better ...", 'Stuck ...', 'Outstanding Film Noir', 'Terrifically smart , flavorful crime thriller', 'The Camera one picture', 'Far self conscious real noir contender .', 'As cool side pillow', 'Malle wunderkind !', 'Stylish neo-noir famous early twitch French New Wave', 'A horrible mess complications murder leading several , made fascinating brilliance .', 'Malle Debuts With Success', 'Nice Tight Murder Tale - Elevator Gallows', 'Implausible Perfection ...', 'Miles Davis Paris Night -- great crime suspense , ...']</t>
+          <t>['early Louis Malle', 'New Wave  Noir', 'Camera Has Many Photos', 'A bit weak middle section tastes still enjoyably ironic story', 'A Strong Debut From Malle', 'Louis Malle s auspicious debut', 'naturalistic T  cool bone  atmosphere suspense payoff', 'Hung Up Grappling Hook', 'Overrated', 'My Friend Dinner', 'The black cat ', 'French film noir nt get better ', 'Stuck ', 'Outstanding Film Noir', 'Terrifically smart  flavorful crime thriller', 'The Camera one picture', 'Far self conscious real noir contender ', 'As cool side pillow', 'Malle wunderkind ', 'Stylish neonoir famous early twitch French New Wave', 'A horrible mess complications murder leading several  made fascinating brilliance ', 'Malle Debuts With Success', 'Nice Tight Murder Tale  Elevator Gallows', 'Implausible Perfection ', 'Miles Davis Paris Night  great crime suspense  ']</t>
         </is>
       </c>
     </row>
@@ -23449,7 +23449,7 @@
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>['Dev.Doofus', "Devdas 'Redefined '", 'Anurag goes Madhur Bhandarkar way delivers well-crafted , bold vulgar version .', 'Devdas Kashyap-Style', 'Interesting retake Devdas ! !', 'Where master fails , disciple excels !', 'A More Modern Bollywood Needs The Scissors', 'Good movie !', 'Modern adaptation DevDas Perfection !', 'Anurag Kashyap `` The Maverick Indian Cinema ``', 'This different Bollywood movie', 'A Modern Take Classic Story', 'Daring Innovative Storytelling', '2021 ? ?', 'AESTHETICALLY AND EMOTIONALLY POWERFUL', 'An excellent cautionary introspective tale', 'The Fundoo Emosonal Atyaachar', 'Documenting B- grade sleaze A-grade class', 'A Classic - probably ages', "Dev.D - Ek 'modern ' loser ki kahani", 'Bollywood goes French Film Style', 'A movie International Standards', 'Bad remake', 'Boring waste time', 'Watch']</t>
+          <t>['DevDoofus', 'Devdas Redefined ', 'Anurag goes Madhur Bhandarkar way delivers wellcrafted  bold vulgar version ', 'Devdas KashyapStyle', 'Interesting retake Devdas  ', 'Where master fails  disciple excels ', 'A More Modern Bollywood Needs The Scissors', 'Good movie ', 'Modern adaptation DevDas Perfection ', 'Anurag Kashyap  The Maverick Indian Cinema ', 'This different Bollywood movie', 'A Modern Take Classic Story', 'Daring Innovative Storytelling', '2021  ', 'AESTHETICALLY AND EMOTIONALLY POWERFUL', 'An excellent cautionary introspective tale', 'The Fundoo Emosonal Atyaachar', 'Documenting B grade sleaze Agrade class', 'A Classic  probably ages', 'DevD  Ek modern  loser ki kahani', 'Bollywood goes French Film Style', 'A movie International Standards', 'Bad remake', 'Boring waste time', 'Watch']</t>
         </is>
       </c>
     </row>
@@ -23493,7 +23493,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>['Uxoriousness', 'Heartfelt &amp; Well-Acted !', 'An EYE OPENER CLASSIC Sensible People .', 'What We Take Granted', 'Long Review : Padman', 'Standard pipeline products', 'Padman Review : India got innovative superhero !', 'I enjoyed movie', 'Padman refreshing journey lauded boldness message cause', 'Important lacks focus', 'Recommended 👍', "Padman yet another Akshay 's entertainer social message", 'Sincere film', "A good film 's message execution .", 'The real USP film biography', 'This issue must addressed I appreciate even dramatic , slow preachy places', 'Powerful ....', 'Problem good', 'I never thought movie like would made India .', 'Emotional , Inspirational Engaging Biopic', 'Not brilliant !', 'Brave attempt', 'A brave inspirational attempt ......', "Pad Man : R Balki 's first `` period `` film full social message", 'Got placed time Favs !']</t>
+          <t>['Uxoriousness', 'Heartfelt  WellActed ', 'An EYE OPENER CLASSIC Sensible People ', 'What We Take Granted', 'Long Review  Padman', 'Standard pipeline products', 'Padman Review  India got innovative superhero ', 'I enjoyed movie', 'Padman refreshing journey lauded boldness message cause', 'Important lacks focus', 'Recommended ', 'Padman yet another Akshay s entertainer social message', 'Sincere film', 'A good film s message execution ', 'The real USP film biography', 'This issue must addressed I appreciate even dramatic  slow preachy places', 'Powerful ', 'Problem good', 'I never thought movie like would made India ', 'Emotional  Inspirational Engaging Biopic', 'Not brilliant ', 'Brave attempt', 'A brave inspirational attempt ', 'Pad Man  R Balki s first  period  film full social message', 'Got placed time Favs ']</t>
         </is>
       </c>
     </row>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>["A brilliant film quite among Bergman 's finest", 'Through Glass Darkly', 'Four Lost Souls', 'Lack Communication Absence God – The Beginning Trilogy Silence', 'Not My Favorite Bergman , But Solid Film', 'Predictably despairing , less predictably unreachable ...', "One Bergman 's best works : tragic/poetic/remarkable", 'Typical Bergman , Meaning Nihilistically Depressing', 'fated also two parts come', 'Through Glass Darkly', 'Great film', "The Circle Life , according Bergman , round trip Reality Illusion ... convenience 's illusory reality ...", 'Yet another luminous achivement Ingmar Bergman bringing maximum intellectual content within short time .', 'Karin Through Looking Glass ...', 'A Haunting , Somber Movie That Stays With You Long Afterwards', 'glass darkly', 'Visceral , emotional , marvelously penetrative', 'Bergman brings us much closer tough life questions intimate drama', "What way kick Bergman 's trilogy !", 'Bergman Never Suspends Pleasure Mastering Narrative Because Aesthetic Interest Meticulous Cinematic Effect', "One Bergman 's best", "Såsom en spegel . Some Bergman 's unforgettable sequences .", 'Not much film mental illness , way loved ones handle illness', "The first Bergman 's `` Winter Light `` trilogy step forward style subtlety", 'A stagnant ultimately underwhelming picture']</t>
+          <t>['A brilliant film quite among Bergman s finest', 'Through Glass Darkly', 'Four Lost Souls', 'Lack Communication Absence God  The Beginning Trilogy Silence', 'Not My Favorite Bergman  But Solid Film', 'Predictably despairing  less predictably unreachable ', 'One Bergman s best works  tragicpoeticremarkable', 'Typical Bergman  Meaning Nihilistically Depressing', 'fated also two parts come', 'Through Glass Darkly', 'Great film', 'The Circle Life  according Bergman  round trip Reality Illusion  convenience s illusory reality ', 'Yet another luminous achivement Ingmar Bergman bringing maximum intellectual content within short time ', 'Karin Through Looking Glass ', 'A Haunting  Somber Movie That Stays With You Long Afterwards', 'glass darkly', 'Visceral  emotional  marvelously penetrative', 'Bergman brings us much closer tough life questions intimate drama', 'What way kick Bergman s trilogy ', 'Bergman Never Suspends Pleasure Mastering Narrative Because Aesthetic Interest Meticulous Cinematic Effect', 'One Bergman s best', 'Ssom en spegel  Some Bergman s unforgettable sequences ', 'Not much film mental illness  way loved ones handle illness', 'The first Bergman s  Winter Light  trilogy step forward style subtlety', 'A stagnant ultimately underwhelming picture']</t>
         </is>
       </c>
     </row>
@@ -23581,7 +23581,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>['love first act', 'An engaging touching ending', 'A Celebration Familial Love Individual Resilience', 'A fresh take family life', 'One best films 2005', 'Growing Pains', 'A triumph Jean-Marc Vallée', 'Growing Quebec sixties seventies .', 'Finest coming age dysfunctional family movie', 'Crazy C.R.A.Z.Y !', 'A family film', 'one Hidden Gems', 'Coming age &amp; coming', 'Unexpectedly Moving', 'A heartwarming thought provoking experience .', 'I Have Forgiven Jesus', "The precious thing world children 's , puts evidence 're losing one", 'Rich , beautifully nuanced &amp; sometimes sweetly old-fashioned coming-of-age chronicle .', 'Zac', 'Families messy business', 'Truly Lame', 'Time heals wounds', 'M-A . G. -- -- -I may moving Canada .......', 'Enjoyable enough , nothing special', "If like pointless boring movies , 'll LOVE one"]</t>
+          <t>['love first act', 'An engaging touching ending', 'A Celebration Familial Love Individual Resilience', 'A fresh take family life', 'One best films 2005', 'Growing Pains', 'A triumph JeanMarc Valle', 'Growing Quebec sixties seventies ', 'Finest coming age dysfunctional family movie', 'Crazy CRAZY ', 'A family film', 'one Hidden Gems', 'Coming age  coming', 'Unexpectedly Moving', 'A heartwarming thought provoking experience ', 'I Have Forgiven Jesus', 'The precious thing world children s  puts evidence re losing one', 'Rich  beautifully nuanced  sometimes sweetly oldfashioned comingofage chronicle ', 'Zac', 'Families messy business', 'Truly Lame', 'Time heals wounds', 'MA  G   I may moving Canada ', 'Enjoyable enough  nothing special', 'If like pointless boring movies  ll LOVE one']</t>
         </is>
       </c>
     </row>
@@ -23625,7 +23625,7 @@
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>["It 's Never Too Late", 'Long Review : Badhaai Ho ( 7 Stars )', 'We need films Indian Cinema ! !', 'First half win ! [ +61 % ]', 'The new age offspring', "Surekha Sikri , Gajraj Rao Neena Gupta steals show Ayushmann Khurrana film ! ! ! Do n't miss", 'An epic Family-Entertainer highlighting worth family .', 'Hilarious ! ! !', 'Best Hindi Film 2018', 'A Perfect Mix Comedy , Drama , Emotions &amp; Romance ! ! !', 'Badhaai Ho makes cry ( happiness ) .', 'Impactful', 'The perfect family film', 'The comedy engages thoroughly ... ! !', 'Wish I watched cinema', 'Jus Okay', 'What beautiful movie ! !', 'A decent comedy extraordinary performances', 'Badhaai Ho Review', 'AN ENJOYABLE WATCH ! !', 'Bubble buster typical Indian value systems', 'A unique family entertainer heart-warming , happy ending !', 'A fun ride', 'Indian Entertainment !', 'Tere liye mera baap hi kafi hai']</t>
+          <t>['It s Never Too Late', 'Long Review  Badhaai Ho  7 Stars ', 'We need films Indian Cinema  ', 'First half win   61  ', 'The new age offspring', 'Surekha Sikri  Gajraj Rao Neena Gupta steals show Ayushmann Khurrana film    Do nt miss', 'An epic FamilyEntertainer highlighting worth family ', 'Hilarious   ', 'Best Hindi Film 2018', 'A Perfect Mix Comedy  Drama  Emotions  Romance   ', 'Badhaai Ho makes cry  happiness  ', 'Impactful', 'The perfect family film', 'The comedy engages thoroughly   ', 'Wish I watched cinema', 'Jus Okay', 'What beautiful movie  ', 'A decent comedy extraordinary performances', 'Badhaai Ho Review', 'AN ENJOYABLE WATCH  ', 'Bubble buster typical Indian value systems', 'A unique family entertainer heartwarming  happy ending ', 'A fun ride', 'Indian Entertainment ', 'Tere liye mera baap hi kafi hai']</t>
         </is>
       </c>
     </row>
@@ -23669,7 +23669,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>['Sincere , But Never Power-Packed !', 'Ordinary film movie lover Ordinary Indian .', "2016 's First Good Film Is Here . ♦ Grade B-", "Akshay 's films might reaching infamous 100 crore status , man rightly choosing subjects becoming new-age Bharat Kumar present generation .", 'Airlift Review : Excellent gift Indians cinema lovers ...', 'Airlift nail-biting , reality-based action thriller going give goose bumps . Brilliant ! !', 'Highly Recommended 👍', 'Unfortunately , another Bollywood film', 'I Forgot It Hour After I Watched It', 'Common man turning hero .... inspirational film .....', 'Airlift ( U/A ) Hindi -- -- -- -- -- -- Rating : ★★★★★ WORTH WATCHING', 'Uplifts Indian cinema standard', 'They changed name main character suit political agenda !', 'Good Plot', 'Not convincing one-man show', 'Akshay Kumar proves caliber hero one relate', 'I knew , Akshay role brilliantly', 'Airlift surely touch Indians heart !', "India 's `` Schindler 's List `` !", 'Authentic simple flick , focuses storyline', 'Hope darkest hours', 'akshay', 'A tale hope humanity breaks political , societal , religious barriers .', 'Movie well executed &amp; well Acted', 'Great Bollywood Movie Start Year']</t>
+          <t>['Sincere  But Never PowerPacked ', 'Ordinary film movie lover Ordinary Indian ', '2016 s First Good Film Is Here   Grade B', 'Akshay s films might reaching infamous 100 crore status  man rightly choosing subjects becoming newage Bharat Kumar present generation ', 'Airlift Review  Excellent gift Indians cinema lovers ', 'Airlift nailbiting  realitybased action thriller going give goose bumps  Brilliant  ', 'Highly Recommended ', 'Unfortunately  another Bollywood film', 'I Forgot It Hour After I Watched It', 'Common man turning hero  inspirational film ', 'Airlift  UA  Hindi       Rating   WORTH WATCHING', 'Uplifts Indian cinema standard', 'They changed name main character suit political agenda ', 'Good Plot', 'Not convincing oneman show', 'Akshay Kumar proves caliber hero one relate', 'I knew  Akshay role brilliantly', 'Airlift surely touch Indians heart ', 'India s  Schindler s List  ', 'Authentic simple flick  focuses storyline', 'Hope darkest hours', 'akshay', 'A tale hope humanity breaks political  societal  religious barriers ', 'Movie well executed  well Acted', 'Great Bollywood Movie Start Year']</t>
         </is>
       </c>
     </row>
@@ -23713,7 +23713,7 @@
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>['The story begins vivacious nut man suffering nervous breakdown .', 'A Cute Romantic-Comedy', "Now 's entertainment !", 'entertaining Indian screwball comedy powered Kareena Kapoor', 'Train Mein Encounter', 'Surprise', 'Lovely , simple full life', 'A free spirited girl , changes business tycoon good turn gets returned favor .', 'No logic ; Only emotions', 'Decent entertainer fine songs', 'Perfected Imtiaz Ali', 'Surprisingly good , unlike love stories', 'A Bubbly , Enjoyable Romantic Movie ......', "Now That 's A Real Entertainment Movie", 'JAB WE MET', 'Sweet feel-good romantic comedy !', 'Good I Saw ....', 'WoW ! Beautiful✨❤😍', 'Delightful Comedy-Drama', 'Jab We Met endearing feel-good film leaves lasting impression', 'Good Romantic Movie !', 'Go journey Mumbai Bhatinda ! !', "If I word , I surely write somethin ' !", 'The real magic film lies performances two main leads- Kareena Shahid', 'One best romcoms 2000s']</t>
+          <t>['The story begins vivacious nut man suffering nervous breakdown ', 'A Cute RomanticComedy', 'Now s entertainment ', 'entertaining Indian screwball comedy powered Kareena Kapoor', 'Train Mein Encounter', 'Surprise', 'Lovely  simple full life', 'A free spirited girl  changes business tycoon good turn gets returned favor ', 'No logic  Only emotions', 'Decent entertainer fine songs', 'Perfected Imtiaz Ali', 'Surprisingly good  unlike love stories', 'A Bubbly  Enjoyable Romantic Movie ', 'Now That s A Real Entertainment Movie', 'JAB WE MET', 'Sweet feelgood romantic comedy ', 'Good I Saw ', 'WoW  Beautiful', 'Delightful ComedyDrama', 'Jab We Met endearing feelgood film leaves lasting impression', 'Good Romantic Movie ', 'Go journey Mumbai Bhatinda  ', 'If I word  I surely write somethin  ', 'The real magic film lies performances two main leads Kareena Shahid', 'One best romcoms 2000s']</t>
         </is>
       </c>
     </row>
@@ -23757,7 +23757,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>['One-Line Review : Super 30 ( 6 Stars )', 'Super 30 indeed super film', "Hrithik 's One Best Performance", 'Hrithik never disappoints .', 'Hrithik Roshan ... Bow ! ! !', 'Good movie good acting Bollywood .', "'Super-30'-The name says .", 'Hrithik Roshan Ranks High On Performance With Full Emotions ! ! !', 'Superb super 30', 'Too much drama', 'Inspired India', 'Not brilliant film , certainly story deserves told', 'One time watch ...', 'Not well made', 'A great biopic wasted .', 'Brilliant movie ! Best movie year !', 'Education business !', 'super performance H.Roshan', 'inspiring limited', 'Best Movie Hrithik Roshan till day . Amazing .', 'Inspiring Biopic', 'Hrithik inject terrific performance make Super-Hit', 'Hrithik good actor- No one forget ! Good movie .', 'excellent', 'Classy Massy']</t>
+          <t>['OneLine Review  Super 30  6 Stars ', 'Super 30 indeed super film', 'Hrithik s One Best Performance', 'Hrithik never disappoints ', 'Hrithik Roshan  Bow   ', 'Good movie good acting Bollywood ', 'Super30The name says ', 'Hrithik Roshan Ranks High On Performance With Full Emotions   ', 'Superb super 30', 'Too much drama', 'Inspired India', 'Not brilliant film  certainly story deserves told', 'One time watch ', 'Not well made', 'A great biopic wasted ', 'Brilliant movie  Best movie year ', 'Education business ', 'super performance HRoshan', 'inspiring limited', 'Best Movie Hrithik Roshan till day  Amazing ', 'Inspiring Biopic', 'Hrithik inject terrific performance make SuperHit', 'Hrithik good actor No one forget  Good movie ', 'excellent', 'Classy Massy']</t>
         </is>
       </c>
     </row>
@@ -23801,7 +23801,7 @@
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>['Fall little bit short make way Oscar', 'A Satisfactory Espionage Drama . ♦ 53 %', 'One best Bollywood thrillers recent time .', 'A well shot , inspired espionage thriller surprisingly director coming form post 100 minutes .', 'Baby', 'Baby Review- True Action Thriller film long time ...', 'BABY daring attempt lauded appreciated', 'shows true soldier !', 'Edge seat action thriller', 'Good know CIA , Mossad thing happens India ! ! ! ! !', 'Baby', 'Very Slick', 'Gem Indian cinema ( Neeraj ka kamaal )', 'Praiseworthy action thriller .', 'An average spy thriller especially `` Bollywood ``', 'BABY film damn hit , Baby ! ! !', 'Ambitious edge-of-seat thrills , sadly nothing', 'Gripping !', 'MUST WATCH interested high-quality thrillers', 'An elite encounter ( tik tok ) clocky speed', 'BABY Review', 'It wonderfully directed thriller literally show `` edge seat `` means', '`` Masterpiece ``', 'High-Voltage Espionage Thriller', 'The film clean thriller .']</t>
+          <t>['Fall little bit short make way Oscar', 'A Satisfactory Espionage Drama   53 ', 'One best Bollywood thrillers recent time ', 'A well shot  inspired espionage thriller surprisingly director coming form post 100 minutes ', 'Baby', 'Baby Review True Action Thriller film long time ', 'BABY daring attempt lauded appreciated', 'shows true soldier ', 'Edge seat action thriller', 'Good know CIA  Mossad thing happens India     ', 'Baby', 'Very Slick', 'Gem Indian cinema  Neeraj ka kamaal ', 'Praiseworthy action thriller ', 'An average spy thriller especially  Bollywood ', 'BABY film damn hit  Baby   ', 'Ambitious edgeofseat thrills  sadly nothing', 'Gripping ', 'MUST WATCH interested highquality thrillers', 'An elite encounter  tik tok  clocky speed', 'BABY Review', 'It wonderfully directed thriller literally show  edge seat  means', ' Masterpiece ', 'HighVoltage Espionage Thriller', 'The film clean thriller ']</t>
         </is>
       </c>
     </row>
@@ -23845,7 +23845,7 @@
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>['Another Martin Scorsese masterpiece .', 'Not able blossom', 'Another Scorsese-DiCaprio masterpiece , offering unique storyline , well-developed characters captivating circumstances', 'Coyote want money', 'Killers Flower Moon', "I 'd hesitate call masterpiece , 's good effort proves Scorsese 's still got .", 'In depth long drawn look times greed , corruption , secrets , murder .', "Arguably Scorsese 's best certainly Oscar contender .", 'One best year - great movie', 'Good Enough', "Far misfire , Scorsese 's epic n't always hit mark", 'Different I expected', 'No one like Scorsese', 'Perfectly handled', 'Covfefe', 'Another excursion indulgence overnarration Scorsese', 'Scorsese tries', 'Kills In Artistic Expression , But These Flowers Wilt In Depression And Bloated Time', 'Good spectacular', 'When unlimited budget make simple movie ...', 'Substantial addition Scorsese', 'Cinematic Gold', 'Excellent , could least 1/2 hour shorter less heavy-handed', 'Each scene Martin Scorsese best , Leonardo DiCaprio gave one complex finest performances - spectacular perfect film', 'Killers Of The Flower Moon Was Another Masterpiece From The Master Of Cinema Himself Martin Scorsese']</t>
+          <t>['Another Martin Scorsese masterpiece ', 'Not able blossom', 'Another ScorseseDiCaprio masterpiece  offering unique storyline  welldeveloped characters captivating circumstances', 'Coyote want money', 'Killers Flower Moon', 'I d hesitate call masterpiece  s good effort proves Scorsese s still got ', 'In depth long drawn look times greed  corruption  secrets  murder ', 'Arguably Scorsese s best certainly Oscar contender ', 'One best year  great movie', 'Good Enough', 'Far misfire  Scorsese s epic nt always hit mark', 'Different I expected', 'No one like Scorsese', 'Perfectly handled', 'Covfefe', 'Another excursion indulgence overnarration Scorsese', 'Scorsese tries', 'Kills In Artistic Expression  But These Flowers Wilt In Depression And Bloated Time', 'Good spectacular', 'When unlimited budget make simple movie ', 'Substantial addition Scorsese', 'Cinematic Gold', 'Excellent  could least 12 hour shorter less heavyhanded', 'Each scene Martin Scorsese best  Leonardo DiCaprio gave one complex finest performances  spectacular perfect film', 'Killers Of The Flower Moon Was Another Masterpiece From The Master Of Cinema Himself Martin Scorsese']</t>
         </is>
       </c>
     </row>
@@ -23889,7 +23889,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>['The future written', 'Like Stephen Sondheim Song Come Life', 'Past Lives', 'A film reconnection memories shows might .', 'Cinema Omnivore - Past Lives ( 2023 ) 7.6/10', 'fine bilingual multicultural romantic drama', 'You Never Forget Your First Love', 'The Lives Others ...', 'Good Enough', 'A beautiful debut film Celine Song', 'Best movie 2023 ( far )', 'Painfully good', "Another ' W ' A24 Studios", 'Understatedly emotional', 'A tender story fascinatingly told incredible depth ! [ +88 % ]', 'Longing , Melancholy , Power In-Yun', 'Thoughtful affecting autobiographical tale', 'The Whole Movie Lacked A Voice', 'Realistic', 'Beautiful', 'Simple sensitive movie worth seeing', 'Utterly beautiful !', "One movies critics LOVE , 's actually empty inside .", 'A sincere , touching look two interesting people way life dictated fates', '7.1/10 . Recommended']</t>
+          <t>['The future written', 'Like Stephen Sondheim Song Come Life', 'Past Lives', 'A film reconnection memories shows might ', 'Cinema Omnivore  Past Lives  2023  7610', 'fine bilingual multicultural romantic drama', 'You Never Forget Your First Love', 'The Lives Others ', 'Good Enough', 'A beautiful debut film Celine Song', 'Best movie 2023  far ', 'Painfully good', 'Another  W  A24 Studios', 'Understatedly emotional', 'A tender story fascinatingly told incredible depth   88  ', 'Longing  Melancholy  Power InYun', 'Thoughtful affecting autobiographical tale', 'The Whole Movie Lacked A Voice', 'Realistic', 'Beautiful', 'Simple sensitive movie worth seeing', 'Utterly beautiful ', 'One movies critics LOVE  s actually empty inside ', 'A sincere  touching look two interesting people way life dictated fates', '7110  Recommended']</t>
         </is>
       </c>
     </row>
@@ -23933,7 +23933,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>["A big improvement first film , still n't quite hit mark .", 'One trick pony', 'The Beginning', 'inspired sketch', 'Dune : Part One', 'My movie 2021 , far .', 'Lord Dune sand', 'Visually impressive , rather unnecessary remake ...', "Impressive spectacular production mythic emotionally charged hero 's journey", 'destiny come', "I 'd rather watch Spice World : The Movie .", 'A desert covered Spice Sand Worms prowl , large Sand Worms !', 'I liked', 'Eye-Sore Makes Eyes-Sore ... Watching Through Thick Gold &amp; Tan Filtered Lenses ... Layers Upon Layers Dust , Dirt , Wind , &amp; Sand', 'Entertaining', 'This all-time great science fiction movie', 'stunning visuals', "I ca n't wait part two , hope parts 're quality one .", "That 's 's dune .", 'Immersive', "More remake Lynch 's film , rather adaptation book", 'Tense compelling space sci-fi opera uprising , journey , involves chosen one !', 'Cinema Omnivore - Dune ( 2021 ) 8.4/10', 'visual auditory explosion beauty', 'Regular ...']</t>
+          <t>['A big improvement first film  still nt quite hit mark ', 'One trick pony', 'The Beginning', 'inspired sketch', 'Dune  Part One', 'My movie 2021  far ', 'Lord Dune sand', 'Visually impressive  rather unnecessary remake ', 'Impressive spectacular production mythic emotionally charged hero s journey', 'destiny come', 'I d rather watch Spice World  The Movie ', 'A desert covered Spice Sand Worms prowl  large Sand Worms ', 'I liked', 'EyeSore Makes EyesSore  Watching Through Thick Gold  Tan Filtered Lenses  Layers Upon Layers Dust  Dirt  Wind   Sand', 'Entertaining', 'This alltime great science fiction movie', 'stunning visuals', 'I ca nt wait part two  hope parts re quality one ', 'That s s dune ', 'Immersive', 'More remake Lynch s film  rather adaptation book', 'Tense compelling space scifi opera uprising  journey  involves chosen one ', 'Cinema Omnivore  Dune  2021  8410', 'visual auditory explosion beauty', 'Regular ']</t>
         </is>
       </c>
     </row>
@@ -23977,7 +23977,7 @@
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>['Jaw dropping richly rewarding ... well worth running', 'pure cinema', 'Excellent , Intellectual Science Fiction', 'story', 'Dickensian', 'Back blade', 'Beautifully made , shockingly slow .', 'Slow beautiful', "Shameful Use Characters Philip K. Dick 's Novel", "Engaging thoughtful even pacing sudden action n't always work", 'This picture successfully combines visuals character , though complicated story still somewhat impressive', "humanity 's possible fate", 'A visually stunning return world Blade Runners replicants', 'Thirty years later Blade Runners still work', 'Outstanding sequel !', 'Visually striking existential science fiction mystery', 'Dull Slow-Motion Slog ... Long Tedious Underwhelming Misfire', 'Intriguing engaging', 'Not better original still exceptional', 'Slogging Our Way Through Dystopian Future', "Say ai n't , Joe", '30 years later , aged like fine wine', 'It could future .', 'Blade Runner 2049 review', 'A worthy entry indeed']</t>
+          <t>['Jaw dropping richly rewarding  well worth running', 'pure cinema', 'Excellent  Intellectual Science Fiction', 'story', 'Dickensian', 'Back blade', 'Beautifully made  shockingly slow ', 'Slow beautiful', 'Shameful Use Characters Philip K Dick s Novel', 'Engaging thoughtful even pacing sudden action nt always work', 'This picture successfully combines visuals character  though complicated story still somewhat impressive', 'humanity s possible fate', 'A visually stunning return world Blade Runners replicants', 'Thirty years later Blade Runners still work', 'Outstanding sequel ', 'Visually striking existential science fiction mystery', 'Dull SlowMotion Slog  Long Tedious Underwhelming Misfire', 'Intriguing engaging', 'Not better original still exceptional', 'Slogging Our Way Through Dystopian Future', 'Say ai nt  Joe', '30 years later  aged like fine wine', 'It could future ', 'Blade Runner 2049 review', 'A worthy entry indeed']</t>
         </is>
       </c>
     </row>
@@ -24021,7 +24021,7 @@
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>['This film needs remake !', 'Simply brilliant !', 'A cornerstone sci-fi cinema', '`` Human See , Human Do ``', 'Sci-fi icon', 'Too Many Questions', 'The torch bearer', 'Great film classic images , themes scenes', 'Classic energetic science-fiction movie terrific Charlton Heston', 'Get hands movie , damn dirty remake !', 'Monkey magic .', 'Apes Man ... Together', 'Purely awesome', 'Those damned dirty apes !', 'An all-time sci-fi classic .', 'ITS A MADHOUSE ! TERRIFIC CLASSIC !', 'A sci fi classic reason', 'Fox Goes Ape', "I 'm seeker , . But dreams n't like . I ca n't help thinking somewhere universe something better man . Has .", 'Great Film', 'Get stinkin paws damn dirty apes !', 'First movie twist irony align Twilight Zone', "`` I ca n't help thinking somewhere universe something better man . Has . ``", 'This one greatest science fiction movies time', 'Take stinking paws , damned dirty ape !']</t>
+          <t>['This film needs remake ', 'Simply brilliant ', 'A cornerstone scifi cinema', ' Human See  Human Do ', 'Scifi icon', 'Too Many Questions', 'The torch bearer', 'Great film classic images  themes scenes', 'Classic energetic sciencefiction movie terrific Charlton Heston', 'Get hands movie  damn dirty remake ', 'Monkey magic ', 'Apes Man  Together', 'Purely awesome', 'Those damned dirty apes ', 'An alltime scifi classic ', 'ITS A MADHOUSE  TERRIFIC CLASSIC ', 'A sci fi classic reason', 'Fox Goes Ape', 'I m seeker   But dreams nt like  I ca nt help thinking somewhere universe something better man  Has ', 'Great Film', 'Get stinkin paws damn dirty apes ', 'First movie twist irony align Twilight Zone', ' I ca nt help thinking somewhere universe something better man  Has  ', 'This one greatest science fiction movies time', 'Take stinking paws  damned dirty ape ']</t>
         </is>
       </c>
     </row>
@@ -24065,7 +24065,7 @@
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>['Outstanding !', 'Lively swashbuckler', 'Funny touching love story ( fairy tale )', 'old flavor', 'Knowing modern fairy tale sits affectionate spoof poor B-movie', 'Above average fantasy movie straight-forward action , sword-fights , lots monsters', 'A Must-See , Plain Simple', 'Generally A Fun Film , So No Reason For Religious Cheap Shots', '`` As wish `` means `` I love . ``', 'much fun', 'fun fairytale satire , much successful fable pure genre fans', 'Glad I saw', "It 's `` Kissing `` Movie", 'Wonderful , heart-warming movie', 'Great Writing', 'THE PRINCESS BRIDE ( Rob Reiner , 1987 ) * * 1/2', '`` This true love - think happens every day ? ``', 'This one underrated American cinematic classics', 'A Uniquely Charming Fairy Tale', 'As You Wish ...', 'Nicely done fantasy romance comedy movie .', 'All classical fantasy elements remixed charming stew', "Its tone n't solid 'd expect , better moments still enjoyed without much hesitation .", "It 's A Cute Fantasy Film", 'charming']</t>
+          <t>['Outstanding ', 'Lively swashbuckler', 'Funny touching love story  fairy tale ', 'old flavor', 'Knowing modern fairy tale sits affectionate spoof poor Bmovie', 'Above average fantasy movie straightforward action  swordfights  lots monsters', 'A MustSee  Plain Simple', 'Generally A Fun Film  So No Reason For Religious Cheap Shots', ' As wish  means  I love  ', 'much fun', 'fun fairytale satire  much successful fable pure genre fans', 'Glad I saw', 'It s  Kissing  Movie', 'Wonderful  heartwarming movie', 'Great Writing', 'THE PRINCESS BRIDE  Rob Reiner  1987    12', ' This true love  think happens every day  ', 'This one underrated American cinematic classics', 'A Uniquely Charming Fairy Tale', 'As You Wish ', 'Nicely done fantasy romance comedy movie ', 'All classical fantasy elements remixed charming stew', 'Its tone nt solid d expect  better moments still enjoyed without much hesitation ', 'It s A Cute Fantasy Film', 'charming']</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>["It 's hard imagine Ridley Scott directing film like one ....", 'Tasks survival', 'fun thrilling space adventure', 'Technically Great Wonderful Performance Damon', 'Fun Far From Great', 'The man Mars', "Roasted , Mashed , Boiled , Sauteed ? How 'd Potatoes ?", 'The Gardener space', 'Total Lack Emotion Suspense', 'Entertaining slick enough make go', 'How singlehandedly colonize barren planet ...', 'Quite Possibly Best 2015', 'thoughtful , exciting , crowd-pleasing movie problem-solving', 'Donald Glover steals movie', 'So touching !', 'Typical Overrated Claptrap Familiar , Forced , Forgettable', 'Fascinating enthralling tale resourcefulness , ingenuity survival', 'Not Brilliant And Not A Musical', 'Techie , Sciencie , Moving', 'Intersting movie survival Mars', 'Out World !', 'Smart , exciting crowd-pleaser', 'What It Would Be Like Be Stranded Mars Frat Boy', 'Steely Eyed Missile Man', "Despise haters I like Sci-Fi 's like The Martian"]</t>
+          <t>['It s hard imagine Ridley Scott directing film like one ', 'Tasks survival', 'fun thrilling space adventure', 'Technically Great Wonderful Performance Damon', 'Fun Far From Great', 'The man Mars', 'Roasted  Mashed  Boiled  Sauteed  How d Potatoes ', 'The Gardener space', 'Total Lack Emotion Suspense', 'Entertaining slick enough make go', 'How singlehandedly colonize barren planet ', 'Quite Possibly Best 2015', 'thoughtful  exciting  crowdpleasing movie problemsolving', 'Donald Glover steals movie', 'So touching ', 'Typical Overrated Claptrap Familiar  Forced  Forgettable', 'Fascinating enthralling tale resourcefulness  ingenuity survival', 'Not Brilliant And Not A Musical', 'Techie  Sciencie  Moving', 'Intersting movie survival Mars', 'Out World ', 'Smart  exciting crowdpleaser', 'What It Would Be Like Be Stranded Mars Frat Boy', 'Steely Eyed Missile Man', 'Despise haters I like SciFi s like The Martian']</t>
         </is>
       </c>
     </row>
@@ -24153,7 +24153,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>['I NOT target audience one ... please keep mind read .', 'Like hero , rough around edges without charms', 'dead funny', 'A Different Better Kind Super Hero', 'The rogue marvel', 'Not MCU , still great', 'An Anti-Superhero Is Born', 'Not quite fun wants , still fun', 'Good , wholesome fun entertainment ...', 'Super . But hero .', '( good ) Deadpool movie needed', 'Deadpool anyone loves hilarious R-rated action superhero film !', 'Infectiously funny', 'I generally hate super hero blockbuster films ...', 'Nasty Fun &amp; Invigorating You Thought These Things Were All Same', 'Outrageously funny , original entertaining', 'Raunchy', 'Definitely Not Suited General Audience', "`` And 's Regina rhymes fun . ``", "This rare comic book movie 's 10/10 instant classic", "A Gun Fetishist 's Wet Dream", 'The real heroes', 'Strikes exact right tone', 'Deadpool funniest enjoyable watch super hero', 'Quirky funny Marvel Comics parody dirtbag non-superhero']</t>
+          <t>['I NOT target audience one  please keep mind read ', 'Like hero  rough around edges without charms', 'dead funny', 'A Different Better Kind Super Hero', 'The rogue marvel', 'Not MCU  still great', 'An AntiSuperhero Is Born', 'Not quite fun wants  still fun', 'Good  wholesome fun entertainment ', 'Super  But hero ', ' good  Deadpool movie needed', 'Deadpool anyone loves hilarious Rrated action superhero film ', 'Infectiously funny', 'I generally hate super hero blockbuster films ', 'Nasty Fun  Invigorating You Thought These Things Were All Same', 'Outrageously funny  original entertaining', 'Raunchy', 'Definitely Not Suited General Audience', ' And s Regina rhymes fun  ', 'This rare comic book movie s 1010 instant classic', 'A Gun Fetishist s Wet Dream', 'The real heroes', 'Strikes exact right tone', 'Deadpool funniest enjoyable watch super hero', 'Quirky funny Marvel Comics parody dirtbag nonsuperhero']</t>
         </is>
       </c>
     </row>
@@ -24197,7 +24197,7 @@
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>['The world loves , though I still think original `` Iron Man `` , `` Thor `` `` Captain America `` favorites .', 'Not 100 % perfect still outstanding film many ways', 'Wanted hate , ended loving', 'Avengers vs TDKR', 'A Gem Action Movie', "I 'm Too Old This !", 'New York Geography', 'Avengers Assemble', "If ca n't save box office , sure hell avenge", 'Excellent Adventure', 'Consistently enjoyable effects noise right amount fun mixed', 'More superheroes ...', 'Charlie Chaplin meets Lucy meets Jules', 'What load Chitauri .', 'Great Movie ... But Not That Great', '`` We need plan attack . `` ... `` I plan : attack ! ``', 'Fun , great characters dialog first foremost', "The Avengers nearly excellent first movie featuring Marvel 's Earth 's Mightiest Heroes", 'A great blockbuster', 'The viewpoint old classic movie fan read comic books ...', 'All style , substance', 'Other Worlds', "Everything 's happening , things come light , people might need little old fashioned .", 'Great comic book motion picture', 'Comics']</t>
+          <t>['The world loves  though I still think original  Iron Man    Thor   Captain America  favorites ', 'Not 100  perfect still outstanding film many ways', 'Wanted hate  ended loving', 'Avengers vs TDKR', 'A Gem Action Movie', 'I m Too Old This ', 'New York Geography', 'Avengers Assemble', 'If ca nt save box office  sure hell avenge', 'Excellent Adventure', 'Consistently enjoyable effects noise right amount fun mixed', 'More superheroes ', 'Charlie Chaplin meets Lucy meets Jules', 'What load Chitauri ', 'Great Movie  But Not That Great', ' We need plan attack     I plan  attack  ', 'Fun  great characters dialog first foremost', 'The Avengers nearly excellent first movie featuring Marvel s Earth s Mightiest Heroes', 'A great blockbuster', 'The viewpoint old classic movie fan read comic books ', 'All style  substance', 'Other Worlds', 'Everything s happening  things come light  people might need little old fashioned ', 'Great comic book motion picture', 'Comics']</t>
         </is>
       </c>
     </row>
@@ -24241,7 +24241,7 @@
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>['Like dream come true , one films totally banishes blues away', 'Short greatness', 'love letter Hollywood', 'A Love Letter Hollywood', 'A Really Pleasant Experience', 'beautiful', 'Starts Well', 'The Artists', "It 's ok , click musical numbers .", 'Moonlighting Hollywood', 'Cute Overrated', 'Pleasant enough ultimately superficial little smug', 'Worth hype', "Weightless -- 's meant -- without heart , balloon wafts away instead soars ...", 'La La Land', 'La La Land quite realistic original musical also fantastic sequences', "It 's alright", 'Not simply musical romantic drama - much better', 'Very Well Made But Not My Kind Of Movie', 'Dazzling', 'Smart enjoyable , bringing vibes classics twenty-first century', 'A Love Song About Bittersweet Happy Endings', 'gem full spectrum emotions', 'Only watch LOVE musicals', "This `` hardly musical `` ca n't compare great song dance films past"]</t>
+          <t>['Like dream come true  one films totally banishes blues away', 'Short greatness', 'love letter Hollywood', 'A Love Letter Hollywood', 'A Really Pleasant Experience', 'beautiful', 'Starts Well', 'The Artists', 'It s ok  click musical numbers ', 'Moonlighting Hollywood', 'Cute Overrated', 'Pleasant enough ultimately superficial little smug', 'Worth hype', 'Weightless  s meant  without heart  balloon wafts away instead soars ', 'La La Land', 'La La Land quite realistic original musical also fantastic sequences', 'It s alright', 'Not simply musical romantic drama  much better', 'Very Well Made But Not My Kind Of Movie', 'Dazzling', 'Smart enjoyable  bringing vibes classics twentyfirst century', 'A Love Song About Bittersweet Happy Endings', 'gem full spectrum emotions', 'Only watch LOVE musicals', 'This  hardly musical  ca nt compare great song dance films past']</t>
         </is>
       </c>
     </row>
@@ -24285,7 +24285,7 @@
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>['Visually exhilarating , something missing', 'An all-time Bond favourite', 'Reboot bang', 'One Best Bonds', 'Here It Is/Where It All Began', 'The Best James Bond Movie In Last Years', 'An impressively dark , engaging exciting entry Bond series \x96 needed Die Another Day', 'Daniel Craig introduction , terrific tough brutal James Bond', 'The Russian 007', 'Casino Royale', 'This NOT James Bond ( As We Know Him Through The Years )', 'A reboot ever one', 'Big beautiful', 'Casino loyale', 'all-time champion Bond film , one makes anticipate Craig- Bond movies like this- future', 'Casino Royale great Bond beginning Daniel Craig', 'Daniel Craig 🙌🏽', 'Casino Royale-Downward Flush Quickly * 1/2', 'Daniel Craig Assumes Position', 'Be prepared marvelled thrilled !', "`` You take next one . There 's enough room ego . ``", 'The Bond Goes On', 'New Ground , New Space', 'Arrogance self-awareness seldom go hand hand .', 'Brazen Bond put']</t>
+          <t>['Visually exhilarating  something missing', 'An alltime Bond favourite', 'Reboot bang', 'One Best Bonds', 'Here It IsWhere It All Began', 'The Best James Bond Movie In Last Years', 'An impressively dark  engaging exciting entry Bond series  needed Die Another Day', 'Daniel Craig introduction  terrific tough brutal James Bond', 'The Russian 007', 'Casino Royale', 'This NOT James Bond  As We Know Him Through The Years ', 'A reboot ever one', 'Big beautiful', 'Casino loyale', 'alltime champion Bond film  one makes anticipate Craig Bond movies like this future', 'Casino Royale great Bond beginning Daniel Craig', 'Daniel Craig ', 'Casino RoyaleDownward Flush Quickly  12', 'Daniel Craig Assumes Position', 'Be prepared marvelled thrilled ', ' You take next one  There s enough room ego  ', 'The Bond Goes On', 'New Ground  New Space', 'Arrogance selfawareness seldom go hand hand ', 'Brazen Bond put']</t>
         </is>
       </c>
     </row>
@@ -24329,7 +24329,7 @@
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>['Worth seeing ... # 37 ?', 'Lots fun excitement galaxy', 'galaxy full fun', 'A Nice Surprise Non-Comic Book Guy', 'Escape', 'This really Groot !', 'One Best Sci-Fi Year', 'Generally funny entertaining , helping get occasional serious hump', 'Wow . Just wow ...', 'A really fun space opera', "Please n't feel like HAVE laugh .", 'A Special Effects Mess ADHD Editing , But Funny', "Good , n't match hype", 'winning combination comedy , characters , special fx ( little heart )', 'Guardians Galaxy another awesome Marvel movie', 'Star lord', 'An enjoyable film', 'All style , substance , reasonably entertaining', "I Ca n't Understand The Love For This", "Anti-Heroes Do n't Strike Chord", 'Very good comic book movie', 'Lots CGI Action', 'Pelvic sorcery saves galaxy', "I 've Played Video Games That Make Better Movies Than This Stinker", 'Dance like Kevin Bacon']</t>
+          <t>['Worth seeing   37 ', 'Lots fun excitement galaxy', 'galaxy full fun', 'A Nice Surprise NonComic Book Guy', 'Escape', 'This really Groot ', 'One Best SciFi Year', 'Generally funny entertaining  helping get occasional serious hump', 'Wow  Just wow ', 'A really fun space opera', 'Please nt feel like HAVE laugh ', 'A Special Effects Mess ADHD Editing  But Funny', 'Good  nt match hype', 'winning combination comedy  characters  special fx  little heart ', 'Guardians Galaxy another awesome Marvel movie', 'Star lord', 'An enjoyable film', 'All style  substance  reasonably entertaining', 'I Ca nt Understand The Love For This', 'AntiHeroes Do nt Strike Chord', 'Very good comic book movie', 'Lots CGI Action', 'Pelvic sorcery saves galaxy', 'I ve Played Video Games That Make Better Movies Than This Stinker', 'Dance like Kevin Bacon']</t>
         </is>
       </c>
     </row>
@@ -24373,7 +24373,7 @@
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>['cool premise unique blend', 'Worth Second Look', 'comfortable', 'Future', 'One Weirdest Most Intriguing Cult Movies Ever', 'Confusing , dark , difficult confusing enjoyable worth work', 'A complex surprising horror thriller surreal psychological twist', 'context September 11 ...', 'One Greatest Films My Generation', "`` It 's meant ironic ... ``", 'Wow ! A real refrigerator talk film', 'Donny bunny man', 'A good film , fervent cult following , shoots short greatness', "' ... I find kinda funny , I find kinda sad ' ( Mad World )", "What 's Up , Doc ?", 'Why wearing stupid man suit ?', 'The Movie Is Weird ... That Was A Compliment', 'Excellent', "Do n't Be Ashamed To Say It 's Not A Masterpiece", 'Not My Cup Tea', 'Arthouse movie confusing throughout', 'Rabbit', 'Whats shouting ?', '`` Wake Up ! `` ...', 'This movie always cult classic cinematic masterpiece']</t>
+          <t>['cool premise unique blend', 'Worth Second Look', 'comfortable', 'Future', 'One Weirdest Most Intriguing Cult Movies Ever', 'Confusing  dark  difficult confusing enjoyable worth work', 'A complex surprising horror thriller surreal psychological twist', 'context September 11 ', 'One Greatest Films My Generation', ' It s meant ironic  ', 'Wow  A real refrigerator talk film', 'Donny bunny man', 'A good film  fervent cult following  shoots short greatness', '  I find kinda funny  I find kinda sad   Mad World ', 'What s Up  Doc ', 'Why wearing stupid man suit ', 'The Movie Is Weird  That Was A Compliment', 'Excellent', 'Do nt Be Ashamed To Say It s Not A Masterpiece', 'Not My Cup Tea', 'Arthouse movie confusing throughout', 'Rabbit', 'Whats shouting ', ' Wake Up   ', 'This movie always cult classic cinematic masterpiece']</t>
         </is>
       </c>
     </row>
@@ -24417,7 +24417,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>['Heart-wrenchingly beautiful', 'sweet funny', 'A Remarkable Film', 'inspired remake', 'Fine Little Middlebrow Movie', 'A great movie , offers much variety .', 'disabilities deserve respect', 'Beautiful', 'Sweet , feel-good movie', 'dream little dream', 'Ifyou liked La Famille Bélier like one well .', 'Generically enjoyable .', 'Emotional family drama life , love , communication .', 'A worthy Oscar nominee . Powerful .', 'An exciting film ...', "Certainly Met Oscar 's Coda", 'Lovely movie worthy nominations', "feel good story 've seen many versions", 'Stunning ! Simply STUNNING ! !', 'This thought-provoking family drama realistic emotional ride', 'A well-done inspirational family picture quite improvement original !', 'great ...', "The New 'Star Is Born ' meets metaphorical coming-of-age story . So many metaphors feelings n't need words .", 'legit sleeper hit', 'Just Another Solid Remake']</t>
+          <t>['Heartwrenchingly beautiful', 'sweet funny', 'A Remarkable Film', 'inspired remake', 'Fine Little Middlebrow Movie', 'A great movie  offers much variety ', 'disabilities deserve respect', 'Beautiful', 'Sweet  feelgood movie', 'dream little dream', 'Ifyou liked La Famille Blier like one well ', 'Generically enjoyable ', 'Emotional family drama life  love  communication ', 'A worthy Oscar nominee  Powerful ', 'An exciting film ', 'Certainly Met Oscar s Coda', 'Lovely movie worthy nominations', 'feel good story ve seen many versions', 'Stunning  Simply STUNNING  ', 'This thoughtprovoking family drama realistic emotional ride', 'A welldone inspirational family picture quite improvement original ', 'great ', 'The New Star Is Born  meets metaphorical comingofage story  So many metaphors feelings nt need words ', 'legit sleeper hit', 'Just Another Solid Remake']</t>
         </is>
       </c>
     </row>
@@ -24461,7 +24461,7 @@
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>['Not movie kids , insightful rather sad .', 'Magical , polarising , film-making', 'Romance need human contact', "Sorry I Just Could n't Connect With It", 'Intriguing Premise .... But Do We Care ?', 'poetic', 'Virtual girlfriend', 'And', 'But End , We Are Still Humans', 'Good ideas generally works overlong forces emotional importance much , ultimately undermining', 'The Positives Human Condition', 'A Utopian world old male-female sexual hang-ups ...', 'heart-shaped hard-drive', 'Strange', 'Tedious boring', 'Highly Unoriginal Hardly Profound', 'Disappointing', 'HER ( Spike Jonze , 2013 ) * * 1/2', 'Lonelier Than Ever', 'What Love ?', 'No thank .', 'Strange still fascinating', 'An intelligent nuanced sci-fi romance satirises current obsession smart-phones remind us need connect people .', 'Well done', 'An original exploration nature love feeling flops']</t>
+          <t>['Not movie kids  insightful rather sad ', 'Magical  polarising  filmmaking', 'Romance need human contact', 'Sorry I Just Could nt Connect With It', 'Intriguing Premise  But Do We Care ', 'poetic', 'Virtual girlfriend', 'And', 'But End  We Are Still Humans', 'Good ideas generally works overlong forces emotional importance much  ultimately undermining', 'The Positives Human Condition', 'A Utopian world old malefemale sexual hangups ', 'heartshaped harddrive', 'Strange', 'Tedious boring', 'Highly Unoriginal Hardly Profound', 'Disappointing', 'HER  Spike Jonze  2013    12', 'Lonelier Than Ever', 'What Love ', 'No thank ', 'Strange still fascinating', 'An intelligent nuanced scifi romance satirises current obsession smartphones remind us need connect people ', 'Well done', 'An original exploration nature love feeling flops']</t>
         </is>
       </c>
     </row>
@@ -24505,7 +24505,7 @@
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>["Absolutely brilliant , one Iñárritu 's Di Caprio 's best", 'Survival', 'beautifully shot', 'The Wonderful Visuals Bring Film Life', 'Mostly Gut Wrenching Also , Bit Simplistic', 'The cinematography', 'Pain Glory', 'Outstanding , needs said .', 'Can bear ?', 'Original , Fascinating , Brutal Realistic another Great Performance Leonardo DiCaprio', 'Handsomely made , compelling brutality , narratively bit simple', 'Watchable , ...', 'Leonardo DiCaprio said needed get said', 'Will Leo Finally Win ?', 'Man wilderness', 'The Revenant quite thrilling drama I watched !', 'Excessively violent , yet manages boring', 'Visually Visceral - Decaprio Wheezes &amp; Grunts &amp; Hardy Mumbles Accent', 'Interesting tale survival revenge', 'A Boring , One-Note Slog', 'Leo Snow Bears , Oh My !', 'Leonardo DiCaprio best', 'Hugh Glass bad day', 'My Masterpiece number 134 ! ! !', "'On est tous des sauvages ' ( 'We savages ' )"]</t>
+          <t>['Absolutely brilliant  one Irritu s Di Caprio s best', 'Survival', 'beautifully shot', 'The Wonderful Visuals Bring Film Life', 'Mostly Gut Wrenching Also  Bit Simplistic', 'The cinematography', 'Pain Glory', 'Outstanding  needs said ', 'Can bear ', 'Original  Fascinating  Brutal Realistic another Great Performance Leonardo DiCaprio', 'Handsomely made  compelling brutality  narratively bit simple', 'Watchable  ', 'Leonardo DiCaprio said needed get said', 'Will Leo Finally Win ', 'Man wilderness', 'The Revenant quite thrilling drama I watched ', 'Excessively violent  yet manages boring', 'Visually Visceral  Decaprio Wheezes  Grunts  Hardy Mumbles Accent', 'Interesting tale survival revenge', 'A Boring  OneNote Slog', 'Leo Snow Bears  Oh My ', 'Leonardo DiCaprio best', 'Hugh Glass bad day', 'My Masterpiece number 134   ', 'On est tous des sauvages   We savages  ']</t>
         </is>
       </c>
     </row>
@@ -24549,7 +24549,7 @@
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>["I ca n't believe work Natalie Portman put film 's easy see received Oscar .", 'Beautiful , tragic , haunting nightmarish', 'Aronofsky wins', 'Losing Yourself In The Darkness Of The Part', 'Amazing Natalie Portman performance', 'Incredibly Effective Sexual-Thriller', 'Painful Watch', 'seductive darkness', 'The beauty darkness mirror Odette Odile .', 'Goose ( bumps )', 'Obsession Perfection Madness', 'Engaging psychological horror despite `` high-brow `` ballet frame suggests', 'madness Chaikovsky', "Not I expecting ( I certainly n't expecting Kunis Portman ! ) .", 'A Bit Over-hyped , But Still Solid Film', 'Ballerinas bloodshed ... overwrought distinctly unpleasant', 'Natalie Portman certainly compelling enough job earn awards Black Swan', 'An exotic look unintentional self transformation', 'Stylish Subversive', 'Great psychological drama', 'Aronofsky dabbles mirrors , triplicates doppelgänger effect .', 'Well Directed But Let Down By Frustrating Story Telling', "Most Ballet I 've Ever Watched", 'Unstable ballerina loses grip reality becomes The Black Swan ...', 'Discouraging anyone liked ballet dancing']</t>
+          <t>['I ca nt believe work Natalie Portman put film s easy see received Oscar ', 'Beautiful  tragic  haunting nightmarish', 'Aronofsky wins', 'Losing Yourself In The Darkness Of The Part', 'Amazing Natalie Portman performance', 'Incredibly Effective SexualThriller', 'Painful Watch', 'seductive darkness', 'The beauty darkness mirror Odette Odile ', 'Goose  bumps ', 'Obsession Perfection Madness', 'Engaging psychological horror despite  highbrow  ballet frame suggests', 'madness Chaikovsky', 'Not I expecting  I certainly nt expecting Kunis Portman   ', 'A Bit Overhyped  But Still Solid Film', 'Ballerinas bloodshed  overwrought distinctly unpleasant', 'Natalie Portman certainly compelling enough job earn awards Black Swan', 'An exotic look unintentional self transformation', 'Stylish Subversive', 'Great psychological drama', 'Aronofsky dabbles mirrors  triplicates doppelgnger effect ', 'Well Directed But Let Down By Frustrating Story Telling', 'Most Ballet I ve Ever Watched', 'Unstable ballerina loses grip reality becomes The Black Swan ', 'Discouraging anyone liked ballet dancing']</t>
         </is>
       </c>
     </row>
@@ -24593,7 +24593,7 @@
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>['Exceptional fare entire family', 'Excellent Pixar film , best one , still good !', 'Love family', 'Plays All Right Notes', 'A family affair .', 'Super Pixar', 'A Movie That Really Deserves Be Among IMDb Top 100', 'Pixar Super Heroes', 'Good Entertainemt For About Any Age', 'Not quite incredible , certainly still good .', '`` No capes ! ! ``', 'My favorite film Pixar five years- Bird company produce triumph family film', 'Its popularity well justified', 'Quite formulaic kids enjoy', "One Pixar 's Best", 'Full speed ahead gets past slow start ...', 'incredibles incredible movie seen beleived', 'Pixar Does It Again', 'Totally Wicked , Pixar', 'I hate sound cliché truly incredible movie .', 'Holds', "Super ( b ) ! Pixar Does It Again ! One Year 's Best !", 'Living ordinary world ...', 'An `` Incredible `` triumph genre super hero movies .', 'A Superior Animated Film !']</t>
+          <t>['Exceptional fare entire family', 'Excellent Pixar film  best one  still good ', 'Love family', 'Plays All Right Notes', 'A family affair ', 'Super Pixar', 'A Movie That Really Deserves Be Among IMDb Top 100', 'Pixar Super Heroes', 'Good Entertainemt For About Any Age', 'Not quite incredible  certainly still good ', ' No capes   ', 'My favorite film Pixar five years Bird company produce triumph family film', 'Its popularity well justified', 'Quite formulaic kids enjoy', 'One Pixar s Best', 'Full speed ahead gets past slow start ', 'incredibles incredible movie seen beleived', 'Pixar Does It Again', 'Totally Wicked  Pixar', 'I hate sound clich truly incredible movie ', 'Holds', 'Super  b   Pixar Does It Again  One Year s Best ', 'Living ordinary world ', 'An  Incredible  triumph genre super hero movies ', 'A Superior Animated Film ']</t>
         </is>
       </c>
     </row>
@@ -24637,7 +24637,7 @@
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>["The jewel Disney 's 'second renaissance '", 'fun nice message', 'What Great Surprise', 'Pride diversity', 'A Magical film', 'Welcome Jungle', 'Zootropolis', 'Really Liked It', "smart , funny , deeper 'd expect animated film adults much kids", 'Zootopia another enjoyable Disney computer-animated movie', 'Enjoyable', 'Timely , Engaging , Elevated &amp; Enlightening Entertainment', 'Sweet , engaging wonderfully original great message', 'Funny Clever Movie', 'fun whole fam-ba-lee', 'Perfectly Fine But Uninspired', 'Was pretty good , thought needed humor ...', 'The story promise ; characters , much', 'Smart , funny beautifully animated', 'Nicely noir inflected appropriately allegorical .', 'Buddy cop movie , 3D animated cute err ... animals', 'Two thumbs !', 'Fun whole family .', 'Masterful !', 'Strong story characters create something special']</t>
+          <t>['The jewel Disney s second renaissance ', 'fun nice message', 'What Great Surprise', 'Pride diversity', 'A Magical film', 'Welcome Jungle', 'Zootropolis', 'Really Liked It', 'smart  funny  deeper d expect animated film adults much kids', 'Zootopia another enjoyable Disney computeranimated movie', 'Enjoyable', 'Timely  Engaging  Elevated  Enlightening Entertainment', 'Sweet  engaging wonderfully original great message', 'Funny Clever Movie', 'fun whole fambalee', 'Perfectly Fine But Uninspired', 'Was pretty good  thought needed humor ', 'The story promise  characters  much', 'Smart  funny beautifully animated', 'Nicely noir inflected appropriately allegorical ', 'Buddy cop movie  3D animated cute err  animals', 'Two thumbs ', 'Fun whole family ', 'Masterful ', 'Strong story characters create something special']</t>
         </is>
       </c>
     </row>
@@ -24681,7 +24681,7 @@
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>['Original style', 'Black &amp; White vivid colors', 'Very Violent Overrated', "Target audience love &amp; 's nice contrast usual summer fare sexual violence depiction women problem", "A hard-boiled bone-chilling movie formed various thrilling stories Frank Miller 's comic books", 'violent Tarantino Rodriguez could', 'A Live Action Comic', 'A Visual Achievement', 'Pretty Visuals , Ugly Story', 'A brutal stew ...', 'quite going along pack others- I recommend Sin City , ...', 'Not type film', 'Brilliant', 'Nice Coat Have There , Mr Miller', 'Visceral , Visionary , Visual , Sin City kicks big un !', 'Sin City cinematic crime', 'Hard movie rate', 'Yellow', 'Justice Served ...', 'Stylish , comic book brought life', 'Sick Sensational', "That 's Mighty Fine Coat", "Gives 'movie violence ' new meaning .", 'One word ? Rocks', "`` SIN `` fully good ! Makes `` PULP FICTION `` look like `` BEACH BLANKET BINGO `` - one '05 's best films !"]</t>
+          <t>['Original style', 'Black  White vivid colors', 'Very Violent Overrated', 'Target audience love  s nice contrast usual summer fare sexual violence depiction women problem', 'A hardboiled bonechilling movie formed various thrilling stories Frank Miller s comic books', 'violent Tarantino Rodriguez could', 'A Live Action Comic', 'A Visual Achievement', 'Pretty Visuals  Ugly Story', 'A brutal stew ', 'quite going along pack others I recommend Sin City  ', 'Not type film', 'Brilliant', 'Nice Coat Have There  Mr Miller', 'Visceral  Visionary  Visual  Sin City kicks big un ', 'Sin City cinematic crime', 'Hard movie rate', 'Yellow', 'Justice Served ', 'Stylish  comic book brought life', 'Sick Sensational', 'That s Mighty Fine Coat', 'Gives movie violence  new meaning ', 'One word  Rocks', ' SIN  fully good  Makes  PULP FICTION  look like  BEACH BLANKET BINGO   one 05 s best films ']</t>
         </is>
       </c>
     </row>
@@ -24725,7 +24725,7 @@
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>["That 'The Imitation Game ' acclaimed hardly enigma", 'Exemplary film-making', 'The Enigmatic Man', 'functional historical drama lands couple solid punches', 'Excellent Performances Strong Story', 'Take It Tale Amazing Man , Even Though May Have Some Suspect History', 'embroidery', 'Breaking code', 'Film making best .', 'Games people play ....', 'Excellent Dramatic Thriller Based True Story', "A good tale fine lead performance , even n't delve details , worry much historical accuracy", "Interesting pretty good drama based Alan Turing 's life , magnificently played Benedict Cumberbatch", 'compute everything win', 'Amazing Storytelling', 'beautiful performance Benedict Cumberbatch', 'The Imitation Game perhaps best film last year', 'Enigma', 'A touching epic', '`` Today , call Computers . ``', 'Good historical drama', 'Ignoring Important Facts Makes For A Better Film', 'The Blandest Award Bait Movie Year', 'Thinking Differently', 'About cryptology']</t>
+          <t>['That The Imitation Game  acclaimed hardly enigma', 'Exemplary filmmaking', 'The Enigmatic Man', 'functional historical drama lands couple solid punches', 'Excellent Performances Strong Story', 'Take It Tale Amazing Man  Even Though May Have Some Suspect History', 'embroidery', 'Breaking code', 'Film making best ', 'Games people play ', 'Excellent Dramatic Thriller Based True Story', 'A good tale fine lead performance  even nt delve details  worry much historical accuracy', 'Interesting pretty good drama based Alan Turing s life  magnificently played Benedict Cumberbatch', 'compute everything win', 'Amazing Storytelling', 'beautiful performance Benedict Cumberbatch', 'The Imitation Game perhaps best film last year', 'Enigma', 'A touching epic', ' Today  call Computers  ', 'Good historical drama', 'Ignoring Important Facts Makes For A Better Film', 'The Blandest Award Bait Movie Year', 'Thinking Differently', 'About cryptology']</t>
         </is>
       </c>
     </row>
@@ -24769,7 +24769,7 @@
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>['Delightful film great performances surprisingly refreshing concept', 'Great Harold Ramis touch Sarcastic Bill Murray', 'Great Performance Murray', 'A Soul Reclaimed', 'An amazing , memorable movie .', 'Very enjoyable comedy totally driven great Bill Murray', 'Agreeable movie Bill Murray doomed relive day', 'Is time side ?', 'A film great repeat value .', 'Same Old/Same Old ..... And We Love It !', 'One watch', 'Hardly profound , likable enough ...', 'funny thought-provoking', 'An endless day everyday like Sunday', 'A uniquely funny fantasy/comedy', "Groundhog Day one Harold Ramis ' best movies director", 'Cute', 'Complex , endearing movie ; `` high concept `` comedy .', 'Go With The Flow', 'Is snowing space ?', 'Every day like one ...', 'Love', 'Reliving Deja Vu All Over Again', 'An iconic masterpiece', 'GROUNDHOG DAY ( Harold Ramis , 1993 ) * * *']</t>
+          <t>['Delightful film great performances surprisingly refreshing concept', 'Great Harold Ramis touch Sarcastic Bill Murray', 'Great Performance Murray', 'A Soul Reclaimed', 'An amazing  memorable movie ', 'Very enjoyable comedy totally driven great Bill Murray', 'Agreeable movie Bill Murray doomed relive day', 'Is time side ', 'A film great repeat value ', 'Same OldSame Old  And We Love It ', 'One watch', 'Hardly profound  likable enough ', 'funny thoughtprovoking', 'An endless day everyday like Sunday', 'A uniquely funny fantasycomedy', 'Groundhog Day one Harold Ramis  best movies director', 'Cute', 'Complex  endearing movie   high concept  comedy ', 'Go With The Flow', 'Is snowing space ', 'Every day like one ', 'Love', 'Reliving Deja Vu All Over Again', 'An iconic masterpiece', 'GROUNDHOG DAY  Harold Ramis  1993    ']</t>
         </is>
       </c>
     </row>
@@ -24813,7 +24813,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>['Pretty much I expected ... unfortunately .', 'A real labour love', 'The Real Story ?', 'Great movie-making unsupportable history', 'No Matter What You Believe About Conspiracy , Brilliantly Made Film', 'enigma', 'No stone left unturned', 'It may fact Stone delivers pace easily grips pretty much whole running time', 'conspiracy continues unraveling', 'Conspiracies May Be Dumb , But Make For Great Cinema', 'Hey , Ollie .... Thanks For Giving Us Objective History Lessons !', 'Byzantine docudrama', "Do n't forget dying king", "Back , left .... Stone 's second best picture behind Born Fourth", 'I want believe', 'A Brief Reminder', 'A Great Gargantuan Masterwork', 'Dynamic Piece Of Speculative Fantasy', 'No expense spared corners cut', 'Speculative riveting ... superb story-telling ...', 'Bang', 'The military-industrial complex', "Might Be Only Oliver Stone Movie I 've Ever Liked", 'Mystery , Riddle , Enigma', 'Very interesting film , horrible pacing']</t>
+          <t>['Pretty much I expected  unfortunately ', 'A real labour love', 'The Real Story ', 'Great moviemaking unsupportable history', 'No Matter What You Believe About Conspiracy  Brilliantly Made Film', 'enigma', 'No stone left unturned', 'It may fact Stone delivers pace easily grips pretty much whole running time', 'conspiracy continues unraveling', 'Conspiracies May Be Dumb  But Make For Great Cinema', 'Hey  Ollie  Thanks For Giving Us Objective History Lessons ', 'Byzantine docudrama', 'Do nt forget dying king', 'Back  left  Stone s second best picture behind Born Fourth', 'I want believe', 'A Brief Reminder', 'A Great Gargantuan Masterwork', 'Dynamic Piece Of Speculative Fantasy', 'No expense spared corners cut', 'Speculative riveting  superb storytelling ', 'Bang', 'The militaryindustrial complex', 'Might Be Only Oliver Stone Movie I ve Ever Liked', 'Mystery  Riddle  Enigma', 'Very interesting film  horrible pacing']</t>
         </is>
       </c>
     </row>
@@ -24857,7 +24857,7 @@
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>['Exceptionally gorgeous touching', 'A marvel beginning end', 'Thorough compelling', 'Going Native American', 'Epic compelling human drama', 'A Great View Time Now Gone', 'An enjoyable patient epic need accept naïve simplistic way presented get', 'last days frontier', 'A Story White Red Frontier', 'Horribly Biased , But A Memorable , Entertaining Film', 'A long absorbing movie , deals `` white man `` displacing Native Americans west .', 'Good epic', 'Assimilation Reverse', 'Prefabricated , Posturing Picture', 'Well-intentioned badly executed : tedious , self-indulgent pretentious', 'It trail true human . I think trail good see .', 'Horses', 'Quite Possibly Best Film 1990', 'A masterpiece , classic', 'This beautiful movie tells worthwhile story makes 3 hours run time bearable .', 'Tastes Slightly Watered Down Spielberg', 'Its Indian name Does Not Show Age', "Costner 's final grace note", 'Rediscover `` Dances With Wolves ``', 'A New Identity .']</t>
+          <t>['Exceptionally gorgeous touching', 'A marvel beginning end', 'Thorough compelling', 'Going Native American', 'Epic compelling human drama', 'A Great View Time Now Gone', 'An enjoyable patient epic need accept nave simplistic way presented get', 'last days frontier', 'A Story White Red Frontier', 'Horribly Biased  But A Memorable  Entertaining Film', 'A long absorbing movie  deals  white man  displacing Native Americans west ', 'Good epic', 'Assimilation Reverse', 'Prefabricated  Posturing Picture', 'Wellintentioned badly executed  tedious  selfindulgent pretentious', 'It trail true human  I think trail good see ', 'Horses', 'Quite Possibly Best Film 1990', 'A masterpiece  classic', 'This beautiful movie tells worthwhile story makes 3 hours run time bearable ', 'Tastes Slightly Watered Down Spielberg', 'Its Indian name Does Not Show Age', 'Costner s final grace note', 'Rediscover  Dances With Wolves ', 'A New Identity ']</t>
         </is>
       </c>
     </row>
@@ -24901,7 +24901,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>['Sweet , imaginative moving', 'Burton Forrest Gump - middling results', 'One crazy story another', 'There Are Lots Big Fish Sea', "life 's magic", 'Life ...', 'A Wonderful Fable About A Dreamer Who Sees World With Beautiful Eyes', 'Very sweet , imaginative story despite lacking strong conclusion', "point whether 's lying ...", 'Burton Makes A Nice , Light Film', 'Patchily successful', 'The director- well character- illusionist : Tim Burton treat', 'Beautifully weird', 'I Never Swam My Father', 'This Tim Burton film different vibe ...', 'Moving visually stunning', "It 's wonderful lie", 'Truth Stranger Fiction', 'That , big fish', '`` There fish caught . ``', 'Throw This One Back', 'many good messages definitely underrated Burton film', 'dad really years ?', "Tim Burton 's Tall Tale", 'Big Fish , Twice The Man']</t>
+          <t>['Sweet  imaginative moving', 'Burton Forrest Gump  middling results', 'One crazy story another', 'There Are Lots Big Fish Sea', 'life s magic', 'Life ', 'A Wonderful Fable About A Dreamer Who Sees World With Beautiful Eyes', 'Very sweet  imaginative story despite lacking strong conclusion', 'point whether s lying ', 'Burton Makes A Nice  Light Film', 'Patchily successful', 'The director well character illusionist  Tim Burton treat', 'Beautifully weird', 'I Never Swam My Father', 'This Tim Burton film different vibe ', 'Moving visually stunning', 'It s wonderful lie', 'Truth Stranger Fiction', 'That  big fish', ' There fish caught  ', 'Throw This One Back', 'many good messages definitely underrated Burton film', 'dad really years ', 'Tim Burton s Tall Tale', 'Big Fish  Twice The Man']</t>
         </is>
       </c>
     </row>
@@ -24945,7 +24945,7 @@
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>["I would n't show one kids ...", 'Filled soul', 'water ocean', 'Well Done/Above Average', 'Soul', 'Plenty heart soul . Dream big !', 'So much ... Soul/Pixar', 'must goal life', 'Quite entertaining also deep messages .', 'Love', 'GROWN-UP MAGICAL THINKING FORCED ON KIDS TOO YOUNG TO PROCESS/CONTEMPLATE', 'Mediocre', 'Had `` Spark ``', "It n't depth Disney Classics still entertaining .", 'fun adventure ... got ta watch one .', 'Pixar Has Lost Its Touch', 'jazzing', 'Good soul .', 'A beautiful Pixar animation almost par Inside Out', 'Cinema Omnivore - Soul ( 2020 ) 8.2/10', 'A gift holidays . A soul nourishing , Pixar thing beauty', "It 's Definitely Got It", 'Tearjerker cherry top perfect dessert', 'Wonderfully imagined plotted Pixar classic', "Animated movie soul , n't feel original ."]</t>
+          <t>['I would nt show one kids ', 'Filled soul', 'water ocean', 'Well DoneAbove Average', 'Soul', 'Plenty heart soul  Dream big ', 'So much  SoulPixar', 'must goal life', 'Quite entertaining also deep messages ', 'Love', 'GROWNUP MAGICAL THINKING FORCED ON KIDS TOO YOUNG TO PROCESSCONTEMPLATE', 'Mediocre', 'Had  Spark ', 'It nt depth Disney Classics still entertaining ', 'fun adventure  got ta watch one ', 'Pixar Has Lost Its Touch', 'jazzing', 'Good soul ', 'A beautiful Pixar animation almost par Inside Out', 'Cinema Omnivore  Soul  2020  8210', 'A gift holidays  A soul nourishing  Pixar thing beauty', 'It s Definitely Got It', 'Tearjerker cherry top perfect dessert', 'Wonderfully imagined plotted Pixar classic', 'Animated movie soul  nt feel original ']</t>
         </is>
       </c>
     </row>
@@ -24989,7 +24989,7 @@
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>["Not Mel Brooks ' best film , pretty close", 'My personal favourite Mel Brooks film', 'Affectionate tribute Universal horrors old', '`` AH , SWEET Mystery Of Life At Last I Found YOU ``', 'Lots Mel Brooks zaniness , work , much', 'Great Fun', "I Think I 'll Watch It Again", 'Putting Ritz', "Funny 's reputation flatters film", 'Wholesome fun ...', "This one Mel Brooks/Gene Wilder 's best ; plenty humor , entertainment amusement", 'Pronounce right , Herr Doktor !', 'Mel Brooks fails bring much life parody Frankenstein .', 'Not Sure Why This Gets Raving Appreciation It Does', "Possibly Mel Brooks ' Best Film", 'OK. Not fantastic though', 'Incredible cast production design , erratic script', 'Hilarious send-up Frankenstein story', "A funny comedy , one Brooks ' best", "Mel Brooks ' comedy triumph ! !", 'Blazing Saddles I loved , ...', 'Great fun comedy * * horror fans .', 'Inspired Lunacy', 'What great satire', 'More Here Admire Not']</t>
+          <t>['Not Mel Brooks  best film  pretty close', 'My personal favourite Mel Brooks film', 'Affectionate tribute Universal horrors old', ' AH  SWEET Mystery Of Life At Last I Found YOU ', 'Lots Mel Brooks zaniness  work  much', 'Great Fun', 'I Think I ll Watch It Again', 'Putting Ritz', 'Funny s reputation flatters film', 'Wholesome fun ', 'This one Mel BrooksGene Wilder s best  plenty humor  entertainment amusement', 'Pronounce right  Herr Doktor ', 'Mel Brooks fails bring much life parody Frankenstein ', 'Not Sure Why This Gets Raving Appreciation It Does', 'Possibly Mel Brooks  Best Film', 'OK Not fantastic though', 'Incredible cast production design  erratic script', 'Hilarious sendup Frankenstein story', 'A funny comedy  one Brooks  best', 'Mel Brooks  comedy triumph  ', 'Blazing Saddles I loved  ', 'Great fun comedy   horror fans ', 'Inspired Lunacy', 'What great satire', 'More Here Admire Not']</t>
         </is>
       </c>
     </row>
@@ -25033,7 +25033,7 @@
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>['Very good ... Jasmine ?', "Aladdin beautifully constructed film . one Disney 's best !", 'Robin Williams outshines', 'A Story With Teeth Great Songs', 'The Blue Genie', "Disney 's greatest villain ? ( Well , one main contenders . )", "I 'm losin ' rug !", 'A fun Disney adventure plenty laughs solid songs', "The End Disney 's Golden Years", 'Robin Williams , Great Songs Make This One Of The Best Animated Films Ever', 'Robin Williams goes blue', 'Lots color pep , good songs derivative elements ...', 'Quite good', 'Entertaining', 'Sweet Arabian Skins', 'Robin Williams Was Born Be Cartoon', 'Great songs good villain make `` Aladdin `` Disney classic .', 'Just really , really good', 'Surprised positive comments', 'One classics', 'Aladdin', 'A massive highlight Disney', "You ai n't never friend like .", 'How genie got bottle ...', 'Aladdin !']</t>
+          <t>['Very good  Jasmine ', 'Aladdin beautifully constructed film  one Disney s best ', 'Robin Williams outshines', 'A Story With Teeth Great Songs', 'The Blue Genie', 'Disney s greatest villain   Well  one main contenders  ', 'I m losin  rug ', 'A fun Disney adventure plenty laughs solid songs', 'The End Disney s Golden Years', 'Robin Williams  Great Songs Make This One Of The Best Animated Films Ever', 'Robin Williams goes blue', 'Lots color pep  good songs derivative elements ', 'Quite good', 'Entertaining', 'Sweet Arabian Skins', 'Robin Williams Was Born Be Cartoon', 'Great songs good villain make  Aladdin  Disney classic ', 'Just really  really good', 'Surprised positive comments', 'One classics', 'Aladdin', 'A massive highlight Disney', 'You ai nt never friend like ', 'How genie got bottle ', 'Aladdin ']</t>
         </is>
       </c>
     </row>
@@ -25077,7 +25077,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>['A film lacks usual narrative formula .', 'Lengthy impressive- Pacino makes film good', 'A Generation Gap Of Values', 'memorable iconic moments', 'Masterful Performance Pacino', 'Al Pacino', 'Al taking whole new level', "Nowadays , 's hard believe directed guy `` Gigli `` .", 'A Speech Everyone Likes', 'Overcharged ...', 'Longish , overrated , watchable', "Please ? I mean , 're slump right .", 'Drags A Bit ...', 'Woo Haa', 'Smell', 'It makes like despite best efforts', "Pacino 's Oscar Bait", 'It lingers , good way', '`` Hoo-ah ! `` indeed', 'Performances Remember Treasure', 'Very energetic , corny enjoyable', 'Long drama friendship connection standout bold turn Pacino', 'Hoo-Haa ... Pacino rules !', 'Oscar bait caught', 'Overrated tedious']</t>
+          <t>['A film lacks usual narrative formula ', 'Lengthy impressive Pacino makes film good', 'A Generation Gap Of Values', 'memorable iconic moments', 'Masterful Performance Pacino', 'Al Pacino', 'Al taking whole new level', 'Nowadays  s hard believe directed guy  Gigli  ', 'A Speech Everyone Likes', 'Overcharged ', 'Longish  overrated  watchable', 'Please  I mean  re slump right ', 'Drags A Bit ', 'Woo Haa', 'Smell', 'It makes like despite best efforts', 'Pacino s Oscar Bait', 'It lingers  good way', ' Hooah   indeed', 'Performances Remember Treasure', 'Very energetic  corny enjoyable', 'Long drama friendship connection standout bold turn Pacino', 'HooHaa  Pacino rules ', 'Oscar bait caught', 'Overrated tedious']</t>
         </is>
       </c>
     </row>
@@ -25121,7 +25121,7 @@
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>['So much Terry Gilliam originality great Brad Pitt', 'Too Many Unanswered Questions', 'Ahead Time', "Imaginative , clever , engaging enjoyable \x96 one best sci-fi 's I 've seen", 'A fantastic engaging Terry Gilliam film apocalyptic Earth', 'Could really happen ?', "One Gilliam 's better films .", "Terry Gilliam 's Home Run", 'Wow , What An Ugly Story', 'An intelligent comedy/thriller rewards careful watching .', 'It amazing moments ... , finally , strong performance Madeleine Stowe', 'monkeys go heaven ...', 'Confusing , comes together , extremely well', 'More Fun Than Barrel Full Monkeys', 'Is past future ; future past ?', 'Unique But An Acquired Taste', 'Great , intelligent sci-fi drama', 'Desperate Dystopian Downer !', "90 's Classic", 'Virus', 'Mentally Divergent ...', 'Extremely confusing', "I 'm looking Army Twelve Monkeys .", 'Into Funhouse Terry Gilliam', 'Another Terry Gilliam oddity .']</t>
+          <t>['So much Terry Gilliam originality great Brad Pitt', 'Too Many Unanswered Questions', 'Ahead Time', 'Imaginative  clever  engaging enjoyable  one best scifi s I ve seen', 'A fantastic engaging Terry Gilliam film apocalyptic Earth', 'Could really happen ', 'One Gilliam s better films ', 'Terry Gilliam s Home Run', 'Wow  What An Ugly Story', 'An intelligent comedythriller rewards careful watching ', 'It amazing moments   finally  strong performance Madeleine Stowe', 'monkeys go heaven ', 'Confusing  comes together  extremely well', 'More Fun Than Barrel Full Monkeys', 'Is past future  future past ', 'Unique But An Acquired Taste', 'Great  intelligent scifi drama', 'Desperate Dystopian Downer ', '90 s Classic', 'Virus', 'Mentally Divergent ', 'Extremely confusing', 'I m looking Army Twelve Monkeys ', 'Into Funhouse Terry Gilliam', 'Another Terry Gilliam oddity ']</t>
         </is>
       </c>
     </row>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>['Taut , original African drama', 'T.I.A . -- -- -- -- -- This Is Africa', 'Djimon Hounsou brings humanity', 'Is All This Really Happening ?', 'Great Performances', 'The Price Diamond Ring', 'Strong film despite problems merging real horror traditional Hollywood narrative', 'This truly hidden diamond ...', 'Overlong although touching clever film action , violence drama', "diamonds warlord 's best friend", 'Ripped From Headlines , Nearly True Story Diamonds', 'Overly Preachy &amp; Clichéd', "`` Do think I 'm exploiting grief ? ``", 'That bling finger bloody', 'message picture , sure , good one , strong leads', 'Blood Diamond compelling drama historical events', "Blood Diamond- They Are Not A Gal 's Best Friend * * 1/2", 'A must watch', 'Blood Movie', 'I rave enough movie', 'Foot', 'BLOOD DIAMOND ( Edward Zwick , 2006 ) * * *', 'This picture absolutely magnificent insightful storyline .', 'God left place long time ago .', 'Ridiculous More Ways Than I Can Count']</t>
+          <t>['Taut  original African drama', 'TIA      This Is Africa', 'Djimon Hounsou brings humanity', 'Is All This Really Happening ', 'Great Performances', 'The Price Diamond Ring', 'Strong film despite problems merging real horror traditional Hollywood narrative', 'This truly hidden diamond ', 'Overlong although touching clever film action  violence drama', 'diamonds warlord s best friend', 'Ripped From Headlines  Nearly True Story Diamonds', 'Overly Preachy  Clichd', ' Do think I m exploiting grief  ', 'That bling finger bloody', 'message picture  sure  good one  strong leads', 'Blood Diamond compelling drama historical events', 'Blood Diamond They Are Not A Gal s Best Friend   12', 'A must watch', 'Blood Movie', 'I rave enough movie', 'Foot', 'BLOOD DIAMOND  Edward Zwick  2006    ', 'This picture absolutely magnificent insightful storyline ', 'God left place long time ago ', 'Ridiculous More Ways Than I Can Count']</t>
         </is>
       </c>
     </row>
@@ -25209,7 +25209,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>['Will Smith good one note movie', 'Child Abuse', 'Much More Than I Expected .', 'After Ali , comes Pursuit ...', 'A Touching Story Perseverance , Commitment Objective Life', 'Almost heartbreaking uplifting even ultimately , still engaging driven another good performance Will Smith', 'treat homeless cruelly', 'Never give', 'empathy struggling working man - connect ,', 'Struggles', 'Well , Leo Nice Guys Can Succeed -Pursuit Rates * * * 1/2', 'Realistic portrayal urban life', 'Safe amiable tale sets achieve .', 'Deserves Adulation', 'A brilliant movie desperation , perseverance fatherhood', 'Where going ?', 'This Part My Life', 'The True Pursuit Happiness !', 'Running Toward Happiness : The American Dream Revisited', 'Trivial pursuit', 'A Nutshell Review : The Pursuit Happiness', '`` Happeness `` ?', 'Tugs moral heart strings immediate access', "The 'Gardner ' took care garden ...", 'Inspiring story pursuing happiness .']</t>
+          <t>['Will Smith good one note movie', 'Child Abuse', 'Much More Than I Expected ', 'After Ali  comes Pursuit ', 'A Touching Story Perseverance  Commitment Objective Life', 'Almost heartbreaking uplifting even ultimately  still engaging driven another good performance Will Smith', 'treat homeless cruelly', 'Never give', 'empathy struggling working man  connect ', 'Struggles', 'Well  Leo Nice Guys Can Succeed Pursuit Rates    12', 'Realistic portrayal urban life', 'Safe amiable tale sets achieve ', 'Deserves Adulation', 'A brilliant movie desperation  perseverance fatherhood', 'Where going ', 'This Part My Life', 'The True Pursuit Happiness ', 'Running Toward Happiness  The American Dream Revisited', 'Trivial pursuit', 'A Nutshell Review  The Pursuit Happiness', ' Happeness  ', 'Tugs moral heart strings immediate access', 'The Gardner  took care garden ', 'Inspiring story pursuing happiness ']</t>
         </is>
       </c>
     </row>
@@ -25253,7 +25253,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>["Wonderful , one Dustin Hoffmann 's best roles", 'Cougar On The Prowl', 'great uncomfortable giggles', 'Hoffman Bancroft Make Film', 'The Voice Sixties', 'Unforgettable Movie People My Generation', "Here 's , Anne Bancroft !", 'Summer - ? - 67', 'One Giant Leap For Immorality', 'Classic kickstart Dustin Hoffman needed .', 'Rebelliousness reality ...', "A film still holds thirty-six years later , though fullest extent 's hyped", 'Ph.D one', 'Delightfully Dry', 'A masterpiece', 'Some graduates may able relate', "It 's likable", "Mrs. Robinson , 're trying seduce .", 'Thank You Mr. Nichols', 'Completely Baked', 'A really enjoyable movie , things .', "It 's almost unreal good", 'SUBLIMELY SEDUCTIVE !', 'full ambiguities contradictions', 'Not A Classic .']</t>
+          <t>['Wonderful  one Dustin Hoffmann s best roles', 'Cougar On The Prowl', 'great uncomfortable giggles', 'Hoffman Bancroft Make Film', 'The Voice Sixties', 'Unforgettable Movie People My Generation', 'Here s  Anne Bancroft ', 'Summer    67', 'One Giant Leap For Immorality', 'Classic kickstart Dustin Hoffman needed ', 'Rebelliousness reality ', 'A film still holds thirtysix years later  though fullest extent s hyped', 'PhD one', 'Delightfully Dry', 'A masterpiece', 'Some graduates may able relate', 'It s likable', 'Mrs Robinson  re trying seduce ', 'Thank You Mr Nichols', 'Completely Baked', 'A really enjoyable movie  things ', 'It s almost unreal good', 'SUBLIMELY SEDUCTIVE ', 'full ambiguities contradictions', 'Not A Classic ']</t>
         </is>
       </c>
     </row>
@@ -25297,7 +25297,7 @@
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>['To say dark anime quite understatement !', 'One fine anime !', 'Perfect , blue', 'A suspenseful twisted animated thriller pop singer gives career become actress', 'An underrated anime horror gem', 'Superb , twisted psychological thriller', 'There times forget watching animation', 'Perfect Blue', 'Genuinely disturbing .', 'This could regular movie instead', 'A mind-shaking psychological thriller Japanese Cinema sets benchmark Animated Films', 'An Edge-Of-The-Seat Experience That Blurs The Lines Between Fantasy &amp; Reality', 'Dreaming real fame comes cost .', "Marvellous anime entry 'woman losing grip reality ' horror niche", 'Shocking insane', "Satoshi Kon 's debut feature near masterfully blurs lines dreams reality story dives darkest corners celebrity sanity .", 'Blurred Reality', 'Interesting Giallo Anime Film', 'Perfect Blue perfectly blends psychologically disturbed fantasy grounded reality .', 'Perfect Blue', 'Intense uncomfortable fear', 'Outstanding animated mindbender . Fans Hitchcock , Argento Lynch hooked .', 'An Honest Review', 'Rip Kon', 'Perfect Blue']</t>
+          <t>['To say dark anime quite understatement ', 'One fine anime ', 'Perfect  blue', 'A suspenseful twisted animated thriller pop singer gives career become actress', 'An underrated anime horror gem', 'Superb  twisted psychological thriller', 'There times forget watching animation', 'Perfect Blue', 'Genuinely disturbing ', 'This could regular movie instead', 'A mindshaking psychological thriller Japanese Cinema sets benchmark Animated Films', 'An EdgeOfTheSeat Experience That Blurs The Lines Between Fantasy  Reality', 'Dreaming real fame comes cost ', 'Marvellous anime entry woman losing grip reality  horror niche', 'Shocking insane', 'Satoshi Kon s debut feature near masterfully blurs lines dreams reality story dives darkest corners celebrity sanity ', 'Blurred Reality', 'Interesting Giallo Anime Film', 'Perfect Blue perfectly blends psychologically disturbed fantasy grounded reality ', 'Perfect Blue', 'Intense uncomfortable fear', 'Outstanding animated mindbender  Fans Hitchcock  Argento Lynch hooked ', 'An Honest Review', 'Rip Kon', 'Perfect Blue']</t>
         </is>
       </c>
     </row>
@@ -25341,7 +25341,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>['A really creative film certainly everyone ...', 'The three Ds- dark , daring dazzling', 'A Biblical Plague', 'complex web stories', 'Stories tell', 'Spellbinding ride one day', 'chance ... chance', 'Byzantine collection California lives', 'day life', 'One oddest best films year', 'Good Looking Overrated Talk Fest Where Every Character Cries No Sobs', 'Disappointing', 'Way overpraised', "It 's know Bible", 'Great storytelling makes great movie .', 'Heavy-handed slow , without moments definitely interesting', "There 's in-the-moment impact , end , sort feels like filler .", 'Sprawling truly sublime moments', 'Amongst The Best Ever !', 'My 900th review masterful film !', 'Be prepared lot whining depressed mentally twisted characters.3 hours long . Edited artsy fartsy video clip . If like , movie .', 'interesting characters more-or-less make oddities', 'One grizzly movies I ever seen', 'This movie comes like traffic accident ...', 'Brilliant ? Maybe . Pretentious ? Yes . Refreshing ? Definitely . A great film ? I think .']</t>
+          <t>['A really creative film certainly everyone ', 'The three Ds dark  daring dazzling', 'A Biblical Plague', 'complex web stories', 'Stories tell', 'Spellbinding ride one day', 'chance  chance', 'Byzantine collection California lives', 'day life', 'One oddest best films year', 'Good Looking Overrated Talk Fest Where Every Character Cries No Sobs', 'Disappointing', 'Way overpraised', 'It s know Bible', 'Great storytelling makes great movie ', 'Heavyhanded slow  without moments definitely interesting', 'There s inthemoment impact  end  sort feels like filler ', 'Sprawling truly sublime moments', 'Amongst The Best Ever ', 'My 900th review masterful film ', 'Be prepared lot whining depressed mentally twisted characters3 hours long  Edited artsy fartsy video clip  If like  movie ', 'interesting characters moreorless make oddities', 'One grizzly movies I ever seen', 'This movie comes like traffic accident ', 'Brilliant  Maybe  Pretentious  Yes  Refreshing  Definitely  A great film  I think ']</t>
         </is>
       </c>
     </row>
@@ -25385,7 +25385,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>['One great chilling films 1960s', 'A psychological horror chilled bones ...', 'More creepy scary', 'Masterfully Directed Polanski', 'Overwhelming Blackness', 'Successful Roman Polanski film modern witchcraft thrills , chills suspenseful events', 'Psychological horror disturbing scary', 'What horny devil !', 'The Biggest Satanic Cult Film Ever Made ?', 'Brilliant Polanski film', 'Rosemary Chinatown .', "Two shots film equally disturbing uproarious- film stands one Polanski 's crowning thrillers", "Baby , You 'll Be Scared One * * 1/2", 'Brilliantly Constructed', "Started Occult Trend 1970 's ... Relentless Slow-Burn Supernatural Thriller", 'Classic horror', 'No Surprises Here', 'Seems tame today still delivers chills ...', '`` This Is No Dream ! This Is Really Happening ! `` ...', 'Horror classic', 'This time great movie , especially genre', 'Slow-paced highly rewarding chilling experience', 'He chose , honey ! From women world mother living son !', 'Eat Your Liver , Rosemary', 'Classic Roman']</t>
+          <t>['One great chilling films 1960s', 'A psychological horror chilled bones ', 'More creepy scary', 'Masterfully Directed Polanski', 'Overwhelming Blackness', 'Successful Roman Polanski film modern witchcraft thrills  chills suspenseful events', 'Psychological horror disturbing scary', 'What horny devil ', 'The Biggest Satanic Cult Film Ever Made ', 'Brilliant Polanski film', 'Rosemary Chinatown ', 'Two shots film equally disturbing uproarious film stands one Polanski s crowning thrillers', 'Baby  You ll Be Scared One   12', 'Brilliantly Constructed', 'Started Occult Trend 1970 s  Relentless SlowBurn Supernatural Thriller', 'Classic horror', 'No Surprises Here', 'Seems tame today still delivers chills ', ' This Is No Dream  This Is Really Happening   ', 'Horror classic', 'This time great movie  especially genre', 'Slowpaced highly rewarding chilling experience', 'He chose  honey  From women world mother living son ', 'Eat Your Liver  Rosemary', 'Classic Roman']</t>
         </is>
       </c>
     </row>
@@ -25429,7 +25429,7 @@
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>["Yeah , 's really , really good ... else would expect ?", 'One favourite movies 2010', 'Heartfelt , moving drama', 'George VI And His Therapist', 'Two incredible performances', 'Masterful Performances', 'Great View Lesser Known Period England', 'fascinating', "Words n't come easy", 'Royal achievements', 'Magnificent Film Based True Story', 'A touch over-hyped high-calibre film across board – accessible , enjoyable engaging', 'George could used Public Speaking class I recently took', 'Well-Acted , Well-Paced Historical Drama', 'Worthy Of All The Awards', 'The awards speak', 'Marvelous cinema ...', 'Incredible', "Colin Firth 's jowls steal spotlight , 's jolly well good movie", "The King 's Speech one best historical dramas I 've recently seen", 'Really brilliant', 'A touching historical drama', 'Great movie , driven great cast .', 'Great movie , driven great cast', 'The gift cinema credit gift speech .']</t>
+          <t>['Yeah  s really  really good  else would expect ', 'One favourite movies 2010', 'Heartfelt  moving drama', 'George VI And His Therapist', 'Two incredible performances', 'Masterful Performances', 'Great View Lesser Known Period England', 'fascinating', 'Words nt come easy', 'Royal achievements', 'Magnificent Film Based True Story', 'A touch overhyped highcalibre film across board  accessible  enjoyable engaging', 'George could used Public Speaking class I recently took', 'WellActed  WellPaced Historical Drama', 'Worthy Of All The Awards', 'The awards speak', 'Marvelous cinema ', 'Incredible', 'Colin Firth s jowls steal spotlight  s jolly well good movie', 'The King s Speech one best historical dramas I ve recently seen', 'Really brilliant', 'A touching historical drama', 'Great movie  driven great cast ', 'Great movie  driven great cast', 'The gift cinema credit gift speech ']</t>
         </is>
       </c>
     </row>
@@ -25473,7 +25473,7 @@
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>['Very good good Oscars would imply .', 'What brilliant movie !', 'The Yuppie And The Savant', 'great performances Hoffman Cruise', 'What Actors Can Produce', 'Kmart sucks', 'Definitely worth watching . Definitely . Yeah ...', 'Good , best movie 1988 ?', 'Classic Hoffman', "Cruise 's Abrasive Character Ruins This For Me", 'The rain man', '`` Rain Man `` Autism Speaks Out * * * 1/2', 'Barry Levinson directs masterpiece . Greed family ?', 'Emotional journey', 'My main man Charlie Babbitt .', 'Good', "Tom Cruise another yuppie works asa result Barry Levinson 's direction", 'Rain man', 'Excellent Performance Dustin Hoffman', 'This time great American film timeless', "Road Trippin ' Hoffman Cruise", 'Oscar worthy movie .', "One all-time faves ; Levinson 's masterpiece ; superlative Hoffman &amp; Cruise", 'Road movie Tom Cruise Dustin Hoffman brothers , latter autistic', 'Raymond']</t>
+          <t>['Very good good Oscars would imply ', 'What brilliant movie ', 'The Yuppie And The Savant', 'great performances Hoffman Cruise', 'What Actors Can Produce', 'Kmart sucks', 'Definitely worth watching  Definitely  Yeah ', 'Good  best movie 1988 ', 'Classic Hoffman', 'Cruise s Abrasive Character Ruins This For Me', 'The rain man', ' Rain Man  Autism Speaks Out    12', 'Barry Levinson directs masterpiece  Greed family ', 'Emotional journey', 'My main man Charlie Babbitt ', 'Good', 'Tom Cruise another yuppie works asa result Barry Levinson s direction', 'Rain man', 'Excellent Performance Dustin Hoffman', 'This time great American film timeless', 'Road Trippin  Hoffman Cruise', 'Oscar worthy movie ', 'One alltime faves  Levinson s masterpiece  superlative Hoffman  Cruise', 'Road movie Tom Cruise Dustin Hoffman brothers  latter autistic', 'Raymond']</t>
         </is>
       </c>
     </row>
@@ -25517,7 +25517,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>['good great', 'Amazing', 'Ahead times', 'Plot goes little weird drags times overall good animation set trend', "I Do n't Get It", "As inspired bizarre anime sci-fi film 're likely see , perfect , still post-apocalyptic wonder", 'Not sure fuss', 'Hard Edges', 'Wild Imaginative', 'Violent , adult fascinating', 'Groundbreaking apocalypse animation', 'This time great anime picture masterpiece absolutely must see', 'Stunning', 'Kinda slow first ... really gets going .', 'A triumph animation', 'Anime 101', 'Upon fourth viewing', 'This film taken seriously', 'Awe-inspiring anime .', 'Sprawling', 'The Most Influential Of All Things Anime !', 'Great movie', "Technically good , confusing n't work .", 'Apocalyptic Animation ...', 'Great animation ...']</t>
+          <t>['good great', 'Amazing', 'Ahead times', 'Plot goes little weird drags times overall good animation set trend', 'I Do nt Get It', 'As inspired bizarre anime scifi film re likely see  perfect  still postapocalyptic wonder', 'Not sure fuss', 'Hard Edges', 'Wild Imaginative', 'Violent  adult fascinating', 'Groundbreaking apocalypse animation', 'This time great anime picture masterpiece absolutely must see', 'Stunning', 'Kinda slow first  really gets going ', 'A triumph animation', 'Anime 101', 'Upon fourth viewing', 'This film taken seriously', 'Aweinspiring anime ', 'Sprawling', 'The Most Influential Of All Things Anime ', 'Great movie', 'Technically good  confusing nt work ', 'Apocalyptic Animation ', 'Great animation ']</t>
         </is>
       </c>
     </row>
@@ -25561,7 +25561,7 @@
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>['Perfection .', 'One word=F-L-A-W-L-E-S-S !', 'Great music fun simplified story', 'A Masterpiece Disney', 'A True Musical', 'pure show', 'Classy piece animation', "things totally change see Cocteau 's version", "Middle Disney 's Golden Age", 'A Winner This Time For Disney', 'A classic Disney film', 'Much grand showing-off , magic might helped ...', "Disney 's Beauty Beast still enchanted animated fairy tales", 'Decent adaptation classic fable', 'Disney discovers feminism ( sort )', 'Perfect mix music animation ... solid achievement ...', 'Candle', 'Life Before After `` Beauty Beast ``', 'Tale old time ...', 'Tale old time', 'A classy affair', 'Beauty Beast', 'Nice Disney Classic', 'Classic', 'Such Belle All These Years']</t>
+          <t>['Perfection ', 'One wordFLAWLESS ', 'Great music fun simplified story', 'A Masterpiece Disney', 'A True Musical', 'pure show', 'Classy piece animation', 'things totally change see Cocteau s version', 'Middle Disney s Golden Age', 'A Winner This Time For Disney', 'A classic Disney film', 'Much grand showingoff  magic might helped ', 'Disney s Beauty Beast still enchanted animated fairy tales', 'Decent adaptation classic fable', 'Disney discovers feminism  sort ', 'Perfect mix music animation  solid achievement ', 'Candle', 'Life Before After  Beauty Beast ', 'Tale old time ', 'Tale old time', 'A classy affair', 'Beauty Beast', 'Nice Disney Classic', 'Classic', 'Such Belle All These Years']</t>
         </is>
       </c>
     </row>
@@ -25605,7 +25605,7 @@
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>['A clever idea , constructed interesting film .', "It 's supposed experience", "The thing I n't like game show", 'Masterpiece', 'Sprawling Humanity', 'The Three Musketeers', 'An energetic , stylish engaging fairytale enough cover main weaknesses watching', 'India wink', 'Deserved The Oscar For Cinematography', "one Danny Boyle 's best !", 'Slumdog Millionaire pretty entertaining , little okay , recent Oscar winner', 'An amazing cinematic experience', 'Great movie', 'Slum Dogma', 'A Film That Works Better As An Inspiration Rather Than A Film', 'SLUMDOG MILLIONAIRE ( Danny Boyle , 2008 ) * * *', 'This well made film I would strongly recommend', 'It Written', 'An original far perfect movie .', 'As required proof Oscars nothing go trying find quality', 'Meet Your Destiny', "Absolute Best Film Year ! The one ca n't miss !", 'Slumdog Millionaire', "A film proves matter harsh one 's life thru experiences help one master knowledge win big end !", 'The Best']</t>
+          <t>['A clever idea  constructed interesting film ', 'It s supposed experience', 'The thing I nt like game show', 'Masterpiece', 'Sprawling Humanity', 'The Three Musketeers', 'An energetic  stylish engaging fairytale enough cover main weaknesses watching', 'India wink', 'Deserved The Oscar For Cinematography', 'one Danny Boyle s best ', 'Slumdog Millionaire pretty entertaining  little okay  recent Oscar winner', 'An amazing cinematic experience', 'Great movie', 'Slum Dogma', 'A Film That Works Better As An Inspiration Rather Than A Film', 'SLUMDOG MILLIONAIRE  Danny Boyle  2008    ', 'This well made film I would strongly recommend', 'It Written', 'An original far perfect movie ', 'As required proof Oscars nothing go trying find quality', 'Meet Your Destiny', 'Absolute Best Film Year  The one ca nt miss ', 'Slumdog Millionaire', 'A film proves matter harsh one s life thru experiences help one master knowledge win big end ', 'The Best']</t>
         </is>
       </c>
     </row>
@@ -25649,7 +25649,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>["For , 's one best 70s", 'The Texas Ice Princess', 'aimless teens coming-of-age movie', 'Classic Drama Just Powerful Day Was Released', 'It Makes You Sweat', 'The new easy riders', 'Slice Texas life great cast giving unforgettable performances', 'Goodbye , America', 'Melodrama Small-Town Texas', 'Evocative , desperately important , cinematically exciting ...', "film plays even better long 's seen , unforgettable characters classic mode subversion", "I 'm glad finally seen entirety The Last Picture Show !", "It Ai n't Texas `` Giant ``", 'Entirely much bored meaningless sex ...', 'Good examination 1950s rural America', 'Fascinating VERY depressing', 'I questions deterioration town I people still lived', 'Whiling Away Hours Abilene , Texas', "Good portrayal American small-town-life '50 's .", 'Bleak , trashy B &amp; W drama life fading Texas town early 50s several strong points', 'Terrific Cast Scores Unforgettable Film !', 'Evocative', 'Behind Van Time', 'An excellent film drifting small town America showcases raging hormones , yet takes back traditional days growing .', 'The Kids Stay In The Picture']</t>
+          <t>['For  s one best 70s', 'The Texas Ice Princess', 'aimless teens comingofage movie', 'Classic Drama Just Powerful Day Was Released', 'It Makes You Sweat', 'The new easy riders', 'Slice Texas life great cast giving unforgettable performances', 'Goodbye  America', 'Melodrama SmallTown Texas', 'Evocative  desperately important  cinematically exciting ', 'film plays even better long s seen  unforgettable characters classic mode subversion', 'I m glad finally seen entirety The Last Picture Show ', 'It Ai nt Texas  Giant ', 'Entirely much bored meaningless sex ', 'Good examination 1950s rural America', 'Fascinating VERY depressing', 'I questions deterioration town I people still lived', 'Whiling Away Hours Abilene  Texas', 'Good portrayal American smalltownlife 50 s ', 'Bleak  trashy B  W drama life fading Texas town early 50s several strong points', 'Terrific Cast Scores Unforgettable Film ', 'Evocative', 'Behind Van Time', 'An excellent film drifting small town America showcases raging hormones  yet takes back traditional days growing ', 'The Kids Stay In The Picture']</t>
         </is>
       </c>
     </row>
@@ -25693,7 +25693,7 @@
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>['extremely experimental', 'Unique Disquieting', 'parable', 'Morally challenging still gripping , well written well acted film', 'Lars von Trier Wes Anderson ?', "Something 's Rotten Dogville", 'Engrossing', 'Powerful highly original', 'Essays', 'Why must morality tale hard digest ? ? ?', "You 'll Either Love It Hate It", 'I think world would better without Dogville .', 'Shall I ring bell ?', 'An extremely honest exploration humanity', 'Audacious hints genius ; Kidman marvel understated `` Grace ``', 'Pseudo Brechtian Drama Falls Flat', 'Dogville', 'A completely originally styled film ! Wonders never cease !', 'Brilliant filmmaking , von Trier misses mark bit', 'Fantastical And Critical Story', "Von Trier 's problematic masterful cinematic allegory", 'Imaginative , original , unambiguous', 'Great theater , great cinema ?', 'Human nature morality', '`` Of Course It Was All A Load Of Nonsense ``']</t>
+          <t>['extremely experimental', 'Unique Disquieting', 'parable', 'Morally challenging still gripping  well written well acted film', 'Lars von Trier Wes Anderson ', 'Something s Rotten Dogville', 'Engrossing', 'Powerful highly original', 'Essays', 'Why must morality tale hard digest   ', 'You ll Either Love It Hate It', 'I think world would better without Dogville ', 'Shall I ring bell ', 'An extremely honest exploration humanity', 'Audacious hints genius  Kidman marvel understated  Grace ', 'Pseudo Brechtian Drama Falls Flat', 'Dogville', 'A completely originally styled film  Wonders never cease ', 'Brilliant filmmaking  von Trier misses mark bit', 'Fantastical And Critical Story', 'Von Trier s problematic masterful cinematic allegory', 'Imaginative  original  unambiguous', 'Great theater  great cinema ', 'Human nature morality', ' Of Course It Was All A Load Of Nonsense ']</t>
         </is>
       </c>
     </row>
@@ -25737,7 +25737,7 @@
       </c>
       <c r="J575" t="inlineStr">
         <is>
-          <t>['Very good , much like `` Kill Bill : Vol.1 `` I expected .', 'Not great hoped still good watch', 'lesson', 'Disappointing Overrated Sequel', 'Stimulating thrilling second part closes splendid volume', 'leads', 'The Second Half Controversial Film ...', 'Pure `` style `` , ties unusual story started KB : V 1 .', 'adventures Bride , round 2', "Tarantino 's Triumph : Volume Two", 'Calming Calamity', 'Brilliant movie ( )', "Do n't mess around The Bride", 'Really', 'Dull', 'Satisfaction Attained ...', 'This good movie ... good first one', 'Vol . 1 Was Dessert -- This Is Main Course', 'An eye eye', 'Well made I wish like `` Kill Bill : Vol . 1 `` .', 'Exactly', 'More like', "Hell Hath No Fury Like Woman 's Scorn Redux ! Uma Kills !", "Tarantino 's amusing super-assassin bizarro world", 'Best rent Vol 1 2 watch together !']</t>
+          <t>['Very good  much like  Kill Bill  Vol1  I expected ', 'Not great hoped still good watch', 'lesson', 'Disappointing Overrated Sequel', 'Stimulating thrilling second part closes splendid volume', 'leads', 'The Second Half Controversial Film ', 'Pure  style   ties unusual story started KB  V 1 ', 'adventures Bride  round 2', 'Tarantino s Triumph  Volume Two', 'Calming Calamity', 'Brilliant movie  ', 'Do nt mess around The Bride', 'Really', 'Dull', 'Satisfaction Attained ', 'This good movie  good first one', 'Vol  1 Was Dessert  This Is Main Course', 'An eye eye', 'Well made I wish like  Kill Bill  Vol  1  ', 'Exactly', 'More like', 'Hell Hath No Fury Like Woman s Scorn Redux  Uma Kills ', 'Tarantino s amusing superassassin bizarro world', 'Best rent Vol 1 2 watch together ']</t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="J576" t="inlineStr">
         <is>
-          <t>['The original Bourne trilogy best', 'Shaky camera got little', 'The Best All', 'Action seen/scene', 'Who Am I ?', 'Magnificent thrilling third part completing perfectly trilogy', 'Matt Damon David Strathairn went serious roles ?', 'Good Action , The Best Bourne ?', "Should Have Finished It With 'Supremacy '", 'action , action , action', "'s simply shaky camera 's problem , tense uneasy third Bourne film", 'The Bourne Ultimatum best series far', 'Intense action', 'Thrilling suspenseful', 'ULTIMATE SHAKY-CAM ... DETERMINES LOVE/HATE ... SPY-THRILLER TRILOGY', 'Great Scotts', 'Repeat `` Bourne Identity ``', "Paul Greengrass ... shaky camera movement fast cuts n't make thriller ...", 'I liked Bourne Supremacy one equally entertaining', 'Totally different others', 'Operation Blackbriar', 'Bourne continues run created try kill film thats pure action almost plot', "Bourne kicks Spidey 's Ass", 'Perhaps Perfect Action Thriller', 'Sir , He drove roof']</t>
+          <t>['The original Bourne trilogy best', 'Shaky camera got little', 'The Best All', 'Action seenscene', 'Who Am I ', 'Magnificent thrilling third part completing perfectly trilogy', 'Matt Damon David Strathairn went serious roles ', 'Good Action  The Best Bourne ', 'Should Have Finished It With Supremacy ', 'action  action  action', 's simply shaky camera s problem  tense uneasy third Bourne film', 'The Bourne Ultimatum best series far', 'Intense action', 'Thrilling suspenseful', 'ULTIMATE SHAKYCAM  DETERMINES LOVEHATE  SPYTHRILLER TRILOGY', 'Great Scotts', 'Repeat  Bourne Identity ', 'Paul Greengrass  shaky camera movement fast cuts nt make thriller ', 'I liked Bourne Supremacy one equally entertaining', 'Totally different others', 'Operation Blackbriar', 'Bourne continues run created try kill film thats pure action almost plot', 'Bourne kicks Spidey s Ass', 'Perhaps Perfect Action Thriller', 'Sir  He drove roof']</t>
         </is>
       </c>
     </row>
@@ -25825,7 +25825,7 @@
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>['Utterly hilarious start finish !', 'Brian mistaken Messiah', 'A Comment Our Gullibility', 'Eternal comedy genius .', 'Timeless classic', 'A classic comedy rightly held best Python films', 'Delightful well hilarious film false unwilling Messiah wants free land oppression Rome', 'Ave Monty Python !', "Do n't crucify , I n't think 's great .", 'The Second Best Python Films', "Not necessarily laugh-out-loud every minute , 's satirical edge wit clever technical side film", 'Every scene funny !', "CB DeMille It Ai n't", 'I think `` Blessed cheesemakers `` .', 'Still funny , 25 years', 'Sacrilegiously funny', 'real treat', 'Deligtfully brazen', 'Razor sharp , still holds', 'Bible Bashers', 'Life Of Brian', "An irreverently funny comedy n't cross border blasphemy", 'May God bless holy souls Monty Python unholy laughs gave us . Just like Jesus , cult comedy remembered thousand years', 'Fun , Funnier , Life Brian', "Monty Python 's Magnum Opus"]</t>
+          <t>['Utterly hilarious start finish ', 'Brian mistaken Messiah', 'A Comment Our Gullibility', 'Eternal comedy genius ', 'Timeless classic', 'A classic comedy rightly held best Python films', 'Delightful well hilarious film false unwilling Messiah wants free land oppression Rome', 'Ave Monty Python ', 'Do nt crucify  I nt think s great ', 'The Second Best Python Films', 'Not necessarily laughoutloud every minute  s satirical edge wit clever technical side film', 'Every scene funny ', 'CB DeMille It Ai nt', 'I think  Blessed cheesemakers  ', 'Still funny  25 years', 'Sacrilegiously funny', 'real treat', 'Deligtfully brazen', 'Razor sharp  still holds', 'Bible Bashers', 'Life Of Brian', 'An irreverently funny comedy nt cross border blasphemy', 'May God bless holy souls Monty Python unholy laughs gave us  Just like Jesus  cult comedy remembered thousand years', 'Fun  Funnier  Life Brian', 'Monty Python s Magnum Opus']</t>
         </is>
       </c>
     </row>
@@ -25869,7 +25869,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>['Stepping stone', 'Bit Letdown After `` RRR ``', 'Spectacular !', 'An Indian version avatar according budget great experience watch . Still good film watch', 'Epic epic', 'Grandeur Will Get You . ♦ 63 %', 'The trendsetter .', 'A daringly brave , never kind Herculean triumph achieved Indian filmmaking gifted director also lacks entertainment honest .', 'Bahubali : The Beginning ( 2015 )', 'Baahubali The Beginning : Indian Cinema best !', 'I enjoyed movie', 'Bahubali lauded surreal direction , exemplary CGI commendable performances', 'Having Seen Great Hindu Epics Ramayana By Ramanand Sagar And Mahabharata By B.R . Chopra , I find film inferior .', "Impressive , reasons mentioned people 's country origin ...", 'Recommended 👍', 'Bollywood 9 , Hollywood 5', 'Baahubali : The Beginning ( U/A ) TELUGU -- -- -- -- - Rating : ★★★★½ FULL OF CREATIVITY', 'Climax absolute interval', 'Perfect every sense', 'Review - Bãhubali : The Beginning', 'Revival Vedic !', 'Long Live Mahishmati !', 'Indian symbol ! !', 'Spectacular production far gory', 'Deserves applause taking Indian cinema next level']</t>
+          <t>['Stepping stone', 'Bit Letdown After  RRR ', 'Spectacular ', 'An Indian version avatar according budget great experience watch  Still good film watch', 'Epic epic', 'Grandeur Will Get You   63 ', 'The trendsetter ', 'A daringly brave  never kind Herculean triumph achieved Indian filmmaking gifted director also lacks entertainment honest ', 'Bahubali  The Beginning  2015 ', 'Baahubali The Beginning  Indian Cinema best ', 'I enjoyed movie', 'Bahubali lauded surreal direction  exemplary CGI commendable performances', 'Having Seen Great Hindu Epics Ramayana By Ramanand Sagar And Mahabharata By BR  Chopra  I find film inferior ', 'Impressive  reasons mentioned people s country origin ', 'Recommended ', 'Bollywood 9  Hollywood 5', 'Baahubali  The Beginning  UA  TELUGU      Rating   FULL OF CREATIVITY', 'Climax absolute interval', 'Perfect every sense', 'Review  Bhubali  The Beginning', 'Revival Vedic ', 'Long Live Mahishmati ', 'Indian symbol  ', 'Spectacular production far gory', 'Deserves applause taking Indian cinema next level']</t>
         </is>
       </c>
     </row>
@@ -25913,7 +25913,7 @@
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>['twisty', 'Making things ... appear', 'wow movie', 'Completely blown away', 'Intriguing thriller', 'Another good Spanish mystery movie', 'History written victors .', "And Like That , POOF ! He 's Gone", '[ 8.9 ] The guest beyond invisible', 'Spanish Cinema releases Detailed Study Material Thriller Genre ..', 'Thrilling , Suspenseful &amp; Consistently Engaging', 'Pure Detective Movie Masterpiece', 'Spanish Agatha Hitchcock ...', 'Unexpected ...', 'The Ending ...', 'Mind-blowing thriller', 'Not Top 250 movie still fun engaging thriller', 'The Invisible Guest', 'Impossible fault', 'The usual suspect', 'Awesome suspense thriller .', 'The Invisible Guest', 'GRIPPING FROM START TO END !', 'WOW !', 'Playful best possible sense word']</t>
+          <t>['twisty', 'Making things  appear', 'wow movie', 'Completely blown away', 'Intriguing thriller', 'Another good Spanish mystery movie', 'History written victors ', 'And Like That  POOF  He s Gone', ' 89  The guest beyond invisible', 'Spanish Cinema releases Detailed Study Material Thriller Genre ', 'Thrilling  Suspenseful  Consistently Engaging', 'Pure Detective Movie Masterpiece', 'Spanish Agatha Hitchcock ', 'Unexpected ', 'The Ending ', 'Mindblowing thriller', 'Not Top 250 movie still fun engaging thriller', 'The Invisible Guest', 'Impossible fault', 'The usual suspect', 'Awesome suspense thriller ', 'The Invisible Guest', 'GRIPPING FROM START TO END ', 'WOW ', 'Playful best possible sense word']</t>
         </is>
       </c>
     </row>
@@ -25957,7 +25957,7 @@
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>['A brave film could never make today ....', 'American cinema vérité', 'Controversy Needed', 'Not Surprised Responses', 'It would right thing watch movie .', 'Good concept , execution sorely lacking .', 'make mistake friends .', "Results vary viewer , 's still mostly mind-blowing", "Spike Lee 's Real Coming Out Party", 'This movie hard love', 'For Once , Spike Lee Does Right Thing', 'When someone wrong thing others react wrong way', 'One hand always fighting hand', 'excellent drama message', 'Fantastic', 'cardinal food thought deathless us', 'Important , Smart &amp; Unforgettable !', 'Avoids turning walking cliché heavy-handed lecture', 'Good story , amateur execution', 'Summer city', 'An Essential Spike Lee Joint', 'An amazing achievement , almost thirty years later , relevant ever', 'Waltzing Watts', 'Pointless aggression hateful .', 'right thing']</t>
+          <t>['A brave film could never make today ', 'American cinema vrit', 'Controversy Needed', 'Not Surprised Responses', 'It would right thing watch movie ', 'Good concept  execution sorely lacking ', 'make mistake friends ', 'Results vary viewer  s still mostly mindblowing', 'Spike Lee s Real Coming Out Party', 'This movie hard love', 'For Once  Spike Lee Does Right Thing', 'When someone wrong thing others react wrong way', 'One hand always fighting hand', 'excellent drama message', 'Fantastic', 'cardinal food thought deathless us', 'Important  Smart  Unforgettable ', 'Avoids turning walking clich heavyhanded lecture', 'Good story  amateur execution', 'Summer city', 'An Essential Spike Lee Joint', 'An amazing achievement  almost thirty years later  relevant ever', 'Waltzing Watts', 'Pointless aggression hateful ', 'right thing']</t>
         </is>
       </c>
     </row>
@@ -26001,7 +26001,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>["n't much , ...", 'Different , great movie', "`` You Keep Thinking Butch , That 's What Your Good At ``", 'charming cool fun duo', 'Newman Redford Make This Classic', 'Butch Cassidy Sundance Kid', 'Western ? No \x96 warming funny gentle comedy', 'Famed Western exceptional trio gives engaging acting : Newman , Redford Ross', '3 great westerns 1969', "I 'm outlaws , I go outlaws go .", 'As Far As Westerns Go , This One Probably Tops Them All', 'Mythic , classic , tragic', 'One Of The All-Time Great Westerns', 'A perfect blending script acting Newman Redford .', 'Great chemistry Newman Redford lifts legendary film', 'Legend famous outlaws becomes in-jokey star-vehicle', 'Superb , average western', 'The Best Beatles Movie', 'Esto es un robo , las manos arriba !', 'Carefree Outlaws', 'Mediocre best', 'A classic left legacy', 'This really fun movie absolutely must see American cinematic gold', 'Oh , good . For moment I thought trouble .', 'tale based real guys']</t>
+          <t>['nt much  ', 'Different  great movie', ' You Keep Thinking Butch  That s What Your Good At ', 'charming cool fun duo', 'Newman Redford Make This Classic', 'Butch Cassidy Sundance Kid', 'Western  No  warming funny gentle comedy', 'Famed Western exceptional trio gives engaging acting  Newman  Redford Ross', '3 great westerns 1969', 'I m outlaws  I go outlaws go ', 'As Far As Westerns Go  This One Probably Tops Them All', 'Mythic  classic  tragic', 'One Of The AllTime Great Westerns', 'A perfect blending script acting Newman Redford ', 'Great chemistry Newman Redford lifts legendary film', 'Legend famous outlaws becomes injokey starvehicle', 'Superb  average western', 'The Best Beatles Movie', 'Esto es un robo  las manos arriba ', 'Carefree Outlaws', 'Mediocre best', 'A classic left legacy', 'This really fun movie absolutely must see American cinematic gold', 'Oh  good  For moment I thought trouble ', 'tale based real guys']</t>
         </is>
       </c>
     </row>
@@ -26045,7 +26045,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>['Very gritty realistic', "Another one Pacino 's best ( one Lumet 's best )", "Just thought could n't get better ...", 'Underlying Motive', 'funny original', 'Masterpiece', 'A Look Soul', 'masterpiece', 'Dog Day Afternoon', 'An interesting true story made good film great performances', 'Successful outlandish drama two offbeat men involved bank robbering', 'I saw art exhibit robbery .', 'Does Loving Transvestite Make You Gay ?', 'Who said heist film ?', "Still `` Dogging ' Us 30 Years Later", 'Tragic comedy-of-errors Brooklyn , New York central character ...', 'The eyes', "It 's OK Gay ! It 's OK rob banks , though", 'A Different Kind Afternoon * * * 1/2', 'Beter Suited Stage Television', 'Brilliant drama', 'Superb', 'A Good Enough Movie But How Honest Is It ?', 'Just End Already', "Only '70s would filmmakers dare make film ..."]</t>
+          <t>['Very gritty realistic', 'Another one Pacino s best  one Lumet s best ', 'Just thought could nt get better ', 'Underlying Motive', 'funny original', 'Masterpiece', 'A Look Soul', 'masterpiece', 'Dog Day Afternoon', 'An interesting true story made good film great performances', 'Successful outlandish drama two offbeat men involved bank robbering', 'I saw art exhibit robbery ', 'Does Loving Transvestite Make You Gay ', 'Who said heist film ', 'Still  Dogging  Us 30 Years Later', 'Tragic comedyoferrors Brooklyn  New York central character ', 'The eyes', 'It s OK Gay  It s OK rob banks  though', 'A Different Kind Afternoon    12', 'Beter Suited Stage Television', 'Brilliant drama', 'Superb', 'A Good Enough Movie But How Honest Is It ', 'Just End Already', 'Only 70s would filmmakers dare make film ']</t>
         </is>
       </c>
     </row>
@@ -26089,7 +26089,7 @@
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>["It 's good Bogart several better films AND nearly duplicate 1931 version", 'Superb cinematic entertainment', "`` I Wo n't Play The Sap For You . ``", 'ultimate classic noir', 'Masterpiece', 'Just Another Fan', 'The Maltese Falcon', 'Absorbing worthy suspense film blackmails , killings , corruption strong intrigue', 'How many movies mention Malta ?', 'The Very Best Film Noir Genre', 'The best detective story .', 'Bogart best , detective Sam Spade .', "Bogie Sam Spade John Huston 's film debut ...", 'Such stuff dreams made', 'The first filmed noir story pure gem many years', 'Full Sound Fury', "Where 's The Good Guy", 'Iconaclastic', 'Crime-drama classic', 'The cheaper crook , gaudier patter .', 'The definition detective film noir ... excellent performances ...', 'Gritty dark Dashiell Hammett adaption', 'Falcon', 'The Stuff Dreams Are Made Of', "`` Do n't sure I 'm crooked I 'm supposed . ``"]</t>
+          <t>['It s good Bogart several better films AND nearly duplicate 1931 version', 'Superb cinematic entertainment', ' I Wo nt Play The Sap For You  ', 'ultimate classic noir', 'Masterpiece', 'Just Another Fan', 'The Maltese Falcon', 'Absorbing worthy suspense film blackmails  killings  corruption strong intrigue', 'How many movies mention Malta ', 'The Very Best Film Noir Genre', 'The best detective story ', 'Bogart best  detective Sam Spade ', 'Bogie Sam Spade John Huston s film debut ', 'Such stuff dreams made', 'The first filmed noir story pure gem many years', 'Full Sound Fury', 'Where s The Good Guy', 'Iconaclastic', 'Crimedrama classic', 'The cheaper crook  gaudier patter ', 'The definition detective film noir  excellent performances ', 'Gritty dark Dashiell Hammett adaption', 'Falcon', 'The Stuff Dreams Are Made Of', ' Do nt sure I m crooked I m supposed  ']</t>
         </is>
       </c>
     </row>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>['Roars like near mighty lion', 'harrowing first half', "One 2016 's Best Films", 'A Gripping Story That Could Have Been Better', 'The Long Way Home', 'The lost child', 'A fabulous movie based reality , comic .....', 'A long way go', 'Great Film Based True Story', 'Very sentimental moving film emotion , family relationship , thought-provoking scenes big feeling', "trip one 's past", 'Excellent , But Sort Boring', 'An emotional journey', 'Okay , weakened clumsily told , superficially melodramatic second act', 'A Roaring Success That Might Spring A Surprise At The Oscars', 'Trains', 'I literally complaints movie would strongly recommend .', 'What amazing story .', "'We wanted two lives . That 's chose . '", 'Tells moving , uplifting gripping tale tune one best , emotive soundtracks recent years .', 'A film loss , courage , memories , search reconnect new life .', 'Dev Patel swell .', 'Remarkable Performances Lead A Decent Film !', 'Heart-breaking heart-warming time', 'Waiting Guddu ...']</t>
+          <t>['Roars like near mighty lion', 'harrowing first half', 'One 2016 s Best Films', 'A Gripping Story That Could Have Been Better', 'The Long Way Home', 'The lost child', 'A fabulous movie based reality  comic ', 'A long way go', 'Great Film Based True Story', 'Very sentimental moving film emotion  family relationship  thoughtprovoking scenes big feeling', 'trip one s past', 'Excellent  But Sort Boring', 'An emotional journey', 'Okay  weakened clumsily told  superficially melodramatic second act', 'A Roaring Success That Might Spring A Surprise At The Oscars', 'Trains', 'I literally complaints movie would strongly recommend ', 'What amazing story ', 'We wanted two lives  That s chose  ', 'Tells moving  uplifting gripping tale tune one best  emotive soundtracks recent years ', 'A film loss  courage  memories  search reconnect new life ', 'Dev Patel swell ', 'Remarkable Performances Lead A Decent Film ', 'Heartbreaking heartwarming time', 'Waiting Guddu ']</t>
         </is>
       </c>
     </row>
@@ -26177,7 +26177,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>["I dislike Billy Bob despite I could n't help admire enjoy film", 'All Billy Bob', "Billy Bob Thornton 's masterful entry fame .", 'A Bit Odd , But Pretty Good', 'Karl Childers : unforgettable character modern fiction', 'phenomenal', 'It definately lives hype', 'Billy Bob Thornton Swings Like Pendulum', 'A dynamic tale desperate lives crossing .', 'Suspenseful Dynamic Tear-Jerker Demands Patience', 'You Ought Not Pass Movie', 'A brilliant slice life ... excellent performances ...', "This film great buildup leads perfect conclusion . I would n't change single thing movie", "I Like Me Some Fried 'Taters", 'Beautiful slow character portrayal .', 'Ladies gentleman , Mr. Billy Bob Thornton', 'When murderer likable protagonist , mmm-hmm', 'Should least got nomination Best Picture', 'Billy Bob Master Stoyteller !', 'A Terrific Effort Billy Bob Thornton !', 'Genuine filmmaking masterpiece - one kind ! Verdict 100/100', "Billy Bob 's Break", "An excellent fim . If film deserves higher top 250 , 's film !", 'Great performances , over-earnest film', 'modern American masterpiece']</t>
+          <t>['I dislike Billy Bob despite I could nt help admire enjoy film', 'All Billy Bob', 'Billy Bob Thornton s masterful entry fame ', 'A Bit Odd  But Pretty Good', 'Karl Childers  unforgettable character modern fiction', 'phenomenal', 'It definately lives hype', 'Billy Bob Thornton Swings Like Pendulum', 'A dynamic tale desperate lives crossing ', 'Suspenseful Dynamic TearJerker Demands Patience', 'You Ought Not Pass Movie', 'A brilliant slice life  excellent performances ', 'This film great buildup leads perfect conclusion  I would nt change single thing movie', 'I Like Me Some Fried Taters', 'Beautiful slow character portrayal ', 'Ladies gentleman  Mr Billy Bob Thornton', 'When murderer likable protagonist  mmmhmm', 'Should least got nomination Best Picture', 'Billy Bob Master Stoyteller ', 'A Terrific Effort Billy Bob Thornton ', 'Genuine filmmaking masterpiece  one kind  Verdict 100100', 'Billy Bob s Break', 'An excellent fim  If film deserves higher top 250  s film ', 'Great performances  overearnest film', 'modern American masterpiece']</t>
         </is>
       </c>
     </row>
@@ -26221,7 +26221,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>['A good film apparently takes HUGE liberties facts make exciting film .', 'Great emotional story', 'Great Story', 'Promotes Human Element', 'No knock', 'He Was Symbol Hope Ruined Nation', "You 've seen still professionally effective", 'A Tour-de-force acting Rusell Crowe boxer desperately fights way save family', 'Russell Crowe Fighting', "'Seabiscuit ' In Human Form", 'Hoary boxing-movie clichés abound !', 'Cinderella Man His Princess * * * 12', 'A Working Class Hero Is Something Be', 'Triumph heavy odds .', 'I guess every Hollywood movie villain ...', 'Fighting Intents', 'For Dignity Milk .', 'The Braddock family Great Depresion', 'Jimmy Braddock : average boxer', 'Bop', 'Painfully slow first hour weakens good Depression era drama', 'Cinderella Man ( 2005 ) * * *', "Have n't Rocky De Niro Pretty Much Said All There Is Say About Boxing ?", 'Get Your Dukes Up', 'James J. Braddock : Gladiator Great Depression']</t>
+          <t>['A good film apparently takes HUGE liberties facts make exciting film ', 'Great emotional story', 'Great Story', 'Promotes Human Element', 'No knock', 'He Was Symbol Hope Ruined Nation', 'You ve seen still professionally effective', 'A Tourdeforce acting Rusell Crowe boxer desperately fights way save family', 'Russell Crowe Fighting', 'Seabiscuit  In Human Form', 'Hoary boxingmovie clichs abound ', 'Cinderella Man His Princess    12', 'A Working Class Hero Is Something Be', 'Triumph heavy odds ', 'I guess every Hollywood movie villain ', 'Fighting Intents', 'For Dignity Milk ', 'The Braddock family Great Depresion', 'Jimmy Braddock  average boxer', 'Bop', 'Painfully slow first hour weakens good Depression era drama', 'Cinderella Man  2005    ', 'Have nt Rocky De Niro Pretty Much Said All There Is Say About Boxing ', 'Get Your Dukes Up', 'James J Braddock  Gladiator Great Depression']</t>
         </is>
       </c>
     </row>
@@ -26265,7 +26265,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>['split two', 'And hype ? ...', 'Nailed It', 'I like revisit movie every , like quirky , quintessentially cool photo pineapple frame', 'Discontinuous', 'Expirary new beginnings ?', 'A person may like pineapple today , something else tomorrow .', 'wkw getting started', 'A Hong Kong love story .', 'Chungking Express', 'Shallow hard connect . Nice camera work though', 'Fantastic', '2 cops love', 'Quirky , Melancholic &amp; Delightfully Amusing , Chungking Express Is As Endearing As It Is Captivating', 'A wonderful film', 'Stunning exploration love', 'Full style , substance , self-reflective humor', 'chungking xpress', "Stunning visuals unforgettable performance cutie Fay Wong make 'Chungking Express ' winner !", 'The Answers Mundane Everyday Repetition Everywhere', 'FEEL-GOOD ROMANCE', 'God movie', 'The chilled movie .', 'Good', 'A Good , Broken Record']</t>
+          <t>['split two', 'And hype  ', 'Nailed It', 'I like revisit movie every  like quirky  quintessentially cool photo pineapple frame', 'Discontinuous', 'Expirary new beginnings ', 'A person may like pineapple today  something else tomorrow ', 'wkw getting started', 'A Hong Kong love story ', 'Chungking Express', 'Shallow hard connect  Nice camera work though', 'Fantastic', '2 cops love', 'Quirky  Melancholic  Delightfully Amusing  Chungking Express Is As Endearing As It Is Captivating', 'A wonderful film', 'Stunning exploration love', 'Full style  substance  selfreflective humor', 'chungking xpress', 'Stunning visuals unforgettable performance cutie Fay Wong make Chungking Express  winner ', 'The Answers Mundane Everyday Repetition Everywhere', 'FEELGOOD ROMANCE', 'God movie', 'The chilled movie ', 'Good', 'A Good  Broken Record']</t>
         </is>
       </c>
     </row>
@@ -26309,7 +26309,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>['The film Woody Allen found voice , one best ever films', 'Alvy Annie', 'still funny daring', 'My Favorite Film All Time', "Woody 's Best", 'Annie Hall', 'Woody Allen begins grow \x96one best', 'Refusing belong club would member ...', "Considered Allen 's Best Film , I Personally Disagree", "I n't get hype .", 'A valentine unhappiness -- need unhappy', "One best-remembered films '70s", "'s better I remembered .", "I 'm Not With In Crowd- Annie Hall Takes A Fall *", 'Dull', "Woody Allen 's fresh , intelligent , innovative romantic comedy .", 'A Neat ( ! ) Movie', 'Razz Ma Tazz', 'One greatest movies ever made', 'The Story Story', 'A relationship , I think , like shark . It constantly move forward dies . And I think got hands dead shark .', "One Allen 's best", 'I Lurv `` Annie Hall . `` I Luff It ( Two `` F `` ) .....', 'Incredible', "Woody 's Masterpiece"]</t>
+          <t>['The film Woody Allen found voice  one best ever films', 'Alvy Annie', 'still funny daring', 'My Favorite Film All Time', 'Woody s Best', 'Annie Hall', 'Woody Allen begins grow one best', 'Refusing belong club would member ', 'Considered Allen s Best Film  I Personally Disagree', 'I nt get hype ', 'A valentine unhappiness  need unhappy', 'One bestremembered films 70s', 's better I remembered ', 'I m Not With In Crowd Annie Hall Takes A Fall ', 'Dull', 'Woody Allen s fresh  intelligent  innovative romantic comedy ', 'A Neat    Movie', 'Razz Ma Tazz', 'One greatest movies ever made', 'The Story Story', 'A relationship  I think  like shark  It constantly move forward dies  And I think got hands dead shark ', 'One Allen s best', 'I Lurv  Annie Hall   I Luff It  Two  F   ', 'Incredible', 'Woody s Masterpiece']</t>
         </is>
       </c>
     </row>
@@ -26353,7 +26353,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>['exceptionally realistic cold', 'Cool Killer Movie without excitement', 'At Times So Cliched', 'One Most Perfect Alibis Great French Film Noir', 'Exceptional French noir film incomparable Alain Delon cold murderous', 'An Inspiration John Woo', 'Genuine DNA French master', "Melville 's minimalist , cool film perfect Alain Delon", 'May favorite Melville film style inspired , hard match', '`` Our job leaves room etiquette . ``', 'Stylish thriller', 'Magnifique .', 'An exquisite , quietly charged classic crime drama', 'Slow Burn', 'Impressive .', 'Minimal suspenseful', 'A joy watch', 'Cold', 'Le Samourai', 'ice landscapes', 'aging beautifully', 'Fun Frenchies- evolution hit-man genre', 'There Is No Greater Solitude Than That Of A Samurai', 'Great suspenseful thriller', 'A good classic']</t>
+          <t>['exceptionally realistic cold', 'Cool Killer Movie without excitement', 'At Times So Cliched', 'One Most Perfect Alibis Great French Film Noir', 'Exceptional French noir film incomparable Alain Delon cold murderous', 'An Inspiration John Woo', 'Genuine DNA French master', 'Melville s minimalist  cool film perfect Alain Delon', 'May favorite Melville film style inspired  hard match', ' Our job leaves room etiquette  ', 'Stylish thriller', 'Magnifique ', 'An exquisite  quietly charged classic crime drama', 'Slow Burn', 'Impressive ', 'Minimal suspenseful', 'A joy watch', 'Cold', 'Le Samourai', 'ice landscapes', 'aging beautifully', 'Fun Frenchies evolution hitman genre', 'There Is No Greater Solitude Than That Of A Samurai', 'Great suspenseful thriller', 'A good classic']</t>
         </is>
       </c>
     </row>
@@ -26397,7 +26397,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>["It 's hard imagine directed David Lynch !", 'Simple meditative , genuinely moving lot heart wonderful lead performance', 'funny bitter sweet', "Requires patience frustrate many viewers one Lynch 's human films rewardingly warm", 'straight heart', 'Best John Deere Commercial Ever Made', 'A Shockingly-Straight Story From David Lynch', 'A nice film , based true story , clearly over-rated .', 'Odd cinematic coupling results slow , impenetrable journey ...', "Walt Disney Pictures presents : film David Lynch ; far crazy concept , 's sweet little slice great film-making", 'I want thank kindness stranger .', '`` I want sit , look stars ... like used long ago . ``', 'Simple But Beautiful', 'Only fool change mind', 'A film move tears !', 'A decent film decent lead', 'Wonderful', "Sometimes need slow notice 's important", 'Sit back enjoy journey', 'A sentimental story beautifully told .', 'A touching , heartfelt celebration life -- totally non-Lynch yet , time , much', 'Lynch plays straight ... Farnsworth IS Straight ...', 'A straight slice disappearing America', 'Full Of Good , Old-Fashioned Advice From Grandfather', "An old man decides visit brother n't seen years , traveling slowly ."]</t>
+          <t>['It s hard imagine directed David Lynch ', 'Simple meditative  genuinely moving lot heart wonderful lead performance', 'funny bitter sweet', 'Requires patience frustrate many viewers one Lynch s human films rewardingly warm', 'straight heart', 'Best John Deere Commercial Ever Made', 'A ShockinglyStraight Story From David Lynch', 'A nice film  based true story  clearly overrated ', 'Odd cinematic coupling results slow  impenetrable journey ', 'Walt Disney Pictures presents  film David Lynch  far crazy concept  s sweet little slice great filmmaking', 'I want thank kindness stranger ', ' I want sit  look stars  like used long ago  ', 'Simple But Beautiful', 'Only fool change mind', 'A film move tears ', 'A decent film decent lead', 'Wonderful', 'Sometimes need slow notice s important', 'Sit back enjoy journey', 'A sentimental story beautifully told ', 'A touching  heartfelt celebration life  totally nonLynch yet  time  much', 'Lynch plays straight  Farnsworth IS Straight ', 'A straight slice disappearing America', 'Full Of Good  OldFashioned Advice From Grandfather', 'An old man decides visit brother nt seen years  traveling slowly ']</t>
         </is>
       </c>
     </row>
@@ -26441,7 +26441,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>['It gets better time I see .', 'It good movie overlong slow', 'Flawed western great action set-pieces', '`` You Can Do Just About Anything You Want To , Chance . ``', 'Classic John Wayne Western', 'Firing slowly', 'Classic western despite little slow times', 'Involving fascinating Western masterfully directed Howard Hawks', 'One All-Time Classic Westerns', 'An indoor western masterpiece', 'Long cheerful , colorful Howard Hawks western ...', 'damn entertaining * classic * western', 'John Wayne , Dean Martin Ricky Nelson Draw Crowd Howard Hawks', 'Good , good , NOT GREAT', 'A Howard Hawks/John Wayne classic', 'The good outweighs bad Hawks macho movie .', 'Good guy characters shine', "`` Sorry n't get done , Dude . ``", 'This movie everything could ask western genre', 'You want gun , pick . I wish would .', 'Well made far favorite .', 'Town-confined Western focuses likable main characters', 'right', 'involved beginning constant smile upon face', 'My masterpiece number 33 ! ! !']</t>
+          <t>['It gets better time I see ', 'It good movie overlong slow', 'Flawed western great action setpieces', ' You Can Do Just About Anything You Want To  Chance  ', 'Classic John Wayne Western', 'Firing slowly', 'Classic western despite little slow times', 'Involving fascinating Western masterfully directed Howard Hawks', 'One AllTime Classic Westerns', 'An indoor western masterpiece', 'Long cheerful  colorful Howard Hawks western ', 'damn entertaining  classic  western', 'John Wayne  Dean Martin Ricky Nelson Draw Crowd Howard Hawks', 'Good  good  NOT GREAT', 'A Howard HawksJohn Wayne classic', 'The good outweighs bad Hawks macho movie ', 'Good guy characters shine', ' Sorry nt get done  Dude  ', 'This movie everything could ask western genre', 'You want gun  pick  I wish would ', 'Well made far favorite ', 'Townconfined Western focuses likable main characters', 'right', 'involved beginning constant smile upon face', 'My masterpiece number 33   ']</t>
         </is>
       </c>
     </row>
@@ -26485,7 +26485,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>["Great time n't hold well", 'Fantastic', 'Suffer little children', 'terrific noir visual style great Robert Mitchum', 'Masterpiece Suspense', 'classic', 'Nights outside , Evil within', 'Tense Suspenseful Classic', 'Very atmospheric thriller', 'Outstanding acting , fascinating camera-work extraordinary direction Charles Laughton', 'religious fanaticism leads one haunting movies ever', 'A classic still chilling sixty years later', 'A Terrifying Real-World Situation', 'Haunting , eerie , unnecessarily theatrical', '`` They abide endure . ``', 'All', 'horror dread coupled hope love . watch song !', 'The one , could ever scare , god-damn preacher man !', 'Beware False Prophets', 'Blacker black .', 'Brilliant One Kind', 'Laughton crafts nightmarish fairytale stands true masterpiece .', 'Innocence shattered', 'Great horror film', 'Memorable Mitchum weaves spell fear impending doom ...']</t>
+          <t>['Great time nt hold well', 'Fantastic', 'Suffer little children', 'terrific noir visual style great Robert Mitchum', 'Masterpiece Suspense', 'classic', 'Nights outside  Evil within', 'Tense Suspenseful Classic', 'Very atmospheric thriller', 'Outstanding acting  fascinating camerawork extraordinary direction Charles Laughton', 'religious fanaticism leads one haunting movies ever', 'A classic still chilling sixty years later', 'A Terrifying RealWorld Situation', 'Haunting  eerie  unnecessarily theatrical', ' They abide endure  ', 'All', 'horror dread coupled hope love  watch song ', 'The one  could ever scare  goddamn preacher man ', 'Beware False Prophets', 'Blacker black ', 'Brilliant One Kind', 'Laughton crafts nightmarish fairytale stands true masterpiece ', 'Innocence shattered', 'Great horror film', 'Memorable Mitchum weaves spell fear impending doom ']</t>
         </is>
       </c>
     </row>
@@ -26529,7 +26529,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>['Amazing quality animation , unusual story whole lotta fun', "Absolutely beautiful , one Studio Ghibli 's imaginative works", 'imaginative world', 'Dreams', 'A visually impressive engaging adventure solid narrative , characters voice-work \x96 great fun', 'Sky Pirates', 'Miyazaki turns fantasy wonderful , conventional head', 'Interesting setup lack focus engagement ruins', "It Miyazaki 's best similar remnants Nausica", 'LAPUTA - CASTLE IN THE SKY ( Hayao Miyazaki , 1986 ) * * *', "Does n't title give away exist ... ?", 'Overrated anime fare', "Those pirates know 's kid , right ?", "Did n't love much Miyazaki films , might movie", 'A bizarre storyline surreal characters beautiful animation', "Maybe 'typical ' Miyazaki 's work appreciated 'atypical ' level ...", "Studio Ghibli 's Feature Film Debut", 'Great film', 'My 300th movie !', 'Steampunk Animation Pioneering ...', 'One best Hayao Miyazaki ...', 'Aerial adventures', "One Miyazaki 's best", 'My brief review film', 'This Japanese animated tale adventure , danger magic actually happens bit better average ; rousing exciting film .']</t>
+          <t>['Amazing quality animation  unusual story whole lotta fun', 'Absolutely beautiful  one Studio Ghibli s imaginative works', 'imaginative world', 'Dreams', 'A visually impressive engaging adventure solid narrative  characters voicework  great fun', 'Sky Pirates', 'Miyazaki turns fantasy wonderful  conventional head', 'Interesting setup lack focus engagement ruins', 'It Miyazaki s best similar remnants Nausica', 'LAPUTA  CASTLE IN THE SKY  Hayao Miyazaki  1986    ', 'Does nt title give away exist  ', 'Overrated anime fare', 'Those pirates know s kid  right ', 'Did nt love much Miyazaki films  might movie', 'A bizarre storyline surreal characters beautiful animation', 'Maybe typical  Miyazaki s work appreciated atypical  level ', 'Studio Ghibli s Feature Film Debut', 'Great film', 'My 300th movie ', 'Steampunk Animation Pioneering ', 'One best Hayao Miyazaki ', 'Aerial adventures', 'One Miyazaki s best', 'My brief review film', 'This Japanese animated tale adventure  danger magic actually happens bit better average  rousing exciting film ']</t>
         </is>
       </c>
     </row>
@@ -26573,7 +26573,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>['Breathtaking watch highly imaginative , yet another winner Studio Ghibli', 'A little familiar', 'Imaginative wonderful', 'Very relevant today .', 'The sci-fi story environmental message blends together really well produces engaging film visually impressive imaginative', 'Wonderful fantasy ecologist significance Japanese master Hayao Miyazaki', 'Better Than Average Anime', 'Story Unable To Match Interesting Visuals', "tale pure goodness , inanities greed , human beings , set Miyazaki 's amazing world", 'Mildly interesting', 'A movie consists themes `` Princess Mononokae ``', 'NAUSICAA OF THE VALLEY OF THE WIND ( Hayao Miyazaki , 1984 ) * * *', 'Underrated anime classic', 'A magnificent imaginative movie .', 'Great anime movie past .', 'A soaring effort', 'stunning , thought-provoking anime worth name Miyazaki Studio Ghibli', 'Beautiful , nightmare-inducing animation', 'If Miyazaki made film , legacy would ...', 'One Finest Anime Its Time', 'Very good', "'The atmosphere saturated anger ' ...", 'Long Winded , Pun Intended', 'One masterpiece Hayao Miyazaki ...', 'La-la Land']</t>
+          <t>['Breathtaking watch highly imaginative  yet another winner Studio Ghibli', 'A little familiar', 'Imaginative wonderful', 'Very relevant today ', 'The scifi story environmental message blends together really well produces engaging film visually impressive imaginative', 'Wonderful fantasy ecologist significance Japanese master Hayao Miyazaki', 'Better Than Average Anime', 'Story Unable To Match Interesting Visuals', 'tale pure goodness  inanities greed  human beings  set Miyazaki s amazing world', 'Mildly interesting', 'A movie consists themes  Princess Mononokae ', 'NAUSICAA OF THE VALLEY OF THE WIND  Hayao Miyazaki  1984    ', 'Underrated anime classic', 'A magnificent imaginative movie ', 'Great anime movie past ', 'A soaring effort', 'stunning  thoughtprovoking anime worth name Miyazaki Studio Ghibli', 'Beautiful  nightmareinducing animation', 'If Miyazaki made film  legacy would ', 'One Finest Anime Its Time', 'Very good', 'The atmosphere saturated anger  ', 'Long Winded  Pun Intended', 'One masterpiece Hayao Miyazaki ', 'Lala Land']</t>
         </is>
       </c>
     </row>
@@ -26617,7 +26617,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>['Absolutely wonderful !', 'Slow first compelling story', 'The Songs Make It Happen', 'fascinating', 'Classic , splendid musical movie attractive scenes awesome interpretations', 'tradition dies , life goes', 'One All-Time Great Musicals', 'Too Long &amp; Generally Overrated', '`` One season following another/Laden happiness tears ... ``', 'Who Fiddled With Oscar ?', 'That Touch Shmutz', 'Good adaptation', 'Loud , lively long', 'A perfect adaptation enduring musical', 'Strong Material , Beautiful Score Wonderful Lead Performance Overcome Heavy Directorial Hand', 'Fiddler Roof', 'A relatable musical ages , races , religions', 'Tradition', 'A Great Musical', 'Rather Strong Musical !', 'Simple , great emotional', 'Religion kills', "Jewison 's masterpiece", "Tradition ? What tradition ? Welcome Tevye 's world .", 'Fiddler Roof']</t>
+          <t>['Absolutely wonderful ', 'Slow first compelling story', 'The Songs Make It Happen', 'fascinating', 'Classic  splendid musical movie attractive scenes awesome interpretations', 'tradition dies  life goes', 'One AllTime Great Musicals', 'Too Long  Generally Overrated', ' One season following anotherLaden happiness tears  ', 'Who Fiddled With Oscar ', 'That Touch Shmutz', 'Good adaptation', 'Loud  lively long', 'A perfect adaptation enduring musical', 'Strong Material  Beautiful Score Wonderful Lead Performance Overcome Heavy Directorial Hand', 'Fiddler Roof', 'A relatable musical ages  races  religions', 'Tradition', 'A Great Musical', 'Rather Strong Musical ', 'Simple  great emotional', 'Religion kills', 'Jewison s masterpiece', 'Tradition  What tradition  Welcome Tevye s world ', 'Fiddler Roof']</t>
         </is>
       </c>
     </row>
@@ -26661,7 +26661,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>['A bona fide classic', "Butterfly Man Of Devil 's Island", 'great humor touching', 'Float like butterfly', 'Free mind ( )', 'Enjoyable film upon escapes impregnable prison strong performances', 'cinematic butterfly', 'An Excellent Prison Drama', 'A Fine Film Which Does The Book Justice', "Might Steve McQueen 's best role , Papillon .", "I 'm sure others said , 'Other ' Great Escape - unsentimental often harsh", 'Overlong , Over Produced , Only Slightly Above Average', 'Epic drama', 'Escaped', "Grim authentic telling Henri `` Papillon `` Charrière 's time Devil 's Island .", 'Unflinching look brutal penal colony ... gripping exhausting ...', 'French', "Gripping Film About Man 's Determination Be Free", 'The living hell penal colony equatorial South America 30s', 'My Masterpiece number 03', 'Long But Harrowing Drama .', 'Papillon', 'One man island', 'The Man `` Butterfly `` Tattoo ...', 'Indeed The Greatest Adventure Escape Great Performances McQueen Hoffman .']</t>
+          <t>['A bona fide classic', 'Butterfly Man Of Devil s Island', 'great humor touching', 'Float like butterfly', 'Free mind  ', 'Enjoyable film upon escapes impregnable prison strong performances', 'cinematic butterfly', 'An Excellent Prison Drama', 'A Fine Film Which Does The Book Justice', 'Might Steve McQueen s best role  Papillon ', 'I m sure others said  Other  Great Escape  unsentimental often harsh', 'Overlong  Over Produced  Only Slightly Above Average', 'Epic drama', 'Escaped', 'Grim authentic telling Henri  Papillon  Charrire s time Devil s Island ', 'Unflinching look brutal penal colony  gripping exhausting ', 'French', 'Gripping Film About Man s Determination Be Free', 'The living hell penal colony equatorial South America 30s', 'My Masterpiece number 03', 'Long But Harrowing Drama ', 'Papillon', 'One man island', 'The Man  Butterfly  Tattoo ', 'Indeed The Greatest Adventure Escape Great Performances McQueen Hoffman ']</t>
         </is>
       </c>
     </row>
@@ -26705,7 +26705,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>['Absolutely sublime !', 'Good-natured , well acted , impossible dislike', 'Audrey Sparkles Through', 'perfect pairing', 'Two Really Big Stars Show Why !', 'special', 'A Princess Has All Wishes Accomplished One Day Delightful Romance Rome', 'Funny enjoyable romantic comedy unforgettable Audrey Hepburn', 'OK , I admit ...', 'A Fun Romp , Kids Say', 'Unabashed innocence', "look 'charming ' dictionary ...", 'Audrey Hepburn great start American film Roman Holiday', 'Introducing Audrey Hepburn', 'Viva Audrey !', 'Not quite original everybody assumes ... glass slipper one ...', 'One time greatest romanitc films', 'Elizabeth Taylor would better', "Audrey Hepburn Is Movie 's Sole Reason Existing", 'Delightful movie .', 'And introducing Audrey Hepburn', 'Charming Getaway .', 'A Hollywood Classic !', "We 're going Roman holiday ...", 'Magical romantic comedy']</t>
+          <t>['Absolutely sublime ', 'Goodnatured  well acted  impossible dislike', 'Audrey Sparkles Through', 'perfect pairing', 'Two Really Big Stars Show Why ', 'special', 'A Princess Has All Wishes Accomplished One Day Delightful Romance Rome', 'Funny enjoyable romantic comedy unforgettable Audrey Hepburn', 'OK  I admit ', 'A Fun Romp  Kids Say', 'Unabashed innocence', 'look charming  dictionary ', 'Audrey Hepburn great start American film Roman Holiday', 'Introducing Audrey Hepburn', 'Viva Audrey ', 'Not quite original everybody assumes  glass slipper one ', 'One time greatest romanitc films', 'Elizabeth Taylor would better', 'Audrey Hepburn Is Movie s Sole Reason Existing', 'Delightful movie ', 'And introducing Audrey Hepburn', 'Charming Getaway ', 'A Hollywood Classic ', 'We re going Roman holiday ', 'Magical romantic comedy']</t>
         </is>
       </c>
     </row>
@@ -26749,7 +26749,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>['volatile performances', 'Family issues', 'Phenomenal', 'An emotional grinder', 'The Elephant In Room', 'Xavier Dolan In Full Control Of His Fledgling Craft', 'Phenomenal acting', 'Lacks substantial character growth , plot development , psychological insight', 'Xavier Dolan !', 'LOVED THE RARE 1:1 RATIO', 'A remarkable challenging family drama', 'Beavis Butthead real life .', 'Life hard', "... 's watch-once ... 's well enough", 'Messy shamelessly indulgent powerful performance forefront .', 'Anne Dorval leads great cast', 'Wow .', 'Mommy', 'Really Good square frame .', "Film making 's best", 'Highly Strung Mommy son', 'Brilliant film .', 'A work art', 'Fabulous Film That really moved', 'Very nearly perfection']</t>
+          <t>['volatile performances', 'Family issues', 'Phenomenal', 'An emotional grinder', 'The Elephant In Room', 'Xavier Dolan In Full Control Of His Fledgling Craft', 'Phenomenal acting', 'Lacks substantial character growth  plot development  psychological insight', 'Xavier Dolan ', 'LOVED THE RARE 11 RATIO', 'A remarkable challenging family drama', 'Beavis Butthead real life ', 'Life hard', ' s watchonce  s well enough', 'Messy shamelessly indulgent powerful performance forefront ', 'Anne Dorval leads great cast', 'Wow ', 'Mommy', 'Really Good square frame ', 'Film making s best', 'Highly Strung Mommy son', 'Brilliant film ', 'A work art', 'Fabulous Film That really moved', 'Very nearly perfection']</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>['must Pink Floyd fans', 'Terrific Album , Good Movie', 'Cup tea', 'The Catatonic Process Paranoia Madness', 'Paranoia Madness', 'The disturbing film Pink Floyd Album', '`` Is anybody ? ``', "great musical film even 's imperfect", "Parker 's Best", 'Grim - Depressing - Disparaging - Fatalistic Film 2LP Album', 'Superb surreal psychological drama', 'Labial Levels', 'The Human Condition', 'Fascinating SO depressing !', "n't need ...", 'I enjoyed every second !', "A brilliant assault senses n't", 'Less Is More', "Pink Floyd 's music works . As film , 's waste time .", 'Well ... something', 'Visual Album', 'My brief review film', 'Self indulgent nonsense', 'Tear Down The Wall', 'A fascinating movie , potential unfulfilled ...']</t>
+          <t>['must Pink Floyd fans', 'Terrific Album  Good Movie', 'Cup tea', 'The Catatonic Process Paranoia Madness', 'Paranoia Madness', 'The disturbing film Pink Floyd Album', ' Is anybody  ', 'great musical film even s imperfect', 'Parker s Best', 'Grim  Depressing  Disparaging  Fatalistic Film 2LP Album', 'Superb surreal psychological drama', 'Labial Levels', 'The Human Condition', 'Fascinating SO depressing ', 'nt need ', 'I enjoyed every second ', 'A brilliant assault senses nt', 'Less Is More', 'Pink Floyd s music works  As film  s waste time ', 'Well  something', 'Visual Album', 'My brief review film', 'Self indulgent nonsense', 'Tear Down The Wall', 'A fascinating movie  potential unfulfilled ']</t>
         </is>
       </c>
     </row>
@@ -26837,7 +26837,7 @@
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>["This ai n't daddy watched back 1960s 70s !", 'Blows Fearless water', 'Donnie Yen great dignity', 'Kung Fu Master', 'Famous', 'Wing Chun , Ip Man ...', 'Interesting well exciting Kung Fu movie violent combats , thrills , inevitable ending showdown', 'Must see martial arts action', "You ca n't keep good Ip Man .", 'Brings To Light A Little-Known Historical Figure', 'fantastic martial arts movie , good-to-OK drama', 'A great martial arts film !', 'Well Worth Watching', 'A modern day martial arts masterpiece', 'A Nutshell Review : Ip Man', 'WHAT A BEAST !', 'Good ...', 'highly entertaining great performance lead', 'Fight sequences entertaining watch beginning end', 'One Of The Greatest Martial Arts Film Of All Time', 'Solid film', 'The start Yip Man ...', 'Awesome', 'Great martial arts film', 'Ecxcellent action film']</t>
+          <t>['This ai nt daddy watched back 1960s 70s ', 'Blows Fearless water', 'Donnie Yen great dignity', 'Kung Fu Master', 'Famous', 'Wing Chun  Ip Man ', 'Interesting well exciting Kung Fu movie violent combats  thrills  inevitable ending showdown', 'Must see martial arts action', 'You ca nt keep good Ip Man ', 'Brings To Light A LittleKnown Historical Figure', 'fantastic martial arts movie  goodtoOK drama', 'A great martial arts film ', 'Well Worth Watching', 'A modern day martial arts masterpiece', 'A Nutshell Review  Ip Man', 'WHAT A BEAST ', 'Good ', 'highly entertaining great performance lead', 'Fight sequences entertaining watch beginning end', 'One Of The Greatest Martial Arts Film Of All Time', 'Solid film', 'The start Yip Man ', 'Awesome', 'Great martial arts film', 'Ecxcellent action film']</t>
         </is>
       </c>
     </row>
@@ -26881,7 +26881,7 @@
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>['Incredibly beautiful , funny touching', 'The Darndest casting decisions', 'rom-com classic', 'Classic Romance', 'admirable', 'Delightfully Naive Romance', 'Above average delicate romantic comedy great cast giving top-drawer acting magnificently directed Lubitsch', 'The Archetype Romantic Comedy ?', 'Oozes With Charm', 'Refreshingly nice romantic comedy .', 'Some missteps , otherwise pleasant', "The original `` You 've Got Mail ``", "It 's wonderful world .", 'wonderful work Lubitsch &amp; co', 'Grow Old Ernst Lubitsch', 'Commendable , But Over-Rated', 'All remakes pale comparison', 'Pen pals Budapest', 'Charming', 'Not quite good I expected ...', 'Fine Ernst Lubitsch movie', 'Wonderful characters , heartwarming performances', 'Timeless Classic', 'This underrated holiday gem absolute must see', 'A Nearly Perfect Little Romance']</t>
+          <t>['Incredibly beautiful  funny touching', 'The Darndest casting decisions', 'romcom classic', 'Classic Romance', 'admirable', 'Delightfully Naive Romance', 'Above average delicate romantic comedy great cast giving topdrawer acting magnificently directed Lubitsch', 'The Archetype Romantic Comedy ', 'Oozes With Charm', 'Refreshingly nice romantic comedy ', 'Some missteps  otherwise pleasant', 'The original  You ve Got Mail ', 'It s wonderful world ', 'wonderful work Lubitsch  co', 'Grow Old Ernst Lubitsch', 'Commendable  But OverRated', 'All remakes pale comparison', 'Pen pals Budapest', 'Charming', 'Not quite good I expected ', 'Fine Ernst Lubitsch movie', 'Wonderful characters  heartwarming performances', 'Timeless Classic', 'This underrated holiday gem absolute must see', 'A Nearly Perfect Little Romance']</t>
         </is>
       </c>
     </row>
@@ -26925,7 +26925,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>["How I give movie score -- n't much I compare !", 'Possibly Tarkovsky least accessible personal opinion Solaris fine film', 'Russian', 'Real Science Fiction', 'personal story', 'Original Approach First Contact Alien Lifeform', 'knowledge outside vs. knowledge oneself', 'The Russian Sci Fi Masterpiece ?', '`` You mean scientific truth . ``', 'Original intriguing plot , executed painfully slowly', 'Incredibly slow dull', "Tarkovsky 's response 2001", 'Excellent , contemplative sci-fi drama', 'Cerebral Sci-Fi', 'The year made contact .', 'Let take', 'Most overrated sci-fi cinematic history .', 'Solaris', 'A film pondering limits man', 'One best sci-fi films time .', 'As Thoughtful As It Is Thought-Provoking', 'A Dreary `` Russian-Style `` Space-Age Soap Opera', 'Philosophical', 'Cosmonaut mind', '`` When man happy , meaning life eternal themes rarely interest . ``']</t>
+          <t>['How I give movie score  nt much I compare ', 'Possibly Tarkovsky least accessible personal opinion Solaris fine film', 'Russian', 'Real Science Fiction', 'personal story', 'Original Approach First Contact Alien Lifeform', 'knowledge outside vs knowledge oneself', 'The Russian Sci Fi Masterpiece ', ' You mean scientific truth  ', 'Original intriguing plot  executed painfully slowly', 'Incredibly slow dull', 'Tarkovsky s response 2001', 'Excellent  contemplative scifi drama', 'Cerebral SciFi', 'The year made contact ', 'Let take', 'Most overrated scifi cinematic history ', 'Solaris', 'A film pondering limits man', 'One best scifi films time ', 'As Thoughtful As It Is ThoughtProvoking', 'A Dreary  RussianStyle  SpaceAge Soap Opera', 'Philosophical', 'Cosmonaut mind', ' When man happy  meaning life eternal themes rarely interest  ']</t>
         </is>
       </c>
     </row>
@@ -26969,7 +26969,7 @@
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>["I n't particularly enjoy , I certainly respect attempted well impact future films", 'A masterpiece', 'imaginative rambling', 'Such Vitriol', 'event', 'Memories film-maker', 'A difficult film worth seeing due influence merits , even merit', 'intellectual crisis artistry', "Fellini 's Masterpiece ?", '`` What working ? Another film without hope ? ``', 'one first foreign films I saw still top 10 time', "Sorry , I n't see movie everyone else .", 'Another Indulgent Fellini Offering', 'Wow', 'Cinema !', 'My definition masterpiece totally opposite ! ! !', 'Peak', 'Fantastic', 'Unique interesting', 'Cinema subjective art form', "Fellini 's visionary , autobiographical masterpiece", 'A fundamental piece new cinematic expression ...', "Federico Fellini 's revered masterpiece undoubtedly one creative portrait artistic surrealist cinema ever made across globe .", 'A Tedious , Overlong &amp; Self-Indulgent Exercise', 'What huge dissapointment']</t>
+          <t>['I nt particularly enjoy  I certainly respect attempted well impact future films', 'A masterpiece', 'imaginative rambling', 'Such Vitriol', 'event', 'Memories filmmaker', 'A difficult film worth seeing due influence merits  even merit', 'intellectual crisis artistry', 'Fellini s Masterpiece ', ' What working  Another film without hope  ', 'one first foreign films I saw still top 10 time', 'Sorry  I nt see movie everyone else ', 'Another Indulgent Fellini Offering', 'Wow', 'Cinema ', 'My definition masterpiece totally opposite   ', 'Peak', 'Fantastic', 'Unique interesting', 'Cinema subjective art form', 'Fellini s visionary  autobiographical masterpiece', 'A fundamental piece new cinematic expression ', 'Federico Fellini s revered masterpiece undoubtedly one creative portrait artistic surrealist cinema ever made across globe ', 'A Tedious  Overlong  SelfIndulgent Exercise', 'What huge dissapointment']</t>
         </is>
       </c>
     </row>
@@ -27013,7 +27013,7 @@
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>['La Dolce Vita wonder behold !', 'iconic', 'Watched It Several Times/Hope Someday Really Understand It', 'sweet life irony', 'The Modern Italian Film', 'A man searches meanings finds ... nothing', 'Consistently entertaining entrancing Fellini-lore', 'Anita Ekberg steals show', 'Women : Handkerchiefs , Shirts Bras', 'Beautiful Looking But Profoundly Hollow', 'Fellini ... Sweet', 'An ode life .', 'pure cinema', 'So good . We want DVD , please . Do films get better ? No . There equals , superiors .', 'Glamorous shallow , I suppose point', 'Fellini pure form', 'Seductive exhausting New Wave epic', 'The Sweetness Life', 'Just Marcello Mastroianni ...', 'Scattered incoherent', 'A brilliant strangely engrossing film', 'My brief review film', 'The Irony Search Sweet Life', 'Simply Perfection', "Not That It 's Not Overrated Or Anything , But ..."]</t>
+          <t>['La Dolce Vita wonder behold ', 'iconic', 'Watched It Several TimesHope Someday Really Understand It', 'sweet life irony', 'The Modern Italian Film', 'A man searches meanings finds  nothing', 'Consistently entertaining entrancing Fellinilore', 'Anita Ekberg steals show', 'Women  Handkerchiefs  Shirts Bras', 'Beautiful Looking But Profoundly Hollow', 'Fellini  Sweet', 'An ode life ', 'pure cinema', 'So good  We want DVD  please  Do films get better  No  There equals  superiors ', 'Glamorous shallow  I suppose point', 'Fellini pure form', 'Seductive exhausting New Wave epic', 'The Sweetness Life', 'Just Marcello Mastroianni ', 'Scattered incoherent', 'A brilliant strangely engrossing film', 'My brief review film', 'The Irony Search Sweet Life', 'Simply Perfection', 'Not That It s Not Overrated Or Anything  But ']</t>
         </is>
       </c>
     </row>
@@ -27057,7 +27057,7 @@
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>['Unlike courtroom films , one seems follow case start finish .', 'One classy , sophisticated entertaining courtroom drama', "Stewart 's film", 'Sensational Murder In The U.P .', 'classic courtroom drama', 'Stewart His Best', 'Murder ( ) wrote', "Classy courtroom drama trades 's cynical edge", 'Top-drawer courtroom drama classic performances thought-provoking screenplay', 'courtroom movies', 'A Good Courtroom Drama , But Far From Best', "The Good &amp; Bad Of 'Anatomy Of A Murder '", 'Masterful courtroom drama , impeccably cast ...', 'one fine courtroom drama : epic , cool , extremely well-plotted acted', 'Anatomy Oscar Loser * * *', 'A Great Anatomy', 'DARING IN ITS DAY ... TODAY A STRAIGHT WORDY `` STAGE `` PLAY', 'Brilliant - greatest courtroom drama film ever made', 'Drunk Lawyers', "The prosecution would like separate motive act . Well , 's like trying take core apple without breaking skin .", 'Time blunted shock appeal originally ...', 'Involving court precedings outstanding performances James Stewart cast', 'One favorites', "All right , cat 's bag ; 's fair game chase !", "The Verdict Does n't Matter This Courtroom Thriller"]</t>
+          <t>['Unlike courtroom films  one seems follow case start finish ', 'One classy  sophisticated entertaining courtroom drama', 'Stewart s film', 'Sensational Murder In The UP ', 'classic courtroom drama', 'Stewart His Best', 'Murder   wrote', 'Classy courtroom drama trades s cynical edge', 'Topdrawer courtroom drama classic performances thoughtprovoking screenplay', 'courtroom movies', 'A Good Courtroom Drama  But Far From Best', 'The Good  Bad Of Anatomy Of A Murder ', 'Masterful courtroom drama  impeccably cast ', 'one fine courtroom drama  epic  cool  extremely wellplotted acted', 'Anatomy Oscar Loser   ', 'A Great Anatomy', 'DARING IN ITS DAY  TODAY A STRAIGHT WORDY  STAGE  PLAY', 'Brilliant  greatest courtroom drama film ever made', 'Drunk Lawyers', 'The prosecution would like separate motive act  Well  s like trying take core apple without breaking skin ', 'Time blunted shock appeal originally ', 'Involving court precedings outstanding performances James Stewart cast', 'One favorites', 'All right  cat s bag  s fair game chase ', 'The Verdict Does nt Matter This Courtroom Thriller']</t>
         </is>
       </c>
     </row>
@@ -27101,7 +27101,7 @@
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>["One Richard Attenborough 's best films", 'Mohandas Karamchand Gandhi ......... 1869-1948', 'grand epic Attenborough human scale epic Kingsley', 'Deserves All Praise', 'Sir Gandhi', 'Deserves highly regarded', 'Splendid biopic lawyer became prestigious leader Indian revolts British philosophy non-violence', "Does anyone remember `` Gandhi II `` `` UHF `` ? Or Robin Williams ' comment Gandhi Jeans ?", 'Ben Kingsley , One All-Time Greats', 'The Good - And The Bad - Of Gandhi', '`` There tyrants , time seem invincible , end always fall ... ``', 'A great man gets great bio deserves', 'intellectually engaging experience , moving central performance center', 'Gandhi Great * * *', 'A powerful biopic wisdom , compassion selflessness', 'The Hunger Games', 'Good film great man', 'Important movie actual historical figure', 'Powerful', 'If minority one , truth truth .', 'Serviceable Rather Than Inspired', 'A wonderful movie remarkable man .', 'Beautiful film', 'All-Time Great Performance By Ben Kingsly .', 'Beautiful movie truly enlightened man']</t>
+          <t>['One Richard Attenborough s best films', 'Mohandas Karamchand Gandhi  18691948', 'grand epic Attenborough human scale epic Kingsley', 'Deserves All Praise', 'Sir Gandhi', 'Deserves highly regarded', 'Splendid biopic lawyer became prestigious leader Indian revolts British philosophy nonviolence', 'Does anyone remember  Gandhi II   UHF   Or Robin Williams  comment Gandhi Jeans ', 'Ben Kingsley  One AllTime Greats', 'The Good  And The Bad  Of Gandhi', ' There tyrants  time seem invincible  end always fall  ', 'A great man gets great bio deserves', 'intellectually engaging experience  moving central performance center', 'Gandhi Great   ', 'A powerful biopic wisdom  compassion selflessness', 'The Hunger Games', 'Good film great man', 'Important movie actual historical figure', 'Powerful', 'If minority one  truth truth ', 'Serviceable Rather Than Inspired', 'A wonderful movie remarkable man ', 'Beautiful film', 'AllTime Great Performance By Ben Kingsly ', 'Beautiful movie truly enlightened man']</t>
         </is>
       </c>
     </row>
@@ -27145,7 +27145,7 @@
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>['Not best Western ever , ... pretty darn close', 'A classic ? I think !', 'Still packs punch', '`` Oh , To Be Torn Twixt Love And Duty ``', 'true hero movie', 'One All Time Greats', 'The Prototype Hundred Westerns', 'A man apart', 'Real Time', 'A Tense Suspenseful Western', 'Tense Suspenseful Western', 'Famed Western magnificent Gary Cooper splendid Grace Kelly', 'I call western', 'Gary Cooper Makes Pretty Good Sheriff', 'Classic confrontation ...', '`` What I doooooo ? ``', 'Raising Kane', 'Stripped-Down Classic', '`` A person smart people dumb panicky animals know `` ...', 'Classic western', 'This dirty little village middle nowhere . Nothing happens really important .', 'Citizen Kane', 'What Happens High Noon ?', 'Tightly constructed western unforgettable Dimitri Tiomkin song ...', 'Ground breaking Western']</t>
+          <t>['Not best Western ever   pretty darn close', 'A classic  I think ', 'Still packs punch', ' Oh  To Be Torn Twixt Love And Duty ', 'true hero movie', 'One All Time Greats', 'The Prototype Hundred Westerns', 'A man apart', 'Real Time', 'A Tense Suspenseful Western', 'Tense Suspenseful Western', 'Famed Western magnificent Gary Cooper splendid Grace Kelly', 'I call western', 'Gary Cooper Makes Pretty Good Sheriff', 'Classic confrontation ', ' What I doooooo  ', 'Raising Kane', 'StrippedDown Classic', ' A person smart people dumb panicky animals know  ', 'Classic western', 'This dirty little village middle nowhere  Nothing happens really important ', 'Citizen Kane', 'What Happens High Noon ', 'Tightly constructed western unforgettable Dimitri Tiomkin song ', 'Ground breaking Western']</t>
         </is>
       </c>
     </row>
@@ -27189,7 +27189,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>["An excellent game cat mouse ... 's cat mouse ? !", 'A reminder decent plotting makes film', 'stylish crime drama', 'Really Strong Film', "At 's heart , gripping cop thriller", 'Crime thriller done right ...', 'Solid Hong Kong Thriller', "even I 'd seen Departed , 's still simply good movie", 'Great drama', 'The Cosmos , Two Cosmi', 'Gangs Hong Kong', 'A Fairly Entertaining Crime-Drama', 'Almost Good They Say', "I 'll dream , Officer Yan .", "Hong Kong 'No Way Out '", 'modern masterpiece', 'Undercover inception .', 'Intricate web undercover deceit .', "Very well made , 4/10 I n't enjoy much ...", 'A textbook thriller', 'bad , think The Departed better film', "If You 've Seen The Departed First , Then Infernal Affairs Might Leave You Cold .", 'Great movie', 'Good But 2 Sequels Are Hard To Justify', 'The Worst The 8 Hells Is Continuous Hell']</t>
+          <t>['An excellent game cat mouse  s cat mouse  ', 'A reminder decent plotting makes film', 'stylish crime drama', 'Really Strong Film', 'At s heart  gripping cop thriller', 'Crime thriller done right ', 'Solid Hong Kong Thriller', 'even I d seen Departed  s still simply good movie', 'Great drama', 'The Cosmos  Two Cosmi', 'Gangs Hong Kong', 'A Fairly Entertaining CrimeDrama', 'Almost Good They Say', 'I ll dream  Officer Yan ', 'Hong Kong No Way Out ', 'modern masterpiece', 'Undercover inception ', 'Intricate web undercover deceit ', 'Very well made  410 I nt enjoy much ', 'A textbook thriller', 'bad  think The Departed better film', 'If You ve Seen The Departed First  Then Infernal Affairs Might Leave You Cold ', 'Great movie', 'Good But 2 Sequels Are Hard To Justify', 'The Worst The 8 Hells Is Continuous Hell']</t>
         </is>
       </c>
     </row>
@@ -27233,7 +27233,7 @@
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>['incredible feast eyes', "Werner Herzog 's masterpiece", 'madness , madness , madness', 'The Madman Wins', 'Crazy Men', "Kinski 's visionary adventurer obsessively hatches grandiose scheme Amazon jungles", 'opera jungle', 'operatic documentary-style epic ever made- fearlessly unique', 'Werner &amp; Klaus move , move , move mountain !', 'Reasonably interesting story , great cinematography', 'Into Jungle Again Werner Herzog', 'Apocalypse Now Amazon headwaters', 'Memorable images', "Those 'll fight art , must conquer heart", 'An amazing feat filming amazing feat .', 'Another Mad Act', 'The High Hope , The Low Despair ...', 'Audacious imperfect , unique disappointing', 'Mesmerizing masterpiece', "Quite staggering tale scope , physically journeying , mentally lead 's dreams ; Herzog directs rather remarkable adventure film .", 'fitzcarraldo', 'Magical masterpiece film technique', 'A film maniacal drive , many respects', 'Werner Herzog : A director believes methods madness . Fitzcarraldo : A film always symbolize methods madness .', 'Of Opera And Headhunters']</t>
+          <t>['incredible feast eyes', 'Werner Herzog s masterpiece', 'madness  madness  madness', 'The Madman Wins', 'Crazy Men', 'Kinski s visionary adventurer obsessively hatches grandiose scheme Amazon jungles', 'opera jungle', 'operatic documentarystyle epic ever made fearlessly unique', 'Werner  Klaus move  move  move mountain ', 'Reasonably interesting story  great cinematography', 'Into Jungle Again Werner Herzog', 'Apocalypse Now Amazon headwaters', 'Memorable images', 'Those ll fight art  must conquer heart', 'An amazing feat filming amazing feat ', 'Another Mad Act', 'The High Hope  The Low Despair ', 'Audacious imperfect  unique disappointing', 'Mesmerizing masterpiece', 'Quite staggering tale scope  physically journeying  mentally lead s dreams  Herzog directs rather remarkable adventure film ', 'fitzcarraldo', 'Magical masterpiece film technique', 'A film maniacal drive  many respects', 'Werner Herzog  A director believes methods madness  Fitzcarraldo  A film always symbolize methods madness ', 'Of Opera And Headhunters']</t>
         </is>
       </c>
     </row>
@@ -27277,7 +27277,7 @@
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>['Brilliant movie', '`` George Martha , ....... sad ........ sad ........ sad ``', 'Nichols brings four amazing performances', 'Brilliantly Made But What Ugly Characters', 'A Night Remember', 'Vitriolic stage portrayal domestic blisslessness translated effectively big screen', 'human conduits', "Nominated For Every Oscar Award , But Does n't Get My Blessing", 'Boozy rage , hard-fought battles , empty triumph', "This George Martha Are n't First People * * *", "Mike Nichols Hosting Cocktail Party Elizabeth Taylor &amp; Richard Burton You 're Invited !", 'Gutter Snipes', "Made Taylor Burton 's performances chemistry", 'Incredble Acting', 'This smart movie well done . It drag spots enough prevent must see .', 'A Harrowing , Disturbing Film Dazzling Performance Liz Taylor', 'A masterclass acting .', 'notch better Taylor favourite , Cat Hot Tin Roof', "Watch Who 's Afraid Virginia Woolf ? Once Great , Twice Dreadful , More masochism ! !", "Burton 's Scene Stealing Performance !", "' I swear , existed , I 'd divorce . '", 'In Their Way , They Still Love One Another', 'forcible masterpiece pitilessly scrutinises surreptitious human stains', 'perfect experience', 'Amazing play brilliantly filmed acted']</t>
+          <t>['Brilliant movie', ' George Martha   sad  sad  sad ', 'Nichols brings four amazing performances', 'Brilliantly Made But What Ugly Characters', 'A Night Remember', 'Vitriolic stage portrayal domestic blisslessness translated effectively big screen', 'human conduits', 'Nominated For Every Oscar Award  But Does nt Get My Blessing', 'Boozy rage  hardfought battles  empty triumph', 'This George Martha Are nt First People   ', 'Mike Nichols Hosting Cocktail Party Elizabeth Taylor  Richard Burton You re Invited ', 'Gutter Snipes', 'Made Taylor Burton s performances chemistry', 'Incredble Acting', 'This smart movie well done  It drag spots enough prevent must see ', 'A Harrowing  Disturbing Film Dazzling Performance Liz Taylor', 'A masterclass acting ', 'notch better Taylor favourite  Cat Hot Tin Roof', 'Watch Who s Afraid Virginia Woolf  Once Great  Twice Dreadful  More masochism  ', 'Burton s Scene Stealing Performance ', ' I swear  existed  I d divorce  ', 'In Their Way  They Still Love One Another', 'forcible masterpiece pitilessly scrutinises surreptitious human stains', 'perfect experience', 'Amazing play brilliantly filmed acted']</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>["It 's good , , ....", 'One great American masterworks', 'A Great Detective , A Lousy Cop , And Some Kind Of Man', "great opening , great noir , hate Heston 's mustache", 'A Dark Work Genius', 'Welles HIs Cinematic Best', 'Just touch', 'A Masterpiece Malevolence Loss Humanity', 'Atmospheric thriller Welles top form', 'Dark Noir film masterfully played directed Welles dealing killing corruption Mexican/US border', 'occurrences border town', 'Welles Almost His Finest', "Want To Like This ..... But I Ca n't", "The talent , Welles ' loosely-handled direction causes narrative flag ...", 'classic , deluxe film-noir Orson Welles', 'Provocative . Innovative . Warped sense power .', 'Overpraised Exotica', 'Offensive ... Off Putting Off Beat Off Center ... Off World', 'Classic crime-thriller', 'Los Robles-Bizarro Baroque Border Town .', 'Dark , Darker , Darkest ...', 'Well , taught one line Spanish', 'Your future used .', 'Exquisite , masterful , absolutely essential', 'Ready , Set , Go !']</t>
+          <t>['It s good   ', 'One great American masterworks', 'A Great Detective  A Lousy Cop  And Some Kind Of Man', 'great opening  great noir  hate Heston s mustache', 'A Dark Work Genius', 'Welles HIs Cinematic Best', 'Just touch', 'A Masterpiece Malevolence Loss Humanity', 'Atmospheric thriller Welles top form', 'Dark Noir film masterfully played directed Welles dealing killing corruption MexicanUS border', 'occurrences border town', 'Welles Almost His Finest', 'Want To Like This  But I Ca nt', 'The talent  Welles  looselyhandled direction causes narrative flag ', 'classic  deluxe filmnoir Orson Welles', 'Provocative  Innovative  Warped sense power ', 'Overpraised Exotica', 'Offensive  Off Putting Off Beat Off Center  Off World', 'Classic crimethriller', 'Los RoblesBizarro Baroque Border Town ', 'Dark  Darker  Darkest ', 'Well  taught one line Spanish', 'Your future used ', 'Exquisite  masterful  absolutely essential', 'Ready  Set  Go ']</t>
         </is>
       </c>
     </row>
@@ -27365,7 +27365,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>['A milestone silent film Expressionism', 'A huge influence horror genre', 'Weirdly unique', 'The Cabinet Dr. Caligari', 'Visually Stunning', 'Mayhem madness .', 'doctor', "Wiene 's cabinet displays iconic visuals poor pacing .", 'One Greatest Silent Films', 'important movement expressionism , importantly , realm fantasy horror', 'The First , Ultimate', 'Opening Cabinet Dr. Caligari', 'The Eyes Have It', 'Extreme-Exaggerated-Expressionism', 'A classic drama silent era', 'The Cabinet Dr. Caligari', 'The first horror film ever one best', 'Ground breaking deserves discussion', 'This movie absolutely awesome , especially consider made', 'You fools , man plotting doom ! We die dawn ! He Caligari !', 'I Can Thank This Film Inspiring My Favorite Film Genre', 'Artistic piece art .', 'No Narnia coffin shaped Cabinet ...', 'still creepy excellent performances , instant classic', 'A massive achievement silent cinema']</t>
+          <t>['A milestone silent film Expressionism', 'A huge influence horror genre', 'Weirdly unique', 'The Cabinet Dr Caligari', 'Visually Stunning', 'Mayhem madness ', 'doctor', 'Wiene s cabinet displays iconic visuals poor pacing ', 'One Greatest Silent Films', 'important movement expressionism  importantly  realm fantasy horror', 'The First  Ultimate', 'Opening Cabinet Dr Caligari', 'The Eyes Have It', 'ExtremeExaggeratedExpressionism', 'A classic drama silent era', 'The Cabinet Dr Caligari', 'The first horror film ever one best', 'Ground breaking deserves discussion', 'This movie absolutely awesome  especially consider made', 'You fools  man plotting doom  We die dawn  He Caligari ', 'I Can Thank This Film Inspiring My Favorite Film Genre', 'Artistic piece art ', 'No Narnia coffin shaped Cabinet ', 'still creepy excellent performances  instant classic', 'A massive achievement silent cinema']</t>
         </is>
       </c>
     </row>
@@ -27409,7 +27409,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>['Very good , ... tad overrated', 'Defines term quintessential film noir', 'One ruthless femme fatales ever', 'The Scope Her Evil', 'flashback structure takes sting nasty noir', "Does n't Get Much Better Than This", 'He Could Us New Coat', 'Find lady run away', "Do n't make like used", 'Caught Past', 'A solid noir made great tough performances', 'Classic definitive Film Noir , considered one beautiful ever made', 'Top Notch Film Noir', 'There Was A Better Mitchum-Greer Noir', 'Excellent example film noir best', "perhaps major studio triumph Touner 's career ; cast fantastic", 'Who needs Humphrey ?', 'Through Past Darkly', 'Mitchum , , King Cool .', 'Some Side Notes', 'The quintessential noir', 'Quintessential Film-Noir ... Dynamic Pithy Script ... Wrapped Web Despair', 'Classic film noir', 'Scheming dame', 'A classic -- maybe best film noir ever']</t>
+          <t>['Very good   tad overrated', 'Defines term quintessential film noir', 'One ruthless femme fatales ever', 'The Scope Her Evil', 'flashback structure takes sting nasty noir', 'Does nt Get Much Better Than This', 'He Could Us New Coat', 'Find lady run away', 'Do nt make like used', 'Caught Past', 'A solid noir made great tough performances', 'Classic definitive Film Noir  considered one beautiful ever made', 'Top Notch Film Noir', 'There Was A Better MitchumGreer Noir', 'Excellent example film noir best', 'perhaps major studio triumph Touner s career  cast fantastic', 'Who needs Humphrey ', 'Through Past Darkly', 'Mitchum   King Cool ', 'Some Side Notes', 'The quintessential noir', 'Quintessential FilmNoir  Dynamic Pithy Script  Wrapped Web Despair', 'Classic film noir', 'Scheming dame', 'A classic  maybe best film noir ever']</t>
         </is>
       </c>
     </row>
@@ -27453,7 +27453,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>['The personal Tarkovsky film ?', 'memories , refuges', 'mirror image stream consciousness', 'Tarkovsky', "taking walk portals Tarkovsky 's mind : poetic dreamlike , flow thought opposed narrative", 'Reflections Reflections Reflections', 'Keep mind VHS I watched awful quality', 'Cinema Omnivore - Mirror ( 1975 ) 8.7/10', "Another walk Andrei Tarkovsky 's maverick world shows unseen dimensions patterns unconventional storytelling .", 'One may require several viewings fully appreciate .', "You know 're trouble narrator refuses talk , spits bad poetry left right Tarkovsky 's pretentious sloth .", 'Andrei Tarkovsky In Full Pretentious Mode', 'Visually great course', 'The world left found', 'Mirror', 'A famous director strange film', 'Painful , shocking disregard audience , heaving abyss banality The Mirror barely makes traps .', 'Great boredom !', 'Memory Russian Experience', 'This movie show .', 'A personal film', 'The Mirror-An exceptionally brilliant film childhood , memories war directed Andrei Tarkovski .', 'Poetry usually crap .', 'Art', 'Zerkalo']</t>
+          <t>['The personal Tarkovsky film ', 'memories  refuges', 'mirror image stream consciousness', 'Tarkovsky', 'taking walk portals Tarkovsky s mind  poetic dreamlike  flow thought opposed narrative', 'Reflections Reflections Reflections', 'Keep mind VHS I watched awful quality', 'Cinema Omnivore  Mirror  1975  8710', 'Another walk Andrei Tarkovsky s maverick world shows unseen dimensions patterns unconventional storytelling ', 'One may require several viewings fully appreciate ', 'You know re trouble narrator refuses talk  spits bad poetry left right Tarkovsky s pretentious sloth ', 'Andrei Tarkovsky In Full Pretentious Mode', 'Visually great course', 'The world left found', 'Mirror', 'A famous director strange film', 'Painful  shocking disregard audience  heaving abyss banality The Mirror barely makes traps ', 'Great boredom ', 'Memory Russian Experience', 'This movie show ', 'A personal film', 'The MirrorAn exceptionally brilliant film childhood  memories war directed Andrei Tarkovski ', 'Poetry usually crap ', 'Art', 'Zerkalo']</t>
         </is>
       </c>
     </row>
@@ -27497,7 +27497,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>['subtle sophisticated 2x4 upside head !', 'A must see', 'Two great performances', 'Davis Crawford Make Must See', 'Mature Stars Strut Their Stuff', 'Acerbic view fame', 'Sibling Jealousy , Rivalry , Malevolence Insanity', 'Astounding movie two riveting actresses : Davis Crawford', 'Are ready ?', "Bette Davis ' full-on bonkers mode .", 'Odd Classic', 'perfect example Bob Aldrich strategy topics', 'Film insanity swings uncertainly humor horror ...', 'What shall elderly ladies late careers ?', 'Whatever Did Happen Baby Jane Hudson ? * * *', 'Two Stars Who Never Set', 'A great come back two', 'The Living Dead', 'Powerful story envy , bitterness , malice , insanity torment', 'Baby Jane Insane', 'Extremely unpleasant fascinating', 'Darker side sibling rivalry ... excellent support Buono ...', 'The Movie That Every Child Star Must See ...', 'Campy cult classic', 'Bette vs Joan']</t>
+          <t>['subtle sophisticated 2x4 upside head ', 'A must see', 'Two great performances', 'Davis Crawford Make Must See', 'Mature Stars Strut Their Stuff', 'Acerbic view fame', 'Sibling Jealousy  Rivalry  Malevolence Insanity', 'Astounding movie two riveting actresses  Davis Crawford', 'Are ready ', 'Bette Davis  fullon bonkers mode ', 'Odd Classic', 'perfect example Bob Aldrich strategy topics', 'Film insanity swings uncertainly humor horror ', 'What shall elderly ladies late careers ', 'Whatever Did Happen Baby Jane Hudson    ', 'Two Stars Who Never Set', 'A great come back two', 'The Living Dead', 'Powerful story envy  bitterness  malice  insanity torment', 'Baby Jane Insane', 'Extremely unpleasant fascinating', 'Darker side sibling rivalry  excellent support Buono ', 'The Movie That Every Child Star Must See ', 'Campy cult classic', 'Bette vs Joan']</t>
         </is>
       </c>
     </row>
@@ -27541,7 +27541,7 @@
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>['A wonderful war film dares different', 'Classic Second World War comedy-drama Billy Wilder', 'Likable prisoner war movie', 'Dark POW story really broad comedy', 'Bad Enough Being Prisoner', 'Inside man', 'Enjoyable uneven mix comedy drama', "Wilder 's top-drawer movie Holden provides Academy Award-winning acting along stunning remaining cast", 'Billy Wilder Just Keeps Pumping Out Hits', 'A big hit critics Academy , marginal ...', "perennial 'feel-good ' American POW movie", 'An absolute classic', 'Very good', 'Survives translation stage screen flying colors ...', 'Not realistic POW treatment', 'W holden prime', 'Holden Won His Oscar Wrong Movie', 'Another WW II POW classic .', 'POW Comedy/Drama .', 'Ugh . Not good film', 'Not great escape', 'An unusual mix silly humor serious situations', 'Master Billy Wilder delivers Cracking Classic escape POW ...', 'Pretty Good POW Camp Mystery', "Another One Of Billy Wilder 's Unpolished Gem ."]</t>
+          <t>['A wonderful war film dares different', 'Classic Second World War comedydrama Billy Wilder', 'Likable prisoner war movie', 'Dark POW story really broad comedy', 'Bad Enough Being Prisoner', 'Inside man', 'Enjoyable uneven mix comedy drama', 'Wilder s topdrawer movie Holden provides Academy Awardwinning acting along stunning remaining cast', 'Billy Wilder Just Keeps Pumping Out Hits', 'A big hit critics Academy  marginal ', 'perennial feelgood  American POW movie', 'An absolute classic', 'Very good', 'Survives translation stage screen flying colors ', 'Not realistic POW treatment', 'W holden prime', 'Holden Won His Oscar Wrong Movie', 'Another WW II POW classic ', 'POW ComedyDrama ', 'Ugh  Not good film', 'Not great escape', 'An unusual mix silly humor serious situations', 'Master Billy Wilder delivers Cracking Classic escape POW ', 'Pretty Good POW Camp Mystery', 'Another One Of Billy Wilder s Unpolished Gem ']</t>
         </is>
       </c>
     </row>
@@ -27585,7 +27585,7 @@
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>['beautiful wonderous', 'Delightful', 'Nice Change Animation Style', 'Howling moon .', 'If loved Song Sea , like ,', 'Cinema Omnivore - Wolfwalkers ( 2020 ) 7.3/10', 'Cute fun ...', 'stars pretty good , gets really good', 'I wish something Apple TV+', 'Robyn Wonderland', 'A Magical &amp; Mesmerising Fantasy-Adventure For Viewers Of All Ages', 'Fang-Tastic', 'Endearing Lupinus Loveliness ...', 'Behold , Meaningful Animation', "Cartoon Saloon 's best film", "A WOLFIN ' WE WILL GO ... !", 'Wolf wolf howls wolf .', 'Irish Magic', 'A Masterpiece', 'WolfWalkers', 'Sweet Fantasy', 'Finishes trilogy strong fashion', 'An amazing -Cartoon Sallon- work ... ( )', 'WHAT A VISUALS .', 'WereWalkers']</t>
+          <t>['beautiful wonderous', 'Delightful', 'Nice Change Animation Style', 'Howling moon ', 'If loved Song Sea  like ', 'Cinema Omnivore  Wolfwalkers  2020  7310', 'Cute fun ', 'stars pretty good  gets really good', 'I wish something Apple TV', 'Robyn Wonderland', 'A Magical  Mesmerising FantasyAdventure For Viewers Of All Ages', 'FangTastic', 'Endearing Lupinus Loveliness ', 'Behold  Meaningful Animation', 'Cartoon Saloon s best film', 'A WOLFIN  WE WILL GO  ', 'Wolf wolf howls wolf ', 'Irish Magic', 'A Masterpiece', 'WolfWalkers', 'Sweet Fantasy', 'Finishes trilogy strong fashion', 'An amazing Cartoon Sallon work   ', 'WHAT A VISUALS ', 'WereWalkers']</t>
         </is>
       </c>
     </row>
@@ -27629,7 +27629,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>['Wonderful', 'Animation works great childhood', 'The Contemporary History Iran', 'An engagingly personal tale interesting background history delivered deceptively basic clever animation', 'A self-biographic film misfortunes Iranian girl growing Islamic Revolution .', "girl 's life revolutionary Iran", 'Iran 101', 'Great Black-White Visuals ; Not-So-Great Main Character', 'smashingly funny disarmingly astute ( tragic ) tale growing , girl otherwise', 'PERSEPOLIS ( Vincent Paronnaud Marjane Satrapi , 2007 ) * * *', "There 's nothing worse bitterness revenge .", 'Wonderful Film Is Much More Than Just `` Cartoon ``', 'Future Prophet shaved legs', 'Persepolis', 'Deeply personal , beautifully rendered', 'A Nutshell Review : Persepolis', 'Iranian tale', 'An Iranian Taste Freedom ...', 'Wonderfully drawn personal', 'superb', 'An Original , Sincere &amp; Evocative Autobiographical Account', 'graphic novel come life', 'Pretty excellent', 'This something completely different', 'Impactful personal story']</t>
+          <t>['Wonderful', 'Animation works great childhood', 'The Contemporary History Iran', 'An engagingly personal tale interesting background history delivered deceptively basic clever animation', 'A selfbiographic film misfortunes Iranian girl growing Islamic Revolution ', 'girl s life revolutionary Iran', 'Iran 101', 'Great BlackWhite Visuals  NotSoGreat Main Character', 'smashingly funny disarmingly astute  tragic  tale growing  girl otherwise', 'PERSEPOLIS  Vincent Paronnaud Marjane Satrapi  2007    ', 'There s nothing worse bitterness revenge ', 'Wonderful Film Is Much More Than Just  Cartoon ', 'Future Prophet shaved legs', 'Persepolis', 'Deeply personal  beautifully rendered', 'A Nutshell Review  Persepolis', 'Iranian tale', 'An Iranian Taste Freedom ', 'Wonderfully drawn personal', 'superb', 'An Original  Sincere  Evocative Autobiographical Account', 'graphic novel come life', 'Pretty excellent', 'This something completely different', 'Impactful personal story']</t>
         </is>
       </c>
     </row>
@@ -27673,7 +27673,7 @@
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>['phenomenal movie ... well emotional painful one .', 'humanity performances', "Mike Leigh 's masterpiece .", '`` secrets `` beyond door', 'A Morality Tale ?', "woman 's secret causes family problems rise surface", 'A lovely , harrowing experience .', 'Should emotional , instead boring irritating', 'Dreary Brit Flick', "You got ta laugh , ai n't ya sweetheart ? Else 'd cry .", 'everyone story', "One Mike Leigh 's Best", "Leigh 's famous party scenes come", 'Secrets &amp; Lies', 'Perfect , hypnotic , uncomfortable , depressive ...', "A harrowing emotional journey , witnessing eternal struggle 'secrets &amp; lies ' 'love &amp; understanding ' ...", 'A good work , currently forgotten .', 'Mystery , Deception Deceit ...', 'Compelling', 'British Soap Opera That Delivers', "`` If 're thinking baby , n't matter 're black white . ``", 'Emotional Engaging', 'Very intimate realistic look handful people trying get , plagued events bound raise emotion .', 'A special movie !', 'secrets lies']</t>
+          <t>['phenomenal movie  well emotional painful one ', 'humanity performances', 'Mike Leigh s masterpiece ', ' secrets  beyond door', 'A Morality Tale ', 'woman s secret causes family problems rise surface', 'A lovely  harrowing experience ', 'Should emotional  instead boring irritating', 'Dreary Brit Flick', 'You got ta laugh  ai nt ya sweetheart  Else d cry ', 'everyone story', 'One Mike Leigh s Best', 'Leigh s famous party scenes come', 'Secrets  Lies', 'Perfect  hypnotic  uncomfortable  depressive ', 'A harrowing emotional journey  witnessing eternal struggle secrets  lies  love  understanding  ', 'A good work  currently forgotten ', 'Mystery  Deception Deceit ', 'Compelling', 'British Soap Opera That Delivers', ' If re thinking baby  nt matter re black white  ', 'Emotional Engaging', 'Very intimate realistic look handful people trying get  plagued events bound raise emotion ', 'A special movie ', 'secrets lies']</t>
         </is>
       </c>
     </row>
@@ -27717,7 +27717,7 @@
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>['It looks lovely', "Truly stunning quite possibly Studio Ghibli 's best since Spirited Away", 'simple fable turns', 'Deeply moving story', 'Anime best !', 'Another soulful quite beautiful film Studio Ghibli', 'Engaging story amazing animation', 'Beautiful long', 'Bizarrely interesting bit overrated .', 'Aesthetically Pleasing , Artistically Fulfilling &amp; Emotionally Captivating !', 'Delightful sort frustrating', 'The Tale Bamboo Cutter', 'Too long', "A lot like , little overlong n't hit emotionally ( )", 'Let Her Be', 'The Tale Princess Kaguya absolute stunning piece art .', "Isao Takahata 's best work", 'Long boring .', 'Color palet strong eyecatching', 'Solid parents', 'Beautiful original', 'Great beauty simplistic animation matches story mood', 'Takahata brings new style animation', 'Beautiful .', "The least Takahata 's films , still glorious film"]</t>
+          <t>['It looks lovely', 'Truly stunning quite possibly Studio Ghibli s best since Spirited Away', 'simple fable turns', 'Deeply moving story', 'Anime best ', 'Another soulful quite beautiful film Studio Ghibli', 'Engaging story amazing animation', 'Beautiful long', 'Bizarrely interesting bit overrated ', 'Aesthetically Pleasing  Artistically Fulfilling  Emotionally Captivating ', 'Delightful sort frustrating', 'The Tale Bamboo Cutter', 'Too long', 'A lot like  little overlong nt hit emotionally  ', 'Let Her Be', 'The Tale Princess Kaguya absolute stunning piece art ', 'Isao Takahata s best work', 'Long boring ', 'Color palet strong eyecatching', 'Solid parents', 'Beautiful original', 'Great beauty simplistic animation matches story mood', 'Takahata brings new style animation', 'Beautiful ', 'The least Takahata s films  still glorious film']</t>
         </is>
       </c>
     </row>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>['character without compelling story', 'magic', 'A Good Story Worths More Old Trumpet', 'Whimsical unlikely yet touching wonderful', 'Colorful moving film dealing solitary man becomes gifted pianist luxury ship', 'Astounding Visuals , Unique Story', 'Interesting concept , well used', 'The inside world running', 'Simply spectacular !', 'A wonderfully wistful mixture melodrama music .', 'Old-fashioned Since Premiere', 'Improves every minute .', 'A Vivid Portrait Of A Man Who Could Do Anything ... Except Be Ordinary', 'A descent movie heart', 'One Top 100 FIlms All Time - 1900', 'The Vidiot Reviews ....', 'A beautifully shot , wonderfully scored movie , great lead performance Tim Roth', 'A lovely film heart', "Good movie , n't give audience enough credit", 'What pity', 'This film I wish everyone would see -', 'A charming fable captured celluloid', "What 's This ! The Legend Sinking Ship ... ?", 'They scraped barnacles instead cutting 37 minutes', 'A Great Story']</t>
+          <t>['character without compelling story', 'magic', 'A Good Story Worths More Old Trumpet', 'Whimsical unlikely yet touching wonderful', 'Colorful moving film dealing solitary man becomes gifted pianist luxury ship', 'Astounding Visuals  Unique Story', 'Interesting concept  well used', 'The inside world running', 'Simply spectacular ', 'A wonderfully wistful mixture melodrama music ', 'Oldfashioned Since Premiere', 'Improves every minute ', 'A Vivid Portrait Of A Man Who Could Do Anything  Except Be Ordinary', 'A descent movie heart', 'One Top 100 FIlms All Time  1900', 'The Vidiot Reviews ', 'A beautifully shot  wonderfully scored movie  great lead performance Tim Roth', 'A lovely film heart', 'Good movie  nt give audience enough credit', 'What pity', 'This film I wish everyone would see ', 'A charming fable captured celluloid', 'What s This  The Legend Sinking Ship  ', 'They scraped barnacles instead cutting 37 minutes', 'A Great Story']</t>
         </is>
       </c>
     </row>
@@ -27805,7 +27805,7 @@
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>["It 's acting ...", 'An iconic classic contender best sports drama ever', 'Equal Measure Of Ambition And Vulnerability', 'Impressive Newman', "Some Best Acting You 'll Ever See", 'A Truly Great Movie', 'A good film disinteresting lack-lustre middle section stops great one', 'A grim , stunning overlong drama , compelling photographed , magnetically performed dynamically directed', 'A Fine Film , Made Finer By Paul Newman', 'Too Much Of A Downer', 'Evocative drama', 'Powerhouse performances man learns true meanings winning losing', "`` Anything great ... knows 's ``", 'Hustle Down Road * * *', '`` These tables slabs lay stiffs . ``', 'Spotty', 'A film crossroads', 'The Gang That Could Shoot Straight', 'Good In Cinematic Terms But Too Litery To Be Truly Successful And Unfortunately Life Imitates Art', 'Fast Eddie Slow Movie', 'Classic Paul Newman', 'Newman another great film', 'Well Made , But VERY Depressing', "Life like pool .. one moment 're streak , 're loosing everything .", 'Fast Eddie Rules The Pool , baby ! Vintage Newman']</t>
+          <t>['It s acting ', 'An iconic classic contender best sports drama ever', 'Equal Measure Of Ambition And Vulnerability', 'Impressive Newman', 'Some Best Acting You ll Ever See', 'A Truly Great Movie', 'A good film disinteresting lacklustre middle section stops great one', 'A grim  stunning overlong drama  compelling photographed  magnetically performed dynamically directed', 'A Fine Film  Made Finer By Paul Newman', 'Too Much Of A Downer', 'Evocative drama', 'Powerhouse performances man learns true meanings winning losing', ' Anything great  knows s ', 'Hustle Down Road   ', ' These tables slabs lay stiffs  ', 'Spotty', 'A film crossroads', 'The Gang That Could Shoot Straight', 'Good In Cinematic Terms But Too Litery To Be Truly Successful And Unfortunately Life Imitates Art', 'Fast Eddie Slow Movie', 'Classic Paul Newman', 'Newman another great film', 'Well Made  But VERY Depressing', 'Life like pool  one moment re streak  re loosing everything ', 'Fast Eddie Rules The Pool  baby  Vintage Newman']</t>
         </is>
       </c>
     </row>
@@ -27849,7 +27849,7 @@
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>['Tough watch exceptional ... true .', 'first person POV hypnotic', 'Claustrophobic', 'Good decisions', 'Amazing Biography', 'You might risk falling asleep along way ...', 'Pretty Good', 'Lived Up To The Hype', '`` Imagination memories `` ... tools daily survival', 'Shcnabel gets us inside head `` locked-in syndrome `` , often absorbing , experimental picture', 'A celebration patience love', 'Great movie - depressing harrowing yet uplifting', "Cinema 's finest .", 'Smartly made acted , terrific film', 'A Phenomenal Movie About Phenomenal Story', 'The Blink Eye', 'Far involving interesting perhaps would think .', 'Looking Out form Locked-In Mind', 'Not much gimmick', 'A Nutshell Review : The Diving Bell Butterfly', 'The `` Inside Man `` ...', 'An extraordinary life relayed impeccable judgement', 'Depressing yet pulls heartstrings', 'Touching , Transcending &amp; Life-Affirming . One Of The Best Films Of Its Year .', 'art pure film-making']</t>
+          <t>['Tough watch exceptional  true ', 'first person POV hypnotic', 'Claustrophobic', 'Good decisions', 'Amazing Biography', 'You might risk falling asleep along way ', 'Pretty Good', 'Lived Up To The Hype', ' Imagination memories   tools daily survival', 'Shcnabel gets us inside head  lockedin syndrome   often absorbing  experimental picture', 'A celebration patience love', 'Great movie  depressing harrowing yet uplifting', 'Cinema s finest ', 'Smartly made acted  terrific film', 'A Phenomenal Movie About Phenomenal Story', 'The Blink Eye', 'Far involving interesting perhaps would think ', 'Looking Out form LockedIn Mind', 'Not much gimmick', 'A Nutshell Review  The Diving Bell Butterfly', 'The  Inside Man  ', 'An extraordinary life relayed impeccable judgement', 'Depressing yet pulls heartstrings', 'Touching  Transcending  LifeAffirming  One Of The Best Films Of Its Year ', 'art pure filmmaking']</t>
         </is>
       </c>
     </row>
@@ -27893,7 +27893,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>["Yet one reason I wo n't ever visit Brazil ....", "It 's City God , comes close ...", 'dark violent brutal world', 'How happen ?', 'Realistic violent picture Special Police Battalion attempting take drug dealers killers Rio De Janeiro', 'Great crime-drama', 'Gritty Brazilian Thriller', 'Ripe Hollywood remake .', 'A Nutshell Review : Elite Squad', 'Style content . Glorification police violence . Still reasonably good , grim portrait poverty driven drug wars .', 'bad neighborhoods', 'Not quite I expected , still taut compelling action drama', 'Too Fragmented , Messed-Up &amp; Confusing !', 'One best films Brazil exported internationally .', 'An eye ignorance', 'Unelite Unwatchable', 'Apparently realistic , slightly arid raw', 'Elite Squad remarkable film . The film opens brutality practiced sides , police bandits , becoming even frightening', 'GRANDIOSO', 'Gritty realistic - oh one-sided times . . .', 'Tropa de Elite', 'The stench corruption', 'Very good', 'A corrupção começa em baixo', 'All intensity']</t>
+          <t>['Yet one reason I wo nt ever visit Brazil ', 'It s City God  comes close ', 'dark violent brutal world', 'How happen ', 'Realistic violent picture Special Police Battalion attempting take drug dealers killers Rio De Janeiro', 'Great crimedrama', 'Gritty Brazilian Thriller', 'Ripe Hollywood remake ', 'A Nutshell Review  Elite Squad', 'Style content  Glorification police violence  Still reasonably good  grim portrait poverty driven drug wars ', 'bad neighborhoods', 'Not quite I expected  still taut compelling action drama', 'Too Fragmented  MessedUp  Confusing ', 'One best films Brazil exported internationally ', 'An eye ignorance', 'Unelite Unwatchable', 'Apparently realistic  slightly arid raw', 'Elite Squad remarkable film  The film opens brutality practiced sides  police bandits  becoming even frightening', 'GRANDIOSO', 'Gritty realistic  oh onesided times   ', 'Tropa de Elite', 'The stench corruption', 'Very good', 'A corrupo comea em baixo', 'All intensity']</t>
         </is>
       </c>
     </row>
@@ -27937,7 +27937,7 @@
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>['Fight Survival', 'Great performances carry story ...', 'well done ( sad ) story', 'Survival : Abandoned Children Bonding Streets Tokyo', 'Heartbreaking', '`` Threads `` kids', 'heartbreaking Japanese drama', 'Abandoned Children In A World Run By Adults', 'Adolescents adrift sea indifference ...', 'A film deep compassion', 'A compelling portrait world abandoned children', 'The slow pace rest film makes ending really heartbreaking', 'A Slow , Beautiful Indictment Modern Society', 'One better life poor movies .', 'Need films like ...', 'Real', 'Gritty , confronting heartbreaking', 'Survival instinct ...', "You know 's movie see", 'Sad , Harsh beautifully performed', 'Way overrated movie interesting premise', 'Frame reference', 'Nasal Whisper', 'Unaffected , Unwavering &amp; Unique', 'Not sum parts .']</t>
+          <t>['Fight Survival', 'Great performances carry story ', 'well done  sad  story', 'Survival  Abandoned Children Bonding Streets Tokyo', 'Heartbreaking', ' Threads  kids', 'heartbreaking Japanese drama', 'Abandoned Children In A World Run By Adults', 'Adolescents adrift sea indifference ', 'A film deep compassion', 'A compelling portrait world abandoned children', 'The slow pace rest film makes ending really heartbreaking', 'A Slow  Beautiful Indictment Modern Society', 'One better life poor movies ', 'Need films like ', 'Real', 'Gritty  confronting heartbreaking', 'Survival instinct ', 'You know s movie see', 'Sad  Harsh beautifully performed', 'Way overrated movie interesting premise', 'Frame reference', 'Nasal Whisper', 'Unaffected  Unwavering  Unique', 'Not sum parts ']</t>
         </is>
       </c>
     </row>
@@ -27981,7 +27981,7 @@
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>['Unusual interesting graphics story left bit cold .', 'Really cast enchantingly intoxicating spell anyone watching', 'One kids', 'fresh lovely charming', 'More kids movie', 'Sweet modern-day fairy tale', 'An Irish Gem', 'Wondrous', 'Song Sea', 'Simply stunningly beautiful .', 'A beautifully animated Irish folk tale . Totally worth watching .', 'Traditional animation proves irreplaceable curio !', 'Simply beautiful : I defy love !', 'Enchanting , imaginative quite beautiful animated film Ireland', 'Gorgeous charming', 'The Myth Buster', 'An Adorable , Enriching &amp; Beautifully Animated Fairy Tale !', 'Beautiful animation', 'Sweet', 'A Simply Told Compelling Animated Aventure', 'Magical story', 'Brand new non-Disney non-Studio Ghibli .', 'The Sea Inside', 'Song Sea lyrically paints Irish folklore limited narrative brushing techniques .', 'One remaining hopes traditional animation']</t>
+          <t>['Unusual interesting graphics story left bit cold ', 'Really cast enchantingly intoxicating spell anyone watching', 'One kids', 'fresh lovely charming', 'More kids movie', 'Sweet modernday fairy tale', 'An Irish Gem', 'Wondrous', 'Song Sea', 'Simply stunningly beautiful ', 'A beautifully animated Irish folk tale  Totally worth watching ', 'Traditional animation proves irreplaceable curio ', 'Simply beautiful  I defy love ', 'Enchanting  imaginative quite beautiful animated film Ireland', 'Gorgeous charming', 'The Myth Buster', 'An Adorable  Enriching  Beautifully Animated Fairy Tale ', 'Beautiful animation', 'Sweet', 'A Simply Told Compelling Animated Aventure', 'Magical story', 'Brand new nonDisney nonStudio Ghibli ', 'The Sea Inside', 'Song Sea lyrically paints Irish folklore limited narrative brushing techniques ', 'One remaining hopes traditional animation']</t>
         </is>
       </c>
     </row>
@@ -28025,7 +28025,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>['History repeats ...', 'interpretation desperate moments', 'Difficult , essential', 'A Searing Account Of Human Injustice &amp; International Indifference', 'Quo vadis , Humanity ?', 'The Return Gaze Genocide', 'Masterfully done', 'Powerful', 'HARD TO WATCH .', 'Separate message quality production', 'Gripping personal account war', 'The Futility War', 'bit late important historic movie', 'Devastation', 'scope', 'A spellbinding piece work', 'Great anti war movie without violence', 'United Nation WHAT ? ? ?', 'Will stay', 'Mind blown . Best film Srebenica', 'War hell', 'Difficult watch ... right reasons', 'A powerful portrait historical moment .', 'Heartfelt heartrending', 'A powerful statement']</t>
+          <t>['History repeats ', 'interpretation desperate moments', 'Difficult  essential', 'A Searing Account Of Human Injustice  International Indifference', 'Quo vadis  Humanity ', 'The Return Gaze Genocide', 'Masterfully done', 'Powerful', 'HARD TO WATCH ', 'Separate message quality production', 'Gripping personal account war', 'The Futility War', 'bit late important historic movie', 'Devastation', 'scope', 'A spellbinding piece work', 'Great anti war movie without violence', 'United Nation WHAT   ', 'Will stay', 'Mind blown  Best film Srebenica', 'War hell', 'Difficult watch  right reasons', 'A powerful portrait historical moment ', 'Heartfelt heartrending', 'A powerful statement']</t>
         </is>
       </c>
     </row>
@@ -28069,7 +28069,7 @@
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>['Good biopic', 'Sensitive Drama About Polemic Theme', 'Multi-awarded-winner based real-case notorious Spain paraplegic wants die , including wronged message , pro-euthanasia', 'probably best manifestation struggle life death', 'Beautiful Story', 'I want die ...', 'Powerful , thought-provoking movie life , death right die', 'The right die dignity', 'Life worth living', 'A Powerful , Achingly Beautiful Movie', 'Learning Cry Smile', 'Amazing', 'An inspiring tale living death ; Bardem superb', "Great drama n't get swamped fake sentiment", 'Mostly excellent story man wants life', 'A drama euthanasia without prejudice .', 'bitter beauty', 'A Gem ...', 'So much quality wasted propagandistic film ...', 'Very Powerful Film !', 'Living Die .', 'Javier Bardem great', 'Compelling interesting film never strays far political documentary .', 'Deals large , powerful issues intensely personal lens', "The controversial subject matters means wo n't audiences , go open mind 'll find rewarding film 's well worth watching"]</t>
+          <t>['Good biopic', 'Sensitive Drama About Polemic Theme', 'Multiawardedwinner based realcase notorious Spain paraplegic wants die  including wronged message  proeuthanasia', 'probably best manifestation struggle life death', 'Beautiful Story', 'I want die ', 'Powerful  thoughtprovoking movie life  death right die', 'The right die dignity', 'Life worth living', 'A Powerful  Achingly Beautiful Movie', 'Learning Cry Smile', 'Amazing', 'An inspiring tale living death  Bardem superb', 'Great drama nt get swamped fake sentiment', 'Mostly excellent story man wants life', 'A drama euthanasia without prejudice ', 'bitter beauty', 'A Gem ', 'So much quality wasted propagandistic film ', 'Very Powerful Film ', 'Living Die ', 'Javier Bardem great', 'Compelling interesting film never strays far political documentary ', 'Deals large  powerful issues intensely personal lens', 'The controversial subject matters means wo nt audiences  go open mind ll find rewarding film s well worth watching']</t>
         </is>
       </c>
     </row>
@@ -28113,7 +28113,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>['Like bathing sewer ...', 'Fantastic', '`` You want information , ask like man , instead scratching like dog . ``', 'wild turns phrases', 'Masterpiece Noir Typewriter Instead Gun', 'Nobody Wins ... Nobody Deserves To', 'verbal violence destructive physical violence', 'One All-Time Greatest Movies', '3 Good Reasons To Watch This Film', 'The constant backbiting bitterness wears one quickly ...', "It 's putrid smell", 'A Cookie Full Arsenic', 'Cynical Gem', 'Stylish film corruption press', 'Verbally Visually Visceral ... Late Film-Noir Appalling Appeal', 'Superb movie - clever , engaging enthralling', 'Cynical look power corrupts ... brilliant performances ...', 'Opinion columnists used ruthless', 'An Arrogant Boss His Slimy Henchman', 'Burt villain', 'A Cookie Full Arsenic', 'Great story great acting equals great movie .', 'glows glistens glorious b/w', 'Not So Sweet .', 'Stylish cool']</t>
+          <t>['Like bathing sewer ', 'Fantastic', ' You want information  ask like man  instead scratching like dog  ', 'wild turns phrases', 'Masterpiece Noir Typewriter Instead Gun', 'Nobody Wins  Nobody Deserves To', 'verbal violence destructive physical violence', 'One AllTime Greatest Movies', '3 Good Reasons To Watch This Film', 'The constant backbiting bitterness wears one quickly ', 'It s putrid smell', 'A Cookie Full Arsenic', 'Cynical Gem', 'Stylish film corruption press', 'Verbally Visually Visceral  Late FilmNoir Appalling Appeal', 'Superb movie  clever  engaging enthralling', 'Cynical look power corrupts  brilliant performances ', 'Opinion columnists used ruthless', 'An Arrogant Boss His Slimy Henchman', 'Burt villain', 'A Cookie Full Arsenic', 'Great story great acting equals great movie ', 'glows glistens glorious bw', 'Not So Sweet ', 'Stylish cool']</t>
         </is>
       </c>
     </row>
@@ -28157,7 +28157,7 @@
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>['Powerful winter sleep', 'Turkish film', 'Reasonably engaging slow seemingly interminable', 'Extremely long boring movie', 'cosmically intangible yet intrinsically tangible incapability communication among us humans', 'Beautiful landscape language .', 'Bleak , Deep , Intelligent ... Bergmanian ...', "Turkish Cinema 's attempt make Ingmar Bergman Cinema trapped Overlong Narrative Over-Intellectualism .", 'One Of The Most Engrossing , Mesmerizing &amp; Satisfying Films Of 2014', 'Desolate &amp; Bleak ...', 'Winter Storm', 'Haunting mesmerizing', 'Very good ...', 'Good Film From An Overrated Director', 'Meditative drama', 'Well-made , far long', 'The problem movie contains much dialogue , problem static way dialogue portrayed', 'A movie ?', "Funniest comedy years . Wait , 's comedy ?", 'Suffocating Virtues', 'Philosophical', 'Overwhelming', 'A masterful Steppe', 'An intellectual feast literary scale paired stunning poetic cinematography .', 'Well worth long journey']</t>
+          <t>['Powerful winter sleep', 'Turkish film', 'Reasonably engaging slow seemingly interminable', 'Extremely long boring movie', 'cosmically intangible yet intrinsically tangible incapability communication among us humans', 'Beautiful landscape language ', 'Bleak  Deep  Intelligent  Bergmanian ', 'Turkish Cinema s attempt make Ingmar Bergman Cinema trapped Overlong Narrative OverIntellectualism ', 'One Of The Most Engrossing  Mesmerizing  Satisfying Films Of 2014', 'Desolate  Bleak ', 'Winter Storm', 'Haunting mesmerizing', 'Very good ', 'Good Film From An Overrated Director', 'Meditative drama', 'Wellmade  far long', 'The problem movie contains much dialogue  problem static way dialogue portrayed', 'A movie ', 'Funniest comedy years  Wait  s comedy ', 'Suffocating Virtues', 'Philosophical', 'Overwhelming', 'A masterful Steppe', 'An intellectual feast literary scale paired stunning poetic cinematography ', 'Well worth long journey']</t>
         </is>
       </c>
     </row>
@@ -28201,7 +28201,7 @@
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>['Funny , beautiful heart-warming movie ...', 'A much stronger movie I expected', 'Revolutionary Korean romantic comedy first came', 'Fresh . Refreshing . Experimental . Delightful .', 'One Of The Finest Modern Examples Of Romance At Its Best', 'Hard believe true , ....', 'My Sassy Girl : This Kwak Jae-Yong film presents positive image Korean woman .', 'Bipolar Romance Disorder', 'Not style film , much cringe', 'Purely wonderful', 'Sassy ... like bitchy .', "It 's funny somehow presenting man abusing comedy", 'A guy letting get slapped around humiliated chick supposedly romantic', 'Mediocre melodramatic rom-com', 'You Wan na Die ?', 'Different', 'A radiant romantic comedy far Hollywood clichés', "It 's ok .", 'compassionate film', 'Excellent romantic comedy', 'Fun Filled Crazy Romance', 'Sassy Shenanigans Rollercoaster Romance', 'You never know', 'I got sunshine cloudy day ....']</t>
+          <t>['Funny  beautiful heartwarming movie ', 'A much stronger movie I expected', 'Revolutionary Korean romantic comedy first came', 'Fresh  Refreshing  Experimental  Delightful ', 'One Of The Finest Modern Examples Of Romance At Its Best', 'Hard believe true  ', 'My Sassy Girl  This Kwak JaeYong film presents positive image Korean woman ', 'Bipolar Romance Disorder', 'Not style film  much cringe', 'Purely wonderful', 'Sassy  like bitchy ', 'It s funny somehow presenting man abusing comedy', 'A guy letting get slapped around humiliated chick supposedly romantic', 'Mediocre melodramatic romcom', 'You Wan na Die ', 'Different', 'A radiant romantic comedy far Hollywood clichs', 'It s ok ', 'compassionate film', 'Excellent romantic comedy', 'Fun Filled Crazy Romance', 'Sassy Shenanigans Rollercoaster Romance', 'You never know', 'I got sunshine cloudy day ']</t>
         </is>
       </c>
     </row>
@@ -28245,7 +28245,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>['oh overrated', "I never thought I would appreciate Rachmaninov 's music", 'The famous romantic film time ?', 'Romance Rails', 'Celia Johnson terrific', 'lovely', 'Brief Encounter', 'Surely one greatest romances time .', 'Left little cold still worth seeing', 'Moving intelligent film love affair initiated railroad station', "Not Lean 's Best", 'A classic', 'The right love wrong time ...', 'maybe THE bittersweet love story time ? One anyway', 'Too Brief Memorable Encounter * * * 1/2', "Why 1960 's Rebelled", 'Engaging drama ... initially', 'Still life', 'A SHORT David Lean film !', '`` It ordinary day `` ...', 'A superb , stirring classic', 'Powerfully Romantic', 'A Seven Letter Word', 'Nice little drama , ahead time .', 'The 36 Year Old Celia Johnson']</t>
+          <t>['oh overrated', 'I never thought I would appreciate Rachmaninov s music', 'The famous romantic film time ', 'Romance Rails', 'Celia Johnson terrific', 'lovely', 'Brief Encounter', 'Surely one greatest romances time ', 'Left little cold still worth seeing', 'Moving intelligent film love affair initiated railroad station', 'Not Lean s Best', 'A classic', 'The right love wrong time ', 'maybe THE bittersweet love story time  One anyway', 'Too Brief Memorable Encounter    12', 'Why 1960 s Rebelled', 'Engaging drama  initially', 'Still life', 'A SHORT David Lean film ', ' It ordinary day  ', 'A superb  stirring classic', 'Powerfully Romantic', 'A Seven Letter Word', 'Nice little drama  ahead time ', 'The 36 Year Old Celia Johnson']</t>
         </is>
       </c>
     </row>
@@ -28289,7 +28289,7 @@
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>['wild eastern European absurdities', "Now 's something n't see every day !", 'That Yugoslavian , Gypsy Style', 'More stupid funny', 'Sunflower Seductions', "Like party heart everyone 's invited !", 'Average ...', 'Liked one lot', 'All fuss money buy anything .', 'Pitbull terrier . Hilarious ways gypsies aiming gain love .', 'Amazing', 'Crazy movie', 'One best films time', 'I wish I could give 1000', 'Funny fascinating .', 'Gangsters without sunglasses', 'Lovely cinema , lovely Kusturica', 'Funnnnnnnnnnnnnnnnnnnnnnnnnnnny', 'Black Cat , White Cat : Top Cats', 'Kusturica light hilarious', 'creepy poop-y insane funny brilliance', 'Delightful', 'A roller-coaster lady pulls-out nails behind , pig eats car tall guy `` falls `` short girl', 'gangsters unmarried girls', 'Black cat , white trash']</t>
+          <t>['wild eastern European absurdities', 'Now s something nt see every day ', 'That Yugoslavian  Gypsy Style', 'More stupid funny', 'Sunflower Seductions', 'Like party heart everyone s invited ', 'Average ', 'Liked one lot', 'All fuss money buy anything ', 'Pitbull terrier  Hilarious ways gypsies aiming gain love ', 'Amazing', 'Crazy movie', 'One best films time', 'I wish I could give 1000', 'Funny fascinating ', 'Gangsters without sunglasses', 'Lovely cinema  lovely Kusturica', 'Funnnnnnnnnnnnnnnnnnnnnnnnnnnny', 'Black Cat  White Cat  Top Cats', 'Kusturica light hilarious', 'creepy poopy insane funny brilliance', 'Delightful', 'A rollercoaster lady pullsout nails behind  pig eats car tall guy  falls  short girl', 'gangsters unmarried girls', 'Black cat  white trash']</t>
         </is>
       </c>
     </row>
@@ -28333,7 +28333,7 @@
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>['A dissenting view ....', 'They Like To Play Games', 'bit fake', 'Superb Convoluted Drama', 'Deadly Games', 'Engaging enjoyably twisty thriller effortlessly stands test time', "Joseph L Mankiewicz 's masterpiece , cat mouse thriller , flawlessly acted perfectly realized", "Now 's idea ...", 'A Top-Notch Role Michael Caine', "Last Mankiewicz 's masterpiece", '`` It great fun ... one things ``', "Joe 's puppet theater", 'cunning delicious dialog , chewed full-tilt two masters craft', 'Great thriller', 'Dull WAY overpraised', 'Tour de force performances Olivier Caine ...', 'Tour de force performances', 'I must say , rather good show , old chap', 'Too much talking overrated ! !', "A jumped-up pantry boy n't know place", 'Games without frontiers', 'A Nutshell Review : ( DVD ) Sleuth', 'A Good Mystery-Thriller', 'A Cinematic Masterpiece !', 'A Game Win-Win situation ...']</t>
+          <t>['A dissenting view ', 'They Like To Play Games', 'bit fake', 'Superb Convoluted Drama', 'Deadly Games', 'Engaging enjoyably twisty thriller effortlessly stands test time', 'Joseph L Mankiewicz s masterpiece  cat mouse thriller  flawlessly acted perfectly realized', 'Now s idea ', 'A TopNotch Role Michael Caine', 'Last Mankiewicz s masterpiece', ' It great fun  one things ', 'Joe s puppet theater', 'cunning delicious dialog  chewed fulltilt two masters craft', 'Great thriller', 'Dull WAY overpraised', 'Tour de force performances Olivier Caine ', 'Tour de force performances', 'I must say  rather good show  old chap', 'Too much talking overrated  ', 'A jumpedup pantry boy nt know place', 'Games without frontiers', 'A Nutshell Review   DVD  Sleuth', 'A Good MysteryThriller', 'A Cinematic Masterpiece ', 'A Game WinWin situation ']</t>
         </is>
       </c>
     </row>
@@ -28377,7 +28377,7 @@
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>['An oddly beautiful film death ....', 'Charming funny little Japanese movie', 'Heartfelt', 'A Beautiful Full Sentiments Story Life Death', 'Beautiful Funny', 'A powerful film', 'Moving , engaging , thought-provoking movie', 'Everyone dies . I die , . Death normal .', 'Eye-opening film', "Departures/Arrivals : 'The gift last memories '", 'Mediocre', 'A Japanese movie also translates exceptionally Western culture . Death truly universal .', 'Cinema Omnivore - Departures ( 2008 ) 8.3/10', 'A Nutshell Review : Departures', 'caring death , caring living', 'A different start ...', 'Poetry', "Far Departure form recent canon decent Japanese films , film 's exploring man niche career makes impressive viewing .", 'The beauty rite de passage', "New career brings new life 's perspective", 'Do depart Departures', 'Lyrical Film About Finding Passion Unlikely Profession', 'I deeply moved', 'A great drama death', 'Passionate art']</t>
+          <t>['An oddly beautiful film death ', 'Charming funny little Japanese movie', 'Heartfelt', 'A Beautiful Full Sentiments Story Life Death', 'Beautiful Funny', 'A powerful film', 'Moving  engaging  thoughtprovoking movie', 'Everyone dies  I die   Death normal ', 'Eyeopening film', 'DeparturesArrivals  The gift last memories ', 'Mediocre', 'A Japanese movie also translates exceptionally Western culture  Death truly universal ', 'Cinema Omnivore  Departures  2008  8310', 'A Nutshell Review  Departures', 'caring death  caring living', 'A different start ', 'Poetry', 'Far Departure form recent canon decent Japanese films  film s exploring man niche career makes impressive viewing ', 'The beauty rite de passage', 'New career brings new life s perspective', 'Do depart Departures', 'Lyrical Film About Finding Passion Unlikely Profession', 'I deeply moved', 'A great drama death', 'Passionate art']</t>
         </is>
       </c>
     </row>
@@ -28421,7 +28421,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>['A typical sort Indian love story ... well done likable oh , familiar .', 'An absolute , heartfelt joy', 'An Immotral Film !', 'The Best', 'Epitome romantic movies India', 'Ushering new Bollywood era ..', 'The beauty mainstream Hindi cinema', 'rewatching EPIC 28 years release', 'Long charming entertainer', "Aditya Chopra 's `` untouchable `` winning trophy", 'Winning hand sweetheart big project', 'Beautiful Chemistry Of Kajol And SRK', 'Brilliant Entertaining Movie .. SRK Kajol Superb', 'What Bollywood used fun time', "Dilwale Dulhaniya Le Jayenge- The Chopra 's finest hour", '`` A Gem .. ? No ! , But Kohinoor . ``', 'A Must-Watch Film', 'Dilwale Dulhania Le Jayenge `` heartwarming , feel-good movie stood test time', 'A timeless classic !', 'Of late , I fell love Dilwale Dulhania Le Jayenge', 'magical moments also flaws', "This movie one great ones 've ever seen .", 'masterclass : divine experience', 'People Outside India - This movie .']</t>
+          <t>['A typical sort Indian love story  well done likable oh  familiar ', 'An absolute  heartfelt joy', 'An Immotral Film ', 'The Best', 'Epitome romantic movies India', 'Ushering new Bollywood era ', 'The beauty mainstream Hindi cinema', 'rewatching EPIC 28 years release', 'Long charming entertainer', 'Aditya Chopra s  untouchable  winning trophy', 'Winning hand sweetheart big project', 'Beautiful Chemistry Of Kajol And SRK', 'Brilliant Entertaining Movie  SRK Kajol Superb', 'What Bollywood used fun time', 'Dilwale Dulhaniya Le Jayenge The Chopra s finest hour', ' A Gem   No   But Kohinoor  ', 'A MustWatch Film', 'Dilwale Dulhania Le Jayenge  heartwarming  feelgood movie stood test time', 'A timeless classic ', 'Of late  I fell love Dilwale Dulhania Le Jayenge', 'magical moments also flaws', 'This movie one great ones ve ever seen ', 'masterclass  divine experience', 'People Outside India  This movie ']</t>
         </is>
       </c>
     </row>
@@ -28465,7 +28465,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>["For feature film debut , Ivan 's Childhood incredible", 'unique', 'Dark', 'powerful piece poetic film-making disillusionment , disorientation , surrounding young Ivan', "Propaganda movie current dictator 's time 1962", 'Not perfect , still great film', 'Sheer poetry', 'How many encomiums would suffice ? Just dazed amazed !', 'circle Ivan', 'A child war', 'A Discerning Look At The Human Cost Of War And Its Most Innocent Victims', 'A child experience', 'Worlds beyond', 'What Childhood ?', 'One devastating anti-war pictures ever made', 'War Children', 'Beautiful small bumbs', 'This advanced .', 'This well thought film surprisingly effective communicating brutality war .', "Tarkovsky 's first", "Hit 's hard .", 'I like poetic cinema', 'The film relatively primitive , interesting cinematography', 'A Must See', 'Alas , pattern sets early : great director whose theories prevent making great film']</t>
+          <t>['For feature film debut  Ivan s Childhood incredible', 'unique', 'Dark', 'powerful piece poetic filmmaking disillusionment  disorientation  surrounding young Ivan', 'Propaganda movie current dictator s time 1962', 'Not perfect  still great film', 'Sheer poetry', 'How many encomiums would suffice  Just dazed amazed ', 'circle Ivan', 'A child war', 'A Discerning Look At The Human Cost Of War And Its Most Innocent Victims', 'A child experience', 'Worlds beyond', 'What Childhood ', 'One devastating antiwar pictures ever made', 'War Children', 'Beautiful small bumbs', 'This advanced ', 'This well thought film surprisingly effective communicating brutality war ', 'Tarkovsky s first', 'Hit s hard ', 'I like poetic cinema', 'The film relatively primitive  interesting cinematography', 'A Must See', 'Alas  pattern sets early  great director whose theories prevent making great film']</t>
         </is>
       </c>
     </row>
@@ -28509,7 +28509,7 @@
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>['Wonderful exploration Buddhist learnings', 'Compelling poetic', 'beautiful', "'s rare movie show little yet say much", 'Beautiful Simple', 'Buddhist meditation life death , surrounds us', 'Minimalist yet poetic , beautiful engaging', 'The five seasons', 'Season To Taste', 'Row , Row , Row boat', 'significant film', 'Filmmaking best .', 'Could possibly slower paced ... ?', 'Zensational', 'The undeniable circle life never looked visually splendid spiritually attractive screen.Spring .', 'cinema , art', 'Spring , Summer , Fall , Winter ... Spring .', 'Perfect photography ...', 'The floating world', 'Meditation cinematic form', "Slow philosophical , something 'll remember", 'Puzzling poetry', 'The Purest Ideals Buddhism Given Form', 'Circles life : quite easy watch film absolutely difficult follow real life .', 'A Beautiful Modern Fable']</t>
+          <t>['Wonderful exploration Buddhist learnings', 'Compelling poetic', 'beautiful', 's rare movie show little yet say much', 'Beautiful Simple', 'Buddhist meditation life death  surrounds us', 'Minimalist yet poetic  beautiful engaging', 'The five seasons', 'Season To Taste', 'Row  Row  Row boat', 'significant film', 'Filmmaking best ', 'Could possibly slower paced  ', 'Zensational', 'The undeniable circle life never looked visually splendid spiritually attractive screenSpring ', 'cinema  art', 'Spring  Summer  Fall  Winter  Spring ', 'Perfect photography ', 'The floating world', 'Meditation cinematic form', 'Slow philosophical  something ll remember', 'Puzzling poetry', 'The Purest Ideals Buddhism Given Form', 'Circles life  quite easy watch film absolutely difficult follow real life ', 'A Beautiful Modern Fable']</t>
         </is>
       </c>
     </row>
@@ -28553,7 +28553,7 @@
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>['excellent', 'A powerful goodbye', 'compelling history lacks tension', 'So Sad What We Do Each Other', 'Friendship Betrayal Times War', "Compelling provoking coming-of-age story based facts Louis Malle 's childhood", "child 's memory occupation", 'Autobiographical Malle', 'Interesting story powerful ending', 'The Artificial Real', "Au revoir , les enfants ( 1987 ) , Louis Malle 's personal beauty .", 'Friendships , coming age loss innocence World War II ...', 'One finest movies ever made', 'I found treasure .', 'Brutal , essential', 'Spare Sensitive', 'Brilliant', 'Sad masterpiece .', 'One great films childhood .', "`` Stop Acting So Pious , There 's A War Going On , Kid . ``", 'Amazing ...', 'The subtle subtle anti-Semitism eyes French boys boarding school', 'Au Revoir Les Enfants', 'Underwhelming', "Malle 's Great Film"]</t>
+          <t>['excellent', 'A powerful goodbye', 'compelling history lacks tension', 'So Sad What We Do Each Other', 'Friendship Betrayal Times War', 'Compelling provoking comingofage story based facts Louis Malle s childhood', 'child s memory occupation', 'Autobiographical Malle', 'Interesting story powerful ending', 'The Artificial Real', 'Au revoir  les enfants  1987   Louis Malle s personal beauty ', 'Friendships  coming age loss innocence World War II ', 'One finest movies ever made', 'I found treasure ', 'Brutal  essential', 'Spare Sensitive', 'Brilliant', 'Sad masterpiece ', 'One great films childhood ', ' Stop Acting So Pious  There s A War Going On  Kid  ', 'Amazing ', 'The subtle subtle antiSemitism eyes French boys boarding school', 'Au Revoir Les Enfants', 'Underwhelming', 'Malle s Great Film']</t>
         </is>
       </c>
     </row>
@@ -28597,7 +28597,7 @@
       </c>
       <c r="J640" t="inlineStr">
         <is>
-          <t>['Pain , passion , sisterhood , love death another Ingmar Bergman masterpiece', 'Cries Whispers', 'Like Drinking Broken Glass', 'Illusion', 'Great Bergman', 'Blood red going ...', 'Deeply disturbing haunting', 'A fabulous quartet .', "One Ingmar Bergman 's personal statements , one best", 'I `` get `` one', 'An Example Bergman Top His Game', 'Cries Whispers', 'The silence Bergman film tear flesh right body', 'Bleak , painful watch', 'Ash ice', 'It needs smart brain high patience understand actual pain behind disturbing images . A Filmmaking least 10 decades ahead normal brain .', 'One greatest films ever made', 'The Unfathomable Depths Despair ...', "It 's slowness pace problem , lack insight expected master Bergman 's calibre", 'The one red', 'cries whispers ( groans boredom )', 'A moving intelligent film women', "I suspect 's lot better seems .", 'A Visual Masterpiece', 'Viskningar och rop ( 1972 )']</t>
+          <t>['Pain  passion  sisterhood  love death another Ingmar Bergman masterpiece', 'Cries Whispers', 'Like Drinking Broken Glass', 'Illusion', 'Great Bergman', 'Blood red going ', 'Deeply disturbing haunting', 'A fabulous quartet ', 'One Ingmar Bergman s personal statements  one best', 'I  get  one', 'An Example Bergman Top His Game', 'Cries Whispers', 'The silence Bergman film tear flesh right body', 'Bleak  painful watch', 'Ash ice', 'It needs smart brain high patience understand actual pain behind disturbing images  A Filmmaking least 10 decades ahead normal brain ', 'One greatest films ever made', 'The Unfathomable Depths Despair ', 'It s slowness pace problem  lack insight expected master Bergman s calibre', 'The one red', 'cries whispers  groans boredom ', 'A moving intelligent film women', 'I suspect s lot better seems ', 'A Visual Masterpiece', 'Viskningar och rop  1972 ']</t>
         </is>
       </c>
     </row>
@@ -28641,7 +28641,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>['Do want become parents ?', 'Felt Every Minute This Movie', 'long rewarding', 'A Tad Too Drawn Out &amp; Preachy', 'An Insight Turkey', 'Exhausting , worth .', 'An intimate epic', 'A three-hour search meaning life', 'huge time waster boring', 'Witty Beautiful', 'Where watch graduate come terms Life', "NBC 's complete film", 'Turkish James Dean', 'Some tremendous acting uneven film', 'Existential crisis', 'like beginner writer', 'A movie book', 'A real masterpiece ! ! !', 'Great movie , falls short Winter Sleep', 'In Praise Banality', 'The Beauty Ordinary', 'A masterpiece !', 'Long perfect', "It 's rare gem !"]</t>
+          <t>['Do want become parents ', 'Felt Every Minute This Movie', 'long rewarding', 'A Tad Too Drawn Out  Preachy', 'An Insight Turkey', 'Exhausting  worth ', 'An intimate epic', 'A threehour search meaning life', 'huge time waster boring', 'Witty Beautiful', 'Where watch graduate come terms Life', 'NBC s complete film', 'Turkish James Dean', 'Some tremendous acting uneven film', 'Existential crisis', 'like beginner writer', 'A movie book', 'A real masterpiece   ', 'Great movie  falls short Winter Sleep', 'In Praise Banality', 'The Beauty Ordinary', 'A masterpiece ', 'Long perfect', 'It s rare gem ']</t>
         </is>
       </c>
     </row>
@@ -28685,7 +28685,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>['The second time around , I loved film', 'Powerful , poignant beautiful', 'Traveling Down That Lonely Road', 'Amazing performances', 'The Brilliant Quinn', 'One Greatest Films Ever', 'Fellini masterpiece simple-minded woman sold brutal traveling showman tour road', 'Italian Classic', "'s considered classic , , n't mean 's always personal favorite", 'La Strada A Road Pure Excellence', 'Superb , incredibly emotional drama - Fellini best', 'Gelsomina Zampano', "Anthony Quinn 's brute one greatest roles ...", 'Three people performance', 'Not That Into This Neo-Realist Classic', 'The firs ever winner Academy Award Best Foreign Language Film .', 'La strada review', 'Less neorealism magical reality', 'Beautifully surreal character study', 'La Strada', 'Masks', 'Quinn &amp; Masina Fantastic !', 'A beautiful , heart touching Classic Italian Master Federico Fellini compassion guilt destroy life .', 'first masterpiece Fellini', 'Total transport another world']</t>
+          <t>['The second time around  I loved film', 'Powerful  poignant beautiful', 'Traveling Down That Lonely Road', 'Amazing performances', 'The Brilliant Quinn', 'One Greatest Films Ever', 'Fellini masterpiece simpleminded woman sold brutal traveling showman tour road', 'Italian Classic', 's considered classic   nt mean s always personal favorite', 'La Strada A Road Pure Excellence', 'Superb  incredibly emotional drama  Fellini best', 'Gelsomina Zampano', 'Anthony Quinn s brute one greatest roles ', 'Three people performance', 'Not That Into This NeoRealist Classic', 'The firs ever winner Academy Award Best Foreign Language Film ', 'La strada review', 'Less neorealism magical reality', 'Beautifully surreal character study', 'La Strada', 'Masks', 'Quinn  Masina Fantastic ', 'A beautiful  heart touching Classic Italian Master Federico Fellini compassion guilt destroy life ', 'first masterpiece Fellini', 'Total transport another world']</t>
         </is>
       </c>
     </row>
@@ -28729,7 +28729,7 @@
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>["Brilliant , Ingmar Bergman 's best", 'Compelling frightening', 'greatness', 'Brilliant', 'So Graphic ; So Bleak', 'special', '¨ VIRGIN SPRING¨ spellbinding masterpiece great Ingmar Bergman awesome cinematography Sven Nykvist', 'Heavy-handed , disturbing memorable ...', 'An observant , sad , rather simply told picture Bergman', 'When day starts beautifully ends miserably .', 'Best Foreign Film Oscar winner', 'THE VIRGIN SPRING ( Ingmar Bergman , 1960 ) * * * 1/2', 'Bergman horror', 'Much Bergman requires viewers specific wavelength best appreciate ...', 'Chipper Valentine Ingmar Bergman', 'They go woods', "Bergman 's finest achievement", 'Do watch film unless prepared withstand powerful blows gut', 'Cinema Omnivore - The Virgin Spring ( 1960 ) 8.5/10', 'A Bergman film', "Ingmar Bergman 's art classic common theme like Revenge Drama separated unique combination Vengeance vs Religious Beliefs Mediaeval Sweden .", 'Of Virigin Spring', 'Fatherly Vengeance', 'If You Go Down Woods Today ...', 'Superb Cinematography']</t>
+          <t>['Brilliant  Ingmar Bergman s best', 'Compelling frightening', 'greatness', 'Brilliant', 'So Graphic  So Bleak', 'special', ' VIRGIN SPRING spellbinding masterpiece great Ingmar Bergman awesome cinematography Sven Nykvist', 'Heavyhanded  disturbing memorable ', 'An observant  sad  rather simply told picture Bergman', 'When day starts beautifully ends miserably ', 'Best Foreign Film Oscar winner', 'THE VIRGIN SPRING  Ingmar Bergman  1960     12', 'Bergman horror', 'Much Bergman requires viewers specific wavelength best appreciate ', 'Chipper Valentine Ingmar Bergman', 'They go woods', 'Bergman s finest achievement', 'Do watch film unless prepared withstand powerful blows gut', 'Cinema Omnivore  The Virgin Spring  1960  8510', 'A Bergman film', 'Ingmar Bergman s art classic common theme like Revenge Drama separated unique combination Vengeance vs Religious Beliefs Mediaeval Sweden ', 'Of Virigin Spring', 'Fatherly Vengeance', 'If You Go Down Woods Today ', 'Superb Cinematography']</t>
         </is>
       </c>
     </row>
@@ -28773,7 +28773,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>['weird interesting', 'Exterminating Angel', 'Watch Those Sheep !', 'Bunuel', 'Strange fantastic picture compellingly directed Spanish maestro surrealism , great Luis Buñuel', 'Bunuel Class', 'An explanation ? There none .', 'still one top comedies utter frustration', 'Intriguing ... disappointing', 'A film needs discussed anyone open mind', "It 's make .", 'The Ultimate Pandemic Movie', 'explodes like biggest firework box', 'An excellent surrealist fantasy', 'A satire wealthy', 'Elegant Insoluble', 'Actors Had B O !', 'Like surreal Twilight Zone episode', 'When The Chips Are Down , These Civilised People ... They Will Eat Each Other .', 'This film deserves good re-mastering job .', "DO N'T MOVE A MUSCLE ... UNLESS YOU CAN ... !", 'My brief review film', 'Beautifully realised , moments surrealism amuse bemuse', 'exterminating angel', "One classics 's almost good say ."]</t>
+          <t>['weird interesting', 'Exterminating Angel', 'Watch Those Sheep ', 'Bunuel', 'Strange fantastic picture compellingly directed Spanish maestro surrealism  great Luis Buuel', 'Bunuel Class', 'An explanation  There none ', 'still one top comedies utter frustration', 'Intriguing  disappointing', 'A film needs discussed anyone open mind', 'It s make ', 'The Ultimate Pandemic Movie', 'explodes like biggest firework box', 'An excellent surrealist fantasy', 'A satire wealthy', 'Elegant Insoluble', 'Actors Had B O ', 'Like surreal Twilight Zone episode', 'When The Chips Are Down  These Civilised People  They Will Eat Each Other ', 'This film deserves good remastering job ', 'DO NT MOVE A MUSCLE  UNLESS YOU CAN  ', 'My brief review film', 'Beautifully realised  moments surrealism amuse bemuse', 'exterminating angel', 'One classics s almost good say ']</t>
         </is>
       </c>
     </row>
@@ -28817,7 +28817,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>['tour de force Guinness', 'Superb Ealing comedy , Alec Guinness especially outstanding', 'Another delightful black comedy ...', 'Richard III turned head', 'Praises Alec Guinness', 'Working way murder', 'Pure genius , pure quality .', 'A wonderfully droll script delivered two ( ten ? ) great performances', 'Best Film I Have Seen This Year', 'A jaunty tale murder ...', 'If look Great Droll British Satire dictionary ...', 'Great , quirky crime-drama social satire', 'His memoirs !', 'Very cunning', 'That Laddie In Ermine', 'A difficult client make things distressing . Some tend hysterical - inconsiderate .', 'Not Comedy Masterpiece So Many Claim', 'Alec Guinness goes Peter Sellers !', 'Masterful British film dark , sophisticated comedy crime subtle satire', 'Kind Hearts Coronets', 'Wow , I ever different page film !', 'satirical sophistication making contrast prim proper demeanor vile egocentric ego', 'Classic Actors great Classic Film', 'Classic black comedy one greatest British films time', 'Possibly summit British comedy']</t>
+          <t>['tour de force Guinness', 'Superb Ealing comedy  Alec Guinness especially outstanding', 'Another delightful black comedy ', 'Richard III turned head', 'Praises Alec Guinness', 'Working way murder', 'Pure genius  pure quality ', 'A wonderfully droll script delivered two  ten   great performances', 'Best Film I Have Seen This Year', 'A jaunty tale murder ', 'If look Great Droll British Satire dictionary ', 'Great  quirky crimedrama social satire', 'His memoirs ', 'Very cunning', 'That Laddie In Ermine', 'A difficult client make things distressing  Some tend hysterical  inconsiderate ', 'Not Comedy Masterpiece So Many Claim', 'Alec Guinness goes Peter Sellers ', 'Masterful British film dark  sophisticated comedy crime subtle satire', 'Kind Hearts Coronets', 'Wow  I ever different page film ', 'satirical sophistication making contrast prim proper demeanor vile egocentric ego', 'Classic Actors great Classic Film', 'Classic black comedy one greatest British films time', 'Possibly summit British comedy']</t>
         </is>
       </c>
     </row>
@@ -28861,7 +28861,7 @@
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>['Intriguing flamboyant', 'Every Frame Beams Of Cinematic Brilliance . ♦ 84 %', 'If Bollywood offers , color shamed ignorance .', 'Best Vishal Bharadwaj', "A worth watching gem cinematic terms sure n't fine balance art &amp; entertainment seen thoughtful director 's early hits .", 'Good', 'Film begins slowly draws drama', 'Bollywood form Shakespear plays-add ur knowledge .', 'I would like say I liked film , ...', 'Not Recommended 👎', 'An outstanding adaptation Shakpearean play .....', 'A masterpiece director', 'Haider ( U/A ) Hindi -- -- -- -- -- -- -- - Rating : ★★★★ SILENT MELODRAMA', 'This movie surely three things-Well done acting , dark humor beauty Kashmir ! ! ! ! ! !', "Vishal Bahradwaj 's third brilliant Shakespeare adaptation ; one best adaptations 'Hamlet ' .", 'MY REVIEW : The Hamlet Bollywood ! !', 'To', 'A Cinematic tour-de-force ..', 'A MASTERPIECE ! A MUST WATCH ! !', "A Potpourri Vestiges Review : Vishal Bhardwaj 's final chapter Shakespeare trilogy", 'Haider - A poetic beautiful revenge saga', 'Revenge begets revenge', 'Tabu , Shahid shine brilliant adaptation Hamlet ! !', 'HAIDER - Grand , Occasionally Spellbinding Lacklustre', 'An eye eye make whole world blind .']</t>
+          <t>['Intriguing flamboyant', 'Every Frame Beams Of Cinematic Brilliance   84 ', 'If Bollywood offers  color shamed ignorance ', 'Best Vishal Bharadwaj', 'A worth watching gem cinematic terms sure nt fine balance art  entertainment seen thoughtful director s early hits ', 'Good', 'Film begins slowly draws drama', 'Bollywood form Shakespear playsadd ur knowledge ', 'I would like say I liked film  ', 'Not Recommended ', 'An outstanding adaptation Shakpearean play ', 'A masterpiece director', 'Haider  UA  Hindi         Rating   SILENT MELODRAMA', 'This movie surely three thingsWell done acting  dark humor beauty Kashmir      ', 'Vishal Bahradwaj s third brilliant Shakespeare adaptation  one best adaptations Hamlet  ', 'MY REVIEW  The Hamlet Bollywood  ', 'To', 'A Cinematic tourdeforce ', 'A MASTERPIECE  A MUST WATCH  ', 'A Potpourri Vestiges Review  Vishal Bhardwaj s final chapter Shakespeare trilogy', 'Haider  A poetic beautiful revenge saga', 'Revenge begets revenge', 'Tabu  Shahid shine brilliant adaptation Hamlet  ', 'HAIDER  Grand  Occasionally Spellbinding Lacklustre', 'An eye eye make whole world blind ']</t>
         </is>
       </c>
     </row>
@@ -28905,7 +28905,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>['Great performance', 'unique Fernanda Montenegro', 'On road', 'Not perfect touchingly done', 'Walter Salles great director .', 'Brazilian Cinema Circa 1998', 'Interesting emotional journey', 'On road', 'A Rare Wholly Satisfying Film', 'Film Review - Central Station ( 1998 ) 8.5/10', 'A trip', 'A simple poignant story refuses compromise .', 'Simple , Sensible Human Drama At Its Most Stimulating', 'An Unforgettable Road Adventure', 'I thought alright', 'Brilliant character piece played two different people long rewarding journey .', "Masterful Montenegro Dominates Salles ' Career-Defining Road Movie", 'The Great Fernanda', 'Sad beautiful', "And I almost n't go poster ! ! ! !", 'Heart-warming heart-breaking . Tremendous performance leading lady .', 'Outstanding', 'Excellent Film', 'Nod Bad , If A Little Heavy On The Over-Sentimentality .', 'An absolute cinematic masterpiece']</t>
+          <t>['Great performance', 'unique Fernanda Montenegro', 'On road', 'Not perfect touchingly done', 'Walter Salles great director ', 'Brazilian Cinema Circa 1998', 'Interesting emotional journey', 'On road', 'A Rare Wholly Satisfying Film', 'Film Review  Central Station  1998  8510', 'A trip', 'A simple poignant story refuses compromise ', 'Simple  Sensible Human Drama At Its Most Stimulating', 'An Unforgettable Road Adventure', 'I thought alright', 'Brilliant character piece played two different people long rewarding journey ', 'Masterful Montenegro Dominates Salles  CareerDefining Road Movie', 'The Great Fernanda', 'Sad beautiful', 'And I almost nt go poster    ', 'Heartwarming heartbreaking  Tremendous performance leading lady ', 'Outstanding', 'Excellent Film', 'Nod Bad  If A Little Heavy On The OverSentimentality ', 'An absolute cinematic masterpiece']</t>
         </is>
       </c>
     </row>
@@ -28949,7 +28949,7 @@
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>['minor miracle', 'Masterpiece Italian Neo-Realism', 'Stunning movie , one definitive works Italian Neo-realist period', 'eternal city Nazi occupation', 'A Historical Oddity', 'Life Under Real Fascism .', '`` The difficult thing live right . ``', 'Rossellini Makes It Real', 'Harrowing great', 'This one movies I prefer read see', "Rossellini 's Frank Picture Italian Despair", 'The end WW II , shot end WW II .', 'Flawed still powerful', "A Stunning Classic Italian War Drama gave unforgettable start Roberto Rossellini 's sensational 'Neorealist Trilogy ' .", 'Best Italian Neo-Realism - Rome , Open City', "Rossellini 's Timeless Neo-Realist Classic", 'Stagecraft', 'Powerful Portrayal Dignity Courage', 'rome open city', 'A ray hope sea desperation', "Film history 's evil rug muncher", 'Simply Superb', 'A important Italian film .', 'Life Strength', 'The breakthrough Neo Realism Anna Magnani']</t>
+          <t>['minor miracle', 'Masterpiece Italian NeoRealism', 'Stunning movie  one definitive works Italian Neorealist period', 'eternal city Nazi occupation', 'A Historical Oddity', 'Life Under Real Fascism ', ' The difficult thing live right  ', 'Rossellini Makes It Real', 'Harrowing great', 'This one movies I prefer read see', 'Rossellini s Frank Picture Italian Despair', 'The end WW II  shot end WW II ', 'Flawed still powerful', 'A Stunning Classic Italian War Drama gave unforgettable start Roberto Rossellini s sensational Neorealist Trilogy  ', 'Best Italian NeoRealism  Rome  Open City', 'Rossellini s Timeless NeoRealist Classic', 'Stagecraft', 'Powerful Portrayal Dignity Courage', 'rome open city', 'A ray hope sea desperation', 'Film history s evil rug muncher', 'Simply Superb', 'A important Italian film ', 'Life Strength', 'The breakthrough Neo Realism Anna Magnani']</t>
         </is>
       </c>
     </row>
@@ -28993,7 +28993,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>['I laughed whole time , great !', 'G.O.R.A : Cringe inducing', 'Eh', 'comedy potboiler', 'Turkish Louis de Funes', 'Mel Brooks meets Bollywood halfway', 'Interesting offering Turkish pop cinema', 'Mediocre', 'Pretty Fun', 'Great science fiction comedy / spoof', 'A well-realised sci-fi pastiche backdrop pitiful series well-worn parodies ...', 'Commandant Logar , object approaching ...', "A comedy n't really make laugh", 'Turks space', 'funny movie watchable', 'A classic', 'Unwatchable Trash', "Last half movie n't necessary", 'Avoid costs', 'The thing funny hear talk Turkish', 'Good beginning', 'I laughed whole time , great !', 'Cringe', 'Has significance movie . A crap .', 'good piss take']</t>
+          <t>['I laughed whole time  great ', 'GORA  Cringe inducing', 'Eh', 'comedy potboiler', 'Turkish Louis de Funes', 'Mel Brooks meets Bollywood halfway', 'Interesting offering Turkish pop cinema', 'Mediocre', 'Pretty Fun', 'Great science fiction comedy  spoof', 'A wellrealised scifi pastiche backdrop pitiful series wellworn parodies ', 'Commandant Logar  object approaching ', 'A comedy nt really make laugh', 'Turks space', 'funny movie watchable', 'A classic', 'Unwatchable Trash', 'Last half movie nt necessary', 'Avoid costs', 'The thing funny hear talk Turkish', 'Good beginning', 'I laughed whole time  great ', 'Cringe', 'Has significance movie  A crap ', 'good piss take']</t>
         </is>
       </c>
     </row>
@@ -29037,7 +29037,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>['Good crime epic', 'More worthy sequel', 'The Masterminds Organized Crime Rio', 'Violent realistic motion picture based real facts , high ranking officer fighting total corruption', 'Brazilian Crime', 'better even intriguing first Elite Squad', 'Great - good first Elite Squad', 'It anything I know', 'A Nutshell Review : Elite Squad 2', 'A Massive Improvement Over The Original', 'High Speed Dialogue Dilution ...', 'Fight truth ...', 'Elite Squad 2 dense fearless work , shy away exposing problems sick society dying political system', 'BETTER THAN THE FIRST .', 'Cuts sweetly bone', 'Entertaining political action thriller', 'Governor ... know ? The `` kiss good-bye `` dance .', 'The never ending drug &amp; corruption war', 'Drug wars another world', 'Fascinating necessary', 'A slam dunk senses . I expected , delivers much .', 'A timeless reality', "A movie speaks nation 's search righteous identity .", 'Not good first', 'Vastly superior original .']</t>
+          <t>['Good crime epic', 'More worthy sequel', 'The Masterminds Organized Crime Rio', 'Violent realistic motion picture based real facts  high ranking officer fighting total corruption', 'Brazilian Crime', 'better even intriguing first Elite Squad', 'Great  good first Elite Squad', 'It anything I know', 'A Nutshell Review  Elite Squad 2', 'A Massive Improvement Over The Original', 'High Speed Dialogue Dilution ', 'Fight truth ', 'Elite Squad 2 dense fearless work  shy away exposing problems sick society dying political system', 'BETTER THAN THE FIRST ', 'Cuts sweetly bone', 'Entertaining political action thriller', 'Governor  know  The  kiss goodbye  dance ', 'The never ending drug  corruption war', 'Drug wars another world', 'Fascinating necessary', 'A slam dunk senses  I expected  delivers much ', 'A timeless reality', 'A movie speaks nation s search righteous identity ', 'Not good first', 'Vastly superior original ']</t>
         </is>
       </c>
     </row>
@@ -29081,7 +29081,7 @@
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>['One Most Spectacular Movies War Ever ( Best )', 'Has big weaknesses generally engaging convincingly brutal war movie mould Private Ryan', 'war hell - one deny', 'Epic war drama', 'Damning indictment cost war', 'Good Bad', 'An emotionally devastating Korean war movie stunning battle scenes', 'Brothers . At War . In Korea .', 'Hard , good war drama .', 'flawed effective portrayal corrosive effects war', 'Awesome every level !', 'A powerful war movie made Korea', 'Brutal . Unflinching &amp; Absolutely Devastating . One Best Films Its Genre .', 'powerful war film', 'Probably best war movie ever done inspiring work ages', 'The Brotherhood Of War', "Sheesh . spoiler alert IMDb 's plot outline", 'Staggeringly effective war flick', 'A captivating story although minor flaws , nothing serious', 'A Triumph Of South Korean ( Anti- ) War Cinema', 'Taegukgi Review : A masterpiece every aspect , much film .', 'Great', 'Best war ( antiwar ) movie ever', 'A Perfect War Movie', 'A Tremendously Poignant Tale A+']</t>
+          <t>['One Most Spectacular Movies War Ever  Best ', 'Has big weaknesses generally engaging convincingly brutal war movie mould Private Ryan', 'war hell  one deny', 'Epic war drama', 'Damning indictment cost war', 'Good Bad', 'An emotionally devastating Korean war movie stunning battle scenes', 'Brothers  At War  In Korea ', 'Hard  good war drama ', 'flawed effective portrayal corrosive effects war', 'Awesome every level ', 'A powerful war movie made Korea', 'Brutal  Unflinching  Absolutely Devastating  One Best Films Its Genre ', 'powerful war film', 'Probably best war movie ever done inspiring work ages', 'The Brotherhood Of War', 'Sheesh  spoiler alert IMDb s plot outline', 'Staggeringly effective war flick', 'A captivating story although minor flaws  nothing serious', 'A Triumph Of South Korean  Anti  War Cinema', 'Taegukgi Review  A masterpiece every aspect  much film ', 'Great', 'Best war  antiwar  movie ever', 'A Perfect War Movie', 'A Tremendously Poignant Tale A']</t>
         </is>
       </c>
     </row>
@@ -29125,7 +29125,7 @@
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>["Not one Kurasawa 's best still great film", 'Outstanding Kurosawa , favourite thus far', 'Funny sequel Yojimbo', 'Sanjuro', 'Is It Really Fun ?', 'Funny Adventure', 'Accessible , brisk , action-packed lot fun', 'Lighter Sequel `` Yojimbo ``', "Better genre , even 'masterpiece ' Kurosawa", "Good , among Kurosawa 's best", 'Stupid friends dangerous .', 'The charismatic star seem put much', 'Sanjûrô', 'An unsheathed sword .', 'A film peace', 'entertaining surprisingly dumb', 'Not quite Yojimbo , still stands solidly two feet', "Yet another significant samurai action classic Toshiro Mifune-Akira Kurosawa duo serves great sequel previous Classic 'Yojimbo ' .", 'Excellence', "A Worthy Follow-Up To 'Yojimbo '", "So far weakest Akira Kurosawa 's movie saw", "Among Most Entertaining Kurosawa 's Mifune 's Movies", 'Not bad , great', 'Masterful samurai sword-opera', 'Sanjuro']</t>
+          <t>['Not one Kurasawa s best still great film', 'Outstanding Kurosawa  favourite thus far', 'Funny sequel Yojimbo', 'Sanjuro', 'Is It Really Fun ', 'Funny Adventure', 'Accessible  brisk  actionpacked lot fun', 'Lighter Sequel  Yojimbo ', 'Better genre  even masterpiece  Kurosawa', 'Good  among Kurosawa s best', 'Stupid friends dangerous ', 'The charismatic star seem put much', 'Sanjr', 'An unsheathed sword ', 'A film peace', 'entertaining surprisingly dumb', 'Not quite Yojimbo  still stands solidly two feet', 'Yet another significant samurai action classic Toshiro MifuneAkira Kurosawa duo serves great sequel previous Classic Yojimbo  ', 'Excellence', 'A Worthy FollowUp To Yojimbo ', 'So far weakest Akira Kurosawa s movie saw', 'Among Most Entertaining Kurosawa s Mifune s Movies', 'Not bad  great', 'Masterful samurai swordopera', 'Sanjuro']</t>
         </is>
       </c>
     </row>
@@ -29169,7 +29169,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>['An excellent film', 'Winter Light', 'window', 'Losing', 'Love , God Silence', "Bergman father 's shoes , brief yet good character study", 'Another Self-Indulgent Bergman `` Masterpiece ``', 'better believing', 'confession', 'The existence God part civilization , silence part condition ...', "Ingmar Bergman creates conversational engagement Pastor 's existential crisis god 's silence .", 'The best possibly worst Bergman', 'Spinster Blight ...', "And think 've got problems", 'Intelligent , thoughtful , quiet , involving', 'Interesting , Flawed Emotionally Rich Characters', 'Bergman', 'One best films loneliness I ever saw', "The second Bergman 's 'Silence God ' trilogy .", 'Deep thoughtful annoying elements .', 'A DEEPLY SPIRITUAL MOSAIC OF FAITH AND TRANSGRESSIONS .', 'Stunning cinema serious viewers', '`` I think I made one picture I really like , Winter Light', "Bleak thoroughly profound . One Bergman 's best .", 'Bergman death religion ( ) .']</t>
+          <t>['An excellent film', 'Winter Light', 'window', 'Losing', 'Love  God Silence', 'Bergman father s shoes  brief yet good character study', 'Another SelfIndulgent Bergman  Masterpiece ', 'better believing', 'confession', 'The existence God part civilization  silence part condition ', 'Ingmar Bergman creates conversational engagement Pastor s existential crisis god s silence ', 'The best possibly worst Bergman', 'Spinster Blight ', 'And think ve got problems', 'Intelligent  thoughtful  quiet  involving', 'Interesting  Flawed Emotionally Rich Characters', 'Bergman', 'One best films loneliness I ever saw', 'The second Bergman s Silence God  trilogy ', 'Deep thoughtful annoying elements ', 'A DEEPLY SPIRITUAL MOSAIC OF FAITH AND TRANSGRESSIONS ', 'Stunning cinema serious viewers', ' I think I made one picture I really like  Winter Light', 'Bleak thoroughly profound  One Bergman s best ', 'Bergman death religion   ']</t>
         </is>
       </c>
     </row>
@@ -29213,7 +29213,7 @@
       </c>
       <c r="J654" t="inlineStr">
         <is>
-          <t>['Sushant Singh Rajput Delivers His Finest Performance Okay Biopic !', 'A Good Story spoiled Stretched Screenplay', 'Hagiography 101 ♦ Grade D-', 'We know Dhoni , tale Mahi .', 'M.S . Dhoni : The Untold Story ( 2016 )', '`` M.S.Dhoni : The Untold Story `` pays tribute real-life hero disappoints film', 'Untold Story', '2011 magical year M.S . Dhoni Indian Cricket .', "Movie succeeds portraying Dhoni 's story", 'He impressing field , story impresses screen', 'How make good biopic', 'M Dhoni', "M.S.Dhoni The Untold Story decent attempt Dhoni 's life nothing special stand this.They missed lot untold things shown mostly known things .", 'Decent try', 'Very interesting watch', 'What movie , Stunning ... ! !', 'Neeraj Pandey best ..... Marvelous shot executed', 'Terrific match winning performance Sushant Singh Rajput', 'Too fast , follow', 'So Far The Best Entertainer year', 'Great First Half Pretty Much Directionless After That', 'Painfully long uninspiring scattered story-telling !', 'This movie brings back great memories M.S Dhoni career batsman .', "DO N'T ask Thing Just go watch", 'There one MSD']</t>
+          <t>['Sushant Singh Rajput Delivers His Finest Performance Okay Biopic ', 'A Good Story spoiled Stretched Screenplay', 'Hagiography 101  Grade D', 'We know Dhoni  tale Mahi ', 'MS  Dhoni  The Untold Story  2016 ', ' MSDhoni  The Untold Story  pays tribute reallife hero disappoints film', 'Untold Story', '2011 magical year MS  Dhoni Indian Cricket ', 'Movie succeeds portraying Dhoni s story', 'He impressing field  story impresses screen', 'How make good biopic', 'M Dhoni', 'MSDhoni The Untold Story decent attempt Dhoni s life nothing special stand thisThey missed lot untold things shown mostly known things ', 'Decent try', 'Very interesting watch', 'What movie  Stunning   ', 'Neeraj Pandey best  Marvelous shot executed', 'Terrific match winning performance Sushant Singh Rajput', 'Too fast  follow', 'So Far The Best Entertainer year', 'Great First Half Pretty Much Directionless After That', 'Painfully long uninspiring scattered storytelling ', 'This movie brings back great memories MS Dhoni career batsman ', 'DO NT ask Thing Just go watch', 'There one MSD']</t>
         </is>
       </c>
     </row>
@@ -29257,7 +29257,7 @@
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>['Kya Bore Ho Munnabhai', "It 's way remake , sequel .", 'When times change ...', 'Good natured , crowd-pleasing sequel , hilarious Warsi', 'My Experiments taporis', 'The perfect duology', 'A little simplistic', 'Brilliant Entertaining Movie .. Better First .... MUST SEE', 'Good movie', "Gandhigiri Rocks ! ! ! But movie n't .", 'Good movie', 'Bache raho munna bhai', 'Positive Entertainmenet', 'Perfect , perfect', 'Bole movie Ekdam Sahi Hai Bhai !', 'Much needed every Generation ! ! ! Greatest movie .', 'Gandhigiri', 'Entertaining Fun', 'Get Well Soon Mamu !', 'A film two halves', 'Where Gandhigiri meets Dadagiri ... touch `` chemical locha `` course !', 'One best Hindi movies I seen .', 'Keep .... Lage Raho .', 'A masterpiece !', 'Munna Meets Mahatma Gandhi ! !']</t>
+          <t>['Kya Bore Ho Munnabhai', 'It s way remake  sequel ', 'When times change ', 'Good natured  crowdpleasing sequel  hilarious Warsi', 'My Experiments taporis', 'The perfect duology', 'A little simplistic', 'Brilliant Entertaining Movie  Better First  MUST SEE', 'Good movie', 'Gandhigiri Rocks    But movie nt ', 'Good movie', 'Bache raho munna bhai', 'Positive Entertainmenet', 'Perfect  perfect', 'Bole movie Ekdam Sahi Hai Bhai ', 'Much needed every Generation    Greatest movie ', 'Gandhigiri', 'Entertaining Fun', 'Get Well Soon Mamu ', 'A film two halves', 'Where Gandhigiri meets Dadagiri  touch  chemical locha  course ', 'One best Hindi movies I seen ', 'Keep  Lage Raho ', 'A masterpiece ', 'Munna Meets Mahatma Gandhi  ']</t>
         </is>
       </c>
     </row>
@@ -29301,7 +29301,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>['A Nutshell Review : Special Chabbis', 'A Must See !', 'Special 6', 'Special 26 Is A Super-Over-Smart Movie With Traces Of Buffoonery !', 'A fine heist thriller enjoyable willing ignore big open loopholes .', 'Average treat could scripted better !', 'Despite Getting Bogged Down By Forgettable Dance Segments , A Kitschy Romantic Subplot &amp; A Hollow First-Half , Special 26 Gains Momentum Post-Interval And Wins Big With Climax', 'Recommended 👍', 'A well written ill executed film .', 'Superb movie', 'It dilemma fiction real', 'One best hind films ever . One best heist dramas ever ! ! !', 'Good thriller', 'Heist movies come age Bollywood !', 'MY REVIEW : Special every sense ! !', 'The another heist one .', "Neeraj Pandey 's second great achievement !", 'Very special entertainer', 'Must Watch', 'Intelligent Plotline , Good Performances', 'An underrated Gem ! !', 'A Well-Made Thriller', 'Special 26', 'Special Chabbis : Excellent movie !', 'Mind blowing']</t>
+          <t>['A Nutshell Review  Special Chabbis', 'A Must See ', 'Special 6', 'Special 26 Is A SuperOverSmart Movie With Traces Of Buffoonery ', 'A fine heist thriller enjoyable willing ignore big open loopholes ', 'Average treat could scripted better ', 'Despite Getting Bogged Down By Forgettable Dance Segments  A Kitschy Romantic Subplot  A Hollow FirstHalf  Special 26 Gains Momentum PostInterval And Wins Big With Climax', 'Recommended ', 'A well written ill executed film ', 'Superb movie', 'It dilemma fiction real', 'One best hind films ever  One best heist dramas ever   ', 'Good thriller', 'Heist movies come age Bollywood ', 'MY REVIEW  Special every sense  ', 'The another heist one ', 'Neeraj Pandey s second great achievement ', 'Very special entertainer', 'Must Watch', 'Intelligent Plotline  Good Performances', 'An underrated Gem  ', 'A WellMade Thriller', 'Special 26', 'Special Chabbis  Excellent movie ', 'Mind blowing']</t>
         </is>
       </c>
     </row>
@@ -29345,7 +29345,7 @@
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>['I intended audience one .', 'Bollywood fun', 'A Magnificent Comedy !', 'Delhi Belly ...', 'Extremely silly', "Sometimes humour simply n't translate", 'Enjoy With family', 'Cult Classic .', 'Unbiased western review !', 'Overlong generally funny comedy', 'Highly under-rated classic', 'Andaz Apna Apna ( 1994 )', '`` Comedy ``', 'The best madcap Indian comedy film ever', 'Funniest Bollywood Film time', 'Establishment Slapstick comedies india', 'AAA : Another Awful Atrocity', '11/10 also less .', 'Like Watching Monkees', 'Andaz Apna Apna `` timeless comedy stood test time', 'An All Time Classic', 'Cult Classic Hindi Comedy', "Watch performances comedy n't expect logic", 'Perfect retro comedy', 'Innocent Lovable . Smug intellectuals , stay away .']</t>
+          <t>['I intended audience one ', 'Bollywood fun', 'A Magnificent Comedy ', 'Delhi Belly ', 'Extremely silly', 'Sometimes humour simply nt translate', 'Enjoy With family', 'Cult Classic ', 'Unbiased western review ', 'Overlong generally funny comedy', 'Highly underrated classic', 'Andaz Apna Apna  1994 ', ' Comedy ', 'The best madcap Indian comedy film ever', 'Funniest Bollywood Film time', 'Establishment Slapstick comedies india', 'AAA  Another Awful Atrocity', '1110 also less ', 'Like Watching Monkees', 'Andaz Apna Apna  timeless comedy stood test time', 'An All Time Classic', 'Cult Classic Hindi Comedy', 'Watch performances comedy nt expect logic', 'Perfect retro comedy', 'Innocent Lovable  Smug intellectuals  stay away ']</t>
         </is>
       </c>
     </row>
@@ -29389,7 +29389,7 @@
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>['The Speech . . .', 'Inspired Kubrick', 'still long way get across situation world .', 'A landmark Turkish film despite flaws confronts difficult topics ...', 'War movie based true stories realistically shot !', 'Turkish Patriots - All Way !', 'The movie finally forced write first comment IMDb ... Must see !', 'Must-See Politically Inclined', 'Excellence', 'good step Turkish movie industry .', 'A good movie , surely international ...', 'Very good shooting poor story !', 'Turkish Nationalism reigns supreme !', 'Significant', "Soldiers ' view short episode , long-time raging war", 'Bunch poets wandering Special Forces', "FAKE Reviews Here DO N'T HELP Film !", 'Breath/Nefes Breathtaking', 'Masterpiece ...', 'Not good !', 'Anyone 90s Turkey would appreciate movie thoroughly .', 'better American war films one soldier never dies : ) )', "It 's war movie", 'Waste Time', 'A piece propaganda art']</t>
+          <t>['The Speech   ', 'Inspired Kubrick', 'still long way get across situation world ', 'A landmark Turkish film despite flaws confronts difficult topics ', 'War movie based true stories realistically shot ', 'Turkish Patriots  All Way ', 'The movie finally forced write first comment IMDb  Must see ', 'MustSee Politically Inclined', 'Excellence', 'good step Turkish movie industry ', 'A good movie  surely international ', 'Very good shooting poor story ', 'Turkish Nationalism reigns supreme ', 'Significant', 'Soldiers  view short episode  longtime raging war', 'Bunch poets wandering Special Forces', 'FAKE Reviews Here DO NT HELP Film ', 'BreathNefes Breathtaking', 'Masterpiece ', 'Not good ', 'Anyone 90s Turkey would appreciate movie thoroughly ', 'better American war films one soldier never dies   ', 'It s war movie', 'Waste Time', 'A piece propaganda art']</t>
         </is>
       </c>
     </row>
@@ -29433,7 +29433,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>['An entertaining Turkish dramady first TV Eastern Turkey .', 'Will Zeki Muren see us ?', 'Vizontele', "A bitter-sweet story bygone eastern Turkey seemingly still sepia-tinged 70 's ...", 'Yilmaz Erdogan gives good impressions first directorship exam .', "The funniest movie 've seen", 'Perfect', 'Turkish classic', '9 Because', 'A theater play would better', 'Masterpiece', 'Not Camdan Kalp', 'Very well ...', 'It one best films ever seen .', 'Superior', 'Traditional', "great fun production Turkey , n't miss", 'Insipid effective selling !', 'Very Funny ...', 'My Favourite Turkish Movie', 'Exciting Movie']</t>
+          <t>['An entertaining Turkish dramady first TV Eastern Turkey ', 'Will Zeki Muren see us ', 'Vizontele', 'A bittersweet story bygone eastern Turkey seemingly still sepiatinged 70 s ', 'Yilmaz Erdogan gives good impressions first directorship exam ', 'The funniest movie ve seen', 'Perfect', 'Turkish classic', '9 Because', 'A theater play would better', 'Masterpiece', 'Not Camdan Kalp', 'Very well ', 'It one best films ever seen ', 'Superior', 'Traditional', 'great fun production Turkey  nt miss', 'Insipid effective selling ', 'Very Funny ', 'My Favourite Turkish Movie', 'Exciting Movie']</t>
         </is>
       </c>
     </row>
@@ -29477,7 +29477,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>['Aside slow portions middle , marvelous film Disney .', "Pixar 's best film since Toy Story 3 one finest overall", 'emotional imaginative', "The Older You Are More You 'll Like It", 'An Intriguing View Emotions', 'In head', 'We need bit Joy life : - )', 'Inside head Pixar', 'One Most Creative Animations Ever Made', 'Smart , insightful , moving , fun', 'What would another emotion ?', 'A Strong , Emotional Film From Pixar', 'A good film . Inside', 'Disney-Pixar comedy emotions seems operate mania anything else', 'Joy Sadness', 'Inside Out another excellent Disney/Pixar animated feature', 'A fun way understand brain works', 'Something Different Your Animation Library', 'Sweet movie growing , making memories dealing change', "That 's Why We Have Therapists", 'Yet another Pixar masterpiece', 'Imaginative animated flick goes mind', "Now 's like", 'Tremendous', "Do n't believe hype !"]</t>
+          <t>['Aside slow portions middle  marvelous film Disney ', 'Pixar s best film since Toy Story 3 one finest overall', 'emotional imaginative', 'The Older You Are More You ll Like It', 'An Intriguing View Emotions', 'In head', 'We need bit Joy life   ', 'Inside head Pixar', 'One Most Creative Animations Ever Made', 'Smart  insightful  moving  fun', 'What would another emotion ', 'A Strong  Emotional Film From Pixar', 'A good film  Inside', 'DisneyPixar comedy emotions seems operate mania anything else', 'Joy Sadness', 'Inside Out another excellent DisneyPixar animated feature', 'A fun way understand brain works', 'Something Different Your Animation Library', 'Sweet movie growing  making memories dealing change', 'That s Why We Have Therapists', 'Yet another Pixar masterpiece', 'Imaginative animated flick goes mind', 'Now s like', 'Tremendous', 'Do nt believe hype ']</t>
         </is>
       </c>
     </row>
@@ -29521,7 +29521,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>['880 reviews counting ....', "Another David Fincher winner one year 's best", 'twisty cold-hearted thriller', 'Fincher Once Again Comes Thru', 'Gone forgotten', "It 's clever , funny , something little different .", 'Bye bye', 'one said relationships going easy', 'Twisted Mind Game', 'Cyphers story holes ...', 'Gone Girl film see fall , I kid !', 'A captivating mystery thriller', '`` I drank beer watched Adam Sandler Movies . ``', 'Brilliant thriller', 'Brilliant thriller', 'Trash But Entertaining Trash', 'Very good almost great', 'Hot', 'This movie masterpiece absolute must see', 'A Pot Boiler Any Other Name ....', 'Trust Me Morning', 'Good movie slightly disappointing ending', 'Rather long thrilling', "'My God , place literally smells like feces . '", 'Enormously entertaining']</t>
+          <t>['880 reviews counting ', 'Another David Fincher winner one year s best', 'twisty coldhearted thriller', 'Fincher Once Again Comes Thru', 'Gone forgotten', 'It s clever  funny  something little different ', 'Bye bye', 'one said relationships going easy', 'Twisted Mind Game', 'Cyphers story holes ', 'Gone Girl film see fall  I kid ', 'A captivating mystery thriller', ' I drank beer watched Adam Sandler Movies  ', 'Brilliant thriller', 'Brilliant thriller', 'Trash But Entertaining Trash', 'Very good almost great', 'Hot', 'This movie masterpiece absolute must see', 'A Pot Boiler Any Other Name ', 'Trust Me Morning', 'Good movie slightly disappointing ending', 'Rather long thrilling', 'My God  place literally smells like feces  ', 'Enormously entertaining']</t>
         </is>
       </c>
     </row>
@@ -29565,7 +29565,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>['A wonderful film ... word f # @ $ used 102030841 times !', 'Affectionate stoner comedy', 'unique , weird , funny', 'Classic Comedy Some Terrific Performances', 'Goodman Bridges , Oh My !', 'memorable', 'The Big Lebowski', 'He really The Dude !', 'The Dude abides ... watches', 'Not perfect wonderfully imaginative humorous', 'Coen film thrills , emotion , musical numbers humor tongue-in-cheek', 'Let good times bowl !', 'Hugely entertaining !', 'baby boomers - The Dude abides', "Arguably Coen Brother 's funniest work , superb lead Bridges", "Let 's go bowling", "This ol ' movie really ties collection together .", 'Divides Like A 7-10 Split ... Wonderful Colorful ( Look &amp; Characters ) Profane-Full Picture', 'The Coen Brothers hilarious , trippy , irreverent best', 'There many random lines , activities situations take place virtually impossible enjoy film .', 'Yeah , well . The Dude abides .', "Dude , let 's go logjammin '", 'Instant classic .', 'The Cohen brothers ! ! !', 'The Dude wants rug back .']</t>
+          <t>['A wonderful film  word f    used 102030841 times ', 'Affectionate stoner comedy', 'unique  weird  funny', 'Classic Comedy Some Terrific Performances', 'Goodman Bridges  Oh My ', 'memorable', 'The Big Lebowski', 'He really The Dude ', 'The Dude abides  watches', 'Not perfect wonderfully imaginative humorous', 'Coen film thrills  emotion  musical numbers humor tongueincheek', 'Let good times bowl ', 'Hugely entertaining ', 'baby boomers  The Dude abides', 'Arguably Coen Brother s funniest work  superb lead Bridges', 'Let s go bowling', 'This ol  movie really ties collection together ', 'Divides Like A 710 Split  Wonderful Colorful  Look  Characters  ProfaneFull Picture', 'The Coen Brothers hilarious  trippy  irreverent best', 'There many random lines  activities situations take place virtually impossible enjoy film ', 'Yeah  well  The Dude abides ', 'Dude  let s go logjammin ', 'Instant classic ', 'The Cohen brothers   ', 'The Dude wants rug back ']</t>
         </is>
       </c>
     </row>
@@ -29609,7 +29609,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>['Long length high suspense tension', 'Relentlessly grim ... rather predictable', 'good intense', 'Wonderful Mystery That Keeps You Guessing Till End', 'Loki detective', 'Brilliantly acted , hugely bleak , excellent film .', 'More one meaning', "Dark morally murky even n't courage convictions", 'A fathers race time morals ...', 'Denis Villeneuve better `` Incendies ``', 'Intense Abduction Thriller', 'However flawed , superlative acting makes worth-seeing ...', 'Prisoners compelling enough ambiguous way things eventually turn', 'So many prisoners', 'Never Totally Convincing', 'Superb crime-drama', 'Be prepared worst , hope best . Pray best , prepare worst .', 'Stomach Knots', 'Be Prepared ... Seek Vengeance', 'Why making ?', 'Glum , overlong , goes rails end', 'Without doubt best movie 2013', "'We prisoners , device . '", 'Gripping mystery', 'A bleak , slow-burn thriller manages become one affecting films recent years .']</t>
+          <t>['Long length high suspense tension', 'Relentlessly grim  rather predictable', 'good intense', 'Wonderful Mystery That Keeps You Guessing Till End', 'Loki detective', 'Brilliantly acted  hugely bleak  excellent film ', 'More one meaning', 'Dark morally murky even nt courage convictions', 'A fathers race time morals ', 'Denis Villeneuve better  Incendies ', 'Intense Abduction Thriller', 'However flawed  superlative acting makes worthseeing ', 'Prisoners compelling enough ambiguous way things eventually turn', 'So many prisoners', 'Never Totally Convincing', 'Superb crimedrama', 'Be prepared worst  hope best  Pray best  prepare worst ', 'Stomach Knots', 'Be Prepared  Seek Vengeance', 'Why making ', 'Glum  overlong  goes rails end', 'Without doubt best movie 2013', 'We prisoners  device  ', 'Gripping mystery', 'A bleak  slowburn thriller manages become one affecting films recent years ']</t>
         </is>
       </c>
     </row>
@@ -29653,7 +29653,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>["One Pixar 's best", 'An unexpected surprise film , great message .', 'tasty treat', 'Among Greatest Animated Features', 'modern hero', 'Rat mi kitchen', 'Smells like ...', 'Anyone Can Cook', 'Lacks usual quick-fire one-liners Pixar films usual quality every regard', 'Decent Pixar', 'Very Rich Colors Are Fantastic ; Mouse Is Great ; Humans Not So', 'Pixar !', 'truly devilish fun mind-blowingly entertaining classic cartoon style , also successful storytelling- magnifique !', 'Ratatouille another highly enjoyable Disney/Pixar animated feature', 'Excellent animation', 'Starts well , ends silly dull', 'Hyper Reality', 'An absolute delight', 'RATATOUILLE ( Brad Bird Jan Pinkava , 2007 ) * * *', 'Ah , match wishful thinking . If focus left behind . You never able see lies ahead . Now go look around .', 'Not Incredible `` The Incredibles ``', 'Has offer', 'My compliments chef !', 'Probably Best Film Not Entertaining 2007 !', 'Keep mind - I liked movie , criticisms mostly negative I expect Pixar']</t>
+          <t>['One Pixar s best', 'An unexpected surprise film  great message ', 'tasty treat', 'Among Greatest Animated Features', 'modern hero', 'Rat mi kitchen', 'Smells like ', 'Anyone Can Cook', 'Lacks usual quickfire oneliners Pixar films usual quality every regard', 'Decent Pixar', 'Very Rich Colors Are Fantastic  Mouse Is Great  Humans Not So', 'Pixar ', 'truly devilish fun mindblowingly entertaining classic cartoon style  also successful storytelling magnifique ', 'Ratatouille another highly enjoyable DisneyPixar animated feature', 'Excellent animation', 'Starts well  ends silly dull', 'Hyper Reality', 'An absolute delight', 'RATATOUILLE  Brad Bird Jan Pinkava  2007    ', 'Ah  match wishful thinking  If focus left behind  You never able see lies ahead  Now go look around ', 'Not Incredible  The Incredibles ', 'Has offer', 'My compliments chef ', 'Probably Best Film Not Entertaining 2007 ', 'Keep mind  I liked movie  criticisms mostly negative I expect Pixar']</t>
         </is>
       </c>
     </row>
@@ -29697,7 +29697,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>["One Ridley Scott 's best", 'important sci-fi film', 'One Best Looking Dark Films Ever Made', 'Are We This Cruel ?', 'A sense ending', 'A warning curious .', 'Existing', 'Living Fear Quest Life', 'Visionary - voiceover spoils audience involvement', "Comments Director 's Cut", 'It good , hardly classic ...', 'A genuine classic Science Fiction movie thrills , emotion , intrigue beautifully photographed', 'ugly future', 'Philosophy Film', 'New Blu-Ray Disc Made Me A Blade Runner Fan', 'A good somewhat overrated sci-fi movie .', "One best looking films 80 's Ridley Scott", 'The Future mean , ugly ... rather dull .', 'Pretty good', 'Mind-bending , Needs Better Balance', 'Very good', 'Retirement - Replicants - Resplendent .', 'Replicants human', 'Several different versions , favorite one one I saw back 1982', 'Great']</t>
+          <t>['One Ridley Scott s best', 'important scifi film', 'One Best Looking Dark Films Ever Made', 'Are We This Cruel ', 'A sense ending', 'A warning curious ', 'Existing', 'Living Fear Quest Life', 'Visionary  voiceover spoils audience involvement', 'Comments Director s Cut', 'It good  hardly classic ', 'A genuine classic Science Fiction movie thrills  emotion  intrigue beautifully photographed', 'ugly future', 'Philosophy Film', 'New BluRay Disc Made Me A Blade Runner Fan', 'A good somewhat overrated scifi movie ', 'One best looking films 80 s Ridley Scott', 'The Future mean  ugly  rather dull ', 'Pretty good', 'Mindbending  Needs Better Balance', 'Very good', 'Retirement  Replicants  Resplendent ', 'Replicants human', 'Several different versions  favorite one one I saw back 1982', 'Great']</t>
         </is>
       </c>
     </row>
@@ -29741,7 +29741,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>["I 'm glad I gave one second chance .", 'My favourite Coen brothers movie', "Coen brothers ' black comedy masterpiece", "Well I S'pose Ya Should See It , Ya Know", 'Fargo', "It 's entertaining film .", 'A solid story supported weird wonderful array characters sharp writing', 'A black comedy based facts petty crime leads terrible events', 'If hook slime-ball people , expect slime-ball things happen .', 'One All-Time Greats', 'The Best Effort From A Number Of People', 'Excellent acting , smugness hangs whole thing like frosty pall', 'You call get snippy .', 'fools snow', 'Possibly best film 96', 'Oh yeah', 'One funniest dark comedies time .', 'Maybe I Can Take Off My Parka Now !', "`` He 's fleeing interview , 's fleeing interview . ``", 'A masterpiece light dark Coen Brothers', 'Internally Frayed', 'Paul Bunyan territory', 'Black comedy one kind sort film ... lots shivers along laughs ...', 'Chipper', 'Dark Humor']</t>
+          <t>['I m glad I gave one second chance ', 'My favourite Coen brothers movie', 'Coen brothers  black comedy masterpiece', 'Well I Spose Ya Should See It  Ya Know', 'Fargo', 'It s entertaining film ', 'A solid story supported weird wonderful array characters sharp writing', 'A black comedy based facts petty crime leads terrible events', 'If hook slimeball people  expect slimeball things happen ', 'One AllTime Greats', 'The Best Effort From A Number Of People', 'Excellent acting  smugness hangs whole thing like frosty pall', 'You call get snippy ', 'fools snow', 'Possibly best film 96', 'Oh yeah', 'One funniest dark comedies time ', 'Maybe I Can Take Off My Parka Now ', ' He s fleeing interview  s fleeing interview  ', 'A masterpiece light dark Coen Brothers', 'Internally Frayed', 'Paul Bunyan territory', 'Black comedy one kind sort film  lots shivers along laughs ', 'Chipper', 'Dark Humor']</t>
         </is>
       </c>
     </row>
@@ -29785,7 +29785,7 @@
       </c>
       <c r="J667" t="inlineStr">
         <is>
-          <t>['Well made mindlessly entertaining ....', 'Pure action spectacle', 'unrelenting action', "Unlike Anything You 've Previously Seen", 'It Never Stops', 'admirable', 'Mad Max returns', 'Mad Furiosa Max', 'Terrible Overrated Sequel', 'Admirable commitment scale , certainly hype suggests', 'A visually impressive movie lacks proper storyline ...', 'An apocalyptic thrilling story set furthest reaches planet lots action , pursuits violence', "worth seeing Charlize Theron 's performance", 'Welcome back , Max .', 'Surprisingly Suspenseful Epic', 'pure cinema - time , worth wait', "Oh 's lovely day ! I 'm glad I spent Max ! !", "It 's ridiculous !", 'Oh , day ! What lovely day !', 'I felt boomerism rising watching ..', 'Signifying Fury In An Imaginative Gloriously Detailed Display', 'Entertaining', 'Some Dusty Pig', 'George Miller brings us fourth Mad Max film - Ultimate Carmageddon !', 'Nothing More Than A Noisy Blockbuster']</t>
+          <t>['Well made mindlessly entertaining ', 'Pure action spectacle', 'unrelenting action', 'Unlike Anything You ve Previously Seen', 'It Never Stops', 'admirable', 'Mad Max returns', 'Mad Furiosa Max', 'Terrible Overrated Sequel', 'Admirable commitment scale  certainly hype suggests', 'A visually impressive movie lacks proper storyline ', 'An apocalyptic thrilling story set furthest reaches planet lots action  pursuits violence', 'worth seeing Charlize Theron s performance', 'Welcome back  Max ', 'Surprisingly Suspenseful Epic', 'pure cinema  time  worth wait', 'Oh s lovely day  I m glad I spent Max  ', 'It s ridiculous ', 'Oh  day  What lovely day ', 'I felt boomerism rising watching ', 'Signifying Fury In An Imaginative Gloriously Detailed Display', 'Entertaining', 'Some Dusty Pig', 'George Miller brings us fourth Mad Max film  Ultimate Carmageddon ', 'Nothing More Than A Noisy Blockbuster']</t>
         </is>
       </c>
     </row>
@@ -29829,7 +29829,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>['Phenomenal !', 'Channeling Robert Newton', 'memorable Johnny Depp', 'The First Best', 'Too Many Rules Follow', 'Captain Jack Sparrow arrives', "Really good fun \x96 n't take seriously played perfection wonderful Depp", "It 's fascinating amusing pirates film lot entertainment fun", 'Ahoy mateys , one cool movie !', 'A Bombastic Start Franchise', "The Good &amp; Bad Of 'Pirates Of The Caribbean : Curse Of The Black Pearl '", "A fun movie , I DVD , I n't find quite good many .", 'The best . Forget rest', 'savvy ?', "n't deserve much hype Summer 2003", 'An entertaining jumbalaya pirate movie', 'A giant , thrilling roller coaster-ride , indeed', 'Pirates Caribbean : The Curse Black Pearl adequate experience first-time viewer', 'Johnny Depp Is Ready His Close-Up', 'Pirates ye beware !', 'Ah , heard .', 'I Liked This A Lot', 'Great poster , lousy movie', 'Piracy high seas never looked good ( DVD ) ...', 'The first still best one series']</t>
+          <t>['Phenomenal ', 'Channeling Robert Newton', 'memorable Johnny Depp', 'The First Best', 'Too Many Rules Follow', 'Captain Jack Sparrow arrives', 'Really good fun  nt take seriously played perfection wonderful Depp', 'It s fascinating amusing pirates film lot entertainment fun', 'Ahoy mateys  one cool movie ', 'A Bombastic Start Franchise', 'The Good  Bad Of Pirates Of The Caribbean  Curse Of The Black Pearl ', 'A fun movie  I DVD  I nt find quite good many ', 'The best  Forget rest', 'savvy ', 'nt deserve much hype Summer 2003', 'An entertaining jumbalaya pirate movie', 'A giant  thrilling roller coasterride  indeed', 'Pirates Caribbean  The Curse Black Pearl adequate experience firsttime viewer', 'Johnny Depp Is Ready His CloseUp', 'Pirates ye beware ', 'Ah  heard ', 'I Liked This A Lot', 'Great poster  lousy movie', 'Piracy high seas never looked good  DVD  ', 'The first still best one series']</t>
         </is>
       </c>
     </row>
@@ -29873,7 +29873,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>['One movies genuinely unsettle', 'horror classic', 'Terrific Performances Direction', "Do n't take personally", 'Tubular Bells', 'A landmark horror .', 'A classic horror movie ...', 'Suspense , mystery , shocks grisly horror classic terror film', 'Sympathy devil ice , folks ! And name Damian ?', 'Good\x97but great !', 'Still Shocking After All These Years', 'Mechanically engineered scares', 'Stands test time , - almost imitators pale presence', 'Creepy', 'What excellent day exorcism .', "It n't scare anymore ...", '50 Years Later ... Overview &amp; Outline `` Phenom `` ... Mega-Hit &amp; Mega Box-Office', 'Classic horror', 'Deep Archetypical Contrasts', 'I Couldn ` Stop Laughing', 'Still scary shocking', "A landmark among horror films ? ? ? ... I n't think ...", 'The Scariest Movie I Have Ever Seen', 'Horror Classic', 'A Steaming Pile Demon Puke']</t>
+          <t>['One movies genuinely unsettle', 'horror classic', 'Terrific Performances Direction', 'Do nt take personally', 'Tubular Bells', 'A landmark horror ', 'A classic horror movie ', 'Suspense  mystery  shocks grisly horror classic terror film', 'Sympathy devil ice  folks  And name Damian ', 'Goodbut great ', 'Still Shocking After All These Years', 'Mechanically engineered scares', 'Stands test time   almost imitators pale presence', 'Creepy', 'What excellent day exorcism ', 'It nt scare anymore ', '50 Years Later  Overview  Outline  Phenom   MegaHit  Mega BoxOffice', 'Classic horror', 'Deep Archetypical Contrasts', 'I Couldn  Stop Laughing', 'Still scary shocking', 'A landmark among horror films     I nt think ', 'The Scariest Movie I Have Ever Seen', 'Horror Classic', 'A Steaming Pile Demon Puke']</t>
         </is>
       </c>
     </row>
@@ -29917,7 +29917,7 @@
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>["Mel Gibson 's near-triumphant come-back", "The 'using kind religion ' .", 'aw shucks sincerity', 'Masterful Direction Makes Terrific War Film', 'Stirring War Film', 'admirable work', 'Saved Private Doss', 'This film packs brutal punch .', 'War - The saviour', 'An epic breathtaking WWII movie great performances impressive battles', 'Surprisingly Enjoyable Film', 'Passion soldier', 'Born Kill meets Peace .', 'Hacksaw Ridge compelling take heroism one Desmond Doss', 'It made tremble weep hour .', 'An Anti-War Pro-War Movie ... Pretension Cliché Embraced Ease', 'Powerful drama', "Most men n't believe way , believe much much believe .", 'Tries Too Hard', 'Non-Violence Heat Battle', 'Oh Good Grief Mel Gibson', 'respect', 'One best war movies ever .', 'Tribute real-life WW2 `` conscientious collaborator ``', 'Never boring , though kind mixed bag end']</t>
+          <t>['Mel Gibson s neartriumphant comeback', 'The using kind religion  ', 'aw shucks sincerity', 'Masterful Direction Makes Terrific War Film', 'Stirring War Film', 'admirable work', 'Saved Private Doss', 'This film packs brutal punch ', 'War  The saviour', 'An epic breathtaking WWII movie great performances impressive battles', 'Surprisingly Enjoyable Film', 'Passion soldier', 'Born Kill meets Peace ', 'Hacksaw Ridge compelling take heroism one Desmond Doss', 'It made tremble weep hour ', 'An AntiWar ProWar Movie  Pretension Clich Embraced Ease', 'Powerful drama', 'Most men nt believe way  believe much much believe ', 'Tries Too Hard', 'NonViolence Heat Battle', 'Oh Good Grief Mel Gibson', 'respect', 'One best war movies ever ', 'Tribute reallife WW2  conscientious collaborator ', 'Never boring  though kind mixed bag end']</t>
         </is>
       </c>
     </row>
@@ -29961,7 +29961,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>['Strange pretty much impossible describe .', 'A hotel well worth revisiting', 'A new high Wes Anderson', 'A lot Style Little Substance', 'Off Wall Delightful', 'remember', 'Not Tripadvisor review', 'A feast eyes .', 'Hotel Business', 'Another Original Weird Movie Wes Anderson', 'Delightfully whimsical comedy adventure , great design fun performances', 'think pink look days yore', 'Another Solid Wes Anderson Outing', 'Wes Anderson shares us whimsical goings creative mind .', 'Sophisticated , beautiful , funny , bittersweet', 'funny engaging , may need grow time', "Having experienced many Wes Anderson 's movies , I enamored seeing another called The Grand Budapest Hotel", 'Enjoyable', 'Unconventionally Entertaining Visually Stunning', 'Great ... spells', 'Delightful Black Comedy', 'adventure old eastern block', "A quirky delight , &amp; surely among Wes Anderson 's best", 'Wes Anderson Off His Game', 'Not Zero']</t>
+          <t>['Strange pretty much impossible describe ', 'A hotel well worth revisiting', 'A new high Wes Anderson', 'A lot Style Little Substance', 'Off Wall Delightful', 'remember', 'Not Tripadvisor review', 'A feast eyes ', 'Hotel Business', 'Another Original Weird Movie Wes Anderson', 'Delightfully whimsical comedy adventure  great design fun performances', 'think pink look days yore', 'Another Solid Wes Anderson Outing', 'Wes Anderson shares us whimsical goings creative mind ', 'Sophisticated  beautiful  funny  bittersweet', 'funny engaging  may need grow time', 'Having experienced many Wes Anderson s movies  I enamored seeing another called The Grand Budapest Hotel', 'Enjoyable', 'Unconventionally Entertaining Visually Stunning', 'Great  spells', 'Delightful Black Comedy', 'adventure old eastern block', 'A quirky delight   surely among Wes Anderson s best', 'Wes Anderson Off His Game', 'Not Zero']</t>
         </is>
       </c>
     </row>
@@ -30005,7 +30005,7 @@
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>['Incredibly watchable enjoyable , really glorifies criminal behavior .', 'A film well worth catching', "Nyah , Nyah , ca n't catch", 'light hearted romp', 'Like Father , Like son', 'admirable', 'Catch Me If You Can', "Knock knock , 's great movie .", 'Going Places', 'Slick enjoyable story telling', 'Catch film .', 'Pretty Interesting Look At An Impersonator', 'Catch', 'Superficial whiff idea', 'Great story + two marvelous actors + brilliant director -= recipe entertainment', 'make money time ... entertaining', 'Fun con movie', 'A Flash Lightning Leonardo DiCaprio', 'Leonardo', 'Two little mice fell bucket cream .', 'Witty con man .', 'Good entertainment better ...', "My complaint casting someone 6 feet tall opposed character based looked like 5 ' 8", 'A Resourceful Con Artist versus Tenacious FBI Agent', 'Romp Impostor']</t>
+          <t>['Incredibly watchable enjoyable  really glorifies criminal behavior ', 'A film well worth catching', 'Nyah  Nyah  ca nt catch', 'light hearted romp', 'Like Father  Like son', 'admirable', 'Catch Me If You Can', 'Knock knock  s great movie ', 'Going Places', 'Slick enjoyable story telling', 'Catch film ', 'Pretty Interesting Look At An Impersonator', 'Catch', 'Superficial whiff idea', 'Great story  two marvelous actors  brilliant director  recipe entertainment', 'make money time  entertaining', 'Fun con movie', 'A Flash Lightning Leonardo DiCaprio', 'Leonardo', 'Two little mice fell bucket cream ', 'Witty con man ', 'Good entertainment better ', 'My complaint casting someone 6 feet tall opposed character based looked like 5  8', 'A Resourceful Con Artist versus Tenacious FBI Agent', 'Romp Impostor']</t>
         </is>
       </c>
     </row>
@@ -30049,7 +30049,7 @@
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>["I n't get hype ....", 'Unforgettable', 'Coming-of-age drama pen Stephen King', 'Superb film making', 'Great childhood memories', 'Masterpiece', 'Masterful Storytelling', "Another Nostalgic Little Gem 80 's", 'A nostalgic sensitive motion picture good young actors', 'Stephen King always knows nostalgia', "Nostalgia ai n't used .", 'Finally Saw This Loved It', 'After years , Stand By Me stood test time !', 'Phoenix Wheaton make movie', 'Death Early Age', 'Wonderfully done ; one best Stephen King adaptations .', 'Superb , moving movie', 'The Body Comes Age', 'Kid Comradery', 'Just great', 'Unusual drama adaption king horror novels', "`` I Wo n't Cry , I Wo n't Cry , No , I Wo n't Shed A Tear ... ``", 'One greatest coming age movies ever created', 'Notable Making Me Hate Kiefer Sutherland', 'One best King adaptations']</t>
+          <t>['I nt get hype ', 'Unforgettable', 'Comingofage drama pen Stephen King', 'Superb film making', 'Great childhood memories', 'Masterpiece', 'Masterful Storytelling', 'Another Nostalgic Little Gem 80 s', 'A nostalgic sensitive motion picture good young actors', 'Stephen King always knows nostalgia', 'Nostalgia ai nt used ', 'Finally Saw This Loved It', 'After years  Stand By Me stood test time ', 'Phoenix Wheaton make movie', 'Death Early Age', 'Wonderfully done  one best Stephen King adaptations ', 'Superb  moving movie', 'The Body Comes Age', 'Kid Comradery', 'Just great', 'Unusual drama adaption king horror novels', ' I Wo nt Cry  I Wo nt Cry  No  I Wo nt Shed A Tear  ', 'One greatest coming age movies ever created', 'Notable Making Me Hate Kiefer Sutherland', 'One best King adaptations']</t>
         </is>
       </c>
     </row>
@@ -30093,7 +30093,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>['Passable conclusion largely disappointing series', 'Hogwarts Kids Are True To Their School', 'Satisfying end series', 'The Series Certainly Ends High Note', "What 's next ?", '...', 'The magic ends', 'Grandiose finale purely `` magical `` franchise !', 'Ending high note', 'Good riddance .', "It quality one 's convictions determines success , number followers .", 'A satisfying conclusion epic series ...', "You ca n't help cry", 'This movie perfect conclusion Harry Potter series every way .', 'It All Ends -- And Not Horcrux Too Soon', 'The series ends strong note .', 'Saved Best till Last', 'Wizard ending', 'A Nutshell Review : Harry Potter Deathly Hallows : Part 2', 'Much Better Than Part 1', 'A Worthy Finale !', 'Perfectly watchable , utterly forgettable', 'A fitting finish Harry Potter series', 'A satisfying conclusion , full spectacle', '`` The Return Harry `` ... ended genre-defining saga ...']</t>
+          <t>['Passable conclusion largely disappointing series', 'Hogwarts Kids Are True To Their School', 'Satisfying end series', 'The Series Certainly Ends High Note', 'What s next ', '', 'The magic ends', 'Grandiose finale purely  magical  franchise ', 'Ending high note', 'Good riddance ', 'It quality one s convictions determines success  number followers ', 'A satisfying conclusion epic series ', 'You ca nt help cry', 'This movie perfect conclusion Harry Potter series every way ', 'It All Ends  And Not Horcrux Too Soon', 'The series ends strong note ', 'Saved Best till Last', 'Wizard ending', 'A Nutshell Review  Harry Potter Deathly Hallows  Part 2', 'Much Better Than Part 1', 'A Worthy Finale ', 'Perfectly watchable  utterly forgettable', 'A fitting finish Harry Potter series', 'A satisfying conclusion  full spectacle', ' The Return Harry   ended genredefining saga ']</t>
         </is>
       </c>
     </row>
@@ -30137,7 +30137,7 @@
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>["The film cost million grossed 100,000,000 domestically ..... 'nuff said .", 'The Cinderella Film', "Sly 's Best", 'Great', "What 's Not Like", 'Rocky', "It 's still knockout movie .", 'Underdog', 'A good Hollywood button pusher', 'Good , masterpiece ...', 'Unforgettable picture failed boxer Rocky Balboa gets chance make better life fighting heavyweight champion', "My orthodontist outline Sylvester Stallone 's body filled pages `` Rocky `` script .", 'A classic underdog story', 'Yo !', "An Inspirational Film About People Who Do n't Talk Right", 'The Rocky Movie With Character Studies', "There 's little sense criticizing weaknesses ... picture fool-proof", 'Best sports film- A LANDSLIDE', 'Yo Adrian - movie boxing', 'Stallone Fits Rocky Like Glove', 'Vastly overrated', 'The Loser', 'The first best', 'Intense Action Drama', "`` I ai n't bum , Mick . I ai n't bum . ``"]</t>
+          <t>['The film cost million grossed 100000000 domestically  nuff said ', 'The Cinderella Film', 'Sly s Best', 'Great', 'What s Not Like', 'Rocky', 'It s still knockout movie ', 'Underdog', 'A good Hollywood button pusher', 'Good  masterpiece ', 'Unforgettable picture failed boxer Rocky Balboa gets chance make better life fighting heavyweight champion', 'My orthodontist outline Sylvester Stallone s body filled pages  Rocky  script ', 'A classic underdog story', 'Yo ', 'An Inspirational Film About People Who Do nt Talk Right', 'The Rocky Movie With Character Studies', 'There s little sense criticizing weaknesses  picture foolproof', 'Best sports film A LANDSLIDE', 'Yo Adrian  movie boxing', 'Stallone Fits Rocky Like Glove', 'Vastly overrated', 'The Loser', 'The first best', 'Intense Action Drama', ' I ai nt bum  Mick  I ai nt bum  ']</t>
         </is>
       </c>
     </row>
@@ -30181,7 +30181,7 @@
       </c>
       <c r="J676" t="inlineStr">
         <is>
-          <t>['Claustrophobic beauty', 'brilliant performances', 'Terrific Thriller Great Performances', 'Taking What Could Have Been Maudlin Stratosphere', 'From one room bigger world', 'An incredibly good film .', 'Inside', 'Sensitive Delicate', 'Emotional compelling stuff thanks tight focus well written performed characters', 'intense rock candy mountain', 'A Sparse Tale Powered By Two Strong Leads', 'Excellent acting expressive eye help make film moving experience ...', 'Haunting', 'Intense', 'Wonderful - highly original incredibly emotional', 'Makes Better Movie Than Book', 'Normal easy', 'Should movie year award .', 'Room', "'There many things . And sometimes 's scary . But 's OK. Because 's still ... '", 'A film shows shelter surroundings differ , especially boy becomes open outside world !', 'heartfelt sensation without sensationalising characterisation', 'Oscar worthy .', 'notes', 'A Harrowing Film Incredible Performances !']</t>
+          <t>['Claustrophobic beauty', 'brilliant performances', 'Terrific Thriller Great Performances', 'Taking What Could Have Been Maudlin Stratosphere', 'From one room bigger world', 'An incredibly good film ', 'Inside', 'Sensitive Delicate', 'Emotional compelling stuff thanks tight focus well written performed characters', 'intense rock candy mountain', 'A Sparse Tale Powered By Two Strong Leads', 'Excellent acting expressive eye help make film moving experience ', 'Haunting', 'Intense', 'Wonderful  highly original incredibly emotional', 'Makes Better Movie Than Book', 'Normal easy', 'Should movie year award ', 'Room', 'There many things  And sometimes s scary  But s OK Because s still  ', 'A film shows shelter surroundings differ  especially boy becomes open outside world ', 'heartfelt sensation without sensationalising characterisation', 'Oscar worthy ', 'notes', 'A Harrowing Film Incredible Performances ']</t>
         </is>
       </c>
     </row>
@@ -30225,7 +30225,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>['One greats action genre , great film overall', 'Intense powerful iconic', "Classic 80 's Action", 'Amazing Intensity', "Almost four decades , 's still killer thriller .", 'This time actually come back ...', 'Explosive electrifying film , brilliantly edited competently directed James Cameron', 'A landmark moment sci-fi/action cinema .', 'The Beginning Incredible Franchise', 'The one , unique T', 'Surprise ! Arnold Plays The Villain', 'Seems bit cheapjack , crass sense humor', "still action movie classic , 'Tech-Noir '", 'Immortal Science-Fiction ! A relentless milestone stay', 'The start', 'Run For Your Life', 'A career highlight Cameron Schwarzenegger .', 'Anti-SDI', 'Entertaining sci-fi action-drama', "I ca n't . Nobody goes home . Nobody else comes . It 's - .", 'Classic Independent Film', 'One best sci-fi action films ever made', 'Kind groundbreaking', 'Versatile acting', "`` I Think This Guy 's A Couple O ' Cans Short Of A Six-Pack ! `` ..."]</t>
+          <t>['One greats action genre  great film overall', 'Intense powerful iconic', 'Classic 80 s Action', 'Amazing Intensity', 'Almost four decades  s still killer thriller ', 'This time actually come back ', 'Explosive electrifying film  brilliantly edited competently directed James Cameron', 'A landmark moment scifiaction cinema ', 'The Beginning Incredible Franchise', 'The one  unique T', 'Surprise  Arnold Plays The Villain', 'Seems bit cheapjack  crass sense humor', 'still action movie classic  TechNoir ', 'Immortal ScienceFiction  A relentless milestone stay', 'The start', 'Run For Your Life', 'A career highlight Cameron Schwarzenegger ', 'AntiSDI', 'Entertaining scifi actiondrama', 'I ca nt  Nobody goes home  Nobody else comes  It s  ', 'Classic Independent Film', 'One best scifi action films ever made', 'Kind groundbreaking', 'Versatile acting', ' I Think This Guy s A Couple O  Cans Short Of A SixPack   ']</t>
         </is>
       </c>
     </row>
@@ -30269,7 +30269,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>['Always question authority', "Robin Williams proves 's great actor", 'Good Not Great', 'special', 'Sappy well acted \x96 thing I see love death', 'Boxoffice hit Robin Williams upright teacher hands perfectly role', 'Somewhere `` Good Morning , Vietnam `` `` Patch Adams `` ...', 'A Story Inspiration', 'Robin Williams continues teach us', 'Robin Williams tells students `` seize day ``', 'Dead creativity society', 'Leaves Class', 'It cynical , dull , methodical slow development ...', 'Rhyme Reason', 'Carpe Diem &amp; The Punk Rock Movie .', 'Absolutely Unconvincing', 'Just great', 'Poetry motion', "Please Do n't Make Me Gag , Mr. Chips", 'Quite good idea , so-so film', 'Carpe diem !', 'Seize day ; Exceptional !', 'Ok film serious', 'Well made every respect', "Quite dull . I n't get love ."]</t>
+          <t>['Always question authority', 'Robin Williams proves s great actor', 'Good Not Great', 'special', 'Sappy well acted  thing I see love death', 'Boxoffice hit Robin Williams upright teacher hands perfectly role', 'Somewhere  Good Morning  Vietnam   Patch Adams  ', 'A Story Inspiration', 'Robin Williams continues teach us', 'Robin Williams tells students  seize day ', 'Dead creativity society', 'Leaves Class', 'It cynical  dull  methodical slow development ', 'Rhyme Reason', 'Carpe Diem  The Punk Rock Movie ', 'Absolutely Unconvincing', 'Just great', 'Poetry motion', 'Please Do nt Make Me Gag  Mr Chips', 'Quite good idea  soso film', 'Carpe diem ', 'Seize day  Exceptional ', 'Ok film serious', 'Well made every respect', 'Quite dull  I nt get love ']</t>
         </is>
       </c>
     </row>
@@ -30313,7 +30313,7 @@
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>['Rushing finish', 'old fashion greatness', 'Enjoyed It More Than I Thought I Would', 'special', 'Not A Movie About Cars , But Friendship', "Le Mans '66", 'A brilliant film .', "Who 's better ?", 'Engaging Action Film', 'Solidly well-made entertaining , even construction almost practical apparent times', "It 's winner !", 'Rule Breakers v Capitalism', 'Astonishing', 'Intense enjoyable even non racing fan', 'FAMILY-FRIENDLY ... OILY-SLICK ACTION ... MOTOR-SPORT V CORPORATE DRAMA ... OVERRATED', 'Incredibly entertaining', 'Leyland P-76', 'Enguiniety , friendship , parenthood , determination grit - film', 'Did Ron Howard Direct This Movie ?', 'feel vroom !', "You n't racing fan enjoy movie .", "`` You ca n't win race committee ``", 'Exciting races - story could edited shortened', 'A real demon hood', "'We 're lighter , 're faster , n't work , 're nastier '"]</t>
+          <t>['Rushing finish', 'old fashion greatness', 'Enjoyed It More Than I Thought I Would', 'special', 'Not A Movie About Cars  But Friendship', 'Le Mans 66', 'A brilliant film ', 'Who s better ', 'Engaging Action Film', 'Solidly wellmade entertaining  even construction almost practical apparent times', 'It s winner ', 'Rule Breakers v Capitalism', 'Astonishing', 'Intense enjoyable even non racing fan', 'FAMILYFRIENDLY  OILYSLICK ACTION  MOTORSPORT V CORPORATE DRAMA  OVERRATED', 'Incredibly entertaining', 'Leyland P76', 'Enguiniety  friendship  parenthood  determination grit  film', 'Did Ron Howard Direct This Movie ', 'feel vroom ', 'You nt racing fan enjoy movie ', ' You ca nt win race committee ', 'Exciting races  story could edited shortened', 'A real demon hood', 'We re lighter  re faster  nt work  re nastier ']</t>
         </is>
       </c>
     </row>
@@ -30357,7 +30357,7 @@
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>['Even dated technology , great film watch .', 'This movie reason I afraid go sea', 'A different skill hunt', 'Classic movie icon', 'One Greatest Films Ever Made', 'There must something water !', 'fascinating', 'All machine eat , sleep make baby sharks .', 'The white shark', 'A lesson tension', 'I moment watching', 'You might want remain shore movie ...', 'Bone-chilling movie eerie scenes astounding direction', "I 'm still afraid go water .", 'There Is Only One Shark Movie : Jaws -- Spielberg', 'Once upon time , blockbusters great', 'Jaws Is To Spielberg As Psycho Is To Hitchcock', "`` For $ 10,000 I 'll give head ... tail ... whole damn thing . ``", "You 're gon na need bigger boat ...", 'Jaws-Claw Your Way Into This One * * *', '`` This boat accident ! ``', 'The first major summer blockbuster film', 'Pricey Populist ... B-Movie Entertainment Best', 'Jaws', "Spielberg 's Best Movie"]</t>
+          <t>['Even dated technology  great film watch ', 'This movie reason I afraid go sea', 'A different skill hunt', 'Classic movie icon', 'One Greatest Films Ever Made', 'There must something water ', 'fascinating', 'All machine eat  sleep make baby sharks ', 'The white shark', 'A lesson tension', 'I moment watching', 'You might want remain shore movie ', 'Bonechilling movie eerie scenes astounding direction', 'I m still afraid go water ', 'There Is Only One Shark Movie  Jaws  Spielberg', 'Once upon time  blockbusters great', 'Jaws Is To Spielberg As Psycho Is To Hitchcock', ' For  10000 I ll give head  tail  whole damn thing  ', 'You re gon na need bigger boat ', 'JawsClaw Your Way Into This One   ', ' This boat accident  ', 'The first major summer blockbuster film', 'Pricey Populist  BMovie Entertainment Best', 'Jaws', 'Spielberg s Best Movie']</t>
         </is>
       </c>
     </row>
@@ -30401,7 +30401,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>['Uneven often impressive', 'Traumatic exploration POW experience', 'One Shot', 'great war movie without big war action', 'Emotionally Draining But Incredibly Powerful Haunting', 'The Deer Hunter', 'Hunting &amp; surviving', 'Overlong deep thinks still good film', 'A powerful story ...', 'A vivid brooding portrait Middle america three steel-working friends face Vietnam War', 'Disturbing , flawed .', 'Great , But Missed Its Mark Me', 'Simply masterpiece ....', 'It affects people deepest levels ... really interested searching souls men treatise brutality ?', 'call masterpiece state obvious', 'Not best film 1978 , close', 'Hits audience hard .', 'Intense war drama . Friends experience P.O.W . camp .', 'Disjointed , Dismal , Gut-Wrenching God-Awful', 'Brilliant - powerful examination war consequences', 'Small Town Soldiers', 'Gritty film hardly called entertainment ...', 'great Rom com', 'A masterpiece era', 'A Superb , Sprawling Epic About Psychological Toll Vietnam']</t>
+          <t>['Uneven often impressive', 'Traumatic exploration POW experience', 'One Shot', 'great war movie without big war action', 'Emotionally Draining But Incredibly Powerful Haunting', 'The Deer Hunter', 'Hunting  surviving', 'Overlong deep thinks still good film', 'A powerful story ', 'A vivid brooding portrait Middle america three steelworking friends face Vietnam War', 'Disturbing  flawed ', 'Great  But Missed Its Mark Me', 'Simply masterpiece ', 'It affects people deepest levels  really interested searching souls men treatise brutality ', 'call masterpiece state obvious', 'Not best film 1978  close', 'Hits audience hard ', 'Intense war drama  Friends experience POW  camp ', 'Disjointed  Dismal  GutWrenching GodAwful', 'Brilliant  powerful examination war consequences', 'Small Town Soldiers', 'Gritty film hardly called entertainment ', 'great Rom com', 'A masterpiece era', 'A Superb  Sprawling Epic About Psychological Toll Vietnam']</t>
         </is>
       </c>
     </row>
@@ -30445,7 +30445,7 @@
       </c>
       <c r="J682" t="inlineStr">
         <is>
-          <t>['Handmaids tale', 'Engaging attractively packaged delivered', "places ca n't truly understand", 'need 2nd viewing . I mean compliment ( mostly )', 'Intriguing drama', 'Complex But Not Entirely Confident', "This n't Park Chan-Wook 's best film I recommend seeing .", 'An Excellent , Liberating Film', 'top notch film making', 'The Handmaiden', 'Knocks ( Chan-wook ) Park .', 'Great film', 'Very Asian , erotic , interesting , British ? !', 'An intriguing visually intellectually literate film', "A suspense thrill twist turns questions trust , 's double cross fueled hot erotic passion unexpected emotions .", 'none-too-novel plotting scheming pulp sustained absolutely captivating momentum', 'mastery story-telling', 'What Tangled Webs We Weave', 'fascinatingly odd twisty Korean noir', "Could 'The Best Erotic Thriller Ever ' Twist Climax", 'Lavish strangely juvenile', 'beautiful , bold , captivating', 'A great female empowerment love story !', "Park Chan-wook 's Finest Since 'Oldboy ' . Dark , Twisted &amp; Deliciously Thrilling .", 'Brilliant']</t>
+          <t>['Handmaids tale', 'Engaging attractively packaged delivered', 'places ca nt truly understand', 'need 2nd viewing  I mean compliment  mostly ', 'Intriguing drama', 'Complex But Not Entirely Confident', 'This nt Park ChanWook s best film I recommend seeing ', 'An Excellent  Liberating Film', 'top notch film making', 'The Handmaiden', 'Knocks  Chanwook  Park ', 'Great film', 'Very Asian  erotic  interesting  British  ', 'An intriguing visually intellectually literate film', 'A suspense thrill twist turns questions trust  s double cross fueled hot erotic passion unexpected emotions ', 'nonetoonovel plotting scheming pulp sustained absolutely captivating momentum', 'mastery storytelling', 'What Tangled Webs We Weave', 'fascinatingly odd twisty Korean noir', 'Could The Best Erotic Thriller Ever  Twist Climax', 'Lavish strangely juvenile', 'beautiful  bold  captivating', 'A great female empowerment love story ', 'Park Chanwook s Finest Since Oldboy   Dark  Twisted  Deliciously Thrilling ', 'Brilliant']</t>
         </is>
       </c>
     </row>
@@ -30489,7 +30489,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>['Some really nice acting ....', 'Great funny human story', 'Great To See So Many Great Female Characters', 'A Story We Need Remember', 'Maid order', 'How two half hours pass quickly ?', "Who 's helping ?", 'Unforgettable Movie Forgettable Time', 'addressing criticism', 'Excellent !', 'wonderful film great performances', 'predictability saved power female acting chops , especially Viola Davis', "The Help compelling drama domestic life women color early '60s", 'An amazing movie', 'A touching inspiring story', 'The Word Truth Will Set You Free', 'A modern classic', 'This Movie Going Happen', 'This fantastic American cinematic gem absolute must see', 'Far Perfect But Carries Welcome Message', 'Liked approach .', 'The voice black maids early 60s', 'Engrossing relevant today', 'Edit ! Edit ! Edit !', 'Often heavy-handed overly sentimental , yet ultimately entertaining emotionally resonant .']</t>
+          <t>['Some really nice acting ', 'Great funny human story', 'Great To See So Many Great Female Characters', 'A Story We Need Remember', 'Maid order', 'How two half hours pass quickly ', 'Who s helping ', 'Unforgettable Movie Forgettable Time', 'addressing criticism', 'Excellent ', 'wonderful film great performances', 'predictability saved power female acting chops  especially Viola Davis', 'The Help compelling drama domestic life women color early 60s', 'An amazing movie', 'A touching inspiring story', 'The Word Truth Will Set You Free', 'A modern classic', 'This Movie Going Happen', 'This fantastic American cinematic gem absolute must see', 'Far Perfect But Carries Welcome Message', 'Liked approach ', 'The voice black maids early 60s', 'Engrossing relevant today', 'Edit  Edit  Edit ', 'Often heavyhanded overly sentimental  yet ultimately entertaining emotionally resonant ']</t>
         </is>
       </c>
     </row>
@@ -30533,7 +30533,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>['A unique ... entirely pleasant viewing experience .', 'Wanderlust vision', 'Beautiful', 'A leap rat race', 'Wild Deer', 'The Tragic Journey Spoiled Selfish Dreamer', 'Not Clear Hype , But Not Bad Film', 'Beautiful Film , Even Better Than The Book', 'overlong precious , also marvelous cinematography solid turn Emile Hirsch', 'A beautifully sad tale wild search', 'Good great', 'Interpretation Words', 'Long , Preachy , Boring', 'No phone , pool , pets . No cigarettes .', 'Fantastic , &amp; much I ever expected', "Did n't Find This Movie Remotely Moving", 'Join us , Hot Dogs !', 'A good course also original movie .', 'Engaging', "One Man 's Jouney", 'An Almost Perfect Film !', 'Touching', 'A beautiful , bit long , film', 'Wonderful . A journey discovery escape , proves happiness best shared .', 'A bit like us']</t>
+          <t>['A unique  entirely pleasant viewing experience ', 'Wanderlust vision', 'Beautiful', 'A leap rat race', 'Wild Deer', 'The Tragic Journey Spoiled Selfish Dreamer', 'Not Clear Hype  But Not Bad Film', 'Beautiful Film  Even Better Than The Book', 'overlong precious  also marvelous cinematography solid turn Emile Hirsch', 'A beautifully sad tale wild search', 'Good great', 'Interpretation Words', 'Long  Preachy  Boring', 'No phone  pool  pets  No cigarettes ', 'Fantastic   much I ever expected', 'Did nt Find This Movie Remotely Moving', 'Join us  Hot Dogs ', 'A good course also original movie ', 'Engaging', 'One Man s Jouney', 'An Almost Perfect Film ', 'Touching', 'A beautiful  bit long  film', 'Wonderful  A journey discovery escape  proves happiness best shared ', 'A bit like us']</t>
         </is>
       </c>
     </row>
@@ -30577,7 +30577,7 @@
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>['An amazing movie', "The People 's War Veterans Return Home", 'well made timely characters', 'Please Make It All Right', 'The return soldiers', 'A thought-provoking powerful story American servicemen returning WWII subsequent civilian life', 'How fare future ?', 'Those Left Behind', 'Absorbing , surprisingly effective heart-tugger ...', "The Best Years Our LIves perfect movie watch Veterans ' Day", 'A Best Picture My Life', "A 40 's Blockbuster", 'What happened war', 'Profound Heartbreaking', 'Unique compelling drama', "It 's A Pity This Film Ca n't Be Appreciated More Nowadays", 'Good great', 'The ultimate screen classic ... timeless masterpiece !', 'One best movies ever made', 'The perfect tribute veterans', 'One Best Films Ever Made', 'Unbelievably Honest Movie Its Time', 'A great pre-war drama effects WW II afterward veterans .', 'Classic Academy-Award Winner .', 'The Best Years Our Lives']</t>
+          <t>['An amazing movie', 'The People s War Veterans Return Home', 'well made timely characters', 'Please Make It All Right', 'The return soldiers', 'A thoughtprovoking powerful story American servicemen returning WWII subsequent civilian life', 'How fare future ', 'Those Left Behind', 'Absorbing  surprisingly effective hearttugger ', 'The Best Years Our LIves perfect movie watch Veterans  Day', 'A Best Picture My Life', 'A 40 s Blockbuster', 'What happened war', 'Profound Heartbreaking', 'Unique compelling drama', 'It s A Pity This Film Ca nt Be Appreciated More Nowadays', 'Good great', 'The ultimate screen classic  timeless masterpiece ', 'One best movies ever made', 'The perfect tribute veterans', 'One Best Films Ever Made', 'Unbelievably Honest Movie Its Time', 'A great prewar drama effects WW II afterward veterans ', 'Classic AcademyAward Winner ', 'The Best Years Our Lives']</t>
         </is>
       </c>
     </row>
@@ -30621,7 +30621,7 @@
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>['Shane-X', 'Re-tiring', 'Dismal , Violent Sad', 'Succeeds makes care , gives viewer grit consequences', 'An `` X-Men `` movie adult audience ...', 'A good outing `` Wolverine saga `` Logan taking ominous enemies filled gory spectacular action scenes', 'Logan buried .', 'emotionally gets right one mostly look story flaws', 'Logan excellent final chapter Wolverine saga !', 'Not bad , amazing say', "Great movie , even 're X-Men follower", 'The Last Cut Is The Deepest !', 'Super Abilities Second Super Story', 'No superhero movie compare', 'A fitting farewell', 'Logan , best Wolverine movie thus far .', 'Quasi- `` superhero `` movie focusing grim reality behind comic book', 'Hugh Jackman last go around Wolverine', 'The claws ( really ) come', "'Take friends run ... They 'll keep coming , coming ... You n't fight anymore . '", "One best 'superhero ' films .", 'A better mutant movie , still great', "another triumph comic material 's R-rated transmutation big screen", 'The greatest adventure .', 'notes']</t>
+          <t>['ShaneX', 'Retiring', 'Dismal  Violent Sad', 'Succeeds makes care  gives viewer grit consequences', 'An  XMen  movie adult audience ', 'A good outing  Wolverine saga  Logan taking ominous enemies filled gory spectacular action scenes', 'Logan buried ', 'emotionally gets right one mostly look story flaws', 'Logan excellent final chapter Wolverine saga ', 'Not bad  amazing say', 'Great movie  even re XMen follower', 'The Last Cut Is The Deepest ', 'Super Abilities Second Super Story', 'No superhero movie compare', 'A fitting farewell', 'Logan  best Wolverine movie thus far ', 'Quasi  superhero  movie focusing grim reality behind comic book', 'Hugh Jackman last go around Wolverine', 'The claws  really  come', 'Take friends run  They ll keep coming  coming  You nt fight anymore  ', 'One best superhero  films ', 'A better mutant movie  still great', 'another triumph comic material s Rrated transmutation big screen', 'The greatest adventure ', 'notes']</t>
         </is>
       </c>
     </row>
@@ -30665,7 +30665,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>['My childhood favourite !', 'A Whiz Of A Wiz If Ever A Wiz There Was', 'Iconic American Cinema', 'Timeless Classic', 'Love , Heart , Courage', '.', 'A magical experience .', 'Classic fairy tale dazzling fantasy , colorful images , impressive songs enjoyable roles', 'What say ?', 'I believe spooks ... I , I , I ...', 'An Essential Film American History', 'Fun , Colorful ..... At Least For Two Viewings', 'Pure fun', "`` And head , I 'd scratchin/While thoughts busy hatchin/If I brain ... ``", 'Go Dorothy , Go ! ! !', 'I finally got watch The Wizard Oz big screen years seeing TV !', "There 's place like home", "We 're Off See Wizard-Go , Go , Go * * * *", 'Pay attention man behind curtain !', 'A Late-Comer', 'Perhaps well known watched film history ?', "`` I 'll get little pretty , dog . ``", 'Timeless classic still entertaining masses new generation comes .', 'The Wizard Oz ... movie ages', 'Good FOR KIDS']</t>
+          <t>['My childhood favourite ', 'A Whiz Of A Wiz If Ever A Wiz There Was', 'Iconic American Cinema', 'Timeless Classic', 'Love  Heart  Courage', '', 'A magical experience ', 'Classic fairy tale dazzling fantasy  colorful images  impressive songs enjoyable roles', 'What say ', 'I believe spooks  I  I  I ', 'An Essential Film American History', 'Fun  Colorful  At Least For Two Viewings', 'Pure fun', ' And head  I d scratchinWhile thoughts busy hatchinIf I brain  ', 'Go Dorothy  Go   ', 'I finally got watch The Wizard Oz big screen years seeing TV ', 'There s place like home', 'We re Off See WizardGo  Go  Go    ', 'Pay attention man behind curtain ', 'A LateComer', 'Perhaps well known watched film history ', ' I ll get little pretty  dog  ', 'Timeless classic still entertaining masses new generation comes ', 'The Wizard Oz  movie ages', 'Good FOR KIDS']</t>
         </is>
       </c>
     </row>
@@ -30709,7 +30709,7 @@
       </c>
       <c r="J688" t="inlineStr">
         <is>
-          <t>['Well made thoroughly unpleasant .', 'unique wild ride', 'Now I See Why', 'Choose life', 'Re-Spotting', 'Overrated Trip', 'Hilarious , imaginative anti-drugs', "Aye , life Scotland sure looks depressing . But 's makes movie great .", 'The Film That Brought Us Danny Boyle', 'An all-time favorite dark comedies , true glimpse everyday British life .', 'sex , drugs rock roll', "One Best films 90 's", 'Choose life . Choose career .', 'Funny , gritty , harrowing ... brilliant', "Scots ' Tissue", 'Despite The Hype It ` Carlyle ` Film', 'More trains', 'Down , Down , Down We Go ...', "With God 's help I 'll conquer terrible affliction .", 'The First Long Line Juvenile Films Juvenile Director', 'The best anti-drug movie ever made .', 'But would anyone want thing like ?', 'Trainspotting', 'Dark , disturbing , funny life-affirming , slightly sardonic shot-to-the-vein makes judgement ( characters audience ) pulls punches .', 'crazy']</t>
+          <t>['Well made thoroughly unpleasant ', 'unique wild ride', 'Now I See Why', 'Choose life', 'ReSpotting', 'Overrated Trip', 'Hilarious  imaginative antidrugs', 'Aye  life Scotland sure looks depressing  But s makes movie great ', 'The Film That Brought Us Danny Boyle', 'An alltime favorite dark comedies  true glimpse everyday British life ', 'sex  drugs rock roll', 'One Best films 90 s', 'Choose life  Choose career ', 'Funny  gritty  harrowing  brilliant', 'Scots  Tissue', 'Despite The Hype It  Carlyle  Film', 'More trains', 'Down  Down  Down We Go ', 'With God s help I ll conquer terrible affliction ', 'The First Long Line Juvenile Films Juvenile Director', 'The best antidrug movie ever made ', 'But would anyone want thing like ', 'Trainspotting', 'Dark  disturbing  funny lifeaffirming  slightly sardonic shottothevein makes judgement  characters audience  pulls punches ', 'crazy']</t>
         </is>
       </c>
     </row>
@@ -30753,7 +30753,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>['What war', 'The quintessential Vietnam war movie', 'Depressing Raw', 'The Real War', 'No prisoners ...', "Uncomfortable worthy view war 's impact young", 'Such impressive war movie ...', 'Visceral violent war film Oliver Stone based soldier experiences Vietnam', '`` Born Fourth July `` better', 'Platoon , You Are A Dream Come True', 'Typical Oliver Stone Bias', 'War films like', 'Tragically good', 'There Were Snakes Jungle', 'Strangle hold reality .', "It Ai n't The 1950 's", '`` I Am Reality ``', 'Superb', 'Rejoice young man thy youth .', 'One Of The Best Movies Of The 1980s', 'The Enemy Us', 'The ugliness war seen infantry platoon ...', 'Love', 'The First Many Oliver Stone Onslaughts', 'Unpleasant necessary']</t>
+          <t>['What war', 'The quintessential Vietnam war movie', 'Depressing Raw', 'The Real War', 'No prisoners ', 'Uncomfortable worthy view war s impact young', 'Such impressive war movie ', 'Visceral violent war film Oliver Stone based soldier experiences Vietnam', ' Born Fourth July  better', 'Platoon  You Are A Dream Come True', 'Typical Oliver Stone Bias', 'War films like', 'Tragically good', 'There Were Snakes Jungle', 'Strangle hold reality ', 'It Ai nt The 1950 s', ' I Am Reality ', 'Superb', 'Rejoice young man thy youth ', 'One Of The Best Movies Of The 1980s', 'The Enemy Us', 'The ugliness war seen infantry platoon ', 'Love', 'The First Many Oliver Stone Onslaughts', 'Unpleasant necessary']</t>
         </is>
       </c>
     </row>
@@ -30797,7 +30797,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>['Comedy , tragedy morality rolled one', 'Inconsolable grief', 'many issues', 'Too Far Out !', 'great', 'Frances McDormand', 'Vengeance mine', 'A powerful film draws many emotions .', 'Searching ... aka truth', 'A dramatic black comedy film terrific acting Frances McDormand', 'A search justice ... vengeance ?', 'A offbeat drama', 'Angry profane characters , could much better .', 'Anger begets anger', 'Do Right Thing Ebbing , Missouri', 'Not bad lacks focus', 'Mercurial Mildred', 'Truly actors movie', 'Mad men', 'A Troubled Movie Our Troubled Times', 'another McDonagh classic', 'Quality', "I 'm Missouri", 'nobody really award 10/10 taken seriously .', 'Original , dramatic unexpectedly funny']</t>
+          <t>['Comedy  tragedy morality rolled one', 'Inconsolable grief', 'many issues', 'Too Far Out ', 'great', 'Frances McDormand', 'Vengeance mine', 'A powerful film draws many emotions ', 'Searching  aka truth', 'A dramatic black comedy film terrific acting Frances McDormand', 'A search justice  vengeance ', 'A offbeat drama', 'Angry profane characters  could much better ', 'Anger begets anger', 'Do Right Thing Ebbing  Missouri', 'Not bad lacks focus', 'Mercurial Mildred', 'Truly actors movie', 'Mad men', 'A Troubled Movie Our Troubled Times', 'another McDonagh classic', 'Quality', 'I m Missouri', 'nobody really award 1010 taken seriously ', 'Original  dramatic unexpectedly funny']</t>
         </is>
       </c>
     </row>
@@ -30841,7 +30841,7 @@
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>['A well done powerful film', 'This unusual Eastwood drama turns one best films', 'Teaching The Work Ethic', 'Dirty Harry living Hood', 'Adding Legend', 'Less Than Sum Its Parts', 'Strong performance leading man , good film .', 'Mature great drama', 'The Swan Song Magnificent Clint Eastwood', 'Poor performances , weak material clunky development \x96 Eastwood gruff watchable lead redeem many problems', 'Interesting drama retired worker living Asian neighborhood', 'Clint Detroit', 'Truly One Best Pictures The Year', 'A man comes grips past', 'memorable Golden Years Walt Kowalski', "Gran Torino fine showcase Clint Eastwood 's supposed final performance", 'Great film', 'Clint Eastwood excels', 'An excellent latter-day Eastwood vehicle .', 'Great movie', 'Cleaning Up', 'Gentle , tender breeze , blows whispers thru Gran Torino .', 'A Disappointing Chick Flick For Grumpy Old Men', 'How Win Over Racist', "Clint 's saracstic humor stands serious themes"]</t>
+          <t>['A well done powerful film', 'This unusual Eastwood drama turns one best films', 'Teaching The Work Ethic', 'Dirty Harry living Hood', 'Adding Legend', 'Less Than Sum Its Parts', 'Strong performance leading man  good film ', 'Mature great drama', 'The Swan Song Magnificent Clint Eastwood', 'Poor performances  weak material clunky development  Eastwood gruff watchable lead redeem many problems', 'Interesting drama retired worker living Asian neighborhood', 'Clint Detroit', 'Truly One Best Pictures The Year', 'A man comes grips past', 'memorable Golden Years Walt Kowalski', 'Gran Torino fine showcase Clint Eastwood s supposed final performance', 'Great film', 'Clint Eastwood excels', 'An excellent latterday Eastwood vehicle ', 'Great movie', 'Cleaning Up', 'Gentle  tender breeze  blows whispers thru Gran Torino ', 'A Disappointing Chick Flick For Grumpy Old Men', 'How Win Over Racist', 'Clint s saracstic humor stands serious themes']</t>
         </is>
       </c>
     </row>
@@ -30885,7 +30885,7 @@
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>['How solve problem like Maria ?', 'Classic family musical', 'One Our Favorite Things', 'Great Iconic sing-a-long musical', 'Great Songs Just Little Sappy', 'lovely', 'The Sound Music', 'When need pick , nothing comes close one .', "You 'll probably like ...", "Homer : `` D'oh ! `` Marge : `` A deer ! `` Lisa : `` A female deer ! `` ( note : probably review movie ever written mentions Ben &amp; Jerry 's Ice Crea", 'A Beloved , Very Likable Film , But Twice Was Enough', 'Mary Poppins vs. Nazis', 'The Sound Heavenly Music * * * *', 'Every bit classic made', 'The Goatherd Watches', "One cinema 's enduring family classics .", 'One best musicals ever made', 'Timeless musical sheer joy ... Julie Andrews triumph !', 'Singer', 'An Excellent Musical', 'Julie breathes life Maria', 'Not every reputed classic holds . This one absolutely .', "`` Springtime Hitler `` Ai n't Only Show Singing Nazis", 'One greatest musicals time', 'A Timeless Classic !']</t>
+          <t>['How solve problem like Maria ', 'Classic family musical', 'One Our Favorite Things', 'Great Iconic singalong musical', 'Great Songs Just Little Sappy', 'lovely', 'The Sound Music', 'When need pick  nothing comes close one ', 'You ll probably like ', 'Homer   Doh   Marge   A deer   Lisa   A female deer    note  probably review movie ever written mentions Ben  Jerry s Ice Crea', 'A Beloved  Very Likable Film  But Twice Was Enough', 'Mary Poppins vs Nazis', 'The Sound Heavenly Music    ', 'Every bit classic made', 'The Goatherd Watches', 'One cinema s enduring family classics ', 'One best musicals ever made', 'Timeless musical sheer joy  Julie Andrews triumph ', 'Singer', 'An Excellent Musical', 'Julie breathes life Maria', 'Not every reputed classic holds  This one absolutely ', ' Springtime Hitler  Ai nt Only Show Singing Nazis', 'One greatest musicals time', 'A Timeless Classic ']</t>
         </is>
       </c>
     </row>
@@ -30929,7 +30929,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>['Of Pixar movies , among best', 'Definitely one best films 2001 !', 'Less Toy Story Better Most', 'Charming Pixar', 'Very Creative', 'Wan na see something really ... scary ?', "There 's kids adults , 's still got plenty laughs adults", "I loved movie ... I n't even like Disney .", 'Lots Fun From Pixar', 'Nothing To Criticize Here - Very Solid Animated Film', 'Superb animation , inventive story , fun whole family .', "Pixar 's best", 'Shriek Business ...', 'Entertaining imaginative 4th film Pixar', 'There scream catch behind every door .', "Goodish children 's movie", 'Gates Again', 'Pixar keeps rolling', 'Cute funny', "Standard Issue Pixar , But That 's Not Bad Thing", 'Adorable movie top class entertainment .', 'Now put thing back came help ...', 'An instant classic', 'This one list buy', "Pixar 's glowing reputation takes yet another step forward"]</t>
+          <t>['Of Pixar movies  among best', 'Definitely one best films 2001 ', 'Less Toy Story Better Most', 'Charming Pixar', 'Very Creative', 'Wan na see something really  scary ', 'There s kids adults  s still got plenty laughs adults', 'I loved movie  I nt even like Disney ', 'Lots Fun From Pixar', 'Nothing To Criticize Here  Very Solid Animated Film', 'Superb animation  inventive story  fun whole family ', 'Pixar s best', 'Shriek Business ', 'Entertaining imaginative 4th film Pixar', 'There scream catch behind every door ', 'Goodish children s movie', 'Gates Again', 'Pixar keeps rolling', 'Cute funny', 'Standard Issue Pixar  But That s Not Bad Thing', 'Adorable movie top class entertainment ', 'Now put thing back came help ', 'An instant classic', 'This one list buy', 'Pixar s glowing reputation takes yet another step forward']</t>
         </is>
       </c>
     </row>
@@ -30973,7 +30973,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>['Among better films 2013', 'Not quite extraordinary , still tremendously powerful', 'Heartbreaking ultimately depressing', 'Degradation Despair', 'Impressive compelling', 'Incredible Story Brilliant Lead Performance', '12 Years Slave', 'Wrong Place , wrong time', 'Another Great Story Injustice', 'Absorbing , brutal moving detached visually beautiful way', 'nothing show us full brutality slavery , comes close', 'The Most Honest Look Slavery ?', "powerful story man 's inhumanity man", 'looking long hard slavery', '12 Years Slave quite compelling depiction slavery harrowing', 'A powerful film make feel reflect', 'One More Glaring Example Oscar Insignificance', 'Great , compelling , emotional movie .', '19th Century Moral Relativism Viewed Through 21st Century Eyes', 'On One Hand ...', 'Enlightening true', '12 YEARS A SLAVE ( Steve McQueen , 2013 ) * * 1/2', 'Many scenes hard watch end definitely made want cry , absolutely must see movie', 'A devastating yet essential modern classic', '2 Hours Feeling Bad']</t>
+          <t>['Among better films 2013', 'Not quite extraordinary  still tremendously powerful', 'Heartbreaking ultimately depressing', 'Degradation Despair', 'Impressive compelling', 'Incredible Story Brilliant Lead Performance', '12 Years Slave', 'Wrong Place  wrong time', 'Another Great Story Injustice', 'Absorbing  brutal moving detached visually beautiful way', 'nothing show us full brutality slavery  comes close', 'The Most Honest Look Slavery ', 'powerful story man s inhumanity man', 'looking long hard slavery', '12 Years Slave quite compelling depiction slavery harrowing', 'A powerful film make feel reflect', 'One More Glaring Example Oscar Insignificance', 'Great  compelling  emotional movie ', '19th Century Moral Relativism Viewed Through 21st Century Eyes', 'On One Hand ', 'Enlightening true', '12 YEARS A SLAVE  Steve McQueen  2013    12', 'Many scenes hard watch end definitely made want cry  absolutely must see movie', 'A devastating yet essential modern classic', '2 Hours Feeling Bad']</t>
         </is>
       </c>
     </row>
@@ -31017,7 +31017,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>['refreshing first date', 'Cute Charming Gem', 'wise embroidery', 'Walk , talk romance Europe', 'Beginning', 'A Perfect Chemistry , In One Most Beautiful Romances I Have Ever Seen', 'hope might last hours', 'The Perfect Transition', 'It', 'kind conversations reality , yet projected purely cinematic fold', 'What bore', "Nope , 's still another romantic drama", 'The Movie Not Married', 'The first three `` Before ... `` movies', 'Goodnight , Vienna', 'Who says relationships last forever ?', 'Travelogue love', "Casablanca 1990 's - pure cinematic gold", 'One best films 1990s', "Essentially , 's hundred-minute conversation ; 's loose meandering fairly enjoyable .", 'Utterly charming', 'A Nutshell Review : ( DVD ) Before Sunrise ( 1995 )', 'EXTREMELY DEEP &amp; WONDERFUL LOVE STORY !', 'The impact idea time power human connection explored one beautiful package', 'An interesting experiment film']</t>
+          <t>['refreshing first date', 'Cute Charming Gem', 'wise embroidery', 'Walk  talk romance Europe', 'Beginning', 'A Perfect Chemistry  In One Most Beautiful Romances I Have Ever Seen', 'hope might last hours', 'The Perfect Transition', 'It', 'kind conversations reality  yet projected purely cinematic fold', 'What bore', 'Nope  s still another romantic drama', 'The Movie Not Married', 'The first three  Before   movies', 'Goodnight  Vienna', 'Who says relationships last forever ', 'Travelogue love', 'Casablanca 1990 s  pure cinematic gold', 'One best films 1990s', 'Essentially  s hundredminute conversation  s loose meandering fairly enjoyable ', 'Utterly charming', 'A Nutshell Review   DVD  Before Sunrise  1995 ', 'EXTREMELY DEEP  WONDERFUL LOVE STORY ', 'The impact idea time power human connection explored one beautiful package', 'An interesting experiment film']</t>
         </is>
       </c>
     </row>
@@ -31061,7 +31061,7 @@
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>['Gallows humor elevates serial murder mystery', 'Quality film making .', "Not everyone 's taste", 'gripping , sad , dark-coming-but-dramatic superior serial killer flick', 'Excellent murder-drama : powerful , original intriguing', 'Different Flavor', 'The movie captivating enough despite conventional', 'Must See', 'Is jerking crime ?', 'Utterly riveting brilliant', 'odd funny antics', 'Funny exciting entertaining', 'Memories Murder', 'Never forget .', 'Haunting', 'A Nutshell Review : ( DVD ) Memories Murder', 'Good , serious enough considering theme', 'review film ...', 'A Memorable Korean Murder Mystery far better Ending solved Mysteries Hollywood .', 'One best serial killer movies .', 'A Solid Recreation A Real Life Unsolved Case .', 'first rate police drama', 'Great movie', 'True movie ...', 'The Last scene . . .']</t>
+          <t>['Gallows humor elevates serial murder mystery', 'Quality film making ', 'Not everyone s taste', 'gripping  sad  darkcomingbutdramatic superior serial killer flick', 'Excellent murderdrama  powerful  original intriguing', 'Different Flavor', 'The movie captivating enough despite conventional', 'Must See', 'Is jerking crime ', 'Utterly riveting brilliant', 'odd funny antics', 'Funny exciting entertaining', 'Memories Murder', 'Never forget ', 'Haunting', 'A Nutshell Review   DVD  Memories Murder', 'Good  serious enough considering theme', 'review film ', 'A Memorable Korean Murder Mystery far better Ending solved Mysteries Hollywood ', 'One best serial killer movies ', 'A Solid Recreation A Real Life Unsolved Case ', 'first rate police drama', 'Great movie', 'True movie ', 'The Last scene   ']</t>
         </is>
       </c>
     </row>
@@ -31105,7 +31105,7 @@
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>['A lot like `` Snatch `` fewer laughs .', 'Good start Guy Ritchie', 'And began', 'Those worried violence made look cool avoid otherwise slick fun without substance beyond plot twists turns', "sooner later , 're eighteen bullet", 'Pure Bloody Genius', "If like off-the-wall British movies , 'll love one .", 'Funny flick . Clever .', 'Deja Vu', "It 's deal , 's steal ......", 'A Victim Of Its Own Success', 'Saw `` Snatch `` Wanted More', 'Just incredible', 'Rory', 'This movie step Snatch Pulp Fiction still absolutely must see', "It 's replaced pile corpses .", 'Brilliant story equals brilliant movie !', 'Hilarious engaging', 'Pulp Fiction meets True Romance', "The dialogue make work , 's worth", 'Quite possibly worst film ever made', 'notes', 'A little bit pain never hurt anybody , know I mean .', 'Lock , Stock , barrel boring nonsense .', 'Visually cinematically , `` Trainspotting `` meets Tarantino -- story-wise , unfortunate case style substance']</t>
+          <t>['A lot like  Snatch  fewer laughs ', 'Good start Guy Ritchie', 'And began', 'Those worried violence made look cool avoid otherwise slick fun without substance beyond plot twists turns', 'sooner later  re eighteen bullet', 'Pure Bloody Genius', 'If like offthewall British movies  ll love one ', 'Funny flick  Clever ', 'Deja Vu', 'It s deal  s steal ', 'A Victim Of Its Own Success', 'Saw  Snatch  Wanted More', 'Just incredible', 'Rory', 'This movie step Snatch Pulp Fiction still absolutely must see', 'It s replaced pile corpses ', 'Brilliant story equals brilliant movie ', 'Hilarious engaging', 'Pulp Fiction meets True Romance', 'The dialogue make work  s worth', 'Quite possibly worst film ever made', 'notes', 'A little bit pain never hurt anybody  know I mean ', 'Lock  Stock  barrel boring nonsense ', 'Visually cinematically   Trainspotting  meets Tarantino  storywise  unfortunate case style substance']</t>
         </is>
       </c>
     </row>
@@ -31149,7 +31149,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>['It leave shaken ....', 'A heavy subject dealt rivetingly', 'masterpiece', 'Excellent Story Performances', "A Gem Rival `` All President 's Men ``", 'truth', 'Defrocking priest', 'Heard , see', 'Dark Secrets Disclosed', 'Engagingly told story process , strong emotional core', 'speak truth', 'An Important Film', 'heavy story well-handled', "script performances , 's enough", "Spotlight excellent chronicle thorough research Catholic priests ' molestation scandals", 'Incredible story', 'A powerful film', 'Solid yet I think subject matter got nominated Best Picture', "Cover-Up Uncovered 's Almost Horrific Horrifying Crimes", 'Well timed well made', 'The Subject Matter Is Noble But The Execution Is Unsatisfying', 'Powerful maddening', 'Where spotlight ?', "Excellent Exciting Film Tradition `` All President 's Men ``", 'Faith']</t>
+          <t>['It leave shaken ', 'A heavy subject dealt rivetingly', 'masterpiece', 'Excellent Story Performances', 'A Gem Rival  All President s Men ', 'truth', 'Defrocking priest', 'Heard  see', 'Dark Secrets Disclosed', 'Engagingly told story process  strong emotional core', 'speak truth', 'An Important Film', 'heavy story wellhandled', 'script performances  s enough', 'Spotlight excellent chronicle thorough research Catholic priests  molestation scandals', 'Incredible story', 'A powerful film', 'Solid yet I think subject matter got nominated Best Picture', 'CoverUp Uncovered s Almost Horrific Horrifying Crimes', 'Well timed well made', 'The Subject Matter Is Noble But The Execution Is Unsatisfying', 'Powerful maddening', 'Where spotlight ', 'Excellent Exciting Film Tradition  All President s Men ', 'Faith']</t>
         </is>
       </c>
     </row>
@@ -31193,7 +31193,7 @@
       </c>
       <c r="J699" t="inlineStr">
         <is>
-          <t>["It 's good boggles mind !", 'Amazing , best Dreamworks film long time', 'Great family movie', 'admirable work', "Funny moving , 's still one best animations .", 'skill comes practice', 'Delightful Animation Wonderful Message Friendship , Intolerance , Misjudgment , Peace Harmony', 'Solidly enjoyable across board – falls short high bar set Pixar', 'Awesome animated movie !', 'A Real Oscar Contender', 'good example formulaic family picture', 'How Train Your Dragon wonderfully inspiring animated tale DreamWorks Animation', 'Adorable', 'Great message entertaining tale', 'One favorite films last decade ...', 'Sweet , fun movie', 'Night Fury ; Flight', 'Becomes interesting Hiccup gains dragons trust', 'Why Kill Dragons When You Can Ride Them ?', 'Grabs - good', 'Despite predictable storyline , hugely enjoyable', 'A tightly-constructed fable focuses delivering message sometimes point narrative detriment .', 'Terribly predictable , fun well', 'How To Train Your Dragon', 'A Nutshell Review : How Train Your Dragon']</t>
+          <t>['It s good boggles mind ', 'Amazing  best Dreamworks film long time', 'Great family movie', 'admirable work', 'Funny moving  s still one best animations ', 'skill comes practice', 'Delightful Animation Wonderful Message Friendship  Intolerance  Misjudgment  Peace Harmony', 'Solidly enjoyable across board  falls short high bar set Pixar', 'Awesome animated movie ', 'A Real Oscar Contender', 'good example formulaic family picture', 'How Train Your Dragon wonderfully inspiring animated tale DreamWorks Animation', 'Adorable', 'Great message entertaining tale', 'One favorite films last decade ', 'Sweet  fun movie', 'Night Fury  Flight', 'Becomes interesting Hiccup gains dragons trust', 'Why Kill Dragons When You Can Ride Them ', 'Grabs  good', 'Despite predictable storyline  hugely enjoyable', 'A tightlyconstructed fable focuses delivering message sometimes point narrative detriment ', 'Terribly predictable  fun well', 'How To Train Your Dragon', 'A Nutshell Review  How Train Your Dragon']</t>
         </is>
       </c>
     </row>
@@ -31237,7 +31237,7 @@
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>['Quite good .', 'Was really surprised good', 'An interesting story wins average film-making', 'Solid filmmaking Ron Howard', 'admirable work', 'Racing', 'More fast cars', 'A well told sports story engaging makes great use sound draw viewer', "I Do n't get It", '1976 exciting year Formula One racing .', 'Great racing movie', 'Highly captivating', 'Restrained Common Average Overrated ... Formulaic', 'Good , great', "I 'm Puzzled Why The Oscars Ignored This", 'Cars', 'When bar lowered ?', "What 's This ? A Ron Howard Movie That Is n't Intolerable ?", 'The Closer You Death', "`` A wise man learn enemies fool friends '", 'Exhilarating', 'Completely unexpectedly good', 'Very good true-life sporting drama', "Exciting heart pounding addictive pumping proves life race 's always drive .", 'One best racing movies ever .']</t>
+          <t>['Quite good ', 'Was really surprised good', 'An interesting story wins average filmmaking', 'Solid filmmaking Ron Howard', 'admirable work', 'Racing', 'More fast cars', 'A well told sports story engaging makes great use sound draw viewer', 'I Do nt get It', '1976 exciting year Formula One racing ', 'Great racing movie', 'Highly captivating', 'Restrained Common Average Overrated  Formulaic', 'Good  great', 'I m Puzzled Why The Oscars Ignored This', 'Cars', 'When bar lowered ', 'What s This  A Ron Howard Movie That Is nt Intolerable ', 'The Closer You Death', ' A wise man learn enemies fool friends ', 'Exhilarating', 'Completely unexpectedly good', 'Very good truelife sporting drama', 'Exciting heart pounding addictive pumping proves life race s always drive ', 'One best racing movies ever ']</t>
         </is>
       </c>
     </row>
@@ -31281,7 +31281,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>['One best year', 'Underwhelming fighting drama', 'breakout performances', 'Strong Performances Push Familiar Story', 'Fighting', 'A Modern Day Rocky ?', 'Surprisingly good', 'Intense', 'Predictable clichéd ... reasonably exciting', 'Exceptional guy drama film', "An underrated gem 's absolute must see", 'I Was Totally Sucker Punched', 'Not much love everyone else seems still denying great .', 'Warrior : A Powerful Film About Family', 'Clichéd sports movie good points', 'Emotional , long , good sports drama', 'Much fighting movie . Brilliant senses .', 'The Fighter 2011', 'A Nutshell Review : Warrior', 'notes', 'An emotionally intense fight film', "Watch Nick Nolte 's Masterful Performance !", 'Makes feel conflicted win', 'How failed get Best Picture nomination something mystery', 'Finally legit MMA movie taken sport seriously']</t>
+          <t>['One best year', 'Underwhelming fighting drama', 'breakout performances', 'Strong Performances Push Familiar Story', 'Fighting', 'A Modern Day Rocky ', 'Surprisingly good', 'Intense', 'Predictable clichd  reasonably exciting', 'Exceptional guy drama film', 'An underrated gem s absolute must see', 'I Was Totally Sucker Punched', 'Not much love everyone else seems still denying great ', 'Warrior  A Powerful Film About Family', 'Clichd sports movie good points', 'Emotional  long  good sports drama', 'Much fighting movie  Brilliant senses ', 'The Fighter 2011', 'A Nutshell Review  Warrior', 'notes', 'An emotionally intense fight film', 'Watch Nick Nolte s Masterful Performance ', 'Makes feel conflicted win', 'How failed get Best Picture nomination something mystery', 'Finally legit MMA movie taken sport seriously']</t>
         </is>
       </c>
     </row>
@@ -31325,7 +31325,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>["Like train wreck ca n't stop watching ...", "Another one Scorsese 's finest", "Not Scorsese 's best", 'Brutal Honest', 'thing beauty', 'Masterpiece', 'DeNiro Takes It All', 'Classic examination masculinity', "You talking ' ?", 'A hard-hitting biopic .', 'Not My Favorite Scorsese', 'Raging film', 'Abravise Characters But It Draws Me Back', 'Made talent , dedication charisma -- attributes characters on-screen lack ...', 'Scorcese robbed', 'possibly great American biopic 1980s', 'Robert De Niro Goes Distance Martin Scorsese', 'No punches pulled . A raw masterpiece .', 'A Dark Look Inside The Primitive `` animal ``', 'Brilliant', 'It like average Rocky movie', 'Ouch', 'This one greatest movies American cinema history absolutely must see', 'Fighting demons , boxers', "Excellent Film ? Yes . Scorsese 's Masterpiece ? No ."]</t>
+          <t>['Like train wreck ca nt stop watching ', 'Another one Scorsese s finest', 'Not Scorsese s best', 'Brutal Honest', 'thing beauty', 'Masterpiece', 'DeNiro Takes It All', 'Classic examination masculinity', 'You talking  ', 'A hardhitting biopic ', 'Not My Favorite Scorsese', 'Raging film', 'Abravise Characters But It Draws Me Back', 'Made talent  dedication charisma  attributes characters onscreen lack ', 'Scorcese robbed', 'possibly great American biopic 1980s', 'Robert De Niro Goes Distance Martin Scorsese', 'No punches pulled  A raw masterpiece ', 'A Dark Look Inside The Primitive  animal ', 'Brilliant', 'It like average Rocky movie', 'Ouch', 'This one greatest movies American cinema history absolutely must see', 'Fighting demons  boxers', 'Excellent Film  Yes  Scorsese s Masterpiece  No ']</t>
         </is>
       </c>
     </row>
@@ -31369,7 +31369,7 @@
       </c>
       <c r="J703" t="inlineStr">
         <is>
-          <t>['Too artsy slow .... relationship , sadly , seemed unreal .', 'French film', 'beautiful', "What Women Do When Men Are n't Watching", 'Portrait Filmmaker Something Say ( I mean compliment ! )', 'A woman control destiny', 'Beautifully filmed otherwise dull unoriginal', 'A masterpiece cinematic art', 'The Gazer Gazed', 'Looks pretty enough rather shallow predictable .', 'Burning desire .', 'Beautiful', 'audacious sapphic testament conspiratorial sororal solidarity explicit sexual desire', "It 's beauty speaking lovers .", 'Beautiful , poetic ...', 'A Classic Cinematic Portrait Love beyond Gender Regret beyond Sacrifice', 'art love difficult times', 'Everyone see ; masterpiece .', 'Passionate Storytelling At Its Most Serene', 'Good movie', "Burning Desire , Passion &amp; L'Amour ...", 'Special Features', 'Absolutely exquisite', 'Average ...', 'Embers previous life']</t>
+          <t>['Too artsy slow  relationship  sadly  seemed unreal ', 'French film', 'beautiful', 'What Women Do When Men Are nt Watching', 'Portrait Filmmaker Something Say  I mean compliment  ', 'A woman control destiny', 'Beautifully filmed otherwise dull unoriginal', 'A masterpiece cinematic art', 'The Gazer Gazed', 'Looks pretty enough rather shallow predictable ', 'Burning desire ', 'Beautiful', 'audacious sapphic testament conspiratorial sororal solidarity explicit sexual desire', 'It s beauty speaking lovers ', 'Beautiful  poetic ', 'A Classic Cinematic Portrait Love beyond Gender Regret beyond Sacrifice', 'art love difficult times', 'Everyone see  masterpiece ', 'Passionate Storytelling At Its Most Serene', 'Good movie', 'Burning Desire  Passion  LAmour ', 'Special Features', 'Absolutely exquisite', 'Average ', 'Embers previous life']</t>
         </is>
       </c>
     </row>
@@ -31413,7 +31413,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>['Gee , ... I feel like unsophisticated boob !', "One Kubrick 's best misunderstood", 'Irish social climber', 'A malignant fate', 'A Piece Art', 'A brilliant luminous film historical elements great master director Kubrick', "Kubrick 's mild letdown sandwiched two greats", "Not Kubrick 's Best , Though A Great Film Just Same", 'Rise fall ambivalent gentleman', 'Great Paintings Come To Life', 'Opulent engrossing ... however , deep-thinking sensibility muffles overall impact', 'excellent , rewarding multiple viewings kind masterwork', 'Watch Paint Dry', 'Kubrick Paints A Picture', 'Interesting story', 'A lady sets heart upon lad uniform must prepare change lovers pretty quickly , life sad one .', "In mind THIS Kubrick 's best film", 'To watch life opportunist interest', 'Bum', 'Like Stepping Into Classical Painting', 'One beautiful movies ever made .', 'A tale love , war power', "Ryan O'Neal 's Best Performance Date !", 'They equal', 'Lyndon Falling']</t>
+          <t>['Gee   I feel like unsophisticated boob ', 'One Kubrick s best misunderstood', 'Irish social climber', 'A malignant fate', 'A Piece Art', 'A brilliant luminous film historical elements great master director Kubrick', 'Kubrick s mild letdown sandwiched two greats', 'Not Kubrick s Best  Though A Great Film Just Same', 'Rise fall ambivalent gentleman', 'Great Paintings Come To Life', 'Opulent engrossing  however  deepthinking sensibility muffles overall impact', 'excellent  rewarding multiple viewings kind masterwork', 'Watch Paint Dry', 'Kubrick Paints A Picture', 'Interesting story', 'A lady sets heart upon lad uniform must prepare change lovers pretty quickly  life sad one ', 'In mind THIS Kubrick s best film', 'To watch life opportunist interest', 'Bum', 'Like Stepping Into Classical Painting', 'One beautiful movies ever made ', 'A tale love  war power', 'Ryan ONeal s Best Performance Date ', 'They equal', 'Lyndon Falling']</t>
         </is>
       </c>
     </row>
@@ -31457,7 +31457,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>['relation', 'Loyalty', 'Buttons', 'Touching sensitive film based heartwarming true story', 'A Highly-Rated Richard Gere Movie', 'Family film bit underfed ... still worthy heart-tugger animal lovers', "kind impossible film truly hate , though I n't quite love", 'Sweet', "Incredibly moving tale dog 's loyalty owner", 'Love , Loyalty , Commitment , Devotion', 'It probably make cry dog', "A Nutshell Review : Hachiko : A Dog 's Story", 'An Emotional &amp; Beautiful Film ...', 'An AMAZING movie !', 'They stretched story really , really thin', 'EPIC ! ! ! The longest sobbing ever film ..', 'Overly Sentimental &amp; Emotionally Manipulative .', 'A cute , sweet tender film , imports originally Japanese story USA promises make many children insistently ask parents puppies .', 'One Man &amp; His Dog ...', 'Devastatingly Beautiful', 'Emotional ...', 'As cat lover loved film', 'Prepare watch', 'Why ?', "Hachi : A Dog 's Tale"]</t>
+          <t>['relation', 'Loyalty', 'Buttons', 'Touching sensitive film based heartwarming true story', 'A HighlyRated Richard Gere Movie', 'Family film bit underfed  still worthy hearttugger animal lovers', 'kind impossible film truly hate  though I nt quite love', 'Sweet', 'Incredibly moving tale dog s loyalty owner', 'Love  Loyalty  Commitment  Devotion', 'It probably make cry dog', 'A Nutshell Review  Hachiko  A Dog s Story', 'An Emotional  Beautiful Film ', 'An AMAZING movie ', 'They stretched story really  really thin', 'EPIC    The longest sobbing ever film ', 'Overly Sentimental  Emotionally Manipulative ', 'A cute  sweet tender film  imports originally Japanese story USA promises make many children insistently ask parents puppies ', 'One Man  His Dog ', 'Devastatingly Beautiful', 'Emotional ', 'As cat lover loved film', 'Prepare watch', 'Why ', 'Hachi  A Dog s Tale']</t>
         </is>
       </c>
     </row>
@@ -31501,7 +31501,7 @@
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>['I loved film know three versions video USA', 'Stunning', "Fun kid 's film Studio Ghibli", 'cute sweet', 'A Totoro everyone', 'Very cute colourful material surprisingly childish impacting I wanted', 'Riveting , visually sumptuous marvellous animated movie great Hayao Miyazaki', "I Just Do n't Get It", 'My Neighbor Totoro turned little squish-ball , I mean compliment', 'Sweet , enchanting , heart-warming movie', 'MY NEIGHBOR TOTORO ( Hayao Miyazaki , 1988 ) * * *', 'This time great animated picture absolutely must see', 'There goes neighbourhood', 'Easy watch , perhaps , easy forget .', 'Heartwarming', 'Cute anime . Childhood/sisterhood/nature spirits', 'A Nutshell Review : ( DVD ) My Neighbor Totoro ( 1988 )', 'lovely', "Much simple ! Definitely kid 's movie . Slow pointless ( adults ) .", 'Definitely geared towards children', 'No one understands soul childhood like Hayao Miyazaki ...', "Perhaps cutest Japanese Animated Film Hayao Miyazaki films n't fancy .", "A Cinema You 're Going To Cherish All Your Life .", 'Honest good', 'Again , I expected']</t>
+          <t>['I loved film know three versions video USA', 'Stunning', 'Fun kid s film Studio Ghibli', 'cute sweet', 'A Totoro everyone', 'Very cute colourful material surprisingly childish impacting I wanted', 'Riveting  visually sumptuous marvellous animated movie great Hayao Miyazaki', 'I Just Do nt Get It', 'My Neighbor Totoro turned little squishball  I mean compliment', 'Sweet  enchanting  heartwarming movie', 'MY NEIGHBOR TOTORO  Hayao Miyazaki  1988    ', 'This time great animated picture absolutely must see', 'There goes neighbourhood', 'Easy watch  perhaps  easy forget ', 'Heartwarming', 'Cute anime  Childhoodsisterhoodnature spirits', 'A Nutshell Review   DVD  My Neighbor Totoro  1988 ', 'lovely', 'Much simple  Definitely kid s movie  Slow pointless  adults  ', 'Definitely geared towards children', 'No one understands soul childhood like Hayao Miyazaki ', 'Perhaps cutest Japanese Animated Film Hayao Miyazaki films nt fancy ', 'A Cinema You re Going To Cherish All Your Life ', 'Honest good', 'Again  I expected']</t>
         </is>
       </c>
     </row>
@@ -31545,7 +31545,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>['Slowest film ever', 'Poetry film bit reserved', 'A Beautiful , Melancholic Romantic Love Story', 'Fizzes restraint perhaps little slow direction deliberate', 'Wong Kar-Wai nothing short spectacular ...', 'days romance 1960s Hong Kong', 'Beautiful', 'quintessential romance Wong Kar Wai', 'Beautiful', 'Original , simple , elegant , poetic powerful', "Beautiful ... 's", 'A Beautiful Looking Love Story', 'good stuff !', 'In Mood Truly Cinematic Film ?', 'A reverse love-story .', 'Super Stylish Mood Piece', 'In Mood Love', 'A tender affair .', 'Fantastic', 'Great romantic movie , mood', 'A Nutshell Review : ( DVD ) In Mood Love ( 2000 )', 'YAWN ! ! Is yet ?', 'ZZZZzzzzzzz ( snort ) ... Um , yet ?', 'Thanks Hong Kong Cinema Finally providing Intelligent Intellectual Classic dumb Romance Genre ..', 'Overly reserved']</t>
+          <t>['Slowest film ever', 'Poetry film bit reserved', 'A Beautiful  Melancholic Romantic Love Story', 'Fizzes restraint perhaps little slow direction deliberate', 'Wong KarWai nothing short spectacular ', 'days romance 1960s Hong Kong', 'Beautiful', 'quintessential romance Wong Kar Wai', 'Beautiful', 'Original  simple  elegant  poetic powerful', 'Beautiful  s', 'A Beautiful Looking Love Story', 'good stuff ', 'In Mood Truly Cinematic Film ', 'A reverse lovestory ', 'Super Stylish Mood Piece', 'In Mood Love', 'A tender affair ', 'Fantastic', 'Great romantic movie  mood', 'A Nutshell Review   DVD  In Mood Love  2000 ', 'YAWN   Is yet ', 'ZZZZzzzzzzz  snort   Um  yet ', 'Thanks Hong Kong Cinema Finally providing Intelligent Intellectual Classic dumb Romance Genre ', 'Overly reserved']</t>
         </is>
       </c>
     </row>
@@ -31589,7 +31589,7 @@
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>['Fun Argentinian anthology', 'six good stories', 'Wild Tales indeed', 'Six Black Comedies', 'Very good Argentina/Spain co-production stunningly directed efficiently produced Pedro Almodovar .', 'animals human world', 'Time Wounds All Heels .', "aka 'One Thing Leads Another till BAM ' - comedy !", 'Excellent assortment edgy , original enthralling short stories', 'Rage Revenge , Guilty Laughter', 'Six short stories make good movie', 'funny , hilarious , terrible', 'Sweet revenge , need Anger Management', 'A dish best served cold .', 'Wildly funny , may end laughing !', 'notes', 'Very good ...', "If ca n't get even , get mad ...", 'wing Almodovar', 'Wickedly Hilarious &amp; Delightfully Deranged .', 'Dark , funny brilliant', 'Crazy wild', 'Argentinian Tarantino', 'Absolutely wild', 'A truly `` wild `` experience']</t>
+          <t>['Fun Argentinian anthology', 'six good stories', 'Wild Tales indeed', 'Six Black Comedies', 'Very good ArgentinaSpain coproduction stunningly directed efficiently produced Pedro Almodovar ', 'animals human world', 'Time Wounds All Heels ', 'aka One Thing Leads Another till BAM   comedy ', 'Excellent assortment edgy  original enthralling short stories', 'Rage Revenge  Guilty Laughter', 'Six short stories make good movie', 'funny  hilarious  terrible', 'Sweet revenge  need Anger Management', 'A dish best served cold ', 'Wildly funny  may end laughing ', 'notes', 'Very good ', 'If ca nt get even  get mad ', 'wing Almodovar', 'Wickedly Hilarious  Delightfully Deranged ', 'Dark  funny brilliant', 'Crazy wild', 'Argentinian Tarantino', 'Absolutely wild', 'A truly  wild  experience']</t>
         </is>
       </c>
     </row>
@@ -31633,7 +31633,7 @@
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>["Despite classic , 's NOT film many people ... perhaps people .", 'One best movies 80s', 'long winding road', 'An Odd Film', "`` Is four years long time ? ' .. `` It little boy . ``", 'interesting character study', 'Arthouse character study director Wim Wenders', 'Patient Viewers Beautiful Treat ... Unique Movie-Going Experience', 'A brilliant , searingly emotional examination relationships life', "I 'm afraid heights . I 'm afraid fallin ' .", 'Literally Made My Heart Ache', 'A Fancy Lady', 'I never keen film', 'By far best Win Wenders , near masterpiece road movie ! !', "One 's place world", 'Paris , Texas', 'Excellent potent tale loss', 'PLEASE ! RELEASE THIS TO DVD ! ! !', 'Desert soul .', 'Masterful', '`` Taxi Driver `` `` The Searchers `` curious European art-house mix ...', 'Hardly good film interested wild senseless fascinations two people otherwise OVERRATED !', 'An Underwhelming Road Movie That Keeps Drifting Aimlessly Throughout Its Runtime', 'Great character study movie', 'Sort disappointing']</t>
+          <t>['Despite classic  s NOT film many people  perhaps people ', 'One best movies 80s', 'long winding road', 'An Odd Film', ' Is four years long time     It little boy  ', 'interesting character study', 'Arthouse character study director Wim Wenders', 'Patient Viewers Beautiful Treat  Unique MovieGoing Experience', 'A brilliant  searingly emotional examination relationships life', 'I m afraid heights  I m afraid fallin  ', 'Literally Made My Heart Ache', 'A Fancy Lady', 'I never keen film', 'By far best Win Wenders  near masterpiece road movie  ', 'One s place world', 'Paris  Texas', 'Excellent potent tale loss', 'PLEASE  RELEASE THIS TO DVD   ', 'Desert soul ', 'Masterful', ' Taxi Driver   The Searchers  curious European arthouse mix ', 'Hardly good film interested wild senseless fascinations two people otherwise OVERRATED ', 'An Underwhelming Road Movie That Keeps Drifting Aimlessly Throughout Its Runtime', 'Great character study movie', 'Sort disappointing']</t>
         </is>
       </c>
     </row>
@@ -31677,7 +31677,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>['A depressing experience', 'Clint Eastwood turns another great movie', 'Great', 'A Story Redemption', 'A low key thoughtful piece pleases turning away expect', 'truly packs punch', 'Clint Eastwood Shines , Hilary Swank Does Her Thing', 'Well-Crafted But Ludicrous , Insulting Story', 'Ready-built tragedy', 'knockout punch', 'long live Clint Eastwood !', "boxers ' blues- one notable points Eastwood 's career", 'Captivating', 'Clint Eastwood `` Frankie `` Goes Hollywood Swank Rope Burns', 'Old fashioned boxing story modern twist', 'Incredibly moving - superb movie', 'Cauliflowered', 'Good old Clint', 'An absolute masterpiece', 'The story life trenches', 'Would Bright , Primary Color Here There Be Too Much Ask , Mr. Eastwood ?', 'Lemon Pie Yeats', "A knockout - Trifecta acting ; one Eastwood 's best ; Swank 's best since winning Oscar", 'Female `` Rocky `` downbeat contradictory close', 'Swank ! Eastwood ! Freeman !']</t>
+          <t>['A depressing experience', 'Clint Eastwood turns another great movie', 'Great', 'A Story Redemption', 'A low key thoughtful piece pleases turning away expect', 'truly packs punch', 'Clint Eastwood Shines  Hilary Swank Does Her Thing', 'WellCrafted But Ludicrous  Insulting Story', 'Readybuilt tragedy', 'knockout punch', 'long live Clint Eastwood ', 'boxers  blues one notable points Eastwood s career', 'Captivating', 'Clint Eastwood  Frankie  Goes Hollywood Swank Rope Burns', 'Old fashioned boxing story modern twist', 'Incredibly moving  superb movie', 'Cauliflowered', 'Good old Clint', 'An absolute masterpiece', 'The story life trenches', 'Would Bright  Primary Color Here There Be Too Much Ask  Mr Eastwood ', 'Lemon Pie Yeats', 'A knockout  Trifecta acting  one Eastwood s best  Swank s best since winning Oscar', 'Female  Rocky  downbeat contradictory close', 'Swank  Eastwood  Freeman ']</t>
         </is>
       </c>
     </row>
@@ -31721,7 +31721,7 @@
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>['Jew , Arab African', 'Circle ... hate', 'Life Black White', 'Hate , French Style', "important thing n't fall landing", 'best film year ; pure urban horror filmed unflinching poetic eyes', 'Powerful , thought-provoking drama', "How fall n't matter . It 's land !", 'I care much ending film', 'Hate breeds hate !', 'Sharp , vivid , bleakly relevant', 'One better French movies ever', 'La Haine', "Did n't much", 'Hate breeds hate .', 'Gritty drama', 'Social-realism cinematic style', 'intense brilliantly filmed', 'The French Disconnection ...', "French Cinema 's Effective look Social Economic divisions decelerated speed breakers", 'A Fiercely Explosive Drama About Race , Rage &amp; Violence .', 'Highly involving movie', 'The World Yours', 'Hard-hitting social realism', 'A heartfelt relevant tale injustice humanity']</t>
+          <t>['Jew  Arab African', 'Circle  hate', 'Life Black White', 'Hate  French Style', 'important thing nt fall landing', 'best film year  pure urban horror filmed unflinching poetic eyes', 'Powerful  thoughtprovoking drama', 'How fall nt matter  It s land ', 'I care much ending film', 'Hate breeds hate ', 'Sharp  vivid  bleakly relevant', 'One better French movies ever', 'La Haine', 'Did nt much', 'Hate breeds hate ', 'Gritty drama', 'Socialrealism cinematic style', 'intense brilliantly filmed', 'The French Disconnection ', 'French Cinema s Effective look Social Economic divisions decelerated speed breakers', 'A Fiercely Explosive Drama About Race  Rage  Violence ', 'Highly involving movie', 'The World Yours', 'Hardhitting social realism', 'A heartfelt relevant tale injustice humanity']</t>
         </is>
       </c>
     </row>
@@ -31765,7 +31765,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>['Outstanding levels !', 'Great family movie', 'Much More Than Cartoon', 'seductive', 'An intelligent entertaining film plenty adults children', 'Fascinating marvellous animated movie stunning professional Brad Bird', "The Who outer space enter Stephen King 's possible childhood", 'The Iron Giant stomps competition .', 'Fun 1950s Alien Robot', 'Very entertaining animated film .', 'Sweet tale friendship', 'Even Geezer Likes It', "Fantasized Realism &amp; Heartfelt Charm Elevate 1950 's Homage", 'Predictable dull , kids like', 'You choose .', 'Succeeds brilliantly entertainment ... fine animation ...', 'Great cartoon children', 'An absolute must see', 'Heartwarming wonderful atmosphere .', 'YES ! ! ! ! ! NO SONG OR DANCE NUMBERS ! ! ! ! ! !', 'Its heart giant', 'A Lesson Ought Learned American Animators', 'Gentle giant .', 'LEGEND', 'A Very special little film .']</t>
+          <t>['Outstanding levels ', 'Great family movie', 'Much More Than Cartoon', 'seductive', 'An intelligent entertaining film plenty adults children', 'Fascinating marvellous animated movie stunning professional Brad Bird', 'The Who outer space enter Stephen King s possible childhood', 'The Iron Giant stomps competition ', 'Fun 1950s Alien Robot', 'Very entertaining animated film ', 'Sweet tale friendship', 'Even Geezer Likes It', 'Fantasized Realism  Heartfelt Charm Elevate 1950 s Homage', 'Predictable dull  kids like', 'You choose ', 'Succeeds brilliantly entertainment  fine animation ', 'Great cartoon children', 'An absolute must see', 'Heartwarming wonderful atmosphere ', 'YES      NO SONG OR DANCE NUMBERS      ', 'Its heart giant', 'A Lesson Ought Learned American Animators', 'Gentle giant ', 'LEGEND', 'A Very special little film ']</t>
         </is>
       </c>
     </row>
@@ -31809,7 +31809,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>['More Tarkovsky brilliance', 'long , surreal Russian', 'state reality', 'Without Clue , An Intriguing Metaphoric Movie Very Difficult To Be Understood', 'somewhere `` No Exit `` `` Down Law ``', 'Bizarre Russian Science Fiction', "erebral ' science-fiction film ever made , also one rarest challenge perceptions stimulate senses", "Tarkovsky 's Problematic Filming &amp; Crew 's Later Physical-Maladies ... A No-Brainer ... What Waste !", 'Brilliant - one greatest examples cinema art', 'Ordered , Recalled', 'Meandering Metaphysics', "There 's meaning dialogue", 'Fantastically beautiful ruthlessly dense art film', 'Stalker', 'Stalker', 'must see !', "Oh God , I ca n't", "A slow poison inner world human 's hopes , desires , disillusions beliefs .", 'An experience movie', 'Visually stunning sci/fi drama .', "Andrei Tarkovsky 's Magnum Opus", 'A couple great moments really tedious film .', 'Great settings mood , nice movie overall', 'More style content .', 'Completely different movie ...']</t>
+          <t>['More Tarkovsky brilliance', 'long  surreal Russian', 'state reality', 'Without Clue  An Intriguing Metaphoric Movie Very Difficult To Be Understood', 'somewhere  No Exit   Down Law ', 'Bizarre Russian Science Fiction', 'erebral  sciencefiction film ever made  also one rarest challenge perceptions stimulate senses', 'Tarkovsky s Problematic Filming  Crew s Later PhysicalMaladies  A NoBrainer  What Waste ', 'Brilliant  one greatest examples cinema art', 'Ordered  Recalled', 'Meandering Metaphysics', 'There s meaning dialogue', 'Fantastically beautiful ruthlessly dense art film', 'Stalker', 'Stalker', 'must see ', 'Oh God  I ca nt', 'A slow poison inner world human s hopes  desires  disillusions beliefs ', 'An experience movie', 'Visually stunning scifi drama ', 'Andrei Tarkovsky s Magnum Opus', 'A couple great moments really tedious film ', 'Great settings mood  nice movie overall', 'More style content ', 'Completely different movie ']</t>
         </is>
       </c>
     </row>
@@ -31853,7 +31853,7 @@
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>['exceptional war film one minor flaw', 'Wonderful , one favourite David Lean films', 'The Perks Being An Officer', 'Pure madness Alec Guinness', "Lean 's Epic Certainly Among All-Time Greats", "It Does n't Have Be Historically Accurate", "David Lean 's incredible masterpiece .", "We 'll cross bridge ... oh", 'Award-winning rendition famed novel extraordinary performances atmospheric scenarios', "British victory Colbert 's interview Branson", 'Oh , War ... Such Silly Thing', 'A clash wills , principles , egos amidst madness war ...', 'Madness', 'one quintessential POW/WW2 movies , unforgettable characterizations', 'Bridged Far * *', "Colonel Bogey 's Barmy Army .", "I n't impressed", 'Nothing less masterpiece ...', 'Famous amazing', 'The Bridge River Kwai stands enduring masterpiece within war genre', 'Madness ! Madness !', 'A Beautiful Film About Delicacy Humanity', "David Lean 's first great epic .", '`` All Work No Play Make Jack Dull Boy ! ``', 'Madness !']</t>
+          <t>['exceptional war film one minor flaw', 'Wonderful  one favourite David Lean films', 'The Perks Being An Officer', 'Pure madness Alec Guinness', 'Lean s Epic Certainly Among AllTime Greats', 'It Does nt Have Be Historically Accurate', 'David Lean s incredible masterpiece ', 'We ll cross bridge  oh', 'Awardwinning rendition famed novel extraordinary performances atmospheric scenarios', 'British victory Colbert s interview Branson', 'Oh  War  Such Silly Thing', 'A clash wills  principles  egos amidst madness war ', 'Madness', 'one quintessential POWWW2 movies  unforgettable characterizations', 'Bridged Far  ', 'Colonel Bogey s Barmy Army ', 'I nt impressed', 'Nothing less masterpiece ', 'Famous amazing', 'The Bridge River Kwai stands enduring masterpiece within war genre', 'Madness  Madness ', 'A Beautiful Film About Delicacy Humanity', 'David Lean s first great epic ', ' All Work No Play Make Jack Dull Boy  ', 'Madness ']</t>
         </is>
       </c>
     </row>
@@ -31897,7 +31897,7 @@
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>['Amazing epic', 'Film-making truly epic scale', 'A `` Real `` Character', 'Hollywood epic', 'One You Must See Big Screen', 'Chuck Does Pretty Good Job', 'Chariots Fire', 'Extra Large without french fries', "Oscarized adaptation based Lew Wallace 's novel huge production design wonderful scenarios", 'Do remember anything except chariot race ?', "It n't get much epic .", 'An Epic -- Literally', 'Pure masterpiece', 'Deserved All The Honors', 'What spectacle !', 'still gigantic achievement epic film-making', 'Chariots Gods', 'Worth One Watch ... Repeated Viewings Not Recommended', "Epic ( 's )", 'Majestic scope story telling .', 'Spectacular way long', 'New DVD version full restoration sight sound ... brilliant achievement !', 'Ben hur', 'This iconic American cinematic classic absolute must see', 'Truly classic epic !']</t>
+          <t>['Amazing epic', 'Filmmaking truly epic scale', 'A  Real  Character', 'Hollywood epic', 'One You Must See Big Screen', 'Chuck Does Pretty Good Job', 'Chariots Fire', 'Extra Large without french fries', 'Oscarized adaptation based Lew Wallace s novel huge production design wonderful scenarios', 'Do remember anything except chariot race ', 'It nt get much epic ', 'An Epic  Literally', 'Pure masterpiece', 'Deserved All The Honors', 'What spectacle ', 'still gigantic achievement epic filmmaking', 'Chariots Gods', 'Worth One Watch  Repeated Viewings Not Recommended', 'Epic  s ', 'Majestic scope story telling ', 'Spectacular way long', 'New DVD version full restoration sight sound  brilliant achievement ', 'Ben hur', 'This iconic American cinematic classic absolute must see', 'Truly classic epic ']</t>
         </is>
       </c>
     </row>
@@ -31941,7 +31941,7 @@
       </c>
       <c r="J716" t="inlineStr">
         <is>
-          <t>['sweet return', 'Manages Improve Very Good First Film', 'beautiful', 'Paris walks', 'Long time coming', 'Delightful Sequel One Most Beautiful Romances I Have Ever Seen', 'Slight fleeting well written , sweet , natural left slight smile face even bit idyllic cheesy times', 'Linklater Sharpens His Pencil', 'fascinates interests almost works annoy viewer , Linklater come closest Bergman', 'A nice encounter', 'Great , substantial Before Sunrise', 'Reluctance', 'Before midnight', 'Just great', 'The second three `` Before ... `` movies', 'Romance Is Back In Town', 'Life happens making plans', 'Growing Up Growing Apart', 'Romance alive ; Hawke &amp; Delpy cinematic couple archives', 'A magnificent follow beautiful picture', 'The space words .', 'Fantastic', 'A Nutshell Review : ( DVD ) Before Sunset ( 2004 )', "Man , 's great alive", "I appreciate , I n't like ."]</t>
+          <t>['sweet return', 'Manages Improve Very Good First Film', 'beautiful', 'Paris walks', 'Long time coming', 'Delightful Sequel One Most Beautiful Romances I Have Ever Seen', 'Slight fleeting well written  sweet  natural left slight smile face even bit idyllic cheesy times', 'Linklater Sharpens His Pencil', 'fascinates interests almost works annoy viewer  Linklater come closest Bergman', 'A nice encounter', 'Great  substantial Before Sunrise', 'Reluctance', 'Before midnight', 'Just great', 'The second three  Before   movies', 'Romance Is Back In Town', 'Life happens making plans', 'Growing Up Growing Apart', 'Romance alive  Hawke  Delpy cinematic couple archives', 'A magnificent follow beautiful picture', 'The space words ', 'Fantastic', 'A Nutshell Review   DVD  Before Sunset  2004 ', 'Man  s great alive', 'I appreciate  I nt like ']</t>
         </is>
       </c>
     </row>
@@ -31985,7 +31985,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>['Really weird worth seeing experience', 'Fully deserves rep masterpiece', 'love Death Max von Sydow', 'The Seventh Seal', 'Ah , Middle Ages !', 'chess play', 'The endgame', 'To chess chess', 'The SEVENTH SEAL breathtaking masterpiece great international impact genius Bergman', 'seven lucky number film buffs', 'Widely Considered Greatest Bergman Film', 'Another Favorite Of The Pseudo-Intellectuals', '`` You black . `` .. `` It suits well . ``', 'The Quintessential Bergman Picture', 'Death Becomes Him', 'Death never takes holiday ...', 'Again Meaning Life Thing -- Enough Already', 'A beautiful thought provoking movie .', '`` Our crusade madness real idealist could thought ``', 'Medieval Road Movie', 'Portentous yet intriguing .', 'Magnificent', 'Silence Heaven', 'Absolutely undoubtedly great !', 'Memento mori']</t>
+          <t>['Really weird worth seeing experience', 'Fully deserves rep masterpiece', 'love Death Max von Sydow', 'The Seventh Seal', 'Ah  Middle Ages ', 'chess play', 'The endgame', 'To chess chess', 'The SEVENTH SEAL breathtaking masterpiece great international impact genius Bergman', 'seven lucky number film buffs', 'Widely Considered Greatest Bergman Film', 'Another Favorite Of The PseudoIntellectuals', ' You black     It suits well  ', 'The Quintessential Bergman Picture', 'Death Becomes Him', 'Death never takes holiday ', 'Again Meaning Life Thing  Enough Already', 'A beautiful thought provoking movie ', ' Our crusade madness real idealist could thought ', 'Medieval Road Movie', 'Portentous yet intriguing ', 'Magnificent', 'Silence Heaven', 'Absolutely undoubtedly great ', 'Memento mori']</t>
         </is>
       </c>
     </row>
@@ -32029,7 +32029,7 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>['Enjoyable end bit letdown ...', 'The quintessential Paul Newman movie', 'The great anti-establishment hero', "Newman 's Brilliance", 'Never Back Down', 'Do conform', 'The Essential Paul Newman', 'Classic film , Paul Newman great , George Kennedy oscar .', 'Nobody likes ...', 'classic anti-hero near-great Hollywood prison movie 1960s', 'Easy watch', 'Cool Hand Luke- In Spirit anti-Hero * * * 1/2', "Draggin ' Line", "Conjectures What 's Behind Cool Hand", 'Plastic Jesus', 'The Art Breaking Man', 'Newman ultimate non-conformist brilliant ...', 'Prison', 'Glossy classic', "There 's much like movie 's cinematic gold", 'Rosenberg dead 79', 'Newman Perfectly Cast Anti-Establishment Hero', 'What failure', 'Paul Newman , back rebel without cause .', '`` communicat `` ion breakdown ; vintage rebellious Newman']</t>
+          <t>['Enjoyable end bit letdown ', 'The quintessential Paul Newman movie', 'The great antiestablishment hero', 'Newman s Brilliance', 'Never Back Down', 'Do conform', 'The Essential Paul Newman', 'Classic film  Paul Newman great  George Kennedy oscar ', 'Nobody likes ', 'classic antihero neargreat Hollywood prison movie 1960s', 'Easy watch', 'Cool Hand Luke In Spirit antiHero    12', 'Draggin  Line', 'Conjectures What s Behind Cool Hand', 'Plastic Jesus', 'The Art Breaking Man', 'Newman ultimate nonconformist brilliant ', 'Prison', 'Glossy classic', 'There s much like movie s cinematic gold', 'Rosenberg dead 79', 'Newman Perfectly Cast AntiEstablishment Hero', 'What failure', 'Paul Newman  back rebel without cause ', ' communicat  ion breakdown  vintage rebellious Newman']</t>
         </is>
       </c>
     </row>
@@ -32073,7 +32073,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>['Exceptional certainly NOT picture let kids see', 'Superb film one finest screenplays ever written', 'The mad prophet air', 'Insightful second half weirdly uncomfortable', "It 's What Television Has Become", 'Network', "They n't get much better .", 'Satire truth ?', "Loses 's way good start \x96 good overrated", 'An extreme critique TV networks great cast giving tour-de-force interpretations', 'Ladies gentlemen , present : entertainment cost !', 'A Nice Rambling , But Coherent , Rant Corporate Media', 'Well-known anti TV tract', 'Loved It Then , Not Now .... But It IS Memorable !', 'Television incarnate', 'Could made yesterday', 'Not sharp-as-a-tack dialog , key performances look film enduring', 'The yelling movie', 'Paddy Chayefsky Gets Mad Media', 'Deserves reboot please', 'Still relevant made .', 'A Conjecture Max -- Diana Romance', 'Superb satire', 'A Product Of Its Era And Therefore Dated', 'A Call To Unplug']</t>
+          <t>['Exceptional certainly NOT picture let kids see', 'Superb film one finest screenplays ever written', 'The mad prophet air', 'Insightful second half weirdly uncomfortable', 'It s What Television Has Become', 'Network', 'They nt get much better ', 'Satire truth ', 'Loses s way good start  good overrated', 'An extreme critique TV networks great cast giving tourdeforce interpretations', 'Ladies gentlemen  present  entertainment cost ', 'A Nice Rambling  But Coherent  Rant Corporate Media', 'Wellknown anti TV tract', 'Loved It Then  Not Now  But It IS Memorable ', 'Television incarnate', 'Could made yesterday', 'Not sharpasatack dialog  key performances look film enduring', 'The yelling movie', 'Paddy Chayefsky Gets Mad Media', 'Deserves reboot please', 'Still relevant made ', 'A Conjecture Max  Diana Romance', 'Superb satire', 'A Product Of Its Era And Therefore Dated', 'A Call To Unplug']</t>
         </is>
       </c>
     </row>
@@ -32117,7 +32117,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>['The consequences bullying', 'emotional pounding', 'A Silent Voice', 'Intense , emotional engrossing', 'Wonderful , profound themes , explored lethargic , unfocussed manner', 'This movie unique storyline worthwhile premise .', 'Good nothing great called ..', 'Everyone Deserves A Shot At Redemption', 'Worthy More', 'The voice ...', 'Very grim', 'Has good heart , works well animated film', 'ONE OF THE BEST ... !', 'A second chance fix past mistake .', 'Well experience ...', 'A Silent Voice encapsulates deafening amount humanity grants bullying path redemption .', 'The point view bully', 'Solid Japanese animation film', 'Nice anime-drama film', 'Better Your Name', 'Excellent', 'Woukd given 9 , BUT', 'Far romance , closest moving , poignant redemption drama .', 'One top 10 favorite anime .', 'As Sincerely Hard-Hitting Gets']</t>
+          <t>['The consequences bullying', 'emotional pounding', 'A Silent Voice', 'Intense  emotional engrossing', 'Wonderful  profound themes  explored lethargic  unfocussed manner', 'This movie unique storyline worthwhile premise ', 'Good nothing great called ', 'Everyone Deserves A Shot At Redemption', 'Worthy More', 'The voice ', 'Very grim', 'Has good heart  works well animated film', 'ONE OF THE BEST  ', 'A second chance fix past mistake ', 'Well experience ', 'A Silent Voice encapsulates deafening amount humanity grants bullying path redemption ', 'The point view bully', 'Solid Japanese animation film', 'Nice animedrama film', 'Better Your Name', 'Excellent', 'Woukd given 9  BUT', 'Far romance  closest moving  poignant redemption drama ', 'One top 10 favorite anime ', 'As Sincerely HardHitting Gets']</t>
         </is>
       </c>
     </row>
@@ -32161,7 +32161,7 @@
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>['There many things good movie', 'A deserved masterpiece', 'Life Is Pretty Bad In Palookaville', 'Marlon Brando becomes Hollywood legend', 'One Greatest All Time', 'Tough , Tough , Tough !', 'great', 'What could ...', 'Powerful portrait N.Y. docks , stunningly performed excellently directed Elia Kazan', "Quite Certainly Marlon Brando 's Best Role", 'Still Packs A Wallop', "Top-heavy importance prestige , well-performed actors ' piece ...", 'Magnificent statement power one', "`` It n't night , kid ? You remember ? ``", '`` On Waterfront `` An Historical Film', 'Elia Kazan Makes Marlon Brando Mad About Mob', 'Absolute classic', "You think 're God Almighty , know ? You 're cheap , lousy , dirty , stinkin ' mug ! And I 'm glad I done , ya hear ? I 'm glad I done !", 'Hypocritical Meta-Fiction', 'I could somebody ...', 'So Different Era', 'Quite simply classic', 'Powerful , gutsy drama longshoreman conscience ...', 'Overrated', "This one greatest American films ever made one I 'd strongly recommend"]</t>
+          <t>['There many things good movie', 'A deserved masterpiece', 'Life Is Pretty Bad In Palookaville', 'Marlon Brando becomes Hollywood legend', 'One Greatest All Time', 'Tough  Tough  Tough ', 'great', 'What could ', 'Powerful portrait NY docks  stunningly performed excellently directed Elia Kazan', 'Quite Certainly Marlon Brando s Best Role', 'Still Packs A Wallop', 'Topheavy importance prestige  wellperformed actors  piece ', 'Magnificent statement power one', ' It nt night  kid  You remember  ', ' On Waterfront  An Historical Film', 'Elia Kazan Makes Marlon Brando Mad About Mob', 'Absolute classic', 'You think re God Almighty  know  You re cheap  lousy  dirty  stinkin  mug  And I m glad I done  ya hear  I m glad I done ', 'Hypocritical MetaFiction', 'I could somebody ', 'So Different Era', 'Quite simply classic', 'Powerful  gutsy drama longshoreman conscience ', 'Overrated', 'This one greatest American films ever made one I d strongly recommend']</t>
         </is>
       </c>
     </row>
@@ -32205,7 +32205,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>["Not surprisingly , 'll need Kleenex nearby watch film .", 'Powerful , gut-wrenching compelling', 'sincere history telling', 'terrible portrait', 'Genocide tales', 'He Made Difference In Country Poor Black People Without Oil , Gold Diamonds', 'Extraordinary film based correctly real deeds brutal genocide', 'I heard Paul Rusesabagina speak Lewis &amp; Clark College .', 'A Captivating Story Genocide Africa', 'Hotel Rwanda Meets Oscar Schindler Raoul Wallenberg * * * *', 'Powerful , touching reflection good bad humanity', 'A document humanity', 'An awesomely done film awful event', 'A great inspiring story weakened bad casting', "You 're black . You 're even n * gger . You 're African .", 'The Horrors Genocide', "There 's always room", 'A disturbing unsettling piece truth cinema', "`` Schindler 's List `` meets `` The Killing Fields `` way `` Casablanca `` ; Cheadle 's triumphant career best", 'The Timing Actual Genocide could anymore poignant !', 'Hotel Rwanda', '`` I promise tell story ``', 'Not bad , definitely disappointment', 'A Nutshell Review : Hotel Rwanda', 'An incredible story bravery within one barbaric episodes recent history']</t>
+          <t>['Not surprisingly  ll need Kleenex nearby watch film ', 'Powerful  gutwrenching compelling', 'sincere history telling', 'terrible portrait', 'Genocide tales', 'He Made Difference In Country Poor Black People Without Oil  Gold Diamonds', 'Extraordinary film based correctly real deeds brutal genocide', 'I heard Paul Rusesabagina speak Lewis  Clark College ', 'A Captivating Story Genocide Africa', 'Hotel Rwanda Meets Oscar Schindler Raoul Wallenberg    ', 'Powerful  touching reflection good bad humanity', 'A document humanity', 'An awesomely done film awful event', 'A great inspiring story weakened bad casting', 'You re black  You re even n  gger  You re African ', 'The Horrors Genocide', 'There s always room', 'A disturbing unsettling piece truth cinema', ' Schindler s List  meets  The Killing Fields  way  Casablanca   Cheadle s triumphant career best', 'The Timing Actual Genocide could anymore poignant ', 'Hotel Rwanda', ' I promise tell story ', 'Not bad  definitely disappointment', 'A Nutshell Review  Hotel Rwanda', 'An incredible story bravery within one barbaric episodes recent history']</t>
         </is>
       </c>
     </row>
@@ -32249,7 +32249,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>['Very moving exceptionally well acted', 'Incredible father son story', 'Superb Acting Outstanding Story', 'A denounce film showing darker corners British legal system', 'much civilized England', 'History Court Drama', 'An Involving , Sometimes Brutal Story', 'son , father , damning Irish ( damned group )', 'A must watch', 'Stunningly well told story .', 'Innocence Is Not An Absolute', 'Quite enjoyed movie needs foward', 'Gripping', 'It shocking new evidence .', 'Rousing Film About Triumph Justice', 'Great Cast writing makes wonderful true film injustice !', 'A True Masterpiece !', 'WHAT A FILM ! ! A Staggering reality Quick Injustice Late Justice .', "Jim Sheridan 's Finest Feature . One Daniel Day-Lewis ' Finest Performances .", 'Powerful picture', 'A low-key , much-forgotten well-executed film .', 'Should Have Run Longer', 'Guilty Until Proven Innocent ...', 'Courtroom Classic', 'Pretty horrifying']</t>
+          <t>['Very moving exceptionally well acted', 'Incredible father son story', 'Superb Acting Outstanding Story', 'A denounce film showing darker corners British legal system', 'much civilized England', 'History Court Drama', 'An Involving  Sometimes Brutal Story', 'son  father  damning Irish  damned group ', 'A must watch', 'Stunningly well told story ', 'Innocence Is Not An Absolute', 'Quite enjoyed movie needs foward', 'Gripping', 'It shocking new evidence ', 'Rousing Film About Triumph Justice', 'Great Cast writing makes wonderful true film injustice ', 'A True Masterpiece ', 'WHAT A FILM   A Staggering reality Quick Injustice Late Justice ', 'Jim Sheridan s Finest Feature  One Daniel DayLewis  Finest Performances ', 'Powerful picture', 'A lowkey  muchforgotten wellexecuted film ', 'Should Have Run Longer', 'Guilty Until Proven Innocent ', 'Courtroom Classic', 'Pretty horrifying']</t>
         </is>
       </c>
     </row>
@@ -32293,7 +32293,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>["A brilliant film , everybody I n't think", 'artistic film', 'Those Bergman Females Could Act', 'A Theatrical Movie Direction Performances', 'Classic Bergman', 'Nothing bizarre', 'open several interpretations', 'The ambiguous , inviting , surreal , whatever-you-can-think philosophical experiment Bergman', "Persona women 's ' picture best sense term .", "Ingmar Bergman 's superb study ( insert interpretation )", 'If I knew WHAT I watching I might liked', 'The important thing effort , achieve .', "It 's Movies Like This That Earned Bergman His Reputation", 'Psychological breakdown dissection , Ingmar Bergman .', 'Persona', 'Rambling ...', "dazzling Bergman 's study unfathomable nature human", "Liv Ulmann 's smile", 'Maybe I would liked better I film school ?', 'The vision Artist inner Tragedy Life ...', 'One complicated film ever Landmark Art Film experimenting human personae philosophy .', "enigmas 'Persona '", 'A Surreal Meditation On Duality , Identity &amp; Psychology', 'What buzz ?', 'The Sounds Silence']</t>
+          <t>['A brilliant film  everybody I nt think', 'artistic film', 'Those Bergman Females Could Act', 'A Theatrical Movie Direction Performances', 'Classic Bergman', 'Nothing bizarre', 'open several interpretations', 'The ambiguous  inviting  surreal  whateveryoucanthink philosophical experiment Bergman', 'Persona women s  picture best sense term ', 'Ingmar Bergman s superb study  insert interpretation ', 'If I knew WHAT I watching I might liked', 'The important thing effort  achieve ', 'It s Movies Like This That Earned Bergman His Reputation', 'Psychological breakdown dissection  Ingmar Bergman ', 'Persona', 'Rambling ', 'dazzling Bergman s study unfathomable nature human', 'Liv Ulmann s smile', 'Maybe I would liked better I film school ', 'The vision Artist inner Tragedy Life ', 'One complicated film ever Landmark Art Film experimenting human personae philosophy ', 'enigmas Persona ', 'A Surreal Meditation On Duality  Identity  Psychology', 'What buzz ', 'The Sounds Silence']</t>
         </is>
       </c>
     </row>
@@ -32337,7 +32337,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>['Apart music , nearly perfect film .', 'Brilliant', 'cinematic art work', 'Perfection Black White', 'postwar Wien', 'Lime Street', 'A tremendous post war mystery .', 'An Unforgettable Masterpiece Mystery Thriller', 'Classic immortal thriller-mystery set Vienna Cold war', "Orson Welles 's 3rd great movie", 'Practically Perfect Every Way', 'Astounding Visuals Make It A Treasure', 'Atmospheric thriller Hitchcock vein ...', 'fantastic film takes place postwar Vienna', 'A Few Personal Notes', 'A Fine Film Three Immensely Irritating Things', 'True classic', "Nobody thinks terms human beings . Governments n't . Why ?", 'The Technical Points Make It A Classic', 'Four men bridge', 'To zither zither , question ...', 'Requires lot discussion', 'Howzat', 'Who Is Harry Lime ? ...', 'The direction ruins']</t>
+          <t>['Apart music  nearly perfect film ', 'Brilliant', 'cinematic art work', 'Perfection Black White', 'postwar Wien', 'Lime Street', 'A tremendous post war mystery ', 'An Unforgettable Masterpiece Mystery Thriller', 'Classic immortal thrillermystery set Vienna Cold war', 'Orson Welles s 3rd great movie', 'Practically Perfect Every Way', 'Astounding Visuals Make It A Treasure', 'Atmospheric thriller Hitchcock vein ', 'fantastic film takes place postwar Vienna', 'A Few Personal Notes', 'A Fine Film Three Immensely Irritating Things', 'True classic', 'Nobody thinks terms human beings  Governments nt  Why ', 'The Technical Points Make It A Classic', 'Four men bridge', 'To zither zither  question ', 'Requires lot discussion', 'Howzat', 'Who Is Harry Lime  ', 'The direction ruins']</t>
         </is>
       </c>
     </row>
@@ -32381,7 +32381,7 @@
       </c>
       <c r="J726" t="inlineStr">
         <is>
-          <t>['What masterful feature film debut', 'Love first section', 'Amores Perros', "As director 's film astounding narrative 's highs lows", 'Life Mexico , folks .', 'A gritty slice three Mexican lives', "Michael Vick 's Favorite Movie", 'Mexican CRASH', 'One best films year ( 2001 )', 'Nice film', 'Brilliant', 'Multiple stories intertwining multiple characters', 'Must Love Dogs', 'Dog Eats Dog , End Story', "Good , I n't get much", 'Too many ( 3 ) totally different storylines dilute cohesion pace movie . Great acting , great photography , great stories , yet cohesion missing .', 'Like seduced hammer', 'Every dog day ...', 'On Men And Dogs', "Alejandro Gonzáles Iñárritu 's Feature Film Debut Is An Instant Classic", 'Good movie', 'Riven Rage ...', 'Contrived', '`` If want make God laugh ... tell Him plans . ``', 'Not dog lovers']</t>
+          <t>['What masterful feature film debut', 'Love first section', 'Amores Perros', 'As director s film astounding narrative s highs lows', 'Life Mexico  folks ', 'A gritty slice three Mexican lives', 'Michael Vick s Favorite Movie', 'Mexican CRASH', 'One best films year  2001 ', 'Nice film', 'Brilliant', 'Multiple stories intertwining multiple characters', 'Must Love Dogs', 'Dog Eats Dog  End Story', 'Good  I nt get much', 'Too many  3  totally different storylines dilute cohesion pace movie  Great acting  great photography  great stories  yet cohesion missing ', 'Like seduced hammer', 'Every dog day ', 'On Men And Dogs', 'Alejandro Gonzles Irritu s Feature Film Debut Is An Instant Classic', 'Good movie', 'Riven Rage ', 'Contrived', ' If want make God laugh  tell Him plans  ', 'Not dog lovers']</t>
         </is>
       </c>
     </row>
@@ -32425,7 +32425,7 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>['Well done historical accuracy gives way theatrics', 'Relevant today , elevated two powerhouse performances', 'The right think ................ much trial .', 'Compelling movie', 'Masterpiece', "The Movie 's Legacy Is Danger", 'admirable work', 'Interesting powerful drama terrific performances well-matched Spencer Tracy Fredric March .', "'s still happening ...", 'A Passionate Film About Conformity Dissent', 'Religion vs. Science -- still topical issue ...', 'film ( sadly ) relevant current times , also watchable towering stars', 'Inherit Wind- ... And Elmer Gantry Too * * * 1/2', 'And Beat Goes On', 'Let tell man named Brady', 'Overblown Overbaked', 'Darwin Vs The Bible .', 'movie rights individuals', 'Clear decks giants clash', 'The greatest screen performance time', 'Inherit The Wind ( 1960 )', 'Preaching Choir', 'Famous 1925 Trial .', 'Brilliant', 'Tracy March']</t>
+          <t>['Well done historical accuracy gives way theatrics', 'Relevant today  elevated two powerhouse performances', 'The right think  much trial ', 'Compelling movie', 'Masterpiece', 'The Movie s Legacy Is Danger', 'admirable work', 'Interesting powerful drama terrific performances wellmatched Spencer Tracy Fredric March ', 's still happening ', 'A Passionate Film About Conformity Dissent', 'Religion vs Science  still topical issue ', 'film  sadly  relevant current times  also watchable towering stars', 'Inherit Wind  And Elmer Gantry Too    12', 'And Beat Goes On', 'Let tell man named Brady', 'Overblown Overbaked', 'Darwin Vs The Bible ', 'movie rights individuals', 'Clear decks giants clash', 'The greatest screen performance time', 'Inherit The Wind  1960 ', 'Preaching Choir', 'Famous 1925 Trial ', 'Brilliant', 'Tracy March']</t>
         </is>
       </c>
     </row>
@@ -32469,7 +32469,7 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>['Masterclass mystery', 'On The Road To Manderley', 'old-fashion Gothic suspense', 'Good Film', "I 'm Glad He Made It", 'special', 'Rebecca', 'A classic adaptation great novel .', 'Place Holder', 'Haunted Past', 'A melodrama told dark shadow fear tension', "Hitchcock 's first great American success classic story love story suspense", 'Hitch comes Hollywood', "Hitch 's first hit Hollywood .", "Hitchcock 's Winner . Less Known , But One To See ?", 'American Gothic', 'Wonderful Visuals , But A Big Yawner Overall', 'A sumptuous Gothic ...', 'one greats', 'producer/director combination works , elegantly best abilities', 'Who You Rebecca ? * * * *', 'Alfred Hitchcock Puts Hollywood Edge', 'Drama romance Hitchcock style .', 'A film nameless protagonist invisible namesake', 'Melancholy Melodrama']</t>
+          <t>['Masterclass mystery', 'On The Road To Manderley', 'oldfashion Gothic suspense', 'Good Film', 'I m Glad He Made It', 'special', 'Rebecca', 'A classic adaptation great novel ', 'Place Holder', 'Haunted Past', 'A melodrama told dark shadow fear tension', 'Hitchcock s first great American success classic story love story suspense', 'Hitch comes Hollywood', 'Hitch s first hit Hollywood ', 'Hitchcock s Winner  Less Known  But One To See ', 'American Gothic', 'Wonderful Visuals  But A Big Yawner Overall', 'A sumptuous Gothic ', 'one greats', 'producerdirector combination works  elegantly best abilities', 'Who You Rebecca     ', 'Alfred Hitchcock Puts Hollywood Edge', 'Drama romance Hitchcock style ', 'A film nameless protagonist invisible namesake', 'Melancholy Melodrama']</t>
         </is>
       </c>
     </row>
@@ -32513,7 +32513,7 @@
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>["I 'm good reviewer", 'The End Evangelion', 'Even worse usual anime film', 'fool , shame , fool twice ...', 'Boring Japanese Anime - The End Evangelion', 'The end era ...', 'Surreal', 'Improvement previous ending', 'An unforgettable experience', 'Both , show ending movie ending , great ways', "A perfect finale exists 's called The End Evangelion .", 'Different ending anime .', 'When plot thing care throwing everything wall hoping something sticks', 'Delving Deep', 'Abstract Nightmare Fuel', 'Strong stuff : take Tree Life , put giant robots lasers !', 'It sweetest mind-bursting experience ever get', 'Perhaps one nihilistic , avantgarde devastating endings anime series ever conceived', 'Best best', 'Intense', 'Almost 20 years ?', 'Good fans series . Everyone else , .', 'Depressing Emotional', 'Good artwork', 'end']</t>
+          <t>['I m good reviewer', 'The End Evangelion', 'Even worse usual anime film', 'fool  shame  fool twice ', 'Boring Japanese Anime  The End Evangelion', 'The end era ', 'Surreal', 'Improvement previous ending', 'An unforgettable experience', 'Both  show ending movie ending  great ways', 'A perfect finale exists s called The End Evangelion ', 'Different ending anime ', 'When plot thing care throwing everything wall hoping something sticks', 'Delving Deep', 'Abstract Nightmare Fuel', 'Strong stuff  take Tree Life  put giant robots lasers ', 'It sweetest mindbursting experience ever get', 'Perhaps one nihilistic  avantgarde devastating endings anime series ever conceived', 'Best best', 'Intense', 'Almost 20 years ', 'Good fans series  Everyone else  ', 'Depressing Emotional', 'Good artwork', 'end']</t>
         </is>
       </c>
     </row>
@@ -32557,7 +32557,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>['For art house crowd', 'Raising toast', "party n't", 'Dogma 95 Strikes Again', 'cinema dynamite', 'Minimal intense', 'Brilliant - engrossing drama family dysfunction dark secrets', 'Shocking fascinating', "Here 's man killed sister ... murderer .", 'A highly creative piece film-making', 'The Disintegration Dysfunctional Family', 'In near future , say fifteen-twenty years , The Celebration ranked among best films foreign cinema', 'Festen seatbelts .', 'Entertaining', 'Terifying film', "Dogma '95 No.1", 'Insanity runs family , practically gallops ...', 'That forgiven acknowledged', 'This celebration ...', 'Deeply personal film stretched bit thin', 'Doggone Dogme', 'Just see . Please see .', 'celebration', 'Hard-Hitting Combination Broad Comedy Harrowing Melodrama', 'Superb Danish drama !']</t>
+          <t>['For art house crowd', 'Raising toast', 'party nt', 'Dogma 95 Strikes Again', 'cinema dynamite', 'Minimal intense', 'Brilliant  engrossing drama family dysfunction dark secrets', 'Shocking fascinating', 'Here s man killed sister  murderer ', 'A highly creative piece filmmaking', 'The Disintegration Dysfunctional Family', 'In near future  say fifteentwenty years  The Celebration ranked among best films foreign cinema', 'Festen seatbelts ', 'Entertaining', 'Terifying film', 'Dogma 95 No1', 'Insanity runs family  practically gallops ', 'That forgiven acknowledged', 'This celebration ', 'Deeply personal film stretched bit thin', 'Doggone Dogme', 'Just see  Please see ', 'celebration', 'HardHitting Combination Broad Comedy Harrowing Melodrama', 'Superb Danish drama ']</t>
         </is>
       </c>
     </row>
@@ -32601,7 +32601,7 @@
       </c>
       <c r="J731" t="inlineStr">
         <is>
-          <t>['Probably greatest war film ever made', 'The quintessential war movie', 'Wilhelmine Perspective', 'One great anti-war movie', 'Terrific War Scenes Make Must See', 'How Appropriate This Time', 'honest work', 'War hell', 'War - good ?', 'A Very Realistic Touching Anti-War Masterpiece', 'A Bit Theatrical Blunt , But Good', 'Propaganda masterpiece .', 'Worth Closer Look', 'The Butterfly Effect', 'Great WW1 movie', 'Despite The Dated Aspects It Remains A Great Testament To The Cult Of The Soldier', 'Still works 70 years !', 'Not quiet Western front', 'Life Death Trenches', 'Among greatest time .', "Effective anti-war film ... n't call best kind nothing", 'Powerful Early War Film .', 'A detailed thought-provoking account war', 'Tempora Mutantur , Nos Et Mutamur In Illis', 'The first classic film sound era , still resonates today']</t>
+          <t>['Probably greatest war film ever made', 'The quintessential war movie', 'Wilhelmine Perspective', 'One great antiwar movie', 'Terrific War Scenes Make Must See', 'How Appropriate This Time', 'honest work', 'War hell', 'War  good ', 'A Very Realistic Touching AntiWar Masterpiece', 'A Bit Theatrical Blunt  But Good', 'Propaganda masterpiece ', 'Worth Closer Look', 'The Butterfly Effect', 'Great WW1 movie', 'Despite The Dated Aspects It Remains A Great Testament To The Cult Of The Soldier', 'Still works 70 years ', 'Not quiet Western front', 'Life Death Trenches', 'Among greatest time ', 'Effective antiwar film  nt call best kind nothing', 'Powerful Early War Film ', 'A detailed thoughtprovoking account war', 'Tempora Mutantur  Nos Et Mutamur In Illis', 'The first classic film sound era  still resonates today']</t>
         </is>
       </c>
     </row>
@@ -32645,7 +32645,7 @@
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>['Quite enjoyable ... though favorite Aamir Khan film .', 'great Indian film', 'Swaggert', 'Funny , sincere , fairly absurd', 'Philosophical Kontradictions ...', 'Funny alien ...', 'I expecting movie .', 'Incisive social commentary', 'Suggests Everything , Confirms Nothing . ♦ 29 %', 'GREAT COMEDY .', 'Silly , deep thought provoking .', 'A slickly written part two OH MY GOD focus entertainment , coming right time talking right things routine flaws .', 'The discussion religion God stick still profound .', 'PK Review- Spellbinding flawless ...', 'Meaningful', 'Great', 'PK daring attempt lauded appreciated wonderful message', 'So deep', 'Not Recommended 👎', 'PK unbelievable', 'Ignorance innocence pivotal maybe important aspect spiritual journey', 'Excellent comedy , so-so drama', 'PK ( U/A ) Hindi -- -- -- -- -- -- Rating : ★★★★½ FABULOUS', 'Aamir Khan Aamir Khan ! ! ! ! ! ! Heart touching , Cheeks aching , Well made Movie ! ! ! ! ! !', 'Could done much']</t>
+          <t>['Quite enjoyable  though favorite Aamir Khan film ', 'great Indian film', 'Swaggert', 'Funny  sincere  fairly absurd', 'Philosophical Kontradictions ', 'Funny alien ', 'I expecting movie ', 'Incisive social commentary', 'Suggests Everything  Confirms Nothing   29 ', 'GREAT COMEDY ', 'Silly  deep thought provoking ', 'A slickly written part two OH MY GOD focus entertainment  coming right time talking right things routine flaws ', 'The discussion religion God stick still profound ', 'PK Review Spellbinding flawless ', 'Meaningful', 'Great', 'PK daring attempt lauded appreciated wonderful message', 'So deep', 'Not Recommended ', 'PK unbelievable', 'Ignorance innocence pivotal maybe important aspect spiritual journey', 'Excellent comedy  soso drama', 'PK  UA  Hindi       Rating   FABULOUS', 'Aamir Khan Aamir Khan       Heart touching  Cheeks aching  Well made Movie      ', 'Could done much']</t>
         </is>
       </c>
     </row>
@@ -32689,7 +32689,7 @@
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>['Rich epic', 'relationships time political changes', 'A Story Chinese Opera', 'Not engaging overly long historical arc interesting', 'quintessential masterpiece', 'A So-So Story But A Wonderful Portrayal Of Chinese Culture And History', 'Farewell My Concubine - A Primer Westerners', 'An excellent film .', 'Phantoms Of The Opera', 'An epic film China mid-20th century', 'superb slice Chinese history', 'Back course social criticism .', 'Gloomy foreshadowing', 'A lovely film ...', 'A lavish , opulent , intense film ; bring lunch', 'An Epic Character Study', 'Very good film', 'The Chinese version Last Emperor', 'An intriguing tale , spanning 50 years .', "Very different 'Huang Tu Di '", 'lesson Chinese history', 'Not crazy , live', 'An amazing look agony Chinese history', 'Well done', 'Chinese art fans oriental culture']</t>
+          <t>['Rich epic', 'relationships time political changes', 'A Story Chinese Opera', 'Not engaging overly long historical arc interesting', 'quintessential masterpiece', 'A SoSo Story But A Wonderful Portrayal Of Chinese Culture And History', 'Farewell My Concubine  A Primer Westerners', 'An excellent film ', 'Phantoms Of The Opera', 'An epic film China mid20th century', 'superb slice Chinese history', 'Back course social criticism ', 'Gloomy foreshadowing', 'A lovely film ', 'A lavish  opulent  intense film  bring lunch', 'An Epic Character Study', 'Very good film', 'The Chinese version Last Emperor', 'An intriguing tale  spanning 50 years ', 'Very different Huang Tu Di ', 'lesson Chinese history', 'Not crazy  live', 'An amazing look agony Chinese history', 'Well done', 'Chinese art fans oriental culture']</t>
         </is>
       </c>
     </row>
@@ -32733,7 +32733,7 @@
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>['A Winner All The Way !', 'True ( Tearjerker ) Bollywood . ♦ 70 %', 'Audience-pleaser', 'One better Bhaijaan films ! !', 'It feels nice assume cinematic liberties becoming true forgetting ugly past benefit coming generations . Do watch .', 'The proportion singing dancing quite large', 'Bajrangi Bhaijaan : True entertainer heart winner', 'Enjoyable , gives less subject calls', "Salman 's super stardom well-defined content make sustainable ticket window good legs prolong splendid run .", "Watching This Film Sent Me Down Memory Lane To Raj Kapoor 's Henna ( 1991 )", 'weeping happens watching movie easy come .', 'nice film ......', 'Bajrangi Bhaijaan ( U/A ) Hindi -- -- -- - Rating : ★★★★★ FULL ON ENTERTAINER', 'Very convenient approach towards sentimental subject', 'Quite unexpected , actually', "Salman 's best ever ! ! ! Absolute Must Watch", 'Predictable distinct among Salman Khan entertainers', 'power humanity', 'Fantastic Movie', 'For loose minded !', 'A melodramatic effort touching cross border propaganda', "Kabir Khan given another flavor Eidi Salman 's fan", "Salman Khan 's best film last 2-3 years !", 'A Heartfelt Tale Of Love &amp; Innocence From Kabir Khan', 'Little Angel Stole My Heart']</t>
+          <t>['A Winner All The Way ', 'True  Tearjerker  Bollywood   70 ', 'Audiencepleaser', 'One better Bhaijaan films  ', 'It feels nice assume cinematic liberties becoming true forgetting ugly past benefit coming generations  Do watch ', 'The proportion singing dancing quite large', 'Bajrangi Bhaijaan  True entertainer heart winner', 'Enjoyable  gives less subject calls', 'Salman s super stardom welldefined content make sustainable ticket window good legs prolong splendid run ', 'Watching This Film Sent Me Down Memory Lane To Raj Kapoor s Henna  1991 ', 'weeping happens watching movie easy come ', 'nice film ', 'Bajrangi Bhaijaan  UA  Hindi     Rating   FULL ON ENTERTAINER', 'Very convenient approach towards sentimental subject', 'Quite unexpected  actually', 'Salman s best ever    Absolute Must Watch', 'Predictable distinct among Salman Khan entertainers', 'power humanity', 'Fantastic Movie', 'For loose minded ', 'A melodramatic effort touching cross border propaganda', 'Kabir Khan given another flavor Eidi Salman s fan', 'Salman Khan s best film last 23 years ', 'A Heartfelt Tale Of Love  Innocence From Kabir Khan', 'Little Angel Stole My Heart']</t>
         </is>
       </c>
     </row>
@@ -32777,7 +32777,7 @@
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>['`` When legend becomes fact , print legend ! ``', '`` A Lawyer .... teacher .... first west Rosey Buttes . ``', 'Legends work', 'One Great Westerns', 'A solidly enjoyable Western underlying theme front story', 'Two towering box-office stars time huge exciting production great interpretations', 'One Best Westerns Period ?', 'A brilliant terrific intelligent western', 'Cast More Impressive Than The Film', 'Late-model Ford ...', 'supremely , satisfyingly entertaining Western tale , spun John Ford perfect ensemble mood', 'There story every bullet .', 'Bloated ... Overrated ... Overlong ... Overacted ... Shouting Match', 'Classic western', '`` When legend becomes fact , print legend `` ... nice character-driven tale ...', 'A `` legendary `` western', 'A great classic', "`` Take 'er easy , pilgrim . ``", 'Not superb Western also cinematic masterpiece', 'good , spite ornery director', 'A brilliant , essential western film', 'The Death Liberty', 'James Stewart John Wayne cockfight .', 'This old-fashioned even 1962', 'Time kind one ...']</t>
+          <t>[' When legend becomes fact  print legend  ', ' A Lawyer  teacher  first west Rosey Buttes  ', 'Legends work', 'One Great Westerns', 'A solidly enjoyable Western underlying theme front story', 'Two towering boxoffice stars time huge exciting production great interpretations', 'One Best Westerns Period ', 'A brilliant terrific intelligent western', 'Cast More Impressive Than The Film', 'Latemodel Ford ', 'supremely  satisfyingly entertaining Western tale  spun John Ford perfect ensemble mood', 'There story every bullet ', 'Bloated  Overrated  Overlong  Overacted  Shouting Match', 'Classic western', ' When legend becomes fact  print legend   nice characterdriven tale ', 'A  legendary  western', 'A great classic', ' Take er easy  pilgrim  ', 'Not superb Western also cinematic masterpiece', 'good  spite ornery director', 'A brilliant  essential western film', 'The Death Liberty', 'James Stewart John Wayne cockfight ', 'This oldfashioned even 1962', 'Time kind one ']</t>
         </is>
       </c>
     </row>
@@ -32821,7 +32821,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>['A wonderful film charming funny', 'The Hero As Comedian', 'Great love-hate rom-com chemistry', "It 's Easy See Why Gable 's Career Took Off Never Looked Back", 'seductive time', 'The early origins rom com ?', 'Love Triumphs ( Wall Jericho Falls )', 'It shall continue happening movie screens forever onward .', "A Great Romance , Even If Implausible ( Are n't They All ? )", 'Madcap Heiress Loves Palooka', "Could Have Been Super With Different Ending ; Still A Top 'Classic '", "The story timeless ... 's reason take long get obvious finish", 'Iconic film , iconic stars', 'one great light-hearted romance comedies', 'What Happened One Night', 'Delightful romantic comedy', 'A gem film - certainly average romantic drama', 'Classic runaway screwball comedy Gable Colbert best ...', 'Vastly overrated', "You show good piggy-backer I 'll show real human", 'Classic essential , sharp smart , perfect', 'Colbert Can Catch Lift Me Any Day', "An entertaining movie hardly Capra 's best .", 'Chirpy cheeky , happy snappy', 'A Memorable Night Indeed .']</t>
+          <t>['A wonderful film charming funny', 'The Hero As Comedian', 'Great lovehate romcom chemistry', 'It s Easy See Why Gable s Career Took Off Never Looked Back', 'seductive time', 'The early origins rom com ', 'Love Triumphs  Wall Jericho Falls ', 'It shall continue happening movie screens forever onward ', 'A Great Romance  Even If Implausible  Are nt They All  ', 'Madcap Heiress Loves Palooka', 'Could Have Been Super With Different Ending  Still A Top Classic ', 'The story timeless  s reason take long get obvious finish', 'Iconic film  iconic stars', 'one great lighthearted romance comedies', 'What Happened One Night', 'Delightful romantic comedy', 'A gem film  certainly average romantic drama', 'Classic runaway screwball comedy Gable Colbert best ', 'Vastly overrated', 'You show good piggybacker I ll show real human', 'Classic essential  sharp smart  perfect', 'Colbert Can Catch Lift Me Any Day', 'An entertaining movie hardly Capra s best ', 'Chirpy cheeky  happy snappy', 'A Memorable Night Indeed ']</t>
         </is>
       </c>
     </row>
@@ -32865,7 +32865,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>['good great', 'A masterpiece French cinema', 'thoroughly modern film', 'The 400 Blows', 'Wonderfully Understaated', 'Rebel class', 'The Lost Childhood Landmark Nouvelle Vague', 'A relaxed natural look growing life Antonie', "Groundbreaking semi-autobiographic film initiated Truffaut 's long career , concerning peculiar character , Antoine Doinel", 'Truffaut started', 'Greatest French Film ?', 'Living wild life', 'What means young totally alone', 'Why Caged Bird Runs', 'Good movie , hardly brilliant classic', 'Fascinating examination seen eyes child', "Truffaut 's Halloween ?", "It 's mark truly great film feels like discovery , production .", 'One Best Non-English Films Ever Made', 'carefree childhood', "It 's well made wo n't top-lists .", 'one extraordinary wondrous scenes I ever seen .', 'The 400 Blows', 'Perfection', 'The mistranslation starts stops title .']</t>
+          <t>['good great', 'A masterpiece French cinema', 'thoroughly modern film', 'The 400 Blows', 'Wonderfully Understaated', 'Rebel class', 'The Lost Childhood Landmark Nouvelle Vague', 'A relaxed natural look growing life Antonie', 'Groundbreaking semiautobiographic film initiated Truffaut s long career  concerning peculiar character  Antoine Doinel', 'Truffaut started', 'Greatest French Film ', 'Living wild life', 'What means young totally alone', 'Why Caged Bird Runs', 'Good movie  hardly brilliant classic', 'Fascinating examination seen eyes child', 'Truffaut s Halloween ', 'It s mark truly great film feels like discovery  production ', 'One Best NonEnglish Films Ever Made', 'carefree childhood', 'It s well made wo nt toplists ', 'one extraordinary wondrous scenes I ever seen ', 'The 400 Blows', 'Perfection', 'The mistranslation starts stops title ']</t>
         </is>
       </c>
     </row>
@@ -32909,7 +32909,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>['exceptionally crafted depressing', 'Beautiful deeply moving', 'slow mesmerizing', 'Just Too Real', 'Still ( moving )', "A Movie Make You Think Parents ' Seniority Children Indifference Selfishness", 'One Best Japanese Films Ever', 'I need see even two times ; beautiful mix simplicity , nuance , style humility', 'Engaging emotional drama Yasujiro Ozu', 'Untimely', 'Almost Unbearably Sad', 'Tokyo Story review', 'Tokyo Story', 'Slice life , like sort thing', 'An influential Classic Japanese Cinema Old Age Circle .', 'parents children', 'A Heartfelt Meditation Old Age &amp; Parents-Children Relationship', 'Great movie', 'Predictable', 'How find night ?', 'Plodding', 'Touching tale elderly couple post-war Japan', 'Tokyo Story', 'Touching Story', 'A masterpiece master director']</t>
+          <t>['exceptionally crafted depressing', 'Beautiful deeply moving', 'slow mesmerizing', 'Just Too Real', 'Still  moving ', 'A Movie Make You Think Parents  Seniority Children Indifference Selfishness', 'One Best Japanese Films Ever', 'I need see even two times  beautiful mix simplicity  nuance  style humility', 'Engaging emotional drama Yasujiro Ozu', 'Untimely', 'Almost Unbearably Sad', 'Tokyo Story review', 'Tokyo Story', 'Slice life  like sort thing', 'An influential Classic Japanese Cinema Old Age Circle ', 'parents children', 'A Heartfelt Meditation Old Age  ParentsChildren Relationship', 'Great movie', 'Predictable', 'How find night ', 'Plodding', 'Touching tale elderly couple postwar Japan', 'Tokyo Story', 'Touching Story', 'A masterpiece master director']</t>
         </is>
       </c>
     </row>
@@ -32953,7 +32953,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>["While tad sentimental always accurate historically , 's impressive heart-rending film", 'Economic Dislocation', 'American icon', 'A Masterful Film That Lives Up Its Reputation', 'It Could Make You Socialist', 'No home , job , peace , rest', 'The Touching Saga No-Land Homeless Joad Family , Searching Job Survive Place Time Ruled Violence Prejudice', "Timeless classic movie unfortunate farmer 's migration Dustbowl California eden", 'We people !', 'Classic Novel Becomes Classic Film', "The important word 'll ever hear : Family ! ! !", 'Highway 66 Revisited', 'Desperate people struggle survive desperate times .', 'Worth Closer Look', "`` ... I 'll . `` ( Tom Joad ) ...... `` We 'll go forever , Pa ... cos 're People . ``", 'A masterpiece', 'Silver Witness', 'A Family Faces Wrath Depression', 'Famous boring', 'Little Pieces One Big Soul', 'Not Book , But Beautiful Its Own Right', 'A really well made heavy handed drama .', 'A true American Classic many ways ; vintage Fonda &amp; Ford', 'A Still Relevant Masterpiece .', 'Heartbreaking !']</t>
+          <t>['While tad sentimental always accurate historically  s impressive heartrending film', 'Economic Dislocation', 'American icon', 'A Masterful Film That Lives Up Its Reputation', 'It Could Make You Socialist', 'No home  job  peace  rest', 'The Touching Saga NoLand Homeless Joad Family  Searching Job Survive Place Time Ruled Violence Prejudice', 'Timeless classic movie unfortunate farmer s migration Dustbowl California eden', 'We people ', 'Classic Novel Becomes Classic Film', 'The important word ll ever hear  Family   ', 'Highway 66 Revisited', 'Desperate people struggle survive desperate times ', 'Worth Closer Look', '  I ll    Tom Joad    We ll go forever  Pa  cos re People  ', 'A masterpiece', 'Silver Witness', 'A Family Faces Wrath Depression', 'Famous boring', 'Little Pieces One Big Soul', 'Not Book  But Beautiful Its Own Right', 'A really well made heavy handed drama ', 'A true American Classic many ways  vintage Fonda  Ford', 'A Still Relevant Masterpiece ', 'Heartbreaking ']</t>
         </is>
       </c>
     </row>
@@ -32997,7 +32997,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>['After seeing previous films , I watch one ...', 'Unforgettable', 'beautifully ugly', 'What Lovely , Touching Film', 'bitter revelation', 'Unforgettable Heartbreaking Bleak Tale Friendship Loneliness', 'Not Your Typical Animation', 'Claymation fantasy , long distance pen pals .', 'joy pain connecting ( friendly ) love', 'An outstanding animation', 'Wonderful , heart-warming , thought-provoking movie', "Sloppy clash moods , 's genuinely touching times certainly worth watch", 'Resonant irreverent way .', 'Touching', 'deeply touching', 'A complete utter delight ! !', 'So many letters define Mary Max , enough words describe ...', 'How earth Animated flick intellectual real life theories ? One Of The Best Animated Picture You Will Ever See .', 'Not As Great As Expected !', 'Great', 'Solitude , Isolation &amp; Loneliness ...', 'Honest True', 'A different animation ...', "I n't recommend everyone", "It would cute n't morbid ..."]</t>
+          <t>['After seeing previous films  I watch one ', 'Unforgettable', 'beautifully ugly', 'What Lovely  Touching Film', 'bitter revelation', 'Unforgettable Heartbreaking Bleak Tale Friendship Loneliness', 'Not Your Typical Animation', 'Claymation fantasy  long distance pen pals ', 'joy pain connecting  friendly  love', 'An outstanding animation', 'Wonderful  heartwarming  thoughtprovoking movie', 'Sloppy clash moods  s genuinely touching times certainly worth watch', 'Resonant irreverent way ', 'Touching', 'deeply touching', 'A complete utter delight  ', 'So many letters define Mary Max  enough words describe ', 'How earth Animated flick intellectual real life theories  One Of The Best Animated Picture You Will Ever See ', 'Not As Great As Expected ', 'Great', 'Solitude  Isolation  Loneliness ', 'Honest True', 'A different animation ', 'I nt recommend everyone', 'It would cute nt morbid ']</t>
         </is>
       </c>
     </row>
@@ -33041,7 +33041,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>["whether 'll like depends like ballet", 'The Ultimate Dance film !', 'Striving best', 'like ballet', 'Impressive On Every Level', 'Bathing Drowning Glory', 'Diablerie dance', 'Divided Two Passions', 'Visually wondrous melodramatic plot', 'Riveting luxurious film wonderful dances colorful cinematography', 'Who keeps messing transliterations ?', 'The Michael Powell Classic', 'A flawed masterwork', 'What I love', 'Powell Pressburger set standards high ..', 'crafting , controlling , obsessing , loving beauty , Powell/Pressburger', "Do n't know fuss", 'Shall dance ?', 'Magnificent production values , great dancing , strange ending ...', 'powell &amp; pressburger ... 2 oscars', 'A Colorful Ballet', 'A star born .', '`` It disheartening steal stolen ``', 'Moira Shearer steals film !', 'The Red Shoes']</t>
+          <t>['whether ll like depends like ballet', 'The Ultimate Dance film ', 'Striving best', 'like ballet', 'Impressive On Every Level', 'Bathing Drowning Glory', 'Diablerie dance', 'Divided Two Passions', 'Visually wondrous melodramatic plot', 'Riveting luxurious film wonderful dances colorful cinematography', 'Who keeps messing transliterations ', 'The Michael Powell Classic', 'A flawed masterwork', 'What I love', 'Powell Pressburger set standards high ', 'crafting  controlling  obsessing  loving beauty  PowellPressburger', 'Do nt know fuss', 'Shall dance ', 'Magnificent production values  great dancing  strange ending ', 'powell  pressburger  2 oscars', 'A Colorful Ballet', 'A star born ', ' It disheartening steal stolen ', 'Moira Shearer steals film ', 'The Red Shoes']</t>
         </is>
       </c>
     </row>
@@ -33085,7 +33085,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>["Sweden 's greatest director continues captivate !", 'Not cup tea still impressed two scenes', 'Fanny Alexander ( Tv Version )', 'Remarkable Unsettling', 'Call Ishmael', 'Not fanny ... end', 'Bergman Does Dickens ( Sort Of )', "( review 5-hour cut ) A total , un-abashed work art 'll love hate . I loved , 's likely one great epics I 'll ever see", "Ingmar Bergman 's Alexander ( Bishop )", "Really n't know fuss ...", 'Sweet Castor Oil', "One Bergman 's finest", '... doomed certain time ...', 'Almost Masterpiece', 'Maybe boundaries', "Closing Arc opened `` The Seventh Seal `` ... God final word ... Bergman 's consent ...", 'last masterpiece', "A Semi-Autobiographical Account Of Ingmar Bergman 's Own Upbringing", 'Like great novel', 'Subtle &amp; Sublime ...', 'Definition drama ...', 'Mixed feelings', 'Intriguing many levels', 'Fanny Alexander', "Bergman 's Curtain Call"]</t>
+          <t>['Sweden s greatest director continues captivate ', 'Not cup tea still impressed two scenes', 'Fanny Alexander  Tv Version ', 'Remarkable Unsettling', 'Call Ishmael', 'Not fanny  end', 'Bergman Does Dickens  Sort Of ', ' review 5hour cut  A total  unabashed work art ll love hate  I loved  s likely one great epics I ll ever see', 'Ingmar Bergman s Alexander  Bishop ', 'Really nt know fuss ', 'Sweet Castor Oil', 'One Bergman s finest', ' doomed certain time ', 'Almost Masterpiece', 'Maybe boundaries', 'Closing Arc opened  The Seventh Seal   God final word  Bergman s consent ', 'last masterpiece', 'A SemiAutobiographical Account Of Ingmar Bergman s Own Upbringing', 'Like great novel', 'Subtle  Sublime ', 'Definition drama ', 'Mixed feelings', 'Intriguing many levels', 'Fanny Alexander', 'Bergman s Curtain Call']</t>
         </is>
       </c>
     </row>
@@ -33129,7 +33129,7 @@
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>["One Peter Bogdanovich 's best movies", 'Tatum 10', 'appealing mixture', "`` would n't make believe `` ... n't", '`` I want two hundred dollars ... ``', "Paper Moon Proves It 's A Barnum &amp; Bailey World * * *", "It 's Only Make Believe", 'Funny , Poignant , Tricky', 'Wonderful movie - funny , engaging emotional', "I know woman looks like bullfrog n't mean 's damn thing 's mother .", 'Pretty good -- masterpiece', 'Enchanting Depression-era comedy ...', 'Paper Moon lot paper weight', 'A Father/Daughter Con Team Played Father Daughter', 'Vintage Bogdanovich', "Ryan O'Neal kid daughter Tatum 1930 's Kansas", 'sufficient charm humour keep things moving along rather nicely', 'If You Believed Me', 'Good Moon Rising', 'Endearing , charming , witty , playful wonderful .', 'Undeniably entertaining', 'Here comes brilliant Con-drama Innocence humanly sentimental touch .', "These Are n't Everyday People And This Is No Ordinary Movie .", 'Highly involving movie', 'Eternally Ageless &amp; Perpetually Engaging ...']</t>
+          <t>['One Peter Bogdanovich s best movies', 'Tatum 10', 'appealing mixture', ' would nt make believe   nt', ' I want two hundred dollars  ', 'Paper Moon Proves It s A Barnum  Bailey World   ', 'It s Only Make Believe', 'Funny  Poignant  Tricky', 'Wonderful movie  funny  engaging emotional', 'I know woman looks like bullfrog nt mean s damn thing s mother ', 'Pretty good  masterpiece', 'Enchanting Depressionera comedy ', 'Paper Moon lot paper weight', 'A FatherDaughter Con Team Played Father Daughter', 'Vintage Bogdanovich', 'Ryan ONeal kid daughter Tatum 1930 s Kansas', 'sufficient charm humour keep things moving along rather nicely', 'If You Believed Me', 'Good Moon Rising', 'Endearing  charming  witty  playful wonderful ', 'Undeniably entertaining', 'Here comes brilliant Condrama Innocence humanly sentimental touch ', 'These Are nt Everyday People And This Is No Ordinary Movie ', 'Highly involving movie', 'Eternally Ageless  Perpetually Engaging ']</t>
         </is>
       </c>
     </row>
@@ -33173,7 +33173,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>['lost translation', 'Clever satire wicked black humour \x96 drags twice', 'Yugoslavia Strangest', 'Superb - absurdly funny yet dark , gritty profound', 'Once upon time country', 'The Allies destroyed anything Germans left standing', 'strong metaphor communism Balkans', 'A black comedy made restricted audience .', 'Ten movies one ...', 'Extensive satire Yugoslavia', 'Unique beautiful', "'Podzemlje '", 'A Very Strange Imagination', 'One greatest political satires', "`` It 's War Brother Kills Brother ``", 'Idiocy', 'If stuck making films , gone politics ...', 'Perfection celluloid', 'Absolutely Brilliant Film', "Emir 's home", '# 2 film Kusturica', 'Wild', 'Good looking overlong', 'Barf', 'Watch master work']</t>
+          <t>['lost translation', 'Clever satire wicked black humour  drags twice', 'Yugoslavia Strangest', 'Superb  absurdly funny yet dark  gritty profound', 'Once upon time country', 'The Allies destroyed anything Germans left standing', 'strong metaphor communism Balkans', 'A black comedy made restricted audience ', 'Ten movies one ', 'Extensive satire Yugoslavia', 'Unique beautiful', 'Podzemlje ', 'A Very Strange Imagination', 'One greatest political satires', ' It s War Brother Kills Brother ', 'Idiocy', 'If stuck making films  gone politics ', 'Perfection celluloid', 'Absolutely Brilliant Film', 'Emir s home', ' 2 film Kusturica', 'Wild', 'Good looking overlong', 'Barf', 'Watch master work']</t>
         </is>
       </c>
     </row>
@@ -33217,7 +33217,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>["France 's illusion", 'Great important movie', 'Much Like Today', 'Powerful Impressive Masterpiece', 'A balanced fascinating historical piece lessons extend far beyond Algiers', 'Powerful , award-winning flick depicting uprising French Colonial rule', 'atrocities nothing : everyone commits', 'The Battle For Algiers', 'The Costa Gavras touch', "fitting tip-of-the-hat Rossellini 's post-WW2 work made 60 's ,", 'Superb Treatment Difficult Material', 'Groundbreaking docu-drama', "We n't madmen sadists , gentlemen . We soldiers duty win .", 'good telling fight independence', 'An Astonishing Authentic Examination Terrorism', 'two hours go fast', 'Cold , brutal hard connect', 'The grim reality war - colonialism', 'A telling recount shocking history modern revolution', 'An unforgettable study occupation defeat .', 'A disturbing , hard-hitting extraordinary tale Freedom Fight .', 'An Informing , Historical &amp; Essential Piece Of World Cinema', 'Algeria 1954-62 : A history lesson film', 'A documentary film , tiring eyes bad script .', 'The Hypocrisy Occupation ...']</t>
+          <t>['France s illusion', 'Great important movie', 'Much Like Today', 'Powerful Impressive Masterpiece', 'A balanced fascinating historical piece lessons extend far beyond Algiers', 'Powerful  awardwinning flick depicting uprising French Colonial rule', 'atrocities nothing  everyone commits', 'The Battle For Algiers', 'The Costa Gavras touch', 'fitting tipofthehat Rossellini s postWW2 work made 60 s ', 'Superb Treatment Difficult Material', 'Groundbreaking docudrama', 'We nt madmen sadists  gentlemen  We soldiers duty win ', 'good telling fight independence', 'An Astonishing Authentic Examination Terrorism', 'two hours go fast', 'Cold  brutal hard connect', 'The grim reality war  colonialism', 'A telling recount shocking history modern revolution', 'An unforgettable study occupation defeat ', 'A disturbing  hardhitting extraordinary tale Freedom Fight ', 'An Informing  Historical  Essential Piece Of World Cinema', 'Algeria 195462  A history lesson film', 'A documentary film  tiring eyes bad script ', 'The Hypocrisy Occupation ']</t>
         </is>
       </c>
     </row>
@@ -33261,7 +33261,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>['nice conclusion 3 colors trilogy', '`` Three Colours Trilogy `` : Part 3', 'poetic interconnections', 'A Superb Love Story', 'dialogue', 'Red colour', 'A sensitive haunting film deliberate attractive developing', 'brotherhood 620-740 nanometers', 'Three Colours : Red', 'The Pinnacle', 'masterwork , pure simple', 'Reasonably intriguing , slow-moving trite ending', "Enjoyable &amp; well done , personally , I n't think 's anything special", 'Who really ?', 'Three Colours : Red', 'The Best Trilogy Considerable Margin', 'Coincidence Kismet ?', 'The unforgettable conclusion three-part masterwork ...', "Krzysztof Kieslowski 's Testament", 'A Multilayered Story Of Human Relationships', 'Good drama mystery ( maybe symbolic mystery )', "A good ending Kieslowski 's trilogy .", 'Behind Closed Doors ...', 'Possibly best trilogy', 'The last best ...']</t>
+          <t>['nice conclusion 3 colors trilogy', ' Three Colours Trilogy   Part 3', 'poetic interconnections', 'A Superb Love Story', 'dialogue', 'Red colour', 'A sensitive haunting film deliberate attractive developing', 'brotherhood 620740 nanometers', 'Three Colours  Red', 'The Pinnacle', 'masterwork  pure simple', 'Reasonably intriguing  slowmoving trite ending', 'Enjoyable  well done  personally  I nt think s anything special', 'Who really ', 'Three Colours  Red', 'The Best Trilogy Considerable Margin', 'Coincidence Kismet ', 'The unforgettable conclusion threepart masterwork ', 'Krzysztof Kieslowski s Testament', 'A Multilayered Story Of Human Relationships', 'Good drama mystery  maybe symbolic mystery ', 'A good ending Kieslowski s trilogy ', 'Behind Closed Doors ', 'Possibly best trilogy', 'The last best ']</t>
         </is>
       </c>
     </row>
@@ -33305,7 +33305,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>['religious recounting', 'Sprawling saga spectacular scenenes , colorful photography rousing musical score', 'Islam starts', 'Well made quite engaging , even non-Muslims', 'Masterful', 'Interesting', 'picture religion', 'A first step understanding Islam ...', 'An Informative Account Of The Birth Of Islam', 'An ecumenical effort largely forgotten ... reasons understandable .', 'Authentic &amp; Passionate ...', 'A movie beginning Islam', 'Stock standard religious film', "It 's hard tell story ca n't use main character", 'A careful recitation early Muslim history', "Controversial 1976 epic 'The Message ' .", 'An introduction Islam', 'From Medina Mecca . A triumphant epic', 'A Timeless Epic Will Leave You Breathless', 'beginning endless turmoils , chaos intolerance', 'A good history lesson', 'So close yet far', 'Very good film Islam historic roots religion', 'Generally forgotten USA -- sad aspect .', 'Great ! Better many Christian films similar theme']</t>
+          <t>['religious recounting', 'Sprawling saga spectacular scenenes  colorful photography rousing musical score', 'Islam starts', 'Well made quite engaging  even nonMuslims', 'Masterful', 'Interesting', 'picture religion', 'A first step understanding Islam ', 'An Informative Account Of The Birth Of Islam', 'An ecumenical effort largely forgotten  reasons understandable ', 'Authentic  Passionate ', 'A movie beginning Islam', 'Stock standard religious film', 'It s hard tell story ca nt use main character', 'A careful recitation early Muslim history', 'Controversial 1976 epic The Message  ', 'An introduction Islam', 'From Medina Mecca  A triumphant epic', 'A Timeless Epic Will Leave You Breathless', 'beginning endless turmoils  chaos intolerance', 'A good history lesson', 'So close yet far', 'Very good film Islam historic roots religion', 'Generally forgotten USA  sad aspect ', 'Great  Better many Christian films similar theme']</t>
         </is>
       </c>
     </row>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="J748" t="inlineStr">
         <is>
-          <t>['exceptionally well made', "Another one Bergman 's best", 'interesting Film', 'A Film About Redemption', 'favorite film', 'Emotional symbolic masterpiece genius Ingmar Berman', 'Farewell , Victor Sjostrom', 'Beautiful , uplifting film', 'The dream sequences chills running spine ...', 'Victor Sjöström Goes Distance', 'Superb Ingmar Bergman drama - profound emotional .', 'Too Cultivated', 'Another `` classic `` hopelessly outdated', 'WILD STRAWBERRIES ( Ingmar Bergman , 1957 ) * * * *', 'Stunning Bergman Masterpiece -- Maybe His Best ?', 'Another Bergman Road Movie', 'Not really fun film', 'Wild Strawberries- Last movie want see dead .', 'The reality', 'Raw strawberries sweetness identifiable zing', "A beautiful , moving masterpiece - Bergman 's best", 'In Search Lost Time ... paved success , ruled mistakes ...', "I could n't get What 's big deal cold realising end life . What 's film ?", 'Early fruit', 'An Introspective Piece On Loneliness , Remorse , Faith , Forgiveness &amp; Self-Reflection']</t>
+          <t>['exceptionally well made', 'Another one Bergman s best', 'interesting Film', 'A Film About Redemption', 'favorite film', 'Emotional symbolic masterpiece genius Ingmar Berman', 'Farewell  Victor Sjostrom', 'Beautiful  uplifting film', 'The dream sequences chills running spine ', 'Victor Sjstrm Goes Distance', 'Superb Ingmar Bergman drama  profound emotional ', 'Too Cultivated', 'Another  classic  hopelessly outdated', 'WILD STRAWBERRIES  Ingmar Bergman  1957     ', 'Stunning Bergman Masterpiece  Maybe His Best ', 'Another Bergman Road Movie', 'Not really fun film', 'Wild Strawberries Last movie want see dead ', 'The reality', 'Raw strawberries sweetness identifiable zing', 'A beautiful  moving masterpiece  Bergman s best', 'In Search Lost Time  paved success  ruled mistakes ', 'I could nt get What s big deal cold realising end life  What s film ', 'Early fruit', 'An Introspective Piece On Loneliness  Remorse  Faith  Forgiveness  SelfReflection']</t>
         </is>
       </c>
     </row>
@@ -33393,7 +33393,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>['Quite possibly greatest Soviet film ever made', 'Soviet epic', 'school', "It 's genius , incredible film making .", "Russia 's history art", 'The Greatest All Russian Epics', 'excellent film-making instances purest Russian cinema', 'Good quite masterpiece I expecting', 'Knowledge Impediment', 'At loss', "If perfect film , thing n't exist", 'The forces shaping artist', 'skin miracles', "A pure Art Exhibition Artist 's Life Russian Cinema .", 'A great intellectual epic', 'Medieval Russia Comes Alive In Broad Brushstrokes', 'As Challenging Belief God ...', 'The Curch Scene . . .', 'How paint face God ?', 'Theme-driven epic', 'Religion Soviet Union', "I suspect 's good 're type made .", 'Russian Epic Influential Director', 'On faith , art effects people', "One Tarkovsky 's best"]</t>
+          <t>['Quite possibly greatest Soviet film ever made', 'Soviet epic', 'school', 'It s genius  incredible film making ', 'Russia s history art', 'The Greatest All Russian Epics', 'excellent filmmaking instances purest Russian cinema', 'Good quite masterpiece I expecting', 'Knowledge Impediment', 'At loss', 'If perfect film  thing nt exist', 'The forces shaping artist', 'skin miracles', 'A pure Art Exhibition Artist s Life Russian Cinema ', 'A great intellectual epic', 'Medieval Russia Comes Alive In Broad Brushstrokes', 'As Challenging Belief God ', 'The Curch Scene   ', 'How paint face God ', 'Themedriven epic', 'Religion Soviet Union', 'I suspect s good re type made ', 'Russian Epic Influential Director', 'On faith  art effects people', 'One Tarkovsky s best']</t>
         </is>
       </c>
     </row>
@@ -33437,7 +33437,7 @@
       </c>
       <c r="J750" t="inlineStr">
         <is>
-          <t>["Gena Rowlands ' immersive performance", 'Unstable genius', 'Rowlands Best', "Rowlands ' exhaustive neurotic energy enough several performances", 'Who crazy ?', "Cassavetes 's absorbing look nature marriage ; Falk Rowlands spellbinding", 'A Bruising Portrait Mental Illness', 'A short comment', 'Unforgivingly uncomfortable .', 'Brilliant', 'A Tale Woe', 'Vertigo bottom Human Soul ...', 'Soul Destroying Cinema ...', 'Cassavetes : Meditations original face I', 'A great easy watch .', 'Reaches us viscerally gut level', 'woman influance', 'Could Be The Most Challenging Cassavetes Film', 'John Cassavetes famous film', 'A Candid Portrayal Devastating Effects Mental Illness', 'Serious indie theatre , perhaps best', 'This needs imdb top 250', 'The Power Cassavetes', 'A look mental illness .', 'A woman Under The Influence - Everyone Is Under The Influence']</t>
+          <t>['Gena Rowlands  immersive performance', 'Unstable genius', 'Rowlands Best', 'Rowlands  exhaustive neurotic energy enough several performances', 'Who crazy ', 'Cassavetes s absorbing look nature marriage  Falk Rowlands spellbinding', 'A Bruising Portrait Mental Illness', 'A short comment', 'Unforgivingly uncomfortable ', 'Brilliant', 'A Tale Woe', 'Vertigo bottom Human Soul ', 'Soul Destroying Cinema ', 'Cassavetes  Meditations original face I', 'A great easy watch ', 'Reaches us viscerally gut level', 'woman influance', 'Could Be The Most Challenging Cassavetes Film', 'John Cassavetes famous film', 'A Candid Portrayal Devastating Effects Mental Illness', 'Serious indie theatre  perhaps best', 'This needs imdb top 250', 'The Power Cassavetes', 'A look mental illness ', 'A woman Under The Influence  Everyone Is Under The Influence']</t>
         </is>
       </c>
     </row>
@@ -33481,7 +33481,7 @@
       </c>
       <c r="J751" t="inlineStr">
         <is>
-          <t>["It ai n't subtle , 's highly entertaining .", 'One best films 40s', "Cagney 's tour de force", "`` They think 've got Cody Jarrett . ``", 'Fine violent gangster movie iconic scenes', 'Top Gangster Genre', "Cagney 's Best", 'Red hot gangster', "One Cagney 's best performances .", 'Oedipus Complex', 'Great gangster film smart , gripping violent', 'A Warner Bros. gem interpretation , script direction crisp exciting', 'Can Cagney Disappoint ?', "White , I n't know , HEAT yes ancestor Tony Montana ....", 'Who But Cagney Could Pull This Off ?', 'A boy mother', 'Cagney classic ! Is better ?', 'Top World', 'Top world , Ma ! The little hood angry .', 'A Pivotal Theme', 'Even 50 Cagney force nature', 'Cut Those Apron-Strings ... Or Become A Whimpering Worm', 'Classic gangster-drama', "I told keep away radio . If battery dead 'll company .", 'Intelligent Thriller']</t>
+          <t>['It ai nt subtle  s highly entertaining ', 'One best films 40s', 'Cagney s tour de force', ' They think ve got Cody Jarrett  ', 'Fine violent gangster movie iconic scenes', 'Top Gangster Genre', 'Cagney s Best', 'Red hot gangster', 'One Cagney s best performances ', 'Oedipus Complex', 'Great gangster film smart  gripping violent', 'A Warner Bros gem interpretation  script direction crisp exciting', 'Can Cagney Disappoint ', 'White  I nt know  HEAT yes ancestor Tony Montana ', 'Who But Cagney Could Pull This Off ', 'A boy mother', 'Cagney classic  Is better ', 'Top World', 'Top world  Ma  The little hood angry ', 'A Pivotal Theme', 'Even 50 Cagney force nature', 'Cut Those ApronStrings  Or Become A Whimpering Worm', 'Classic gangsterdrama', 'I told keep away radio  If battery dead ll company ', 'Intelligent Thriller']</t>
         </is>
       </c>
     </row>
@@ -33525,7 +33525,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>['The Indian Man Who Sued God In India', '? ? ? ? ? ? ? ? ? ? ?', 'Though good adaptation still fresh valuable lesson teach , watch !', 'A daring attempt lauded appreciated wonderful message', 'Well Done Mr. Paresh Rawal ! ! !', 'Creating pleasant atmosphere every aspect matters .', 'An strong belief , whether anything especially regarding god religion belief', 'Decent message , poor delivery', 'OMG Oh god ( U ) -- -- -- -- -my Rating : 4/5 DIVINE HIT', 'A brilliant film . Healthy message healthy entertainment .', 'One path breaking bollywood films ever ! ! ! !', 'Awesome movie', 'Quite Good', 'A Fantastic Film', "Watch Story , Message Paresh Rawal 's Brilliance", 'Oh My God : A Masterpiece ! One best Bollywood movies 2012 !', 'Funny , entertaining , well acted . Superb movie', 'One best movie many things learn implement lives .', 'If God Exists', 'Delightful yet though provoking', 'oh god-2012 Hindi-must watch movie', 'Propaganda', 'OMG ! Watta movie ! : )', 'Path Breaking Movie', 'Must watch']</t>
+          <t>['The Indian Man Who Sued God In India', '          ', 'Though good adaptation still fresh valuable lesson teach  watch ', 'A daring attempt lauded appreciated wonderful message', 'Well Done Mr Paresh Rawal   ', 'Creating pleasant atmosphere every aspect matters ', 'An strong belief  whether anything especially regarding god religion belief', 'Decent message  poor delivery', 'OMG Oh god  U      my Rating  45 DIVINE HIT', 'A brilliant film  Healthy message healthy entertainment ', 'One path breaking bollywood films ever    ', 'Awesome movie', 'Quite Good', 'A Fantastic Film', 'Watch Story  Message Paresh Rawal s Brilliance', 'Oh My God  A Masterpiece  One best Bollywood movies 2012 ', 'Funny  entertaining  well acted  Superb movie', 'One best movie many things learn implement lives ', 'If God Exists', 'Delightful yet though provoking', 'oh god2012 Hindimust watch movie', 'Propaganda', 'OMG  Watta movie   ', 'Path Breaking Movie', 'Must watch']</t>
         </is>
       </c>
     </row>
@@ -33569,7 +33569,7 @@
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>['Brilliantly filmed odd performance Joan .', 'A contender THE movie 1920s', 'That Male Attire', 'compelling closeup acting', 'Visual Delight', 'Masterful Photography !', "Carl Theodor Dreyer 's take legendary 15th century French teen martyr Joan Arc", 'One All-Time Greatest Movies', "The Good &amp; Bad Of 'The Passion Of Joan Of Arc '", 'incredible directorial vision , devastating lead Falconetti , make one greatest achievements celluloid', 'Going Extreme Close-Up', 'Made rethink silent cinema could', 'Powerful silent era drama', 'Tremendous , essential classic ways', "One Most Formally Striking Movies I 've Ever Seen", 'silent masterpiece', "The trial Jeanne d'Arc , close .", 'The real history every lines ! ! !', "La passion de Jeanne d'Arc", 'letter', 'over-rated interesting', 'A film heartbreakingly realistic brutally honest might even bring tears eyes', "If one picture worth thousand words , Maria Falconetti 's eyes worth thousand frames ...", 'A Classic devastating story spiritual faith causing death alternatively Freedom .', 'Every Bit Worthy Of Its Legendary Status']</t>
+          <t>['Brilliantly filmed odd performance Joan ', 'A contender THE movie 1920s', 'That Male Attire', 'compelling closeup acting', 'Visual Delight', 'Masterful Photography ', 'Carl Theodor Dreyer s take legendary 15th century French teen martyr Joan Arc', 'One AllTime Greatest Movies', 'The Good  Bad Of The Passion Of Joan Of Arc ', 'incredible directorial vision  devastating lead Falconetti  make one greatest achievements celluloid', 'Going Extreme CloseUp', 'Made rethink silent cinema could', 'Powerful silent era drama', 'Tremendous  essential classic ways', 'One Most Formally Striking Movies I ve Ever Seen', 'silent masterpiece', 'The trial Jeanne dArc  close ', 'The real history every lines   ', 'La passion de Jeanne dArc', 'letter', 'overrated interesting', 'A film heartbreakingly realistic brutally honest might even bring tears eyes', 'If one picture worth thousand words  Maria Falconetti s eyes worth thousand frames ', 'A Classic devastating story spiritual faith causing death alternatively Freedom ', 'Every Bit Worthy Of Its Legendary Status']</t>
         </is>
       </c>
     </row>
@@ -33613,7 +33613,7 @@
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>['This Family', 'generations Taiwan', "We 'll Look Back This One Masterpiece", 'Sweet , heartfelt , poignant', 'A Nutshell Review : Yi Yi', 'A 21st Century Masterpiece .', 'A Delicately Layered Slice Of Everyday Life', 'Calligraphy', "Such universal human interactions 'll rarely see honestly ...", 'Slow rewarding', 'Yep , pretty much perfect', 'Yi Yi traverses generational intersections life reflective horoscopic love .', 'Sweet Portrait Extended Family Relationships', 'A visually impressive meh story', 'Disgrace cinema .', 'A Quiet Masterpiece', 'Kaleidoscope', 'Solid drama', '`` Yi Yi `` - things simple ones twos ...', 'A film filled reflection', 'A Deep , Thoughtful Film', 'Beautiful masterpiece .', 'Why Yi Yi ?', 'Absolutely beautiful', 'An Oriental `` Magnolia ``']</t>
+          <t>['This Family', 'generations Taiwan', 'We ll Look Back This One Masterpiece', 'Sweet  heartfelt  poignant', 'A Nutshell Review  Yi Yi', 'A 21st Century Masterpiece ', 'A Delicately Layered Slice Of Everyday Life', 'Calligraphy', 'Such universal human interactions ll rarely see honestly ', 'Slow rewarding', 'Yep  pretty much perfect', 'Yi Yi traverses generational intersections life reflective horoscopic love ', 'Sweet Portrait Extended Family Relationships', 'A visually impressive meh story', 'Disgrace cinema ', 'A Quiet Masterpiece', 'Kaleidoscope', 'Solid drama', ' Yi Yi   things simple ones twos ', 'A film filled reflection', 'A Deep  Thoughtful Film', 'Beautiful masterpiece ', 'Why Yi Yi ', 'Absolutely beautiful', 'An Oriental  Magnolia ']</t>
         </is>
       </c>
     </row>
@@ -33657,7 +33657,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>['Fantastic ... despite length , never seemed overlong .', 'fine compelling movie', 'A Magnificent Overwhelming Fairytale – An Oscar Deserving', 'Spectacular overlong Indian musical film', 'top , definitely worth seeing', 'One Billion Aamir Khan Fans Can Be Wrong', '`` Nobody understands cricket - got ta know CRUMPET understand cricket ! `` - Raphael , Ninja Turtle', 'The best cricket movie ever made', "I liked lot ( I 'm giving 8 ) ...", 'Take Me Out Cricket Match', 'Can movie cricket , 15 minutes short four hours , entertaining ?', 'A Nutshell Review : Lagaan', 'Amazing Bollywood movie', 'Once Upon Time India ...', 'Win game win Lagaan ...', 'Ultimate heartwarmer', 'Bollywood Delight', "Only Indian film Channel 4 's 50 Films See Before Die . No 55 Empire magazines 100 Best Films World Cinema . Time magazine 's The All-TIME 25 Best Sports Movies", 'A refreshing lesson cinema ( dad )', 'As sports movie , `` Lagaan `` dramatized great élan suspense', 'Lengthy Epic About Era-Defining Cricket Match Brings Out Best Bollywood Cinema', 'Pretty epic movie overstretched way far .', 'Play Stopped Reign', 'A great story done successful manner sports thriller', 'Strong departments , weak many others']</t>
+          <t>['Fantastic  despite length  never seemed overlong ', 'fine compelling movie', 'A Magnificent Overwhelming Fairytale  An Oscar Deserving', 'Spectacular overlong Indian musical film', 'top  definitely worth seeing', 'One Billion Aamir Khan Fans Can Be Wrong', ' Nobody understands cricket  got ta know CRUMPET understand cricket    Raphael  Ninja Turtle', 'The best cricket movie ever made', 'I liked lot  I m giving 8  ', 'Take Me Out Cricket Match', 'Can movie cricket  15 minutes short four hours  entertaining ', 'A Nutshell Review  Lagaan', 'Amazing Bollywood movie', 'Once Upon Time India ', 'Win game win Lagaan ', 'Ultimate heartwarmer', 'Bollywood Delight', 'Only Indian film Channel 4 s 50 Films See Before Die  No 55 Empire magazines 100 Best Films World Cinema  Time magazine s The AllTIME 25 Best Sports Movies', 'A refreshing lesson cinema  dad ', 'As sports movie   Lagaan  dramatized great lan suspense', 'Lengthy Epic About EraDefining Cricket Match Brings Out Best Bollywood Cinema', 'Pretty epic movie overstretched way far ', 'Play Stopped Reign', 'A great story done successful manner sports thriller', 'Strong departments  weak many others']</t>
         </is>
       </c>
     </row>
@@ -33701,7 +33701,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>['one best French films I ever seen', 'Iconic noir thriller', 'An Amazing Thriller', 'know', 'Creepy suspense French Noir classic sadistic boarding school master married wealthy , neurotic wife', 'Classic Horror French Cinema', 'Somewhat dawdling far-fetched murder mystery , though well-performed ...', 'French thriller', 'Hitchcock French even better !', 'Deserving classic status .', 'Avant-Garde Influential Imitated Many Times', 'Clever , classy thriller', 'The keys pool , husband morgue ! You dream much water house !', "C'est Magnifique", 'Excellent psychological horror film', '* * * * * POSSIBLE SPOILER AHEAD * * * * * Would even better Hitchcock touch ...', 'The Devil You Say', 'I may reactionary , absolutely astounding - legal wife consoling mistress ! No , , !', 'An outstanding classic delicious dark atmosphere', 'The Wife , Mistress , Devil', 'A thriller-drama something extra .', 'The Fiends', 'held complete suspense caught terribly end', 'Just time Halloween', 'Fantastic']</t>
+          <t>['one best French films I ever seen', 'Iconic noir thriller', 'An Amazing Thriller', 'know', 'Creepy suspense French Noir classic sadistic boarding school master married wealthy  neurotic wife', 'Classic Horror French Cinema', 'Somewhat dawdling farfetched murder mystery  though wellperformed ', 'French thriller', 'Hitchcock French even better ', 'Deserving classic status ', 'AvantGarde Influential Imitated Many Times', 'Clever  classy thriller', 'The keys pool  husband morgue  You dream much water house ', 'Cest Magnifique', 'Excellent psychological horror film', '     POSSIBLE SPOILER AHEAD      Would even better Hitchcock touch ', 'The Devil You Say', 'I may reactionary  absolutely astounding  legal wife consoling mistress  No   ', 'An outstanding classic delicious dark atmosphere', 'The Wife  Mistress  Devil', 'A thrillerdrama something extra ', 'The Fiends', 'held complete suspense caught terribly end', 'Just time Halloween', 'Fantastic']</t>
         </is>
       </c>
     </row>
@@ -33745,7 +33745,7 @@
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>['Absolutely superb', 'The Art Compromise', 'compelling sincerity', 'Just As Relivant Today As It Was 1939', "Pretty Tame Compared What 's Happening Now", 'Cleaning gutter', "Modern politics taken 's dream still good film", 'A Crash Course Civics ?', 'Political Story With Some Good Messages', 'Mr. Smith learns politics hard way', 'drifts comedy sincerity greatest ease', 'Mr. Smith-Where You ? Do We Need You Today ? * * * *', 'Probably James Stewart Best Actor Oscar 1941 ...', 'Rage Against Machine', "Frank Capra 's magnum opus - searing indictment politics , even relevant today 1939", 'Brilliant', 'The Last Boy Scout', 'Capra-corn watchable great performances ...', 'One best films American politics', 'Better mels', 'An iconic movie', 'Always Try See Life Around You Like You Just Came Out Tunnel', "Either I 'm dead right , I 'm crazy !", 'Every Man Against Bigwigs', 'What beautiful movie !']</t>
+          <t>['Absolutely superb', 'The Art Compromise', 'compelling sincerity', 'Just As Relivant Today As It Was 1939', 'Pretty Tame Compared What s Happening Now', 'Cleaning gutter', 'Modern politics taken s dream still good film', 'A Crash Course Civics ', 'Political Story With Some Good Messages', 'Mr Smith learns politics hard way', 'drifts comedy sincerity greatest ease', 'Mr SmithWhere You  Do We Need You Today     ', 'Probably James Stewart Best Actor Oscar 1941 ', 'Rage Against Machine', 'Frank Capra s magnum opus  searing indictment politics  even relevant today 1939', 'Brilliant', 'The Last Boy Scout', 'Capracorn watchable great performances ', 'One best films American politics', 'Better mels', 'An iconic movie', 'Always Try See Life Around You Like You Just Came Out Tunnel', 'Either I m dead right  I m crazy ', 'Every Man Against Bigwigs', 'What beautiful movie ']</t>
         </is>
       </c>
     </row>
@@ -33789,7 +33789,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>['Keaton top form', 'It lad locomotive', 'Keaton Raises The South Again', 'Buster Keaton best', 'Brilliant', 'Station Station Comedy', 'The Locomotion', 'A wonderful silent movie .', 'I wanted still really worth seeing', 'Amusing fast-paced story based true-life incidents American Civil War', 'train rides', "It 's full steam ahead laughs thrills .", 'My Second Favorite Buster Keaton Film', 'Buster Has To Prove Himself ...... Again !', 'perhaps boldest , maybe best , action comedies', 'It appreciated released', 'Impeccable Impressive Any Era Buster Keaton His Best', 'Silent era comedy classic', 'Loco Motive', 'Buster runaway train Civil War days ...', 'One best silent films ever made', "He 's disgrace South .", 'A Buster Keaton Classic', 'The great train chase !', 'Keaton shows king comedy stunts']</t>
+          <t>['Keaton top form', 'It lad locomotive', 'Keaton Raises The South Again', 'Buster Keaton best', 'Brilliant', 'Station Station Comedy', 'The Locomotion', 'A wonderful silent movie ', 'I wanted still really worth seeing', 'Amusing fastpaced story based truelife incidents American Civil War', 'train rides', 'It s full steam ahead laughs thrills ', 'My Second Favorite Buster Keaton Film', 'Buster Has To Prove Himself  Again ', 'perhaps boldest  maybe best  action comedies', 'It appreciated released', 'Impeccable Impressive Any Era Buster Keaton His Best', 'Silent era comedy classic', 'Loco Motive', 'Buster runaway train Civil War days ', 'One best silent films ever made', 'He s disgrace South ', 'A Buster Keaton Classic', 'The great train chase ', 'Keaton shows king comedy stunts']</t>
         </is>
       </c>
     </row>
@@ -33833,7 +33833,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>['Pretty good also case much ....', 'A Bit Carry On ...', 'The introduction Munnabhai Circuit', 'Very silly', 'Fun little blast irreverence', 'One funniest saddest Indian movies .', 'Indian Standard Entertainment', "He 's total asshole", 'Not comedy , unbearably unrealistic drama', 'What amazing flim', 'Absolutely wonderful movie !', 'Iconic every sense', 'fab . movie .', 'Yet another incredibly overrated Bollywood oddity , skewed loyal domestic voters', 'All time classic', 'Life Lessons ! !', 'Will make list best comedy movies time', 'A witty movie , never takes seriously , delivers simple yet important message rightaway !', 'A movie NOT Comparison ...... love compassion', 'Rewatched evergreens movie', 'Nice Comedy', '`` Patch Adam `` Very badly copy movie', 'One greatest Indian Films watch Repeat mode', 'An Original Comedy', 'Different story refreshing change usual']</t>
+          <t>['Pretty good also case much ', 'A Bit Carry On ', 'The introduction Munnabhai Circuit', 'Very silly', 'Fun little blast irreverence', 'One funniest saddest Indian movies ', 'Indian Standard Entertainment', 'He s total asshole', 'Not comedy  unbearably unrealistic drama', 'What amazing flim', 'Absolutely wonderful movie ', 'Iconic every sense', 'fab  movie ', 'Yet another incredibly overrated Bollywood oddity  skewed loyal domestic voters', 'All time classic', 'Life Lessons  ', 'Will make list best comedy movies time', 'A witty movie  never takes seriously  delivers simple yet important message rightaway ', 'A movie NOT Comparison  love compassion', 'Rewatched evergreens movie', 'Nice Comedy', ' Patch Adam  Very badly copy movie', 'One greatest Indian Films watch Repeat mode', 'An Original Comedy', 'Different story refreshing change usual']</t>
         </is>
       </c>
     </row>
@@ -33877,7 +33877,7 @@
       </c>
       <c r="J760" t="inlineStr">
         <is>
-          <t>['okay story , unbelievable cinematography', 'Exquisite sunrise', 'great style compelling story', 'Incredibly Engaging', 'A Truly Great Silent Film', 'Incredible', 'A movie redemption .', 'One greatest achievements silent-film world ; Janet Gaynor perfect performance', 'A Song Songs !', 'F.W . Murnau Finds Place Sun', 'Simple yet highly emotional effective - classic silent era', 'THIS considered classic ?', 'Intended view casually became hooked performances ...', 'Superlative ways . A peerless masterpiece .', 'A Beautiful Sunrise', 'It look wonderful film', 'A bittersweet symphony life love', 'The farm better city .', 'Poignant artistic', 'A Man Tempted Do Evil', 'An enduring endearing story', '90 Years Later , Sunrise Still Holds Up Really Well', 'Great movie', 'An Eclipsing Star ...', 'An Artistic Masterpiece &amp; Also A Joy To Watch']</t>
+          <t>['okay story  unbelievable cinematography', 'Exquisite sunrise', 'great style compelling story', 'Incredibly Engaging', 'A Truly Great Silent Film', 'Incredible', 'A movie redemption ', 'One greatest achievements silentfilm world  Janet Gaynor perfect performance', 'A Song Songs ', 'FW  Murnau Finds Place Sun', 'Simple yet highly emotional effective  classic silent era', 'THIS considered classic ', 'Intended view casually became hooked performances ', 'Superlative ways  A peerless masterpiece ', 'A Beautiful Sunrise', 'It look wonderful film', 'A bittersweet symphony life love', 'The farm better city ', 'Poignant artistic', 'A Man Tempted Do Evil', 'An enduring endearing story', '90 Years Later  Sunrise Still Holds Up Really Well', 'Great movie', 'An Eclipsing Star ', 'An Artistic Masterpiece  Also A Joy To Watch']</t>
         </is>
       </c>
     </row>
@@ -33921,7 +33921,7 @@
       </c>
       <c r="J761" t="inlineStr">
         <is>
-          <t>['Almost good best Studio Ghibli', 'Japanese animation', 'A metaphor raising children', 'A Nutshell Review : Wolf Children', 'Wonderfully affecting', "A great potential story n't find way draw kids caring wolf-children ...", 'Raising Children Is No Walk In The Park', 'Very sweet tale different siblings', 'Sweet tale different siblings', 'Just awesome anime every aspect .', 'Company Wolves', 'Fantastic film growing living two worlds', 'Possibly beautiful family drama .', 'A Beautiful Experience', 'A beautiful tearful movie', 'THIS MOVIE IS AMAZING .', 'Family story', 'Such rich , complex film relatively silly premise', 'Making luck .', 'Slow paced boring .', 'An Interesting Remix Raised-by-Wolves Myth', '`` Ôkami kodomo Ame Yuki `` : A Heartwarming Story Love , Family Identity .', 'The different ways .', 'Above average anime although spectacular', 'M.O.T.H.E.R']</t>
+          <t>['Almost good best Studio Ghibli', 'Japanese animation', 'A metaphor raising children', 'A Nutshell Review  Wolf Children', 'Wonderfully affecting', 'A great potential story nt find way draw kids caring wolfchildren ', 'Raising Children Is No Walk In The Park', 'Very sweet tale different siblings', 'Sweet tale different siblings', 'Just awesome anime every aspect ', 'Company Wolves', 'Fantastic film growing living two worlds', 'Possibly beautiful family drama ', 'A Beautiful Experience', 'A beautiful tearful movie', 'THIS MOVIE IS AMAZING ', 'Family story', 'Such rich  complex film relatively silly premise', 'Making luck ', 'Slow paced boring ', 'An Interesting Remix RaisedbyWolves Myth', ' kami kodomo Ame Yuki   A Heartwarming Story Love  Family Identity ', 'The different ways ', 'Above average anime although spectacular', 'MOTHER']</t>
         </is>
       </c>
     </row>
@@ -33965,7 +33965,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>['Macbeth better Japanese !', 'Macbeth Japanese feudal setting', 'Gloomy , atmospheric retelling Shakespeare story', 'intriguing interpretation Macbeth', 'Great', 'Superb Adaptation', 'admirable work', "Macbeth 's Version Japanese Fields - Another Masterpiece Akira Kurosawa", 'Accessible engaging even stripped \x96 yet Mifune Kurosawa turn good double act', 'A warlord consumed ambition spurred action wife murders enemies takes rule', 'castle ignominy', 'Classic Kurosawa', 'gripping , successfully Noh form Macbeth ; Mifune madman best sense word', 'Haunting Mood Imagery', 'Kurosawa Shakespeare - great combination', "The first three Kurosawa 's Shakespeare adaptions", 'You , would soon rule world , allow ghost frighten .', 'Fierce Poetic', 'Watching Toshirô Mifune go berserk .', "Kurosawa 's Macbeth", 'super tale presented breathtaking watch .', 'Throne Blood', 'Wonderful version Macbeth', 'superb', "William Shakespeare 's Macbeth Legend Akira Kurosawa 's eyes ."]</t>
+          <t>['Macbeth better Japanese ', 'Macbeth Japanese feudal setting', 'Gloomy  atmospheric retelling Shakespeare story', 'intriguing interpretation Macbeth', 'Great', 'Superb Adaptation', 'admirable work', 'Macbeth s Version Japanese Fields  Another Masterpiece Akira Kurosawa', 'Accessible engaging even stripped  yet Mifune Kurosawa turn good double act', 'A warlord consumed ambition spurred action wife murders enemies takes rule', 'castle ignominy', 'Classic Kurosawa', 'gripping  successfully Noh form Macbeth  Mifune madman best sense word', 'Haunting Mood Imagery', 'Kurosawa Shakespeare  great combination', 'The first three Kurosawa s Shakespeare adaptions', 'You  would soon rule world  allow ghost frighten ', 'Fierce Poetic', 'Watching Toshir Mifune go berserk ', 'Kurosawa s Macbeth', 'super tale presented breathtaking watch ', 'Throne Blood', 'Wonderful version Macbeth', 'superb', 'William Shakespeare s Macbeth Legend Akira Kurosawa s eyes ']</t>
         </is>
       </c>
     </row>
@@ -34009,7 +34009,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>['Amusing exciting spectacular spectacle-another winner Akira Kurasawa !', 'Light-hearted romp usually serious talent', 'kinda funny samurai movie', 'Hidden Fortress , The', 'Lots Action ; Lots Fun', 'Another Masterpiece Master Akira Kurosawa', 'Enjoyably comic adventure', "Akira Kurosawa 's splendid story general escorting princess across enemy territory warring feudal lords", 'More Greatness From Kurosawa', 'A searing , sweeping adventure Kurosawa', 'Man , Can Man Fill Frame', "Weak , especially Kurosawa 's high standards", 'Toho Vision', 'Another influential movie Akira Kurosawa', 'Hide stone among stones man among men .', 'Mediocre Kurosawa', 'Action movie storytelling - Kurosawa style .', 'The Hidden Fortress review', 'The Hidden Fortress', 'Another epic journey master director', "A brilliant film . One Kurosawa 's best", 'Great adventure film', 'Good movie times , difficult watch', 'Adventure days CGI', 'A long time ago , Japanese country far , far away ...']</t>
+          <t>['Amusing exciting spectacular spectacleanother winner Akira Kurasawa ', 'Lighthearted romp usually serious talent', 'kinda funny samurai movie', 'Hidden Fortress  The', 'Lots Action  Lots Fun', 'Another Masterpiece Master Akira Kurosawa', 'Enjoyably comic adventure', 'Akira Kurosawa s splendid story general escorting princess across enemy territory warring feudal lords', 'More Greatness From Kurosawa', 'A searing  sweeping adventure Kurosawa', 'Man  Can Man Fill Frame', 'Weak  especially Kurosawa s high standards', 'Toho Vision', 'Another influential movie Akira Kurosawa', 'Hide stone among stones man among men ', 'Mediocre Kurosawa', 'Action movie storytelling  Kurosawa style ', 'The Hidden Fortress review', 'The Hidden Fortress', 'Another epic journey master director', 'A brilliant film  One Kurosawa s best', 'Great adventure film', 'Good movie times  difficult watch', 'Adventure days CGI', 'A long time ago  Japanese country far  far away ']</t>
         </is>
       </c>
     </row>
@@ -34053,7 +34053,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>['A Nutshell Review : Barfi !', 'Perfect ... Exciting ...', 'Masterful !', 'A Darjeeling Tale mix Amelie , Chaplin , The Notebook', "Love ca n't expressed sanity language ..", "Sorry , Priyanka 's masterpiece Ranbir 's triumph .", 'Longer expected eternally beautiful', "It feel-good film sends signal – `` Do n't Worry , everything going alright ``", 'The Life And Times Of Murphy a.k.a Barfi .', 'A chucklesome ride love !', 'Kisi Ki Muskarahaton Pe Ho Nisaar . . .', 'Highly Recommended 👍', "Barfi 's adventure", '`` Barfi `` A Beautiful film .....', 'Barfi ! ( U ) -- -- -- -- -- -- Rating : 4.5/5 Must Watch ...................... movie Review like page : : : : : https : //www.facebook.com/MovieReviewByYunusIrshad', 'Actions spoke louder words movie ! ! ! ! !', 'As sweet BARFI ( An Indian sweet )', 'BARFI !', 'A collage made copying .', 'A Beautiful Poetry ! ! !', "It 's warm hug cinema lovers .", '`` A little boring anyway good film . ``', 'MY REVIEW : Sweetness Of Life ! !', 'Sweetly enjoyable', 'True Love defined']</t>
+          <t>['A Nutshell Review  Barfi ', 'Perfect  Exciting ', 'Masterful ', 'A Darjeeling Tale mix Amelie  Chaplin  The Notebook', 'Love ca nt expressed sanity language ', 'Sorry  Priyanka s masterpiece Ranbir s triumph ', 'Longer expected eternally beautiful', 'It feelgood film sends signal   Do nt Worry  everything going alright ', 'The Life And Times Of Murphy aka Barfi ', 'A chucklesome ride love ', 'Kisi Ki Muskarahaton Pe Ho Nisaar   ', 'Highly Recommended ', 'Barfi s adventure', ' Barfi  A Beautiful film ', 'Barfi   U        Rating  455 Must Watch  movie Review like page      https  wwwfacebookcomMovieReviewByYunusIrshad', 'Actions spoke louder words movie     ', 'As sweet BARFI  An Indian sweet ', 'BARFI ', 'A collage made copying ', 'A Beautiful Poetry   ', 'It s warm hug cinema lovers ', ' A little boring anyway good film  ', 'MY REVIEW  Sweetness Of Life  ', 'Sweetly enjoyable', 'True Love defined']</t>
         </is>
       </c>
     </row>
@@ -34097,7 +34097,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>["A powerful moving film , one Bergman 's best", 'two great actresses', 'Autumn Sonata', 'How Painful Can It Get ?', 'mother child', 'Bergman Bergman , Together At Last', 'Resonant provocative', "'s love got", 'Scenes mother daughter', 'Bergman , Bergman Ullmann combine dramatic tour de force', 'AUTUMN SONATA ( Ingmar Bergman , 1978 ) * * *', 'A Dying Fall', 'Autumn Sonata', 'Devastating', 'When Bergman meets Bergman', "Bergman 's mark .", 'A Swedish Classic universal concept strained relationship Mother-Daughter Master director Ingmar Bergman .', 'A major work art', 'A Painful &amp; Punishing Story Of Childhood Trauma &amp; Adult Insecurities', 'Neglect ...', 'Mother Daughter Catharsis', 'Ingmar Bergman ...', 'More like stage-play', 'Hurt So Bad !', 'autumn sonata']</t>
+          <t>['A powerful moving film  one Bergman s best', 'two great actresses', 'Autumn Sonata', 'How Painful Can It Get ', 'mother child', 'Bergman Bergman  Together At Last', 'Resonant provocative', 's love got', 'Scenes mother daughter', 'Bergman  Bergman Ullmann combine dramatic tour de force', 'AUTUMN SONATA  Ingmar Bergman  1978    ', 'A Dying Fall', 'Autumn Sonata', 'Devastating', 'When Bergman meets Bergman', 'Bergman s mark ', 'A Swedish Classic universal concept strained relationship MotherDaughter Master director Ingmar Bergman ', 'A major work art', 'A Painful  Punishing Story Of Childhood Trauma  Adult Insecurities', 'Neglect ', 'Mother Daughter Catharsis', 'Ingmar Bergman ', 'More like stageplay', 'Hurt So Bad ', 'autumn sonata']</t>
         </is>
       </c>
     </row>
@@ -34141,7 +34141,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>["Chaplin 's best -- film !", 'A golden treasure', 'Classic Chaplin Gold', 'Chaplin Cabin', 'trip', "Really enjoyable comedy important avoid 1940 's reissue costs", 'Classic Chaplin movie unforgettable scenes pantomime sequence eating shoe', "You ca n't beat Charlie Chaplin !", "Not Chaplin 's Best", 'Great Staging', 'I definitely prefer 1925 release 1942 one ...', 'Classic Charlie Chaplin', 'Influential groundbreaking', 'Weathering The Storm ...', 'An indelible comedy classic', "One Chaplin 's Best", 'Sweet classic Chaplin movie .', 'Warmth', 'A film two halves secretly downbeat ending , still endearing visually arresting Chaplin classic .', 'Masterpiece', "I think I 've struck gold ...", "Where 's gold ?", 'Has stood test time continue', "The Gold A Film despite rush Chaplin 's trademark Comedy .", 'One all-time classics !']</t>
+          <t>['Chaplin s best  film ', 'A golden treasure', 'Classic Chaplin Gold', 'Chaplin Cabin', 'trip', 'Really enjoyable comedy important avoid 1940 s reissue costs', 'Classic Chaplin movie unforgettable scenes pantomime sequence eating shoe', 'You ca nt beat Charlie Chaplin ', 'Not Chaplin s Best', 'Great Staging', 'I definitely prefer 1925 release 1942 one ', 'Classic Charlie Chaplin', 'Influential groundbreaking', 'Weathering The Storm ', 'An indelible comedy classic', 'One Chaplin s Best', 'Sweet classic Chaplin movie ', 'Warmth', 'A film two halves secretly downbeat ending  still endearing visually arresting Chaplin classic ', 'Masterpiece', 'I think I ve struck gold ', 'Where s gold ', 'Has stood test time continue', 'The Gold A Film despite rush Chaplin s trademark Comedy ', 'One alltime classics ']</t>
         </is>
       </c>
     </row>
@@ -34185,7 +34185,7 @@
       </c>
       <c r="J767" t="inlineStr">
         <is>
-          <t>['Western-style modern Bollywood', 'Disgustingly Overrated Movie', 'Childhood friends ...', 'A reflection life', 'AAMIR- best actor bollywood', 'Surprisingly fun , well-done Bollywood film', 'The best friendship film trendsetter', 'Possibly 2000s soup opera alike romance movie .', 'Chill besties ! !', 'A fine realistic depiction modern urban India youth', '3 dreadfully boring hours', 'OUTSTANDING MOVIE', 'An extremely unpopular movie , somehow popular Imdb', 'Yuppie India - different picture Indian Life', 'Worth', 'Dil Chahta redefining movie ages ..', 'Fantastic fun full surprises', 'A lovely episode three lives', 'A New Style Hindi Movies', 'Style substance', '3-hour soap opera', 'Cute Fresh', 'roller-coaster movie excellence', 'Never seen Bollywood film ? DCH best place start .', 'One good story ( developed properly ) , one bad story one story']</t>
+          <t>['Westernstyle modern Bollywood', 'Disgustingly Overrated Movie', 'Childhood friends ', 'A reflection life', 'AAMIR best actor bollywood', 'Surprisingly fun  welldone Bollywood film', 'The best friendship film trendsetter', 'Possibly 2000s soup opera alike romance movie ', 'Chill besties  ', 'A fine realistic depiction modern urban India youth', '3 dreadfully boring hours', 'OUTSTANDING MOVIE', 'An extremely unpopular movie  somehow popular Imdb', 'Yuppie India  different picture Indian Life', 'Worth', 'Dil Chahta redefining movie ages ', 'Fantastic fun full surprises', 'A lovely episode three lives', 'A New Style Hindi Movies', 'Style substance', '3hour soap opera', 'Cute Fresh', 'rollercoaster movie excellence', 'Never seen Bollywood film  DCH best place start ', 'One good story  developed properly   one bad story one story']</t>
         </is>
       </c>
     </row>
@@ -34229,7 +34229,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>["One Fellini 's best ...", 'Fellini creates memorable character', 'Night Cabiria', 'experience', 'Fellini always creates great characters', 'Man With The Sack', "Oooh , 's lady ! One sharpest , highly entertaining `` chick flicks `` ever conceived", "Fellini 's bitter-sweet classic : funny , sad , sweet , cynical engaging", 'The eternal optimist', "One Federico Fellini 's finest films", 'A Fellini classic', 'Tremendous Giulietta Masina Performance', 'Wonderful film .', 'A wonderful unique film near perfect , surely .', 'Nights Cabiria', 'Bleak portrait bleak person', 'Unbelievably Great', 'Giulietta Masina prostitute making best even ultimate disaster .', 'The Greatest Woman Oriented Tragedy ever told corner world Greatest Leading Actress Performance decade cinema industry . Period .', 'splendid film , splendid creation Giulietta Masina', 'The Final Scene Redeems The Whole Film', 'Involving , yet repetitive', 'Lovely , poignant film .', 'Nights Cabiria', 'nights cabiria']</t>
+          <t>['One Fellini s best ', 'Fellini creates memorable character', 'Night Cabiria', 'experience', 'Fellini always creates great characters', 'Man With The Sack', 'Oooh  s lady  One sharpest  highly entertaining  chick flicks  ever conceived', 'Fellini s bittersweet classic  funny  sad  sweet  cynical engaging', 'The eternal optimist', 'One Federico Fellini s finest films', 'A Fellini classic', 'Tremendous Giulietta Masina Performance', 'Wonderful film ', 'A wonderful unique film near perfect  surely ', 'Nights Cabiria', 'Bleak portrait bleak person', 'Unbelievably Great', 'Giulietta Masina prostitute making best even ultimate disaster ', 'The Greatest Woman Oriented Tragedy ever told corner world Greatest Leading Actress Performance decade cinema industry  Period ', 'splendid film  splendid creation Giulietta Masina', 'The Final Scene Redeems The Whole Film', 'Involving  yet repetitive', 'Lovely  poignant film ', 'Nights Cabiria', 'nights cabiria']</t>
         </is>
       </c>
     </row>
@@ -34273,7 +34273,7 @@
       </c>
       <c r="J769" t="inlineStr">
         <is>
-          <t>["Probably best French Film Noir ... 's saying lot !", 'Great heist film', 'Pulling Bad Guys', 'A Magnificent Fim-Noir', 'Tough , direct , atmospheric stylish', "wo n't believe eyes", 'Heist !', 'Jewel Heist genre films .', 'Film Noir : Paris-Style', 'Jules Dassin Classic', 'truly methodical , cool hybrid old-school classy heist films extra element ...', 'Superb', 'The Project', 'One first caper films -- one best', "Stunning heist film France 's answer `` The Asphalt Jungle `` ...", "You 're one unhappy childhood , millions like , , eyes , * * tough ones , !", 'Rough Tumble', 'This perfect film', 'The heist supurb .. rest much', 'French toast', 'Method Robbers ...', 'An Iconic Heist Film One Most Perfect Crime Noir French Cinema .', 'godfather heist movies many others', 'Another second tier noir', 'A Caper Film About More Than The Job']</t>
+          <t>['Probably best French Film Noir  s saying lot ', 'Great heist film', 'Pulling Bad Guys', 'A Magnificent FimNoir', 'Tough  direct  atmospheric stylish', 'wo nt believe eyes', 'Heist ', 'Jewel Heist genre films ', 'Film Noir  ParisStyle', 'Jules Dassin Classic', 'truly methodical  cool hybrid oldschool classy heist films extra element ', 'Superb', 'The Project', 'One first caper films  one best', 'Stunning heist film France s answer  The Asphalt Jungle  ', 'You re one unhappy childhood  millions like   eyes    tough ones  ', 'Rough Tumble', 'This perfect film', 'The heist supurb  rest much', 'French toast', 'Method Robbers ', 'An Iconic Heist Film One Most Perfect Crime Noir French Cinema ', 'godfather heist movies many others', 'Another second tier noir', 'A Caper Film About More Than The Job']</t>
         </is>
       </c>
     </row>
@@ -34317,7 +34317,7 @@
       </c>
       <c r="J770" t="inlineStr">
         <is>
-          <t>['A Thousand Dollar Day Newspaperman', 'devastatingly ahead time', 'Wilder &amp; Douglas', 'The Press Makes News', 'The hole one', 'The Press Vehicle Manipulation Nation', 'Provoking flick relentless ambition top-notch interpretations stunning direction', "Billy Wilder 's prediction", 'A Prime Example What Media Circus Can Look Like', "The Good &amp; The Bad Of 'Ace In The Hole '", 'Terse , hard-bitten microcosm America , exposing lack morals ethics', "`` I 've met hard-boiled eggs time ... , 're 20 minutes . ``", 'Evil carnival', 'cynical absorbing look relevance hard-boiled journalism humanity', 'Ace Hole A Big Carnival * * *', 'We Call It `` The Media Circus ``', 'Extremely effective .', 'Tell Truth', 'Great drama manipulative power media', "It 's good story today . Tomorrow , 'll wrap fish .", 'Human Interest Serve Human Greed', 'Kirk Douglas shines nerve-wracking , gritty drama based true story ...', 'A Movie That Really Matters', 'As excellent &amp; captivating unbelievably , wholly bleak', 'Billy Wilder Stages Circus']</t>
+          <t>['A Thousand Dollar Day Newspaperman', 'devastatingly ahead time', 'Wilder  Douglas', 'The Press Makes News', 'The hole one', 'The Press Vehicle Manipulation Nation', 'Provoking flick relentless ambition topnotch interpretations stunning direction', 'Billy Wilder s prediction', 'A Prime Example What Media Circus Can Look Like', 'The Good  The Bad Of Ace In The Hole ', 'Terse  hardbitten microcosm America  exposing lack morals ethics', ' I ve met hardboiled eggs time   re 20 minutes  ', 'Evil carnival', 'cynical absorbing look relevance hardboiled journalism humanity', 'Ace Hole A Big Carnival   ', 'We Call It  The Media Circus ', 'Extremely effective ', 'Tell Truth', 'Great drama manipulative power media', 'It s good story today  Tomorrow  ll wrap fish ', 'Human Interest Serve Human Greed', 'Kirk Douglas shines nervewracking  gritty drama based true story ', 'A Movie That Really Matters', 'As excellent  captivating unbelievably  wholly bleak', 'Billy Wilder Stages Circus']</t>
         </is>
       </c>
     </row>
@@ -34361,7 +34361,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>['outsider world', 'Beautiful Gypsy Tale', 'Lacks focus engagement', 'Telekinetic Turkeys', 'Great movie making makes great movie .', 'Romani , Open Cities ... Filling Glasses Bleeding Hearts ..', 'A mesmerising magic realism crime world gypsy . One finest foreign language crime drama .', 'A Fascinating Insight Into The Gypsy Culture &amp; Way Of Life', 'Very different good ...', 'Tears blood song , joyful', 'Gipsy dream', 'Magical', 'Reinforces cultural stereotypes', 'Inappropriate parody Godfather movies', 'mesmerizing epic', 'Gypsies version The Godfather .', "Kusturica 's ugly magic .", 'Satiated .', 'One best films come Europe', '`` Dom za vesanje `` worse `` Karmelita ``', 'Unforgettable remarkable', 'Quite masterpiece ..', 'Gypsies power', 'This master peace Balkan culture !', 'Real Surreal']</t>
+          <t>['outsider world', 'Beautiful Gypsy Tale', 'Lacks focus engagement', 'Telekinetic Turkeys', 'Great movie making makes great movie ', 'Romani  Open Cities  Filling Glasses Bleeding Hearts ', 'A mesmerising magic realism crime world gypsy  One finest foreign language crime drama ', 'A Fascinating Insight Into The Gypsy Culture  Way Of Life', 'Very different good ', 'Tears blood song  joyful', 'Gipsy dream', 'Magical', 'Reinforces cultural stereotypes', 'Inappropriate parody Godfather movies', 'mesmerizing epic', 'Gypsies version The Godfather ', 'Kusturica s ugly magic ', 'Satiated ', 'One best films come Europe', ' Dom za vesanje  worse  Karmelita ', 'Unforgettable remarkable', 'Quite masterpiece ', 'Gypsies power', 'This master peace Balkan culture ', 'Real Surreal']</t>
         </is>
       </c>
     </row>
@@ -34405,7 +34405,7 @@
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>['Good , great', 'great new era Chinese cinema', 'Wives concubines', 'remember Warlord Era', 'Gorgeous Cinematography', 'Meticulous', 'Stagnant Sets &amp; Story', 'Four Houses', 'Yimou Zhang &amp; Li Gong equals much pleasure', "Zhang Yimou 's Silver Lion winner judiciously scrutinizes womanhood dead center scroll rigorous form divine palette", 'A Bizarre Story Of Jealousy , Deception And Betrayal', 'One Best Films All Time - Not For Chinese History Illiterates', "In context oriental cinema , 's good ... 's different cinema , West , used .", 'Spectacular , Sublime - The Politics Marriage ...', 'Interesting ...', 'Bhavachakra ( Wheel Becoming )', 'A film reward patience', 'Gong Li trouble', 'The system , individuals , causing oppression', 'Colorful poetic', 'One greatest Chinese artistic films forever . Makes sad ( A+ Movie ) My Ratings 10/10', 'silently deadly', 'Where Your Red Lantern ?', 'A Lyrical Beauty', 'A visual treat story withers time drags']</t>
+          <t>['Good  great', 'great new era Chinese cinema', 'Wives concubines', 'remember Warlord Era', 'Gorgeous Cinematography', 'Meticulous', 'Stagnant Sets  Story', 'Four Houses', 'Yimou Zhang  Li Gong equals much pleasure', 'Zhang Yimou s Silver Lion winner judiciously scrutinizes womanhood dead center scroll rigorous form divine palette', 'A Bizarre Story Of Jealousy  Deception And Betrayal', 'One Best Films All Time  Not For Chinese History Illiterates', 'In context oriental cinema  s good  s different cinema  West  used ', 'Spectacular  Sublime  The Politics Marriage ', 'Interesting ', 'Bhavachakra  Wheel Becoming ', 'A film reward patience', 'Gong Li trouble', 'The system  individuals  causing oppression', 'Colorful poetic', 'One greatest Chinese artistic films forever  Makes sad  A Movie  My Ratings 1010', 'silently deadly', 'Where Your Red Lantern ', 'A Lyrical Beauty', 'A visual treat story withers time drags']</t>
         </is>
       </c>
     </row>
@@ -34449,7 +34449,7 @@
       </c>
       <c r="J773" t="inlineStr">
         <is>
-          <t>['Frightening &amp; Powerful !', 'Khan really best ...', 'SUSPENSE GLORY .', 'Holly Mollly , lousy film', 'Flawed average police procedural .....', 'Talvar', 'Consistently enjoyable could better', 'Stellar performances electrifying screenplay makes exhilarating watch ! ! !', 'Disappointing , Debauched , Manipulative , Subtly crafty persuading audiences', 'The Truth Is Still Out There', 'Sticks point', 'An underwhelming experience !', 'Got shocked', 'A true film , Excellent small word !', 'Hypothetical Drama', 'A directorial treat great efforts put portray fine grains plot', 'True incident brought question', 'Talvar', 'Almost perfect 10', 'A biased depiction true story', 'Amazing !', 'Irfan Khan 🌟', 'A Lot Of Insights On What Was Untold And Unknown', 'Excellent story-telling supported brilliant acting performances .', 'Not boring ....']</t>
+          <t>['Frightening  Powerful ', 'Khan really best ', 'SUSPENSE GLORY ', 'Holly Mollly  lousy film', 'Flawed average police procedural ', 'Talvar', 'Consistently enjoyable could better', 'Stellar performances electrifying screenplay makes exhilarating watch   ', 'Disappointing  Debauched  Manipulative  Subtly crafty persuading audiences', 'The Truth Is Still Out There', 'Sticks point', 'An underwhelming experience ', 'Got shocked', 'A true film  Excellent small word ', 'Hypothetical Drama', 'A directorial treat great efforts put portray fine grains plot', 'True incident brought question', 'Talvar', 'Almost perfect 10', 'A biased depiction true story', 'Amazing ', 'Irfan Khan ', 'A Lot Of Insights On What Was Untold And Unknown', 'Excellent storytelling supported brilliant acting performances ', 'Not boring ']</t>
         </is>
       </c>
     </row>
@@ -34493,7 +34493,7 @@
       </c>
       <c r="J774" t="inlineStr">
         <is>
-          <t>['`` German Or French , duty duty ``', 'The French Great Escape WWI', 'The Dignity War !', 'film', 'Longing leave', "Offers sombre introspection n't win draw particularly well", 'One greatest anti-war films memorable acting Stroheim , Gavin Fresnay .', 'Definitive World War I Film', 'Great movie', 'Unusual , curious enterprise ...', 'Thoroughly enjoyable , memorable characters scenes , early classic humanist/prison escape films', 'The Mirage War', 'Interesting WW1 drama', 'Class consciousness', 'Good classic ?', 'A `` great escape `` French style ... intriguing completely satisfying ...', 'The first solid anti war film', 'La Guerre Three-Quarter Time', 'A tremendous classic back end full pure brilliance', "It 's War , Gentleman", 'The grand escape .', 'Cinema Omnivore - La grande illusion ( 1937 ) 8.5/10', 'memorable', 'The first great unsurpassed film prisoners war , focussing gentlemanly soldiery', 'The First Ever POW Escape Sensation World Cinema .']</t>
+          <t>[' German Or French  duty duty ', 'The French Great Escape WWI', 'The Dignity War ', 'film', 'Longing leave', 'Offers sombre introspection nt win draw particularly well', 'One greatest antiwar films memorable acting Stroheim  Gavin Fresnay ', 'Definitive World War I Film', 'Great movie', 'Unusual  curious enterprise ', 'Thoroughly enjoyable  memorable characters scenes  early classic humanistprison escape films', 'The Mirage War', 'Interesting WW1 drama', 'Class consciousness', 'Good classic ', 'A  great escape  French style  intriguing completely satisfying ', 'The first solid anti war film', 'La Guerre ThreeQuarter Time', 'A tremendous classic back end full pure brilliance', 'It s War  Gentleman', 'The grand escape ', 'Cinema Omnivore  La grande illusion  1937  8510', 'memorable', 'The first great unsurpassed film prisoners war  focussing gentlemanly soldiery', 'The First Ever POW Escape Sensation World Cinema ']</t>
         </is>
       </c>
     </row>
@@ -34537,7 +34537,7 @@
       </c>
       <c r="J775" t="inlineStr">
         <is>
-          <t>['A Well-Acted , Yet Flawed Film !', 'A Heartbreaking Chronicle Harsh Lives . ♦ 76 %', 'Interesting', 'A fine realistic film sincere performances , falling short huge expectations raised media .', 'Building hope darkest places world', 'Staggering', 'Even disaster striked , life way !', 'Metaphor ! !', 'A Beautiful Pictuarization Agonies Urban Poor .....', 'Realistic approach full emotions', 'Amazing ....', 'Brilliant', 'Soul-Shatteringly Beautiful', 'Good one', 'Masaan , must-watch film , showcases journey transformation , journey Ganges Sangam ; talks essence life .', "If 're privileged enough , Struggle Fate", 'A complete art movie !', 'Finally great hindi movie', 'MASAAN : Fly Away Solo', 'A Timeless Gem That Left Lasting Impact', 'What Better', 'What satisfyingly great piece filmmaking .', 'Everything happens reason', 'MAGICAL AUTHENTIC !', 'An real movie .']</t>
+          <t>['A WellActed  Yet Flawed Film ', 'A Heartbreaking Chronicle Harsh Lives   76 ', 'Interesting', 'A fine realistic film sincere performances  falling short huge expectations raised media ', 'Building hope darkest places world', 'Staggering', 'Even disaster striked  life way ', 'Metaphor  ', 'A Beautiful Pictuarization Agonies Urban Poor ', 'Realistic approach full emotions', 'Amazing ', 'Brilliant', 'SoulShatteringly Beautiful', 'Good one', 'Masaan  mustwatch film  showcases journey transformation  journey Ganges Sangam  talks essence life ', 'If re privileged enough  Struggle Fate', 'A complete art movie ', 'Finally great hindi movie', 'MASAAN  Fly Away Solo', 'A Timeless Gem That Left Lasting Impact', 'What Better', 'What satisfyingly great piece filmmaking ', 'Everything happens reason', 'MAGICAL AUTHENTIC ', 'An real movie ']</t>
         </is>
       </c>
     </row>
@@ -34581,7 +34581,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>['Rekindling patriotic spirits forefathers bunch spoiled jerks .', 'Love characters turn bad', 'Horribly Overrated', 'PERFECT ...', 'Visionary , Original &amp; Perpetually Relevant ...', 'Starts novel concept ..... becomes bit predictable', 'True revolution ...', 'Like four movies mashed one', 'About lessons history teaches us', 'A great movie', 'The best India .', 'Not great top 250', 'Kudos Aamir !', 'Teaching importance freedom .', 'A fine film .', "One finest movie generation . It 's movie , 's movement .", 'Three films poorly crammed one', 'When someone falls , someone else always feels bad', 'rang de basanti', 'Yet another overrated mess badly skewed Indian IMDb users', 'Review - Rang De Basanti', 'The end spoilt somewhat', 'Rocking film Youth ! Delivers message far without usual stereotypes !', 'REVOLUTION', 'A great movie disappointing end .']</t>
+          <t>['Rekindling patriotic spirits forefathers bunch spoiled jerks ', 'Love characters turn bad', 'Horribly Overrated', 'PERFECT ', 'Visionary  Original  Perpetually Relevant ', 'Starts novel concept  becomes bit predictable', 'True revolution ', 'Like four movies mashed one', 'About lessons history teaches us', 'A great movie', 'The best India ', 'Not great top 250', 'Kudos Aamir ', 'Teaching importance freedom ', 'A fine film ', 'One finest movie generation  It s movie  s movement ', 'Three films poorly crammed one', 'When someone falls  someone else always feels bad', 'rang de basanti', 'Yet another overrated mess badly skewed Indian IMDb users', 'Review  Rang De Basanti', 'The end spoilt somewhat', 'Rocking film Youth  Delivers message far without usual stereotypes ', 'REVOLUTION', 'A great movie disappointing end ']</t>
         </is>
       </c>
     </row>
@@ -34625,7 +34625,7 @@
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>['LOUDEST AND BRAVEST CINEMATIC SHOUT BREAKS THE SILENCE ON CAST ISSUES', 'Excellent Social Thriller / 8 Stars', 'In beloved n beautiful India , men martyred border r outnumbered die cleaning sewers n one mourns em .', 'Tried Tell More , Than It Could !', 'Ayushmann headlines yet another relevant , hard-hitting film ! [ +82 % ]', "Do n't Miss Article 15 At Any Cost ! ! ! Hats Off To Ayushmann Khurrana And Anubhav Sinha", 'Bollywood real story !', 'A Little On The Preachy Side , But Okay .', 'The sad reality India', 'Brings Reality ! ! !', 'The film boasts good performances', 'A reality check India .', 'A superb depiction social discrimination', 'Hard hitting , eye opener !', 'My nation better ! !', 'VERY GOOD MOVIE', 'Welcome REAL India', 'BEST OF THE YEAR', 'Powerful film raises important issues related complex caste system Country .', 'One best year', 'Inadequately Handled', 'Strong concept . Poor execution', 'Overhyped !', 'It could better !', 'good message movie']</t>
+          <t>['LOUDEST AND BRAVEST CINEMATIC SHOUT BREAKS THE SILENCE ON CAST ISSUES', 'Excellent Social Thriller  8 Stars', 'In beloved n beautiful India  men martyred border r outnumbered die cleaning sewers n one mourns em ', 'Tried Tell More  Than It Could ', 'Ayushmann headlines yet another relevant  hardhitting film   82  ', 'Do nt Miss Article 15 At Any Cost    Hats Off To Ayushmann Khurrana And Anubhav Sinha', 'Bollywood real story ', 'A Little On The Preachy Side  But Okay ', 'The sad reality India', 'Brings Reality   ', 'The film boasts good performances', 'A reality check India ', 'A superb depiction social discrimination', 'Hard hitting  eye opener ', 'My nation better  ', 'VERY GOOD MOVIE', 'Welcome REAL India', 'BEST OF THE YEAR', 'Powerful film raises important issues related complex caste system Country ', 'One best year', 'Inadequately Handled', 'Strong concept  Poor execution', 'Overhyped ', 'It could better ', 'good message movie']</t>
         </is>
       </c>
     </row>
@@ -34669,7 +34669,7 @@
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>['Bold &amp; Brave !', 'NO Means NO . ♦ Grade B+', 'Decent court film .', 'Finally film challenging stereotype . No means No .', 'Pink ( 2016 )', 'Pink Review : Accept standing ovation !', 'A powerful courtroom drama', 'Okay Film , Not The Masterpiece People Are Claiming It Is .', 'A good court drama India', 'A Thought Provoking Drama Women Empowerment .....', 'Great , became unrealistic preaching .', "I liked 's good everyone made sound", 'Excellence Movie Pink', 'Pink must watch every Indian Citizen easily one best movies 2016 .', 'A pretty good watch', "A riveting thriller today 's darker society", 'Simple Amazing', 'Excellent , Gripping , Compelling importantly film Heart !', 'Great movie', 'A groundbreaking film wants think act', 'Highly relatable story gripping suspense .....', "Cinema 's Pink Revolution started Shoojit Aniruddha", 'Once lifetime film ! !', "Very much watchable , sans Bachchan , would n't impress much", 'Called change']</t>
+          <t>['Bold  Brave ', 'NO Means NO   Grade B', 'Decent court film ', 'Finally film challenging stereotype  No means No ', 'Pink  2016 ', 'Pink Review  Accept standing ovation ', 'A powerful courtroom drama', 'Okay Film  Not The Masterpiece People Are Claiming It Is ', 'A good court drama India', 'A Thought Provoking Drama Women Empowerment ', 'Great  became unrealistic preaching ', 'I liked s good everyone made sound', 'Excellence Movie Pink', 'Pink must watch every Indian Citizen easily one best movies 2016 ', 'A pretty good watch', 'A riveting thriller today s darker society', 'Simple Amazing', 'Excellent  Gripping  Compelling importantly film Heart ', 'Great movie', 'A groundbreaking film wants think act', 'Highly relatable story gripping suspense ', 'Cinema s Pink Revolution started Shoojit Aniruddha', 'Once lifetime film  ', 'Very much watchable  sans Bachchan  would nt impress much', 'Called change']</t>
         </is>
       </c>
     </row>
@@ -34713,7 +34713,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>['case sequel even exceeds original', "J'adore !", 'wonderful roller coaster', 'Incredible Film Uses Soft Touch', 'A Heartbreaking Epic Greediness Cruelty', 'Moving study human nature', 'A delightful , tragic story set rural France', 'Cinema !', "`` If say I 'm Monsieur Farmer , agree . `` - Le Papet , probably", 'Superb , wonderfully engaging movie', 'A beautiful classic', 'Flowers Mean Forgiveness', 'A terrific , compelling drama - still merely one half whole', 'Fear loathing rural idyll', "Excellent first part 'Jean de Florette ' saga", 'The worrisome victory greed pettiness naïve idealism', 'The power envy ineffectiveness farming handbooks .', 'The Passion Jean ...', 'Greediness ...', 'Magnificent heartbreaking tale deception greed', 'Beautiful Study Human Spirit', 'Slow beautiful', 'Agonising ; enrapturing taut all-at-once period piece , detailing struggles two sets farm-set family units evens odds one another .', 'Cruelty , beautifully filmed', 'Jean de Florette / Manon Spring']</t>
+          <t>['case sequel even exceeds original', 'Jadore ', 'wonderful roller coaster', 'Incredible Film Uses Soft Touch', 'A Heartbreaking Epic Greediness Cruelty', 'Moving study human nature', 'A delightful  tragic story set rural France', 'Cinema ', ' If say I m Monsieur Farmer  agree    Le Papet  probably', 'Superb  wonderfully engaging movie', 'A beautiful classic', 'Flowers Mean Forgiveness', 'A terrific  compelling drama  still merely one half whole', 'Fear loathing rural idyll', 'Excellent first part Jean de Florette  saga', 'The worrisome victory greed pettiness nave idealism', 'The power envy ineffectiveness farming handbooks ', 'The Passion Jean ', 'Greediness ', 'Magnificent heartbreaking tale deception greed', 'Beautiful Study Human Spirit', 'Slow beautiful', 'Agonising  enrapturing taut allatonce period piece  detailing struggles two sets farmset family units evens odds one another ', 'Cruelty  beautifully filmed', 'Jean de Florette  Manon Spring']</t>
         </is>
       </c>
     </row>
@@ -34757,7 +34757,7 @@
       </c>
       <c r="J780" t="inlineStr">
         <is>
-          <t>['Bollywood western classic', 'A total blast exceeds expectations ; Leone Kurosawa would dug saw', 'Once Upon Time Bangalore .', 'An Eastern Western', 'A True Masterpiece !', 'Sometimes excellent , sometimes', 'The Magnificent Two Samurai ...', 'Indian Western', 'SHOLAY pride Indian Cinema', 'Awesome movie . My time fave . The best villain history bollywood .', 'The Great Indian Western', 'Cult Classic', 'Sholay immortal .', 'A rare Hindi film times', 'What ? ? ? Am I Missing something ? ? ?', 'Overlong epic Indian western iconic villain', 'Disappointing max * * SPOILER * *', 'Reviewing 2014 3D theatrical version', 'It assimilated Indian folklore', 'Entertaining , flawed far long', 'Everybody knows Best Bollywood film ever made', "Bummed 's copied .", 'Decent flawed western-inspired Bollywood film', 'The film century .', 'A time classic']</t>
+          <t>['Bollywood western classic', 'A total blast exceeds expectations  Leone Kurosawa would dug saw', 'Once Upon Time Bangalore ', 'An Eastern Western', 'A True Masterpiece ', 'Sometimes excellent  sometimes', 'The Magnificent Two Samurai ', 'Indian Western', 'SHOLAY pride Indian Cinema', 'Awesome movie  My time fave  The best villain history bollywood ', 'The Great Indian Western', 'Cult Classic', 'Sholay immortal ', 'A rare Hindi film times', 'What    Am I Missing something   ', 'Overlong epic Indian western iconic villain', 'Disappointing max   SPOILER  ', 'Reviewing 2014 3D theatrical version', 'It assimilated Indian folklore', 'Entertaining  flawed far long', 'Everybody knows Best Bollywood film ever made', 'Bummed s copied ', 'Decent flawed westerninspired Bollywood film', 'The film century ', 'A time classic']</t>
         </is>
       </c>
     </row>
@@ -34801,7 +34801,7 @@
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>["n't really buy Ahmed 's turn", 'basic truth', 'Superb drama inanity wastefulness war', 'Cinema Omnivore - Tangerines ( 2013 ) 7.9/10', 'War beautiful ? YES , beautiful film ..', 'notes', 'story East', 'This Estonian-Georgian Classic major breakthrough changing face War films .', 'A remarkable piece work', 'A Timely &amp; Topical Drama About The Futility Of War , Hatred &amp; Conflict', 'Rare movie gem', 'A Bit About War ; A Bit About Understanding', 'Very good', 'A film common humanity', 'A touching human drama . Well worth seeking', 'Examining human side conflicts war', 'Pacifism Rules . ♦ 70 %', "It 's set Abkhazia fun .", 'A strong human values film , war intruded background', 'Amazing touching film', 'ANTI-WAR', 'A small scaled anti-war film delivers message effectively .', 'War whole new meaning .', 'Webs Wartime', 'Engaing lacks depth']</t>
+          <t>['nt really buy Ahmed s turn', 'basic truth', 'Superb drama inanity wastefulness war', 'Cinema Omnivore  Tangerines  2013  7910', 'War beautiful  YES  beautiful film ', 'notes', 'story East', 'This EstonianGeorgian Classic major breakthrough changing face War films ', 'A remarkable piece work', 'A Timely  Topical Drama About The Futility Of War  Hatred  Conflict', 'Rare movie gem', 'A Bit About War  A Bit About Understanding', 'Very good', 'A film common humanity', 'A touching human drama  Well worth seeking', 'Examining human side conflicts war', 'Pacifism Rules   70 ', 'It s set Abkhazia fun ', 'A strong human values film  war intruded background', 'Amazing touching film', 'ANTIWAR', 'A small scaled antiwar film delivers message effectively ', 'War whole new meaning ', 'Webs Wartime', 'Engaing lacks depth']</t>
         </is>
       </c>
     </row>
@@ -34845,7 +34845,7 @@
       </c>
       <c r="J782" t="inlineStr">
         <is>
-          <t>['Brilliant', 'Running Gamut Depravity', 'clash', 'Relentless criticism ingratitude selfishness realized maestro Buñuel', 'Hallelujah !', 'Controversial film many striking moments ... limited appeal ...', 'The metaphor', "It 's fine film . I n't agree conveys ideas value meaningful way .", 'wonderful little touches', 'For 16 years lost Spain , heavily controversial flick', 'mirror', 'meh', "I really n't like guy", "NO ONE IS SAFE FROM BUNUEL 'S KNIFE ... !", 'Strange drama basic human desires', "Bunuel 's World", 'Despite brought back specifically make Spanish film , Buñuel lets loose tears everyone everything .', 'Absolute masterpiece !', 'viridiana', 'Unique Story', 'An Utterly Graceful Experience , Invaluable Intellectual Piece Work', 'Classic Brunuel .', "One Bunuel 's masterpieces .", 'A Really Nothing Movie', 'A Bunuel movie sympathetic members bourgeoisie']</t>
+          <t>['Brilliant', 'Running Gamut Depravity', 'clash', 'Relentless criticism ingratitude selfishness realized maestro Buuel', 'Hallelujah ', 'Controversial film many striking moments  limited appeal ', 'The metaphor', 'It s fine film  I nt agree conveys ideas value meaningful way ', 'wonderful little touches', 'For 16 years lost Spain  heavily controversial flick', 'mirror', 'meh', 'I really nt like guy', 'NO ONE IS SAFE FROM BUNUEL S KNIFE  ', 'Strange drama basic human desires', 'Bunuel s World', 'Despite brought back specifically make Spanish film  Buuel lets loose tears everyone everything ', 'Absolute masterpiece ', 'viridiana', 'Unique Story', 'An Utterly Graceful Experience  Invaluable Intellectual Piece Work', 'Classic Brunuel ', 'One Bunuel s masterpieces ', 'A Really Nothing Movie', 'A Bunuel movie sympathetic members bourgeoisie']</t>
         </is>
       </c>
     </row>
@@ -34889,7 +34889,7 @@
       </c>
       <c r="J783" t="inlineStr">
         <is>
-          <t>['Turkish delight', 'Yawn ... preposterous ...', 'An overrated Turkish Crime drama loses sense towards end', 'Small In Scale But Definitely Epic In Scope', 'Absolutely Shish ! ! !', 'Wow', 'Slow burning crime drama', 'Two generations , struggling kind problems', 'Very cheap movie great ideas .', 'Easy accept', 'The Bandit', 'Where good votes come ?', 'unbelievable story', 'The tragedy Uncle Baran predicted beginning film', 'Logical Problem', 'Vintage Turkish crime saga', 'Simple , clean Quiet , masterpiece', 'A powerful modern Turkish epic drama ...', 'You probably Turkish appreciate melodramatic long-winded nonsense', 'Rip upon time America .', 'non-turkish review : local phenomenon !', 'Overrated', 'return Turkish cinema', 'A questioning style supeb acting .', 'Overrated ( due nationalism ? )']</t>
+          <t>['Turkish delight', 'Yawn  preposterous ', 'An overrated Turkish Crime drama loses sense towards end', 'Small In Scale But Definitely Epic In Scope', 'Absolutely Shish   ', 'Wow', 'Slow burning crime drama', 'Two generations  struggling kind problems', 'Very cheap movie great ideas ', 'Easy accept', 'The Bandit', 'Where good votes come ', 'unbelievable story', 'The tragedy Uncle Baran predicted beginning film', 'Logical Problem', 'Vintage Turkish crime saga', 'Simple  clean Quiet  masterpiece', 'A powerful modern Turkish epic drama ', 'You probably Turkish appreciate melodramatic longwinded nonsense', 'Rip upon time America ', 'nonturkish review  local phenomenon ', 'Overrated', 'return Turkish cinema', 'A questioning style supeb acting ', 'Overrated  due nationalism  ']</t>
         </is>
       </c>
     </row>
@@ -34933,7 +34933,7 @@
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>['Extremely formulaic also quite enjoyable .', 'standard sports movie', "There 's room one bully team ! And bully .", 'Chak De India masterpiece ! SRK Rules !', 'Inspiring , Empowering , Liberating ...', 'Go girls , make country proud', 'Good Indian movie', 'Powerful sports film', 'Clichéd , good way', 'Good movie', 'Epic sports genre movie .. ! !', 'Great sports film .', 'A superior sports film , brilliantly led Mr. Khan', 'B4 player comes team &amp; b4 team comes country !', 'You go back make new start , start make new ending', 'Chak De India !', 'Predictable Sports Film Splashed With Great Energy A Sense Fun', 'Chak De India', "Life gives us second chance ; 's us recognize", 'Good story , subpar movie', 'Must watch Flim', 'Chak De India', "Now 's called movie", 'One best sports drama', 'Chak de Chak de , Ek Hockey doongi main Rakh ke !']</t>
+          <t>['Extremely formulaic also quite enjoyable ', 'standard sports movie', 'There s room one bully team  And bully ', 'Chak De India masterpiece  SRK Rules ', 'Inspiring  Empowering  Liberating ', 'Go girls  make country proud', 'Good Indian movie', 'Powerful sports film', 'Clichd  good way', 'Good movie', 'Epic sports genre movie   ', 'Great sports film ', 'A superior sports film  brilliantly led Mr Khan', 'B4 player comes team  b4 team comes country ', 'You go back make new start  start make new ending', 'Chak De India ', 'Predictable Sports Film Splashed With Great Energy A Sense Fun', 'Chak De India', 'Life gives us second chance  s us recognize', 'Good story  subpar movie', 'Must watch Flim', 'Chak De India', 'Now s called movie', 'One best sports drama', 'Chak de Chak de  Ek Hockey doongi main Rakh ke ']</t>
         </is>
       </c>
     </row>
@@ -34977,7 +34977,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>['This NOT typical sort Bollywood film !', 'A Superb Thriller !', 'A pregnant lady searching lost husband Kafkaesque thriller Calcutta', 'Indian Agatha Hitchcock ...', 'Lethal Pregnant', 'Gripping suspenseful', 'Thrilling search full twists turns', 'Watch gripping narration , execution Vidya , flaws .', 'lacking small climax', 'Kahaani', 'Vidya Balan delivers finest perfromance career', 'A treat film bomb Vidya .', 'Cutting edge thriller', 'A gripping thriller', "The twists really n't work", 'A gripping thriller succeeds many places yet convincing climax .', "Bollywood 's Bourne", '... The Changing Face Indian Cinema .', 'A rare thriller actually deserves praise got', 'Engrossing Story ( Kahaani ) Indeed', 'Intelligently-written Brilliantly-directed Mystery Thriller !', 'A well-written worthy desi espionage thriller !', 'India , proud , plus top 250 ?', 'Worth watch', 'MY REVIEW : Mastery In Mystery']</t>
+          <t>['This NOT typical sort Bollywood film ', 'A Superb Thriller ', 'A pregnant lady searching lost husband Kafkaesque thriller Calcutta', 'Indian Agatha Hitchcock ', 'Lethal Pregnant', 'Gripping suspenseful', 'Thrilling search full twists turns', 'Watch gripping narration  execution Vidya  flaws ', 'lacking small climax', 'Kahaani', 'Vidya Balan delivers finest perfromance career', 'A treat film bomb Vidya ', 'Cutting edge thriller', 'A gripping thriller', 'The twists really nt work', 'A gripping thriller succeeds many places yet convincing climax ', 'Bollywood s Bourne', ' The Changing Face Indian Cinema ', 'A rare thriller actually deserves praise got', 'Engrossing Story  Kahaani  Indeed', 'Intelligentlywritten Brilliantlydirected Mystery Thriller ', 'A wellwritten worthy desi espionage thriller ', 'India  proud  plus top 250 ', 'Worth watch', 'MY REVIEW  Mastery In Mystery']</t>
         </is>
       </c>
     </row>
@@ -35021,7 +35021,7 @@
       </c>
       <c r="J786" t="inlineStr">
         <is>
-          <t>['much better average silent comedy', "Not Charlie Chaplin 's best , still must watch", 'An Overlooked Gem', 'One good laugh another feature feels like short', 'This may make want run away join circus .', 'Not My Favorite Chaplin , But Still Classic', "One Of Chaplin 's Best ; Certainly Underrated", 'A Charlie Chaplin silent classic .', "Chaplin 's deepest film , certainly one blissfully entertaining", 'Chaplain Overcomes Personal Problems &amp; Delivers His Silent-Era Good-Bye With Another `` The Little Tramp `` Gem', 'Brilliantly funny', 'Show Shows', "Chaplin 's genius alive well ... one best ...", "Not Chaplin 's memorable could done much", 'An absolute joy ; essential , must-see comedy classic', 'A Three-Ring , Four-Star Circus', 'Clowning around .', 'Chaplin shows skill', 'message', 'One Greatest Comedy Ever Made Most Legendary Climax Comedy Film Movie History .', 'Minor Chaplin still essential', 'An Under-appreciated Work Of Silent Cinema', 'Another great one !', 'C cinema', 'Perfect Chaplin , Perfect Comedy ...']</t>
+          <t>['much better average silent comedy', 'Not Charlie Chaplin s best  still must watch', 'An Overlooked Gem', 'One good laugh another feature feels like short', 'This may make want run away join circus ', 'Not My Favorite Chaplin  But Still Classic', 'One Of Chaplin s Best  Certainly Underrated', 'A Charlie Chaplin silent classic ', 'Chaplin s deepest film  certainly one blissfully entertaining', 'Chaplain Overcomes Personal Problems  Delivers His SilentEra GoodBye With Another  The Little Tramp  Gem', 'Brilliantly funny', 'Show Shows', 'Chaplin s genius alive well  one best ', 'Not Chaplin s memorable could done much', 'An absolute joy  essential  mustsee comedy classic', 'A ThreeRing  FourStar Circus', 'Clowning around ', 'Chaplin shows skill', 'message', 'One Greatest Comedy Ever Made Most Legendary Climax Comedy Film Movie History ', 'Minor Chaplin still essential', 'An Underappreciated Work Of Silent Cinema', 'Another great one ', 'C cinema', 'Perfect Chaplin  Perfect Comedy ']</t>
         </is>
       </c>
     </row>
@@ -35065,7 +35065,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>['Great entertainment', 'aspects Die Hard Speed', 'A Wednesday Masterpiece !', 'The Politics Cinema ...', 'White Wednesday', 'Surprisingly interesting ...', 'Slow implausible', 'Good concept , sloppy execution', 'About lost', 'Indians know make great thriller .', "The twists good , I 'll give", 'Kudos fresh talent new thoughts Indian Cinema', 'More `` Con Air `` `` Black Friday ``', 'Another thrilling Bollywood masterpiece 2008 .', 'A picture relevant , important entertaining .', 'Well deserved end ill-minded !', 'They Went Through A Lot Of Trouble , But ...', 'taut thriller , though without loopholes', "As per today 's perspective , movie outdated boring", 'A tight thriller ....', 'A movie dated release', 'Smart writing', 'Review - A Wednesday', '`` Thrilling , quick , inspiring everything . ``', 'Subject profound detailing remains clumsy']</t>
+          <t>['Great entertainment', 'aspects Die Hard Speed', 'A Wednesday Masterpiece ', 'The Politics Cinema ', 'White Wednesday', 'Surprisingly interesting ', 'Slow implausible', 'Good concept  sloppy execution', 'About lost', 'Indians know make great thriller ', 'The twists good  I ll give', 'Kudos fresh talent new thoughts Indian Cinema', 'More  Con Air   Black Friday ', 'Another thrilling Bollywood masterpiece 2008 ', 'A picture relevant  important entertaining ', 'Well deserved end illminded ', 'They Went Through A Lot Of Trouble  But ', 'taut thriller  though without loopholes', 'As per today s perspective  movie outdated boring', 'A tight thriller ', 'A movie dated release', 'Smart writing', 'Review  A Wednesday', ' Thrilling  quick  inspiring everything  ', 'Subject profound detailing remains clumsy']</t>
         </is>
       </c>
     </row>
@@ -35109,7 +35109,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>["It 's excellent film Mr. Sahai YELL often talk much ? !", 'Emotional movie ...', 'Great acting , great story .', 'Extremely moving beautiful', 'Pretentious yet impressive ; manipulative yet moving', 'Classic Cinema !', 'Will I watch Black ?', 'Black ( 2005 ) .... masterpiece .......', 'Flawless !', 'Gem Indian cinema', 'No miracle director', 'Awesome artistry', 'Quite disappointing .', 'Very emotional movie', "And supposed Bhansali 's masterpiece ? !", 'The movie forced write review', 'The Left Elbow Index', 'black-a emotional block ... ! !', 'Decent', 'A little hollow , nah ?', "Black remembered 'Classic ' days come", 'Hidden Gem Bollywood 😊😊', 'Black magic ...', 'awesome movie ... one kind !', 'A glimpse realities life']</t>
+          <t>['It s excellent film Mr Sahai YELL often talk much  ', 'Emotional movie ', 'Great acting  great story ', 'Extremely moving beautiful', 'Pretentious yet impressive  manipulative yet moving', 'Classic Cinema ', 'Will I watch Black ', 'Black  2005   masterpiece ', 'Flawless ', 'Gem Indian cinema', 'No miracle director', 'Awesome artistry', 'Quite disappointing ', 'Very emotional movie', 'And supposed Bhansali s masterpiece  ', 'The movie forced write review', 'The Left Elbow Index', 'blacka emotional block   ', 'Decent', 'A little hollow  nah ', 'Black remembered Classic  days come', 'Hidden Gem Bollywood ', 'Black magic ', 'awesome movie  one kind ', 'A glimpse realities life']</t>
         </is>
       </c>
     </row>
@@ -35153,7 +35153,7 @@
       </c>
       <c r="J789" t="inlineStr">
         <is>
-          <t>['thing', "Let 's Play Hera Pheri ?", 'Incredibly silly incredibly fun', "Its humour n't translate", 'Cheesy lame film .', 'Western unbiased review !', 'Good comedy movie ! !', 'Redefining comedy genre Bollywood', 'Best comedy film', 'Nothing new', 'The nostalgia', "I know 's cult classic I n't like", 'Funniest Movie Atter `` Padosan ``', 'Hilarious adventure !', 'One best series !', 'Hats Paresh Rawal ! !', 'One Best Films Ever', 'Very Excellent Movie . Most comedy movie ever made India', 'A memorable Delight', 'Awesome movie', 'Greatest Comedy Bollywood Ever Seen !', 'Worth give 10/10', 'Wonderful classic comedy', 'Cult Comedy Classic ! ! !', 'All time favourite']</t>
+          <t>['thing', 'Let s Play Hera Pheri ', 'Incredibly silly incredibly fun', 'Its humour nt translate', 'Cheesy lame film ', 'Western unbiased review ', 'Good comedy movie  ', 'Redefining comedy genre Bollywood', 'Best comedy film', 'Nothing new', 'The nostalgia', 'I know s cult classic I nt like', 'Funniest Movie Atter  Padosan ', 'Hilarious adventure ', 'One best series ', 'Hats Paresh Rawal  ', 'One Best Films Ever', 'Very Excellent Movie  Most comedy movie ever made India', 'A memorable Delight', 'Awesome movie', 'Greatest Comedy Bollywood Ever Seen ', 'Worth give 1010', 'Wonderful classic comedy', 'Cult Comedy Classic   ', 'All time favourite']</t>
         </is>
       </c>
     </row>
@@ -35197,7 +35197,7 @@
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>['The story boy unwelcome home ... unpleasant well made .', 'unlikely Bollywood', 'Why dads ?', 'One Of The Finest Films 2010 !', 'Universally Sad ...', 'Spread Your Wings And Fly To Your Destiny', 'Abusive father , idealistic son , complex modern India middle class ...', 'A masterclass acting', 'Only family hurt deeply', 'Udaan could Disney film well', 'An insightful must watch take adolescence hidden message .', 'When dreams give ability fly', 'Quality film difficult father-son relationship', "Loved movie 's repeat watch list .", 'Released 30 years late', 'Not original good watch', 'One Best Hindi Movie', 'The masterpiece searching .', 'Take flight freedom ....', "Vikramaditya Motwane 's Best Work", 'Okayish', 'Udaan : A must-watch everyone .', 'Fine Bollywood Drama ....', 'Udaan : Passed With Flying Colors', 'Stopped Me On My Tracks ...']</t>
+          <t>['The story boy unwelcome home  unpleasant well made ', 'unlikely Bollywood', 'Why dads ', 'One Of The Finest Films 2010 ', 'Universally Sad ', 'Spread Your Wings And Fly To Your Destiny', 'Abusive father  idealistic son  complex modern India middle class ', 'A masterclass acting', 'Only family hurt deeply', 'Udaan could Disney film well', 'An insightful must watch take adolescence hidden message ', 'When dreams give ability fly', 'Quality film difficult fatherson relationship', 'Loved movie s repeat watch list ', 'Released 30 years late', 'Not original good watch', 'One Best Hindi Movie', 'The masterpiece searching ', 'Take flight freedom ', 'Vikramaditya Motwane s Best Work', 'Okayish', 'Udaan  A mustwatch everyone ', 'Fine Bollywood Drama ', 'Udaan  Passed With Flying Colors', 'Stopped Me On My Tracks ']</t>
         </is>
       </c>
     </row>
@@ -35241,7 +35241,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>['Not non-Turkish audience', 'High potential good time', 'Thanks God , Turkish movie without complex !', 'Wonderful example contemporary Turkish comedy/drama', 'everything really good ?', 'The best Turkish comedy film far', 'comedy city istanbul .. high-lighting one ! !', 'Relatives', 'Great Movie', 'always ...', "Cem Yilmaz 's First Film", 'Pride Turkish cinema', 'Her sey çok güzel olacak Ekrem Abi !', 'Best Turkish movie ever', 'Magnificent piece acting ... Truly entertaining']</t>
+          <t>['Not nonTurkish audience', 'High potential good time', 'Thanks God  Turkish movie without complex ', 'Wonderful example contemporary Turkish comedydrama', 'everything really good ', 'The best Turkish comedy film far', 'comedy city istanbul  highlighting one  ', 'Relatives', 'Great Movie', 'always ', 'Cem Yilmaz s First Film', 'Pride Turkish cinema', 'Her sey ok gzel olacak Ekrem Abi ', 'Best Turkish movie ever', 'Magnificent piece acting  Truly entertaining']</t>
         </is>
       </c>
     </row>
@@ -35285,7 +35285,7 @@
       </c>
       <c r="J792" t="inlineStr">
         <is>
-          <t>['Stupendous !', 'Fine', 'Good enough', 'Tries To Reflect The Current Social Situation In India . ♦ 54 %', 'Uplifting film important themes .', 'Asli Girl Power ; Kudos Kangana', "A perfect Women 's Day gift girls . So go watch &amp; Kangna .... take bow .", 'Mildly amusing thats .....', 'A lot fun ! And life lesson - 3', "Kangana 's reigning moment", 'All hail QUEEN- It everything going favor - Brilliant direction , Strong performances , foot-tapping music', 'A movie celebrates feminism !', 'Finally , Indian film lives hype', 'This film deserves title QUEEN girls indeed Queens right .', 'A Queen Hearts Indian Cinema', 'Refreshing .....', 'Inspirational , reserved', 'Best female oriented film', 'Queen ( U/A ) Hindi -- -- -- -- -- Rating : ★★★★½ ENTERTAINER', 'This movie makes better human ! ! ! ! ! Kangana rules ! ! !', 'This Queen innocent , naive entertaining throughout', 'Such wonderful holiday', "With The Incredible Leading Lady A Tasteful Direction , 'Queen ' Heart-breaking Yet Heart-warming Piece Cinema !", 'MY REVIEW : Queen Hearts ! !', 'This best Hindi film I seen far year !']</t>
+          <t>['Stupendous ', 'Fine', 'Good enough', 'Tries To Reflect The Current Social Situation In India   54 ', 'Uplifting film important themes ', 'Asli Girl Power  Kudos Kangana', 'A perfect Women s Day gift girls  So go watch  Kangna  take bow ', 'Mildly amusing thats ', 'A lot fun  And life lesson  3', 'Kangana s reigning moment', 'All hail QUEEN It everything going favor  Brilliant direction  Strong performances  foottapping music', 'A movie celebrates feminism ', 'Finally  Indian film lives hype', 'This film deserves title QUEEN girls indeed Queens right ', 'A Queen Hearts Indian Cinema', 'Refreshing ', 'Inspirational  reserved', 'Best female oriented film', 'Queen  UA  Hindi      Rating   ENTERTAINER', 'This movie makes better human      Kangana rules   ', 'This Queen innocent  naive entertaining throughout', 'Such wonderful holiday', 'With The Incredible Leading Lady A Tasteful Direction  Queen  Heartbreaking Yet Heartwarming Piece Cinema ', 'MY REVIEW  Queen Hearts  ', 'This best Hindi film I seen far year ']</t>
         </is>
       </c>
     </row>
@@ -35329,7 +35329,7 @@
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>["One Aamir Khan 's leading man roles became mega-star .", 'Enjoyable Bit Long Somewhat Dated', 'The best cop movie Bollywood , bolstered stellar performances Aamir , Mukesh Rishi n Naseer Shah .', 'Awesome one best cop films', 'Overlong well acted directed police thriller', 'Aamir Khan Best Movie', 'Nine ( contemporary viewers )', 'Aamir steals show . Outstanding', 'Mr Benn NPG', 'Well executed', 'Good Story ..', 'One best cop film bollywood', 'A Very Realistic Movie featuring Most Realistic Performances .', 'Regular routine', "Watching 2022 India 's 75th Independence Day . Still best patriotic movie .", "Aamir 's best performance till date", 'great movie - definitely worth watch', 'A good movie , good action scenes', 'Best Directorial Debut', 'A must watch', 'The best part ...', 'Best movie , Best Performance', 'One best inspiring Indian movie', 'Really good movie , ...', 'Crisp Script , Cracking Movie !']</t>
+          <t>['One Aamir Khan s leading man roles became megastar ', 'Enjoyable Bit Long Somewhat Dated', 'The best cop movie Bollywood  bolstered stellar performances Aamir  Mukesh Rishi n Naseer Shah ', 'Awesome one best cop films', 'Overlong well acted directed police thriller', 'Aamir Khan Best Movie', 'Nine  contemporary viewers ', 'Aamir steals show  Outstanding', 'Mr Benn NPG', 'Well executed', 'Good Story ', 'One best cop film bollywood', 'A Very Realistic Movie featuring Most Realistic Performances ', 'Regular routine', 'Watching 2022 India s 75th Independence Day  Still best patriotic movie ', 'Aamir s best performance till date', 'great movie  definitely worth watch', 'A good movie  good action scenes', 'Best Directorial Debut', 'A must watch', 'The best part ', 'Best movie  Best Performance', 'One best inspiring Indian movie', 'Really good movie  ', 'Crisp Script  Cracking Movie ']</t>
         </is>
       </c>
     </row>
@@ -35373,7 +35373,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>['A rare film dares deal death .', 'Bollywood film', 'Life Riddle - movie fine', 'Well-meaning dull', "It 's feeling life ......", 'Life changing experience ...', 'Chatty melodrama', 'A well-made tearjerker', 'Zindagi Badi Honi Chahiye , Lambi Nahi Babu Moshai', 'Simple , yet charming .', 'MASTERPIECE', "Beyond doubt , Hrishikesh Mukherjee 's best film .", 'Just dialogue film rolls teaches much .', "`` Anand `` may tad bit melodramatic today 's world , 's timeless message still resonates today .", 'A bit non-serious considering deals death', 'anand', 'Must see Bollywood watcher', 'Movie makes want better person ! !', 'Wow !', 'A true BOLLYWOOD', 'Gem', 'Zindagi lambi nahin , badi honi chahiye', 'Emotional depth , powerful performance , memorable dialogues', 'Best Performance By Rajesh Khanna Amitabh', "Anand n't die , Anand never dies"]</t>
+          <t>['A rare film dares deal death ', 'Bollywood film', 'Life Riddle  movie fine', 'Wellmeaning dull', 'It s feeling life ', 'Life changing experience ', 'Chatty melodrama', 'A wellmade tearjerker', 'Zindagi Badi Honi Chahiye  Lambi Nahi Babu Moshai', 'Simple  yet charming ', 'MASTERPIECE', 'Beyond doubt  Hrishikesh Mukherjee s best film ', 'Just dialogue film rolls teaches much ', ' Anand  may tad bit melodramatic today s world  s timeless message still resonates today ', 'A bit nonserious considering deals death', 'anand', 'Must see Bollywood watcher', 'Movie makes want better person  ', 'Wow ', 'A true BOLLYWOOD', 'Gem', 'Zindagi lambi nahin  badi honi chahiye', 'Emotional depth  powerful performance  memorable dialogues', 'Best Performance By Rajesh Khanna Amitabh', 'Anand nt die  Anand never dies']</t>
         </is>
       </c>
     </row>
@@ -35417,7 +35417,7 @@
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>['Super crude nasty .... worth watching ?', 'Reserved male species', 'sometimes hilarious', 'Scorsese DiCaprio Make Another Masterpiece', 'Just Kind Tiresome', 'It really comedy', 'Moronic Movie Despicable Man', 'High energy wonderfully excessive delivers engaging true story , lack morality anywhere limiting factor', 'Greed reigns supreme !', "Excess '80 Wall Street", 'A Three-Hour Bacchanalia Caught Film', 'disappointing', 'drug induced saga', 'Three hours went quickly !', 'Scorsese Showing Signs Senility Hearing Loss', 'Great exposition excesses Wall Street', 'Goodfellas Meets Wall Street Meets Biting Black Comedy', 'Glamour Glitz', 'A good Martin Scorsese film', 'Great', 'THE WOLF OF WALL STREET ( Martin Scorsese , 2013 ) * * *', 'The Wolf Wall Street stands another masterpiece Scorsese DiCaprio absolute must-see', "Excess Is Boring , Especially When It 's Three Hours Long", 'More More More', 'What happens follow basest instinct , every time , years ?']</t>
+          <t>['Super crude nasty  worth watching ', 'Reserved male species', 'sometimes hilarious', 'Scorsese DiCaprio Make Another Masterpiece', 'Just Kind Tiresome', 'It really comedy', 'Moronic Movie Despicable Man', 'High energy wonderfully excessive delivers engaging true story  lack morality anywhere limiting factor', 'Greed reigns supreme ', 'Excess 80 Wall Street', 'A ThreeHour Bacchanalia Caught Film', 'disappointing', 'drug induced saga', 'Three hours went quickly ', 'Scorsese Showing Signs Senility Hearing Loss', 'Great exposition excesses Wall Street', 'Goodfellas Meets Wall Street Meets Biting Black Comedy', 'Glamour Glitz', 'A good Martin Scorsese film', 'Great', 'THE WOLF OF WALL STREET  Martin Scorsese  2013    ', 'The Wolf Wall Street stands another masterpiece Scorsese DiCaprio absolute mustsee', 'Excess Is Boring  Especially When It s Three Hours Long', 'More More More', 'What happens follow basest instinct  every time  years ']</t>
         </is>
       </c>
     </row>
@@ -35461,7 +35461,7 @@
       </c>
       <c r="J796" t="inlineStr">
         <is>
-          <t>['Best trilogy', 'Wow !', 'Three different Spidermen Multiverse gets jumbled .', 'Spider-Man : No Way Home', 'This like family reunion ...', 'This Avengers style grandiose epic feel', 'Good entertainment .', 'Back formula ?', 'Spider-Man : Consolidation', 'A Cluster Of Spiders', 'CRAZY', 'S2 ..', "The moment 've waiting", "Third Time 's Best Charm", 'One best marvel movies ever !', 'Emotionally incoherent chunks good', 'They ! A Spider-Man trilogy finally stuck landing !', 'One strongest MCU movies', 'Spectacle , But Not Spectacular', 'The Finest Outing For The MCU Spider-Man So Far', 'More Notable Nine , Than Sinister Six', 'Superb escapism', 'Spidey Spidey Spidey', 'The Amazing Wider-Span ...', '8']</t>
+          <t>['Best trilogy', 'Wow ', 'Three different Spidermen Multiverse gets jumbled ', 'SpiderMan  No Way Home', 'This like family reunion ', 'This Avengers style grandiose epic feel', 'Good entertainment ', 'Back formula ', 'SpiderMan  Consolidation', 'A Cluster Of Spiders', 'CRAZY', 'S2 ', 'The moment ve waiting', 'Third Time s Best Charm', 'One best marvel movies ever ', 'Emotionally incoherent chunks good', 'They  A SpiderMan trilogy finally stuck landing ', 'One strongest MCU movies', 'Spectacle  But Not Spectacular', 'The Finest Outing For The MCU SpiderMan So Far', 'More Notable Nine  Than Sinister Six', 'Superb escapism', 'Spidey Spidey Spidey', 'The Amazing WiderSpan ', '8']</t>
         </is>
       </c>
     </row>
@@ -35505,7 +35505,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>['Still power shock ...', 'Disturbing Look Disturbed Mind', 'A Masterpiece', 'Gut Wrenching', 'portrait loneliness', 'Here ...... A piece cinematic magic .', 'A wonderfully engaging convincing slide modern madness director actor showing best form', 'A crazed Robert DeNiro undergoes criminal rampage dreams fail', "You talking ' ?", 'Well-Made Film , Though Not Sure It Stands Time For Me', 'An Unforgettable Movie Lead Character', 'Dark look 1970s New York City .', 'We never learn much Travis Bickle , yet talent involved makes compelling figure', 'A Disturbing Powerful Masterpiece', 'Cinematic', 'An incredible snapshot 1970s NYC .', 'YOU talking ? You talking ME ?', 'A New York cab driver slowly goes mad ...', 'Disturbing &amp; Compelling Film Making ... All Contributors Fine Form ... Top Neo-Noir', 'Gritty , enthralling iconic masterpiece', "Unrelenting descent one man 's private hell .", 'Travis Trainwreck ?', '`` Are talking ! ``', 'Hair', 'Taking It All In ...']</t>
+          <t>['Still power shock ', 'Disturbing Look Disturbed Mind', 'A Masterpiece', 'Gut Wrenching', 'portrait loneliness', 'Here  A piece cinematic magic ', 'A wonderfully engaging convincing slide modern madness director actor showing best form', 'A crazed Robert DeNiro undergoes criminal rampage dreams fail', 'You talking  ', 'WellMade Film  Though Not Sure It Stands Time For Me', 'An Unforgettable Movie Lead Character', 'Dark look 1970s New York City ', 'We never learn much Travis Bickle  yet talent involved makes compelling figure', 'A Disturbing Powerful Masterpiece', 'Cinematic', 'An incredible snapshot 1970s NYC ', 'YOU talking  You talking ME ', 'A New York cab driver slowly goes mad ', 'Disturbing  Compelling Film Making  All Contributors Fine Form  Top NeoNoir', 'Gritty  enthralling iconic masterpiece', 'Unrelenting descent one man s private hell ', 'Travis Trainwreck ', ' Are talking  ', 'Hair', 'Taking It All In ']</t>
         </is>
       </c>
     </row>
@@ -35549,7 +35549,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>['Atmospheric clever- really makes think deep', 'Fun sit , little longevity', 'Mind Games', "Did n't like twist", 'OK , Play My Mind !', 'Gripping , edge seat viewing .', 'Insane ( ly good )', 'Good Predictable Psychological Thriller', 'Overlong engaging b-movie psychological thriller', 'Actually worth time effort .', 'dreams vs reality', 'Scorsese DiCaprio Do It Again', 'Artistic curlicues decorate thin , derivative script ...', 'Island high expectations slightly lobotomized results', 'Shutter Island another good collaboration Martin Scorsese Leonardo DiCaprio', 'Wonderful movie', 'Captivating', "It 's way short !", 'Dense Dank Delirious', 'Good , could better', 'Situation Theory', "Do n't get ? You 're rat maze .", 'Scorsese Top His Game', 'Very good need patience', "A thinking man 's psychological thriller gets royal treatment Scorsese company ..."]</t>
+          <t>['Atmospheric clever really makes think deep', 'Fun sit  little longevity', 'Mind Games', 'Did nt like twist', 'OK  Play My Mind ', 'Gripping  edge seat viewing ', 'Insane  ly good ', 'Good Predictable Psychological Thriller', 'Overlong engaging bmovie psychological thriller', 'Actually worth time effort ', 'dreams vs reality', 'Scorsese DiCaprio Do It Again', 'Artistic curlicues decorate thin  derivative script ', 'Island high expectations slightly lobotomized results', 'Shutter Island another good collaboration Martin Scorsese Leonardo DiCaprio', 'Wonderful movie', 'Captivating', 'It s way short ', 'Dense Dank Delirious', 'Good  could better', 'Situation Theory', 'Do nt get  You re rat maze ', 'Scorsese Top His Game', 'Very good need patience', 'A thinking man s psychological thriller gets royal treatment Scorsese company ']</t>
         </is>
       </c>
     </row>
@@ -35593,7 +35593,7 @@
       </c>
       <c r="J799" t="inlineStr">
         <is>
-          <t>["It 's funny best Coen Brothers movies never win Oscars !", 'A masterpiece , albeit flawed one', 'Such great compelling characters', 'Great Till End', 'Hidden loot , running far', 'Old Stories Pretentious Overrated Movie', 'Fate , Chance Unstoppable Evil', 'Not self-enamored self-amused `` Fargo `` ... insensitive condescending', 'The Coen Brothers strike', 'A little hard follow', "What 's money ever lost coin toss ?", "`` You ca n't make stuff , I dare try ``", 'Modern masterpiece', 'The Clean Dirty', "I always figured I got older , God would sorta come inta life somehow . And n't . I n't blame . If I I would opinion .", "The Coen 's Trek Through Antonioni Territory", '* * * * * POSSIBLE SPOILERS AHEAD * * * * * Gripping tale psychopathic killer ending ...', 'I needed read afterwards , conffusing heck', 'The Coming Desolation ...', 'Everything movie brilliant', "You ca n't stop 's coming .", 'A Minor American Classic , Friendo', "You Do n't Have Do This", "This unfortunately ai n't `` Fargo `` .", "Bardem 's Country ."]</t>
+          <t>['It s funny best Coen Brothers movies never win Oscars ', 'A masterpiece  albeit flawed one', 'Such great compelling characters', 'Great Till End', 'Hidden loot  running far', 'Old Stories Pretentious Overrated Movie', 'Fate  Chance Unstoppable Evil', 'Not selfenamored selfamused  Fargo   insensitive condescending', 'The Coen Brothers strike', 'A little hard follow', 'What s money ever lost coin toss ', ' You ca nt make stuff  I dare try ', 'Modern masterpiece', 'The Clean Dirty', 'I always figured I got older  God would sorta come inta life somehow  And nt  I nt blame  If I I would opinion ', 'The Coen s Trek Through Antonioni Territory', '     POSSIBLE SPOILERS AHEAD      Gripping tale psychopathic killer ending ', 'I needed read afterwards  conffusing heck', 'The Coming Desolation ', 'Everything movie brilliant', 'You ca nt stop s coming ', 'A Minor American Classic  Friendo', 'You Do nt Have Do This', 'This unfortunately ai nt  Fargo  ', 'Bardem s Country ']</t>
         </is>
       </c>
     </row>
@@ -35637,7 +35637,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>["With bazillion reviews , I 'll keep short .", 'Dazzling spectacle , dinosaurs scene-stealers', 'Classic reason', 'Some things dead , stay dead', 'Great filmmaking', "Still Some Best Special Effects You 're Going See", 'One Those Moments', 'revolution', 'Life finds way .', "That n't impress much", 'Big dumb fun relies special effects cover gaps ( Jaws claws )', 'Truly classic ...', 'Interesting premise DNA prehistoric dinosaur taken ancient insect wonderfully developed', 'I went helicopter ride area filmed Hawaii .', 'Stomping , chomping dinosaur action par excellence .', 'Amazing Iconic', 'Dino-Mite ! !', 'More bloodlust thrills , special effects could improved upon ...', 'One best Spielberg pictures ever', 'Amazing !', "Do n't Feed Tyrannosaurus rex !", 'Everything Hollywood thrill ride ought .', 'A milestone time', "But Pirates Caribbean breaks , Pirates n't eat tourists .", 'Contains One Very Thoughtful Scene']</t>
+          <t>['With bazillion reviews  I ll keep short ', 'Dazzling spectacle  dinosaurs scenestealers', 'Classic reason', 'Some things dead  stay dead', 'Great filmmaking', 'Still Some Best Special Effects You re Going See', 'One Those Moments', 'revolution', 'Life finds way ', 'That nt impress much', 'Big dumb fun relies special effects cover gaps  Jaws claws ', 'Truly classic ', 'Interesting premise DNA prehistoric dinosaur taken ancient insect wonderfully developed', 'I went helicopter ride area filmed Hawaii ', 'Stomping  chomping dinosaur action par excellence ', 'Amazing Iconic', 'DinoMite  ', 'More bloodlust thrills  special effects could improved upon ', 'One best Spielberg pictures ever', 'Amazing ', 'Do nt Feed Tyrannosaurus rex ', 'Everything Hollywood thrill ride ought ', 'A milestone time', 'But Pirates Caribbean breaks  Pirates nt eat tourists ', 'Contains One Very Thoughtful Scene']</t>
         </is>
       </c>
     </row>
@@ -35681,7 +35681,7 @@
       </c>
       <c r="J801" t="inlineStr">
         <is>
-          <t>['Not best Die Hard franchise one best movies action genre', "It ca n't bettered", 'New hero born', 'Wham Bam Action Classic', 'Definitely classic action movie ...', 'First entry Bruce Willis/John McTiernan faces ruthless terrorist gang high-voltage action thriller', 'total kick-ass movie', 'Still best series .', 'Greatest Action Film All Time ?', 'Most brilliant action thriller times .', 'Pure Schmaltz , But Very Entertaining', 'Whoa ! Where high ratings come ? ?', 'For god sakes , reason see action', 'Yippie-ki-yay MFer', 'The way action movie done .', "Gosh , Bruce Willis really could act , could n't ? ..", 'Blockbuster', 'Good , action movie', 'One seized tower block , one sweaty vest one big set action cojones .', 'How An Action Movie Should Be Made', 'One best action films time', 'Second best `` Die Hard `` movie behind `` Die Hard 2 ``', 'A Remarkable Action Film', 'Iconic action classic', 'This gem action genre gold']</t>
+          <t>['Not best Die Hard franchise one best movies action genre', 'It ca nt bettered', 'New hero born', 'Wham Bam Action Classic', 'Definitely classic action movie ', 'First entry Bruce WillisJohn McTiernan faces ruthless terrorist gang highvoltage action thriller', 'total kickass movie', 'Still best series ', 'Greatest Action Film All Time ', 'Most brilliant action thriller times ', 'Pure Schmaltz  But Very Entertaining', 'Whoa  Where high ratings come  ', 'For god sakes  reason see action', 'Yippiekiyay MFer', 'The way action movie done ', 'Gosh  Bruce Willis really could act  could nt  ', 'Blockbuster', 'Good  action movie', 'One seized tower block  one sweaty vest one big set action cojones ', 'How An Action Movie Should Be Made', 'One best action films time', 'Second best  Die Hard  movie behind  Die Hard 2 ', 'A Remarkable Action Film', 'Iconic action classic', 'This gem action genre gold']</t>
         </is>
       </c>
     </row>
@@ -35725,7 +35725,7 @@
       </c>
       <c r="J802" t="inlineStr">
         <is>
-          <t>['Reasonably accurate showing hell war .', '`` He travels fastest travels alone ``', 'exceptionally filmed', 'gem', '1917', 'A truly outstanding movie .', 'War - good ?', 'A Good War Movie', 'Engaging , technical delivery carries weakness narrative', 'Good , good ...', 'You call 3,001st review', 'A technical triumph .', 'WW1 tales grandfather .', 'Worth hype', "In `` 's alright `` trenches", 'Touching', 'OVERRATED ... STILL A REMARKABLE TECHNICAL ACHIEVEMENT ... BUT FILM RINGS HOLLOW', 'Okay underwhelming', 'What Spectacular Camera Work', 'Explosive', "Solid war movie 's step masterpieces genre", 'Technically Accomplished , Emotionally Weak', 'hold tight', 'Immensely memorable film conflict never forget', 'Not bad greatest war movie either .']</t>
+          <t>['Reasonably accurate showing hell war ', ' He travels fastest travels alone ', 'exceptionally filmed', 'gem', '1917', 'A truly outstanding movie ', 'War  good ', 'A Good War Movie', 'Engaging  technical delivery carries weakness narrative', 'Good  good ', 'You call 3001st review', 'A technical triumph ', 'WW1 tales grandfather ', 'Worth hype', 'In  s alright  trenches', 'Touching', 'OVERRATED  STILL A REMARKABLE TECHNICAL ACHIEVEMENT  BUT FILM RINGS HOLLOW', 'Okay underwhelming', 'What Spectacular Camera Work', 'Explosive', 'Solid war movie s step masterpieces genre', 'Technically Accomplished  Emotionally Weak', 'hold tight', 'Immensely memorable film conflict never forget', 'Not bad greatest war movie either ']</t>
         </is>
       </c>
     </row>
@@ -35769,7 +35769,7 @@
       </c>
       <c r="J803" t="inlineStr">
         <is>
-          <t>['One best last decade', 'Powerful anti-success story', 'Excellent , gutsy filmmaking', 'beautiful ugly', 'Original Flawed Work', 'Milkshake ?', 'amazing', "It 's DDL time", 'Daniel Day-Lewis great job playing maniacal , shall I say , oily character', 'Unrelentingly Bleak And Brutally Biased', "The film gushes much intense stateliness viewers hail masterpiece 's half-finished ...", 'big movie great performance Daniel Day-Lewis', 'Who milkshake ?', 'Not legendary people claim', 'Industrialism Filthy Business', 'Good , great', 'Oily', 'He drinks , viewers also digest picture .', 'Perhaps Too Art House For Its Own Good', 'A towering performance Daniel Day-Lewis corrupt oil man ...', "Daniel Day Lewis 's performance makes film watchable", 'Funny stuff', 'Final section film damages wise great film', 'I ... drink ... ... milkshake ! I drink !', 'The Only American Masterpiece 2007']</t>
+          <t>['One best last decade', 'Powerful antisuccess story', 'Excellent  gutsy filmmaking', 'beautiful ugly', 'Original Flawed Work', 'Milkshake ', 'amazing', 'It s DDL time', 'Daniel DayLewis great job playing maniacal  shall I say  oily character', 'Unrelentingly Bleak And Brutally Biased', 'The film gushes much intense stateliness viewers hail masterpiece s halffinished ', 'big movie great performance Daniel DayLewis', 'Who milkshake ', 'Not legendary people claim', 'Industrialism Filthy Business', 'Good  great', 'Oily', 'He drinks  viewers also digest picture ', 'Perhaps Too Art House For Its Own Good', 'A towering performance Daniel DayLewis corrupt oil man ', 'Daniel Day Lewis s performance makes film watchable', 'Funny stuff', 'Final section film damages wise great film', 'I  drink   milkshake  I drink ', 'The Only American Masterpiece 2007']</t>
         </is>
       </c>
     </row>
@@ -35813,7 +35813,7 @@
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>['A serious contender best remake ever', 'Parasite another planet', 'Must-watch horror fans', 'It Never Lets Up', 'Who', "Let 's see happens", 'When Remake Masterpiece', "Lacks creepiness 1951 version nevertheless 's fantastic visual ride", 'A Lovecraftian-inspired classic horror movie ...', 'Nice estimable horror/thriller competently directed John Carpenter provides punchy suspenseful Sci-Fi .', 'Carpenter thing .', "John Carpenter 's Best Film , At Least Critically", "If You Liked 'Alien , ' You 'll Like This", 'Repugnant remake boast macabre showmanship ...', "professionally astute horror film 80 's , entertaining", "John Carpenter 's The Thing entertainingly gore-drenched horror flick", "`` Why n't wait little ... see happens . ``", "Not One Carpenter 's Best", 'A horror classic', 'Flips scenario round original great effect .', 'A Thing Nightmares', "Right `` Halloween `` -- one Carpenter 's best !", 'Wow', 'The Enemy Is Us ...', '`` Maybe war Norway ? ``']</t>
+          <t>['A serious contender best remake ever', 'Parasite another planet', 'Mustwatch horror fans', 'It Never Lets Up', 'Who', 'Let s see happens', 'When Remake Masterpiece', 'Lacks creepiness 1951 version nevertheless s fantastic visual ride', 'A Lovecraftianinspired classic horror movie ', 'Nice estimable horrorthriller competently directed John Carpenter provides punchy suspenseful SciFi ', 'Carpenter thing ', 'John Carpenter s Best Film  At Least Critically', 'If You Liked Alien   You ll Like This', 'Repugnant remake boast macabre showmanship ', 'professionally astute horror film 80 s  entertaining', 'John Carpenter s The Thing entertainingly goredrenched horror flick', ' Why nt wait little  see happens  ', 'Not One Carpenter s Best', 'A horror classic', 'Flips scenario round original great effect ', 'A Thing Nightmares', 'Right  Halloween   one Carpenter s best ', 'Wow', 'The Enemy Is Us ', ' Maybe war Norway  ']</t>
         </is>
       </c>
     </row>
@@ -35857,7 +35857,7 @@
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>["I n't think would mistaken Disney flick !", 'Nice spin exploitation genre', 'Someone must', 'strange masterpiece', '0,5', 'A Tale Betrayal Revenge With Lots Blood', 'Very effective style Volume II better bring something way substance', 'Ultraviolent film Quentin Tarantino lots action amusement', 'Do doubt ?', 'File Under `` Things That Quentin Tarantino Knows How To Do ``', 'Quentin Tarantino best , peak .', 'This Is Literally Too Much ; Prefer Vol . 2', 'The Tarantino Experience : flash crass sass', 'apparently trivial story transcended stylish treatment', "Arguably one potent treatises 'genre ' film-making 'll ever see", 'This definitely worth 6 years waiting !', 'Kill William', 'Escapism highest order .', 'Revenge boundless relentless .', 'Trashy Vio-Porn', 'Brilliant movie ( )', 'Not hush hush much QT .', 'Revenge sweet', 'Just astounding', 'Fight']</t>
+          <t>['I nt think would mistaken Disney flick ', 'Nice spin exploitation genre', 'Someone must', 'strange masterpiece', '05', 'A Tale Betrayal Revenge With Lots Blood', 'Very effective style Volume II better bring something way substance', 'Ultraviolent film Quentin Tarantino lots action amusement', 'Do doubt ', 'File Under  Things That Quentin Tarantino Knows How To Do ', 'Quentin Tarantino best  peak ', 'This Is Literally Too Much  Prefer Vol  2', 'The Tarantino Experience  flash crass sass', 'apparently trivial story transcended stylish treatment', 'Arguably one potent treatises genre  filmmaking ll ever see', 'This definitely worth 6 years waiting ', 'Kill William', 'Escapism highest order ', 'Revenge boundless relentless ', 'Trashy VioPorn', 'Brilliant movie  ', 'Not hush hush much QT ', 'Revenge sweet', 'Just astounding', 'Fight']</t>
         </is>
       </c>
     </row>
@@ -35901,7 +35901,7 @@
       </c>
       <c r="J806" t="inlineStr">
         <is>
-          <t>['A good film think hate Jim Carey .', "Peter Weir , Jim Carrey , Laura Linney , wow n't I treat ?", 'original , funny , touching , compelling', 'Black Comedy', 'truth', 'Reality TV', 'would like corporation someone', 'Very Philosophic', 'A truly novel concept , well-executed , fine Jim Carrey performance , I rate `` 8 `` 10 .', 'A classic ? No .', 'An unattractive idea , given unfocused treatment', 'Deceptive', 'A true man shows', 'One best films year', 'Prophetic', '`` Televisionary ``', 'Not That Original Or Groundbreaking', 'Truman Show Truman Movie Worked', 'I loved upon first viewing strictly book', 'Liar liar', 'A Presage Reality T.V .', 'Meaningful', 'The Truman Show ... probable could happening ! ! !', 'Alright , hard believe .', 'All Of Life A TV Show ?']</t>
+          <t>['A good film think hate Jim Carey ', 'Peter Weir  Jim Carrey  Laura Linney  wow nt I treat ', 'original  funny  touching  compelling', 'Black Comedy', 'truth', 'Reality TV', 'would like corporation someone', 'Very Philosophic', 'A truly novel concept  wellexecuted  fine Jim Carrey performance  I rate  8  10 ', 'A classic  No ', 'An unattractive idea  given unfocused treatment', 'Deceptive', 'A true man shows', 'One best films year', 'Prophetic', ' Televisionary ', 'Not That Original Or Groundbreaking', 'Truman Show Truman Movie Worked', 'I loved upon first viewing strictly book', 'Liar liar', 'A Presage Reality TV ', 'Meaningful', 'The Truman Show  probable could happening   ', 'Alright  hard believe ', 'All Of Life A TV Show ']</t>
         </is>
       </c>
     </row>
@@ -35945,7 +35945,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>["Among best stuff 'll see DC Comics .", "Looks fantastic , overall I n't care", 'unreal Orwellian world', 'see', 'Anonymous wants', 'Behind mask', 'Ideas Are Bulletproof One Man Can Make Difference', 'A surprisingly effective social satire within Hollywood film ? It perfect enjoyable', 'Intelligent film political criticism , thrills , action suspense', "five 'll get ten", 'V. Good !', 'One Those Rare Films Really Earn 10', '`` A revolution without dancing revolution worth . ``', 'Eloquent', 'Winston Churchill Flashes No V Sign Here `` V For Vendettal * * 1/2', 'Exceeds expectations', 'Ahead time , set wrong country IMHO', 'V Vigilante Stylish Dark Film Political Prognosis', 'Eye Itself', 'V Vendetta fitting title ...', 'V FOR VENDETTA ( James McTeigue , 2005 ) * * *', 'This underrated gem one greatest comic book movies ever made', 'What done monstrous .', 'Should Send Far-Right Conservatives Running Exit ( Hee Hee )', "Street Fightin ' Man"]</t>
+          <t>['Among best stuff ll see DC Comics ', 'Looks fantastic  overall I nt care', 'unreal Orwellian world', 'see', 'Anonymous wants', 'Behind mask', 'Ideas Are Bulletproof One Man Can Make Difference', 'A surprisingly effective social satire within Hollywood film  It perfect enjoyable', 'Intelligent film political criticism  thrills  action suspense', 'five ll get ten', 'V Good ', 'One Those Rare Films Really Earn 10', ' A revolution without dancing revolution worth  ', 'Eloquent', 'Winston Churchill Flashes No V Sign Here  V For Vendettal   12', 'Exceeds expectations', 'Ahead time  set wrong country IMHO', 'V Vigilante Stylish Dark Film Political Prognosis', 'Eye Itself', 'V Vendetta fitting title ', 'V FOR VENDETTA  James McTeigue  2005    ', 'This underrated gem one greatest comic book movies ever made', 'What done monstrous ', 'Should Send FarRight Conservatives Running Exit  Hee Hee ', 'Street Fightin  Man']</t>
         </is>
       </c>
     </row>
@@ -35989,7 +35989,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>["Good , 's film folks ....", "Guy Ritchie 's style full display", "Do n't Take It Serious !", 'Snatch', "Surely someone understand Brad Pitt 's accent ...", 'Another stylish gangster comedy Guy Richie', 'A Win Everyone', 'Subtitles A Must To Really Enjoy This', 'In 1983 , Sonic Youth said : `` confusion sex `` . Well 2000 , `` confusion snatch `` !', 'Still clone , good one', 'Hackneyed ... ( see )', 'In quiet words Virgin Mary ... come ?', 'Diamonds Are Composed Of Carbon .....', 'Entertains From Start Finish', 'Non-stop', 'Yes', 'This film masterpiece absolutely must see', 'Who took jam outta doughnut ?', 'Stealing On Off Screen', 'Awesome movie .', 'Humorous stylish British gangster flick', "If 's broke , n't fix .", 'Pulp Fiction mix Good Fellas', 'Video Clip style ! ! !', 'This comes mind I think Guy Ritchie Matthew Vaughn']</t>
+          <t>['Good  s film folks ', 'Guy Ritchie s style full display', 'Do nt Take It Serious ', 'Snatch', 'Surely someone understand Brad Pitt s accent ', 'Another stylish gangster comedy Guy Richie', 'A Win Everyone', 'Subtitles A Must To Really Enjoy This', 'In 1983  Sonic Youth said   confusion sex   Well 2000   confusion snatch  ', 'Still clone  good one', 'Hackneyed   see ', 'In quiet words Virgin Mary  come ', 'Diamonds Are Composed Of Carbon ', 'Entertains From Start Finish', 'Nonstop', 'Yes', 'This film masterpiece absolutely must see', 'Who took jam outta doughnut ', 'Stealing On Off Screen', 'Awesome movie ', 'Humorous stylish British gangster flick', 'If s broke  nt fix ', 'Pulp Fiction mix Good Fellas', 'Video Clip style   ', 'This comes mind I think Guy Ritchie Matthew Vaughn']</t>
         </is>
       </c>
     </row>
@@ -36033,7 +36033,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>['A re-awakening journey', "heart 's right place", 'I Was Captivated', 'great', 'Two Unlikeable People', 'All roads head south', 'A captivating watch , sensational acting .', 'Worlds/books collide', 'America Early 60´s', 'A surprising sensitive film', 'Inspired real 1962 musical tour South .', 'delightful', 'Just okay said done', 'Green Book one best films last year !', 'A heartwarming journey', "Not say n't decent movie ...", "Great movie : may seem predictable destination 's journey matters", 'Piano', 'This one films never want end', 'Patronizing', 'Crowd pleaser bite', 'Great acting , solid story .', 'A white streetwise bouncer articulate black pianist tour Deep South 1962', "A good look America 's prejudices society fostered segregation 20th century", 'A good story amidst segregation mid-20th century America']</t>
+          <t>['A reawakening journey', 'heart s right place', 'I Was Captivated', 'great', 'Two Unlikeable People', 'All roads head south', 'A captivating watch  sensational acting ', 'Worldsbooks collide', 'America Early 60s', 'A surprising sensitive film', 'Inspired real 1962 musical tour South ', 'delightful', 'Just okay said done', 'Green Book one best films last year ', 'A heartwarming journey', 'Not say nt decent movie ', 'Great movie  may seem predictable destination s journey matters', 'Piano', 'This one films never want end', 'Patronizing', 'Crowd pleaser bite', 'Great acting  solid story ', 'A white streetwise bouncer articulate black pianist tour Deep South 1962', 'A good look America s prejudices society fostered segregation 20th century', 'A good story amidst segregation mid20th century America']</t>
         </is>
       </c>
     </row>
@@ -36077,7 +36077,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>['A vast improvement Batman films 1990s', 'A Batman stylish , dark gritty- simply brilliant !', 'A reboot works', "Good start Nolan 's trilogy", 'Very Good', 'By far intense', 'Batman Begins', 'A first class movie .', 'Darker rebirth', 'Excellent Batman', "A great summer blockbuster \x96 dark , interesting , exciting antidote Schumacher 's childish vision character", 'Better second time around ...', 'Thrilling rousing first entry stunning trilogy Christopher Nolan', '`` We fall learn pick . ``', 'Batman Begins , fun ends .', 'Batman Begins Again - This Time With Vengeance', "Outstanding Batman 'Prequel '", 'The defining Batman movie far . Superb !', 'Batman Begins', 'Dark , brooding , expensive , excellent', 'ends brilliant results', "spectacular re-invention series , 2nd ( perhaps good ) Burton 's 89 vision", "Very good ... something 's missing .", "I 'm Batman", 'To Me , Batman Ends * * 1/2']</t>
+          <t>['A vast improvement Batman films 1990s', 'A Batman stylish  dark gritty simply brilliant ', 'A reboot works', 'Good start Nolan s trilogy', 'Very Good', 'By far intense', 'Batman Begins', 'A first class movie ', 'Darker rebirth', 'Excellent Batman', 'A great summer blockbuster  dark  interesting  exciting antidote Schumacher s childish vision character', 'Better second time around ', 'Thrilling rousing first entry stunning trilogy Christopher Nolan', ' We fall learn pick  ', 'Batman Begins  fun ends ', 'Batman Begins Again  This Time With Vengeance', 'Outstanding Batman Prequel ', 'The defining Batman movie far  Superb ', 'Batman Begins', 'Dark  brooding  expensive  excellent', 'ends brilliant results', 'spectacular reinvention series  2nd  perhaps good  Burton s 89 vision', 'Very good  something s missing ', 'I m Batman', 'To Me  Batman Ends   12']</t>
         </is>
       </c>
     </row>
@@ -36121,7 +36121,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>['Great provided huge Diana Wynne Jones fan watch film one !', "Howl 's Moving Castle imaginative delightful Miyazaki film", 'Another winner Studio Ghibli', 'interesting world', 'Has areas could better still fantastic little film great animation , characters plot', 'I Actually Rather Liked This', 'loaded enough imagination sweet vibes three movies !', 'Devoid substance kids like', 'Hayao Miyazaki casts spell us', "HOWL 'S MOVING CASTLE ( Hayao Miyazaki , 2004 ) * * *", 'I hate gunfire . No manners', 'Fine animated movie , though perfect', "Howl 's Moving Castle", 'Endearingly strange .', 'Great anime , imaginative', 'Original Thoughtful', 'plain magical', 'Thoroughly enjoyable !', 'Takes sharp left turn Crazy Town', '`` A Heart Is A Heavy Burden ``', 'glorious visuals', 'Big disappointment', 'Imaginative', 'Sweet Charming Fantasy Adventure', 'Adventures With A Moving Castle']</t>
+          <t>['Great provided huge Diana Wynne Jones fan watch film one ', 'Howl s Moving Castle imaginative delightful Miyazaki film', 'Another winner Studio Ghibli', 'interesting world', 'Has areas could better still fantastic little film great animation  characters plot', 'I Actually Rather Liked This', 'loaded enough imagination sweet vibes three movies ', 'Devoid substance kids like', 'Hayao Miyazaki casts spell us', 'HOWL S MOVING CASTLE  Hayao Miyazaki  2004    ', 'I hate gunfire  No manners', 'Fine animated movie  though perfect', 'Howl s Moving Castle', 'Endearingly strange ', 'Great anime  imaginative', 'Original Thoughtful', 'plain magical', 'Thoroughly enjoyable ', 'Takes sharp left turn Crazy Town', ' A Heart Is A Heavy Burden ', 'glorious visuals', 'Big disappointment', 'Imaginative', 'Sweet Charming Fantasy Adventure', 'Adventures With A Moving Castle']</t>
         </is>
       </c>
     </row>
@@ -36165,7 +36165,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>['I enjoyed `` Goodfellas `` .', 'Hugely underrated compelling film', 'How Others See Us', 'Martin Scorsese classic', 'Powerhouse Entertainment Its Highest Level', 'Casino Fellas', 'Scorsese tries Goodfellas 2 forgets give substance style', 'movie reminds us sometimes , redeeming characters', 'A Modern Gangster Film Brought Epic Proportions', 'Ossessione', 'Brutally Profane', 'Mobsters Vegas , filtered ice-cold sensibilities Martin Scorsese ...', "`` Hey , better , uh , , y'know I mean ? ``", 'Marital Dysfunction Aside', 'Another Movie Mafia Machine', 'Cool', 'American Cinematic Gold', "Maybe It 's Warmed Over `` GoodFellas , `` But Left Overs Can Be Good Too", 'Moments greatness overall flawed gangster epic still great watch though .', "Odds great 'll enjoy", '`` GOODFELLAS `` Part Deux', 'The I see I like', 'would lesser film without Stone .', "Bloated , 's good mob stuff", 'Not perfect Goodfellas , still good']</t>
+          <t>['I enjoyed  Goodfellas  ', 'Hugely underrated compelling film', 'How Others See Us', 'Martin Scorsese classic', 'Powerhouse Entertainment Its Highest Level', 'Casino Fellas', 'Scorsese tries Goodfellas 2 forgets give substance style', 'movie reminds us sometimes  redeeming characters', 'A Modern Gangster Film Brought Epic Proportions', 'Ossessione', 'Brutally Profane', 'Mobsters Vegas  filtered icecold sensibilities Martin Scorsese ', ' Hey  better  uh   yknow I mean  ', 'Marital Dysfunction Aside', 'Another Movie Mafia Machine', 'Cool', 'American Cinematic Gold', 'Maybe It s Warmed Over  GoodFellas   But Left Overs Can Be Good Too', 'Moments greatness overall flawed gangster epic still great watch though ', 'Odds great ll enjoy', ' GOODFELLAS  Part Deux', 'The I see I like', 'would lesser film without Stone ', 'Bloated  s good mob stuff', 'Not perfect Goodfellas  still good']</t>
         </is>
       </c>
     </row>
@@ -36209,7 +36209,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>['Excellent ... history teacher could hoped bit ...', 'One time great war movies', 'Sets standard', 'One All-Time Greats', "It 's Great Escapist !", 'The Great Movie', 'Awesome warlike movie memorable images outstanding acting well-known faces', "Do n't escape watching .", "I 'm sure 'll dig .", 'Takes Stalag 17 Improves Upon It', 'Film Has Slowed With Age , But Still Merits Praise', 'John Sturges Takes You Prisoner', 'Superficial And Glossy ... Popular Pablum', 'Not great , simply magnificent like !', 'Overrated But Entertaining American Movie', 'Fine Tribute', 'Classic escape POWs ... excellent work all-male cast ...', 'One best pictures 1963', 'This movie great characters intricate storyline', 'Oh God , found Tom .', 'A Simply Terrific Movie', 'Okay watch', 'Behind Wire', 'Grand Entertainment .', 'Great Steve McQueen Film']</t>
+          <t>['Excellent  history teacher could hoped bit ', 'One time great war movies', 'Sets standard', 'One AllTime Greats', 'It s Great Escapist ', 'The Great Movie', 'Awesome warlike movie memorable images outstanding acting wellknown faces', 'Do nt escape watching ', 'I m sure ll dig ', 'Takes Stalag 17 Improves Upon It', 'Film Has Slowed With Age  But Still Merits Praise', 'John Sturges Takes You Prisoner', 'Superficial And Glossy  Popular Pablum', 'Not great  simply magnificent like ', 'Overrated But Entertaining American Movie', 'Fine Tribute', 'Classic escape POWs  excellent work allmale cast ', 'One best pictures 1963', 'This movie great characters intricate storyline', 'Oh God  found Tom ', 'A Simply Terrific Movie', 'Okay watch', 'Behind Wire', 'Grand Entertainment ', 'Great Steve McQueen Film']</t>
         </is>
       </c>
     </row>
@@ -36253,7 +36253,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>['Brilliantly crafted well worth seeing .... unless idiot told THE secret !', "Shyamalan 's best film film I consider masterpiece", 'one greatest reveals time', "M. Night Shyalaman 's standout movie .", 'Clever ghost story', 'Stunning drama horrifying hair raising images wonderfully directed Shyamalan', 'thriller real sense word', "M. Night 's masterpiece .", 'Still Very Good Even When You Know The Ending', "A well-crafted suspense movie makes think 'hereafter ' .", 'Polished , efficient , derivative , inert ...', 'mesmerizing', 'I see dead people ....', 'Well done thriller', 'Haley Joel Osment sees Dead People M. Night Shyamalan', 'Engaging overrated', "Things n't always appear .", "M Night Shyamalan 's sleight-of-hand masterpiece", 'The Sixth Sense phenomenon .', 'I Knew The Ending Before I Saw The Film .....', 'Puzzling , absorbing , good twist final touch ...', 'One best Twilight Zone inspired movie clones', 'Three Eyes Wide Open ...', 'Iconic scary flick', 'It smart well written film must see']</t>
+          <t>['Brilliantly crafted well worth seeing  unless idiot told THE secret ', 'Shyamalan s best film film I consider masterpiece', 'one greatest reveals time', 'M Night Shyalaman s standout movie ', 'Clever ghost story', 'Stunning drama horrifying hair raising images wonderfully directed Shyamalan', 'thriller real sense word', 'M Night s masterpiece ', 'Still Very Good Even When You Know The Ending', 'A wellcrafted suspense movie makes think hereafter  ', 'Polished  efficient  derivative  inert ', 'mesmerizing', 'I see dead people ', 'Well done thriller', 'Haley Joel Osment sees Dead People M Night Shyamalan', 'Engaging overrated', 'Things nt always appear ', 'M Night Shyamalan s sleightofhand masterpiece', 'The Sixth Sense phenomenon ', 'I Knew The Ending Before I Saw The Film ', 'Puzzling  absorbing  good twist final touch ', 'One best Twilight Zone inspired movie clones', 'Three Eyes Wide Open ', 'Iconic scary flick', 'It smart well written film must see']</t>
         </is>
       </c>
     </row>
@@ -36297,7 +36297,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>['Admirable extremely well made , missing mark `` great `` film', 'Russell Crowe proves acting versatility', 'A great character study .', 'Number crunching', 'Not perfect typically polished professional story well told', 'beautiful movie', 'Russell Crowe Can Act ?', 'Crowe Does It Again !', 'Wonderful classy film , must-see DVD , book `` 10 `` .', 'A Beautiful Mind', 'Though designed prestigious , beauty manage come', 'A Splendid job turned Crowe Howard', 'A Beautiful Mind-Fine With Inaccuracies * * * 1/2', 'Schizophrenic Bio-Pic ... Analysis Splits Into 2 Divided &amp; Distinctive Approaches', 'Powerful , emotional drama', 'John Nash , schizophrenic genius .', 'Beautifully done', "It 's beautiful achievement ...", 'Cool', 'Ron Howard Movies Are Sooooooo Uninteresting', "Ron Howard 's best direction far", 'Extraordinary', 'BRILLIANT DISGUISE', "I Ca n't Believe Crowe win best actor", 'A Princeton State Mind !']</t>
+          <t>['Admirable extremely well made  missing mark  great  film', 'Russell Crowe proves acting versatility', 'A great character study ', 'Number crunching', 'Not perfect typically polished professional story well told', 'beautiful movie', 'Russell Crowe Can Act ', 'Crowe Does It Again ', 'Wonderful classy film  mustsee DVD  book  10  ', 'A Beautiful Mind', 'Though designed prestigious  beauty manage come', 'A Splendid job turned Crowe Howard', 'A Beautiful MindFine With Inaccuracies    12', 'Schizophrenic BioPic  Analysis Splits Into 2 Divided  Distinctive Approaches', 'Powerful  emotional drama', 'John Nash  schizophrenic genius ', 'Beautifully done', 'It s beautiful achievement ', 'Cool', 'Ron Howard Movies Are Sooooooo Uninteresting', 'Ron Howard s best direction far', 'Extraordinary', 'BRILLIANT DISGUISE', 'I Ca nt Believe Crowe win best actor', 'A Princeton State Mind ']</t>
         </is>
       </c>
     </row>
@@ -36341,7 +36341,7 @@
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>['Quite possibly best foreign language film I ever seen !', 'Guillermo del Toro visionary', 'Great Fantasy', 'Stop Abuse', 'fascinating', "Pan 's Labyrinth", 'Dark , Sad Cruel Fairytale Times War Repression', 'Not strong enough important ways make classic everyone hailing certainly interesting engaging enough one stronger films 2006', 'Marvelous movie bookish young stepdaughter sadistic army officer escapes creepy captivating fantasy world finds strange Pan', "'d", 'The best film labyrinth since Labyrinth .', 'A Historical Fantasy-Drama With Dark Wonderland Elements', 'Spanish Fantasy fairy tale ....', 'Beautiful production , underwhelming story ...', "One best fairy tales adults I 've ever seen", "One Kind Fantasy film . Definitely Del Toro 's greatest film !", 'Amazing', 'Thuggish', "Never Escapes From The Fact It 's Two Entirely Separate Stories", "Maybe I Did n't Watch The Same Movie As Everyone Else", "This film always underrated masterpiece 's greatest films time", 'One More Violent Christ Fable', 'Fairies , A Faun , A Frog Fussy Dandy', "Perhaps Guillermo del Toro 's best definitely ambitious rewarding movie !", "Not , I 'm going deny excellent"]</t>
+          <t>['Quite possibly best foreign language film I ever seen ', 'Guillermo del Toro visionary', 'Great Fantasy', 'Stop Abuse', 'fascinating', 'Pan s Labyrinth', 'Dark  Sad Cruel Fairytale Times War Repression', 'Not strong enough important ways make classic everyone hailing certainly interesting engaging enough one stronger films 2006', 'Marvelous movie bookish young stepdaughter sadistic army officer escapes creepy captivating fantasy world finds strange Pan', 'd', 'The best film labyrinth since Labyrinth ', 'A Historical FantasyDrama With Dark Wonderland Elements', 'Spanish Fantasy fairy tale ', 'Beautiful production  underwhelming story ', 'One best fairy tales adults I ve ever seen', 'One Kind Fantasy film  Definitely Del Toro s greatest film ', 'Amazing', 'Thuggish', 'Never Escapes From The Fact It s Two Entirely Separate Stories', 'Maybe I Did nt Watch The Same Movie As Everyone Else', 'This film always underrated masterpiece s greatest films time', 'One More Violent Christ Fable', 'Fairies  A Faun  A Frog Fussy Dandy', 'Perhaps Guillermo del Toro s best definitely ambitious rewarding movie ', 'Not  I m going deny excellent']</t>
         </is>
       </c>
     </row>
@@ -36385,7 +36385,7 @@
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>["In opinion , Clint Eastwood 's best movie ...", 'Notoriously Vicious And Intemperate Disposition', 'Legendary', 'Sickness Death', 'An intelligent slightly self-worthy western', 'Good , best Eastwood Westerns ...', 'Clint Eastwood top form playing directing Western masterpiece', "My mom n't like movie , I n't mind ( although I would n't given Best Picture ) .", "Possibly Clint Eastward 's impressive western", 'I Think I May Have Been Converted', 'Three Charismatic Actors Elevate Hard-Edged Western', 'Mangy scoundrels , shaky gunslingers , one vicious sheriff ...', 'The Best Picture 1992', 'The cause deserves attention .', "Over-Rated Director &amp; Movie ... Undeserving Oscar Hog ... Not Eastwood 's Worst Best", 'Superb - western heart', 'Nebraskan Blade Runner', "That 's right . I 'm fella . I ai n't different anyone else .", 'Unforgettable', 'I hate Westerns I loved one', 'Remorse', 'A rare well done modern western absolute must see', 'The Film That Brought Eastwood Hollywood Street Cred', 'A real western anti-western time .', 'A masterpiece nuance']</t>
+          <t>['In opinion  Clint Eastwood s best movie ', 'Notoriously Vicious And Intemperate Disposition', 'Legendary', 'Sickness Death', 'An intelligent slightly selfworthy western', 'Good  best Eastwood Westerns ', 'Clint Eastwood top form playing directing Western masterpiece', 'My mom nt like movie  I nt mind  although I would nt given Best Picture  ', 'Possibly Clint Eastward s impressive western', 'I Think I May Have Been Converted', 'Three Charismatic Actors Elevate HardEdged Western', 'Mangy scoundrels  shaky gunslingers  one vicious sheriff ', 'The Best Picture 1992', 'The cause deserves attention ', 'OverRated Director  Movie  Undeserving Oscar Hog  Not Eastwood s Worst Best', 'Superb  western heart', 'Nebraskan Blade Runner', 'That s right  I m fella  I ai nt different anyone else ', 'Unforgettable', 'I hate Westerns I loved one', 'Remorse', 'A rare well done modern western absolute must see', 'The Film That Brought Eastwood Hollywood Street Cred', 'A real western antiwestern time ', 'A masterpiece nuance']</t>
         </is>
       </c>
     </row>
@@ -36429,7 +36429,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>['Cute pleasant fare kids', 'What outstanding movie !', 'hilarious Dory', 'Excellent Adventure Story', 'Great Animation/Delightful Characters', 'A classic Disney Pixar .', 'Pixar', 'Lovely Adventure', 'The now-traditional mix adult wit kiddie laughs \x96 although less sharp usual ( still funny )', 'Clever !', "One Pixar 's Best", 'Little fish , big ocean', "Pixar 's best since Bug 's Life- The voice work corresponds magnificently artwork", "Yes , 's THAT good ! !", 'Watching Finding Nemo 3-D nine years felt like new experience I liked much', 'An animation classic', 'Nothing fishy delightful briny piece .', 'Pixar done !', 'An underwater coming age story gorgeous splashes color ...', 'Yes', 'An Underwater Treasure', 'Who said fish boring ?', "Whoa , Dude . Mister Turtle father . The name 's Crush", 'Found Classic ! One best animated films years !', 'Great family comedy adventure , sea , aquarium , deadly ring fire .']</t>
+          <t>['Cute pleasant fare kids', 'What outstanding movie ', 'hilarious Dory', 'Excellent Adventure Story', 'Great AnimationDelightful Characters', 'A classic Disney Pixar ', 'Pixar', 'Lovely Adventure', 'The nowtraditional mix adult wit kiddie laughs  although less sharp usual  still funny ', 'Clever ', 'One Pixar s Best', 'Little fish  big ocean', 'Pixar s best since Bug s Life The voice work corresponds magnificently artwork', 'Yes  s THAT good  ', 'Watching Finding Nemo 3D nine years felt like new experience I liked much', 'An animation classic', 'Nothing fishy delightful briny piece ', 'Pixar done ', 'An underwater coming age story gorgeous splashes color ', 'Yes', 'An Underwater Treasure', 'Who said fish boring ', 'Whoa  Dude  Mister Turtle father  The name s Crush', 'Found Classic  One best animated films years ', 'Great family comedy adventure  sea  aquarium  deadly ring fire ']</t>
         </is>
       </c>
     </row>
@@ -36473,7 +36473,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>['Superb film-making', 'An exemplary piece filmmaking', 'Eisenhower Era LA', 'great modern noir', 'The Fox Is Guarding Chicken Coop !', 'Corruption , Blackmail Violence LA', "Simply wonderful film respects 's audience", "Nail-biting , complex crime drama all-star-cast based James Ellroy 's novel", 'masterpiece every respect', 'I Wish This Film Had Been Five Hours Long', 'The Good &amp; Bad Of L.A . Confidential', 'Pretty good crime drama ... comparisons `` Chinatown `` may premature', "The cast lifetime 1997 noir set LA '50s", "One Spacey 's , years , best films", 'Stick Up The Nite Owl', "Keep Score Card Handy , It 's Worth It", 'City Angels ? More Like City Demons !', 'Hollywood Wasn ` Ready For It', 'Glitzy Crime Mystery Drama', 'Hardboiled melodrama crime corruption amid 1950s Hollywood ...', 'Ha ha', 'Kinetic Modern-Day Noir', 'Next `` The French Connection `` ultimate cop-flick .', 'Very good , slow overly complicated', 'Gritty noir']</t>
+          <t>['Superb filmmaking', 'An exemplary piece filmmaking', 'Eisenhower Era LA', 'great modern noir', 'The Fox Is Guarding Chicken Coop ', 'Corruption  Blackmail Violence LA', 'Simply wonderful film respects s audience', 'Nailbiting  complex crime drama allstarcast based James Ellroy s novel', 'masterpiece every respect', 'I Wish This Film Had Been Five Hours Long', 'The Good  Bad Of LA  Confidential', 'Pretty good crime drama  comparisons  Chinatown  may premature', 'The cast lifetime 1997 noir set LA 50s', 'One Spacey s  years  best films', 'Stick Up The Nite Owl', 'Keep Score Card Handy  It s Worth It', 'City Angels  More Like City Demons ', 'Hollywood Wasn  Ready For It', 'Glitzy Crime Mystery Drama', 'Hardboiled melodrama crime corruption amid 1950s Hollywood ', 'Ha ha', 'Kinetic ModernDay Noir', 'Next  The French Connection  ultimate copflick ', 'Very good  slow overly complicated', 'Gritty noir']</t>
         </is>
       </c>
     </row>
@@ -36517,7 +36517,7 @@
       </c>
       <c r="J820" t="inlineStr">
         <is>
-          <t>['About good gets 1930s Hollywood', 'A sweeping epic film , eyes outstanding !', 'All-time classic', 'Golden age Hollywood ( even whitewashing )', 'The Magnificence 1939', '2020', 'I hate complain , ...', 'Home Run ? No , Just A Measly Single', '`` With enough courage , without reputation ... ``', 'A real tribute old Hollywood , like old south , gone wind', "Breathless , beautifully mounted idiotic . It 's America brightest dumbest .", "Having finally watched Gone Wind , I 'll say I loved ! That 's !", 'A Wind All times . * * * *', 'Neither Best Nor Worst', "If ever ( thought ) wanted something could n't , need watch film", 'Self-Indulgent Soap-Opera Gargantuan Status', 'Every bit classic', 'Georgia mind', 'What said ?', 'GWTW still all-time favorite !', 'Rude', 'Warning : laughing movie could get slapped', 'The trouble lies casting', 'This time great American cinematic masterpiece absolute must see', 'A long watch treat !']</t>
+          <t>['About good gets 1930s Hollywood', 'A sweeping epic film  eyes outstanding ', 'Alltime classic', 'Golden age Hollywood  even whitewashing ', 'The Magnificence 1939', '2020', 'I hate complain  ', 'Home Run  No  Just A Measly Single', ' With enough courage  without reputation  ', 'A real tribute old Hollywood  like old south  gone wind', 'Breathless  beautifully mounted idiotic  It s America brightest dumbest ', 'Having finally watched Gone Wind  I ll say I loved  That s ', 'A Wind All times     ', 'Neither Best Nor Worst', 'If ever  thought  wanted something could nt  need watch film', 'SelfIndulgent SoapOpera Gargantuan Status', 'Every bit classic', 'Georgia mind', 'What said ', 'GWTW still alltime favorite ', 'Rude', 'Warning  laughing movie could get slapped', 'The trouble lies casting', 'This time great American cinematic masterpiece absolute must see', 'A long watch treat ']</t>
         </is>
       </c>
     </row>
@@ -36561,7 +36561,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>['Mr. Klaus Postman .... helping make mean people reluctantly nicer !', 'great Christmas movie', 'lovely', 'Klaus begins', 'A sweet charming little Christmas animated movie top tier Simmons performance', 'Predictable largely unremarkable sweet likable enough', 'The storyline picture unique fantastic settings , characters circumstances .', 'An early Christmas present .', 'Christmas Post', 'Delightful Beautiful !', 'In sea generic Christmas movies , Klaus stands', 'magnificent', 'Goodwill triumphs Emotional Roller-Coaster fighting ancient Hatred ..', 'Marvel Eat Your Heart Out', 'A Christmas Classic For Ages &amp; Best Animated Film Of 2019', 'A good animated movie', "' A true selfless act always sparks another ' ...", 'A True Act Goodwill Always Sparks Another', 'Well done', 'Santa Schmaltz', 'A fresh perspective Santa movie', 'Klaus', 'Best Animated Movie 2019', 'What lovely , charming clever film', 'Santa Klaus born']</t>
+          <t>['Mr Klaus Postman  helping make mean people reluctantly nicer ', 'great Christmas movie', 'lovely', 'Klaus begins', 'A sweet charming little Christmas animated movie top tier Simmons performance', 'Predictable largely unremarkable sweet likable enough', 'The storyline picture unique fantastic settings  characters circumstances ', 'An early Christmas present ', 'Christmas Post', 'Delightful Beautiful ', 'In sea generic Christmas movies  Klaus stands', 'magnificent', 'Goodwill triumphs Emotional RollerCoaster fighting ancient Hatred ', 'Marvel Eat Your Heart Out', 'A Christmas Classic For Ages  Best Animated Film Of 2019', 'A good animated movie', ' A true selfless act always sparks another  ', 'A True Act Goodwill Always Sparks Another', 'Well done', 'Santa Schmaltz', 'A fresh perspective Santa movie', 'Klaus', 'Best Animated Movie 2019', 'What lovely  charming clever film', 'Santa Klaus born']</t>
         </is>
       </c>
     </row>
@@ -36605,7 +36605,7 @@
       </c>
       <c r="J822" t="inlineStr">
         <is>
-          <t>['A nice , imperfect , homage Film Noir', "One Polanski 's best ...", 'Hardboiled crime , way I like', 'Jake Gittes , Right Up There With Sam Spade Philip Marlowe', 'classic modern noir', 'One All-Time Greats', "Forget It Jake , It 's Chinatown", 'Water , Corruption Murders', 'Riveting gorgeous classic film evocative settings , wonderful cinematography rousing soundtrack', 'murkier murkier', "Great 'modern ' film noir", 'Detective Perfection', 'Marvelous', 'A Bit Confusing But Always Fascinating', "`` It 's flaw -- iris ... ``", "It 's Chinatown , Jake", 'Noir Without Code', 'An important film evolution film noir', 'A Synthesis Cinematic Class ... A Film Firing All Cylinders', 'Stylish intriguing', 'He nose know !', 'Delightful', 'Depressing complex riveting', 'Imperfect film noir never gets near real `` Chinatown `` ...', 'Something']</t>
+          <t>['A nice  imperfect  homage Film Noir', 'One Polanski s best ', 'Hardboiled crime  way I like', 'Jake Gittes  Right Up There With Sam Spade Philip Marlowe', 'classic modern noir', 'One AllTime Greats', 'Forget It Jake  It s Chinatown', 'Water  Corruption Murders', 'Riveting gorgeous classic film evocative settings  wonderful cinematography rousing soundtrack', 'murkier murkier', 'Great modern  film noir', 'Detective Perfection', 'Marvelous', 'A Bit Confusing But Always Fascinating', ' It s flaw  iris  ', 'It s Chinatown  Jake', 'Noir Without Code', 'An important film evolution film noir', 'A Synthesis Cinematic Class  A Film Firing All Cylinders', 'Stylish intriguing', 'He nose know ', 'Delightful', 'Depressing complex riveting', 'Imperfect film noir never gets near real  Chinatown  ', 'Something']</t>
         </is>
       </c>
     </row>
@@ -36649,7 +36649,7 @@
       </c>
       <c r="J823" t="inlineStr">
         <is>
-          <t>['Very important historically faint heart', 'A bravura piece storytelling', 'compelling last days Third Reich', 'The Lunatic HIs Partners', 'form exorcism', "Hitler 's last days", "An intense gritty film , explores Hitler 's final days .", 'The Most Impressive , Depressive Realistic Dramatic Movie World War II', 'DOWNFALL essential indispensable watching outstanding performance Bruno Ganz', 'towards end', 'Downfall', 'Sympathetic Without Crossing The Line', 'Mindblowing', 'Docudrama , A Good One .', "'Grim ' Look At The Nazis ' Final Hours", 'much fuss film ?', 'One best foreign films year', 'The Stage Under Das Boot', 'Compelling But With One Serious Flaw', "I hope Bruno Ganz n't blacklisted performance good", 'In war civilians .', 'A Not Horrible Enough Telling Horrible Story', 'Eavesdropping History', 'Extremely well made movie .', 'A chillingly accurate portrayal Der Führer fall The Third Reich']</t>
+          <t>['Very important historically faint heart', 'A bravura piece storytelling', 'compelling last days Third Reich', 'The Lunatic HIs Partners', 'form exorcism', 'Hitler s last days', 'An intense gritty film  explores Hitler s final days ', 'The Most Impressive  Depressive Realistic Dramatic Movie World War II', 'DOWNFALL essential indispensable watching outstanding performance Bruno Ganz', 'towards end', 'Downfall', 'Sympathetic Without Crossing The Line', 'Mindblowing', 'Docudrama  A Good One ', 'Grim  Look At The Nazis  Final Hours', 'much fuss film ', 'One best foreign films year', 'The Stage Under Das Boot', 'Compelling But With One Serious Flaw', 'I hope Bruno Ganz nt blacklisted performance good', 'In war civilians ', 'A Not Horrible Enough Telling Horrible Story', 'Eavesdropping History', 'Extremely well made movie ', 'A chillingly accurate portrayal Der Fhrer fall The Third Reich']</t>
         </is>
       </c>
     </row>
@@ -36693,7 +36693,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>['The Nastiest Trick Played On Us', 'The Father', 'Hard watch times , essential viewing .', 'The daughter ( holy ) confusion', 'Fascinating sad , painful tense .', 'A look dementia opposite angle .', 'Another tour-de-force Hopkins', 'Expertly crafted', 'Superb : intriguing , haunting , thought-provoking moving', 'Itnis Anthony Hopkins performance makes film worth watching', 'I strongly , strongly , strongly recommend seeing masterpiece', 'Towering Performance', 'Perfectly disorienting', 'Most realistic movie dementia .', 'A man time .', 'Brilliant', 'Haunting glimpse picture decline loss reality !', 'Cinema Omnivore - The Father ( 2020 ) 8.1/10', 'Beautiful film , poetic , melancholy , emotional dramatic ...', 'The Father STUNNING Masterpiece !', 'The POV thing proves less effective movie stage ...', 'A Classic modern take Old-age solitude issue . The realistic Father Delusional Mind-shakers like Persona , Fight Club Shutter Island .', 'Hopkins never better .', 'A Journey Into The Mind Of A Man With Deteriorating Memory', 'Puts mind one suffering horrible disease']</t>
+          <t>['The Nastiest Trick Played On Us', 'The Father', 'Hard watch times  essential viewing ', 'The daughter  holy  confusion', 'Fascinating sad  painful tense ', 'A look dementia opposite angle ', 'Another tourdeforce Hopkins', 'Expertly crafted', 'Superb  intriguing  haunting  thoughtprovoking moving', 'Itnis Anthony Hopkins performance makes film worth watching', 'I strongly  strongly  strongly recommend seeing masterpiece', 'Towering Performance', 'Perfectly disorienting', 'Most realistic movie dementia ', 'A man time ', 'Brilliant', 'Haunting glimpse picture decline loss reality ', 'Cinema Omnivore  The Father  2020  8110', 'Beautiful film  poetic  melancholy  emotional dramatic ', 'The Father STUNNING Masterpiece ', 'The POV thing proves less effective movie stage ', 'A Classic modern take Oldage solitude issue  The realistic Father Delusional Mindshakers like Persona  Fight Club Shutter Island ', 'Hopkins never better ', 'A Journey Into The Mind Of A Man With Deteriorating Memory', 'Puts mind one suffering horrible disease']</t>
         </is>
       </c>
     </row>
@@ -36737,7 +36737,7 @@
       </c>
       <c r="J825" t="inlineStr">
         <is>
-          <t>['Not good Raiders Lost Ark improvement Temple Doom', "If They Could n't Get The Ark Of The Covenant , They 'll Settle For The Holy Grail", 'Great duo Harrison Ford Sean Connery', 'Great', 'Ride sunset', 'Like Father like Son ( ? )', 'Indiana Jones lost sense fun !', 'A glorious third adventure ...', 'Third part Indiana Jones series agreeable sympathetic interpretation Sean Connery', 'The 3rd time IS charm !', 'Indiana Jones Third Best Series ( far ) .', 'The Indy Trilogy Ends Strong', "A Litte Loud , But It 's Fun Like The Other Two", 'loads fun', 'best Indiana Jones movie ever ?', 'Ford Connery , Nazis , quite adventure movie', 'The Penitent Man', 'Raiders Of The Last Crusade .', 'Entertaining But Badly Paced', 'This go movies ... amazing scenes action adventure grand scale ...', "My son , 're pilgrims unholy land .", 'Far Behind `` Raiders `` `` Temple Doom ``', 'The perfect ending trilogy best far 3 movies .', 'Second-rate compared `` Raiders , `` still entertaining ways', 'Very good third installment']</t>
+          <t>['Not good Raiders Lost Ark improvement Temple Doom', 'If They Could nt Get The Ark Of The Covenant  They ll Settle For The Holy Grail', 'Great duo Harrison Ford Sean Connery', 'Great', 'Ride sunset', 'Like Father like Son   ', 'Indiana Jones lost sense fun ', 'A glorious third adventure ', 'Third part Indiana Jones series agreeable sympathetic interpretation Sean Connery', 'The 3rd time IS charm ', 'Indiana Jones Third Best Series  far  ', 'The Indy Trilogy Ends Strong', 'A Litte Loud  But It s Fun Like The Other Two', 'loads fun', 'best Indiana Jones movie ever ', 'Ford Connery  Nazis  quite adventure movie', 'The Penitent Man', 'Raiders Of The Last Crusade ', 'Entertaining But Badly Paced', 'This go movies  amazing scenes action adventure grand scale ', 'My son  re pilgrims unholy land ', 'Far Behind  Raiders   Temple Doom ', 'The perfect ending trilogy best far 3 movies ', 'Secondrate compared  Raiders   still entertaining ways', 'Very good third installment']</t>
         </is>
       </c>
     </row>
@@ -36781,7 +36781,7 @@
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>['Another hilarious comedy Pythons !', 'Ground breaking iconic movie', 'High , No Low , No High , No Low , Comedy', 'Monty Python Holy Grail', 'Bad Ending still ...', 'What ... air-speed velocity unladen swallow ? ...', 'The great group Monty Python stands often uproariously fun hilarious classic movie', 'The funniest Monty Python movies .', 'The Definitive Monty Python Film', 'Pure Lunacy', "It grows you- 's one delightful exercises ridiculous cinema history", '`` What , behind rabbit ? ``', 'One funniest movies ever made ( THE funniest )', 'Nearly Dead Already', 'Not ordinary flesh wound', 'Not good Life Brian , worth watching', 'Inspired lunacy', 'One best comedies ever .', 'Can nonsense funnier ? Ni !', 'You Left Asking More Questions !', "A Hard Day 's Knight", 'Still Funny', 'The best Monty Python movie', 'Classic British Humor !', "If 're quest laughter , I recommend seeking Grail"]</t>
+          <t>['Another hilarious comedy Pythons ', 'Ground breaking iconic movie', 'High  No Low  No High  No Low  Comedy', 'Monty Python Holy Grail', 'Bad Ending still ', 'What  airspeed velocity unladen swallow  ', 'The great group Monty Python stands often uproariously fun hilarious classic movie', 'The funniest Monty Python movies ', 'The Definitive Monty Python Film', 'Pure Lunacy', 'It grows you s one delightful exercises ridiculous cinema history', ' What  behind rabbit  ', 'One funniest movies ever made  THE funniest ', 'Nearly Dead Already', 'Not ordinary flesh wound', 'Not good Life Brian  worth watching', 'Inspired lunacy', 'One best comedies ever ', 'Can nonsense funnier  Ni ', 'You Left Asking More Questions ', 'A Hard Day s Knight', 'Still Funny', 'The best Monty Python movie', 'Classic British Humor ', 'If re quest laughter  I recommend seeking Grail']</t>
         </is>
       </c>
     </row>
@@ -36825,7 +36825,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>['A lot fun one best final lines film history ...', 'Hilarious comedy , brilliant performances great writing', '`` I Want A Bull Again ``', 'Iconic comedy outstanding times', 'Tony Curtis Bugs Me ; I Love Him This Fillm', 'nothing say', 'Some Like It Hot', 'Classic comedy featuring several screen greats .', 'One Best Comedies Cinema History', "Two musicians dressed women join all-girl band escape mobsters ' vendetta", "'s every reason like `` Some Like It Hot ``", 'Still fresh almost sixty years', 'Boop boop e doo .', "An Archetype ... That 's Pretty Great", 'Snappy hilarious', "What 's Not To Like ?", "Runnin ' Wild Curtis , Lemmon , Monroe ...", "Some like fanfares d'amour hot .", 'perfect example light-dark comedy standing test time', "Billy Wilder 's Some Like It Hot still among greatest movie comedies , greatest", '* * * * More Classic Comedy Film', 'Cutting Edge , 1959', 'Every bit classic made', 'The Wilder Monroe', 'Wilder spoofs hits right notes .']</t>
+          <t>['A lot fun one best final lines film history ', 'Hilarious comedy  brilliant performances great writing', ' I Want A Bull Again ', 'Iconic comedy outstanding times', 'Tony Curtis Bugs Me  I Love Him This Fillm', 'nothing say', 'Some Like It Hot', 'Classic comedy featuring several screen greats ', 'One Best Comedies Cinema History', 'Two musicians dressed women join allgirl band escape mobsters  vendetta', 's every reason like  Some Like It Hot ', 'Still fresh almost sixty years', 'Boop boop e doo ', 'An Archetype  That s Pretty Great', 'Snappy hilarious', 'What s Not To Like ', 'Runnin  Wild Curtis  Lemmon  Monroe ', 'Some like fanfares damour hot ', 'perfect example lightdark comedy standing test time', 'Billy Wilder s Some Like It Hot still among greatest movie comedies  greatest', '    More Classic Comedy Film', 'Cutting Edge  1959', 'Every bit classic made', 'The Wilder Monroe', 'Wilder spoofs hits right notes ']</t>
         </is>
       </c>
     </row>
@@ -36869,7 +36869,7 @@
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>["Good , I think 's bit overrated .", 'Solid filmmaking , amazing', 'Interesting ending Argentine movie', 'A Story Passion Commitment', 'Secrets revealed', 'How Live Empty Life ?', 'Splendid film full emotion , love , intrigue feeling joy sorrow', 'Argentinian passion', 'The Best-Selling Argentine Film', 'A man faces two situations need closure', 'solid page turner mystery movie , truly great scenes', 'True romance suffering', 'A powerful film', 'Interesting', 'Entertaining Pot Boiler', 'Eyes Passion', 'Excellent Argentinian drama/mystery', 'Brilliant , Simply Brilliant : A Gold Standard Filmmaking', 'An example movie makers everywhere', 'Twenty Five Years Of Solitude', 'The eyes .', 'Top class Argentinian mystery', 'Beautiful ! Beautiful !', 'A fabulous Spanish Classic exceptional storyline Mysterious Storytelling', 'Truly brooding']</t>
+          <t>['Good  I think s bit overrated ', 'Solid filmmaking  amazing', 'Interesting ending Argentine movie', 'A Story Passion Commitment', 'Secrets revealed', 'How Live Empty Life ', 'Splendid film full emotion  love  intrigue feeling joy sorrow', 'Argentinian passion', 'The BestSelling Argentine Film', 'A man faces two situations need closure', 'solid page turner mystery movie  truly great scenes', 'True romance suffering', 'A powerful film', 'Interesting', 'Entertaining Pot Boiler', 'Eyes Passion', 'Excellent Argentinian dramamystery', 'Brilliant  Simply Brilliant  A Gold Standard Filmmaking', 'An example movie makers everywhere', 'Twenty Five Years Of Solitude', 'The eyes ', 'Top class Argentinian mystery', 'Beautiful  Beautiful ', 'A fabulous Spanish Classic exceptional storyline Mysterious Storytelling', 'Truly brooding']</t>
         </is>
       </c>
     </row>
@@ -36913,7 +36913,7 @@
       </c>
       <c r="J829" t="inlineStr">
         <is>
-          <t>['Wow , 11 possible !', "Stealing One 's Life", 'two great performances', 'Bitterly Funny Perfectly Acted', "It 's two actresses !", 'masterpiece', "Fasten seatbelts , 's bumpy night .", 'A Magnificent Timeless Tale Ambition , Manipulation Betrayal - Certainly One Best Classics Ever', "You think 'll become famous way ?", 'Excellent Movie , Though Perhaps Over-Rated', "A 'Good ' Movie Is As Far As I 'll Go", 'A classic , thing', 'Salacious screenplay brittle caustic characters ...', "Bette 's best true classic", 'excellent script crackerjack performances steer classic backstage theater melodrama', 'All Above Backstabbing Shines * * * *', 'What one become star .', 'A Suggested Perspective', 'Just perfect film , I know nothing theater .', 'Superb drama', 'The understudy', 'A masterpiece', 'Anne Baxter George Sanders revelation ... Bette Davis ...', 'Still happens theatrical sense', 'Still stands test time']</t>
+          <t>['Wow  11 possible ', 'Stealing One s Life', 'two great performances', 'Bitterly Funny Perfectly Acted', 'It s two actresses ', 'masterpiece', 'Fasten seatbelts  s bumpy night ', 'A Magnificent Timeless Tale Ambition  Manipulation Betrayal  Certainly One Best Classics Ever', 'You think ll become famous way ', 'Excellent Movie  Though Perhaps OverRated', 'A Good  Movie Is As Far As I ll Go', 'A classic  thing', 'Salacious screenplay brittle caustic characters ', 'Bette s best true classic', 'excellent script crackerjack performances steer classic backstage theater melodrama', 'All Above Backstabbing Shines    ', 'What one become star ', 'A Suggested Perspective', 'Just perfect film  I know nothing theater ', 'Superb drama', 'The understudy', 'A masterpiece', 'Anne Baxter George Sanders revelation  Bette Davis ', 'Still happens theatrical sense', 'Still stands test time']</t>
         </is>
       </c>
     </row>
@@ -36957,7 +36957,7 @@
       </c>
       <c r="J830" t="inlineStr">
         <is>
-          <t>['The moving masterpiece time !', 'Unmissable ... heartbreaking', 'slow interesting performance John Hurt', 'The Need Go On', 'story', 'The Elephant Man', 'Quite extraordinary movie ...', 'A true story courage human dignity several tender touching sequences', 'An elephant never forgets , `` The Elephant Man `` unforgettable .', "Lynch 's Best Work Serious Vein", 'Almost Too Heart-Wrenching To Watch', 'Mostly factual account last years Joseph Merrick , `` Elephant Man . ``', 'Somber , graceful , eloquent -- always moving', 'An amazing drama , one best kind', 'A masterpiece', "`` Touching `` n't begin describe .", 'A poignant empowering biography .', 'One Of Us', 'The Evils That Men Do', 'Stunning VERY depressing', 'Great heavy', 'Exquisitely writte , crafted , performed ; must-see classic', "One Lynch 's Most Mainstream Films Is Also One His Best", "A well constructed movie good interesting Joseph Merrick 's real life-story .", 'A hard movie watch , truly great one well']</t>
+          <t>['The moving masterpiece time ', 'Unmissable  heartbreaking', 'slow interesting performance John Hurt', 'The Need Go On', 'story', 'The Elephant Man', 'Quite extraordinary movie ', 'A true story courage human dignity several tender touching sequences', 'An elephant never forgets   The Elephant Man  unforgettable ', 'Lynch s Best Work Serious Vein', 'Almost Too HeartWrenching To Watch', 'Mostly factual account last years Joseph Merrick   Elephant Man  ', 'Somber  graceful  eloquent  always moving', 'An amazing drama  one best kind', 'A masterpiece', ' Touching  nt begin describe ', 'A poignant empowering biography ', 'One Of Us', 'The Evils That Men Do', 'Stunning VERY depressing', 'Great heavy', 'Exquisitely writte  crafted  performed  mustsee classic', 'One Lynch s Most Mainstream Films Is Also One His Best', 'A well constructed movie good interesting Joseph Merrick s real lifestory ', 'A hard movie watch  truly great one well']</t>
         </is>
       </c>
     </row>
@@ -37001,7 +37001,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>['excellent among best', "Akira Kurasawa 's take King Lear", 'Shakespearean Samurai Epic', 'A Masterpiece War Greed', 'Plays epic scale driven hearts characters', "The culmination Akira Kurosawa 's career stands main masterpiece", 'Samurai Legends Meet Shakespeare', 'You prepared watching one', 'My third favorite Kurosawa film- deliberately paced ( painfully ) , heavy tragedy , glorious overall artistry', 'Epic drama', 'Noh Lear This Noh Lear This Noh Lear', 'Beautiful slow', 'One best Shakespeare adaptions', 'Grand Kurosawa Film Still Falls Short `` Seven Samurai `` `` Throne Blood ``', 'A late Kurosawa great earlier work .', 'A Shakespearean nightmare .', 'Outstanding', 'Legend - root', 'King Lear turned monumental epic Japanese', 'Another fantastic Shakespeare adaption Akira Kurosawa better Originals .', "Kurosawa 's Last Masterpiece", 'Excellence', 'An Ambitious Showcase Of Power , Greed , Betrayal , Retribution &amp; Insanity', 'Great movie', 'The Best Kurosawa - Ran']</t>
+          <t>['excellent among best', 'Akira Kurasawa s take King Lear', 'Shakespearean Samurai Epic', 'A Masterpiece War Greed', 'Plays epic scale driven hearts characters', 'The culmination Akira Kurosawa s career stands main masterpiece', 'Samurai Legends Meet Shakespeare', 'You prepared watching one', 'My third favorite Kurosawa film deliberately paced  painfully   heavy tragedy  glorious overall artistry', 'Epic drama', 'Noh Lear This Noh Lear This Noh Lear', 'Beautiful slow', 'One best Shakespeare adaptions', 'Grand Kurosawa Film Still Falls Short  Seven Samurai   Throne Blood ', 'A late Kurosawa great earlier work ', 'A Shakespearean nightmare ', 'Outstanding', 'Legend  root', 'King Lear turned monumental epic Japanese', 'Another fantastic Shakespeare adaption Akira Kurosawa better Originals ', 'Kurosawa s Last Masterpiece', 'Excellence', 'An Ambitious Showcase Of Power  Greed  Betrayal  Retribution  Insanity', 'Great movie', 'The Best Kurosawa  Ran']</t>
         </is>
       </c>
     </row>
@@ -37045,7 +37045,7 @@
       </c>
       <c r="J832" t="inlineStr">
         <is>
-          <t>['Not good The Good , The Bad The Ugly better A Fistful Dollars', 'Top notch spaghetti western one stand outs type', 'More mayhem dollar', 'Lee Van Cleef outstanding', 'Terrific Western Strong Action Characters', 'Keep watch', 'Another Great Western Movie Sergio Leone , Clint Eastwood Lee Van Cleef', "Not Leone 's best film still great example genre", 'Another great Clint Eastwood Western ...', 'Stylish , violent , laconic Western well shot great Leone', "I 'll wager dollar", 'The return man name .', 'Leone Improves His Output', 'Solid Entry In The Trilogy', 'Sluggish Leone', 'One favorite westerns- fitting middle section `` Dollars `` trilogy', 'For A Few Dollars More-Forget Money &amp; Run . *', 'A dollars . Eastwood builds gritty character .', 'I worried - alone , many problems solve ...', 'Entertaining', 'Another gritty Leone western buddy flick Eastwood Van Cleef ...', 'An instant classic felt Westerns enough action', 'Bang', 'Two Rival Bounty Hunters', 'This one top 10 spaghetti westerns time I would strongly recommend']</t>
+          <t>['Not good The Good  The Bad The Ugly better A Fistful Dollars', 'Top notch spaghetti western one stand outs type', 'More mayhem dollar', 'Lee Van Cleef outstanding', 'Terrific Western Strong Action Characters', 'Keep watch', 'Another Great Western Movie Sergio Leone  Clint Eastwood Lee Van Cleef', 'Not Leone s best film still great example genre', 'Another great Clint Eastwood Western ', 'Stylish  violent  laconic Western well shot great Leone', 'I ll wager dollar', 'The return man name ', 'Leone Improves His Output', 'Solid Entry In The Trilogy', 'Sluggish Leone', 'One favorite westerns fitting middle section  Dollars  trilogy', 'For A Few Dollars MoreForget Money  Run  ', 'A dollars  Eastwood builds gritty character ', 'I worried  alone  many problems solve ', 'Entertaining', 'Another gritty Leone western buddy flick Eastwood Van Cleef ', 'An instant classic felt Westerns enough action', 'Bang', 'Two Rival Bounty Hunters', 'This one top 10 spaghetti westerns time I would strongly recommend']</t>
         </is>
       </c>
     </row>
@@ -37089,7 +37089,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>['Alphabetically', 'Better Than Part I', 'Oh , , done ? ? ! ! ( As I shake head disbelief ) .', 'Historic ! Best Ever Magnum Opus Commercial Film The History Indian Cinema', 'Concludes With High Drama , Faulty Action , And Authentic Emotions . ♦ Grade C+', 'A cinematic marvel .', '7.5 Stars', 'Baahubali 2 : The Conclusion ( 2017 )', 'Baahubali 2 : The Conclusion indeed beginning great cinema , Indian Cinema .', 'I enjoyed movie', 'One worst films year', 'Well Entertainment Classic !', 'Best ever visual treat Indian cinema .', 'A Treat', 'Even better first one !', 'Recommended👍', 'south stars Prabhas n Rana infinitely superior', 'Gripping palace intrigue , par war scenes', 'Nice comedy', 'Truly Magnum Opus', 'Made Indian audience .', 'The satisfactory duology I ever seen', 'Amazing Bahubalistic VFX Treat', "It epic conclusion India 's biggest motion picture.A terrific Interval bang followed emotional second half major pro film First half disappoints .", 'Review - Bãhubali 2 : The Conclusion']</t>
+          <t>['Alphabetically', 'Better Than Part I', 'Oh   done      As I shake head disbelief  ', 'Historic  Best Ever Magnum Opus Commercial Film The History Indian Cinema', 'Concludes With High Drama  Faulty Action  And Authentic Emotions   Grade C', 'A cinematic marvel ', '75 Stars', 'Baahubali 2  The Conclusion  2017 ', 'Baahubali 2  The Conclusion indeed beginning great cinema  Indian Cinema ', 'I enjoyed movie', 'One worst films year', 'Well Entertainment Classic ', 'Best ever visual treat Indian cinema ', 'A Treat', 'Even better first one ', 'Recommended', 'south stars Prabhas n Rana infinitely superior', 'Gripping palace intrigue  par war scenes', 'Nice comedy', 'Truly Magnum Opus', 'Made Indian audience ', 'The satisfactory duology I ever seen', 'Amazing Bahubalistic VFX Treat', 'It epic conclusion India s biggest motion pictureA terrific Interval bang followed emotional second half major pro film First half disappoints ', 'Review  Bhubali 2  The Conclusion']</t>
         </is>
       </c>
     </row>
@@ -37133,7 +37133,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>["Not Hitchcock 's best , definitely film miss !", "It 's Key whole thing .", 'Tense Hitchcock classic', 'Masterpiece', 'Kill Grace Kelly , , , Really ?', 'gem', 'Murder phone', 'Intensely clever .', 'Connected', 'There Is Perfect Crime', 'An enjoyable stagy thriller \x96 stage play example classic Hitchcock .', 'A mean husband concocts intricate plan murder unfaithful wife money', 'pick phone', 'Best even try .', 'Like Detective Novel Film', 'Dial A For Adultery', 'Original Hitchcock film inspired 1998 `` A Perfect Murder `` Michael Douglas . This one better !', 'Plush murder-game courtesy Alfred Hitchcock ... though stagy minor key', 'great title ! star power ! ... not-quite great movie !', 'Nothing ever goes fully according plan', 'Dial M Milland', 'Classic Hitchcock thriller !', 'The Revenge Civilized Palaver', 'Retooling perfect murder turns imperfect', 'Flat 3-D Film From Hitchcock']</t>
+          <t>['Not Hitchcock s best  definitely film miss ', 'It s Key whole thing ', 'Tense Hitchcock classic', 'Masterpiece', 'Kill Grace Kelly    Really ', 'gem', 'Murder phone', 'Intensely clever ', 'Connected', 'There Is Perfect Crime', 'An enjoyable stagy thriller  stage play example classic Hitchcock ', 'A mean husband concocts intricate plan murder unfaithful wife money', 'pick phone', 'Best even try ', 'Like Detective Novel Film', 'Dial A For Adultery', 'Original Hitchcock film inspired 1998  A Perfect Murder  Michael Douglas  This one better ', 'Plush murdergame courtesy Alfred Hitchcock  though stagy minor key', 'great title  star power   notquite great movie ', 'Nothing ever goes fully according plan', 'Dial M Milland', 'Classic Hitchcock thriller ', 'The Revenge Civilized Palaver', 'Retooling perfect murder turns imperfect', 'Flat 3D Film From Hitchcock']</t>
         </is>
       </c>
     </row>
@@ -37177,7 +37177,7 @@
       </c>
       <c r="J835" t="inlineStr">
         <is>
-          <t>['Excellent Kurosawa flick -- see films director well', 'The film introduced western audiences Japanese cinema', 'great storytelling concept', 'Brilliant', 'Something Special Was On Its Way', 'masterpiece . seed', "Kurosawa 's differing interpretations", 'Rashomon still packs punch .', 'Another Masterpiece Akira Kurosawa Showing Different Perspectives Crime', 'Japanese crime drama , regarding deeds since various points sight people explain', "seeing n't always believing", "Kurosawa 's Masterpiece , Better Than Seven Samurai", "'Boomtown ' Did It Better", "Kurosawa 's first milestone , one top foreign films 20th century", 'Once , Coventry probably missed whole point ...', 'GOAT ?', "Kurosawa 's big break", 'Multiple points view', 'There absolute truth', 'Exceptional , essential classic', 'Seminal Classic', 'Beautiful , complex , engaging .', 'Whom trust ?', "It difficult coming 70 year old 'classic ' first time", 'Rashômon']</t>
+          <t>['Excellent Kurosawa flick  see films director well', 'The film introduced western audiences Japanese cinema', 'great storytelling concept', 'Brilliant', 'Something Special Was On Its Way', 'masterpiece  seed', 'Kurosawa s differing interpretations', 'Rashomon still packs punch ', 'Another Masterpiece Akira Kurosawa Showing Different Perspectives Crime', 'Japanese crime drama  regarding deeds since various points sight people explain', 'seeing nt always believing', 'Kurosawa s Masterpiece  Better Than Seven Samurai', 'Boomtown  Did It Better', 'Kurosawa s first milestone  one top foreign films 20th century', 'Once  Coventry probably missed whole point ', 'GOAT ', 'Kurosawa s big break', 'Multiple points view', 'There absolute truth', 'Exceptional  essential classic', 'Seminal Classic', 'Beautiful  complex  engaging ', 'Whom trust ', 'It difficult coming 70 year old classic  first time', 'Rashmon']</t>
         </is>
       </c>
     </row>
@@ -37221,7 +37221,7 @@
       </c>
       <c r="J836" t="inlineStr">
         <is>
-          <t>['This well done movie series proud', 'So pretty', 'Good Enough', 'Demon Slayer : Choo-Choo Chaos', 'Wonderful', 'Excellent follow movie', 'Powerful Demon', 'demon slayer', 'Might new favorite film year .', 'Almost perfect !', 'Breathtaking', 'There reason became succesfull anime movie ALL TIME !', 'Wild', 'Very good movie follow series', 'Delicious ! Delicious ! Delicious !', 'Amazing', 'Wasted dream sequences stupid characters', 'Read manga years movie , disapointingly overrated . Shouldve serialised .', 'A RARE ANIME', "I 'm awe", 'Would given 6 , +1 stunning visuals .', 'First time film like pleasantly surprised', 'Not best story arc still good !', "So disappointed . I could n't enjoy .", 'Potent visual auditory highs met story leaves much tank']</t>
+          <t>['This well done movie series proud', 'So pretty', 'Good Enough', 'Demon Slayer  ChooChoo Chaos', 'Wonderful', 'Excellent follow movie', 'Powerful Demon', 'demon slayer', 'Might new favorite film year ', 'Almost perfect ', 'Breathtaking', 'There reason became succesfull anime movie ALL TIME ', 'Wild', 'Very good movie follow series', 'Delicious  Delicious  Delicious ', 'Amazing', 'Wasted dream sequences stupid characters', 'Read manga years movie  disapointingly overrated  Shouldve serialised ', 'A RARE ANIME', 'I m awe', 'Would given 6  1 stunning visuals ', 'First time film like pleasantly surprised', 'Not best story arc still good ', 'So disappointed  I could nt enjoy ', 'Potent visual auditory highs met story leaves much tank']</t>
         </is>
       </c>
     </row>
@@ -37265,7 +37265,7 @@
       </c>
       <c r="J837" t="inlineStr">
         <is>
-          <t>['An honest copy-paste makes thrilling watch freshers .', 'Gasp-inducing twists n turns throughout solid unsettling atmosphere .', 'Competent Storytelling without flaws', 'Not frame-to-frame remake .. enjoyably crisp ! [ +73 % ]', 'Perfect sequel well remake ! !', 'A decent sequel', "One best year 's finest thrillers .", 'Faithful remake', 'Master stroke', 'Excellent Sequel', 'Too far-fetched , yet entertaining', 'A gripping , suspenseful narrative', 'A Very Gripping Intelligent Sequel With Perfect Twits Turns ! ! !', 'A taut thriller sets franchise ....', 'Good remake !', 'Drishyam 2 Will Be A Blockbuster In Bollywood Cinema', 'Just ok ...', 'Absolutely unmissable ! ! Ajay Tabu Akshaye Khanna rock ! !', 'A remake retains identity', 'UNPREDICTABLE ...', 'Drishyam 2', 'little crispier original', 'A Justifiable Remake 👍👍', 'Another remake !', 'Slowly builds great climax']</t>
+          <t>['An honest copypaste makes thrilling watch freshers ', 'Gaspinducing twists n turns throughout solid unsettling atmosphere ', 'Competent Storytelling without flaws', 'Not frametoframe remake  enjoyably crisp   73  ', 'Perfect sequel well remake  ', 'A decent sequel', 'One best year s finest thrillers ', 'Faithful remake', 'Master stroke', 'Excellent Sequel', 'Too farfetched  yet entertaining', 'A gripping  suspenseful narrative', 'A Very Gripping Intelligent Sequel With Perfect Twits Turns   ', 'A taut thriller sets franchise ', 'Good remake ', 'Drishyam 2 Will Be A Blockbuster In Bollywood Cinema', 'Just ok ', 'Absolutely unmissable   Ajay Tabu Akshaye Khanna rock  ', 'A remake retains identity', 'UNPREDICTABLE ', 'Drishyam 2', 'little crispier original', 'A Justifiable Remake ', 'Another remake ', 'Slowly builds great climax']</t>
         </is>
       </c>
     </row>
@@ -37309,7 +37309,7 @@
       </c>
       <c r="J838" t="inlineStr">
         <is>
-          <t>["`` I 'll Sing You A Lullaby ! `` ...", 'A Welcome Maturity In Indian Horror', 'Molecule Review : Tumbbad ( 8 Stars )', 'Milestone Indian cinema', "The constant rain , vivid local landscapes , unique storyline n amazeballs ending . If subject true horror 'Sati ' explored .", 'Visually Stunning Interesting Commentary', 'Hastar , The Forgotten God , Is Starving , Will You Feed Him ? 1-2-Watch .', 'An original premise shot beautifully .', 'Visual treat horror fans', 'Not average', 'A nice ( horrorsome ) fictional account !', 'Intriguing , somewhat overrated', 'Excellent take Greed ! !', 'Good , overrated .', "Indian Pan 's Labyrinth", 'This horror', 'Smoking Injurious Health', 'Very Engrossing &amp; Engaging', 'What greed ?', 'One best Bollywood film year .', 'Khan Review - Best indian horror', 'Sheer Brilliance', 'Imagine film got publicity ...', 'Bollywood trying', 'Tumbbad - must watch film 👍👍👍']</t>
+          <t>[' I ll Sing You A Lullaby   ', 'A Welcome Maturity In Indian Horror', 'Molecule Review  Tumbbad  8 Stars ', 'Milestone Indian cinema', 'The constant rain  vivid local landscapes  unique storyline n amazeballs ending  If subject true horror Sati  explored ', 'Visually Stunning Interesting Commentary', 'Hastar  The Forgotten God  Is Starving  Will You Feed Him  12Watch ', 'An original premise shot beautifully ', 'Visual treat horror fans', 'Not average', 'A nice  horrorsome  fictional account ', 'Intriguing  somewhat overrated', 'Excellent take Greed  ', 'Good  overrated ', 'Indian Pan s Labyrinth', 'This horror', 'Smoking Injurious Health', 'Very Engrossing  Engaging', 'What greed ', 'One best Bollywood film year ', 'Khan Review  Best indian horror', 'Sheer Brilliance', 'Imagine film got publicity ', 'Bollywood trying', 'Tumbbad  must watch film ']</t>
         </is>
       </c>
     </row>
@@ -37353,7 +37353,7 @@
       </c>
       <c r="J839" t="inlineStr">
         <is>
-          <t>["The Turkish marvel n't see coming confined days ...", "A Rare Remake That 's Better Than The Original", 'A pleasant surprise first visit Turkish cinema .', 'I Come From Another World ...', 'Great Prison Drama', "`` 's never late right thing ``", 'Awful tear-jerker full overacting', 'Everyone cry see', 'All plot points major tear-jerker epic ( noce performances ) ... albeit somewhat simplistically delivered', "It 's bit dramatic illogical end", 'This movie insane !', 'My opinion', 'I almost cried ! ! ... bad ! Extremely Predictable , cliché , forced , NEXT !', 'Death laws must end', 'A miscarriage Justice', 'Very rarely get emotional films - film exception', 'good plot , production could better', 'Ten plus movie', "Just movie portrays sad story , n't mean 's great one", 'Best', 'I cried beginning end', 'Just amazing script .', 'Impossible cry', 'Resurrection joyful sobbing', 'This movie hit like train wrecked emotions']</t>
+          <t>['The Turkish marvel nt see coming confined days ', 'A Rare Remake That s Better Than The Original', 'A pleasant surprise first visit Turkish cinema ', 'I Come From Another World ', 'Great Prison Drama', ' s never late right thing ', 'Awful tearjerker full overacting', 'Everyone cry see', 'All plot points major tearjerker epic  noce performances   albeit somewhat simplistically delivered', 'It s bit dramatic illogical end', 'This movie insane ', 'My opinion', 'I almost cried    bad  Extremely Predictable  clich  forced  NEXT ', 'Death laws must end', 'A miscarriage Justice', 'Very rarely get emotional films  film exception', 'good plot  production could better', 'Ten plus movie', 'Just movie portrays sad story  nt mean s great one', 'Best', 'I cried beginning end', 'Just amazing script ', 'Impossible cry', 'Resurrection joyful sobbing', 'This movie hit like train wrecked emotions']</t>
         </is>
       </c>
     </row>
@@ -37397,7 +37397,7 @@
       </c>
       <c r="J840" t="inlineStr">
         <is>
-          <t>['Another Kurasawa masterpiece', "Kurosawa 's class act", 'So much owe movie', 'Great', 'A Bloodbath', 'The bodyguard', 'The Saga Samurai Without Master , Another Great Movie Akira Kurosawa', 'Cool , funny engaging across board - everything works', "Akira Kurosawa 's masterpiece laconic masterless samurai sells services two different warlords", 'Clint Eastwood better thank guys .', 'The Classic Samurai Tale', 'Superb , influential movie', 'A Fistful Dollars High Noon', 'A Fistful Yen', 'grinning , growling gungho , jobless samurai marching back forth', 'visually stunning , excellent story , great acting make one favorites', 'Yojimbo', 'Just another masterful movie master masterful movies', 'A fistful Ryo .', 'Iconic influential', 'Playing Both Sides Middle', 'A believable character uses wits ( sword ) defeat enemies', "One Kurosawa 's best .", 'Another milestone Sensei modern cinema ...', 'Excellent Samurai Film !']</t>
+          <t>['Another Kurasawa masterpiece', 'Kurosawa s class act', 'So much owe movie', 'Great', 'A Bloodbath', 'The bodyguard', 'The Saga Samurai Without Master  Another Great Movie Akira Kurosawa', 'Cool  funny engaging across board  everything works', 'Akira Kurosawa s masterpiece laconic masterless samurai sells services two different warlords', 'Clint Eastwood better thank guys ', 'The Classic Samurai Tale', 'Superb  influential movie', 'A Fistful Dollars High Noon', 'A Fistful Yen', 'grinning  growling gungho  jobless samurai marching back forth', 'visually stunning  excellent story  great acting make one favorites', 'Yojimbo', 'Just another masterful movie master masterful movies', 'A fistful Ryo ', 'Iconic influential', 'Playing Both Sides Middle', 'A believable character uses wits  sword  defeat enemies', 'One Kurosawa s best ', 'Another milestone Sensei modern cinema ', 'Excellent Samurai Film ']</t>
         </is>
       </c>
     </row>
@@ -37441,7 +37441,7 @@
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>['Blind Leading Blind ...', "Let 's Hear Rabbit", 'Like Soap Opera Directed Quentin Tarantino', 'The blind pianist ...', 'Impressive undertaking', 'Long Review : Andhadhun ( 6 Stars )', 'Chaotic n hilarious amazeballs ending .', 'SUPER CLEVER !', 'One best thrillers decade .', 'Super engaging comic-thrill ride start finish .', "The design film 's turning point unobtrusive", 'A slick , stylish taut thriller highly captivating artistically brilliant', "Do n't Miss It Any Cost ! ! ! Highly Recommended", 'Entertaining expected', 'Too many twists !', 'New ( target audience ) specified genre , love .', 'A Wonderful treat', 'It great ! !', 'A Perfect Suspense', 'What Life ? It All Depends On Liver ! ! !', 'Very good performances n unexpected twists', 'An extraordinary captivating thriller', 'One best movie ever Indian Cinema .', 'A wild ride , Andhadhun gets going never stops', 'Absolutely wild ride']</t>
+          <t>['Blind Leading Blind ', 'Let s Hear Rabbit', 'Like Soap Opera Directed Quentin Tarantino', 'The blind pianist ', 'Impressive undertaking', 'Long Review  Andhadhun  6 Stars ', 'Chaotic n hilarious amazeballs ending ', 'SUPER CLEVER ', 'One best thrillers decade ', 'Super engaging comicthrill ride start finish ', 'The design film s turning point unobtrusive', 'A slick  stylish taut thriller highly captivating artistically brilliant', 'Do nt Miss It Any Cost    Highly Recommended', 'Entertaining expected', 'Too many twists ', 'New  target audience  specified genre  love ', 'A Wonderful treat', 'It great  ', 'A Perfect Suspense', 'What Life  It All Depends On Liver   ', 'Very good performances n unexpected twists', 'An extraordinary captivating thriller', 'One best movie ever Indian Cinema ', 'A wild ride  Andhadhun gets going never stops', 'Absolutely wild ride']</t>
         </is>
       </c>
     </row>
@@ -37485,7 +37485,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>['Indian crime noir', 'Thrilling &amp; Engrossing !', 'Its Shawshank Redemption bollywood . A masterpiece . The best south remake ever made bollywood .', 'Great Escalation &amp; Suspense ...', 'Amazing movie ...', 'Intelligent tiresome', 'Watchable Bollywood Thriller After A Long Time . ♦ 60 %', 'One learn surprising things movies', 'BRILLIANT .', 'Soulless remake .', 'Great Movie', "Many might like n't seen original , remake , weakest one till date , missing much needed soul , energy fire .", 'A nice suspense thriller', 'A great leading man taut , impressively complicated script', 'Just bookish knowledge train one challenge called life .', 'Should watch', 'Watch original', 'DRAMA AND SUSPENSE', 'Absolutely Top Class ! ! !', 'deft , nail biting family thriller ......', "Once gets moving , wo n't want stop", 'Very good film', "To cherish Indian movies n't dance", 'Good crescendo thrill', 'SHIFT FROM NINE TO TEN']</t>
+          <t>['Indian crime noir', 'Thrilling  Engrossing ', 'Its Shawshank Redemption bollywood  A masterpiece  The best south remake ever made bollywood ', 'Great Escalation  Suspense ', 'Amazing movie ', 'Intelligent tiresome', 'Watchable Bollywood Thriller After A Long Time   60 ', 'One learn surprising things movies', 'BRILLIANT ', 'Soulless remake ', 'Great Movie', 'Many might like nt seen original  remake  weakest one till date  missing much needed soul  energy fire ', 'A nice suspense thriller', 'A great leading man taut  impressively complicated script', 'Just bookish knowledge train one challenge called life ', 'Should watch', 'Watch original', 'DRAMA AND SUSPENSE', 'Absolutely Top Class   ', 'deft  nail biting family thriller ', 'Once gets moving  wo nt want stop', 'Very good film', 'To cherish Indian movies nt dance', 'Good crescendo thrill', 'SHIFT FROM NINE TO TEN']</t>
         </is>
       </c>
     </row>
@@ -37529,7 +37529,7 @@
       </c>
       <c r="J843" t="inlineStr">
         <is>
-          <t>['seemingly dull plot marvelous !', 'universal life', 'Wonderfully heartwarming', 'Sweet , though profound , movie', 'A Nutshell Review : Children Heaven', 'gentle beauty', 'Excellent simplicity', 'A beautiful film childhood sibling love .', 'Among Greatest Child Centric Films Ever . A Heavenly Experience Great Work Of Art .', 'A Masterwork Of Heartfelt Grace , Endless Warmth &amp; Soulful Compassion .', 'work art', 'Great family movie', 'The Innocence Childhood', 'A pair shoes ...', 'Great', 'Very Talented Filmmaking !', 'Straightforward tender-hearted', 'Wonderful Acting kids !', 'Beautiful story', 'Approaches fairy tale', 'Delightful', 'The pinnacle quality film making . ( iranian A+ Movie ) My Ratings 10/10', 'Oh golden childhood days ...', 'Very good ( bit sentimental ) Iranian film', 'Another great film Iran']</t>
+          <t>['seemingly dull plot marvelous ', 'universal life', 'Wonderfully heartwarming', 'Sweet  though profound  movie', 'A Nutshell Review  Children Heaven', 'gentle beauty', 'Excellent simplicity', 'A beautiful film childhood sibling love ', 'Among Greatest Child Centric Films Ever  A Heavenly Experience Great Work Of Art ', 'A Masterwork Of Heartfelt Grace  Endless Warmth  Soulful Compassion ', 'work art', 'Great family movie', 'The Innocence Childhood', 'A pair shoes ', 'Great', 'Very Talented Filmmaking ', 'Straightforward tenderhearted', 'Wonderful Acting kids ', 'Beautiful story', 'Approaches fairy tale', 'Delightful', 'The pinnacle quality film making   iranian A Movie  My Ratings 1010', 'Oh golden childhood days ', 'Very good  bit sentimental  Iranian film', 'Another great film Iran']</t>
         </is>
       </c>
     </row>
@@ -37573,7 +37573,7 @@
       </c>
       <c r="J844" t="inlineStr">
         <is>
-          <t>["A road trip film usual clichés ... though 's still well made worth seeing .", 'A Nutshell Review : Zindagi Na Milegi Dobara', 'Stunning !', 'Zindagi Na Milegi Dobara', 'Not something I want see dobara', 'A lot fun', "One best road trip films I 've ever seen .", 'Truly delightful , might even make think', "Imraan 's poems take another level , seriously !", 'Its film OSHO-nik kind life teaching experience needs watched must learn essential basics LIVING .', 'Life', 'Treat adventure comes along Friendship !', 'Dil Chaahta Hai ! Rock ! Dasvidaniya !', 'You enjoy life', 'If I want go trip would something like .', 'So-so drama , great step forward Bollywood', 'ZINDAGI NA MILEGI DOBARA', 'Zindgi na Milegi Dobara', 'Amazing Cast , Wonderful Tale', 'An indulgent movie encourages people visit Spain', 'MY REVIEW : friendship , love importance life', 'Simple safe journey flick', 'Soulful , fun gorgeous time .', 'Love Bollywood specialized well time', 'Fun Serious']</t>
+          <t>['A road trip film usual clichs  though s still well made worth seeing ', 'A Nutshell Review  Zindagi Na Milegi Dobara', 'Stunning ', 'Zindagi Na Milegi Dobara', 'Not something I want see dobara', 'A lot fun', 'One best road trip films I ve ever seen ', 'Truly delightful  might even make think', 'Imraan s poems take another level  seriously ', 'Its film OSHOnik kind life teaching experience needs watched must learn essential basics LIVING ', 'Life', 'Treat adventure comes along Friendship ', 'Dil Chaahta Hai  Rock  Dasvidaniya ', 'You enjoy life', 'If I want go trip would something like ', 'Soso drama  great step forward Bollywood', 'ZINDAGI NA MILEGI DOBARA', 'Zindgi na Milegi Dobara', 'Amazing Cast  Wonderful Tale', 'An indulgent movie encourages people visit Spain', 'MY REVIEW  friendship  love importance life', 'Simple safe journey flick', 'Soulful  fun gorgeous time ', 'Love Bollywood specialized well time', 'Fun Serious']</t>
         </is>
       </c>
     </row>
@@ -37617,7 +37617,7 @@
       </c>
       <c r="J845" t="inlineStr">
         <is>
-          <t>['A great tale darker side human nature ...', 'Yet another brilliant film John Huston', 'One great movies times', 'All-Time Great', 'Great Character Actors ... No Stinking Badges', 'Human behavior', 'A Tale Greed , With Outstanding Direction Performance Cast', 'Extraordinary marvelously performed film grizzled hustler decides join prospectors find gold', 'gold cruels', 'Bogart Stinking Badges', 'Gold Fever Greedy Fools', 'The love money root evil', 'Hustons Bogart perennial story money root evils- even good men', 'Man . The dangerous enemy known ... man !', 'This A Real Treasure Sierre Madre * * * *', 'John Walter Huston Strike Gold', "The worst ai n't bad finally happens .", 'An Environmental Message ?', 'Just great movie around , dark tale', 'LOVED AND RESPECTED HUSTON/BOGART CLASSIC ... A TALE OF GREED AND HUMAN WEAKNESS', 'One greatest movies ever made', 'How Times Change', 'Greed good !', "There 's Gold Them Thar Hills", 'Cigars']</t>
+          <t>['A great tale darker side human nature ', 'Yet another brilliant film John Huston', 'One great movies times', 'AllTime Great', 'Great Character Actors  No Stinking Badges', 'Human behavior', 'A Tale Greed  With Outstanding Direction Performance Cast', 'Extraordinary marvelously performed film grizzled hustler decides join prospectors find gold', 'gold cruels', 'Bogart Stinking Badges', 'Gold Fever Greedy Fools', 'The love money root evil', 'Hustons Bogart perennial story money root evils even good men', 'Man  The dangerous enemy known  man ', 'This A Real Treasure Sierre Madre    ', 'John Walter Huston Strike Gold', 'The worst ai nt bad finally happens ', 'An Environmental Message ', 'Just great movie around  dark tale', 'LOVED AND RESPECTED HUSTONBOGART CLASSIC  A TALE OF GREED AND HUMAN WEAKNESS', 'One greatest movies ever made', 'How Times Change', 'Greed good ', 'There s Gold Them Thar Hills', 'Cigars']</t>
         </is>
       </c>
     </row>
@@ -37661,7 +37661,7 @@
       </c>
       <c r="J846" t="inlineStr">
         <is>
-          <t>['A truly beautiful moving movie .', "Best Bollywood I 've seen", 'An Epic Indian Film ... Very Epic', 'A Nutshell Review : Swades : We , People', 'A Priceless Film ! Shahrukh Outstanding !', 'Way long story tells', '`` Habits may change time , narrow-mindedness belief . ``', 'Overly long', 'What ride !', 'The best Gowariker SRK .', 'A brilliant attempt superb performance Sharukh', 'Well intentioned sluggishly paced badly edited', 'Motherland , mine !', 'An Individual Can Make A Difference And Have Fun In The Process', 'One important spirit lifting patriotic films last decade .', 'Fantastic film', 'Review - Swades : We , People', 'Swades : two dimensions', 'An Exemplary Tribute grassroot realism excellent SRK .', 'Little bit dragged', 'Beautiful film . A 96/100', 'One The Best Movies In Long Time', 'A slow simmer - best way cook ! !', 'Most Indian film', "Do n't forget belong , remember roots nurtured"]</t>
+          <t>['A truly beautiful moving movie ', 'Best Bollywood I ve seen', 'An Epic Indian Film  Very Epic', 'A Nutshell Review  Swades  We  People', 'A Priceless Film  Shahrukh Outstanding ', 'Way long story tells', ' Habits may change time  narrowmindedness belief  ', 'Overly long', 'What ride ', 'The best Gowariker SRK ', 'A brilliant attempt superb performance Sharukh', 'Well intentioned sluggishly paced badly edited', 'Motherland  mine ', 'An Individual Can Make A Difference And Have Fun In The Process', 'One important spirit lifting patriotic films last decade ', 'Fantastic film', 'Review  Swades  We  People', 'Swades  two dimensions', 'An Exemplary Tribute grassroot realism excellent SRK ', 'Little bit dragged', 'Beautiful film  A 96100', 'One The Best Movies In Long Time', 'A slow simmer  best way cook  ', 'Most Indian film', 'Do nt forget belong  remember roots nurtured']</t>
         </is>
       </c>
     </row>
@@ -37705,7 +37705,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>['starts slow ends bang !', 'one thrilling drives', 'A Bit Long Ultimately Riveting !', 'The road danger', 'Without fear', 'Very good , though overlong , thrilling movie four unfortunate truckers undertaking extremely dangerous assignment', "must 've first movie looking US 's sordid involvement Latin America", 'Classic', 'Pure French masterpiece', "Good , But I 'll Still Take 'Sorcerer '", 'road hell', 'Enthralling , nail-biting drama', 'I Felt An Explosion Of Disappointment', 'Nitroglycerin thrill ride causes lot horror overwhelming suspense ...', 'Pessimistic view truckers life', 'C.O.D . ( Cash On Death )', 'A must-see masterpiece suspense', 'To Fear Is Be Human , But Not These Guys', "I n't see people think 's one greatest .", 'stupendous piece filmmaking', 'An intense lesson suspense', "You n't seen suspense 've seen .", 'Magnifique', 'One best thrillers ever made', "THE WAGES OF FEAR denotes hefty import Clouzot 's unrivaled cinematic legacy , reinvented narrative cinema high-octane vicariousness"]</t>
+          <t>['starts slow ends bang ', 'one thrilling drives', 'A Bit Long Ultimately Riveting ', 'The road danger', 'Without fear', 'Very good  though overlong  thrilling movie four unfortunate truckers undertaking extremely dangerous assignment', 'must ve first movie looking US s sordid involvement Latin America', 'Classic', 'Pure French masterpiece', 'Good  But I ll Still Take Sorcerer ', 'road hell', 'Enthralling  nailbiting drama', 'I Felt An Explosion Of Disappointment', 'Nitroglycerin thrill ride causes lot horror overwhelming suspense ', 'Pessimistic view truckers life', 'COD   Cash On Death ', 'A mustsee masterpiece suspense', 'To Fear Is Be Human  But Not These Guys', 'I nt see people think s one greatest ', 'stupendous piece filmmaking', 'An intense lesson suspense', 'You nt seen suspense ve seen ', 'Magnifique', 'One best thrillers ever made', 'THE WAGES OF FEAR denotes hefty import Clouzot s unrivaled cinematic legacy  reinvented narrative cinema highoctane vicariousness']</t>
         </is>
       </c>
     </row>
@@ -37749,7 +37749,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>["nowhere NEAR standards Chaplin 's later feature films", 'Charming truly touching', 'Pathos And Comedy', 'Funny Emotional', "Chaplin 's First Feature First Masterpiece", 'Sensitive enjoyable film Chaplin meets streetwise orphan raises', 'bittersweet done well', 'A Solid , Though Short , Chaplin Effort', 'Pretty Good Sentimental Comedy', 'One Of The Most Memorable Silent Films Ever', 'rarely ever deft mix wonderful absurdity ( dark ) sentiment', 'First feature-length film director-star Charlie Chaplin', 'Sweet silent-era classic', 'Still effective back', 'A truly essential , must-see cinematic classic', 'A classic every sense word', "Chaplin 's emotionally resonant silent film .", 'Charming', 'map', 'Heartfelt .', 'Great Chaplin &amp; Jackie Coogans First Film', 'Little Jackie Coogan scene-stealer !', '`` A picture smile-and perhaps , tear . `` You modest , Sir Chaplin ...', 'This Unbeatable Legacy begun . A Classic Silent Feature historic combination Smile Tear .', 'One Of The Greatest Achievements In The Silent Era Of Filmmaking']</t>
+          <t>['nowhere NEAR standards Chaplin s later feature films', 'Charming truly touching', 'Pathos And Comedy', 'Funny Emotional', 'Chaplin s First Feature First Masterpiece', 'Sensitive enjoyable film Chaplin meets streetwise orphan raises', 'bittersweet done well', 'A Solid  Though Short  Chaplin Effort', 'Pretty Good Sentimental Comedy', 'One Of The Most Memorable Silent Films Ever', 'rarely ever deft mix wonderful absurdity  dark  sentiment', 'First featurelength film directorstar Charlie Chaplin', 'Sweet silentera classic', 'Still effective back', 'A truly essential  mustsee cinematic classic', 'A classic every sense word', 'Chaplin s emotionally resonant silent film ', 'Charming', 'map', 'Heartfelt ', 'Great Chaplin  Jackie Coogans First Film', 'Little Jackie Coogan scenestealer ', ' A picture smileand perhaps  tear   You modest  Sir Chaplin ', 'This Unbeatable Legacy begun  A Classic Silent Feature historic combination Smile Tear ', 'One Of The Greatest Achievements In The Silent Era Of Filmmaking']</t>
         </is>
       </c>
     </row>
@@ -37793,7 +37793,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>['Excellent propaganda comedy', 'A question taste', 'That Is The Question , Lubitsch Or Brooks ?', 'Good wartime suspense thriller', 'Witty mocking', 'Splendid wartime comedy referenced over-the-top classic movie', 'Powerful Timing', 'A Lubitsch comedy masterpiece', 'dark light Nazis theater , Carol Lombard !', 'Fascism Is Farce', 'Shakespeare Does Hitler', 'Dynamite', 'Lightly entertaining', 'Playing Hamlet Poland', 'Excellent comedy', 'Amusing comedy Lubitsch touch ...', 'An excellent dark comedy', 'Smart , superb , funny classic', 'Strange But Delightful', 'Hamlet Hitler .', 'WWII Comedy .', 'Good flick , little uneven ; 7/10', 'Ah , Lubitsch', 'Benny good , man !', "A double bill review Mel Brooks ' remake"]</t>
+          <t>['Excellent propaganda comedy', 'A question taste', 'That Is The Question  Lubitsch Or Brooks ', 'Good wartime suspense thriller', 'Witty mocking', 'Splendid wartime comedy referenced overthetop classic movie', 'Powerful Timing', 'A Lubitsch comedy masterpiece', 'dark light Nazis theater  Carol Lombard ', 'Fascism Is Farce', 'Shakespeare Does Hitler', 'Dynamite', 'Lightly entertaining', 'Playing Hamlet Poland', 'Excellent comedy', 'Amusing comedy Lubitsch touch ', 'An excellent dark comedy', 'Smart  superb  funny classic', 'Strange But Delightful', 'Hamlet Hitler ', 'WWII Comedy ', 'Good flick  little uneven  710', 'Ah  Lubitsch', 'Benny good  man ', 'A double bill review Mel Brooks  remake']</t>
         </is>
       </c>
     </row>
@@ -37837,7 +37837,7 @@
       </c>
       <c r="J850" t="inlineStr">
         <is>
-          <t>['human', 'How Can One See Not Be Changed', 'Just incredible .', 'A Key Indian Film', "Much potential n't work", 'Lives Up Its Reputation', 'Really well done minimalistic family-drama .', 'Absolutely Perfect . One best films ever made . 10/10', 'Much Apu nothing .', 'Beautiful , transports impoverished little world', 'A Classic defined Parallel Cinema special ? It argued .', 'An Enduring Masterpiece Of Indian Cinema', 'Great movie still hold due excellent craftsmanship', 'Pather Panchali - FIrst Apu Installment', 'Not panther ?', 'An Asymmetric Kaleidoscope Monochrome ...', 'Pure drama ...', 'Am I missing something ?', 'A Perfect Blend Of Poverty , Existence , Material &amp; Death !', 'Remarkable debut', 'pather panchali', 'Interesting , cryptic', "One worst `` classics `` I 've ever seen .", 'All-around tough watch ... Your mileage may vary', 'A Pure Ring Truth']</t>
+          <t>['human', 'How Can One See Not Be Changed', 'Just incredible ', 'A Key Indian Film', 'Much potential nt work', 'Lives Up Its Reputation', 'Really well done minimalistic familydrama ', 'Absolutely Perfect  One best films ever made  1010', 'Much Apu nothing ', 'Beautiful  transports impoverished little world', 'A Classic defined Parallel Cinema special  It argued ', 'An Enduring Masterpiece Of Indian Cinema', 'Great movie still hold due excellent craftsmanship', 'Pather Panchali  FIrst Apu Installment', 'Not panther ', 'An Asymmetric Kaleidoscope Monochrome ', 'Pure drama ', 'Am I missing something ', 'A Perfect Blend Of Poverty  Existence  Material  Death ', 'Remarkable debut', 'pather panchali', 'Interesting  cryptic', 'One worst  classics  I ve ever seen ', 'Allaround tough watch  Your mileage may vary', 'A Pure Ring Truth']</t>
         </is>
       </c>
     </row>
@@ -37881,7 +37881,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>['sprawling revenge crime lore', 'A film desperately need editor ...', 'A Nutshell Review : Gangs Wasseypur', 'An Interesting Film Terrific Performances !', 'Violent &amp; Viscous Vendetta ...', 'Superlative masterpiece', 'A masterful two-part , five-hour gangster epic', 'My Anticipation Levels darn high !', 'Gangs wars .', "Watch execution , performances , music dialogues BUT n't expect something fresh story content .", 'Reality check - Fate criminals Wasseypur !', 'Epic film Gang Wars ! !', 'The Godfathers Wasseypur', "One best gangster movies I 've ever seen", 'Overrated movie , overreacting bla bla', 'A revenge saga makes us yearn .', "Karma b * * * h. Did n't say keep closer eye surroundings enemy 's world ?", 'The movie year', 'Erm ! Why ratings high ?', 'Gangs wasseypur ( A ) -- -- -- -- -Rating : 3/5 GOOD', 'One best movie Bollywood', 'Indian gangster', 'It watchable gang .', 'The OG web series became mainstream', 'This glorious , marvellous bloodiest masterpiece ever .']</t>
+          <t>['sprawling revenge crime lore', 'A film desperately need editor ', 'A Nutshell Review  Gangs Wasseypur', 'An Interesting Film Terrific Performances ', 'Violent  Viscous Vendetta ', 'Superlative masterpiece', 'A masterful twopart  fivehour gangster epic', 'My Anticipation Levels darn high ', 'Gangs wars ', 'Watch execution  performances  music dialogues BUT nt expect something fresh story content ', 'Reality check  Fate criminals Wasseypur ', 'Epic film Gang Wars  ', 'The Godfathers Wasseypur', 'One best gangster movies I ve ever seen', 'Overrated movie  overreacting bla bla', 'A revenge saga makes us yearn ', 'Karma b    h Did nt say keep closer eye surroundings enemy s world ', 'The movie year', 'Erm  Why ratings high ', 'Gangs wasseypur  A      Rating  35 GOOD', 'One best movie Bollywood', 'Indian gangster', 'It watchable gang ', 'The OG web series became mainstream', 'This glorious  marvellous bloodiest masterpiece ever ']</t>
         </is>
       </c>
     </row>
@@ -37925,7 +37925,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>['emotional eruption', 'useful', 'impressive', 'May God Bless Turkish Cinema delivering The BEST FAMILY-EMOTIONS FILM EVER !', "An Evocative Portrait Of Father-Son Bondings That 's As Heartwarming As It Is Heartbreaking", 'Good movie', 'The State Tool Terror ...', 'Very Good', "Slices life n't add much", 'Unabashed Melodrama Roots Yeşilçam', 'About meaning home', 'Very soap operish .', 'Average', 'An emotional drama never hits hard', 'Great , emotional drama !', 'Only drama lovers', 'The two loves father son deeply moved', 'Nice family movie .', 'father son', "Did wait long make decent movie `` coup d'etats `` ?", 'Emotional heartbreaking movie', 'An intense emotional drama', 'What bounding father son', 'The father son relationship beautifully captured .', 'A simple yet complicated life']</t>
+          <t>['emotional eruption', 'useful', 'impressive', 'May God Bless Turkish Cinema delivering The BEST FAMILYEMOTIONS FILM EVER ', 'An Evocative Portrait Of FatherSon Bondings That s As Heartwarming As It Is Heartbreaking', 'Good movie', 'The State Tool Terror ', 'Very Good', 'Slices life nt add much', 'Unabashed Melodrama Roots Yeilam', 'About meaning home', 'Very soap operish ', 'Average', 'An emotional drama never hits hard', 'Great  emotional drama ', 'Only drama lovers', 'The two loves father son deeply moved', 'Nice family movie ', 'father son', 'Did wait long make decent movie  coup detats  ', 'Emotional heartbreaking movie', 'An intense emotional drama', 'What bounding father son', 'The father son relationship beautifully captured ', 'A simple yet complicated life']</t>
         </is>
       </c>
     </row>
@@ -37969,7 +37969,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>["A Spiritually &amp; Visually Splendid Demigod Tale Owned By Rishabh Shetty 's Spine-Chilling Presentation .", 'I guess I fall minority time', 'A film focused mythical layers much ! [ +53 % ]', 'Feel Good movie .. ! !', 'Great making , still wants ...', 'Overrated', "The true `` hero 's journey `` .", 'Glorious masala mysticism', 'unusually unique , electrifying', 'Super overrated', 'Terrific ! !', 'A stupendous marriage folklore masala narrative .', 'Transcendent : There movies Kantara', "Absolutely Amazing Masterpiece , It 's Rishab Shetty Way All The Way ! ! !", 'Khan Review - This movie hurt hindu sentiments', 'Blockbuster Movie This Movie Will Give You A Goosebumps', 'Rishab Shetty shines pretty solid slightly overhyped movie .', 'GOOSEBUMPS ...', 'Over Hyped', 'Marvelous', 'Just One Word `` Divine ``', 'A Cultural Awakening ! !', 'So much overhyped overrated .', 'Performance cheer Decade ....', 'Woooow']</t>
+          <t>['A Spiritually  Visually Splendid Demigod Tale Owned By Rishabh Shetty s SpineChilling Presentation ', 'I guess I fall minority time', 'A film focused mythical layers much   53  ', 'Feel Good movie   ', 'Great making  still wants ', 'Overrated', 'The true  hero s journey  ', 'Glorious masala mysticism', 'unusually unique  electrifying', 'Super overrated', 'Terrific  ', 'A stupendous marriage folklore masala narrative ', 'Transcendent  There movies Kantara', 'Absolutely Amazing Masterpiece  It s Rishab Shetty Way All The Way   ', 'Khan Review  This movie hurt hindu sentiments', 'Blockbuster Movie This Movie Will Give You A Goosebumps', 'Rishab Shetty shines pretty solid slightly overhyped movie ', 'GOOSEBUMPS ', 'Over Hyped', 'Marvelous', 'Just One Word  Divine ', 'A Cultural Awakening  ', 'So much overhyped overrated ', 'Performance cheer Decade ', 'Woooow']</t>
         </is>
       </c>
     </row>
@@ -38013,7 +38013,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>['Great gangster movie frm India .. !', 'An epic win Kannada film industry . KGF pan-Indian masterpiece .', 'Just teaser', 'God Father Indian Cinema', 'Go watch', 'A kind story telling like Bahubali ( despite low budget ) .', "Prashanth Neel 's magic ! !", "Do n't deserve much hype", 'Goofy', 'Literally Dark Stylish Substance', 'Overhyped still hoping better sequel', 'Lots action drama special effects', 'period drama', 'A perfect ride full swing action movie lovers .', 'A gamechanger Sandalwood', 'Overhyped', 'Pathetic first half , phenomenal second half', 'If love John wick Rocky bhai ?', 'From 1 8 directly . Language makes difference .', 'OVER-RATED', 'Mass movie , , , Not Class one .', 'An absolutely amazing experience !', 'Out Of This World !', 'Awesome , Great , The Best ! !', 'A Visual Treat led Immensely Dynamic Superstar']</t>
+          <t>['Great gangster movie frm India  ', 'An epic win Kannada film industry  KGF panIndian masterpiece ', 'Just teaser', 'God Father Indian Cinema', 'Go watch', 'A kind story telling like Bahubali  despite low budget  ', 'Prashanth Neel s magic  ', 'Do nt deserve much hype', 'Goofy', 'Literally Dark Stylish Substance', 'Overhyped still hoping better sequel', 'Lots action drama special effects', 'period drama', 'A perfect ride full swing action movie lovers ', 'A gamechanger Sandalwood', 'Overhyped', 'Pathetic first half  phenomenal second half', 'If love John wick Rocky bhai ', 'From 1 8 directly  Language makes difference ', 'OVERRATED', 'Mass movie    Not Class one ', 'An absolutely amazing experience ', 'Out Of This World ', 'Awesome  Great  The Best  ', 'A Visual Treat led Immensely Dynamic Superstar']</t>
         </is>
       </c>
     </row>
@@ -38057,7 +38057,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>['exceptionally well-handled flick ultra-right abuses', 'intense crowd scenes compelling political drama', 'impressive', 'A highly acclaimed film great French cast competently directed Constantine Costa-Gavras', 'Greece military rule', 'Exceptional', 'important film Costa-Gravas', '`` He Alive ! ``', 'Superb', 'Just Who Are The Bad Guys ?', 'Slow start , powerful ending', 'Depicting important time Paris', 'Make war corruption liberalism indiscriminate liberty .', 'A Dynamite Political Thriller', 'What movie !', 'Timeless story .', 'Chiling', 'A Frantic Thriller one important films ever made', 'Cinema Omnivore - Z ( 1969 ) 8.3/10', "Z means 'He Lives ' , actually 'Film Lives Forever ' . An extremely powerful film Greek Revolution .", 'A Provocative &amp; Politically Charged Slice Of Greek History', 'Z - One First Political Thrillers', 'Rings Few Bells ...', 'Against ...', 'One greatest political thrillers , pounding score']</t>
+          <t>['exceptionally wellhandled flick ultraright abuses', 'intense crowd scenes compelling political drama', 'impressive', 'A highly acclaimed film great French cast competently directed Constantine CostaGavras', 'Greece military rule', 'Exceptional', 'important film CostaGravas', ' He Alive  ', 'Superb', 'Just Who Are The Bad Guys ', 'Slow start  powerful ending', 'Depicting important time Paris', 'Make war corruption liberalism indiscriminate liberty ', 'A Dynamite Political Thriller', 'What movie ', 'Timeless story ', 'Chiling', 'A Frantic Thriller one important films ever made', 'Cinema Omnivore  Z  1969  8310', 'Z means He Lives   actually Film Lives Forever   An extremely powerful film Greek Revolution ', 'A Provocative  Politically Charged Slice Of Greek History', 'Z  One First Political Thrillers', 'Rings Few Bells ', 'Against ', 'One greatest political thrillers  pounding score']</t>
         </is>
       </c>
     </row>
@@ -38101,7 +38101,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>["one Keaton 's better full-length ( ? ) films", 'Footage laughter , romance technical audaciousness', 'Silent era classics', 'Classic Keaton', 'Sherlock Jr', 'A piece creative genius .', 'Ahead Time', 'solve case', 'The Greatest Introduction Silent Film', 'one seminal Buster Keaton comedies', 'Very inventive short feature', 'A classic Silent Era', 'Highly enjoyable clever Buster Keaton silent film ...', 'Very inventive time', 'Timeless &amp; essential , classic , must-see treasure', 'Very Special Movie', "Not Keaton 's best creative !", 'Really funny actually amazing', 'A seriously good game pool .....', "Almost certainly funniest comedy I 've ever seen .", 'Elementary , dear Gillette .', 'Masterpiece', 'You marvel incredible stunts !', 'A fantastic introduction silent film genre', "A Cinematic Wonder ! An Artistic Visual Phenomena n't lost 1 % Magic even 10th Decade"]</t>
+          <t>['one Keaton s better fulllength    films', 'Footage laughter  romance technical audaciousness', 'Silent era classics', 'Classic Keaton', 'Sherlock Jr', 'A piece creative genius ', 'Ahead Time', 'solve case', 'The Greatest Introduction Silent Film', 'one seminal Buster Keaton comedies', 'Very inventive short feature', 'A classic Silent Era', 'Highly enjoyable clever Buster Keaton silent film ', 'Very inventive time', 'Timeless  essential  classic  mustsee treasure', 'Very Special Movie', 'Not Keaton s best creative ', 'Really funny actually amazing', 'A seriously good game pool ', 'Almost certainly funniest comedy I ve ever seen ', 'Elementary  dear Gillette ', 'Masterpiece', 'You marvel incredible stunts ', 'A fantastic introduction silent film genre', 'A Cinematic Wonder  An Artistic Visual Phenomena nt lost 1  Magic even 10th Decade']</t>
         </is>
       </c>
     </row>
@@ -38145,7 +38145,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>['In Army', 'INCREDIBLE ! !', 'jay hindi ........', 'One-Line Review : Uri ( 6 Stars )', 'A salute unsung heroes Indian Army', 'First great action movie Bollywood year !', 'One best military films India', 'Nice one', 'An even mature account I expected .', 'Recommended👍', 'Dear Critics , Up Yours', 'combat scenes r well depicted', 'Tries fill patriotism successful .', 'Patriotism done right', "Thrilling , patriotism n't peak", 'predictable , cliched/unimaginative ...', 'LAZY SCREENPLAY', 'Thrilling Gripping narrative instills patriotism without getting jingoistic .', 'Wow !', 'Solid', 'A showcase Army mentally bravado', 'Good job done team !', 'Just average standard compared world standards', "A Technical Masterpiece &amp; India 's first Great Modern Warfare Film ...", 'Visceral engaging . Leaves awe']</t>
+          <t>['In Army', 'INCREDIBLE  ', 'jay hindi ', 'OneLine Review  Uri  6 Stars ', 'A salute unsung heroes Indian Army', 'First great action movie Bollywood year ', 'One best military films India', 'Nice one', 'An even mature account I expected ', 'Recommended', 'Dear Critics  Up Yours', 'combat scenes r well depicted', 'Tries fill patriotism successful ', 'Patriotism done right', 'Thrilling  patriotism nt peak', 'predictable  clichedunimaginative ', 'LAZY SCREENPLAY', 'Thrilling Gripping narrative instills patriotism without getting jingoistic ', 'Wow ', 'Solid', 'A showcase Army mentally bravado', 'Good job done team ', 'Just average standard compared world standards', 'A Technical Masterpiece  India s first Great Modern Warfare Film ', 'Visceral engaging  Leaves awe']</t>
         </is>
       </c>
     </row>
@@ -38189,7 +38189,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>['surprised Japanese legend', 'Second Half Fizzles', 'A Man Beautiful Soul', "A breathtaking flick , produced Russia ; one Kurosawa 's stranger movies", 'Russia meets far east', 'Kurosawa Does Russia', 'tribute endurance man nature , featuring masterpiece performance', 'Beautifully told shot requires fair amount patience', 'Second half film disappointed', 'DERSU UZALA ( Akira Kurosawa , 1975 ) * * *', 'Rewards Patience', "A return one 's original self", 'Fascinating direct contact nature overwhelming dramatic impact', 'The respect understand nature , learn love fellow humans ...', 'Akira Kurosawa master language . This spectacular expedition human emotions , old age tragedy , civilization hunting .', 'Orpheus_Reborn , kukavice bedna ...', 'Enraptures The Senses With Effortless Ease', 'Beautiful ...', 'An ode lost era', 'An underappreciated Kurosawa biopic', 'Beautifully filmed story unusual friendship hostile environment', 'Life outside box', 'A great film one all-time masters', 'Going blind', 'A `` Western `` Siberia']</t>
+          <t>['surprised Japanese legend', 'Second Half Fizzles', 'A Man Beautiful Soul', 'A breathtaking flick  produced Russia  one Kurosawa s stranger movies', 'Russia meets far east', 'Kurosawa Does Russia', 'tribute endurance man nature  featuring masterpiece performance', 'Beautifully told shot requires fair amount patience', 'Second half film disappointed', 'DERSU UZALA  Akira Kurosawa  1975    ', 'Rewards Patience', 'A return one s original self', 'Fascinating direct contact nature overwhelming dramatic impact', 'The respect understand nature  learn love fellow humans ', 'Akira Kurosawa master language  This spectacular expedition human emotions  old age tragedy  civilization hunting ', 'OrpheusReborn  kukavice bedna ', 'Enraptures The Senses With Effortless Ease', 'Beautiful ', 'An ode lost era', 'An underappreciated Kurosawa biopic', 'Beautifully filmed story unusual friendship hostile environment', 'Life outside box', 'A great film one alltime masters', 'Going blind', 'A  Western  Siberia']</t>
         </is>
       </c>
     </row>
@@ -38233,7 +38233,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>['simple film yet exceptional', 'heart breaking story', 'Perfect', "Like `` The Bicycle Thieves `` It 's Heartbreaking", 'An Italian Masterpiece', "`` Wherever go , I 'll . ``", 'Wonderfully engaging , realistic emotional', 'POSSIBLE SPOILERS AHEAD ... Downbeat Italian film bleak ending everyone ...', "If Italy 's government time disapproves movie deserves seen alone", 'A Man His Dog', 'The old man dog .', "There 's hardly better film ever made", 'Poignant', "Vittorio de Sica 's saddest beautiful film", "You wo n't laugh ... You wo n't cry ... film transcends banalities ...", "Yet another Italian Life-forming Classic Master Vittorio De Sica . Umberto D nothing less Cult 'Bicycle Thieves ' .", "Man 's Best Friend", 'Poignant Depiction Genteel Urban Poverty', "An obedient dog man 's best friend .", "Does n't hit hard enough .", 'A masterpiece neorealism', 'Hard watch , yet somehow worth .', 'Neo-realist classic', 'humanist film-making', 'Tired little bit everything .']</t>
+          <t>['simple film yet exceptional', 'heart breaking story', 'Perfect', 'Like  The Bicycle Thieves  It s Heartbreaking', 'An Italian Masterpiece', ' Wherever go  I ll  ', 'Wonderfully engaging  realistic emotional', 'POSSIBLE SPOILERS AHEAD  Downbeat Italian film bleak ending everyone ', 'If Italy s government time disapproves movie deserves seen alone', 'A Man His Dog', 'The old man dog ', 'There s hardly better film ever made', 'Poignant', 'Vittorio de Sica s saddest beautiful film', 'You wo nt laugh  You wo nt cry  film transcends banalities ', 'Yet another Italian Lifeforming Classic Master Vittorio De Sica  Umberto D nothing less Cult Bicycle Thieves  ', 'Man s Best Friend', 'Poignant Depiction Genteel Urban Poverty', 'An obedient dog man s best friend ', 'Does nt hit hard enough ', 'A masterpiece neorealism', 'Hard watch  yet somehow worth ', 'Neorealist classic', 'humanist filmmaking', 'Tired little bit everything ']</t>
         </is>
       </c>
     </row>
@@ -38277,7 +38277,7 @@
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>['If every mass-action film like , believe even Intellectuals go mad genre . Sukumar Ram Charan opted Class mindless Mass .', 'Rangasthalam Review : Reinvents action drama genre artistic style get phenomenal , extraordinary cinema .', 'Same old tale done differently', 'Different masala movie', 'Fantastic Screenplay ! !', 'Rangasthalam', "Rangasthalam one intense drama Tollywood recent times.Sukumar 's terrific direction Ram Charan 's career best performance delight watch .", 'entertaining .', 'Way long Movie', 'Perfect brilliant movie', 'Nothing new', 'Great movie ! !', 'Waste time', 'A national award deserving masterpiece ! ! !', 'Ram charan shines like never', 'Just Awesome ..', '21st Century Telugu Classic .... Telugu Golden Era-2 started', 'Ina single word , `` Masterpiece ``', 'All emotions taken care !', 'Lack direction', 'Over-rated . But decent movie .', 'Excellent film', 'Chitti babu Mass🔥', 'Sukumar plays safe time ; packs solid commercial entertainer .', 'Love , Struggle support acting Totally unbelievable !']</t>
+          <t>['If every massaction film like  believe even Intellectuals go mad genre  Sukumar Ram Charan opted Class mindless Mass ', 'Rangasthalam Review  Reinvents action drama genre artistic style get phenomenal  extraordinary cinema ', 'Same old tale done differently', 'Different masala movie', 'Fantastic Screenplay  ', 'Rangasthalam', 'Rangasthalam one intense drama Tollywood recent timesSukumar s terrific direction Ram Charan s career best performance delight watch ', 'entertaining ', 'Way long Movie', 'Perfect brilliant movie', 'Nothing new', 'Great movie  ', 'Waste time', 'A national award deserving masterpiece   ', 'Ram charan shines like never', 'Just Awesome ', '21st Century Telugu Classic  Telugu Golden Era2 started', 'Ina single word   Masterpiece ', 'All emotions taken care ', 'Lack direction', 'Overrated  But decent movie ', 'Excellent film', 'Chitti babu Mass', 'Sukumar plays safe time  packs solid commercial entertainer ', 'Love  Struggle support acting Totally unbelievable ']</t>
         </is>
       </c>
     </row>
@@ -38321,7 +38321,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>['Bollywood crime thriller', 'Entertaining', 'The law crime ...', 'Convoluted', 'Molecule Review : Vikram Vedha', 'Smartly written , beautifully executed superbly acted , A Must watch', 'Extremely well developed plot , film take seriously .', 'Vikram Vedha ( 2017 )', 'Vikram Vedha ( 2017 )', 'Vikram Vedha Review : Tamil Cinema reaches high point film !', 'Masterpiece ! !', 'Vikram Vedha Created Pushkar &amp; Gayatri Standard Terms Neo-Noir Thriller ! ! !', "The story n't blow . It 's way 's made", 'Vikram Vedha one best movies 2017 mind blowing performances direction.A Must Watch .', 'Reviews ratings .', 'Vikram Vedha Review', 'Finest film', "Vikram Vedha : Do n't miss OTT 's must-watch thriller 2022", 'Inspired The Dark Knight !', "Tamil film industry 's answer Neo Noir film making - Rock solid sure missed", 'Very impressive cat-and-mouse Tamil movie', 'One time watchable', 'Mindblowing', 'Good watch thriller fans', 'Perfect neo-noir Tamil Cinema Industry']</t>
+          <t>['Bollywood crime thriller', 'Entertaining', 'The law crime ', 'Convoluted', 'Molecule Review  Vikram Vedha', 'Smartly written  beautifully executed superbly acted  A Must watch', 'Extremely well developed plot  film take seriously ', 'Vikram Vedha  2017 ', 'Vikram Vedha  2017 ', 'Vikram Vedha Review  Tamil Cinema reaches high point film ', 'Masterpiece  ', 'Vikram Vedha Created Pushkar  Gayatri Standard Terms NeoNoir Thriller   ', 'The story nt blow  It s way s made', 'Vikram Vedha one best movies 2017 mind blowing performances directionA Must Watch ', 'Reviews ratings ', 'Vikram Vedha Review', 'Finest film', 'Vikram Vedha  Do nt miss OTT s mustwatch thriller 2022', 'Inspired The Dark Knight ', 'Tamil film industry s answer Neo Noir film making  Rock solid sure missed', 'Very impressive catandmouse Tamil movie', 'One time watchable', 'Mindblowing', 'Good watch thriller fans', 'Perfect neonoir Tamil Cinema Industry']</t>
         </is>
       </c>
     </row>
@@ -38365,7 +38365,7 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>['Well worth seeing .', 'A Masterstroke !', 'Milkha Singh Has Won . So Has The Biographical Film . Everybody Rise ! ♦ 80 %', 'Though may find energetic projected real cinema revive Hindi Film Industry .', 'Bhaag Milkha Bhaag : Runs well best', 'Hardwork , Willpower Dedication - For person qualities , sky limit', "Well earned Title - 'The flying Sikh '", "Each subplot stretched 400m could 've ended 100m dash . That n't stop Bhaag Milkha Bhaag thoroughly entertaining biopic , Bollywood style .", 'Moderately Recommended 👍👎', 'To live rarest thing world . Most people exist - Oscar Wilde', 'A Very Good Biopic That Could Have Been Way Better', 'Nice Inspirational biopic though slow overlong ......', 'Bhaag Milkha Bhaag ( U ) Hindi -- -- -- -- -- -- -- - Rating : ★★★½ RUNS REALLY HARD TOWARDS THE FINISH LINE', 'This best movie', 'An extra ordinary journey ordinary person', 'One good biopics', 'Farhan proved self', 'MY REVIEW : Run Farhan Run ! !', 'A laudable achievement inspirational cinema', 'A movie zero haters', 'A good biographical attempt ...', 'A biopic deserves accolades- made conviction ......', 'A MUST WATCH !', "'Bhaag Milkha Bhaag ' runs bollywood 's Gold", 'Amazing film - wholesome , honest , heart warming , mind blowing .']</t>
+          <t>['Well worth seeing ', 'A Masterstroke ', 'Milkha Singh Has Won  So Has The Biographical Film  Everybody Rise   80 ', 'Though may find energetic projected real cinema revive Hindi Film Industry ', 'Bhaag Milkha Bhaag  Runs well best', 'Hardwork  Willpower Dedication  For person qualities  sky limit', 'Well earned Title  The flying Sikh ', 'Each subplot stretched 400m could ve ended 100m dash  That nt stop Bhaag Milkha Bhaag thoroughly entertaining biopic  Bollywood style ', 'Moderately Recommended ', 'To live rarest thing world  Most people exist  Oscar Wilde', 'A Very Good Biopic That Could Have Been Way Better', 'Nice Inspirational biopic though slow overlong ', 'Bhaag Milkha Bhaag  U  Hindi         Rating   RUNS REALLY HARD TOWARDS THE FINISH LINE', 'This best movie', 'An extra ordinary journey ordinary person', 'One good biopics', 'Farhan proved self', 'MY REVIEW  Run Farhan Run  ', 'A laudable achievement inspirational cinema', 'A movie zero haters', 'A good biographical attempt ', 'A biopic deserves accolades made conviction ', 'A MUST WATCH ', 'Bhaag Milkha Bhaag  runs bollywood s Gold', 'Amazing film  wholesome  honest  heart warming  mind blowing ']</t>
         </is>
       </c>
     </row>
@@ -38409,7 +38409,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>['A Great Effort !', 'A tale human condition . One best biopic Bollywood . Irrfan awesome .', 'Feeling proud well ashamed watching honest well crafted film revealing bitter truth .', 'Highly recommended ! ! !', 'Made competently good biopic , acting well top notch worth watch Irfan Khan .', 'Paan Singh Tomar ( U/A ) Hindi -- -- -- -- - Rating : ★★★★ TRUE STORY', 'Finally something worthy watching .', 'A journey soldier rebel', 'A Splendid Movie ! Irrfan Khan Phenomenal ! !', 'A piece history', 'A great film Tigmanshu Dhulia issue needed told', 'One Of The Better Movies Of Bollywood .', 'I renewed respect Irrfan Khan', 'Will miss Irrfan sir', 'Licenses Money !', 'Mark Maturity', 'Masterpiece Irrfan u beauty', 'Cinematic Brilliance !', 'An actor shines .', "Ca n't hold tear", 'National Athlete turns Chamba Valley Dacoit govt machinery fails protect', 'Another masterpiece Irfan Khan', 'Paan Singh Tomar ∞ The Most Important Movie Indian Sports ∞', 'Fantastic Movie']</t>
+          <t>['A Great Effort ', 'A tale human condition  One best biopic Bollywood  Irrfan awesome ', 'Feeling proud well ashamed watching honest well crafted film revealing bitter truth ', 'Highly recommended   ', 'Made competently good biopic  acting well top notch worth watch Irfan Khan ', 'Paan Singh Tomar  UA  Hindi      Rating   TRUE STORY', 'Finally something worthy watching ', 'A journey soldier rebel', 'A Splendid Movie  Irrfan Khan Phenomenal  ', 'A piece history', 'A great film Tigmanshu Dhulia issue needed told', 'One Of The Better Movies Of Bollywood ', 'I renewed respect Irrfan Khan', 'Will miss Irrfan sir', 'Licenses Money ', 'Mark Maturity', 'Masterpiece Irrfan u beauty', 'Cinematic Brilliance ', 'An actor shines ', 'Ca nt hold tear', 'National Athlete turns Chamba Valley Dacoit govt machinery fails protect', 'Another masterpiece Irfan Khan', 'Paan Singh Tomar  The Most Important Movie Indian Sports ', 'Fantastic Movie']</t>
         </is>
       </c>
     </row>
@@ -38453,7 +38453,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>['Needs good photography', 'This Tom Cruise', 'Much Better Than First One', 'Top Gun : Maverick', 'I expect .', 'Talk Goose', 'Entertaining Blockbuster', 'I feel need ... need cheeze !', 'Thirty-six years Top Gun , Maverick returns .', 'A top film top guns', "A great quality beefy fast food burger blockbuster , even 's still burger", 'Tom Cruise outdoes sequel Top Gun : Maverick', 'Amazing sequel', 'OK But Way Over-Rated Sequel ( 36 Years ) ... Same &amp; Lame Macho Mayhem Muscle Tech', 'Highly entertaining', 'A Non-CGI Action Movie That Worked', 'Planes', 'A Good Sequel Outstanding Action Film', 'These best airplane movie scenes ever created .', 'Awful pacing &amp; overemphasis nostalgia severely dampen earnest value', 'Decent Popcorn Movie', 'That impressive !', 'Worthy sequel - feel good fun', 'Cruise throws Summer movie gauntlet', 'I feel need ...']</t>
+          <t>['Needs good photography', 'This Tom Cruise', 'Much Better Than First One', 'Top Gun  Maverick', 'I expect ', 'Talk Goose', 'Entertaining Blockbuster', 'I feel need  need cheeze ', 'Thirtysix years Top Gun  Maverick returns ', 'A top film top guns', 'A great quality beefy fast food burger blockbuster  even s still burger', 'Tom Cruise outdoes sequel Top Gun  Maverick', 'Amazing sequel', 'OK But Way OverRated Sequel  36 Years   Same  Lame Macho Mayhem Muscle Tech', 'Highly entertaining', 'A NonCGI Action Movie That Worked', 'Planes', 'A Good Sequel Outstanding Action Film', 'These best airplane movie scenes ever created ', 'Awful pacing  overemphasis nostalgia severely dampen earnest value', 'Decent Popcorn Movie', 'That impressive ', 'Worthy sequel  feel good fun', 'Cruise throws Summer movie gauntlet', 'I feel need ']</t>
         </is>
       </c>
     </row>
@@ -38497,7 +38497,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>["May n't original movie I seen , still outstanding movie", 'Not quite hype', 'New Neighbors Take Out An Old Marriage', 'Obsessions secrets Suburbia', 'Obsessions deadly', 'puzzle', 'An American Tale', "A bit pretentious times , exaggerated others still touch nerve us look ` stuff ' wonder happiness went", '`` American Beauty `` 1999 `` The Graduate `` 1967', 'For anyone ever wondered future might hold questioned could .', 'A really fine , unique movie life , youngsters .', 'Thinly-conceived , arrogantly brilliant ...', 'staggering', 'A GREAT movie', 'Look closer ... indeed', 'In last 13 years , American Beauty remains culturally worthy film observe', 'A Film Finger Pulse', 'We need talk Kevin', 'A masterpiece . A shocking look personal collapse .', 'A Rose By Any Other Name', 'Beautiful , profound , emotional movie', 'I Mean Hello What ` The Fuss ?', 'Over-Hyped Movie Bitter Disappointment', 'Story structure reminiscent novel I would interested reading', "It 's couch !"]</t>
+          <t>['May nt original movie I seen  still outstanding movie', 'Not quite hype', 'New Neighbors Take Out An Old Marriage', 'Obsessions secrets Suburbia', 'Obsessions deadly', 'puzzle', 'An American Tale', 'A bit pretentious times  exaggerated others still touch nerve us look  stuff  wonder happiness went', ' American Beauty  1999  The Graduate  1967', 'For anyone ever wondered future might hold questioned could ', 'A really fine  unique movie life  youngsters ', 'Thinlyconceived  arrogantly brilliant ', 'staggering', 'A GREAT movie', 'Look closer  indeed', 'In last 13 years  American Beauty remains culturally worthy film observe', 'A Film Finger Pulse', 'We need talk Kevin', 'A masterpiece  A shocking look personal collapse ', 'A Rose By Any Other Name', 'Beautiful  profound  emotional movie', 'I Mean Hello What  The Fuss ', 'OverHyped Movie Bitter Disappointment', 'Story structure reminiscent novel I would interested reading', 'It s couch ']</t>
         </is>
       </c>
     </row>
@@ -38541,7 +38541,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>["Exceptionally well done though 's sort film everyone ... movie ?", 'Brilliant', 'The Summit', 'terrific Michael Mann style', "It 's incredible good movie , sensational acting .", 'More De Niro Pacino', "A Duel Titans One Great Movie 1990 's", 'A great cop thriller rich tapestry characters subplots topped two fantastic actors brought together first time', 'Quite crime action ...', 'Pacino DeNiro , together last', 'The First Great Matchup DeNiro Pacino', 'Is possible put ten stars ?', 'One Of The Best Crime Films Ever', 'Clash Titans', 'pretty tight 3 hour crime epic', 'Superior entertainment .', 'May Or May Not Be Too Much ... Depending', 'Brilliant', "You n't live , live among remains dead people .", 'Good But Overlong', 'De Niro v. Pacino ... Fight !', 'Overdone good', 'My rating strictly action sequences', 'Wow', 'You find rooting sides entire film .']</t>
+          <t>['Exceptionally well done though s sort film everyone  movie ', 'Brilliant', 'The Summit', 'terrific Michael Mann style', 'It s incredible good movie  sensational acting ', 'More De Niro Pacino', 'A Duel Titans One Great Movie 1990 s', 'A great cop thriller rich tapestry characters subplots topped two fantastic actors brought together first time', 'Quite crime action ', 'Pacino DeNiro  together last', 'The First Great Matchup DeNiro Pacino', 'Is possible put ten stars ', 'One Of The Best Crime Films Ever', 'Clash Titans', 'pretty tight 3 hour crime epic', 'Superior entertainment ', 'May Or May Not Be Too Much  Depending', 'Brilliant', 'You nt live  live among remains dead people ', 'Good But Overlong', 'De Niro v Pacino  Fight ', 'Overdone good', 'My rating strictly action sequences', 'Wow', 'You find rooting sides entire film ']</t>
         </is>
       </c>
     </row>
@@ -38585,7 +38585,7 @@
       </c>
       <c r="J867" t="inlineStr">
         <is>
-          <t>['I understand love film .', "Did n't anything", 'Gangster violence whole new level', 'A Wild , Violent Downright Insane Ride', 'One Man Show', 'surprising', 'Say hello little friend', 'An OK film overblown , lacking characters subtlety OTT performances match', 'Violent chronicle rise fall dangerous gangster easily ranks one best mobster genre', 'Say hello little film ...', 'Make way bad guy .', "De Palma 's Masterpiece ?", 'One iconic gangster films times', "Being A Gangster - It 's Not All Glamor !", 'Violence purpose shocking ...', 'Fascinating storytelling , fascinating lead performance', 'Say ello lil friend', 'The world .', 'Taking advantage land free . Crime price .', 'A Crazy Coked Up Dream', 'A Good Film In Parts But One With Serious Flaws', 'The standout gun battle sequences', 'Impossible dislike', 'Brought To You By Letter F', 'Everything movie perfect']</t>
+          <t>['I understand love film ', 'Did nt anything', 'Gangster violence whole new level', 'A Wild  Violent Downright Insane Ride', 'One Man Show', 'surprising', 'Say hello little friend', 'An OK film overblown  lacking characters subtlety OTT performances match', 'Violent chronicle rise fall dangerous gangster easily ranks one best mobster genre', 'Say hello little film ', 'Make way bad guy ', 'De Palma s Masterpiece ', 'One iconic gangster films times', 'Being A Gangster  It s Not All Glamor ', 'Violence purpose shocking ', 'Fascinating storytelling  fascinating lead performance', 'Say ello lil friend', 'The world ', 'Taking advantage land free  Crime price ', 'A Crazy Coked Up Dream', 'A Good Film In Parts But One With Serious Flaws', 'The standout gun battle sequences', 'Impossible dislike', 'Brought To You By Letter F', 'Everything movie perfect']</t>
         </is>
       </c>
     </row>
@@ -38629,7 +38629,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>['A visual assault senses hellishness addiction .', 'Powerful', 'Harrowing', 'No Future At All', 'Disturbing unique vision', 'I Will Never Recommend It Anyone', 'The Hit', 'Amazing , makes feel bad .', 'mind-blowing', 'Dreams turn nightmares tale four Coney Island residents troubled addiction', 'A Post-Trainspotting Look Heroin', 'Innovative , Wow .', 'Should Be Required Viewing', 'Jagged little pills', 'dreams nightmares collide ...', "A unique look addiction Aronofsky/Selby ; 's best DARE movie never made ( would made )", 'Drugs bad , mmmkay ?', 'More seems', 'Brilliant - searing depiction drug addiction', 'Cocaine Pi', 'Shattering expose fallible human condition .', "I Respect Art , Even It 's Not My Type", 'Brilliant disturbing', 'Hard watch unflinching', 'A Remarkable Film']</t>
+          <t>['A visual assault senses hellishness addiction ', 'Powerful', 'Harrowing', 'No Future At All', 'Disturbing unique vision', 'I Will Never Recommend It Anyone', 'The Hit', 'Amazing  makes feel bad ', 'mindblowing', 'Dreams turn nightmares tale four Coney Island residents troubled addiction', 'A PostTrainspotting Look Heroin', 'Innovative  Wow ', 'Should Be Required Viewing', 'Jagged little pills', 'dreams nightmares collide ', 'A unique look addiction AronofskySelby  s best DARE movie never made  would made ', 'Drugs bad  mmmkay ', 'More seems', 'Brilliant  searing depiction drug addiction', 'Cocaine Pi', 'Shattering expose fallible human condition ', 'I Respect Art  Even It s Not My Type', 'Brilliant disturbing', 'Hard watch unflinching', 'A Remarkable Film']</t>
         </is>
       </c>
     </row>
@@ -38673,7 +38673,7 @@
       </c>
       <c r="J869" t="inlineStr">
         <is>
-          <t>['Absolutely wonderful', 'imaginative concept', 'Real Food Thought', '', 'Weird wonderful .', "Here 's I 'd like erased memory ...", 'Not good I remembered .', 'Love , Forgetting ... Fate , Chance', "`` I 'm impulsive person ... I woke funk morning . ``", 'Memory change ... heart prevails', 'modern artistic triumph involved', 'Chaotic good', 'Insanely original intelligent movie', 'The Size Brick', "Someone please , n't erase memory !", 'Worth Watch', 'A science-fiction oddity', "I ca n't objective", 'Realization ...', 'If true', 'Blessed forgetful , get better even blunders .', 'Memories , Like Corners My Mind', '`` Nice `` movie proves ride matters', 'Unique .', 'Truly beautiful surreal']</t>
+          <t>['Absolutely wonderful', 'imaginative concept', 'Real Food Thought', '', 'Weird wonderful ', 'Here s I d like erased memory ', 'Not good I remembered ', 'Love  Forgetting  Fate  Chance', ' I m impulsive person  I woke funk morning  ', 'Memory change  heart prevails', 'modern artistic triumph involved', 'Chaotic good', 'Insanely original intelligent movie', 'The Size Brick', 'Someone please  nt erase memory ', 'Worth Watch', 'A sciencefiction oddity', 'I ca nt objective', 'Realization ', 'If true', 'Blessed forgetful  get better even blunders ', 'Memories  Like Corners My Mind', ' Nice  movie proves ride matters', 'Unique ', 'Truly beautiful surreal']</t>
         </is>
       </c>
     </row>
@@ -38717,7 +38717,7 @@
       </c>
       <c r="J870" t="inlineStr">
         <is>
-          <t>['As long realize LOTS errors movie , entertaining', 'Incredible', 'Too sentimental', 'The Genius In Our Midst', 'A Sensitive , Remarkable Look Genius', 'exceptional', 'Entertaining piece sentimental Hollywood tosh', 'Well done , `` Finding Forrester `` even better .', 'The Best Thing Kevin Smith Ever Touched', 'From South Boston , go ? Out west maybe ?', "Robin William 's great . The rest film average", 'Quite good , except bogus ending', 'Funny Brilliant- One Best Films 1997', 'A Working Class Hero Is Something Be', 'A Not So Beautiful Mind Surrounds An Impressive Innate Intellect', 'Snark Hunting', 'It ` Not Good', 'How like dem apples ?', 'Excellent ... except Matt Damon', 'Good Will Hunting good enough', 'An Emotionally Disturbed Mathmatical Genius South Boston', 'Gus van Sant Gets Sappy', 'Impressive , bit predictable', "F * * * , Will Hunting ( character ) n't f * * * ing good", 'Good Will Hunting']</t>
+          <t>['As long realize LOTS errors movie  entertaining', 'Incredible', 'Too sentimental', 'The Genius In Our Midst', 'A Sensitive  Remarkable Look Genius', 'exceptional', 'Entertaining piece sentimental Hollywood tosh', 'Well done   Finding Forrester  even better ', 'The Best Thing Kevin Smith Ever Touched', 'From South Boston  go  Out west maybe ', 'Robin William s great  The rest film average', 'Quite good  except bogus ending', 'Funny Brilliant One Best Films 1997', 'A Working Class Hero Is Something Be', 'A Not So Beautiful Mind Surrounds An Impressive Innate Intellect', 'Snark Hunting', 'It  Not Good', 'How like dem apples ', 'Excellent  except Matt Damon', 'Good Will Hunting good enough', 'An Emotionally Disturbed Mathmatical Genius South Boston', 'Gus van Sant Gets Sappy', 'Impressive  bit predictable', 'F     Will Hunting  character  nt f    ing good', 'Good Will Hunting']</t>
         </is>
       </c>
     </row>
@@ -38761,7 +38761,7 @@
       </c>
       <c r="J871" t="inlineStr">
         <is>
-          <t>['2001 : A Mesmerising Odyssey', "Kubrick 's outer space masterpiece", 'The Biggest Fast Forward', 'Not popcorn movie', "Yeah There 's Not Much Story But Who Cares ?", 'A Few Random Comments', 'Music Space : A Odyssey', 'Visually spellbinding , film remains magical .', 'Genius', 'Painfully slow times , fascinating exciting others \x96 intelligent sci-fi looks great engaging despite weak aspects', 'Slow paced wrecked pompous music ...', 'An epic drama adventure exploration The Ultimate Trip .', 'In space , no-one hear yawn .', 'Visually Stunning , But Perhaps Overrated', "A Unique Film Which Has Reached 'Classic ' Status", 'Voice HAL performance unto ...', 'Absolute masterpiece', 'proverbial `` good `` science fiction movie- meant seen BIG screen', 'HAL Opens Doors', "I 'm sorry , Dave . I 'm afraid I ca n't .", 'Out world tremendous . An instant classic .', 'Meditative Movie With Complex Contemplation', 'Good ... great . More style substance .', 'Let Me Explain Why I Gave It Half Marks', 'Can I extract middle ?']</t>
+          <t>['2001  A Mesmerising Odyssey', 'Kubrick s outer space masterpiece', 'The Biggest Fast Forward', 'Not popcorn movie', 'Yeah There s Not Much Story But Who Cares ', 'A Few Random Comments', 'Music Space  A Odyssey', 'Visually spellbinding  film remains magical ', 'Genius', 'Painfully slow times  fascinating exciting others  intelligent scifi looks great engaging despite weak aspects', 'Slow paced wrecked pompous music ', 'An epic drama adventure exploration The Ultimate Trip ', 'In space  noone hear yawn ', 'Visually Stunning  But Perhaps Overrated', 'A Unique Film Which Has Reached Classic  Status', 'Voice HAL performance unto ', 'Absolute masterpiece', 'proverbial  good  science fiction movie meant seen BIG screen', 'HAL Opens Doors', 'I m sorry  Dave  I m afraid I ca nt ', 'Out world tremendous  An instant classic ', 'Meditative Movie With Complex Contemplation', 'Good  great  More style substance ', 'Let Me Explain Why I Gave It Half Marks', 'Can I extract middle ']</t>
         </is>
       </c>
     </row>
@@ -38805,7 +38805,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>['Technically well made .... NOT good history lesson .', 'Visually stunning wonderful score , deeply flawed', 'Historical war par excellence', 'Rip Roaring Fun', 'Quite Hero', 'faith', 'Freedom', 'A masterpiece .', 'Masterpiece', 'Still amazing movie ...', 'Epic recreation notorious Scottish hero purposes free country tyranny Edward I', "I 'm descendant Sir William Wallace .", 'An Enjoyable Film , But Winner Five Oscars ... Really ?', "Gibson 's best director- melodramatic better expected measure , bloody violence", 'Freedom !', 'Cowardly But Entertaining Enough', 'One worst Best Picture Oscar winners', 'Historical flaws aside , Braveheart rousing spectacle .', 'Braveheart unique revolutionary movie delivers everything audience could hope : action , compelling hero , detestable villain , touch love', 'Give Me Break , Mel Gibson', 'A modern classic epic .', 'Marvelous Mel', 'Starts meh , gets good 90 minutes , loses mojo last hour', 'Good epic', 'FREEDOM ! ! ! ... blue paint .']</t>
+          <t>['Technically well made  NOT good history lesson ', 'Visually stunning wonderful score  deeply flawed', 'Historical war par excellence', 'Rip Roaring Fun', 'Quite Hero', 'faith', 'Freedom', 'A masterpiece ', 'Masterpiece', 'Still amazing movie ', 'Epic recreation notorious Scottish hero purposes free country tyranny Edward I', 'I m descendant Sir William Wallace ', 'An Enjoyable Film  But Winner Five Oscars  Really ', 'Gibson s best director melodramatic better expected measure  bloody violence', 'Freedom ', 'Cowardly But Entertaining Enough', 'One worst Best Picture Oscar winners', 'Historical flaws aside  Braveheart rousing spectacle ', 'Braveheart unique revolutionary movie delivers everything audience could hope  action  compelling hero  detestable villain  touch love', 'Give Me Break  Mel Gibson', 'A modern classic epic ', 'Marvelous Mel', 'Starts meh  gets good 90 minutes  loses mojo last hour', 'Good epic', 'FREEDOM     blue paint ']</t>
         </is>
       </c>
     </row>
@@ -38849,7 +38849,7 @@
       </c>
       <c r="J873" t="inlineStr">
         <is>
-          <t>['Controversial yet fascinating', 'orchestra violence', 'Incredible Vision Future Ultra-Violence', 'strange', 'The milky bar kid', 'State mind', 'Interesting flawed', 'A provocative polemic Kubrick work outstanding acting McDowell', 'insanity', "Codpiece : Check ! Bowler hat : Check ! Eyeliner : Check ! I 'm ready", "Could Kubrick 's Best Film ( Easily His Most Famous )", 'Visionary masterpiece supreme master', 'Explicit savagery implicit satire', "one masterpieces 70 's subversive cinema - Kubrick peak", 'Cinematically weird', "`` No time ol ' in-out , love , I came read meter . ``", 'If Sex Violence Make You Sick', "Kubrick 's brilliant , darkly-funny , subversive masterpiece", 'Ultra Violent ? Ultra Silly More Like', 'What Was Point All ?', 'Dated', 'Milk', 'Incredibly Shocking Disturbing Its Time', 'This time masterpiece', 'The insincerity clear seen . He ceases wrongdoer . He ceases also creature capable moral choice .']</t>
+          <t>['Controversial yet fascinating', 'orchestra violence', 'Incredible Vision Future UltraViolence', 'strange', 'The milky bar kid', 'State mind', 'Interesting flawed', 'A provocative polemic Kubrick work outstanding acting McDowell', 'insanity', 'Codpiece  Check  Bowler hat  Check  Eyeliner  Check  I m ready', 'Could Kubrick s Best Film  Easily His Most Famous ', 'Visionary masterpiece supreme master', 'Explicit savagery implicit satire', 'one masterpieces 70 s subversive cinema  Kubrick peak', 'Cinematically weird', ' No time ol  inout  love  I came read meter  ', 'If Sex Violence Make You Sick', 'Kubrick s brilliant  darklyfunny  subversive masterpiece', 'Ultra Violent  Ultra Silly More Like', 'What Was Point All ', 'Dated', 'Milk', 'Incredibly Shocking Disturbing Its Time', 'This time masterpiece', 'The insincerity clear seen  He ceases wrongdoer  He ceases also creature capable moral choice ']</t>
         </is>
       </c>
     </row>
@@ -38893,7 +38893,7 @@
       </c>
       <c r="J874" t="inlineStr">
         <is>
-          <t>['Very well made -- tough watch .', "Superb , one Kubrick 's best", 'The war hell demon drill sergeant', 'The making marines', 'one compelling war movies', 'Let Debate Begin', 'Why Was He There ?', 'Not quite full picture', 'A good ( heavy handed ) anti-war movie enjoyable vein black humour', 'An epic impressive story Vietnam War divided two halves competently directed Stanley Kubrick', 'Be prepared .', "One Kubrick 's Most Celebrated Films", 'Full Lethal Kubrick', "Ermey 's Outbursts Made This Film Famous", 'Kubrick war see war usually', 'Hauntingly realistic', 'That Giant Sucking Sound', 'Developing persona war .', 'Kubrick Should Have Stopped While He Was Ahead', "Kubrick 's 3rd ( Anti ) War Film Director 's 3rd Best ( Anti ) War Film", "Kubrick 's Vietnam War masterpiece", "The Marine 's n't want robots - want killers .", 'A Film Of Two Halves', 'Dwells rigorous training battle front', 'Two parts']</t>
+          <t>['Very well made  tough watch ', 'Superb  one Kubrick s best', 'The war hell demon drill sergeant', 'The making marines', 'one compelling war movies', 'Let Debate Begin', 'Why Was He There ', 'Not quite full picture', 'A good  heavy handed  antiwar movie enjoyable vein black humour', 'An epic impressive story Vietnam War divided two halves competently directed Stanley Kubrick', 'Be prepared ', 'One Kubrick s Most Celebrated Films', 'Full Lethal Kubrick', 'Ermey s Outbursts Made This Film Famous', 'Kubrick war see war usually', 'Hauntingly realistic', 'That Giant Sucking Sound', 'Developing persona war ', 'Kubrick Should Have Stopped While He Was Ahead', 'Kubrick s 3rd  Anti  War Film Director s 3rd Best  Anti  War Film', 'Kubrick s Vietnam War masterpiece', 'The Marine s nt want robots  want killers ', 'A Film Of Two Halves', 'Dwells rigorous training battle front', 'Two parts']</t>
         </is>
       </c>
     </row>
@@ -38937,7 +38937,7 @@
       </c>
       <c r="J875" t="inlineStr">
         <is>
-          <t>["In personal opinion , Pixar 's funniest poignant film", 'Real tear jerker opening', 'Wonderful Gem Pixar', 'Sweet Film With Memorable Characters !', 'superb', 'Adventure', 'An outstanding movie .', 'Same Pixar , different year', 'A Surrealistic Adventure Full Sentiments', 'Hits heart early follows tremendously engaging entertaining adventure', 'Sky pilots , high fly ?', 'Pretty Decent Pixar Film', 'Another Feast For The Eyes', 'Up away', 'Sweet sentimentality raucous kiddie comedy ... always sublime mixture , intentions true', 'The time I cried watching animation film Bambi', 'Let lift !', 'Brilliant', 'Falls', 'Uppers Downers', 'Life interesting theme', 'Paradox', 'Outstanding', 'Adventure !', 'Up , Up Air My Beautiful Balloon']</t>
+          <t>['In personal opinion  Pixar s funniest poignant film', 'Real tear jerker opening', 'Wonderful Gem Pixar', 'Sweet Film With Memorable Characters ', 'superb', 'Adventure', 'An outstanding movie ', 'Same Pixar  different year', 'A Surrealistic Adventure Full Sentiments', 'Hits heart early follows tremendously engaging entertaining adventure', 'Sky pilots  high fly ', 'Pretty Decent Pixar Film', 'Another Feast For The Eyes', 'Up away', 'Sweet sentimentality raucous kiddie comedy  always sublime mixture  intentions true', 'The time I cried watching animation film Bambi', 'Let lift ', 'Brilliant', 'Falls', 'Uppers Downers', 'Life interesting theme', 'Paradox', 'Outstanding', 'Adventure ', 'Up  Up Air My Beautiful Balloon']</t>
         </is>
       </c>
     </row>
@@ -38981,7 +38981,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>['Extraordinary crime drama', 'Mature reflective film-making', 'Sergio Leone epic', 'RIP Treat Williams .', "A wonderful epic really one man 's regret - excellent", 'Saga four young men growing Brooklyn the20s become powerful mob figures', "Sergio Leone 's grand ambition .", "Leone 's gangster masterpiece .", 'The Quintessential Gangster Film ?', "Leone 's `` Godfather `` Version , And About As Good", 'Reflections turbulent life', 'A sprawling , deliberately paced , generally superbly crafted piece work', 'Slow molasses', 'From young age learned rule world .', 'Delightfully Detailed', 'OK great', "Sergio Leone 's final film masterpiece ... almost four hour version", 'Happy Birthday Max', 'longest film ever !', 'How Should I Feel About This Movie ?', 'Excellent gangster film great film-maker', 'Too Long ! ! ! !', 'Once Upon Time America', 'Long boring .', 'A great film , dare I say ... bit over-long']</t>
+          <t>['Extraordinary crime drama', 'Mature reflective filmmaking', 'Sergio Leone epic', 'RIP Treat Williams ', 'A wonderful epic really one man s regret  excellent', 'Saga four young men growing Brooklyn the20s become powerful mob figures', 'Sergio Leone s grand ambition ', 'Leone s gangster masterpiece ', 'The Quintessential Gangster Film ', 'Leone s  Godfather  Version  And About As Good', 'Reflections turbulent life', 'A sprawling  deliberately paced  generally superbly crafted piece work', 'Slow molasses', 'From young age learned rule world ', 'Delightfully Detailed', 'OK great', 'Sergio Leone s final film masterpiece  almost four hour version', 'Happy Birthday Max', 'longest film ever ', 'How Should I Feel About This Movie ', 'Excellent gangster film great filmmaker', 'Too Long    ', 'Once Upon Time America', 'Long boring ', 'A great film  dare I say  bit overlong']</t>
         </is>
       </c>
     </row>
@@ -39025,7 +39025,7 @@
       </c>
       <c r="J877" t="inlineStr">
         <is>
-          <t>["Once Again : The Children 's Hour", 'This one powerful film .', 'Rumor Mill', 'Incredible', 'Very engaging unnerving', 'Great , incredibly riveting , suffocating drama', 'Rudimentary Treatment Of A Serious Topic', 'Compelling Premise Becomes Preposterous', 'Mob Rules', 'unstoppable fire modern day witch hunt', "'The world full evil hold n , goes away . '", 'Tackles heavy themes poise ; heartbreaking powerful stuff .', 'The danger jumping conclusions', 'Vinterberg eventually finds equilibrium full-grown aesthetics biting social critique advent THE HUNT', 'Classy disturbing tale small town injustice .', 'Excellent !', 'Simply Incredible ! ! Everyone see .', 'Madds Mikkelsen `` hunted one `` ...', "Do n't die watching Masterpiece . Danish Cinema delivers Mind-Shattering Universal Concept .", 'The fragility social contract', 'Heartbreaking also masterfully made .', 'One Strongest Contenders Best Foreign Language Film Oscar , This Year .', 'Jagten ( The Hunt ) - A Gut-Wrenching Experience', 'One Little Lie', 'Gripping']</t>
+          <t>['Once Again  The Children s Hour', 'This one powerful film ', 'Rumor Mill', 'Incredible', 'Very engaging unnerving', 'Great  incredibly riveting  suffocating drama', 'Rudimentary Treatment Of A Serious Topic', 'Compelling Premise Becomes Preposterous', 'Mob Rules', 'unstoppable fire modern day witch hunt', 'The world full evil hold n  goes away  ', 'Tackles heavy themes poise  heartbreaking powerful stuff ', 'The danger jumping conclusions', 'Vinterberg eventually finds equilibrium fullgrown aesthetics biting social critique advent THE HUNT', 'Classy disturbing tale small town injustice ', 'Excellent ', 'Simply Incredible   Everyone see ', 'Madds Mikkelsen  hunted one  ', 'Do nt die watching Masterpiece  Danish Cinema delivers MindShattering Universal Concept ', 'The fragility social contract', 'Heartbreaking also masterfully made ', 'One Strongest Contenders Best Foreign Language Film Oscar  This Year ', 'Jagten  The Hunt   A GutWrenching Experience', 'One Little Lie', 'Gripping']</t>
         </is>
       </c>
     </row>
@@ -39069,7 +39069,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>['Best Pixar movie date !', 'A game changer', 'Ground breaking', 'Classic Tale Full Imagination', 'As Good It Gets !', 'Playmates', 'Technically impressive great script sharp wit', "Pixar 's feature beginnings", 'Excellent Viewing , Every Time !', 'A film last infinity beyond', "`` I 'm really Mattel ... I 'm smaller company purchased leveraged buyout . ``", 'One Best Animated Films Ever !', 'The recent 3-D version Toy Story adds great experience !', 'Entertaining adventure', 'Four Dimensional Toybox', 'As Buzz falls style , fall wholesale animated classic .', 'Toys come life entertaining computer-animated film Pixar ...', 'Toys', 'The One That Started It All', 'Perfect time panic', 'A wealth creativity man-hours went shows beautifully', 'Toy Story', '`` You toy ! ``', 'Not As Good As I Was Hoping', 'movie children']</t>
+          <t>['Best Pixar movie date ', 'A game changer', 'Ground breaking', 'Classic Tale Full Imagination', 'As Good It Gets ', 'Playmates', 'Technically impressive great script sharp wit', 'Pixar s feature beginnings', 'Excellent Viewing  Every Time ', 'A film last infinity beyond', ' I m really Mattel  I m smaller company purchased leveraged buyout  ', 'One Best Animated Films Ever ', 'The recent 3D version Toy Story adds great experience ', 'Entertaining adventure', 'Four Dimensional Toybox', 'As Buzz falls style  fall wholesale animated classic ', 'Toys come life entertaining computeranimated film Pixar ', 'Toys', 'The One That Started It All', 'Perfect time panic', 'A wealth creativity manhours went shows beautifully', 'Toy Story', ' You toy  ', 'Not As Good As I Was Hoping', 'movie children']</t>
         </is>
       </c>
     </row>
@@ -39113,7 +39113,7 @@
       </c>
       <c r="J879" t="inlineStr">
         <is>
-          <t>['Warning : This film NOT everyone ... even though brilliant .', 'A must see', 'Quentin Tarantino deconstructs crime movie', 'Pardon Me While I Bleed !', 'Simply brilliant ; short , tight taut', 'You wan na squirm ?', 'Sharp direction , sharp dialogue sharp suits .', "Tarantino 's Masterpiece", 'A magician born', "Practically tailor-made film buff ( well viewer watches occasionally ) , 'Dogs ' picture loaded brim terrific visceral energy", 'Quentin Tarantino Shoots Off Discourse Tipping', 'It took long revisit modern crime classic .', 'Defies A Conventional Rating', 'You might need watch twice ...', 'Tarantino Takes Off', 'Superb - one greatest movies ever made', 'For I know rat ; might best heist homage movie ever ?', "All dogs n't go heaven", 'Graphic crime film Tarantino ...', 'Great soundtrack', 'Reservoir Dogs stands crime drama masterpiece , possibly one greatest ever created', 'Hardened criminals parade', 'A piece movie history .', 'A stylish excellent example expert story-telling .', 'Ladies Gentleman : Quentin Tarantino ( nice slice pulp fiction )']</t>
+          <t>['Warning  This film NOT everyone  even though brilliant ', 'A must see', 'Quentin Tarantino deconstructs crime movie', 'Pardon Me While I Bleed ', 'Simply brilliant  short  tight taut', 'You wan na squirm ', 'Sharp direction  sharp dialogue sharp suits ', 'Tarantino s Masterpiece', 'A magician born', 'Practically tailormade film buff  well viewer watches occasionally   Dogs  picture loaded brim terrific visceral energy', 'Quentin Tarantino Shoots Off Discourse Tipping', 'It took long revisit modern crime classic ', 'Defies A Conventional Rating', 'You might need watch twice ', 'Tarantino Takes Off', 'Superb  one greatest movies ever made', 'For I know rat  might best heist homage movie ever ', 'All dogs nt go heaven', 'Graphic crime film Tarantino ', 'Great soundtrack', 'Reservoir Dogs stands crime drama masterpiece  possibly one greatest ever created', 'Hardened criminals parade', 'A piece movie history ', 'A stylish excellent example expert storytelling ', 'Ladies Gentleman  Quentin Tarantino  nice slice pulp fiction ']</t>
         </is>
       </c>
     </row>
@@ -39157,7 +39157,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>['How much enjoy highly dependent age .', 'Musical history', 'musical play film', 'A Great Representation', 'Hamilton', 'Very enjoyable musical theatre aspects genre present', 'treat', 'Really enjoyed', 'Brilliant : highly entertaining , edifying creative', 'superb', "Conceptually impressive , I liked , I n't love", 'Complex , emotional , lives hype', 'All Rise .', 'Great show', 'Hamilton Musical ? ; Not Me', 'Theatre Cinema Spectacular Nonetheless ...', 'Watch ...', 'Theatrically Revolutionary ; Cinematically Backwards', 'I fell asleep', 'Best seat house bringing play onto big screen .', 'An original musical delight', 'Much better ( unjustified ) expectations', 'Liked music , struggled follow story line', 'Hamilton', 'Woah ...']</t>
+          <t>['How much enjoy highly dependent age ', 'Musical history', 'musical play film', 'A Great Representation', 'Hamilton', 'Very enjoyable musical theatre aspects genre present', 'treat', 'Really enjoyed', 'Brilliant  highly entertaining  edifying creative', 'superb', 'Conceptually impressive  I liked  I nt love', 'Complex  emotional  lives hype', 'All Rise ', 'Great show', 'Hamilton Musical   Not Me', 'Theatre Cinema Spectacular Nonetheless ', 'Watch ', 'Theatrically Revolutionary  Cinematically Backwards', 'I fell asleep', 'Best seat house bringing play onto big screen ', 'An original musical delight', 'Much better  unjustified  expectations', 'Liked music  struggled follow story line', 'Hamilton', 'Woah ']</t>
         </is>
       </c>
     </row>
@@ -39201,7 +39201,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>['A promise much sacred thing', 'epic Greek tragedy', "Arab Spring 's origins", 'Dark Roots', 'A must watch', 'Intriguing drama', 'Geesh , What Feel Bad Movie', "Not simply 'scorching ' 'blistering '", 'It pulls close , never letting go last frame finally releases allows expell emotions one gut-wrenched gasp .', 'The Sins Of The Father', 'Cinema Omnivore - Incendies ( 2010 ) 7.9/10', 'A Nutshell Review : Incendies', 'One word : INCREDIBLE !', 'A Mind Shattering Heart Dissecting Masterpiece Unbelievable Tragedy . WOW ! ! !', 'Powerful . Intense . Unflinching . Devastating . Haunting .', 'Powerful Story', 'Tragedy , Turmoil &amp; Torment ...', 'Where Does Your Story Start ?', 'Effective contrived', 'Search everything ...', 'Wow', 'Gutwrenching , intense , beautiful , searing ( yes , scorching ) ...', 'Disturbing gripping', 'A stunning powerful thriller', 'Powerful , gripping plot great direction acting']</t>
+          <t>['A promise much sacred thing', 'epic Greek tragedy', 'Arab Spring s origins', 'Dark Roots', 'A must watch', 'Intriguing drama', 'Geesh  What Feel Bad Movie', 'Not simply scorching  blistering ', 'It pulls close  never letting go last frame finally releases allows expell emotions one gutwrenched gasp ', 'The Sins Of The Father', 'Cinema Omnivore  Incendies  2010  7910', 'A Nutshell Review  Incendies', 'One word  INCREDIBLE ', 'A Mind Shattering Heart Dissecting Masterpiece Unbelievable Tragedy  WOW   ', 'Powerful  Intense  Unflinching  Devastating  Haunting ', 'Powerful Story', 'Tragedy  Turmoil  Torment ', 'Where Does Your Story Start ', 'Effective contrived', 'Search everything ', 'Wow', 'Gutwrenching  intense  beautiful  searing  yes  scorching  ', 'Disturbing gripping', 'A stunning powerful thriller', 'Powerful  gripping plot great direction acting']</t>
         </is>
       </c>
     </row>
@@ -39245,7 +39245,7 @@
       </c>
       <c r="J882" t="inlineStr">
         <is>
-          <t>['Just plain weird ... I mean good way .', "Sacre bleu ! C'est magnifique !", 'charming whimsical', 'splendid grace', 'Amelie', 'One Sweetest Most Original Movies Cinema History', "Wittily observed quirky romance 's imaginative sweet", "A masterpiece , n't try deny !", "I Do n't Think More Perfect Film Has Ever Been Made", 'Brilliant Colors', "Le fabuleux destin d'Amélie Poulain", 'Shy people getting last laugh ...', "n't wo n't change life", "cute , weird , 's France", 'The `` magic `` one completely lost ...', 'Vive Amelie !', 'Charming tale girl lives amid world eccentrics ...', 'French', 'Style Over Substance', "It 's better help people garden gnomes .", 'There truly perfect films world . This one .', 'A Parisian Fairy Tale', 'Great story visual style . A movie fall love .', "Charming ... I n't think I `` got ``", 'VIVE LE FRANCE !']</t>
+          <t>['Just plain weird  I mean good way ', 'Sacre bleu  Cest magnifique ', 'charming whimsical', 'splendid grace', 'Amelie', 'One Sweetest Most Original Movies Cinema History', 'Wittily observed quirky romance s imaginative sweet', 'A masterpiece  nt try deny ', 'I Do nt Think More Perfect Film Has Ever Been Made', 'Brilliant Colors', 'Le fabuleux destin dAmlie Poulain', 'Shy people getting last laugh ', 'nt wo nt change life', 'cute  weird  s France', 'The  magic  one completely lost ', 'Vive Amelie ', 'Charming tale girl lives amid world eccentrics ', 'French', 'Style Over Substance', 'It s better help people garden gnomes ', 'There truly perfect films world  This one ', 'A Parisian Fairy Tale', 'Great story visual style  A movie fall love ', 'Charming  I nt think I  got ', 'VIVE LE FRANCE ']</t>
         </is>
       </c>
     </row>
@@ -39289,7 +39289,7 @@
       </c>
       <c r="J883" t="inlineStr">
         <is>
-          <t>['The Last Of The Force , I Doubt It', 'fine wrap-up', 'The Least Originl Trilogy Still Very Good', 'Very Exciting -- Just Lacking Bit', 'maybe , best part first trilogy', 'The Last Jedi', 'Muppets space ! A good film weak comparison two', 'Good movie , ...', 'At point , starting get gimmicky .', 'One Of The Best In The Series', "Fitting closure 'Star Wars ' series , DVD .", 'The end ? Or ?', 'Not best , still fun', '36 years 737 reviews later , new left said ? ...', 'Tonal Tapestry Shifts Hinder End Original Trilogy', 'This quite Bantha fodder .', 'The good guy wears black', 'It feels kind rushed', 'Good', 'This movie doesnt get much credit greatness', 'And , young Skywalker ... die .', 'The Boy Who Loved `` Star Wars ``', 'Not best certainly enjoyable saga .', 'He return , left behind wonder entertainment , short , almost good others', 'Finally story improves make movies .']</t>
+          <t>['The Last Of The Force  I Doubt It', 'fine wrapup', 'The Least Originl Trilogy Still Very Good', 'Very Exciting  Just Lacking Bit', 'maybe  best part first trilogy', 'The Last Jedi', 'Muppets space  A good film weak comparison two', 'Good movie  ', 'At point  starting get gimmicky ', 'One Of The Best In The Series', 'Fitting closure Star Wars  series  DVD ', 'The end  Or ', 'Not best  still fun', '36 years 737 reviews later  new left said  ', 'Tonal Tapestry Shifts Hinder End Original Trilogy', 'This quite Bantha fodder ', 'The good guy wears black', 'It feels kind rushed', 'Good', 'This movie doesnt get much credit greatness', 'And  young Skywalker  die ', 'The Boy Who Loved  Star Wars ', 'Not best certainly enjoyable saga ', 'He return  left behind wonder entertainment  short  almost good others', 'Finally story improves make movies ']</t>
         </is>
       </c>
     </row>
@@ -39333,7 +39333,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>['One Miyazaki films disappointed', 'Absolutely breathtaking !', 'Starts great loses way', 'great concepts dialog needs work', 'A impressive watch , packs punch .', 'Eco War', 'Not perfect still wonderful', 'Riveting marvelous cartoon movie genius Hayao Miyazaki', 'conflicts us', 'Japanese Cartoon Classic', "mind-shattering anime ; favorite Miyazaki 's films", "Okayish ... kid 's movie", 'Long , dull , badly dubbed', 'This time great , smart well done animated gem', 'This time great , smart well done animated gem', 'A beautiful blend adventure fairytale .', 'Not I expected', 'The artistry astonishing', 'Princess Mononoke', "one best films 've ever chance see", 'A tree falls woods ...', 'Beautiful nuanced', 'An open ended question , best kind', 'A beautifully executed film Studio Ghibli', 'Humans 2020 could learn movie .']</t>
+          <t>['One Miyazaki films disappointed', 'Absolutely breathtaking ', 'Starts great loses way', 'great concepts dialog needs work', 'A impressive watch  packs punch ', 'Eco War', 'Not perfect still wonderful', 'Riveting marvelous cartoon movie genius Hayao Miyazaki', 'conflicts us', 'Japanese Cartoon Classic', 'mindshattering anime  favorite Miyazaki s films', 'Okayish  kid s movie', 'Long  dull  badly dubbed', 'This time great  smart well done animated gem', 'This time great  smart well done animated gem', 'A beautiful blend adventure fairytale ', 'Not I expected', 'The artistry astonishing', 'Princess Mononoke', 'one best films ve ever chance see', 'A tree falls woods ', 'Beautiful nuanced', 'An open ended question  best kind', 'A beautifully executed film Studio Ghibli', 'Humans 2020 could learn movie ']</t>
         </is>
       </c>
     </row>
@@ -39377,7 +39377,7 @@
       </c>
       <c r="J885" t="inlineStr">
         <is>
-          <t>['Technically brilliant enjoyable still left bit flat .', 'To , far large best Pixar film date !', 'A new dimension ...', 'The whole gang back , time great escape', "Certainly Lives Up Everything You 've Heard", 'Stunning Story Animation', 'Playground', 'Wonderful Touching Adults Imagine Children', 'Not hilarious excellent all-round film poignancy , adventure , comedy drama one wonderfully animated package', 'masterpiece still enjoyable', '2010 Was Fantastic Year Cartoon Movies', 'Succeeds In Living Up To Expectations', 'One final playtime', 'trilogies considered whole complete , one', 'A great adventure everyone !', 'Great , sweet , funny , fun movie', 'Graduation', 'They back say fitting farewell Pixar play safe emotional equal measure .', 'Staying Fresh', 'Abandoned toys make great escape sequel exceeds expectations ...', "It 's No Fun Grow Up", 'Lotsa Chuckles Genius', "We lot improv . Just stay loose , fun - 'll fine !", 'A wonderfully moving finish', '`` So long , partner . ``']</t>
+          <t>['Technically brilliant enjoyable still left bit flat ', 'To  far large best Pixar film date ', 'A new dimension ', 'The whole gang back  time great escape', 'Certainly Lives Up Everything You ve Heard', 'Stunning Story Animation', 'Playground', 'Wonderful Touching Adults Imagine Children', 'Not hilarious excellent allround film poignancy  adventure  comedy drama one wonderfully animated package', 'masterpiece still enjoyable', '2010 Was Fantastic Year Cartoon Movies', 'Succeeds In Living Up To Expectations', 'One final playtime', 'trilogies considered whole complete  one', 'A great adventure everyone ', 'Great  sweet  funny  fun movie', 'Graduation', 'They back say fitting farewell Pixar play safe emotional equal measure ', 'Staying Fresh', 'Abandoned toys make great escape sequel exceeds expectations ', 'It s No Fun Grow Up', 'Lotsa Chuckles Genius', 'We lot improv  Just stay loose  fun  ll fine ', 'A wonderfully moving finish', ' So long  partner  ']</t>
         </is>
       </c>
     </row>
@@ -39421,7 +39421,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>['Quite simply movie-making grandest scale', 'Wonderful cinematography worthy epic boot', 'A Complex Man In Epic Events', 'One greatest movie times', 'Marvelous Epic', 'A Great Character ! A lot Camels !', 'experience', 'One greatest films time .', 'Epic ( role )', 'Expensive breathtaking screen adaptation enigmatic adventurer military T. E. Lawrence', 'I hate challenge people , ...', 'Only One Word Describes This Film : Epic', 'Memorable Visuals , Sound &amp; Acting , Yet It Peters Out', "It n't bear humanity either character filmmaker ...", '`` ... Nothing written ``', 'Epic every way', 'A Vision Defines Itself', 'Epic , Epic , Epic And Epic', 'The man still remains enigma three hours ...', 'Grand scale adventure', 'Camels', "Peter O'Toole Oscar", 'Majesty Desert', "We ca n't lion tamers", 'No words describe movie .']</t>
+          <t>['Quite simply moviemaking grandest scale', 'Wonderful cinematography worthy epic boot', 'A Complex Man In Epic Events', 'One greatest movie times', 'Marvelous Epic', 'A Great Character  A lot Camels ', 'experience', 'One greatest films time ', 'Epic  role ', 'Expensive breathtaking screen adaptation enigmatic adventurer military T E Lawrence', 'I hate challenge people  ', 'Only One Word Describes This Film  Epic', 'Memorable Visuals  Sound  Acting  Yet It Peters Out', 'It nt bear humanity either character filmmaker ', '  Nothing written ', 'Epic every way', 'A Vision Defines Itself', 'Epic  Epic  Epic And Epic', 'The man still remains enigma three hours ', 'Grand scale adventure', 'Camels', 'Peter OToole Oscar', 'Majesty Desert', 'We ca nt lion tamers', 'No words describe movie ']</t>
         </is>
       </c>
     </row>
@@ -39465,7 +39465,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>['While example film I admire rather adore , I see film seen classic', 'Overrated', 'An Expert On What People Will Think', 'Iconic classic', 'Better Than Its Reputation', "Welle 's pushed every button", 'mirror', 'How frame', "Orson Welles ' fascinating masterpiece advanced cinema light years", "Now talk movie 's various aspects ...", 'Essential viewing fans classic cinema ( along films like The Godfather , 2001 : A Space Odyssey , Babe : Pig City ) .', 'Once Thought To Be The Greatest', 'Love The Cinematography ; Story Not That Appealing', "It 's got ta tough life best work behind 25 !", 'Theatrical passion , using every cinematic trick advantage ...', 'Rosebud Union Forever', 'The forever fascinating &amp; fantastic search `` Rosebud ``', 'Citizen Kane-Forever Seeking Rosebud * * 1/2', 'An incredible debut undeniable young talent .', 'Addressing Current Expectations', 'Every bit masterpiece', 'NOT greatest time ... I never bonded emotionally coldly clinical film ...', "A director 's movie", 'Snow globe', 'Why big deal ?']</t>
+          <t>['While example film I admire rather adore  I see film seen classic', 'Overrated', 'An Expert On What People Will Think', 'Iconic classic', 'Better Than Its Reputation', 'Welle s pushed every button', 'mirror', 'How frame', 'Orson Welles  fascinating masterpiece advanced cinema light years', 'Now talk movie s various aspects ', 'Essential viewing fans classic cinema  along films like The Godfather  2001  A Space Odyssey  Babe  Pig City  ', 'Once Thought To Be The Greatest', 'Love The Cinematography  Story Not That Appealing', 'It s got ta tough life best work behind 25 ', 'Theatrical passion  using every cinematic trick advantage ', 'Rosebud Union Forever', 'The forever fascinating  fantastic search  Rosebud ', 'Citizen KaneForever Seeking Rosebud   12', 'An incredible debut undeniable young talent ', 'Addressing Current Expectations', 'Every bit masterpiece', 'NOT greatest time  I never bonded emotionally coldly clinical film ', 'A director s movie', 'Snow globe', 'Why big deal ']</t>
         </is>
       </c>
     </row>
@@ -39509,7 +39509,7 @@
       </c>
       <c r="J888" t="inlineStr">
         <is>
-          <t>['Lokesh Kanagaraj creates crazy universe spiritual sequel 80s forgotten flick .', 'Kanagaraj knows make films work', "Ca n't wait see Lokesh universe 's built ! [ +82 % ]", 'Good action crime thriller .. !', 'Kamal ( Haasan ) ka kamaal ..', 'The second half preachy', 'Vikram', 'Entertaining', "India 's ( tamil cinema 's ) first ever spin-off movie", 'Pure Tollywood content', 'Loki universe ! !', "When actor becomes bigger story , story loses 's life", 'Universe making', 'VIKRAM Treat Watch Spectacular Performances All The Actors ! ! !', 'Good movie Kamal lokesh', 'A fanboy film celebrates Kamal Hassan fullest extent !', 'The depiction women Vikram quite shocking', 'Very Good Movie', 'Beast And Thriller Movie', 'Keep expectations low .', 'Engaging Powerful # Vikram ( Hindi Review )', 'Fahadh Faasil Kamal Haasan &amp; Vijay Sethupati rock action thriller', "I 'm amazed movie", 'Loud , obnoxious fun ... At least part', 'Stopped watching 1/4th way']</t>
+          <t>['Lokesh Kanagaraj creates crazy universe spiritual sequel 80s forgotten flick ', 'Kanagaraj knows make films work', 'Ca nt wait see Lokesh universe s built   82  ', 'Good action crime thriller  ', 'Kamal  Haasan  ka kamaal ', 'The second half preachy', 'Vikram', 'Entertaining', 'India s  tamil cinema s  first ever spinoff movie', 'Pure Tollywood content', 'Loki universe  ', 'When actor becomes bigger story  story loses s life', 'Universe making', 'VIKRAM Treat Watch Spectacular Performances All The Actors   ', 'Good movie Kamal lokesh', 'A fanboy film celebrates Kamal Hassan fullest extent ', 'The depiction women Vikram quite shocking', 'Very Good Movie', 'Beast And Thriller Movie', 'Keep expectations low ', 'Engaging Powerful  Vikram  Hindi Review ', 'Fahadh Faasil Kamal Haasan  Vijay Sethupati rock action thriller', 'I m amazed movie', 'Loud  obnoxious fun  At least part', 'Stopped watching 14th way']</t>
         </is>
       </c>
     </row>
@@ -39553,7 +39553,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>["Hmmm , ... n't already said film ?", 'Beautifully shot , moving faithful book', 'Our Greatest Film Hero', 'American Classic', 'A Great Film So Many Levels', 'When Book Movie Knock It Out Park', 'great', 'Until proven .... well', 'Good story well told', 'Classic movie small-town Southern advocate including intense court drama , atmospheric scenarios superb interpretations', 'still classic', 'A 1960s Look At The 1930s', "The Good &amp; Bad Of 'To Kill A Mockingbird '", 'Warmly prestigious ( pro con )', 'amazing film', 'The cinematic landmark , ever , order courtroom !', 'To Kill Mockingbird one greatest movie experiences ever', 'Robert Mulligan Shoots To Kill', 'A Rabid `` Mad Dog `` Must Put Down', 'Powerful , moving story injustice , prejudice , family growing', 'Has Dated Poorly', 'Gregory Peck Spot Atticus', 'Diy', "'Do know compromise ? '", "Jean Louise , stand . Your father 's passing ."]</t>
+          <t>['Hmmm   nt already said film ', 'Beautifully shot  moving faithful book', 'Our Greatest Film Hero', 'American Classic', 'A Great Film So Many Levels', 'When Book Movie Knock It Out Park', 'great', 'Until proven  well', 'Good story well told', 'Classic movie smalltown Southern advocate including intense court drama  atmospheric scenarios superb interpretations', 'still classic', 'A 1960s Look At The 1930s', 'The Good  Bad Of To Kill A Mockingbird ', 'Warmly prestigious  pro con ', 'amazing film', 'The cinematic landmark  ever  order courtroom ', 'To Kill Mockingbird one greatest movie experiences ever', 'Robert Mulligan Shoots To Kill', 'A Rabid  Mad Dog  Must Put Down', 'Powerful  moving story injustice  prejudice  family growing', 'Has Dated Poorly', 'Gregory Peck Spot Atticus', 'Diy', 'Do know compromise  ', 'Jean Louise  stand  Your father s passing ']</t>
         </is>
       </c>
     </row>
@@ -39597,7 +39597,7 @@
       </c>
       <c r="J890" t="inlineStr">
         <is>
-          <t>['Possibly greatest silent film -- , least one best', 'Influential sci-fi masterpiece', 'Highly influential German futurist classic', 'Silent era icon', 'Certainly One Most Important Films Ever Made', 'It set bar high .', 'Futuristic Babel', 'An incredible piece cinema .', 'Heart Mediator Between Brains Muscles - A Futuristic View Fight Classes', 'Dystopian future eternal reality ?', 'Almost Flawless Film', 'New Restored Version Worth Checking Out', 'A must-see anyone appreciates film history .', 'The finest silent movie ?', 'visual fable highest order- one five great future films ever made', 'So old yet futuristic !', 'A masterpiece lovingly restored', 'City Lights Shadows', 'Quite remarkable , one landmark silent films .', 'Even ignore story , I could spend 150 minutes staring art design ...', 'Transcending ... Influential ... Mesmerizing ... Meaningful ... Incredible', 'Great film', 'Sci-fi masterpiece', 'Futuristic science fiction epic imaginatively staged Fritz Lang ...', '`` Do think losing hand high price pay re-creating Hel ? ! ``']</t>
+          <t>['Possibly greatest silent film   least one best', 'Influential scifi masterpiece', 'Highly influential German futurist classic', 'Silent era icon', 'Certainly One Most Important Films Ever Made', 'It set bar high ', 'Futuristic Babel', 'An incredible piece cinema ', 'Heart Mediator Between Brains Muscles  A Futuristic View Fight Classes', 'Dystopian future eternal reality ', 'Almost Flawless Film', 'New Restored Version Worth Checking Out', 'A mustsee anyone appreciates film history ', 'The finest silent movie ', 'visual fable highest order one five great future films ever made', 'So old yet futuristic ', 'A masterpiece lovingly restored', 'City Lights Shadows', 'Quite remarkable  one landmark silent films ', 'Even ignore story  I could spend 150 minutes staring art design ', 'Transcending  Influential  Mesmerizing  Meaningful  Incredible', 'Great film', 'Scifi masterpiece', 'Futuristic science fiction epic imaginatively staged Fritz Lang ', ' Do think losing hand high price pay recreating Hel   ']</t>
         </is>
       </c>
     </row>
@@ -39641,7 +39641,7 @@
       </c>
       <c r="J891" t="inlineStr">
         <is>
-          <t>['Creepy engaging .', "A thriller undeniable complexity , impeccably acted directed-Hitchcock 's masterpiece !", 'slow 1st half , good obsessive 2nd half', 'Makes Brain Spin', 'hypnotic', "Here 's Love Our Own Terms", 'Heightened tension', 'A dizzying , nightmarish tale .', 'Miss Leading', 'A Masterpiece Obsession', 'Unforgettable fascinating film retired police falling love strange woman', "n't look", 'I love Hitchcock ...', 'The true definition suspense', 'This Has To Be One Of The Most Overrated Films In History', 'From among dead ...', 'Among best .', 'Favorite Hitchcock likely one challenging , harrowing great films ever', 'An interesting story', 'Hitch works wonders material .', 'This film takes repeated viewings really appreciate ...', 'Possibly Hitchcock Doing Some Soul-Cleansing Soul-Searching Something', 'Not sure highly regarded', "You 're lost . Mother 's .", 'To Much Romance Me']</t>
+          <t>['Creepy engaging ', 'A thriller undeniable complexity  impeccably acted directedHitchcock s masterpiece ', 'slow 1st half  good obsessive 2nd half', 'Makes Brain Spin', 'hypnotic', 'Here s Love Our Own Terms', 'Heightened tension', 'A dizzying  nightmarish tale ', 'Miss Leading', 'A Masterpiece Obsession', 'Unforgettable fascinating film retired police falling love strange woman', 'nt look', 'I love Hitchcock ', 'The true definition suspense', 'This Has To Be One Of The Most Overrated Films In History', 'From among dead ', 'Among best ', 'Favorite Hitchcock likely one challenging  harrowing great films ever', 'An interesting story', 'Hitch works wonders material ', 'This film takes repeated viewings really appreciate ', 'Possibly Hitchcock Doing Some SoulCleansing SoulSearching Something', 'Not sure highly regarded', 'You re lost  Mother s ', 'To Much Romance Me']</t>
         </is>
       </c>
     </row>
@@ -39685,7 +39685,7 @@
       </c>
       <c r="J892" t="inlineStr">
         <is>
-          <t>["As long Anne Marie , 'll enjoy lovely film .", 'Just amazing ! One best musicals ever made !', 'Exuberant sublime', 'We Lived The Research', 'Funny iconic', 'Perhaps Greatest Musican Ever Made', 'All Together Pieces', 'admirable work', 'Ecstasy', 'Dignity , always dignity', 'Fabulous .', '15 minutes fame/dance/singing', 'A Musical Masterpiece', "There actually movie Gene Kelly 's stroll pluvial sidewalk .", 'A Singing , Dancing Masterpiece', 'Deserves Every Accolade', 'Most likely best musical ever filmed , although I sure like `` Cats `` `` A Chorus Line `` ! .', 'Mama mama , great show !', 'unequivocally best American musical-comedy ( ) Hollywood Golden age', "Singin ' Rain deserves accolades gets !", 'Great Sing Rain * * * *', 'A Visual Feast , Especially For The Hearing Impaired', "Now 's entertainment !", "I 'm happy !", 'The talkies']</t>
+          <t>['As long Anne Marie  ll enjoy lovely film ', 'Just amazing  One best musicals ever made ', 'Exuberant sublime', 'We Lived The Research', 'Funny iconic', 'Perhaps Greatest Musican Ever Made', 'All Together Pieces', 'admirable work', 'Ecstasy', 'Dignity  always dignity', 'Fabulous ', '15 minutes famedancesinging', 'A Musical Masterpiece', 'There actually movie Gene Kelly s stroll pluvial sidewalk ', 'A Singing  Dancing Masterpiece', 'Deserves Every Accolade', 'Most likely best musical ever filmed  although I sure like  Cats   A Chorus Line   ', 'Mama mama  great show ', 'unequivocally best American musicalcomedy   Hollywood Golden age', 'Singin  Rain deserves accolades gets ', 'Great Sing Rain    ', 'A Visual Feast  Especially For The Hearing Impaired', 'Now s entertainment ', 'I m happy ', 'The talkies']</t>
         </is>
       </c>
     </row>
@@ -39729,7 +39729,7 @@
       </c>
       <c r="J893" t="inlineStr">
         <is>
-          <t>['Quite good -- especially first time see .', 'Working The Big Con', "Reunion n't quite fun", 'Excellent Film Newman Redford At Top Their Games', "It 's Masterpiece Criminal Sophistication", 'One Of The Great Movies', 'Classy bit story telling', 'Sensational picture greatest stars winning deservedly several Oscars', 'Good , year produced `` American Graffiti `` , `` The Exorcist `` , `` The Last Detail `` , `` Serpico `` , `` Enter Dragon `` , deserve Best Picture ?', 'Newman Redford : The One-Two Punch', 'Old-fashioned polished ... artificial look draggy midsection', 'often imitated - never equaled', 'The Big Con', 'Has Its Own Odd Charm', 'Inoffensive Charming', 'Superb - perfect crime-caper movie', 'Not sting , floats like butterfly well .', 'Entertaining', 'Bravisimo', 'Hated', 'Fun', 'A classic , great eye candy !', 'Terrifically entertaining classic', "Do n't Go Into This Your Expectations Too High", 'Redford Newman need I say .']</t>
+          <t>['Quite good  especially first time see ', 'Working The Big Con', 'Reunion nt quite fun', 'Excellent Film Newman Redford At Top Their Games', 'It s Masterpiece Criminal Sophistication', 'One Of The Great Movies', 'Classy bit story telling', 'Sensational picture greatest stars winning deservedly several Oscars', 'Good  year produced  American Graffiti    The Exorcist    The Last Detail    Serpico    Enter Dragon   deserve Best Picture ', 'Newman Redford  The OneTwo Punch', 'Oldfashioned polished  artificial look draggy midsection', 'often imitated  never equaled', 'The Big Con', 'Has Its Own Odd Charm', 'Inoffensive Charming', 'Superb  perfect crimecaper movie', 'Not sting  floats like butterfly well ', 'Entertaining', 'Bravisimo', 'Hated', 'Fun', 'A classic  great eye candy ', 'Terrifically entertaining classic', 'Do nt Go Into This Your Expectations Too High', 'Redford Newman need I say ']</t>
         </is>
       </c>
     </row>
@@ -39773,7 +39773,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>['Unforgettable masterpiece', 'fascinating Fritz Lang', 'The Masterpiece Peter Lorre', "I ca n't help", 'M marks ... M ?', 'Another Masterpiece Fritz Lang', '`` Peer Gynt `` suite', 'The Ultimate Crime Drama , Years Before The Genre Took Off', 'Sick Movie Overrated By Sick Critics', "Peter Lorre 's star-making film", "Fritz Lang 's ( sound ) masterpiece- taut quintessentially suspenseful story , Lorre", 'Who murderer ?', 'Ahead time', 'Serial Child Murderer Whistles While He Works', 'M Masterpiece', 'A Documentary More Than Anything Else', 'Slowly paced social drama early film noir Lang ...', "`` ... never leave . They 're always ... ``", 'This masterpiece definitely way ahead time', "I ca n't help I ! I ca n't help , I ca n't ...", 'A sterling reputation , 100 % deserved', 'Unforgettable', 'Chilling .', "This film masterpiece ... I n't use term lightly", 'This film almost 90 years old']</t>
+          <t>['Unforgettable masterpiece', 'fascinating Fritz Lang', 'The Masterpiece Peter Lorre', 'I ca nt help', 'M marks  M ', 'Another Masterpiece Fritz Lang', ' Peer Gynt  suite', 'The Ultimate Crime Drama  Years Before The Genre Took Off', 'Sick Movie Overrated By Sick Critics', 'Peter Lorre s starmaking film', 'Fritz Lang s  sound  masterpiece taut quintessentially suspenseful story  Lorre', 'Who murderer ', 'Ahead time', 'Serial Child Murderer Whistles While He Works', 'M Masterpiece', 'A Documentary More Than Anything Else', 'Slowly paced social drama early film noir Lang ', '  never leave  They re always  ', 'This masterpiece definitely way ahead time', 'I ca nt help I  I ca nt help  I ca nt ', 'A sterling reputation  100  deserved', 'Unforgettable', 'Chilling ', 'This film masterpiece  I nt use term lightly', 'This film almost 90 years old']</t>
         </is>
       </c>
     </row>
@@ -39817,7 +39817,7 @@
       </c>
       <c r="J895" t="inlineStr">
         <is>
-          <t>['Enormously entertaining film Alfred Hitchcock !', "`` War Is Hell , Even When It 's A Cold One . ``", 'Great wild convoluted fun ride', 'Great', 'Suspense Beginning End', 'North Northwest', 'A Hitchcock classic .', 'Way go', "Another Hitchcock 's Masterpiece", 'Classic thriller - I love !', 'Alfred Hitchcock top-notch thriller/comedy embroils business man killing espionage', "'s Cary Grant getting chased crop-duster ...", 'I really like direction Hitchcock took film .', 'Not My Favorite Hitchcock , But A Classic For Reason', 'Okay .... But It Seemed A Lot Better When I Was A Kid', '`` I never make love empty stomach ... ``', 'big collection classic Hitchcock sequences , strung together red herrings , plus Cary Grant', "Pure cinematic perfection It 's simple !", 'North By Northwest A Great Geographic Film * * * *', 'Hitchcock Plays Tag', "`` I n't like way Teddy Roosevelt 's looking . ``", 'Excellent But Not Great', "Has n't Aged Well", 'Sometimes truth taste like mouthful worms .', 'Strangers train']</t>
+          <t>['Enormously entertaining film Alfred Hitchcock ', ' War Is Hell  Even When It s A Cold One  ', 'Great wild convoluted fun ride', 'Great', 'Suspense Beginning End', 'North Northwest', 'A Hitchcock classic ', 'Way go', 'Another Hitchcock s Masterpiece', 'Classic thriller  I love ', 'Alfred Hitchcock topnotch thrillercomedy embroils business man killing espionage', 's Cary Grant getting chased cropduster ', 'I really like direction Hitchcock took film ', 'Not My Favorite Hitchcock  But A Classic For Reason', 'Okay  But It Seemed A Lot Better When I Was A Kid', ' I never make love empty stomach  ', 'big collection classic Hitchcock sequences  strung together red herrings  plus Cary Grant', 'Pure cinematic perfection It s simple ', 'North By Northwest A Great Geographic Film    ', 'Hitchcock Plays Tag', ' I nt like way Teddy Roosevelt s looking  ', 'Excellent But Not Great', 'Has nt Aged Well', 'Sometimes truth taste like mouthful worms ', 'Strangers train']</t>
         </is>
       </c>
     </row>
@@ -39861,7 +39861,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>['Not comedy , still fine picture', 'Charming highly entertaining film', 'Dark rom-com great pairing', 'Classic Wilder Exceptional Performances', "Where 's Barbara Stanwyck When You Need Her", 'The Apartment', 'One Most Delightful Movies Hollywood', 'Black-edged fun romantic comedy whith brilliant performance five well- deserved Academy Awards', 'The corporate life ...', 'Romance Elevator', "Likewise , 's love-fest Lemmon-wise", "Billy Wilder 's The Apartment worthy classic status", 'A classic romantic comedy depth drama', 'An Apartment All Seasons', 'Humorously Sly Look Corporate America', "It 's lost step time , still satisfies even surprise", 'A masterpiece', 'A masterpiece master-director Billy Wilder', "Censorship questionable taste n't seem matter '60s ...", 'Just relevant back', 'Unexpected Guest ...', 'A classic romance', 'A superb classic , smarter sharper first looks possible comparisons', 'A Dark Romantic Comedy', 'Amusing charming movie .']</t>
+          <t>['Not comedy  still fine picture', 'Charming highly entertaining film', 'Dark romcom great pairing', 'Classic Wilder Exceptional Performances', 'Where s Barbara Stanwyck When You Need Her', 'The Apartment', 'One Most Delightful Movies Hollywood', 'Blackedged fun romantic comedy whith brilliant performance five well deserved Academy Awards', 'The corporate life ', 'Romance Elevator', 'Likewise  s lovefest Lemmonwise', 'Billy Wilder s The Apartment worthy classic status', 'A classic romantic comedy depth drama', 'An Apartment All Seasons', 'Humorously Sly Look Corporate America', 'It s lost step time  still satisfies even surprise', 'A masterpiece', 'A masterpiece masterdirector Billy Wilder', 'Censorship questionable taste nt seem matter 60s ', 'Just relevant back', 'Unexpected Guest ', 'A classic romance', 'A superb classic  smarter sharper first looks possible comparisons', 'A Dark Romantic Comedy', 'Amusing charming movie ']</t>
         </is>
       </c>
     </row>
@@ -39905,7 +39905,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>['Another great film Aamir Khan .', 'one best Bollywood', 'Going gold', 'A touching journey', 'Beautiful , relevant necessary movie ...', 'Another Classic Aamir time Tribute Mr. Phogat', 'Superb movie whole family', 'Wrestle With Your Emotions ...', 'Good', 'Bizarre excuse troubled parent', 'A `` DanGIRL `` Triumph . ♦ Grade A-', 'Awesome film n wonderful performance Aamir . Disney n Aamir miracle film .', 'Feels bloated forced hampers , admittedly noteworthy , hearty narrative', 'Nice biographical sports drama', 'THIS . THIS . EMOTIONAL .', 'Girl power ?', 'Just another supposedly motivational movies .', 'Dangal unmissable .', 'Perfect epic biopic', "It 's slightly lengthy", 'Dangal ( 2016 )', 'best indian movie history', 'If lying low life , `` Dangal `` right dose medicine motivate inspire . Go grab tickets', 'Another Good Aamir Khan film And Based On The True Story Of Mahavir Phogat .', 'Great first experience Indian cinema']</t>
+          <t>['Another great film Aamir Khan ', 'one best Bollywood', 'Going gold', 'A touching journey', 'Beautiful  relevant necessary movie ', 'Another Classic Aamir time Tribute Mr Phogat', 'Superb movie whole family', 'Wrestle With Your Emotions ', 'Good', 'Bizarre excuse troubled parent', 'A  DanGIRL  Triumph   Grade A', 'Awesome film n wonderful performance Aamir  Disney n Aamir miracle film ', 'Feels bloated forced hampers  admittedly noteworthy  hearty narrative', 'Nice biographical sports drama', 'THIS  THIS  EMOTIONAL ', 'Girl power ', 'Just another supposedly motivational movies ', 'Dangal unmissable ', 'Perfect epic biopic', 'It s slightly lengthy', 'Dangal  2016 ', 'best indian movie history', 'If lying low life   Dangal  right dose medicine motivate inspire  Go grab tickets', 'Another Good Aamir Khan film And Based On The True Story Of Mahavir Phogat ', 'Great first experience Indian cinema']</t>
         </is>
       </c>
     </row>
@@ -39949,7 +39949,7 @@
       </c>
       <c r="J898" t="inlineStr">
         <is>
-          <t>["While especially pleasant viewing , 's complex film -- sort get friends talking .", 'For A Separation definitely one best films 2011', 'A Terrific Film On So Many Levels', 'special', 'The praise hurts character-driven story engaging , natural convincing', 'inside Iran', 'This Iran !', "'ll leave feeling many things - maybe , little , hope", 'A must watch film', 'Interesting', "There 's lot thinking dialogue", 'Shades Gray Black White World', "What 's wrong wrong ... 's wrong ?", 'A great genre example , also manages surprise .', 'Remarkably effective affecting film making', "Good , good , even , I n't see greatness everyone else apparently", 'Wonderfully authentic', 'A Separation', 'Multiple Splits', 'A Nutshell Review : A Separation', 'Puzzle small things', 'Morally complex impossible emerge silent', 'Wow , incredible ! !', 'A gripping heart-pounding universal masterpiece ... made Iran ...', 'Pride perjury']</t>
+          <t>['While especially pleasant viewing  s complex film  sort get friends talking ', 'For A Separation definitely one best films 2011', 'A Terrific Film On So Many Levels', 'special', 'The praise hurts characterdriven story engaging  natural convincing', 'inside Iran', 'This Iran ', 'll leave feeling many things  maybe  little  hope', 'A must watch film', 'Interesting', 'There s lot thinking dialogue', 'Shades Gray Black White World', 'What s wrong wrong  s wrong ', 'A great genre example  also manages surprise ', 'Remarkably effective affecting film making', 'Good  good  even  I nt see greatness everyone else apparently', 'Wonderfully authentic', 'A Separation', 'Multiple Splits', 'A Nutshell Review  A Separation', 'Puzzle small things', 'Morally complex impossible emerge silent', 'Wow  incredible  ', 'A gripping heartpounding universal masterpiece  made Iran ', 'Pride perjury']</t>
         </is>
       </c>
     </row>
@@ -39993,7 +39993,7 @@
       </c>
       <c r="J899" t="inlineStr">
         <is>
-          <t>["ca n't find snappier dialog", 'Quintessential film noir', 'Cold-blooded classic', 'Anytime You Want A Husband Turned Into Cold Cash', 'Classic noir', 'One All Time Greats', 'Barbara Stanwyck Her Delightful Worst', 'remarkable', 'No woman money', 'A film noir masterpiece .', 'Wilder expected', 'The Walk Dead Man', 'An impressive tough piece noir', 'Absorbing worthy suspense film blackmails , killing , corruption strong intrigue', 'indemnified person always rings twice', 'Everything one could ask noir .', 'A Fine Introduction Billy Wilder Film Noir', 'Justifiably At The Top Of Most Film Noir Lists', '`` How could I known murder sometimes smell like honeysuckle ? ``', 'The ultimate noir', "'s embedded popular culture cinema history easy forget much fun film", 'Double Good * * * 1/2', 'Billy Wilder Makes Crime Pay', 'The last stop cemetery .', 'An Odd Triangle']</t>
+          <t>['ca nt find snappier dialog', 'Quintessential film noir', 'Coldblooded classic', 'Anytime You Want A Husband Turned Into Cold Cash', 'Classic noir', 'One All Time Greats', 'Barbara Stanwyck Her Delightful Worst', 'remarkable', 'No woman money', 'A film noir masterpiece ', 'Wilder expected', 'The Walk Dead Man', 'An impressive tough piece noir', 'Absorbing worthy suspense film blackmails  killing  corruption strong intrigue', 'indemnified person always rings twice', 'Everything one could ask noir ', 'A Fine Introduction Billy Wilder Film Noir', 'Justifiably At The Top Of Most Film Noir Lists', ' How could I known murder sometimes smell like honeysuckle  ', 'The ultimate noir', 's embedded popular culture cinema history easy forget much fun film', 'Double Good    12', 'Billy Wilder Makes Crime Pay', 'The last stop cemetery ', 'An Odd Triangle']</t>
         </is>
       </c>
     </row>
@@ -40037,7 +40037,7 @@
       </c>
       <c r="J900" t="inlineStr">
         <is>
-          <t>["Kurasawa 's moving film", 'Poignant , heartfelt , slow', 'compelling everyman', 'Great', 'The Older You Get , More It Means', 'Something life', 'Another fabulous film Kurosawa .', 'A true masterpiece', 'Never Late Live , Watch Sunset Plant Seed Love', 'Low-key , free sentiment touching', "A big story little man grip soul , Kurosawa 's masterpiece created sensation United States", 'Old Man', "Examines idea `` would I I knew I n't long live ? ``", "cinematic experience 's near-nexus existentialism- life , living , dying , death , done alive- remarkable", 'Truly masterpiece', 'Bad Kurosawa', 'One greatest movies ever made', 'How tragic man never realize beautiful life face face death .', 'Complex thought-provoking masterpiece', 'Profound universal', 'Way long slow , oh good', "Like Hanks ' Otto softer loveable .", 'The affirmation life exploration death . A powerful film .', 'A Japanese Classic blended TWO Great stories Life .', 'How Do You Judge A Life ?']</t>
+          <t>['Kurasawa s moving film', 'Poignant  heartfelt  slow', 'compelling everyman', 'Great', 'The Older You Get  More It Means', 'Something life', 'Another fabulous film Kurosawa ', 'A true masterpiece', 'Never Late Live  Watch Sunset Plant Seed Love', 'Lowkey  free sentiment touching', 'A big story little man grip soul  Kurosawa s masterpiece created sensation United States', 'Old Man', 'Examines idea  would I I knew I nt long live  ', 'cinematic experience s nearnexus existentialism life  living  dying  death  done alive remarkable', 'Truly masterpiece', 'Bad Kurosawa', 'One greatest movies ever made', 'How tragic man never realize beautiful life face face death ', 'Complex thoughtprovoking masterpiece', 'Profound universal', 'Way long slow  oh good', 'Like Hanks  Otto softer loveable ', 'The affirmation life exploration death  A powerful film ', 'A Japanese Classic blended TWO Great stories Life ', 'How Do You Judge A Life ']</t>
         </is>
       </c>
     </row>
@@ -40081,7 +40081,7 @@
       </c>
       <c r="J901" t="inlineStr">
         <is>
-          <t>["It 's currently # 160 quite reviews already ...", 'Quite grim , also gripping', 'The Complainant At Bar Civilization Itself', 'Important movie historical value', 'Nothing Simple About Justice', 'useful', 'The legacy war', 'Not average war film , brilliant telling fascinating story .', 'Magnificent film based actual events top-notch performances star cast', 'several things consider', 'Well-Crafted Courtroom Drama', '`` We know guilt must admit ... whatever pain humiliation . ``', 'Judged Be Great', 'The Hare Was Shot Hunter Bunker', 'You Dare Not Dislike This Mediocre Movie', 'Probably one important films 1960s ... still highly relevant ...', 'Very heavy , must-see', "Hollywood 's best important film", 'Well Worth Wait', 'Essential viewing really engrossing heart stopping experience . Brilliant .', 'Post-WWII Courtroom Drama .', 'Fantastic acting , script , direction thought-provoking movie', 'War Crimes Punishment', 'film vociferous diatribe towards warmongers among human race', 'images clash']</t>
+          <t>['It s currently  160 quite reviews already ', 'Quite grim  also gripping', 'The Complainant At Bar Civilization Itself', 'Important movie historical value', 'Nothing Simple About Justice', 'useful', 'The legacy war', 'Not average war film  brilliant telling fascinating story ', 'Magnificent film based actual events topnotch performances star cast', 'several things consider', 'WellCrafted Courtroom Drama', ' We know guilt must admit  whatever pain humiliation  ', 'Judged Be Great', 'The Hare Was Shot Hunter Bunker', 'You Dare Not Dislike This Mediocre Movie', 'Probably one important films 1960s  still highly relevant ', 'Very heavy  mustsee', 'Hollywood s best important film', 'Well Worth Wait', 'Essential viewing really engrossing heart stopping experience  Brilliant ', 'PostWWII Courtroom Drama ', 'Fantastic acting  script  direction thoughtprovoking movie', 'War Crimes Punishment', 'film vociferous diatribe towards warmongers among human race', 'images clash']</t>
         </is>
       </c>
     </row>
@@ -40125,7 +40125,7 @@
       </c>
       <c r="J902" t="inlineStr">
         <is>
-          <t>["Among best films I 've ever seen ... best Indian one ... 's saying A LOT !", 'Great child performance', 'Not My Cup Tea', "heart squarely right place good dramatic scenes ... n't", 'Great movie important one', 'Two Celestial Bodies Make Three ...', 'Every Child Special', "Flawed Wonderful Look Child 's Mind", 'Magnificent movie ...', 'Good', 'Touching genuine', 'An Indian movie message .', "'My child always comes first class ' , syndrome truly ruined everything .", 'Sledgehammer emotions', 'Netflix Marathon', 'EVERY . CHILD . IS . SPECIAL .', 'TAARE ZAMEEN PAR- classic', 'Forced tearjerker .', 'Every child special', "In simple words \x96 THAT 'S CINEMA IN ITS PUREST FORM", 'My childhood', 'A GEM', 'Why corny ?', 'The last half hour best', 'Taare Zameen Par']</t>
+          <t>['Among best films I ve ever seen  best Indian one  s saying A LOT ', 'Great child performance', 'Not My Cup Tea', 'heart squarely right place good dramatic scenes  nt', 'Great movie important one', 'Two Celestial Bodies Make Three ', 'Every Child Special', 'Flawed Wonderful Look Child s Mind', 'Magnificent movie ', 'Good', 'Touching genuine', 'An Indian movie message ', 'My child always comes first class   syndrome truly ruined everything ', 'Sledgehammer emotions', 'Netflix Marathon', 'EVERY  CHILD  IS  SPECIAL ', 'TAARE ZAMEEN PAR classic', 'Forced tearjerker ', 'Every child special', 'In simple words  THAT S CINEMA IN ITS PUREST FORM', 'My childhood', 'A GEM', 'Why corny ', 'The last half hour best', 'Taare Zameen Par']</t>
         </is>
       </c>
     </row>
@@ -40169,7 +40169,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>["Despite reputation , 's still DeSica 's best !", 'An Italian masterpiece ...', 'Depressing realism post-war Italy', 'truly great cinema', 'One All-Time Greats', 'A Sad Slice LIfe', 'Salvation bike', 'A Heartbreaking Masterpiece Italian Neo-Realism', 'Vintage Neorrealist film working-class man whose bicycle robbed child set pursuit thief', 'brilliant portrait postwar Italy', 'A Classic Italian Cinema', 'Another One Nowhere Near Its Reputation', 'Another one add top 50- delicate study desperation post war Italy', 'The Plaintive Cry Humanity', 'When Bike Bike', 'Great themes , pity sub-plots', 'A touching poignant relationship father son ...', 'Damn', 'You live suffer .', 'Stark dour , tremendous beautiful', 'Those Looking Neo-Realism , Look No Further', 'Go Plow Another Field', 'A hard weekend town .', 'Bicycle Thieves', 'I want ride bicycle .']</t>
+          <t>['Despite reputation  s still DeSica s best ', 'An Italian masterpiece ', 'Depressing realism postwar Italy', 'truly great cinema', 'One AllTime Greats', 'A Sad Slice LIfe', 'Salvation bike', 'A Heartbreaking Masterpiece Italian NeoRealism', 'Vintage Neorrealist film workingclass man whose bicycle robbed child set pursuit thief', 'brilliant portrait postwar Italy', 'A Classic Italian Cinema', 'Another One Nowhere Near Its Reputation', 'Another one add top 50 delicate study desperation post war Italy', 'The Plaintive Cry Humanity', 'When Bike Bike', 'Great themes  pity subplots', 'A touching poignant relationship father son ', 'Damn', 'You live suffer ', 'Stark dour  tremendous beautiful', 'Those Looking NeoRealism  Look No Further', 'Go Plow Another Field', 'A hard weekend town ', 'Bicycle Thieves', 'I want ride bicycle ']</t>
         </is>
       </c>
     </row>
@@ -40213,7 +40213,7 @@
       </c>
       <c r="J904" t="inlineStr">
         <is>
-          <t>['Shershaah leaves tears well celebrates hardcore patriotism commercialized jingoism War Drama .', 'This IS world record !', 'Yeh Dil Maange More ! !', 'Yeh Dil Maange More !', 'Shershah', 'Durge Maa Ki Jai ! !', 'Patriotic war melodrama lacks nuance', 'Every Indian Should Watch Brave Story Of Vikram Batra Brilliantly Portrayed By Sidharth Malhotra', 'A nice movie someone Param Veer Chakra !', 'For brave soldiers Kargil War 1999', 'Fit tribute brave Indian Army officer , Sidharth scores', "An Inspiring War Drama Of Braveheart 's And Victories ! ! !", "Maybe sometimes n't die especially truely live values believes", 'Technically brilliant war saga cum biopic emotionally pretty blatant', 'Great movie watch', 'Good 1-time watch , real-life story - much respect !', 'A tribute film deserving great war hero Captain Batra !', 'Brilliant . The best thing see I-day', "Sid 's career defining film", 'A MUST MUST WATCH For everyone .', 'Best Movie This year', 'About brilliant life tale national pride', 'Super Duper Hit Movie', 'Wow', 'Go']</t>
+          <t>['Shershaah leaves tears well celebrates hardcore patriotism commercialized jingoism War Drama ', 'This IS world record ', 'Yeh Dil Maange More  ', 'Yeh Dil Maange More ', 'Shershah', 'Durge Maa Ki Jai  ', 'Patriotic war melodrama lacks nuance', 'Every Indian Should Watch Brave Story Of Vikram Batra Brilliantly Portrayed By Sidharth Malhotra', 'A nice movie someone Param Veer Chakra ', 'For brave soldiers Kargil War 1999', 'Fit tribute brave Indian Army officer  Sidharth scores', 'An Inspiring War Drama Of Braveheart s And Victories   ', 'Maybe sometimes nt die especially truely live values believes', 'Technically brilliant war saga cum biopic emotionally pretty blatant', 'Great movie watch', 'Good 1time watch  reallife story  much respect ', 'A tribute film deserving great war hero Captain Batra ', 'Brilliant  The best thing see Iday', 'Sid s career defining film', 'A MUST MUST WATCH For everyone ', 'Best Movie This year', 'About brilliant life tale national pride', 'Super Duper Hit Movie', 'Wow', 'Go']</t>
         </is>
       </c>
     </row>
@@ -40257,7 +40257,7 @@
       </c>
       <c r="J905" t="inlineStr">
         <is>
-          <t>['A Regional Drama - K.G.F : Chapter 2', "In terms Pure Charisma , 's nobody like Yash , something else !", 'An improvement original technical aspects , writing ! [ +53 % ]', 'Great gangster movie India .. !', 'Mass action sequel ...', 'Good one', 'Expectations surpassed !', 'In Tamil : Replacing Prakash Raj Nizhalgal Ravi voice pure stupidity', 'Action bonanza', 'Goosebumps overloaded ! !', 'Huuuuge sequel dropoff despite massive budget', 'Slightly better chapter', 'What kill makes bigger achiever .', 'The perfect mass masala superstar vehicle !', 'Bigger better', 'This The Best', 'A VISUAL GRANDEUR &amp; BENCH MARK FOR INDIAN CINEMA ... !', 'KGF CHAPTER 2 ( HINDI )', 'Definitely top , excused !', "KGF film . It 's HISTORY ! ! !", '1 dimensional movie ! ! !', 'Rocky , CEO Of India !', 'Great Sequel', 'Dimaag shut ho gaya !', 'KGF 2 = 100X KGF 1']</t>
+          <t>['A Regional Drama  KGF  Chapter 2', 'In terms Pure Charisma  s nobody like Yash  something else ', 'An improvement original technical aspects  writing   53  ', 'Great gangster movie India  ', 'Mass action sequel ', 'Good one', 'Expectations surpassed ', 'In Tamil  Replacing Prakash Raj Nizhalgal Ravi voice pure stupidity', 'Action bonanza', 'Goosebumps overloaded  ', 'Huuuuge sequel dropoff despite massive budget', 'Slightly better chapter', 'What kill makes bigger achiever ', 'The perfect mass masala superstar vehicle ', 'Bigger better', 'This The Best', 'A VISUAL GRANDEUR  BENCH MARK FOR INDIAN CINEMA  ', 'KGF CHAPTER 2  HINDI ', 'Definitely top  excused ', 'KGF film  It s HISTORY   ', '1 dimensional movie   ', 'Rocky  CEO Of India ', 'Great Sequel', 'Dimaag shut ho gaya ', 'KGF 2  100X KGF 1']</t>
         </is>
       </c>
     </row>
@@ -40301,7 +40301,7 @@
       </c>
       <c r="J906" t="inlineStr">
         <is>
-          <t>['Beautiful , touching , inspirational .', 'Good', 'Heart touching movie .. ! !', 'Nothing impossible movie', 'Ayla', 'One best well made true story', 'The film natural', 'True bonding', 'Damn , Ninjas Cutting Onions One ! ! ! !', 'Missed opportunity', "Caution : If u r human 's going forced u cry .", 'Horrible fluff', 'Heart Touching !', 'OMG', 'Ayla', 'Very Good movie !', 'Incredible cute little story', 'Number one turkish film', 'Very Emotional Movie !', 'Very Touchy', 'Must watch movie', 'absolutely perfect', 'One best turkey movie ..', 'Masterpiece', 'Deserved Oscar Nominee Turkey']</t>
+          <t>['Beautiful  touching  inspirational ', 'Good', 'Heart touching movie   ', 'Nothing impossible movie', 'Ayla', 'One best well made true story', 'The film natural', 'True bonding', 'Damn  Ninjas Cutting Onions One    ', 'Missed opportunity', 'Caution  If u r human s going forced u cry ', 'Horrible fluff', 'Heart Touching ', 'OMG', 'Ayla', 'Very Good movie ', 'Incredible cute little story', 'Number one turkish film', 'Very Emotional Movie ', 'Very Touchy', 'Must watch movie', 'absolutely perfect', 'One best turkey movie ', 'Masterpiece', 'Deserved Oscar Nominee Turkey']</t>
         </is>
       </c>
     </row>
@@ -40345,7 +40345,7 @@
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>['Tamil film', 'A Top Class Psycho Killer Drama ...', 'Very interesting ...', 'One-Line Review : Ratsasan ( 6 Stars )', 'Shud hav trimmed length n removed lousy slow motion scenes . Nevertheless , captivating serial killer film terrific music n hot actress .', 'The third act disappointing', 'GOOD PSYCHOLOGICAL CRIME THRILLER .', 'This make serial-killer film , albeit fairly inspired ! [ +77 % ]', 'Perfect serial killer movie .. !', 'Very dark hardcore disturbing . Exellent thriller .', 'Stylish , Fast-Paced And Full Of Twists . Fans Of Thrillers DO NOT Miss This One !', 'Ratsasan ( 2018 )', 'Ratsasan edgy , engrossing , well-directed superb performances lovely twist end', 'Psychopath Risen', 'It booooom', 'Partly good overrated', 'A Masterpiece , Edge Seat Crime Thriller ! ! !', 'A trademark Indian Cinema .', 'Khan Review', "A decent movie desperately wants think 's better", 'Watch , enjoy , forget ... Nothing memorable', 'Really loved storyline .', 'A roller-coaster serial killer movie overrated well', 'Best Thriller Movie Ever Seen ! !', 'Masterpiece Thriller']</t>
+          <t>['Tamil film', 'A Top Class Psycho Killer Drama ', 'Very interesting ', 'OneLine Review  Ratsasan  6 Stars ', 'Shud hav trimmed length n removed lousy slow motion scenes  Nevertheless  captivating serial killer film terrific music n hot actress ', 'The third act disappointing', 'GOOD PSYCHOLOGICAL CRIME THRILLER ', 'This make serialkiller film  albeit fairly inspired   77  ', 'Perfect serial killer movie  ', 'Very dark hardcore disturbing  Exellent thriller ', 'Stylish  FastPaced And Full Of Twists  Fans Of Thrillers DO NOT Miss This One ', 'Ratsasan  2018 ', 'Ratsasan edgy  engrossing  welldirected superb performances lovely twist end', 'Psychopath Risen', 'It booooom', 'Partly good overrated', 'A Masterpiece  Edge Seat Crime Thriller   ', 'A trademark Indian Cinema ', 'Khan Review', 'A decent movie desperately wants think s better', 'Watch  enjoy  forget  Nothing memorable', 'Really loved storyline ', 'A rollercoaster serial killer movie overrated well', 'Best Thriller Movie Ever Seen  ', 'Masterpiece Thriller']</t>
         </is>
       </c>
     </row>
@@ -40389,7 +40389,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>['A HILARIOUS ENTERTAINER HAVING EMOTIONS AND HEART AT RIGHT PLACE', 'One-Line Review : Chhichhore ( 8 Stars )', 'Another masterpiece Nitesh Tiwari', 'Too many clichés spoil viewing experience ! [ +46 % ]', "Funny , engaging - reminiscent ' 3 Idiots'-era .", 'Have missed scenery along way walked quickly ?', 'Heartwarming mixture 3 Idiots &amp; Student Year', 'Chichhore refreshing tale young , wild free college days . Go watch bring beautiful memories back', 'Entertaining ! !', 'High On Friendship With Lots Of Memories &amp; Emotions ! ! !', 'teaches u valuable lesson', 'The sweetest film 2019', 'A decent genre Bollywood .', 'Guilty pleasure', "It 's time shrug underdog tag !", 'Entertaining', 'Chhichhore', 'Powerful message , beautifully delivered .', 'Fantastic movie', 'Amazing Movie', 'Fun Guaranteed', 'A good cinema', 'A good story less thrilled', 'Perfect combination Humour , Emotions , Comedy Friendship bonding', 'Same old sh .. ! Nothing new makeup Oscar worthy']</t>
+          <t>['A HILARIOUS ENTERTAINER HAVING EMOTIONS AND HEART AT RIGHT PLACE', 'OneLine Review  Chhichhore  8 Stars ', 'Another masterpiece Nitesh Tiwari', 'Too many clichs spoil viewing experience   46  ', 'Funny  engaging  reminiscent  3 Idiotsera ', 'Have missed scenery along way walked quickly ', 'Heartwarming mixture 3 Idiots  Student Year', 'Chichhore refreshing tale young  wild free college days  Go watch bring beautiful memories back', 'Entertaining  ', 'High On Friendship With Lots Of Memories  Emotions   ', 'teaches u valuable lesson', 'The sweetest film 2019', 'A decent genre Bollywood ', 'Guilty pleasure', 'It s time shrug underdog tag ', 'Entertaining', 'Chhichhore', 'Powerful message  beautifully delivered ', 'Fantastic movie', 'Amazing Movie', 'Fun Guaranteed', 'A good cinema', 'A good story less thrilled', 'Perfect combination Humour  Emotions  Comedy Friendship bonding', 'Same old sh   Nothing new makeup Oscar worthy']</t>
         </is>
       </c>
     </row>
@@ -40433,7 +40433,7 @@
       </c>
       <c r="J909" t="inlineStr">
         <is>
-          <t>['Indian Escalation &amp; Suspense ...', 'Fight family ...', 'Original , yet flawed', '2013 Ends With An Original Entertainer . ♦ 85 %', 'Awesome thriller .', "Stayin ' afloat", "It 's alright . Definitely better remake", "`` I 'll take secret grave ``", 'Finest Crime Thriller ever .', "DRISHYAM - Visuals 'll blow brain", 'Deep', 'Ingenious Plot , Brilliant Execution', 'Unexpected . Staggering . Phenomenal .', 'The Film Of The Decade', 'One best trillers Malayalam', "Amazing , n't believe anyone else", 'God ! What acting ! ! !', "The best thriller movie I 've ever watched", 'Fantastic story along simplicity', 'One powerful movies ever', 'Power vs Intelligence', 'Outstanding effort every single artist board ....', 'Best thriller movie India', 'Brilliance crew members', 'BEST THRILLER MOVIE EVER MADE IN INDIA']</t>
+          <t>['Indian Escalation  Suspense ', 'Fight family ', 'Original  yet flawed', '2013 Ends With An Original Entertainer   85 ', 'Awesome thriller ', 'Stayin  afloat', 'It s alright  Definitely better remake', ' I ll take secret grave ', 'Finest Crime Thriller ever ', 'DRISHYAM  Visuals ll blow brain', 'Deep', 'Ingenious Plot  Brilliant Execution', 'Unexpected  Staggering  Phenomenal ', 'The Film Of The Decade', 'One best trillers Malayalam', 'Amazing  nt believe anyone else', 'God  What acting   ', 'The best thriller movie I ve ever watched', 'Fantastic story along simplicity', 'One powerful movies ever', 'Power vs Intelligence', 'Outstanding effort every single artist board ', 'Best thriller movie India', 'Brilliance crew members', 'BEST THRILLER MOVIE EVER MADE IN INDIA']</t>
         </is>
       </c>
     </row>
@@ -40477,7 +40477,7 @@
       </c>
       <c r="J910" t="inlineStr">
         <is>
-          <t>['Well made brilliant Christoph Waltz uneven disjointed', 'World War II In Alternate Universe', "Quentin Tarantino 's style Christoph Waltz 's menace", "Hey , It 's Tarantino !", 'pure Tarantino', 'Waltz Pitt', "Quentin Tarantino 's best movie yet", 'Bold , brutal brilliant .', 'Completely unexpected', 'spectacular achievement `` movie `` cinema', 'The Glorious return true cinematic excitement !', 'Too slow engaging', 'Tarantinto Goes Home', "Tarantino 's WW2 drama unorthodox spectacular", "Hitler 's Table Talk", 'Witty , Quirky , Violent', 'Tarantino top form brilliant WWII anti-Nazi salute dares look away ...', 'Good one', 'Alternate Reality', "Tarantino gold 's absolute must see", 'Quentin Tarantino Is One Glourious Basterd', "Unusual original , 's sure !", 'Once upon time , Nazi-occupied France ...', "Let 's kill much Nazis possible", 'Refreshingly different alternative WW2 drama/adventure']</t>
+          <t>['Well made brilliant Christoph Waltz uneven disjointed', 'World War II In Alternate Universe', 'Quentin Tarantino s style Christoph Waltz s menace', 'Hey  It s Tarantino ', 'pure Tarantino', 'Waltz Pitt', 'Quentin Tarantino s best movie yet', 'Bold  brutal brilliant ', 'Completely unexpected', 'spectacular achievement  movie  cinema', 'The Glorious return true cinematic excitement ', 'Too slow engaging', 'Tarantinto Goes Home', 'Tarantino s WW2 drama unorthodox spectacular', 'Hitler s Table Talk', 'Witty  Quirky  Violent', 'Tarantino top form brilliant WWII antiNazi salute dares look away ', 'Good one', 'Alternate Reality', 'Tarantino gold s absolute must see', 'Quentin Tarantino Is One Glourious Basterd', 'Unusual original  s sure ', 'Once upon time  Nazioccupied France ', 'Let s kill much Nazis possible', 'Refreshingly different alternative WW2 dramaadventure']</t>
         </is>
       </c>
     </row>
@@ -40521,7 +40521,7 @@
       </c>
       <c r="J911" t="inlineStr">
         <is>
-          <t>['Time play ( end ) game', 'Plot holes blockbuster weaknesses , impressive well lands huge beast way satisfies delivers', 'Visually great , overly thrilling exciting movie ...', 'end , whatever', 'Forget Captain Marvel ... meet The Rat !', 'A continuation `` Infinity War `` , Thanos dealt takes Avengers .', 'action-packed effects galore', 'Avengers : Endgame great way end first series Marvel Cinematic Univeerse', 'A fantastic end chapter', 'EXTRAVAGANT ... SPRAWLING ... SPECTACLE ... SO MANY CHARACTERS ... SO LITTLE TIME', 'Solemn Subdued', 'Depression', 'top right', 'Smooth landing amazing 11 year ride', 'Disappointing Avengers movie .', 'How possibly save half living beings Universe ?', "The MCU 's riveting , moving , uneven crescendo", 'way long', 'It goes heart .', 'A nice looking solution imperfect situation', 'One best superhero blockbusters ever .', 'Perfection ...', 'Kill Thanos Vol . 2', 'Outstanding visually &amp; epically delightful !', 'Silly special effects even sillier story . BUT actors starring good dialogues terrific']</t>
+          <t>['Time play  end  game', 'Plot holes blockbuster weaknesses  impressive well lands huge beast way satisfies delivers', 'Visually great  overly thrilling exciting movie ', 'end  whatever', 'Forget Captain Marvel  meet The Rat ', 'A continuation  Infinity War   Thanos dealt takes Avengers ', 'actionpacked effects galore', 'Avengers  Endgame great way end first series Marvel Cinematic Univeerse', 'A fantastic end chapter', 'EXTRAVAGANT  SPRAWLING  SPECTACLE  SO MANY CHARACTERS  SO LITTLE TIME', 'Solemn Subdued', 'Depression', 'top right', 'Smooth landing amazing 11 year ride', 'Disappointing Avengers movie ', 'How possibly save half living beings Universe ', 'The MCU s riveting  moving  uneven crescendo', 'way long', 'It goes heart ', 'A nice looking solution imperfect situation', 'One best superhero blockbusters ever ', 'Perfection ', 'Kill Thanos Vol  2', 'Outstanding visually  epically delightful ', 'Silly special effects even sillier story  BUT actors starring good dialogues terrific']</t>
         </is>
       </c>
     </row>
@@ -40565,7 +40565,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>['loving Miles', 'So Much More Than I Expected !', 'Spider-Man : Into Spider-Verse', 'A game changer .', 'There ... wait ? How many ?', 'Creative , funny , engaging , exciting', 'Not even worth money , time effort ...', 'Visually stunning consistently entertaining .', 'Spider-Man : Into Spider-Verse hopefully blow mind mine couple friends mine !', 'Amazing graphics', 'High energy animation mixes things', 'Despite animation , still pretty much average comic-book movie', 'Quirky Good', 'This may seriously all-time favorite Spider-Man movie', 'An unparalleled superhero saga', 'Refreshingly Multicultural', 'A tale food , relationships mad science', 'The Amazing Spider-Verse', 'Spider-Man : Into Spider-Verse', 'Amazing animation spectacular story ; pretty much ultimate Spider-Man picture .', 'Pushed watch , expecting meh , lot fun instead', '? ? ...... A CENTER FOR AWESOMENESS ? ( zoolander voice )', 'Ah Man !', 'Miles Others', 'Blockbuster Entertainment !']</t>
+          <t>['loving Miles', 'So Much More Than I Expected ', 'SpiderMan  Into SpiderVerse', 'A game changer ', 'There  wait  How many ', 'Creative  funny  engaging  exciting', 'Not even worth money  time effort ', 'Visually stunning consistently entertaining ', 'SpiderMan  Into SpiderVerse hopefully blow mind mine couple friends mine ', 'Amazing graphics', 'High energy animation mixes things', 'Despite animation  still pretty much average comicbook movie', 'Quirky Good', 'This may seriously alltime favorite SpiderMan movie', 'An unparalleled superhero saga', 'Refreshingly Multicultural', 'A tale food  relationships mad science', 'The Amazing SpiderVerse', 'SpiderMan  Into SpiderVerse', 'Amazing animation spectacular story  pretty much ultimate SpiderMan picture ', 'Pushed watch  expecting meh  lot fun instead', '   A CENTER FOR AWESOMENESS   zoolander voice ', 'Ah Man ', 'Miles Others', 'Blockbuster Entertainment ']</t>
         </is>
       </c>
     </row>
@@ -40609,7 +40609,7 @@
       </c>
       <c r="J913" t="inlineStr">
         <is>
-          <t>['great character work', "It 's About Man", 'mirror', 'Attention Must Be Paid', 'Joker', 'Believe hype !', 'Not joking ...', 'Dark Depressive', "Well , n't cup tea ...", "A violent colorful D.C. Comics film Joaquin Phoeneix 's magnificent acting", 'The definitive Joker', 'Outstanding audiences', 'The role finally Oscar Joaquin Phoenix .', 'Sometimes life , I guess , laugh ...', "Batman 's gon na problem", 'DEPRESSING ... DIRE ... DEMENTED ... DESCRIPTIVE JOKER ... DEFINITELY DEFINED', 'Great drama , stand-out performance Joaquin Phoenix', 'Funny', 'Joker stupid good .', 'Deeply Unsettling', 'funny like clown', 'Chilling deep', 'Joaquin Phoenix phenomenal .', 'Not fun , absorbing , artistic tragic', 'Hard pass']</t>
+          <t>['great character work', 'It s About Man', 'mirror', 'Attention Must Be Paid', 'Joker', 'Believe hype ', 'Not joking ', 'Dark Depressive', 'Well  nt cup tea ', 'A violent colorful DC Comics film Joaquin Phoeneix s magnificent acting', 'The definitive Joker', 'Outstanding audiences', 'The role finally Oscar Joaquin Phoenix ', 'Sometimes life  I guess  laugh ', 'Batman s gon na problem', 'DEPRESSING  DIRE  DEMENTED  DESCRIPTIVE JOKER  DEFINITELY DEFINED', 'Great drama  standout performance Joaquin Phoenix', 'Funny', 'Joker stupid good ', 'Deeply Unsettling', 'funny like clown', 'Chilling deep', 'Joaquin Phoenix phenomenal ', 'Not fun  absorbing  artistic tragic', 'Hard pass']</t>
         </is>
       </c>
     </row>
@@ -40653,7 +40653,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>['A chilling Stephen King adaptation , Kubrick trying different', 'creepiness haunts', 'One All Time Greats', 'Very Good ; But Could Have Been Great', 'mark Kubrick', "Forty years , 's still outstanding .", 'King Shining', 'A classic horror master director', 'I wish could stay forever ... ever ... ever ...', 'One best horror movies ever made exceptional performance Jack Nicholson stunningly directed Stanley Kubrick', 'It snowing last night—perfect weather The Shining .', 'A Horror Classic', 'Another Visual Treat From Kubrick', 'With benefit hindsight clear perspective , film obviously disappointment ...', 'The Horror From Kubrick', "Good film ! But really worth status ` Horror Classic ' ? ?", 'Cinematically confusing', 'Fatally Flawed', 'Jack Torrance HATES HATES HATES family ! ...', 'Haunted House Hill She Came Through Bathroom Mirror', 'A true classic', "Battery 's Out , Finger 's Dead", 'This rum red , man !', 'Cabin Fever Advanced Stages', "It 's horror film !"]</t>
+          <t>['A chilling Stephen King adaptation  Kubrick trying different', 'creepiness haunts', 'One All Time Greats', 'Very Good  But Could Have Been Great', 'mark Kubrick', 'Forty years  s still outstanding ', 'King Shining', 'A classic horror master director', 'I wish could stay forever  ever  ever ', 'One best horror movies ever made exceptional performance Jack Nicholson stunningly directed Stanley Kubrick', 'It snowing last nightperfect weather The Shining ', 'A Horror Classic', 'Another Visual Treat From Kubrick', 'With benefit hindsight clear perspective  film obviously disappointment ', 'The Horror From Kubrick', 'Good film  But really worth status  Horror Classic   ', 'Cinematically confusing', 'Fatally Flawed', 'Jack Torrance HATES HATES HATES family  ', 'Haunted House Hill She Came Through Bathroom Mirror', 'A true classic', 'Battery s Out  Finger s Dead', 'This rum red  man ', 'Cabin Fever Advanced Stages', 'It s horror film ']</t>
         </is>
       </c>
     </row>
@@ -40697,7 +40697,7 @@
       </c>
       <c r="J915" t="inlineStr">
         <is>
-          <t>['A worthy follow `` Alien ``', 'Every bit good Alien', 'All-time classic ; one greatest films ever made', 'Great follow', 'A Masterpiece Suspense', 'One best films ever made .', 'Game man ?', 'Classic action thriller', 'Tons action tons aliens ...', 'Awesome second installment Alien saga filled tension , chills , noisy action groundbreaking scenes', 'Sigourney Weaver : bad-ass', 'A Sequel Worthy Original', "One best films 80 's !", 'More brilliant sequel . A stand-alone SciFi/horror monument !', 'Ripley', "One Camerons ' finest moments .", "Make 7.5 , n't think hard !", 'Little Intel Lots Intensity', 'Entertaining', 'My mommy always said monsters - real ones - .', 'By Far The Best Movie In The Franchise', 'The best science fiction/horror/action adventure movie ever !', 'A Good Sequel', "`` It Wo n't Make Any Difference ! `` ...", 'This probably favorite movie series']</t>
+          <t>['A worthy follow  Alien ', 'Every bit good Alien', 'Alltime classic  one greatest films ever made', 'Great follow', 'A Masterpiece Suspense', 'One best films ever made ', 'Game man ', 'Classic action thriller', 'Tons action tons aliens ', 'Awesome second installment Alien saga filled tension  chills  noisy action groundbreaking scenes', 'Sigourney Weaver  badass', 'A Sequel Worthy Original', 'One best films 80 s ', 'More brilliant sequel  A standalone SciFihorror monument ', 'Ripley', 'One Camerons  finest moments ', 'Make 75  nt think hard ', 'Little Intel Lots Intensity', 'Entertaining', 'My mommy always said monsters  real ones  ', 'By Far The Best Movie In The Franchise', 'The best science fictionhorroraction adventure movie ever ', 'A Good Sequel', ' It Wo nt Make Any Difference   ', 'This probably favorite movie series']</t>
         </is>
       </c>
     </row>
@@ -40741,7 +40741,7 @@
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>['A brooding downbeat film hellish experience terrible WWII boy soldier', 'horrors war 1940s Belarus', 'A Soviet Perspective World War II', 'Absolutely terrific , outstanding .', 'Horror Stedicam near-masterpiece', 'Powerful , brutal WW2 drama', 'One greatest war films ever made', 'The horror', "I n't think 's cut dry .", 'Come See', 'Masterpiece', 'Film Review - Come See ( 1985 ) 8.8/10', "Overwhelming masterpiece child 's awakening realities war", 'The Most Brutal , Astonishing , Disturbing Heart-Burning Film ever made World War 2 Ferocious Hitler .', 'War really Hell ... knew already .', 'One Of The Most Powerful , Influential &amp; Upsetting War Films Ever Made', 'Great Movie', 'Over Top - But WW 2 Russia Was Over Top - Come See', 'You must watch ...', 'A Child', 'Absolutely horrifying', 'A harrowing war film', 'Lives hype', 'This film packs everything Eastern front war film uses older techniques put across disturbance .', 'A Nightmare']</t>
+          <t>['A brooding downbeat film hellish experience terrible WWII boy soldier', 'horrors war 1940s Belarus', 'A Soviet Perspective World War II', 'Absolutely terrific  outstanding ', 'Horror Stedicam nearmasterpiece', 'Powerful  brutal WW2 drama', 'One greatest war films ever made', 'The horror', 'I nt think s cut dry ', 'Come See', 'Masterpiece', 'Film Review  Come See  1985  8810', 'Overwhelming masterpiece child s awakening realities war', 'The Most Brutal  Astonishing  Disturbing HeartBurning Film ever made World War 2 Ferocious Hitler ', 'War really Hell  knew already ', 'One Of The Most Powerful  Influential  Upsetting War Films Ever Made', 'Great Movie', 'Over Top  But WW 2 Russia Was Over Top  Come See', 'You must watch ', 'A Child', 'Absolutely horrifying', 'A harrowing war film', 'Lives hype', 'This film packs everything Eastern front war film uses older techniques put across disturbance ', 'A Nightmare']</t>
         </is>
       </c>
     </row>
@@ -40785,7 +40785,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>['Extravagant clash titans', 'The Marvel punch', 'Come together ... right', 'Works better right', 'nerds like', 'Thanos wants destroy half universe . Can Avengers stop ?', 'Avengers : Infinity War excellent culmulation previous movies Marvel Cinematic Universe', 'An enjoyable blockbuster', 'Marvel scores', 'Another Brilliant Chess Move', 'Too long worthwhile', 'A1', 'big', 'Perfectly balanced', 'Long entertaining .', 'Moving ending , least Avengers movies IMHO', "Exactly I hoping I 've waiting", 'Goes ( ) easy .', 'Louder , Longer , Less plot - Groot best tool : iPod ..........', 'whole Marvel world coming together', "Bold , brazen ballsy stuff n't afraid go dark ; incredibly thrilling , nail-bitingly tense satisfyingly unconventional .", 'An awesome action movie makes little sense', 'Yeah , every bit good critics say .', 'EPIC ASTONISHING', 'Hypnotic , good ...']</t>
+          <t>['Extravagant clash titans', 'The Marvel punch', 'Come together  right', 'Works better right', 'nerds like', 'Thanos wants destroy half universe  Can Avengers stop ', 'Avengers  Infinity War excellent culmulation previous movies Marvel Cinematic Universe', 'An enjoyable blockbuster', 'Marvel scores', 'Another Brilliant Chess Move', 'Too long worthwhile', 'A1', 'big', 'Perfectly balanced', 'Long entertaining ', 'Moving ending  least Avengers movies IMHO', 'Exactly I hoping I ve waiting', 'Goes   easy ', 'Louder  Longer  Less plot  Groot best tool  iPod ', 'whole Marvel world coming together', 'Bold  brazen ballsy stuff nt afraid go dark  incredibly thrilling  nailbitingly tense satisfyingly unconventional ', 'An awesome action movie makes little sense', 'Yeah  every bit good critics say ', 'EPIC ASTONISHING', 'Hypnotic  good ']</t>
         </is>
       </c>
     </row>
@@ -40829,7 +40829,7 @@
       </c>
       <c r="J918" t="inlineStr">
         <is>
-          <t>['Harrowing', 'The horror , The horror', 'Iconic , Original , Impossible Forget', 'Take long ride perdition .', 'Apocalypse Now', 'Great interpretation good book deliver points nature war', 'Redux : still brilliant - new strengths weaknesses', 'Not typical Vietnam War movie ...', 'Spectacular fascinating movie journey leading horror', 'The best Vietnam War movie ever .', 'The REDUX version', "Francis Ford Coppola 's Vietnam Epic", 'Monument movie', 'Sheen Shines In This Unique Classic', '`` A snail edge straight razor ... ``', 'In top five favorite films ever made', 'It smells like nightmare ! But napalm morning .', "FRANCIS FORD COPPOLA 'S `` HEART OF DARKNESS `` ... FINAL CUT", 'A masterpiece - one greatest movies ever made', "It n't insanity murder , enough go around everyone .", 'My All Time Favourite Movie', "Napalm Ca n't Smell Good", 'Ok', '`` I Wanted A Mission , And , For My Sins , They Gave Me One ! `` ...', "This is/should n't entertainment"]</t>
+          <t>['Harrowing', 'The horror  The horror', 'Iconic  Original  Impossible Forget', 'Take long ride perdition ', 'Apocalypse Now', 'Great interpretation good book deliver points nature war', 'Redux  still brilliant  new strengths weaknesses', 'Not typical Vietnam War movie ', 'Spectacular fascinating movie journey leading horror', 'The best Vietnam War movie ever ', 'The REDUX version', 'Francis Ford Coppola s Vietnam Epic', 'Monument movie', 'Sheen Shines In This Unique Classic', ' A snail edge straight razor  ', 'In top five favorite films ever made', 'It smells like nightmare  But napalm morning ', 'FRANCIS FORD COPPOLA S  HEART OF DARKNESS   FINAL CUT', 'A masterpiece  one greatest movies ever made', 'It nt insanity murder  enough go around everyone ', 'My All Time Favourite Movie', 'Napalm Ca nt Smell Good', 'Ok', ' I Wanted A Mission  And  For My Sins  They Gave Me One   ', 'This isshould nt entertainment']</t>
         </is>
       </c>
     </row>
@@ -40873,7 +40873,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>['What great head trip', 'Great', 'A family thing', 'Grown', 'Impressive Violent Kafkanian Tale Revenge', 'Dark , stylish , engaging stuff appeal modern audiences even lack depth problem', 'It hyped something hardly deliver ...', 'gritty things discover', "South Korea 's Violent Masterpiece ?", "revenge picture n't pretty , loves way", 'Asian Trash Cinema Has Become Respectable', 'Vertigo', "It 's little bit much", 'YES IT IS THAT GOOD', "`` You ca n't find right answer ask wrong questions . ``", 'My time favorite Korean movie', 'Revenge good health , pain find .', "I n't even know worked !", 'Intriguing mix `` Memento `` meets `` Payback `` way `` Chinatown ``', 'remarkable film', 'A dark uncompromising tale seeks prove seeking vengeance , dig least two graves .', 'Dark entertainment', "Leaves taste . Or maybe 's blood .", 'Oh Boy !', '[ 6.8 ] Raw materials contain vitamins A D !']</t>
+          <t>['What great head trip', 'Great', 'A family thing', 'Grown', 'Impressive Violent Kafkanian Tale Revenge', 'Dark  stylish  engaging stuff appeal modern audiences even lack depth problem', 'It hyped something hardly deliver ', 'gritty things discover', 'South Korea s Violent Masterpiece ', 'revenge picture nt pretty  loves way', 'Asian Trash Cinema Has Become Respectable', 'Vertigo', 'It s little bit much', 'YES IT IS THAT GOOD', ' You ca nt find right answer ask wrong questions  ', 'My time favorite Korean movie', 'Revenge good health  pain find ', 'I nt even know worked ', 'Intriguing mix  Memento  meets  Payback  way  Chinatown ', 'remarkable film', 'A dark uncompromising tale seeks prove seeking vengeance  dig least two graves ', 'Dark entertainment', 'Leaves taste  Or maybe s blood ', 'Oh Boy ', ' 68  Raw materials contain vitamins A D ']</t>
         </is>
       </c>
     </row>
@@ -40917,7 +40917,7 @@
       </c>
       <c r="J920" t="inlineStr">
         <is>
-          <t>['Dark .... incredibly dark .', 'What way end trilogy !', 'Sometimes predictable , often astonishing', 'Anne Hathaway good Catwoman', 'Very Good Way Close This Amazing Trilogy', 'impeccable', 'As 2023 , still standout Batman movie .', 'Final Conclusion', 'Stupid Characters Situations Awful Ridiculous Story', 'Impressive `` Batman `` movie say least ...', 'Dark , cold violent Hollywood Blockbuster intelligent script , unstoppable action state-of-art special effects', 'tale two Gothams', 'Brutal thrills delivered shorthand ; quick mean ... heavy-going', 'Christopher Nolan Christian Bale provided exciting heartfelt conclusion Batman movie series The Dark Knight Rises', 'An epic conclusion trilogy', 'UninspiredDepressingDullUnworthy', 'Good , great', 'Sound imbalance soft spoken dialog music explosions ...', "I 's entertaining still could 've better .", 'Another one', 'As Good Predecessor', "This iconic addition super hero genre 's absolute must see", "Gotham 's Reckoning", 'A great conclusion .', "A satisfying conclusion fantastic trilogy ... 's feels like"]</t>
+          <t>['Dark  incredibly dark ', 'What way end trilogy ', 'Sometimes predictable  often astonishing', 'Anne Hathaway good Catwoman', 'Very Good Way Close This Amazing Trilogy', 'impeccable', 'As 2023  still standout Batman movie ', 'Final Conclusion', 'Stupid Characters Situations Awful Ridiculous Story', 'Impressive  Batman  movie say least ', 'Dark  cold violent Hollywood Blockbuster intelligent script  unstoppable action stateofart special effects', 'tale two Gothams', 'Brutal thrills delivered shorthand  quick mean  heavygoing', 'Christopher Nolan Christian Bale provided exciting heartfelt conclusion Batman movie series The Dark Knight Rises', 'An epic conclusion trilogy', 'UninspiredDepressingDullUnworthy', 'Good  great', 'Sound imbalance soft spoken dialog music explosions ', 'I s entertaining still could ve better ', 'Another one', 'As Good Predecessor', 'This iconic addition super hero genre s absolute must see', 'Gotham s Reckoning', 'A great conclusion ', 'A satisfying conclusion fantastic trilogy  s feels like']</t>
         </is>
       </c>
     </row>
@@ -40961,7 +40961,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>["A strong contender Christopher Nolan 's best film", 'unique viewing experience', 'Mind Blowing', 'Have I seen ?', 'A great film directors film editors', "like nothing 've ever seen", 'The Breakout Film Christopher Nolan', 'Hip ? Cool ? Different ? Maybe , But Also Frustrating', 'A movie easy admire difficult like !', 'See twice , , depending brain', 'Amazing', 'Gimmick ... But Not So Pure Simple', 'Mind-bogglingly , breath-takingly brilliant - insanely original intelligent', 'We lie happy .', 'No One Likes A Smart Ass', '`` Reverse Psychology ``', 'Exhausting fascinating thriller', "I agree Maltin 's verdict ... `` pretentious pap adds zero `` ...", 'Dreamy', 'One Best Gimmick Movies Ever Made', 'Original movie-making best .', 'Unique , brilliant deep', 'In mystery genre stands .', '`` Now , Where Was I ? ``', 'Puzzling Non-Linear Film .']</t>
+          <t>['A strong contender Christopher Nolan s best film', 'unique viewing experience', 'Mind Blowing', 'Have I seen ', 'A great film directors film editors', 'like nothing ve ever seen', 'The Breakout Film Christopher Nolan', 'Hip  Cool  Different  Maybe  But Also Frustrating', 'A movie easy admire difficult like ', 'See twice   depending brain', 'Amazing', 'Gimmick  But Not So Pure Simple', 'Mindbogglingly  breathtakingly brilliant  insanely original intelligent', 'We lie happy ', 'No One Likes A Smart Ass', ' Reverse Psychology ', 'Exhausting fascinating thriller', 'I agree Maltin s verdict   pretentious pap adds zero  ', 'Dreamy', 'One Best Gimmick Movies Ever Made', 'Original moviemaking best ', 'Unique  brilliant deep', 'In mystery genre stands ', ' Now  Where Was I  ', 'Puzzling NonLinear Film ']</t>
         </is>
       </c>
     </row>
@@ -41005,7 +41005,7 @@
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>["What 's like ? !", 'It absolutely celebration lifetime', 'admirable', 'Remember Me', 'Dia de los ( ) muertos', 'Not perfect colorful engaging themes ideas - bit respectful broad though', 'When celebrating dead ...', 'past return', 'Another great film Pixar', 'Award-winning animated movie young boy wanting musician .', 'A return form Pixar', 'Near classic Pixar terrific music deep moving message memory', 'Coco one best Disney/Pixar animated films yet !', 'Absolutely lovely', 'A sweet touching film remembrance', 'Sweet entertaining', "Did n't Connect `` Coco ``", 'yet another Pixar instant classic', 'To know Coco love Coco !', 'Coco', 'Enjoyable , energetic emotionally mature ; might even provoke tear two .', 'Night Of The Living Dead', "COCO heading notch Oscar grail emerges another jewel Pixar 's ever-impressive crown", 'Midnight Garden Coco Evil', 'A Pure Delight !']</t>
+          <t>['What s like  ', 'It absolutely celebration lifetime', 'admirable', 'Remember Me', 'Dia de los   muertos', 'Not perfect colorful engaging themes ideas  bit respectful broad though', 'When celebrating dead ', 'past return', 'Another great film Pixar', 'Awardwinning animated movie young boy wanting musician ', 'A return form Pixar', 'Near classic Pixar terrific music deep moving message memory', 'Coco one best DisneyPixar animated films yet ', 'Absolutely lovely', 'A sweet touching film remembrance', 'Sweet entertaining', 'Did nt Connect  Coco ', 'yet another Pixar instant classic', 'To know Coco love Coco ', 'Coco', 'Enjoyable  energetic emotionally mature  might even provoke tear two ', 'Night Of The Living Dead', 'COCO heading notch Oscar grail emerges another jewel Pixar s everimpressive crown', 'Midnight Garden Coco Evil', 'A Pure Delight ']</t>
         </is>
       </c>
     </row>
@@ -41049,7 +41049,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>['Grrr ... history teacher within allow completely enjoy film .', 'Absolutely brilliant ! - funny , charming touching , masterpiece !', 'The Mercurial Genius', "Great F. Murray Abraham Tom Hulce 's laugh", 'beautiful', 'The Life Mozart Wonderfully Present Viewers Who Loves High Quality Movies', 'Awesome period piece lovely production design , outstanding score top-notch acting', 'I compose ( pun intended ) message ...', 'An Interesting Take Amadeus Story', 'Awesome', 'Handsome carefully crafted , standout performances ...', 'Beloved God', "Excellent director 's cut , though still long .", 'To give everything music come short', 'A Stroke Genius', 'Enthralling , enchanting , edifying masterpiece', 'long good !', 'Rock Me , Amadeus', "Lively costume biography Mozart 's last nine years Austria", 'Great film great composer time musical history', 'Salieri Too !', 'VERY times Academy Awards gave Oscar RIGHT film : 1985', 'Breathtaking ! Stunning ! Worthy Every Award !', 'Amadeus', 'High production value , wish story true']</t>
+          <t>['Grrr  history teacher within allow completely enjoy film ', 'Absolutely brilliant   funny  charming touching  masterpiece ', 'The Mercurial Genius', 'Great F Murray Abraham Tom Hulce s laugh', 'beautiful', 'The Life Mozart Wonderfully Present Viewers Who Loves High Quality Movies', 'Awesome period piece lovely production design  outstanding score topnotch acting', 'I compose  pun intended  message ', 'An Interesting Take Amadeus Story', 'Awesome', 'Handsome carefully crafted  standout performances ', 'Beloved God', 'Excellent director s cut  though still long ', 'To give everything music come short', 'A Stroke Genius', 'Enthralling  enchanting  edifying masterpiece', 'long good ', 'Rock Me  Amadeus', 'Lively costume biography Mozart s last nine years Austria', 'Great film great composer time musical history', 'Salieri Too ', 'VERY times Academy Awards gave Oscar RIGHT film  1985', 'Breathtaking  Stunning  Worthy Every Award ', 'Amadeus', 'High production value  wish story true']</t>
         </is>
       </c>
     </row>
@@ -41093,7 +41093,7 @@
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>['To , always best Indianna Jones series', 'The Ark Should Have Come With A Warning Label', 'cinematic greatness', 'Classic', 'Only Praise It', 'Raiders Lost Ark', 'One best action movies ever made .', 'Not average ( history/archeology ) teacher', 'Classic bit schoolboy action', 'Such amazing adventure movie ...', 'Magnificent action-packed adventure film spawned two sequels numerous copies', "Okay , one-dimensional , 's still cool movie .", "Even Spielberg n't make 'em like anymore .", 'Timeless Modern Classic', 'No less eighties serial , best ever .', 'Will Rank Among The All-Time Adventure Stories', 'A timeless adventure , early Spielberg , set 1936 .', 'worst trilogy best', 'Classic B film revitalized', 'Raiders Lost Ark- Action At Its Absolute Best * * * *', "`` I n't know ... I 'm making I go . ``", 'The modern day template action/adventure movies .', 'This Is Family Entertainment ?', "It 's Indiana Jones", 'As exhilarating rollercoaster ride ... twice much fun !']</t>
+          <t>['To  always best Indianna Jones series', 'The Ark Should Have Come With A Warning Label', 'cinematic greatness', 'Classic', 'Only Praise It', 'Raiders Lost Ark', 'One best action movies ever made ', 'Not average  historyarcheology  teacher', 'Classic bit schoolboy action', 'Such amazing adventure movie ', 'Magnificent actionpacked adventure film spawned two sequels numerous copies', 'Okay  onedimensional  s still cool movie ', 'Even Spielberg nt make em like anymore ', 'Timeless Modern Classic', 'No less eighties serial  best ever ', 'Will Rank Among The AllTime Adventure Stories', 'A timeless adventure  early Spielberg  set 1936 ', 'worst trilogy best', 'Classic B film revitalized', 'Raiders Lost Ark Action At Its Absolute Best    ', ' I nt know  I m making I go  ', 'The modern day template actionadventure movies ', 'This Is Family Entertainment ', 'It s Indiana Jones', 'As exhilarating rollercoaster ride  twice much fun ']</t>
         </is>
       </c>
     </row>
@@ -41137,7 +41137,7 @@
       </c>
       <c r="J925" t="inlineStr">
         <is>
-          <t>['Once seen , never forgotten- truly magnificent', 'magical realism', 'Switching', 'Reasonably interesting , great', 'Wistful , poignant ultimately uplifting ; beautifully animated wonderfully inventive .', 'It beautiful , also quite derivative', 'A mega-hit anime produced named Studio Ghibli', 'Love Returns To Cinema With This One !', 'Utterly amazing', 'Superb !', 'A beautiful unique film', 'could greatest love story time', 'Not huge fan anime , animated movies general , I like film .', 'One Of The Most Enchanting &amp; Emotionally Engrossing Films Of Its Year', 'Great story', 'As Deep Mariana Trench ...', 'A Timeless Romance', 'Beautiful story', "Watch even n't like anime", 'Sentimental well made', 'Your Name : Not good', "They 're strangers , yet 've never met .", 'One favorite animes ever .', 'One best Animation movies ever made !', "It 's utterly gorgeous watch"]</t>
+          <t>['Once seen  never forgotten truly magnificent', 'magical realism', 'Switching', 'Reasonably interesting  great', 'Wistful  poignant ultimately uplifting  beautifully animated wonderfully inventive ', 'It beautiful  also quite derivative', 'A megahit anime produced named Studio Ghibli', 'Love Returns To Cinema With This One ', 'Utterly amazing', 'Superb ', 'A beautiful unique film', 'could greatest love story time', 'Not huge fan anime  animated movies general  I like film ', 'One Of The Most Enchanting  Emotionally Engrossing Films Of Its Year', 'Great story', 'As Deep Mariana Trench ', 'A Timeless Romance', 'Beautiful story', 'Watch even nt like anime', 'Sentimental well made', 'Your Name  Not good', 'They re strangers  yet ve never met ', 'One favorite animes ever ', 'One best Animation movies ever made ', 'It s utterly gorgeous watch']</t>
         </is>
       </c>
     </row>
@@ -41181,7 +41181,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>['Simply amazing !', 'PIXAR', 'Good Film', 'Thoughtful Kind', 'lovely', 'Eve love', 'They', 'Wonderful Message', 'Beautifully crafted charming film appeals adults children without two films one making work', 'I\x95Like', 'The Silent , Ecological Pixar Film', 'Absolutely Stunning B-D Visuals &amp; Audio', 'Lovely', 'Jam-packed plot viewer-friendly ecology-minded messages ... perhaps jammed', 'adorable haunting , delightful , joyous , ultimately funny', 'A great film ingredients success', 'The Certainty Seeing', 'Wall- E huge surpise', 'WALL-E ( Andrew Stanton , 2008 ) * * *', "I n't want survive . I want live .", 'One Little Robot One Gigantic Heart', 'Take trash', 'It lot minimal stuff possible .', 'Everything need ,', 'Yep . Me . Great .']</t>
+          <t>['Simply amazing ', 'PIXAR', 'Good Film', 'Thoughtful Kind', 'lovely', 'Eve love', 'They', 'Wonderful Message', 'Beautifully crafted charming film appeals adults children without two films one making work', 'ILike', 'The Silent  Ecological Pixar Film', 'Absolutely Stunning BD Visuals  Audio', 'Lovely', 'Jampacked plot viewerfriendly ecologyminded messages  perhaps jammed', 'adorable haunting  delightful  joyous  ultimately funny', 'A great film ingredients success', 'The Certainty Seeing', 'Wall E huge surpise', 'WALLE  Andrew Stanton  2008    ', 'I nt want survive  I want live ', 'One Little Robot One Gigantic Heart', 'Take trash', 'It lot minimal stuff possible ', 'Everything need ', 'Yep  Me  Great ']</t>
         </is>
       </c>
     </row>
@@ -41225,7 +41225,7 @@
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>['This gets better repeated viewings -- film !', "Gentlemen , You ca n't fight ! This War Room !", "Going Toe Toe 'Rooskies '", 'Mildly funny important nevertheless', 'Unlike Any Other Comedy Ever Made', "Just Wanted Get My Two Cent 's Worth", 'fantastic', 'Dr. Strangelove : How I Learned Stop Worrying Love Bomb', "It 's still interesting unique film .", 'Winning', 'A black comedy nuclear plot includes intelligent dialog , spectacular sets sensational performances', "I ca n't decide whether one `` 2001 `` Kubrick 's best", "Kubrick 's War Satire", 'Superlative .', 'Overt Anti-Military Bias , But Funny', 'A classic , must-see `` black `` comedy nuclear destruction .', 'Seller stars ... three times', 'Lacerating black comedy ...', 'Kubrick takes whack comedy- cold war', 'A must see ! ! ! * * * * * * * * *', "Stanley Kubrick 's Dr. Stranglove ... still provide entertainment intelligence good measure", 'The Sky Is Falling ! The Sky Is Falling !', 'So prescient', 'Humor Makes The Pill Go Down', "`` NUKLAR WAR TOE TO TOE WITH THE RUSKIES `` ... KUBRICK 'S MUSE"]</t>
+          <t>['This gets better repeated viewings  film ', 'Gentlemen  You ca nt fight  This War Room ', 'Going Toe Toe Rooskies ', 'Mildly funny important nevertheless', 'Unlike Any Other Comedy Ever Made', 'Just Wanted Get My Two Cent s Worth', 'fantastic', 'Dr Strangelove  How I Learned Stop Worrying Love Bomb', 'It s still interesting unique film ', 'Winning', 'A black comedy nuclear plot includes intelligent dialog  spectacular sets sensational performances', 'I ca nt decide whether one  2001  Kubrick s best', 'Kubrick s War Satire', 'Superlative ', 'Overt AntiMilitary Bias  But Funny', 'A classic  mustsee  black  comedy nuclear destruction ', 'Seller stars  three times', 'Lacerating black comedy ', 'Kubrick takes whack comedy cold war', 'A must see            ', 'Stanley Kubrick s Dr Stranglove  still provide entertainment intelligence good measure', 'The Sky Is Falling  The Sky Is Falling ', 'So prescient', 'Humor Makes The Pill Go Down', ' NUKLAR WAR TOE TO TOE WITH THE RUSKIES   KUBRICK S MUSE']</t>
         </is>
       </c>
     </row>
@@ -41269,7 +41269,7 @@
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>['Wonderfully entertaining .', 'Cast filmed India , plays theme dads want boys become engineers .', "take : least , ca n't say n't get full-course meal movies one LARGE one", 'One better Bollywood movies I saw', '3 Idiots', 'A Nutshell Review : 3 Idiots', 'This inspires watch Bollywood movies', 'Scarcely comedy provided audience much insight , intelligence , human affection', 'A Treat !', 'If come Hollywood Bollywood might cleaned Oscars .', 'likable bloated screwball comedy', 'No , Thank You .', 'All well indeed', 'Hat-Trick Heroes x 3 ...', 'Idiotic Times 3', 'Great entertainment ...', 'Very long heartwarming', 'Tremendous ! ! ! 3 Idiots', 'Finally masterpiece Bollywood . Aamir Khan best thing happen Bollywood .', 'About finding path', 'This movie epic', 'Bollywood comedy blockbuster : pee jokes wholesome life values', 'ALL TIME FAVE COMEDY DRAMA MOVIE .', 'endless unfunny repetitive pointless', 'Not well .']</t>
+          <t>['Wonderfully entertaining ', 'Cast filmed India  plays theme dads want boys become engineers ', 'take  least  ca nt say nt get fullcourse meal movies one LARGE one', 'One better Bollywood movies I saw', '3 Idiots', 'A Nutshell Review  3 Idiots', 'This inspires watch Bollywood movies', 'Scarcely comedy provided audience much insight  intelligence  human affection', 'A Treat ', 'If come Hollywood Bollywood might cleaned Oscars ', 'likable bloated screwball comedy', 'No  Thank You ', 'All well indeed', 'HatTrick Heroes x 3 ', 'Idiotic Times 3', 'Great entertainment ', 'Very long heartwarming', 'Tremendous    3 Idiots', 'Finally masterpiece Bollywood  Aamir Khan best thing happen Bollywood ', 'About finding path', 'This movie epic', 'Bollywood comedy blockbuster  pee jokes wholesome life values', 'ALL TIME FAVE COMEDY DRAMA MOVIE ', 'endless unfunny repetitive pointless', 'Not well ']</t>
         </is>
       </c>
     </row>
@@ -41313,7 +41313,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>['Convincing police state environment', 'Think Twice Before You Hand Over Too Much Government', 'East vs. West', 'Sonata Good Man', 'Mature , engaging thoughtful drama across many aspects', "Let 's stop beating around bush admit USA USSR .", 'The Wall', 'Terrific analysis subject', 'One word : Magnificent', 'strikingly human suspense-drama changes come good people', 'Brilliant', 'Nests', 'Excellent truly Oscar worthy', 'For many unsung heroes resisted Communist regime ,', 'A Beautiful Statement About Humanity Triumphing Over Oppression', "It 's For Me", 'The watchers observed', 'Nasty atmosphere live .', 'Almost Perfect !', 'The Survival Individual Under Cloud Totalitarianism', 'A conversation two .', "The globe 's best . . .", 'Captivating sensual .', "No freedom side Wall , even people 's walls", 'An intelligent German Socialist drama loses morality emotional blunder regains emotional quotient .']</t>
+          <t>['Convincing police state environment', 'Think Twice Before You Hand Over Too Much Government', 'East vs West', 'Sonata Good Man', 'Mature  engaging thoughtful drama across many aspects', 'Let s stop beating around bush admit USA USSR ', 'The Wall', 'Terrific analysis subject', 'One word  Magnificent', 'strikingly human suspensedrama changes come good people', 'Brilliant', 'Nests', 'Excellent truly Oscar worthy', 'For many unsung heroes resisted Communist regime ', 'A Beautiful Statement About Humanity Triumphing Over Oppression', 'It s For Me', 'The watchers observed', 'Nasty atmosphere live ', 'Almost Perfect ', 'The Survival Individual Under Cloud Totalitarianism', 'A conversation two ', 'The globe s best   ', 'Captivating sensual ', 'No freedom side Wall  even people s walls', 'An intelligent German Socialist drama loses morality emotional blunder regains emotional quotient ']</t>
         </is>
       </c>
     </row>
@@ -41357,7 +41357,7 @@
       </c>
       <c r="J930" t="inlineStr">
         <is>
-          <t>['Well made difficult watch .... film everyone .', 'unrelenting , raw', "I Guess It 's Sincere", 'Other World', 'I bet people live like realize', 'Well intentioned magnetic lead performance long saccharine', 'Unfocused badly paced reasonably powerful ending', 'Took My Breath Away', 'Zain steals heart', 'Touching movie .', "As close 'real ' possible .", 'confidently wrought social reportage dares offer unflinching look abject underbelly hand-to-mouth existence', 'This great film give Roma Shoplifters jitters .', 'Unbelievable , Unusual yet Universal . A Labenese Masterpiece Beyond Imagination Child Oriented Genre .', 'Harrowing perceptive', 'A Masterwork Social-Realism', 'Brilliant directing amazing acting', 'Educational', 'Effective', 'Speechless ...', 'Very hard hitting', 'A harrowing beautiful human tale one decades best child performances', 'Deeply moving ( haunting )', 'One great films 2018', 'A Masterpiece']</t>
+          <t>['Well made difficult watch  film everyone ', 'unrelenting  raw', 'I Guess It s Sincere', 'Other World', 'I bet people live like realize', 'Well intentioned magnetic lead performance long saccharine', 'Unfocused badly paced reasonably powerful ending', 'Took My Breath Away', 'Zain steals heart', 'Touching movie ', 'As close real  possible ', 'confidently wrought social reportage dares offer unflinching look abject underbelly handtomouth existence', 'This great film give Roma Shoplifters jitters ', 'Unbelievable  Unusual yet Universal  A Labenese Masterpiece Beyond Imagination Child Oriented Genre ', 'Harrowing perceptive', 'A Masterwork SocialRealism', 'Brilliant directing amazing acting', 'Educational', 'Effective', 'Speechless ', 'Very hard hitting', 'A harrowing beautiful human tale one decades best child performances', 'Deeply moving  haunting ', 'One great films 2018', 'A Masterpiece']</t>
         </is>
       </c>
     </row>
@@ -41401,7 +41401,7 @@
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>['Superior submarine movie', 'Life Sardine Can', "One best war time films 'll ever see .", 'German Masterpiece', 'Nail-biter masterpiece hard conditions forty three sailors dangerous mission WWII', 'Hunters hunted ?', 'A View From Other Side', 'Best submarine movie ever made .', 'Longer Director `` Cut The Version To See &amp; Hear', 'Das Boot ( boat ) without doubt one finest movies ever !', "Masterpiece war 's actually anti-war", "Peterson 's best ; good film becomes great ending", 'Brilliant , intense , realistic , gritty WW2 drama', 'This All Strange', 'One greatest ...', 'Boat', 'We All Live Nazi Submarine', 'Amazing movie !', 'Immersive unforgettable masterpiece', 'Best submarine flicks', 'Life German U-boat', 'The U-Boat', "Germany 's Best Film Date !", 'Very realistic war movie . A bit long taste .', "A Nutshell Review : Das Boot : The Director 's Cut ( 1981 )"]</t>
+          <t>['Superior submarine movie', 'Life Sardine Can', 'One best war time films ll ever see ', 'German Masterpiece', 'Nailbiter masterpiece hard conditions forty three sailors dangerous mission WWII', 'Hunters hunted ', 'A View From Other Side', 'Best submarine movie ever made ', 'Longer Director  Cut The Version To See  Hear', 'Das Boot  boat  without doubt one finest movies ever ', 'Masterpiece war s actually antiwar', 'Peterson s best  good film becomes great ending', 'Brilliant  intense  realistic  gritty WW2 drama', 'This All Strange', 'One greatest ', 'Boat', 'We All Live Nazi Submarine', 'Amazing movie ', 'Immersive unforgettable masterpiece', 'Best submarine flicks', 'Life German Uboat', 'The UBoat', 'Germany s Best Film Date ', 'Very realistic war movie  A bit long taste ', 'A Nutshell Review  Das Boot  The Director s Cut  1981 ']</t>
         </is>
       </c>
     </row>
@@ -41445,7 +41445,7 @@
       </c>
       <c r="J932" t="inlineStr">
         <is>
-          <t>['Savage , dark original- satirical comedy good missed', 'The Wild Roller-coaster Fame', 'classic iconic performance', "It 's Gut Wrencher", "'Crumbling apart slow motion . '", 'A Bitter Tragic Masterpiece', 'Tends towards melodramatic still cutting surprisingly fresh judgement Hollywood fame', 'A hack writer search refuge creditors hides crumbling mansion inhabited faded silent movie star', "I 'm ready review , Mr. Wilder", 'A classic still fresh almost seventy years', "Could Be , In My Opinion , Wilder 's Second Best Film", 'Give It At Least Two Looks', "The ghosts Hollywood 's ravaged past ...", 'The ultimate has-been ultimate Hollywood story', 'Greatness Boulevard .', 'arguably Wilder best ; Swanson , Holden , von Stroheim perfect', 'Sun Never Sets Boulevard * * * 1/2', 'Still great years . A classic full suspense !', 'A popular opinion believe Joe cad BUT ...', "The Great Director Billy Wilder 's Wildest Movie", 'Classic drama', "`` Mr. Wilder , I 'm ready close-up ``", 'Gold Standard', 'A true Hollywood horror story', 'Says Holden : `` I sure drove interesting driveway ... ``']</t>
+          <t>['Savage  dark original satirical comedy good missed', 'The Wild Rollercoaster Fame', 'classic iconic performance', 'It s Gut Wrencher', 'Crumbling apart slow motion  ', 'A Bitter Tragic Masterpiece', 'Tends towards melodramatic still cutting surprisingly fresh judgement Hollywood fame', 'A hack writer search refuge creditors hides crumbling mansion inhabited faded silent movie star', 'I m ready review  Mr Wilder', 'A classic still fresh almost seventy years', 'Could Be  In My Opinion  Wilder s Second Best Film', 'Give It At Least Two Looks', 'The ghosts Hollywood s ravaged past ', 'The ultimate hasbeen ultimate Hollywood story', 'Greatness Boulevard ', 'arguably Wilder best  Swanson  Holden  von Stroheim perfect', 'Sun Never Sets Boulevard    12', 'Still great years  A classic full suspense ', 'A popular opinion believe Joe cad BUT ', 'The Great Director Billy Wilder s Wildest Movie', 'Classic drama', ' Mr Wilder  I m ready closeup ', 'Gold Standard', 'A true Hollywood horror story', 'Says Holden   I sure drove interesting driveway  ']</t>
         </is>
       </c>
     </row>
@@ -41489,7 +41489,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>['Kubrick height powers- wonderfully atmospheric film First World War', 'One greatest anti-war movies', 'A Masterpiece', 'Those Who Decide Should Fight', 'Vanity fails', 'An incredible war film .', 'An Anti-War Masterpiece', "Awesome movie stands broody statement war man 's inhumanity man", 'insanity war', "A Solid Film , Though In My Opinion Not Kubrick 's Best", 'The true face WW1', 'Early Treat From Kubrick', '`` The paths glory lead grave ... ``', 'One best ( anti ) war films ever made !', 'Liberté , égalité , fraternité !', 'Stanley Kubrick makes Mountain Anthill', 'An excellent anti-war film .', 'Casting Long Shadow', "CRITICALLY ACCLAIMED ... KUBRICK 'S ANTI-WAR FILM IS DEPRESSING &amp; A TOUGH-WATCH", "Madness Patsies Crash Together In Kubrick 's Explosive Thunderbolt .", 'Harrowing', 'Powerful look men battle trench warfare ...', 'Riveting well-acted', 'A harsh , absorbing , must-see classic', 'A Brilliant Indictment Military Institution']</t>
+          <t>['Kubrick height powers wonderfully atmospheric film First World War', 'One greatest antiwar movies', 'A Masterpiece', 'Those Who Decide Should Fight', 'Vanity fails', 'An incredible war film ', 'An AntiWar Masterpiece', 'Awesome movie stands broody statement war man s inhumanity man', 'insanity war', 'A Solid Film  Though In My Opinion Not Kubrick s Best', 'The true face WW1', 'Early Treat From Kubrick', ' The paths glory lead grave  ', 'One best  anti  war films ever made ', 'Libert  galit  fraternit ', 'Stanley Kubrick makes Mountain Anthill', 'An excellent antiwar film ', 'Casting Long Shadow', 'CRITICALLY ACCLAIMED  KUBRICK S ANTIWAR FILM IS DEPRESSING  A TOUGHWATCH', 'Madness Patsies Crash Together In Kubrick s Explosive Thunderbolt ', 'Harrowing', 'Powerful look men battle trench warfare ', 'Riveting wellacted', 'A harsh  absorbing  mustsee classic', 'A Brilliant Indictment Military Institution']</t>
         </is>
       </c>
     </row>
@@ -41533,7 +41533,7 @@
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>['Dynamite courtroom drama', 'The Goal Is Always Justice', 'Laughton amazing', 'This bitter end !', 'A first class mystery .', 'Another Remarkable Movie Billy Wilder', 'A good watch makes enjoyable viewing even know coming', 'A Hickcoktian courtroom puzzle game masterfully played perfectly directed great Billy Wilder', 'You must witness movie', 'Best Trial Movie Ever ?', 'EntertainingTrial Movie That Still Holds Up', 'Courtroom drama par excellence ...', 'One best ever', 'good movie two towering performances', 'The Mother Courtroom dramas/thrillers .', 'Be Witness Fine Prosecution * * * *', 'A Perfect Ten Star Witness', 'This viewer reached verdict : movie tremendously entertaining .', 'Great screen adaptation . Courtroom intrigue . A classic .', 'Holds Up Despite The Decades', '`` I suspected something , . Never ! ``', 'Hubristic , Humorous , Compelling Courtroom Caper', 'Brilliant courtroom drama', "I 'm constantly surprised women 's hats n't provoke murders .", 'The burden proof']</t>
+          <t>['Dynamite courtroom drama', 'The Goal Is Always Justice', 'Laughton amazing', 'This bitter end ', 'A first class mystery ', 'Another Remarkable Movie Billy Wilder', 'A good watch makes enjoyable viewing even know coming', 'A Hickcoktian courtroom puzzle game masterfully played perfectly directed great Billy Wilder', 'You must witness movie', 'Best Trial Movie Ever ', 'EntertainingTrial Movie That Still Holds Up', 'Courtroom drama par excellence ', 'One best ever', 'good movie two towering performances', 'The Mother Courtroom dramasthrillers ', 'Be Witness Fine Prosecution    ', 'A Perfect Ten Star Witness', 'This viewer reached verdict  movie tremendously entertaining ', 'Great screen adaptation  Courtroom intrigue  A classic ', 'Holds Up Despite The Decades', ' I suspected something   Never  ', 'Hubristic  Humorous  Compelling Courtroom Caper', 'Brilliant courtroom drama', 'I m constantly surprised women s hats nt provoke murders ', 'The burden proof']</t>
         </is>
       </c>
     </row>
@@ -41577,7 +41577,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>['good uneven', 'Wonderful satire Anti- Semitic Nazi regime', 'The Tramp Finally Speaks', 'Too soon ?', 'Terrific Chaplin Film', 'Almost Too Much Take In', 'manifesto', 'A charming political satire .', 'An impassioned funny satire', 'Immortal classic movie dual character Chaplin barber Jew Dictator Hynkel', '... und de movies und de ...', 'A Scathing Attack Nazi Germany', 'Amazing film , amazing Chaplin', 'plenty laughs around rougher moments- comic masterpiece year', 'Speaking Excellence', 'Hilarious', 'About America Exiled Him', 'The best moments pantomime ...', "`` Would n't wonderful let us live happy ? ``", "Greed poisoned men 's souls , barricaded world hate , goose-stepped us misery bloodshed .", "Chaplin 's Plea Peace", 'Great , indeed', 'Pretty good Chaplin film extraordinarily powerful final moments', "A courageous , smart resonant satire 's important today first released .", 'Outstanding']</t>
+          <t>['good uneven', 'Wonderful satire Anti Semitic Nazi regime', 'The Tramp Finally Speaks', 'Too soon ', 'Terrific Chaplin Film', 'Almost Too Much Take In', 'manifesto', 'A charming political satire ', 'An impassioned funny satire', 'Immortal classic movie dual character Chaplin barber Jew Dictator Hynkel', ' und de movies und de ', 'A Scathing Attack Nazi Germany', 'Amazing film  amazing Chaplin', 'plenty laughs around rougher moments comic masterpiece year', 'Speaking Excellence', 'Hilarious', 'About America Exiled Him', 'The best moments pantomime ', ' Would nt wonderful let us live happy  ', 'Greed poisoned men s souls  barricaded world hate  goosestepped us misery bloodshed ', 'Chaplin s Plea Peace', 'Great  indeed', 'Pretty good Chaplin film extraordinarily powerful final moments', 'A courageous  smart resonant satire s important today first released ', 'Outstanding']</t>
         </is>
       </c>
     </row>
@@ -41621,7 +41621,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>['highly underrated Kurasawa flick', "Right Kurasawa 's best", 'Top-tier Kurosawa thriller', 'Great drama police procedural', 'High Low', 'No Samurai', 'Another Kurosawa masterpiece .', "Kurosawa 's Police Procedural", 'If like ransom/police storiesmysteries , interest Kurosawa &amp; /or Mifune , check least', 'Superb : great police-drama mixed interesting social moral angle', 'It consists Ransom-like scenario', 'An Executive Faced Life Death Decision', "Success n't worth using humanity .", 'partnership mifune kirosawa', 'High Low', 'Heaven hell ...', 'Intelligent satisfying', 'well done , , maestro !', 'A slow-moving , well-thought-out story', 'Morality choice-driven virtue , duty ...', "Probably Kurosawa 's best version Tensed , organic , dark , social , suspenseful thrilling drama 60s .", "Deserves To Be Ranked Amongst Akira Kurosawa 's Most Accomplished Works", 'Involving story well told', 'Captivating', 'A meticulously made police procedural . A genre classic']</t>
+          <t>['highly underrated Kurasawa flick', 'Right Kurasawa s best', 'Toptier Kurosawa thriller', 'Great drama police procedural', 'High Low', 'No Samurai', 'Another Kurosawa masterpiece ', 'Kurosawa s Police Procedural', 'If like ransompolice storiesmysteries  interest Kurosawa  or Mifune  check least', 'Superb  great policedrama mixed interesting social moral angle', 'It consists Ransomlike scenario', 'An Executive Faced Life Death Decision', 'Success nt worth using humanity ', 'partnership mifune kirosawa', 'High Low', 'Heaven hell ', 'Intelligent satisfying', 'well done   maestro ', 'A slowmoving  wellthoughtout story', 'Morality choicedriven virtue  duty ', 'Probably Kurosawa s best version Tensed  organic  dark  social  suspenseful thrilling drama 60s ', 'Deserves To Be Ranked Amongst Akira Kurosawa s Most Accomplished Works', 'Involving story well told', 'Captivating', 'A meticulously made police procedural  A genre classic']</t>
         </is>
       </c>
     </row>
@@ -41665,7 +41665,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>['compelling history', "One powerful films I 've seen .", 'A compelling biopic superb lead performance center', "Yes , bollywood make patriotic film far away dramatic jigoism like Hollywood Classics Patton Schindler 's List Sardar Udham first impactful attempt .", 'Powerful . Haunting . Gut-Wrenching .', 'Brutal ...', 'Amazing ...', 'Well worth build', '`` Let world know , I revolutionary ``', 'Shoojit Sircar , Take bow !', "Shoojit Sircar 's best .", 'Honest brutal', 'A history worth remembering ...', 'Slow movie ! !', 'Perfect word Sardar Udham', 'A little long slow , still first rate', "Vicky Kaushal 's Sardar Udham Is A Ticking Time Bomb Waiting To Explode ! ! !", 'The seed many strong determinations early hard hitting triggers', "Vicky Kaushal 's monumental performance justice tale legendary freedom fighter !", 'Brilliant journey', "CA N'T Review .", 'Very good Movie', 'EXTREMELY EXTREMELY LONG !', 'Sardar udham', 'Ending Shattered !']</t>
+          <t>['compelling history', 'One powerful films I ve seen ', 'A compelling biopic superb lead performance center', 'Yes  bollywood make patriotic film far away dramatic jigoism like Hollywood Classics Patton Schindler s List Sardar Udham first impactful attempt ', 'Powerful  Haunting  GutWrenching ', 'Brutal ', 'Amazing ', 'Well worth build', ' Let world know  I revolutionary ', 'Shoojit Sircar  Take bow ', 'Shoojit Sircar s best ', 'Honest brutal', 'A history worth remembering ', 'Slow movie  ', 'Perfect word Sardar Udham', 'A little long slow  still first rate', 'Vicky Kaushal s Sardar Udham Is A Ticking Time Bomb Waiting To Explode   ', 'The seed many strong determinations early hard hitting triggers', 'Vicky Kaushal s monumental performance justice tale legendary freedom fighter ', 'Brilliant journey', 'CA NT Review ', 'Very good Movie', 'EXTREMELY EXTREMELY LONG ', 'Sardar udham', 'Ending Shattered ']</t>
         </is>
       </c>
     </row>
@@ -41709,7 +41709,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>['A Revenge drama filled action raises voice lower class discrimination higher class oppression .', 'When violence hits close home ! [ +73 % ]', 'Asuran', 'Slow movie keeps engaged throughout', 'Another piece art Vetrimaaran .', 'Asuran', 'Everything film Amazing !', 'Little overrated', 'A good watch .', 'Promising plot Fabulous Acting !', 'well made movie added BS', 'Only Dhanush .', "Dhanush 's raw Rivetting revenge drama Gripping gory .", 'Bloody violent movie', 'Another Vetrimaran violent movie', 'Old wine mixture emotions violence good screenplay !', 'An average movie', 'Rustic combo Vetrimaran Dhanush', 'Terrific , breathe taking , goosebumps', 'True story awesome screenplay play', 'Wasted potential', "Vetri Maran 's Mastery Classic", 'ASURAN : Masterpiece', 'Cinematic Brilliance', 'An Extremely Violent Blockbuster']</t>
+          <t>['A Revenge drama filled action raises voice lower class discrimination higher class oppression ', 'When violence hits close home   73  ', 'Asuran', 'Slow movie keeps engaged throughout', 'Another piece art Vetrimaaran ', 'Asuran', 'Everything film Amazing ', 'Little overrated', 'A good watch ', 'Promising plot Fabulous Acting ', 'well made movie added BS', 'Only Dhanush ', 'Dhanush s raw Rivetting revenge drama Gripping gory ', 'Bloody violent movie', 'Another Vetrimaran violent movie', 'Old wine mixture emotions violence good screenplay ', 'An average movie', 'Rustic combo Vetrimaran Dhanush', 'Terrific  breathe taking  goosebumps', 'True story awesome screenplay play', 'Wasted potential', 'Vetri Maran s Mastery Classic', 'ASURAN  Masterpiece', 'Cinematic Brilliance', 'An Extremely Violent Blockbuster']</t>
         </is>
       </c>
     </row>
@@ -41753,7 +41753,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>['Malayalam Cinema deserves Loudest Applause fetching Impossible Never Seen Before Classic Sequel Masterpiece thriller .', "' I fear 's beginning something ' ...", 'BRILLIANT . SUPER BRILLIANT .', 'Falls flat attempt clever !', 'A film Georgekutty , family ! [ +82 % ]', "Tries hard , 's still awesome .", 'A worthy sequel indeed ! !', 'Drishyam 2', 'Unexpectedly , surprisingly , unbelievably unique . The best year', 'master stroke ! ! ! ! !', 'Kickass ! ! !', 'Stands Head Head Predecessor', 'Necessity mother invention , even instincts challenged', "I 'll whatever Jeetu Joseph starts write , I n't expect . Go watch ! !", 'Best ever sequel Malayalam film history !', 'A SOLID Sequel &amp; A Perfect Thriller .', 'What Story', 'A decent sequel Covid real villain .', 'Good movie sequel .', 'Unmissable crime thriller ! ! Just fantastic ! !', 'Lightning strike spot twice ! !', 'The Dead Body', 'Unnecessary sequel', 'Not patch ( first ) Drishyam', 'Best Sequel ever made Indian movie History ! 👌 Too Notch !']</t>
+          <t>['Malayalam Cinema deserves Loudest Applause fetching Impossible Never Seen Before Classic Sequel Masterpiece thriller ', ' I fear s beginning something  ', 'BRILLIANT  SUPER BRILLIANT ', 'Falls flat attempt clever ', 'A film Georgekutty  family   82  ', 'Tries hard  s still awesome ', 'A worthy sequel indeed  ', 'Drishyam 2', 'Unexpectedly  surprisingly  unbelievably unique  The best year', 'master stroke     ', 'Kickass   ', 'Stands Head Head Predecessor', 'Necessity mother invention  even instincts challenged', 'I ll whatever Jeetu Joseph starts write  I nt expect  Go watch  ', 'Best ever sequel Malayalam film history ', 'A SOLID Sequel  A Perfect Thriller ', 'What Story', 'A decent sequel Covid real villain ', 'Good movie sequel ', 'Unmissable crime thriller   Just fantastic  ', 'Lightning strike spot twice  ', 'The Dead Body', 'Unnecessary sequel', 'Not patch  first  Drishyam', 'Best Sequel ever made Indian movie History   Too Notch ']</t>
         </is>
       </c>
     </row>
@@ -41797,7 +41797,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>['artistic biopic', "I 'll Bet That 's Jack Quaid As Richard Feynman Playing The Bongo Drum", 'The cinematic event 2023 .', "It 's da bomb", "'s world live", 'Or : Lewis Strauss Meets Theoretical Physical Godzilla', 'Powerful docudrama', 'Nolan Good Choice Task', 'An absolute must see', 'Spoiler Alert : The Bomb Worked', 'superior filmmaking historical storytelling', "They wo n't fear understand . And wo n't understand 've used . Theory take far .", 'Jumbled storytelling relevant message', 'Oppenheimer', 'Fission . Fusion . Oscars .', 'In depth complex tense historical political drama discovery regret .', 'A challenging rewarding epic masterpiece', 'Cinema Omnivore - Oppenheimer ( 2023 ) 8.4/10', 'Best movie year one great war movies time .', 'I tend agree people saying . . .', 'An unpopular opinion die-hard Nolan fan', 'Masterful IMAX experience !', 'A Quantum world possibilities .', 'All round excellent biography', "Christopher Nolan 's Cinematic Bomb Blasts On And Off Screen"]</t>
+          <t>['artistic biopic', 'I ll Bet That s Jack Quaid As Richard Feynman Playing The Bongo Drum', 'The cinematic event 2023 ', 'It s da bomb', 's world live', 'Or  Lewis Strauss Meets Theoretical Physical Godzilla', 'Powerful docudrama', 'Nolan Good Choice Task', 'An absolute must see', 'Spoiler Alert  The Bomb Worked', 'superior filmmaking historical storytelling', 'They wo nt fear understand  And wo nt understand ve used  Theory take far ', 'Jumbled storytelling relevant message', 'Oppenheimer', 'Fission  Fusion  Oscars ', 'In depth complex tense historical political drama discovery regret ', 'A challenging rewarding epic masterpiece', 'Cinema Omnivore  Oppenheimer  2023  8410', 'Best movie year one great war movies time ', 'I tend agree people saying   ', 'An unpopular opinion diehard Nolan fan', 'Masterful IMAX experience ', 'A Quantum world possibilities ', 'All round excellent biography', 'Christopher Nolan s Cinematic Bomb Blasts On And Off Screen']</t>
         </is>
       </c>
     </row>
@@ -41841,7 +41841,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>['Disturbing , beautifully made well acted , well jaw-dropping scenery !', 'Grand', 'Predictable Spectacle', 'admirable work', 'Spellbinding .', 'Resurrection', 'A great revenge movie worthy thinks still great movie', 'An epic ...', 'Impressive epic movie strong casting , rousing sets , overwhelming combats', 'Ave !', 'Maximus Excitus Entertainius .', 'Great Roman Epic , Better On The Second Viewing', 'Fantastic Ridley Scott', "A Throwback To The Epics Of The '60s", 'Not league `` Spartacus `` , though well worth-seeing ...', "A poor man 's Ben Hur", 'Enjoying spectacle even DVD', 'Are entertained ?', "What man 's life worth ancient Rome .", 'Overrated Entertainment Easily Pacified `` Mob `` Dated CGI', 'Okayish , great', 'Film Colosseum', "They said giant . They said crush man 's skull one hand .", 'Good Hollywood Epic', 'Predictable , long , loud , bloody']</t>
+          <t>['Disturbing  beautifully made well acted  well jawdropping scenery ', 'Grand', 'Predictable Spectacle', 'admirable work', 'Spellbinding ', 'Resurrection', 'A great revenge movie worthy thinks still great movie', 'An epic ', 'Impressive epic movie strong casting  rousing sets  overwhelming combats', 'Ave ', 'Maximus Excitus Entertainius ', 'Great Roman Epic  Better On The Second Viewing', 'Fantastic Ridley Scott', 'A Throwback To The Epics Of The 60s', 'Not league  Spartacus   though well worthseeing ', 'A poor man s Ben Hur', 'Enjoying spectacle even DVD', 'Are entertained ', 'What man s life worth ancient Rome ', 'Overrated Entertainment Easily Pacified  Mob  Dated CGI', 'Okayish  great', 'Film Colosseum', 'They said giant  They said crush man s skull one hand ', 'Good Hollywood Epic', 'Predictable  long  loud  bloody']</t>
         </is>
       </c>
     </row>
@@ -41885,7 +41885,7 @@
       </c>
       <c r="J942" t="inlineStr">
         <is>
-          <t>['This review # 572 .... really need say ? !', 'Blistering', 'Fake , fake , fake', 'terrific performances', 'One Best 2014', 'A Brutal Character', 'I like teach world play', 'A strive perfection .', 'Carrot stick', 'music obsession', 'An Emotional Punch Gut', 'knew', 'J.K. Simmons deserved Oscar performance Whiplash', 'Great music , plot angers', 'The Suffering Artist', 'Enthralling story', 'Intense But The Hype And Awards Possibly Work Against It', 'Explosive , inescapably riveting , phenomenal achievement', 'A Portrait Artist Crazy Young Man', 'Just My Tempo', 'Too bad Metal instead Jazz', 'Comically exaggerated entertaining', 'Clawing top blood-stained drumsticks', "For record , Metz n't tune . You , Erickson , n't know 's bad enough .", "' I push people beyond 's expected . I believe 's absolute necessity '"]</t>
+          <t>['This review  572  really need say  ', 'Blistering', 'Fake  fake  fake', 'terrific performances', 'One Best 2014', 'A Brutal Character', 'I like teach world play', 'A strive perfection ', 'Carrot stick', 'music obsession', 'An Emotional Punch Gut', 'knew', 'JK Simmons deserved Oscar performance Whiplash', 'Great music  plot angers', 'The Suffering Artist', 'Enthralling story', 'Intense But The Hype And Awards Possibly Work Against It', 'Explosive  inescapably riveting  phenomenal achievement', 'A Portrait Artist Crazy Young Man', 'Just My Tempo', 'Too bad Metal instead Jazz', 'Comically exaggerated entertaining', 'Clawing top bloodstained drumsticks', 'For record  Metz nt tune  You  Erickson  nt know s bad enough ', ' I push people beyond s expected  I believe s absolute necessity ']</t>
         </is>
       </c>
     </row>
@@ -41929,7 +41929,7 @@
       </c>
       <c r="J943" t="inlineStr">
         <is>
-          <t>['Totally Unique', 'Incredible .', 'Not leech ( ? )', 'Original , Unconventional Overrated', 'Engaging drama , intelligent social aspect', "'s time Oscars pay attention topics", 'Parasite', 'A tad underwhelming .', 'Intruders', 'Korean movie , winner Oscar Best Picture .', "Parasite interesting enough piece work probably earned Best Picture Oscar . It 's certainly conventional , I 'll tell !", 'What thought provoking story', 'Superb : funny , dark , intriguing profound', "Bong 's Brilliance", 'This well done film compelling , smart , entertaining worth time .', 'Fiercely Original', 'brilliant cinema', 'Bong Joon Ho .', 'Crossing Line', 'capable film maker needs get decent script writer', 'Unforgettable original', 'home invasion funny situations', 'Tonal tightrope .', 'Powerful', 'A good movie , Oscar worthy']</t>
+          <t>['Totally Unique', 'Incredible ', 'Not leech   ', 'Original  Unconventional Overrated', 'Engaging drama  intelligent social aspect', 's time Oscars pay attention topics', 'Parasite', 'A tad underwhelming ', 'Intruders', 'Korean movie  winner Oscar Best Picture ', 'Parasite interesting enough piece work probably earned Best Picture Oscar  It s certainly conventional  I ll tell ', 'What thought provoking story', 'Superb  funny  dark  intriguing profound', 'Bong s Brilliance', 'This well done film compelling  smart  entertaining worth time ', 'Fiercely Original', 'brilliant cinema', 'Bong Joon Ho ', 'Crossing Line', 'capable film maker needs get decent script writer', 'Unforgettable original', 'home invasion funny situations', 'Tonal tightrope ', 'Powerful', 'A good movie  Oscar worthy']</t>
         </is>
       </c>
     </row>
@@ -41973,7 +41973,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>['For , far , least favourite Martin Scorsese movie', 'Moles And Rats', "Scorsese 's Boston gangster opera", 'Masterpiece', 'Whom Do You Trust ?', 'Amazing movie , ensemble cast .', 'Scorsese good job remaking awesome movie', 'Oscar Nominated Winner ? Another Shameful Joke Hollywood', 'Enjoyable thriller failings missed targets across running time', 'This time , got ta give Martin Scorsese Oscar .', 'Without Doubt , The Movie Year 2006', "The Good &amp; Bad Of 'The Departed '", '`` Honesty synonymous truth ... ``', 'Outstanding', '`` ... Do lie ? ``', "Watch Scorsese 's The Departed Damon , DiCaprio , Nicholson", 'Bloodbath', "I Could n't Wait Depart Violence * *", 'Red Meat Oscar', 'When good evil distinguished !', 'Scorsese element .', 'Scorsese probably great fun directing', 'Breathless But Bewildering', 'Brilliant : intense , clever action-filled', 'A Truculent Pancake']</t>
+          <t>['For  far  least favourite Martin Scorsese movie', 'Moles And Rats', 'Scorsese s Boston gangster opera', 'Masterpiece', 'Whom Do You Trust ', 'Amazing movie  ensemble cast ', 'Scorsese good job remaking awesome movie', 'Oscar Nominated Winner  Another Shameful Joke Hollywood', 'Enjoyable thriller failings missed targets across running time', 'This time  got ta give Martin Scorsese Oscar ', 'Without Doubt  The Movie Year 2006', 'The Good  Bad Of The Departed ', ' Honesty synonymous truth  ', 'Outstanding', '  Do lie  ', 'Watch Scorsese s The Departed Damon  DiCaprio  Nicholson', 'Bloodbath', 'I Could nt Wait Depart Violence  ', 'Red Meat Oscar', 'When good evil distinguished ', 'Scorsese element ', 'Scorsese probably great fun directing', 'Breathless But Bewildering', 'Brilliant  intense  clever actionfilled', 'A Truculent Pancake']</t>
         </is>
       </c>
     </row>
@@ -42017,7 +42017,7 @@
       </c>
       <c r="J945" t="inlineStr">
         <is>
-          <t>['Over indulgent , gross .... also terrific .', 'Self-indulgent , still worthwhile Tarantino movie', 'From slave bounty hunter', 'Unmistakable Tarantino', 'Tarantino At Top His Game', "It 's Like Day Slaughterhouse", 'Tarantino ?', "My favourite Tarantino , 's bold statement .", 'Beautiful violent', 'Highly Entertaining Funny', 'Works really well despite much seeming odds', 'It much ...', 'A violent entertaining Quentin Tarantino movie , paying tribute Spaghetti Western', 'revenge dish best served cold', "That 's another genre ticked .", "One Tarantino 's Finest Works", 'Great , longer genius ...', "It 's baby", 'I bored slow pacing', "There 's Nothing Like It ... Except", 'Another great Tarantino drama', 'Sam Peckinpah Does Blazing Saddles', 'Slave Era Justice ... Sweet', 'Corbucci , Leone even Giuliano Carnimeo better', 'Slavery']</t>
+          <t>['Over indulgent  gross  also terrific ', 'Selfindulgent  still worthwhile Tarantino movie', 'From slave bounty hunter', 'Unmistakable Tarantino', 'Tarantino At Top His Game', 'It s Like Day Slaughterhouse', 'Tarantino ', 'My favourite Tarantino  s bold statement ', 'Beautiful violent', 'Highly Entertaining Funny', 'Works really well despite much seeming odds', 'It much ', 'A violent entertaining Quentin Tarantino movie  paying tribute Spaghetti Western', 'revenge dish best served cold', 'That s another genre ticked ', 'One Tarantino s Finest Works', 'Great  longer genius ', 'It s baby', 'I bored slow pacing', 'There s Nothing Like It  Except', 'Another great Tarantino drama', 'Sam Peckinpah Does Blazing Saddles', 'Slave Era Justice  Sweet', 'Corbucci  Leone even Giuliano Carnimeo better', 'Slavery']</t>
         </is>
       </c>
     </row>
@@ -42061,7 +42061,7 @@
       </c>
       <c r="J946" t="inlineStr">
         <is>
-          <t>['Sci-fi classic', 'A new level Sci-fi Horror', "You Do n't Want Go There", 'Alien', 'Holds classic .', 'Enemy within', 'Classic horror', 'Visually impressive exciting Sci/Fi horror , including Oscar-winning special effects', 'In space , one hear scream ... theater/TV room , EVERYONE !', 'A Classic Both Horror Sci-Fi Genres', 'SF `` lost patrol `` movie', 'A Ground-Breaker In Sci-Fi/Horror', 'Well ,', "It 's `` `` claustrophobic masterpiece ever made !", 'Ripley', 'One quintessential sci-fi horror films .', 'A New Screen Monster Is Born', 'Sci-fi classic', 'There clause contract specifically states systematized transmission indicating possible intelligent origin must investigated ...', 'Overrated', 'There Will Never Be Alien Terrifying', 'The first `` Alien `` movie still best', 'Horror Science-Fiction Combined', 'Parasitic Relationship ...', 'This clever well done movie great special effects characters make cinematic gold']</t>
+          <t>['Scifi classic', 'A new level Scifi Horror', 'You Do nt Want Go There', 'Alien', 'Holds classic ', 'Enemy within', 'Classic horror', 'Visually impressive exciting SciFi horror  including Oscarwinning special effects', 'In space  one hear scream  theaterTV room  EVERYONE ', 'A Classic Both Horror SciFi Genres', 'SF  lost patrol  movie', 'A GroundBreaker In SciFiHorror', 'Well ', 'It s   claustrophobic masterpiece ever made ', 'Ripley', 'One quintessential scifi horror films ', 'A New Screen Monster Is Born', 'Scifi classic', 'There clause contract specifically states systematized transmission indicating possible intelligent origin must investigated ', 'Overrated', 'There Will Never Be Alien Terrifying', 'The first  Alien  movie still best', 'Horror ScienceFiction Combined', 'Parasitic Relationship ', 'This clever well done movie great special effects characters make cinematic gold']</t>
         </is>
       </c>
     </row>
@@ -42105,7 +42105,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>['fascinating', 'An outstanding movie .', '( Magic ) Layers', 'A Great Tale Rivalry , Obsession , Revenge Sacrifice', 'Imaginative intriguing crash wits two famous magicians', 'Batman Alfred ( outside Gotham ) meet Wolverine', 'Give This Film Time Sink In ...', 'Just As Intriguing The Second Time , Too !', 'How many times double-cross audience ?', "Obsession young man 's game", 'basic tale one-up-manship , done great fashion professional storytelling acting', 'The Prestige interesting maybe little slow wade', "The Prestige- Do n't Need Type Honor 1/2 *", 'Outstandingly good film', 'Does anybody look better top hat tails Hugh Jackman ? ...', 'Challenges The Audience', 'The Obsession', 'Intelligent incredibly suspenseful', 'Dark tale magician rivalry takes many twists turns ...', 'I care much revelation toward end .', 'Two Magicians Engaged Deadly Rivalry', 'Wonderful story magical rivalry best seen knowing little possible', 'Pretty people pretty costumes', 'THE PRESTIGE ( Christopher Nolan , 2006 ) * * * 1/2', 'Pure Magic']</t>
+          <t>['fascinating', 'An outstanding movie ', ' Magic  Layers', 'A Great Tale Rivalry  Obsession  Revenge Sacrifice', 'Imaginative intriguing crash wits two famous magicians', 'Batman Alfred  outside Gotham  meet Wolverine', 'Give This Film Time Sink In ', 'Just As Intriguing The Second Time  Too ', 'How many times doublecross audience ', 'Obsession young man s game', 'basic tale oneupmanship  done great fashion professional storytelling acting', 'The Prestige interesting maybe little slow wade', 'The Prestige Do nt Need Type Honor 12 ', 'Outstandingly good film', 'Does anybody look better top hat tails Hugh Jackman  ', 'Challenges The Audience', 'The Obsession', 'Intelligent incredibly suspenseful', 'Dark tale magician rivalry takes many twists turns ', 'I care much revelation toward end ', 'Two Magicians Engaged Deadly Rivalry', 'Wonderful story magical rivalry best seen knowing little possible', 'Pretty people pretty costumes', 'THE PRESTIGE  Christopher Nolan  2006     12', 'Pure Magic']</t>
         </is>
       </c>
     </row>
@@ -42149,7 +42149,7 @@
       </c>
       <c r="J948" t="inlineStr">
         <is>
-          <t>['So good many ways', "An '80s classic never disappoints", 'Wonderful story Wonderful Michael J Fox', 'So Much Fun', 'adorable', 'Huge fun .', 'Marty got Back', 'Very entertaining film \x96 slick fun engaging', 'Great Scott ! Strap entertaining time travel ...', "Many people may remember Michael J . Fox Alex Keaton , I 'll always remember Marty McFly", 'A film watch time time .', 'Gets Better With Age', 'Mixed Emotions Looking Back On This Film Today', 'Back To The Future , great start trilogy , movies 1985 , 1989 , 1990 .', 'Good fun', 'Old Man Peabody owned !', 'Brilliant Scenario !', 'After 30 years , original Back Future still best series !', 'A time travel movie never gets old .', 'A timeless classic', '1.21 gigawatts worth entertainment .', "`` I guess n't ready ...... But kids gon na love . ``", 'Good , fun movie', 'Zemeckis Flies', 'Earth Angel And The Nuclear DeLorean .']</t>
+          <t>['So good many ways', 'An 80s classic never disappoints', 'Wonderful story Wonderful Michael J Fox', 'So Much Fun', 'adorable', 'Huge fun ', 'Marty got Back', 'Very entertaining film  slick fun engaging', 'Great Scott  Strap entertaining time travel ', 'Many people may remember Michael J  Fox Alex Keaton  I ll always remember Marty McFly', 'A film watch time time ', 'Gets Better With Age', 'Mixed Emotions Looking Back On This Film Today', 'Back To The Future  great start trilogy  movies 1985  1989  1990 ', 'Good fun', 'Old Man Peabody owned ', 'Brilliant Scenario ', 'After 30 years  original Back Future still best series ', 'A time travel movie never gets old ', 'A timeless classic', '121 gigawatts worth entertainment ', ' I guess nt ready  But kids gon na love  ', 'Good  fun movie', 'Zemeckis Flies', 'Earth Angel And The Nuclear DeLorean ']</t>
         </is>
       </c>
     </row>
@@ -42193,7 +42193,7 @@
       </c>
       <c r="J949" t="inlineStr">
         <is>
-          <t>["Good # 27 ? ! I n't get .", 'Intense , gripping , stylish poignant one best feature debuts ever', 'Luc Besson style violent action', 'One greatest thrillers time .', 'Professionals', 'Beautiful love story', 'My introduction Luc Besson , Jean Reno , Natalie Portman .', 'The hit-man .', 'One Greats 1990s', 'A Movie Of Extremes &amp; Fascinating', "Unconventional love story . A professional hitman protege ' , 12-year-old orphan .", 'Moody exciting , coolly defiant ... ultimately dispiriting', 'An utter travesty .', "A thrilling crime film , deep touch care characters- Besson Portman 's best work date", "I 'm cleaner", "Even flaws , 's pretty entertaining film .", 'UnHollywood Uneasy', 'Brilliant , powerful story revenge ... belonging', 'Great', 'This action genre gold amazing storyline , tremendous writing world acting', 'Cleaners need love ,', 'Good drama/action film', "Light dialog , far plot , wild mayhem n't make good movie", 'Natalia Portman splendid', 'Cops bad guys .']</t>
+          <t>['Good  27   I nt get ', 'Intense  gripping  stylish poignant one best feature debuts ever', 'Luc Besson style violent action', 'One greatest thrillers time ', 'Professionals', 'Beautiful love story', 'My introduction Luc Besson  Jean Reno  Natalie Portman ', 'The hitman ', 'One Greats 1990s', 'A Movie Of Extremes  Fascinating', 'Unconventional love story  A professional hitman protege   12yearold orphan ', 'Moody exciting  coolly defiant  ultimately dispiriting', 'An utter travesty ', 'A thrilling crime film  deep touch care characters Besson Portman s best work date', 'I m cleaner', 'Even flaws  s pretty entertaining film ', 'UnHollywood Uneasy', 'Brilliant  powerful story revenge  belonging', 'Great', 'This action genre gold amazing storyline  tremendous writing world acting', 'Cleaners need love ', 'Good dramaaction film', 'Light dialog  far plot  wild mayhem nt make good movie', 'Natalia Portman splendid', 'Cops bad guys ']</t>
         </is>
       </c>
     </row>
@@ -42237,7 +42237,7 @@
       </c>
       <c r="J950" t="inlineStr">
         <is>
-          <t>["Well made ... n't sort film I particularly enjoy .", 'Magnificent film deserves re-watched', 'A Gang Formed During A Police Lineup', 'Then comes twist', 'bad', "It 's brilliant Thriller .", 'More usual', 'Who Keyser Söze ?', 'The greatest trick Devil ever played ...', 'USUAL SUSPECTS unusual film .', "Okay , But Let 's Not Get Carried Away", 'Interesting , engrossing , might benefited stronger cast', 'The greatest trick devil ever pulled ...', 'American thriller nineties', 'Good film , over-rated perspective', 'Brilliant , clever thriller', "Keaton always said , `` I n't believe God , I 'm afraid . `` Well I believe God , thing scares Keyser Soze .", 'Gimp', 'The storyline characters picture brilliantly written presented audience perfectly paced manner', 'One Half Martin Scorsese Mixed One Half Film Noir', 'It started five guys lineup', 'Superior neo-noir crackling script &amp; excellent cast ; genuine plot twisting marvel', "Who IS Keyser Söze ? Who freakin ' cares ?", 'Twist-Laden Story .', "It killed '90s still"]</t>
+          <t>['Well made  nt sort film I particularly enjoy ', 'Magnificent film deserves rewatched', 'A Gang Formed During A Police Lineup', 'Then comes twist', 'bad', 'It s brilliant Thriller ', 'More usual', 'Who Keyser Sze ', 'The greatest trick Devil ever played ', 'USUAL SUSPECTS unusual film ', 'Okay  But Let s Not Get Carried Away', 'Interesting  engrossing  might benefited stronger cast', 'The greatest trick devil ever pulled ', 'American thriller nineties', 'Good film  overrated perspective', 'Brilliant  clever thriller', 'Keaton always said   I nt believe God  I m afraid   Well I believe God  thing scares Keyser Soze ', 'Gimp', 'The storyline characters picture brilliantly written presented audience perfectly paced manner', 'One Half Martin Scorsese Mixed One Half Film Noir', 'It started five guys lineup', 'Superior neonoir crackling script  excellent cast  genuine plot twisting marvel', 'Who IS Keyser Sze  Who freakin  cares ', 'TwistLaden Story ', 'It killed 90s still']</t>
         </is>
       </c>
     </row>
@@ -42281,7 +42281,7 @@
       </c>
       <c r="J951" t="inlineStr">
         <is>
-          <t>["This sister 's favourite film , one mine !", 'great songs Shakespearian epic', 'Wonderful Music Rhythms', 'experience', "' .... There 's one every family ... ' Disney magic .", 'Classic stuff', 'A Disney classic', 'One Great Disney Films Early 1990s', 'Un\\satisfying New Age Baloney', 'Pure Disney magic', 'Exhilarating highs -- preachy , syrupy lows ...', 'King nineties !', 'The Best Animated Film I Have Ever Seen', 'The king returned', 'Cheesy predictable , moments', 'Lions', 'The Last Great Hand-Drawn Animated Film Disney', 'An impressive animated movie .', 'Another Disney greats', 'From person generally enjoy Disney musical one pretty good .', 'The Lion King', 'bit mundane', 'Falls short hype ; poorly-paced , lacking proper emotional investment , sometimes , quite dull .', 'Not feeling love tonight', 'The Lion King']</t>
+          <t>['This sister s favourite film  one mine ', 'great songs Shakespearian epic', 'Wonderful Music Rhythms', 'experience', '  There s one every family   Disney magic ', 'Classic stuff', 'A Disney classic', 'One Great Disney Films Early 1990s', 'Unsatisfying New Age Baloney', 'Pure Disney magic', 'Exhilarating highs  preachy  syrupy lows ', 'King nineties ', 'The Best Animated Film I Have Ever Seen', 'The king returned', 'Cheesy predictable  moments', 'Lions', 'The Last Great HandDrawn Animated Film Disney', 'An impressive animated movie ', 'Another Disney greats', 'From person generally enjoy Disney musical one pretty good ', 'The Lion King', 'bit mundane', 'Falls short hype  poorlypaced  lacking proper emotional investment  sometimes  quite dull ', 'Not feeling love tonight', 'The Lion King']</t>
         </is>
       </c>
     </row>
@@ -42325,7 +42325,7 @@
       </c>
       <c r="J952" t="inlineStr">
         <is>
-          <t>['exceptionally powerful drama -- kids', 'great American cinema', 'So Mind Bending', 'useful', 'Still tough watch .', 'Not perfect still strong', 'It gets skin ...', 'Outstanding film sensational performance Edward Norton fanatic Nazi', "Why n't anyone challenge Derek became racist ?", 'X-cellent .', '`` Now ignore peace ... ``', "The Best masterpiece 's time", 'You grimace flinch ; watch .', 'Dramatic But Disappointing', 'Superb', 'American ( Heavy ) History X', 'Excellent curiously unmoving', 'X', 'This well done movie', "This Film Is All About Edward Norton 's Performance", 'One powerful movies I ever seen .', "After two days , I n't think I would last week", 'Unforgettable Norton ; powerful film', 'Brutal , visceral drama hateful tribalism escape', 'Deeply flawed , still resonant .']</t>
+          <t>['exceptionally powerful drama  kids', 'great American cinema', 'So Mind Bending', 'useful', 'Still tough watch ', 'Not perfect still strong', 'It gets skin ', 'Outstanding film sensational performance Edward Norton fanatic Nazi', 'Why nt anyone challenge Derek became racist ', 'Xcellent ', ' Now ignore peace  ', 'The Best masterpiece s time', 'You grimace flinch  watch ', 'Dramatic But Disappointing', 'Superb', 'American  Heavy  History X', 'Excellent curiously unmoving', 'X', 'This well done movie', 'This Film Is All About Edward Norton s Performance', 'One powerful movies I ever seen ', 'After two days  I nt think I would last week', 'Unforgettable Norton  powerful film', 'Brutal  visceral drama hateful tribalism escape', 'Deeply flawed  still resonant ']</t>
         </is>
       </c>
     </row>
@@ -42369,7 +42369,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>['Very nice acting .', '8.5 Rating ? Really ?', 'Marvelous Film Two Great Performances', 'Chasing clouds away', 'Best friends', 'Beautiful Uplifting Story Friendship', 'Shamelessly feel-good sentimental works despite simplistic', 'modern France', 'A French Look At Race And Class', "'s hearts right place never bad , 's ... safe", 'Heartfelt', 'A beautiful tale mutual inspiration', 'Great - funny moving', 'Tweaked Known Formula', "Let 's Dance", 'This genre movie done !', "'Art trace leave behind . '", 'A feel-good , life-affirming picture job well .', 'Emotional tale true friendship', 'The Intouchables', 'A Nutshell Review : The Intouchables', 'Defines `` wholesomeness ``', 'Beautiful touching .', 'Touché ...', 'This French cinema sensation easy predict true story factor still makes work ..']</t>
+          <t>['Very nice acting ', '85 Rating  Really ', 'Marvelous Film Two Great Performances', 'Chasing clouds away', 'Best friends', 'Beautiful Uplifting Story Friendship', 'Shamelessly feelgood sentimental works despite simplistic', 'modern France', 'A French Look At Race And Class', 's hearts right place never bad  s  safe', 'Heartfelt', 'A beautiful tale mutual inspiration', 'Great  funny moving', 'Tweaked Known Formula', 'Let s Dance', 'This genre movie done ', 'Art trace leave behind  ', 'A feelgood  lifeaffirming picture job well ', 'Emotional tale true friendship', 'The Intouchables', 'A Nutshell Review  The Intouchables', 'Defines  wholesomeness ', 'Beautiful touching ', 'Touch ', 'This French cinema sensation easy predict true story factor still makes work ']</t>
         </is>
       </c>
     </row>
@@ -42413,7 +42413,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>['non-heroism', 'Tour de Force', 'meeting', "It 's captivating film .", 'Another Movie About Massacre Jews Second World War , With Outstanding Performance Adrien Brody', 'Far cheerful viewing impacting engaging film helps keep history relevant', 'Intense biography Polish pianist named Szpilman Warsaw ghetto', "well done , even n't quite equal `` Schindler 's List ``", 'An Excellent Movie , Of Course', "`` Germans wo n't use Jewish toilets ... toilets clean . ``", 'Spilzman ? What beautiful name pianist ...', 'Stoic , haunting tale survival', 'Haunting', 'The Pianist- Destruction Hits A Memorable Chord * * * *', 'To hell back .', "An extraordinary look one man 's survival ... brilliant performance Adrien Brody ...", 'Classic', 'Over-rated story survival', "It 's official decree , Jews allowed parks .", "Polanski 's New Spin Old Classic", 'Breathtaking', 'Heartbreaking portrait survival face evil ; brilliant counts', 'A Jewish musician trying survive German occupation Warsaw', 'Warsaw Concerto', 'pleased tell story']</t>
+          <t>['nonheroism', 'Tour de Force', 'meeting', 'It s captivating film ', 'Another Movie About Massacre Jews Second World War  With Outstanding Performance Adrien Brody', 'Far cheerful viewing impacting engaging film helps keep history relevant', 'Intense biography Polish pianist named Szpilman Warsaw ghetto', 'well done  even nt quite equal  Schindler s List ', 'An Excellent Movie  Of Course', ' Germans wo nt use Jewish toilets  toilets clean  ', 'Spilzman  What beautiful name pianist ', 'Stoic  haunting tale survival', 'Haunting', 'The Pianist Destruction Hits A Memorable Chord    ', 'To hell back ', 'An extraordinary look one man s survival  brilliant performance Adrien Brody ', 'Classic', 'Overrated story survival', 'It s official decree  Jews allowed parks ', 'Polanski s New Spin Old Classic', 'Breathtaking', 'Heartbreaking portrait survival face evil  brilliant counts', 'A Jewish musician trying survive German occupation Warsaw', 'Warsaw Concerto', 'pleased tell story']</t>
         </is>
       </c>
     </row>
@@ -42457,7 +42457,7 @@
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>['A film see , never forget ...', "Hitch 's masterwork", 'Cleaning Up After Mom', 'Hitchcock master salesman', 'One Greatest Ever Made', 'Tight Terrifying', 'classic', 'A Hitchcock Masterpiece .', 'A must-see', 'One classics ...', 'Hithcock masterpiece accomplished perfect movie', 'Not confused 1998 film name ( ) .', 'So Influential , It Makes My Head Spin', "A real Hitchcock masterpiece ... `` She would n't even harm fly . ``", "Exasperatingly detailed , steely-cold precursor 'slasher ' ...", 'Calling masterpiece euphemism .', 'Shocking', 'The one !', 'Amazing', "`` A boy 's best friend Mother . ``", 'A Key Scene Depth', 'Always holds beginning end ...', "Hitchcock 's Most Famous &amp; Profitable ... Groundbreaker Prefigured 1960 's", 'Masterpiece', 'I handle sick old woman !']</t>
+          <t>['A film see  never forget ', 'Hitch s masterwork', 'Cleaning Up After Mom', 'Hitchcock master salesman', 'One Greatest Ever Made', 'Tight Terrifying', 'classic', 'A Hitchcock Masterpiece ', 'A mustsee', 'One classics ', 'Hithcock masterpiece accomplished perfect movie', 'Not confused 1998 film name   ', 'So Influential  It Makes My Head Spin', 'A real Hitchcock masterpiece   She would nt even harm fly  ', 'Exasperatingly detailed  steelycold precursor slasher  ', 'Calling masterpiece euphemism ', 'Shocking', 'The one ', 'Amazing', ' A boy s best friend Mother  ', 'A Key Scene Depth', 'Always holds beginning end ', 'Hitchcock s Most Famous  Profitable  Groundbreaker Prefigured 1960 s', 'Masterpiece', 'I handle sick old woman ']</t>
         </is>
       </c>
     </row>
@@ -42501,7 +42501,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>['A perfect film .', 'One best black white films I ever privilege watching !', "..... 's still old story , fight love glory , case die , world always welcome lovers , As Time Goes By . ``", 'Movie romanticism best', 'Great', 'One quotable movies', 'special', 'Casablanca', 'A story never get tired , incredible film .', 'The Most Beautiful Movie Cinema History Ever', 'The famed many one greatest movie ever realized', "Here 's lookin ' , film .", 'Classic Film Its Best', 'Tough To Beat This Movie', 'Great characters , classic dialogue , teary-eyed romance ...', "classic 's known people long actually see movie", "Here 's looking cinema-perfection , kid", 'Casablanca definite all-time movie classic !', 'Play Over &amp; Over Again Warner Brothers * * * *', 'Brilliant', 'You must remember ...', "I 'm A Cynic So What I Say Does n't Matter", 'Casablanca gets better better time goes !', 'Very good ... classic', "As time goes , 's still one all-time greats ..."]</t>
+          <t>['A perfect film ', 'One best black white films I ever privilege watching ', ' s still old story  fight love glory  case die  world always welcome lovers  As Time Goes By  ', 'Movie romanticism best', 'Great', 'One quotable movies', 'special', 'Casablanca', 'A story never get tired  incredible film ', 'The Most Beautiful Movie Cinema History Ever', 'The famed many one greatest movie ever realized', 'Here s lookin   film ', 'Classic Film Its Best', 'Tough To Beat This Movie', 'Great characters  classic dialogue  tearyeyed romance ', 'classic s known people long actually see movie', 'Here s looking cinemaperfection  kid', 'Casablanca definite alltime movie classic ', 'Play Over  Over Again Warner Brothers    ', 'Brilliant', 'You must remember ', 'I m A Cynic So What I Say Does nt Matter', 'Casablanca gets better better time goes ', 'Very good  classic', 'As time goes  s still one alltime greats ']</t>
         </is>
       </c>
     </row>
@@ -42545,7 +42545,7 @@
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>['One biggest boldest westerns ever see', 'Some American Meatballs In A Spaghetti Western', 'symphonic style', 'admirable', 'The harmonica player', 'One Best Cowboy Movies ( Maybe Best ) Ever Made \x96 A Masterpiece', 'An epic western \x96 pros cons come', 'Unforgettable breathtaking Western big budget , masterfully made great Sergio Leone', 'Leone overdoes .', 'The Best Western I Ever Saw', 'Excruciating Slow Or Fascinating : Your Choice', 'Who , anyway ?', 'Elegant , lugubrious Leone western ...', "Maybe Leone 's second best behind GB &amp; U- sophisticated weaving techniques past westerns near-mythic treatment ...", "Sergio Leone 's Once Upon Time West one compellingly dramatic Westerns time", 'Cinematic brilliance Sergio Leone .', 'The Love Cinema', 'Decent', 'Twice Removed', 'The operatic tale greed , lust revenge .', 'Top 50 ! Yeah Right', 'Harmonicas Have Never Been Symbolic', "Sergio 's slow-moving western unforgettable moments ...", "Sergio Leone 's gloomest movies", "An underrated spaghetti Western 's must see"]</t>
+          <t>['One biggest boldest westerns ever see', 'Some American Meatballs In A Spaghetti Western', 'symphonic style', 'admirable', 'The harmonica player', 'One Best Cowboy Movies  Maybe Best  Ever Made  A Masterpiece', 'An epic western  pros cons come', 'Unforgettable breathtaking Western big budget  masterfully made great Sergio Leone', 'Leone overdoes ', 'The Best Western I Ever Saw', 'Excruciating Slow Or Fascinating  Your Choice', 'Who  anyway ', 'Elegant  lugubrious Leone western ', 'Maybe Leone s second best behind GB  U sophisticated weaving techniques past westerns nearmythic treatment ', 'Sergio Leone s Once Upon Time West one compellingly dramatic Westerns time', 'Cinematic brilliance Sergio Leone ', 'The Love Cinema', 'Decent', 'Twice Removed', 'The operatic tale greed  lust revenge ', 'Top 50  Yeah Right', 'Harmonicas Have Never Been Symbolic', 'Sergio s slowmoving western unforgettable moments ', 'Sergio Leone s gloomest movies', 'An underrated spaghetti Western s must see']</t>
         </is>
       </c>
     </row>
@@ -42589,7 +42589,7 @@
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>['Beautiful , haunting emotionally devastating', 'Utterly devastating', 'Heart breaking animation', 'Soul Breaking', 'portrait life', 'A classic , powerful , heart breaking movie .', 'Stunning animated testimony human spirit fight survival', 'upon time Japan', 'Greatest War Film ?', "combination Rome Open City Wiesel 's Night ( like , extreme , personally felt story )", 'Incredibly powerful emotional drama', 'Depressing , must see', 'Beautiful , amazing , stunning', 'A magnificent piece work one heartbreaking tales ever told', 'Absolutely heartbreaking .', 'I hardly see tears . Great drama anime .', 'Cinema Omnivore - Grave Fireflies ( 1988 ) 8.4/10', 'war heart', 'Well done depressing', 'Wow , amazing !', 'This beautiful film haunt', 'A horrible shivering reality poverty World War II', 'Beautiful human', 'An Achievement Not Only For Studio Ghibli But Animation As A Whole .', 'Up In The Skies ( Before My Eyes ) Fireflies From The Grave']</t>
+          <t>['Beautiful  haunting emotionally devastating', 'Utterly devastating', 'Heart breaking animation', 'Soul Breaking', 'portrait life', 'A classic  powerful  heart breaking movie ', 'Stunning animated testimony human spirit fight survival', 'upon time Japan', 'Greatest War Film ', 'combination Rome Open City Wiesel s Night  like  extreme  personally felt story ', 'Incredibly powerful emotional drama', 'Depressing  must see', 'Beautiful  amazing  stunning', 'A magnificent piece work one heartbreaking tales ever told', 'Absolutely heartbreaking ', 'I hardly see tears  Great drama anime ', 'Cinema Omnivore  Grave Fireflies  1988  8410', 'war heart', 'Well done depressing', 'Wow  amazing ', 'This beautiful film haunt', 'A horrible shivering reality poverty World War II', 'Beautiful human', 'An Achievement Not Only For Studio Ghibli But Animation As A Whole ', 'Up In The Skies  Before My Eyes  Fireflies From The Grave']</t>
         </is>
       </c>
     </row>
@@ -42633,7 +42633,7 @@
       </c>
       <c r="J959" t="inlineStr">
         <is>
-          <t>["yep -- 's good film , ... # 14 IMDb ? ? ?", 'Sophisticated Hitchcock , wonderful performance James Stewart !', "One Hitch 's best", 'Enforced Idleness', 'Best Hitchcock ever', 'Brilliant', "It 's In Garden", 'seduction pure form', 'Another Hitchcock masterpiece .', 'Voyerism 1on1', 'What Have You Done Her ?', 'Classy , gentle excitement nice subtexts within enjoyably tense main story', 'Alfred Hitchcock top-notch suspense/thriller embroils magazine photographer confined wheelchair killing', 'classic true sense word', "One Hitchcock 's Best", 'An Open And Trusting World ?', 'A colorful , friendly story ... murder', 'In mid-fifties , Hitchcock brought remarkable suspense reverting logic silent film ( observer behind lens hero )', 'I spy , little eye , overrated Alfred Hitchcock thriller .', 'Voyeristic suspense', 'Tremendous thriller . Classic Hitchcock .', 'Probably best thing Alfred Hitchcock ever ...', "Watching Watchers , One Hitchcock 's Hightest Rated , Stiff Suspenseful", 'One greatest movies ever made', 'It Had To Be Murder .']</t>
+          <t>['yep  s good film    14 IMDb   ', 'Sophisticated Hitchcock  wonderful performance James Stewart ', 'One Hitch s best', 'Enforced Idleness', 'Best Hitchcock ever', 'Brilliant', 'It s In Garden', 'seduction pure form', 'Another Hitchcock masterpiece ', 'Voyerism 1on1', 'What Have You Done Her ', 'Classy  gentle excitement nice subtexts within enjoyably tense main story', 'Alfred Hitchcock topnotch suspensethriller embroils magazine photographer confined wheelchair killing', 'classic true sense word', 'One Hitchcock s Best', 'An Open And Trusting World ', 'A colorful  friendly story  murder', 'In midfifties  Hitchcock brought remarkable suspense reverting logic silent film  observer behind lens hero ', 'I spy  little eye  overrated Alfred Hitchcock thriller ', 'Voyeristic suspense', 'Tremendous thriller  Classic Hitchcock ', 'Probably best thing Alfred Hitchcock ever ', 'Watching Watchers  One Hitchcock s Hightest Rated  Stiff Suspenseful', 'One greatest movies ever made', 'It Had To Be Murder ']</t>
         </is>
       </c>
     </row>
@@ -42677,7 +42677,7 @@
       </c>
       <c r="J960" t="inlineStr">
         <is>
-          <t>['About good Italian film find', 'One best moving films 80s', 'little bit movie magic', 'A Film Ages', 'A Movie For Movie Lovers', 'Stunning film great sense sensibility ; compellingly directed Giuseppe Tornatore', 'In memory Philippe Noiret', 'A Movie-Lovers Film', "The Loves Of 'Toto ' Beautifully Told", 'sentimental memorable tribute anyone loves go movie', 'Wonderful , emotional movie', 'Classic', 'Exquisite nostalgia movie fan identify ...', 'Love Letter Movies', 'Are You Kidding Me ?', 'wonderful first half', 'This great films ?', 'In word : nostalgic .', 'A Film Real Movie Lovers', 'Only interesting halfway mark ...', "The best gifts life given . They 're taught .", 'A cinematic paradise memories , emotions heart touching recall ..', 'Celluloid nostalgia', 'A masterpiece restored .', 'The Greatest Cinema About Cinema']</t>
+          <t>['About good Italian film find', 'One best moving films 80s', 'little bit movie magic', 'A Film Ages', 'A Movie For Movie Lovers', 'Stunning film great sense sensibility  compellingly directed Giuseppe Tornatore', 'In memory Philippe Noiret', 'A MovieLovers Film', 'The Loves Of Toto  Beautifully Told', 'sentimental memorable tribute anyone loves go movie', 'Wonderful  emotional movie', 'Classic', 'Exquisite nostalgia movie fan identify ', 'Love Letter Movies', 'Are You Kidding Me ', 'wonderful first half', 'This great films ', 'In word  nostalgic ', 'A Film Real Movie Lovers', 'Only interesting halfway mark ', 'The best gifts life given  They re taught ', 'A cinematic paradise memories  emotions heart touching recall ', 'Celluloid nostalgia', 'A masterpiece restored ', 'The Greatest Cinema About Cinema']</t>
         </is>
       </c>
     </row>
@@ -42721,7 +42721,7 @@
       </c>
       <c r="J961" t="inlineStr">
         <is>
-          <t>['amusing semi-socialist picture', 'Hilarious original great serious message poignant love story', 'The last triumph silence', 'Some iconic scenes socially conscious movie', 'Another Masterpiece Chaplin', 'One Last Triumph Silent Era', 'manifesto', 'Feel , hear', 'Not sharp I wanted comedy covers', 'Charles Chaplin masterpiece finds playing factory worker becomes involved problems strikes', 'movie applies times , modern ancient', "Chaplin 's Best , No Debate", 'Very amusing .', 'Funny , poignant brilliant', 'maybe entirely , artistically fulfilling City Lights , might funnier', 'Humane Satire', 'Antiquated Mimes', 'Timeless classic', 'Chaplin best ... Paulette Goddard delightful ...', "Chaplin 's criticism industrial age", 'Individual Parts Greater Than Whole', 'Simply hilarious !', 'The Tramp walks sunset , hand hand Silent Era .', "Buck - never say die . We 'll get along", 'Modern backward-looking classic']</t>
+          <t>['amusing semisocialist picture', 'Hilarious original great serious message poignant love story', 'The last triumph silence', 'Some iconic scenes socially conscious movie', 'Another Masterpiece Chaplin', 'One Last Triumph Silent Era', 'manifesto', 'Feel  hear', 'Not sharp I wanted comedy covers', 'Charles Chaplin masterpiece finds playing factory worker becomes involved problems strikes', 'movie applies times  modern ancient', 'Chaplin s Best  No Debate', 'Very amusing ', 'Funny  poignant brilliant', 'maybe entirely  artistically fulfilling City Lights  might funnier', 'Humane Satire', 'Antiquated Mimes', 'Timeless classic', 'Chaplin best  Paulette Goddard delightful ', 'Chaplin s criticism industrial age', 'Individual Parts Greater Than Whole', 'Simply hilarious ', 'The Tramp walks sunset  hand hand Silent Era ', 'Buck  never say die  We ll get along', 'Modern backwardlooking classic']</t>
         </is>
       </c>
     </row>
@@ -42765,7 +42765,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>['I must missing something , ...', "In honest opinion , Charlie Chaplin 's masterpiece", 'Masterpiece', 'The Epitome Chaplin', 'admirable', 'The dazzling magic Charlie Chaplin .', 'Wonderful set-pieces make film', "Masterpiece Chaplin 's last silent film providing genuinely moving scenes", '`` Lights `` darkness', 'Chaplin At His Best ?', 'One Of Chaplin `` Best &amp; Most Endearing Films', 'Lady Tramp , animation start talkies- one wonderful films ever conceived executed', 'A Chaplin classic', 'One finest silent films Chaplin ever done thus far', 'A stellar , essential classic , must-see one', 'Unashamedly Sentimental -- -Works Me', "Blink 'll miss something funny !", "Not Chaplin 's best , still charming entertaining silent cinema staple .", 'Pitch perfect Depression', 'Shining Brightly', 'pure gem', 'A classic example silent cinema', 'Another Emotional Masterpiece Chaplin whose Climax haunt FOREVER .', 'The best film 1931', "Charlie Chaplin 's Magnum Opus ."]</t>
+          <t>['I must missing something  ', 'In honest opinion  Charlie Chaplin s masterpiece', 'Masterpiece', 'The Epitome Chaplin', 'admirable', 'The dazzling magic Charlie Chaplin ', 'Wonderful setpieces make film', 'Masterpiece Chaplin s last silent film providing genuinely moving scenes', ' Lights  darkness', 'Chaplin At His Best ', 'One Of Chaplin  Best  Most Endearing Films', 'Lady Tramp  animation start talkies one wonderful films ever conceived executed', 'A Chaplin classic', 'One finest silent films Chaplin ever done thus far', 'A stellar  essential classic  mustsee one', 'Unashamedly Sentimental  Works Me', 'Blink ll miss something funny ', 'Not Chaplin s best  still charming entertaining silent cinema staple ', 'Pitch perfect Depression', 'Shining Brightly', 'pure gem', 'A classic example silent cinema', 'Another Emotional Masterpiece Chaplin whose Climax haunt FOREVER ', 'The best film 1931', 'Charlie Chaplin s Magnum Opus ']</t>
         </is>
       </c>
     </row>
@@ -42809,7 +42809,7 @@
       </c>
       <c r="J963" t="inlineStr">
         <is>
-          <t>["A Hollywood Remake converted 'Blockbuster A Grade Action Drama ' Tamil Cinema .", 'A full-blown massy entertainer surprisingly got classy execution', 'An action thriller heart ! [ +68 % ]', 'Awesome action crime thriller ... ! ! !', 'Drug war road movie AND hostage drama rolled one', 'Kaithi', 'A nice one', 'An Engaging one !', 'Intense &amp; Engaging ! !', "Karthi 's Pacy Action Thriller Keeps You Engaged ! ! !", 'Compelling action thriller .', 'Breathtaking performance Karthi !', 'Directorial triumph', 'Audience become kaithi', 'P.E.R.F.E.C.T.I.O.N', 'Almost good out-an-out action movie', 'Kaithi Outstanding', 'What kind joke ?', 'The Driver', 'Lokesh Kanakarajan Universe 🔥🔥🔥', 'Best action thriller 2019 period', 'It would theatrical masterpiece us !', 'Brutal , Raw Magnificent', 'Kanagraj majic', 'Action good story damdar']</t>
+          <t>['A Hollywood Remake converted Blockbuster A Grade Action Drama  Tamil Cinema ', 'A fullblown massy entertainer surprisingly got classy execution', 'An action thriller heart   68  ', 'Awesome action crime thriller    ', 'Drug war road movie AND hostage drama rolled one', 'Kaithi', 'A nice one', 'An Engaging one ', 'Intense  Engaging  ', 'Karthi s Pacy Action Thriller Keeps You Engaged   ', 'Compelling action thriller ', 'Breathtaking performance Karthi ', 'Directorial triumph', 'Audience become kaithi', 'PERFECTION', 'Almost good outanout action movie', 'Kaithi Outstanding', 'What kind joke ', 'The Driver', 'Lokesh Kanakarajan Universe ', 'Best action thriller 2019 period', 'It would theatrical masterpiece us ', 'Brutal  Raw Magnificent', 'Kanagraj majic', 'Action good story damdar']</t>
         </is>
       </c>
     </row>
@@ -42853,7 +42853,7 @@
       </c>
       <c r="J964" t="inlineStr">
         <is>
-          <t>['Nothing school-days nostalgia losing balance sake stretched Love Story .', '.........', 'Amazing Nostalgic Experience 90s kids', 'Sweet , Child-like , blends Heart', 'Very good performances', 'Masterpiece .', 'Overrated love story', 'Best actor-Vijay sethupathy ... For sima , filmfare , national awards', 'A single moment cliche kills fun', '96 10 Into 10 Rating', 'Not luv stories happy ones', '96 Masterpiece ! !', 'Speechless', 'An emotional backdrop', '96 bag full mixed emotions love , pain life .', 'False Rating', 'A MUS ( H ) T WATCH ! !', 'pretty touching movie', '`` Just beautiful ``', 'An emotional ride !', 'One best movie Human Emotions', 'Promotes Simping Incel culture', 'Best best', 'BASIC', 'Emotional heart touching journey']</t>
+          <t>['Nothing schooldays nostalgia losing balance sake stretched Love Story ', '', 'Amazing Nostalgic Experience 90s kids', 'Sweet  Childlike  blends Heart', 'Very good performances', 'Masterpiece ', 'Overrated love story', 'Best actorVijay sethupathy  For sima  filmfare  national awards', 'A single moment cliche kills fun', '96 10 Into 10 Rating', 'Not luv stories happy ones', '96 Masterpiece  ', 'Speechless', 'An emotional backdrop', '96 bag full mixed emotions love  pain life ', 'False Rating', 'A MUS  H  T WATCH  ', 'pretty touching movie', ' Just beautiful ', 'An emotional ride ', 'One best movie Human Emotions', 'Promotes Simping Incel culture', 'Best best', 'BASIC', 'Emotional heart touching journey']</t>
         </is>
       </c>
     </row>
@@ -42897,7 +42897,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>['Very well made , ....', 'A brilliant postmodern film noir grim , intelligent disturbing', "It n't get much influential ...", 'beautiful darkness', 'Great', 'Almost Too Much Bear', 'admirable work', 'An classic .', 'Sinners Saints', "Simply one darkest best thrillers 1990 's \x96 n't let anyone spoil .....", '7 lucky number people', "This ai n't seven : 's got least eight nine .", 'The Essential `` Tracking Killer `` Movie ...', 'Milestone serial killers films', "The Good &amp; Bad Of 'Se7en '", 'It cuts slices away , still follows police-movie formula ...', 'Disturbingly effective , two audiences', 'Take away Hellhole City , rain pours murders gritty .', 'Be Wrath', 'Paradise Lost', 'We need talk Kevin', 'Alarming . Down right chilling . The count begins .', 'Classical &amp; Genre ( Noir ) Tropes Given The Post-Modern `` Look-See `` David Fincher &amp; Crew', 'Brilliant', 'Before Saw Se7en']</t>
+          <t>['Very well made  ', 'A brilliant postmodern film noir grim  intelligent disturbing', 'It nt get much influential ', 'beautiful darkness', 'Great', 'Almost Too Much Bear', 'admirable work', 'An classic ', 'Sinners Saints', 'Simply one darkest best thrillers 1990 s  nt let anyone spoil ', '7 lucky number people', 'This ai nt seven  s got least eight nine ', 'The Essential  Tracking Killer  Movie ', 'Milestone serial killers films', 'The Good  Bad Of Se7en ', 'It cuts slices away  still follows policemovie formula ', 'Disturbingly effective  two audiences', 'Take away Hellhole City  rain pours murders gritty ', 'Be Wrath', 'Paradise Lost', 'We need talk Kevin', 'Alarming  Down right chilling  The count begins ', 'Classical  Genre  Noir  Tropes Given The PostModern  LookSee  David Fincher  Crew', 'Brilliant', 'Before Saw Se7en']</t>
         </is>
       </c>
     </row>
@@ -42941,7 +42941,7 @@
       </c>
       <c r="J966" t="inlineStr">
         <is>
-          <t>['Well made yecch .', 'Truly enthralling film one forget', 'The granddaddy serial killer flicks', 'Getting A Good Consultant', 'iconic villain', 'One All-Time Great Thrillers', 'Maybe Little Too Much', "definition decade 's cinema", 'The Silence Lambs', 'As good notorious reputation suggests .', 'Stunning competent film over-the-top performances well-paced Jonathan Damme', 'A unusual treat .', 'Modern Masterpiece For Good Reason', "A Story And A Character That You Ca n't Forget", 'It tries build crawling sense dread menace , ...', 'intense humming evil', "One best suspense films early 1990 's", 'Everything could possibly look cinema !', 'Great acting', 'Anthony Hopkins chews screen', 'Repulsive yet captivating', 'A dynamite Hollywood thriller .', 'A Few Random Comments', 'Some Careless Stitching', 'Great , tense thriller']</t>
+          <t>['Well made yecch ', 'Truly enthralling film one forget', 'The granddaddy serial killer flicks', 'Getting A Good Consultant', 'iconic villain', 'One AllTime Great Thrillers', 'Maybe Little Too Much', 'definition decade s cinema', 'The Silence Lambs', 'As good notorious reputation suggests ', 'Stunning competent film overthetop performances wellpaced Jonathan Damme', 'A unusual treat ', 'Modern Masterpiece For Good Reason', 'A Story And A Character That You Ca nt Forget', 'It tries build crawling sense dread menace  ', 'intense humming evil', 'One best suspense films early 1990 s', 'Everything could possibly look cinema ', 'Great acting', 'Anthony Hopkins chews screen', 'Repulsive yet captivating', 'A dynamite Hollywood thriller ', 'A Few Random Comments', 'Some Careless Stitching', 'Great  tense thriller']</t>
         </is>
       </c>
     </row>
@@ -42985,7 +42985,7 @@
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>['A strongly acted , powerful film unashamedly brutal !', 'Great action sequences', 'Horrors War', 'Hurting', 'One best war movies ever ...', 'still , seem could looked', "Spielberg 's Soft Heart Solid War Movie", 'I Agree : This Is The Best War Movie Ever Made', 'In many respects tribute fought , many died , WW2 European battles .', 'For war-movie aficionados , personal epic ...', 'upsetting battle sequences plain story', 'One Best War Films Ever Made !', 'Heartbreaking', 'Steven Spielberg salutes Veterans World War II', 'Overrated ... Good ... But Way Too Long ... Weak Script , Story &amp; Dialog', 'One greatest war movies ever made', 'Littoral', 'Overated', "Grabbed n't let go", 'Among top war films time ...', 'War', 'One Most Overrated Films Ever', 'The movie got interested WWII .', 'War', 'Great WWII war action France , much drama weak']</t>
+          <t>['A strongly acted  powerful film unashamedly brutal ', 'Great action sequences', 'Horrors War', 'Hurting', 'One best war movies ever ', 'still  seem could looked', 'Spielberg s Soft Heart Solid War Movie', 'I Agree  This Is The Best War Movie Ever Made', 'In many respects tribute fought  many died  WW2 European battles ', 'For warmovie aficionados  personal epic ', 'upsetting battle sequences plain story', 'One Best War Films Ever Made ', 'Heartbreaking', 'Steven Spielberg salutes Veterans World War II', 'Overrated  Good  But Way Too Long  Weak Script  Story  Dialog', 'One greatest war movies ever made', 'Littoral', 'Overated', 'Grabbed nt let go', 'Among top war films time ', 'War', 'One Most Overrated Films Ever', 'The movie got interested WWII ', 'War', 'Great WWII war action France  much drama weak']</t>
         </is>
       </c>
     </row>
@@ -43029,7 +43029,7 @@
       </c>
       <c r="J968" t="inlineStr">
         <is>
-          <t>['Exceptional , perhaps much casual viewer', 'Prepare enchanted !', 'Needs better story', 'magic wonder', 'Incredible , But .......', 'special', "Even anime n't thing , rewarding movie .", 'Spirited inside', 'The Supernatural Ambiguous Journey Chihiro', 'Beautifully animated story good characters fantastic story love friendship', 'What happens nothing consume ?', "I get feeling review wo n't popular ...", 'Great Story , Maybe Not Finest Animation', 'Entertaining Enough To Get Away With The Length', 'An anime treat', "OK , kid 's movie ...", 'Weird Japanese nightmare epic proportions ... charmer ...', 'Unique original spin `` Alice Wonderland ``', 'See English', "One Hayao Miyazaki 's greatest movies", 'Great characters story .', 'Grand', 'Japanese Alice In Wonderland !', 'Strange , fun trip spirit world bath house .', 'No face , service .']</t>
+          <t>['Exceptional  perhaps much casual viewer', 'Prepare enchanted ', 'Needs better story', 'magic wonder', 'Incredible  But ', 'special', 'Even anime nt thing  rewarding movie ', 'Spirited inside', 'The Supernatural Ambiguous Journey Chihiro', 'Beautifully animated story good characters fantastic story love friendship', 'What happens nothing consume ', 'I get feeling review wo nt popular ', 'Great Story  Maybe Not Finest Animation', 'Entertaining Enough To Get Away With The Length', 'An anime treat', 'OK  kid s movie ', 'Weird Japanese nightmare epic proportions  charmer ', 'Unique original spin  Alice Wonderland ', 'See English', 'One Hayao Miyazaki s greatest movies', 'Great characters story ', 'Grand', 'Japanese Alice In Wonderland ', 'Strange  fun trip spirit world bath house ', 'No face  service ']</t>
         </is>
       </c>
     </row>
@@ -43073,7 +43073,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>['Very good overrated', 'One quintessential Christmas movies ....', '`` To My Big Brother George , The Richest Man In Town ``', 'Unabashed Sentimental Capra', 'One All Time Greats', 'A Wonderful Film Cutting Edge', 'simple charming', 'Small town life', 'Magical .', 'Life - make ( ... )', 'One Most Beautiful Movies Cinema History Ever', 'Classic bit American propaganda never fails warm heart', "Frank Capra 's sensitive , heartwarming , humorous finally heartbreaking classic movie", "Did anyone read Maureen Dowd 's spoof ?", 'Holiday Classic', "Was n't What I Expected", 'Was upbeat post-WW2 movie , classic .', 'Wonderful indeed', 'Fantasy Americana ( somber undercurrent )', 'A man receives rare gift', "It 's wonderful movie !", "tale classic selfless man 's conflicted mind-set town 's ingrained life", "Frank Capra Jimmy Stewart 's It 's Wonderful Life all-time favorite", "It 's A Wonderful Picture- `` Wonderful Life `` Terrific * * * *", '`` To big brother George , richest man town . ``']</t>
+          <t>['Very good overrated', 'One quintessential Christmas movies ', ' To My Big Brother George  The Richest Man In Town ', 'Unabashed Sentimental Capra', 'One All Time Greats', 'A Wonderful Film Cutting Edge', 'simple charming', 'Small town life', 'Magical ', 'Life  make   ', 'One Most Beautiful Movies Cinema History Ever', 'Classic bit American propaganda never fails warm heart', 'Frank Capra s sensitive  heartwarming  humorous finally heartbreaking classic movie', 'Did anyone read Maureen Dowd s spoof ', 'Holiday Classic', 'Was nt What I Expected', 'Was upbeat postWW2 movie  classic ', 'Wonderful indeed', 'Fantasy Americana  somber undercurrent ', 'A man receives rare gift', 'It s wonderful movie ', 'tale classic selfless man s conflicted mindset town s ingrained life', 'Frank Capra Jimmy Stewart s It s Wonderful Life alltime favorite', 'It s A Wonderful Picture  Wonderful Life  Terrific    ', ' To big brother George  richest man town  ']</t>
         </is>
       </c>
     </row>
@@ -43117,7 +43117,7 @@
       </c>
       <c r="J970" t="inlineStr">
         <is>
-          <t>['Overlong , haunting , thought-provoking , moving engrossing', 'American fable', 'A Little Editing Please', 'impressive', 'An incredible movie .', 'Inside ( )', "Overlong worthy still good story \x96 n't expect anything like Shawshank 2 !", 'This last movie I saw 1999 ...', 'Darabont Scores Again', 'In 3 Words : Long , Intense , Involving', 'Marvelous movie , 3+ hours , deserves praise received .', 'A sterling drama ; complex emotional ...', 'overwhelming', 'A Great Film Experience', 'Walking green mile', 'A brilliant prison drama inspired Stephen King .', 'A Fine Film That Could Have Been Great', 'Not Character Wasted', 'Zap', 'This masterpiece absolutely must see picture', "Ponderous Adaptation King 's Serial Novel", 'A true masterpiece', 'Absolutely fabulous', 'A Masterpiece Cinematic Art -- Captivating , Reverent , Tear-Inducing', 'Stephen King']</t>
+          <t>['Overlong  haunting  thoughtprovoking  moving engrossing', 'American fable', 'A Little Editing Please', 'impressive', 'An incredible movie ', 'Inside  ', 'Overlong worthy still good story  nt expect anything like Shawshank 2 ', 'This last movie I saw 1999 ', 'Darabont Scores Again', 'In 3 Words  Long  Intense  Involving', 'Marvelous movie  3 hours  deserves praise received ', 'A sterling drama  complex emotional ', 'overwhelming', 'A Great Film Experience', 'Walking green mile', 'A brilliant prison drama inspired Stephen King ', 'A Fine Film That Could Have Been Great', 'Not Character Wasted', 'Zap', 'This masterpiece absolutely must see picture', 'Ponderous Adaptation King s Serial Novel', 'A true masterpiece', 'Absolutely fabulous', 'A Masterpiece Cinematic Art  Captivating  Reverent  TearInducing', 'Stephen King']</t>
         </is>
       </c>
     </row>
@@ -43161,7 +43161,7 @@
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>['A milestone film-making- superlative sci-fi movie', 'In A Galaxy Far Away ................ A Franchise Was Born', "Not great movie . It 's important", 'Deserving Its Reputation', 'Maybe I Never Got It', 'beginning legend', 'A film changed industry forever .', 'The Unforgettable Episode', 'Classic bit fun sci-fi \x96 space western !', 'The classic ...', 'Stunning fascinating fantasy tale valiant heroes battle Galactic Empire', 'What say ? I guess , may force , always .', 'I get choked thinking .', "Primitive-Looking By Now , But A 'Must `` To Set Up The Series", "A classic first came , still 'classic ' almost 30 years later DVD .", 'The 1st/4th film Star Wars saga', "Sci-fi kiddies ' world .", 'A Terrific space age epic', 'The Force ... always .', 'A break cynical films 1970s', 'Simplistic Sophistication Makes Universal Admiration Appeal', 'The Evil Force', 'A long time ago childhood far away ...', 'An Epic Saga worthy highest merits', 'Way commerical']</t>
+          <t>['A milestone filmmaking superlative scifi movie', 'In A Galaxy Far Away  A Franchise Was Born', 'Not great movie  It s important', 'Deserving Its Reputation', 'Maybe I Never Got It', 'beginning legend', 'A film changed industry forever ', 'The Unforgettable Episode', 'Classic bit fun scifi  space western ', 'The classic ', 'Stunning fascinating fantasy tale valiant heroes battle Galactic Empire', 'What say  I guess  may force  always ', 'I get choked thinking ', 'PrimitiveLooking By Now  But A Must  To Set Up The Series', 'A classic first came  still classic  almost 30 years later DVD ', 'The 1st4th film Star Wars saga', 'Scifi kiddies  world ', 'A Terrific space age epic', 'The Force  always ', 'A break cynical films 1970s', 'Simplistic Sophistication Makes Universal Admiration Appeal', 'The Evil Force', 'A long time ago childhood far away ', 'An Epic Saga worthy highest merits', 'Way commerical']</t>
         </is>
       </c>
     </row>
@@ -43205,7 +43205,7 @@
       </c>
       <c r="J972" t="inlineStr">
         <is>
-          <t>['horrible movie I strongly recommend', 'A Brazilian masterwork', 'Sprawling crime masterwork Brazil', 'The Godfather Rio', 'Almost Too Much Watch', "It 's masterpiece .", 'Down dirty', 'The Other ( Sad ) Side Wonderful City Rio de Janeiro', 'A really slick impressive gangster movie', 'Excellent violent film based real events', "It n't suffice call `` City God `` Brazilian `` Mean Streets `` .", 'City God , You Have Stolen My Soul !', 'Shocking , Stylish &amp; Brutal Story', 'powerhouse crime saga , fierce , daunting fusion style', 'A spine chilling film', 'Brilliant', 'The gangs Rio', 'Mesmerizing Sad', 'This masterpiece definitely worth time', 'Visceral Fabulous', 'What purgatory Hell', 'Not perfect certainly close enough !', 'Incredible portrayal environment', 'Brazilian `` Goodfellas `` ; The kids alright ; excellent !', 'hoped maybe still alive']</t>
+          <t>['horrible movie I strongly recommend', 'A Brazilian masterwork', 'Sprawling crime masterwork Brazil', 'The Godfather Rio', 'Almost Too Much Watch', 'It s masterpiece ', 'Down dirty', 'The Other  Sad  Side Wonderful City Rio de Janeiro', 'A really slick impressive gangster movie', 'Excellent violent film based real events', 'It nt suffice call  City God  Brazilian  Mean Streets  ', 'City God  You Have Stolen My Soul ', 'Shocking  Stylish  Brutal Story', 'powerhouse crime saga  fierce  daunting fusion style', 'A spine chilling film', 'Brilliant', 'The gangs Rio', 'Mesmerizing Sad', 'This masterpiece definitely worth time', 'Visceral Fabulous', 'What purgatory Hell', 'Not perfect certainly close enough ', 'Incredible portrayal environment', 'Brazilian  Goodfellas   The kids alright  excellent ', 'hoped maybe still alive']</t>
         </is>
       </c>
     </row>
@@ -43249,7 +43249,7 @@
       </c>
       <c r="J973" t="inlineStr">
         <is>
-          <t>['A bigger , richer sequel every bit fantastic predecessor even surpasses areas', 'Great action much', 'Masterpiece Sci-Fi', 'One best action sci fi movies ever made .', 'Come want live ! ...', 'Nail-biting exhilarating outing state-of-art special effects', "Here 's outdoes original :", 'You want incredible action excitement ? No problemo ....', 'Best . Terminator . Movie . Ever .', 'Many Annoyances , But An Incredible Action Flick', 'surpasses original', 'Better original ? No way ! A masterpiece totally different league ? You bet !', 'Hasta la vista baby', 'Over Produced Over Rated Sequel', 'An innovative trend-setter', 'T-1000 stand', "I 'll back", 'This American cinematic masterpiece time great movie .', "He 's Baa-aack", "There 's reason appreciated", 'An observation', '`` Back `` better ever ! One best sequels cinematic history .', 'The sweeping epic series .', 'Marvelous Sequel .', 'Terminator 2 : Judgment Day']</t>
+          <t>['A bigger  richer sequel every bit fantastic predecessor even surpasses areas', 'Great action much', 'Masterpiece SciFi', 'One best action sci fi movies ever made ', 'Come want live  ', 'Nailbiting exhilarating outing stateofart special effects', 'Here s outdoes original ', 'You want incredible action excitement  No problemo ', 'Best  Terminator  Movie  Ever ', 'Many Annoyances  But An Incredible Action Flick', 'surpasses original', 'Better original  No way  A masterpiece totally different league  You bet ', 'Hasta la vista baby', 'Over Produced Over Rated Sequel', 'An innovative trendsetter', 'T1000 stand', 'I ll back', 'This American cinematic masterpiece time great movie ', 'He s Baaaack', 'There s reason appreciated', 'An observation', ' Back  better ever  One best sequels cinematic history ', 'The sweeping epic series ', 'Marvelous Sequel ', 'Terminator 2  Judgment Day']</t>
         </is>
       </c>
     </row>
@@ -43293,7 +43293,7 @@
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>['Visually stunning , uneven . For second half better first', 'broad slapstick heartfelt drama', 'Clever Brave', 'different', 'A moving , powerful War film .', 'Marvelous tale likable Jewish protecting son wife horrifying concentration camp', 'Oddly Irreverent', 'Dramatic Turnaround Makes It Unforgettable', 'Life Can Certainly Be Beautiful * * * *', 'Hidously Overrated', 'Artful blend tragedy comedy testimony human spirit ...', 'Paging Mel Brooks ....', 'A beautiful film ... entirely perfect one', 'life beautiful', 'parable', 'Life Beautiful absolutely beautiful ! !', 'A beautiful &amp; unique mix humor drama', 'A elephant film .', 'Almost beautiful', 'A Powerful Amalgamation Of Love , Family , Tragedy &amp; Sacrifice !', 'One beautiful stories ever told screen', 'One-Trick Pony Film - Life Beautiful', 'One best Italian films I know', 'Love Beautiful ...', 'What movie . . .']</t>
+          <t>['Visually stunning  uneven  For second half better first', 'broad slapstick heartfelt drama', 'Clever Brave', 'different', 'A moving  powerful War film ', 'Marvelous tale likable Jewish protecting son wife horrifying concentration camp', 'Oddly Irreverent', 'Dramatic Turnaround Makes It Unforgettable', 'Life Can Certainly Be Beautiful    ', 'Hidously Overrated', 'Artful blend tragedy comedy testimony human spirit ', 'Paging Mel Brooks ', 'A beautiful film  entirely perfect one', 'life beautiful', 'parable', 'Life Beautiful absolutely beautiful  ', 'A beautiful  unique mix humor drama', 'A elephant film ', 'Almost beautiful', 'A Powerful Amalgamation Of Love  Family  Tragedy  Sacrifice ', 'One beautiful stories ever told screen', 'OneTrick Pony Film  Life Beautiful', 'One best Italian films I know', 'Love Beautiful ', 'What movie   ']</t>
         </is>
       </c>
     </row>
@@ -43337,7 +43337,7 @@
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>["One Kurosawa 's best", "Kurasawa 's best film", 'Iconic influential movie', 'It Helped Define Film', 'Ahead time .', 'One Best Movies Cinema History', 'OK flawless classic would say still engaging enjoyable film', "Classic epic , though overlong , Kurosawa 's masterpiece time Japan 's expensive picture ever", 'helping others saving', 'A Truly Epic Film', 'Genuine magnificent seven', 'The Magnificent Seven : The Prequel .', 'Not What It Is Cracked Up To Be', 'Good movie , mixes comedy drama , I fail see many consider great .', "Kurosawa 's triumphant epic- totally &amp; successfully driven character story", 'Self-Sacrificing Samurai', 'One influential movie history', 'One Best Films Ever Made Japan', 'A cinematic masterpiece', 'An action movie dream', 'another long kurosawa', "There 's Not One Thing Wrong This Film", 'Great action movie driven story characters .', 'An amazing piece film , length alone discourage many possible viewers', 'Great Film , I think Kurosawa better']</t>
+          <t>['One Kurosawa s best', 'Kurasawa s best film', 'Iconic influential movie', 'It Helped Define Film', 'Ahead time ', 'One Best Movies Cinema History', 'OK flawless classic would say still engaging enjoyable film', 'Classic epic  though overlong  Kurosawa s masterpiece time Japan s expensive picture ever', 'helping others saving', 'A Truly Epic Film', 'Genuine magnificent seven', 'The Magnificent Seven  The Prequel ', 'Not What It Is Cracked Up To Be', 'Good movie  mixes comedy drama  I fail see many consider great ', 'Kurosawa s triumphant epic totally  successfully driven character story', 'SelfSacrificing Samurai', 'One influential movie history', 'One Best Films Ever Made Japan', 'A cinematic masterpiece', 'An action movie dream', 'another long kurosawa', 'There s Not One Thing Wrong This Film', 'Great action movie driven story characters ', 'An amazing piece film  length alone discourage many possible viewers', 'Great Film  I think Kurosawa better']</t>
         </is>
       </c>
     </row>
@@ -43381,7 +43381,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>['horrific scene', 'A powerful movie ( opinion novice . )', 'A Heartbreaking Tragic Story Poverty Revenge', 'representing hypocrisy across eras', 'Sadly Overlooked', 'Not average samurai drama', 'Stunning work', 'Honour punishment .', 'Beautiful works many levels', 'Film Review - Harakiri ( 1962 ) 8.5/10', 'A Legendary tale Japanese Cinema Samurai Honour Traditional Facade .', 'Delicious', 'Death Over Dishonour', 'Great movie', 'Silly Japanese Kaka - Seppuku', "It 's film might scare modern audiences bit , deserves opportunity want give .", '`` What befalls others today , may fate tomorrow . ``', 'Gripping critique bushido', 'A genuine samurai classic .', 'Excellent atypical Samurai film', 'The Individual Unjust System', 'Humanism Samurai code honor', 'Samurai Genre Used Exposively Indict Japanese Politics Culture', 'A masterpiece', 'Brutal . One darker japanese movies']</t>
+          <t>['horrific scene', 'A powerful movie  opinion novice  ', 'A Heartbreaking Tragic Story Poverty Revenge', 'representing hypocrisy across eras', 'Sadly Overlooked', 'Not average samurai drama', 'Stunning work', 'Honour punishment ', 'Beautiful works many levels', 'Film Review  Harakiri  1962  8510', 'A Legendary tale Japanese Cinema Samurai Honour Traditional Facade ', 'Delicious', 'Death Over Dishonour', 'Great movie', 'Silly Japanese Kaka  Seppuku', 'It s film might scare modern audiences bit  deserves opportunity want give ', ' What befalls others today  may fate tomorrow  ', 'Gripping critique bushido', 'A genuine samurai classic ', 'Excellent atypical Samurai film', 'The Individual Unjust System', 'Humanism Samurai code honor', 'Samurai Genre Used Exposively Indict Japanese Politics Culture', 'A masterpiece', 'Brutal  One darker japanese movies']</t>
         </is>
       </c>
     </row>
@@ -43425,7 +43425,7 @@
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>["Dulquer Salmaan &amp; Mrunal Thakur 's Modern Version Of Veer Zaara Will Make You Fall In Love Again .", "It n't work way , like many others", 'A one time try !', 'The theme involves POK , Kashmir , Ind Vs Pak hatred still fell good sides', 'A beautiful love story', 'good romance long time', 'Feel good film ! !', 'A beautiful poetry screen .', 'A Poem Excellence Cinema', 'A Simply Outstanding Fairy-Tale Love Saga With A Burning Heart Laced By Brilliant Background Score ! ! !', 'A disarmingly charming romantic epic steal heart !', 'Epic beautiful', 'Heart touching love story', 'Movie drag', 'Gripping Romance But More Than Just A Love Story', 'Romance', 'Just One Word : - Epic', 'A potentially good script simplified', 'Overrated', 'Out Of Balance', 'A beautiful love story !', "Definitely Watch It - Slow Begin You Wo n't Regret", 'A classic !', 'Superb screenplay romantic emotional masterpiece movie', 'A heart true romantic movie']</t>
+          <t>['Dulquer Salmaan  Mrunal Thakur s Modern Version Of Veer Zaara Will Make You Fall In Love Again ', 'It nt work way  like many others', 'A one time try ', 'The theme involves POK  Kashmir  Ind Vs Pak hatred still fell good sides', 'A beautiful love story', 'good romance long time', 'Feel good film  ', 'A beautiful poetry screen ', 'A Poem Excellence Cinema', 'A Simply Outstanding FairyTale Love Saga With A Burning Heart Laced By Brilliant Background Score   ', 'A disarmingly charming romantic epic steal heart ', 'Epic beautiful', 'Heart touching love story', 'Movie drag', 'Gripping Romance But More Than Just A Love Story', 'Romance', 'Just One Word   Epic', 'A potentially good script simplified', 'Overrated', 'Out Of Balance', 'A beautiful love story ', 'Definitely Watch It  Slow Begin You Wo nt Regret', 'A classic ', 'Superb screenplay romantic emotional masterpiece movie', 'A heart true romantic movie']</t>
         </is>
       </c>
     </row>
@@ -43469,7 +43469,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>['Perhaps everyone .', 'great continuation', 'Meaningful', 'Spider-Man : Across Spider-Verse', 'My movie 2023 far .', '( Not ) one', 'At least step previous animated movie ...', 'Welcome Addition Spider-Man Movie Collection', 'The writing movie magnificently intricate . The depth characters , families perspectives well delivered .', 'Funny , scary , exciting - one watch crowded theater', 'Worth every minute five year wait', 'Spider-Man : Across Spider-Verse', 'If first film put bar stylised animation stratosphere , catapulted another dimension .', 'The amazing ... sequel ?', 'Half movie', 'His name Miles Davis', 'S2 : Spider-Men United', 'Masterful IMAX Spider-Man', 'My feelings sequel currently glitching', 'Bigger , Better &amp; Breathtaking Beyond Expectations', 'We live ( Spider ) Society .', 'You Are Not Alone ...', 'Spider-verse Madness', 'A dazzling follow-up Into Spider-Verse', 'Mesmerizing stylish superhero film .']</t>
+          <t>['Perhaps everyone ', 'great continuation', 'Meaningful', 'SpiderMan  Across SpiderVerse', 'My movie 2023 far ', ' Not  one', 'At least step previous animated movie ', 'Welcome Addition SpiderMan Movie Collection', 'The writing movie magnificently intricate  The depth characters  families perspectives well delivered ', 'Funny  scary  exciting  one watch crowded theater', 'Worth every minute five year wait', 'SpiderMan  Across SpiderVerse', 'If first film put bar stylised animation stratosphere  catapulted another dimension ', 'The amazing  sequel ', 'Half movie', 'His name Miles Davis', 'S2  SpiderMen United', 'Masterful IMAX SpiderMan', 'My feelings sequel currently glitching', 'Bigger  Better  Breathtaking Beyond Expectations', 'We live  Spider  Society ', 'You Are Not Alone ', 'Spiderverse Madness', 'A dazzling followup Into SpiderVerse', 'Mesmerizing stylish superhero film ']</t>
         </is>
       </c>
     </row>
@@ -43513,7 +43513,7 @@
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>['Often impressive beautiful , less stellar', 'problems great touches 2001', 'Intellectual , Although Sometimes Flawed Science Fiction', 'A visual masterpiece .', 'Out world', "It n't work , beautiful efforts", 'Great towards end ...', 'Absolutely Brilliant', 'Interstellar quite intriguing space movie requiring attention narrative', 'Emotionally captivating intellectually challenging', 'Good bit long', 'Sometimes Dull Overwritten Worth `` Watch ``', 'A sci-fi epic', 'When Earth Can No Longer Be Your Home', 'Long , dull WAY overpraised', 'A complicated science-fiction movie good', 'Is Christopher Nolan Ever Going Make Another Good Movie ?', 'Rave Close Day', 'Very nearly out-of-this-world', 'Stunning sci-fi !', 'Through Wormhole', 'Time &amp; Space', 'An space-epic sweeping scale yet intimate scope .', 'Another Nolan ego trip', 'Interstellar Underdrive']</t>
+          <t>['Often impressive beautiful  less stellar', 'problems great touches 2001', 'Intellectual  Although Sometimes Flawed Science Fiction', 'A visual masterpiece ', 'Out world', 'It nt work  beautiful efforts', 'Great towards end ', 'Absolutely Brilliant', 'Interstellar quite intriguing space movie requiring attention narrative', 'Emotionally captivating intellectually challenging', 'Good bit long', 'Sometimes Dull Overwritten Worth  Watch ', 'A scifi epic', 'When Earth Can No Longer Be Your Home', 'Long  dull WAY overpraised', 'A complicated sciencefiction movie good', 'Is Christopher Nolan Ever Going Make Another Good Movie ', 'Rave Close Day', 'Very nearly outofthisworld', 'Stunning scifi ', 'Through Wormhole', 'Time  Space', 'An spaceepic sweeping scale yet intimate scope ', 'Another Nolan ego trip', 'Interstellar Underdrive']</t>
         </is>
       </c>
     </row>
@@ -43557,7 +43557,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>['A great director peak talents', 'The Criminal Mindset', 'This American Classic', 'A Masterpiece That Gets Better With Each New Viewing', 'A Real Portrayal All That Is Bad', "Martin Scorsese 's masterpiece .", 'Bad Fellas', 'Classic modern day gangster film', 'Violent overlong quintaessential mobster movie competently made Scorsese', 'How Joe Pesci funny ? Probably reason masterpiece .', 'One great mob movies', 'One best Mafia films ever made .', 'The Quintessential Gangster Film ?', 'Can A Sick Film Be A Good One , ? I Guess So .', 'Wiseguy mayhem , artistic triumph occasionally off-putting', 'favorite film', 'Goodfellas good , great , Martin Scorsese picture', 'Liotta', 'Just Bunch Neighborhood Guys', 'Masterful Manipulation', 'Brilliant', "In world 's powered violence , streets violent power , new generation carries old tradition .", 'In Reality They ` A Bunch Of Bad Fellas', 'An Inside Look', 'True gangster saga packs wallop ...']</t>
+          <t>['A great director peak talents', 'The Criminal Mindset', 'This American Classic', 'A Masterpiece That Gets Better With Each New Viewing', 'A Real Portrayal All That Is Bad', 'Martin Scorsese s masterpiece ', 'Bad Fellas', 'Classic modern day gangster film', 'Violent overlong quintaessential mobster movie competently made Scorsese', 'How Joe Pesci funny  Probably reason masterpiece ', 'One great mob movies', 'One best Mafia films ever made ', 'The Quintessential Gangster Film ', 'Can A Sick Film Be A Good One   I Guess So ', 'Wiseguy mayhem  artistic triumph occasionally offputting', 'favorite film', 'Goodfellas good  great  Martin Scorsese picture', 'Liotta', 'Just Bunch Neighborhood Guys', 'Masterful Manipulation', 'Brilliant', 'In world s powered violence  streets violent power  new generation carries old tradition ', 'In Reality They  A Bunch Of Bad Fellas', 'An Inside Look', 'True gangster saga packs wallop ']</t>
         </is>
       </c>
     </row>
@@ -43601,7 +43601,7 @@
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>['A sci-fi action thriller milestone', 'Ultra cool sci-fi', 'Wow ! I Finally Saw It !', 'masterpiece', 'Life reality', 'The Matrix epic movie .', 'Blender', 'Perfect sci-fi , great action perfect plot internet loser generation ( like ! )', 'A watchable action sci-fi movie still over-hyped ...', 'Top-notch movie impressive production design , marvelous effects incredible visual designs', 'Watch original , sequels .', 'Whoa !', 'A Bit Confusing But A Big F/X Treat', 'One best DVDs far , much movie !', '`` After , turning back ... ``', 'What hell `` Matrix ? ``', 'Awesome sci-fi flick !', 'Keanu Reeves Wonderland', 'Which , red pill blue pill ?', 'A computer world Alice Wonderland . Sci-fi greatness !', '`` Ignorance Bliss ``', 'Vastly overrated', 'Good First Time You See It', 'And introducing Wachowski Brothers', 'World Wire']</t>
+          <t>['A scifi action thriller milestone', 'Ultra cool scifi', 'Wow  I Finally Saw It ', 'masterpiece', 'Life reality', 'The Matrix epic movie ', 'Blender', 'Perfect scifi  great action perfect plot internet loser generation  like  ', 'A watchable action scifi movie still overhyped ', 'Topnotch movie impressive production design  marvelous effects incredible visual designs', 'Watch original  sequels ', 'Whoa ', 'A Bit Confusing But A Big FX Treat', 'One best DVDs far  much movie ', ' After  turning back  ', 'What hell  Matrix  ', 'Awesome scifi flick ', 'Keanu Reeves Wonderland', 'Which  red pill blue pill ', 'A computer world Alice Wonderland  Scifi greatness ', ' Ignorance Bliss ', 'Vastly overrated', 'Good First Time You See It', 'And introducing Wachowski Brothers', 'World Wire']</t>
         </is>
       </c>
     </row>
@@ -43645,7 +43645,7 @@
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>['So much good movie ...', 'Classic movie', 'The Ultimate Backfire', 'Great acting performances everybody', 'One Greatest Ever Made', 'Excellent Film-making ; Excellent Casting', 'film', 'Joker ward', 'One greatest time .', 'This remain classic time .', 'Very Fine Film', 'Among best ever scheme', 'Looking At This Famous Film Then , And Now', 'Just saw DVD , classic !', 'Difficult , fascinating drama runs pure emotion , logic ...', 'Best film era', 'Insanely perfect', 'Incredibly well acted', 'Surviving Nut House * * *', 'Great , original movie', 'Wonderfully Upsetting', 'Fly', 'This movie gives everything - laughs , cheers tears . One American cinematic gems .', 'One Last Anti-Establishment Films 1970s', 'A perfect mixture entertainment drama .']</t>
+          <t>['So much good movie ', 'Classic movie', 'The Ultimate Backfire', 'Great acting performances everybody', 'One Greatest Ever Made', 'Excellent Filmmaking  Excellent Casting', 'film', 'Joker ward', 'One greatest time ', 'This remain classic time ', 'Very Fine Film', 'Among best ever scheme', 'Looking At This Famous Film Then  And Now', 'Just saw DVD  classic ', 'Difficult  fascinating drama runs pure emotion  logic ', 'Best film era', 'Insanely perfect', 'Incredibly well acted', 'Surviving Nut House   ', 'Great  original movie', 'Wonderfully Upsetting', 'Fly', 'This movie gives everything  laughs  cheers tears  One American cinematic gems ', 'One Last AntiEstablishment Films 1970s', 'A perfect mixture entertainment drama ']</t>
         </is>
       </c>
     </row>
@@ -43689,7 +43689,7 @@
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>['Manages even better New Hope , brilliant', 'Exile To Hoth', 'Best Star Wars FILM', 'A Bigger To Some Better Sequel', 'Two Cents Worth', 'dark . useful', 'One best films ever made .', 'Fantastic Sequel', 'All fun original much better , darker plot', 'The embodiment Star Wars ...', 'Riveting excellent second picture epic Star Wars trilogy finds young Luke Rebel Alliance plotting new strategies', 'I guess Force original series forever !', "Why ca n't make like ?", 'The Way Star Wars Was Meant To Be', 'Big Improvement Over The First Star Wars', 'A worthy second ( 5th ? ? ) Star Wars installment , might best bunch .', 'And strikes back bang', 'Involved , occasionally rousing , lacking spirit ...', 'One Best Films Ever Made !', 'The standout film series far .', 'Rich Rewarding ... Beautifully Done ... Perfect Production Personafied', 'The Son', "It 's Good But Is It Really That Great ?", 'Pure Brilliance', 'Better first']</t>
+          <t>['Manages even better New Hope  brilliant', 'Exile To Hoth', 'Best Star Wars FILM', 'A Bigger To Some Better Sequel', 'Two Cents Worth', 'dark  useful', 'One best films ever made ', 'Fantastic Sequel', 'All fun original much better  darker plot', 'The embodiment Star Wars ', 'Riveting excellent second picture epic Star Wars trilogy finds young Luke Rebel Alliance plotting new strategies', 'I guess Force original series forever ', 'Why ca nt make like ', 'The Way Star Wars Was Meant To Be', 'Big Improvement Over The First Star Wars', 'A worthy second  5th    Star Wars installment  might best bunch ', 'And strikes back bang', 'Involved  occasionally rousing  lacking spirit ', 'One Best Films Ever Made ', 'The standout film series far ', 'Rich Rewarding  Beautifully Done  Perfect Production Personafied', 'The Son', 'It s Good But Is It Really That Great ', 'Pure Brilliance', 'Better first']</t>
         </is>
       </c>
     </row>
@@ -43733,7 +43733,7 @@
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>['A Major achievement Tamil Cinema Suriya making Perfect Biographical Classic .', 'Yes ! Surya makes dashing comeback ! [ +72 % ]', 'Finest biography tamil cinema .. !', 'Truly great , much dramatization .', 'Soorarai Pottru', 'The best biography made', 'Inspiring far reality ! !', "A brilliant Suriya anchors well-directed biopic , inspiring tale India 's low cost aviation pioneer Captain G R Gopinath", 'Why suriya sir ?', 'BEST FILM OF THE YEAR', 'Regal !', 'What amazing movie', 'Soorarai Pottru', 'The theatre worthy film .', 'Must watch film', "Do n't fall negative reviews", 'What amazing movie', 'World Class .', 'Gem Indian film industry', 'Great realistic movie', 'Excellent Biopic', 'What film !', 'Soorarai Potru - Suriya Aparna shines normal drama Sudha Kongara', 'MASTERPIECE .', 'Intense energetic']</t>
+          <t>['A Major achievement Tamil Cinema Suriya making Perfect Biographical Classic ', 'Yes  Surya makes dashing comeback   72  ', 'Finest biography tamil cinema  ', 'Truly great  much dramatization ', 'Soorarai Pottru', 'The best biography made', 'Inspiring far reality  ', 'A brilliant Suriya anchors welldirected biopic  inspiring tale India s low cost aviation pioneer Captain G R Gopinath', 'Why suriya sir ', 'BEST FILM OF THE YEAR', 'Regal ', 'What amazing movie', 'Soorarai Pottru', 'The theatre worthy film ', 'Must watch film', 'Do nt fall negative reviews', 'What amazing movie', 'World Class ', 'Gem Indian film industry', 'Great realistic movie', 'Excellent Biopic', 'What film ', 'Soorarai Potru  Suriya Aparna shines normal drama Sudha Kongara', 'MASTERPIECE ', 'Intense energetic']</t>
         </is>
       </c>
     </row>
@@ -43777,7 +43777,7 @@
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>['R. Madhavan Ensures A Safe Take-Off While Unfolding The Dramatic Life Of Nambi Nayanan Filled With Unbearable Strife .', 'A film , every citizen country watch !', 'Good biography .. !', 'Real Nambi effect ...', "india 's biggest failure presented poorly", 'No words define', 'Astronomical effort ! !', 'Amme Bhagavathi !', 'A story heard', 'Poignant saga innocent scientist thrown jail', "R Madhavan Starrer 'Rocketry : The Nambi Effect ' Perfection Direction ! ! !", 'based Nambi Narayanan , Indian scientist', 'Superbly made , masses', 'Masterpiece Movie', 'Well done R. Madhavan', 'Rocketry-the nambi effect', 'This Story needs told &amp; heard .. ! 👍', 'An ordinary film extraordinary man', 'Well Made And Watchable But Apparently Not The Entire Story', 'Heart breaking', 'Flawed , hats effort', 'A TRUE PATRIOTIC FILM', 'Madhavan excels Nambi Narayanan !', 'Nambi Effect', 'Recommended 👍🏼 Hit Ya Flop - Movie World']</t>
+          <t>['R Madhavan Ensures A Safe TakeOff While Unfolding The Dramatic Life Of Nambi Nayanan Filled With Unbearable Strife ', 'A film  every citizen country watch ', 'Good biography  ', 'Real Nambi effect ', 'india s biggest failure presented poorly', 'No words define', 'Astronomical effort  ', 'Amme Bhagavathi ', 'A story heard', 'Poignant saga innocent scientist thrown jail', 'R Madhavan Starrer Rocketry  The Nambi Effect  Perfection Direction   ', 'based Nambi Narayanan  Indian scientist', 'Superbly made  masses', 'Masterpiece Movie', 'Well done R Madhavan', 'Rocketrythe nambi effect', 'This Story needs told  heard   ', 'An ordinary film extraordinary man', 'Well Made And Watchable But Apparently Not The Entire Story', 'Heart breaking', 'Flawed  hats effort', 'A TRUE PATRIOTIC FILM', 'Madhavan excels Nambi Narayanan ', 'Nambi Effect', 'Recommended  Hit Ya Flop  Movie World']</t>
         </is>
       </c>
     </row>
@@ -43821,7 +43821,7 @@
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>['You love hate , personally I loved', "It 's Hard Take Your Eyes Away", 'useful', "It 's one best .", 'Visually stunning , conceptually brave odd sag', 'Scaled like apocalyptic street-nightmare ...', 'Quite accomplishment', 'The things ends owning .', "One Norton 's best , year", 'Do Not Go Gently Into This Good Fight', 'For ages', 'Wretched Unforgivable', 'Superb', 'Delightful Romantic comedy', 'This American cinematic gold absolutely must see', 'The things end owning .', 'One kind movie .', "Interesting unsettling , possibly David 's finest hour", 'Finding enlightenment thru beating pulp', '10', 'level nihilism hard enjoy', 'Tyler Durden &amp; Marla Singer', "Clearly I 'm target audience", "Ed Norton 's Brilliant !", 'A sardonic satire gets skin works multiple viewings .']</t>
+          <t>['You love hate  personally I loved', 'It s Hard Take Your Eyes Away', 'useful', 'It s one best ', 'Visually stunning  conceptually brave odd sag', 'Scaled like apocalyptic streetnightmare ', 'Quite accomplishment', 'The things ends owning ', 'One Norton s best  year', 'Do Not Go Gently Into This Good Fight', 'For ages', 'Wretched Unforgivable', 'Superb', 'Delightful Romantic comedy', 'This American cinematic gold absolutely must see', 'The things end owning ', 'One kind movie ', 'Interesting unsettling  possibly David s finest hour', 'Finding enlightenment thru beating pulp', '10', 'level nihilism hard enjoy', 'Tyler Durden  Marla Singer', 'Clearly I m target audience', 'Ed Norton s Brilliant ', 'A sardonic satire gets skin works multiple viewings ']</t>
         </is>
       </c>
     </row>
@@ -43865,7 +43865,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>['A good film , good hype', 'Dream Team', 'Oozing originality', 'Not Your Typical , Brainless Summer Movie', 'Come Back Again !', 'A complex , hypnotic , incredible thriller .', '( De- ) Constructing', 'Overrated Mess', 'Not hype suggests still enjoyable action thriller built good concept encourages thought afterwards', 'Mind-boggling ...', 'Overwhelming impressive movie frantic action , suspenseful state-of-art special effects', 'I dream', 'The ultimate mind-f * * k movie ? Dream .', 'Christopher Nolan Modern Directing Genius', '`` Take leap faith ... ``', 'What reality ... dream', '`` Take leap faith `` - hard', "Christopher Nolan 's Inception truly astounding piece work", 'Immersive', 'Probably film requires brain activity understand', 'Thick Unnecessarily `` Complicated ``', 'Superb - clever original', 'Another Drawn Out Overrated Movie By Nolan', 'Stupid , dull frustrating', 'Dream invasion focus strange ambiguous film ...']</t>
+          <t>['A good film  good hype', 'Dream Team', 'Oozing originality', 'Not Your Typical  Brainless Summer Movie', 'Come Back Again ', 'A complex  hypnotic  incredible thriller ', ' De  Constructing', 'Overrated Mess', 'Not hype suggests still enjoyable action thriller built good concept encourages thought afterwards', 'Mindboggling ', 'Overwhelming impressive movie frantic action  suspenseful stateofart special effects', 'I dream', 'The ultimate mindf   k movie  Dream ', 'Christopher Nolan Modern Directing Genius', ' Take leap faith  ', 'What reality  dream', ' Take leap faith   hard', 'Christopher Nolan s Inception truly astounding piece work', 'Immersive', 'Probably film requires brain activity understand', 'Thick Unnecessarily  Complicated ', 'Superb  clever original', 'Another Drawn Out Overrated Movie By Nolan', 'Stupid  dull frustrating', 'Dream invasion focus strange ambiguous film ']</t>
         </is>
       </c>
     </row>
@@ -43909,7 +43909,7 @@
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>['A solid start great trilogy', 'immersive new world', "I Do n't Know They Could Do It Much Better", 'One best films ever made .', 'And started ...', 'The Best Movie Fantasy Adventure Ever Made', "Very worthy n't I find fun watch ?", 'A solid story-driven movie ...', "Extraordinary film amazing visuals bringing Tolkien 's imaginary world mythology life", 'One ring - three great movies - rule .', 'A short review long film .', 'First , And Still The Best Of LOTR', 'Very high production values , long , perfect `` Ring `` fans .', 'We begin journey', 'Overkill', 'One best fantasy films new millenium', 'Visually stunning', 'Frodo Row Your Boat Ashore', 'A Masterpiece', 'Epic', 'Excellent', 'Set pieces ... battles ... set pieces ... battles ...', 'More character development longer version', 'Good', 'Such memorable trilogy']</t>
+          <t>['A solid start great trilogy', 'immersive new world', 'I Do nt Know They Could Do It Much Better', 'One best films ever made ', 'And started ', 'The Best Movie Fantasy Adventure Ever Made', 'Very worthy nt I find fun watch ', 'A solid storydriven movie ', 'Extraordinary film amazing visuals bringing Tolkien s imaginary world mythology life', 'One ring  three great movies  rule ', 'A short review long film ', 'First  And Still The Best Of LOTR', 'Very high production values  long  perfect  Ring  fans ', 'We begin journey', 'Overkill', 'One best fantasy films new millenium', 'Visually stunning', 'Frodo Row Your Boat Ashore', 'A Masterpiece', 'Epic', 'Excellent', 'Set pieces  battles  set pieces  battles ', 'More character development longer version', 'Good', 'Such memorable trilogy']</t>
         </is>
       </c>
     </row>
@@ -43953,7 +43953,7 @@
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>['6 Oscars ? !', 'The Hand Of An Unseen Providence', 'Tale worthy Frank Capra', 'Pure Charm', 'box chocolate', "Thirty years , 's still wonderful .", 'Mama said ...', 'A recent day classic ...', 'American History Through The Eyes Of A Simpleton', 'The Good &amp; The Bad Of Forrest Gump', 'A great fantasy story lifetime messages us .', "One best films 90 's", 'After 20 years , I still love Forrest Gump !', 'Jennayyy', 'Delicious Box Chocolates * * * *', 'Forrest', 'The role innocence positive thinking thus success ...', 'Even The Mentally Challenged Can Be A Master The Universe', 'Schmaltzy overly folksy , works', 'Best Picture Oscar winners like box chocolates .....', 'Only In America', 'Iconic', 'An Outstanding Movie', 'Everything movie perfect', 'The Ultimate Fad Movie']</t>
+          <t>['6 Oscars  ', 'The Hand Of An Unseen Providence', 'Tale worthy Frank Capra', 'Pure Charm', 'box chocolate', 'Thirty years  s still wonderful ', 'Mama said ', 'A recent day classic ', 'American History Through The Eyes Of A Simpleton', 'The Good  The Bad Of Forrest Gump', 'A great fantasy story lifetime messages us ', 'One best films 90 s', 'After 20 years  I still love Forrest Gump ', 'Jennayyy', 'Delicious Box Chocolates    ', 'Forrest', 'The role innocence positive thinking thus success ', 'Even The Mentally Challenged Can Be A Master The Universe', 'Schmaltzy overly folksy  works', 'Best Picture Oscar winners like box chocolates ', 'Only In America', 'Iconic', 'An Outstanding Movie', 'Everything movie perfect', 'The Ultimate Fad Movie']</t>
         </is>
       </c>
     </row>
@@ -43997,7 +43997,7 @@
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>['Among finest Westerns , though tastes', 'Nothing bad ugly movie , good', "So 's ?", 'Classic End Trilogy', 'The Absolute Essence Film', 'useful .', 'A Classic Western Movie With Unforgettable Soundtrack', 'Stylish entertaining drags badly often', 'Very entertaining Western ...', 'A revolutionary exciting Spaghetti Western', 'Clint , Lee Eli get serious', 'Leone overcooks spaghetti .', 'A Good Movie , But Had Some Annoying Flaws', "Just Is n't The Same Now , But Still Love The Soundtrack", 'Epic', 'Not Best Spaghetti Western', 'Okay', "I 'm looking owner horse . He 's tall , blonde , smokes cigar , 's pig !", 'Like', 'A good western overlong', 'Love', 'Probably Best Spaghetti Western Ever Filmed', 'This top 5 western American cinema masterpiece', 'God side hates idiots also .', 'One Best Films I Have Ever Seen']</t>
+          <t>['Among finest Westerns  though tastes', 'Nothing bad ugly movie  good', 'So s ', 'Classic End Trilogy', 'The Absolute Essence Film', 'useful ', 'A Classic Western Movie With Unforgettable Soundtrack', 'Stylish entertaining drags badly often', 'Very entertaining Western ', 'A revolutionary exciting Spaghetti Western', 'Clint  Lee Eli get serious', 'Leone overcooks spaghetti ', 'A Good Movie  But Had Some Annoying Flaws', 'Just Is nt The Same Now  But Still Love The Soundtrack', 'Epic', 'Not Best Spaghetti Western', 'Okay', 'I m looking owner horse  He s tall  blonde  smokes cigar  s pig ', 'Like', 'A good western overlong', 'Love', 'Probably Best Spaghetti Western Ever Filmed', 'This top 5 western American cinema masterpiece', 'God side hates idiots also ', 'One Best Films I Have Ever Seen']</t>
         </is>
       </c>
     </row>
@@ -44041,7 +44041,7 @@
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>['My personal favourite trilogy', 'impressive sequel', "It 's middle child movie .", 'A magical film .', 'Number two two ( towers )', 'A Sequel Same Level Original Movie', "Vastly better first film - Jackson 's Empire Strikes Back !", 'More action-packed previous movie ...', "A sensational over-the-top second part Jackson 's trilogy based novels written classic writer J. R. R Tolkien .", "One sequels equals original 's quality .", 'The middle film Middle Earth .', 'Greatest Fantasy Film All Time ?', 'A Second Look , With Subtitles In Parts , Made This Much Better', 'Second installment , great DVD , story bit muddled , movie mainly `` Ring `` fans .', "The Trilogy continues , 's good first ...", 'The Middle The Ring', 'As good first', 'Awesome', 'The one nothing happens', 'This fantasy masterpiece absolute must see', "That 's Mighty Gray Brown Movie You 've Made There Peter Jackson", 'Raises bar', 'Elves , Ents Orcs ... Oh My ! !', 'That Damned Ring', 'As good first .']</t>
+          <t>['My personal favourite trilogy', 'impressive sequel', 'It s middle child movie ', 'A magical film ', 'Number two two  towers ', 'A Sequel Same Level Original Movie', 'Vastly better first film  Jackson s Empire Strikes Back ', 'More actionpacked previous movie ', 'A sensational overthetop second part Jackson s trilogy based novels written classic writer J R R Tolkien ', 'One sequels equals original s quality ', 'The middle film Middle Earth ', 'Greatest Fantasy Film All Time ', 'A Second Look  With Subtitles In Parts  Made This Much Better', 'Second installment  great DVD  story bit muddled  movie mainly  Ring  fans ', 'The Trilogy continues  s good first ', 'The Middle The Ring', 'As good first', 'Awesome', 'The one nothing happens', 'This fantasy masterpiece absolute must see', 'That s Mighty Gray Brown Movie You ve Made There Peter Jackson', 'Raises bar', 'Elves  Ents Orcs  Oh My  ', 'That Damned Ring', 'As good first ']</t>
         </is>
       </c>
     </row>
@@ -44085,7 +44085,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>["It 's terrific film .", 'Take American : mixed bag !', 'Tamil Tragedy , Turmoil &amp; Torture ...', 'Simply amazing ...', 'Brutal ( perhaps brutal ) legal drama', 'Captivating , well acted n thought provoking . Not single dull moment . Definitely deserves Oscar .', 'An artsy approach would preferable', 'Suriya &amp; Co. deliver hard-hitting social issue drama ! [ +73 % ]', 'It could become documentary point , ....', 'Jai Bhim', 'South Indian Industry rocking', "Do Yourself A Favor , Leave Everything And Watch Suriya 's Hard-Hitting Drama", 'good one Surya long time', 'Predictable engaging !', 'Just mindblowing', 'Taut screenplay , stark realism high class acting', 'Brilliant , hard-hitting &amp; must watch .', 'A hard-hitting courtroom drama custodial violence !', "Did n't live expectations", 'An intense battle security law - may truth prevail !', 'Most Powerfull Movie', 'Boring Lawyer Movie', 'Casteism exist 21st century India ...', 'This movie hour long', 'Jai Bhim , Jai Chandru , Jai Hind !']</t>
+          <t>['It s terrific film ', 'Take American  mixed bag ', 'Tamil Tragedy  Turmoil  Torture ', 'Simply amazing ', 'Brutal  perhaps brutal  legal drama', 'Captivating  well acted n thought provoking  Not single dull moment  Definitely deserves Oscar ', 'An artsy approach would preferable', 'Suriya  Co deliver hardhitting social issue drama   73  ', 'It could become documentary point  ', 'Jai Bhim', 'South Indian Industry rocking', 'Do Yourself A Favor  Leave Everything And Watch Suriya s HardHitting Drama', 'good one Surya long time', 'Predictable engaging ', 'Just mindblowing', 'Taut screenplay  stark realism high class acting', 'Brilliant  hardhitting  must watch ', 'A hardhitting courtroom drama custodial violence ', 'Did nt live expectations', 'An intense battle security law  may truth prevail ', 'Most Powerfull Movie', 'Boring Lawyer Movie', 'Casteism exist 21st century India ', 'This movie hour long', 'Jai Bhim  Jai Chandru  Jai Hind ']</t>
         </is>
       </c>
     </row>
@@ -44129,7 +44129,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>['You fall love Charlie !', 'Packed almost everything expect dog movie ! [ +63 % ]', 'Good dog lovers .. !', 'No Hollywood Pet cliche , filled Indian cliches', "get know dog lover 's life", 'A Highly Emotional Roller Coaster Ride', 'Everyone beating heart go see !', 'A Soul-stirring adventure drama steal heart !', 'One Best', 'Makes cry genuinely ! Makes love life !', 'Wholesome emotional drama', 'Emotional Rollercoaster', 'Dog Love', 'An intense emotional saga man n pet !', 'Highly Recommended 👍🏼 Hit Ya Flop - Movie World', 'Story unconditional love', 'Well made entertainer ! !', 'A soulful journey god ( dog )', 'Probably best movie ever Dog lovers !', '777 Charlie - The best emotional roller coaster .', 'You going fall love Charlie 🐶', '777Charlie 4.25/5 . An emotional epic👌', 'Masterpiece', 'Beautiful feel good movie', 'Must watch ! ! !']</t>
+          <t>['You fall love Charlie ', 'Packed almost everything expect dog movie   63  ', 'Good dog lovers  ', 'No Hollywood Pet cliche  filled Indian cliches', 'get know dog lover s life', 'A Highly Emotional Roller Coaster Ride', 'Everyone beating heart go see ', 'A Soulstirring adventure drama steal heart ', 'One Best', 'Makes cry genuinely  Makes love life ', 'Wholesome emotional drama', 'Emotional Rollercoaster', 'Dog Love', 'An intense emotional saga man n pet ', 'Highly Recommended  Hit Ya Flop  Movie World', 'Story unconditional love', 'Well made entertainer  ', 'A soulful journey god  dog ', 'Probably best movie ever Dog lovers ', '777 Charlie  The best emotional roller coaster ', 'You going fall love Charlie ', '777Charlie 4255  An emotional epic', 'Masterpiece', 'Beautiful feel good movie', 'Must watch   ']</t>
         </is>
       </c>
     </row>
@@ -44173,7 +44173,7 @@
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>['Brilliantly constructed .', 'One best films 90s', 'Quentin Tarantino breaks', 'Masterpiece Characters Dialogue', 'One Funniest Movies Ever', 'memorable Tarantino', 'Iconic .', 'One My Favorite Movies Ever', "Energetic imaginative - making 's lack real heart great wealth dialogue characters", 'Quite movie ...', "There 's nothing fictional movie 's high quality .", "Tarantino 's magnum opus .", "Considered Tarantino 's Masterpiece ... Set New Standard", 'Mark genius', 'Love-Hate : Been There/Done That', 'Love hate , I give `` 5 `` 10 style !', 'Kinetic sneaky , narcotizing primal ...', "One Best Film 's I 've Seen In A LONG Time ... still", 'Fresh Flavorful', 'Brilliant beyond comparison', 'Ah , rationale , pig better personality , would cease filthy animal . Is true ?', 'Sam Jackson Steals Show', 'Darkly humorous tale laced profanity corruption ...', 'Shotguns', "I n't get point"]</t>
+          <t>['Brilliantly constructed ', 'One best films 90s', 'Quentin Tarantino breaks', 'Masterpiece Characters Dialogue', 'One Funniest Movies Ever', 'memorable Tarantino', 'Iconic ', 'One My Favorite Movies Ever', 'Energetic imaginative  making s lack real heart great wealth dialogue characters', 'Quite movie ', 'There s nothing fictional movie s high quality ', 'Tarantino s magnum opus ', 'Considered Tarantino s Masterpiece  Set New Standard', 'Mark genius', 'LoveHate  Been ThereDone That', 'Love hate  I give  5  10 style ', 'Kinetic sneaky  narcotizing primal ', 'One Best Film s I ve Seen In A LONG Time  still', 'Fresh Flavorful', 'Brilliant beyond comparison', 'Ah  rationale  pig better personality  would cease filthy animal  Is true ', 'Sam Jackson Steals Show', 'Darkly humorous tale laced profanity corruption ', 'Shotguns', 'I nt get point']</t>
         </is>
       </c>
     </row>
@@ -44217,7 +44217,7 @@
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>['Amazing non-stop action eye-popping skyscraper scenes !', 'Very well made , moody gripping brilliant Heath Ledger , tad bloated', 'Dark , bleak , uncompromising', 'Heath Ledger makes great', 'Great Film', "I 've Gone Batty !", 'Quite astonishing movie .', 'Watch IMAX version', 'Sometimes Truth Good Enough', 'Impressive blockbuster dark tone , plot , characters delivery making satisfyingly `` grown-up ``', 'The caped crusader steps ...', 'Noisy action , thrills , chills dazzling production design', 'worlds twisted morality', "The film word 'overrated ' invented .", 'About Perfect Batman Film Could Ever Be', 'A dark Batman film', 'A terrorist plot complicated convoluted , would derail even 007 ...', 'Dark ... Darker ... Darkest ... The Dark Knight .', 'The Dark Knight another awesome Batman movie Christopher Nolan', 'The Jokers wild', 'For first time , two half hours feels short !', 'Modern Enough ... Stylish Enough Batman', 'Excellent', 'The Noir Card', 'Move Jack Nicholson']</t>
+          <t>['Amazing nonstop action eyepopping skyscraper scenes ', 'Very well made  moody gripping brilliant Heath Ledger  tad bloated', 'Dark  bleak  uncompromising', 'Heath Ledger makes great', 'Great Film', 'I ve Gone Batty ', 'Quite astonishing movie ', 'Watch IMAX version', 'Sometimes Truth Good Enough', 'Impressive blockbuster dark tone  plot  characters delivery making satisfyingly  grownup ', 'The caped crusader steps ', 'Noisy action  thrills  chills dazzling production design', 'worlds twisted morality', 'The film word overrated  invented ', 'About Perfect Batman Film Could Ever Be', 'A dark Batman film', 'A terrorist plot complicated convoluted  would derail even 007 ', 'Dark  Darker  Darkest  The Dark Knight ', 'The Dark Knight another awesome Batman movie Christopher Nolan', 'The Jokers wild', 'For first time  two half hours feels short ', 'Modern Enough  Stylish Enough Batman', 'Excellent', 'The Noir Card', 'Move Jack Nicholson']</t>
         </is>
       </c>
     </row>
@@ -44261,7 +44261,7 @@
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>["Incredibly moving visually disturbing , Spielburg 's best far !", "Spielberg 's important work", "It 's About Our Humanity", 'portrait evil', 'One best movies ever made .', 'Powerful moving exactly fun night !', 'Possibly THE BEST example Best Picture winner', 'A Now-Classic Tale Salvation In Poland', 'The best movie ever made topic', 'One great films 20th century .', 'Courageous film Spielberg', "One Best Films Ever Made . Spielberg 's Best", 'Tragically beautiful', '* * * * Superlative Holocaust Film A Treasure .', 'A three hour film feels short', 'Powerful , edifying , emotional movie', 'The More I See It The Less I Like It', 'Shattering impact ... one great films time !', 'Split Personality', "I could got . I could got . I n't know . If I 'd ... I could got .", "Spielberg 's Entrance Adulthood", 'Powerful essential movie .', 'A fantastic movie , work art', "Triumph Human Spirit : Spielberg 's masterpiece", 'Shattering Film Masterpiece .']</t>
+          <t>['Incredibly moving visually disturbing  Spielburg s best far ', 'Spielberg s important work', 'It s About Our Humanity', 'portrait evil', 'One best movies ever made ', 'Powerful moving exactly fun night ', 'Possibly THE BEST example Best Picture winner', 'A NowClassic Tale Salvation In Poland', 'The best movie ever made topic', 'One great films 20th century ', 'Courageous film Spielberg', 'One Best Films Ever Made  Spielberg s Best', 'Tragically beautiful', '    Superlative Holocaust Film A Treasure ', 'A three hour film feels short', 'Powerful  edifying  emotional movie', 'The More I See It The Less I Like It', 'Shattering impact  one great films time ', 'Split Personality', 'I could got  I could got  I nt know  If I d  I could got ', 'Spielberg s Entrance Adulthood', 'Powerful essential movie ', 'A fantastic movie  work art', 'Triumph Human Spirit  Spielberg s masterpiece', 'Shattering Film Masterpiece ']</t>
         </is>
       </c>
     </row>
@@ -44305,7 +44305,7 @@
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>['My review film pretty unimportant .', 'One best sequels ever made', 'Good , good first', 'The Continuing Saga Of The Corleones', 'Michael takes', 'Rather Amazing How Perfect This Turned Out', 'No More Sequel Odyssey Iliad', 'masterpiece', 'One greatest movies ever made .', 'Back forth', 'A rich epic based great performances - little lush still great tale corrupting nature power', "It's-a good .", 'In Some Ways Even Better Than First One ...', 'Not Far Behind The First Film', 'One best sequels ever made', 'The Godfather : Part II even better predecessor', "If You Liked First One ! You 'll Love Sequel !", 'Great follow-up one greatest movies ever made', 'Not quite first Godfather film -- chilling enough ...', 'An Excellent Sequel', 'Another three hours ?', '`` If anything life certain , history taught us anything , kill anyone . ``', 'A cinematic masterpiece', 'Oh , Those Corleones ....', 'This business chosen']</t>
+          <t>['My review film pretty unimportant ', 'One best sequels ever made', 'Good  good first', 'The Continuing Saga Of The Corleones', 'Michael takes', 'Rather Amazing How Perfect This Turned Out', 'No More Sequel Odyssey Iliad', 'masterpiece', 'One greatest movies ever made ', 'Back forth', 'A rich epic based great performances  little lush still great tale corrupting nature power', 'Itsa good ', 'In Some Ways Even Better Than First One ', 'Not Far Behind The First Film', 'One best sequels ever made', 'The Godfather  Part II even better predecessor', 'If You Liked First One  You ll Love Sequel ', 'Great followup one greatest movies ever made', 'Not quite first Godfather film  chilling enough ', 'An Excellent Sequel', 'Another three hours ', ' If anything life certain  history taught us anything  kill anyone  ', 'A cinematic masterpiece', 'Oh  Those Corleones ', 'This business chosen']</t>
         </is>
       </c>
     </row>
@@ -44349,7 +44349,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>['Pretty much outstanding', 'awards winning epic', 'I lived see !', 'I doubt ever film made quality .', 'The End near ...', 'The Conclusion Adventure Same Level Other Two Parts Splendid Story', 'My objective unhyped view ? Stunning . Simply stunning .', 'Phenomenal ...', 'Awesome follow-up amazing visuals groundbreaking special effects', "3rd time 's charm ( n't get wrong ; first two equally good ) .", 'Superelf rescue ...', 'Two Words : Overkill &amp; Excessive', 'Minor flaws aside , LOTR proves one successful trilogies modern film', 'Along Came Spider', 'Style substance', 'Almost Perfect', "Ca n't say I liked", "There nothing n't perfect movie except never want end .", "Oh God 's Sake , End Already !", 'The journey destination well worth investment time', "Saving best last : Long Live 'The King ' ! ! ! !", 'Too much CGI , redundancy , clichés drawn `` looks love `` tastes', 'Very good end good set movies .', 'The Lord Rings : The Return King', 'A legitimately great movie']</t>
+          <t>['Pretty much outstanding', 'awards winning epic', 'I lived see ', 'I doubt ever film made quality ', 'The End near ', 'The Conclusion Adventure Same Level Other Two Parts Splendid Story', 'My objective unhyped view  Stunning  Simply stunning ', 'Phenomenal ', 'Awesome followup amazing visuals groundbreaking special effects', '3rd time s charm  nt get wrong  first two equally good  ', 'Superelf rescue ', 'Two Words  Overkill  Excessive', 'Minor flaws aside  LOTR proves one successful trilogies modern film', 'Along Came Spider', 'Style substance', 'Almost Perfect', 'Ca nt say I liked', 'There nothing nt perfect movie except never want end ', 'Oh God s Sake  End Already ', 'The journey destination well worth investment time', 'Saving best last  Long Live The King     ', 'Too much CGI  redundancy  clichs drawn  looks love  tastes', 'Very good end good set movies ', 'The Lord Rings  The Return King', 'A legitimately great movie']</t>
         </is>
       </c>
     </row>
@@ -44393,7 +44393,7 @@
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>['Brilliant , brilliant , brilliant ! !', 'A Very Flawed classic', 'movie actors', 'Masterpiece', 'An outstanding movie .', 'Classic every sense moment frame', 'The material slightly forced dramatic purposes delivery perfect across board', 'A top-notch cast superb direction Sidney Lumet makes movie excellent every aspect', 'I find movie guilty masterpiece .', 'Deservedly Top Ten Film', 'A bit overwrought , over-directed , compelling nonetheless ...', 'tight ball male-dominated classic cinema', 'From 1 11 11 1 one brilliant films history !', '12 Angry Men Cliché Ridden * * 1/2', 'The Power Persuasion', 'I wish I could rate 12 stars', 'A masterpiece acting filmmaking .', 'A timeless film shows flaws jury system', 'Good quite preachy', 'No Dissonance', 'Unlikely , possible .', 'An Anti-Cinema Classic . Know What I Mean ?', 'I Felt Like 13th Juror', 'Claustrophobic compelling story jury conflict murder trial ...', 'Questions prejuducial judgement !']</t>
+          <t>['Brilliant  brilliant  brilliant  ', 'A Very Flawed classic', 'movie actors', 'Masterpiece', 'An outstanding movie ', 'Classic every sense moment frame', 'The material slightly forced dramatic purposes delivery perfect across board', 'A topnotch cast superb direction Sidney Lumet makes movie excellent every aspect', 'I find movie guilty masterpiece ', 'Deservedly Top Ten Film', 'A bit overwrought  overdirected  compelling nonetheless ', 'tight ball maledominated classic cinema', 'From 1 11 11 1 one brilliant films history ', '12 Angry Men Clich Ridden   12', 'The Power Persuasion', 'I wish I could rate 12 stars', 'A masterpiece acting filmmaking ', 'A timeless film shows flaws jury system', 'Good quite preachy', 'No Dissonance', 'Unlikely  possible ', 'An AntiCinema Classic  Know What I Mean ', 'I Felt Like 13th Juror', 'Claustrophobic compelling story jury conflict murder trial ', 'Questions prejuducial judgement ']</t>
         </is>
       </c>
     </row>
@@ -44437,7 +44437,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>["# 2 IMDb 's Top 100 , multi-Oscar-winner 1500 reviews ... I say movie ? !", "I 'm finding hard describe amazing movie", "Everything 've ever heard true ...", 'The Don And His Sons', 'Truly Godfather movies', 'Quite Amazing What Coppola Pulled Off', 'Film Perfection : Cinematic Mona Lisa', 'unique', 'The Godfather', 'One best time .', 'And begins', 'A sprawling , epic , Mafia masterpiece', 'Be sure give respect deserves .', 'Greatest Movie World History ? Maybe . Maybe Not .', 'The genuine DNA Sicilian Mafia film', 'Simply great classic , number one many lists .', 'Epic adaptation , cornerstone 1970s cinema ...', 'obvious word : masterpiece', 'The Godfather compelling film watch though I stop considering one greatest time', "`` Do n't ever take sides family . ``", 'No Movie Best Movie Ever', 'A genre-defining masterpiece', 'A masterpiece', 'Brilliant , engrossing study organized crime family ...', 'An Excellent Movie']</t>
+          <t>[' 2 IMDb s Top 100  multiOscarwinner 1500 reviews  I say movie  ', 'I m finding hard describe amazing movie', 'Everything ve ever heard true ', 'The Don And His Sons', 'Truly Godfather movies', 'Quite Amazing What Coppola Pulled Off', 'Film Perfection  Cinematic Mona Lisa', 'unique', 'The Godfather', 'One best time ', 'And begins', 'A sprawling  epic  Mafia masterpiece', 'Be sure give respect deserves ', 'Greatest Movie World History  Maybe  Maybe Not ', 'The genuine DNA Sicilian Mafia film', 'Simply great classic  number one many lists ', 'Epic adaptation  cornerstone 1970s cinema ', 'obvious word  masterpiece', 'The Godfather compelling film watch though I stop considering one greatest time', ' Do nt ever take sides family  ', 'No Movie Best Movie Ever', 'A genredefining masterpiece', 'A masterpiece', 'Brilliant  engrossing study organized crime family ', 'An Excellent Movie']</t>
         </is>
       </c>
     </row>
@@ -44481,7 +44481,7 @@
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>['Freeman gives depth', 'impressive', 'The Shawshank Redemption', 'An incredible movie . One lives .', 'An extraordinary unforgettable film bank veep convicted murders sentenced toughest prison', 'never give hope', 'IMDb Greatest Film All Time', 'Why ranked highly .', 'A genre picture , satisfying one ...', 'Exceptional', 'Beautiful movie', 'Breaking Big Rocks Into Little Rocks', 'Superb', 'Relentless Storytelling', 'Shawshank Redemption Comes Out Clean', "Stephen King 's prison tale happy ending ...", 'Over Rated', 'Highly Overrated But Still Good', "There 's much like film .", "Entertaining Prison Movie Is n't Nearly Good Its Rabid Fan Base Would Lead You Believe", 'Tedious , overlong , `` hope `` second word spoken every sentence ... cares ?', 'Excellent Stephen King adaptation ; flawless Robbins &amp; Freeman', 'Observations ...', 'A film Eloquence', 'A great film helping hand leading end-around justice']</t>
+          <t>['Freeman gives depth', 'impressive', 'The Shawshank Redemption', 'An incredible movie  One lives ', 'An extraordinary unforgettable film bank veep convicted murders sentenced toughest prison', 'never give hope', 'IMDb Greatest Film All Time', 'Why ranked highly ', 'A genre picture  satisfying one ', 'Exceptional', 'Beautiful movie', 'Breaking Big Rocks Into Little Rocks', 'Superb', 'Relentless Storytelling', 'Shawshank Redemption Comes Out Clean', 'Stephen King s prison tale happy ending ', 'Over Rated', 'Highly Overrated But Still Good', 'There s much like film ', 'Entertaining Prison Movie Is nt Nearly Good Its Rabid Fan Base Would Lead You Believe', 'Tedious  overlong   hope  second word spoken every sentence  cares ', 'Excellent Stephen King adaptation  flawless Robbins  Freeman', 'Observations ', 'A film Eloquence', 'A great film helping hand leading endaround justice']</t>
         </is>
       </c>
     </row>
